--- a/contra_costa_county_testing.xlsx
+++ b/contra_costa_county_testing.xlsx
@@ -376,7 +376,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G174"/>
+  <dimension ref="A1:G175"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -428,13 +428,13 @@
         <v>21.285714285714</v>
       </c>
       <c r="E2" s="2">
-        <v>5655</v>
+        <v>5656</v>
       </c>
       <c r="F2" s="2">
         <v>330</v>
       </c>
       <c r="G2" s="4">
-        <v>0.068129858253</v>
+        <v>0.068098720292</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -451,13 +451,13 @@
         <v>24.714285714285</v>
       </c>
       <c r="E3" s="2">
-        <v>6023</v>
+        <v>6024</v>
       </c>
       <c r="F3" s="2">
         <v>368</v>
       </c>
       <c r="G3" s="4">
-        <v>0.08031569173600001</v>
+        <v>0.080278422273</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -474,13 +474,13 @@
         <v>27.142857142857</v>
       </c>
       <c r="E4" s="2">
-        <v>6457</v>
+        <v>6458</v>
       </c>
       <c r="F4" s="2">
         <v>434</v>
       </c>
       <c r="G4" s="4">
-        <v>0.08675799086700001</v>
+        <v>0.086718393427</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -497,13 +497,13 @@
         <v>28</v>
       </c>
       <c r="E5" s="2">
-        <v>6644</v>
+        <v>6645</v>
       </c>
       <c r="F5" s="2">
         <v>187</v>
       </c>
       <c r="G5" s="4">
-        <v>0.089253187613</v>
+        <v>0.089212562585</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -520,13 +520,13 @@
         <v>28</v>
       </c>
       <c r="E6" s="2">
-        <v>6810</v>
+        <v>6811</v>
       </c>
       <c r="F6" s="2">
         <v>166</v>
       </c>
       <c r="G6" s="4">
-        <v>0.089293849658</v>
+        <v>0.089253187613</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -543,7 +543,7 @@
         <v>27</v>
       </c>
       <c r="E7" s="2">
-        <v>7186</v>
+        <v>7187</v>
       </c>
       <c r="F7" s="2">
         <v>376</v>
@@ -566,7 +566,7 @@
         <v>28.285714285714</v>
       </c>
       <c r="E8" s="2">
-        <v>7574</v>
+        <v>7575</v>
       </c>
       <c r="F8" s="2">
         <v>388</v>
@@ -589,7 +589,7 @@
         <v>27.714285714285</v>
       </c>
       <c r="E9" s="2">
-        <v>7918</v>
+        <v>7919</v>
       </c>
       <c r="F9" s="2">
         <v>344</v>
@@ -612,7 +612,7 @@
         <v>24</v>
       </c>
       <c r="E10" s="2">
-        <v>8242</v>
+        <v>8243</v>
       </c>
       <c r="F10" s="2">
         <v>324</v>
@@ -635,7 +635,7 @@
         <v>25.857142857142</v>
       </c>
       <c r="E11" s="2">
-        <v>8720</v>
+        <v>8721</v>
       </c>
       <c r="F11" s="2">
         <v>478</v>
@@ -658,7 +658,7 @@
         <v>24.428571428571</v>
       </c>
       <c r="E12" s="2">
-        <v>8899</v>
+        <v>8900</v>
       </c>
       <c r="F12" s="2">
         <v>179</v>
@@ -681,7 +681,7 @@
         <v>23.285714285714</v>
       </c>
       <c r="E13" s="2">
-        <v>9014</v>
+        <v>9015</v>
       </c>
       <c r="F13" s="2">
         <v>115</v>
@@ -704,7 +704,7 @@
         <v>23.428571428571</v>
       </c>
       <c r="E14" s="2">
-        <v>9371</v>
+        <v>9372</v>
       </c>
       <c r="F14" s="2">
         <v>357</v>
@@ -727,7 +727,7 @@
         <v>20.714285714285</v>
       </c>
       <c r="E15" s="2">
-        <v>9692</v>
+        <v>9693</v>
       </c>
       <c r="F15" s="2">
         <v>321</v>
@@ -750,7 +750,7 @@
         <v>21.857142857142</v>
       </c>
       <c r="E16" s="2">
-        <v>10042</v>
+        <v>10043</v>
       </c>
       <c r="F16" s="2">
         <v>350</v>
@@ -773,7 +773,7 @@
         <v>22.428571428571</v>
       </c>
       <c r="E17" s="2">
-        <v>10424</v>
+        <v>10425</v>
       </c>
       <c r="F17" s="2">
         <v>382</v>
@@ -796,7 +796,7 @@
         <v>17.428571428571</v>
       </c>
       <c r="E18" s="2">
-        <v>10770</v>
+        <v>10771</v>
       </c>
       <c r="F18" s="2">
         <v>346</v>
@@ -819,7 +819,7 @@
         <v>16.714285714285</v>
       </c>
       <c r="E19" s="2">
-        <v>10925</v>
+        <v>10926</v>
       </c>
       <c r="F19" s="2">
         <v>155</v>
@@ -842,7 +842,7 @@
         <v>17.428571428571</v>
       </c>
       <c r="E20" s="2">
-        <v>11071</v>
+        <v>11072</v>
       </c>
       <c r="F20" s="2">
         <v>146</v>
@@ -865,7 +865,7 @@
         <v>15.142857142857</v>
       </c>
       <c r="E21" s="2">
-        <v>11439</v>
+        <v>11440</v>
       </c>
       <c r="F21" s="2">
         <v>368</v>
@@ -888,7 +888,7 @@
         <v>15.428571428571</v>
       </c>
       <c r="E22" s="2">
-        <v>11844</v>
+        <v>11845</v>
       </c>
       <c r="F22" s="2">
         <v>405</v>
@@ -911,7 +911,7 @@
         <v>13.428571428571</v>
       </c>
       <c r="E23" s="2">
-        <v>12365</v>
+        <v>12366</v>
       </c>
       <c r="F23" s="2">
         <v>521</v>
@@ -937,10 +937,10 @@
         <v>12925</v>
       </c>
       <c r="F24" s="2">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="G24" s="4">
-        <v>0.035585765693</v>
+        <v>0.0356</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -963,7 +963,7 @@
         <v>565</v>
       </c>
       <c r="G25" s="4">
-        <v>0.036029411764</v>
+        <v>0.036042662743</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -986,7 +986,7 @@
         <v>231</v>
       </c>
       <c r="G26" s="4">
-        <v>0.034334763948</v>
+        <v>0.0343470483</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -1009,7 +1009,7 @@
         <v>230</v>
       </c>
       <c r="G27" s="4">
-        <v>0.034722222222</v>
+        <v>0.034734282737</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -1032,7 +1032,7 @@
         <v>600</v>
       </c>
       <c r="G28" s="4">
-        <v>0.034704370179</v>
+        <v>0.034715525554</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -1055,7 +1055,7 @@
         <v>539</v>
       </c>
       <c r="G29" s="4">
-        <v>0.032963647566</v>
+        <v>0.032973805855</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -1078,7 +1078,7 @@
         <v>700</v>
       </c>
       <c r="G30" s="4">
-        <v>0.032408759124</v>
+        <v>0.032418224299</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -1302,13 +1302,13 @@
         <v>14.571428571428</v>
       </c>
       <c r="E40" s="2">
-        <v>22768</v>
+        <v>22767</v>
       </c>
       <c r="F40" s="2">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="G40" s="4">
-        <v>0.019949149227</v>
+        <v>0.019953051643</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -1325,13 +1325,13 @@
         <v>15</v>
       </c>
       <c r="E41" s="2">
-        <v>23113</v>
+        <v>23112</v>
       </c>
       <c r="F41" s="2">
         <v>345</v>
       </c>
       <c r="G41" s="4">
-        <v>0.020219526285</v>
+        <v>0.020223420647</v>
       </c>
     </row>
     <row r="42" spans="1:7">
@@ -1348,13 +1348,13 @@
         <v>13</v>
       </c>
       <c r="E42" s="2">
-        <v>24214</v>
+        <v>24213</v>
       </c>
       <c r="F42" s="2">
         <v>1101</v>
       </c>
       <c r="G42" s="4">
-        <v>0.016497461928</v>
+        <v>0.016500453309</v>
       </c>
     </row>
     <row r="43" spans="1:7">
@@ -1371,13 +1371,13 @@
         <v>12.285714285714</v>
       </c>
       <c r="E43" s="2">
-        <v>25445</v>
+        <v>25444</v>
       </c>
       <c r="F43" s="2">
         <v>1231</v>
       </c>
       <c r="G43" s="4">
-        <v>0.014179719703</v>
+        <v>0.014182058047</v>
       </c>
     </row>
     <row r="44" spans="1:7">
@@ -1394,13 +1394,13 @@
         <v>12.857142857142</v>
       </c>
       <c r="E44" s="2">
-        <v>26544</v>
+        <v>26543</v>
       </c>
       <c r="F44" s="2">
         <v>1099</v>
       </c>
       <c r="G44" s="4">
-        <v>0.014518470721</v>
+        <v>0.014520813165</v>
       </c>
     </row>
     <row r="45" spans="1:7">
@@ -1417,13 +1417,13 @@
         <v>14</v>
       </c>
       <c r="E45" s="2">
-        <v>27396</v>
+        <v>27395</v>
       </c>
       <c r="F45" s="2">
         <v>852</v>
       </c>
       <c r="G45" s="4">
-        <v>0.0159194282</v>
+        <v>0.015922014622</v>
       </c>
     </row>
     <row r="46" spans="1:7">
@@ -1440,13 +1440,13 @@
         <v>15.714285714285</v>
       </c>
       <c r="E46" s="2">
-        <v>28314</v>
+        <v>28313</v>
       </c>
       <c r="F46" s="2">
         <v>918</v>
       </c>
       <c r="G46" s="4">
-        <v>0.018549747048</v>
+        <v>0.018552875695</v>
       </c>
     </row>
     <row r="47" spans="1:7">
@@ -1463,7 +1463,7 @@
         <v>17.571428571428</v>
       </c>
       <c r="E47" s="2">
-        <v>28723</v>
+        <v>28722</v>
       </c>
       <c r="F47" s="2">
         <v>409</v>
@@ -1486,7 +1486,7 @@
         <v>18</v>
       </c>
       <c r="E48" s="2">
-        <v>29117</v>
+        <v>29116</v>
       </c>
       <c r="F48" s="2">
         <v>394</v>
@@ -1509,7 +1509,7 @@
         <v>22.428571428571</v>
       </c>
       <c r="E49" s="2">
-        <v>30481</v>
+        <v>30480</v>
       </c>
       <c r="F49" s="2">
         <v>1364</v>
@@ -1532,7 +1532,7 @@
         <v>25.714285714285</v>
       </c>
       <c r="E50" s="2">
-        <v>32142</v>
+        <v>32141</v>
       </c>
       <c r="F50" s="2">
         <v>1661</v>
@@ -1555,7 +1555,7 @@
         <v>26.142857142857</v>
       </c>
       <c r="E51" s="2">
-        <v>33279</v>
+        <v>33278</v>
       </c>
       <c r="F51" s="2">
         <v>1137</v>
@@ -1578,7 +1578,7 @@
         <v>27.428571428571</v>
       </c>
       <c r="E52" s="2">
-        <v>34413</v>
+        <v>34412</v>
       </c>
       <c r="F52" s="2">
         <v>1134</v>
@@ -1601,7 +1601,7 @@
         <v>29.142857142857</v>
       </c>
       <c r="E53" s="2">
-        <v>35501</v>
+        <v>35500</v>
       </c>
       <c r="F53" s="2">
         <v>1088</v>
@@ -1624,7 +1624,7 @@
         <v>28</v>
       </c>
       <c r="E54" s="2">
-        <v>36019</v>
+        <v>36018</v>
       </c>
       <c r="F54" s="2">
         <v>518</v>
@@ -1647,7 +1647,7 @@
         <v>27.571428571428</v>
       </c>
       <c r="E55" s="2">
-        <v>36415</v>
+        <v>36414</v>
       </c>
       <c r="F55" s="2">
         <v>396</v>
@@ -1670,7 +1670,7 @@
         <v>23.285714285714</v>
       </c>
       <c r="E56" s="2">
-        <v>36883</v>
+        <v>36882</v>
       </c>
       <c r="F56" s="2">
         <v>468</v>
@@ -1693,7 +1693,7 @@
         <v>23.714285714285</v>
       </c>
       <c r="E57" s="2">
-        <v>38079</v>
+        <v>38078</v>
       </c>
       <c r="F57" s="2">
         <v>1196</v>
@@ -1716,7 +1716,7 @@
         <v>23.714285714285</v>
       </c>
       <c r="E58" s="2">
-        <v>39195</v>
+        <v>39194</v>
       </c>
       <c r="F58" s="2">
         <v>1116</v>
@@ -1739,7 +1739,7 @@
         <v>26.285714285714</v>
       </c>
       <c r="E59" s="2">
-        <v>40330</v>
+        <v>40329</v>
       </c>
       <c r="F59" s="2">
         <v>1135</v>
@@ -1762,7 +1762,7 @@
         <v>26.571428571428</v>
       </c>
       <c r="E60" s="2">
-        <v>41733</v>
+        <v>41732</v>
       </c>
       <c r="F60" s="2">
         <v>1403</v>
@@ -1785,7 +1785,7 @@
         <v>26.285714285714</v>
       </c>
       <c r="E61" s="2">
-        <v>42465</v>
+        <v>42464</v>
       </c>
       <c r="F61" s="2">
         <v>732</v>
@@ -1808,7 +1808,7 @@
         <v>26</v>
       </c>
       <c r="E62" s="2">
-        <v>42862</v>
+        <v>42861</v>
       </c>
       <c r="F62" s="2">
         <v>397</v>
@@ -1831,7 +1831,7 @@
         <v>29.285714285714</v>
       </c>
       <c r="E63" s="2">
-        <v>44236</v>
+        <v>44235</v>
       </c>
       <c r="F63" s="2">
         <v>1374</v>
@@ -1854,7 +1854,7 @@
         <v>28.285714285714</v>
       </c>
       <c r="E64" s="2">
-        <v>45452</v>
+        <v>45451</v>
       </c>
       <c r="F64" s="2">
         <v>1216</v>
@@ -1877,7 +1877,7 @@
         <v>27.857142857142</v>
       </c>
       <c r="E65" s="2">
-        <v>46610</v>
+        <v>46609</v>
       </c>
       <c r="F65" s="2">
         <v>1158</v>
@@ -1900,7 +1900,7 @@
         <v>28.428571428571</v>
       </c>
       <c r="E66" s="2">
-        <v>47959</v>
+        <v>47958</v>
       </c>
       <c r="F66" s="2">
         <v>1349</v>
@@ -1923,13 +1923,13 @@
         <v>29.142857142857</v>
       </c>
       <c r="E67" s="2">
-        <v>49594</v>
+        <v>49592</v>
       </c>
       <c r="F67" s="2">
-        <v>1635</v>
+        <v>1634</v>
       </c>
       <c r="G67" s="4">
-        <v>0.025950896832</v>
+        <v>0.025954198473</v>
       </c>
     </row>
     <row r="68" spans="1:7">
@@ -1946,13 +1946,13 @@
         <v>30.428571428571</v>
       </c>
       <c r="E68" s="2">
-        <v>50199</v>
+        <v>50197</v>
       </c>
       <c r="F68" s="2">
         <v>605</v>
       </c>
       <c r="G68" s="4">
-        <v>0.027540729247</v>
+        <v>0.027544290702</v>
       </c>
     </row>
     <row r="69" spans="1:7">
@@ -1969,13 +1969,13 @@
         <v>32.285714285714</v>
       </c>
       <c r="E69" s="2">
-        <v>50685</v>
+        <v>50683</v>
       </c>
       <c r="F69" s="2">
         <v>486</v>
       </c>
       <c r="G69" s="4">
-        <v>0.028889172951</v>
+        <v>0.028892866274</v>
       </c>
     </row>
     <row r="70" spans="1:7">
@@ -1992,13 +1992,13 @@
         <v>34.571428571428</v>
       </c>
       <c r="E70" s="2">
-        <v>52523</v>
+        <v>52521</v>
       </c>
       <c r="F70" s="2">
         <v>1838</v>
       </c>
       <c r="G70" s="4">
-        <v>0.02920236515</v>
+        <v>0.029205889452</v>
       </c>
     </row>
     <row r="71" spans="1:7">
@@ -2015,13 +2015,13 @@
         <v>36.285714285714</v>
       </c>
       <c r="E71" s="2">
-        <v>54373</v>
+        <v>54371</v>
       </c>
       <c r="F71" s="2">
         <v>1850</v>
       </c>
       <c r="G71" s="4">
-        <v>0.028472144378</v>
+        <v>0.028475336322</v>
       </c>
     </row>
     <row r="72" spans="1:7">
@@ -2038,13 +2038,13 @@
         <v>39.857142857142</v>
       </c>
       <c r="E72" s="2">
-        <v>56364</v>
+        <v>56362</v>
       </c>
       <c r="F72" s="2">
         <v>1991</v>
       </c>
       <c r="G72" s="4">
-        <v>0.028603649784</v>
+        <v>0.028606582589</v>
       </c>
     </row>
     <row r="73" spans="1:7">
@@ -2061,13 +2061,13 @@
         <v>40.285714285714</v>
       </c>
       <c r="E73" s="2">
-        <v>58505</v>
+        <v>58503</v>
       </c>
       <c r="F73" s="2">
         <v>2141</v>
       </c>
       <c r="G73" s="4">
-        <v>0.026739996207</v>
+        <v>0.026742532005</v>
       </c>
     </row>
     <row r="74" spans="1:7">
@@ -2084,7 +2084,7 @@
         <v>41.857142857142</v>
       </c>
       <c r="E74" s="2">
-        <v>60747</v>
+        <v>60745</v>
       </c>
       <c r="F74" s="2">
         <v>2242</v>
@@ -2107,7 +2107,7 @@
         <v>44.142857142857</v>
       </c>
       <c r="E75" s="2">
-        <v>61585</v>
+        <v>61583</v>
       </c>
       <c r="F75" s="2">
         <v>838</v>
@@ -2130,7 +2130,7 @@
         <v>45.428571428571</v>
       </c>
       <c r="E76" s="2">
-        <v>62168</v>
+        <v>62166</v>
       </c>
       <c r="F76" s="2">
         <v>583</v>
@@ -2153,7 +2153,7 @@
         <v>46.571428571428</v>
       </c>
       <c r="E77" s="2">
-        <v>64383</v>
+        <v>64381</v>
       </c>
       <c r="F77" s="2">
         <v>2215</v>
@@ -2176,7 +2176,7 @@
         <v>52.428571428571</v>
       </c>
       <c r="E78" s="2">
-        <v>66903</v>
+        <v>66901</v>
       </c>
       <c r="F78" s="2">
         <v>2520</v>
@@ -2199,7 +2199,7 @@
         <v>57.142857142857</v>
       </c>
       <c r="E79" s="2">
-        <v>69472</v>
+        <v>69470</v>
       </c>
       <c r="F79" s="2">
         <v>2569</v>
@@ -2222,7 +2222,7 @@
         <v>62.28571428571399</v>
       </c>
       <c r="E80" s="2">
-        <v>71995</v>
+        <v>71993</v>
       </c>
       <c r="F80" s="2">
         <v>2523</v>
@@ -2245,7 +2245,7 @@
         <v>68.428571428571</v>
       </c>
       <c r="E81" s="2">
-        <v>74437</v>
+        <v>74435</v>
       </c>
       <c r="F81" s="2">
         <v>2442</v>
@@ -2268,7 +2268,7 @@
         <v>71</v>
       </c>
       <c r="E82" s="2">
-        <v>75387</v>
+        <v>75385</v>
       </c>
       <c r="F82" s="2">
         <v>950</v>
@@ -2291,7 +2291,7 @@
         <v>72.85714285714199</v>
       </c>
       <c r="E83" s="2">
-        <v>76084</v>
+        <v>76082</v>
       </c>
       <c r="F83" s="2">
         <v>697</v>
@@ -2314,7 +2314,7 @@
         <v>80.714285714285</v>
       </c>
       <c r="E84" s="2">
-        <v>78704</v>
+        <v>78702</v>
       </c>
       <c r="F84" s="2">
         <v>2620</v>
@@ -2337,7 +2337,7 @@
         <v>87.714285714285</v>
       </c>
       <c r="E85" s="2">
-        <v>81489</v>
+        <v>81487</v>
       </c>
       <c r="F85" s="2">
         <v>2785</v>
@@ -2360,7 +2360,7 @@
         <v>95.714285714285</v>
       </c>
       <c r="E86" s="2">
-        <v>84515</v>
+        <v>84513</v>
       </c>
       <c r="F86" s="2">
         <v>3026</v>
@@ -2383,13 +2383,13 @@
         <v>104.571428571428</v>
       </c>
       <c r="E87" s="2">
-        <v>87872</v>
+        <v>87871</v>
       </c>
       <c r="F87" s="2">
-        <v>3357</v>
+        <v>3358</v>
       </c>
       <c r="G87" s="4">
-        <v>0.046104427788</v>
+        <v>0.046101524121</v>
       </c>
     </row>
     <row r="88" spans="1:7">
@@ -2409,10 +2409,10 @@
         <v>90837</v>
       </c>
       <c r="F88" s="2">
-        <v>2965</v>
+        <v>2966</v>
       </c>
       <c r="G88" s="4">
-        <v>0.048780487804</v>
+        <v>0.04877453969</v>
       </c>
     </row>
     <row r="89" spans="1:7">
@@ -2435,7 +2435,7 @@
         <v>1074</v>
       </c>
       <c r="G89" s="4">
-        <v>0.050108932461</v>
+        <v>0.050102868207</v>
       </c>
     </row>
     <row r="90" spans="1:7">
@@ -2458,7 +2458,7 @@
         <v>795</v>
       </c>
       <c r="G90" s="4">
-        <v>0.05095656359</v>
+        <v>0.050950433108</v>
       </c>
     </row>
     <row r="91" spans="1:7">
@@ -2481,7 +2481,7 @@
         <v>3684</v>
       </c>
       <c r="G91" s="4">
-        <v>0.05275359041</v>
+        <v>0.052747625508</v>
       </c>
     </row>
     <row r="92" spans="1:7">
@@ -2504,7 +2504,7 @@
         <v>3474</v>
       </c>
       <c r="G92" s="4">
-        <v>0.052081632653</v>
+        <v>0.05207596452</v>
       </c>
     </row>
     <row r="93" spans="1:7">
@@ -2527,7 +2527,7 @@
         <v>3536</v>
       </c>
       <c r="G93" s="4">
-        <v>0.05226370135</v>
+        <v>0.052258166993</v>
       </c>
     </row>
     <row r="94" spans="1:7">
@@ -2550,7 +2550,7 @@
         <v>3918</v>
       </c>
       <c r="G94" s="4">
-        <v>0.053841406973</v>
+        <v>0.05383863835</v>
       </c>
     </row>
     <row r="95" spans="1:7">
@@ -2797,13 +2797,13 @@
         <v>206.285714285714</v>
       </c>
       <c r="E105" s="2">
-        <v>141644</v>
+        <v>141645</v>
       </c>
       <c r="F105" s="2">
-        <v>4597</v>
+        <v>4598</v>
       </c>
       <c r="G105" s="4">
-        <v>0.056908646646</v>
+        <v>0.05690640394</v>
       </c>
     </row>
     <row r="106" spans="1:7">
@@ -2820,13 +2820,13 @@
         <v>211.571428571428</v>
       </c>
       <c r="E106" s="2">
-        <v>145375</v>
+        <v>145377</v>
       </c>
       <c r="F106" s="2">
-        <v>3731</v>
+        <v>3732</v>
       </c>
       <c r="G106" s="4">
-        <v>0.059161906283</v>
+        <v>0.059157179948</v>
       </c>
     </row>
     <row r="107" spans="1:7">
@@ -2843,13 +2843,13 @@
         <v>216.571428571428</v>
       </c>
       <c r="E107" s="2">
-        <v>149714</v>
+        <v>149716</v>
       </c>
       <c r="F107" s="2">
         <v>4339</v>
       </c>
       <c r="G107" s="4">
-        <v>0.060355123815</v>
+        <v>0.060350318471</v>
       </c>
     </row>
     <row r="108" spans="1:7">
@@ -2866,13 +2866,13 @@
         <v>216.857142857142</v>
       </c>
       <c r="E108" s="2">
-        <v>153896</v>
+        <v>153898</v>
       </c>
       <c r="F108" s="2">
         <v>4182</v>
       </c>
       <c r="G108" s="4">
-        <v>0.061450026312</v>
+        <v>0.061445051608</v>
       </c>
     </row>
     <row r="109" spans="1:7">
@@ -2889,13 +2889,13 @@
         <v>217.285714285714</v>
       </c>
       <c r="E109" s="2">
-        <v>158084</v>
+        <v>158086</v>
       </c>
       <c r="F109" s="2">
         <v>4188</v>
       </c>
       <c r="G109" s="4">
-        <v>0.062256968605</v>
+        <v>0.062251872467</v>
       </c>
     </row>
     <row r="110" spans="1:7">
@@ -2912,13 +2912,13 @@
         <v>215.714285714285</v>
       </c>
       <c r="E110" s="2">
-        <v>160305</v>
+        <v>160307</v>
       </c>
       <c r="F110" s="2">
         <v>2221</v>
       </c>
       <c r="G110" s="4">
-        <v>0.061424561688</v>
+        <v>0.061419564775</v>
       </c>
     </row>
     <row r="111" spans="1:7">
@@ -2935,13 +2935,13 @@
         <v>215.571428571428</v>
       </c>
       <c r="E111" s="2">
-        <v>161562</v>
+        <v>161564</v>
       </c>
       <c r="F111" s="2">
         <v>1257</v>
       </c>
       <c r="G111" s="4">
-        <v>0.06155415052</v>
+        <v>0.061549129175</v>
       </c>
     </row>
     <row r="112" spans="1:7">
@@ -2958,13 +2958,13 @@
         <v>219.857142857142</v>
       </c>
       <c r="E112" s="2">
-        <v>165769</v>
+        <v>165780</v>
       </c>
       <c r="F112" s="2">
-        <v>4207</v>
+        <v>4216</v>
       </c>
       <c r="G112" s="4">
-        <v>0.063792746113</v>
+        <v>0.06376631448099999</v>
       </c>
     </row>
     <row r="113" spans="1:7">
@@ -2981,13 +2981,13 @@
         <v>218.285714285714</v>
       </c>
       <c r="E113" s="2">
-        <v>169570</v>
+        <v>169587</v>
       </c>
       <c r="F113" s="2">
-        <v>3801</v>
+        <v>3807</v>
       </c>
       <c r="G113" s="4">
-        <v>0.06315354412</v>
+        <v>0.06311441553</v>
       </c>
     </row>
     <row r="114" spans="1:7">
@@ -3004,13 +3004,13 @@
         <v>217</v>
       </c>
       <c r="E114" s="2">
-        <v>173213</v>
+        <v>173231</v>
       </c>
       <c r="F114" s="2">
-        <v>3643</v>
+        <v>3644</v>
       </c>
       <c r="G114" s="4">
-        <v>0.064641048555</v>
+        <v>0.06459706570199999</v>
       </c>
     </row>
     <row r="115" spans="1:7">
@@ -3027,13 +3027,13 @@
         <v>213.571428571428</v>
       </c>
       <c r="E115" s="2">
-        <v>176532</v>
+        <v>176550</v>
       </c>
       <c r="F115" s="2">
         <v>3319</v>
       </c>
       <c r="G115" s="4">
-        <v>0.066045237674</v>
+        <v>0.065998587321</v>
       </c>
     </row>
     <row r="116" spans="1:7">
@@ -3050,13 +3050,13 @@
         <v>209</v>
       </c>
       <c r="E116" s="2">
-        <v>180157</v>
+        <v>180177</v>
       </c>
       <c r="F116" s="2">
-        <v>3625</v>
+        <v>3627</v>
       </c>
       <c r="G116" s="4">
-        <v>0.06628007067400001</v>
+        <v>0.066226064913</v>
       </c>
     </row>
     <row r="117" spans="1:7">
@@ -3073,13 +3073,13 @@
         <v>206.285714285714</v>
       </c>
       <c r="E117" s="2">
-        <v>181774</v>
+        <v>181794</v>
       </c>
       <c r="F117" s="2">
         <v>1617</v>
       </c>
       <c r="G117" s="4">
-        <v>0.0672597699</v>
+        <v>0.067203425326</v>
       </c>
     </row>
     <row r="118" spans="1:7">
@@ -3096,13 +3096,13 @@
         <v>206.714285714285</v>
       </c>
       <c r="E118" s="2">
-        <v>183027</v>
+        <v>183047</v>
       </c>
       <c r="F118" s="2">
         <v>1253</v>
       </c>
       <c r="G118" s="4">
-        <v>0.067412066154</v>
+        <v>0.067355583484</v>
       </c>
     </row>
     <row r="119" spans="1:7">
@@ -3119,13 +3119,13 @@
         <v>199.571428571428</v>
       </c>
       <c r="E119" s="2">
-        <v>187194</v>
+        <v>187214</v>
       </c>
       <c r="F119" s="2">
         <v>4167</v>
       </c>
       <c r="G119" s="4">
-        <v>0.06520420070000001</v>
+        <v>0.065176821871</v>
       </c>
     </row>
     <row r="120" spans="1:7">
@@ -3142,13 +3142,13 @@
         <v>200.285714285714</v>
       </c>
       <c r="E120" s="2">
-        <v>191061</v>
+        <v>191081</v>
       </c>
       <c r="F120" s="2">
         <v>3867</v>
       </c>
       <c r="G120" s="4">
-        <v>0.065236610674</v>
+        <v>0.06522750535000001</v>
       </c>
     </row>
     <row r="121" spans="1:7">
@@ -3165,13 +3165,13 @@
         <v>200</v>
       </c>
       <c r="E121" s="2">
-        <v>194916</v>
+        <v>194936</v>
       </c>
       <c r="F121" s="2">
         <v>3855</v>
       </c>
       <c r="G121" s="4">
-        <v>0.064507210984</v>
+        <v>0.06450126698899999</v>
       </c>
     </row>
     <row r="122" spans="1:7">
@@ -3188,13 +3188,13 @@
         <v>197.714285714285</v>
       </c>
       <c r="E122" s="2">
-        <v>198583</v>
+        <v>198603</v>
       </c>
       <c r="F122" s="2">
         <v>3667</v>
       </c>
       <c r="G122" s="4">
-        <v>0.062763593487</v>
+        <v>0.06275790141900001</v>
       </c>
     </row>
     <row r="123" spans="1:7">
@@ -3211,13 +3211,13 @@
         <v>199.571428571428</v>
       </c>
       <c r="E123" s="2">
-        <v>202114</v>
+        <v>202135</v>
       </c>
       <c r="F123" s="2">
-        <v>3531</v>
+        <v>3532</v>
       </c>
       <c r="G123" s="4">
-        <v>0.06362435669700001</v>
+        <v>0.063621459149</v>
       </c>
     </row>
     <row r="124" spans="1:7">
@@ -3234,13 +3234,13 @@
         <v>199.142857142857</v>
       </c>
       <c r="E124" s="2">
-        <v>203703</v>
+        <v>203724</v>
       </c>
       <c r="F124" s="2">
         <v>1589</v>
       </c>
       <c r="G124" s="4">
-        <v>0.06356879018599999</v>
+        <v>0.06356589147199999</v>
       </c>
     </row>
     <row r="125" spans="1:7">
@@ -3257,13 +3257,13 @@
         <v>195.428571428571</v>
       </c>
       <c r="E125" s="2">
-        <v>204824</v>
+        <v>204845</v>
       </c>
       <c r="F125" s="2">
         <v>1121</v>
       </c>
       <c r="G125" s="4">
-        <v>0.062760930403</v>
+        <v>0.06275805119699999</v>
       </c>
     </row>
     <row r="126" spans="1:7">
@@ -3271,22 +3271,22 @@
         <v>44046</v>
       </c>
       <c r="B126" s="2">
-        <v>10513</v>
+        <v>10512</v>
       </c>
       <c r="C126" s="2">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D126" s="3">
-        <v>197.285714285714</v>
+        <v>197.142857142857</v>
       </c>
       <c r="E126" s="2">
-        <v>208619</v>
+        <v>208639</v>
       </c>
       <c r="F126" s="2">
-        <v>3795</v>
+        <v>3794</v>
       </c>
       <c r="G126" s="4">
-        <v>0.064457409568</v>
+        <v>0.064410735122</v>
       </c>
     </row>
     <row r="127" spans="1:7">
@@ -3294,22 +3294,22 @@
         <v>44047</v>
       </c>
       <c r="B127" s="2">
-        <v>10735</v>
+        <v>10734</v>
       </c>
       <c r="C127" s="2">
         <v>222</v>
       </c>
       <c r="D127" s="3">
-        <v>193.714285714285</v>
+        <v>193.571428571428</v>
       </c>
       <c r="E127" s="2">
-        <v>211897</v>
+        <v>211917</v>
       </c>
       <c r="F127" s="2">
         <v>3278</v>
       </c>
       <c r="G127" s="4">
-        <v>0.065079669802</v>
+        <v>0.06503167594500001</v>
       </c>
     </row>
     <row r="128" spans="1:7">
@@ -3317,22 +3317,22 @@
         <v>44048</v>
       </c>
       <c r="B128" s="2">
-        <v>10909</v>
+        <v>10908</v>
       </c>
       <c r="C128" s="2">
         <v>174</v>
       </c>
       <c r="D128" s="3">
-        <v>183</v>
+        <v>182.857142857142</v>
       </c>
       <c r="E128" s="2">
-        <v>215090</v>
+        <v>215110</v>
       </c>
       <c r="F128" s="2">
         <v>3193</v>
       </c>
       <c r="G128" s="4">
-        <v>0.06349757113100001</v>
+        <v>0.063448002379</v>
       </c>
     </row>
     <row r="129" spans="1:7">
@@ -3340,22 +3340,22 @@
         <v>44049</v>
       </c>
       <c r="B129" s="2">
-        <v>11102</v>
+        <v>11101</v>
       </c>
       <c r="C129" s="2">
         <v>193</v>
       </c>
       <c r="D129" s="3">
-        <v>179.857142857142</v>
+        <v>179.714285714285</v>
       </c>
       <c r="E129" s="2">
-        <v>218737</v>
+        <v>218757</v>
       </c>
       <c r="F129" s="2">
         <v>3647</v>
       </c>
       <c r="G129" s="4">
-        <v>0.062468988786</v>
+        <v>0.062419370844</v>
       </c>
     </row>
     <row r="130" spans="1:7">
@@ -3366,19 +3366,19 @@
         <v>11269</v>
       </c>
       <c r="C130" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D130" s="3">
         <v>170.571428571428</v>
       </c>
       <c r="E130" s="2">
-        <v>221985</v>
+        <v>222007</v>
       </c>
       <c r="F130" s="2">
-        <v>3248</v>
+        <v>3250</v>
       </c>
       <c r="G130" s="4">
-        <v>0.060087564792</v>
+        <v>0.060084541062</v>
       </c>
     </row>
     <row r="131" spans="1:7">
@@ -3395,13 +3395,13 @@
         <v>169.857142857142</v>
       </c>
       <c r="E131" s="2">
-        <v>223668</v>
+        <v>223690</v>
       </c>
       <c r="F131" s="2">
         <v>1683</v>
       </c>
       <c r="G131" s="4">
-        <v>0.059554219884</v>
+        <v>0.059551237103</v>
       </c>
     </row>
     <row r="132" spans="1:7">
@@ -3418,13 +3418,13 @@
         <v>170.285714285714</v>
       </c>
       <c r="E132" s="2">
-        <v>224709</v>
+        <v>224731</v>
       </c>
       <c r="F132" s="2">
         <v>1041</v>
       </c>
       <c r="G132" s="4">
-        <v>0.059944681921</v>
+        <v>0.059941667504</v>
       </c>
     </row>
     <row r="133" spans="1:7">
@@ -3432,22 +3432,22 @@
         <v>44053</v>
       </c>
       <c r="B133" s="2">
-        <v>11684</v>
+        <v>11685</v>
       </c>
       <c r="C133" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="D133" s="3">
-        <v>167.285714285714</v>
+        <v>167.571428571428</v>
       </c>
       <c r="E133" s="2">
-        <v>228593</v>
+        <v>228616</v>
       </c>
       <c r="F133" s="2">
-        <v>3884</v>
+        <v>3885</v>
       </c>
       <c r="G133" s="4">
-        <v>0.058626214078</v>
+        <v>0.058717525153</v>
       </c>
     </row>
     <row r="134" spans="1:7">
@@ -3455,22 +3455,22 @@
         <v>44054</v>
       </c>
       <c r="B134" s="2">
-        <v>11882</v>
+        <v>11883</v>
       </c>
       <c r="C134" s="2">
         <v>198</v>
       </c>
       <c r="D134" s="3">
-        <v>163.857142857142</v>
+        <v>164.142857142857</v>
       </c>
       <c r="E134" s="2">
-        <v>232007</v>
+        <v>232030</v>
       </c>
       <c r="F134" s="2">
         <v>3414</v>
       </c>
       <c r="G134" s="4">
-        <v>0.057036300348</v>
+        <v>0.057127231144</v>
       </c>
     </row>
     <row r="135" spans="1:7">
@@ -3478,22 +3478,22 @@
         <v>44055</v>
       </c>
       <c r="B135" s="2">
-        <v>12080</v>
+        <v>12081</v>
       </c>
       <c r="C135" s="2">
         <v>198</v>
       </c>
       <c r="D135" s="3">
-        <v>167.285714285714</v>
+        <v>167.571428571428</v>
       </c>
       <c r="E135" s="2">
-        <v>235829</v>
+        <v>235868</v>
       </c>
       <c r="F135" s="2">
-        <v>3822</v>
+        <v>3838</v>
       </c>
       <c r="G135" s="4">
-        <v>0.056463667486</v>
+        <v>0.056508334136</v>
       </c>
     </row>
     <row r="136" spans="1:7">
@@ -3501,22 +3501,22 @@
         <v>44056</v>
       </c>
       <c r="B136" s="2">
-        <v>12258</v>
+        <v>12259</v>
       </c>
       <c r="C136" s="2">
         <v>178</v>
       </c>
       <c r="D136" s="3">
-        <v>165.142857142857</v>
+        <v>165.428571428571</v>
       </c>
       <c r="E136" s="2">
-        <v>239083</v>
+        <v>239122</v>
       </c>
       <c r="F136" s="2">
         <v>3254</v>
       </c>
       <c r="G136" s="4">
-        <v>0.056817064779</v>
+        <v>0.056862263687</v>
       </c>
     </row>
     <row r="137" spans="1:7">
@@ -3524,22 +3524,22 @@
         <v>44057</v>
       </c>
       <c r="B137" s="2">
-        <v>12431</v>
+        <v>12432</v>
       </c>
       <c r="C137" s="2">
         <v>173</v>
       </c>
       <c r="D137" s="3">
-        <v>166</v>
+        <v>166.142857142857</v>
       </c>
       <c r="E137" s="2">
-        <v>242422</v>
+        <v>242463</v>
       </c>
       <c r="F137" s="2">
-        <v>3339</v>
+        <v>3341</v>
       </c>
       <c r="G137" s="4">
-        <v>0.056857660126</v>
+        <v>0.056853734845</v>
       </c>
     </row>
     <row r="138" spans="1:7">
@@ -3547,22 +3547,22 @@
         <v>44058</v>
       </c>
       <c r="B138" s="2">
-        <v>12523</v>
+        <v>12524</v>
       </c>
       <c r="C138" s="2">
         <v>92</v>
       </c>
       <c r="D138" s="3">
-        <v>164.571428571428</v>
+        <v>164.714285714285</v>
       </c>
       <c r="E138" s="2">
-        <v>243981</v>
+        <v>244022</v>
       </c>
       <c r="F138" s="2">
         <v>1559</v>
       </c>
       <c r="G138" s="4">
-        <v>0.056712450155</v>
+        <v>0.056708636631</v>
       </c>
     </row>
     <row r="139" spans="1:7">
@@ -3570,22 +3570,22 @@
         <v>44059</v>
       </c>
       <c r="B139" s="2">
-        <v>12568</v>
+        <v>12569</v>
       </c>
       <c r="C139" s="2">
         <v>45</v>
       </c>
       <c r="D139" s="3">
-        <v>159.571428571428</v>
+        <v>159.714285714285</v>
       </c>
       <c r="E139" s="2">
-        <v>244755</v>
+        <v>244798</v>
       </c>
       <c r="F139" s="2">
-        <v>774</v>
+        <v>776</v>
       </c>
       <c r="G139" s="4">
-        <v>0.055721839768</v>
+        <v>0.055713360243</v>
       </c>
     </row>
     <row r="140" spans="1:7">
@@ -3593,7 +3593,7 @@
         <v>44060</v>
       </c>
       <c r="B140" s="2">
-        <v>12780</v>
+        <v>12781</v>
       </c>
       <c r="C140" s="2">
         <v>212</v>
@@ -3602,13 +3602,13 @@
         <v>156.571428571428</v>
       </c>
       <c r="E140" s="2">
-        <v>248389</v>
+        <v>248434</v>
       </c>
       <c r="F140" s="2">
-        <v>3634</v>
+        <v>3636</v>
       </c>
       <c r="G140" s="4">
-        <v>0.055364720145</v>
+        <v>0.055303259662</v>
       </c>
     </row>
     <row r="141" spans="1:7">
@@ -3616,7 +3616,7 @@
         <v>44061</v>
       </c>
       <c r="B141" s="2">
-        <v>12947</v>
+        <v>12948</v>
       </c>
       <c r="C141" s="2">
         <v>167</v>
@@ -3625,13 +3625,13 @@
         <v>152.142857142857</v>
       </c>
       <c r="E141" s="2">
-        <v>251432</v>
+        <v>251477</v>
       </c>
       <c r="F141" s="2">
         <v>3043</v>
       </c>
       <c r="G141" s="4">
-        <v>0.054826254826</v>
+        <v>0.054764230986</v>
       </c>
     </row>
     <row r="142" spans="1:7">
@@ -3642,19 +3642,19 @@
         <v>13106</v>
       </c>
       <c r="C142" s="2">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D142" s="3">
-        <v>146.571428571428</v>
+        <v>146.428571428571</v>
       </c>
       <c r="E142" s="2">
-        <v>254473</v>
+        <v>254517</v>
       </c>
       <c r="F142" s="2">
-        <v>3041</v>
+        <v>3040</v>
       </c>
       <c r="G142" s="4">
-        <v>0.055031109204</v>
+        <v>0.054962732586</v>
       </c>
     </row>
     <row r="143" spans="1:7">
@@ -3668,16 +3668,16 @@
         <v>132</v>
       </c>
       <c r="D143" s="3">
-        <v>140</v>
+        <v>139.857142857142</v>
       </c>
       <c r="E143" s="2">
-        <v>257628</v>
+        <v>257672</v>
       </c>
       <c r="F143" s="2">
         <v>3155</v>
       </c>
       <c r="G143" s="4">
-        <v>0.052844432461</v>
+        <v>0.052776280323</v>
       </c>
     </row>
     <row r="144" spans="1:7">
@@ -3691,16 +3691,16 @@
         <v>162</v>
       </c>
       <c r="D144" s="3">
-        <v>138.428571428571</v>
+        <v>138.285714285714</v>
       </c>
       <c r="E144" s="2">
-        <v>260652</v>
+        <v>260696</v>
       </c>
       <c r="F144" s="2">
         <v>3024</v>
       </c>
       <c r="G144" s="4">
-        <v>0.053154141524</v>
+        <v>0.053090550101</v>
       </c>
     </row>
     <row r="145" spans="1:7">
@@ -3714,16 +3714,16 @@
         <v>61</v>
       </c>
       <c r="D145" s="3">
-        <v>134</v>
+        <v>133.857142857142</v>
       </c>
       <c r="E145" s="2">
-        <v>261980</v>
+        <v>262024</v>
       </c>
       <c r="F145" s="2">
         <v>1328</v>
       </c>
       <c r="G145" s="4">
-        <v>0.052114006333</v>
+        <v>0.052049772247</v>
       </c>
     </row>
     <row r="146" spans="1:7">
@@ -3737,16 +3737,16 @@
         <v>66</v>
       </c>
       <c r="D146" s="3">
-        <v>137</v>
+        <v>136.857142857142</v>
       </c>
       <c r="E146" s="2">
-        <v>262940</v>
+        <v>262984</v>
       </c>
       <c r="F146" s="2">
         <v>960</v>
       </c>
       <c r="G146" s="4">
-        <v>0.05273577124</v>
+        <v>0.052677884086</v>
       </c>
     </row>
     <row r="147" spans="1:7">
@@ -3754,19 +3754,19 @@
         <v>44067</v>
       </c>
       <c r="B147" s="2">
-        <v>13673</v>
+        <v>13674</v>
       </c>
       <c r="C147" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D147" s="3">
         <v>127.571428571428</v>
       </c>
       <c r="E147" s="2">
-        <v>265909</v>
+        <v>265954</v>
       </c>
       <c r="F147" s="2">
-        <v>2969</v>
+        <v>2970</v>
       </c>
       <c r="G147" s="4">
         <v>0.050970319634</v>
@@ -3777,7 +3777,7 @@
         <v>44068</v>
       </c>
       <c r="B148" s="2">
-        <v>13806</v>
+        <v>13807</v>
       </c>
       <c r="C148" s="2">
         <v>133</v>
@@ -3786,13 +3786,13 @@
         <v>122.714285714285</v>
       </c>
       <c r="E148" s="2">
-        <v>268909</v>
+        <v>268955</v>
       </c>
       <c r="F148" s="2">
-        <v>3000</v>
+        <v>3001</v>
       </c>
       <c r="G148" s="4">
-        <v>0.049150311838</v>
+        <v>0.049147499713</v>
       </c>
     </row>
     <row r="149" spans="1:7">
@@ -3800,22 +3800,22 @@
         <v>44069</v>
       </c>
       <c r="B149" s="2">
-        <v>13934</v>
+        <v>13935</v>
       </c>
       <c r="C149" s="2">
         <v>128</v>
       </c>
       <c r="D149" s="3">
-        <v>118.285714285714</v>
+        <v>118.428571428571</v>
       </c>
       <c r="E149" s="2">
-        <v>271764</v>
+        <v>271810</v>
       </c>
       <c r="F149" s="2">
         <v>2855</v>
       </c>
       <c r="G149" s="4">
-        <v>0.047886183563</v>
+        <v>0.047938472214</v>
       </c>
     </row>
     <row r="150" spans="1:7">
@@ -3823,22 +3823,22 @@
         <v>44070</v>
       </c>
       <c r="B150" s="2">
-        <v>14094</v>
+        <v>14096</v>
       </c>
       <c r="C150" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D150" s="3">
-        <v>122.285714285714</v>
+        <v>122.571428571428</v>
       </c>
       <c r="E150" s="2">
-        <v>274960</v>
+        <v>275007</v>
       </c>
       <c r="F150" s="2">
-        <v>3196</v>
+        <v>3197</v>
       </c>
       <c r="G150" s="4">
-        <v>0.049388414493</v>
+        <v>0.049495240842</v>
       </c>
     </row>
     <row r="151" spans="1:7">
@@ -3846,22 +3846,22 @@
         <v>44071</v>
       </c>
       <c r="B151" s="2">
-        <v>14212</v>
+        <v>14214</v>
       </c>
       <c r="C151" s="2">
         <v>118</v>
       </c>
       <c r="D151" s="3">
-        <v>116</v>
+        <v>116.285714285714</v>
       </c>
       <c r="E151" s="2">
-        <v>277731</v>
+        <v>277778</v>
       </c>
       <c r="F151" s="2">
         <v>2771</v>
       </c>
       <c r="G151" s="4">
-        <v>0.047543767199</v>
+        <v>0.047652499707</v>
       </c>
     </row>
     <row r="152" spans="1:7">
@@ -3869,22 +3869,22 @@
         <v>44072</v>
       </c>
       <c r="B152" s="2">
-        <v>14276</v>
+        <v>14278</v>
       </c>
       <c r="C152" s="2">
         <v>64</v>
       </c>
       <c r="D152" s="3">
-        <v>116.428571428571</v>
+        <v>116.714285714285</v>
       </c>
       <c r="E152" s="2">
-        <v>279160</v>
+        <v>279207</v>
       </c>
       <c r="F152" s="2">
         <v>1429</v>
       </c>
       <c r="G152" s="4">
-        <v>0.047438882421</v>
+        <v>0.047546994122</v>
       </c>
     </row>
     <row r="153" spans="1:7">
@@ -3892,22 +3892,22 @@
         <v>44073</v>
       </c>
       <c r="B153" s="2">
-        <v>14333</v>
+        <v>14335</v>
       </c>
       <c r="C153" s="2">
         <v>57</v>
       </c>
       <c r="D153" s="3">
-        <v>115.142857142857</v>
+        <v>115.428571428571</v>
       </c>
       <c r="E153" s="2">
-        <v>280237</v>
+        <v>280284</v>
       </c>
       <c r="F153" s="2">
         <v>1077</v>
       </c>
       <c r="G153" s="4">
-        <v>0.046597675897</v>
+        <v>0.046705202312</v>
       </c>
     </row>
     <row r="154" spans="1:7">
@@ -3915,22 +3915,22 @@
         <v>44074</v>
       </c>
       <c r="B154" s="2">
-        <v>14470</v>
+        <v>14471</v>
       </c>
       <c r="C154" s="2">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D154" s="3">
         <v>113.857142857142</v>
       </c>
       <c r="E154" s="2">
-        <v>283353</v>
+        <v>283399</v>
       </c>
       <c r="F154" s="2">
-        <v>3116</v>
+        <v>3115</v>
       </c>
       <c r="G154" s="4">
-        <v>0.045689062141</v>
+        <v>0.045686443106</v>
       </c>
     </row>
     <row r="155" spans="1:7">
@@ -3938,7 +3938,7 @@
         <v>44075</v>
       </c>
       <c r="B155" s="2">
-        <v>14598</v>
+        <v>14599</v>
       </c>
       <c r="C155" s="2">
         <v>128</v>
@@ -3947,7 +3947,7 @@
         <v>113.142857142857</v>
       </c>
       <c r="E155" s="2">
-        <v>286614</v>
+        <v>286660</v>
       </c>
       <c r="F155" s="2">
         <v>3261</v>
@@ -3961,7 +3961,7 @@
         <v>44076</v>
       </c>
       <c r="B156" s="2">
-        <v>14714</v>
+        <v>14715</v>
       </c>
       <c r="C156" s="2">
         <v>116</v>
@@ -3970,7 +3970,7 @@
         <v>111.428571428571</v>
       </c>
       <c r="E156" s="2">
-        <v>289575</v>
+        <v>289621</v>
       </c>
       <c r="F156" s="2">
         <v>2961</v>
@@ -3984,22 +3984,22 @@
         <v>44077</v>
       </c>
       <c r="B157" s="2">
-        <v>14808</v>
+        <v>14809</v>
       </c>
       <c r="C157" s="2">
         <v>94</v>
       </c>
       <c r="D157" s="3">
-        <v>102</v>
+        <v>101.857142857142</v>
       </c>
       <c r="E157" s="2">
-        <v>292502</v>
+        <v>292548</v>
       </c>
       <c r="F157" s="2">
         <v>2927</v>
       </c>
       <c r="G157" s="4">
-        <v>0.040702314445</v>
+        <v>0.040647625562</v>
       </c>
     </row>
     <row r="158" spans="1:7">
@@ -4007,22 +4007,22 @@
         <v>44078</v>
       </c>
       <c r="B158" s="2">
-        <v>14929</v>
+        <v>14930</v>
       </c>
       <c r="C158" s="2">
         <v>121</v>
       </c>
       <c r="D158" s="3">
-        <v>102.428571428571</v>
+        <v>102.285714285714</v>
       </c>
       <c r="E158" s="2">
-        <v>295302</v>
+        <v>295348</v>
       </c>
       <c r="F158" s="2">
         <v>2800</v>
       </c>
       <c r="G158" s="4">
-        <v>0.040805873313</v>
+        <v>0.040751280591</v>
       </c>
     </row>
     <row r="159" spans="1:7">
@@ -4030,22 +4030,22 @@
         <v>44079</v>
       </c>
       <c r="B159" s="2">
-        <v>14995</v>
+        <v>14996</v>
       </c>
       <c r="C159" s="2">
         <v>66</v>
       </c>
       <c r="D159" s="3">
-        <v>102.714285714285</v>
+        <v>102.571428571428</v>
       </c>
       <c r="E159" s="2">
-        <v>296638</v>
+        <v>296684</v>
       </c>
       <c r="F159" s="2">
         <v>1336</v>
       </c>
       <c r="G159" s="4">
-        <v>0.041137429911</v>
+        <v>0.041082565657</v>
       </c>
     </row>
     <row r="160" spans="1:7">
@@ -4053,22 +4053,22 @@
         <v>44080</v>
       </c>
       <c r="B160" s="2">
-        <v>15048</v>
+        <v>15049</v>
       </c>
       <c r="C160" s="2">
         <v>53</v>
       </c>
       <c r="D160" s="3">
-        <v>102.142857142857</v>
+        <v>102</v>
       </c>
       <c r="E160" s="2">
-        <v>297724</v>
+        <v>297770</v>
       </c>
       <c r="F160" s="2">
         <v>1086</v>
       </c>
       <c r="G160" s="4">
-        <v>0.04088751644</v>
+        <v>0.040832666132</v>
       </c>
     </row>
     <row r="161" spans="1:7">
@@ -4076,7 +4076,7 @@
         <v>44081</v>
       </c>
       <c r="B161" s="2">
-        <v>15117</v>
+        <v>15118</v>
       </c>
       <c r="C161" s="2">
         <v>69</v>
@@ -4085,7 +4085,7 @@
         <v>92.428571428571</v>
       </c>
       <c r="E161" s="2">
-        <v>298973</v>
+        <v>299019</v>
       </c>
       <c r="F161" s="2">
         <v>1249</v>
@@ -4099,7 +4099,7 @@
         <v>44082</v>
       </c>
       <c r="B162" s="2">
-        <v>15261</v>
+        <v>15262</v>
       </c>
       <c r="C162" s="2">
         <v>144</v>
@@ -4108,7 +4108,7 @@
         <v>94.714285714285</v>
       </c>
       <c r="E162" s="2">
-        <v>303242</v>
+        <v>303288</v>
       </c>
       <c r="F162" s="2">
         <v>4269</v>
@@ -4122,7 +4122,7 @@
         <v>44083</v>
       </c>
       <c r="B163" s="2">
-        <v>15413</v>
+        <v>15414</v>
       </c>
       <c r="C163" s="2">
         <v>152</v>
@@ -4131,7 +4131,7 @@
         <v>99.85714285714199</v>
       </c>
       <c r="E163" s="2">
-        <v>306746</v>
+        <v>306792</v>
       </c>
       <c r="F163" s="2">
         <v>3504</v>
@@ -4145,7 +4145,7 @@
         <v>44084</v>
       </c>
       <c r="B164" s="2">
-        <v>15516</v>
+        <v>15517</v>
       </c>
       <c r="C164" s="2">
         <v>103</v>
@@ -4154,13 +4154,13 @@
         <v>101.142857142857</v>
       </c>
       <c r="E164" s="2">
-        <v>310017</v>
+        <v>310064</v>
       </c>
       <c r="F164" s="2">
-        <v>3271</v>
+        <v>3272</v>
       </c>
       <c r="G164" s="4">
-        <v>0.040422495004</v>
+        <v>0.040420187257</v>
       </c>
     </row>
     <row r="165" spans="1:7">
@@ -4168,7 +4168,7 @@
         <v>44085</v>
       </c>
       <c r="B165" s="2">
-        <v>15588</v>
+        <v>15589</v>
       </c>
       <c r="C165" s="2">
         <v>72</v>
@@ -4177,13 +4177,13 @@
         <v>94.142857142857</v>
       </c>
       <c r="E165" s="2">
-        <v>312500</v>
+        <v>312548</v>
       </c>
       <c r="F165" s="2">
-        <v>2483</v>
+        <v>2484</v>
       </c>
       <c r="G165" s="4">
-        <v>0.038318409117</v>
+        <v>0.038313953488</v>
       </c>
     </row>
     <row r="166" spans="1:7">
@@ -4191,7 +4191,7 @@
         <v>44086</v>
       </c>
       <c r="B166" s="2">
-        <v>15636</v>
+        <v>15637</v>
       </c>
       <c r="C166" s="2">
         <v>48</v>
@@ -4200,13 +4200,13 @@
         <v>91.571428571428</v>
       </c>
       <c r="E166" s="2">
-        <v>313886</v>
+        <v>313941</v>
       </c>
       <c r="F166" s="2">
-        <v>1386</v>
+        <v>1393</v>
       </c>
       <c r="G166" s="4">
-        <v>0.037163729128</v>
+        <v>0.037144347221</v>
       </c>
     </row>
     <row r="167" spans="1:7">
@@ -4214,7 +4214,7 @@
         <v>44087</v>
       </c>
       <c r="B167" s="2">
-        <v>15667</v>
+        <v>15668</v>
       </c>
       <c r="C167" s="2">
         <v>31</v>
@@ -4223,13 +4223,13 @@
         <v>88.428571428571</v>
       </c>
       <c r="E167" s="2">
-        <v>314721</v>
+        <v>314780</v>
       </c>
       <c r="F167" s="2">
-        <v>835</v>
+        <v>839</v>
       </c>
       <c r="G167" s="4">
-        <v>0.036418191445</v>
+        <v>0.036390358612</v>
       </c>
     </row>
     <row r="168" spans="1:7">
@@ -4237,7 +4237,7 @@
         <v>44088</v>
       </c>
       <c r="B168" s="2">
-        <v>15766</v>
+        <v>15767</v>
       </c>
       <c r="C168" s="2">
         <v>99</v>
@@ -4246,13 +4246,13 @@
         <v>92.714285714285</v>
       </c>
       <c r="E168" s="2">
-        <v>318079</v>
+        <v>318148</v>
       </c>
       <c r="F168" s="2">
-        <v>3358</v>
+        <v>3368</v>
       </c>
       <c r="G168" s="4">
-        <v>0.033968386894</v>
+        <v>0.033927544565</v>
       </c>
     </row>
     <row r="169" spans="1:7">
@@ -4260,7 +4260,7 @@
         <v>44089</v>
       </c>
       <c r="B169" s="2">
-        <v>15897</v>
+        <v>15898</v>
       </c>
       <c r="C169" s="2">
         <v>131</v>
@@ -4269,13 +4269,13 @@
         <v>90.85714285714199</v>
       </c>
       <c r="E169" s="2">
-        <v>322011</v>
+        <v>322082</v>
       </c>
       <c r="F169" s="2">
-        <v>3932</v>
+        <v>3934</v>
       </c>
       <c r="G169" s="4">
-        <v>0.033885662528</v>
+        <v>0.033840587421</v>
       </c>
     </row>
     <row r="170" spans="1:7">
@@ -4283,7 +4283,7 @@
         <v>44090</v>
       </c>
       <c r="B170" s="2">
-        <v>15983</v>
+        <v>15984</v>
       </c>
       <c r="C170" s="2">
         <v>86</v>
@@ -4292,13 +4292,13 @@
         <v>81.428571428571</v>
       </c>
       <c r="E170" s="2">
-        <v>325286</v>
+        <v>325357</v>
       </c>
       <c r="F170" s="2">
         <v>3275</v>
       </c>
       <c r="G170" s="4">
-        <v>0.030744336569</v>
+        <v>0.030702935631</v>
       </c>
     </row>
     <row r="171" spans="1:7">
@@ -4306,7 +4306,7 @@
         <v>44091</v>
       </c>
       <c r="B171" s="2">
-        <v>16086</v>
+        <v>16087</v>
       </c>
       <c r="C171" s="2">
         <v>103</v>
@@ -4315,13 +4315,13 @@
         <v>81.428571428571</v>
       </c>
       <c r="E171" s="2">
-        <v>328877</v>
+        <v>328948</v>
       </c>
       <c r="F171" s="2">
         <v>3591</v>
       </c>
       <c r="G171" s="4">
-        <v>0.030222693531</v>
+        <v>0.03018428299</v>
       </c>
     </row>
     <row r="172" spans="1:7">
@@ -4329,22 +4329,22 @@
         <v>44092</v>
       </c>
       <c r="B172" s="2">
-        <v>16188</v>
+        <v>16190</v>
       </c>
       <c r="C172" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D172" s="3">
-        <v>85.714285714285</v>
+        <v>85.85714285714199</v>
       </c>
       <c r="E172" s="2">
-        <v>332126</v>
+        <v>332199</v>
       </c>
       <c r="F172" s="2">
-        <v>3249</v>
+        <v>3251</v>
       </c>
       <c r="G172" s="4">
-        <v>0.030571690614</v>
+        <v>0.030583685308</v>
       </c>
     </row>
     <row r="173" spans="1:7">
@@ -4352,22 +4352,22 @@
         <v>44093</v>
       </c>
       <c r="B173" s="2">
-        <v>16257</v>
+        <v>16261</v>
       </c>
       <c r="C173" s="2">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D173" s="3">
-        <v>88.714285714285</v>
+        <v>89.142857142857</v>
       </c>
       <c r="E173" s="2">
-        <v>333633</v>
+        <v>333708</v>
       </c>
       <c r="F173" s="2">
-        <v>1507</v>
+        <v>1509</v>
       </c>
       <c r="G173" s="4">
-        <v>0.031447814857</v>
+        <v>0.031567764455</v>
       </c>
     </row>
     <row r="174" spans="1:7">
@@ -4375,22 +4375,45 @@
         <v>44094</v>
       </c>
       <c r="B174" s="2">
-        <v>16294</v>
+        <v>16299</v>
       </c>
       <c r="C174" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D174" s="3">
-        <v>89.571428571428</v>
+        <v>90.142857142857</v>
       </c>
       <c r="E174" s="2">
-        <v>334733</v>
+        <v>334809</v>
       </c>
       <c r="F174" s="2">
-        <v>1100</v>
+        <v>1101</v>
       </c>
       <c r="G174" s="4">
-        <v>0.031331201279</v>
+        <v>0.031504318737</v>
+      </c>
+    </row>
+    <row r="175" spans="1:7">
+      <c r="A175" s="1">
+        <v>44095</v>
+      </c>
+      <c r="B175" s="2">
+        <v>16437</v>
+      </c>
+      <c r="C175" s="2">
+        <v>138</v>
+      </c>
+      <c r="D175" s="3">
+        <v>95.714285714285</v>
+      </c>
+      <c r="E175" s="2">
+        <v>339040</v>
+      </c>
+      <c r="F175" s="2">
+        <v>4231</v>
+      </c>
+      <c r="G175" s="4">
+        <v>0.032069691748</v>
       </c>
     </row>
   </sheetData>

--- a/contra_costa_county_testing.xlsx
+++ b/contra_costa_county_testing.xlsx
@@ -376,7 +376,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G175"/>
+  <dimension ref="A1:G176"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1532,13 +1532,13 @@
         <v>25.714285714285</v>
       </c>
       <c r="E50" s="2">
-        <v>32141</v>
+        <v>32140</v>
       </c>
       <c r="F50" s="2">
-        <v>1661</v>
+        <v>1660</v>
       </c>
       <c r="G50" s="4">
-        <v>0.026877706435</v>
+        <v>0.02688172043</v>
       </c>
     </row>
     <row r="51" spans="1:7">
@@ -1555,13 +1555,13 @@
         <v>26.142857142857</v>
       </c>
       <c r="E51" s="2">
-        <v>33278</v>
+        <v>33277</v>
       </c>
       <c r="F51" s="2">
         <v>1137</v>
       </c>
       <c r="G51" s="4">
-        <v>0.027171492204</v>
+        <v>0.027175527175</v>
       </c>
     </row>
     <row r="52" spans="1:7">
@@ -1578,13 +1578,13 @@
         <v>27.428571428571</v>
       </c>
       <c r="E52" s="2">
-        <v>34412</v>
+        <v>34411</v>
       </c>
       <c r="F52" s="2">
         <v>1134</v>
       </c>
       <c r="G52" s="4">
-        <v>0.027362120564</v>
+        <v>0.027366020524</v>
       </c>
     </row>
     <row r="53" spans="1:7">
@@ -1601,13 +1601,13 @@
         <v>29.142857142857</v>
       </c>
       <c r="E53" s="2">
-        <v>35500</v>
+        <v>35499</v>
       </c>
       <c r="F53" s="2">
         <v>1088</v>
       </c>
       <c r="G53" s="4">
-        <v>0.028384583275</v>
+        <v>0.028388533259</v>
       </c>
     </row>
     <row r="54" spans="1:7">
@@ -1624,13 +1624,13 @@
         <v>28</v>
       </c>
       <c r="E54" s="2">
-        <v>36018</v>
+        <v>36017</v>
       </c>
       <c r="F54" s="2">
         <v>518</v>
       </c>
       <c r="G54" s="4">
-        <v>0.026864035087</v>
+        <v>0.026867717614</v>
       </c>
     </row>
     <row r="55" spans="1:7">
@@ -1647,13 +1647,13 @@
         <v>27.571428571428</v>
       </c>
       <c r="E55" s="2">
-        <v>36414</v>
+        <v>36413</v>
       </c>
       <c r="F55" s="2">
         <v>396</v>
       </c>
       <c r="G55" s="4">
-        <v>0.026445601534</v>
+        <v>0.026449225709</v>
       </c>
     </row>
     <row r="56" spans="1:7">
@@ -1670,13 +1670,13 @@
         <v>23.285714285714</v>
       </c>
       <c r="E56" s="2">
-        <v>36882</v>
+        <v>36881</v>
       </c>
       <c r="F56" s="2">
         <v>468</v>
       </c>
       <c r="G56" s="4">
-        <v>0.025460793502</v>
+        <v>0.025464771129</v>
       </c>
     </row>
     <row r="57" spans="1:7">
@@ -1693,7 +1693,7 @@
         <v>23.714285714285</v>
       </c>
       <c r="E57" s="2">
-        <v>38078</v>
+        <v>38077</v>
       </c>
       <c r="F57" s="2">
         <v>1196</v>
@@ -1716,7 +1716,7 @@
         <v>23.714285714285</v>
       </c>
       <c r="E58" s="2">
-        <v>39194</v>
+        <v>39193</v>
       </c>
       <c r="F58" s="2">
         <v>1116</v>
@@ -1739,7 +1739,7 @@
         <v>26.285714285714</v>
       </c>
       <c r="E59" s="2">
-        <v>40329</v>
+        <v>40328</v>
       </c>
       <c r="F59" s="2">
         <v>1135</v>
@@ -1762,7 +1762,7 @@
         <v>26.571428571428</v>
       </c>
       <c r="E60" s="2">
-        <v>41732</v>
+        <v>41731</v>
       </c>
       <c r="F60" s="2">
         <v>1403</v>
@@ -1785,7 +1785,7 @@
         <v>26.285714285714</v>
       </c>
       <c r="E61" s="2">
-        <v>42464</v>
+        <v>42463</v>
       </c>
       <c r="F61" s="2">
         <v>732</v>
@@ -1808,7 +1808,7 @@
         <v>26</v>
       </c>
       <c r="E62" s="2">
-        <v>42861</v>
+        <v>42860</v>
       </c>
       <c r="F62" s="2">
         <v>397</v>
@@ -1831,7 +1831,7 @@
         <v>29.285714285714</v>
       </c>
       <c r="E63" s="2">
-        <v>44235</v>
+        <v>44234</v>
       </c>
       <c r="F63" s="2">
         <v>1374</v>
@@ -1854,7 +1854,7 @@
         <v>28.285714285714</v>
       </c>
       <c r="E64" s="2">
-        <v>45451</v>
+        <v>45450</v>
       </c>
       <c r="F64" s="2">
         <v>1216</v>
@@ -1877,7 +1877,7 @@
         <v>27.857142857142</v>
       </c>
       <c r="E65" s="2">
-        <v>46609</v>
+        <v>46608</v>
       </c>
       <c r="F65" s="2">
         <v>1158</v>
@@ -1900,7 +1900,7 @@
         <v>28.428571428571</v>
       </c>
       <c r="E66" s="2">
-        <v>47958</v>
+        <v>47957</v>
       </c>
       <c r="F66" s="2">
         <v>1349</v>
@@ -1923,7 +1923,7 @@
         <v>29.142857142857</v>
       </c>
       <c r="E67" s="2">
-        <v>49592</v>
+        <v>49591</v>
       </c>
       <c r="F67" s="2">
         <v>1634</v>
@@ -1946,7 +1946,7 @@
         <v>30.428571428571</v>
       </c>
       <c r="E68" s="2">
-        <v>50197</v>
+        <v>50196</v>
       </c>
       <c r="F68" s="2">
         <v>605</v>
@@ -1969,7 +1969,7 @@
         <v>32.285714285714</v>
       </c>
       <c r="E69" s="2">
-        <v>50683</v>
+        <v>50682</v>
       </c>
       <c r="F69" s="2">
         <v>486</v>
@@ -1992,7 +1992,7 @@
         <v>34.571428571428</v>
       </c>
       <c r="E70" s="2">
-        <v>52521</v>
+        <v>52520</v>
       </c>
       <c r="F70" s="2">
         <v>1838</v>
@@ -2015,7 +2015,7 @@
         <v>36.285714285714</v>
       </c>
       <c r="E71" s="2">
-        <v>54371</v>
+        <v>54370</v>
       </c>
       <c r="F71" s="2">
         <v>1850</v>
@@ -2038,7 +2038,7 @@
         <v>39.857142857142</v>
       </c>
       <c r="E72" s="2">
-        <v>56362</v>
+        <v>56361</v>
       </c>
       <c r="F72" s="2">
         <v>1991</v>
@@ -2061,7 +2061,7 @@
         <v>40.285714285714</v>
       </c>
       <c r="E73" s="2">
-        <v>58503</v>
+        <v>58502</v>
       </c>
       <c r="F73" s="2">
         <v>2141</v>
@@ -2084,7 +2084,7 @@
         <v>41.857142857142</v>
       </c>
       <c r="E74" s="2">
-        <v>60745</v>
+        <v>60744</v>
       </c>
       <c r="F74" s="2">
         <v>2242</v>
@@ -2107,7 +2107,7 @@
         <v>44.142857142857</v>
       </c>
       <c r="E75" s="2">
-        <v>61583</v>
+        <v>61582</v>
       </c>
       <c r="F75" s="2">
         <v>838</v>
@@ -2130,7 +2130,7 @@
         <v>45.428571428571</v>
       </c>
       <c r="E76" s="2">
-        <v>62166</v>
+        <v>62165</v>
       </c>
       <c r="F76" s="2">
         <v>583</v>
@@ -2153,7 +2153,7 @@
         <v>46.571428571428</v>
       </c>
       <c r="E77" s="2">
-        <v>64381</v>
+        <v>64380</v>
       </c>
       <c r="F77" s="2">
         <v>2215</v>
@@ -2176,7 +2176,7 @@
         <v>52.428571428571</v>
       </c>
       <c r="E78" s="2">
-        <v>66901</v>
+        <v>66900</v>
       </c>
       <c r="F78" s="2">
         <v>2520</v>
@@ -2199,7 +2199,7 @@
         <v>57.142857142857</v>
       </c>
       <c r="E79" s="2">
-        <v>69470</v>
+        <v>69469</v>
       </c>
       <c r="F79" s="2">
         <v>2569</v>
@@ -2222,7 +2222,7 @@
         <v>62.28571428571399</v>
       </c>
       <c r="E80" s="2">
-        <v>71993</v>
+        <v>71992</v>
       </c>
       <c r="F80" s="2">
         <v>2523</v>
@@ -2245,7 +2245,7 @@
         <v>68.428571428571</v>
       </c>
       <c r="E81" s="2">
-        <v>74435</v>
+        <v>74434</v>
       </c>
       <c r="F81" s="2">
         <v>2442</v>
@@ -2268,7 +2268,7 @@
         <v>71</v>
       </c>
       <c r="E82" s="2">
-        <v>75385</v>
+        <v>75384</v>
       </c>
       <c r="F82" s="2">
         <v>950</v>
@@ -2291,7 +2291,7 @@
         <v>72.85714285714199</v>
       </c>
       <c r="E83" s="2">
-        <v>76082</v>
+        <v>76081</v>
       </c>
       <c r="F83" s="2">
         <v>697</v>
@@ -2314,7 +2314,7 @@
         <v>80.714285714285</v>
       </c>
       <c r="E84" s="2">
-        <v>78702</v>
+        <v>78701</v>
       </c>
       <c r="F84" s="2">
         <v>2620</v>
@@ -2337,7 +2337,7 @@
         <v>87.714285714285</v>
       </c>
       <c r="E85" s="2">
-        <v>81487</v>
+        <v>81486</v>
       </c>
       <c r="F85" s="2">
         <v>2785</v>
@@ -2360,7 +2360,7 @@
         <v>95.714285714285</v>
       </c>
       <c r="E86" s="2">
-        <v>84513</v>
+        <v>84512</v>
       </c>
       <c r="F86" s="2">
         <v>3026</v>
@@ -2383,7 +2383,7 @@
         <v>104.571428571428</v>
       </c>
       <c r="E87" s="2">
-        <v>87871</v>
+        <v>87870</v>
       </c>
       <c r="F87" s="2">
         <v>3358</v>
@@ -2406,7 +2406,7 @@
         <v>114.285714285714</v>
       </c>
       <c r="E88" s="2">
-        <v>90837</v>
+        <v>90836</v>
       </c>
       <c r="F88" s="2">
         <v>2966</v>
@@ -2429,7 +2429,7 @@
         <v>118.285714285714</v>
       </c>
       <c r="E89" s="2">
-        <v>91911</v>
+        <v>91910</v>
       </c>
       <c r="F89" s="2">
         <v>1074</v>
@@ -2452,7 +2452,7 @@
         <v>121</v>
       </c>
       <c r="E90" s="2">
-        <v>92706</v>
+        <v>92705</v>
       </c>
       <c r="F90" s="2">
         <v>795</v>
@@ -2475,7 +2475,7 @@
         <v>133.285714285714</v>
       </c>
       <c r="E91" s="2">
-        <v>96390</v>
+        <v>96389</v>
       </c>
       <c r="F91" s="2">
         <v>3684</v>
@@ -2501,10 +2501,10 @@
         <v>99864</v>
       </c>
       <c r="F92" s="2">
-        <v>3474</v>
+        <v>3475</v>
       </c>
       <c r="G92" s="4">
-        <v>0.05207596452</v>
+        <v>0.052073130917</v>
       </c>
     </row>
     <row r="93" spans="1:7">
@@ -2527,7 +2527,7 @@
         <v>3536</v>
       </c>
       <c r="G93" s="4">
-        <v>0.052258166993</v>
+        <v>0.052255400254</v>
       </c>
     </row>
     <row r="94" spans="1:7">
@@ -2550,7 +2550,7 @@
         <v>3918</v>
       </c>
       <c r="G94" s="4">
-        <v>0.05383863835</v>
+        <v>0.053835870012</v>
       </c>
     </row>
     <row r="95" spans="1:7">
@@ -2573,7 +2573,7 @@
         <v>2639</v>
       </c>
       <c r="G95" s="4">
-        <v>0.053399581589</v>
+        <v>0.05339678887</v>
       </c>
     </row>
     <row r="96" spans="1:7">
@@ -2590,13 +2590,13 @@
         <v>147.714285714285</v>
       </c>
       <c r="E96" s="2">
-        <v>111073</v>
+        <v>111074</v>
       </c>
       <c r="F96" s="2">
-        <v>1116</v>
+        <v>1117</v>
       </c>
       <c r="G96" s="4">
-        <v>0.053960964408</v>
+        <v>0.053955332915</v>
       </c>
     </row>
     <row r="97" spans="1:7">
@@ -2613,13 +2613,13 @@
         <v>151.571428571428</v>
       </c>
       <c r="E97" s="2">
-        <v>112201</v>
+        <v>112202</v>
       </c>
       <c r="F97" s="2">
         <v>1128</v>
       </c>
       <c r="G97" s="4">
-        <v>0.054424211336</v>
+        <v>0.054418628506</v>
       </c>
     </row>
     <row r="98" spans="1:7">
@@ -2636,13 +2636,13 @@
         <v>152.571428571428</v>
       </c>
       <c r="E98" s="2">
-        <v>116270</v>
+        <v>116271</v>
       </c>
       <c r="F98" s="2">
         <v>4069</v>
       </c>
       <c r="G98" s="4">
-        <v>0.053722334004</v>
+        <v>0.053716929886</v>
       </c>
     </row>
     <row r="99" spans="1:7">
@@ -2659,13 +2659,13 @@
         <v>161</v>
       </c>
       <c r="E99" s="2">
-        <v>120342</v>
+        <v>120343</v>
       </c>
       <c r="F99" s="2">
         <v>4072</v>
       </c>
       <c r="G99" s="4">
-        <v>0.055034671354</v>
+        <v>0.055031983983</v>
       </c>
     </row>
     <row r="100" spans="1:7">
@@ -2682,13 +2682,13 @@
         <v>168.428571428571</v>
       </c>
       <c r="E100" s="2">
-        <v>124596</v>
+        <v>124597</v>
       </c>
       <c r="F100" s="2">
         <v>4254</v>
       </c>
       <c r="G100" s="4">
-        <v>0.055623702585</v>
+        <v>0.055621078454</v>
       </c>
     </row>
     <row r="101" spans="1:7">
@@ -2705,13 +2705,13 @@
         <v>174.285714285714</v>
       </c>
       <c r="E101" s="2">
-        <v>129193</v>
+        <v>129194</v>
       </c>
       <c r="F101" s="2">
         <v>4597</v>
       </c>
       <c r="G101" s="4">
-        <v>0.055771428571</v>
+        <v>0.055768879136</v>
       </c>
     </row>
     <row r="102" spans="1:7">
@@ -2728,13 +2728,13 @@
         <v>189.285714285714</v>
       </c>
       <c r="E102" s="2">
-        <v>133653</v>
+        <v>133655</v>
       </c>
       <c r="F102" s="2">
-        <v>4460</v>
+        <v>4461</v>
       </c>
       <c r="G102" s="4">
-        <v>0.055916610398</v>
+        <v>0.055911891298</v>
       </c>
     </row>
     <row r="103" spans="1:7">
@@ -2751,13 +2751,13 @@
         <v>196</v>
       </c>
       <c r="E103" s="2">
-        <v>135722</v>
+        <v>135724</v>
       </c>
       <c r="F103" s="2">
         <v>2069</v>
       </c>
       <c r="G103" s="4">
-        <v>0.055661487281</v>
+        <v>0.055659229208</v>
       </c>
     </row>
     <row r="104" spans="1:7">
@@ -2774,13 +2774,13 @@
         <v>198.142857142857</v>
       </c>
       <c r="E104" s="2">
-        <v>137047</v>
+        <v>137049</v>
       </c>
       <c r="F104" s="2">
         <v>1325</v>
       </c>
       <c r="G104" s="4">
-        <v>0.05582387507</v>
+        <v>0.055821628365</v>
       </c>
     </row>
     <row r="105" spans="1:7">
@@ -2797,13 +2797,13 @@
         <v>206.285714285714</v>
       </c>
       <c r="E105" s="2">
-        <v>141645</v>
+        <v>141647</v>
       </c>
       <c r="F105" s="2">
         <v>4598</v>
       </c>
       <c r="G105" s="4">
-        <v>0.05690640394</v>
+        <v>0.056904161412</v>
       </c>
     </row>
     <row r="106" spans="1:7">
@@ -2820,13 +2820,13 @@
         <v>211.571428571428</v>
       </c>
       <c r="E106" s="2">
-        <v>145377</v>
+        <v>145380</v>
       </c>
       <c r="F106" s="2">
-        <v>3732</v>
+        <v>3733</v>
       </c>
       <c r="G106" s="4">
-        <v>0.059157179948</v>
+        <v>0.059152454367</v>
       </c>
     </row>
     <row r="107" spans="1:7">
@@ -2843,13 +2843,13 @@
         <v>216.571428571428</v>
       </c>
       <c r="E107" s="2">
-        <v>149716</v>
+        <v>149720</v>
       </c>
       <c r="F107" s="2">
-        <v>4339</v>
+        <v>4340</v>
       </c>
       <c r="G107" s="4">
-        <v>0.060350318471</v>
+        <v>0.060343111889</v>
       </c>
     </row>
     <row r="108" spans="1:7">
@@ -2866,13 +2866,13 @@
         <v>216.857142857142</v>
       </c>
       <c r="E108" s="2">
-        <v>153898</v>
+        <v>153902</v>
       </c>
       <c r="F108" s="2">
         <v>4182</v>
       </c>
       <c r="G108" s="4">
-        <v>0.061445051608</v>
+        <v>0.061437591063</v>
       </c>
     </row>
     <row r="109" spans="1:7">
@@ -2889,13 +2889,13 @@
         <v>217.285714285714</v>
       </c>
       <c r="E109" s="2">
-        <v>158086</v>
+        <v>158090</v>
       </c>
       <c r="F109" s="2">
         <v>4188</v>
       </c>
       <c r="G109" s="4">
-        <v>0.062251872467</v>
+        <v>0.062246777163</v>
       </c>
     </row>
     <row r="110" spans="1:7">
@@ -2912,13 +2912,13 @@
         <v>215.714285714285</v>
       </c>
       <c r="E110" s="2">
-        <v>160307</v>
+        <v>160311</v>
       </c>
       <c r="F110" s="2">
         <v>2221</v>
       </c>
       <c r="G110" s="4">
-        <v>0.061419564775</v>
+        <v>0.061414568674</v>
       </c>
     </row>
     <row r="111" spans="1:7">
@@ -2935,13 +2935,13 @@
         <v>215.571428571428</v>
       </c>
       <c r="E111" s="2">
-        <v>161564</v>
+        <v>161568</v>
       </c>
       <c r="F111" s="2">
         <v>1257</v>
       </c>
       <c r="G111" s="4">
-        <v>0.061549129175</v>
+        <v>0.06154410865</v>
       </c>
     </row>
     <row r="112" spans="1:7">
@@ -2958,13 +2958,13 @@
         <v>219.857142857142</v>
       </c>
       <c r="E112" s="2">
-        <v>165780</v>
+        <v>165786</v>
       </c>
       <c r="F112" s="2">
-        <v>4216</v>
+        <v>4218</v>
       </c>
       <c r="G112" s="4">
-        <v>0.06376631448099999</v>
+        <v>0.06375574795900001</v>
       </c>
     </row>
     <row r="113" spans="1:7">
@@ -2981,13 +2981,13 @@
         <v>218.285714285714</v>
       </c>
       <c r="E113" s="2">
-        <v>169587</v>
+        <v>169595</v>
       </c>
       <c r="F113" s="2">
-        <v>3807</v>
+        <v>3809</v>
       </c>
       <c r="G113" s="4">
-        <v>0.06311441553</v>
+        <v>0.06310138344000001</v>
       </c>
     </row>
     <row r="114" spans="1:7">
@@ -3004,13 +3004,13 @@
         <v>217</v>
       </c>
       <c r="E114" s="2">
-        <v>173231</v>
+        <v>173241</v>
       </c>
       <c r="F114" s="2">
-        <v>3644</v>
+        <v>3646</v>
       </c>
       <c r="G114" s="4">
-        <v>0.06459706570199999</v>
+        <v>0.06458058756</v>
       </c>
     </row>
     <row r="115" spans="1:7">
@@ -3027,13 +3027,13 @@
         <v>213.571428571428</v>
       </c>
       <c r="E115" s="2">
-        <v>176550</v>
+        <v>176560</v>
       </c>
       <c r="F115" s="2">
         <v>3319</v>
       </c>
       <c r="G115" s="4">
-        <v>0.065998587321</v>
+        <v>0.065981110424</v>
       </c>
     </row>
     <row r="116" spans="1:7">
@@ -3050,13 +3050,13 @@
         <v>209</v>
       </c>
       <c r="E116" s="2">
-        <v>180177</v>
+        <v>180188</v>
       </c>
       <c r="F116" s="2">
-        <v>3627</v>
+        <v>3628</v>
       </c>
       <c r="G116" s="4">
-        <v>0.066226064913</v>
+        <v>0.06620508643299999</v>
       </c>
     </row>
     <row r="117" spans="1:7">
@@ -3073,13 +3073,13 @@
         <v>206.285714285714</v>
       </c>
       <c r="E117" s="2">
-        <v>181794</v>
+        <v>181805</v>
       </c>
       <c r="F117" s="2">
         <v>1617</v>
       </c>
       <c r="G117" s="4">
-        <v>0.067203425326</v>
+        <v>0.067181539034</v>
       </c>
     </row>
     <row r="118" spans="1:7">
@@ -3096,13 +3096,13 @@
         <v>206.714285714285</v>
       </c>
       <c r="E118" s="2">
-        <v>183047</v>
+        <v>183058</v>
       </c>
       <c r="F118" s="2">
         <v>1253</v>
       </c>
       <c r="G118" s="4">
-        <v>0.067355583484</v>
+        <v>0.067333643555</v>
       </c>
     </row>
     <row r="119" spans="1:7">
@@ -3119,13 +3119,13 @@
         <v>199.571428571428</v>
       </c>
       <c r="E119" s="2">
-        <v>187214</v>
+        <v>187225</v>
       </c>
       <c r="F119" s="2">
         <v>4167</v>
       </c>
       <c r="G119" s="4">
-        <v>0.065176821871</v>
+        <v>0.065161621344</v>
       </c>
     </row>
     <row r="120" spans="1:7">
@@ -3142,13 +3142,13 @@
         <v>200.285714285714</v>
       </c>
       <c r="E120" s="2">
-        <v>191081</v>
+        <v>191092</v>
       </c>
       <c r="F120" s="2">
         <v>3867</v>
       </c>
       <c r="G120" s="4">
-        <v>0.06522750535000001</v>
+        <v>0.065218402567</v>
       </c>
     </row>
     <row r="121" spans="1:7">
@@ -3156,22 +3156,22 @@
         <v>44041</v>
       </c>
       <c r="B121" s="2">
-        <v>9628</v>
+        <v>9629</v>
       </c>
       <c r="C121" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="D121" s="3">
-        <v>200</v>
+        <v>200.142857142857</v>
       </c>
       <c r="E121" s="2">
-        <v>194936</v>
+        <v>194948</v>
       </c>
       <c r="F121" s="2">
-        <v>3855</v>
+        <v>3856</v>
       </c>
       <c r="G121" s="4">
-        <v>0.06450126698899999</v>
+        <v>0.064541392177</v>
       </c>
     </row>
     <row r="122" spans="1:7">
@@ -3179,22 +3179,22 @@
         <v>44042</v>
       </c>
       <c r="B122" s="2">
-        <v>9843</v>
+        <v>9844</v>
       </c>
       <c r="C122" s="2">
         <v>215</v>
       </c>
       <c r="D122" s="3">
-        <v>197.714285714285</v>
+        <v>197.857142857142</v>
       </c>
       <c r="E122" s="2">
-        <v>198603</v>
+        <v>198615</v>
       </c>
       <c r="F122" s="2">
         <v>3667</v>
       </c>
       <c r="G122" s="4">
-        <v>0.06275790141900001</v>
+        <v>0.062797551575</v>
       </c>
     </row>
     <row r="123" spans="1:7">
@@ -3202,22 +3202,22 @@
         <v>44043</v>
       </c>
       <c r="B123" s="2">
-        <v>10075</v>
+        <v>10076</v>
       </c>
       <c r="C123" s="2">
         <v>232</v>
       </c>
       <c r="D123" s="3">
-        <v>199.571428571428</v>
+        <v>199.714285714285</v>
       </c>
       <c r="E123" s="2">
-        <v>202135</v>
+        <v>202148</v>
       </c>
       <c r="F123" s="2">
-        <v>3532</v>
+        <v>3533</v>
       </c>
       <c r="G123" s="4">
-        <v>0.063621459149</v>
+        <v>0.063661202185</v>
       </c>
     </row>
     <row r="124" spans="1:7">
@@ -3225,22 +3225,22 @@
         <v>44044</v>
       </c>
       <c r="B124" s="2">
-        <v>10182</v>
+        <v>10183</v>
       </c>
       <c r="C124" s="2">
         <v>107</v>
       </c>
       <c r="D124" s="3">
-        <v>199.142857142857</v>
+        <v>199.285714285714</v>
       </c>
       <c r="E124" s="2">
-        <v>203724</v>
+        <v>203737</v>
       </c>
       <c r="F124" s="2">
         <v>1589</v>
       </c>
       <c r="G124" s="4">
-        <v>0.06356589147199999</v>
+        <v>0.063605690315</v>
       </c>
     </row>
     <row r="125" spans="1:7">
@@ -3248,22 +3248,22 @@
         <v>44045</v>
       </c>
       <c r="B125" s="2">
-        <v>10259</v>
+        <v>10260</v>
       </c>
       <c r="C125" s="2">
         <v>77</v>
       </c>
       <c r="D125" s="3">
-        <v>195.428571428571</v>
+        <v>195.571428571428</v>
       </c>
       <c r="E125" s="2">
-        <v>204845</v>
+        <v>204858</v>
       </c>
       <c r="F125" s="2">
         <v>1121</v>
       </c>
       <c r="G125" s="4">
-        <v>0.06275805119699999</v>
+        <v>0.062798165137</v>
       </c>
     </row>
     <row r="126" spans="1:7">
@@ -3271,22 +3271,22 @@
         <v>44046</v>
       </c>
       <c r="B126" s="2">
-        <v>10512</v>
+        <v>10514</v>
       </c>
       <c r="C126" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="D126" s="3">
-        <v>197.142857142857</v>
+        <v>197.428571428571</v>
       </c>
       <c r="E126" s="2">
-        <v>208639</v>
+        <v>208653</v>
       </c>
       <c r="F126" s="2">
-        <v>3794</v>
+        <v>3795</v>
       </c>
       <c r="G126" s="4">
-        <v>0.064410735122</v>
+        <v>0.064495053201</v>
       </c>
     </row>
     <row r="127" spans="1:7">
@@ -3294,22 +3294,22 @@
         <v>44047</v>
       </c>
       <c r="B127" s="2">
-        <v>10734</v>
+        <v>10736</v>
       </c>
       <c r="C127" s="2">
         <v>222</v>
       </c>
       <c r="D127" s="3">
-        <v>193.571428571428</v>
+        <v>193.857142857142</v>
       </c>
       <c r="E127" s="2">
-        <v>211917</v>
+        <v>211931</v>
       </c>
       <c r="F127" s="2">
         <v>3278</v>
       </c>
       <c r="G127" s="4">
-        <v>0.06503167594500001</v>
+        <v>0.065118287825</v>
       </c>
     </row>
     <row r="128" spans="1:7">
@@ -3317,22 +3317,22 @@
         <v>44048</v>
       </c>
       <c r="B128" s="2">
-        <v>10908</v>
+        <v>10910</v>
       </c>
       <c r="C128" s="2">
         <v>174</v>
       </c>
       <c r="D128" s="3">
-        <v>182.857142857142</v>
+        <v>183</v>
       </c>
       <c r="E128" s="2">
-        <v>215110</v>
+        <v>215124</v>
       </c>
       <c r="F128" s="2">
         <v>3193</v>
       </c>
       <c r="G128" s="4">
-        <v>0.063448002379</v>
+        <v>0.063491276764</v>
       </c>
     </row>
     <row r="129" spans="1:7">
@@ -3340,22 +3340,22 @@
         <v>44049</v>
       </c>
       <c r="B129" s="2">
-        <v>11101</v>
+        <v>11103</v>
       </c>
       <c r="C129" s="2">
         <v>193</v>
       </c>
       <c r="D129" s="3">
-        <v>179.714285714285</v>
+        <v>179.857142857142</v>
       </c>
       <c r="E129" s="2">
-        <v>218757</v>
+        <v>218771</v>
       </c>
       <c r="F129" s="2">
         <v>3647</v>
       </c>
       <c r="G129" s="4">
-        <v>0.062419370844</v>
+        <v>0.062462790236</v>
       </c>
     </row>
     <row r="130" spans="1:7">
@@ -3363,22 +3363,22 @@
         <v>44050</v>
       </c>
       <c r="B130" s="2">
-        <v>11269</v>
+        <v>11271</v>
       </c>
       <c r="C130" s="2">
         <v>168</v>
       </c>
       <c r="D130" s="3">
-        <v>170.571428571428</v>
+        <v>170.714285714285</v>
       </c>
       <c r="E130" s="2">
-        <v>222007</v>
+        <v>222022</v>
       </c>
       <c r="F130" s="2">
-        <v>3250</v>
+        <v>3251</v>
       </c>
       <c r="G130" s="4">
-        <v>0.060084541062</v>
+        <v>0.060128811512</v>
       </c>
     </row>
     <row r="131" spans="1:7">
@@ -3386,22 +3386,22 @@
         <v>44051</v>
       </c>
       <c r="B131" s="2">
-        <v>11371</v>
+        <v>11373</v>
       </c>
       <c r="C131" s="2">
         <v>102</v>
       </c>
       <c r="D131" s="3">
-        <v>169.857142857142</v>
+        <v>170</v>
       </c>
       <c r="E131" s="2">
-        <v>223690</v>
+        <v>223705</v>
       </c>
       <c r="F131" s="2">
         <v>1683</v>
       </c>
       <c r="G131" s="4">
-        <v>0.059551237103</v>
+        <v>0.059595352564</v>
       </c>
     </row>
     <row r="132" spans="1:7">
@@ -3409,22 +3409,22 @@
         <v>44052</v>
       </c>
       <c r="B132" s="2">
-        <v>11451</v>
+        <v>11453</v>
       </c>
       <c r="C132" s="2">
         <v>80</v>
       </c>
       <c r="D132" s="3">
-        <v>170.285714285714</v>
+        <v>170.428571428571</v>
       </c>
       <c r="E132" s="2">
-        <v>224731</v>
+        <v>224746</v>
       </c>
       <c r="F132" s="2">
         <v>1041</v>
       </c>
       <c r="G132" s="4">
-        <v>0.059941667504</v>
+        <v>0.059985921158</v>
       </c>
     </row>
     <row r="133" spans="1:7">
@@ -3432,22 +3432,22 @@
         <v>44053</v>
       </c>
       <c r="B133" s="2">
-        <v>11685</v>
+        <v>11688</v>
       </c>
       <c r="C133" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D133" s="3">
-        <v>167.571428571428</v>
+        <v>167.714285714285</v>
       </c>
       <c r="E133" s="2">
-        <v>228616</v>
+        <v>228636</v>
       </c>
       <c r="F133" s="2">
-        <v>3885</v>
+        <v>3890</v>
       </c>
       <c r="G133" s="4">
-        <v>0.058717525153</v>
+        <v>0.058749937446</v>
       </c>
     </row>
     <row r="134" spans="1:7">
@@ -3455,22 +3455,22 @@
         <v>44054</v>
       </c>
       <c r="B134" s="2">
-        <v>11883</v>
+        <v>11886</v>
       </c>
       <c r="C134" s="2">
         <v>198</v>
       </c>
       <c r="D134" s="3">
-        <v>164.142857142857</v>
+        <v>164.285714285714</v>
       </c>
       <c r="E134" s="2">
-        <v>232030</v>
+        <v>232050</v>
       </c>
       <c r="F134" s="2">
         <v>3414</v>
       </c>
       <c r="G134" s="4">
-        <v>0.057127231144</v>
+        <v>0.057159898603</v>
       </c>
     </row>
     <row r="135" spans="1:7">
@@ -3478,22 +3478,22 @@
         <v>44055</v>
       </c>
       <c r="B135" s="2">
-        <v>12081</v>
+        <v>12084</v>
       </c>
       <c r="C135" s="2">
         <v>198</v>
       </c>
       <c r="D135" s="3">
-        <v>167.571428571428</v>
+        <v>167.714285714285</v>
       </c>
       <c r="E135" s="2">
-        <v>235868</v>
+        <v>235894</v>
       </c>
       <c r="F135" s="2">
-        <v>3838</v>
+        <v>3844</v>
       </c>
       <c r="G135" s="4">
-        <v>0.056508334136</v>
+        <v>0.05652383245</v>
       </c>
     </row>
     <row r="136" spans="1:7">
@@ -3501,22 +3501,22 @@
         <v>44056</v>
       </c>
       <c r="B136" s="2">
-        <v>12259</v>
+        <v>12262</v>
       </c>
       <c r="C136" s="2">
         <v>178</v>
       </c>
       <c r="D136" s="3">
-        <v>165.428571428571</v>
+        <v>165.571428571428</v>
       </c>
       <c r="E136" s="2">
-        <v>239122</v>
+        <v>239157</v>
       </c>
       <c r="F136" s="2">
-        <v>3254</v>
+        <v>3263</v>
       </c>
       <c r="G136" s="4">
-        <v>0.056862263687</v>
+        <v>0.056852742077</v>
       </c>
     </row>
     <row r="137" spans="1:7">
@@ -3524,22 +3524,22 @@
         <v>44057</v>
       </c>
       <c r="B137" s="2">
-        <v>12432</v>
+        <v>12435</v>
       </c>
       <c r="C137" s="2">
         <v>173</v>
       </c>
       <c r="D137" s="3">
-        <v>166.142857142857</v>
+        <v>166.285714285714</v>
       </c>
       <c r="E137" s="2">
-        <v>242463</v>
+        <v>242510</v>
       </c>
       <c r="F137" s="2">
-        <v>3341</v>
+        <v>3353</v>
       </c>
       <c r="G137" s="4">
-        <v>0.056853734845</v>
+        <v>0.056813744631</v>
       </c>
     </row>
     <row r="138" spans="1:7">
@@ -3547,22 +3547,22 @@
         <v>44058</v>
       </c>
       <c r="B138" s="2">
-        <v>12524</v>
+        <v>12527</v>
       </c>
       <c r="C138" s="2">
         <v>92</v>
       </c>
       <c r="D138" s="3">
-        <v>164.714285714285</v>
+        <v>164.857142857142</v>
       </c>
       <c r="E138" s="2">
-        <v>244022</v>
+        <v>244069</v>
       </c>
       <c r="F138" s="2">
         <v>1559</v>
       </c>
       <c r="G138" s="4">
-        <v>0.056708636631</v>
+        <v>0.056668630917</v>
       </c>
     </row>
     <row r="139" spans="1:7">
@@ -3570,22 +3570,22 @@
         <v>44059</v>
       </c>
       <c r="B139" s="2">
-        <v>12569</v>
+        <v>12572</v>
       </c>
       <c r="C139" s="2">
         <v>45</v>
       </c>
       <c r="D139" s="3">
-        <v>159.714285714285</v>
+        <v>159.857142857142</v>
       </c>
       <c r="E139" s="2">
-        <v>244798</v>
+        <v>244845</v>
       </c>
       <c r="F139" s="2">
         <v>776</v>
       </c>
       <c r="G139" s="4">
-        <v>0.055713360243</v>
+        <v>0.055674411662</v>
       </c>
     </row>
     <row r="140" spans="1:7">
@@ -3593,7 +3593,7 @@
         <v>44060</v>
       </c>
       <c r="B140" s="2">
-        <v>12781</v>
+        <v>12784</v>
       </c>
       <c r="C140" s="2">
         <v>212</v>
@@ -3602,13 +3602,13 @@
         <v>156.571428571428</v>
       </c>
       <c r="E140" s="2">
-        <v>248434</v>
+        <v>248484</v>
       </c>
       <c r="F140" s="2">
-        <v>3636</v>
+        <v>3639</v>
       </c>
       <c r="G140" s="4">
-        <v>0.055303259662</v>
+        <v>0.055219669488</v>
       </c>
     </row>
     <row r="141" spans="1:7">
@@ -3616,7 +3616,7 @@
         <v>44061</v>
       </c>
       <c r="B141" s="2">
-        <v>12948</v>
+        <v>12951</v>
       </c>
       <c r="C141" s="2">
         <v>167</v>
@@ -3625,13 +3625,13 @@
         <v>152.142857142857</v>
       </c>
       <c r="E141" s="2">
-        <v>251477</v>
+        <v>251528</v>
       </c>
       <c r="F141" s="2">
-        <v>3043</v>
+        <v>3044</v>
       </c>
       <c r="G141" s="4">
-        <v>0.054764230986</v>
+        <v>0.054677071567</v>
       </c>
     </row>
     <row r="142" spans="1:7">
@@ -3639,7 +3639,7 @@
         <v>44062</v>
       </c>
       <c r="B142" s="2">
-        <v>13106</v>
+        <v>13109</v>
       </c>
       <c r="C142" s="2">
         <v>158</v>
@@ -3648,13 +3648,13 @@
         <v>146.428571428571</v>
       </c>
       <c r="E142" s="2">
-        <v>254517</v>
+        <v>254568</v>
       </c>
       <c r="F142" s="2">
         <v>3040</v>
       </c>
       <c r="G142" s="4">
-        <v>0.054962732586</v>
+        <v>0.05488915069</v>
       </c>
     </row>
     <row r="143" spans="1:7">
@@ -3662,7 +3662,7 @@
         <v>44063</v>
       </c>
       <c r="B143" s="2">
-        <v>13238</v>
+        <v>13241</v>
       </c>
       <c r="C143" s="2">
         <v>132</v>
@@ -3671,13 +3671,13 @@
         <v>139.857142857142</v>
       </c>
       <c r="E143" s="2">
-        <v>257672</v>
+        <v>257723</v>
       </c>
       <c r="F143" s="2">
         <v>3155</v>
       </c>
       <c r="G143" s="4">
-        <v>0.052776280323</v>
+        <v>0.052730798233</v>
       </c>
     </row>
     <row r="144" spans="1:7">
@@ -3685,7 +3685,7 @@
         <v>44064</v>
       </c>
       <c r="B144" s="2">
-        <v>13400</v>
+        <v>13403</v>
       </c>
       <c r="C144" s="2">
         <v>162</v>
@@ -3694,13 +3694,13 @@
         <v>138.285714285714</v>
       </c>
       <c r="E144" s="2">
-        <v>260696</v>
+        <v>260747</v>
       </c>
       <c r="F144" s="2">
         <v>3024</v>
       </c>
       <c r="G144" s="4">
-        <v>0.053090550101</v>
+        <v>0.053078905521</v>
       </c>
     </row>
     <row r="145" spans="1:7">
@@ -3708,7 +3708,7 @@
         <v>44065</v>
       </c>
       <c r="B145" s="2">
-        <v>13461</v>
+        <v>13464</v>
       </c>
       <c r="C145" s="2">
         <v>61</v>
@@ -3717,13 +3717,13 @@
         <v>133.857142857142</v>
       </c>
       <c r="E145" s="2">
-        <v>262024</v>
+        <v>262075</v>
       </c>
       <c r="F145" s="2">
         <v>1328</v>
       </c>
       <c r="G145" s="4">
-        <v>0.052049772247</v>
+        <v>0.052038209485</v>
       </c>
     </row>
     <row r="146" spans="1:7">
@@ -3731,7 +3731,7 @@
         <v>44066</v>
       </c>
       <c r="B146" s="2">
-        <v>13527</v>
+        <v>13530</v>
       </c>
       <c r="C146" s="2">
         <v>66</v>
@@ -3740,13 +3740,13 @@
         <v>136.857142857142</v>
       </c>
       <c r="E146" s="2">
-        <v>262984</v>
+        <v>263035</v>
       </c>
       <c r="F146" s="2">
         <v>960</v>
       </c>
       <c r="G146" s="4">
-        <v>0.052677884086</v>
+        <v>0.052666300164</v>
       </c>
     </row>
     <row r="147" spans="1:7">
@@ -3754,7 +3754,7 @@
         <v>44067</v>
       </c>
       <c r="B147" s="2">
-        <v>13674</v>
+        <v>13677</v>
       </c>
       <c r="C147" s="2">
         <v>147</v>
@@ -3763,10 +3763,10 @@
         <v>127.571428571428</v>
       </c>
       <c r="E147" s="2">
-        <v>265954</v>
+        <v>266004</v>
       </c>
       <c r="F147" s="2">
-        <v>2970</v>
+        <v>2969</v>
       </c>
       <c r="G147" s="4">
         <v>0.050970319634</v>
@@ -3777,7 +3777,7 @@
         <v>44068</v>
       </c>
       <c r="B148" s="2">
-        <v>13807</v>
+        <v>13810</v>
       </c>
       <c r="C148" s="2">
         <v>133</v>
@@ -3786,10 +3786,10 @@
         <v>122.714285714285</v>
       </c>
       <c r="E148" s="2">
-        <v>268955</v>
+        <v>269006</v>
       </c>
       <c r="F148" s="2">
-        <v>3001</v>
+        <v>3002</v>
       </c>
       <c r="G148" s="4">
         <v>0.049147499713</v>
@@ -3800,7 +3800,7 @@
         <v>44069</v>
       </c>
       <c r="B149" s="2">
-        <v>13935</v>
+        <v>13938</v>
       </c>
       <c r="C149" s="2">
         <v>128</v>
@@ -3809,7 +3809,7 @@
         <v>118.428571428571</v>
       </c>
       <c r="E149" s="2">
-        <v>271810</v>
+        <v>271861</v>
       </c>
       <c r="F149" s="2">
         <v>2855</v>
@@ -3823,22 +3823,22 @@
         <v>44070</v>
       </c>
       <c r="B150" s="2">
-        <v>14096</v>
+        <v>14101</v>
       </c>
       <c r="C150" s="2">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="D150" s="3">
-        <v>122.571428571428</v>
+        <v>122.857142857142</v>
       </c>
       <c r="E150" s="2">
-        <v>275007</v>
+        <v>275060</v>
       </c>
       <c r="F150" s="2">
-        <v>3197</v>
+        <v>3199</v>
       </c>
       <c r="G150" s="4">
-        <v>0.049495240842</v>
+        <v>0.049604891272</v>
       </c>
     </row>
     <row r="151" spans="1:7">
@@ -3846,22 +3846,22 @@
         <v>44071</v>
       </c>
       <c r="B151" s="2">
-        <v>14214</v>
+        <v>14219</v>
       </c>
       <c r="C151" s="2">
         <v>118</v>
       </c>
       <c r="D151" s="3">
-        <v>116.285714285714</v>
+        <v>116.571428571428</v>
       </c>
       <c r="E151" s="2">
-        <v>277778</v>
+        <v>277831</v>
       </c>
       <c r="F151" s="2">
         <v>2771</v>
       </c>
       <c r="G151" s="4">
-        <v>0.047652499707</v>
+        <v>0.047763989697</v>
       </c>
     </row>
     <row r="152" spans="1:7">
@@ -3869,22 +3869,22 @@
         <v>44072</v>
       </c>
       <c r="B152" s="2">
-        <v>14278</v>
+        <v>14283</v>
       </c>
       <c r="C152" s="2">
         <v>64</v>
       </c>
       <c r="D152" s="3">
-        <v>116.714285714285</v>
+        <v>117</v>
       </c>
       <c r="E152" s="2">
-        <v>279207</v>
+        <v>279262</v>
       </c>
       <c r="F152" s="2">
-        <v>1429</v>
+        <v>1431</v>
       </c>
       <c r="G152" s="4">
-        <v>0.047546994122</v>
+        <v>0.047652295339</v>
       </c>
     </row>
     <row r="153" spans="1:7">
@@ -3892,22 +3892,22 @@
         <v>44073</v>
       </c>
       <c r="B153" s="2">
-        <v>14335</v>
+        <v>14340</v>
       </c>
       <c r="C153" s="2">
         <v>57</v>
       </c>
       <c r="D153" s="3">
-        <v>115.428571428571</v>
+        <v>115.714285714285</v>
       </c>
       <c r="E153" s="2">
-        <v>280284</v>
+        <v>280339</v>
       </c>
       <c r="F153" s="2">
         <v>1077</v>
       </c>
       <c r="G153" s="4">
-        <v>0.046705202312</v>
+        <v>0.04680998613</v>
       </c>
     </row>
     <row r="154" spans="1:7">
@@ -3915,22 +3915,22 @@
         <v>44074</v>
       </c>
       <c r="B154" s="2">
-        <v>14471</v>
+        <v>14476</v>
       </c>
       <c r="C154" s="2">
         <v>136</v>
       </c>
       <c r="D154" s="3">
-        <v>113.857142857142</v>
+        <v>114.142857142857</v>
       </c>
       <c r="E154" s="2">
-        <v>283399</v>
+        <v>283457</v>
       </c>
       <c r="F154" s="2">
-        <v>3115</v>
+        <v>3118</v>
       </c>
       <c r="G154" s="4">
-        <v>0.045686443106</v>
+        <v>0.045780095112</v>
       </c>
     </row>
     <row r="155" spans="1:7">
@@ -3938,22 +3938,22 @@
         <v>44075</v>
       </c>
       <c r="B155" s="2">
-        <v>14599</v>
+        <v>14604</v>
       </c>
       <c r="C155" s="2">
         <v>128</v>
       </c>
       <c r="D155" s="3">
-        <v>113.142857142857</v>
+        <v>113.428571428571</v>
       </c>
       <c r="E155" s="2">
-        <v>286660</v>
+        <v>286718</v>
       </c>
       <c r="F155" s="2">
         <v>3261</v>
       </c>
       <c r="G155" s="4">
-        <v>0.044733126235</v>
+        <v>0.04482836495</v>
       </c>
     </row>
     <row r="156" spans="1:7">
@@ -3961,22 +3961,22 @@
         <v>44076</v>
       </c>
       <c r="B156" s="2">
-        <v>14715</v>
+        <v>14720</v>
       </c>
       <c r="C156" s="2">
         <v>116</v>
       </c>
       <c r="D156" s="3">
-        <v>111.428571428571</v>
+        <v>111.714285714285</v>
       </c>
       <c r="E156" s="2">
-        <v>289621</v>
+        <v>289679</v>
       </c>
       <c r="F156" s="2">
         <v>2961</v>
       </c>
       <c r="G156" s="4">
-        <v>0.043793161529</v>
+        <v>0.04388820294</v>
       </c>
     </row>
     <row r="157" spans="1:7">
@@ -3984,7 +3984,7 @@
         <v>44077</v>
       </c>
       <c r="B157" s="2">
-        <v>14809</v>
+        <v>14814</v>
       </c>
       <c r="C157" s="2">
         <v>94</v>
@@ -3993,13 +3993,13 @@
         <v>101.857142857142</v>
       </c>
       <c r="E157" s="2">
-        <v>292548</v>
+        <v>292607</v>
       </c>
       <c r="F157" s="2">
-        <v>2927</v>
+        <v>2928</v>
       </c>
       <c r="G157" s="4">
-        <v>0.040647625562</v>
+        <v>0.040633726562</v>
       </c>
     </row>
     <row r="158" spans="1:7">
@@ -4007,7 +4007,7 @@
         <v>44078</v>
       </c>
       <c r="B158" s="2">
-        <v>14930</v>
+        <v>14935</v>
       </c>
       <c r="C158" s="2">
         <v>121</v>
@@ -4016,13 +4016,13 @@
         <v>102.285714285714</v>
       </c>
       <c r="E158" s="2">
-        <v>295348</v>
+        <v>295408</v>
       </c>
       <c r="F158" s="2">
-        <v>2800</v>
+        <v>2801</v>
       </c>
       <c r="G158" s="4">
-        <v>0.040751280591</v>
+        <v>0.040735051487</v>
       </c>
     </row>
     <row r="159" spans="1:7">
@@ -4030,7 +4030,7 @@
         <v>44079</v>
       </c>
       <c r="B159" s="2">
-        <v>14996</v>
+        <v>15001</v>
       </c>
       <c r="C159" s="2">
         <v>66</v>
@@ -4039,13 +4039,13 @@
         <v>102.571428571428</v>
       </c>
       <c r="E159" s="2">
-        <v>296684</v>
+        <v>296744</v>
       </c>
       <c r="F159" s="2">
         <v>1336</v>
       </c>
       <c r="G159" s="4">
-        <v>0.041082565657</v>
+        <v>0.041070815696</v>
       </c>
     </row>
     <row r="160" spans="1:7">
@@ -4053,7 +4053,7 @@
         <v>44080</v>
       </c>
       <c r="B160" s="2">
-        <v>15049</v>
+        <v>15054</v>
       </c>
       <c r="C160" s="2">
         <v>53</v>
@@ -4062,13 +4062,13 @@
         <v>102</v>
       </c>
       <c r="E160" s="2">
-        <v>297770</v>
+        <v>297830</v>
       </c>
       <c r="F160" s="2">
         <v>1086</v>
       </c>
       <c r="G160" s="4">
-        <v>0.040832666132</v>
+        <v>0.040820993653</v>
       </c>
     </row>
     <row r="161" spans="1:7">
@@ -4076,7 +4076,7 @@
         <v>44081</v>
       </c>
       <c r="B161" s="2">
-        <v>15118</v>
+        <v>15123</v>
       </c>
       <c r="C161" s="2">
         <v>69</v>
@@ -4085,13 +4085,13 @@
         <v>92.428571428571</v>
       </c>
       <c r="E161" s="2">
-        <v>299019</v>
+        <v>299080</v>
       </c>
       <c r="F161" s="2">
-        <v>1249</v>
+        <v>1250</v>
       </c>
       <c r="G161" s="4">
-        <v>0.041421254801</v>
+        <v>0.041413300902</v>
       </c>
     </row>
     <row r="162" spans="1:7">
@@ -4099,7 +4099,7 @@
         <v>44082</v>
       </c>
       <c r="B162" s="2">
-        <v>15262</v>
+        <v>15267</v>
       </c>
       <c r="C162" s="2">
         <v>144</v>
@@ -4108,13 +4108,13 @@
         <v>94.714285714285</v>
       </c>
       <c r="E162" s="2">
-        <v>303288</v>
+        <v>303349</v>
       </c>
       <c r="F162" s="2">
         <v>4269</v>
       </c>
       <c r="G162" s="4">
-        <v>0.039872504209</v>
+        <v>0.039865311767</v>
       </c>
     </row>
     <row r="163" spans="1:7">
@@ -4122,7 +4122,7 @@
         <v>44083</v>
       </c>
       <c r="B163" s="2">
-        <v>15414</v>
+        <v>15419</v>
       </c>
       <c r="C163" s="2">
         <v>152</v>
@@ -4131,13 +4131,13 @@
         <v>99.85714285714199</v>
       </c>
       <c r="E163" s="2">
-        <v>306792</v>
+        <v>306856</v>
       </c>
       <c r="F163" s="2">
-        <v>3504</v>
+        <v>3507</v>
       </c>
       <c r="G163" s="4">
-        <v>0.040708170753</v>
+        <v>0.040693951213</v>
       </c>
     </row>
     <row r="164" spans="1:7">
@@ -4145,7 +4145,7 @@
         <v>44084</v>
       </c>
       <c r="B164" s="2">
-        <v>15517</v>
+        <v>15522</v>
       </c>
       <c r="C164" s="2">
         <v>103</v>
@@ -4154,13 +4154,13 @@
         <v>101.142857142857</v>
       </c>
       <c r="E164" s="2">
-        <v>310064</v>
+        <v>310128</v>
       </c>
       <c r="F164" s="2">
         <v>3272</v>
       </c>
       <c r="G164" s="4">
-        <v>0.040420187257</v>
+        <v>0.040408652474</v>
       </c>
     </row>
     <row r="165" spans="1:7">
@@ -4168,7 +4168,7 @@
         <v>44085</v>
       </c>
       <c r="B165" s="2">
-        <v>15589</v>
+        <v>15594</v>
       </c>
       <c r="C165" s="2">
         <v>72</v>
@@ -4177,13 +4177,13 @@
         <v>94.142857142857</v>
       </c>
       <c r="E165" s="2">
-        <v>312548</v>
+        <v>312613</v>
       </c>
       <c r="F165" s="2">
-        <v>2484</v>
+        <v>2485</v>
       </c>
       <c r="G165" s="4">
-        <v>0.038313953488</v>
+        <v>0.038302818947</v>
       </c>
     </row>
     <row r="166" spans="1:7">
@@ -4191,7 +4191,7 @@
         <v>44086</v>
       </c>
       <c r="B166" s="2">
-        <v>15637</v>
+        <v>15642</v>
       </c>
       <c r="C166" s="2">
         <v>48</v>
@@ -4200,13 +4200,13 @@
         <v>91.571428571428</v>
       </c>
       <c r="E166" s="2">
-        <v>313941</v>
+        <v>314006</v>
       </c>
       <c r="F166" s="2">
         <v>1393</v>
       </c>
       <c r="G166" s="4">
-        <v>0.037144347221</v>
+        <v>0.037133588228</v>
       </c>
     </row>
     <row r="167" spans="1:7">
@@ -4214,7 +4214,7 @@
         <v>44087</v>
       </c>
       <c r="B167" s="2">
-        <v>15668</v>
+        <v>15673</v>
       </c>
       <c r="C167" s="2">
         <v>31</v>
@@ -4223,13 +4223,13 @@
         <v>88.428571428571</v>
       </c>
       <c r="E167" s="2">
-        <v>314780</v>
+        <v>314846</v>
       </c>
       <c r="F167" s="2">
-        <v>839</v>
+        <v>840</v>
       </c>
       <c r="G167" s="4">
-        <v>0.036390358612</v>
+        <v>0.036377527033</v>
       </c>
     </row>
     <row r="168" spans="1:7">
@@ -4237,7 +4237,7 @@
         <v>44088</v>
       </c>
       <c r="B168" s="2">
-        <v>15767</v>
+        <v>15772</v>
       </c>
       <c r="C168" s="2">
         <v>99</v>
@@ -4246,13 +4246,13 @@
         <v>92.714285714285</v>
       </c>
       <c r="E168" s="2">
-        <v>318148</v>
+        <v>318222</v>
       </c>
       <c r="F168" s="2">
-        <v>3368</v>
+        <v>3376</v>
       </c>
       <c r="G168" s="4">
-        <v>0.033927544565</v>
+        <v>0.033904503186</v>
       </c>
     </row>
     <row r="169" spans="1:7">
@@ -4260,7 +4260,7 @@
         <v>44089</v>
       </c>
       <c r="B169" s="2">
-        <v>15898</v>
+        <v>15903</v>
       </c>
       <c r="C169" s="2">
         <v>131</v>
@@ -4269,13 +4269,13 @@
         <v>90.85714285714199</v>
       </c>
       <c r="E169" s="2">
-        <v>322082</v>
+        <v>322162</v>
       </c>
       <c r="F169" s="2">
-        <v>3934</v>
+        <v>3940</v>
       </c>
       <c r="G169" s="4">
-        <v>0.033840587421</v>
+        <v>0.03380641046</v>
       </c>
     </row>
     <row r="170" spans="1:7">
@@ -4283,7 +4283,7 @@
         <v>44090</v>
       </c>
       <c r="B170" s="2">
-        <v>15984</v>
+        <v>15989</v>
       </c>
       <c r="C170" s="2">
         <v>86</v>
@@ -4292,13 +4292,13 @@
         <v>81.428571428571</v>
       </c>
       <c r="E170" s="2">
-        <v>325357</v>
+        <v>325439</v>
       </c>
       <c r="F170" s="2">
-        <v>3275</v>
+        <v>3277</v>
       </c>
       <c r="G170" s="4">
-        <v>0.030702935631</v>
+        <v>0.030673195931</v>
       </c>
     </row>
     <row r="171" spans="1:7">
@@ -4306,7 +4306,7 @@
         <v>44091</v>
       </c>
       <c r="B171" s="2">
-        <v>16087</v>
+        <v>16092</v>
       </c>
       <c r="C171" s="2">
         <v>103</v>
@@ -4315,13 +4315,13 @@
         <v>81.428571428571</v>
       </c>
       <c r="E171" s="2">
-        <v>328948</v>
+        <v>329030</v>
       </c>
       <c r="F171" s="2">
         <v>3591</v>
       </c>
       <c r="G171" s="4">
-        <v>0.03018428299</v>
+        <v>0.030155539096</v>
       </c>
     </row>
     <row r="172" spans="1:7">
@@ -4329,7 +4329,7 @@
         <v>44092</v>
       </c>
       <c r="B172" s="2">
-        <v>16190</v>
+        <v>16195</v>
       </c>
       <c r="C172" s="2">
         <v>103</v>
@@ -4338,13 +4338,13 @@
         <v>85.85714285714199</v>
       </c>
       <c r="E172" s="2">
-        <v>332199</v>
+        <v>332282</v>
       </c>
       <c r="F172" s="2">
-        <v>3251</v>
+        <v>3252</v>
       </c>
       <c r="G172" s="4">
-        <v>0.030583685308</v>
+        <v>0.030555696781</v>
       </c>
     </row>
     <row r="173" spans="1:7">
@@ -4352,7 +4352,7 @@
         <v>44093</v>
       </c>
       <c r="B173" s="2">
-        <v>16261</v>
+        <v>16266</v>
       </c>
       <c r="C173" s="2">
         <v>71</v>
@@ -4361,13 +4361,13 @@
         <v>89.142857142857</v>
       </c>
       <c r="E173" s="2">
-        <v>333708</v>
+        <v>333791</v>
       </c>
       <c r="F173" s="2">
         <v>1509</v>
       </c>
       <c r="G173" s="4">
-        <v>0.031567764455</v>
+        <v>0.03153904473</v>
       </c>
     </row>
     <row r="174" spans="1:7">
@@ -4375,22 +4375,22 @@
         <v>44094</v>
       </c>
       <c r="B174" s="2">
-        <v>16299</v>
+        <v>16309</v>
       </c>
       <c r="C174" s="2">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="D174" s="3">
-        <v>90.142857142857</v>
+        <v>90.85714285714199</v>
       </c>
       <c r="E174" s="2">
-        <v>334809</v>
+        <v>334935</v>
       </c>
       <c r="F174" s="2">
-        <v>1101</v>
+        <v>1144</v>
       </c>
       <c r="G174" s="4">
-        <v>0.031504318737</v>
+        <v>0.031659116929</v>
       </c>
     </row>
     <row r="175" spans="1:7">
@@ -4398,22 +4398,45 @@
         <v>44095</v>
       </c>
       <c r="B175" s="2">
-        <v>16437</v>
+        <v>16449</v>
       </c>
       <c r="C175" s="2">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="D175" s="3">
-        <v>95.714285714285</v>
+        <v>96.714285714285</v>
       </c>
       <c r="E175" s="2">
-        <v>339040</v>
+        <v>339208</v>
       </c>
       <c r="F175" s="2">
-        <v>4231</v>
+        <v>4273</v>
       </c>
       <c r="G175" s="4">
-        <v>0.032069691748</v>
+        <v>0.032259601639</v>
+      </c>
+    </row>
+    <row r="176" spans="1:7">
+      <c r="A176" s="1">
+        <v>44096</v>
+      </c>
+      <c r="B176" s="2">
+        <v>16547</v>
+      </c>
+      <c r="C176" s="2">
+        <v>98</v>
+      </c>
+      <c r="D176" s="3">
+        <v>92</v>
+      </c>
+      <c r="E176" s="2">
+        <v>342888</v>
+      </c>
+      <c r="F176" s="2">
+        <v>3680</v>
+      </c>
+      <c r="G176" s="4">
+        <v>0.031072083373</v>
       </c>
     </row>
   </sheetData>

--- a/contra_costa_county_testing.xlsx
+++ b/contra_costa_county_testing.xlsx
@@ -376,7 +376,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G176"/>
+  <dimension ref="A1:G180"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -428,7 +428,7 @@
         <v>21.285714285714</v>
       </c>
       <c r="E2" s="2">
-        <v>5656</v>
+        <v>5655</v>
       </c>
       <c r="F2" s="2">
         <v>330</v>
@@ -442,22 +442,22 @@
         <v>43923</v>
       </c>
       <c r="B3" s="2">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="C3" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D3" s="3">
-        <v>24.714285714285</v>
+        <v>24.571428571428</v>
       </c>
       <c r="E3" s="2">
-        <v>6024</v>
+        <v>6022</v>
       </c>
       <c r="F3" s="2">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="G3" s="4">
-        <v>0.080278422273</v>
+        <v>0.07985143918199999</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -465,22 +465,22 @@
         <v>43924</v>
       </c>
       <c r="B4" s="2">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="C4" s="2">
         <v>34</v>
       </c>
       <c r="D4" s="3">
-        <v>27.142857142857</v>
+        <v>27</v>
       </c>
       <c r="E4" s="2">
-        <v>6458</v>
+        <v>6456</v>
       </c>
       <c r="F4" s="2">
         <v>434</v>
       </c>
       <c r="G4" s="4">
-        <v>0.086718393427</v>
+        <v>0.08630136986299999</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -488,22 +488,22 @@
         <v>43925</v>
       </c>
       <c r="B5" s="2">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="C5" s="2">
         <v>23</v>
       </c>
       <c r="D5" s="3">
-        <v>28</v>
+        <v>27.857142857142</v>
       </c>
       <c r="E5" s="2">
-        <v>6645</v>
+        <v>6643</v>
       </c>
       <c r="F5" s="2">
         <v>187</v>
       </c>
       <c r="G5" s="4">
-        <v>0.089212562585</v>
+        <v>0.088797814207</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -511,22 +511,22 @@
         <v>43926</v>
       </c>
       <c r="B6" s="2">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="C6" s="2">
         <v>10</v>
       </c>
       <c r="D6" s="3">
-        <v>28</v>
+        <v>27.857142857142</v>
       </c>
       <c r="E6" s="2">
-        <v>6811</v>
+        <v>6809</v>
       </c>
       <c r="F6" s="2">
         <v>166</v>
       </c>
       <c r="G6" s="4">
-        <v>0.089253187613</v>
+        <v>0.08883826879200001</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -534,22 +534,22 @@
         <v>43927</v>
       </c>
       <c r="B7" s="2">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="C7" s="2">
         <v>27</v>
       </c>
       <c r="D7" s="3">
-        <v>27</v>
+        <v>26.857142857142</v>
       </c>
       <c r="E7" s="2">
-        <v>7187</v>
+        <v>7185</v>
       </c>
       <c r="F7" s="2">
         <v>376</v>
       </c>
       <c r="G7" s="4">
-        <v>0.08544303797400001</v>
+        <v>0.085029398462</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -557,22 +557,22 @@
         <v>43928</v>
       </c>
       <c r="B8" s="2">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="C8" s="2">
         <v>34</v>
       </c>
       <c r="D8" s="3">
-        <v>28.285714285714</v>
+        <v>28.142857142857</v>
       </c>
       <c r="E8" s="2">
-        <v>7575</v>
+        <v>7573</v>
       </c>
       <c r="F8" s="2">
         <v>388</v>
       </c>
       <c r="G8" s="4">
-        <v>0.088039128501</v>
+        <v>0.08763345195699999</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -580,22 +580,22 @@
         <v>43929</v>
       </c>
       <c r="B9" s="2">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="C9" s="2">
         <v>20</v>
       </c>
       <c r="D9" s="3">
-        <v>27.714285714285</v>
+        <v>27.571428571428</v>
       </c>
       <c r="E9" s="2">
-        <v>7919</v>
+        <v>7917</v>
       </c>
       <c r="F9" s="2">
         <v>344</v>
       </c>
       <c r="G9" s="4">
-        <v>0.085726911179</v>
+        <v>0.085322723253</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -603,7 +603,7 @@
         <v>43930</v>
       </c>
       <c r="B10" s="2">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="C10" s="2">
         <v>20</v>
@@ -612,7 +612,7 @@
         <v>24</v>
       </c>
       <c r="E10" s="2">
-        <v>8243</v>
+        <v>8241</v>
       </c>
       <c r="F10" s="2">
         <v>324</v>
@@ -626,7 +626,7 @@
         <v>43931</v>
       </c>
       <c r="B11" s="2">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="C11" s="2">
         <v>47</v>
@@ -635,7 +635,7 @@
         <v>25.857142857142</v>
       </c>
       <c r="E11" s="2">
-        <v>8721</v>
+        <v>8719</v>
       </c>
       <c r="F11" s="2">
         <v>478</v>
@@ -649,7 +649,7 @@
         <v>43932</v>
       </c>
       <c r="B12" s="2">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="C12" s="2">
         <v>13</v>
@@ -658,7 +658,7 @@
         <v>24.428571428571</v>
       </c>
       <c r="E12" s="2">
-        <v>8900</v>
+        <v>8898</v>
       </c>
       <c r="F12" s="2">
         <v>179</v>
@@ -672,7 +672,7 @@
         <v>43933</v>
       </c>
       <c r="B13" s="2">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="C13" s="2">
         <v>2</v>
@@ -681,7 +681,7 @@
         <v>23.285714285714</v>
       </c>
       <c r="E13" s="2">
-        <v>9015</v>
+        <v>9013</v>
       </c>
       <c r="F13" s="2">
         <v>115</v>
@@ -695,7 +695,7 @@
         <v>43934</v>
       </c>
       <c r="B14" s="2">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="C14" s="2">
         <v>28</v>
@@ -704,7 +704,7 @@
         <v>23.428571428571</v>
       </c>
       <c r="E14" s="2">
-        <v>9372</v>
+        <v>9370</v>
       </c>
       <c r="F14" s="2">
         <v>357</v>
@@ -718,7 +718,7 @@
         <v>43935</v>
       </c>
       <c r="B15" s="2">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="C15" s="2">
         <v>15</v>
@@ -727,7 +727,7 @@
         <v>20.714285714285</v>
       </c>
       <c r="E15" s="2">
-        <v>9693</v>
+        <v>9691</v>
       </c>
       <c r="F15" s="2">
         <v>321</v>
@@ -741,7 +741,7 @@
         <v>43936</v>
       </c>
       <c r="B16" s="2">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="C16" s="2">
         <v>28</v>
@@ -750,7 +750,7 @@
         <v>21.857142857142</v>
       </c>
       <c r="E16" s="2">
-        <v>10043</v>
+        <v>10041</v>
       </c>
       <c r="F16" s="2">
         <v>350</v>
@@ -764,7 +764,7 @@
         <v>43937</v>
       </c>
       <c r="B17" s="2">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="C17" s="2">
         <v>24</v>
@@ -773,7 +773,7 @@
         <v>22.428571428571</v>
       </c>
       <c r="E17" s="2">
-        <v>10425</v>
+        <v>10423</v>
       </c>
       <c r="F17" s="2">
         <v>382</v>
@@ -787,7 +787,7 @@
         <v>43938</v>
       </c>
       <c r="B18" s="2">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="C18" s="2">
         <v>12</v>
@@ -796,7 +796,7 @@
         <v>17.428571428571</v>
       </c>
       <c r="E18" s="2">
-        <v>10771</v>
+        <v>10769</v>
       </c>
       <c r="F18" s="2">
         <v>346</v>
@@ -810,7 +810,7 @@
         <v>43939</v>
       </c>
       <c r="B19" s="2">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="C19" s="2">
         <v>8</v>
@@ -819,7 +819,7 @@
         <v>16.714285714285</v>
       </c>
       <c r="E19" s="2">
-        <v>10926</v>
+        <v>10924</v>
       </c>
       <c r="F19" s="2">
         <v>155</v>
@@ -833,7 +833,7 @@
         <v>43940</v>
       </c>
       <c r="B20" s="2">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="C20" s="2">
         <v>7</v>
@@ -842,7 +842,7 @@
         <v>17.428571428571</v>
       </c>
       <c r="E20" s="2">
-        <v>11072</v>
+        <v>11070</v>
       </c>
       <c r="F20" s="2">
         <v>146</v>
@@ -856,7 +856,7 @@
         <v>43941</v>
       </c>
       <c r="B21" s="2">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="C21" s="2">
         <v>12</v>
@@ -865,7 +865,7 @@
         <v>15.142857142857</v>
       </c>
       <c r="E21" s="2">
-        <v>11440</v>
+        <v>11438</v>
       </c>
       <c r="F21" s="2">
         <v>368</v>
@@ -879,7 +879,7 @@
         <v>43942</v>
       </c>
       <c r="B22" s="2">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="C22" s="2">
         <v>17</v>
@@ -888,7 +888,7 @@
         <v>15.428571428571</v>
       </c>
       <c r="E22" s="2">
-        <v>11845</v>
+        <v>11843</v>
       </c>
       <c r="F22" s="2">
         <v>405</v>
@@ -902,7 +902,7 @@
         <v>43943</v>
       </c>
       <c r="B23" s="2">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="C23" s="2">
         <v>14</v>
@@ -911,7 +911,7 @@
         <v>13.428571428571</v>
       </c>
       <c r="E23" s="2">
-        <v>12366</v>
+        <v>12364</v>
       </c>
       <c r="F23" s="2">
         <v>521</v>
@@ -925,7 +925,7 @@
         <v>43944</v>
       </c>
       <c r="B24" s="2">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="C24" s="2">
         <v>19</v>
@@ -934,7 +934,7 @@
         <v>12.714285714285</v>
       </c>
       <c r="E24" s="2">
-        <v>12925</v>
+        <v>12923</v>
       </c>
       <c r="F24" s="2">
         <v>559</v>
@@ -948,7 +948,7 @@
         <v>43945</v>
       </c>
       <c r="B25" s="2">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="C25" s="2">
         <v>21</v>
@@ -957,7 +957,7 @@
         <v>14</v>
       </c>
       <c r="E25" s="2">
-        <v>13490</v>
+        <v>13488</v>
       </c>
       <c r="F25" s="2">
         <v>565</v>
@@ -971,7 +971,7 @@
         <v>43946</v>
       </c>
       <c r="B26" s="2">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="C26" s="2">
         <v>6</v>
@@ -980,7 +980,7 @@
         <v>13.714285714285</v>
       </c>
       <c r="E26" s="2">
-        <v>13721</v>
+        <v>13719</v>
       </c>
       <c r="F26" s="2">
         <v>231</v>
@@ -994,7 +994,7 @@
         <v>43947</v>
       </c>
       <c r="B27" s="2">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="C27" s="2">
         <v>11</v>
@@ -1003,7 +1003,7 @@
         <v>14.285714285714</v>
       </c>
       <c r="E27" s="2">
-        <v>13951</v>
+        <v>13949</v>
       </c>
       <c r="F27" s="2">
         <v>230</v>
@@ -1017,7 +1017,7 @@
         <v>43948</v>
       </c>
       <c r="B28" s="2">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="C28" s="2">
         <v>20</v>
@@ -1026,7 +1026,7 @@
         <v>15.428571428571</v>
       </c>
       <c r="E28" s="2">
-        <v>14551</v>
+        <v>14549</v>
       </c>
       <c r="F28" s="2">
         <v>600</v>
@@ -1040,7 +1040,7 @@
         <v>43949</v>
       </c>
       <c r="B29" s="2">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="C29" s="2">
         <v>16</v>
@@ -1049,7 +1049,7 @@
         <v>15.285714285714</v>
       </c>
       <c r="E29" s="2">
-        <v>15090</v>
+        <v>15088</v>
       </c>
       <c r="F29" s="2">
         <v>539</v>
@@ -1063,7 +1063,7 @@
         <v>43950</v>
       </c>
       <c r="B30" s="2">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="C30" s="2">
         <v>18</v>
@@ -1072,13 +1072,13 @@
         <v>15.857142857142</v>
       </c>
       <c r="E30" s="2">
-        <v>15790</v>
+        <v>15787</v>
       </c>
       <c r="F30" s="2">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="G30" s="4">
-        <v>0.032418224299</v>
+        <v>0.032427695004</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -1086,7 +1086,7 @@
         <v>43951</v>
       </c>
       <c r="B31" s="2">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="C31" s="2">
         <v>26</v>
@@ -1095,13 +1095,13 @@
         <v>16.857142857142</v>
       </c>
       <c r="E31" s="2">
-        <v>16636</v>
+        <v>16633</v>
       </c>
       <c r="F31" s="2">
         <v>846</v>
       </c>
       <c r="G31" s="4">
-        <v>0.031797359202</v>
+        <v>0.031805929919</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -1109,7 +1109,7 @@
         <v>43952</v>
       </c>
       <c r="B32" s="2">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="C32" s="2">
         <v>10</v>
@@ -1118,13 +1118,13 @@
         <v>15.285714285714</v>
       </c>
       <c r="E32" s="2">
-        <v>17368</v>
+        <v>17365</v>
       </c>
       <c r="F32" s="2">
         <v>732</v>
       </c>
       <c r="G32" s="4">
-        <v>0.027591542031</v>
+        <v>0.027598658756</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -1132,7 +1132,7 @@
         <v>43953</v>
       </c>
       <c r="B33" s="2">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="C33" s="2">
         <v>10</v>
@@ -1141,13 +1141,13 @@
         <v>15.857142857142</v>
       </c>
       <c r="E33" s="2">
-        <v>17655</v>
+        <v>17652</v>
       </c>
       <c r="F33" s="2">
         <v>287</v>
       </c>
       <c r="G33" s="4">
-        <v>0.028215556685</v>
+        <v>0.028222730739</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -1155,7 +1155,7 @@
         <v>43954</v>
       </c>
       <c r="B34" s="2">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="C34" s="2">
         <v>4</v>
@@ -1164,13 +1164,13 @@
         <v>14.857142857142</v>
       </c>
       <c r="E34" s="2">
-        <v>17920</v>
+        <v>17917</v>
       </c>
       <c r="F34" s="2">
         <v>265</v>
       </c>
       <c r="G34" s="4">
-        <v>0.026203073822</v>
+        <v>0.026209677419</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -1178,7 +1178,7 @@
         <v>43955</v>
       </c>
       <c r="B35" s="2">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="C35" s="2">
         <v>22</v>
@@ -1187,13 +1187,13 @@
         <v>15.142857142857</v>
       </c>
       <c r="E35" s="2">
-        <v>18698</v>
+        <v>18695</v>
       </c>
       <c r="F35" s="2">
         <v>778</v>
       </c>
       <c r="G35" s="4">
-        <v>0.02556064625</v>
+        <v>0.025566811384</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -1201,7 +1201,7 @@
         <v>43956</v>
       </c>
       <c r="B36" s="2">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="C36" s="2">
         <v>17</v>
@@ -1210,13 +1210,13 @@
         <v>15.285714285714</v>
       </c>
       <c r="E36" s="2">
-        <v>19380</v>
+        <v>19376</v>
       </c>
       <c r="F36" s="2">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="G36" s="4">
-        <v>0.024941724941</v>
+        <v>0.024953358208</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -1224,7 +1224,7 @@
         <v>43957</v>
       </c>
       <c r="B37" s="2">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="C37" s="2">
         <v>25</v>
@@ -1233,13 +1233,13 @@
         <v>16.285714285714</v>
       </c>
       <c r="E37" s="2">
-        <v>20345</v>
+        <v>20341</v>
       </c>
       <c r="F37" s="2">
         <v>965</v>
       </c>
       <c r="G37" s="4">
-        <v>0.025027442371</v>
+        <v>0.025032938076</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -1247,7 +1247,7 @@
         <v>43958</v>
       </c>
       <c r="B38" s="2">
-        <v>1056</v>
+        <v>1055</v>
       </c>
       <c r="C38" s="2">
         <v>12</v>
@@ -1256,13 +1256,13 @@
         <v>14.285714285714</v>
       </c>
       <c r="E38" s="2">
-        <v>21240</v>
+        <v>21236</v>
       </c>
       <c r="F38" s="2">
         <v>895</v>
       </c>
       <c r="G38" s="4">
-        <v>0.021720243266</v>
+        <v>0.021724961981</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -1270,7 +1270,7 @@
         <v>43959</v>
       </c>
       <c r="B39" s="2">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="C39" s="2">
         <v>16</v>
@@ -1279,13 +1279,13 @@
         <v>15.142857142857</v>
       </c>
       <c r="E39" s="2">
-        <v>22384</v>
+        <v>22379</v>
       </c>
       <c r="F39" s="2">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="G39" s="4">
-        <v>0.021132376395</v>
+        <v>0.021140805743</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -1293,7 +1293,7 @@
         <v>43960</v>
       </c>
       <c r="B40" s="2">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="C40" s="2">
         <v>6</v>
@@ -1302,13 +1302,13 @@
         <v>14.571428571428</v>
       </c>
       <c r="E40" s="2">
-        <v>22767</v>
+        <v>22761</v>
       </c>
       <c r="F40" s="2">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="G40" s="4">
-        <v>0.019953051643</v>
+        <v>0.019964768056</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -1316,7 +1316,7 @@
         <v>43961</v>
       </c>
       <c r="B41" s="2">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="C41" s="2">
         <v>7</v>
@@ -1325,13 +1325,13 @@
         <v>15</v>
       </c>
       <c r="E41" s="2">
-        <v>23112</v>
+        <v>23105</v>
       </c>
       <c r="F41" s="2">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="G41" s="4">
-        <v>0.020223420647</v>
+        <v>0.020239013107</v>
       </c>
     </row>
     <row r="42" spans="1:7">
@@ -1339,7 +1339,7 @@
         <v>43962</v>
       </c>
       <c r="B42" s="2">
-        <v>1093</v>
+        <v>1092</v>
       </c>
       <c r="C42" s="2">
         <v>8</v>
@@ -1348,13 +1348,13 @@
         <v>13</v>
       </c>
       <c r="E42" s="2">
-        <v>24213</v>
+        <v>24206</v>
       </c>
       <c r="F42" s="2">
         <v>1101</v>
       </c>
       <c r="G42" s="4">
-        <v>0.016500453309</v>
+        <v>0.016512429686</v>
       </c>
     </row>
     <row r="43" spans="1:7">
@@ -1362,7 +1362,7 @@
         <v>43963</v>
       </c>
       <c r="B43" s="2">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="C43" s="2">
         <v>12</v>
@@ -1371,13 +1371,13 @@
         <v>12.285714285714</v>
       </c>
       <c r="E43" s="2">
-        <v>25444</v>
+        <v>25437</v>
       </c>
       <c r="F43" s="2">
         <v>1231</v>
       </c>
       <c r="G43" s="4">
-        <v>0.014182058047</v>
+        <v>0.014189077709</v>
       </c>
     </row>
     <row r="44" spans="1:7">
@@ -1385,7 +1385,7 @@
         <v>43964</v>
       </c>
       <c r="B44" s="2">
-        <v>1134</v>
+        <v>1133</v>
       </c>
       <c r="C44" s="2">
         <v>29</v>
@@ -1394,13 +1394,13 @@
         <v>12.857142857142</v>
       </c>
       <c r="E44" s="2">
-        <v>26543</v>
+        <v>26536</v>
       </c>
       <c r="F44" s="2">
         <v>1099</v>
       </c>
       <c r="G44" s="4">
-        <v>0.014520813165</v>
+        <v>0.014527845036</v>
       </c>
     </row>
     <row r="45" spans="1:7">
@@ -1408,7 +1408,7 @@
         <v>43965</v>
       </c>
       <c r="B45" s="2">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="C45" s="2">
         <v>20</v>
@@ -1417,13 +1417,13 @@
         <v>14</v>
       </c>
       <c r="E45" s="2">
-        <v>27395</v>
+        <v>27389</v>
       </c>
       <c r="F45" s="2">
-        <v>852</v>
+        <v>853</v>
       </c>
       <c r="G45" s="4">
-        <v>0.015922014622</v>
+        <v>0.015927189988</v>
       </c>
     </row>
     <row r="46" spans="1:7">
@@ -1431,7 +1431,7 @@
         <v>43966</v>
       </c>
       <c r="B46" s="2">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="C46" s="2">
         <v>28</v>
@@ -1440,13 +1440,13 @@
         <v>15.714285714285</v>
       </c>
       <c r="E46" s="2">
-        <v>28313</v>
+        <v>28307</v>
       </c>
       <c r="F46" s="2">
         <v>918</v>
       </c>
       <c r="G46" s="4">
-        <v>0.018552875695</v>
+        <v>0.018556005398</v>
       </c>
     </row>
     <row r="47" spans="1:7">
@@ -1454,7 +1454,7 @@
         <v>43967</v>
       </c>
       <c r="B47" s="2">
-        <v>1201</v>
+        <v>1200</v>
       </c>
       <c r="C47" s="2">
         <v>19</v>
@@ -1463,7 +1463,7 @@
         <v>17.571428571428</v>
       </c>
       <c r="E47" s="2">
-        <v>28722</v>
+        <v>28716</v>
       </c>
       <c r="F47" s="2">
         <v>409</v>
@@ -1477,7 +1477,7 @@
         <v>43968</v>
       </c>
       <c r="B48" s="2">
-        <v>1211</v>
+        <v>1210</v>
       </c>
       <c r="C48" s="2">
         <v>10</v>
@@ -1486,13 +1486,13 @@
         <v>18</v>
       </c>
       <c r="E48" s="2">
-        <v>29116</v>
+        <v>29110</v>
       </c>
       <c r="F48" s="2">
         <v>394</v>
       </c>
       <c r="G48" s="4">
-        <v>0.020986009327</v>
+        <v>0.020982514571</v>
       </c>
     </row>
     <row r="49" spans="1:7">
@@ -1500,7 +1500,7 @@
         <v>43969</v>
       </c>
       <c r="B49" s="2">
-        <v>1250</v>
+        <v>1249</v>
       </c>
       <c r="C49" s="2">
         <v>39</v>
@@ -1509,13 +1509,13 @@
         <v>22.428571428571</v>
       </c>
       <c r="E49" s="2">
-        <v>30480</v>
+        <v>30474</v>
       </c>
       <c r="F49" s="2">
         <v>1364</v>
       </c>
       <c r="G49" s="4">
-        <v>0.025051858943</v>
+        <v>0.025047862156</v>
       </c>
     </row>
     <row r="50" spans="1:7">
@@ -1523,7 +1523,7 @@
         <v>43970</v>
       </c>
       <c r="B50" s="2">
-        <v>1285</v>
+        <v>1284</v>
       </c>
       <c r="C50" s="2">
         <v>35</v>
@@ -1532,13 +1532,13 @@
         <v>25.714285714285</v>
       </c>
       <c r="E50" s="2">
-        <v>32140</v>
+        <v>32134</v>
       </c>
       <c r="F50" s="2">
         <v>1660</v>
       </c>
       <c r="G50" s="4">
-        <v>0.02688172043</v>
+        <v>0.026877706435</v>
       </c>
     </row>
     <row r="51" spans="1:7">
@@ -1546,7 +1546,7 @@
         <v>43971</v>
       </c>
       <c r="B51" s="2">
-        <v>1317</v>
+        <v>1316</v>
       </c>
       <c r="C51" s="2">
         <v>32</v>
@@ -1555,13 +1555,13 @@
         <v>26.142857142857</v>
       </c>
       <c r="E51" s="2">
-        <v>33277</v>
+        <v>33271</v>
       </c>
       <c r="F51" s="2">
         <v>1137</v>
       </c>
       <c r="G51" s="4">
-        <v>0.027175527175</v>
+        <v>0.027171492204</v>
       </c>
     </row>
     <row r="52" spans="1:7">
@@ -1569,7 +1569,7 @@
         <v>43972</v>
       </c>
       <c r="B52" s="2">
-        <v>1346</v>
+        <v>1345</v>
       </c>
       <c r="C52" s="2">
         <v>29</v>
@@ -1578,7 +1578,7 @@
         <v>27.428571428571</v>
       </c>
       <c r="E52" s="2">
-        <v>34411</v>
+        <v>34405</v>
       </c>
       <c r="F52" s="2">
         <v>1134</v>
@@ -1592,7 +1592,7 @@
         <v>43973</v>
       </c>
       <c r="B53" s="2">
-        <v>1386</v>
+        <v>1385</v>
       </c>
       <c r="C53" s="2">
         <v>40</v>
@@ -1601,7 +1601,7 @@
         <v>29.142857142857</v>
       </c>
       <c r="E53" s="2">
-        <v>35499</v>
+        <v>35493</v>
       </c>
       <c r="F53" s="2">
         <v>1088</v>
@@ -1615,7 +1615,7 @@
         <v>43974</v>
       </c>
       <c r="B54" s="2">
-        <v>1397</v>
+        <v>1396</v>
       </c>
       <c r="C54" s="2">
         <v>11</v>
@@ -1624,7 +1624,7 @@
         <v>28</v>
       </c>
       <c r="E54" s="2">
-        <v>36017</v>
+        <v>36011</v>
       </c>
       <c r="F54" s="2">
         <v>518</v>
@@ -1638,7 +1638,7 @@
         <v>43975</v>
       </c>
       <c r="B55" s="2">
-        <v>1404</v>
+        <v>1403</v>
       </c>
       <c r="C55" s="2">
         <v>7</v>
@@ -1647,7 +1647,7 @@
         <v>27.571428571428</v>
       </c>
       <c r="E55" s="2">
-        <v>36413</v>
+        <v>36407</v>
       </c>
       <c r="F55" s="2">
         <v>396</v>
@@ -1661,7 +1661,7 @@
         <v>43976</v>
       </c>
       <c r="B56" s="2">
-        <v>1413</v>
+        <v>1412</v>
       </c>
       <c r="C56" s="2">
         <v>9</v>
@@ -1670,13 +1670,13 @@
         <v>23.285714285714</v>
       </c>
       <c r="E56" s="2">
-        <v>36881</v>
+        <v>36874</v>
       </c>
       <c r="F56" s="2">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="G56" s="4">
-        <v>0.025464771129</v>
+        <v>0.02546875</v>
       </c>
     </row>
     <row r="57" spans="1:7">
@@ -1684,7 +1684,7 @@
         <v>43977</v>
       </c>
       <c r="B57" s="2">
-        <v>1451</v>
+        <v>1450</v>
       </c>
       <c r="C57" s="2">
         <v>38</v>
@@ -1693,13 +1693,13 @@
         <v>23.714285714285</v>
       </c>
       <c r="E57" s="2">
-        <v>38077</v>
+        <v>38070</v>
       </c>
       <c r="F57" s="2">
         <v>1196</v>
       </c>
       <c r="G57" s="4">
-        <v>0.027960249284</v>
+        <v>0.027964959568</v>
       </c>
     </row>
     <row r="58" spans="1:7">
@@ -1707,7 +1707,7 @@
         <v>43978</v>
       </c>
       <c r="B58" s="2">
-        <v>1483</v>
+        <v>1482</v>
       </c>
       <c r="C58" s="2">
         <v>32</v>
@@ -1716,13 +1716,13 @@
         <v>23.714285714285</v>
       </c>
       <c r="E58" s="2">
-        <v>39193</v>
+        <v>39186</v>
       </c>
       <c r="F58" s="2">
         <v>1116</v>
       </c>
       <c r="G58" s="4">
-        <v>0.028059499661</v>
+        <v>0.028064243448</v>
       </c>
     </row>
     <row r="59" spans="1:7">
@@ -1730,7 +1730,7 @@
         <v>43979</v>
       </c>
       <c r="B59" s="2">
-        <v>1530</v>
+        <v>1529</v>
       </c>
       <c r="C59" s="2">
         <v>47</v>
@@ -1739,13 +1739,13 @@
         <v>26.285714285714</v>
       </c>
       <c r="E59" s="2">
-        <v>40328</v>
+        <v>40321</v>
       </c>
       <c r="F59" s="2">
         <v>1135</v>
       </c>
       <c r="G59" s="4">
-        <v>0.031096839614</v>
+        <v>0.03110209601</v>
       </c>
     </row>
     <row r="60" spans="1:7">
@@ -1753,7 +1753,7 @@
         <v>43980</v>
       </c>
       <c r="B60" s="2">
-        <v>1572</v>
+        <v>1571</v>
       </c>
       <c r="C60" s="2">
         <v>42</v>
@@ -1762,13 +1762,13 @@
         <v>26.571428571428</v>
       </c>
       <c r="E60" s="2">
-        <v>41731</v>
+        <v>41724</v>
       </c>
       <c r="F60" s="2">
         <v>1403</v>
       </c>
       <c r="G60" s="4">
-        <v>0.029845956354</v>
+        <v>0.029850746268</v>
       </c>
     </row>
     <row r="61" spans="1:7">
@@ -1776,7 +1776,7 @@
         <v>43981</v>
       </c>
       <c r="B61" s="2">
-        <v>1581</v>
+        <v>1580</v>
       </c>
       <c r="C61" s="2">
         <v>9</v>
@@ -1785,13 +1785,13 @@
         <v>26.285714285714</v>
       </c>
       <c r="E61" s="2">
-        <v>42463</v>
+        <v>42456</v>
       </c>
       <c r="F61" s="2">
         <v>732</v>
       </c>
       <c r="G61" s="4">
-        <v>0.028544834005</v>
+        <v>0.028549262994</v>
       </c>
     </row>
     <row r="62" spans="1:7">
@@ -1799,7 +1799,7 @@
         <v>43982</v>
       </c>
       <c r="B62" s="2">
-        <v>1586</v>
+        <v>1585</v>
       </c>
       <c r="C62" s="2">
         <v>5</v>
@@ -1808,13 +1808,13 @@
         <v>26</v>
       </c>
       <c r="E62" s="2">
-        <v>42860</v>
+        <v>42853</v>
       </c>
       <c r="F62" s="2">
         <v>397</v>
       </c>
       <c r="G62" s="4">
-        <v>0.028230184581</v>
+        <v>0.02823456407</v>
       </c>
     </row>
     <row r="63" spans="1:7">
@@ -1822,7 +1822,7 @@
         <v>43983</v>
       </c>
       <c r="B63" s="2">
-        <v>1618</v>
+        <v>1617</v>
       </c>
       <c r="C63" s="2">
         <v>32</v>
@@ -1831,7 +1831,7 @@
         <v>29.285714285714</v>
       </c>
       <c r="E63" s="2">
-        <v>44234</v>
+        <v>44227</v>
       </c>
       <c r="F63" s="2">
         <v>1374</v>
@@ -1845,7 +1845,7 @@
         <v>43984</v>
       </c>
       <c r="B64" s="2">
-        <v>1649</v>
+        <v>1648</v>
       </c>
       <c r="C64" s="2">
         <v>31</v>
@@ -1854,7 +1854,7 @@
         <v>28.285714285714</v>
       </c>
       <c r="E64" s="2">
-        <v>45450</v>
+        <v>45443</v>
       </c>
       <c r="F64" s="2">
         <v>1216</v>
@@ -1868,7 +1868,7 @@
         <v>43985</v>
       </c>
       <c r="B65" s="2">
-        <v>1678</v>
+        <v>1677</v>
       </c>
       <c r="C65" s="2">
         <v>29</v>
@@ -1877,13 +1877,13 @@
         <v>27.857142857142</v>
       </c>
       <c r="E65" s="2">
-        <v>46608</v>
+        <v>46600</v>
       </c>
       <c r="F65" s="2">
-        <v>1158</v>
+        <v>1157</v>
       </c>
       <c r="G65" s="4">
-        <v>0.026298044504</v>
+        <v>0.026301591583</v>
       </c>
     </row>
     <row r="66" spans="1:7">
@@ -1891,7 +1891,7 @@
         <v>43986</v>
       </c>
       <c r="B66" s="2">
-        <v>1729</v>
+        <v>1728</v>
       </c>
       <c r="C66" s="2">
         <v>51</v>
@@ -1900,13 +1900,13 @@
         <v>28.428571428571</v>
       </c>
       <c r="E66" s="2">
-        <v>47957</v>
+        <v>47949</v>
       </c>
       <c r="F66" s="2">
         <v>1349</v>
       </c>
       <c r="G66" s="4">
-        <v>0.02608467689</v>
+        <v>0.026088096486</v>
       </c>
     </row>
     <row r="67" spans="1:7">
@@ -1914,7 +1914,7 @@
         <v>43987</v>
       </c>
       <c r="B67" s="2">
-        <v>1776</v>
+        <v>1775</v>
       </c>
       <c r="C67" s="2">
         <v>47</v>
@@ -1923,13 +1923,13 @@
         <v>29.142857142857</v>
       </c>
       <c r="E67" s="2">
-        <v>49591</v>
+        <v>49582</v>
       </c>
       <c r="F67" s="2">
-        <v>1634</v>
+        <v>1633</v>
       </c>
       <c r="G67" s="4">
-        <v>0.025954198473</v>
+        <v>0.025960804275</v>
       </c>
     </row>
     <row r="68" spans="1:7">
@@ -1937,7 +1937,7 @@
         <v>43988</v>
       </c>
       <c r="B68" s="2">
-        <v>1794</v>
+        <v>1793</v>
       </c>
       <c r="C68" s="2">
         <v>18</v>
@@ -1946,13 +1946,13 @@
         <v>30.428571428571</v>
       </c>
       <c r="E68" s="2">
-        <v>50196</v>
+        <v>50187</v>
       </c>
       <c r="F68" s="2">
         <v>605</v>
       </c>
       <c r="G68" s="4">
-        <v>0.027544290702</v>
+        <v>0.027551416375</v>
       </c>
     </row>
     <row r="69" spans="1:7">
@@ -1960,7 +1960,7 @@
         <v>43989</v>
       </c>
       <c r="B69" s="2">
-        <v>1812</v>
+        <v>1811</v>
       </c>
       <c r="C69" s="2">
         <v>18</v>
@@ -1969,13 +1969,13 @@
         <v>32.285714285714</v>
       </c>
       <c r="E69" s="2">
-        <v>50682</v>
+        <v>50672</v>
       </c>
       <c r="F69" s="2">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="G69" s="4">
-        <v>0.028892866274</v>
+        <v>0.028903951912</v>
       </c>
     </row>
     <row r="70" spans="1:7">
@@ -1983,7 +1983,7 @@
         <v>43990</v>
       </c>
       <c r="B70" s="2">
-        <v>1860</v>
+        <v>1859</v>
       </c>
       <c r="C70" s="2">
         <v>48</v>
@@ -1992,13 +1992,13 @@
         <v>34.571428571428</v>
       </c>
       <c r="E70" s="2">
-        <v>52520</v>
+        <v>52510</v>
       </c>
       <c r="F70" s="2">
         <v>1838</v>
       </c>
       <c r="G70" s="4">
-        <v>0.029205889452</v>
+        <v>0.029216467463</v>
       </c>
     </row>
     <row r="71" spans="1:7">
@@ -2006,7 +2006,7 @@
         <v>43991</v>
       </c>
       <c r="B71" s="2">
-        <v>1903</v>
+        <v>1902</v>
       </c>
       <c r="C71" s="2">
         <v>43</v>
@@ -2015,13 +2015,13 @@
         <v>36.285714285714</v>
       </c>
       <c r="E71" s="2">
-        <v>54370</v>
+        <v>54360</v>
       </c>
       <c r="F71" s="2">
         <v>1850</v>
       </c>
       <c r="G71" s="4">
-        <v>0.028475336322</v>
+        <v>0.028484916451</v>
       </c>
     </row>
     <row r="72" spans="1:7">
@@ -2029,7 +2029,7 @@
         <v>43992</v>
       </c>
       <c r="B72" s="2">
-        <v>1957</v>
+        <v>1956</v>
       </c>
       <c r="C72" s="2">
         <v>54</v>
@@ -2038,13 +2038,13 @@
         <v>39.857142857142</v>
       </c>
       <c r="E72" s="2">
-        <v>56361</v>
+        <v>56351</v>
       </c>
       <c r="F72" s="2">
         <v>1991</v>
       </c>
       <c r="G72" s="4">
-        <v>0.028606582589</v>
+        <v>0.028612450005</v>
       </c>
     </row>
     <row r="73" spans="1:7">
@@ -2052,7 +2052,7 @@
         <v>43993</v>
       </c>
       <c r="B73" s="2">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="C73" s="2">
         <v>54</v>
@@ -2061,13 +2061,13 @@
         <v>40.285714285714</v>
       </c>
       <c r="E73" s="2">
-        <v>58502</v>
+        <v>58492</v>
       </c>
       <c r="F73" s="2">
         <v>2141</v>
       </c>
       <c r="G73" s="4">
-        <v>0.026742532005</v>
+        <v>0.026747605046</v>
       </c>
     </row>
     <row r="74" spans="1:7">
@@ -2075,7 +2075,7 @@
         <v>43994</v>
       </c>
       <c r="B74" s="2">
-        <v>2069</v>
+        <v>2068</v>
       </c>
       <c r="C74" s="2">
         <v>58</v>
@@ -2084,13 +2084,13 @@
         <v>41.857142857142</v>
       </c>
       <c r="E74" s="2">
-        <v>60744</v>
+        <v>60736</v>
       </c>
       <c r="F74" s="2">
-        <v>2242</v>
+        <v>2244</v>
       </c>
       <c r="G74" s="4">
-        <v>0.026270958486</v>
+        <v>0.026268603191</v>
       </c>
     </row>
     <row r="75" spans="1:7">
@@ -2098,7 +2098,7 @@
         <v>43995</v>
       </c>
       <c r="B75" s="2">
-        <v>2103</v>
+        <v>2102</v>
       </c>
       <c r="C75" s="2">
         <v>34</v>
@@ -2107,13 +2107,13 @@
         <v>44.142857142857</v>
       </c>
       <c r="E75" s="2">
-        <v>61582</v>
+        <v>61574</v>
       </c>
       <c r="F75" s="2">
         <v>838</v>
       </c>
       <c r="G75" s="4">
-        <v>0.027138591252</v>
+        <v>0.027136207956</v>
       </c>
     </row>
     <row r="76" spans="1:7">
@@ -2121,7 +2121,7 @@
         <v>43996</v>
       </c>
       <c r="B76" s="2">
-        <v>2130</v>
+        <v>2129</v>
       </c>
       <c r="C76" s="2">
         <v>27</v>
@@ -2130,13 +2130,13 @@
         <v>45.428571428571</v>
       </c>
       <c r="E76" s="2">
-        <v>62165</v>
+        <v>62157</v>
       </c>
       <c r="F76" s="2">
         <v>583</v>
       </c>
       <c r="G76" s="4">
-        <v>0.027693111556</v>
+        <v>0.027688289072</v>
       </c>
     </row>
     <row r="77" spans="1:7">
@@ -2147,19 +2147,19 @@
         <v>2186</v>
       </c>
       <c r="C77" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D77" s="3">
-        <v>46.571428571428</v>
+        <v>46.714285714285</v>
       </c>
       <c r="E77" s="2">
-        <v>64380</v>
+        <v>64373</v>
       </c>
       <c r="F77" s="2">
-        <v>2215</v>
+        <v>2216</v>
       </c>
       <c r="G77" s="4">
-        <v>0.027487352445</v>
+        <v>0.027564696956</v>
       </c>
     </row>
     <row r="78" spans="1:7">
@@ -2173,16 +2173,16 @@
         <v>84</v>
       </c>
       <c r="D78" s="3">
-        <v>52.428571428571</v>
+        <v>52.571428571428</v>
       </c>
       <c r="E78" s="2">
-        <v>66900</v>
+        <v>66894</v>
       </c>
       <c r="F78" s="2">
-        <v>2520</v>
+        <v>2521</v>
       </c>
       <c r="G78" s="4">
-        <v>0.029289704708</v>
+        <v>0.029360140418</v>
       </c>
     </row>
     <row r="79" spans="1:7">
@@ -2196,16 +2196,16 @@
         <v>87</v>
       </c>
       <c r="D79" s="3">
-        <v>57.142857142857</v>
+        <v>57.285714285714</v>
       </c>
       <c r="E79" s="2">
-        <v>69469</v>
+        <v>69465</v>
       </c>
       <c r="F79" s="2">
-        <v>2569</v>
+        <v>2571</v>
       </c>
       <c r="G79" s="4">
-        <v>0.030515715593</v>
+        <v>0.030578008235</v>
       </c>
     </row>
     <row r="80" spans="1:7">
@@ -2213,22 +2213,22 @@
         <v>44000</v>
       </c>
       <c r="B80" s="2">
-        <v>2447</v>
+        <v>2448</v>
       </c>
       <c r="C80" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D80" s="3">
-        <v>62.28571428571399</v>
+        <v>62.57142857142801</v>
       </c>
       <c r="E80" s="2">
-        <v>71992</v>
+        <v>71990</v>
       </c>
       <c r="F80" s="2">
-        <v>2523</v>
+        <v>2525</v>
       </c>
       <c r="G80" s="4">
-        <v>0.032320237212</v>
+        <v>0.03244925174</v>
       </c>
     </row>
     <row r="81" spans="1:7">
@@ -2236,22 +2236,22 @@
         <v>44001</v>
       </c>
       <c r="B81" s="2">
-        <v>2548</v>
+        <v>2550</v>
       </c>
       <c r="C81" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D81" s="3">
-        <v>68.428571428571</v>
+        <v>68.85714285714199</v>
       </c>
       <c r="E81" s="2">
-        <v>74434</v>
+        <v>74433</v>
       </c>
       <c r="F81" s="2">
-        <v>2442</v>
+        <v>2443</v>
       </c>
       <c r="G81" s="4">
-        <v>0.034989043097</v>
+        <v>0.035190187632</v>
       </c>
     </row>
     <row r="82" spans="1:7">
@@ -2259,22 +2259,22 @@
         <v>44002</v>
       </c>
       <c r="B82" s="2">
-        <v>2600</v>
+        <v>2602</v>
       </c>
       <c r="C82" s="2">
         <v>52</v>
       </c>
       <c r="D82" s="3">
-        <v>71</v>
+        <v>71.428571428571</v>
       </c>
       <c r="E82" s="2">
-        <v>75384</v>
+        <v>75385</v>
       </c>
       <c r="F82" s="2">
-        <v>950</v>
+        <v>952</v>
       </c>
       <c r="G82" s="4">
-        <v>0.036009274018</v>
+        <v>0.036203026573</v>
       </c>
     </row>
     <row r="83" spans="1:7">
@@ -2282,22 +2282,22 @@
         <v>44003</v>
       </c>
       <c r="B83" s="2">
-        <v>2640</v>
+        <v>2642</v>
       </c>
       <c r="C83" s="2">
         <v>40</v>
       </c>
       <c r="D83" s="3">
-        <v>72.85714285714199</v>
+        <v>73.28571428571399</v>
       </c>
       <c r="E83" s="2">
-        <v>76081</v>
+        <v>76082</v>
       </c>
       <c r="F83" s="2">
         <v>697</v>
       </c>
       <c r="G83" s="4">
-        <v>0.036648462201</v>
+        <v>0.036840215439</v>
       </c>
     </row>
     <row r="84" spans="1:7">
@@ -2305,22 +2305,22 @@
         <v>44004</v>
       </c>
       <c r="B84" s="2">
-        <v>2751</v>
+        <v>2753</v>
       </c>
       <c r="C84" s="2">
         <v>111</v>
       </c>
       <c r="D84" s="3">
-        <v>80.714285714285</v>
+        <v>81</v>
       </c>
       <c r="E84" s="2">
-        <v>78701</v>
+        <v>78702</v>
       </c>
       <c r="F84" s="2">
         <v>2620</v>
       </c>
       <c r="G84" s="4">
-        <v>0.039452552196</v>
+        <v>0.039570102589</v>
       </c>
     </row>
     <row r="85" spans="1:7">
@@ -2328,22 +2328,22 @@
         <v>44005</v>
       </c>
       <c r="B85" s="2">
-        <v>2884</v>
+        <v>2886</v>
       </c>
       <c r="C85" s="2">
         <v>133</v>
       </c>
       <c r="D85" s="3">
-        <v>87.714285714285</v>
+        <v>88</v>
       </c>
       <c r="E85" s="2">
-        <v>81486</v>
+        <v>81487</v>
       </c>
       <c r="F85" s="2">
         <v>2785</v>
       </c>
       <c r="G85" s="4">
-        <v>0.042095159742</v>
+        <v>0.042212019461</v>
       </c>
     </row>
     <row r="86" spans="1:7">
@@ -2351,22 +2351,22 @@
         <v>44006</v>
       </c>
       <c r="B86" s="2">
-        <v>3027</v>
+        <v>3029</v>
       </c>
       <c r="C86" s="2">
         <v>143</v>
       </c>
       <c r="D86" s="3">
-        <v>95.714285714285</v>
+        <v>96</v>
       </c>
       <c r="E86" s="2">
-        <v>84512</v>
+        <v>84515</v>
       </c>
       <c r="F86" s="2">
-        <v>3026</v>
+        <v>3028</v>
       </c>
       <c r="G86" s="4">
-        <v>0.044538988233</v>
+        <v>0.04465116279</v>
       </c>
     </row>
     <row r="87" spans="1:7">
@@ -2374,22 +2374,22 @@
         <v>44007</v>
       </c>
       <c r="B87" s="2">
-        <v>3179</v>
+        <v>3181</v>
       </c>
       <c r="C87" s="2">
         <v>152</v>
       </c>
       <c r="D87" s="3">
-        <v>104.571428571428</v>
+        <v>104.714285714285</v>
       </c>
       <c r="E87" s="2">
-        <v>87870</v>
+        <v>87873</v>
       </c>
       <c r="F87" s="2">
         <v>3358</v>
       </c>
       <c r="G87" s="4">
-        <v>0.046101524121</v>
+        <v>0.046149971667</v>
       </c>
     </row>
     <row r="88" spans="1:7">
@@ -2397,7 +2397,7 @@
         <v>44008</v>
       </c>
       <c r="B88" s="2">
-        <v>3348</v>
+        <v>3350</v>
       </c>
       <c r="C88" s="2">
         <v>169</v>
@@ -2406,13 +2406,13 @@
         <v>114.285714285714</v>
       </c>
       <c r="E88" s="2">
-        <v>90836</v>
+        <v>90839</v>
       </c>
       <c r="F88" s="2">
         <v>2966</v>
       </c>
       <c r="G88" s="4">
-        <v>0.04877453969</v>
+        <v>0.048762647811</v>
       </c>
     </row>
     <row r="89" spans="1:7">
@@ -2420,7 +2420,7 @@
         <v>44009</v>
       </c>
       <c r="B89" s="2">
-        <v>3428</v>
+        <v>3430</v>
       </c>
       <c r="C89" s="2">
         <v>80</v>
@@ -2429,13 +2429,13 @@
         <v>118.285714285714</v>
       </c>
       <c r="E89" s="2">
-        <v>91910</v>
+        <v>91913</v>
       </c>
       <c r="F89" s="2">
         <v>1074</v>
       </c>
       <c r="G89" s="4">
-        <v>0.050102868207</v>
+        <v>0.050096805421</v>
       </c>
     </row>
     <row r="90" spans="1:7">
@@ -2443,7 +2443,7 @@
         <v>44010</v>
       </c>
       <c r="B90" s="2">
-        <v>3487</v>
+        <v>3489</v>
       </c>
       <c r="C90" s="2">
         <v>59</v>
@@ -2452,13 +2452,13 @@
         <v>121</v>
       </c>
       <c r="E90" s="2">
-        <v>92705</v>
+        <v>92708</v>
       </c>
       <c r="F90" s="2">
         <v>795</v>
       </c>
       <c r="G90" s="4">
-        <v>0.050950433108</v>
+        <v>0.050944304102</v>
       </c>
     </row>
     <row r="91" spans="1:7">
@@ -2466,7 +2466,7 @@
         <v>44011</v>
       </c>
       <c r="B91" s="2">
-        <v>3684</v>
+        <v>3686</v>
       </c>
       <c r="C91" s="2">
         <v>197</v>
@@ -2475,13 +2475,13 @@
         <v>133.285714285714</v>
       </c>
       <c r="E91" s="2">
-        <v>96389</v>
+        <v>96392</v>
       </c>
       <c r="F91" s="2">
         <v>3684</v>
       </c>
       <c r="G91" s="4">
-        <v>0.052747625508</v>
+        <v>0.052741661955</v>
       </c>
     </row>
     <row r="92" spans="1:7">
@@ -2489,22 +2489,22 @@
         <v>44012</v>
       </c>
       <c r="B92" s="2">
-        <v>3841</v>
+        <v>3844</v>
       </c>
       <c r="C92" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D92" s="3">
-        <v>136.714285714285</v>
+        <v>136.857142857142</v>
       </c>
       <c r="E92" s="2">
-        <v>99864</v>
+        <v>99868</v>
       </c>
       <c r="F92" s="2">
-        <v>3475</v>
+        <v>3476</v>
       </c>
       <c r="G92" s="4">
-        <v>0.052073130917</v>
+        <v>0.052119035961</v>
       </c>
     </row>
     <row r="93" spans="1:7">
@@ -2512,22 +2512,22 @@
         <v>44013</v>
       </c>
       <c r="B93" s="2">
-        <v>4014</v>
+        <v>4017</v>
       </c>
       <c r="C93" s="2">
         <v>173</v>
       </c>
       <c r="D93" s="3">
-        <v>141</v>
+        <v>141.142857142857</v>
       </c>
       <c r="E93" s="2">
-        <v>103400</v>
+        <v>103405</v>
       </c>
       <c r="F93" s="2">
-        <v>3536</v>
+        <v>3537</v>
       </c>
       <c r="G93" s="4">
-        <v>0.052255400254</v>
+        <v>0.052302805717</v>
       </c>
     </row>
     <row r="94" spans="1:7">
@@ -2535,22 +2535,22 @@
         <v>44014</v>
       </c>
       <c r="B94" s="2">
-        <v>4226</v>
+        <v>4229</v>
       </c>
       <c r="C94" s="2">
         <v>212</v>
       </c>
       <c r="D94" s="3">
-        <v>149.571428571428</v>
+        <v>149.714285714285</v>
       </c>
       <c r="E94" s="2">
-        <v>107318</v>
+        <v>107324</v>
       </c>
       <c r="F94" s="2">
-        <v>3918</v>
+        <v>3919</v>
       </c>
       <c r="G94" s="4">
-        <v>0.053835870012</v>
+        <v>0.053878977944</v>
       </c>
     </row>
     <row r="95" spans="1:7">
@@ -2558,22 +2558,22 @@
         <v>44015</v>
       </c>
       <c r="B95" s="2">
-        <v>4369</v>
+        <v>4372</v>
       </c>
       <c r="C95" s="2">
         <v>143</v>
       </c>
       <c r="D95" s="3">
-        <v>145.857142857142</v>
+        <v>146</v>
       </c>
       <c r="E95" s="2">
-        <v>109957</v>
+        <v>109964</v>
       </c>
       <c r="F95" s="2">
-        <v>2639</v>
+        <v>2640</v>
       </c>
       <c r="G95" s="4">
-        <v>0.05339678887</v>
+        <v>0.053437908496</v>
       </c>
     </row>
     <row r="96" spans="1:7">
@@ -2581,22 +2581,22 @@
         <v>44016</v>
       </c>
       <c r="B96" s="2">
-        <v>4462</v>
+        <v>4465</v>
       </c>
       <c r="C96" s="2">
         <v>93</v>
       </c>
       <c r="D96" s="3">
-        <v>147.714285714285</v>
+        <v>147.857142857142</v>
       </c>
       <c r="E96" s="2">
-        <v>111074</v>
+        <v>111081</v>
       </c>
       <c r="F96" s="2">
         <v>1117</v>
       </c>
       <c r="G96" s="4">
-        <v>0.053955332915</v>
+        <v>0.053996243739</v>
       </c>
     </row>
     <row r="97" spans="1:7">
@@ -2604,22 +2604,22 @@
         <v>44017</v>
       </c>
       <c r="B97" s="2">
-        <v>4548</v>
+        <v>4551</v>
       </c>
       <c r="C97" s="2">
         <v>86</v>
       </c>
       <c r="D97" s="3">
-        <v>151.571428571428</v>
+        <v>151.714285714285</v>
       </c>
       <c r="E97" s="2">
-        <v>112202</v>
+        <v>112210</v>
       </c>
       <c r="F97" s="2">
-        <v>1128</v>
+        <v>1129</v>
       </c>
       <c r="G97" s="4">
-        <v>0.054418628506</v>
+        <v>0.054455953235</v>
       </c>
     </row>
     <row r="98" spans="1:7">
@@ -2627,22 +2627,22 @@
         <v>44018</v>
       </c>
       <c r="B98" s="2">
-        <v>4752</v>
+        <v>4755</v>
       </c>
       <c r="C98" s="2">
         <v>204</v>
       </c>
       <c r="D98" s="3">
-        <v>152.571428571428</v>
+        <v>152.714285714285</v>
       </c>
       <c r="E98" s="2">
-        <v>116271</v>
+        <v>116279</v>
       </c>
       <c r="F98" s="2">
         <v>4069</v>
       </c>
       <c r="G98" s="4">
-        <v>0.053716929886</v>
+        <v>0.053753708452</v>
       </c>
     </row>
     <row r="99" spans="1:7">
@@ -2650,7 +2650,7 @@
         <v>44019</v>
       </c>
       <c r="B99" s="2">
-        <v>4968</v>
+        <v>4971</v>
       </c>
       <c r="C99" s="2">
         <v>216</v>
@@ -2659,13 +2659,13 @@
         <v>161</v>
       </c>
       <c r="E99" s="2">
-        <v>120343</v>
+        <v>120351</v>
       </c>
       <c r="F99" s="2">
         <v>4072</v>
       </c>
       <c r="G99" s="4">
-        <v>0.055031983983</v>
+        <v>0.055021237123</v>
       </c>
     </row>
     <row r="100" spans="1:7">
@@ -2673,7 +2673,7 @@
         <v>44020</v>
       </c>
       <c r="B100" s="2">
-        <v>5193</v>
+        <v>5196</v>
       </c>
       <c r="C100" s="2">
         <v>225</v>
@@ -2682,13 +2682,13 @@
         <v>168.428571428571</v>
       </c>
       <c r="E100" s="2">
-        <v>124597</v>
+        <v>124606</v>
       </c>
       <c r="F100" s="2">
-        <v>4254</v>
+        <v>4255</v>
       </c>
       <c r="G100" s="4">
-        <v>0.055621078454</v>
+        <v>0.055610584406</v>
       </c>
     </row>
     <row r="101" spans="1:7">
@@ -2696,7 +2696,7 @@
         <v>44021</v>
       </c>
       <c r="B101" s="2">
-        <v>5446</v>
+        <v>5449</v>
       </c>
       <c r="C101" s="2">
         <v>253</v>
@@ -2705,13 +2705,13 @@
         <v>174.285714285714</v>
       </c>
       <c r="E101" s="2">
-        <v>129194</v>
+        <v>129203</v>
       </c>
       <c r="F101" s="2">
         <v>4597</v>
       </c>
       <c r="G101" s="4">
-        <v>0.055768879136</v>
+        <v>0.055761232231</v>
       </c>
     </row>
     <row r="102" spans="1:7">
@@ -2719,22 +2719,22 @@
         <v>44022</v>
       </c>
       <c r="B102" s="2">
-        <v>5694</v>
+        <v>5696</v>
       </c>
       <c r="C102" s="2">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D102" s="3">
-        <v>189.285714285714</v>
+        <v>189.142857142857</v>
       </c>
       <c r="E102" s="2">
-        <v>133655</v>
+        <v>133665</v>
       </c>
       <c r="F102" s="2">
-        <v>4461</v>
+        <v>4462</v>
       </c>
       <c r="G102" s="4">
-        <v>0.055911891298</v>
+        <v>0.05586262183</v>
       </c>
     </row>
     <row r="103" spans="1:7">
@@ -2742,22 +2742,22 @@
         <v>44023</v>
       </c>
       <c r="B103" s="2">
-        <v>5834</v>
+        <v>5836</v>
       </c>
       <c r="C103" s="2">
         <v>140</v>
       </c>
       <c r="D103" s="3">
-        <v>196</v>
+        <v>195.857142857142</v>
       </c>
       <c r="E103" s="2">
-        <v>135724</v>
+        <v>135734</v>
       </c>
       <c r="F103" s="2">
         <v>2069</v>
       </c>
       <c r="G103" s="4">
-        <v>0.055659229208</v>
+        <v>0.055611893075</v>
       </c>
     </row>
     <row r="104" spans="1:7">
@@ -2765,22 +2765,22 @@
         <v>44024</v>
       </c>
       <c r="B104" s="2">
-        <v>5935</v>
+        <v>5937</v>
       </c>
       <c r="C104" s="2">
         <v>101</v>
       </c>
       <c r="D104" s="3">
-        <v>198.142857142857</v>
+        <v>198</v>
       </c>
       <c r="E104" s="2">
-        <v>137049</v>
+        <v>137059</v>
       </c>
       <c r="F104" s="2">
         <v>1325</v>
       </c>
       <c r="G104" s="4">
-        <v>0.055821628365</v>
+        <v>0.05577689243</v>
       </c>
     </row>
     <row r="105" spans="1:7">
@@ -2788,22 +2788,22 @@
         <v>44025</v>
       </c>
       <c r="B105" s="2">
-        <v>6196</v>
+        <v>6198</v>
       </c>
       <c r="C105" s="2">
         <v>261</v>
       </c>
       <c r="D105" s="3">
-        <v>206.285714285714</v>
+        <v>206.142857142857</v>
       </c>
       <c r="E105" s="2">
-        <v>141647</v>
+        <v>141657</v>
       </c>
       <c r="F105" s="2">
         <v>4598</v>
       </c>
       <c r="G105" s="4">
-        <v>0.056904161412</v>
+        <v>0.056860272677</v>
       </c>
     </row>
     <row r="106" spans="1:7">
@@ -2811,22 +2811,22 @@
         <v>44026</v>
       </c>
       <c r="B106" s="2">
-        <v>6449</v>
+        <v>6451</v>
       </c>
       <c r="C106" s="2">
         <v>253</v>
       </c>
       <c r="D106" s="3">
-        <v>211.571428571428</v>
+        <v>211.428571428571</v>
       </c>
       <c r="E106" s="2">
-        <v>145380</v>
+        <v>145397</v>
       </c>
       <c r="F106" s="2">
-        <v>3733</v>
+        <v>3740</v>
       </c>
       <c r="G106" s="4">
-        <v>0.059152454367</v>
+        <v>0.059091272059</v>
       </c>
     </row>
     <row r="107" spans="1:7">
@@ -2834,22 +2834,22 @@
         <v>44027</v>
       </c>
       <c r="B107" s="2">
-        <v>6709</v>
+        <v>6711</v>
       </c>
       <c r="C107" s="2">
         <v>260</v>
       </c>
       <c r="D107" s="3">
-        <v>216.571428571428</v>
+        <v>216.428571428571</v>
       </c>
       <c r="E107" s="2">
-        <v>149720</v>
+        <v>149738</v>
       </c>
       <c r="F107" s="2">
-        <v>4340</v>
+        <v>4341</v>
       </c>
       <c r="G107" s="4">
-        <v>0.060343111889</v>
+        <v>0.060281712557</v>
       </c>
     </row>
     <row r="108" spans="1:7">
@@ -2857,22 +2857,22 @@
         <v>44028</v>
       </c>
       <c r="B108" s="2">
-        <v>6964</v>
+        <v>6966</v>
       </c>
       <c r="C108" s="2">
         <v>255</v>
       </c>
       <c r="D108" s="3">
-        <v>216.857142857142</v>
+        <v>216.714285714285</v>
       </c>
       <c r="E108" s="2">
-        <v>153902</v>
+        <v>153920</v>
       </c>
       <c r="F108" s="2">
         <v>4182</v>
       </c>
       <c r="G108" s="4">
-        <v>0.061437591063</v>
+        <v>0.061374762309</v>
       </c>
     </row>
     <row r="109" spans="1:7">
@@ -2880,22 +2880,22 @@
         <v>44029</v>
       </c>
       <c r="B109" s="2">
-        <v>7215</v>
+        <v>7218</v>
       </c>
       <c r="C109" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="D109" s="3">
-        <v>217.285714285714</v>
+        <v>217.428571428571</v>
       </c>
       <c r="E109" s="2">
-        <v>158090</v>
+        <v>158115</v>
       </c>
       <c r="F109" s="2">
-        <v>4188</v>
+        <v>4195</v>
       </c>
       <c r="G109" s="4">
-        <v>0.062246777163</v>
+        <v>0.062249488752</v>
       </c>
     </row>
     <row r="110" spans="1:7">
@@ -2903,22 +2903,22 @@
         <v>44030</v>
       </c>
       <c r="B110" s="2">
-        <v>7344</v>
+        <v>7347</v>
       </c>
       <c r="C110" s="2">
         <v>129</v>
       </c>
       <c r="D110" s="3">
-        <v>215.714285714285</v>
+        <v>215.857142857142</v>
       </c>
       <c r="E110" s="2">
-        <v>160311</v>
+        <v>160337</v>
       </c>
       <c r="F110" s="2">
-        <v>2221</v>
+        <v>2222</v>
       </c>
       <c r="G110" s="4">
-        <v>0.061414568674</v>
+        <v>0.06141527456</v>
       </c>
     </row>
     <row r="111" spans="1:7">
@@ -2926,22 +2926,22 @@
         <v>44031</v>
       </c>
       <c r="B111" s="2">
-        <v>7444</v>
+        <v>7447</v>
       </c>
       <c r="C111" s="2">
         <v>100</v>
       </c>
       <c r="D111" s="3">
-        <v>215.571428571428</v>
+        <v>215.714285714285</v>
       </c>
       <c r="E111" s="2">
-        <v>161568</v>
+        <v>161594</v>
       </c>
       <c r="F111" s="2">
         <v>1257</v>
       </c>
       <c r="G111" s="4">
-        <v>0.06154410865</v>
+        <v>0.061544732015</v>
       </c>
     </row>
     <row r="112" spans="1:7">
@@ -2949,22 +2949,22 @@
         <v>44032</v>
       </c>
       <c r="B112" s="2">
-        <v>7735</v>
+        <v>7738</v>
       </c>
       <c r="C112" s="2">
         <v>291</v>
       </c>
       <c r="D112" s="3">
-        <v>219.857142857142</v>
+        <v>220</v>
       </c>
       <c r="E112" s="2">
-        <v>165786</v>
+        <v>165816</v>
       </c>
       <c r="F112" s="2">
-        <v>4218</v>
+        <v>4222</v>
       </c>
       <c r="G112" s="4">
-        <v>0.06375574795900001</v>
+        <v>0.063744360279</v>
       </c>
     </row>
     <row r="113" spans="1:7">
@@ -2972,22 +2972,22 @@
         <v>44033</v>
       </c>
       <c r="B113" s="2">
-        <v>7977</v>
+        <v>7980</v>
       </c>
       <c r="C113" s="2">
         <v>242</v>
       </c>
       <c r="D113" s="3">
-        <v>218.285714285714</v>
+        <v>218.428571428571</v>
       </c>
       <c r="E113" s="2">
-        <v>169595</v>
+        <v>169628</v>
       </c>
       <c r="F113" s="2">
-        <v>3809</v>
+        <v>3812</v>
       </c>
       <c r="G113" s="4">
-        <v>0.06310138344000001</v>
+        <v>0.06310098633900001</v>
       </c>
     </row>
     <row r="114" spans="1:7">
@@ -2995,22 +2995,22 @@
         <v>44034</v>
       </c>
       <c r="B114" s="2">
-        <v>8228</v>
+        <v>8231</v>
       </c>
       <c r="C114" s="2">
         <v>251</v>
       </c>
       <c r="D114" s="3">
-        <v>217</v>
+        <v>217.142857142857</v>
       </c>
       <c r="E114" s="2">
-        <v>173241</v>
+        <v>173278</v>
       </c>
       <c r="F114" s="2">
-        <v>3646</v>
+        <v>3650</v>
       </c>
       <c r="G114" s="4">
-        <v>0.06458058756</v>
+        <v>0.064570943075</v>
       </c>
     </row>
     <row r="115" spans="1:7">
@@ -3018,22 +3018,22 @@
         <v>44035</v>
       </c>
       <c r="B115" s="2">
-        <v>8459</v>
+        <v>8462</v>
       </c>
       <c r="C115" s="2">
         <v>231</v>
       </c>
       <c r="D115" s="3">
-        <v>213.571428571428</v>
+        <v>213.714285714285</v>
       </c>
       <c r="E115" s="2">
-        <v>176560</v>
+        <v>176597</v>
       </c>
       <c r="F115" s="2">
         <v>3319</v>
       </c>
       <c r="G115" s="4">
-        <v>0.065981110424</v>
+        <v>0.065969925475</v>
       </c>
     </row>
     <row r="116" spans="1:7">
@@ -3041,7 +3041,7 @@
         <v>44036</v>
       </c>
       <c r="B116" s="2">
-        <v>8678</v>
+        <v>8681</v>
       </c>
       <c r="C116" s="2">
         <v>219</v>
@@ -3050,13 +3050,13 @@
         <v>209</v>
       </c>
       <c r="E116" s="2">
-        <v>180188</v>
+        <v>180228</v>
       </c>
       <c r="F116" s="2">
-        <v>3628</v>
+        <v>3631</v>
       </c>
       <c r="G116" s="4">
-        <v>0.06620508643299999</v>
+        <v>0.066160177271</v>
       </c>
     </row>
     <row r="117" spans="1:7">
@@ -3064,7 +3064,7 @@
         <v>44037</v>
       </c>
       <c r="B117" s="2">
-        <v>8788</v>
+        <v>8791</v>
       </c>
       <c r="C117" s="2">
         <v>110</v>
@@ -3073,13 +3073,13 @@
         <v>206.285714285714</v>
       </c>
       <c r="E117" s="2">
-        <v>181805</v>
+        <v>181845</v>
       </c>
       <c r="F117" s="2">
         <v>1617</v>
       </c>
       <c r="G117" s="4">
-        <v>0.067181539034</v>
+        <v>0.06713780918700001</v>
       </c>
     </row>
     <row r="118" spans="1:7">
@@ -3087,7 +3087,7 @@
         <v>44038</v>
       </c>
       <c r="B118" s="2">
-        <v>8891</v>
+        <v>8894</v>
       </c>
       <c r="C118" s="2">
         <v>103</v>
@@ -3096,13 +3096,13 @@
         <v>206.714285714285</v>
       </c>
       <c r="E118" s="2">
-        <v>183058</v>
+        <v>183098</v>
       </c>
       <c r="F118" s="2">
         <v>1253</v>
       </c>
       <c r="G118" s="4">
-        <v>0.067333643555</v>
+        <v>0.06728980654699999</v>
       </c>
     </row>
     <row r="119" spans="1:7">
@@ -3110,22 +3110,22 @@
         <v>44039</v>
       </c>
       <c r="B119" s="2">
-        <v>9132</v>
+        <v>9137</v>
       </c>
       <c r="C119" s="2">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="D119" s="3">
-        <v>199.571428571428</v>
+        <v>199.857142857142</v>
       </c>
       <c r="E119" s="2">
-        <v>187225</v>
+        <v>187267</v>
       </c>
       <c r="F119" s="2">
-        <v>4167</v>
+        <v>4169</v>
       </c>
       <c r="G119" s="4">
-        <v>0.065161621344</v>
+        <v>0.065218404736</v>
       </c>
     </row>
     <row r="120" spans="1:7">
@@ -3133,22 +3133,22 @@
         <v>44040</v>
       </c>
       <c r="B120" s="2">
-        <v>9379</v>
+        <v>9383</v>
       </c>
       <c r="C120" s="2">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D120" s="3">
-        <v>200.285714285714</v>
+        <v>200.428571428571</v>
       </c>
       <c r="E120" s="2">
-        <v>191092</v>
+        <v>191135</v>
       </c>
       <c r="F120" s="2">
-        <v>3867</v>
+        <v>3868</v>
       </c>
       <c r="G120" s="4">
-        <v>0.065218402567</v>
+        <v>0.06523457478899999</v>
       </c>
     </row>
     <row r="121" spans="1:7">
@@ -3156,22 +3156,22 @@
         <v>44041</v>
       </c>
       <c r="B121" s="2">
-        <v>9629</v>
+        <v>9632</v>
       </c>
       <c r="C121" s="2">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D121" s="3">
         <v>200.142857142857</v>
       </c>
       <c r="E121" s="2">
-        <v>194948</v>
+        <v>194990</v>
       </c>
       <c r="F121" s="2">
-        <v>3856</v>
+        <v>3855</v>
       </c>
       <c r="G121" s="4">
-        <v>0.064541392177</v>
+        <v>0.064526529108</v>
       </c>
     </row>
     <row r="122" spans="1:7">
@@ -3179,22 +3179,22 @@
         <v>44042</v>
       </c>
       <c r="B122" s="2">
-        <v>9844</v>
+        <v>9848</v>
       </c>
       <c r="C122" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="D122" s="3">
-        <v>197.857142857142</v>
+        <v>198</v>
       </c>
       <c r="E122" s="2">
-        <v>198615</v>
+        <v>198658</v>
       </c>
       <c r="F122" s="2">
-        <v>3667</v>
+        <v>3668</v>
       </c>
       <c r="G122" s="4">
-        <v>0.062797551575</v>
+        <v>0.062825801187</v>
       </c>
     </row>
     <row r="123" spans="1:7">
@@ -3202,22 +3202,22 @@
         <v>44043</v>
       </c>
       <c r="B123" s="2">
-        <v>10076</v>
+        <v>10081</v>
       </c>
       <c r="C123" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="D123" s="3">
-        <v>199.714285714285</v>
+        <v>200</v>
       </c>
       <c r="E123" s="2">
-        <v>202148</v>
+        <v>202194</v>
       </c>
       <c r="F123" s="2">
-        <v>3533</v>
+        <v>3536</v>
       </c>
       <c r="G123" s="4">
-        <v>0.063661202185</v>
+        <v>0.06373486297</v>
       </c>
     </row>
     <row r="124" spans="1:7">
@@ -3225,22 +3225,22 @@
         <v>44044</v>
       </c>
       <c r="B124" s="2">
-        <v>10183</v>
+        <v>10188</v>
       </c>
       <c r="C124" s="2">
         <v>107</v>
       </c>
       <c r="D124" s="3">
-        <v>199.285714285714</v>
+        <v>199.571428571428</v>
       </c>
       <c r="E124" s="2">
-        <v>203737</v>
+        <v>203783</v>
       </c>
       <c r="F124" s="2">
         <v>1589</v>
       </c>
       <c r="G124" s="4">
-        <v>0.063605690315</v>
+        <v>0.063679460297</v>
       </c>
     </row>
     <row r="125" spans="1:7">
@@ -3248,22 +3248,22 @@
         <v>44045</v>
       </c>
       <c r="B125" s="2">
-        <v>10260</v>
+        <v>10267</v>
       </c>
       <c r="C125" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D125" s="3">
-        <v>195.571428571428</v>
+        <v>196.142857142857</v>
       </c>
       <c r="E125" s="2">
-        <v>204858</v>
+        <v>204906</v>
       </c>
       <c r="F125" s="2">
-        <v>1121</v>
+        <v>1123</v>
       </c>
       <c r="G125" s="4">
-        <v>0.062798165137</v>
+        <v>0.062958547322</v>
       </c>
     </row>
     <row r="126" spans="1:7">
@@ -3271,22 +3271,22 @@
         <v>44046</v>
       </c>
       <c r="B126" s="2">
-        <v>10514</v>
+        <v>10520</v>
       </c>
       <c r="C126" s="2">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D126" s="3">
-        <v>197.428571428571</v>
+        <v>197.571428571428</v>
       </c>
       <c r="E126" s="2">
-        <v>208653</v>
+        <v>208701</v>
       </c>
       <c r="F126" s="2">
         <v>3795</v>
       </c>
       <c r="G126" s="4">
-        <v>0.064495053201</v>
+        <v>0.064523654007</v>
       </c>
     </row>
     <row r="127" spans="1:7">
@@ -3294,22 +3294,22 @@
         <v>44047</v>
       </c>
       <c r="B127" s="2">
-        <v>10736</v>
+        <v>10748</v>
       </c>
       <c r="C127" s="2">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="D127" s="3">
-        <v>193.857142857142</v>
+        <v>195</v>
       </c>
       <c r="E127" s="2">
-        <v>211931</v>
+        <v>211988</v>
       </c>
       <c r="F127" s="2">
-        <v>3278</v>
+        <v>3287</v>
       </c>
       <c r="G127" s="4">
-        <v>0.065118287825</v>
+        <v>0.065458207452</v>
       </c>
     </row>
     <row r="128" spans="1:7">
@@ -3317,22 +3317,22 @@
         <v>44048</v>
       </c>
       <c r="B128" s="2">
-        <v>10910</v>
+        <v>10926</v>
       </c>
       <c r="C128" s="2">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="D128" s="3">
-        <v>183</v>
+        <v>184.857142857142</v>
       </c>
       <c r="E128" s="2">
-        <v>215124</v>
+        <v>215184</v>
       </c>
       <c r="F128" s="2">
-        <v>3193</v>
+        <v>3196</v>
       </c>
       <c r="G128" s="4">
-        <v>0.063491276764</v>
+        <v>0.06407843914</v>
       </c>
     </row>
     <row r="129" spans="1:7">
@@ -3340,22 +3340,22 @@
         <v>44049</v>
       </c>
       <c r="B129" s="2">
-        <v>11103</v>
+        <v>11121</v>
       </c>
       <c r="C129" s="2">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="D129" s="3">
-        <v>179.857142857142</v>
+        <v>181.857142857142</v>
       </c>
       <c r="E129" s="2">
-        <v>218771</v>
+        <v>218834</v>
       </c>
       <c r="F129" s="2">
-        <v>3647</v>
+        <v>3650</v>
       </c>
       <c r="G129" s="4">
-        <v>0.062462790236</v>
+        <v>0.063094766058</v>
       </c>
     </row>
     <row r="130" spans="1:7">
@@ -3363,22 +3363,22 @@
         <v>44050</v>
       </c>
       <c r="B130" s="2">
-        <v>11271</v>
+        <v>11295</v>
       </c>
       <c r="C130" s="2">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="D130" s="3">
-        <v>170.714285714285</v>
+        <v>173.428571428571</v>
       </c>
       <c r="E130" s="2">
-        <v>222022</v>
+        <v>222095</v>
       </c>
       <c r="F130" s="2">
-        <v>3251</v>
+        <v>3261</v>
       </c>
       <c r="G130" s="4">
-        <v>0.060128811512</v>
+        <v>0.0610019597</v>
       </c>
     </row>
     <row r="131" spans="1:7">
@@ -3386,22 +3386,22 @@
         <v>44051</v>
       </c>
       <c r="B131" s="2">
-        <v>11373</v>
+        <v>11404</v>
       </c>
       <c r="C131" s="2">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="D131" s="3">
-        <v>170</v>
+        <v>173.714285714285</v>
       </c>
       <c r="E131" s="2">
-        <v>223705</v>
+        <v>223786</v>
       </c>
       <c r="F131" s="2">
-        <v>1683</v>
+        <v>1691</v>
       </c>
       <c r="G131" s="4">
-        <v>0.059595352564</v>
+        <v>0.060790881367</v>
       </c>
     </row>
     <row r="132" spans="1:7">
@@ -3409,22 +3409,22 @@
         <v>44052</v>
       </c>
       <c r="B132" s="2">
-        <v>11453</v>
+        <v>11486</v>
       </c>
       <c r="C132" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D132" s="3">
-        <v>170.428571428571</v>
+        <v>174.142857142857</v>
       </c>
       <c r="E132" s="2">
-        <v>224746</v>
+        <v>224828</v>
       </c>
       <c r="F132" s="2">
-        <v>1041</v>
+        <v>1042</v>
       </c>
       <c r="G132" s="4">
-        <v>0.059985921158</v>
+        <v>0.061188635679</v>
       </c>
     </row>
     <row r="133" spans="1:7">
@@ -3432,22 +3432,22 @@
         <v>44053</v>
       </c>
       <c r="B133" s="2">
-        <v>11688</v>
+        <v>11723</v>
       </c>
       <c r="C133" s="2">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="D133" s="3">
-        <v>167.714285714285</v>
+        <v>171.857142857142</v>
       </c>
       <c r="E133" s="2">
-        <v>228636</v>
+        <v>228721</v>
       </c>
       <c r="F133" s="2">
-        <v>3890</v>
+        <v>3893</v>
       </c>
       <c r="G133" s="4">
-        <v>0.058749937446</v>
+        <v>0.060089910089</v>
       </c>
     </row>
     <row r="134" spans="1:7">
@@ -3455,22 +3455,22 @@
         <v>44054</v>
       </c>
       <c r="B134" s="2">
-        <v>11886</v>
+        <v>11923</v>
       </c>
       <c r="C134" s="2">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="D134" s="3">
-        <v>164.285714285714</v>
+        <v>167.857142857142</v>
       </c>
       <c r="E134" s="2">
-        <v>232050</v>
+        <v>232136</v>
       </c>
       <c r="F134" s="2">
-        <v>3414</v>
+        <v>3415</v>
       </c>
       <c r="G134" s="4">
-        <v>0.057159898603</v>
+        <v>0.058318443517</v>
       </c>
     </row>
     <row r="135" spans="1:7">
@@ -3478,22 +3478,22 @@
         <v>44055</v>
       </c>
       <c r="B135" s="2">
-        <v>12084</v>
+        <v>12124</v>
       </c>
       <c r="C135" s="2">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="D135" s="3">
-        <v>167.714285714285</v>
+        <v>171.142857142857</v>
       </c>
       <c r="E135" s="2">
-        <v>235894</v>
+        <v>235990</v>
       </c>
       <c r="F135" s="2">
-        <v>3844</v>
+        <v>3854</v>
       </c>
       <c r="G135" s="4">
-        <v>0.05652383245</v>
+        <v>0.057579544362</v>
       </c>
     </row>
     <row r="136" spans="1:7">
@@ -3501,22 +3501,22 @@
         <v>44056</v>
       </c>
       <c r="B136" s="2">
-        <v>12262</v>
+        <v>12302</v>
       </c>
       <c r="C136" s="2">
         <v>178</v>
       </c>
       <c r="D136" s="3">
-        <v>165.571428571428</v>
+        <v>168.714285714285</v>
       </c>
       <c r="E136" s="2">
-        <v>239157</v>
+        <v>239257</v>
       </c>
       <c r="F136" s="2">
-        <v>3263</v>
+        <v>3267</v>
       </c>
       <c r="G136" s="4">
-        <v>0.056852742077</v>
+        <v>0.0578269598</v>
       </c>
     </row>
     <row r="137" spans="1:7">
@@ -3524,22 +3524,22 @@
         <v>44057</v>
       </c>
       <c r="B137" s="2">
-        <v>12435</v>
+        <v>12476</v>
       </c>
       <c r="C137" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D137" s="3">
-        <v>166.285714285714</v>
+        <v>168.714285714285</v>
       </c>
       <c r="E137" s="2">
-        <v>242510</v>
+        <v>242612</v>
       </c>
       <c r="F137" s="2">
-        <v>3353</v>
+        <v>3355</v>
       </c>
       <c r="G137" s="4">
-        <v>0.056813744631</v>
+        <v>0.057562021738</v>
       </c>
     </row>
     <row r="138" spans="1:7">
@@ -3547,22 +3547,22 @@
         <v>44058</v>
       </c>
       <c r="B138" s="2">
-        <v>12527</v>
+        <v>12568</v>
       </c>
       <c r="C138" s="2">
         <v>92</v>
       </c>
       <c r="D138" s="3">
-        <v>164.857142857142</v>
+        <v>166.285714285714</v>
       </c>
       <c r="E138" s="2">
-        <v>244069</v>
+        <v>244172</v>
       </c>
       <c r="F138" s="2">
-        <v>1559</v>
+        <v>1560</v>
       </c>
       <c r="G138" s="4">
-        <v>0.056668630917</v>
+        <v>0.057098008437</v>
       </c>
     </row>
     <row r="139" spans="1:7">
@@ -3570,22 +3570,22 @@
         <v>44059</v>
       </c>
       <c r="B139" s="2">
-        <v>12572</v>
+        <v>12613</v>
       </c>
       <c r="C139" s="2">
         <v>45</v>
       </c>
       <c r="D139" s="3">
-        <v>159.857142857142</v>
+        <v>161</v>
       </c>
       <c r="E139" s="2">
-        <v>244845</v>
+        <v>244948</v>
       </c>
       <c r="F139" s="2">
         <v>776</v>
       </c>
       <c r="G139" s="4">
-        <v>0.055674411662</v>
+        <v>0.0560139165</v>
       </c>
     </row>
     <row r="140" spans="1:7">
@@ -3593,22 +3593,22 @@
         <v>44060</v>
       </c>
       <c r="B140" s="2">
-        <v>12784</v>
+        <v>12825</v>
       </c>
       <c r="C140" s="2">
         <v>212</v>
       </c>
       <c r="D140" s="3">
-        <v>156.571428571428</v>
+        <v>157.428571428571</v>
       </c>
       <c r="E140" s="2">
-        <v>248484</v>
+        <v>248602</v>
       </c>
       <c r="F140" s="2">
-        <v>3639</v>
+        <v>3654</v>
       </c>
       <c r="G140" s="4">
-        <v>0.055219669488</v>
+        <v>0.055429807353</v>
       </c>
     </row>
     <row r="141" spans="1:7">
@@ -3616,22 +3616,22 @@
         <v>44061</v>
       </c>
       <c r="B141" s="2">
-        <v>12951</v>
+        <v>12992</v>
       </c>
       <c r="C141" s="2">
         <v>167</v>
       </c>
       <c r="D141" s="3">
-        <v>152.142857142857</v>
+        <v>152.714285714285</v>
       </c>
       <c r="E141" s="2">
-        <v>251528</v>
+        <v>251665</v>
       </c>
       <c r="F141" s="2">
-        <v>3044</v>
+        <v>3063</v>
       </c>
       <c r="G141" s="4">
-        <v>0.054677071567</v>
+        <v>0.054739105945</v>
       </c>
     </row>
     <row r="142" spans="1:7">
@@ -3639,22 +3639,22 @@
         <v>44062</v>
       </c>
       <c r="B142" s="2">
-        <v>13109</v>
+        <v>13150</v>
       </c>
       <c r="C142" s="2">
         <v>158</v>
       </c>
       <c r="D142" s="3">
-        <v>146.428571428571</v>
+        <v>146.571428571428</v>
       </c>
       <c r="E142" s="2">
-        <v>254568</v>
+        <v>254716</v>
       </c>
       <c r="F142" s="2">
-        <v>3040</v>
+        <v>3051</v>
       </c>
       <c r="G142" s="4">
-        <v>0.05488915069</v>
+        <v>0.054790131368</v>
       </c>
     </row>
     <row r="143" spans="1:7">
@@ -3662,22 +3662,22 @@
         <v>44063</v>
       </c>
       <c r="B143" s="2">
-        <v>13241</v>
+        <v>13281</v>
       </c>
       <c r="C143" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D143" s="3">
         <v>139.857142857142</v>
       </c>
       <c r="E143" s="2">
-        <v>257723</v>
+        <v>257871</v>
       </c>
       <c r="F143" s="2">
         <v>3155</v>
       </c>
       <c r="G143" s="4">
-        <v>0.052730798233</v>
+        <v>0.052594821102</v>
       </c>
     </row>
     <row r="144" spans="1:7">
@@ -3685,22 +3685,22 @@
         <v>44064</v>
       </c>
       <c r="B144" s="2">
-        <v>13403</v>
+        <v>13443</v>
       </c>
       <c r="C144" s="2">
         <v>162</v>
       </c>
       <c r="D144" s="3">
-        <v>138.285714285714</v>
+        <v>138.142857142857</v>
       </c>
       <c r="E144" s="2">
-        <v>260747</v>
+        <v>260898</v>
       </c>
       <c r="F144" s="2">
-        <v>3024</v>
+        <v>3027</v>
       </c>
       <c r="G144" s="4">
-        <v>0.053078905521</v>
+        <v>0.052881986218</v>
       </c>
     </row>
     <row r="145" spans="1:7">
@@ -3708,22 +3708,22 @@
         <v>44065</v>
       </c>
       <c r="B145" s="2">
-        <v>13464</v>
+        <v>13504</v>
       </c>
       <c r="C145" s="2">
         <v>61</v>
       </c>
       <c r="D145" s="3">
-        <v>133.857142857142</v>
+        <v>133.714285714285</v>
       </c>
       <c r="E145" s="2">
-        <v>262075</v>
+        <v>262226</v>
       </c>
       <c r="F145" s="2">
         <v>1328</v>
       </c>
       <c r="G145" s="4">
-        <v>0.052038209485</v>
+        <v>0.0518444666</v>
       </c>
     </row>
     <row r="146" spans="1:7">
@@ -3731,22 +3731,22 @@
         <v>44066</v>
       </c>
       <c r="B146" s="2">
-        <v>13530</v>
+        <v>13570</v>
       </c>
       <c r="C146" s="2">
         <v>66</v>
       </c>
       <c r="D146" s="3">
-        <v>136.857142857142</v>
+        <v>136.714285714285</v>
       </c>
       <c r="E146" s="2">
-        <v>263035</v>
+        <v>263186</v>
       </c>
       <c r="F146" s="2">
         <v>960</v>
       </c>
       <c r="G146" s="4">
-        <v>0.052666300164</v>
+        <v>0.052472858866</v>
       </c>
     </row>
     <row r="147" spans="1:7">
@@ -3754,22 +3754,22 @@
         <v>44067</v>
       </c>
       <c r="B147" s="2">
-        <v>13677</v>
+        <v>13719</v>
       </c>
       <c r="C147" s="2">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="D147" s="3">
-        <v>127.571428571428</v>
+        <v>127.714285714285</v>
       </c>
       <c r="E147" s="2">
-        <v>266004</v>
+        <v>266158</v>
       </c>
       <c r="F147" s="2">
-        <v>2969</v>
+        <v>2972</v>
       </c>
       <c r="G147" s="4">
-        <v>0.050970319634</v>
+        <v>0.050922761449</v>
       </c>
     </row>
     <row r="148" spans="1:7">
@@ -3777,22 +3777,22 @@
         <v>44068</v>
       </c>
       <c r="B148" s="2">
-        <v>13810</v>
+        <v>13852</v>
       </c>
       <c r="C148" s="2">
         <v>133</v>
       </c>
       <c r="D148" s="3">
-        <v>122.714285714285</v>
+        <v>122.857142857142</v>
       </c>
       <c r="E148" s="2">
-        <v>269006</v>
+        <v>269164</v>
       </c>
       <c r="F148" s="2">
-        <v>3002</v>
+        <v>3006</v>
       </c>
       <c r="G148" s="4">
-        <v>0.049147499713</v>
+        <v>0.049145665466</v>
       </c>
     </row>
     <row r="149" spans="1:7">
@@ -3800,22 +3800,22 @@
         <v>44069</v>
       </c>
       <c r="B149" s="2">
-        <v>13938</v>
+        <v>13986</v>
       </c>
       <c r="C149" s="2">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="D149" s="3">
-        <v>118.428571428571</v>
+        <v>119.428571428571</v>
       </c>
       <c r="E149" s="2">
-        <v>271861</v>
+        <v>272112</v>
       </c>
       <c r="F149" s="2">
-        <v>2855</v>
+        <v>2948</v>
       </c>
       <c r="G149" s="4">
-        <v>0.047938472214</v>
+        <v>0.048057024603</v>
       </c>
     </row>
     <row r="150" spans="1:7">
@@ -3823,22 +3823,22 @@
         <v>44070</v>
       </c>
       <c r="B150" s="2">
-        <v>14101</v>
+        <v>14151</v>
       </c>
       <c r="C150" s="2">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="D150" s="3">
-        <v>122.857142857142</v>
+        <v>124.285714285714</v>
       </c>
       <c r="E150" s="2">
-        <v>275060</v>
+        <v>275340</v>
       </c>
       <c r="F150" s="2">
-        <v>3199</v>
+        <v>3228</v>
       </c>
       <c r="G150" s="4">
-        <v>0.049604891272</v>
+        <v>0.049802507298</v>
       </c>
     </row>
     <row r="151" spans="1:7">
@@ -3846,22 +3846,22 @@
         <v>44071</v>
       </c>
       <c r="B151" s="2">
-        <v>14219</v>
+        <v>14268</v>
       </c>
       <c r="C151" s="2">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D151" s="3">
-        <v>116.571428571428</v>
+        <v>117.857142857142</v>
       </c>
       <c r="E151" s="2">
-        <v>277831</v>
+        <v>278109</v>
       </c>
       <c r="F151" s="2">
-        <v>2771</v>
+        <v>2769</v>
       </c>
       <c r="G151" s="4">
-        <v>0.047763989697</v>
+        <v>0.047934460519</v>
       </c>
     </row>
     <row r="152" spans="1:7">
@@ -3869,22 +3869,22 @@
         <v>44072</v>
       </c>
       <c r="B152" s="2">
-        <v>14283</v>
+        <v>14332</v>
       </c>
       <c r="C152" s="2">
         <v>64</v>
       </c>
       <c r="D152" s="3">
-        <v>117</v>
+        <v>118.285714285714</v>
       </c>
       <c r="E152" s="2">
-        <v>279262</v>
+        <v>279540</v>
       </c>
       <c r="F152" s="2">
         <v>1431</v>
       </c>
       <c r="G152" s="4">
-        <v>0.047652295339</v>
+        <v>0.047822571329</v>
       </c>
     </row>
     <row r="153" spans="1:7">
@@ -3892,22 +3892,22 @@
         <v>44073</v>
       </c>
       <c r="B153" s="2">
-        <v>14340</v>
+        <v>14389</v>
       </c>
       <c r="C153" s="2">
         <v>57</v>
       </c>
       <c r="D153" s="3">
-        <v>115.714285714285</v>
+        <v>117</v>
       </c>
       <c r="E153" s="2">
-        <v>280339</v>
+        <v>280618</v>
       </c>
       <c r="F153" s="2">
-        <v>1077</v>
+        <v>1078</v>
       </c>
       <c r="G153" s="4">
-        <v>0.04680998613</v>
+        <v>0.046982560807</v>
       </c>
     </row>
     <row r="154" spans="1:7">
@@ -3915,22 +3915,22 @@
         <v>44074</v>
       </c>
       <c r="B154" s="2">
-        <v>14476</v>
+        <v>14526</v>
       </c>
       <c r="C154" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D154" s="3">
-        <v>114.142857142857</v>
+        <v>115.285714285714</v>
       </c>
       <c r="E154" s="2">
-        <v>283457</v>
+        <v>283739</v>
       </c>
       <c r="F154" s="2">
-        <v>3118</v>
+        <v>3121</v>
       </c>
       <c r="G154" s="4">
-        <v>0.045780095112</v>
+        <v>0.045901825834</v>
       </c>
     </row>
     <row r="155" spans="1:7">
@@ -3938,22 +3938,22 @@
         <v>44075</v>
       </c>
       <c r="B155" s="2">
-        <v>14604</v>
+        <v>14656</v>
       </c>
       <c r="C155" s="2">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="D155" s="3">
-        <v>113.428571428571</v>
+        <v>114.857142857142</v>
       </c>
       <c r="E155" s="2">
-        <v>286718</v>
+        <v>287002</v>
       </c>
       <c r="F155" s="2">
-        <v>3261</v>
+        <v>3263</v>
       </c>
       <c r="G155" s="4">
-        <v>0.04482836495</v>
+        <v>0.045072317524</v>
       </c>
     </row>
     <row r="156" spans="1:7">
@@ -3961,22 +3961,22 @@
         <v>44076</v>
       </c>
       <c r="B156" s="2">
-        <v>14720</v>
+        <v>14771</v>
       </c>
       <c r="C156" s="2">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D156" s="3">
-        <v>111.714285714285</v>
+        <v>112.142857142857</v>
       </c>
       <c r="E156" s="2">
-        <v>289679</v>
+        <v>289964</v>
       </c>
       <c r="F156" s="2">
-        <v>2961</v>
+        <v>2962</v>
       </c>
       <c r="G156" s="4">
-        <v>0.04388820294</v>
+        <v>0.043972664127</v>
       </c>
     </row>
     <row r="157" spans="1:7">
@@ -3984,22 +3984,22 @@
         <v>44077</v>
       </c>
       <c r="B157" s="2">
-        <v>14814</v>
+        <v>14866</v>
       </c>
       <c r="C157" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D157" s="3">
-        <v>101.857142857142</v>
+        <v>102.142857142857</v>
       </c>
       <c r="E157" s="2">
-        <v>292607</v>
+        <v>292894</v>
       </c>
       <c r="F157" s="2">
-        <v>2928</v>
+        <v>2930</v>
       </c>
       <c r="G157" s="4">
-        <v>0.040633726562</v>
+        <v>0.040731457217</v>
       </c>
     </row>
     <row r="158" spans="1:7">
@@ -4007,22 +4007,22 @@
         <v>44078</v>
       </c>
       <c r="B158" s="2">
-        <v>14935</v>
+        <v>14987</v>
       </c>
       <c r="C158" s="2">
         <v>121</v>
       </c>
       <c r="D158" s="3">
-        <v>102.285714285714</v>
+        <v>102.714285714285</v>
       </c>
       <c r="E158" s="2">
-        <v>295408</v>
+        <v>295696</v>
       </c>
       <c r="F158" s="2">
-        <v>2801</v>
+        <v>2802</v>
       </c>
       <c r="G158" s="4">
-        <v>0.040735051487</v>
+        <v>0.040882470006</v>
       </c>
     </row>
     <row r="159" spans="1:7">
@@ -4030,22 +4030,22 @@
         <v>44079</v>
       </c>
       <c r="B159" s="2">
-        <v>15001</v>
+        <v>15053</v>
       </c>
       <c r="C159" s="2">
         <v>66</v>
       </c>
       <c r="D159" s="3">
-        <v>102.571428571428</v>
+        <v>103</v>
       </c>
       <c r="E159" s="2">
-        <v>296744</v>
+        <v>297032</v>
       </c>
       <c r="F159" s="2">
         <v>1336</v>
       </c>
       <c r="G159" s="4">
-        <v>0.041070815696</v>
+        <v>0.041218842899</v>
       </c>
     </row>
     <row r="160" spans="1:7">
@@ -4053,22 +4053,22 @@
         <v>44080</v>
       </c>
       <c r="B160" s="2">
-        <v>15054</v>
+        <v>15106</v>
       </c>
       <c r="C160" s="2">
         <v>53</v>
       </c>
       <c r="D160" s="3">
-        <v>102</v>
+        <v>102.428571428571</v>
       </c>
       <c r="E160" s="2">
-        <v>297830</v>
+        <v>298118</v>
       </c>
       <c r="F160" s="2">
         <v>1086</v>
       </c>
       <c r="G160" s="4">
-        <v>0.040820993653</v>
+        <v>0.040971428571</v>
       </c>
     </row>
     <row r="161" spans="1:7">
@@ -4076,22 +4076,22 @@
         <v>44081</v>
       </c>
       <c r="B161" s="2">
-        <v>15123</v>
+        <v>15174</v>
       </c>
       <c r="C161" s="2">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D161" s="3">
-        <v>92.428571428571</v>
+        <v>92.571428571428</v>
       </c>
       <c r="E161" s="2">
-        <v>299080</v>
+        <v>299368</v>
       </c>
       <c r="F161" s="2">
         <v>1250</v>
       </c>
       <c r="G161" s="4">
-        <v>0.041413300902</v>
+        <v>0.041461385885</v>
       </c>
     </row>
     <row r="162" spans="1:7">
@@ -4099,22 +4099,22 @@
         <v>44082</v>
       </c>
       <c r="B162" s="2">
-        <v>15267</v>
+        <v>15318</v>
       </c>
       <c r="C162" s="2">
         <v>144</v>
       </c>
       <c r="D162" s="3">
-        <v>94.714285714285</v>
+        <v>94.571428571428</v>
       </c>
       <c r="E162" s="2">
-        <v>303349</v>
+        <v>303638</v>
       </c>
       <c r="F162" s="2">
-        <v>4269</v>
+        <v>4270</v>
       </c>
       <c r="G162" s="4">
-        <v>0.039865311767</v>
+        <v>0.039793219523</v>
       </c>
     </row>
     <row r="163" spans="1:7">
@@ -4122,22 +4122,22 @@
         <v>44083</v>
       </c>
       <c r="B163" s="2">
-        <v>15419</v>
+        <v>15468</v>
       </c>
       <c r="C163" s="2">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D163" s="3">
-        <v>99.85714285714199</v>
+        <v>99.571428571428</v>
       </c>
       <c r="E163" s="2">
-        <v>306856</v>
+        <v>307143</v>
       </c>
       <c r="F163" s="2">
-        <v>3507</v>
+        <v>3505</v>
       </c>
       <c r="G163" s="4">
-        <v>0.040693951213</v>
+        <v>0.040572792362</v>
       </c>
     </row>
     <row r="164" spans="1:7">
@@ -4145,22 +4145,22 @@
         <v>44084</v>
       </c>
       <c r="B164" s="2">
-        <v>15522</v>
+        <v>15570</v>
       </c>
       <c r="C164" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D164" s="3">
-        <v>101.142857142857</v>
+        <v>100.571428571428</v>
       </c>
       <c r="E164" s="2">
-        <v>310128</v>
+        <v>310414</v>
       </c>
       <c r="F164" s="2">
-        <v>3272</v>
+        <v>3271</v>
       </c>
       <c r="G164" s="4">
-        <v>0.040408652474</v>
+        <v>0.040182648401</v>
       </c>
     </row>
     <row r="165" spans="1:7">
@@ -4168,22 +4168,22 @@
         <v>44085</v>
       </c>
       <c r="B165" s="2">
-        <v>15594</v>
+        <v>15642</v>
       </c>
       <c r="C165" s="2">
         <v>72</v>
       </c>
       <c r="D165" s="3">
-        <v>94.142857142857</v>
+        <v>93.571428571428</v>
       </c>
       <c r="E165" s="2">
-        <v>312613</v>
+        <v>312907</v>
       </c>
       <c r="F165" s="2">
-        <v>2485</v>
+        <v>2493</v>
       </c>
       <c r="G165" s="4">
-        <v>0.038302818947</v>
+        <v>0.038057056533</v>
       </c>
     </row>
     <row r="166" spans="1:7">
@@ -4191,22 +4191,22 @@
         <v>44086</v>
       </c>
       <c r="B166" s="2">
-        <v>15642</v>
+        <v>15691</v>
       </c>
       <c r="C166" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D166" s="3">
-        <v>91.571428571428</v>
+        <v>91.142857142857</v>
       </c>
       <c r="E166" s="2">
-        <v>314006</v>
+        <v>314301</v>
       </c>
       <c r="F166" s="2">
-        <v>1393</v>
+        <v>1394</v>
       </c>
       <c r="G166" s="4">
-        <v>0.037133588228</v>
+        <v>0.036944814407</v>
       </c>
     </row>
     <row r="167" spans="1:7">
@@ -4214,22 +4214,22 @@
         <v>44087</v>
       </c>
       <c r="B167" s="2">
-        <v>15673</v>
+        <v>15722</v>
       </c>
       <c r="C167" s="2">
         <v>31</v>
       </c>
       <c r="D167" s="3">
-        <v>88.428571428571</v>
+        <v>88</v>
       </c>
       <c r="E167" s="2">
-        <v>314846</v>
+        <v>315142</v>
       </c>
       <c r="F167" s="2">
-        <v>840</v>
+        <v>841</v>
       </c>
       <c r="G167" s="4">
-        <v>0.036377527033</v>
+        <v>0.036184210526</v>
       </c>
     </row>
     <row r="168" spans="1:7">
@@ -4237,22 +4237,22 @@
         <v>44088</v>
       </c>
       <c r="B168" s="2">
-        <v>15772</v>
+        <v>15821</v>
       </c>
       <c r="C168" s="2">
         <v>99</v>
       </c>
       <c r="D168" s="3">
-        <v>92.714285714285</v>
+        <v>92.428571428571</v>
       </c>
       <c r="E168" s="2">
-        <v>318222</v>
+        <v>318518</v>
       </c>
       <c r="F168" s="2">
         <v>3376</v>
       </c>
       <c r="G168" s="4">
-        <v>0.033904503186</v>
+        <v>0.033785900783</v>
       </c>
     </row>
     <row r="169" spans="1:7">
@@ -4260,22 +4260,22 @@
         <v>44089</v>
       </c>
       <c r="B169" s="2">
-        <v>15903</v>
+        <v>15952</v>
       </c>
       <c r="C169" s="2">
         <v>131</v>
       </c>
       <c r="D169" s="3">
-        <v>90.85714285714199</v>
+        <v>90.571428571428</v>
       </c>
       <c r="E169" s="2">
-        <v>322162</v>
+        <v>322471</v>
       </c>
       <c r="F169" s="2">
-        <v>3940</v>
+        <v>3953</v>
       </c>
       <c r="G169" s="4">
-        <v>0.03380641046</v>
+        <v>0.033664312642</v>
       </c>
     </row>
     <row r="170" spans="1:7">
@@ -4283,7 +4283,7 @@
         <v>44090</v>
       </c>
       <c r="B170" s="2">
-        <v>15989</v>
+        <v>16038</v>
       </c>
       <c r="C170" s="2">
         <v>86</v>
@@ -4292,13 +4292,13 @@
         <v>81.428571428571</v>
       </c>
       <c r="E170" s="2">
-        <v>325439</v>
+        <v>325761</v>
       </c>
       <c r="F170" s="2">
-        <v>3277</v>
+        <v>3290</v>
       </c>
       <c r="G170" s="4">
-        <v>0.030673195931</v>
+        <v>0.030615533354</v>
       </c>
     </row>
     <row r="171" spans="1:7">
@@ -4306,22 +4306,22 @@
         <v>44091</v>
       </c>
       <c r="B171" s="2">
-        <v>16092</v>
+        <v>16141</v>
       </c>
       <c r="C171" s="2">
         <v>103</v>
       </c>
       <c r="D171" s="3">
-        <v>81.428571428571</v>
+        <v>81.571428571428</v>
       </c>
       <c r="E171" s="2">
-        <v>329030</v>
+        <v>329360</v>
       </c>
       <c r="F171" s="2">
-        <v>3591</v>
+        <v>3599</v>
       </c>
       <c r="G171" s="4">
-        <v>0.030155539096</v>
+        <v>0.030138287765</v>
       </c>
     </row>
     <row r="172" spans="1:7">
@@ -4329,22 +4329,22 @@
         <v>44092</v>
       </c>
       <c r="B172" s="2">
-        <v>16195</v>
+        <v>16245</v>
       </c>
       <c r="C172" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D172" s="3">
-        <v>85.85714285714199</v>
+        <v>86.142857142857</v>
       </c>
       <c r="E172" s="2">
-        <v>332282</v>
+        <v>332626</v>
       </c>
       <c r="F172" s="2">
-        <v>3252</v>
+        <v>3266</v>
       </c>
       <c r="G172" s="4">
-        <v>0.030555696781</v>
+        <v>0.030579643998</v>
       </c>
     </row>
     <row r="173" spans="1:7">
@@ -4352,22 +4352,22 @@
         <v>44093</v>
       </c>
       <c r="B173" s="2">
-        <v>16266</v>
+        <v>16317</v>
       </c>
       <c r="C173" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D173" s="3">
-        <v>89.142857142857</v>
+        <v>89.428571428571</v>
       </c>
       <c r="E173" s="2">
-        <v>333791</v>
+        <v>334141</v>
       </c>
       <c r="F173" s="2">
-        <v>1509</v>
+        <v>1515</v>
       </c>
       <c r="G173" s="4">
-        <v>0.03153904473</v>
+        <v>0.031552419354</v>
       </c>
     </row>
     <row r="174" spans="1:7">
@@ -4375,22 +4375,22 @@
         <v>44094</v>
       </c>
       <c r="B174" s="2">
-        <v>16309</v>
+        <v>16359</v>
       </c>
       <c r="C174" s="2">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D174" s="3">
-        <v>90.85714285714199</v>
+        <v>91</v>
       </c>
       <c r="E174" s="2">
-        <v>334935</v>
+        <v>335292</v>
       </c>
       <c r="F174" s="2">
-        <v>1144</v>
+        <v>1151</v>
       </c>
       <c r="G174" s="4">
-        <v>0.031659116929</v>
+        <v>0.031612903225</v>
       </c>
     </row>
     <row r="175" spans="1:7">
@@ -4398,22 +4398,22 @@
         <v>44095</v>
       </c>
       <c r="B175" s="2">
-        <v>16449</v>
+        <v>16502</v>
       </c>
       <c r="C175" s="2">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="D175" s="3">
-        <v>96.714285714285</v>
+        <v>97.28571428571399</v>
       </c>
       <c r="E175" s="2">
-        <v>339208</v>
+        <v>339631</v>
       </c>
       <c r="F175" s="2">
-        <v>4273</v>
+        <v>4339</v>
       </c>
       <c r="G175" s="4">
-        <v>0.032259601639</v>
+        <v>0.032255008762</v>
       </c>
     </row>
     <row r="176" spans="1:7">
@@ -4421,22 +4421,114 @@
         <v>44096</v>
       </c>
       <c r="B176" s="2">
-        <v>16547</v>
+        <v>16601</v>
       </c>
       <c r="C176" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D176" s="3">
-        <v>92</v>
+        <v>92.714285714285</v>
       </c>
       <c r="E176" s="2">
-        <v>342888</v>
+        <v>343380</v>
       </c>
       <c r="F176" s="2">
-        <v>3680</v>
+        <v>3749</v>
       </c>
       <c r="G176" s="4">
-        <v>0.031072083373</v>
+        <v>0.031039265388</v>
+      </c>
+    </row>
+    <row r="177" spans="1:7">
+      <c r="A177" s="1">
+        <v>44097</v>
+      </c>
+      <c r="B177" s="2">
+        <v>16695</v>
+      </c>
+      <c r="C177" s="2">
+        <v>94</v>
+      </c>
+      <c r="D177" s="3">
+        <v>93.85714285714199</v>
+      </c>
+      <c r="E177" s="2">
+        <v>346854</v>
+      </c>
+      <c r="F177" s="2">
+        <v>3474</v>
+      </c>
+      <c r="G177" s="4">
+        <v>0.031147774143</v>
+      </c>
+    </row>
+    <row r="178" spans="1:7">
+      <c r="A178" s="1">
+        <v>44098</v>
+      </c>
+      <c r="B178" s="2">
+        <v>16786</v>
+      </c>
+      <c r="C178" s="2">
+        <v>91</v>
+      </c>
+      <c r="D178" s="3">
+        <v>92.142857142857</v>
+      </c>
+      <c r="E178" s="2">
+        <v>350553</v>
+      </c>
+      <c r="F178" s="2">
+        <v>3699</v>
+      </c>
+      <c r="G178" s="4">
+        <v>0.030434577454</v>
+      </c>
+    </row>
+    <row r="179" spans="1:7">
+      <c r="A179" s="1">
+        <v>44099</v>
+      </c>
+      <c r="B179" s="2">
+        <v>16874</v>
+      </c>
+      <c r="C179" s="2">
+        <v>88</v>
+      </c>
+      <c r="D179" s="3">
+        <v>89.85714285714199</v>
+      </c>
+      <c r="E179" s="2">
+        <v>353827</v>
+      </c>
+      <c r="F179" s="2">
+        <v>3274</v>
+      </c>
+      <c r="G179" s="4">
+        <v>0.029668411867</v>
+      </c>
+    </row>
+    <row r="180" spans="1:7">
+      <c r="A180" s="1">
+        <v>44100</v>
+      </c>
+      <c r="B180" s="2">
+        <v>16933</v>
+      </c>
+      <c r="C180" s="2">
+        <v>59</v>
+      </c>
+      <c r="D180" s="3">
+        <v>88</v>
+      </c>
+      <c r="E180" s="2">
+        <v>355685</v>
+      </c>
+      <c r="F180" s="2">
+        <v>1858</v>
+      </c>
+      <c r="G180" s="4">
+        <v>0.028592647604</v>
       </c>
     </row>
   </sheetData>

--- a/contra_costa_county_testing.xlsx
+++ b/contra_costa_county_testing.xlsx
@@ -376,7 +376,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G180"/>
+  <dimension ref="A1:G181"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -865,13 +865,13 @@
         <v>15.142857142857</v>
       </c>
       <c r="E21" s="2">
-        <v>11438</v>
+        <v>11437</v>
       </c>
       <c r="F21" s="2">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="G21" s="4">
-        <v>0.051257253384</v>
+        <v>0.051282051282</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -888,13 +888,13 @@
         <v>15.428571428571</v>
       </c>
       <c r="E22" s="2">
-        <v>11843</v>
+        <v>11842</v>
       </c>
       <c r="F22" s="2">
         <v>405</v>
       </c>
       <c r="G22" s="4">
-        <v>0.050185873605</v>
+        <v>0.05020920502</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -911,13 +911,13 @@
         <v>13.428571428571</v>
       </c>
       <c r="E23" s="2">
-        <v>12364</v>
+        <v>12363</v>
       </c>
       <c r="F23" s="2">
         <v>521</v>
       </c>
       <c r="G23" s="4">
-        <v>0.040464916056</v>
+        <v>0.040482342807</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -934,13 +934,13 @@
         <v>12.714285714285</v>
       </c>
       <c r="E24" s="2">
-        <v>12923</v>
+        <v>12922</v>
       </c>
       <c r="F24" s="2">
         <v>559</v>
       </c>
       <c r="G24" s="4">
-        <v>0.0356</v>
+        <v>0.035614245698</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -957,13 +957,13 @@
         <v>14</v>
       </c>
       <c r="E25" s="2">
-        <v>13488</v>
+        <v>13487</v>
       </c>
       <c r="F25" s="2">
         <v>565</v>
       </c>
       <c r="G25" s="4">
-        <v>0.036042662743</v>
+        <v>0.036055923473</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -980,13 +980,13 @@
         <v>13.714285714285</v>
       </c>
       <c r="E26" s="2">
-        <v>13719</v>
+        <v>13718</v>
       </c>
       <c r="F26" s="2">
         <v>231</v>
       </c>
       <c r="G26" s="4">
-        <v>0.0343470483</v>
+        <v>0.034359341445</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -1003,13 +1003,13 @@
         <v>14.285714285714</v>
       </c>
       <c r="E27" s="2">
-        <v>13949</v>
+        <v>13948</v>
       </c>
       <c r="F27" s="2">
         <v>230</v>
       </c>
       <c r="G27" s="4">
-        <v>0.034734282737</v>
+        <v>0.034746351633</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -1026,7 +1026,7 @@
         <v>15.428571428571</v>
       </c>
       <c r="E28" s="2">
-        <v>14549</v>
+        <v>14548</v>
       </c>
       <c r="F28" s="2">
         <v>600</v>
@@ -1049,7 +1049,7 @@
         <v>15.285714285714</v>
       </c>
       <c r="E29" s="2">
-        <v>15088</v>
+        <v>15087</v>
       </c>
       <c r="F29" s="2">
         <v>539</v>
@@ -1072,7 +1072,7 @@
         <v>15.857142857142</v>
       </c>
       <c r="E30" s="2">
-        <v>15787</v>
+        <v>15786</v>
       </c>
       <c r="F30" s="2">
         <v>699</v>
@@ -1095,7 +1095,7 @@
         <v>16.857142857142</v>
       </c>
       <c r="E31" s="2">
-        <v>16633</v>
+        <v>16632</v>
       </c>
       <c r="F31" s="2">
         <v>846</v>
@@ -1118,7 +1118,7 @@
         <v>15.285714285714</v>
       </c>
       <c r="E32" s="2">
-        <v>17365</v>
+        <v>17364</v>
       </c>
       <c r="F32" s="2">
         <v>732</v>
@@ -1141,7 +1141,7 @@
         <v>15.857142857142</v>
       </c>
       <c r="E33" s="2">
-        <v>17652</v>
+        <v>17651</v>
       </c>
       <c r="F33" s="2">
         <v>287</v>
@@ -1164,13 +1164,13 @@
         <v>14.857142857142</v>
       </c>
       <c r="E34" s="2">
-        <v>17917</v>
+        <v>17915</v>
       </c>
       <c r="F34" s="2">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G34" s="4">
-        <v>0.026209677419</v>
+        <v>0.026216284345</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -1187,13 +1187,13 @@
         <v>15.142857142857</v>
       </c>
       <c r="E35" s="2">
-        <v>18695</v>
+        <v>18693</v>
       </c>
       <c r="F35" s="2">
         <v>778</v>
       </c>
       <c r="G35" s="4">
-        <v>0.025566811384</v>
+        <v>0.025572979493</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -1210,13 +1210,13 @@
         <v>15.285714285714</v>
       </c>
       <c r="E36" s="2">
-        <v>19376</v>
+        <v>19374</v>
       </c>
       <c r="F36" s="2">
         <v>681</v>
       </c>
       <c r="G36" s="4">
-        <v>0.024953358208</v>
+        <v>0.024959178912</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -1233,13 +1233,13 @@
         <v>16.285714285714</v>
       </c>
       <c r="E37" s="2">
-        <v>20341</v>
+        <v>20339</v>
       </c>
       <c r="F37" s="2">
         <v>965</v>
       </c>
       <c r="G37" s="4">
-        <v>0.025032938076</v>
+        <v>0.025038436195</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -1256,13 +1256,13 @@
         <v>14.285714285714</v>
       </c>
       <c r="E38" s="2">
-        <v>21236</v>
+        <v>21233</v>
       </c>
       <c r="F38" s="2">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="G38" s="4">
-        <v>0.021724961981</v>
+        <v>0.021734405564</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -1279,13 +1279,13 @@
         <v>15.142857142857</v>
       </c>
       <c r="E39" s="2">
-        <v>22379</v>
+        <v>22376</v>
       </c>
       <c r="F39" s="2">
         <v>1143</v>
       </c>
       <c r="G39" s="4">
-        <v>0.021140805743</v>
+        <v>0.021149241819</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -1302,13 +1302,13 @@
         <v>14.571428571428</v>
       </c>
       <c r="E40" s="2">
-        <v>22761</v>
+        <v>22758</v>
       </c>
       <c r="F40" s="2">
         <v>382</v>
       </c>
       <c r="G40" s="4">
-        <v>0.019964768056</v>
+        <v>0.019972586645</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -1325,13 +1325,13 @@
         <v>15</v>
       </c>
       <c r="E41" s="2">
-        <v>23105</v>
+        <v>23102</v>
       </c>
       <c r="F41" s="2">
         <v>344</v>
       </c>
       <c r="G41" s="4">
-        <v>0.020239013107</v>
+        <v>0.020242914979</v>
       </c>
     </row>
     <row r="42" spans="1:7">
@@ -1348,13 +1348,13 @@
         <v>13</v>
       </c>
       <c r="E42" s="2">
-        <v>24206</v>
+        <v>24203</v>
       </c>
       <c r="F42" s="2">
         <v>1101</v>
       </c>
       <c r="G42" s="4">
-        <v>0.016512429686</v>
+        <v>0.016515426497</v>
       </c>
     </row>
     <row r="43" spans="1:7">
@@ -1371,13 +1371,13 @@
         <v>12.285714285714</v>
       </c>
       <c r="E43" s="2">
-        <v>25437</v>
+        <v>25434</v>
       </c>
       <c r="F43" s="2">
         <v>1231</v>
       </c>
       <c r="G43" s="4">
-        <v>0.014189077709</v>
+        <v>0.014191419141</v>
       </c>
     </row>
     <row r="44" spans="1:7">
@@ -1394,13 +1394,13 @@
         <v>12.857142857142</v>
       </c>
       <c r="E44" s="2">
-        <v>26536</v>
+        <v>26533</v>
       </c>
       <c r="F44" s="2">
         <v>1099</v>
       </c>
       <c r="G44" s="4">
-        <v>0.014527845036</v>
+        <v>0.014530190506</v>
       </c>
     </row>
     <row r="45" spans="1:7">
@@ -1417,7 +1417,7 @@
         <v>14</v>
       </c>
       <c r="E45" s="2">
-        <v>27389</v>
+        <v>27386</v>
       </c>
       <c r="F45" s="2">
         <v>853</v>
@@ -1440,7 +1440,7 @@
         <v>15.714285714285</v>
       </c>
       <c r="E46" s="2">
-        <v>28307</v>
+        <v>28304</v>
       </c>
       <c r="F46" s="2">
         <v>918</v>
@@ -1463,7 +1463,7 @@
         <v>17.571428571428</v>
       </c>
       <c r="E47" s="2">
-        <v>28716</v>
+        <v>28713</v>
       </c>
       <c r="F47" s="2">
         <v>409</v>
@@ -1486,7 +1486,7 @@
         <v>18</v>
       </c>
       <c r="E48" s="2">
-        <v>29110</v>
+        <v>29107</v>
       </c>
       <c r="F48" s="2">
         <v>394</v>
@@ -1509,7 +1509,7 @@
         <v>22.428571428571</v>
       </c>
       <c r="E49" s="2">
-        <v>30474</v>
+        <v>30471</v>
       </c>
       <c r="F49" s="2">
         <v>1364</v>
@@ -1532,7 +1532,7 @@
         <v>25.714285714285</v>
       </c>
       <c r="E50" s="2">
-        <v>32134</v>
+        <v>32131</v>
       </c>
       <c r="F50" s="2">
         <v>1660</v>
@@ -1555,7 +1555,7 @@
         <v>26.142857142857</v>
       </c>
       <c r="E51" s="2">
-        <v>33271</v>
+        <v>33268</v>
       </c>
       <c r="F51" s="2">
         <v>1137</v>
@@ -1578,7 +1578,7 @@
         <v>27.428571428571</v>
       </c>
       <c r="E52" s="2">
-        <v>34405</v>
+        <v>34402</v>
       </c>
       <c r="F52" s="2">
         <v>1134</v>
@@ -1601,7 +1601,7 @@
         <v>29.142857142857</v>
       </c>
       <c r="E53" s="2">
-        <v>35493</v>
+        <v>35490</v>
       </c>
       <c r="F53" s="2">
         <v>1088</v>
@@ -1624,7 +1624,7 @@
         <v>28</v>
       </c>
       <c r="E54" s="2">
-        <v>36011</v>
+        <v>36008</v>
       </c>
       <c r="F54" s="2">
         <v>518</v>
@@ -1647,7 +1647,7 @@
         <v>27.571428571428</v>
       </c>
       <c r="E55" s="2">
-        <v>36407</v>
+        <v>36404</v>
       </c>
       <c r="F55" s="2">
         <v>396</v>
@@ -1670,7 +1670,7 @@
         <v>23.285714285714</v>
       </c>
       <c r="E56" s="2">
-        <v>36874</v>
+        <v>36871</v>
       </c>
       <c r="F56" s="2">
         <v>467</v>
@@ -1693,7 +1693,7 @@
         <v>23.714285714285</v>
       </c>
       <c r="E57" s="2">
-        <v>38070</v>
+        <v>38067</v>
       </c>
       <c r="F57" s="2">
         <v>1196</v>
@@ -1716,7 +1716,7 @@
         <v>23.714285714285</v>
       </c>
       <c r="E58" s="2">
-        <v>39186</v>
+        <v>39183</v>
       </c>
       <c r="F58" s="2">
         <v>1116</v>
@@ -1739,7 +1739,7 @@
         <v>26.285714285714</v>
       </c>
       <c r="E59" s="2">
-        <v>40321</v>
+        <v>40318</v>
       </c>
       <c r="F59" s="2">
         <v>1135</v>
@@ -1762,7 +1762,7 @@
         <v>26.571428571428</v>
       </c>
       <c r="E60" s="2">
-        <v>41724</v>
+        <v>41721</v>
       </c>
       <c r="F60" s="2">
         <v>1403</v>
@@ -1785,7 +1785,7 @@
         <v>26.285714285714</v>
       </c>
       <c r="E61" s="2">
-        <v>42456</v>
+        <v>42453</v>
       </c>
       <c r="F61" s="2">
         <v>732</v>
@@ -1808,7 +1808,7 @@
         <v>26</v>
       </c>
       <c r="E62" s="2">
-        <v>42853</v>
+        <v>42850</v>
       </c>
       <c r="F62" s="2">
         <v>397</v>
@@ -1831,7 +1831,7 @@
         <v>29.285714285714</v>
       </c>
       <c r="E63" s="2">
-        <v>44227</v>
+        <v>44224</v>
       </c>
       <c r="F63" s="2">
         <v>1374</v>
@@ -1854,7 +1854,7 @@
         <v>28.285714285714</v>
       </c>
       <c r="E64" s="2">
-        <v>45443</v>
+        <v>45440</v>
       </c>
       <c r="F64" s="2">
         <v>1216</v>
@@ -1877,7 +1877,7 @@
         <v>27.857142857142</v>
       </c>
       <c r="E65" s="2">
-        <v>46600</v>
+        <v>46597</v>
       </c>
       <c r="F65" s="2">
         <v>1157</v>
@@ -1900,7 +1900,7 @@
         <v>28.428571428571</v>
       </c>
       <c r="E66" s="2">
-        <v>47949</v>
+        <v>47946</v>
       </c>
       <c r="F66" s="2">
         <v>1349</v>
@@ -1923,7 +1923,7 @@
         <v>29.142857142857</v>
       </c>
       <c r="E67" s="2">
-        <v>49582</v>
+        <v>49579</v>
       </c>
       <c r="F67" s="2">
         <v>1633</v>
@@ -1946,7 +1946,7 @@
         <v>30.428571428571</v>
       </c>
       <c r="E68" s="2">
-        <v>50187</v>
+        <v>50184</v>
       </c>
       <c r="F68" s="2">
         <v>605</v>
@@ -1969,7 +1969,7 @@
         <v>32.285714285714</v>
       </c>
       <c r="E69" s="2">
-        <v>50672</v>
+        <v>50669</v>
       </c>
       <c r="F69" s="2">
         <v>485</v>
@@ -1992,7 +1992,7 @@
         <v>34.571428571428</v>
       </c>
       <c r="E70" s="2">
-        <v>52510</v>
+        <v>52507</v>
       </c>
       <c r="F70" s="2">
         <v>1838</v>
@@ -2015,7 +2015,7 @@
         <v>36.285714285714</v>
       </c>
       <c r="E71" s="2">
-        <v>54360</v>
+        <v>54357</v>
       </c>
       <c r="F71" s="2">
         <v>1850</v>
@@ -2038,7 +2038,7 @@
         <v>39.857142857142</v>
       </c>
       <c r="E72" s="2">
-        <v>56351</v>
+        <v>56348</v>
       </c>
       <c r="F72" s="2">
         <v>1991</v>
@@ -2061,7 +2061,7 @@
         <v>40.285714285714</v>
       </c>
       <c r="E73" s="2">
-        <v>58492</v>
+        <v>58489</v>
       </c>
       <c r="F73" s="2">
         <v>2141</v>
@@ -2084,7 +2084,7 @@
         <v>41.857142857142</v>
       </c>
       <c r="E74" s="2">
-        <v>60736</v>
+        <v>60733</v>
       </c>
       <c r="F74" s="2">
         <v>2244</v>
@@ -2107,7 +2107,7 @@
         <v>44.142857142857</v>
       </c>
       <c r="E75" s="2">
-        <v>61574</v>
+        <v>61571</v>
       </c>
       <c r="F75" s="2">
         <v>838</v>
@@ -2130,7 +2130,7 @@
         <v>45.428571428571</v>
       </c>
       <c r="E76" s="2">
-        <v>62157</v>
+        <v>62154</v>
       </c>
       <c r="F76" s="2">
         <v>583</v>
@@ -2153,7 +2153,7 @@
         <v>46.714285714285</v>
       </c>
       <c r="E77" s="2">
-        <v>64373</v>
+        <v>64370</v>
       </c>
       <c r="F77" s="2">
         <v>2216</v>
@@ -2176,7 +2176,7 @@
         <v>52.571428571428</v>
       </c>
       <c r="E78" s="2">
-        <v>66894</v>
+        <v>66891</v>
       </c>
       <c r="F78" s="2">
         <v>2521</v>
@@ -2199,7 +2199,7 @@
         <v>57.285714285714</v>
       </c>
       <c r="E79" s="2">
-        <v>69465</v>
+        <v>69462</v>
       </c>
       <c r="F79" s="2">
         <v>2571</v>
@@ -2222,7 +2222,7 @@
         <v>62.57142857142801</v>
       </c>
       <c r="E80" s="2">
-        <v>71990</v>
+        <v>71987</v>
       </c>
       <c r="F80" s="2">
         <v>2525</v>
@@ -2245,7 +2245,7 @@
         <v>68.85714285714199</v>
       </c>
       <c r="E81" s="2">
-        <v>74433</v>
+        <v>74430</v>
       </c>
       <c r="F81" s="2">
         <v>2443</v>
@@ -2268,7 +2268,7 @@
         <v>71.428571428571</v>
       </c>
       <c r="E82" s="2">
-        <v>75385</v>
+        <v>75382</v>
       </c>
       <c r="F82" s="2">
         <v>952</v>
@@ -2291,7 +2291,7 @@
         <v>73.28571428571399</v>
       </c>
       <c r="E83" s="2">
-        <v>76082</v>
+        <v>76079</v>
       </c>
       <c r="F83" s="2">
         <v>697</v>
@@ -2314,7 +2314,7 @@
         <v>81</v>
       </c>
       <c r="E84" s="2">
-        <v>78702</v>
+        <v>78699</v>
       </c>
       <c r="F84" s="2">
         <v>2620</v>
@@ -2337,7 +2337,7 @@
         <v>88</v>
       </c>
       <c r="E85" s="2">
-        <v>81487</v>
+        <v>81484</v>
       </c>
       <c r="F85" s="2">
         <v>2785</v>
@@ -2360,7 +2360,7 @@
         <v>96</v>
       </c>
       <c r="E86" s="2">
-        <v>84515</v>
+        <v>84512</v>
       </c>
       <c r="F86" s="2">
         <v>3028</v>
@@ -2383,7 +2383,7 @@
         <v>104.714285714285</v>
       </c>
       <c r="E87" s="2">
-        <v>87873</v>
+        <v>87870</v>
       </c>
       <c r="F87" s="2">
         <v>3358</v>
@@ -2406,7 +2406,7 @@
         <v>114.285714285714</v>
       </c>
       <c r="E88" s="2">
-        <v>90839</v>
+        <v>90836</v>
       </c>
       <c r="F88" s="2">
         <v>2966</v>
@@ -2429,7 +2429,7 @@
         <v>118.285714285714</v>
       </c>
       <c r="E89" s="2">
-        <v>91913</v>
+        <v>91910</v>
       </c>
       <c r="F89" s="2">
         <v>1074</v>
@@ -2452,7 +2452,7 @@
         <v>121</v>
       </c>
       <c r="E90" s="2">
-        <v>92708</v>
+        <v>92705</v>
       </c>
       <c r="F90" s="2">
         <v>795</v>
@@ -2475,7 +2475,7 @@
         <v>133.285714285714</v>
       </c>
       <c r="E91" s="2">
-        <v>96392</v>
+        <v>96389</v>
       </c>
       <c r="F91" s="2">
         <v>3684</v>
@@ -2498,7 +2498,7 @@
         <v>136.857142857142</v>
       </c>
       <c r="E92" s="2">
-        <v>99868</v>
+        <v>99865</v>
       </c>
       <c r="F92" s="2">
         <v>3476</v>
@@ -2521,7 +2521,7 @@
         <v>141.142857142857</v>
       </c>
       <c r="E93" s="2">
-        <v>103405</v>
+        <v>103402</v>
       </c>
       <c r="F93" s="2">
         <v>3537</v>
@@ -2544,7 +2544,7 @@
         <v>149.714285714285</v>
       </c>
       <c r="E94" s="2">
-        <v>107324</v>
+        <v>107321</v>
       </c>
       <c r="F94" s="2">
         <v>3919</v>
@@ -2567,7 +2567,7 @@
         <v>146</v>
       </c>
       <c r="E95" s="2">
-        <v>109964</v>
+        <v>109961</v>
       </c>
       <c r="F95" s="2">
         <v>2640</v>
@@ -2590,7 +2590,7 @@
         <v>147.857142857142</v>
       </c>
       <c r="E96" s="2">
-        <v>111081</v>
+        <v>111078</v>
       </c>
       <c r="F96" s="2">
         <v>1117</v>
@@ -2613,7 +2613,7 @@
         <v>151.714285714285</v>
       </c>
       <c r="E97" s="2">
-        <v>112210</v>
+        <v>112207</v>
       </c>
       <c r="F97" s="2">
         <v>1129</v>
@@ -2636,7 +2636,7 @@
         <v>152.714285714285</v>
       </c>
       <c r="E98" s="2">
-        <v>116279</v>
+        <v>116276</v>
       </c>
       <c r="F98" s="2">
         <v>4069</v>
@@ -2659,7 +2659,7 @@
         <v>161</v>
       </c>
       <c r="E99" s="2">
-        <v>120351</v>
+        <v>120348</v>
       </c>
       <c r="F99" s="2">
         <v>4072</v>
@@ -2682,7 +2682,7 @@
         <v>168.428571428571</v>
       </c>
       <c r="E100" s="2">
-        <v>124606</v>
+        <v>124603</v>
       </c>
       <c r="F100" s="2">
         <v>4255</v>
@@ -2705,7 +2705,7 @@
         <v>174.285714285714</v>
       </c>
       <c r="E101" s="2">
-        <v>129203</v>
+        <v>129200</v>
       </c>
       <c r="F101" s="2">
         <v>4597</v>
@@ -2728,7 +2728,7 @@
         <v>189.142857142857</v>
       </c>
       <c r="E102" s="2">
-        <v>133665</v>
+        <v>133662</v>
       </c>
       <c r="F102" s="2">
         <v>4462</v>
@@ -2751,7 +2751,7 @@
         <v>195.857142857142</v>
       </c>
       <c r="E103" s="2">
-        <v>135734</v>
+        <v>135731</v>
       </c>
       <c r="F103" s="2">
         <v>2069</v>
@@ -2774,7 +2774,7 @@
         <v>198</v>
       </c>
       <c r="E104" s="2">
-        <v>137059</v>
+        <v>137056</v>
       </c>
       <c r="F104" s="2">
         <v>1325</v>
@@ -2797,7 +2797,7 @@
         <v>206.142857142857</v>
       </c>
       <c r="E105" s="2">
-        <v>141657</v>
+        <v>141654</v>
       </c>
       <c r="F105" s="2">
         <v>4598</v>
@@ -2820,13 +2820,13 @@
         <v>211.428571428571</v>
       </c>
       <c r="E106" s="2">
-        <v>145397</v>
+        <v>145406</v>
       </c>
       <c r="F106" s="2">
-        <v>3740</v>
+        <v>3752</v>
       </c>
       <c r="G106" s="4">
-        <v>0.059091272059</v>
+        <v>0.0590629739</v>
       </c>
     </row>
     <row r="107" spans="1:7">
@@ -2843,13 +2843,13 @@
         <v>216.428571428571</v>
       </c>
       <c r="E107" s="2">
-        <v>149738</v>
+        <v>149747</v>
       </c>
       <c r="F107" s="2">
         <v>4341</v>
       </c>
       <c r="G107" s="4">
-        <v>0.060281712557</v>
+        <v>0.060252943048</v>
       </c>
     </row>
     <row r="108" spans="1:7">
@@ -2866,13 +2866,13 @@
         <v>216.714285714285</v>
       </c>
       <c r="E108" s="2">
-        <v>153920</v>
+        <v>153929</v>
       </c>
       <c r="F108" s="2">
         <v>4182</v>
       </c>
       <c r="G108" s="4">
-        <v>0.061374762309</v>
+        <v>0.061344979578</v>
       </c>
     </row>
     <row r="109" spans="1:7">
@@ -2889,13 +2889,13 @@
         <v>217.428571428571</v>
       </c>
       <c r="E109" s="2">
-        <v>158115</v>
+        <v>158126</v>
       </c>
       <c r="F109" s="2">
-        <v>4195</v>
+        <v>4197</v>
       </c>
       <c r="G109" s="4">
-        <v>0.062249488752</v>
+        <v>0.062213865271</v>
       </c>
     </row>
     <row r="110" spans="1:7">
@@ -2912,13 +2912,13 @@
         <v>215.857142857142</v>
       </c>
       <c r="E110" s="2">
-        <v>160337</v>
+        <v>160348</v>
       </c>
       <c r="F110" s="2">
         <v>2222</v>
       </c>
       <c r="G110" s="4">
-        <v>0.06141527456</v>
+        <v>0.061380346914</v>
       </c>
     </row>
     <row r="111" spans="1:7">
@@ -2935,13 +2935,13 @@
         <v>215.714285714285</v>
       </c>
       <c r="E111" s="2">
-        <v>161594</v>
+        <v>161605</v>
       </c>
       <c r="F111" s="2">
         <v>1257</v>
       </c>
       <c r="G111" s="4">
-        <v>0.061544732015</v>
+        <v>0.061509633793</v>
       </c>
     </row>
     <row r="112" spans="1:7">
@@ -2958,13 +2958,13 @@
         <v>220</v>
       </c>
       <c r="E112" s="2">
-        <v>165816</v>
+        <v>165827</v>
       </c>
       <c r="F112" s="2">
         <v>4222</v>
       </c>
       <c r="G112" s="4">
-        <v>0.063744360279</v>
+        <v>0.063707442187</v>
       </c>
     </row>
     <row r="113" spans="1:7">
@@ -2981,13 +2981,13 @@
         <v>218.428571428571</v>
       </c>
       <c r="E113" s="2">
-        <v>169628</v>
+        <v>169641</v>
       </c>
       <c r="F113" s="2">
-        <v>3812</v>
+        <v>3814</v>
       </c>
       <c r="G113" s="4">
-        <v>0.06310098633900001</v>
+        <v>0.06309057148699999</v>
       </c>
     </row>
     <row r="114" spans="1:7">
@@ -3004,13 +3004,13 @@
         <v>217.142857142857</v>
       </c>
       <c r="E114" s="2">
-        <v>173278</v>
+        <v>173291</v>
       </c>
       <c r="F114" s="2">
         <v>3650</v>
       </c>
       <c r="G114" s="4">
-        <v>0.064570943075</v>
+        <v>0.064559972816</v>
       </c>
     </row>
     <row r="115" spans="1:7">
@@ -3027,13 +3027,13 @@
         <v>213.714285714285</v>
       </c>
       <c r="E115" s="2">
-        <v>176597</v>
+        <v>176611</v>
       </c>
       <c r="F115" s="2">
-        <v>3319</v>
+        <v>3320</v>
       </c>
       <c r="G115" s="4">
-        <v>0.065969925475</v>
+        <v>0.06595538312300001</v>
       </c>
     </row>
     <row r="116" spans="1:7">
@@ -3050,13 +3050,13 @@
         <v>209</v>
       </c>
       <c r="E116" s="2">
-        <v>180228</v>
+        <v>180242</v>
       </c>
       <c r="F116" s="2">
         <v>3631</v>
       </c>
       <c r="G116" s="4">
-        <v>0.066160177271</v>
+        <v>0.06615120274899999</v>
       </c>
     </row>
     <row r="117" spans="1:7">
@@ -3073,13 +3073,13 @@
         <v>206.285714285714</v>
       </c>
       <c r="E117" s="2">
-        <v>181845</v>
+        <v>181859</v>
       </c>
       <c r="F117" s="2">
         <v>1617</v>
       </c>
       <c r="G117" s="4">
-        <v>0.06713780918700001</v>
+        <v>0.06712844591100001</v>
       </c>
     </row>
     <row r="118" spans="1:7">
@@ -3096,13 +3096,13 @@
         <v>206.714285714285</v>
       </c>
       <c r="E118" s="2">
-        <v>183098</v>
+        <v>183112</v>
       </c>
       <c r="F118" s="2">
         <v>1253</v>
       </c>
       <c r="G118" s="4">
-        <v>0.06728980654699999</v>
+        <v>0.067280420328</v>
       </c>
     </row>
     <row r="119" spans="1:7">
@@ -3110,22 +3110,22 @@
         <v>44039</v>
       </c>
       <c r="B119" s="2">
-        <v>9137</v>
+        <v>9136</v>
       </c>
       <c r="C119" s="2">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D119" s="3">
-        <v>199.857142857142</v>
+        <v>199.714285714285</v>
       </c>
       <c r="E119" s="2">
-        <v>187267</v>
+        <v>187278</v>
       </c>
       <c r="F119" s="2">
-        <v>4169</v>
+        <v>4166</v>
       </c>
       <c r="G119" s="4">
-        <v>0.065218404736</v>
+        <v>0.065171786863</v>
       </c>
     </row>
     <row r="120" spans="1:7">
@@ -3133,22 +3133,22 @@
         <v>44040</v>
       </c>
       <c r="B120" s="2">
-        <v>9383</v>
+        <v>9382</v>
       </c>
       <c r="C120" s="2">
         <v>246</v>
       </c>
       <c r="D120" s="3">
-        <v>200.428571428571</v>
+        <v>200.285714285714</v>
       </c>
       <c r="E120" s="2">
-        <v>191135</v>
+        <v>191146</v>
       </c>
       <c r="F120" s="2">
         <v>3868</v>
       </c>
       <c r="G120" s="4">
-        <v>0.06523457478899999</v>
+        <v>0.065194140897</v>
       </c>
     </row>
     <row r="121" spans="1:7">
@@ -3156,22 +3156,22 @@
         <v>44041</v>
       </c>
       <c r="B121" s="2">
-        <v>9632</v>
+        <v>9631</v>
       </c>
       <c r="C121" s="2">
         <v>249</v>
       </c>
       <c r="D121" s="3">
-        <v>200.142857142857</v>
+        <v>200</v>
       </c>
       <c r="E121" s="2">
-        <v>194990</v>
+        <v>195001</v>
       </c>
       <c r="F121" s="2">
         <v>3855</v>
       </c>
       <c r="G121" s="4">
-        <v>0.064526529108</v>
+        <v>0.064486411791</v>
       </c>
     </row>
     <row r="122" spans="1:7">
@@ -3179,22 +3179,22 @@
         <v>44042</v>
       </c>
       <c r="B122" s="2">
-        <v>9848</v>
+        <v>9847</v>
       </c>
       <c r="C122" s="2">
         <v>216</v>
       </c>
       <c r="D122" s="3">
-        <v>198</v>
+        <v>197.857142857142</v>
       </c>
       <c r="E122" s="2">
-        <v>198658</v>
+        <v>198669</v>
       </c>
       <c r="F122" s="2">
         <v>3668</v>
       </c>
       <c r="G122" s="4">
-        <v>0.062825801187</v>
+        <v>0.062789010789</v>
       </c>
     </row>
     <row r="123" spans="1:7">
@@ -3202,22 +3202,22 @@
         <v>44043</v>
       </c>
       <c r="B123" s="2">
-        <v>10081</v>
+        <v>10080</v>
       </c>
       <c r="C123" s="2">
         <v>233</v>
       </c>
       <c r="D123" s="3">
-        <v>200</v>
+        <v>199.857142857142</v>
       </c>
       <c r="E123" s="2">
-        <v>202194</v>
+        <v>202205</v>
       </c>
       <c r="F123" s="2">
         <v>3536</v>
       </c>
       <c r="G123" s="4">
-        <v>0.06373486297</v>
+        <v>0.063698037608</v>
       </c>
     </row>
     <row r="124" spans="1:7">
@@ -3225,22 +3225,22 @@
         <v>44044</v>
       </c>
       <c r="B124" s="2">
-        <v>10188</v>
+        <v>10187</v>
       </c>
       <c r="C124" s="2">
         <v>107</v>
       </c>
       <c r="D124" s="3">
-        <v>199.571428571428</v>
+        <v>199.428571428571</v>
       </c>
       <c r="E124" s="2">
-        <v>203783</v>
+        <v>203794</v>
       </c>
       <c r="F124" s="2">
         <v>1589</v>
       </c>
       <c r="G124" s="4">
-        <v>0.063679460297</v>
+        <v>0.063642580351</v>
       </c>
     </row>
     <row r="125" spans="1:7">
@@ -3248,22 +3248,22 @@
         <v>44045</v>
       </c>
       <c r="B125" s="2">
-        <v>10267</v>
+        <v>10266</v>
       </c>
       <c r="C125" s="2">
         <v>79</v>
       </c>
       <c r="D125" s="3">
-        <v>196.142857142857</v>
+        <v>196</v>
       </c>
       <c r="E125" s="2">
-        <v>204906</v>
+        <v>204917</v>
       </c>
       <c r="F125" s="2">
         <v>1123</v>
       </c>
       <c r="G125" s="4">
-        <v>0.062958547322</v>
+        <v>0.06292134831399999</v>
       </c>
     </row>
     <row r="126" spans="1:7">
@@ -3271,7 +3271,7 @@
         <v>44046</v>
       </c>
       <c r="B126" s="2">
-        <v>10520</v>
+        <v>10519</v>
       </c>
       <c r="C126" s="2">
         <v>253</v>
@@ -3280,7 +3280,7 @@
         <v>197.571428571428</v>
       </c>
       <c r="E126" s="2">
-        <v>208701</v>
+        <v>208712</v>
       </c>
       <c r="F126" s="2">
         <v>3795</v>
@@ -3294,7 +3294,7 @@
         <v>44047</v>
       </c>
       <c r="B127" s="2">
-        <v>10748</v>
+        <v>10747</v>
       </c>
       <c r="C127" s="2">
         <v>228</v>
@@ -3303,7 +3303,7 @@
         <v>195</v>
       </c>
       <c r="E127" s="2">
-        <v>211988</v>
+        <v>211999</v>
       </c>
       <c r="F127" s="2">
         <v>3287</v>
@@ -3317,7 +3317,7 @@
         <v>44048</v>
       </c>
       <c r="B128" s="2">
-        <v>10926</v>
+        <v>10925</v>
       </c>
       <c r="C128" s="2">
         <v>178</v>
@@ -3326,13 +3326,13 @@
         <v>184.857142857142</v>
       </c>
       <c r="E128" s="2">
-        <v>215184</v>
+        <v>215196</v>
       </c>
       <c r="F128" s="2">
-        <v>3196</v>
+        <v>3197</v>
       </c>
       <c r="G128" s="4">
-        <v>0.06407843914</v>
+        <v>0.064075266154</v>
       </c>
     </row>
     <row r="129" spans="1:7">
@@ -3340,7 +3340,7 @@
         <v>44049</v>
       </c>
       <c r="B129" s="2">
-        <v>11121</v>
+        <v>11120</v>
       </c>
       <c r="C129" s="2">
         <v>195</v>
@@ -3349,13 +3349,13 @@
         <v>181.857142857142</v>
       </c>
       <c r="E129" s="2">
-        <v>218834</v>
+        <v>218846</v>
       </c>
       <c r="F129" s="2">
         <v>3650</v>
       </c>
       <c r="G129" s="4">
-        <v>0.063094766058</v>
+        <v>0.063091638994</v>
       </c>
     </row>
     <row r="130" spans="1:7">
@@ -3363,7 +3363,7 @@
         <v>44050</v>
       </c>
       <c r="B130" s="2">
-        <v>11295</v>
+        <v>11294</v>
       </c>
       <c r="C130" s="2">
         <v>174</v>
@@ -3372,13 +3372,13 @@
         <v>173.428571428571</v>
       </c>
       <c r="E130" s="2">
-        <v>222095</v>
+        <v>222107</v>
       </c>
       <c r="F130" s="2">
         <v>3261</v>
       </c>
       <c r="G130" s="4">
-        <v>0.0610019597</v>
+        <v>0.060998894583</v>
       </c>
     </row>
     <row r="131" spans="1:7">
@@ -3386,7 +3386,7 @@
         <v>44051</v>
       </c>
       <c r="B131" s="2">
-        <v>11404</v>
+        <v>11403</v>
       </c>
       <c r="C131" s="2">
         <v>109</v>
@@ -3395,13 +3395,13 @@
         <v>173.714285714285</v>
       </c>
       <c r="E131" s="2">
-        <v>223786</v>
+        <v>223798</v>
       </c>
       <c r="F131" s="2">
         <v>1691</v>
       </c>
       <c r="G131" s="4">
-        <v>0.060790881367</v>
+        <v>0.060787842431</v>
       </c>
     </row>
     <row r="132" spans="1:7">
@@ -3409,7 +3409,7 @@
         <v>44052</v>
       </c>
       <c r="B132" s="2">
-        <v>11486</v>
+        <v>11485</v>
       </c>
       <c r="C132" s="2">
         <v>82</v>
@@ -3418,13 +3418,13 @@
         <v>174.142857142857</v>
       </c>
       <c r="E132" s="2">
-        <v>224828</v>
+        <v>224840</v>
       </c>
       <c r="F132" s="2">
         <v>1042</v>
       </c>
       <c r="G132" s="4">
-        <v>0.061188635679</v>
+        <v>0.061185564423</v>
       </c>
     </row>
     <row r="133" spans="1:7">
@@ -3432,7 +3432,7 @@
         <v>44053</v>
       </c>
       <c r="B133" s="2">
-        <v>11723</v>
+        <v>11722</v>
       </c>
       <c r="C133" s="2">
         <v>237</v>
@@ -3441,13 +3441,13 @@
         <v>171.857142857142</v>
       </c>
       <c r="E133" s="2">
-        <v>228721</v>
+        <v>228733</v>
       </c>
       <c r="F133" s="2">
         <v>3893</v>
       </c>
       <c r="G133" s="4">
-        <v>0.060089910089</v>
+        <v>0.060086908745</v>
       </c>
     </row>
     <row r="134" spans="1:7">
@@ -3455,7 +3455,7 @@
         <v>44054</v>
       </c>
       <c r="B134" s="2">
-        <v>11923</v>
+        <v>11922</v>
       </c>
       <c r="C134" s="2">
         <v>200</v>
@@ -3464,13 +3464,13 @@
         <v>167.857142857142</v>
       </c>
       <c r="E134" s="2">
-        <v>232136</v>
+        <v>232148</v>
       </c>
       <c r="F134" s="2">
         <v>3415</v>
       </c>
       <c r="G134" s="4">
-        <v>0.058318443517</v>
+        <v>0.058315549158</v>
       </c>
     </row>
     <row r="135" spans="1:7">
@@ -3478,7 +3478,7 @@
         <v>44055</v>
       </c>
       <c r="B135" s="2">
-        <v>12124</v>
+        <v>12123</v>
       </c>
       <c r="C135" s="2">
         <v>201</v>
@@ -3487,7 +3487,7 @@
         <v>171.142857142857</v>
       </c>
       <c r="E135" s="2">
-        <v>235990</v>
+        <v>236002</v>
       </c>
       <c r="F135" s="2">
         <v>3854</v>
@@ -3501,7 +3501,7 @@
         <v>44056</v>
       </c>
       <c r="B136" s="2">
-        <v>12302</v>
+        <v>12301</v>
       </c>
       <c r="C136" s="2">
         <v>178</v>
@@ -3510,7 +3510,7 @@
         <v>168.714285714285</v>
       </c>
       <c r="E136" s="2">
-        <v>239257</v>
+        <v>239269</v>
       </c>
       <c r="F136" s="2">
         <v>3267</v>
@@ -3524,7 +3524,7 @@
         <v>44057</v>
       </c>
       <c r="B137" s="2">
-        <v>12476</v>
+        <v>12475</v>
       </c>
       <c r="C137" s="2">
         <v>174</v>
@@ -3533,7 +3533,7 @@
         <v>168.714285714285</v>
       </c>
       <c r="E137" s="2">
-        <v>242612</v>
+        <v>242624</v>
       </c>
       <c r="F137" s="2">
         <v>3355</v>
@@ -3547,7 +3547,7 @@
         <v>44058</v>
       </c>
       <c r="B138" s="2">
-        <v>12568</v>
+        <v>12567</v>
       </c>
       <c r="C138" s="2">
         <v>92</v>
@@ -3556,7 +3556,7 @@
         <v>166.285714285714</v>
       </c>
       <c r="E138" s="2">
-        <v>244172</v>
+        <v>244184</v>
       </c>
       <c r="F138" s="2">
         <v>1560</v>
@@ -3570,7 +3570,7 @@
         <v>44059</v>
       </c>
       <c r="B139" s="2">
-        <v>12613</v>
+        <v>12612</v>
       </c>
       <c r="C139" s="2">
         <v>45</v>
@@ -3579,7 +3579,7 @@
         <v>161</v>
       </c>
       <c r="E139" s="2">
-        <v>244948</v>
+        <v>244960</v>
       </c>
       <c r="F139" s="2">
         <v>776</v>
@@ -3593,7 +3593,7 @@
         <v>44060</v>
       </c>
       <c r="B140" s="2">
-        <v>12825</v>
+        <v>12824</v>
       </c>
       <c r="C140" s="2">
         <v>212</v>
@@ -3602,13 +3602,13 @@
         <v>157.428571428571</v>
       </c>
       <c r="E140" s="2">
-        <v>248602</v>
+        <v>248616</v>
       </c>
       <c r="F140" s="2">
-        <v>3654</v>
+        <v>3656</v>
       </c>
       <c r="G140" s="4">
-        <v>0.055429807353</v>
+        <v>0.055424231755</v>
       </c>
     </row>
     <row r="141" spans="1:7">
@@ -3616,7 +3616,7 @@
         <v>44061</v>
       </c>
       <c r="B141" s="2">
-        <v>12992</v>
+        <v>12991</v>
       </c>
       <c r="C141" s="2">
         <v>167</v>
@@ -3625,13 +3625,13 @@
         <v>152.714285714285</v>
       </c>
       <c r="E141" s="2">
-        <v>251665</v>
+        <v>251679</v>
       </c>
       <c r="F141" s="2">
         <v>3063</v>
       </c>
       <c r="G141" s="4">
-        <v>0.054739105945</v>
+        <v>0.054733500588</v>
       </c>
     </row>
     <row r="142" spans="1:7">
@@ -3639,7 +3639,7 @@
         <v>44062</v>
       </c>
       <c r="B142" s="2">
-        <v>13150</v>
+        <v>13149</v>
       </c>
       <c r="C142" s="2">
         <v>158</v>
@@ -3648,13 +3648,13 @@
         <v>146.571428571428</v>
       </c>
       <c r="E142" s="2">
-        <v>254716</v>
+        <v>254730</v>
       </c>
       <c r="F142" s="2">
         <v>3051</v>
       </c>
       <c r="G142" s="4">
-        <v>0.054790131368</v>
+        <v>0.054784280222</v>
       </c>
     </row>
     <row r="143" spans="1:7">
@@ -3662,7 +3662,7 @@
         <v>44063</v>
       </c>
       <c r="B143" s="2">
-        <v>13281</v>
+        <v>13280</v>
       </c>
       <c r="C143" s="2">
         <v>131</v>
@@ -3671,13 +3671,13 @@
         <v>139.857142857142</v>
       </c>
       <c r="E143" s="2">
-        <v>257871</v>
+        <v>257885</v>
       </c>
       <c r="F143" s="2">
         <v>3155</v>
       </c>
       <c r="G143" s="4">
-        <v>0.052594821102</v>
+        <v>0.052589170605</v>
       </c>
     </row>
     <row r="144" spans="1:7">
@@ -3685,7 +3685,7 @@
         <v>44064</v>
       </c>
       <c r="B144" s="2">
-        <v>13443</v>
+        <v>13442</v>
       </c>
       <c r="C144" s="2">
         <v>162</v>
@@ -3694,13 +3694,13 @@
         <v>138.142857142857</v>
       </c>
       <c r="E144" s="2">
-        <v>260898</v>
+        <v>260912</v>
       </c>
       <c r="F144" s="2">
         <v>3027</v>
       </c>
       <c r="G144" s="4">
-        <v>0.052881986218</v>
+        <v>0.052876202974</v>
       </c>
     </row>
     <row r="145" spans="1:7">
@@ -3708,7 +3708,7 @@
         <v>44065</v>
       </c>
       <c r="B145" s="2">
-        <v>13504</v>
+        <v>13503</v>
       </c>
       <c r="C145" s="2">
         <v>61</v>
@@ -3717,13 +3717,13 @@
         <v>133.714285714285</v>
       </c>
       <c r="E145" s="2">
-        <v>262226</v>
+        <v>262240</v>
       </c>
       <c r="F145" s="2">
         <v>1328</v>
       </c>
       <c r="G145" s="4">
-        <v>0.0518444666</v>
+        <v>0.051838723969</v>
       </c>
     </row>
     <row r="146" spans="1:7">
@@ -3731,7 +3731,7 @@
         <v>44066</v>
       </c>
       <c r="B146" s="2">
-        <v>13570</v>
+        <v>13569</v>
       </c>
       <c r="C146" s="2">
         <v>66</v>
@@ -3740,13 +3740,13 @@
         <v>136.714285714285</v>
       </c>
       <c r="E146" s="2">
-        <v>263186</v>
+        <v>263200</v>
       </c>
       <c r="F146" s="2">
         <v>960</v>
       </c>
       <c r="G146" s="4">
-        <v>0.052472858866</v>
+        <v>0.052467105263</v>
       </c>
     </row>
     <row r="147" spans="1:7">
@@ -3754,7 +3754,7 @@
         <v>44067</v>
       </c>
       <c r="B147" s="2">
-        <v>13719</v>
+        <v>13718</v>
       </c>
       <c r="C147" s="2">
         <v>149</v>
@@ -3763,7 +3763,7 @@
         <v>127.714285714285</v>
       </c>
       <c r="E147" s="2">
-        <v>266158</v>
+        <v>266172</v>
       </c>
       <c r="F147" s="2">
         <v>2972</v>
@@ -3777,7 +3777,7 @@
         <v>44068</v>
       </c>
       <c r="B148" s="2">
-        <v>13852</v>
+        <v>13851</v>
       </c>
       <c r="C148" s="2">
         <v>133</v>
@@ -3786,7 +3786,7 @@
         <v>122.857142857142</v>
       </c>
       <c r="E148" s="2">
-        <v>269164</v>
+        <v>269178</v>
       </c>
       <c r="F148" s="2">
         <v>3006</v>
@@ -3800,7 +3800,7 @@
         <v>44069</v>
       </c>
       <c r="B149" s="2">
-        <v>13986</v>
+        <v>13985</v>
       </c>
       <c r="C149" s="2">
         <v>134</v>
@@ -3809,7 +3809,7 @@
         <v>119.428571428571</v>
       </c>
       <c r="E149" s="2">
-        <v>272112</v>
+        <v>272126</v>
       </c>
       <c r="F149" s="2">
         <v>2948</v>
@@ -3823,7 +3823,7 @@
         <v>44070</v>
       </c>
       <c r="B150" s="2">
-        <v>14151</v>
+        <v>14150</v>
       </c>
       <c r="C150" s="2">
         <v>165</v>
@@ -3832,7 +3832,7 @@
         <v>124.285714285714</v>
       </c>
       <c r="E150" s="2">
-        <v>275340</v>
+        <v>275354</v>
       </c>
       <c r="F150" s="2">
         <v>3228</v>
@@ -3846,7 +3846,7 @@
         <v>44071</v>
       </c>
       <c r="B151" s="2">
-        <v>14268</v>
+        <v>14267</v>
       </c>
       <c r="C151" s="2">
         <v>117</v>
@@ -3855,7 +3855,7 @@
         <v>117.857142857142</v>
       </c>
       <c r="E151" s="2">
-        <v>278109</v>
+        <v>278123</v>
       </c>
       <c r="F151" s="2">
         <v>2769</v>
@@ -3869,7 +3869,7 @@
         <v>44072</v>
       </c>
       <c r="B152" s="2">
-        <v>14332</v>
+        <v>14331</v>
       </c>
       <c r="C152" s="2">
         <v>64</v>
@@ -3878,7 +3878,7 @@
         <v>118.285714285714</v>
       </c>
       <c r="E152" s="2">
-        <v>279540</v>
+        <v>279554</v>
       </c>
       <c r="F152" s="2">
         <v>1431</v>
@@ -3892,7 +3892,7 @@
         <v>44073</v>
       </c>
       <c r="B153" s="2">
-        <v>14389</v>
+        <v>14388</v>
       </c>
       <c r="C153" s="2">
         <v>57</v>
@@ -3901,7 +3901,7 @@
         <v>117</v>
       </c>
       <c r="E153" s="2">
-        <v>280618</v>
+        <v>280632</v>
       </c>
       <c r="F153" s="2">
         <v>1078</v>
@@ -3915,7 +3915,7 @@
         <v>44074</v>
       </c>
       <c r="B154" s="2">
-        <v>14526</v>
+        <v>14525</v>
       </c>
       <c r="C154" s="2">
         <v>137</v>
@@ -3924,13 +3924,13 @@
         <v>115.285714285714</v>
       </c>
       <c r="E154" s="2">
-        <v>283739</v>
+        <v>283754</v>
       </c>
       <c r="F154" s="2">
-        <v>3121</v>
+        <v>3122</v>
       </c>
       <c r="G154" s="4">
-        <v>0.045901825834</v>
+        <v>0.045899215106</v>
       </c>
     </row>
     <row r="155" spans="1:7">
@@ -3938,7 +3938,7 @@
         <v>44075</v>
       </c>
       <c r="B155" s="2">
-        <v>14656</v>
+        <v>14655</v>
       </c>
       <c r="C155" s="2">
         <v>130</v>
@@ -3947,13 +3947,13 @@
         <v>114.857142857142</v>
       </c>
       <c r="E155" s="2">
-        <v>287002</v>
+        <v>287017</v>
       </c>
       <c r="F155" s="2">
         <v>3263</v>
       </c>
       <c r="G155" s="4">
-        <v>0.045072317524</v>
+        <v>0.045069790907</v>
       </c>
     </row>
     <row r="156" spans="1:7">
@@ -3961,7 +3961,7 @@
         <v>44076</v>
       </c>
       <c r="B156" s="2">
-        <v>14771</v>
+        <v>14770</v>
       </c>
       <c r="C156" s="2">
         <v>115</v>
@@ -3970,13 +3970,13 @@
         <v>112.142857142857</v>
       </c>
       <c r="E156" s="2">
-        <v>289964</v>
+        <v>289979</v>
       </c>
       <c r="F156" s="2">
         <v>2962</v>
       </c>
       <c r="G156" s="4">
-        <v>0.043972664127</v>
+        <v>0.043970201086</v>
       </c>
     </row>
     <row r="157" spans="1:7">
@@ -3984,7 +3984,7 @@
         <v>44077</v>
       </c>
       <c r="B157" s="2">
-        <v>14866</v>
+        <v>14865</v>
       </c>
       <c r="C157" s="2">
         <v>95</v>
@@ -3993,13 +3993,13 @@
         <v>102.142857142857</v>
       </c>
       <c r="E157" s="2">
-        <v>292894</v>
+        <v>292909</v>
       </c>
       <c r="F157" s="2">
         <v>2930</v>
       </c>
       <c r="G157" s="4">
-        <v>0.040731457217</v>
+        <v>0.040729136998</v>
       </c>
     </row>
     <row r="158" spans="1:7">
@@ -4007,7 +4007,7 @@
         <v>44078</v>
       </c>
       <c r="B158" s="2">
-        <v>14987</v>
+        <v>14986</v>
       </c>
       <c r="C158" s="2">
         <v>121</v>
@@ -4016,13 +4016,13 @@
         <v>102.714285714285</v>
       </c>
       <c r="E158" s="2">
-        <v>295696</v>
+        <v>295711</v>
       </c>
       <c r="F158" s="2">
         <v>2802</v>
       </c>
       <c r="G158" s="4">
-        <v>0.040882470006</v>
+        <v>0.040880145553</v>
       </c>
     </row>
     <row r="159" spans="1:7">
@@ -4030,7 +4030,7 @@
         <v>44079</v>
       </c>
       <c r="B159" s="2">
-        <v>15053</v>
+        <v>15052</v>
       </c>
       <c r="C159" s="2">
         <v>66</v>
@@ -4039,13 +4039,13 @@
         <v>103</v>
       </c>
       <c r="E159" s="2">
-        <v>297032</v>
+        <v>297047</v>
       </c>
       <c r="F159" s="2">
         <v>1336</v>
       </c>
       <c r="G159" s="4">
-        <v>0.041218842899</v>
+        <v>0.041216486594</v>
       </c>
     </row>
     <row r="160" spans="1:7">
@@ -4053,7 +4053,7 @@
         <v>44080</v>
       </c>
       <c r="B160" s="2">
-        <v>15106</v>
+        <v>15105</v>
       </c>
       <c r="C160" s="2">
         <v>53</v>
@@ -4062,13 +4062,13 @@
         <v>102.428571428571</v>
       </c>
       <c r="E160" s="2">
-        <v>298118</v>
+        <v>298133</v>
       </c>
       <c r="F160" s="2">
         <v>1086</v>
       </c>
       <c r="G160" s="4">
-        <v>0.040971428571</v>
+        <v>0.04096908748</v>
       </c>
     </row>
     <row r="161" spans="1:7">
@@ -4076,7 +4076,7 @@
         <v>44081</v>
       </c>
       <c r="B161" s="2">
-        <v>15174</v>
+        <v>15173</v>
       </c>
       <c r="C161" s="2">
         <v>68</v>
@@ -4085,7 +4085,7 @@
         <v>92.571428571428</v>
       </c>
       <c r="E161" s="2">
-        <v>299368</v>
+        <v>299383</v>
       </c>
       <c r="F161" s="2">
         <v>1250</v>
@@ -4099,7 +4099,7 @@
         <v>44082</v>
       </c>
       <c r="B162" s="2">
-        <v>15318</v>
+        <v>15317</v>
       </c>
       <c r="C162" s="2">
         <v>144</v>
@@ -4108,7 +4108,7 @@
         <v>94.571428571428</v>
       </c>
       <c r="E162" s="2">
-        <v>303638</v>
+        <v>303653</v>
       </c>
       <c r="F162" s="2">
         <v>4270</v>
@@ -4122,7 +4122,7 @@
         <v>44083</v>
       </c>
       <c r="B163" s="2">
-        <v>15468</v>
+        <v>15467</v>
       </c>
       <c r="C163" s="2">
         <v>150</v>
@@ -4131,7 +4131,7 @@
         <v>99.571428571428</v>
       </c>
       <c r="E163" s="2">
-        <v>307143</v>
+        <v>307158</v>
       </c>
       <c r="F163" s="2">
         <v>3505</v>
@@ -4145,7 +4145,7 @@
         <v>44084</v>
       </c>
       <c r="B164" s="2">
-        <v>15570</v>
+        <v>15569</v>
       </c>
       <c r="C164" s="2">
         <v>102</v>
@@ -4154,13 +4154,13 @@
         <v>100.571428571428</v>
       </c>
       <c r="E164" s="2">
-        <v>310414</v>
+        <v>310428</v>
       </c>
       <c r="F164" s="2">
-        <v>3271</v>
+        <v>3270</v>
       </c>
       <c r="G164" s="4">
-        <v>0.040182648401</v>
+        <v>0.040184942062</v>
       </c>
     </row>
     <row r="165" spans="1:7">
@@ -4168,7 +4168,7 @@
         <v>44085</v>
       </c>
       <c r="B165" s="2">
-        <v>15642</v>
+        <v>15641</v>
       </c>
       <c r="C165" s="2">
         <v>72</v>
@@ -4177,13 +4177,13 @@
         <v>93.571428571428</v>
       </c>
       <c r="E165" s="2">
-        <v>312907</v>
+        <v>312918</v>
       </c>
       <c r="F165" s="2">
-        <v>2493</v>
+        <v>2490</v>
       </c>
       <c r="G165" s="4">
-        <v>0.038057056533</v>
+        <v>0.038065903411</v>
       </c>
     </row>
     <row r="166" spans="1:7">
@@ -4191,7 +4191,7 @@
         <v>44086</v>
       </c>
       <c r="B166" s="2">
-        <v>15691</v>
+        <v>15690</v>
       </c>
       <c r="C166" s="2">
         <v>49</v>
@@ -4200,13 +4200,13 @@
         <v>91.142857142857</v>
       </c>
       <c r="E166" s="2">
-        <v>314301</v>
+        <v>314312</v>
       </c>
       <c r="F166" s="2">
         <v>1394</v>
       </c>
       <c r="G166" s="4">
-        <v>0.036944814407</v>
+        <v>0.036953373877</v>
       </c>
     </row>
     <row r="167" spans="1:7">
@@ -4214,7 +4214,7 @@
         <v>44087</v>
       </c>
       <c r="B167" s="2">
-        <v>15722</v>
+        <v>15721</v>
       </c>
       <c r="C167" s="2">
         <v>31</v>
@@ -4223,13 +4223,13 @@
         <v>88</v>
       </c>
       <c r="E167" s="2">
-        <v>315142</v>
+        <v>315153</v>
       </c>
       <c r="F167" s="2">
         <v>841</v>
       </c>
       <c r="G167" s="4">
-        <v>0.036184210526</v>
+        <v>0.036192714453</v>
       </c>
     </row>
     <row r="168" spans="1:7">
@@ -4237,7 +4237,7 @@
         <v>44088</v>
       </c>
       <c r="B168" s="2">
-        <v>15821</v>
+        <v>15820</v>
       </c>
       <c r="C168" s="2">
         <v>99</v>
@@ -4246,13 +4246,13 @@
         <v>92.428571428571</v>
       </c>
       <c r="E168" s="2">
-        <v>318518</v>
+        <v>318529</v>
       </c>
       <c r="F168" s="2">
         <v>3376</v>
       </c>
       <c r="G168" s="4">
-        <v>0.033785900783</v>
+        <v>0.033792959364</v>
       </c>
     </row>
     <row r="169" spans="1:7">
@@ -4260,7 +4260,7 @@
         <v>44089</v>
       </c>
       <c r="B169" s="2">
-        <v>15952</v>
+        <v>15951</v>
       </c>
       <c r="C169" s="2">
         <v>131</v>
@@ -4269,13 +4269,13 @@
         <v>90.571428571428</v>
       </c>
       <c r="E169" s="2">
-        <v>322471</v>
+        <v>322482</v>
       </c>
       <c r="F169" s="2">
         <v>3953</v>
       </c>
       <c r="G169" s="4">
-        <v>0.033664312642</v>
+        <v>0.03367146423</v>
       </c>
     </row>
     <row r="170" spans="1:7">
@@ -4283,7 +4283,7 @@
         <v>44090</v>
       </c>
       <c r="B170" s="2">
-        <v>16038</v>
+        <v>16037</v>
       </c>
       <c r="C170" s="2">
         <v>86</v>
@@ -4292,13 +4292,13 @@
         <v>81.428571428571</v>
       </c>
       <c r="E170" s="2">
-        <v>325761</v>
+        <v>325771</v>
       </c>
       <c r="F170" s="2">
-        <v>3290</v>
+        <v>3289</v>
       </c>
       <c r="G170" s="4">
-        <v>0.030615533354</v>
+        <v>0.030623757588</v>
       </c>
     </row>
     <row r="171" spans="1:7">
@@ -4306,7 +4306,7 @@
         <v>44091</v>
       </c>
       <c r="B171" s="2">
-        <v>16141</v>
+        <v>16140</v>
       </c>
       <c r="C171" s="2">
         <v>103</v>
@@ -4315,13 +4315,13 @@
         <v>81.571428571428</v>
       </c>
       <c r="E171" s="2">
-        <v>329360</v>
+        <v>329370</v>
       </c>
       <c r="F171" s="2">
         <v>3599</v>
       </c>
       <c r="G171" s="4">
-        <v>0.030138287765</v>
+        <v>0.030144652095</v>
       </c>
     </row>
     <row r="172" spans="1:7">
@@ -4329,7 +4329,7 @@
         <v>44092</v>
       </c>
       <c r="B172" s="2">
-        <v>16245</v>
+        <v>16244</v>
       </c>
       <c r="C172" s="2">
         <v>104</v>
@@ -4338,13 +4338,13 @@
         <v>86.142857142857</v>
       </c>
       <c r="E172" s="2">
-        <v>332626</v>
+        <v>332636</v>
       </c>
       <c r="F172" s="2">
         <v>3266</v>
       </c>
       <c r="G172" s="4">
-        <v>0.030579643998</v>
+        <v>0.030581194847</v>
       </c>
     </row>
     <row r="173" spans="1:7">
@@ -4352,7 +4352,7 @@
         <v>44093</v>
       </c>
       <c r="B173" s="2">
-        <v>16317</v>
+        <v>16316</v>
       </c>
       <c r="C173" s="2">
         <v>72</v>
@@ -4361,13 +4361,13 @@
         <v>89.428571428571</v>
       </c>
       <c r="E173" s="2">
-        <v>334141</v>
+        <v>334151</v>
       </c>
       <c r="F173" s="2">
         <v>1515</v>
       </c>
       <c r="G173" s="4">
-        <v>0.031552419354</v>
+        <v>0.031554009778</v>
       </c>
     </row>
     <row r="174" spans="1:7">
@@ -4375,7 +4375,7 @@
         <v>44094</v>
       </c>
       <c r="B174" s="2">
-        <v>16359</v>
+        <v>16358</v>
       </c>
       <c r="C174" s="2">
         <v>42</v>
@@ -4384,13 +4384,13 @@
         <v>91</v>
       </c>
       <c r="E174" s="2">
-        <v>335292</v>
+        <v>335302</v>
       </c>
       <c r="F174" s="2">
         <v>1151</v>
       </c>
       <c r="G174" s="4">
-        <v>0.031612903225</v>
+        <v>0.031614472182</v>
       </c>
     </row>
     <row r="175" spans="1:7">
@@ -4398,7 +4398,7 @@
         <v>44095</v>
       </c>
       <c r="B175" s="2">
-        <v>16502</v>
+        <v>16501</v>
       </c>
       <c r="C175" s="2">
         <v>143</v>
@@ -4407,13 +4407,13 @@
         <v>97.28571428571399</v>
       </c>
       <c r="E175" s="2">
-        <v>339631</v>
+        <v>339641</v>
       </c>
       <c r="F175" s="2">
         <v>4339</v>
       </c>
       <c r="G175" s="4">
-        <v>0.032255008762</v>
+        <v>0.032256536566</v>
       </c>
     </row>
     <row r="176" spans="1:7">
@@ -4421,7 +4421,7 @@
         <v>44096</v>
       </c>
       <c r="B176" s="2">
-        <v>16601</v>
+        <v>16600</v>
       </c>
       <c r="C176" s="2">
         <v>99</v>
@@ -4430,10 +4430,10 @@
         <v>92.714285714285</v>
       </c>
       <c r="E176" s="2">
-        <v>343380</v>
+        <v>343391</v>
       </c>
       <c r="F176" s="2">
-        <v>3749</v>
+        <v>3750</v>
       </c>
       <c r="G176" s="4">
         <v>0.031039265388</v>
@@ -4444,7 +4444,7 @@
         <v>44097</v>
       </c>
       <c r="B177" s="2">
-        <v>16695</v>
+        <v>16694</v>
       </c>
       <c r="C177" s="2">
         <v>94</v>
@@ -4453,13 +4453,13 @@
         <v>93.85714285714199</v>
       </c>
       <c r="E177" s="2">
-        <v>346854</v>
+        <v>346866</v>
       </c>
       <c r="F177" s="2">
-        <v>3474</v>
+        <v>3475</v>
       </c>
       <c r="G177" s="4">
-        <v>0.031147774143</v>
+        <v>0.031144821047</v>
       </c>
     </row>
     <row r="178" spans="1:7">
@@ -4470,19 +4470,19 @@
         <v>16786</v>
       </c>
       <c r="C178" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D178" s="3">
-        <v>92.142857142857</v>
+        <v>92.28571428571399</v>
       </c>
       <c r="E178" s="2">
-        <v>350553</v>
+        <v>350567</v>
       </c>
       <c r="F178" s="2">
-        <v>3699</v>
+        <v>3701</v>
       </c>
       <c r="G178" s="4">
-        <v>0.030434577454</v>
+        <v>0.030476010756</v>
       </c>
     </row>
     <row r="179" spans="1:7">
@@ -4496,16 +4496,16 @@
         <v>88</v>
       </c>
       <c r="D179" s="3">
-        <v>89.85714285714199</v>
+        <v>90</v>
       </c>
       <c r="E179" s="2">
-        <v>353827</v>
+        <v>353845</v>
       </c>
       <c r="F179" s="2">
-        <v>3274</v>
+        <v>3278</v>
       </c>
       <c r="G179" s="4">
-        <v>0.029668411867</v>
+        <v>0.029704370785</v>
       </c>
     </row>
     <row r="180" spans="1:7">
@@ -4519,16 +4519,39 @@
         <v>59</v>
       </c>
       <c r="D180" s="3">
-        <v>88</v>
+        <v>88.142857142857</v>
       </c>
       <c r="E180" s="2">
-        <v>355685</v>
+        <v>355703</v>
       </c>
       <c r="F180" s="2">
         <v>1858</v>
       </c>
       <c r="G180" s="4">
-        <v>0.028592647604</v>
+        <v>0.028628433556</v>
+      </c>
+    </row>
+    <row r="181" spans="1:7">
+      <c r="A181" s="1">
+        <v>44101</v>
+      </c>
+      <c r="B181" s="2">
+        <v>16955</v>
+      </c>
+      <c r="C181" s="2">
+        <v>22</v>
+      </c>
+      <c r="D181" s="3">
+        <v>85.28571428571399</v>
+      </c>
+      <c r="E181" s="2">
+        <v>356817</v>
+      </c>
+      <c r="F181" s="2">
+        <v>1114</v>
+      </c>
+      <c r="G181" s="4">
+        <v>0.027748082732</v>
       </c>
     </row>
   </sheetData>

--- a/contra_costa_county_testing.xlsx
+++ b/contra_costa_county_testing.xlsx
@@ -376,7 +376,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G181"/>
+  <dimension ref="A1:G182"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1279,13 +1279,13 @@
         <v>15.142857142857</v>
       </c>
       <c r="E39" s="2">
-        <v>22376</v>
+        <v>22375</v>
       </c>
       <c r="F39" s="2">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="G39" s="4">
-        <v>0.021149241819</v>
+        <v>0.021153462382</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -1302,13 +1302,13 @@
         <v>14.571428571428</v>
       </c>
       <c r="E40" s="2">
-        <v>22758</v>
+        <v>22757</v>
       </c>
       <c r="F40" s="2">
         <v>382</v>
       </c>
       <c r="G40" s="4">
-        <v>0.019972586645</v>
+        <v>0.019976498237</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -1325,13 +1325,13 @@
         <v>15</v>
       </c>
       <c r="E41" s="2">
-        <v>23102</v>
+        <v>23101</v>
       </c>
       <c r="F41" s="2">
         <v>344</v>
       </c>
       <c r="G41" s="4">
-        <v>0.020242914979</v>
+        <v>0.020246818357</v>
       </c>
     </row>
     <row r="42" spans="1:7">
@@ -1348,13 +1348,13 @@
         <v>13</v>
       </c>
       <c r="E42" s="2">
-        <v>24203</v>
+        <v>24202</v>
       </c>
       <c r="F42" s="2">
         <v>1101</v>
       </c>
       <c r="G42" s="4">
-        <v>0.016515426497</v>
+        <v>0.016518424396</v>
       </c>
     </row>
     <row r="43" spans="1:7">
@@ -1371,13 +1371,13 @@
         <v>12.285714285714</v>
       </c>
       <c r="E43" s="2">
-        <v>25434</v>
+        <v>25433</v>
       </c>
       <c r="F43" s="2">
         <v>1231</v>
       </c>
       <c r="G43" s="4">
-        <v>0.014191419141</v>
+        <v>0.014193761346</v>
       </c>
     </row>
     <row r="44" spans="1:7">
@@ -1394,13 +1394,13 @@
         <v>12.857142857142</v>
       </c>
       <c r="E44" s="2">
-        <v>26533</v>
+        <v>26532</v>
       </c>
       <c r="F44" s="2">
         <v>1099</v>
       </c>
       <c r="G44" s="4">
-        <v>0.014530190506</v>
+        <v>0.014532536735</v>
       </c>
     </row>
     <row r="45" spans="1:7">
@@ -1417,13 +1417,13 @@
         <v>14</v>
       </c>
       <c r="E45" s="2">
-        <v>27386</v>
+        <v>27385</v>
       </c>
       <c r="F45" s="2">
         <v>853</v>
       </c>
       <c r="G45" s="4">
-        <v>0.015927189988</v>
+        <v>0.015929778933</v>
       </c>
     </row>
     <row r="46" spans="1:7">
@@ -1440,7 +1440,7 @@
         <v>15.714285714285</v>
       </c>
       <c r="E46" s="2">
-        <v>28304</v>
+        <v>28303</v>
       </c>
       <c r="F46" s="2">
         <v>918</v>
@@ -1463,7 +1463,7 @@
         <v>17.571428571428</v>
       </c>
       <c r="E47" s="2">
-        <v>28713</v>
+        <v>28712</v>
       </c>
       <c r="F47" s="2">
         <v>409</v>
@@ -1486,7 +1486,7 @@
         <v>18</v>
       </c>
       <c r="E48" s="2">
-        <v>29107</v>
+        <v>29106</v>
       </c>
       <c r="F48" s="2">
         <v>394</v>
@@ -1509,7 +1509,7 @@
         <v>22.428571428571</v>
       </c>
       <c r="E49" s="2">
-        <v>30471</v>
+        <v>30470</v>
       </c>
       <c r="F49" s="2">
         <v>1364</v>
@@ -1532,7 +1532,7 @@
         <v>25.714285714285</v>
       </c>
       <c r="E50" s="2">
-        <v>32131</v>
+        <v>32130</v>
       </c>
       <c r="F50" s="2">
         <v>1660</v>
@@ -1555,7 +1555,7 @@
         <v>26.142857142857</v>
       </c>
       <c r="E51" s="2">
-        <v>33268</v>
+        <v>33267</v>
       </c>
       <c r="F51" s="2">
         <v>1137</v>
@@ -1578,7 +1578,7 @@
         <v>27.428571428571</v>
       </c>
       <c r="E52" s="2">
-        <v>34402</v>
+        <v>34401</v>
       </c>
       <c r="F52" s="2">
         <v>1134</v>
@@ -1601,7 +1601,7 @@
         <v>29.142857142857</v>
       </c>
       <c r="E53" s="2">
-        <v>35490</v>
+        <v>35489</v>
       </c>
       <c r="F53" s="2">
         <v>1088</v>
@@ -1624,7 +1624,7 @@
         <v>28</v>
       </c>
       <c r="E54" s="2">
-        <v>36008</v>
+        <v>36007</v>
       </c>
       <c r="F54" s="2">
         <v>518</v>
@@ -1647,7 +1647,7 @@
         <v>27.571428571428</v>
       </c>
       <c r="E55" s="2">
-        <v>36404</v>
+        <v>36403</v>
       </c>
       <c r="F55" s="2">
         <v>396</v>
@@ -1670,7 +1670,7 @@
         <v>23.285714285714</v>
       </c>
       <c r="E56" s="2">
-        <v>36871</v>
+        <v>36870</v>
       </c>
       <c r="F56" s="2">
         <v>467</v>
@@ -1693,7 +1693,7 @@
         <v>23.714285714285</v>
       </c>
       <c r="E57" s="2">
-        <v>38067</v>
+        <v>38066</v>
       </c>
       <c r="F57" s="2">
         <v>1196</v>
@@ -1716,7 +1716,7 @@
         <v>23.714285714285</v>
       </c>
       <c r="E58" s="2">
-        <v>39183</v>
+        <v>39182</v>
       </c>
       <c r="F58" s="2">
         <v>1116</v>
@@ -1739,7 +1739,7 @@
         <v>26.285714285714</v>
       </c>
       <c r="E59" s="2">
-        <v>40318</v>
+        <v>40317</v>
       </c>
       <c r="F59" s="2">
         <v>1135</v>
@@ -1762,7 +1762,7 @@
         <v>26.571428571428</v>
       </c>
       <c r="E60" s="2">
-        <v>41721</v>
+        <v>41720</v>
       </c>
       <c r="F60" s="2">
         <v>1403</v>
@@ -1785,7 +1785,7 @@
         <v>26.285714285714</v>
       </c>
       <c r="E61" s="2">
-        <v>42453</v>
+        <v>42452</v>
       </c>
       <c r="F61" s="2">
         <v>732</v>
@@ -1808,7 +1808,7 @@
         <v>26</v>
       </c>
       <c r="E62" s="2">
-        <v>42850</v>
+        <v>42849</v>
       </c>
       <c r="F62" s="2">
         <v>397</v>
@@ -1831,7 +1831,7 @@
         <v>29.285714285714</v>
       </c>
       <c r="E63" s="2">
-        <v>44224</v>
+        <v>44223</v>
       </c>
       <c r="F63" s="2">
         <v>1374</v>
@@ -1854,7 +1854,7 @@
         <v>28.285714285714</v>
       </c>
       <c r="E64" s="2">
-        <v>45440</v>
+        <v>45439</v>
       </c>
       <c r="F64" s="2">
         <v>1216</v>
@@ -1877,7 +1877,7 @@
         <v>27.857142857142</v>
       </c>
       <c r="E65" s="2">
-        <v>46597</v>
+        <v>46596</v>
       </c>
       <c r="F65" s="2">
         <v>1157</v>
@@ -1900,7 +1900,7 @@
         <v>28.428571428571</v>
       </c>
       <c r="E66" s="2">
-        <v>47946</v>
+        <v>47945</v>
       </c>
       <c r="F66" s="2">
         <v>1349</v>
@@ -1923,7 +1923,7 @@
         <v>29.142857142857</v>
       </c>
       <c r="E67" s="2">
-        <v>49579</v>
+        <v>49578</v>
       </c>
       <c r="F67" s="2">
         <v>1633</v>
@@ -1946,7 +1946,7 @@
         <v>30.428571428571</v>
       </c>
       <c r="E68" s="2">
-        <v>50184</v>
+        <v>50183</v>
       </c>
       <c r="F68" s="2">
         <v>605</v>
@@ -1969,7 +1969,7 @@
         <v>32.285714285714</v>
       </c>
       <c r="E69" s="2">
-        <v>50669</v>
+        <v>50668</v>
       </c>
       <c r="F69" s="2">
         <v>485</v>
@@ -1992,7 +1992,7 @@
         <v>34.571428571428</v>
       </c>
       <c r="E70" s="2">
-        <v>52507</v>
+        <v>52506</v>
       </c>
       <c r="F70" s="2">
         <v>1838</v>
@@ -2015,7 +2015,7 @@
         <v>36.285714285714</v>
       </c>
       <c r="E71" s="2">
-        <v>54357</v>
+        <v>54356</v>
       </c>
       <c r="F71" s="2">
         <v>1850</v>
@@ -2038,7 +2038,7 @@
         <v>39.857142857142</v>
       </c>
       <c r="E72" s="2">
-        <v>56348</v>
+        <v>56347</v>
       </c>
       <c r="F72" s="2">
         <v>1991</v>
@@ -2061,7 +2061,7 @@
         <v>40.285714285714</v>
       </c>
       <c r="E73" s="2">
-        <v>58489</v>
+        <v>58488</v>
       </c>
       <c r="F73" s="2">
         <v>2141</v>
@@ -2084,7 +2084,7 @@
         <v>41.857142857142</v>
       </c>
       <c r="E74" s="2">
-        <v>60733</v>
+        <v>60732</v>
       </c>
       <c r="F74" s="2">
         <v>2244</v>
@@ -2107,7 +2107,7 @@
         <v>44.142857142857</v>
       </c>
       <c r="E75" s="2">
-        <v>61571</v>
+        <v>61570</v>
       </c>
       <c r="F75" s="2">
         <v>838</v>
@@ -2130,7 +2130,7 @@
         <v>45.428571428571</v>
       </c>
       <c r="E76" s="2">
-        <v>62154</v>
+        <v>62153</v>
       </c>
       <c r="F76" s="2">
         <v>583</v>
@@ -2153,7 +2153,7 @@
         <v>46.714285714285</v>
       </c>
       <c r="E77" s="2">
-        <v>64370</v>
+        <v>64369</v>
       </c>
       <c r="F77" s="2">
         <v>2216</v>
@@ -2176,7 +2176,7 @@
         <v>52.571428571428</v>
       </c>
       <c r="E78" s="2">
-        <v>66891</v>
+        <v>66890</v>
       </c>
       <c r="F78" s="2">
         <v>2521</v>
@@ -2199,7 +2199,7 @@
         <v>57.285714285714</v>
       </c>
       <c r="E79" s="2">
-        <v>69462</v>
+        <v>69461</v>
       </c>
       <c r="F79" s="2">
         <v>2571</v>
@@ -2222,7 +2222,7 @@
         <v>62.57142857142801</v>
       </c>
       <c r="E80" s="2">
-        <v>71987</v>
+        <v>71986</v>
       </c>
       <c r="F80" s="2">
         <v>2525</v>
@@ -2245,7 +2245,7 @@
         <v>68.85714285714199</v>
       </c>
       <c r="E81" s="2">
-        <v>74430</v>
+        <v>74429</v>
       </c>
       <c r="F81" s="2">
         <v>2443</v>
@@ -2268,7 +2268,7 @@
         <v>71.428571428571</v>
       </c>
       <c r="E82" s="2">
-        <v>75382</v>
+        <v>75381</v>
       </c>
       <c r="F82" s="2">
         <v>952</v>
@@ -2291,7 +2291,7 @@
         <v>73.28571428571399</v>
       </c>
       <c r="E83" s="2">
-        <v>76079</v>
+        <v>76078</v>
       </c>
       <c r="F83" s="2">
         <v>697</v>
@@ -2314,7 +2314,7 @@
         <v>81</v>
       </c>
       <c r="E84" s="2">
-        <v>78699</v>
+        <v>78698</v>
       </c>
       <c r="F84" s="2">
         <v>2620</v>
@@ -2337,7 +2337,7 @@
         <v>88</v>
       </c>
       <c r="E85" s="2">
-        <v>81484</v>
+        <v>81483</v>
       </c>
       <c r="F85" s="2">
         <v>2785</v>
@@ -2360,7 +2360,7 @@
         <v>96</v>
       </c>
       <c r="E86" s="2">
-        <v>84512</v>
+        <v>84511</v>
       </c>
       <c r="F86" s="2">
         <v>3028</v>
@@ -2383,7 +2383,7 @@
         <v>104.714285714285</v>
       </c>
       <c r="E87" s="2">
-        <v>87870</v>
+        <v>87869</v>
       </c>
       <c r="F87" s="2">
         <v>3358</v>
@@ -2406,7 +2406,7 @@
         <v>114.285714285714</v>
       </c>
       <c r="E88" s="2">
-        <v>90836</v>
+        <v>90835</v>
       </c>
       <c r="F88" s="2">
         <v>2966</v>
@@ -2429,7 +2429,7 @@
         <v>118.285714285714</v>
       </c>
       <c r="E89" s="2">
-        <v>91910</v>
+        <v>91909</v>
       </c>
       <c r="F89" s="2">
         <v>1074</v>
@@ -2452,7 +2452,7 @@
         <v>121</v>
       </c>
       <c r="E90" s="2">
-        <v>92705</v>
+        <v>92704</v>
       </c>
       <c r="F90" s="2">
         <v>795</v>
@@ -2475,7 +2475,7 @@
         <v>133.285714285714</v>
       </c>
       <c r="E91" s="2">
-        <v>96389</v>
+        <v>96388</v>
       </c>
       <c r="F91" s="2">
         <v>3684</v>
@@ -2498,7 +2498,7 @@
         <v>136.857142857142</v>
       </c>
       <c r="E92" s="2">
-        <v>99865</v>
+        <v>99864</v>
       </c>
       <c r="F92" s="2">
         <v>3476</v>
@@ -2524,10 +2524,10 @@
         <v>103402</v>
       </c>
       <c r="F93" s="2">
-        <v>3537</v>
+        <v>3538</v>
       </c>
       <c r="G93" s="4">
-        <v>0.052302805717</v>
+        <v>0.052300037054</v>
       </c>
     </row>
     <row r="94" spans="1:7">
@@ -2544,13 +2544,13 @@
         <v>149.714285714285</v>
       </c>
       <c r="E94" s="2">
-        <v>107321</v>
+        <v>107323</v>
       </c>
       <c r="F94" s="2">
-        <v>3919</v>
+        <v>3921</v>
       </c>
       <c r="G94" s="4">
-        <v>0.053878977944</v>
+        <v>0.053870669271</v>
       </c>
     </row>
     <row r="95" spans="1:7">
@@ -2567,13 +2567,13 @@
         <v>146</v>
       </c>
       <c r="E95" s="2">
-        <v>109961</v>
+        <v>109963</v>
       </c>
       <c r="F95" s="2">
         <v>2640</v>
       </c>
       <c r="G95" s="4">
-        <v>0.053437908496</v>
+        <v>0.053429527394</v>
       </c>
     </row>
     <row r="96" spans="1:7">
@@ -2590,13 +2590,13 @@
         <v>147.857142857142</v>
       </c>
       <c r="E96" s="2">
-        <v>111078</v>
+        <v>111080</v>
       </c>
       <c r="F96" s="2">
         <v>1117</v>
       </c>
       <c r="G96" s="4">
-        <v>0.053996243739</v>
+        <v>0.053987794063</v>
       </c>
     </row>
     <row r="97" spans="1:7">
@@ -2613,13 +2613,13 @@
         <v>151.714285714285</v>
       </c>
       <c r="E97" s="2">
-        <v>112207</v>
+        <v>112209</v>
       </c>
       <c r="F97" s="2">
         <v>1129</v>
       </c>
       <c r="G97" s="4">
-        <v>0.054455953235</v>
+        <v>0.054447577544</v>
       </c>
     </row>
     <row r="98" spans="1:7">
@@ -2636,13 +2636,13 @@
         <v>152.714285714285</v>
       </c>
       <c r="E98" s="2">
-        <v>116276</v>
+        <v>116278</v>
       </c>
       <c r="F98" s="2">
         <v>4069</v>
       </c>
       <c r="G98" s="4">
-        <v>0.053753708452</v>
+        <v>0.053745600804</v>
       </c>
     </row>
     <row r="99" spans="1:7">
@@ -2659,13 +2659,13 @@
         <v>161</v>
       </c>
       <c r="E99" s="2">
-        <v>120348</v>
+        <v>120350</v>
       </c>
       <c r="F99" s="2">
         <v>4072</v>
       </c>
       <c r="G99" s="4">
-        <v>0.055021237123</v>
+        <v>0.055013179732</v>
       </c>
     </row>
     <row r="100" spans="1:7">
@@ -2682,13 +2682,13 @@
         <v>168.428571428571</v>
       </c>
       <c r="E100" s="2">
-        <v>124603</v>
+        <v>124605</v>
       </c>
       <c r="F100" s="2">
         <v>4255</v>
       </c>
       <c r="G100" s="4">
-        <v>0.055610584406</v>
+        <v>0.055605338867</v>
       </c>
     </row>
     <row r="101" spans="1:7">
@@ -2705,7 +2705,7 @@
         <v>174.285714285714</v>
       </c>
       <c r="E101" s="2">
-        <v>129200</v>
+        <v>129202</v>
       </c>
       <c r="F101" s="2">
         <v>4597</v>
@@ -2728,7 +2728,7 @@
         <v>189.142857142857</v>
       </c>
       <c r="E102" s="2">
-        <v>133662</v>
+        <v>133664</v>
       </c>
       <c r="F102" s="2">
         <v>4462</v>
@@ -2751,7 +2751,7 @@
         <v>195.857142857142</v>
       </c>
       <c r="E103" s="2">
-        <v>135731</v>
+        <v>135733</v>
       </c>
       <c r="F103" s="2">
         <v>2069</v>
@@ -2774,7 +2774,7 @@
         <v>198</v>
       </c>
       <c r="E104" s="2">
-        <v>137056</v>
+        <v>137058</v>
       </c>
       <c r="F104" s="2">
         <v>1325</v>
@@ -2797,7 +2797,7 @@
         <v>206.142857142857</v>
       </c>
       <c r="E105" s="2">
-        <v>141654</v>
+        <v>141656</v>
       </c>
       <c r="F105" s="2">
         <v>4598</v>
@@ -2820,7 +2820,7 @@
         <v>211.428571428571</v>
       </c>
       <c r="E106" s="2">
-        <v>145406</v>
+        <v>145408</v>
       </c>
       <c r="F106" s="2">
         <v>3752</v>
@@ -2843,7 +2843,7 @@
         <v>216.428571428571</v>
       </c>
       <c r="E107" s="2">
-        <v>149747</v>
+        <v>149749</v>
       </c>
       <c r="F107" s="2">
         <v>4341</v>
@@ -2866,7 +2866,7 @@
         <v>216.714285714285</v>
       </c>
       <c r="E108" s="2">
-        <v>153929</v>
+        <v>153931</v>
       </c>
       <c r="F108" s="2">
         <v>4182</v>
@@ -2889,13 +2889,13 @@
         <v>217.428571428571</v>
       </c>
       <c r="E109" s="2">
-        <v>158126</v>
+        <v>158131</v>
       </c>
       <c r="F109" s="2">
-        <v>4197</v>
+        <v>4200</v>
       </c>
       <c r="G109" s="4">
-        <v>0.062213865271</v>
+        <v>0.062206236972</v>
       </c>
     </row>
     <row r="110" spans="1:7">
@@ -2912,13 +2912,13 @@
         <v>215.857142857142</v>
       </c>
       <c r="E110" s="2">
-        <v>160348</v>
+        <v>160353</v>
       </c>
       <c r="F110" s="2">
         <v>2222</v>
       </c>
       <c r="G110" s="4">
-        <v>0.061380346914</v>
+        <v>0.061372867587</v>
       </c>
     </row>
     <row r="111" spans="1:7">
@@ -2935,13 +2935,13 @@
         <v>215.714285714285</v>
       </c>
       <c r="E111" s="2">
-        <v>161605</v>
+        <v>161610</v>
       </c>
       <c r="F111" s="2">
         <v>1257</v>
       </c>
       <c r="G111" s="4">
-        <v>0.061509633793</v>
+        <v>0.061502117953</v>
       </c>
     </row>
     <row r="112" spans="1:7">
@@ -2958,13 +2958,13 @@
         <v>220</v>
       </c>
       <c r="E112" s="2">
-        <v>165827</v>
+        <v>165844</v>
       </c>
       <c r="F112" s="2">
-        <v>4222</v>
+        <v>4234</v>
       </c>
       <c r="G112" s="4">
-        <v>0.063707442187</v>
+        <v>0.06366793451199999</v>
       </c>
     </row>
     <row r="113" spans="1:7">
@@ -2981,13 +2981,13 @@
         <v>218.428571428571</v>
       </c>
       <c r="E113" s="2">
-        <v>169641</v>
+        <v>169662</v>
       </c>
       <c r="F113" s="2">
-        <v>3814</v>
+        <v>3818</v>
       </c>
       <c r="G113" s="4">
-        <v>0.06309057148699999</v>
+        <v>0.063041147851</v>
       </c>
     </row>
     <row r="114" spans="1:7">
@@ -3004,13 +3004,13 @@
         <v>217.142857142857</v>
       </c>
       <c r="E114" s="2">
-        <v>173291</v>
+        <v>173312</v>
       </c>
       <c r="F114" s="2">
         <v>3650</v>
       </c>
       <c r="G114" s="4">
-        <v>0.064559972816</v>
+        <v>0.064507914951</v>
       </c>
     </row>
     <row r="115" spans="1:7">
@@ -3027,13 +3027,13 @@
         <v>213.714285714285</v>
       </c>
       <c r="E115" s="2">
-        <v>176611</v>
+        <v>176632</v>
       </c>
       <c r="F115" s="2">
         <v>3320</v>
       </c>
       <c r="G115" s="4">
-        <v>0.06595538312300001</v>
+        <v>0.065900180608</v>
       </c>
     </row>
     <row r="116" spans="1:7">
@@ -3050,13 +3050,13 @@
         <v>209</v>
       </c>
       <c r="E116" s="2">
-        <v>180242</v>
+        <v>180263</v>
       </c>
       <c r="F116" s="2">
         <v>3631</v>
       </c>
       <c r="G116" s="4">
-        <v>0.06615120274899999</v>
+        <v>0.066103379721</v>
       </c>
     </row>
     <row r="117" spans="1:7">
@@ -3073,13 +3073,13 @@
         <v>206.285714285714</v>
       </c>
       <c r="E117" s="2">
-        <v>181859</v>
+        <v>181880</v>
       </c>
       <c r="F117" s="2">
         <v>1617</v>
       </c>
       <c r="G117" s="4">
-        <v>0.06712844591100001</v>
+        <v>0.067078552515</v>
       </c>
     </row>
     <row r="118" spans="1:7">
@@ -3096,13 +3096,13 @@
         <v>206.714285714285</v>
       </c>
       <c r="E118" s="2">
-        <v>183112</v>
+        <v>183133</v>
       </c>
       <c r="F118" s="2">
         <v>1253</v>
       </c>
       <c r="G118" s="4">
-        <v>0.067280420328</v>
+        <v>0.067230404683</v>
       </c>
     </row>
     <row r="119" spans="1:7">
@@ -3119,13 +3119,13 @@
         <v>199.714285714285</v>
       </c>
       <c r="E119" s="2">
-        <v>187278</v>
+        <v>187299</v>
       </c>
       <c r="F119" s="2">
         <v>4166</v>
       </c>
       <c r="G119" s="4">
-        <v>0.065171786863</v>
+        <v>0.06515963644800001</v>
       </c>
     </row>
     <row r="120" spans="1:7">
@@ -3142,7 +3142,7 @@
         <v>200.285714285714</v>
       </c>
       <c r="E120" s="2">
-        <v>191146</v>
+        <v>191167</v>
       </c>
       <c r="F120" s="2">
         <v>3868</v>
@@ -3165,7 +3165,7 @@
         <v>200</v>
       </c>
       <c r="E121" s="2">
-        <v>195001</v>
+        <v>195022</v>
       </c>
       <c r="F121" s="2">
         <v>3855</v>
@@ -3188,7 +3188,7 @@
         <v>197.857142857142</v>
       </c>
       <c r="E122" s="2">
-        <v>198669</v>
+        <v>198690</v>
       </c>
       <c r="F122" s="2">
         <v>3668</v>
@@ -3211,7 +3211,7 @@
         <v>199.857142857142</v>
       </c>
       <c r="E123" s="2">
-        <v>202205</v>
+        <v>202226</v>
       </c>
       <c r="F123" s="2">
         <v>3536</v>
@@ -3234,7 +3234,7 @@
         <v>199.428571428571</v>
       </c>
       <c r="E124" s="2">
-        <v>203794</v>
+        <v>203815</v>
       </c>
       <c r="F124" s="2">
         <v>1589</v>
@@ -3257,7 +3257,7 @@
         <v>196</v>
       </c>
       <c r="E125" s="2">
-        <v>204917</v>
+        <v>204938</v>
       </c>
       <c r="F125" s="2">
         <v>1123</v>
@@ -3280,7 +3280,7 @@
         <v>197.571428571428</v>
       </c>
       <c r="E126" s="2">
-        <v>208712</v>
+        <v>208733</v>
       </c>
       <c r="F126" s="2">
         <v>3795</v>
@@ -3303,7 +3303,7 @@
         <v>195</v>
       </c>
       <c r="E127" s="2">
-        <v>211999</v>
+        <v>212020</v>
       </c>
       <c r="F127" s="2">
         <v>3287</v>
@@ -3326,7 +3326,7 @@
         <v>184.857142857142</v>
       </c>
       <c r="E128" s="2">
-        <v>215196</v>
+        <v>215217</v>
       </c>
       <c r="F128" s="2">
         <v>3197</v>
@@ -3349,7 +3349,7 @@
         <v>181.857142857142</v>
       </c>
       <c r="E129" s="2">
-        <v>218846</v>
+        <v>218867</v>
       </c>
       <c r="F129" s="2">
         <v>3650</v>
@@ -3372,13 +3372,13 @@
         <v>173.428571428571</v>
       </c>
       <c r="E130" s="2">
-        <v>222107</v>
+        <v>222129</v>
       </c>
       <c r="F130" s="2">
-        <v>3261</v>
+        <v>3262</v>
       </c>
       <c r="G130" s="4">
-        <v>0.060998894583</v>
+        <v>0.060995829774</v>
       </c>
     </row>
     <row r="131" spans="1:7">
@@ -3395,13 +3395,13 @@
         <v>173.714285714285</v>
       </c>
       <c r="E131" s="2">
-        <v>223798</v>
+        <v>223820</v>
       </c>
       <c r="F131" s="2">
         <v>1691</v>
       </c>
       <c r="G131" s="4">
-        <v>0.060787842431</v>
+        <v>0.060784803799</v>
       </c>
     </row>
     <row r="132" spans="1:7">
@@ -3418,13 +3418,13 @@
         <v>174.142857142857</v>
       </c>
       <c r="E132" s="2">
-        <v>224840</v>
+        <v>224862</v>
       </c>
       <c r="F132" s="2">
         <v>1042</v>
       </c>
       <c r="G132" s="4">
-        <v>0.061185564423</v>
+        <v>0.061182493475</v>
       </c>
     </row>
     <row r="133" spans="1:7">
@@ -3441,13 +3441,13 @@
         <v>171.857142857142</v>
       </c>
       <c r="E133" s="2">
-        <v>228733</v>
+        <v>228755</v>
       </c>
       <c r="F133" s="2">
         <v>3893</v>
       </c>
       <c r="G133" s="4">
-        <v>0.060086908745</v>
+        <v>0.060083907701</v>
       </c>
     </row>
     <row r="134" spans="1:7">
@@ -3464,13 +3464,13 @@
         <v>167.857142857142</v>
       </c>
       <c r="E134" s="2">
-        <v>232148</v>
+        <v>232170</v>
       </c>
       <c r="F134" s="2">
         <v>3415</v>
       </c>
       <c r="G134" s="4">
-        <v>0.058315549158</v>
+        <v>0.058312655086</v>
       </c>
     </row>
     <row r="135" spans="1:7">
@@ -3487,13 +3487,13 @@
         <v>171.142857142857</v>
       </c>
       <c r="E135" s="2">
-        <v>236002</v>
+        <v>236024</v>
       </c>
       <c r="F135" s="2">
         <v>3854</v>
       </c>
       <c r="G135" s="4">
-        <v>0.057579544362</v>
+        <v>0.057576777046</v>
       </c>
     </row>
     <row r="136" spans="1:7">
@@ -3510,13 +3510,13 @@
         <v>168.714285714285</v>
       </c>
       <c r="E136" s="2">
-        <v>239269</v>
+        <v>239291</v>
       </c>
       <c r="F136" s="2">
         <v>3267</v>
       </c>
       <c r="G136" s="4">
-        <v>0.0578269598</v>
+        <v>0.057824128476</v>
       </c>
     </row>
     <row r="137" spans="1:7">
@@ -3533,7 +3533,7 @@
         <v>168.714285714285</v>
       </c>
       <c r="E137" s="2">
-        <v>242624</v>
+        <v>242646</v>
       </c>
       <c r="F137" s="2">
         <v>3355</v>
@@ -3556,7 +3556,7 @@
         <v>166.285714285714</v>
       </c>
       <c r="E138" s="2">
-        <v>244184</v>
+        <v>244206</v>
       </c>
       <c r="F138" s="2">
         <v>1560</v>
@@ -3579,7 +3579,7 @@
         <v>161</v>
       </c>
       <c r="E139" s="2">
-        <v>244960</v>
+        <v>244982</v>
       </c>
       <c r="F139" s="2">
         <v>776</v>
@@ -3602,13 +3602,13 @@
         <v>157.428571428571</v>
       </c>
       <c r="E140" s="2">
-        <v>248616</v>
+        <v>248639</v>
       </c>
       <c r="F140" s="2">
-        <v>3656</v>
+        <v>3657</v>
       </c>
       <c r="G140" s="4">
-        <v>0.055424231755</v>
+        <v>0.055421444377</v>
       </c>
     </row>
     <row r="141" spans="1:7">
@@ -3625,13 +3625,13 @@
         <v>152.714285714285</v>
       </c>
       <c r="E141" s="2">
-        <v>251679</v>
+        <v>251703</v>
       </c>
       <c r="F141" s="2">
-        <v>3063</v>
+        <v>3064</v>
       </c>
       <c r="G141" s="4">
-        <v>0.054733500588</v>
+        <v>0.05472789638</v>
       </c>
     </row>
     <row r="142" spans="1:7">
@@ -3648,13 +3648,13 @@
         <v>146.571428571428</v>
       </c>
       <c r="E142" s="2">
-        <v>254730</v>
+        <v>254754</v>
       </c>
       <c r="F142" s="2">
         <v>3051</v>
       </c>
       <c r="G142" s="4">
-        <v>0.054784280222</v>
+        <v>0.054778430325</v>
       </c>
     </row>
     <row r="143" spans="1:7">
@@ -3671,13 +3671,13 @@
         <v>139.857142857142</v>
       </c>
       <c r="E143" s="2">
-        <v>257885</v>
+        <v>257916</v>
       </c>
       <c r="F143" s="2">
-        <v>3155</v>
+        <v>3162</v>
       </c>
       <c r="G143" s="4">
-        <v>0.052589170605</v>
+        <v>0.052563758389</v>
       </c>
     </row>
     <row r="144" spans="1:7">
@@ -3694,13 +3694,13 @@
         <v>138.142857142857</v>
       </c>
       <c r="E144" s="2">
-        <v>260912</v>
+        <v>260949</v>
       </c>
       <c r="F144" s="2">
-        <v>3027</v>
+        <v>3033</v>
       </c>
       <c r="G144" s="4">
-        <v>0.052876202974</v>
+        <v>0.052832868928</v>
       </c>
     </row>
     <row r="145" spans="1:7">
@@ -3717,13 +3717,13 @@
         <v>133.714285714285</v>
       </c>
       <c r="E145" s="2">
-        <v>262240</v>
+        <v>262277</v>
       </c>
       <c r="F145" s="2">
         <v>1328</v>
       </c>
       <c r="G145" s="4">
-        <v>0.051838723969</v>
+        <v>0.051795694759</v>
       </c>
     </row>
     <row r="146" spans="1:7">
@@ -3740,13 +3740,13 @@
         <v>136.714285714285</v>
       </c>
       <c r="E146" s="2">
-        <v>263200</v>
+        <v>263237</v>
       </c>
       <c r="F146" s="2">
         <v>960</v>
       </c>
       <c r="G146" s="4">
-        <v>0.052467105263</v>
+        <v>0.052423993426</v>
       </c>
     </row>
     <row r="147" spans="1:7">
@@ -3763,13 +3763,13 @@
         <v>127.714285714285</v>
       </c>
       <c r="E147" s="2">
-        <v>266172</v>
+        <v>266209</v>
       </c>
       <c r="F147" s="2">
         <v>2972</v>
       </c>
       <c r="G147" s="4">
-        <v>0.050922761449</v>
+        <v>0.050882185543</v>
       </c>
     </row>
     <row r="148" spans="1:7">
@@ -3786,13 +3786,13 @@
         <v>122.857142857142</v>
       </c>
       <c r="E148" s="2">
-        <v>269178</v>
+        <v>269216</v>
       </c>
       <c r="F148" s="2">
-        <v>3006</v>
+        <v>3007</v>
       </c>
       <c r="G148" s="4">
-        <v>0.049145665466</v>
+        <v>0.049106378119</v>
       </c>
     </row>
     <row r="149" spans="1:7">
@@ -3809,13 +3809,13 @@
         <v>119.428571428571</v>
       </c>
       <c r="E149" s="2">
-        <v>272126</v>
+        <v>272165</v>
       </c>
       <c r="F149" s="2">
-        <v>2948</v>
+        <v>2949</v>
       </c>
       <c r="G149" s="4">
-        <v>0.048057024603</v>
+        <v>0.048015622307</v>
       </c>
     </row>
     <row r="150" spans="1:7">
@@ -3832,13 +3832,13 @@
         <v>124.285714285714</v>
       </c>
       <c r="E150" s="2">
-        <v>275354</v>
+        <v>275393</v>
       </c>
       <c r="F150" s="2">
         <v>3228</v>
       </c>
       <c r="G150" s="4">
-        <v>0.049802507298</v>
+        <v>0.049779710476</v>
       </c>
     </row>
     <row r="151" spans="1:7">
@@ -3855,13 +3855,13 @@
         <v>117.857142857142</v>
       </c>
       <c r="E151" s="2">
-        <v>278123</v>
+        <v>278162</v>
       </c>
       <c r="F151" s="2">
         <v>2769</v>
       </c>
       <c r="G151" s="4">
-        <v>0.047934460519</v>
+        <v>0.047928890954</v>
       </c>
     </row>
     <row r="152" spans="1:7">
@@ -3878,13 +3878,13 @@
         <v>118.285714285714</v>
       </c>
       <c r="E152" s="2">
-        <v>279554</v>
+        <v>279594</v>
       </c>
       <c r="F152" s="2">
-        <v>1431</v>
+        <v>1432</v>
       </c>
       <c r="G152" s="4">
-        <v>0.047822571329</v>
+        <v>0.047814286539</v>
       </c>
     </row>
     <row r="153" spans="1:7">
@@ -3901,13 +3901,13 @@
         <v>117</v>
       </c>
       <c r="E153" s="2">
-        <v>280632</v>
+        <v>280672</v>
       </c>
       <c r="F153" s="2">
         <v>1078</v>
       </c>
       <c r="G153" s="4">
-        <v>0.046982560807</v>
+        <v>0.046974476627</v>
       </c>
     </row>
     <row r="154" spans="1:7">
@@ -3924,13 +3924,13 @@
         <v>115.285714285714</v>
       </c>
       <c r="E154" s="2">
-        <v>283754</v>
+        <v>283795</v>
       </c>
       <c r="F154" s="2">
-        <v>3122</v>
+        <v>3123</v>
       </c>
       <c r="G154" s="4">
-        <v>0.045899215106</v>
+        <v>0.045888775162</v>
       </c>
     </row>
     <row r="155" spans="1:7">
@@ -3947,13 +3947,13 @@
         <v>114.857142857142</v>
       </c>
       <c r="E155" s="2">
-        <v>287017</v>
+        <v>287059</v>
       </c>
       <c r="F155" s="2">
-        <v>3263</v>
+        <v>3264</v>
       </c>
       <c r="G155" s="4">
-        <v>0.045069790907</v>
+        <v>0.045059687272</v>
       </c>
     </row>
     <row r="156" spans="1:7">
@@ -3970,13 +3970,13 @@
         <v>112.142857142857</v>
       </c>
       <c r="E156" s="2">
-        <v>289979</v>
+        <v>290024</v>
       </c>
       <c r="F156" s="2">
-        <v>2962</v>
+        <v>2965</v>
       </c>
       <c r="G156" s="4">
-        <v>0.043970201086</v>
+        <v>0.043955428635</v>
       </c>
     </row>
     <row r="157" spans="1:7">
@@ -3993,13 +3993,13 @@
         <v>102.142857142857</v>
       </c>
       <c r="E157" s="2">
-        <v>292909</v>
+        <v>292954</v>
       </c>
       <c r="F157" s="2">
         <v>2930</v>
       </c>
       <c r="G157" s="4">
-        <v>0.040729136998</v>
+        <v>0.040715221228</v>
       </c>
     </row>
     <row r="158" spans="1:7">
@@ -4016,13 +4016,13 @@
         <v>102.714285714285</v>
       </c>
       <c r="E158" s="2">
-        <v>295711</v>
+        <v>295756</v>
       </c>
       <c r="F158" s="2">
         <v>2802</v>
       </c>
       <c r="G158" s="4">
-        <v>0.040880145553</v>
+        <v>0.040866204387</v>
       </c>
     </row>
     <row r="159" spans="1:7">
@@ -4039,13 +4039,13 @@
         <v>103</v>
       </c>
       <c r="E159" s="2">
-        <v>297047</v>
+        <v>297092</v>
       </c>
       <c r="F159" s="2">
         <v>1336</v>
       </c>
       <c r="G159" s="4">
-        <v>0.041216486594</v>
+        <v>0.041204709109</v>
       </c>
     </row>
     <row r="160" spans="1:7">
@@ -4062,13 +4062,13 @@
         <v>102.428571428571</v>
       </c>
       <c r="E160" s="2">
-        <v>298133</v>
+        <v>298178</v>
       </c>
       <c r="F160" s="2">
         <v>1086</v>
       </c>
       <c r="G160" s="4">
-        <v>0.04096908748</v>
+        <v>0.040957386039</v>
       </c>
     </row>
     <row r="161" spans="1:7">
@@ -4085,13 +4085,13 @@
         <v>92.571428571428</v>
       </c>
       <c r="E161" s="2">
-        <v>299383</v>
+        <v>299428</v>
       </c>
       <c r="F161" s="2">
         <v>1250</v>
       </c>
       <c r="G161" s="4">
-        <v>0.041461385885</v>
+        <v>0.041450777202</v>
       </c>
     </row>
     <row r="162" spans="1:7">
@@ -4108,13 +4108,13 @@
         <v>94.571428571428</v>
       </c>
       <c r="E162" s="2">
-        <v>303653</v>
+        <v>303699</v>
       </c>
       <c r="F162" s="2">
-        <v>4270</v>
+        <v>4271</v>
       </c>
       <c r="G162" s="4">
-        <v>0.039793219523</v>
+        <v>0.039783653846</v>
       </c>
     </row>
     <row r="163" spans="1:7">
@@ -4131,13 +4131,13 @@
         <v>99.571428571428</v>
       </c>
       <c r="E163" s="2">
-        <v>307158</v>
+        <v>307204</v>
       </c>
       <c r="F163" s="2">
         <v>3505</v>
       </c>
       <c r="G163" s="4">
-        <v>0.040572792362</v>
+        <v>0.040570430733</v>
       </c>
     </row>
     <row r="164" spans="1:7">
@@ -4154,13 +4154,13 @@
         <v>100.571428571428</v>
       </c>
       <c r="E164" s="2">
-        <v>310428</v>
+        <v>310474</v>
       </c>
       <c r="F164" s="2">
         <v>3270</v>
       </c>
       <c r="G164" s="4">
-        <v>0.040184942062</v>
+        <v>0.040182648401</v>
       </c>
     </row>
     <row r="165" spans="1:7">
@@ -4177,13 +4177,13 @@
         <v>93.571428571428</v>
       </c>
       <c r="E165" s="2">
-        <v>312918</v>
+        <v>312964</v>
       </c>
       <c r="F165" s="2">
         <v>2490</v>
       </c>
       <c r="G165" s="4">
-        <v>0.038065903411</v>
+        <v>0.038063691306</v>
       </c>
     </row>
     <row r="166" spans="1:7">
@@ -4200,13 +4200,13 @@
         <v>91.142857142857</v>
       </c>
       <c r="E166" s="2">
-        <v>314312</v>
+        <v>314358</v>
       </c>
       <c r="F166" s="2">
         <v>1394</v>
       </c>
       <c r="G166" s="4">
-        <v>0.036953373877</v>
+        <v>0.036951233638</v>
       </c>
     </row>
     <row r="167" spans="1:7">
@@ -4214,22 +4214,22 @@
         <v>44087</v>
       </c>
       <c r="B167" s="2">
-        <v>15721</v>
+        <v>15722</v>
       </c>
       <c r="C167" s="2">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D167" s="3">
-        <v>88</v>
+        <v>88.142857142857</v>
       </c>
       <c r="E167" s="2">
-        <v>315153</v>
+        <v>315200</v>
       </c>
       <c r="F167" s="2">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="G167" s="4">
-        <v>0.036192714453</v>
+        <v>0.036247209493</v>
       </c>
     </row>
     <row r="168" spans="1:7">
@@ -4237,22 +4237,22 @@
         <v>44088</v>
       </c>
       <c r="B168" s="2">
-        <v>15820</v>
+        <v>15822</v>
       </c>
       <c r="C168" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D168" s="3">
-        <v>92.428571428571</v>
+        <v>92.714285714285</v>
       </c>
       <c r="E168" s="2">
-        <v>318529</v>
+        <v>318578</v>
       </c>
       <c r="F168" s="2">
-        <v>3376</v>
+        <v>3378</v>
       </c>
       <c r="G168" s="4">
-        <v>0.033792959364</v>
+        <v>0.033890339425</v>
       </c>
     </row>
     <row r="169" spans="1:7">
@@ -4260,22 +4260,22 @@
         <v>44089</v>
       </c>
       <c r="B169" s="2">
-        <v>15951</v>
+        <v>15953</v>
       </c>
       <c r="C169" s="2">
         <v>131</v>
       </c>
       <c r="D169" s="3">
-        <v>90.571428571428</v>
+        <v>90.85714285714199</v>
       </c>
       <c r="E169" s="2">
-        <v>322482</v>
+        <v>322531</v>
       </c>
       <c r="F169" s="2">
         <v>3953</v>
       </c>
       <c r="G169" s="4">
-        <v>0.03367146423</v>
+        <v>0.033772302463</v>
       </c>
     </row>
     <row r="170" spans="1:7">
@@ -4283,22 +4283,22 @@
         <v>44090</v>
       </c>
       <c r="B170" s="2">
-        <v>16037</v>
+        <v>16039</v>
       </c>
       <c r="C170" s="2">
         <v>86</v>
       </c>
       <c r="D170" s="3">
-        <v>81.428571428571</v>
+        <v>81.714285714285</v>
       </c>
       <c r="E170" s="2">
-        <v>325771</v>
+        <v>325821</v>
       </c>
       <c r="F170" s="2">
-        <v>3289</v>
+        <v>3290</v>
       </c>
       <c r="G170" s="4">
-        <v>0.030623757588</v>
+        <v>0.030724606542</v>
       </c>
     </row>
     <row r="171" spans="1:7">
@@ -4306,22 +4306,22 @@
         <v>44091</v>
       </c>
       <c r="B171" s="2">
-        <v>16140</v>
+        <v>16142</v>
       </c>
       <c r="C171" s="2">
         <v>103</v>
       </c>
       <c r="D171" s="3">
-        <v>81.571428571428</v>
+        <v>81.85714285714199</v>
       </c>
       <c r="E171" s="2">
-        <v>329370</v>
+        <v>329420</v>
       </c>
       <c r="F171" s="2">
         <v>3599</v>
       </c>
       <c r="G171" s="4">
-        <v>0.030144652095</v>
+        <v>0.030243850944</v>
       </c>
     </row>
     <row r="172" spans="1:7">
@@ -4329,22 +4329,22 @@
         <v>44092</v>
       </c>
       <c r="B172" s="2">
-        <v>16244</v>
+        <v>16246</v>
       </c>
       <c r="C172" s="2">
         <v>104</v>
       </c>
       <c r="D172" s="3">
-        <v>86.142857142857</v>
+        <v>86.428571428571</v>
       </c>
       <c r="E172" s="2">
-        <v>332636</v>
+        <v>332687</v>
       </c>
       <c r="F172" s="2">
-        <v>3266</v>
+        <v>3267</v>
       </c>
       <c r="G172" s="4">
-        <v>0.030581194847</v>
+        <v>0.030674846625</v>
       </c>
     </row>
     <row r="173" spans="1:7">
@@ -4352,22 +4352,22 @@
         <v>44093</v>
       </c>
       <c r="B173" s="2">
-        <v>16316</v>
+        <v>16318</v>
       </c>
       <c r="C173" s="2">
         <v>72</v>
       </c>
       <c r="D173" s="3">
-        <v>89.428571428571</v>
+        <v>89.714285714285</v>
       </c>
       <c r="E173" s="2">
-        <v>334151</v>
+        <v>334202</v>
       </c>
       <c r="F173" s="2">
         <v>1515</v>
       </c>
       <c r="G173" s="4">
-        <v>0.031554009778</v>
+        <v>0.031646845394</v>
       </c>
     </row>
     <row r="174" spans="1:7">
@@ -4375,22 +4375,22 @@
         <v>44094</v>
       </c>
       <c r="B174" s="2">
-        <v>16358</v>
+        <v>16360</v>
       </c>
       <c r="C174" s="2">
         <v>42</v>
       </c>
       <c r="D174" s="3">
-        <v>91</v>
+        <v>91.142857142857</v>
       </c>
       <c r="E174" s="2">
-        <v>335302</v>
+        <v>335353</v>
       </c>
       <c r="F174" s="2">
         <v>1151</v>
       </c>
       <c r="G174" s="4">
-        <v>0.031614472182</v>
+        <v>0.031657817694</v>
       </c>
     </row>
     <row r="175" spans="1:7">
@@ -4398,7 +4398,7 @@
         <v>44095</v>
       </c>
       <c r="B175" s="2">
-        <v>16501</v>
+        <v>16503</v>
       </c>
       <c r="C175" s="2">
         <v>143</v>
@@ -4407,13 +4407,13 @@
         <v>97.28571428571399</v>
       </c>
       <c r="E175" s="2">
-        <v>339641</v>
+        <v>339693</v>
       </c>
       <c r="F175" s="2">
-        <v>4339</v>
+        <v>4340</v>
       </c>
       <c r="G175" s="4">
-        <v>0.032256536566</v>
+        <v>0.032251953587</v>
       </c>
     </row>
     <row r="176" spans="1:7">
@@ -4421,7 +4421,7 @@
         <v>44096</v>
       </c>
       <c r="B176" s="2">
-        <v>16600</v>
+        <v>16602</v>
       </c>
       <c r="C176" s="2">
         <v>99</v>
@@ -4430,13 +4430,13 @@
         <v>92.714285714285</v>
       </c>
       <c r="E176" s="2">
-        <v>343391</v>
+        <v>343443</v>
       </c>
       <c r="F176" s="2">
         <v>3750</v>
       </c>
       <c r="G176" s="4">
-        <v>0.031039265388</v>
+        <v>0.031034812547</v>
       </c>
     </row>
     <row r="177" spans="1:7">
@@ -4444,7 +4444,7 @@
         <v>44097</v>
       </c>
       <c r="B177" s="2">
-        <v>16694</v>
+        <v>16696</v>
       </c>
       <c r="C177" s="2">
         <v>94</v>
@@ -4453,13 +4453,13 @@
         <v>93.85714285714199</v>
       </c>
       <c r="E177" s="2">
-        <v>346866</v>
+        <v>346918</v>
       </c>
       <c r="F177" s="2">
         <v>3475</v>
       </c>
       <c r="G177" s="4">
-        <v>0.031144821047</v>
+        <v>0.031141868512</v>
       </c>
     </row>
     <row r="178" spans="1:7">
@@ -4467,22 +4467,22 @@
         <v>44098</v>
       </c>
       <c r="B178" s="2">
-        <v>16786</v>
+        <v>16787</v>
       </c>
       <c r="C178" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D178" s="3">
-        <v>92.28571428571399</v>
+        <v>92.142857142857</v>
       </c>
       <c r="E178" s="2">
-        <v>350567</v>
+        <v>350618</v>
       </c>
       <c r="F178" s="2">
-        <v>3701</v>
+        <v>3700</v>
       </c>
       <c r="G178" s="4">
-        <v>0.030476010756</v>
+        <v>0.030427398811</v>
       </c>
     </row>
     <row r="179" spans="1:7">
@@ -4490,22 +4490,22 @@
         <v>44099</v>
       </c>
       <c r="B179" s="2">
-        <v>16874</v>
+        <v>16876</v>
       </c>
       <c r="C179" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D179" s="3">
         <v>90</v>
       </c>
       <c r="E179" s="2">
-        <v>353845</v>
+        <v>353897</v>
       </c>
       <c r="F179" s="2">
-        <v>3278</v>
+        <v>3279</v>
       </c>
       <c r="G179" s="4">
-        <v>0.029704370785</v>
+        <v>0.029702970297</v>
       </c>
     </row>
     <row r="180" spans="1:7">
@@ -4513,7 +4513,7 @@
         <v>44100</v>
       </c>
       <c r="B180" s="2">
-        <v>16933</v>
+        <v>16935</v>
       </c>
       <c r="C180" s="2">
         <v>59</v>
@@ -4522,13 +4522,13 @@
         <v>88.142857142857</v>
       </c>
       <c r="E180" s="2">
-        <v>355703</v>
+        <v>355756</v>
       </c>
       <c r="F180" s="2">
-        <v>1858</v>
+        <v>1859</v>
       </c>
       <c r="G180" s="4">
-        <v>0.028628433556</v>
+        <v>0.028625777117</v>
       </c>
     </row>
     <row r="181" spans="1:7">
@@ -4536,22 +4536,45 @@
         <v>44101</v>
       </c>
       <c r="B181" s="2">
-        <v>16955</v>
+        <v>16956</v>
       </c>
       <c r="C181" s="2">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D181" s="3">
-        <v>85.28571428571399</v>
+        <v>85.142857142857</v>
       </c>
       <c r="E181" s="2">
-        <v>356817</v>
+        <v>356869</v>
       </c>
       <c r="F181" s="2">
-        <v>1114</v>
+        <v>1113</v>
       </c>
       <c r="G181" s="4">
-        <v>0.027748082732</v>
+        <v>0.027700316043</v>
+      </c>
+    </row>
+    <row r="182" spans="1:7">
+      <c r="A182" s="1">
+        <v>44102</v>
+      </c>
+      <c r="B182" s="2">
+        <v>17068</v>
+      </c>
+      <c r="C182" s="2">
+        <v>112</v>
+      </c>
+      <c r="D182" s="3">
+        <v>80.714285714285</v>
+      </c>
+      <c r="E182" s="2">
+        <v>360904</v>
+      </c>
+      <c r="F182" s="2">
+        <v>4035</v>
+      </c>
+      <c r="G182" s="4">
+        <v>0.026637122247</v>
       </c>
     </row>
   </sheetData>

--- a/contra_costa_county_testing.xlsx
+++ b/contra_costa_county_testing.xlsx
@@ -376,7 +376,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G182"/>
+  <dimension ref="A1:G183"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1256,13 +1256,13 @@
         <v>14.285714285714</v>
       </c>
       <c r="E38" s="2">
-        <v>21233</v>
+        <v>21235</v>
       </c>
       <c r="F38" s="2">
-        <v>894</v>
+        <v>896</v>
       </c>
       <c r="G38" s="4">
-        <v>0.021734405564</v>
+        <v>0.021724961981</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -1279,13 +1279,13 @@
         <v>15.142857142857</v>
       </c>
       <c r="E39" s="2">
-        <v>22375</v>
+        <v>22377</v>
       </c>
       <c r="F39" s="2">
         <v>1142</v>
       </c>
       <c r="G39" s="4">
-        <v>0.021153462382</v>
+        <v>0.02114502294</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -1302,13 +1302,13 @@
         <v>14.571428571428</v>
       </c>
       <c r="E40" s="2">
-        <v>22757</v>
+        <v>22759</v>
       </c>
       <c r="F40" s="2">
         <v>382</v>
       </c>
       <c r="G40" s="4">
-        <v>0.019976498237</v>
+        <v>0.019968676585</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -1325,13 +1325,13 @@
         <v>15</v>
       </c>
       <c r="E41" s="2">
-        <v>23101</v>
+        <v>23103</v>
       </c>
       <c r="F41" s="2">
         <v>344</v>
       </c>
       <c r="G41" s="4">
-        <v>0.020246818357</v>
+        <v>0.020239013107</v>
       </c>
     </row>
     <row r="42" spans="1:7">
@@ -1348,13 +1348,13 @@
         <v>13</v>
       </c>
       <c r="E42" s="2">
-        <v>24202</v>
+        <v>24204</v>
       </c>
       <c r="F42" s="2">
         <v>1101</v>
       </c>
       <c r="G42" s="4">
-        <v>0.016518424396</v>
+        <v>0.016512429686</v>
       </c>
     </row>
     <row r="43" spans="1:7">
@@ -1371,13 +1371,13 @@
         <v>12.285714285714</v>
       </c>
       <c r="E43" s="2">
-        <v>25433</v>
+        <v>25435</v>
       </c>
       <c r="F43" s="2">
         <v>1231</v>
       </c>
       <c r="G43" s="4">
-        <v>0.014193761346</v>
+        <v>0.014189077709</v>
       </c>
     </row>
     <row r="44" spans="1:7">
@@ -1394,13 +1394,13 @@
         <v>12.857142857142</v>
       </c>
       <c r="E44" s="2">
-        <v>26532</v>
+        <v>26534</v>
       </c>
       <c r="F44" s="2">
         <v>1099</v>
       </c>
       <c r="G44" s="4">
-        <v>0.014532536735</v>
+        <v>0.014527845036</v>
       </c>
     </row>
     <row r="45" spans="1:7">
@@ -1417,7 +1417,7 @@
         <v>14</v>
       </c>
       <c r="E45" s="2">
-        <v>27385</v>
+        <v>27387</v>
       </c>
       <c r="F45" s="2">
         <v>853</v>
@@ -1440,7 +1440,7 @@
         <v>15.714285714285</v>
       </c>
       <c r="E46" s="2">
-        <v>28303</v>
+        <v>28305</v>
       </c>
       <c r="F46" s="2">
         <v>918</v>
@@ -1463,7 +1463,7 @@
         <v>17.571428571428</v>
       </c>
       <c r="E47" s="2">
-        <v>28712</v>
+        <v>28714</v>
       </c>
       <c r="F47" s="2">
         <v>409</v>
@@ -1486,13 +1486,13 @@
         <v>18</v>
       </c>
       <c r="E48" s="2">
-        <v>29106</v>
+        <v>29107</v>
       </c>
       <c r="F48" s="2">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="G48" s="4">
-        <v>0.020982514571</v>
+        <v>0.020986009327</v>
       </c>
     </row>
     <row r="49" spans="1:7">
@@ -1512,10 +1512,10 @@
         <v>30470</v>
       </c>
       <c r="F49" s="2">
-        <v>1364</v>
+        <v>1363</v>
       </c>
       <c r="G49" s="4">
-        <v>0.025047862156</v>
+        <v>0.025055857006</v>
       </c>
     </row>
     <row r="50" spans="1:7">
@@ -1538,7 +1538,7 @@
         <v>1660</v>
       </c>
       <c r="G50" s="4">
-        <v>0.026877706435</v>
+        <v>0.026885735623</v>
       </c>
     </row>
     <row r="51" spans="1:7">
@@ -1561,7 +1561,7 @@
         <v>1137</v>
       </c>
       <c r="G51" s="4">
-        <v>0.027171492204</v>
+        <v>0.027179563344</v>
       </c>
     </row>
     <row r="52" spans="1:7">
@@ -1578,13 +1578,13 @@
         <v>27.428571428571</v>
       </c>
       <c r="E52" s="2">
-        <v>34401</v>
+        <v>34399</v>
       </c>
       <c r="F52" s="2">
-        <v>1134</v>
+        <v>1132</v>
       </c>
       <c r="G52" s="4">
-        <v>0.027366020524</v>
+        <v>0.027381631488</v>
       </c>
     </row>
     <row r="53" spans="1:7">
@@ -1601,13 +1601,13 @@
         <v>29.142857142857</v>
       </c>
       <c r="E53" s="2">
-        <v>35489</v>
+        <v>35487</v>
       </c>
       <c r="F53" s="2">
         <v>1088</v>
       </c>
       <c r="G53" s="4">
-        <v>0.028388533259</v>
+        <v>0.028404344193</v>
       </c>
     </row>
     <row r="54" spans="1:7">
@@ -1624,13 +1624,13 @@
         <v>28</v>
       </c>
       <c r="E54" s="2">
-        <v>36007</v>
+        <v>36005</v>
       </c>
       <c r="F54" s="2">
         <v>518</v>
       </c>
       <c r="G54" s="4">
-        <v>0.026867717614</v>
+        <v>0.026882457824</v>
       </c>
     </row>
     <row r="55" spans="1:7">
@@ -1647,13 +1647,13 @@
         <v>27.571428571428</v>
       </c>
       <c r="E55" s="2">
-        <v>36403</v>
+        <v>36400</v>
       </c>
       <c r="F55" s="2">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="G55" s="4">
-        <v>0.026449225709</v>
+        <v>0.026463732346</v>
       </c>
     </row>
     <row r="56" spans="1:7">
@@ -1670,13 +1670,13 @@
         <v>23.285714285714</v>
       </c>
       <c r="E56" s="2">
-        <v>36870</v>
+        <v>36866</v>
       </c>
       <c r="F56" s="2">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="G56" s="4">
-        <v>0.02546875</v>
+        <v>0.025484677923</v>
       </c>
     </row>
     <row r="57" spans="1:7">
@@ -1693,13 +1693,13 @@
         <v>23.714285714285</v>
       </c>
       <c r="E57" s="2">
-        <v>38066</v>
+        <v>38062</v>
       </c>
       <c r="F57" s="2">
         <v>1196</v>
       </c>
       <c r="G57" s="4">
-        <v>0.027964959568</v>
+        <v>0.027983816587</v>
       </c>
     </row>
     <row r="58" spans="1:7">
@@ -1716,13 +1716,13 @@
         <v>23.714285714285</v>
       </c>
       <c r="E58" s="2">
-        <v>39182</v>
+        <v>39178</v>
       </c>
       <c r="F58" s="2">
         <v>1116</v>
       </c>
       <c r="G58" s="4">
-        <v>0.028064243448</v>
+        <v>0.028083234647</v>
       </c>
     </row>
     <row r="59" spans="1:7">
@@ -1739,13 +1739,13 @@
         <v>26.285714285714</v>
       </c>
       <c r="E59" s="2">
-        <v>40317</v>
+        <v>40314</v>
       </c>
       <c r="F59" s="2">
-        <v>1135</v>
+        <v>1136</v>
       </c>
       <c r="G59" s="4">
-        <v>0.03110209601</v>
+        <v>0.031107354184</v>
       </c>
     </row>
     <row r="60" spans="1:7">
@@ -1762,13 +1762,13 @@
         <v>26.571428571428</v>
       </c>
       <c r="E60" s="2">
-        <v>41720</v>
+        <v>41717</v>
       </c>
       <c r="F60" s="2">
         <v>1403</v>
       </c>
       <c r="G60" s="4">
-        <v>0.029850746268</v>
+        <v>0.02985553772</v>
       </c>
     </row>
     <row r="61" spans="1:7">
@@ -1785,13 +1785,13 @@
         <v>26.285714285714</v>
       </c>
       <c r="E61" s="2">
-        <v>42452</v>
+        <v>42449</v>
       </c>
       <c r="F61" s="2">
         <v>732</v>
       </c>
       <c r="G61" s="4">
-        <v>0.028549262994</v>
+        <v>0.028553693358</v>
       </c>
     </row>
     <row r="62" spans="1:7">
@@ -1808,7 +1808,7 @@
         <v>26</v>
       </c>
       <c r="E62" s="2">
-        <v>42849</v>
+        <v>42846</v>
       </c>
       <c r="F62" s="2">
         <v>397</v>
@@ -1831,13 +1831,13 @@
         <v>29.285714285714</v>
       </c>
       <c r="E63" s="2">
-        <v>44223</v>
+        <v>44220</v>
       </c>
       <c r="F63" s="2">
         <v>1374</v>
       </c>
       <c r="G63" s="4">
-        <v>0.027879776961</v>
+        <v>0.027875985858</v>
       </c>
     </row>
     <row r="64" spans="1:7">
@@ -1854,13 +1854,13 @@
         <v>28.285714285714</v>
       </c>
       <c r="E64" s="2">
-        <v>45439</v>
+        <v>45436</v>
       </c>
       <c r="F64" s="2">
         <v>1216</v>
       </c>
       <c r="G64" s="4">
-        <v>0.026854740268</v>
+        <v>0.026851098454</v>
       </c>
     </row>
     <row r="65" spans="1:7">
@@ -1877,13 +1877,13 @@
         <v>27.857142857142</v>
       </c>
       <c r="E65" s="2">
-        <v>46596</v>
+        <v>46593</v>
       </c>
       <c r="F65" s="2">
         <v>1157</v>
       </c>
       <c r="G65" s="4">
-        <v>0.026301591583</v>
+        <v>0.026298044504</v>
       </c>
     </row>
     <row r="66" spans="1:7">
@@ -1900,7 +1900,7 @@
         <v>28.428571428571</v>
       </c>
       <c r="E66" s="2">
-        <v>47945</v>
+        <v>47942</v>
       </c>
       <c r="F66" s="2">
         <v>1349</v>
@@ -1923,13 +1923,13 @@
         <v>29.142857142857</v>
       </c>
       <c r="E67" s="2">
-        <v>49578</v>
+        <v>49574</v>
       </c>
       <c r="F67" s="2">
-        <v>1633</v>
+        <v>1632</v>
       </c>
       <c r="G67" s="4">
-        <v>0.025960804275</v>
+        <v>0.025964108438</v>
       </c>
     </row>
     <row r="68" spans="1:7">
@@ -1946,13 +1946,13 @@
         <v>30.428571428571</v>
       </c>
       <c r="E68" s="2">
-        <v>50183</v>
+        <v>50179</v>
       </c>
       <c r="F68" s="2">
         <v>605</v>
       </c>
       <c r="G68" s="4">
-        <v>0.027551416375</v>
+        <v>0.027554980595</v>
       </c>
     </row>
     <row r="69" spans="1:7">
@@ -1969,13 +1969,13 @@
         <v>32.285714285714</v>
       </c>
       <c r="E69" s="2">
-        <v>50668</v>
+        <v>50664</v>
       </c>
       <c r="F69" s="2">
         <v>485</v>
       </c>
       <c r="G69" s="4">
-        <v>0.028903951912</v>
+        <v>0.028907649015</v>
       </c>
     </row>
     <row r="70" spans="1:7">
@@ -1992,13 +1992,13 @@
         <v>34.571428571428</v>
       </c>
       <c r="E70" s="2">
-        <v>52506</v>
+        <v>52502</v>
       </c>
       <c r="F70" s="2">
         <v>1838</v>
       </c>
       <c r="G70" s="4">
-        <v>0.029216467463</v>
+        <v>0.02921999517</v>
       </c>
     </row>
     <row r="71" spans="1:7">
@@ -2015,13 +2015,13 @@
         <v>36.285714285714</v>
       </c>
       <c r="E71" s="2">
-        <v>54356</v>
+        <v>54352</v>
       </c>
       <c r="F71" s="2">
         <v>1850</v>
       </c>
       <c r="G71" s="4">
-        <v>0.028484916451</v>
+        <v>0.02848811126</v>
       </c>
     </row>
     <row r="72" spans="1:7">
@@ -2038,13 +2038,13 @@
         <v>39.857142857142</v>
       </c>
       <c r="E72" s="2">
-        <v>56347</v>
+        <v>56343</v>
       </c>
       <c r="F72" s="2">
         <v>1991</v>
       </c>
       <c r="G72" s="4">
-        <v>0.028612450005</v>
+        <v>0.028615384615</v>
       </c>
     </row>
     <row r="73" spans="1:7">
@@ -2061,13 +2061,13 @@
         <v>40.285714285714</v>
       </c>
       <c r="E73" s="2">
-        <v>58488</v>
+        <v>58484</v>
       </c>
       <c r="F73" s="2">
         <v>2141</v>
       </c>
       <c r="G73" s="4">
-        <v>0.026747605046</v>
+        <v>0.026750142287</v>
       </c>
     </row>
     <row r="74" spans="1:7">
@@ -2084,7 +2084,7 @@
         <v>41.857142857142</v>
       </c>
       <c r="E74" s="2">
-        <v>60732</v>
+        <v>60728</v>
       </c>
       <c r="F74" s="2">
         <v>2244</v>
@@ -2107,7 +2107,7 @@
         <v>44.142857142857</v>
       </c>
       <c r="E75" s="2">
-        <v>61570</v>
+        <v>61566</v>
       </c>
       <c r="F75" s="2">
         <v>838</v>
@@ -2130,7 +2130,7 @@
         <v>45.428571428571</v>
       </c>
       <c r="E76" s="2">
-        <v>62153</v>
+        <v>62149</v>
       </c>
       <c r="F76" s="2">
         <v>583</v>
@@ -2153,7 +2153,7 @@
         <v>46.714285714285</v>
       </c>
       <c r="E77" s="2">
-        <v>64369</v>
+        <v>64365</v>
       </c>
       <c r="F77" s="2">
         <v>2216</v>
@@ -2176,7 +2176,7 @@
         <v>52.571428571428</v>
       </c>
       <c r="E78" s="2">
-        <v>66890</v>
+        <v>66886</v>
       </c>
       <c r="F78" s="2">
         <v>2521</v>
@@ -2199,7 +2199,7 @@
         <v>57.285714285714</v>
       </c>
       <c r="E79" s="2">
-        <v>69461</v>
+        <v>69457</v>
       </c>
       <c r="F79" s="2">
         <v>2571</v>
@@ -2222,7 +2222,7 @@
         <v>62.57142857142801</v>
       </c>
       <c r="E80" s="2">
-        <v>71986</v>
+        <v>71982</v>
       </c>
       <c r="F80" s="2">
         <v>2525</v>
@@ -2245,7 +2245,7 @@
         <v>68.85714285714199</v>
       </c>
       <c r="E81" s="2">
-        <v>74429</v>
+        <v>74425</v>
       </c>
       <c r="F81" s="2">
         <v>2443</v>
@@ -2268,7 +2268,7 @@
         <v>71.428571428571</v>
       </c>
       <c r="E82" s="2">
-        <v>75381</v>
+        <v>75377</v>
       </c>
       <c r="F82" s="2">
         <v>952</v>
@@ -2291,7 +2291,7 @@
         <v>73.28571428571399</v>
       </c>
       <c r="E83" s="2">
-        <v>76078</v>
+        <v>76074</v>
       </c>
       <c r="F83" s="2">
         <v>697</v>
@@ -2314,7 +2314,7 @@
         <v>81</v>
       </c>
       <c r="E84" s="2">
-        <v>78698</v>
+        <v>78694</v>
       </c>
       <c r="F84" s="2">
         <v>2620</v>
@@ -2337,7 +2337,7 @@
         <v>88</v>
       </c>
       <c r="E85" s="2">
-        <v>81483</v>
+        <v>81479</v>
       </c>
       <c r="F85" s="2">
         <v>2785</v>
@@ -2360,7 +2360,7 @@
         <v>96</v>
       </c>
       <c r="E86" s="2">
-        <v>84511</v>
+        <v>84507</v>
       </c>
       <c r="F86" s="2">
         <v>3028</v>
@@ -2383,7 +2383,7 @@
         <v>104.714285714285</v>
       </c>
       <c r="E87" s="2">
-        <v>87869</v>
+        <v>87865</v>
       </c>
       <c r="F87" s="2">
         <v>3358</v>
@@ -2406,7 +2406,7 @@
         <v>114.285714285714</v>
       </c>
       <c r="E88" s="2">
-        <v>90835</v>
+        <v>90831</v>
       </c>
       <c r="F88" s="2">
         <v>2966</v>
@@ -2429,7 +2429,7 @@
         <v>118.285714285714</v>
       </c>
       <c r="E89" s="2">
-        <v>91909</v>
+        <v>91905</v>
       </c>
       <c r="F89" s="2">
         <v>1074</v>
@@ -2452,7 +2452,7 @@
         <v>121</v>
       </c>
       <c r="E90" s="2">
-        <v>92704</v>
+        <v>92700</v>
       </c>
       <c r="F90" s="2">
         <v>795</v>
@@ -2475,7 +2475,7 @@
         <v>133.285714285714</v>
       </c>
       <c r="E91" s="2">
-        <v>96388</v>
+        <v>96384</v>
       </c>
       <c r="F91" s="2">
         <v>3684</v>
@@ -2498,7 +2498,7 @@
         <v>136.857142857142</v>
       </c>
       <c r="E92" s="2">
-        <v>99864</v>
+        <v>99860</v>
       </c>
       <c r="F92" s="2">
         <v>3476</v>
@@ -2521,7 +2521,7 @@
         <v>141.142857142857</v>
       </c>
       <c r="E93" s="2">
-        <v>103402</v>
+        <v>103398</v>
       </c>
       <c r="F93" s="2">
         <v>3538</v>
@@ -2544,7 +2544,7 @@
         <v>149.714285714285</v>
       </c>
       <c r="E94" s="2">
-        <v>107323</v>
+        <v>107319</v>
       </c>
       <c r="F94" s="2">
         <v>3921</v>
@@ -2567,7 +2567,7 @@
         <v>146</v>
       </c>
       <c r="E95" s="2">
-        <v>109963</v>
+        <v>109959</v>
       </c>
       <c r="F95" s="2">
         <v>2640</v>
@@ -2590,7 +2590,7 @@
         <v>147.857142857142</v>
       </c>
       <c r="E96" s="2">
-        <v>111080</v>
+        <v>111076</v>
       </c>
       <c r="F96" s="2">
         <v>1117</v>
@@ -2613,7 +2613,7 @@
         <v>151.714285714285</v>
       </c>
       <c r="E97" s="2">
-        <v>112209</v>
+        <v>112205</v>
       </c>
       <c r="F97" s="2">
         <v>1129</v>
@@ -2636,7 +2636,7 @@
         <v>152.714285714285</v>
       </c>
       <c r="E98" s="2">
-        <v>116278</v>
+        <v>116274</v>
       </c>
       <c r="F98" s="2">
         <v>4069</v>
@@ -2659,7 +2659,7 @@
         <v>161</v>
       </c>
       <c r="E99" s="2">
-        <v>120350</v>
+        <v>120346</v>
       </c>
       <c r="F99" s="2">
         <v>4072</v>
@@ -2682,13 +2682,13 @@
         <v>168.428571428571</v>
       </c>
       <c r="E100" s="2">
-        <v>124605</v>
+        <v>124602</v>
       </c>
       <c r="F100" s="2">
-        <v>4255</v>
+        <v>4256</v>
       </c>
       <c r="G100" s="4">
-        <v>0.055605338867</v>
+        <v>0.055602716468</v>
       </c>
     </row>
     <row r="101" spans="1:7">
@@ -2705,13 +2705,13 @@
         <v>174.285714285714</v>
       </c>
       <c r="E101" s="2">
-        <v>129202</v>
+        <v>129199</v>
       </c>
       <c r="F101" s="2">
         <v>4597</v>
       </c>
       <c r="G101" s="4">
-        <v>0.055761232231</v>
+        <v>0.055758683729</v>
       </c>
     </row>
     <row r="102" spans="1:7">
@@ -2728,13 +2728,13 @@
         <v>189.142857142857</v>
       </c>
       <c r="E102" s="2">
-        <v>133664</v>
+        <v>133661</v>
       </c>
       <c r="F102" s="2">
         <v>4462</v>
       </c>
       <c r="G102" s="4">
-        <v>0.05586262183</v>
+        <v>0.055860264956</v>
       </c>
     </row>
     <row r="103" spans="1:7">
@@ -2751,13 +2751,13 @@
         <v>195.857142857142</v>
       </c>
       <c r="E103" s="2">
-        <v>135733</v>
+        <v>135730</v>
       </c>
       <c r="F103" s="2">
         <v>2069</v>
       </c>
       <c r="G103" s="4">
-        <v>0.055611893075</v>
+        <v>0.055609637381</v>
       </c>
     </row>
     <row r="104" spans="1:7">
@@ -2774,13 +2774,13 @@
         <v>198</v>
       </c>
       <c r="E104" s="2">
-        <v>137058</v>
+        <v>137055</v>
       </c>
       <c r="F104" s="2">
         <v>1325</v>
       </c>
       <c r="G104" s="4">
-        <v>0.05577689243</v>
+        <v>0.055774647887</v>
       </c>
     </row>
     <row r="105" spans="1:7">
@@ -2797,13 +2797,13 @@
         <v>206.142857142857</v>
       </c>
       <c r="E105" s="2">
-        <v>141656</v>
+        <v>141654</v>
       </c>
       <c r="F105" s="2">
-        <v>4598</v>
+        <v>4599</v>
       </c>
       <c r="G105" s="4">
-        <v>0.056860272677</v>
+        <v>0.056855791962</v>
       </c>
     </row>
     <row r="106" spans="1:7">
@@ -2820,13 +2820,13 @@
         <v>211.428571428571</v>
       </c>
       <c r="E106" s="2">
-        <v>145408</v>
+        <v>145407</v>
       </c>
       <c r="F106" s="2">
-        <v>3752</v>
+        <v>3753</v>
       </c>
       <c r="G106" s="4">
-        <v>0.0590629739</v>
+        <v>0.059055903595</v>
       </c>
     </row>
     <row r="107" spans="1:7">
@@ -2843,13 +2843,13 @@
         <v>216.428571428571</v>
       </c>
       <c r="E107" s="2">
-        <v>149749</v>
+        <v>149748</v>
       </c>
       <c r="F107" s="2">
         <v>4341</v>
       </c>
       <c r="G107" s="4">
-        <v>0.060252943048</v>
+        <v>0.060248150799</v>
       </c>
     </row>
     <row r="108" spans="1:7">
@@ -2866,13 +2866,13 @@
         <v>216.714285714285</v>
       </c>
       <c r="E108" s="2">
-        <v>153931</v>
+        <v>153930</v>
       </c>
       <c r="F108" s="2">
         <v>4182</v>
       </c>
       <c r="G108" s="4">
-        <v>0.061344979578</v>
+        <v>0.0613400186</v>
       </c>
     </row>
     <row r="109" spans="1:7">
@@ -2889,13 +2889,13 @@
         <v>217.428571428571</v>
       </c>
       <c r="E109" s="2">
-        <v>158131</v>
+        <v>158130</v>
       </c>
       <c r="F109" s="2">
         <v>4200</v>
       </c>
       <c r="G109" s="4">
-        <v>0.062206236972</v>
+        <v>0.062201152478</v>
       </c>
     </row>
     <row r="110" spans="1:7">
@@ -2912,13 +2912,13 @@
         <v>215.857142857142</v>
       </c>
       <c r="E110" s="2">
-        <v>160353</v>
+        <v>160352</v>
       </c>
       <c r="F110" s="2">
         <v>2222</v>
       </c>
       <c r="G110" s="4">
-        <v>0.061372867587</v>
+        <v>0.061367882381</v>
       </c>
     </row>
     <row r="111" spans="1:7">
@@ -2935,13 +2935,13 @@
         <v>215.714285714285</v>
       </c>
       <c r="E111" s="2">
-        <v>161610</v>
+        <v>161609</v>
       </c>
       <c r="F111" s="2">
         <v>1257</v>
       </c>
       <c r="G111" s="4">
-        <v>0.061502117953</v>
+        <v>0.061497108414</v>
       </c>
     </row>
     <row r="112" spans="1:7">
@@ -2958,13 +2958,13 @@
         <v>220</v>
       </c>
       <c r="E112" s="2">
-        <v>165844</v>
+        <v>165849</v>
       </c>
       <c r="F112" s="2">
-        <v>4234</v>
+        <v>4240</v>
       </c>
       <c r="G112" s="4">
-        <v>0.06366793451199999</v>
+        <v>0.063649514362</v>
       </c>
     </row>
     <row r="113" spans="1:7">
@@ -2981,13 +2981,13 @@
         <v>218.428571428571</v>
       </c>
       <c r="E113" s="2">
-        <v>169662</v>
+        <v>169674</v>
       </c>
       <c r="F113" s="2">
-        <v>3818</v>
+        <v>3825</v>
       </c>
       <c r="G113" s="4">
-        <v>0.063041147851</v>
+        <v>0.063007376272</v>
       </c>
     </row>
     <row r="114" spans="1:7">
@@ -3004,13 +3004,13 @@
         <v>217.142857142857</v>
       </c>
       <c r="E114" s="2">
-        <v>173312</v>
+        <v>173327</v>
       </c>
       <c r="F114" s="2">
-        <v>3650</v>
+        <v>3653</v>
       </c>
       <c r="G114" s="4">
-        <v>0.064507914951</v>
+        <v>0.06446414182100001</v>
       </c>
     </row>
     <row r="115" spans="1:7">
@@ -3027,13 +3027,13 @@
         <v>213.714285714285</v>
       </c>
       <c r="E115" s="2">
-        <v>176632</v>
+        <v>176647</v>
       </c>
       <c r="F115" s="2">
         <v>3320</v>
       </c>
       <c r="G115" s="4">
-        <v>0.065900180608</v>
+        <v>0.065853765902</v>
       </c>
     </row>
     <row r="116" spans="1:7">
@@ -3050,13 +3050,13 @@
         <v>209</v>
       </c>
       <c r="E116" s="2">
-        <v>180263</v>
+        <v>180278</v>
       </c>
       <c r="F116" s="2">
         <v>3631</v>
       </c>
       <c r="G116" s="4">
-        <v>0.066103379721</v>
+        <v>0.06605562579</v>
       </c>
     </row>
     <row r="117" spans="1:7">
@@ -3073,13 +3073,13 @@
         <v>206.285714285714</v>
       </c>
       <c r="E117" s="2">
-        <v>181880</v>
+        <v>181895</v>
       </c>
       <c r="F117" s="2">
         <v>1617</v>
       </c>
       <c r="G117" s="4">
-        <v>0.067078552515</v>
+        <v>0.067028733231</v>
       </c>
     </row>
     <row r="118" spans="1:7">
@@ -3087,22 +3087,22 @@
         <v>44038</v>
       </c>
       <c r="B118" s="2">
-        <v>8894</v>
+        <v>8895</v>
       </c>
       <c r="C118" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D118" s="3">
-        <v>206.714285714285</v>
+        <v>206.857142857142</v>
       </c>
       <c r="E118" s="2">
-        <v>183133</v>
+        <v>183149</v>
       </c>
       <c r="F118" s="2">
-        <v>1253</v>
+        <v>1254</v>
       </c>
       <c r="G118" s="4">
-        <v>0.067230404683</v>
+        <v>0.06722376972999999</v>
       </c>
     </row>
     <row r="119" spans="1:7">
@@ -3110,22 +3110,22 @@
         <v>44039</v>
       </c>
       <c r="B119" s="2">
-        <v>9136</v>
+        <v>9138</v>
       </c>
       <c r="C119" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="D119" s="3">
-        <v>199.714285714285</v>
+        <v>200</v>
       </c>
       <c r="E119" s="2">
-        <v>187299</v>
+        <v>187316</v>
       </c>
       <c r="F119" s="2">
-        <v>4166</v>
+        <v>4167</v>
       </c>
       <c r="G119" s="4">
-        <v>0.06515963644800001</v>
+        <v>0.065216378627</v>
       </c>
     </row>
     <row r="120" spans="1:7">
@@ -3133,22 +3133,22 @@
         <v>44040</v>
       </c>
       <c r="B120" s="2">
-        <v>9382</v>
+        <v>9384</v>
       </c>
       <c r="C120" s="2">
         <v>246</v>
       </c>
       <c r="D120" s="3">
-        <v>200.285714285714</v>
+        <v>200.571428571428</v>
       </c>
       <c r="E120" s="2">
-        <v>191167</v>
+        <v>191185</v>
       </c>
       <c r="F120" s="2">
-        <v>3868</v>
+        <v>3869</v>
       </c>
       <c r="G120" s="4">
-        <v>0.065194140897</v>
+        <v>0.065268932174</v>
       </c>
     </row>
     <row r="121" spans="1:7">
@@ -3156,22 +3156,22 @@
         <v>44041</v>
       </c>
       <c r="B121" s="2">
-        <v>9631</v>
+        <v>9633</v>
       </c>
       <c r="C121" s="2">
         <v>249</v>
       </c>
       <c r="D121" s="3">
-        <v>200</v>
+        <v>200.285714285714</v>
       </c>
       <c r="E121" s="2">
-        <v>195022</v>
+        <v>195040</v>
       </c>
       <c r="F121" s="2">
         <v>3855</v>
       </c>
       <c r="G121" s="4">
-        <v>0.064486411791</v>
+        <v>0.06456961267399999</v>
       </c>
     </row>
     <row r="122" spans="1:7">
@@ -3179,22 +3179,22 @@
         <v>44042</v>
       </c>
       <c r="B122" s="2">
-        <v>9847</v>
+        <v>9849</v>
       </c>
       <c r="C122" s="2">
         <v>216</v>
       </c>
       <c r="D122" s="3">
-        <v>197.857142857142</v>
+        <v>198.142857142857</v>
       </c>
       <c r="E122" s="2">
-        <v>198690</v>
+        <v>198709</v>
       </c>
       <c r="F122" s="2">
-        <v>3668</v>
+        <v>3669</v>
       </c>
       <c r="G122" s="4">
-        <v>0.062789010789</v>
+        <v>0.0628682803</v>
       </c>
     </row>
     <row r="123" spans="1:7">
@@ -3202,22 +3202,22 @@
         <v>44043</v>
       </c>
       <c r="B123" s="2">
-        <v>10080</v>
+        <v>10082</v>
       </c>
       <c r="C123" s="2">
         <v>233</v>
       </c>
       <c r="D123" s="3">
-        <v>199.857142857142</v>
+        <v>200.142857142857</v>
       </c>
       <c r="E123" s="2">
-        <v>202226</v>
+        <v>202245</v>
       </c>
       <c r="F123" s="2">
         <v>3536</v>
       </c>
       <c r="G123" s="4">
-        <v>0.063698037608</v>
+        <v>0.063777484408</v>
       </c>
     </row>
     <row r="124" spans="1:7">
@@ -3225,22 +3225,22 @@
         <v>44044</v>
       </c>
       <c r="B124" s="2">
-        <v>10187</v>
+        <v>10189</v>
       </c>
       <c r="C124" s="2">
         <v>107</v>
       </c>
       <c r="D124" s="3">
-        <v>199.428571428571</v>
+        <v>199.714285714285</v>
       </c>
       <c r="E124" s="2">
-        <v>203815</v>
+        <v>203834</v>
       </c>
       <c r="F124" s="2">
         <v>1589</v>
       </c>
       <c r="G124" s="4">
-        <v>0.063642580351</v>
+        <v>0.06372213865699999</v>
       </c>
     </row>
     <row r="125" spans="1:7">
@@ -3248,22 +3248,22 @@
         <v>44045</v>
       </c>
       <c r="B125" s="2">
-        <v>10266</v>
+        <v>10268</v>
       </c>
       <c r="C125" s="2">
         <v>79</v>
       </c>
       <c r="D125" s="3">
-        <v>196</v>
+        <v>196.142857142857</v>
       </c>
       <c r="E125" s="2">
-        <v>204938</v>
+        <v>204957</v>
       </c>
       <c r="F125" s="2">
         <v>1123</v>
       </c>
       <c r="G125" s="4">
-        <v>0.06292134831399999</v>
+        <v>0.062958547322</v>
       </c>
     </row>
     <row r="126" spans="1:7">
@@ -3271,7 +3271,7 @@
         <v>44046</v>
       </c>
       <c r="B126" s="2">
-        <v>10519</v>
+        <v>10521</v>
       </c>
       <c r="C126" s="2">
         <v>253</v>
@@ -3280,13 +3280,13 @@
         <v>197.571428571428</v>
       </c>
       <c r="E126" s="2">
-        <v>208733</v>
+        <v>208752</v>
       </c>
       <c r="F126" s="2">
         <v>3795</v>
       </c>
       <c r="G126" s="4">
-        <v>0.064523654007</v>
+        <v>0.064517633886</v>
       </c>
     </row>
     <row r="127" spans="1:7">
@@ -3294,7 +3294,7 @@
         <v>44047</v>
       </c>
       <c r="B127" s="2">
-        <v>10747</v>
+        <v>10749</v>
       </c>
       <c r="C127" s="2">
         <v>228</v>
@@ -3303,13 +3303,13 @@
         <v>195</v>
       </c>
       <c r="E127" s="2">
-        <v>212020</v>
+        <v>212041</v>
       </c>
       <c r="F127" s="2">
-        <v>3287</v>
+        <v>3289</v>
       </c>
       <c r="G127" s="4">
-        <v>0.065458207452</v>
+        <v>0.065448791714</v>
       </c>
     </row>
     <row r="128" spans="1:7">
@@ -3317,7 +3317,7 @@
         <v>44048</v>
       </c>
       <c r="B128" s="2">
-        <v>10925</v>
+        <v>10927</v>
       </c>
       <c r="C128" s="2">
         <v>178</v>
@@ -3326,13 +3326,13 @@
         <v>184.857142857142</v>
       </c>
       <c r="E128" s="2">
-        <v>215217</v>
+        <v>215239</v>
       </c>
       <c r="F128" s="2">
-        <v>3197</v>
+        <v>3198</v>
       </c>
       <c r="G128" s="4">
-        <v>0.064075266154</v>
+        <v>0.064062577355</v>
       </c>
     </row>
     <row r="129" spans="1:7">
@@ -3340,7 +3340,7 @@
         <v>44049</v>
       </c>
       <c r="B129" s="2">
-        <v>11120</v>
+        <v>11122</v>
       </c>
       <c r="C129" s="2">
         <v>195</v>
@@ -3349,13 +3349,13 @@
         <v>181.857142857142</v>
       </c>
       <c r="E129" s="2">
-        <v>218867</v>
+        <v>218889</v>
       </c>
       <c r="F129" s="2">
         <v>3650</v>
       </c>
       <c r="G129" s="4">
-        <v>0.063091638994</v>
+        <v>0.063082259663</v>
       </c>
     </row>
     <row r="130" spans="1:7">
@@ -3363,22 +3363,22 @@
         <v>44050</v>
       </c>
       <c r="B130" s="2">
-        <v>11294</v>
+        <v>11295</v>
       </c>
       <c r="C130" s="2">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D130" s="3">
-        <v>173.428571428571</v>
+        <v>173.285714285714</v>
       </c>
       <c r="E130" s="2">
-        <v>222129</v>
+        <v>222150</v>
       </c>
       <c r="F130" s="2">
-        <v>3262</v>
+        <v>3261</v>
       </c>
       <c r="G130" s="4">
-        <v>0.060995829774</v>
+        <v>0.060939462446</v>
       </c>
     </row>
     <row r="131" spans="1:7">
@@ -3386,22 +3386,22 @@
         <v>44051</v>
       </c>
       <c r="B131" s="2">
-        <v>11403</v>
+        <v>11404</v>
       </c>
       <c r="C131" s="2">
         <v>109</v>
       </c>
       <c r="D131" s="3">
-        <v>173.714285714285</v>
+        <v>173.571428571428</v>
       </c>
       <c r="E131" s="2">
-        <v>223820</v>
+        <v>223841</v>
       </c>
       <c r="F131" s="2">
         <v>1691</v>
       </c>
       <c r="G131" s="4">
-        <v>0.060784803799</v>
+        <v>0.060728744939</v>
       </c>
     </row>
     <row r="132" spans="1:7">
@@ -3409,22 +3409,22 @@
         <v>44052</v>
       </c>
       <c r="B132" s="2">
-        <v>11485</v>
+        <v>11486</v>
       </c>
       <c r="C132" s="2">
         <v>82</v>
       </c>
       <c r="D132" s="3">
-        <v>174.142857142857</v>
+        <v>174</v>
       </c>
       <c r="E132" s="2">
-        <v>224862</v>
+        <v>224883</v>
       </c>
       <c r="F132" s="2">
         <v>1042</v>
       </c>
       <c r="G132" s="4">
-        <v>0.061182493475</v>
+        <v>0.061126166817</v>
       </c>
     </row>
     <row r="133" spans="1:7">
@@ -3432,22 +3432,22 @@
         <v>44053</v>
       </c>
       <c r="B133" s="2">
-        <v>11722</v>
+        <v>11723</v>
       </c>
       <c r="C133" s="2">
         <v>237</v>
       </c>
       <c r="D133" s="3">
-        <v>171.857142857142</v>
+        <v>171.714285714285</v>
       </c>
       <c r="E133" s="2">
-        <v>228755</v>
+        <v>228776</v>
       </c>
       <c r="F133" s="2">
         <v>3893</v>
       </c>
       <c r="G133" s="4">
-        <v>0.060083907701</v>
+        <v>0.06002796644</v>
       </c>
     </row>
     <row r="134" spans="1:7">
@@ -3455,22 +3455,22 @@
         <v>44054</v>
       </c>
       <c r="B134" s="2">
-        <v>11922</v>
+        <v>11923</v>
       </c>
       <c r="C134" s="2">
         <v>200</v>
       </c>
       <c r="D134" s="3">
-        <v>167.857142857142</v>
+        <v>167.714285714285</v>
       </c>
       <c r="E134" s="2">
-        <v>232170</v>
+        <v>232191</v>
       </c>
       <c r="F134" s="2">
         <v>3415</v>
       </c>
       <c r="G134" s="4">
-        <v>0.058312655086</v>
+        <v>0.058263027295</v>
       </c>
     </row>
     <row r="135" spans="1:7">
@@ -3478,22 +3478,22 @@
         <v>44055</v>
       </c>
       <c r="B135" s="2">
-        <v>12123</v>
+        <v>12124</v>
       </c>
       <c r="C135" s="2">
         <v>201</v>
       </c>
       <c r="D135" s="3">
-        <v>171.142857142857</v>
+        <v>171</v>
       </c>
       <c r="E135" s="2">
-        <v>236024</v>
+        <v>236045</v>
       </c>
       <c r="F135" s="2">
         <v>3854</v>
       </c>
       <c r="G135" s="4">
-        <v>0.057576777046</v>
+        <v>0.057531481303</v>
       </c>
     </row>
     <row r="136" spans="1:7">
@@ -3501,22 +3501,22 @@
         <v>44056</v>
       </c>
       <c r="B136" s="2">
-        <v>12301</v>
+        <v>12302</v>
       </c>
       <c r="C136" s="2">
         <v>178</v>
       </c>
       <c r="D136" s="3">
-        <v>168.714285714285</v>
+        <v>168.571428571428</v>
       </c>
       <c r="E136" s="2">
-        <v>239291</v>
+        <v>239312</v>
       </c>
       <c r="F136" s="2">
         <v>3267</v>
       </c>
       <c r="G136" s="4">
-        <v>0.057824128476</v>
+        <v>0.057777995397</v>
       </c>
     </row>
     <row r="137" spans="1:7">
@@ -3524,7 +3524,7 @@
         <v>44057</v>
       </c>
       <c r="B137" s="2">
-        <v>12475</v>
+        <v>12476</v>
       </c>
       <c r="C137" s="2">
         <v>174</v>
@@ -3533,7 +3533,7 @@
         <v>168.714285714285</v>
       </c>
       <c r="E137" s="2">
-        <v>242646</v>
+        <v>242667</v>
       </c>
       <c r="F137" s="2">
         <v>3355</v>
@@ -3547,22 +3547,22 @@
         <v>44058</v>
       </c>
       <c r="B138" s="2">
-        <v>12567</v>
+        <v>12569</v>
       </c>
       <c r="C138" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D138" s="3">
-        <v>166.285714285714</v>
+        <v>166.428571428571</v>
       </c>
       <c r="E138" s="2">
-        <v>244206</v>
+        <v>244228</v>
       </c>
       <c r="F138" s="2">
-        <v>1560</v>
+        <v>1561</v>
       </c>
       <c r="G138" s="4">
-        <v>0.057098008437</v>
+        <v>0.057144258596</v>
       </c>
     </row>
     <row r="139" spans="1:7">
@@ -3570,22 +3570,22 @@
         <v>44059</v>
       </c>
       <c r="B139" s="2">
-        <v>12612</v>
+        <v>12614</v>
       </c>
       <c r="C139" s="2">
         <v>45</v>
       </c>
       <c r="D139" s="3">
-        <v>161</v>
+        <v>161.142857142857</v>
       </c>
       <c r="E139" s="2">
-        <v>244982</v>
+        <v>245004</v>
       </c>
       <c r="F139" s="2">
         <v>776</v>
       </c>
       <c r="G139" s="4">
-        <v>0.0560139165</v>
+        <v>0.056060831966</v>
       </c>
     </row>
     <row r="140" spans="1:7">
@@ -3593,22 +3593,22 @@
         <v>44060</v>
       </c>
       <c r="B140" s="2">
-        <v>12824</v>
+        <v>12826</v>
       </c>
       <c r="C140" s="2">
         <v>212</v>
       </c>
       <c r="D140" s="3">
-        <v>157.428571428571</v>
+        <v>157.571428571428</v>
       </c>
       <c r="E140" s="2">
-        <v>248639</v>
+        <v>248660</v>
       </c>
       <c r="F140" s="2">
-        <v>3657</v>
+        <v>3656</v>
       </c>
       <c r="G140" s="4">
-        <v>0.055421444377</v>
+        <v>0.055471736069</v>
       </c>
     </row>
     <row r="141" spans="1:7">
@@ -3616,22 +3616,22 @@
         <v>44061</v>
       </c>
       <c r="B141" s="2">
-        <v>12991</v>
+        <v>12993</v>
       </c>
       <c r="C141" s="2">
         <v>167</v>
       </c>
       <c r="D141" s="3">
-        <v>152.714285714285</v>
+        <v>152.857142857142</v>
       </c>
       <c r="E141" s="2">
-        <v>251703</v>
+        <v>251725</v>
       </c>
       <c r="F141" s="2">
-        <v>3064</v>
+        <v>3065</v>
       </c>
       <c r="G141" s="4">
-        <v>0.05472789638</v>
+        <v>0.054776287498</v>
       </c>
     </row>
     <row r="142" spans="1:7">
@@ -3639,22 +3639,22 @@
         <v>44062</v>
       </c>
       <c r="B142" s="2">
-        <v>13149</v>
+        <v>13151</v>
       </c>
       <c r="C142" s="2">
         <v>158</v>
       </c>
       <c r="D142" s="3">
-        <v>146.571428571428</v>
+        <v>146.714285714285</v>
       </c>
       <c r="E142" s="2">
-        <v>254754</v>
+        <v>254776</v>
       </c>
       <c r="F142" s="2">
         <v>3051</v>
       </c>
       <c r="G142" s="4">
-        <v>0.054778430325</v>
+        <v>0.054828893278</v>
       </c>
     </row>
     <row r="143" spans="1:7">
@@ -3662,22 +3662,22 @@
         <v>44063</v>
       </c>
       <c r="B143" s="2">
-        <v>13280</v>
+        <v>13282</v>
       </c>
       <c r="C143" s="2">
         <v>131</v>
       </c>
       <c r="D143" s="3">
-        <v>139.857142857142</v>
+        <v>140</v>
       </c>
       <c r="E143" s="2">
-        <v>257916</v>
+        <v>257940</v>
       </c>
       <c r="F143" s="2">
-        <v>3162</v>
+        <v>3164</v>
       </c>
       <c r="G143" s="4">
-        <v>0.052563758389</v>
+        <v>0.052608975735</v>
       </c>
     </row>
     <row r="144" spans="1:7">
@@ -3685,22 +3685,22 @@
         <v>44064</v>
       </c>
       <c r="B144" s="2">
-        <v>13442</v>
+        <v>13444</v>
       </c>
       <c r="C144" s="2">
         <v>162</v>
       </c>
       <c r="D144" s="3">
-        <v>138.142857142857</v>
+        <v>138.285714285714</v>
       </c>
       <c r="E144" s="2">
-        <v>260949</v>
+        <v>260976</v>
       </c>
       <c r="F144" s="2">
-        <v>3033</v>
+        <v>3036</v>
       </c>
       <c r="G144" s="4">
-        <v>0.052832868928</v>
+        <v>0.052870173138</v>
       </c>
     </row>
     <row r="145" spans="1:7">
@@ -3708,7 +3708,7 @@
         <v>44065</v>
       </c>
       <c r="B145" s="2">
-        <v>13503</v>
+        <v>13505</v>
       </c>
       <c r="C145" s="2">
         <v>61</v>
@@ -3717,13 +3717,13 @@
         <v>133.714285714285</v>
       </c>
       <c r="E145" s="2">
-        <v>262277</v>
+        <v>262304</v>
       </c>
       <c r="F145" s="2">
         <v>1328</v>
       </c>
       <c r="G145" s="4">
-        <v>0.051795694759</v>
+        <v>0.051781367559</v>
       </c>
     </row>
     <row r="146" spans="1:7">
@@ -3731,7 +3731,7 @@
         <v>44066</v>
       </c>
       <c r="B146" s="2">
-        <v>13569</v>
+        <v>13571</v>
       </c>
       <c r="C146" s="2">
         <v>66</v>
@@ -3740,13 +3740,13 @@
         <v>136.714285714285</v>
       </c>
       <c r="E146" s="2">
-        <v>263237</v>
+        <v>263264</v>
       </c>
       <c r="F146" s="2">
         <v>960</v>
       </c>
       <c r="G146" s="4">
-        <v>0.052423993426</v>
+        <v>0.052409638554</v>
       </c>
     </row>
     <row r="147" spans="1:7">
@@ -3754,7 +3754,7 @@
         <v>44067</v>
       </c>
       <c r="B147" s="2">
-        <v>13718</v>
+        <v>13720</v>
       </c>
       <c r="C147" s="2">
         <v>149</v>
@@ -3763,13 +3763,13 @@
         <v>127.714285714285</v>
       </c>
       <c r="E147" s="2">
-        <v>266209</v>
+        <v>266236</v>
       </c>
       <c r="F147" s="2">
         <v>2972</v>
       </c>
       <c r="G147" s="4">
-        <v>0.050882185543</v>
+        <v>0.050864815657</v>
       </c>
     </row>
     <row r="148" spans="1:7">
@@ -3777,7 +3777,7 @@
         <v>44068</v>
       </c>
       <c r="B148" s="2">
-        <v>13851</v>
+        <v>13853</v>
       </c>
       <c r="C148" s="2">
         <v>133</v>
@@ -3786,13 +3786,13 @@
         <v>122.857142857142</v>
       </c>
       <c r="E148" s="2">
-        <v>269216</v>
+        <v>269243</v>
       </c>
       <c r="F148" s="2">
         <v>3007</v>
       </c>
       <c r="G148" s="4">
-        <v>0.049106378119</v>
+        <v>0.049092362141</v>
       </c>
     </row>
     <row r="149" spans="1:7">
@@ -3800,7 +3800,7 @@
         <v>44069</v>
       </c>
       <c r="B149" s="2">
-        <v>13985</v>
+        <v>13987</v>
       </c>
       <c r="C149" s="2">
         <v>134</v>
@@ -3809,13 +3809,13 @@
         <v>119.428571428571</v>
       </c>
       <c r="E149" s="2">
-        <v>272165</v>
+        <v>272191</v>
       </c>
       <c r="F149" s="2">
-        <v>2949</v>
+        <v>2948</v>
       </c>
       <c r="G149" s="4">
-        <v>0.048015622307</v>
+        <v>0.048004593741</v>
       </c>
     </row>
     <row r="150" spans="1:7">
@@ -3823,7 +3823,7 @@
         <v>44070</v>
       </c>
       <c r="B150" s="2">
-        <v>14150</v>
+        <v>14152</v>
       </c>
       <c r="C150" s="2">
         <v>165</v>
@@ -3832,13 +3832,13 @@
         <v>124.285714285714</v>
       </c>
       <c r="E150" s="2">
-        <v>275393</v>
+        <v>275419</v>
       </c>
       <c r="F150" s="2">
         <v>3228</v>
       </c>
       <c r="G150" s="4">
-        <v>0.049779710476</v>
+        <v>0.049774014531</v>
       </c>
     </row>
     <row r="151" spans="1:7">
@@ -3846,7 +3846,7 @@
         <v>44071</v>
       </c>
       <c r="B151" s="2">
-        <v>14267</v>
+        <v>14269</v>
       </c>
       <c r="C151" s="2">
         <v>117</v>
@@ -3855,13 +3855,13 @@
         <v>117.857142857142</v>
       </c>
       <c r="E151" s="2">
-        <v>278162</v>
+        <v>278188</v>
       </c>
       <c r="F151" s="2">
         <v>2769</v>
       </c>
       <c r="G151" s="4">
-        <v>0.047928890954</v>
+        <v>0.047931675575</v>
       </c>
     </row>
     <row r="152" spans="1:7">
@@ -3869,7 +3869,7 @@
         <v>44072</v>
       </c>
       <c r="B152" s="2">
-        <v>14331</v>
+        <v>14333</v>
       </c>
       <c r="C152" s="2">
         <v>64</v>
@@ -3878,10 +3878,10 @@
         <v>118.285714285714</v>
       </c>
       <c r="E152" s="2">
-        <v>279594</v>
+        <v>279621</v>
       </c>
       <c r="F152" s="2">
-        <v>1432</v>
+        <v>1433</v>
       </c>
       <c r="G152" s="4">
         <v>0.047814286539</v>
@@ -3892,7 +3892,7 @@
         <v>44073</v>
       </c>
       <c r="B153" s="2">
-        <v>14388</v>
+        <v>14390</v>
       </c>
       <c r="C153" s="2">
         <v>57</v>
@@ -3901,7 +3901,7 @@
         <v>117</v>
       </c>
       <c r="E153" s="2">
-        <v>280672</v>
+        <v>280699</v>
       </c>
       <c r="F153" s="2">
         <v>1078</v>
@@ -3915,7 +3915,7 @@
         <v>44074</v>
       </c>
       <c r="B154" s="2">
-        <v>14525</v>
+        <v>14527</v>
       </c>
       <c r="C154" s="2">
         <v>137</v>
@@ -3924,7 +3924,7 @@
         <v>115.285714285714</v>
       </c>
       <c r="E154" s="2">
-        <v>283795</v>
+        <v>283822</v>
       </c>
       <c r="F154" s="2">
         <v>3123</v>
@@ -3938,7 +3938,7 @@
         <v>44075</v>
       </c>
       <c r="B155" s="2">
-        <v>14655</v>
+        <v>14657</v>
       </c>
       <c r="C155" s="2">
         <v>130</v>
@@ -3947,7 +3947,7 @@
         <v>114.857142857142</v>
       </c>
       <c r="E155" s="2">
-        <v>287059</v>
+        <v>287086</v>
       </c>
       <c r="F155" s="2">
         <v>3264</v>
@@ -3961,7 +3961,7 @@
         <v>44076</v>
       </c>
       <c r="B156" s="2">
-        <v>14770</v>
+        <v>14772</v>
       </c>
       <c r="C156" s="2">
         <v>115</v>
@@ -3970,13 +3970,13 @@
         <v>112.142857142857</v>
       </c>
       <c r="E156" s="2">
-        <v>290024</v>
+        <v>290051</v>
       </c>
       <c r="F156" s="2">
         <v>2965</v>
       </c>
       <c r="G156" s="4">
-        <v>0.043955428635</v>
+        <v>0.043952967525</v>
       </c>
     </row>
     <row r="157" spans="1:7">
@@ -3984,7 +3984,7 @@
         <v>44077</v>
       </c>
       <c r="B157" s="2">
-        <v>14865</v>
+        <v>14867</v>
       </c>
       <c r="C157" s="2">
         <v>95</v>
@@ -3993,13 +3993,13 @@
         <v>102.142857142857</v>
       </c>
       <c r="E157" s="2">
-        <v>292954</v>
+        <v>292981</v>
       </c>
       <c r="F157" s="2">
         <v>2930</v>
       </c>
       <c r="G157" s="4">
-        <v>0.040715221228</v>
+        <v>0.040712902858</v>
       </c>
     </row>
     <row r="158" spans="1:7">
@@ -4007,7 +4007,7 @@
         <v>44078</v>
       </c>
       <c r="B158" s="2">
-        <v>14986</v>
+        <v>14988</v>
       </c>
       <c r="C158" s="2">
         <v>121</v>
@@ -4016,13 +4016,13 @@
         <v>102.714285714285</v>
       </c>
       <c r="E158" s="2">
-        <v>295756</v>
+        <v>295783</v>
       </c>
       <c r="F158" s="2">
         <v>2802</v>
       </c>
       <c r="G158" s="4">
-        <v>0.040866204387</v>
+        <v>0.040863881784</v>
       </c>
     </row>
     <row r="159" spans="1:7">
@@ -4030,7 +4030,7 @@
         <v>44079</v>
       </c>
       <c r="B159" s="2">
-        <v>15052</v>
+        <v>15054</v>
       </c>
       <c r="C159" s="2">
         <v>66</v>
@@ -4039,7 +4039,7 @@
         <v>103</v>
       </c>
       <c r="E159" s="2">
-        <v>297092</v>
+        <v>297119</v>
       </c>
       <c r="F159" s="2">
         <v>1336</v>
@@ -4053,7 +4053,7 @@
         <v>44080</v>
       </c>
       <c r="B160" s="2">
-        <v>15105</v>
+        <v>15107</v>
       </c>
       <c r="C160" s="2">
         <v>53</v>
@@ -4062,7 +4062,7 @@
         <v>102.428571428571</v>
       </c>
       <c r="E160" s="2">
-        <v>298178</v>
+        <v>298205</v>
       </c>
       <c r="F160" s="2">
         <v>1086</v>
@@ -4076,7 +4076,7 @@
         <v>44081</v>
       </c>
       <c r="B161" s="2">
-        <v>15173</v>
+        <v>15175</v>
       </c>
       <c r="C161" s="2">
         <v>68</v>
@@ -4085,7 +4085,7 @@
         <v>92.571428571428</v>
       </c>
       <c r="E161" s="2">
-        <v>299428</v>
+        <v>299455</v>
       </c>
       <c r="F161" s="2">
         <v>1250</v>
@@ -4099,7 +4099,7 @@
         <v>44082</v>
       </c>
       <c r="B162" s="2">
-        <v>15317</v>
+        <v>15319</v>
       </c>
       <c r="C162" s="2">
         <v>144</v>
@@ -4108,7 +4108,7 @@
         <v>94.571428571428</v>
       </c>
       <c r="E162" s="2">
-        <v>303699</v>
+        <v>303726</v>
       </c>
       <c r="F162" s="2">
         <v>4271</v>
@@ -4122,7 +4122,7 @@
         <v>44083</v>
       </c>
       <c r="B163" s="2">
-        <v>15467</v>
+        <v>15469</v>
       </c>
       <c r="C163" s="2">
         <v>150</v>
@@ -4131,7 +4131,7 @@
         <v>99.571428571428</v>
       </c>
       <c r="E163" s="2">
-        <v>307204</v>
+        <v>307231</v>
       </c>
       <c r="F163" s="2">
         <v>3505</v>
@@ -4145,7 +4145,7 @@
         <v>44084</v>
       </c>
       <c r="B164" s="2">
-        <v>15569</v>
+        <v>15571</v>
       </c>
       <c r="C164" s="2">
         <v>102</v>
@@ -4154,7 +4154,7 @@
         <v>100.571428571428</v>
       </c>
       <c r="E164" s="2">
-        <v>310474</v>
+        <v>310501</v>
       </c>
       <c r="F164" s="2">
         <v>3270</v>
@@ -4168,7 +4168,7 @@
         <v>44085</v>
       </c>
       <c r="B165" s="2">
-        <v>15641</v>
+        <v>15643</v>
       </c>
       <c r="C165" s="2">
         <v>72</v>
@@ -4177,7 +4177,7 @@
         <v>93.571428571428</v>
       </c>
       <c r="E165" s="2">
-        <v>312964</v>
+        <v>312991</v>
       </c>
       <c r="F165" s="2">
         <v>2490</v>
@@ -4191,7 +4191,7 @@
         <v>44086</v>
       </c>
       <c r="B166" s="2">
-        <v>15690</v>
+        <v>15692</v>
       </c>
       <c r="C166" s="2">
         <v>49</v>
@@ -4200,7 +4200,7 @@
         <v>91.142857142857</v>
       </c>
       <c r="E166" s="2">
-        <v>314358</v>
+        <v>314385</v>
       </c>
       <c r="F166" s="2">
         <v>1394</v>
@@ -4214,7 +4214,7 @@
         <v>44087</v>
       </c>
       <c r="B167" s="2">
-        <v>15722</v>
+        <v>15724</v>
       </c>
       <c r="C167" s="2">
         <v>32</v>
@@ -4223,7 +4223,7 @@
         <v>88.142857142857</v>
       </c>
       <c r="E167" s="2">
-        <v>315200</v>
+        <v>315227</v>
       </c>
       <c r="F167" s="2">
         <v>842</v>
@@ -4237,7 +4237,7 @@
         <v>44088</v>
       </c>
       <c r="B168" s="2">
-        <v>15822</v>
+        <v>15824</v>
       </c>
       <c r="C168" s="2">
         <v>100</v>
@@ -4246,7 +4246,7 @@
         <v>92.714285714285</v>
       </c>
       <c r="E168" s="2">
-        <v>318578</v>
+        <v>318605</v>
       </c>
       <c r="F168" s="2">
         <v>3378</v>
@@ -4260,7 +4260,7 @@
         <v>44089</v>
       </c>
       <c r="B169" s="2">
-        <v>15953</v>
+        <v>15955</v>
       </c>
       <c r="C169" s="2">
         <v>131</v>
@@ -4269,7 +4269,7 @@
         <v>90.85714285714199</v>
       </c>
       <c r="E169" s="2">
-        <v>322531</v>
+        <v>322558</v>
       </c>
       <c r="F169" s="2">
         <v>3953</v>
@@ -4283,7 +4283,7 @@
         <v>44090</v>
       </c>
       <c r="B170" s="2">
-        <v>16039</v>
+        <v>16041</v>
       </c>
       <c r="C170" s="2">
         <v>86</v>
@@ -4292,13 +4292,13 @@
         <v>81.714285714285</v>
       </c>
       <c r="E170" s="2">
-        <v>325821</v>
+        <v>325847</v>
       </c>
       <c r="F170" s="2">
-        <v>3290</v>
+        <v>3289</v>
       </c>
       <c r="G170" s="4">
-        <v>0.030724606542</v>
+        <v>0.030726256983</v>
       </c>
     </row>
     <row r="171" spans="1:7">
@@ -4306,7 +4306,7 @@
         <v>44091</v>
       </c>
       <c r="B171" s="2">
-        <v>16142</v>
+        <v>16144</v>
       </c>
       <c r="C171" s="2">
         <v>103</v>
@@ -4315,13 +4315,13 @@
         <v>81.85714285714199</v>
       </c>
       <c r="E171" s="2">
-        <v>329420</v>
+        <v>329446</v>
       </c>
       <c r="F171" s="2">
         <v>3599</v>
       </c>
       <c r="G171" s="4">
-        <v>0.030243850944</v>
+        <v>0.030245447347</v>
       </c>
     </row>
     <row r="172" spans="1:7">
@@ -4329,7 +4329,7 @@
         <v>44092</v>
       </c>
       <c r="B172" s="2">
-        <v>16246</v>
+        <v>16248</v>
       </c>
       <c r="C172" s="2">
         <v>104</v>
@@ -4338,13 +4338,13 @@
         <v>86.428571428571</v>
       </c>
       <c r="E172" s="2">
-        <v>332687</v>
+        <v>332713</v>
       </c>
       <c r="F172" s="2">
         <v>3267</v>
       </c>
       <c r="G172" s="4">
-        <v>0.030674846625</v>
+        <v>0.030676401987</v>
       </c>
     </row>
     <row r="173" spans="1:7">
@@ -4352,7 +4352,7 @@
         <v>44093</v>
       </c>
       <c r="B173" s="2">
-        <v>16318</v>
+        <v>16320</v>
       </c>
       <c r="C173" s="2">
         <v>72</v>
@@ -4361,10 +4361,10 @@
         <v>89.714285714285</v>
       </c>
       <c r="E173" s="2">
-        <v>334202</v>
+        <v>334229</v>
       </c>
       <c r="F173" s="2">
-        <v>1515</v>
+        <v>1516</v>
       </c>
       <c r="G173" s="4">
         <v>0.031646845394</v>
@@ -4375,7 +4375,7 @@
         <v>44094</v>
       </c>
       <c r="B174" s="2">
-        <v>16360</v>
+        <v>16362</v>
       </c>
       <c r="C174" s="2">
         <v>42</v>
@@ -4384,7 +4384,7 @@
         <v>91.142857142857</v>
       </c>
       <c r="E174" s="2">
-        <v>335353</v>
+        <v>335380</v>
       </c>
       <c r="F174" s="2">
         <v>1151</v>
@@ -4398,7 +4398,7 @@
         <v>44095</v>
       </c>
       <c r="B175" s="2">
-        <v>16503</v>
+        <v>16505</v>
       </c>
       <c r="C175" s="2">
         <v>143</v>
@@ -4407,7 +4407,7 @@
         <v>97.28571428571399</v>
       </c>
       <c r="E175" s="2">
-        <v>339693</v>
+        <v>339720</v>
       </c>
       <c r="F175" s="2">
         <v>4340</v>
@@ -4421,7 +4421,7 @@
         <v>44096</v>
       </c>
       <c r="B176" s="2">
-        <v>16602</v>
+        <v>16604</v>
       </c>
       <c r="C176" s="2">
         <v>99</v>
@@ -4430,7 +4430,7 @@
         <v>92.714285714285</v>
       </c>
       <c r="E176" s="2">
-        <v>343443</v>
+        <v>343470</v>
       </c>
       <c r="F176" s="2">
         <v>3750</v>
@@ -4444,7 +4444,7 @@
         <v>44097</v>
       </c>
       <c r="B177" s="2">
-        <v>16696</v>
+        <v>16698</v>
       </c>
       <c r="C177" s="2">
         <v>94</v>
@@ -4453,13 +4453,13 @@
         <v>93.85714285714199</v>
       </c>
       <c r="E177" s="2">
-        <v>346918</v>
+        <v>346946</v>
       </c>
       <c r="F177" s="2">
-        <v>3475</v>
+        <v>3476</v>
       </c>
       <c r="G177" s="4">
-        <v>0.031141868512</v>
+        <v>0.031138916536</v>
       </c>
     </row>
     <row r="178" spans="1:7">
@@ -4467,22 +4467,22 @@
         <v>44098</v>
       </c>
       <c r="B178" s="2">
-        <v>16787</v>
+        <v>16790</v>
       </c>
       <c r="C178" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D178" s="3">
-        <v>92.142857142857</v>
+        <v>92.28571428571399</v>
       </c>
       <c r="E178" s="2">
-        <v>350618</v>
+        <v>350650</v>
       </c>
       <c r="F178" s="2">
-        <v>3700</v>
+        <v>3704</v>
       </c>
       <c r="G178" s="4">
-        <v>0.030427398811</v>
+        <v>0.03046594982</v>
       </c>
     </row>
     <row r="179" spans="1:7">
@@ -4490,22 +4490,22 @@
         <v>44099</v>
       </c>
       <c r="B179" s="2">
-        <v>16876</v>
+        <v>16879</v>
       </c>
       <c r="C179" s="2">
         <v>89</v>
       </c>
       <c r="D179" s="3">
-        <v>90</v>
+        <v>90.142857142857</v>
       </c>
       <c r="E179" s="2">
-        <v>353897</v>
+        <v>353930</v>
       </c>
       <c r="F179" s="2">
-        <v>3279</v>
+        <v>3280</v>
       </c>
       <c r="G179" s="4">
-        <v>0.029702970297</v>
+        <v>0.029740302587</v>
       </c>
     </row>
     <row r="180" spans="1:7">
@@ -4513,22 +4513,22 @@
         <v>44100</v>
       </c>
       <c r="B180" s="2">
-        <v>16935</v>
+        <v>16938</v>
       </c>
       <c r="C180" s="2">
         <v>59</v>
       </c>
       <c r="D180" s="3">
-        <v>88.142857142857</v>
+        <v>88.28571428571399</v>
       </c>
       <c r="E180" s="2">
-        <v>355756</v>
+        <v>355789</v>
       </c>
       <c r="F180" s="2">
         <v>1859</v>
       </c>
       <c r="G180" s="4">
-        <v>0.028625777117</v>
+        <v>0.028664192949</v>
       </c>
     </row>
     <row r="181" spans="1:7">
@@ -4536,22 +4536,22 @@
         <v>44101</v>
       </c>
       <c r="B181" s="2">
-        <v>16956</v>
+        <v>16960</v>
       </c>
       <c r="C181" s="2">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D181" s="3">
-        <v>85.142857142857</v>
+        <v>85.428571428571</v>
       </c>
       <c r="E181" s="2">
-        <v>356869</v>
+        <v>356906</v>
       </c>
       <c r="F181" s="2">
-        <v>1113</v>
+        <v>1117</v>
       </c>
       <c r="G181" s="4">
-        <v>0.027700316043</v>
+        <v>0.027780358636</v>
       </c>
     </row>
     <row r="182" spans="1:7">
@@ -4559,22 +4559,45 @@
         <v>44102</v>
       </c>
       <c r="B182" s="2">
-        <v>17068</v>
+        <v>17072</v>
       </c>
       <c r="C182" s="2">
         <v>112</v>
       </c>
       <c r="D182" s="3">
-        <v>80.714285714285</v>
+        <v>81</v>
       </c>
       <c r="E182" s="2">
-        <v>360904</v>
+        <v>360958</v>
       </c>
       <c r="F182" s="2">
-        <v>4035</v>
+        <v>4052</v>
       </c>
       <c r="G182" s="4">
-        <v>0.026637122247</v>
+        <v>0.026697429136</v>
+      </c>
+    </row>
+    <row r="183" spans="1:7">
+      <c r="A183" s="1">
+        <v>44103</v>
+      </c>
+      <c r="B183" s="2">
+        <v>17148</v>
+      </c>
+      <c r="C183" s="2">
+        <v>76</v>
+      </c>
+      <c r="D183" s="3">
+        <v>77.714285714285</v>
+      </c>
+      <c r="E183" s="2">
+        <v>364748</v>
+      </c>
+      <c r="F183" s="2">
+        <v>3790</v>
+      </c>
+      <c r="G183" s="4">
+        <v>0.025566312623</v>
       </c>
     </row>
   </sheetData>

--- a/contra_costa_county_testing.xlsx
+++ b/contra_costa_county_testing.xlsx
@@ -376,7 +376,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G183"/>
+  <dimension ref="A1:G184"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1141,13 +1141,13 @@
         <v>15.857142857142</v>
       </c>
       <c r="E33" s="2">
-        <v>17651</v>
+        <v>17652</v>
       </c>
       <c r="F33" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="G33" s="4">
-        <v>0.028222730739</v>
+        <v>0.028215556685</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -1164,13 +1164,13 @@
         <v>14.857142857142</v>
       </c>
       <c r="E34" s="2">
-        <v>17915</v>
+        <v>17916</v>
       </c>
       <c r="F34" s="2">
         <v>264</v>
       </c>
       <c r="G34" s="4">
-        <v>0.026216284345</v>
+        <v>0.026209677419</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -1187,13 +1187,13 @@
         <v>15.142857142857</v>
       </c>
       <c r="E35" s="2">
-        <v>18693</v>
+        <v>18694</v>
       </c>
       <c r="F35" s="2">
         <v>778</v>
       </c>
       <c r="G35" s="4">
-        <v>0.025572979493</v>
+        <v>0.025566811384</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -1210,13 +1210,13 @@
         <v>15.285714285714</v>
       </c>
       <c r="E36" s="2">
-        <v>19374</v>
+        <v>19375</v>
       </c>
       <c r="F36" s="2">
         <v>681</v>
       </c>
       <c r="G36" s="4">
-        <v>0.024959178912</v>
+        <v>0.024953358208</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -1233,13 +1233,13 @@
         <v>16.285714285714</v>
       </c>
       <c r="E37" s="2">
-        <v>20339</v>
+        <v>20340</v>
       </c>
       <c r="F37" s="2">
         <v>965</v>
       </c>
       <c r="G37" s="4">
-        <v>0.025038436195</v>
+        <v>0.025032938076</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -1256,13 +1256,13 @@
         <v>14.285714285714</v>
       </c>
       <c r="E38" s="2">
-        <v>21235</v>
+        <v>21236</v>
       </c>
       <c r="F38" s="2">
         <v>896</v>
       </c>
       <c r="G38" s="4">
-        <v>0.021724961981</v>
+        <v>0.021720243266</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -1279,13 +1279,13 @@
         <v>15.142857142857</v>
       </c>
       <c r="E39" s="2">
-        <v>22377</v>
+        <v>22378</v>
       </c>
       <c r="F39" s="2">
         <v>1142</v>
       </c>
       <c r="G39" s="4">
-        <v>0.02114502294</v>
+        <v>0.021140805743</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -1302,7 +1302,7 @@
         <v>14.571428571428</v>
       </c>
       <c r="E40" s="2">
-        <v>22759</v>
+        <v>22760</v>
       </c>
       <c r="F40" s="2">
         <v>382</v>
@@ -1325,7 +1325,7 @@
         <v>15</v>
       </c>
       <c r="E41" s="2">
-        <v>23103</v>
+        <v>23104</v>
       </c>
       <c r="F41" s="2">
         <v>344</v>
@@ -1348,7 +1348,7 @@
         <v>13</v>
       </c>
       <c r="E42" s="2">
-        <v>24204</v>
+        <v>24205</v>
       </c>
       <c r="F42" s="2">
         <v>1101</v>
@@ -1371,7 +1371,7 @@
         <v>12.285714285714</v>
       </c>
       <c r="E43" s="2">
-        <v>25435</v>
+        <v>25436</v>
       </c>
       <c r="F43" s="2">
         <v>1231</v>
@@ -1394,7 +1394,7 @@
         <v>12.857142857142</v>
       </c>
       <c r="E44" s="2">
-        <v>26534</v>
+        <v>26535</v>
       </c>
       <c r="F44" s="2">
         <v>1099</v>
@@ -1417,7 +1417,7 @@
         <v>14</v>
       </c>
       <c r="E45" s="2">
-        <v>27387</v>
+        <v>27388</v>
       </c>
       <c r="F45" s="2">
         <v>853</v>
@@ -1440,7 +1440,7 @@
         <v>15.714285714285</v>
       </c>
       <c r="E46" s="2">
-        <v>28305</v>
+        <v>28306</v>
       </c>
       <c r="F46" s="2">
         <v>918</v>
@@ -1463,7 +1463,7 @@
         <v>17.571428571428</v>
       </c>
       <c r="E47" s="2">
-        <v>28714</v>
+        <v>28715</v>
       </c>
       <c r="F47" s="2">
         <v>409</v>
@@ -1486,7 +1486,7 @@
         <v>18</v>
       </c>
       <c r="E48" s="2">
-        <v>29107</v>
+        <v>29108</v>
       </c>
       <c r="F48" s="2">
         <v>393</v>
@@ -1509,13 +1509,13 @@
         <v>22.428571428571</v>
       </c>
       <c r="E49" s="2">
-        <v>30470</v>
+        <v>30472</v>
       </c>
       <c r="F49" s="2">
-        <v>1363</v>
+        <v>1364</v>
       </c>
       <c r="G49" s="4">
-        <v>0.025055857006</v>
+        <v>0.025051858943</v>
       </c>
     </row>
     <row r="50" spans="1:7">
@@ -1532,13 +1532,13 @@
         <v>25.714285714285</v>
       </c>
       <c r="E50" s="2">
-        <v>32130</v>
+        <v>32133</v>
       </c>
       <c r="F50" s="2">
-        <v>1660</v>
+        <v>1661</v>
       </c>
       <c r="G50" s="4">
-        <v>0.026885735623</v>
+        <v>0.026877706435</v>
       </c>
     </row>
     <row r="51" spans="1:7">
@@ -1555,13 +1555,13 @@
         <v>26.142857142857</v>
       </c>
       <c r="E51" s="2">
-        <v>33267</v>
+        <v>33270</v>
       </c>
       <c r="F51" s="2">
         <v>1137</v>
       </c>
       <c r="G51" s="4">
-        <v>0.027179563344</v>
+        <v>0.027171492204</v>
       </c>
     </row>
     <row r="52" spans="1:7">
@@ -1578,13 +1578,13 @@
         <v>27.428571428571</v>
       </c>
       <c r="E52" s="2">
-        <v>34399</v>
+        <v>34402</v>
       </c>
       <c r="F52" s="2">
         <v>1132</v>
       </c>
       <c r="G52" s="4">
-        <v>0.027381631488</v>
+        <v>0.027373823781</v>
       </c>
     </row>
     <row r="53" spans="1:7">
@@ -1601,13 +1601,13 @@
         <v>29.142857142857</v>
       </c>
       <c r="E53" s="2">
-        <v>35487</v>
+        <v>35491</v>
       </c>
       <c r="F53" s="2">
-        <v>1088</v>
+        <v>1089</v>
       </c>
       <c r="G53" s="4">
-        <v>0.028404344193</v>
+        <v>0.028392484342</v>
       </c>
     </row>
     <row r="54" spans="1:7">
@@ -1624,13 +1624,13 @@
         <v>28</v>
       </c>
       <c r="E54" s="2">
-        <v>36005</v>
+        <v>36009</v>
       </c>
       <c r="F54" s="2">
         <v>518</v>
       </c>
       <c r="G54" s="4">
-        <v>0.026882457824</v>
+        <v>0.026871401151</v>
       </c>
     </row>
     <row r="55" spans="1:7">
@@ -1647,13 +1647,13 @@
         <v>27.571428571428</v>
       </c>
       <c r="E55" s="2">
-        <v>36400</v>
+        <v>36404</v>
       </c>
       <c r="F55" s="2">
         <v>395</v>
       </c>
       <c r="G55" s="4">
-        <v>0.026463732346</v>
+        <v>0.026452850877</v>
       </c>
     </row>
     <row r="56" spans="1:7">
@@ -1670,13 +1670,13 @@
         <v>23.285714285714</v>
       </c>
       <c r="E56" s="2">
-        <v>36866</v>
+        <v>36869</v>
       </c>
       <c r="F56" s="2">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="G56" s="4">
-        <v>0.025484677923</v>
+        <v>0.025480694075</v>
       </c>
     </row>
     <row r="57" spans="1:7">
@@ -1693,7 +1693,7 @@
         <v>23.714285714285</v>
       </c>
       <c r="E57" s="2">
-        <v>38062</v>
+        <v>38065</v>
       </c>
       <c r="F57" s="2">
         <v>1196</v>
@@ -1716,13 +1716,13 @@
         <v>23.714285714285</v>
       </c>
       <c r="E58" s="2">
-        <v>39178</v>
+        <v>39179</v>
       </c>
       <c r="F58" s="2">
-        <v>1116</v>
+        <v>1114</v>
       </c>
       <c r="G58" s="4">
-        <v>0.028083234647</v>
+        <v>0.028092739888</v>
       </c>
     </row>
     <row r="59" spans="1:7">
@@ -1739,13 +1739,13 @@
         <v>26.285714285714</v>
       </c>
       <c r="E59" s="2">
-        <v>40314</v>
+        <v>40315</v>
       </c>
       <c r="F59" s="2">
         <v>1136</v>
       </c>
       <c r="G59" s="4">
-        <v>0.031107354184</v>
+        <v>0.031117875866</v>
       </c>
     </row>
     <row r="60" spans="1:7">
@@ -1762,13 +1762,13 @@
         <v>26.571428571428</v>
       </c>
       <c r="E60" s="2">
-        <v>41717</v>
+        <v>41718</v>
       </c>
       <c r="F60" s="2">
         <v>1403</v>
       </c>
       <c r="G60" s="4">
-        <v>0.02985553772</v>
+        <v>0.02986992131</v>
       </c>
     </row>
     <row r="61" spans="1:7">
@@ -1785,13 +1785,13 @@
         <v>26.285714285714</v>
       </c>
       <c r="E61" s="2">
-        <v>42449</v>
+        <v>42450</v>
       </c>
       <c r="F61" s="2">
         <v>732</v>
       </c>
       <c r="G61" s="4">
-        <v>0.028553693358</v>
+        <v>0.028566992702</v>
       </c>
     </row>
     <row r="62" spans="1:7">
@@ -1808,13 +1808,13 @@
         <v>26</v>
       </c>
       <c r="E62" s="2">
-        <v>42846</v>
+        <v>42848</v>
       </c>
       <c r="F62" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="G62" s="4">
-        <v>0.02823456407</v>
+        <v>0.028243327126</v>
       </c>
     </row>
     <row r="63" spans="1:7">
@@ -1831,13 +1831,13 @@
         <v>29.285714285714</v>
       </c>
       <c r="E63" s="2">
-        <v>44220</v>
+        <v>44222</v>
       </c>
       <c r="F63" s="2">
         <v>1374</v>
       </c>
       <c r="G63" s="4">
-        <v>0.027875985858</v>
+        <v>0.027879776961</v>
       </c>
     </row>
     <row r="64" spans="1:7">
@@ -1854,13 +1854,13 @@
         <v>28.285714285714</v>
       </c>
       <c r="E64" s="2">
-        <v>45436</v>
+        <v>45438</v>
       </c>
       <c r="F64" s="2">
         <v>1216</v>
       </c>
       <c r="G64" s="4">
-        <v>0.026851098454</v>
+        <v>0.026854740268</v>
       </c>
     </row>
     <row r="65" spans="1:7">
@@ -1877,13 +1877,13 @@
         <v>27.857142857142</v>
       </c>
       <c r="E65" s="2">
-        <v>46593</v>
+        <v>46595</v>
       </c>
       <c r="F65" s="2">
         <v>1157</v>
       </c>
       <c r="G65" s="4">
-        <v>0.026298044504</v>
+        <v>0.026294498381</v>
       </c>
     </row>
     <row r="66" spans="1:7">
@@ -1900,13 +1900,13 @@
         <v>28.428571428571</v>
       </c>
       <c r="E66" s="2">
-        <v>47942</v>
+        <v>47944</v>
       </c>
       <c r="F66" s="2">
         <v>1349</v>
       </c>
       <c r="G66" s="4">
-        <v>0.026088096486</v>
+        <v>0.02608467689</v>
       </c>
     </row>
     <row r="67" spans="1:7">
@@ -1923,13 +1923,13 @@
         <v>29.142857142857</v>
       </c>
       <c r="E67" s="2">
-        <v>49574</v>
+        <v>49576</v>
       </c>
       <c r="F67" s="2">
         <v>1632</v>
       </c>
       <c r="G67" s="4">
-        <v>0.025964108438</v>
+        <v>0.025960804275</v>
       </c>
     </row>
     <row r="68" spans="1:7">
@@ -1946,13 +1946,13 @@
         <v>30.428571428571</v>
       </c>
       <c r="E68" s="2">
-        <v>50179</v>
+        <v>50181</v>
       </c>
       <c r="F68" s="2">
         <v>605</v>
       </c>
       <c r="G68" s="4">
-        <v>0.027554980595</v>
+        <v>0.027551416375</v>
       </c>
     </row>
     <row r="69" spans="1:7">
@@ -1969,7 +1969,7 @@
         <v>32.285714285714</v>
       </c>
       <c r="E69" s="2">
-        <v>50664</v>
+        <v>50666</v>
       </c>
       <c r="F69" s="2">
         <v>485</v>
@@ -1992,7 +1992,7 @@
         <v>34.571428571428</v>
       </c>
       <c r="E70" s="2">
-        <v>52502</v>
+        <v>52504</v>
       </c>
       <c r="F70" s="2">
         <v>1838</v>
@@ -2015,7 +2015,7 @@
         <v>36.285714285714</v>
       </c>
       <c r="E71" s="2">
-        <v>54352</v>
+        <v>54354</v>
       </c>
       <c r="F71" s="2">
         <v>1850</v>
@@ -2038,7 +2038,7 @@
         <v>39.857142857142</v>
       </c>
       <c r="E72" s="2">
-        <v>56343</v>
+        <v>56345</v>
       </c>
       <c r="F72" s="2">
         <v>1991</v>
@@ -2061,7 +2061,7 @@
         <v>40.285714285714</v>
       </c>
       <c r="E73" s="2">
-        <v>58484</v>
+        <v>58486</v>
       </c>
       <c r="F73" s="2">
         <v>2141</v>
@@ -2084,7 +2084,7 @@
         <v>41.857142857142</v>
       </c>
       <c r="E74" s="2">
-        <v>60728</v>
+        <v>60730</v>
       </c>
       <c r="F74" s="2">
         <v>2244</v>
@@ -2107,7 +2107,7 @@
         <v>44.142857142857</v>
       </c>
       <c r="E75" s="2">
-        <v>61566</v>
+        <v>61568</v>
       </c>
       <c r="F75" s="2">
         <v>838</v>
@@ -2130,7 +2130,7 @@
         <v>45.428571428571</v>
       </c>
       <c r="E76" s="2">
-        <v>62149</v>
+        <v>62151</v>
       </c>
       <c r="F76" s="2">
         <v>583</v>
@@ -2153,7 +2153,7 @@
         <v>46.714285714285</v>
       </c>
       <c r="E77" s="2">
-        <v>64365</v>
+        <v>64367</v>
       </c>
       <c r="F77" s="2">
         <v>2216</v>
@@ -2176,7 +2176,7 @@
         <v>52.571428571428</v>
       </c>
       <c r="E78" s="2">
-        <v>66886</v>
+        <v>66888</v>
       </c>
       <c r="F78" s="2">
         <v>2521</v>
@@ -2199,7 +2199,7 @@
         <v>57.285714285714</v>
       </c>
       <c r="E79" s="2">
-        <v>69457</v>
+        <v>69459</v>
       </c>
       <c r="F79" s="2">
         <v>2571</v>
@@ -2222,7 +2222,7 @@
         <v>62.57142857142801</v>
       </c>
       <c r="E80" s="2">
-        <v>71982</v>
+        <v>71984</v>
       </c>
       <c r="F80" s="2">
         <v>2525</v>
@@ -2245,7 +2245,7 @@
         <v>68.85714285714199</v>
       </c>
       <c r="E81" s="2">
-        <v>74425</v>
+        <v>74427</v>
       </c>
       <c r="F81" s="2">
         <v>2443</v>
@@ -2268,7 +2268,7 @@
         <v>71.428571428571</v>
       </c>
       <c r="E82" s="2">
-        <v>75377</v>
+        <v>75379</v>
       </c>
       <c r="F82" s="2">
         <v>952</v>
@@ -2291,7 +2291,7 @@
         <v>73.28571428571399</v>
       </c>
       <c r="E83" s="2">
-        <v>76074</v>
+        <v>76076</v>
       </c>
       <c r="F83" s="2">
         <v>697</v>
@@ -2314,7 +2314,7 @@
         <v>81</v>
       </c>
       <c r="E84" s="2">
-        <v>78694</v>
+        <v>78696</v>
       </c>
       <c r="F84" s="2">
         <v>2620</v>
@@ -2337,7 +2337,7 @@
         <v>88</v>
       </c>
       <c r="E85" s="2">
-        <v>81479</v>
+        <v>81481</v>
       </c>
       <c r="F85" s="2">
         <v>2785</v>
@@ -2360,7 +2360,7 @@
         <v>96</v>
       </c>
       <c r="E86" s="2">
-        <v>84507</v>
+        <v>84509</v>
       </c>
       <c r="F86" s="2">
         <v>3028</v>
@@ -2383,7 +2383,7 @@
         <v>104.714285714285</v>
       </c>
       <c r="E87" s="2">
-        <v>87865</v>
+        <v>87867</v>
       </c>
       <c r="F87" s="2">
         <v>3358</v>
@@ -2406,13 +2406,13 @@
         <v>114.285714285714</v>
       </c>
       <c r="E88" s="2">
-        <v>90831</v>
+        <v>90834</v>
       </c>
       <c r="F88" s="2">
-        <v>2966</v>
+        <v>2967</v>
       </c>
       <c r="G88" s="4">
-        <v>0.048762647811</v>
+        <v>0.048759675748</v>
       </c>
     </row>
     <row r="89" spans="1:7">
@@ -2429,13 +2429,13 @@
         <v>118.285714285714</v>
       </c>
       <c r="E89" s="2">
-        <v>91905</v>
+        <v>91908</v>
       </c>
       <c r="F89" s="2">
         <v>1074</v>
       </c>
       <c r="G89" s="4">
-        <v>0.050096805421</v>
+        <v>0.050093774578</v>
       </c>
     </row>
     <row r="90" spans="1:7">
@@ -2452,13 +2452,13 @@
         <v>121</v>
       </c>
       <c r="E90" s="2">
-        <v>92700</v>
+        <v>92703</v>
       </c>
       <c r="F90" s="2">
         <v>795</v>
       </c>
       <c r="G90" s="4">
-        <v>0.050944304102</v>
+        <v>0.050941240151</v>
       </c>
     </row>
     <row r="91" spans="1:7">
@@ -2475,13 +2475,13 @@
         <v>133.285714285714</v>
       </c>
       <c r="E91" s="2">
-        <v>96384</v>
+        <v>96387</v>
       </c>
       <c r="F91" s="2">
         <v>3684</v>
       </c>
       <c r="G91" s="4">
-        <v>0.052741661955</v>
+        <v>0.052738680685</v>
       </c>
     </row>
     <row r="92" spans="1:7">
@@ -2498,13 +2498,13 @@
         <v>136.857142857142</v>
       </c>
       <c r="E92" s="2">
-        <v>99860</v>
+        <v>99863</v>
       </c>
       <c r="F92" s="2">
         <v>3476</v>
       </c>
       <c r="G92" s="4">
-        <v>0.052119035961</v>
+        <v>0.052116200631</v>
       </c>
     </row>
     <row r="93" spans="1:7">
@@ -2521,13 +2521,13 @@
         <v>141.142857142857</v>
       </c>
       <c r="E93" s="2">
-        <v>103398</v>
+        <v>103403</v>
       </c>
       <c r="F93" s="2">
-        <v>3538</v>
+        <v>3540</v>
       </c>
       <c r="G93" s="4">
-        <v>0.052300037054</v>
+        <v>0.052291732825</v>
       </c>
     </row>
     <row r="94" spans="1:7">
@@ -2544,13 +2544,13 @@
         <v>149.714285714285</v>
       </c>
       <c r="E94" s="2">
-        <v>107319</v>
+        <v>107324</v>
       </c>
       <c r="F94" s="2">
         <v>3921</v>
       </c>
       <c r="G94" s="4">
-        <v>0.053870669271</v>
+        <v>0.053862363159</v>
       </c>
     </row>
     <row r="95" spans="1:7">
@@ -2558,22 +2558,22 @@
         <v>44015</v>
       </c>
       <c r="B95" s="2">
-        <v>4372</v>
+        <v>4373</v>
       </c>
       <c r="C95" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D95" s="3">
-        <v>146</v>
+        <v>146.142857142857</v>
       </c>
       <c r="E95" s="2">
-        <v>109959</v>
+        <v>109965</v>
       </c>
       <c r="F95" s="2">
-        <v>2640</v>
+        <v>2641</v>
       </c>
       <c r="G95" s="4">
-        <v>0.053429527394</v>
+        <v>0.053473420103</v>
       </c>
     </row>
     <row r="96" spans="1:7">
@@ -2581,22 +2581,22 @@
         <v>44016</v>
       </c>
       <c r="B96" s="2">
-        <v>4465</v>
+        <v>4466</v>
       </c>
       <c r="C96" s="2">
         <v>93</v>
       </c>
       <c r="D96" s="3">
-        <v>147.857142857142</v>
+        <v>148</v>
       </c>
       <c r="E96" s="2">
-        <v>111076</v>
+        <v>111082</v>
       </c>
       <c r="F96" s="2">
         <v>1117</v>
       </c>
       <c r="G96" s="4">
-        <v>0.053987794063</v>
+        <v>0.05403150099</v>
       </c>
     </row>
     <row r="97" spans="1:7">
@@ -2604,22 +2604,22 @@
         <v>44017</v>
       </c>
       <c r="B97" s="2">
-        <v>4551</v>
+        <v>4552</v>
       </c>
       <c r="C97" s="2">
         <v>86</v>
       </c>
       <c r="D97" s="3">
-        <v>151.714285714285</v>
+        <v>151.857142857142</v>
       </c>
       <c r="E97" s="2">
-        <v>112205</v>
+        <v>112211</v>
       </c>
       <c r="F97" s="2">
         <v>1129</v>
       </c>
       <c r="G97" s="4">
-        <v>0.054447577544</v>
+        <v>0.05449046545</v>
       </c>
     </row>
     <row r="98" spans="1:7">
@@ -2627,22 +2627,22 @@
         <v>44018</v>
       </c>
       <c r="B98" s="2">
-        <v>4755</v>
+        <v>4756</v>
       </c>
       <c r="C98" s="2">
         <v>204</v>
       </c>
       <c r="D98" s="3">
-        <v>152.714285714285</v>
+        <v>152.857142857142</v>
       </c>
       <c r="E98" s="2">
-        <v>116274</v>
+        <v>116281</v>
       </c>
       <c r="F98" s="2">
-        <v>4069</v>
+        <v>4070</v>
       </c>
       <c r="G98" s="4">
-        <v>0.053745600804</v>
+        <v>0.053785060822</v>
       </c>
     </row>
     <row r="99" spans="1:7">
@@ -2650,22 +2650,22 @@
         <v>44019</v>
       </c>
       <c r="B99" s="2">
-        <v>4971</v>
+        <v>4972</v>
       </c>
       <c r="C99" s="2">
         <v>216</v>
       </c>
       <c r="D99" s="3">
-        <v>161</v>
+        <v>161.142857142857</v>
       </c>
       <c r="E99" s="2">
-        <v>120346</v>
+        <v>120353</v>
       </c>
       <c r="F99" s="2">
         <v>4072</v>
       </c>
       <c r="G99" s="4">
-        <v>0.055013179732</v>
+        <v>0.055051244509</v>
       </c>
     </row>
     <row r="100" spans="1:7">
@@ -2673,22 +2673,22 @@
         <v>44020</v>
       </c>
       <c r="B100" s="2">
-        <v>5196</v>
+        <v>5197</v>
       </c>
       <c r="C100" s="2">
         <v>225</v>
       </c>
       <c r="D100" s="3">
-        <v>168.428571428571</v>
+        <v>168.571428571428</v>
       </c>
       <c r="E100" s="2">
-        <v>124602</v>
+        <v>124609</v>
       </c>
       <c r="F100" s="2">
         <v>4256</v>
       </c>
       <c r="G100" s="4">
-        <v>0.055602716468</v>
+        <v>0.055644628878</v>
       </c>
     </row>
     <row r="101" spans="1:7">
@@ -2696,22 +2696,22 @@
         <v>44021</v>
       </c>
       <c r="B101" s="2">
-        <v>5449</v>
+        <v>5450</v>
       </c>
       <c r="C101" s="2">
         <v>253</v>
       </c>
       <c r="D101" s="3">
-        <v>174.285714285714</v>
+        <v>174.428571428571</v>
       </c>
       <c r="E101" s="2">
-        <v>129199</v>
+        <v>129206</v>
       </c>
       <c r="F101" s="2">
         <v>4597</v>
       </c>
       <c r="G101" s="4">
-        <v>0.055758683729</v>
+        <v>0.055799287085</v>
       </c>
     </row>
     <row r="102" spans="1:7">
@@ -2719,7 +2719,7 @@
         <v>44022</v>
       </c>
       <c r="B102" s="2">
-        <v>5696</v>
+        <v>5697</v>
       </c>
       <c r="C102" s="2">
         <v>247</v>
@@ -2728,13 +2728,13 @@
         <v>189.142857142857</v>
       </c>
       <c r="E102" s="2">
-        <v>133661</v>
+        <v>133668</v>
       </c>
       <c r="F102" s="2">
         <v>4462</v>
       </c>
       <c r="G102" s="4">
-        <v>0.055860264956</v>
+        <v>0.055857908281</v>
       </c>
     </row>
     <row r="103" spans="1:7">
@@ -2745,19 +2745,19 @@
         <v>5836</v>
       </c>
       <c r="C103" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D103" s="3">
-        <v>195.857142857142</v>
+        <v>195.714285714285</v>
       </c>
       <c r="E103" s="2">
-        <v>135730</v>
+        <v>135737</v>
       </c>
       <c r="F103" s="2">
         <v>2069</v>
       </c>
       <c r="G103" s="4">
-        <v>0.055609637381</v>
+        <v>0.055566822145</v>
       </c>
     </row>
     <row r="104" spans="1:7">
@@ -2771,16 +2771,16 @@
         <v>101</v>
       </c>
       <c r="D104" s="3">
-        <v>198</v>
+        <v>197.857142857142</v>
       </c>
       <c r="E104" s="2">
-        <v>137055</v>
+        <v>137063</v>
       </c>
       <c r="F104" s="2">
-        <v>1325</v>
+        <v>1326</v>
       </c>
       <c r="G104" s="4">
-        <v>0.055774647887</v>
+        <v>0.055729921133</v>
       </c>
     </row>
     <row r="105" spans="1:7">
@@ -2794,16 +2794,16 @@
         <v>261</v>
       </c>
       <c r="D105" s="3">
-        <v>206.142857142857</v>
+        <v>206</v>
       </c>
       <c r="E105" s="2">
-        <v>141654</v>
+        <v>141663</v>
       </c>
       <c r="F105" s="2">
-        <v>4599</v>
+        <v>4600</v>
       </c>
       <c r="G105" s="4">
-        <v>0.056855791962</v>
+        <v>0.056811913954</v>
       </c>
     </row>
     <row r="106" spans="1:7">
@@ -2817,16 +2817,16 @@
         <v>253</v>
       </c>
       <c r="D106" s="3">
-        <v>211.428571428571</v>
+        <v>211.285714285714</v>
       </c>
       <c r="E106" s="2">
-        <v>145407</v>
+        <v>145416</v>
       </c>
       <c r="F106" s="2">
         <v>3753</v>
       </c>
       <c r="G106" s="4">
-        <v>0.059055903595</v>
+        <v>0.059011291545</v>
       </c>
     </row>
     <row r="107" spans="1:7">
@@ -2840,16 +2840,16 @@
         <v>260</v>
       </c>
       <c r="D107" s="3">
-        <v>216.428571428571</v>
+        <v>216.285714285714</v>
       </c>
       <c r="E107" s="2">
-        <v>149748</v>
+        <v>149758</v>
       </c>
       <c r="F107" s="2">
-        <v>4341</v>
+        <v>4342</v>
       </c>
       <c r="G107" s="4">
-        <v>0.060248150799</v>
+        <v>0.060201200842</v>
       </c>
     </row>
     <row r="108" spans="1:7">
@@ -2863,16 +2863,16 @@
         <v>255</v>
       </c>
       <c r="D108" s="3">
-        <v>216.714285714285</v>
+        <v>216.571428571428</v>
       </c>
       <c r="E108" s="2">
-        <v>153930</v>
+        <v>153940</v>
       </c>
       <c r="F108" s="2">
         <v>4182</v>
       </c>
       <c r="G108" s="4">
-        <v>0.0613400186</v>
+        <v>0.061292148459</v>
       </c>
     </row>
     <row r="109" spans="1:7">
@@ -2886,16 +2886,16 @@
         <v>252</v>
       </c>
       <c r="D109" s="3">
-        <v>217.428571428571</v>
+        <v>217.285714285714</v>
       </c>
       <c r="E109" s="2">
-        <v>158130</v>
+        <v>158140</v>
       </c>
       <c r="F109" s="2">
         <v>4200</v>
       </c>
       <c r="G109" s="4">
-        <v>0.062201152478</v>
+        <v>0.062152664269</v>
       </c>
     </row>
     <row r="110" spans="1:7">
@@ -2912,13 +2912,13 @@
         <v>215.857142857142</v>
       </c>
       <c r="E110" s="2">
-        <v>160352</v>
+        <v>160362</v>
       </c>
       <c r="F110" s="2">
         <v>2222</v>
       </c>
       <c r="G110" s="4">
-        <v>0.061367882381</v>
+        <v>0.061360406091</v>
       </c>
     </row>
     <row r="111" spans="1:7">
@@ -2935,13 +2935,13 @@
         <v>215.714285714285</v>
       </c>
       <c r="E111" s="2">
-        <v>161609</v>
+        <v>161620</v>
       </c>
       <c r="F111" s="2">
-        <v>1257</v>
+        <v>1258</v>
       </c>
       <c r="G111" s="4">
-        <v>0.061497108414</v>
+        <v>0.061489595634</v>
       </c>
     </row>
     <row r="112" spans="1:7">
@@ -2958,13 +2958,13 @@
         <v>220</v>
       </c>
       <c r="E112" s="2">
-        <v>165849</v>
+        <v>165861</v>
       </c>
       <c r="F112" s="2">
-        <v>4240</v>
+        <v>4241</v>
       </c>
       <c r="G112" s="4">
-        <v>0.063649514362</v>
+        <v>0.063641623274</v>
       </c>
     </row>
     <row r="113" spans="1:7">
@@ -2972,22 +2972,22 @@
         <v>44033</v>
       </c>
       <c r="B113" s="2">
-        <v>7980</v>
+        <v>7979</v>
       </c>
       <c r="C113" s="2">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D113" s="3">
-        <v>218.428571428571</v>
+        <v>218.285714285714</v>
       </c>
       <c r="E113" s="2">
-        <v>169674</v>
+        <v>169686</v>
       </c>
       <c r="F113" s="2">
         <v>3825</v>
       </c>
       <c r="G113" s="4">
-        <v>0.063007376272</v>
+        <v>0.062958384837</v>
       </c>
     </row>
     <row r="114" spans="1:7">
@@ -2995,22 +2995,22 @@
         <v>44034</v>
       </c>
       <c r="B114" s="2">
-        <v>8231</v>
+        <v>8230</v>
       </c>
       <c r="C114" s="2">
         <v>251</v>
       </c>
       <c r="D114" s="3">
-        <v>217.142857142857</v>
+        <v>217</v>
       </c>
       <c r="E114" s="2">
-        <v>173327</v>
+        <v>173342</v>
       </c>
       <c r="F114" s="2">
-        <v>3653</v>
+        <v>3656</v>
       </c>
       <c r="G114" s="4">
-        <v>0.06446414182100001</v>
+        <v>0.06440807327</v>
       </c>
     </row>
     <row r="115" spans="1:7">
@@ -3018,22 +3018,22 @@
         <v>44035</v>
       </c>
       <c r="B115" s="2">
-        <v>8462</v>
+        <v>8461</v>
       </c>
       <c r="C115" s="2">
         <v>231</v>
       </c>
       <c r="D115" s="3">
-        <v>213.714285714285</v>
+        <v>213.571428571428</v>
       </c>
       <c r="E115" s="2">
-        <v>176647</v>
+        <v>176663</v>
       </c>
       <c r="F115" s="2">
-        <v>3320</v>
+        <v>3321</v>
       </c>
       <c r="G115" s="4">
-        <v>0.065853765902</v>
+        <v>0.065792368965</v>
       </c>
     </row>
     <row r="116" spans="1:7">
@@ -3041,22 +3041,22 @@
         <v>44036</v>
       </c>
       <c r="B116" s="2">
-        <v>8681</v>
+        <v>8680</v>
       </c>
       <c r="C116" s="2">
         <v>219</v>
       </c>
       <c r="D116" s="3">
-        <v>209</v>
+        <v>208.857142857142</v>
       </c>
       <c r="E116" s="2">
-        <v>180278</v>
+        <v>180294</v>
       </c>
       <c r="F116" s="2">
         <v>3631</v>
       </c>
       <c r="G116" s="4">
-        <v>0.06605562579</v>
+        <v>0.065992597273</v>
       </c>
     </row>
     <row r="117" spans="1:7">
@@ -3064,22 +3064,22 @@
         <v>44037</v>
       </c>
       <c r="B117" s="2">
-        <v>8791</v>
+        <v>8790</v>
       </c>
       <c r="C117" s="2">
         <v>110</v>
       </c>
       <c r="D117" s="3">
-        <v>206.285714285714</v>
+        <v>206.142857142857</v>
       </c>
       <c r="E117" s="2">
-        <v>181895</v>
+        <v>181911</v>
       </c>
       <c r="F117" s="2">
         <v>1617</v>
       </c>
       <c r="G117" s="4">
-        <v>0.067028733231</v>
+        <v>0.06696366420700001</v>
       </c>
     </row>
     <row r="118" spans="1:7">
@@ -3087,22 +3087,22 @@
         <v>44038</v>
       </c>
       <c r="B118" s="2">
-        <v>8895</v>
+        <v>8894</v>
       </c>
       <c r="C118" s="2">
         <v>104</v>
       </c>
       <c r="D118" s="3">
-        <v>206.857142857142</v>
+        <v>206.714285714285</v>
       </c>
       <c r="E118" s="2">
-        <v>183149</v>
+        <v>183165</v>
       </c>
       <c r="F118" s="2">
         <v>1254</v>
       </c>
       <c r="G118" s="4">
-        <v>0.06722376972999999</v>
+        <v>0.067161754467</v>
       </c>
     </row>
     <row r="119" spans="1:7">
@@ -3110,22 +3110,22 @@
         <v>44039</v>
       </c>
       <c r="B119" s="2">
-        <v>9138</v>
+        <v>9137</v>
       </c>
       <c r="C119" s="2">
         <v>243</v>
       </c>
       <c r="D119" s="3">
-        <v>200</v>
+        <v>199.857142857142</v>
       </c>
       <c r="E119" s="2">
-        <v>187316</v>
+        <v>187333</v>
       </c>
       <c r="F119" s="2">
-        <v>4167</v>
+        <v>4168</v>
       </c>
       <c r="G119" s="4">
-        <v>0.065216378627</v>
+        <v>0.06515461996999999</v>
       </c>
     </row>
     <row r="120" spans="1:7">
@@ -3133,7 +3133,7 @@
         <v>44040</v>
       </c>
       <c r="B120" s="2">
-        <v>9384</v>
+        <v>9383</v>
       </c>
       <c r="C120" s="2">
         <v>246</v>
@@ -3142,13 +3142,13 @@
         <v>200.571428571428</v>
       </c>
       <c r="E120" s="2">
-        <v>191185</v>
+        <v>191202</v>
       </c>
       <c r="F120" s="2">
         <v>3869</v>
       </c>
       <c r="G120" s="4">
-        <v>0.065268932174</v>
+        <v>0.06525376464</v>
       </c>
     </row>
     <row r="121" spans="1:7">
@@ -3156,7 +3156,7 @@
         <v>44041</v>
       </c>
       <c r="B121" s="2">
-        <v>9633</v>
+        <v>9632</v>
       </c>
       <c r="C121" s="2">
         <v>249</v>
@@ -3165,13 +3165,13 @@
         <v>200.285714285714</v>
       </c>
       <c r="E121" s="2">
-        <v>195040</v>
+        <v>195057</v>
       </c>
       <c r="F121" s="2">
         <v>3855</v>
       </c>
       <c r="G121" s="4">
-        <v>0.06456961267399999</v>
+        <v>0.06456366566799999</v>
       </c>
     </row>
     <row r="122" spans="1:7">
@@ -3179,7 +3179,7 @@
         <v>44042</v>
       </c>
       <c r="B122" s="2">
-        <v>9849</v>
+        <v>9848</v>
       </c>
       <c r="C122" s="2">
         <v>216</v>
@@ -3188,13 +3188,13 @@
         <v>198.142857142857</v>
       </c>
       <c r="E122" s="2">
-        <v>198709</v>
+        <v>198726</v>
       </c>
       <c r="F122" s="2">
         <v>3669</v>
       </c>
       <c r="G122" s="4">
-        <v>0.0628682803</v>
+        <v>0.062865430811</v>
       </c>
     </row>
     <row r="123" spans="1:7">
@@ -3202,7 +3202,7 @@
         <v>44043</v>
       </c>
       <c r="B123" s="2">
-        <v>10082</v>
+        <v>10081</v>
       </c>
       <c r="C123" s="2">
         <v>233</v>
@@ -3211,13 +3211,13 @@
         <v>200.142857142857</v>
       </c>
       <c r="E123" s="2">
-        <v>202245</v>
+        <v>202262</v>
       </c>
       <c r="F123" s="2">
         <v>3536</v>
       </c>
       <c r="G123" s="4">
-        <v>0.063777484408</v>
+        <v>0.06377458120899999</v>
       </c>
     </row>
     <row r="124" spans="1:7">
@@ -3225,7 +3225,7 @@
         <v>44044</v>
       </c>
       <c r="B124" s="2">
-        <v>10189</v>
+        <v>10188</v>
       </c>
       <c r="C124" s="2">
         <v>107</v>
@@ -3234,13 +3234,13 @@
         <v>199.714285714285</v>
       </c>
       <c r="E124" s="2">
-        <v>203834</v>
+        <v>203851</v>
       </c>
       <c r="F124" s="2">
         <v>1589</v>
       </c>
       <c r="G124" s="4">
-        <v>0.06372213865699999</v>
+        <v>0.06371923427499999</v>
       </c>
     </row>
     <row r="125" spans="1:7">
@@ -3248,7 +3248,7 @@
         <v>44045</v>
       </c>
       <c r="B125" s="2">
-        <v>10268</v>
+        <v>10267</v>
       </c>
       <c r="C125" s="2">
         <v>79</v>
@@ -3257,13 +3257,13 @@
         <v>196.142857142857</v>
       </c>
       <c r="E125" s="2">
-        <v>204957</v>
+        <v>204974</v>
       </c>
       <c r="F125" s="2">
         <v>1123</v>
       </c>
       <c r="G125" s="4">
-        <v>0.062958547322</v>
+        <v>0.06295566050699999</v>
       </c>
     </row>
     <row r="126" spans="1:7">
@@ -3271,7 +3271,7 @@
         <v>44046</v>
       </c>
       <c r="B126" s="2">
-        <v>10521</v>
+        <v>10520</v>
       </c>
       <c r="C126" s="2">
         <v>253</v>
@@ -3280,7 +3280,7 @@
         <v>197.571428571428</v>
       </c>
       <c r="E126" s="2">
-        <v>208752</v>
+        <v>208769</v>
       </c>
       <c r="F126" s="2">
         <v>3795</v>
@@ -3294,22 +3294,22 @@
         <v>44047</v>
       </c>
       <c r="B127" s="2">
-        <v>10749</v>
+        <v>10750</v>
       </c>
       <c r="C127" s="2">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="D127" s="3">
-        <v>195</v>
+        <v>195.285714285714</v>
       </c>
       <c r="E127" s="2">
-        <v>212041</v>
+        <v>212060</v>
       </c>
       <c r="F127" s="2">
-        <v>3289</v>
+        <v>3291</v>
       </c>
       <c r="G127" s="4">
-        <v>0.065448791714</v>
+        <v>0.065538402531</v>
       </c>
     </row>
     <row r="128" spans="1:7">
@@ -3317,22 +3317,22 @@
         <v>44048</v>
       </c>
       <c r="B128" s="2">
-        <v>10927</v>
+        <v>10930</v>
       </c>
       <c r="C128" s="2">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="D128" s="3">
-        <v>184.857142857142</v>
+        <v>185.428571428571</v>
       </c>
       <c r="E128" s="2">
-        <v>215239</v>
+        <v>215260</v>
       </c>
       <c r="F128" s="2">
-        <v>3198</v>
+        <v>3200</v>
       </c>
       <c r="G128" s="4">
-        <v>0.064062577355</v>
+        <v>0.064247883977</v>
       </c>
     </row>
     <row r="129" spans="1:7">
@@ -3340,22 +3340,22 @@
         <v>44049</v>
       </c>
       <c r="B129" s="2">
-        <v>11122</v>
+        <v>11125</v>
       </c>
       <c r="C129" s="2">
         <v>195</v>
       </c>
       <c r="D129" s="3">
-        <v>181.857142857142</v>
+        <v>182.428571428571</v>
       </c>
       <c r="E129" s="2">
-        <v>218889</v>
+        <v>218909</v>
       </c>
       <c r="F129" s="2">
-        <v>3650</v>
+        <v>3649</v>
       </c>
       <c r="G129" s="4">
-        <v>0.063082259663</v>
+        <v>0.063271069712</v>
       </c>
     </row>
     <row r="130" spans="1:7">
@@ -3363,22 +3363,22 @@
         <v>44050</v>
       </c>
       <c r="B130" s="2">
-        <v>11295</v>
+        <v>11300</v>
       </c>
       <c r="C130" s="2">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="D130" s="3">
-        <v>173.285714285714</v>
+        <v>174.142857142857</v>
       </c>
       <c r="E130" s="2">
-        <v>222150</v>
+        <v>222172</v>
       </c>
       <c r="F130" s="2">
-        <v>3261</v>
+        <v>3263</v>
       </c>
       <c r="G130" s="4">
-        <v>0.060939462446</v>
+        <v>0.061225514816</v>
       </c>
     </row>
     <row r="131" spans="1:7">
@@ -3386,22 +3386,22 @@
         <v>44051</v>
       </c>
       <c r="B131" s="2">
-        <v>11404</v>
+        <v>11411</v>
       </c>
       <c r="C131" s="2">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="D131" s="3">
-        <v>173.571428571428</v>
+        <v>174.714285714285</v>
       </c>
       <c r="E131" s="2">
-        <v>223841</v>
+        <v>223865</v>
       </c>
       <c r="F131" s="2">
-        <v>1691</v>
+        <v>1693</v>
       </c>
       <c r="G131" s="4">
-        <v>0.060728744939</v>
+        <v>0.061107224942</v>
       </c>
     </row>
     <row r="132" spans="1:7">
@@ -3409,22 +3409,22 @@
         <v>44052</v>
       </c>
       <c r="B132" s="2">
-        <v>11486</v>
+        <v>11493</v>
       </c>
       <c r="C132" s="2">
         <v>82</v>
       </c>
       <c r="D132" s="3">
-        <v>174</v>
+        <v>175.142857142857</v>
       </c>
       <c r="E132" s="2">
-        <v>224883</v>
+        <v>224907</v>
       </c>
       <c r="F132" s="2">
         <v>1042</v>
       </c>
       <c r="G132" s="4">
-        <v>0.061126166817</v>
+        <v>0.061506045251</v>
       </c>
     </row>
     <row r="133" spans="1:7">
@@ -3432,22 +3432,22 @@
         <v>44053</v>
       </c>
       <c r="B133" s="2">
-        <v>11723</v>
+        <v>11730</v>
       </c>
       <c r="C133" s="2">
         <v>237</v>
       </c>
       <c r="D133" s="3">
-        <v>171.714285714285</v>
+        <v>172.857142857142</v>
       </c>
       <c r="E133" s="2">
-        <v>228776</v>
+        <v>228800</v>
       </c>
       <c r="F133" s="2">
         <v>3893</v>
       </c>
       <c r="G133" s="4">
-        <v>0.06002796644</v>
+        <v>0.060406370126</v>
       </c>
     </row>
     <row r="134" spans="1:7">
@@ -3455,22 +3455,22 @@
         <v>44054</v>
       </c>
       <c r="B134" s="2">
-        <v>11923</v>
+        <v>11931</v>
       </c>
       <c r="C134" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D134" s="3">
-        <v>167.714285714285</v>
+        <v>168.714285714285</v>
       </c>
       <c r="E134" s="2">
-        <v>232191</v>
+        <v>232215</v>
       </c>
       <c r="F134" s="2">
         <v>3415</v>
       </c>
       <c r="G134" s="4">
-        <v>0.058263027295</v>
+        <v>0.058595881915</v>
       </c>
     </row>
     <row r="135" spans="1:7">
@@ -3478,22 +3478,22 @@
         <v>44055</v>
       </c>
       <c r="B135" s="2">
-        <v>12124</v>
+        <v>12132</v>
       </c>
       <c r="C135" s="2">
         <v>201</v>
       </c>
       <c r="D135" s="3">
-        <v>171</v>
+        <v>171.714285714285</v>
       </c>
       <c r="E135" s="2">
-        <v>236045</v>
+        <v>236069</v>
       </c>
       <c r="F135" s="2">
         <v>3854</v>
       </c>
       <c r="G135" s="4">
-        <v>0.057531481303</v>
+        <v>0.05776346773</v>
       </c>
     </row>
     <row r="136" spans="1:7">
@@ -3501,22 +3501,22 @@
         <v>44056</v>
       </c>
       <c r="B136" s="2">
-        <v>12302</v>
+        <v>12310</v>
       </c>
       <c r="C136" s="2">
         <v>178</v>
       </c>
       <c r="D136" s="3">
-        <v>168.571428571428</v>
+        <v>169.285714285714</v>
       </c>
       <c r="E136" s="2">
-        <v>239312</v>
+        <v>239336</v>
       </c>
       <c r="F136" s="2">
         <v>3267</v>
       </c>
       <c r="G136" s="4">
-        <v>0.057777995397</v>
+        <v>0.058011455426</v>
       </c>
     </row>
     <row r="137" spans="1:7">
@@ -3524,22 +3524,22 @@
         <v>44057</v>
       </c>
       <c r="B137" s="2">
-        <v>12476</v>
+        <v>12484</v>
       </c>
       <c r="C137" s="2">
         <v>174</v>
       </c>
       <c r="D137" s="3">
-        <v>168.714285714285</v>
+        <v>169.142857142857</v>
       </c>
       <c r="E137" s="2">
-        <v>242667</v>
+        <v>242692</v>
       </c>
       <c r="F137" s="2">
-        <v>3355</v>
+        <v>3356</v>
       </c>
       <c r="G137" s="4">
-        <v>0.057562021738</v>
+        <v>0.057699805068</v>
       </c>
     </row>
     <row r="138" spans="1:7">
@@ -3547,22 +3547,22 @@
         <v>44058</v>
       </c>
       <c r="B138" s="2">
-        <v>12569</v>
+        <v>12577</v>
       </c>
       <c r="C138" s="2">
         <v>93</v>
       </c>
       <c r="D138" s="3">
-        <v>166.428571428571</v>
+        <v>166.571428571428</v>
       </c>
       <c r="E138" s="2">
-        <v>244228</v>
+        <v>244253</v>
       </c>
       <c r="F138" s="2">
         <v>1561</v>
       </c>
       <c r="G138" s="4">
-        <v>0.057144258596</v>
+        <v>0.057190504218</v>
       </c>
     </row>
     <row r="139" spans="1:7">
@@ -3570,22 +3570,22 @@
         <v>44059</v>
       </c>
       <c r="B139" s="2">
-        <v>12614</v>
+        <v>12622</v>
       </c>
       <c r="C139" s="2">
         <v>45</v>
       </c>
       <c r="D139" s="3">
-        <v>161.142857142857</v>
+        <v>161.285714285714</v>
       </c>
       <c r="E139" s="2">
-        <v>245004</v>
+        <v>245029</v>
       </c>
       <c r="F139" s="2">
         <v>776</v>
       </c>
       <c r="G139" s="4">
-        <v>0.056060831966</v>
+        <v>0.056107742769</v>
       </c>
     </row>
     <row r="140" spans="1:7">
@@ -3593,22 +3593,22 @@
         <v>44060</v>
       </c>
       <c r="B140" s="2">
-        <v>12826</v>
+        <v>12834</v>
       </c>
       <c r="C140" s="2">
         <v>212</v>
       </c>
       <c r="D140" s="3">
-        <v>157.571428571428</v>
+        <v>157.714285714285</v>
       </c>
       <c r="E140" s="2">
-        <v>248660</v>
+        <v>248685</v>
       </c>
       <c r="F140" s="2">
         <v>3656</v>
       </c>
       <c r="G140" s="4">
-        <v>0.055471736069</v>
+        <v>0.055519235604</v>
       </c>
     </row>
     <row r="141" spans="1:7">
@@ -3616,7 +3616,7 @@
         <v>44061</v>
       </c>
       <c r="B141" s="2">
-        <v>12993</v>
+        <v>13001</v>
       </c>
       <c r="C141" s="2">
         <v>167</v>
@@ -3625,13 +3625,13 @@
         <v>152.857142857142</v>
       </c>
       <c r="E141" s="2">
-        <v>251725</v>
+        <v>251750</v>
       </c>
       <c r="F141" s="2">
         <v>3065</v>
       </c>
       <c r="G141" s="4">
-        <v>0.054776287498</v>
+        <v>0.054773483491</v>
       </c>
     </row>
     <row r="142" spans="1:7">
@@ -3639,7 +3639,7 @@
         <v>44062</v>
       </c>
       <c r="B142" s="2">
-        <v>13151</v>
+        <v>13159</v>
       </c>
       <c r="C142" s="2">
         <v>158</v>
@@ -3648,13 +3648,13 @@
         <v>146.714285714285</v>
       </c>
       <c r="E142" s="2">
-        <v>254776</v>
+        <v>254803</v>
       </c>
       <c r="F142" s="2">
-        <v>3051</v>
+        <v>3053</v>
       </c>
       <c r="G142" s="4">
-        <v>0.054828893278</v>
+        <v>0.054820113163</v>
       </c>
     </row>
     <row r="143" spans="1:7">
@@ -3662,7 +3662,7 @@
         <v>44063</v>
       </c>
       <c r="B143" s="2">
-        <v>13282</v>
+        <v>13290</v>
       </c>
       <c r="C143" s="2">
         <v>131</v>
@@ -3671,13 +3671,13 @@
         <v>140</v>
       </c>
       <c r="E143" s="2">
-        <v>257940</v>
+        <v>257967</v>
       </c>
       <c r="F143" s="2">
         <v>3164</v>
       </c>
       <c r="G143" s="4">
-        <v>0.052608975735</v>
+        <v>0.052600504535</v>
       </c>
     </row>
     <row r="144" spans="1:7">
@@ -3685,7 +3685,7 @@
         <v>44064</v>
       </c>
       <c r="B144" s="2">
-        <v>13444</v>
+        <v>13452</v>
       </c>
       <c r="C144" s="2">
         <v>162</v>
@@ -3694,13 +3694,13 @@
         <v>138.285714285714</v>
       </c>
       <c r="E144" s="2">
-        <v>260976</v>
+        <v>261003</v>
       </c>
       <c r="F144" s="2">
         <v>3036</v>
       </c>
       <c r="G144" s="4">
-        <v>0.052870173138</v>
+        <v>0.052864398449</v>
       </c>
     </row>
     <row r="145" spans="1:7">
@@ -3708,7 +3708,7 @@
         <v>44065</v>
       </c>
       <c r="B145" s="2">
-        <v>13505</v>
+        <v>13513</v>
       </c>
       <c r="C145" s="2">
         <v>61</v>
@@ -3717,13 +3717,13 @@
         <v>133.714285714285</v>
       </c>
       <c r="E145" s="2">
-        <v>262304</v>
+        <v>262332</v>
       </c>
       <c r="F145" s="2">
-        <v>1328</v>
+        <v>1329</v>
       </c>
       <c r="G145" s="4">
-        <v>0.051781367559</v>
+        <v>0.051772775042</v>
       </c>
     </row>
     <row r="146" spans="1:7">
@@ -3731,7 +3731,7 @@
         <v>44066</v>
       </c>
       <c r="B146" s="2">
-        <v>13571</v>
+        <v>13579</v>
       </c>
       <c r="C146" s="2">
         <v>66</v>
@@ -3740,13 +3740,13 @@
         <v>136.714285714285</v>
       </c>
       <c r="E146" s="2">
-        <v>263264</v>
+        <v>263297</v>
       </c>
       <c r="F146" s="2">
-        <v>960</v>
+        <v>965</v>
       </c>
       <c r="G146" s="4">
-        <v>0.052409638554</v>
+        <v>0.052386687103</v>
       </c>
     </row>
     <row r="147" spans="1:7">
@@ -3754,7 +3754,7 @@
         <v>44067</v>
       </c>
       <c r="B147" s="2">
-        <v>13720</v>
+        <v>13728</v>
       </c>
       <c r="C147" s="2">
         <v>149</v>
@@ -3763,13 +3763,13 @@
         <v>127.714285714285</v>
       </c>
       <c r="E147" s="2">
-        <v>266236</v>
+        <v>266269</v>
       </c>
       <c r="F147" s="2">
         <v>2972</v>
       </c>
       <c r="G147" s="4">
-        <v>0.050864815657</v>
+        <v>0.050841674249</v>
       </c>
     </row>
     <row r="148" spans="1:7">
@@ -3777,7 +3777,7 @@
         <v>44068</v>
       </c>
       <c r="B148" s="2">
-        <v>13853</v>
+        <v>13861</v>
       </c>
       <c r="C148" s="2">
         <v>133</v>
@@ -3786,13 +3786,13 @@
         <v>122.857142857142</v>
       </c>
       <c r="E148" s="2">
-        <v>269243</v>
+        <v>269276</v>
       </c>
       <c r="F148" s="2">
         <v>3007</v>
       </c>
       <c r="G148" s="4">
-        <v>0.049092362141</v>
+        <v>0.049069953212</v>
       </c>
     </row>
     <row r="149" spans="1:7">
@@ -3800,7 +3800,7 @@
         <v>44069</v>
       </c>
       <c r="B149" s="2">
-        <v>13987</v>
+        <v>13995</v>
       </c>
       <c r="C149" s="2">
         <v>134</v>
@@ -3809,13 +3809,13 @@
         <v>119.428571428571</v>
       </c>
       <c r="E149" s="2">
-        <v>272191</v>
+        <v>272224</v>
       </c>
       <c r="F149" s="2">
         <v>2948</v>
       </c>
       <c r="G149" s="4">
-        <v>0.048004593741</v>
+        <v>0.047988060386</v>
       </c>
     </row>
     <row r="150" spans="1:7">
@@ -3823,7 +3823,7 @@
         <v>44070</v>
       </c>
       <c r="B150" s="2">
-        <v>14152</v>
+        <v>14160</v>
       </c>
       <c r="C150" s="2">
         <v>165</v>
@@ -3832,13 +3832,13 @@
         <v>124.285714285714</v>
       </c>
       <c r="E150" s="2">
-        <v>275419</v>
+        <v>275452</v>
       </c>
       <c r="F150" s="2">
         <v>3228</v>
       </c>
       <c r="G150" s="4">
-        <v>0.049774014531</v>
+        <v>0.049756934515</v>
       </c>
     </row>
     <row r="151" spans="1:7">
@@ -3846,7 +3846,7 @@
         <v>44071</v>
       </c>
       <c r="B151" s="2">
-        <v>14269</v>
+        <v>14277</v>
       </c>
       <c r="C151" s="2">
         <v>117</v>
@@ -3855,13 +3855,13 @@
         <v>117.857142857142</v>
       </c>
       <c r="E151" s="2">
-        <v>278188</v>
+        <v>278221</v>
       </c>
       <c r="F151" s="2">
         <v>2769</v>
       </c>
       <c r="G151" s="4">
-        <v>0.047931675575</v>
+        <v>0.047914972702</v>
       </c>
     </row>
     <row r="152" spans="1:7">
@@ -3869,7 +3869,7 @@
         <v>44072</v>
       </c>
       <c r="B152" s="2">
-        <v>14333</v>
+        <v>14341</v>
       </c>
       <c r="C152" s="2">
         <v>64</v>
@@ -3878,13 +3878,13 @@
         <v>118.285714285714</v>
       </c>
       <c r="E152" s="2">
-        <v>279621</v>
+        <v>279654</v>
       </c>
       <c r="F152" s="2">
         <v>1433</v>
       </c>
       <c r="G152" s="4">
-        <v>0.047814286539</v>
+        <v>0.047800484932</v>
       </c>
     </row>
     <row r="153" spans="1:7">
@@ -3892,7 +3892,7 @@
         <v>44073</v>
       </c>
       <c r="B153" s="2">
-        <v>14390</v>
+        <v>14398</v>
       </c>
       <c r="C153" s="2">
         <v>57</v>
@@ -3901,7 +3901,7 @@
         <v>117</v>
       </c>
       <c r="E153" s="2">
-        <v>280699</v>
+        <v>280732</v>
       </c>
       <c r="F153" s="2">
         <v>1078</v>
@@ -3915,7 +3915,7 @@
         <v>44074</v>
       </c>
       <c r="B154" s="2">
-        <v>14527</v>
+        <v>14535</v>
       </c>
       <c r="C154" s="2">
         <v>137</v>
@@ -3924,13 +3924,13 @@
         <v>115.285714285714</v>
       </c>
       <c r="E154" s="2">
-        <v>283822</v>
+        <v>283856</v>
       </c>
       <c r="F154" s="2">
-        <v>3123</v>
+        <v>3124</v>
       </c>
       <c r="G154" s="4">
-        <v>0.045888775162</v>
+        <v>0.045886165918</v>
       </c>
     </row>
     <row r="155" spans="1:7">
@@ -3938,7 +3938,7 @@
         <v>44075</v>
       </c>
       <c r="B155" s="2">
-        <v>14657</v>
+        <v>14665</v>
       </c>
       <c r="C155" s="2">
         <v>130</v>
@@ -3947,13 +3947,13 @@
         <v>114.857142857142</v>
       </c>
       <c r="E155" s="2">
-        <v>287086</v>
+        <v>287121</v>
       </c>
       <c r="F155" s="2">
-        <v>3264</v>
+        <v>3265</v>
       </c>
       <c r="G155" s="4">
-        <v>0.045059687272</v>
+        <v>0.045054637153</v>
       </c>
     </row>
     <row r="156" spans="1:7">
@@ -3961,7 +3961,7 @@
         <v>44076</v>
       </c>
       <c r="B156" s="2">
-        <v>14772</v>
+        <v>14780</v>
       </c>
       <c r="C156" s="2">
         <v>115</v>
@@ -3970,13 +3970,13 @@
         <v>112.142857142857</v>
       </c>
       <c r="E156" s="2">
-        <v>290051</v>
+        <v>290086</v>
       </c>
       <c r="F156" s="2">
         <v>2965</v>
       </c>
       <c r="G156" s="4">
-        <v>0.043952967525</v>
+        <v>0.043948046131</v>
       </c>
     </row>
     <row r="157" spans="1:7">
@@ -3984,7 +3984,7 @@
         <v>44077</v>
       </c>
       <c r="B157" s="2">
-        <v>14867</v>
+        <v>14875</v>
       </c>
       <c r="C157" s="2">
         <v>95</v>
@@ -3993,13 +3993,13 @@
         <v>102.142857142857</v>
       </c>
       <c r="E157" s="2">
-        <v>292981</v>
+        <v>293015</v>
       </c>
       <c r="F157" s="2">
-        <v>2930</v>
+        <v>2929</v>
       </c>
       <c r="G157" s="4">
-        <v>0.040712902858</v>
+        <v>0.040710584752</v>
       </c>
     </row>
     <row r="158" spans="1:7">
@@ -4007,7 +4007,7 @@
         <v>44078</v>
       </c>
       <c r="B158" s="2">
-        <v>14988</v>
+        <v>14996</v>
       </c>
       <c r="C158" s="2">
         <v>121</v>
@@ -4016,13 +4016,13 @@
         <v>102.714285714285</v>
       </c>
       <c r="E158" s="2">
-        <v>295783</v>
+        <v>295817</v>
       </c>
       <c r="F158" s="2">
         <v>2802</v>
       </c>
       <c r="G158" s="4">
-        <v>0.040863881784</v>
+        <v>0.040861559445</v>
       </c>
     </row>
     <row r="159" spans="1:7">
@@ -4030,7 +4030,7 @@
         <v>44079</v>
       </c>
       <c r="B159" s="2">
-        <v>15054</v>
+        <v>15062</v>
       </c>
       <c r="C159" s="2">
         <v>66</v>
@@ -4039,13 +4039,13 @@
         <v>103</v>
       </c>
       <c r="E159" s="2">
-        <v>297119</v>
+        <v>297153</v>
       </c>
       <c r="F159" s="2">
         <v>1336</v>
       </c>
       <c r="G159" s="4">
-        <v>0.041204709109</v>
+        <v>0.04120235442</v>
       </c>
     </row>
     <row r="160" spans="1:7">
@@ -4053,7 +4053,7 @@
         <v>44080</v>
       </c>
       <c r="B160" s="2">
-        <v>15107</v>
+        <v>15115</v>
       </c>
       <c r="C160" s="2">
         <v>53</v>
@@ -4062,13 +4062,13 @@
         <v>102.428571428571</v>
       </c>
       <c r="E160" s="2">
-        <v>298205</v>
+        <v>298239</v>
       </c>
       <c r="F160" s="2">
         <v>1086</v>
       </c>
       <c r="G160" s="4">
-        <v>0.040957386039</v>
+        <v>0.040955046552</v>
       </c>
     </row>
     <row r="161" spans="1:7">
@@ -4076,7 +4076,7 @@
         <v>44081</v>
       </c>
       <c r="B161" s="2">
-        <v>15175</v>
+        <v>15183</v>
       </c>
       <c r="C161" s="2">
         <v>68</v>
@@ -4085,13 +4085,13 @@
         <v>92.571428571428</v>
       </c>
       <c r="E161" s="2">
-        <v>299455</v>
+        <v>299490</v>
       </c>
       <c r="F161" s="2">
-        <v>1250</v>
+        <v>1251</v>
       </c>
       <c r="G161" s="4">
-        <v>0.041450777202</v>
+        <v>0.041448125879</v>
       </c>
     </row>
     <row r="162" spans="1:7">
@@ -4099,7 +4099,7 @@
         <v>44082</v>
       </c>
       <c r="B162" s="2">
-        <v>15319</v>
+        <v>15327</v>
       </c>
       <c r="C162" s="2">
         <v>144</v>
@@ -4108,13 +4108,13 @@
         <v>94.571428571428</v>
       </c>
       <c r="E162" s="2">
-        <v>303726</v>
+        <v>303762</v>
       </c>
       <c r="F162" s="2">
-        <v>4271</v>
+        <v>4272</v>
       </c>
       <c r="G162" s="4">
-        <v>0.039783653846</v>
+        <v>0.039781263145</v>
       </c>
     </row>
     <row r="163" spans="1:7">
@@ -4122,7 +4122,7 @@
         <v>44083</v>
       </c>
       <c r="B163" s="2">
-        <v>15469</v>
+        <v>15477</v>
       </c>
       <c r="C163" s="2">
         <v>150</v>
@@ -4131,10 +4131,10 @@
         <v>99.571428571428</v>
       </c>
       <c r="E163" s="2">
-        <v>307231</v>
+        <v>307266</v>
       </c>
       <c r="F163" s="2">
-        <v>3505</v>
+        <v>3504</v>
       </c>
       <c r="G163" s="4">
         <v>0.040570430733</v>
@@ -4145,7 +4145,7 @@
         <v>44084</v>
       </c>
       <c r="B164" s="2">
-        <v>15571</v>
+        <v>15579</v>
       </c>
       <c r="C164" s="2">
         <v>102</v>
@@ -4154,13 +4154,13 @@
         <v>100.571428571428</v>
       </c>
       <c r="E164" s="2">
-        <v>310501</v>
+        <v>310534</v>
       </c>
       <c r="F164" s="2">
-        <v>3270</v>
+        <v>3268</v>
       </c>
       <c r="G164" s="4">
-        <v>0.040182648401</v>
+        <v>0.040184942062</v>
       </c>
     </row>
     <row r="165" spans="1:7">
@@ -4168,7 +4168,7 @@
         <v>44085</v>
       </c>
       <c r="B165" s="2">
-        <v>15643</v>
+        <v>15651</v>
       </c>
       <c r="C165" s="2">
         <v>72</v>
@@ -4177,13 +4177,13 @@
         <v>93.571428571428</v>
       </c>
       <c r="E165" s="2">
-        <v>312991</v>
+        <v>313024</v>
       </c>
       <c r="F165" s="2">
         <v>2490</v>
       </c>
       <c r="G165" s="4">
-        <v>0.038063691306</v>
+        <v>0.038065903411</v>
       </c>
     </row>
     <row r="166" spans="1:7">
@@ -4191,7 +4191,7 @@
         <v>44086</v>
       </c>
       <c r="B166" s="2">
-        <v>15692</v>
+        <v>15700</v>
       </c>
       <c r="C166" s="2">
         <v>49</v>
@@ -4200,13 +4200,13 @@
         <v>91.142857142857</v>
       </c>
       <c r="E166" s="2">
-        <v>314385</v>
+        <v>314418</v>
       </c>
       <c r="F166" s="2">
         <v>1394</v>
       </c>
       <c r="G166" s="4">
-        <v>0.036951233638</v>
+        <v>0.036953373877</v>
       </c>
     </row>
     <row r="167" spans="1:7">
@@ -4214,7 +4214,7 @@
         <v>44087</v>
       </c>
       <c r="B167" s="2">
-        <v>15724</v>
+        <v>15732</v>
       </c>
       <c r="C167" s="2">
         <v>32</v>
@@ -4223,13 +4223,13 @@
         <v>88.142857142857</v>
       </c>
       <c r="E167" s="2">
-        <v>315227</v>
+        <v>315260</v>
       </c>
       <c r="F167" s="2">
         <v>842</v>
       </c>
       <c r="G167" s="4">
-        <v>0.036247209493</v>
+        <v>0.036249339051</v>
       </c>
     </row>
     <row r="168" spans="1:7">
@@ -4237,7 +4237,7 @@
         <v>44088</v>
       </c>
       <c r="B168" s="2">
-        <v>15824</v>
+        <v>15832</v>
       </c>
       <c r="C168" s="2">
         <v>100</v>
@@ -4246,13 +4246,13 @@
         <v>92.714285714285</v>
       </c>
       <c r="E168" s="2">
-        <v>318605</v>
+        <v>318637</v>
       </c>
       <c r="F168" s="2">
-        <v>3378</v>
+        <v>3377</v>
       </c>
       <c r="G168" s="4">
-        <v>0.033890339425</v>
+        <v>0.033895649448</v>
       </c>
     </row>
     <row r="169" spans="1:7">
@@ -4260,7 +4260,7 @@
         <v>44089</v>
       </c>
       <c r="B169" s="2">
-        <v>15955</v>
+        <v>15963</v>
       </c>
       <c r="C169" s="2">
         <v>131</v>
@@ -4269,13 +4269,13 @@
         <v>90.85714285714199</v>
       </c>
       <c r="E169" s="2">
-        <v>322558</v>
+        <v>322590</v>
       </c>
       <c r="F169" s="2">
         <v>3953</v>
       </c>
       <c r="G169" s="4">
-        <v>0.033772302463</v>
+        <v>0.033779477374</v>
       </c>
     </row>
     <row r="170" spans="1:7">
@@ -4283,7 +4283,7 @@
         <v>44090</v>
       </c>
       <c r="B170" s="2">
-        <v>16041</v>
+        <v>16049</v>
       </c>
       <c r="C170" s="2">
         <v>86</v>
@@ -4292,13 +4292,13 @@
         <v>81.714285714285</v>
       </c>
       <c r="E170" s="2">
-        <v>325847</v>
+        <v>325879</v>
       </c>
       <c r="F170" s="2">
         <v>3289</v>
       </c>
       <c r="G170" s="4">
-        <v>0.030726256983</v>
+        <v>0.030731209369</v>
       </c>
     </row>
     <row r="171" spans="1:7">
@@ -4306,7 +4306,7 @@
         <v>44091</v>
       </c>
       <c r="B171" s="2">
-        <v>16144</v>
+        <v>16152</v>
       </c>
       <c r="C171" s="2">
         <v>103</v>
@@ -4315,13 +4315,13 @@
         <v>81.85714285714199</v>
       </c>
       <c r="E171" s="2">
-        <v>329446</v>
+        <v>329478</v>
       </c>
       <c r="F171" s="2">
         <v>3599</v>
       </c>
       <c r="G171" s="4">
-        <v>0.030245447347</v>
+        <v>0.030247043918</v>
       </c>
     </row>
     <row r="172" spans="1:7">
@@ -4329,22 +4329,22 @@
         <v>44092</v>
       </c>
       <c r="B172" s="2">
-        <v>16248</v>
+        <v>16255</v>
       </c>
       <c r="C172" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D172" s="3">
-        <v>86.428571428571</v>
+        <v>86.28571428571399</v>
       </c>
       <c r="E172" s="2">
-        <v>332713</v>
+        <v>332744</v>
       </c>
       <c r="F172" s="2">
-        <v>3267</v>
+        <v>3266</v>
       </c>
       <c r="G172" s="4">
-        <v>0.030676401987</v>
+        <v>0.030628803245</v>
       </c>
     </row>
     <row r="173" spans="1:7">
@@ -4352,22 +4352,22 @@
         <v>44093</v>
       </c>
       <c r="B173" s="2">
-        <v>16320</v>
+        <v>16327</v>
       </c>
       <c r="C173" s="2">
         <v>72</v>
       </c>
       <c r="D173" s="3">
-        <v>89.714285714285</v>
+        <v>89.571428571428</v>
       </c>
       <c r="E173" s="2">
-        <v>334229</v>
+        <v>334260</v>
       </c>
       <c r="F173" s="2">
         <v>1516</v>
       </c>
       <c r="G173" s="4">
-        <v>0.031646845394</v>
+        <v>0.031599637133</v>
       </c>
     </row>
     <row r="174" spans="1:7">
@@ -4375,22 +4375,22 @@
         <v>44094</v>
       </c>
       <c r="B174" s="2">
-        <v>16362</v>
+        <v>16369</v>
       </c>
       <c r="C174" s="2">
         <v>42</v>
       </c>
       <c r="D174" s="3">
-        <v>91.142857142857</v>
+        <v>91</v>
       </c>
       <c r="E174" s="2">
-        <v>335380</v>
+        <v>335411</v>
       </c>
       <c r="F174" s="2">
         <v>1151</v>
       </c>
       <c r="G174" s="4">
-        <v>0.031657817694</v>
+        <v>0.031611334425</v>
       </c>
     </row>
     <row r="175" spans="1:7">
@@ -4398,22 +4398,22 @@
         <v>44095</v>
       </c>
       <c r="B175" s="2">
-        <v>16505</v>
+        <v>16512</v>
       </c>
       <c r="C175" s="2">
         <v>143</v>
       </c>
       <c r="D175" s="3">
-        <v>97.28571428571399</v>
+        <v>97.142857142857</v>
       </c>
       <c r="E175" s="2">
-        <v>339720</v>
+        <v>339751</v>
       </c>
       <c r="F175" s="2">
         <v>4340</v>
       </c>
       <c r="G175" s="4">
-        <v>0.032251953587</v>
+        <v>0.032206119162</v>
       </c>
     </row>
     <row r="176" spans="1:7">
@@ -4421,22 +4421,22 @@
         <v>44096</v>
       </c>
       <c r="B176" s="2">
-        <v>16604</v>
+        <v>16611</v>
       </c>
       <c r="C176" s="2">
         <v>99</v>
       </c>
       <c r="D176" s="3">
-        <v>92.714285714285</v>
+        <v>92.571428571428</v>
       </c>
       <c r="E176" s="2">
-        <v>343470</v>
+        <v>343501</v>
       </c>
       <c r="F176" s="2">
         <v>3750</v>
       </c>
       <c r="G176" s="4">
-        <v>0.031034812547</v>
+        <v>0.030988474965</v>
       </c>
     </row>
     <row r="177" spans="1:7">
@@ -4444,22 +4444,22 @@
         <v>44097</v>
       </c>
       <c r="B177" s="2">
-        <v>16698</v>
+        <v>16705</v>
       </c>
       <c r="C177" s="2">
         <v>94</v>
       </c>
       <c r="D177" s="3">
-        <v>93.85714285714199</v>
+        <v>93.714285714285</v>
       </c>
       <c r="E177" s="2">
-        <v>346946</v>
+        <v>346977</v>
       </c>
       <c r="F177" s="2">
         <v>3476</v>
       </c>
       <c r="G177" s="4">
-        <v>0.031138916536</v>
+        <v>0.031092994596</v>
       </c>
     </row>
     <row r="178" spans="1:7">
@@ -4467,22 +4467,22 @@
         <v>44098</v>
       </c>
       <c r="B178" s="2">
-        <v>16790</v>
+        <v>16796</v>
       </c>
       <c r="C178" s="2">
+        <v>91</v>
+      </c>
+      <c r="D178" s="3">
         <v>92</v>
       </c>
-      <c r="D178" s="3">
-        <v>92.28571428571399</v>
-      </c>
       <c r="E178" s="2">
-        <v>350650</v>
+        <v>350681</v>
       </c>
       <c r="F178" s="2">
         <v>3704</v>
       </c>
       <c r="G178" s="4">
-        <v>0.03046594982</v>
+        <v>0.030373060415</v>
       </c>
     </row>
     <row r="179" spans="1:7">
@@ -4490,22 +4490,22 @@
         <v>44099</v>
       </c>
       <c r="B179" s="2">
-        <v>16879</v>
+        <v>16885</v>
       </c>
       <c r="C179" s="2">
         <v>89</v>
       </c>
       <c r="D179" s="3">
-        <v>90.142857142857</v>
+        <v>90</v>
       </c>
       <c r="E179" s="2">
-        <v>353930</v>
+        <v>353961</v>
       </c>
       <c r="F179" s="2">
         <v>3280</v>
       </c>
       <c r="G179" s="4">
-        <v>0.029740302587</v>
+        <v>0.02969317057</v>
       </c>
     </row>
     <row r="180" spans="1:7">
@@ -4513,22 +4513,22 @@
         <v>44100</v>
       </c>
       <c r="B180" s="2">
-        <v>16938</v>
+        <v>16944</v>
       </c>
       <c r="C180" s="2">
         <v>59</v>
       </c>
       <c r="D180" s="3">
-        <v>88.28571428571399</v>
+        <v>88.142857142857</v>
       </c>
       <c r="E180" s="2">
-        <v>355789</v>
+        <v>355820</v>
       </c>
       <c r="F180" s="2">
         <v>1859</v>
       </c>
       <c r="G180" s="4">
-        <v>0.028664192949</v>
+        <v>0.02861781076</v>
       </c>
     </row>
     <row r="181" spans="1:7">
@@ -4536,22 +4536,22 @@
         <v>44101</v>
       </c>
       <c r="B181" s="2">
-        <v>16960</v>
+        <v>16965</v>
       </c>
       <c r="C181" s="2">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D181" s="3">
-        <v>85.428571428571</v>
+        <v>85.142857142857</v>
       </c>
       <c r="E181" s="2">
-        <v>356906</v>
+        <v>356937</v>
       </c>
       <c r="F181" s="2">
         <v>1117</v>
       </c>
       <c r="G181" s="4">
-        <v>0.027780358636</v>
+        <v>0.027687447737</v>
       </c>
     </row>
     <row r="182" spans="1:7">
@@ -4559,22 +4559,22 @@
         <v>44102</v>
       </c>
       <c r="B182" s="2">
-        <v>17072</v>
+        <v>17078</v>
       </c>
       <c r="C182" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D182" s="3">
-        <v>81</v>
+        <v>80.85714285714199</v>
       </c>
       <c r="E182" s="2">
-        <v>360958</v>
+        <v>360993</v>
       </c>
       <c r="F182" s="2">
-        <v>4052</v>
+        <v>4056</v>
       </c>
       <c r="G182" s="4">
-        <v>0.026697429136</v>
+        <v>0.026645325298</v>
       </c>
     </row>
     <row r="183" spans="1:7">
@@ -4582,22 +4582,45 @@
         <v>44103</v>
       </c>
       <c r="B183" s="2">
-        <v>17148</v>
+        <v>17154</v>
       </c>
       <c r="C183" s="2">
         <v>76</v>
       </c>
       <c r="D183" s="3">
-        <v>77.714285714285</v>
+        <v>77.571428571428</v>
       </c>
       <c r="E183" s="2">
-        <v>364748</v>
+        <v>364791</v>
       </c>
       <c r="F183" s="2">
-        <v>3790</v>
+        <v>3798</v>
       </c>
       <c r="G183" s="4">
-        <v>0.025566312623</v>
+        <v>0.025504931892</v>
+      </c>
+    </row>
+    <row r="184" spans="1:7">
+      <c r="A184" s="1">
+        <v>44104</v>
+      </c>
+      <c r="B184" s="2">
+        <v>17213</v>
+      </c>
+      <c r="C184" s="2">
+        <v>59</v>
+      </c>
+      <c r="D184" s="3">
+        <v>72.571428571428</v>
+      </c>
+      <c r="E184" s="2">
+        <v>368320</v>
+      </c>
+      <c r="F184" s="2">
+        <v>3529</v>
+      </c>
+      <c r="G184" s="4">
+        <v>0.023801714847</v>
       </c>
     </row>
   </sheetData>

--- a/contra_costa_county_testing.xlsx
+++ b/contra_costa_county_testing.xlsx
@@ -376,7 +376,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G184"/>
+  <dimension ref="A1:G187"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -428,7 +428,7 @@
         <v>21.285714285714</v>
       </c>
       <c r="E2" s="2">
-        <v>5655</v>
+        <v>5659</v>
       </c>
       <c r="F2" s="2">
         <v>330</v>
@@ -451,7 +451,7 @@
         <v>24.571428571428</v>
       </c>
       <c r="E3" s="2">
-        <v>6022</v>
+        <v>6026</v>
       </c>
       <c r="F3" s="2">
         <v>367</v>
@@ -474,7 +474,7 @@
         <v>27</v>
       </c>
       <c r="E4" s="2">
-        <v>6456</v>
+        <v>6460</v>
       </c>
       <c r="F4" s="2">
         <v>434</v>
@@ -497,7 +497,7 @@
         <v>27.857142857142</v>
       </c>
       <c r="E5" s="2">
-        <v>6643</v>
+        <v>6647</v>
       </c>
       <c r="F5" s="2">
         <v>187</v>
@@ -520,7 +520,7 @@
         <v>27.857142857142</v>
       </c>
       <c r="E6" s="2">
-        <v>6809</v>
+        <v>6813</v>
       </c>
       <c r="F6" s="2">
         <v>166</v>
@@ -543,7 +543,7 @@
         <v>26.857142857142</v>
       </c>
       <c r="E7" s="2">
-        <v>7185</v>
+        <v>7189</v>
       </c>
       <c r="F7" s="2">
         <v>376</v>
@@ -566,7 +566,7 @@
         <v>28.142857142857</v>
       </c>
       <c r="E8" s="2">
-        <v>7573</v>
+        <v>7577</v>
       </c>
       <c r="F8" s="2">
         <v>388</v>
@@ -589,7 +589,7 @@
         <v>27.571428571428</v>
       </c>
       <c r="E9" s="2">
-        <v>7917</v>
+        <v>7921</v>
       </c>
       <c r="F9" s="2">
         <v>344</v>
@@ -612,7 +612,7 @@
         <v>24</v>
       </c>
       <c r="E10" s="2">
-        <v>8241</v>
+        <v>8245</v>
       </c>
       <c r="F10" s="2">
         <v>324</v>
@@ -635,7 +635,7 @@
         <v>25.857142857142</v>
       </c>
       <c r="E11" s="2">
-        <v>8719</v>
+        <v>8723</v>
       </c>
       <c r="F11" s="2">
         <v>478</v>
@@ -658,7 +658,7 @@
         <v>24.428571428571</v>
       </c>
       <c r="E12" s="2">
-        <v>8898</v>
+        <v>8902</v>
       </c>
       <c r="F12" s="2">
         <v>179</v>
@@ -681,7 +681,7 @@
         <v>23.285714285714</v>
       </c>
       <c r="E13" s="2">
-        <v>9013</v>
+        <v>9017</v>
       </c>
       <c r="F13" s="2">
         <v>115</v>
@@ -704,7 +704,7 @@
         <v>23.428571428571</v>
       </c>
       <c r="E14" s="2">
-        <v>9370</v>
+        <v>9374</v>
       </c>
       <c r="F14" s="2">
         <v>357</v>
@@ -727,7 +727,7 @@
         <v>20.714285714285</v>
       </c>
       <c r="E15" s="2">
-        <v>9691</v>
+        <v>9695</v>
       </c>
       <c r="F15" s="2">
         <v>321</v>
@@ -750,7 +750,7 @@
         <v>21.857142857142</v>
       </c>
       <c r="E16" s="2">
-        <v>10041</v>
+        <v>10045</v>
       </c>
       <c r="F16" s="2">
         <v>350</v>
@@ -773,7 +773,7 @@
         <v>22.428571428571</v>
       </c>
       <c r="E17" s="2">
-        <v>10423</v>
+        <v>10427</v>
       </c>
       <c r="F17" s="2">
         <v>382</v>
@@ -796,7 +796,7 @@
         <v>17.428571428571</v>
       </c>
       <c r="E18" s="2">
-        <v>10769</v>
+        <v>10773</v>
       </c>
       <c r="F18" s="2">
         <v>346</v>
@@ -819,7 +819,7 @@
         <v>16.714285714285</v>
       </c>
       <c r="E19" s="2">
-        <v>10924</v>
+        <v>10928</v>
       </c>
       <c r="F19" s="2">
         <v>155</v>
@@ -842,7 +842,7 @@
         <v>17.428571428571</v>
       </c>
       <c r="E20" s="2">
-        <v>11070</v>
+        <v>11074</v>
       </c>
       <c r="F20" s="2">
         <v>146</v>
@@ -865,7 +865,7 @@
         <v>15.142857142857</v>
       </c>
       <c r="E21" s="2">
-        <v>11437</v>
+        <v>11441</v>
       </c>
       <c r="F21" s="2">
         <v>367</v>
@@ -888,7 +888,7 @@
         <v>15.428571428571</v>
       </c>
       <c r="E22" s="2">
-        <v>11842</v>
+        <v>11846</v>
       </c>
       <c r="F22" s="2">
         <v>405</v>
@@ -911,7 +911,7 @@
         <v>13.428571428571</v>
       </c>
       <c r="E23" s="2">
-        <v>12363</v>
+        <v>12367</v>
       </c>
       <c r="F23" s="2">
         <v>521</v>
@@ -934,7 +934,7 @@
         <v>12.714285714285</v>
       </c>
       <c r="E24" s="2">
-        <v>12922</v>
+        <v>12926</v>
       </c>
       <c r="F24" s="2">
         <v>559</v>
@@ -957,7 +957,7 @@
         <v>14</v>
       </c>
       <c r="E25" s="2">
-        <v>13487</v>
+        <v>13491</v>
       </c>
       <c r="F25" s="2">
         <v>565</v>
@@ -980,7 +980,7 @@
         <v>13.714285714285</v>
       </c>
       <c r="E26" s="2">
-        <v>13718</v>
+        <v>13722</v>
       </c>
       <c r="F26" s="2">
         <v>231</v>
@@ -1003,7 +1003,7 @@
         <v>14.285714285714</v>
       </c>
       <c r="E27" s="2">
-        <v>13948</v>
+        <v>13952</v>
       </c>
       <c r="F27" s="2">
         <v>230</v>
@@ -1026,7 +1026,7 @@
         <v>15.428571428571</v>
       </c>
       <c r="E28" s="2">
-        <v>14548</v>
+        <v>14552</v>
       </c>
       <c r="F28" s="2">
         <v>600</v>
@@ -1049,7 +1049,7 @@
         <v>15.285714285714</v>
       </c>
       <c r="E29" s="2">
-        <v>15087</v>
+        <v>15091</v>
       </c>
       <c r="F29" s="2">
         <v>539</v>
@@ -1072,7 +1072,7 @@
         <v>15.857142857142</v>
       </c>
       <c r="E30" s="2">
-        <v>15786</v>
+        <v>15790</v>
       </c>
       <c r="F30" s="2">
         <v>699</v>
@@ -1095,7 +1095,7 @@
         <v>16.857142857142</v>
       </c>
       <c r="E31" s="2">
-        <v>16632</v>
+        <v>16636</v>
       </c>
       <c r="F31" s="2">
         <v>846</v>
@@ -1118,7 +1118,7 @@
         <v>15.285714285714</v>
       </c>
       <c r="E32" s="2">
-        <v>17364</v>
+        <v>17368</v>
       </c>
       <c r="F32" s="2">
         <v>732</v>
@@ -1141,7 +1141,7 @@
         <v>15.857142857142</v>
       </c>
       <c r="E33" s="2">
-        <v>17652</v>
+        <v>17656</v>
       </c>
       <c r="F33" s="2">
         <v>288</v>
@@ -1164,7 +1164,7 @@
         <v>14.857142857142</v>
       </c>
       <c r="E34" s="2">
-        <v>17916</v>
+        <v>17920</v>
       </c>
       <c r="F34" s="2">
         <v>264</v>
@@ -1178,22 +1178,22 @@
         <v>43955</v>
       </c>
       <c r="B35" s="2">
-        <v>1001</v>
+        <v>1002</v>
       </c>
       <c r="C35" s="2">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D35" s="3">
-        <v>15.142857142857</v>
+        <v>15.285714285714</v>
       </c>
       <c r="E35" s="2">
-        <v>18694</v>
+        <v>18698</v>
       </c>
       <c r="F35" s="2">
         <v>778</v>
       </c>
       <c r="G35" s="4">
-        <v>0.025566811384</v>
+        <v>0.025808007718</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -1201,22 +1201,22 @@
         <v>43956</v>
       </c>
       <c r="B36" s="2">
-        <v>1018</v>
+        <v>1019</v>
       </c>
       <c r="C36" s="2">
         <v>17</v>
       </c>
       <c r="D36" s="3">
-        <v>15.285714285714</v>
+        <v>15.428571428571</v>
       </c>
       <c r="E36" s="2">
-        <v>19375</v>
+        <v>19378</v>
       </c>
       <c r="F36" s="2">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="G36" s="4">
-        <v>0.024953358208</v>
+        <v>0.025192442267</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -1224,22 +1224,22 @@
         <v>43957</v>
       </c>
       <c r="B37" s="2">
-        <v>1043</v>
+        <v>1044</v>
       </c>
       <c r="C37" s="2">
         <v>25</v>
       </c>
       <c r="D37" s="3">
-        <v>16.285714285714</v>
+        <v>16.428571428571</v>
       </c>
       <c r="E37" s="2">
-        <v>20340</v>
+        <v>20343</v>
       </c>
       <c r="F37" s="2">
         <v>965</v>
       </c>
       <c r="G37" s="4">
-        <v>0.025032938076</v>
+        <v>0.025258071601</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -1247,22 +1247,22 @@
         <v>43958</v>
       </c>
       <c r="B38" s="2">
-        <v>1055</v>
+        <v>1056</v>
       </c>
       <c r="C38" s="2">
         <v>12</v>
       </c>
       <c r="D38" s="3">
-        <v>14.285714285714</v>
+        <v>14.428571428571</v>
       </c>
       <c r="E38" s="2">
-        <v>21236</v>
+        <v>21239</v>
       </c>
       <c r="F38" s="2">
         <v>896</v>
       </c>
       <c r="G38" s="4">
-        <v>0.021720243266</v>
+        <v>0.021942211601</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -1270,22 +1270,22 @@
         <v>43959</v>
       </c>
       <c r="B39" s="2">
-        <v>1071</v>
+        <v>1072</v>
       </c>
       <c r="C39" s="2">
         <v>16</v>
       </c>
       <c r="D39" s="3">
-        <v>15.142857142857</v>
+        <v>15.285714285714</v>
       </c>
       <c r="E39" s="2">
-        <v>22378</v>
+        <v>22381</v>
       </c>
       <c r="F39" s="2">
         <v>1142</v>
       </c>
       <c r="G39" s="4">
-        <v>0.021140805743</v>
+        <v>0.021344504288</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -1293,22 +1293,22 @@
         <v>43960</v>
       </c>
       <c r="B40" s="2">
-        <v>1077</v>
+        <v>1078</v>
       </c>
       <c r="C40" s="2">
         <v>6</v>
       </c>
       <c r="D40" s="3">
-        <v>14.571428571428</v>
+        <v>14.714285714285</v>
       </c>
       <c r="E40" s="2">
-        <v>22760</v>
+        <v>22763</v>
       </c>
       <c r="F40" s="2">
         <v>382</v>
       </c>
       <c r="G40" s="4">
-        <v>0.019968676585</v>
+        <v>0.020168396318</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -1316,22 +1316,22 @@
         <v>43961</v>
       </c>
       <c r="B41" s="2">
-        <v>1084</v>
+        <v>1085</v>
       </c>
       <c r="C41" s="2">
         <v>7</v>
       </c>
       <c r="D41" s="3">
-        <v>15</v>
+        <v>15.142857142857</v>
       </c>
       <c r="E41" s="2">
-        <v>23104</v>
+        <v>23107</v>
       </c>
       <c r="F41" s="2">
         <v>344</v>
       </c>
       <c r="G41" s="4">
-        <v>0.020239013107</v>
+        <v>0.020435704646</v>
       </c>
     </row>
     <row r="42" spans="1:7">
@@ -1339,7 +1339,7 @@
         <v>43962</v>
       </c>
       <c r="B42" s="2">
-        <v>1092</v>
+        <v>1093</v>
       </c>
       <c r="C42" s="2">
         <v>8</v>
@@ -1348,13 +1348,13 @@
         <v>13</v>
       </c>
       <c r="E42" s="2">
-        <v>24205</v>
+        <v>24208</v>
       </c>
       <c r="F42" s="2">
         <v>1101</v>
       </c>
       <c r="G42" s="4">
-        <v>0.016512429686</v>
+        <v>0.016515426497</v>
       </c>
     </row>
     <row r="43" spans="1:7">
@@ -1362,7 +1362,7 @@
         <v>43963</v>
       </c>
       <c r="B43" s="2">
-        <v>1104</v>
+        <v>1105</v>
       </c>
       <c r="C43" s="2">
         <v>12</v>
@@ -1371,7 +1371,7 @@
         <v>12.285714285714</v>
       </c>
       <c r="E43" s="2">
-        <v>25436</v>
+        <v>25439</v>
       </c>
       <c r="F43" s="2">
         <v>1231</v>
@@ -1385,7 +1385,7 @@
         <v>43964</v>
       </c>
       <c r="B44" s="2">
-        <v>1133</v>
+        <v>1134</v>
       </c>
       <c r="C44" s="2">
         <v>29</v>
@@ -1394,7 +1394,7 @@
         <v>12.857142857142</v>
       </c>
       <c r="E44" s="2">
-        <v>26535</v>
+        <v>26538</v>
       </c>
       <c r="F44" s="2">
         <v>1099</v>
@@ -1408,7 +1408,7 @@
         <v>43965</v>
       </c>
       <c r="B45" s="2">
-        <v>1153</v>
+        <v>1154</v>
       </c>
       <c r="C45" s="2">
         <v>20</v>
@@ -1417,7 +1417,7 @@
         <v>14</v>
       </c>
       <c r="E45" s="2">
-        <v>27388</v>
+        <v>27391</v>
       </c>
       <c r="F45" s="2">
         <v>853</v>
@@ -1431,7 +1431,7 @@
         <v>43966</v>
       </c>
       <c r="B46" s="2">
-        <v>1181</v>
+        <v>1182</v>
       </c>
       <c r="C46" s="2">
         <v>28</v>
@@ -1440,7 +1440,7 @@
         <v>15.714285714285</v>
       </c>
       <c r="E46" s="2">
-        <v>28306</v>
+        <v>28309</v>
       </c>
       <c r="F46" s="2">
         <v>918</v>
@@ -1454,7 +1454,7 @@
         <v>43967</v>
       </c>
       <c r="B47" s="2">
-        <v>1200</v>
+        <v>1201</v>
       </c>
       <c r="C47" s="2">
         <v>19</v>
@@ -1463,7 +1463,7 @@
         <v>17.571428571428</v>
       </c>
       <c r="E47" s="2">
-        <v>28715</v>
+        <v>28718</v>
       </c>
       <c r="F47" s="2">
         <v>409</v>
@@ -1477,7 +1477,7 @@
         <v>43968</v>
       </c>
       <c r="B48" s="2">
-        <v>1210</v>
+        <v>1211</v>
       </c>
       <c r="C48" s="2">
         <v>10</v>
@@ -1486,7 +1486,7 @@
         <v>18</v>
       </c>
       <c r="E48" s="2">
-        <v>29108</v>
+        <v>29111</v>
       </c>
       <c r="F48" s="2">
         <v>393</v>
@@ -1500,7 +1500,7 @@
         <v>43969</v>
       </c>
       <c r="B49" s="2">
-        <v>1249</v>
+        <v>1250</v>
       </c>
       <c r="C49" s="2">
         <v>39</v>
@@ -1509,7 +1509,7 @@
         <v>22.428571428571</v>
       </c>
       <c r="E49" s="2">
-        <v>30472</v>
+        <v>30475</v>
       </c>
       <c r="F49" s="2">
         <v>1364</v>
@@ -1523,7 +1523,7 @@
         <v>43970</v>
       </c>
       <c r="B50" s="2">
-        <v>1284</v>
+        <v>1285</v>
       </c>
       <c r="C50" s="2">
         <v>35</v>
@@ -1532,7 +1532,7 @@
         <v>25.714285714285</v>
       </c>
       <c r="E50" s="2">
-        <v>32133</v>
+        <v>32136</v>
       </c>
       <c r="F50" s="2">
         <v>1661</v>
@@ -1546,7 +1546,7 @@
         <v>43971</v>
       </c>
       <c r="B51" s="2">
-        <v>1316</v>
+        <v>1317</v>
       </c>
       <c r="C51" s="2">
         <v>32</v>
@@ -1555,7 +1555,7 @@
         <v>26.142857142857</v>
       </c>
       <c r="E51" s="2">
-        <v>33270</v>
+        <v>33273</v>
       </c>
       <c r="F51" s="2">
         <v>1137</v>
@@ -1569,7 +1569,7 @@
         <v>43972</v>
       </c>
       <c r="B52" s="2">
-        <v>1345</v>
+        <v>1346</v>
       </c>
       <c r="C52" s="2">
         <v>29</v>
@@ -1578,7 +1578,7 @@
         <v>27.428571428571</v>
       </c>
       <c r="E52" s="2">
-        <v>34402</v>
+        <v>34405</v>
       </c>
       <c r="F52" s="2">
         <v>1132</v>
@@ -1592,7 +1592,7 @@
         <v>43973</v>
       </c>
       <c r="B53" s="2">
-        <v>1385</v>
+        <v>1386</v>
       </c>
       <c r="C53" s="2">
         <v>40</v>
@@ -1601,7 +1601,7 @@
         <v>29.142857142857</v>
       </c>
       <c r="E53" s="2">
-        <v>35491</v>
+        <v>35494</v>
       </c>
       <c r="F53" s="2">
         <v>1089</v>
@@ -1615,7 +1615,7 @@
         <v>43974</v>
       </c>
       <c r="B54" s="2">
-        <v>1396</v>
+        <v>1397</v>
       </c>
       <c r="C54" s="2">
         <v>11</v>
@@ -1624,7 +1624,7 @@
         <v>28</v>
       </c>
       <c r="E54" s="2">
-        <v>36009</v>
+        <v>36012</v>
       </c>
       <c r="F54" s="2">
         <v>518</v>
@@ -1638,7 +1638,7 @@
         <v>43975</v>
       </c>
       <c r="B55" s="2">
-        <v>1403</v>
+        <v>1404</v>
       </c>
       <c r="C55" s="2">
         <v>7</v>
@@ -1647,7 +1647,7 @@
         <v>27.571428571428</v>
       </c>
       <c r="E55" s="2">
-        <v>36404</v>
+        <v>36407</v>
       </c>
       <c r="F55" s="2">
         <v>395</v>
@@ -1661,7 +1661,7 @@
         <v>43976</v>
       </c>
       <c r="B56" s="2">
-        <v>1412</v>
+        <v>1413</v>
       </c>
       <c r="C56" s="2">
         <v>9</v>
@@ -1670,7 +1670,7 @@
         <v>23.285714285714</v>
       </c>
       <c r="E56" s="2">
-        <v>36869</v>
+        <v>36872</v>
       </c>
       <c r="F56" s="2">
         <v>465</v>
@@ -1684,7 +1684,7 @@
         <v>43977</v>
       </c>
       <c r="B57" s="2">
-        <v>1450</v>
+        <v>1451</v>
       </c>
       <c r="C57" s="2">
         <v>38</v>
@@ -1693,7 +1693,7 @@
         <v>23.714285714285</v>
       </c>
       <c r="E57" s="2">
-        <v>38065</v>
+        <v>38068</v>
       </c>
       <c r="F57" s="2">
         <v>1196</v>
@@ -1707,7 +1707,7 @@
         <v>43978</v>
       </c>
       <c r="B58" s="2">
-        <v>1482</v>
+        <v>1483</v>
       </c>
       <c r="C58" s="2">
         <v>32</v>
@@ -1716,13 +1716,13 @@
         <v>23.714285714285</v>
       </c>
       <c r="E58" s="2">
-        <v>39179</v>
+        <v>39181</v>
       </c>
       <c r="F58" s="2">
-        <v>1114</v>
+        <v>1113</v>
       </c>
       <c r="G58" s="4">
-        <v>0.028092739888</v>
+        <v>0.028097494922</v>
       </c>
     </row>
     <row r="59" spans="1:7">
@@ -1730,7 +1730,7 @@
         <v>43979</v>
       </c>
       <c r="B59" s="2">
-        <v>1529</v>
+        <v>1530</v>
       </c>
       <c r="C59" s="2">
         <v>47</v>
@@ -1739,10 +1739,10 @@
         <v>26.285714285714</v>
       </c>
       <c r="E59" s="2">
-        <v>40315</v>
+        <v>40318</v>
       </c>
       <c r="F59" s="2">
-        <v>1136</v>
+        <v>1137</v>
       </c>
       <c r="G59" s="4">
         <v>0.031117875866</v>
@@ -1753,7 +1753,7 @@
         <v>43980</v>
       </c>
       <c r="B60" s="2">
-        <v>1571</v>
+        <v>1572</v>
       </c>
       <c r="C60" s="2">
         <v>42</v>
@@ -1762,7 +1762,7 @@
         <v>26.571428571428</v>
       </c>
       <c r="E60" s="2">
-        <v>41718</v>
+        <v>41721</v>
       </c>
       <c r="F60" s="2">
         <v>1403</v>
@@ -1776,7 +1776,7 @@
         <v>43981</v>
       </c>
       <c r="B61" s="2">
-        <v>1580</v>
+        <v>1581</v>
       </c>
       <c r="C61" s="2">
         <v>9</v>
@@ -1785,7 +1785,7 @@
         <v>26.285714285714</v>
       </c>
       <c r="E61" s="2">
-        <v>42450</v>
+        <v>42453</v>
       </c>
       <c r="F61" s="2">
         <v>732</v>
@@ -1799,7 +1799,7 @@
         <v>43982</v>
       </c>
       <c r="B62" s="2">
-        <v>1585</v>
+        <v>1586</v>
       </c>
       <c r="C62" s="2">
         <v>5</v>
@@ -1808,7 +1808,7 @@
         <v>26</v>
       </c>
       <c r="E62" s="2">
-        <v>42848</v>
+        <v>42851</v>
       </c>
       <c r="F62" s="2">
         <v>398</v>
@@ -1822,7 +1822,7 @@
         <v>43983</v>
       </c>
       <c r="B63" s="2">
-        <v>1617</v>
+        <v>1618</v>
       </c>
       <c r="C63" s="2">
         <v>32</v>
@@ -1831,7 +1831,7 @@
         <v>29.285714285714</v>
       </c>
       <c r="E63" s="2">
-        <v>44222</v>
+        <v>44225</v>
       </c>
       <c r="F63" s="2">
         <v>1374</v>
@@ -1845,7 +1845,7 @@
         <v>43984</v>
       </c>
       <c r="B64" s="2">
-        <v>1648</v>
+        <v>1649</v>
       </c>
       <c r="C64" s="2">
         <v>31</v>
@@ -1854,13 +1854,13 @@
         <v>28.285714285714</v>
       </c>
       <c r="E64" s="2">
-        <v>45438</v>
+        <v>45442</v>
       </c>
       <c r="F64" s="2">
-        <v>1216</v>
+        <v>1217</v>
       </c>
       <c r="G64" s="4">
-        <v>0.026854740268</v>
+        <v>0.026851098454</v>
       </c>
     </row>
     <row r="65" spans="1:7">
@@ -1868,7 +1868,7 @@
         <v>43985</v>
       </c>
       <c r="B65" s="2">
-        <v>1677</v>
+        <v>1678</v>
       </c>
       <c r="C65" s="2">
         <v>29</v>
@@ -1877,13 +1877,13 @@
         <v>27.857142857142</v>
       </c>
       <c r="E65" s="2">
-        <v>46595</v>
+        <v>46599</v>
       </c>
       <c r="F65" s="2">
         <v>1157</v>
       </c>
       <c r="G65" s="4">
-        <v>0.026294498381</v>
+        <v>0.026287409005</v>
       </c>
     </row>
     <row r="66" spans="1:7">
@@ -1891,22 +1891,22 @@
         <v>43986</v>
       </c>
       <c r="B66" s="2">
-        <v>1728</v>
+        <v>1730</v>
       </c>
       <c r="C66" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D66" s="3">
-        <v>28.428571428571</v>
+        <v>28.571428571428</v>
       </c>
       <c r="E66" s="2">
-        <v>47944</v>
+        <v>47950</v>
       </c>
       <c r="F66" s="2">
-        <v>1349</v>
+        <v>1351</v>
       </c>
       <c r="G66" s="4">
-        <v>0.02608467689</v>
+        <v>0.026205450733</v>
       </c>
     </row>
     <row r="67" spans="1:7">
@@ -1914,22 +1914,22 @@
         <v>43987</v>
       </c>
       <c r="B67" s="2">
-        <v>1775</v>
+        <v>1777</v>
       </c>
       <c r="C67" s="2">
         <v>47</v>
       </c>
       <c r="D67" s="3">
-        <v>29.142857142857</v>
+        <v>29.285714285714</v>
       </c>
       <c r="E67" s="2">
-        <v>49576</v>
+        <v>49582</v>
       </c>
       <c r="F67" s="2">
         <v>1632</v>
       </c>
       <c r="G67" s="4">
-        <v>0.025960804275</v>
+        <v>0.026078107111</v>
       </c>
     </row>
     <row r="68" spans="1:7">
@@ -1937,22 +1937,22 @@
         <v>43988</v>
       </c>
       <c r="B68" s="2">
-        <v>1793</v>
+        <v>1795</v>
       </c>
       <c r="C68" s="2">
         <v>18</v>
       </c>
       <c r="D68" s="3">
-        <v>30.428571428571</v>
+        <v>30.571428571428</v>
       </c>
       <c r="E68" s="2">
-        <v>50181</v>
+        <v>50187</v>
       </c>
       <c r="F68" s="2">
         <v>605</v>
       </c>
       <c r="G68" s="4">
-        <v>0.027551416375</v>
+        <v>0.027670028445</v>
       </c>
     </row>
     <row r="69" spans="1:7">
@@ -1960,22 +1960,22 @@
         <v>43989</v>
       </c>
       <c r="B69" s="2">
-        <v>1811</v>
+        <v>1813</v>
       </c>
       <c r="C69" s="2">
         <v>18</v>
       </c>
       <c r="D69" s="3">
-        <v>32.285714285714</v>
+        <v>32.428571428571</v>
       </c>
       <c r="E69" s="2">
-        <v>50666</v>
+        <v>50672</v>
       </c>
       <c r="F69" s="2">
         <v>485</v>
       </c>
       <c r="G69" s="4">
-        <v>0.028907649015</v>
+        <v>0.029024421429</v>
       </c>
     </row>
     <row r="70" spans="1:7">
@@ -1983,22 +1983,22 @@
         <v>43990</v>
       </c>
       <c r="B70" s="2">
-        <v>1859</v>
+        <v>1861</v>
       </c>
       <c r="C70" s="2">
         <v>48</v>
       </c>
       <c r="D70" s="3">
-        <v>34.571428571428</v>
+        <v>34.714285714285</v>
       </c>
       <c r="E70" s="2">
-        <v>52504</v>
+        <v>52510</v>
       </c>
       <c r="F70" s="2">
         <v>1838</v>
       </c>
       <c r="G70" s="4">
-        <v>0.02921999517</v>
+        <v>0.029330114665</v>
       </c>
     </row>
     <row r="71" spans="1:7">
@@ -2006,22 +2006,22 @@
         <v>43991</v>
       </c>
       <c r="B71" s="2">
-        <v>1902</v>
+        <v>1904</v>
       </c>
       <c r="C71" s="2">
         <v>43</v>
       </c>
       <c r="D71" s="3">
-        <v>36.285714285714</v>
+        <v>36.428571428571</v>
       </c>
       <c r="E71" s="2">
-        <v>54354</v>
+        <v>54359</v>
       </c>
       <c r="F71" s="2">
-        <v>1850</v>
+        <v>1849</v>
       </c>
       <c r="G71" s="4">
-        <v>0.02848811126</v>
+        <v>0.028597061792</v>
       </c>
     </row>
     <row r="72" spans="1:7">
@@ -2029,22 +2029,22 @@
         <v>43992</v>
       </c>
       <c r="B72" s="2">
-        <v>1956</v>
+        <v>1958</v>
       </c>
       <c r="C72" s="2">
         <v>54</v>
       </c>
       <c r="D72" s="3">
-        <v>39.857142857142</v>
+        <v>40</v>
       </c>
       <c r="E72" s="2">
-        <v>56345</v>
+        <v>56350</v>
       </c>
       <c r="F72" s="2">
         <v>1991</v>
       </c>
       <c r="G72" s="4">
-        <v>0.028615384615</v>
+        <v>0.028715003589</v>
       </c>
     </row>
     <row r="73" spans="1:7">
@@ -2052,7 +2052,7 @@
         <v>43993</v>
       </c>
       <c r="B73" s="2">
-        <v>2010</v>
+        <v>2012</v>
       </c>
       <c r="C73" s="2">
         <v>54</v>
@@ -2061,13 +2061,13 @@
         <v>40.285714285714</v>
       </c>
       <c r="E73" s="2">
-        <v>58486</v>
+        <v>58496</v>
       </c>
       <c r="F73" s="2">
-        <v>2141</v>
+        <v>2146</v>
       </c>
       <c r="G73" s="4">
-        <v>0.026750142287</v>
+        <v>0.026739996207</v>
       </c>
     </row>
     <row r="74" spans="1:7">
@@ -2075,7 +2075,7 @@
         <v>43994</v>
       </c>
       <c r="B74" s="2">
-        <v>2068</v>
+        <v>2070</v>
       </c>
       <c r="C74" s="2">
         <v>58</v>
@@ -2084,13 +2084,13 @@
         <v>41.857142857142</v>
       </c>
       <c r="E74" s="2">
-        <v>60730</v>
+        <v>60741</v>
       </c>
       <c r="F74" s="2">
-        <v>2244</v>
+        <v>2245</v>
       </c>
       <c r="G74" s="4">
-        <v>0.026268603191</v>
+        <v>0.026256833049</v>
       </c>
     </row>
     <row r="75" spans="1:7">
@@ -2098,7 +2098,7 @@
         <v>43995</v>
       </c>
       <c r="B75" s="2">
-        <v>2102</v>
+        <v>2104</v>
       </c>
       <c r="C75" s="2">
         <v>34</v>
@@ -2107,13 +2107,13 @@
         <v>44.142857142857</v>
       </c>
       <c r="E75" s="2">
-        <v>61568</v>
+        <v>61579</v>
       </c>
       <c r="F75" s="2">
         <v>838</v>
       </c>
       <c r="G75" s="4">
-        <v>0.027136207956</v>
+        <v>0.027124297752</v>
       </c>
     </row>
     <row r="76" spans="1:7">
@@ -2121,7 +2121,7 @@
         <v>43996</v>
       </c>
       <c r="B76" s="2">
-        <v>2129</v>
+        <v>2131</v>
       </c>
       <c r="C76" s="2">
         <v>27</v>
@@ -2130,13 +2130,13 @@
         <v>45.428571428571</v>
       </c>
       <c r="E76" s="2">
-        <v>62151</v>
+        <v>62162</v>
       </c>
       <c r="F76" s="2">
         <v>583</v>
       </c>
       <c r="G76" s="4">
-        <v>0.027688289072</v>
+        <v>0.027676240208</v>
       </c>
     </row>
     <row r="77" spans="1:7">
@@ -2144,7 +2144,7 @@
         <v>43997</v>
       </c>
       <c r="B77" s="2">
-        <v>2186</v>
+        <v>2188</v>
       </c>
       <c r="C77" s="2">
         <v>57</v>
@@ -2153,13 +2153,13 @@
         <v>46.714285714285</v>
       </c>
       <c r="E77" s="2">
-        <v>64367</v>
+        <v>64378</v>
       </c>
       <c r="F77" s="2">
         <v>2216</v>
       </c>
       <c r="G77" s="4">
-        <v>0.027564696956</v>
+        <v>0.027553083923</v>
       </c>
     </row>
     <row r="78" spans="1:7">
@@ -2167,7 +2167,7 @@
         <v>43998</v>
       </c>
       <c r="B78" s="2">
-        <v>2270</v>
+        <v>2272</v>
       </c>
       <c r="C78" s="2">
         <v>84</v>
@@ -2176,13 +2176,13 @@
         <v>52.571428571428</v>
       </c>
       <c r="E78" s="2">
-        <v>66888</v>
+        <v>66899</v>
       </c>
       <c r="F78" s="2">
         <v>2521</v>
       </c>
       <c r="G78" s="4">
-        <v>0.029360140418</v>
+        <v>0.029346092503</v>
       </c>
     </row>
     <row r="79" spans="1:7">
@@ -2190,7 +2190,7 @@
         <v>43999</v>
       </c>
       <c r="B79" s="2">
-        <v>2357</v>
+        <v>2359</v>
       </c>
       <c r="C79" s="2">
         <v>87</v>
@@ -2199,13 +2199,13 @@
         <v>57.285714285714</v>
       </c>
       <c r="E79" s="2">
-        <v>69459</v>
+        <v>69470</v>
       </c>
       <c r="F79" s="2">
         <v>2571</v>
       </c>
       <c r="G79" s="4">
-        <v>0.030578008235</v>
+        <v>0.03056402439</v>
       </c>
     </row>
     <row r="80" spans="1:7">
@@ -2213,7 +2213,7 @@
         <v>44000</v>
       </c>
       <c r="B80" s="2">
-        <v>2448</v>
+        <v>2450</v>
       </c>
       <c r="C80" s="2">
         <v>91</v>
@@ -2222,13 +2222,13 @@
         <v>62.57142857142801</v>
       </c>
       <c r="E80" s="2">
-        <v>71984</v>
+        <v>71995</v>
       </c>
       <c r="F80" s="2">
         <v>2525</v>
       </c>
       <c r="G80" s="4">
-        <v>0.03244925174</v>
+        <v>0.032446847914</v>
       </c>
     </row>
     <row r="81" spans="1:7">
@@ -2236,7 +2236,7 @@
         <v>44001</v>
       </c>
       <c r="B81" s="2">
-        <v>2550</v>
+        <v>2552</v>
       </c>
       <c r="C81" s="2">
         <v>102</v>
@@ -2245,7 +2245,7 @@
         <v>68.85714285714199</v>
       </c>
       <c r="E81" s="2">
-        <v>74427</v>
+        <v>74438</v>
       </c>
       <c r="F81" s="2">
         <v>2443</v>
@@ -2259,7 +2259,7 @@
         <v>44002</v>
       </c>
       <c r="B82" s="2">
-        <v>2602</v>
+        <v>2604</v>
       </c>
       <c r="C82" s="2">
         <v>52</v>
@@ -2268,7 +2268,7 @@
         <v>71.428571428571</v>
       </c>
       <c r="E82" s="2">
-        <v>75379</v>
+        <v>75390</v>
       </c>
       <c r="F82" s="2">
         <v>952</v>
@@ -2282,7 +2282,7 @@
         <v>44003</v>
       </c>
       <c r="B83" s="2">
-        <v>2642</v>
+        <v>2644</v>
       </c>
       <c r="C83" s="2">
         <v>40</v>
@@ -2291,7 +2291,7 @@
         <v>73.28571428571399</v>
       </c>
       <c r="E83" s="2">
-        <v>76076</v>
+        <v>76087</v>
       </c>
       <c r="F83" s="2">
         <v>697</v>
@@ -2305,7 +2305,7 @@
         <v>44004</v>
       </c>
       <c r="B84" s="2">
-        <v>2753</v>
+        <v>2755</v>
       </c>
       <c r="C84" s="2">
         <v>111</v>
@@ -2314,7 +2314,7 @@
         <v>81</v>
       </c>
       <c r="E84" s="2">
-        <v>78696</v>
+        <v>78707</v>
       </c>
       <c r="F84" s="2">
         <v>2620</v>
@@ -2328,7 +2328,7 @@
         <v>44005</v>
       </c>
       <c r="B85" s="2">
-        <v>2886</v>
+        <v>2888</v>
       </c>
       <c r="C85" s="2">
         <v>133</v>
@@ -2337,7 +2337,7 @@
         <v>88</v>
       </c>
       <c r="E85" s="2">
-        <v>81481</v>
+        <v>81492</v>
       </c>
       <c r="F85" s="2">
         <v>2785</v>
@@ -2351,7 +2351,7 @@
         <v>44006</v>
       </c>
       <c r="B86" s="2">
-        <v>3029</v>
+        <v>3031</v>
       </c>
       <c r="C86" s="2">
         <v>143</v>
@@ -2360,7 +2360,7 @@
         <v>96</v>
       </c>
       <c r="E86" s="2">
-        <v>84509</v>
+        <v>84520</v>
       </c>
       <c r="F86" s="2">
         <v>3028</v>
@@ -2374,7 +2374,7 @@
         <v>44007</v>
       </c>
       <c r="B87" s="2">
-        <v>3181</v>
+        <v>3183</v>
       </c>
       <c r="C87" s="2">
         <v>152</v>
@@ -2383,7 +2383,7 @@
         <v>104.714285714285</v>
       </c>
       <c r="E87" s="2">
-        <v>87867</v>
+        <v>87878</v>
       </c>
       <c r="F87" s="2">
         <v>3358</v>
@@ -2397,7 +2397,7 @@
         <v>44008</v>
       </c>
       <c r="B88" s="2">
-        <v>3350</v>
+        <v>3352</v>
       </c>
       <c r="C88" s="2">
         <v>169</v>
@@ -2406,13 +2406,13 @@
         <v>114.285714285714</v>
       </c>
       <c r="E88" s="2">
-        <v>90834</v>
+        <v>90846</v>
       </c>
       <c r="F88" s="2">
-        <v>2967</v>
+        <v>2968</v>
       </c>
       <c r="G88" s="4">
-        <v>0.048759675748</v>
+        <v>0.048756704046</v>
       </c>
     </row>
     <row r="89" spans="1:7">
@@ -2420,7 +2420,7 @@
         <v>44009</v>
       </c>
       <c r="B89" s="2">
-        <v>3430</v>
+        <v>3432</v>
       </c>
       <c r="C89" s="2">
         <v>80</v>
@@ -2429,13 +2429,13 @@
         <v>118.285714285714</v>
       </c>
       <c r="E89" s="2">
-        <v>91908</v>
+        <v>91920</v>
       </c>
       <c r="F89" s="2">
         <v>1074</v>
       </c>
       <c r="G89" s="4">
-        <v>0.050093774578</v>
+        <v>0.050090744101</v>
       </c>
     </row>
     <row r="90" spans="1:7">
@@ -2443,7 +2443,7 @@
         <v>44010</v>
       </c>
       <c r="B90" s="2">
-        <v>3489</v>
+        <v>3491</v>
       </c>
       <c r="C90" s="2">
         <v>59</v>
@@ -2452,13 +2452,13 @@
         <v>121</v>
       </c>
       <c r="E90" s="2">
-        <v>92703</v>
+        <v>92715</v>
       </c>
       <c r="F90" s="2">
         <v>795</v>
       </c>
       <c r="G90" s="4">
-        <v>0.050941240151</v>
+        <v>0.050938176569</v>
       </c>
     </row>
     <row r="91" spans="1:7">
@@ -2466,7 +2466,7 @@
         <v>44011</v>
       </c>
       <c r="B91" s="2">
-        <v>3686</v>
+        <v>3688</v>
       </c>
       <c r="C91" s="2">
         <v>197</v>
@@ -2475,13 +2475,13 @@
         <v>133.285714285714</v>
       </c>
       <c r="E91" s="2">
-        <v>96387</v>
+        <v>96400</v>
       </c>
       <c r="F91" s="2">
-        <v>3684</v>
+        <v>3685</v>
       </c>
       <c r="G91" s="4">
-        <v>0.052738680685</v>
+        <v>0.052732719154</v>
       </c>
     </row>
     <row r="92" spans="1:7">
@@ -2489,7 +2489,7 @@
         <v>44012</v>
       </c>
       <c r="B92" s="2">
-        <v>3844</v>
+        <v>3846</v>
       </c>
       <c r="C92" s="2">
         <v>158</v>
@@ -2498,13 +2498,13 @@
         <v>136.857142857142</v>
       </c>
       <c r="E92" s="2">
-        <v>99863</v>
+        <v>99876</v>
       </c>
       <c r="F92" s="2">
         <v>3476</v>
       </c>
       <c r="G92" s="4">
-        <v>0.052116200631</v>
+        <v>0.052110530896</v>
       </c>
     </row>
     <row r="93" spans="1:7">
@@ -2512,7 +2512,7 @@
         <v>44013</v>
       </c>
       <c r="B93" s="2">
-        <v>4017</v>
+        <v>4019</v>
       </c>
       <c r="C93" s="2">
         <v>173</v>
@@ -2521,13 +2521,13 @@
         <v>141.142857142857</v>
       </c>
       <c r="E93" s="2">
-        <v>103403</v>
+        <v>103416</v>
       </c>
       <c r="F93" s="2">
         <v>3540</v>
       </c>
       <c r="G93" s="4">
-        <v>0.052291732825</v>
+        <v>0.052286198137</v>
       </c>
     </row>
     <row r="94" spans="1:7">
@@ -2535,7 +2535,7 @@
         <v>44014</v>
       </c>
       <c r="B94" s="2">
-        <v>4229</v>
+        <v>4231</v>
       </c>
       <c r="C94" s="2">
         <v>212</v>
@@ -2544,13 +2544,13 @@
         <v>149.714285714285</v>
       </c>
       <c r="E94" s="2">
-        <v>107324</v>
+        <v>107339</v>
       </c>
       <c r="F94" s="2">
-        <v>3921</v>
+        <v>3923</v>
       </c>
       <c r="G94" s="4">
-        <v>0.053862363159</v>
+        <v>0.053851292328</v>
       </c>
     </row>
     <row r="95" spans="1:7">
@@ -2558,7 +2558,7 @@
         <v>44015</v>
       </c>
       <c r="B95" s="2">
-        <v>4373</v>
+        <v>4375</v>
       </c>
       <c r="C95" s="2">
         <v>144</v>
@@ -2567,13 +2567,13 @@
         <v>146.142857142857</v>
       </c>
       <c r="E95" s="2">
-        <v>109965</v>
+        <v>109980</v>
       </c>
       <c r="F95" s="2">
         <v>2641</v>
       </c>
       <c r="G95" s="4">
-        <v>0.053473420103</v>
+        <v>0.053465036061</v>
       </c>
     </row>
     <row r="96" spans="1:7">
@@ -2581,7 +2581,7 @@
         <v>44016</v>
       </c>
       <c r="B96" s="2">
-        <v>4466</v>
+        <v>4468</v>
       </c>
       <c r="C96" s="2">
         <v>93</v>
@@ -2590,13 +2590,13 @@
         <v>148</v>
       </c>
       <c r="E96" s="2">
-        <v>111082</v>
+        <v>111097</v>
       </c>
       <c r="F96" s="2">
         <v>1117</v>
       </c>
       <c r="G96" s="4">
-        <v>0.05403150099</v>
+        <v>0.054023048443</v>
       </c>
     </row>
     <row r="97" spans="1:7">
@@ -2604,7 +2604,7 @@
         <v>44017</v>
       </c>
       <c r="B97" s="2">
-        <v>4552</v>
+        <v>4554</v>
       </c>
       <c r="C97" s="2">
         <v>86</v>
@@ -2613,13 +2613,13 @@
         <v>151.857142857142</v>
       </c>
       <c r="E97" s="2">
-        <v>112211</v>
+        <v>112226</v>
       </c>
       <c r="F97" s="2">
         <v>1129</v>
       </c>
       <c r="G97" s="4">
-        <v>0.05449046545</v>
+        <v>0.054482087027</v>
       </c>
     </row>
     <row r="98" spans="1:7">
@@ -2627,7 +2627,7 @@
         <v>44018</v>
       </c>
       <c r="B98" s="2">
-        <v>4756</v>
+        <v>4758</v>
       </c>
       <c r="C98" s="2">
         <v>204</v>
@@ -2636,13 +2636,13 @@
         <v>152.857142857142</v>
       </c>
       <c r="E98" s="2">
-        <v>116281</v>
+        <v>116298</v>
       </c>
       <c r="F98" s="2">
-        <v>4070</v>
+        <v>4072</v>
       </c>
       <c r="G98" s="4">
-        <v>0.053785060822</v>
+        <v>0.053774248668</v>
       </c>
     </row>
     <row r="99" spans="1:7">
@@ -2650,7 +2650,7 @@
         <v>44019</v>
       </c>
       <c r="B99" s="2">
-        <v>4972</v>
+        <v>4974</v>
       </c>
       <c r="C99" s="2">
         <v>216</v>
@@ -2659,13 +2659,13 @@
         <v>161.142857142857</v>
       </c>
       <c r="E99" s="2">
-        <v>120353</v>
+        <v>120371</v>
       </c>
       <c r="F99" s="2">
-        <v>4072</v>
+        <v>4073</v>
       </c>
       <c r="G99" s="4">
-        <v>0.055051244509</v>
+        <v>0.055037814101</v>
       </c>
     </row>
     <row r="100" spans="1:7">
@@ -2673,7 +2673,7 @@
         <v>44020</v>
       </c>
       <c r="B100" s="2">
-        <v>5197</v>
+        <v>5199</v>
       </c>
       <c r="C100" s="2">
         <v>225</v>
@@ -2682,13 +2682,13 @@
         <v>168.571428571428</v>
       </c>
       <c r="E100" s="2">
-        <v>124609</v>
+        <v>124627</v>
       </c>
       <c r="F100" s="2">
         <v>4256</v>
       </c>
       <c r="G100" s="4">
-        <v>0.055644628878</v>
+        <v>0.055631511951</v>
       </c>
     </row>
     <row r="101" spans="1:7">
@@ -2696,22 +2696,22 @@
         <v>44021</v>
       </c>
       <c r="B101" s="2">
-        <v>5450</v>
+        <v>5451</v>
       </c>
       <c r="C101" s="2">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D101" s="3">
-        <v>174.428571428571</v>
+        <v>174.285714285714</v>
       </c>
       <c r="E101" s="2">
-        <v>129206</v>
+        <v>129223</v>
       </c>
       <c r="F101" s="2">
-        <v>4597</v>
+        <v>4596</v>
       </c>
       <c r="G101" s="4">
-        <v>0.055799287085</v>
+        <v>0.055748492048</v>
       </c>
     </row>
     <row r="102" spans="1:7">
@@ -2719,22 +2719,22 @@
         <v>44022</v>
       </c>
       <c r="B102" s="2">
-        <v>5697</v>
+        <v>5698</v>
       </c>
       <c r="C102" s="2">
         <v>247</v>
       </c>
       <c r="D102" s="3">
-        <v>189.142857142857</v>
+        <v>189</v>
       </c>
       <c r="E102" s="2">
-        <v>133668</v>
+        <v>133686</v>
       </c>
       <c r="F102" s="2">
-        <v>4462</v>
+        <v>4463</v>
       </c>
       <c r="G102" s="4">
-        <v>0.055857908281</v>
+        <v>0.055808656036</v>
       </c>
     </row>
     <row r="103" spans="1:7">
@@ -2742,22 +2742,22 @@
         <v>44023</v>
       </c>
       <c r="B103" s="2">
-        <v>5836</v>
+        <v>5838</v>
       </c>
       <c r="C103" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D103" s="3">
         <v>195.714285714285</v>
       </c>
       <c r="E103" s="2">
-        <v>135737</v>
+        <v>135756</v>
       </c>
       <c r="F103" s="2">
-        <v>2069</v>
+        <v>2070</v>
       </c>
       <c r="G103" s="4">
-        <v>0.055566822145</v>
+        <v>0.055557808508</v>
       </c>
     </row>
     <row r="104" spans="1:7">
@@ -2765,7 +2765,7 @@
         <v>44024</v>
       </c>
       <c r="B104" s="2">
-        <v>5937</v>
+        <v>5939</v>
       </c>
       <c r="C104" s="2">
         <v>101</v>
@@ -2774,13 +2774,13 @@
         <v>197.857142857142</v>
       </c>
       <c r="E104" s="2">
-        <v>137063</v>
+        <v>137082</v>
       </c>
       <c r="F104" s="2">
         <v>1326</v>
       </c>
       <c r="G104" s="4">
-        <v>0.055729921133</v>
+        <v>0.055720952687</v>
       </c>
     </row>
     <row r="105" spans="1:7">
@@ -2788,7 +2788,7 @@
         <v>44025</v>
       </c>
       <c r="B105" s="2">
-        <v>6198</v>
+        <v>6200</v>
       </c>
       <c r="C105" s="2">
         <v>261</v>
@@ -2797,13 +2797,13 @@
         <v>206</v>
       </c>
       <c r="E105" s="2">
-        <v>141663</v>
+        <v>141684</v>
       </c>
       <c r="F105" s="2">
-        <v>4600</v>
+        <v>4602</v>
       </c>
       <c r="G105" s="4">
-        <v>0.056811913954</v>
+        <v>0.056802962262</v>
       </c>
     </row>
     <row r="106" spans="1:7">
@@ -2811,22 +2811,22 @@
         <v>44026</v>
       </c>
       <c r="B106" s="2">
-        <v>6451</v>
+        <v>6454</v>
       </c>
       <c r="C106" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="D106" s="3">
-        <v>211.285714285714</v>
+        <v>211.428571428571</v>
       </c>
       <c r="E106" s="2">
-        <v>145416</v>
+        <v>145440</v>
       </c>
       <c r="F106" s="2">
-        <v>3753</v>
+        <v>3756</v>
       </c>
       <c r="G106" s="4">
-        <v>0.059011291545</v>
+        <v>0.05903705772</v>
       </c>
     </row>
     <row r="107" spans="1:7">
@@ -2834,22 +2834,22 @@
         <v>44027</v>
       </c>
       <c r="B107" s="2">
-        <v>6711</v>
+        <v>6714</v>
       </c>
       <c r="C107" s="2">
         <v>260</v>
       </c>
       <c r="D107" s="3">
-        <v>216.285714285714</v>
+        <v>216.428571428571</v>
       </c>
       <c r="E107" s="2">
-        <v>149758</v>
+        <v>149783</v>
       </c>
       <c r="F107" s="2">
-        <v>4342</v>
+        <v>4343</v>
       </c>
       <c r="G107" s="4">
-        <v>0.060201200842</v>
+        <v>0.060224200985</v>
       </c>
     </row>
     <row r="108" spans="1:7">
@@ -2857,22 +2857,22 @@
         <v>44028</v>
       </c>
       <c r="B108" s="2">
-        <v>6966</v>
+        <v>6970</v>
       </c>
       <c r="C108" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="D108" s="3">
-        <v>216.571428571428</v>
+        <v>217</v>
       </c>
       <c r="E108" s="2">
-        <v>153940</v>
+        <v>153966</v>
       </c>
       <c r="F108" s="2">
-        <v>4182</v>
+        <v>4183</v>
       </c>
       <c r="G108" s="4">
-        <v>0.061292148459</v>
+        <v>0.061391100513</v>
       </c>
     </row>
     <row r="109" spans="1:7">
@@ -2880,22 +2880,22 @@
         <v>44029</v>
       </c>
       <c r="B109" s="2">
-        <v>7218</v>
+        <v>7221</v>
       </c>
       <c r="C109" s="2">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D109" s="3">
-        <v>217.285714285714</v>
+        <v>217.571428571428</v>
       </c>
       <c r="E109" s="2">
-        <v>158140</v>
+        <v>158166</v>
       </c>
       <c r="F109" s="2">
         <v>4200</v>
       </c>
       <c r="G109" s="4">
-        <v>0.062152664269</v>
+        <v>0.062214052287</v>
       </c>
     </row>
     <row r="110" spans="1:7">
@@ -2903,22 +2903,22 @@
         <v>44030</v>
       </c>
       <c r="B110" s="2">
-        <v>7347</v>
+        <v>7350</v>
       </c>
       <c r="C110" s="2">
         <v>129</v>
       </c>
       <c r="D110" s="3">
-        <v>215.857142857142</v>
+        <v>216</v>
       </c>
       <c r="E110" s="2">
-        <v>160362</v>
+        <v>160389</v>
       </c>
       <c r="F110" s="2">
-        <v>2222</v>
+        <v>2223</v>
       </c>
       <c r="G110" s="4">
-        <v>0.061360406091</v>
+        <v>0.061381074168</v>
       </c>
     </row>
     <row r="111" spans="1:7">
@@ -2926,22 +2926,22 @@
         <v>44031</v>
       </c>
       <c r="B111" s="2">
-        <v>7447</v>
+        <v>7449</v>
       </c>
       <c r="C111" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D111" s="3">
         <v>215.714285714285</v>
       </c>
       <c r="E111" s="2">
-        <v>161620</v>
+        <v>161646</v>
       </c>
       <c r="F111" s="2">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="G111" s="4">
-        <v>0.061489595634</v>
+        <v>0.061472072952</v>
       </c>
     </row>
     <row r="112" spans="1:7">
@@ -2949,22 +2949,22 @@
         <v>44032</v>
       </c>
       <c r="B112" s="2">
-        <v>7738</v>
+        <v>7739</v>
       </c>
       <c r="C112" s="2">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D112" s="3">
-        <v>220</v>
+        <v>219.857142857142</v>
       </c>
       <c r="E112" s="2">
-        <v>165861</v>
+        <v>165891</v>
       </c>
       <c r="F112" s="2">
-        <v>4241</v>
+        <v>4245</v>
       </c>
       <c r="G112" s="4">
-        <v>0.063641623274</v>
+        <v>0.06357665138099999</v>
       </c>
     </row>
     <row r="113" spans="1:7">
@@ -2975,19 +2975,19 @@
         <v>7979</v>
       </c>
       <c r="C113" s="2">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D113" s="3">
-        <v>218.285714285714</v>
+        <v>217.857142857142</v>
       </c>
       <c r="E113" s="2">
-        <v>169686</v>
+        <v>169721</v>
       </c>
       <c r="F113" s="2">
-        <v>3825</v>
+        <v>3830</v>
       </c>
       <c r="G113" s="4">
-        <v>0.062958384837</v>
+        <v>0.06280630946</v>
       </c>
     </row>
     <row r="114" spans="1:7">
@@ -2995,22 +2995,22 @@
         <v>44034</v>
       </c>
       <c r="B114" s="2">
-        <v>8230</v>
+        <v>8229</v>
       </c>
       <c r="C114" s="2">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D114" s="3">
-        <v>217</v>
+        <v>216.428571428571</v>
       </c>
       <c r="E114" s="2">
-        <v>173342</v>
+        <v>173377</v>
       </c>
       <c r="F114" s="2">
         <v>3656</v>
       </c>
       <c r="G114" s="4">
-        <v>0.06440807327</v>
+        <v>0.064211240145</v>
       </c>
     </row>
     <row r="115" spans="1:7">
@@ -3018,22 +3018,22 @@
         <v>44035</v>
       </c>
       <c r="B115" s="2">
-        <v>8461</v>
+        <v>8460</v>
       </c>
       <c r="C115" s="2">
         <v>231</v>
       </c>
       <c r="D115" s="3">
-        <v>213.571428571428</v>
+        <v>212.857142857142</v>
       </c>
       <c r="E115" s="2">
-        <v>176663</v>
+        <v>176699</v>
       </c>
       <c r="F115" s="2">
-        <v>3321</v>
+        <v>3322</v>
       </c>
       <c r="G115" s="4">
-        <v>0.065792368965</v>
+        <v>0.065543483042</v>
       </c>
     </row>
     <row r="116" spans="1:7">
@@ -3041,22 +3041,22 @@
         <v>44036</v>
       </c>
       <c r="B116" s="2">
-        <v>8680</v>
+        <v>8679</v>
       </c>
       <c r="C116" s="2">
         <v>219</v>
       </c>
       <c r="D116" s="3">
-        <v>208.857142857142</v>
+        <v>208.285714285714</v>
       </c>
       <c r="E116" s="2">
-        <v>180294</v>
+        <v>180329</v>
       </c>
       <c r="F116" s="2">
-        <v>3631</v>
+        <v>3630</v>
       </c>
       <c r="G116" s="4">
-        <v>0.065992597273</v>
+        <v>0.065785317872</v>
       </c>
     </row>
     <row r="117" spans="1:7">
@@ -3067,19 +3067,19 @@
         <v>8790</v>
       </c>
       <c r="C117" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D117" s="3">
-        <v>206.142857142857</v>
+        <v>205.714285714285</v>
       </c>
       <c r="E117" s="2">
-        <v>181911</v>
+        <v>181948</v>
       </c>
       <c r="F117" s="2">
-        <v>1617</v>
+        <v>1619</v>
       </c>
       <c r="G117" s="4">
-        <v>0.06696366420700001</v>
+        <v>0.066793450531</v>
       </c>
     </row>
     <row r="118" spans="1:7">
@@ -3087,22 +3087,22 @@
         <v>44038</v>
       </c>
       <c r="B118" s="2">
-        <v>8894</v>
+        <v>8893</v>
       </c>
       <c r="C118" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D118" s="3">
-        <v>206.714285714285</v>
+        <v>206.285714285714</v>
       </c>
       <c r="E118" s="2">
-        <v>183165</v>
+        <v>183201</v>
       </c>
       <c r="F118" s="2">
-        <v>1254</v>
+        <v>1253</v>
       </c>
       <c r="G118" s="4">
-        <v>0.067161754467</v>
+        <v>0.066991417304</v>
       </c>
     </row>
     <row r="119" spans="1:7">
@@ -3110,22 +3110,22 @@
         <v>44039</v>
       </c>
       <c r="B119" s="2">
-        <v>9137</v>
+        <v>9135</v>
       </c>
       <c r="C119" s="2">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D119" s="3">
-        <v>199.857142857142</v>
+        <v>199.428571428571</v>
       </c>
       <c r="E119" s="2">
-        <v>187333</v>
+        <v>187369</v>
       </c>
       <c r="F119" s="2">
         <v>4168</v>
       </c>
       <c r="G119" s="4">
-        <v>0.06515461996999999</v>
+        <v>0.064996740851</v>
       </c>
     </row>
     <row r="120" spans="1:7">
@@ -3133,22 +3133,22 @@
         <v>44040</v>
       </c>
       <c r="B120" s="2">
-        <v>9383</v>
+        <v>9380</v>
       </c>
       <c r="C120" s="2">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D120" s="3">
-        <v>200.571428571428</v>
+        <v>200.142857142857</v>
       </c>
       <c r="E120" s="2">
-        <v>191202</v>
+        <v>191237</v>
       </c>
       <c r="F120" s="2">
-        <v>3869</v>
+        <v>3868</v>
       </c>
       <c r="G120" s="4">
-        <v>0.06525376464</v>
+        <v>0.06511433351900001</v>
       </c>
     </row>
     <row r="121" spans="1:7">
@@ -3156,22 +3156,22 @@
         <v>44041</v>
       </c>
       <c r="B121" s="2">
-        <v>9632</v>
+        <v>9629</v>
       </c>
       <c r="C121" s="2">
         <v>249</v>
       </c>
       <c r="D121" s="3">
-        <v>200.285714285714</v>
+        <v>200</v>
       </c>
       <c r="E121" s="2">
-        <v>195057</v>
+        <v>195092</v>
       </c>
       <c r="F121" s="2">
         <v>3855</v>
       </c>
       <c r="G121" s="4">
-        <v>0.06456366566799999</v>
+        <v>0.064471563435</v>
       </c>
     </row>
     <row r="122" spans="1:7">
@@ -3179,22 +3179,22 @@
         <v>44042</v>
       </c>
       <c r="B122" s="2">
-        <v>9848</v>
+        <v>9845</v>
       </c>
       <c r="C122" s="2">
         <v>216</v>
       </c>
       <c r="D122" s="3">
-        <v>198.142857142857</v>
+        <v>197.857142857142</v>
       </c>
       <c r="E122" s="2">
-        <v>198726</v>
+        <v>198761</v>
       </c>
       <c r="F122" s="2">
         <v>3669</v>
       </c>
       <c r="G122" s="4">
-        <v>0.062865430811</v>
+        <v>0.06277762668799999</v>
       </c>
     </row>
     <row r="123" spans="1:7">
@@ -3202,22 +3202,22 @@
         <v>44043</v>
       </c>
       <c r="B123" s="2">
-        <v>10081</v>
+        <v>10077</v>
       </c>
       <c r="C123" s="2">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D123" s="3">
-        <v>200.142857142857</v>
+        <v>199.714285714285</v>
       </c>
       <c r="E123" s="2">
-        <v>202262</v>
+        <v>202296</v>
       </c>
       <c r="F123" s="2">
-        <v>3536</v>
+        <v>3535</v>
       </c>
       <c r="G123" s="4">
-        <v>0.06377458120899999</v>
+        <v>0.06364091591899999</v>
       </c>
     </row>
     <row r="124" spans="1:7">
@@ -3225,22 +3225,22 @@
         <v>44044</v>
       </c>
       <c r="B124" s="2">
-        <v>10188</v>
+        <v>10184</v>
       </c>
       <c r="C124" s="2">
         <v>107</v>
       </c>
       <c r="D124" s="3">
-        <v>199.714285714285</v>
+        <v>199.142857142857</v>
       </c>
       <c r="E124" s="2">
-        <v>203851</v>
+        <v>203885</v>
       </c>
       <c r="F124" s="2">
         <v>1589</v>
       </c>
       <c r="G124" s="4">
-        <v>0.06371923427499999</v>
+        <v>0.063545607877</v>
       </c>
     </row>
     <row r="125" spans="1:7">
@@ -3248,22 +3248,22 @@
         <v>44045</v>
       </c>
       <c r="B125" s="2">
-        <v>10267</v>
+        <v>10263</v>
       </c>
       <c r="C125" s="2">
         <v>79</v>
       </c>
       <c r="D125" s="3">
-        <v>196.142857142857</v>
+        <v>195.714285714285</v>
       </c>
       <c r="E125" s="2">
-        <v>204974</v>
+        <v>205008</v>
       </c>
       <c r="F125" s="2">
         <v>1123</v>
       </c>
       <c r="G125" s="4">
-        <v>0.06295566050699999</v>
+        <v>0.062823863896</v>
       </c>
     </row>
     <row r="126" spans="1:7">
@@ -3271,22 +3271,22 @@
         <v>44046</v>
       </c>
       <c r="B126" s="2">
-        <v>10520</v>
+        <v>10516</v>
       </c>
       <c r="C126" s="2">
         <v>253</v>
       </c>
       <c r="D126" s="3">
-        <v>197.571428571428</v>
+        <v>197.285714285714</v>
       </c>
       <c r="E126" s="2">
-        <v>208769</v>
+        <v>208804</v>
       </c>
       <c r="F126" s="2">
-        <v>3795</v>
+        <v>3796</v>
       </c>
       <c r="G126" s="4">
-        <v>0.064517633886</v>
+        <v>0.064427338465</v>
       </c>
     </row>
     <row r="127" spans="1:7">
@@ -3294,22 +3294,22 @@
         <v>44047</v>
       </c>
       <c r="B127" s="2">
-        <v>10750</v>
+        <v>10748</v>
       </c>
       <c r="C127" s="2">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="D127" s="3">
-        <v>195.285714285714</v>
+        <v>195.428571428571</v>
       </c>
       <c r="E127" s="2">
-        <v>212060</v>
+        <v>212098</v>
       </c>
       <c r="F127" s="2">
-        <v>3291</v>
+        <v>3294</v>
       </c>
       <c r="G127" s="4">
-        <v>0.065538402531</v>
+        <v>0.065576913858</v>
       </c>
     </row>
     <row r="128" spans="1:7">
@@ -3317,22 +3317,22 @@
         <v>44048</v>
       </c>
       <c r="B128" s="2">
-        <v>10930</v>
+        <v>10935</v>
       </c>
       <c r="C128" s="2">
-        <v>180</v>
+        <v>187</v>
       </c>
       <c r="D128" s="3">
-        <v>185.428571428571</v>
+        <v>186.571428571428</v>
       </c>
       <c r="E128" s="2">
-        <v>215260</v>
+        <v>215306</v>
       </c>
       <c r="F128" s="2">
-        <v>3200</v>
+        <v>3208</v>
       </c>
       <c r="G128" s="4">
-        <v>0.064247883977</v>
+        <v>0.064608687048</v>
       </c>
     </row>
     <row r="129" spans="1:7">
@@ -3340,22 +3340,22 @@
         <v>44049</v>
       </c>
       <c r="B129" s="2">
-        <v>11125</v>
+        <v>11131</v>
       </c>
       <c r="C129" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D129" s="3">
-        <v>182.428571428571</v>
+        <v>183.714285714285</v>
       </c>
       <c r="E129" s="2">
-        <v>218909</v>
+        <v>218956</v>
       </c>
       <c r="F129" s="2">
-        <v>3649</v>
+        <v>3650</v>
       </c>
       <c r="G129" s="4">
-        <v>0.063271069712</v>
+        <v>0.063679128497</v>
       </c>
     </row>
     <row r="130" spans="1:7">
@@ -3363,22 +3363,22 @@
         <v>44050</v>
       </c>
       <c r="B130" s="2">
-        <v>11300</v>
+        <v>11310</v>
       </c>
       <c r="C130" s="2">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="D130" s="3">
-        <v>174.142857142857</v>
+        <v>176.142857142857</v>
       </c>
       <c r="E130" s="2">
-        <v>222172</v>
+        <v>222222</v>
       </c>
       <c r="F130" s="2">
-        <v>3263</v>
+        <v>3266</v>
       </c>
       <c r="G130" s="4">
-        <v>0.061225514816</v>
+        <v>0.061878952122</v>
       </c>
     </row>
     <row r="131" spans="1:7">
@@ -3386,22 +3386,22 @@
         <v>44051</v>
       </c>
       <c r="B131" s="2">
-        <v>11411</v>
+        <v>11432</v>
       </c>
       <c r="C131" s="2">
-        <v>111</v>
+        <v>122</v>
       </c>
       <c r="D131" s="3">
-        <v>174.714285714285</v>
+        <v>178.285714285714</v>
       </c>
       <c r="E131" s="2">
-        <v>223865</v>
+        <v>223926</v>
       </c>
       <c r="F131" s="2">
-        <v>1693</v>
+        <v>1704</v>
       </c>
       <c r="G131" s="4">
-        <v>0.061107224942</v>
+        <v>0.062272341699</v>
       </c>
     </row>
     <row r="132" spans="1:7">
@@ -3409,22 +3409,22 @@
         <v>44052</v>
       </c>
       <c r="B132" s="2">
-        <v>11493</v>
+        <v>11515</v>
       </c>
       <c r="C132" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D132" s="3">
-        <v>175.142857142857</v>
+        <v>178.857142857142</v>
       </c>
       <c r="E132" s="2">
-        <v>224907</v>
+        <v>224968</v>
       </c>
       <c r="F132" s="2">
         <v>1042</v>
       </c>
       <c r="G132" s="4">
-        <v>0.061506045251</v>
+        <v>0.062725450901</v>
       </c>
     </row>
     <row r="133" spans="1:7">
@@ -3432,22 +3432,22 @@
         <v>44053</v>
       </c>
       <c r="B133" s="2">
-        <v>11730</v>
+        <v>11752</v>
       </c>
       <c r="C133" s="2">
         <v>237</v>
       </c>
       <c r="D133" s="3">
-        <v>172.857142857142</v>
+        <v>176.571428571428</v>
       </c>
       <c r="E133" s="2">
-        <v>228800</v>
+        <v>228862</v>
       </c>
       <c r="F133" s="2">
-        <v>3893</v>
+        <v>3894</v>
       </c>
       <c r="G133" s="4">
-        <v>0.060406370126</v>
+        <v>0.061621298235</v>
       </c>
     </row>
     <row r="134" spans="1:7">
@@ -3455,22 +3455,22 @@
         <v>44054</v>
       </c>
       <c r="B134" s="2">
-        <v>11931</v>
+        <v>11953</v>
       </c>
       <c r="C134" s="2">
         <v>201</v>
       </c>
       <c r="D134" s="3">
-        <v>168.714285714285</v>
+        <v>172.142857142857</v>
       </c>
       <c r="E134" s="2">
-        <v>232215</v>
+        <v>232277</v>
       </c>
       <c r="F134" s="2">
         <v>3415</v>
       </c>
       <c r="G134" s="4">
-        <v>0.058595881915</v>
+        <v>0.059715545864</v>
       </c>
     </row>
     <row r="135" spans="1:7">
@@ -3478,22 +3478,22 @@
         <v>44055</v>
       </c>
       <c r="B135" s="2">
-        <v>12132</v>
+        <v>12154</v>
       </c>
       <c r="C135" s="2">
         <v>201</v>
       </c>
       <c r="D135" s="3">
-        <v>171.714285714285</v>
+        <v>174.142857142857</v>
       </c>
       <c r="E135" s="2">
-        <v>236069</v>
+        <v>236131</v>
       </c>
       <c r="F135" s="2">
         <v>3854</v>
       </c>
       <c r="G135" s="4">
-        <v>0.05776346773</v>
+        <v>0.058535414165</v>
       </c>
     </row>
     <row r="136" spans="1:7">
@@ -3501,22 +3501,22 @@
         <v>44056</v>
       </c>
       <c r="B136" s="2">
-        <v>12310</v>
+        <v>12330</v>
       </c>
       <c r="C136" s="2">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D136" s="3">
-        <v>169.285714285714</v>
+        <v>171.285714285714</v>
       </c>
       <c r="E136" s="2">
-        <v>239336</v>
+        <v>239398</v>
       </c>
       <c r="F136" s="2">
         <v>3267</v>
       </c>
       <c r="G136" s="4">
-        <v>0.058011455426</v>
+        <v>0.058653752079</v>
       </c>
     </row>
     <row r="137" spans="1:7">
@@ -3524,22 +3524,22 @@
         <v>44057</v>
       </c>
       <c r="B137" s="2">
-        <v>12484</v>
+        <v>12503</v>
       </c>
       <c r="C137" s="2">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D137" s="3">
-        <v>169.142857142857</v>
+        <v>170.428571428571</v>
       </c>
       <c r="E137" s="2">
-        <v>242692</v>
+        <v>242753</v>
       </c>
       <c r="F137" s="2">
-        <v>3356</v>
+        <v>3355</v>
       </c>
       <c r="G137" s="4">
-        <v>0.057699805068</v>
+        <v>0.058107252447</v>
       </c>
     </row>
     <row r="138" spans="1:7">
@@ -3547,22 +3547,22 @@
         <v>44058</v>
       </c>
       <c r="B138" s="2">
-        <v>12577</v>
+        <v>12596</v>
       </c>
       <c r="C138" s="2">
         <v>93</v>
       </c>
       <c r="D138" s="3">
-        <v>166.571428571428</v>
+        <v>166.285714285714</v>
       </c>
       <c r="E138" s="2">
-        <v>244253</v>
+        <v>244314</v>
       </c>
       <c r="F138" s="2">
         <v>1561</v>
       </c>
       <c r="G138" s="4">
-        <v>0.057190504218</v>
+        <v>0.057092407298</v>
       </c>
     </row>
     <row r="139" spans="1:7">
@@ -3570,22 +3570,22 @@
         <v>44059</v>
       </c>
       <c r="B139" s="2">
-        <v>12622</v>
+        <v>12641</v>
       </c>
       <c r="C139" s="2">
         <v>45</v>
       </c>
       <c r="D139" s="3">
-        <v>161.285714285714</v>
+        <v>160.857142857142</v>
       </c>
       <c r="E139" s="2">
-        <v>245029</v>
+        <v>245090</v>
       </c>
       <c r="F139" s="2">
         <v>776</v>
       </c>
       <c r="G139" s="4">
-        <v>0.056107742769</v>
+        <v>0.055958652221</v>
       </c>
     </row>
     <row r="140" spans="1:7">
@@ -3593,22 +3593,22 @@
         <v>44060</v>
       </c>
       <c r="B140" s="2">
-        <v>12834</v>
+        <v>12853</v>
       </c>
       <c r="C140" s="2">
         <v>212</v>
       </c>
       <c r="D140" s="3">
-        <v>157.714285714285</v>
+        <v>157.285714285714</v>
       </c>
       <c r="E140" s="2">
-        <v>248685</v>
+        <v>248748</v>
       </c>
       <c r="F140" s="2">
-        <v>3656</v>
+        <v>3658</v>
       </c>
       <c r="G140" s="4">
-        <v>0.055519235604</v>
+        <v>0.055365583827</v>
       </c>
     </row>
     <row r="141" spans="1:7">
@@ -3616,22 +3616,22 @@
         <v>44061</v>
       </c>
       <c r="B141" s="2">
-        <v>13001</v>
+        <v>13020</v>
       </c>
       <c r="C141" s="2">
         <v>167</v>
       </c>
       <c r="D141" s="3">
-        <v>152.857142857142</v>
+        <v>152.428571428571</v>
       </c>
       <c r="E141" s="2">
-        <v>251750</v>
+        <v>251814</v>
       </c>
       <c r="F141" s="2">
-        <v>3065</v>
+        <v>3066</v>
       </c>
       <c r="G141" s="4">
-        <v>0.054773483491</v>
+        <v>0.054614321543</v>
       </c>
     </row>
     <row r="142" spans="1:7">
@@ -3639,22 +3639,22 @@
         <v>44062</v>
       </c>
       <c r="B142" s="2">
-        <v>13159</v>
+        <v>13177</v>
       </c>
       <c r="C142" s="2">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D142" s="3">
-        <v>146.714285714285</v>
+        <v>146.142857142857</v>
       </c>
       <c r="E142" s="2">
-        <v>254803</v>
+        <v>254867</v>
       </c>
       <c r="F142" s="2">
         <v>3053</v>
       </c>
       <c r="G142" s="4">
-        <v>0.054820113163</v>
+        <v>0.054600768573</v>
       </c>
     </row>
     <row r="143" spans="1:7">
@@ -3662,22 +3662,22 @@
         <v>44063</v>
       </c>
       <c r="B143" s="2">
-        <v>13290</v>
+        <v>13308</v>
       </c>
       <c r="C143" s="2">
         <v>131</v>
       </c>
       <c r="D143" s="3">
-        <v>140</v>
+        <v>139.714285714285</v>
       </c>
       <c r="E143" s="2">
-        <v>257967</v>
+        <v>258031</v>
       </c>
       <c r="F143" s="2">
         <v>3164</v>
       </c>
       <c r="G143" s="4">
-        <v>0.052600504535</v>
+        <v>0.052487522138</v>
       </c>
     </row>
     <row r="144" spans="1:7">
@@ -3685,22 +3685,22 @@
         <v>44064</v>
       </c>
       <c r="B144" s="2">
-        <v>13452</v>
+        <v>13470</v>
       </c>
       <c r="C144" s="2">
         <v>162</v>
       </c>
       <c r="D144" s="3">
-        <v>138.285714285714</v>
+        <v>138.142857142857</v>
       </c>
       <c r="E144" s="2">
-        <v>261003</v>
+        <v>261069</v>
       </c>
       <c r="F144" s="2">
-        <v>3036</v>
+        <v>3038</v>
       </c>
       <c r="G144" s="4">
-        <v>0.052864398449</v>
+        <v>0.052795370168</v>
       </c>
     </row>
     <row r="145" spans="1:7">
@@ -3708,22 +3708,22 @@
         <v>44065</v>
       </c>
       <c r="B145" s="2">
-        <v>13513</v>
+        <v>13531</v>
       </c>
       <c r="C145" s="2">
         <v>61</v>
       </c>
       <c r="D145" s="3">
-        <v>133.714285714285</v>
+        <v>133.571428571428</v>
       </c>
       <c r="E145" s="2">
-        <v>262332</v>
+        <v>262398</v>
       </c>
       <c r="F145" s="2">
         <v>1329</v>
       </c>
       <c r="G145" s="4">
-        <v>0.051772775042</v>
+        <v>0.051703163017</v>
       </c>
     </row>
     <row r="146" spans="1:7">
@@ -3731,22 +3731,22 @@
         <v>44066</v>
       </c>
       <c r="B146" s="2">
-        <v>13579</v>
+        <v>13597</v>
       </c>
       <c r="C146" s="2">
         <v>66</v>
       </c>
       <c r="D146" s="3">
-        <v>136.714285714285</v>
+        <v>136.571428571428</v>
       </c>
       <c r="E146" s="2">
-        <v>263297</v>
+        <v>263364</v>
       </c>
       <c r="F146" s="2">
-        <v>965</v>
+        <v>966</v>
       </c>
       <c r="G146" s="4">
-        <v>0.052386687103</v>
+        <v>0.052314764145</v>
       </c>
     </row>
     <row r="147" spans="1:7">
@@ -3754,22 +3754,22 @@
         <v>44067</v>
       </c>
       <c r="B147" s="2">
-        <v>13728</v>
+        <v>13746</v>
       </c>
       <c r="C147" s="2">
         <v>149</v>
       </c>
       <c r="D147" s="3">
-        <v>127.714285714285</v>
+        <v>127.571428571428</v>
       </c>
       <c r="E147" s="2">
-        <v>266269</v>
+        <v>266343</v>
       </c>
       <c r="F147" s="2">
-        <v>2972</v>
+        <v>2979</v>
       </c>
       <c r="G147" s="4">
-        <v>0.050841674249</v>
+        <v>0.050753054845</v>
       </c>
     </row>
     <row r="148" spans="1:7">
@@ -3777,22 +3777,22 @@
         <v>44068</v>
       </c>
       <c r="B148" s="2">
-        <v>13861</v>
+        <v>13879</v>
       </c>
       <c r="C148" s="2">
         <v>133</v>
       </c>
       <c r="D148" s="3">
-        <v>122.857142857142</v>
+        <v>122.714285714285</v>
       </c>
       <c r="E148" s="2">
-        <v>269276</v>
+        <v>269357</v>
       </c>
       <c r="F148" s="2">
-        <v>3007</v>
+        <v>3014</v>
       </c>
       <c r="G148" s="4">
-        <v>0.049069953212</v>
+        <v>0.048965399304</v>
       </c>
     </row>
     <row r="149" spans="1:7">
@@ -3800,7 +3800,7 @@
         <v>44069</v>
       </c>
       <c r="B149" s="2">
-        <v>13995</v>
+        <v>14013</v>
       </c>
       <c r="C149" s="2">
         <v>134</v>
@@ -3809,13 +3809,13 @@
         <v>119.428571428571</v>
       </c>
       <c r="E149" s="2">
-        <v>272224</v>
+        <v>272314</v>
       </c>
       <c r="F149" s="2">
-        <v>2948</v>
+        <v>2957</v>
       </c>
       <c r="G149" s="4">
-        <v>0.047988060386</v>
+        <v>0.047916547257</v>
       </c>
     </row>
     <row r="150" spans="1:7">
@@ -3823,7 +3823,7 @@
         <v>44070</v>
       </c>
       <c r="B150" s="2">
-        <v>14160</v>
+        <v>14178</v>
       </c>
       <c r="C150" s="2">
         <v>165</v>
@@ -3832,13 +3832,13 @@
         <v>124.285714285714</v>
       </c>
       <c r="E150" s="2">
-        <v>275452</v>
+        <v>275549</v>
       </c>
       <c r="F150" s="2">
-        <v>3228</v>
+        <v>3235</v>
       </c>
       <c r="G150" s="4">
-        <v>0.049756934515</v>
+        <v>0.049663203562</v>
       </c>
     </row>
     <row r="151" spans="1:7">
@@ -3846,22 +3846,22 @@
         <v>44071</v>
       </c>
       <c r="B151" s="2">
-        <v>14277</v>
+        <v>14294</v>
       </c>
       <c r="C151" s="2">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D151" s="3">
-        <v>117.857142857142</v>
+        <v>117.714285714285</v>
       </c>
       <c r="E151" s="2">
-        <v>278221</v>
+        <v>278318</v>
       </c>
       <c r="F151" s="2">
         <v>2769</v>
       </c>
       <c r="G151" s="4">
-        <v>0.047914972702</v>
+        <v>0.047770885268</v>
       </c>
     </row>
     <row r="152" spans="1:7">
@@ -3869,22 +3869,22 @@
         <v>44072</v>
       </c>
       <c r="B152" s="2">
-        <v>14341</v>
+        <v>14358</v>
       </c>
       <c r="C152" s="2">
         <v>64</v>
       </c>
       <c r="D152" s="3">
-        <v>118.285714285714</v>
+        <v>118.142857142857</v>
       </c>
       <c r="E152" s="2">
-        <v>279654</v>
+        <v>279752</v>
       </c>
       <c r="F152" s="2">
-        <v>1433</v>
+        <v>1434</v>
       </c>
       <c r="G152" s="4">
-        <v>0.047800484932</v>
+        <v>0.047654719373</v>
       </c>
     </row>
     <row r="153" spans="1:7">
@@ -3892,22 +3892,22 @@
         <v>44073</v>
       </c>
       <c r="B153" s="2">
-        <v>14398</v>
+        <v>14415</v>
       </c>
       <c r="C153" s="2">
         <v>57</v>
       </c>
       <c r="D153" s="3">
-        <v>117</v>
+        <v>116.857142857142</v>
       </c>
       <c r="E153" s="2">
-        <v>280732</v>
+        <v>280830</v>
       </c>
       <c r="F153" s="2">
         <v>1078</v>
       </c>
       <c r="G153" s="4">
-        <v>0.046974476627</v>
+        <v>0.04683384862</v>
       </c>
     </row>
     <row r="154" spans="1:7">
@@ -3915,22 +3915,22 @@
         <v>44074</v>
       </c>
       <c r="B154" s="2">
-        <v>14535</v>
+        <v>14552</v>
       </c>
       <c r="C154" s="2">
         <v>137</v>
       </c>
       <c r="D154" s="3">
-        <v>115.285714285714</v>
+        <v>115.142857142857</v>
       </c>
       <c r="E154" s="2">
-        <v>283856</v>
+        <v>283954</v>
       </c>
       <c r="F154" s="2">
         <v>3124</v>
       </c>
       <c r="G154" s="4">
-        <v>0.045886165918</v>
+        <v>0.045766850264</v>
       </c>
     </row>
     <row r="155" spans="1:7">
@@ -3938,22 +3938,22 @@
         <v>44075</v>
       </c>
       <c r="B155" s="2">
-        <v>14665</v>
+        <v>14682</v>
       </c>
       <c r="C155" s="2">
         <v>130</v>
       </c>
       <c r="D155" s="3">
-        <v>114.857142857142</v>
+        <v>114.714285714285</v>
       </c>
       <c r="E155" s="2">
-        <v>287121</v>
+        <v>287220</v>
       </c>
       <c r="F155" s="2">
-        <v>3265</v>
+        <v>3266</v>
       </c>
       <c r="G155" s="4">
-        <v>0.045054637153</v>
+        <v>0.044953255332</v>
       </c>
     </row>
     <row r="156" spans="1:7">
@@ -3961,22 +3961,22 @@
         <v>44076</v>
       </c>
       <c r="B156" s="2">
-        <v>14780</v>
+        <v>14797</v>
       </c>
       <c r="C156" s="2">
         <v>115</v>
       </c>
       <c r="D156" s="3">
-        <v>112.142857142857</v>
+        <v>112</v>
       </c>
       <c r="E156" s="2">
-        <v>290086</v>
+        <v>290185</v>
       </c>
       <c r="F156" s="2">
         <v>2965</v>
       </c>
       <c r="G156" s="4">
-        <v>0.043948046131</v>
+        <v>0.043869956913</v>
       </c>
     </row>
     <row r="157" spans="1:7">
@@ -3984,22 +3984,22 @@
         <v>44077</v>
       </c>
       <c r="B157" s="2">
-        <v>14875</v>
+        <v>14892</v>
       </c>
       <c r="C157" s="2">
         <v>95</v>
       </c>
       <c r="D157" s="3">
-        <v>102.142857142857</v>
+        <v>102</v>
       </c>
       <c r="E157" s="2">
-        <v>293015</v>
+        <v>293115</v>
       </c>
       <c r="F157" s="2">
-        <v>2929</v>
+        <v>2930</v>
       </c>
       <c r="G157" s="4">
-        <v>0.040710584752</v>
+        <v>0.040646703859</v>
       </c>
     </row>
     <row r="158" spans="1:7">
@@ -4007,7 +4007,7 @@
         <v>44078</v>
       </c>
       <c r="B158" s="2">
-        <v>14996</v>
+        <v>15013</v>
       </c>
       <c r="C158" s="2">
         <v>121</v>
@@ -4016,13 +4016,13 @@
         <v>102.714285714285</v>
       </c>
       <c r="E158" s="2">
-        <v>295817</v>
+        <v>295917</v>
       </c>
       <c r="F158" s="2">
         <v>2802</v>
       </c>
       <c r="G158" s="4">
-        <v>0.040861559445</v>
+        <v>0.040854594011</v>
       </c>
     </row>
     <row r="159" spans="1:7">
@@ -4030,7 +4030,7 @@
         <v>44079</v>
       </c>
       <c r="B159" s="2">
-        <v>15062</v>
+        <v>15079</v>
       </c>
       <c r="C159" s="2">
         <v>66</v>
@@ -4039,13 +4039,13 @@
         <v>103</v>
       </c>
       <c r="E159" s="2">
-        <v>297153</v>
+        <v>297253</v>
       </c>
       <c r="F159" s="2">
         <v>1336</v>
       </c>
       <c r="G159" s="4">
-        <v>0.04120235442</v>
+        <v>0.041197645848</v>
       </c>
     </row>
     <row r="160" spans="1:7">
@@ -4053,7 +4053,7 @@
         <v>44080</v>
       </c>
       <c r="B160" s="2">
-        <v>15115</v>
+        <v>15132</v>
       </c>
       <c r="C160" s="2">
         <v>53</v>
@@ -4062,13 +4062,13 @@
         <v>102.428571428571</v>
       </c>
       <c r="E160" s="2">
-        <v>298239</v>
+        <v>298339</v>
       </c>
       <c r="F160" s="2">
         <v>1086</v>
       </c>
       <c r="G160" s="4">
-        <v>0.040955046552</v>
+        <v>0.040950368381</v>
       </c>
     </row>
     <row r="161" spans="1:7">
@@ -4076,7 +4076,7 @@
         <v>44081</v>
       </c>
       <c r="B161" s="2">
-        <v>15183</v>
+        <v>15200</v>
       </c>
       <c r="C161" s="2">
         <v>68</v>
@@ -4085,13 +4085,13 @@
         <v>92.571428571428</v>
       </c>
       <c r="E161" s="2">
-        <v>299490</v>
+        <v>299590</v>
       </c>
       <c r="F161" s="2">
         <v>1251</v>
       </c>
       <c r="G161" s="4">
-        <v>0.041448125879</v>
+        <v>0.041442824251</v>
       </c>
     </row>
     <row r="162" spans="1:7">
@@ -4099,7 +4099,7 @@
         <v>44082</v>
       </c>
       <c r="B162" s="2">
-        <v>15327</v>
+        <v>15344</v>
       </c>
       <c r="C162" s="2">
         <v>144</v>
@@ -4108,13 +4108,13 @@
         <v>94.571428571428</v>
       </c>
       <c r="E162" s="2">
-        <v>303762</v>
+        <v>303865</v>
       </c>
       <c r="F162" s="2">
-        <v>4272</v>
+        <v>4275</v>
       </c>
       <c r="G162" s="4">
-        <v>0.039781263145</v>
+        <v>0.039771703214</v>
       </c>
     </row>
     <row r="163" spans="1:7">
@@ -4122,7 +4122,7 @@
         <v>44083</v>
       </c>
       <c r="B163" s="2">
-        <v>15477</v>
+        <v>15494</v>
       </c>
       <c r="C163" s="2">
         <v>150</v>
@@ -4131,13 +4131,13 @@
         <v>99.571428571428</v>
       </c>
       <c r="E163" s="2">
-        <v>307266</v>
+        <v>307371</v>
       </c>
       <c r="F163" s="2">
-        <v>3504</v>
+        <v>3506</v>
       </c>
       <c r="G163" s="4">
-        <v>0.040570430733</v>
+        <v>0.040556266728</v>
       </c>
     </row>
     <row r="164" spans="1:7">
@@ -4145,7 +4145,7 @@
         <v>44084</v>
       </c>
       <c r="B164" s="2">
-        <v>15579</v>
+        <v>15596</v>
       </c>
       <c r="C164" s="2">
         <v>102</v>
@@ -4154,13 +4154,13 @@
         <v>100.571428571428</v>
       </c>
       <c r="E164" s="2">
-        <v>310534</v>
+        <v>310640</v>
       </c>
       <c r="F164" s="2">
-        <v>3268</v>
+        <v>3269</v>
       </c>
       <c r="G164" s="4">
-        <v>0.040184942062</v>
+        <v>0.040171184022</v>
       </c>
     </row>
     <row r="165" spans="1:7">
@@ -4168,7 +4168,7 @@
         <v>44085</v>
       </c>
       <c r="B165" s="2">
-        <v>15651</v>
+        <v>15668</v>
       </c>
       <c r="C165" s="2">
         <v>72</v>
@@ -4177,13 +4177,13 @@
         <v>93.571428571428</v>
       </c>
       <c r="E165" s="2">
-        <v>313024</v>
+        <v>313129</v>
       </c>
       <c r="F165" s="2">
-        <v>2490</v>
+        <v>2489</v>
       </c>
       <c r="G165" s="4">
-        <v>0.038065903411</v>
+        <v>0.038054845456</v>
       </c>
     </row>
     <row r="166" spans="1:7">
@@ -4191,22 +4191,22 @@
         <v>44086</v>
       </c>
       <c r="B166" s="2">
-        <v>15700</v>
+        <v>15716</v>
       </c>
       <c r="C166" s="2">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D166" s="3">
-        <v>91.142857142857</v>
+        <v>91</v>
       </c>
       <c r="E166" s="2">
-        <v>314418</v>
+        <v>314520</v>
       </c>
       <c r="F166" s="2">
-        <v>1394</v>
+        <v>1391</v>
       </c>
       <c r="G166" s="4">
-        <v>0.036953373877</v>
+        <v>0.036891179706</v>
       </c>
     </row>
     <row r="167" spans="1:7">
@@ -4214,22 +4214,22 @@
         <v>44087</v>
       </c>
       <c r="B167" s="2">
-        <v>15732</v>
+        <v>15748</v>
       </c>
       <c r="C167" s="2">
         <v>32</v>
       </c>
       <c r="D167" s="3">
-        <v>88.142857142857</v>
+        <v>88</v>
       </c>
       <c r="E167" s="2">
-        <v>315260</v>
+        <v>315362</v>
       </c>
       <c r="F167" s="2">
         <v>842</v>
       </c>
       <c r="G167" s="4">
-        <v>0.036249339051</v>
+        <v>0.036186336133</v>
       </c>
     </row>
     <row r="168" spans="1:7">
@@ -4237,22 +4237,22 @@
         <v>44088</v>
       </c>
       <c r="B168" s="2">
-        <v>15832</v>
+        <v>15849</v>
       </c>
       <c r="C168" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D168" s="3">
         <v>92.714285714285</v>
       </c>
       <c r="E168" s="2">
-        <v>318637</v>
+        <v>318740</v>
       </c>
       <c r="F168" s="2">
-        <v>3377</v>
+        <v>3378</v>
       </c>
       <c r="G168" s="4">
-        <v>0.033895649448</v>
+        <v>0.033890339425</v>
       </c>
     </row>
     <row r="169" spans="1:7">
@@ -4260,22 +4260,22 @@
         <v>44089</v>
       </c>
       <c r="B169" s="2">
-        <v>15963</v>
+        <v>15979</v>
       </c>
       <c r="C169" s="2">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D169" s="3">
-        <v>90.85714285714199</v>
+        <v>90.714285714285</v>
       </c>
       <c r="E169" s="2">
-        <v>322590</v>
+        <v>322692</v>
       </c>
       <c r="F169" s="2">
-        <v>3953</v>
+        <v>3952</v>
       </c>
       <c r="G169" s="4">
-        <v>0.033779477374</v>
+        <v>0.033728156371</v>
       </c>
     </row>
     <row r="170" spans="1:7">
@@ -4283,22 +4283,22 @@
         <v>44090</v>
       </c>
       <c r="B170" s="2">
-        <v>16049</v>
+        <v>16065</v>
       </c>
       <c r="C170" s="2">
         <v>86</v>
       </c>
       <c r="D170" s="3">
-        <v>81.714285714285</v>
+        <v>81.571428571428</v>
       </c>
       <c r="E170" s="2">
-        <v>325879</v>
+        <v>325978</v>
       </c>
       <c r="F170" s="2">
-        <v>3289</v>
+        <v>3286</v>
       </c>
       <c r="G170" s="4">
-        <v>0.030731209369</v>
+        <v>0.030687375718</v>
       </c>
     </row>
     <row r="171" spans="1:7">
@@ -4306,22 +4306,22 @@
         <v>44091</v>
       </c>
       <c r="B171" s="2">
-        <v>16152</v>
+        <v>16168</v>
       </c>
       <c r="C171" s="2">
         <v>103</v>
       </c>
       <c r="D171" s="3">
-        <v>81.85714285714199</v>
+        <v>81.714285714285</v>
       </c>
       <c r="E171" s="2">
-        <v>329478</v>
+        <v>329578</v>
       </c>
       <c r="F171" s="2">
-        <v>3599</v>
+        <v>3600</v>
       </c>
       <c r="G171" s="4">
-        <v>0.030247043918</v>
+        <v>0.030203823001</v>
       </c>
     </row>
     <row r="172" spans="1:7">
@@ -4329,22 +4329,22 @@
         <v>44092</v>
       </c>
       <c r="B172" s="2">
-        <v>16255</v>
+        <v>16272</v>
       </c>
       <c r="C172" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D172" s="3">
         <v>86.28571428571399</v>
       </c>
       <c r="E172" s="2">
-        <v>332744</v>
+        <v>332845</v>
       </c>
       <c r="F172" s="2">
-        <v>3266</v>
+        <v>3267</v>
       </c>
       <c r="G172" s="4">
-        <v>0.030628803245</v>
+        <v>0.030635017244</v>
       </c>
     </row>
     <row r="173" spans="1:7">
@@ -4352,22 +4352,22 @@
         <v>44093</v>
       </c>
       <c r="B173" s="2">
-        <v>16327</v>
+        <v>16344</v>
       </c>
       <c r="C173" s="2">
         <v>72</v>
       </c>
       <c r="D173" s="3">
-        <v>89.571428571428</v>
+        <v>89.714285714285</v>
       </c>
       <c r="E173" s="2">
-        <v>334260</v>
+        <v>334361</v>
       </c>
       <c r="F173" s="2">
         <v>1516</v>
       </c>
       <c r="G173" s="4">
-        <v>0.031599637133</v>
+        <v>0.031651630462</v>
       </c>
     </row>
     <row r="174" spans="1:7">
@@ -4375,22 +4375,22 @@
         <v>44094</v>
       </c>
       <c r="B174" s="2">
-        <v>16369</v>
+        <v>16386</v>
       </c>
       <c r="C174" s="2">
         <v>42</v>
       </c>
       <c r="D174" s="3">
-        <v>91</v>
+        <v>91.142857142857</v>
       </c>
       <c r="E174" s="2">
-        <v>335411</v>
+        <v>335512</v>
       </c>
       <c r="F174" s="2">
         <v>1151</v>
       </c>
       <c r="G174" s="4">
-        <v>0.031611334425</v>
+        <v>0.031662531017</v>
       </c>
     </row>
     <row r="175" spans="1:7">
@@ -4398,7 +4398,7 @@
         <v>44095</v>
       </c>
       <c r="B175" s="2">
-        <v>16512</v>
+        <v>16529</v>
       </c>
       <c r="C175" s="2">
         <v>143</v>
@@ -4407,10 +4407,10 @@
         <v>97.142857142857</v>
       </c>
       <c r="E175" s="2">
-        <v>339751</v>
+        <v>339854</v>
       </c>
       <c r="F175" s="2">
-        <v>4340</v>
+        <v>4342</v>
       </c>
       <c r="G175" s="4">
         <v>0.032206119162</v>
@@ -4421,22 +4421,22 @@
         <v>44096</v>
       </c>
       <c r="B176" s="2">
-        <v>16611</v>
+        <v>16627</v>
       </c>
       <c r="C176" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D176" s="3">
         <v>92.571428571428</v>
       </c>
       <c r="E176" s="2">
-        <v>343501</v>
+        <v>343608</v>
       </c>
       <c r="F176" s="2">
-        <v>3750</v>
+        <v>3754</v>
       </c>
       <c r="G176" s="4">
-        <v>0.030988474965</v>
+        <v>0.030981067125</v>
       </c>
     </row>
     <row r="177" spans="1:7">
@@ -4444,7 +4444,7 @@
         <v>44097</v>
       </c>
       <c r="B177" s="2">
-        <v>16705</v>
+        <v>16721</v>
       </c>
       <c r="C177" s="2">
         <v>94</v>
@@ -4453,13 +4453,13 @@
         <v>93.714285714285</v>
       </c>
       <c r="E177" s="2">
-        <v>346977</v>
+        <v>347085</v>
       </c>
       <c r="F177" s="2">
-        <v>3476</v>
+        <v>3477</v>
       </c>
       <c r="G177" s="4">
-        <v>0.031092994596</v>
+        <v>0.03107973658</v>
       </c>
     </row>
     <row r="178" spans="1:7">
@@ -4467,7 +4467,7 @@
         <v>44098</v>
       </c>
       <c r="B178" s="2">
-        <v>16796</v>
+        <v>16812</v>
       </c>
       <c r="C178" s="2">
         <v>91</v>
@@ -4476,13 +4476,13 @@
         <v>92</v>
       </c>
       <c r="E178" s="2">
-        <v>350681</v>
+        <v>350794</v>
       </c>
       <c r="F178" s="2">
-        <v>3704</v>
+        <v>3709</v>
       </c>
       <c r="G178" s="4">
-        <v>0.030373060415</v>
+        <v>0.030354449472</v>
       </c>
     </row>
     <row r="179" spans="1:7">
@@ -4490,22 +4490,22 @@
         <v>44099</v>
       </c>
       <c r="B179" s="2">
-        <v>16885</v>
+        <v>16902</v>
       </c>
       <c r="C179" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D179" s="3">
         <v>90</v>
       </c>
       <c r="E179" s="2">
-        <v>353961</v>
+        <v>354076</v>
       </c>
       <c r="F179" s="2">
-        <v>3280</v>
+        <v>3282</v>
       </c>
       <c r="G179" s="4">
-        <v>0.02969317057</v>
+        <v>0.029673590504</v>
       </c>
     </row>
     <row r="180" spans="1:7">
@@ -4513,22 +4513,22 @@
         <v>44100</v>
       </c>
       <c r="B180" s="2">
-        <v>16944</v>
+        <v>16962</v>
       </c>
       <c r="C180" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D180" s="3">
-        <v>88.142857142857</v>
+        <v>88.28571428571399</v>
       </c>
       <c r="E180" s="2">
-        <v>355820</v>
+        <v>355939</v>
       </c>
       <c r="F180" s="2">
-        <v>1859</v>
+        <v>1863</v>
       </c>
       <c r="G180" s="4">
-        <v>0.02861781076</v>
+        <v>0.028640281768</v>
       </c>
     </row>
     <row r="181" spans="1:7">
@@ -4536,22 +4536,22 @@
         <v>44101</v>
       </c>
       <c r="B181" s="2">
-        <v>16965</v>
+        <v>16984</v>
       </c>
       <c r="C181" s="2">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D181" s="3">
-        <v>85.142857142857</v>
+        <v>85.428571428571</v>
       </c>
       <c r="E181" s="2">
-        <v>356937</v>
+        <v>357058</v>
       </c>
       <c r="F181" s="2">
-        <v>1117</v>
+        <v>1119</v>
       </c>
       <c r="G181" s="4">
-        <v>0.027687447737</v>
+        <v>0.027754571614</v>
       </c>
     </row>
     <row r="182" spans="1:7">
@@ -4559,22 +4559,22 @@
         <v>44102</v>
       </c>
       <c r="B182" s="2">
-        <v>17078</v>
+        <v>17096</v>
       </c>
       <c r="C182" s="2">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D182" s="3">
-        <v>80.85714285714199</v>
+        <v>81</v>
       </c>
       <c r="E182" s="2">
-        <v>360993</v>
+        <v>361119</v>
       </c>
       <c r="F182" s="2">
-        <v>4056</v>
+        <v>4061</v>
       </c>
       <c r="G182" s="4">
-        <v>0.026645325298</v>
+        <v>0.026663531624</v>
       </c>
     </row>
     <row r="183" spans="1:7">
@@ -4582,22 +4582,22 @@
         <v>44103</v>
       </c>
       <c r="B183" s="2">
-        <v>17154</v>
+        <v>17171</v>
       </c>
       <c r="C183" s="2">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D183" s="3">
-        <v>77.571428571428</v>
+        <v>77.714285714285</v>
       </c>
       <c r="E183" s="2">
-        <v>364791</v>
+        <v>364923</v>
       </c>
       <c r="F183" s="2">
-        <v>3798</v>
+        <v>3804</v>
       </c>
       <c r="G183" s="4">
-        <v>0.025504931892</v>
+        <v>0.025521932911</v>
       </c>
     </row>
     <row r="184" spans="1:7">
@@ -4605,22 +4605,91 @@
         <v>44104</v>
       </c>
       <c r="B184" s="2">
-        <v>17213</v>
+        <v>17230</v>
       </c>
       <c r="C184" s="2">
         <v>59</v>
       </c>
       <c r="D184" s="3">
-        <v>72.571428571428</v>
+        <v>72.714285714285</v>
       </c>
       <c r="E184" s="2">
-        <v>368320</v>
+        <v>368459</v>
       </c>
       <c r="F184" s="2">
-        <v>3529</v>
+        <v>3536</v>
       </c>
       <c r="G184" s="4">
-        <v>0.023801714847</v>
+        <v>0.023813979601</v>
+      </c>
+    </row>
+    <row r="185" spans="1:7">
+      <c r="A185" s="1">
+        <v>44105</v>
+      </c>
+      <c r="B185" s="2">
+        <v>17292</v>
+      </c>
+      <c r="C185" s="2">
+        <v>62</v>
+      </c>
+      <c r="D185" s="3">
+        <v>68.571428571428</v>
+      </c>
+      <c r="E185" s="2">
+        <v>371948</v>
+      </c>
+      <c r="F185" s="2">
+        <v>3489</v>
+      </c>
+      <c r="G185" s="4">
+        <v>0.022690744067</v>
+      </c>
+    </row>
+    <row r="186" spans="1:7">
+      <c r="A186" s="1">
+        <v>44106</v>
+      </c>
+      <c r="B186" s="2">
+        <v>17370</v>
+      </c>
+      <c r="C186" s="2">
+        <v>78</v>
+      </c>
+      <c r="D186" s="3">
+        <v>66.85714285714199</v>
+      </c>
+      <c r="E186" s="2">
+        <v>375464</v>
+      </c>
+      <c r="F186" s="2">
+        <v>3516</v>
+      </c>
+      <c r="G186" s="4">
+        <v>0.021881428838</v>
+      </c>
+    </row>
+    <row r="187" spans="1:7">
+      <c r="A187" s="1">
+        <v>44107</v>
+      </c>
+      <c r="B187" s="2">
+        <v>17414</v>
+      </c>
+      <c r="C187" s="2">
+        <v>44</v>
+      </c>
+      <c r="D187" s="3">
+        <v>64.571428571428</v>
+      </c>
+      <c r="E187" s="2">
+        <v>377437</v>
+      </c>
+      <c r="F187" s="2">
+        <v>1973</v>
+      </c>
+      <c r="G187" s="4">
+        <v>0.021025211647</v>
       </c>
     </row>
   </sheetData>

--- a/contra_costa_county_testing.xlsx
+++ b/contra_costa_county_testing.xlsx
@@ -376,7 +376,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G187"/>
+  <dimension ref="A1:G188"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1394,13 +1394,13 @@
         <v>12.857142857142</v>
       </c>
       <c r="E44" s="2">
-        <v>26538</v>
+        <v>26537</v>
       </c>
       <c r="F44" s="2">
-        <v>1099</v>
+        <v>1098</v>
       </c>
       <c r="G44" s="4">
-        <v>0.014527845036</v>
+        <v>0.014530190506</v>
       </c>
     </row>
     <row r="45" spans="1:7">
@@ -1417,13 +1417,13 @@
         <v>14</v>
       </c>
       <c r="E45" s="2">
-        <v>27391</v>
+        <v>27390</v>
       </c>
       <c r="F45" s="2">
         <v>853</v>
       </c>
       <c r="G45" s="4">
-        <v>0.015929778933</v>
+        <v>0.01593236872</v>
       </c>
     </row>
     <row r="46" spans="1:7">
@@ -1440,13 +1440,13 @@
         <v>15.714285714285</v>
       </c>
       <c r="E46" s="2">
-        <v>28309</v>
+        <v>28308</v>
       </c>
       <c r="F46" s="2">
         <v>918</v>
       </c>
       <c r="G46" s="4">
-        <v>0.018556005398</v>
+        <v>0.018559136156</v>
       </c>
     </row>
     <row r="47" spans="1:7">
@@ -1463,13 +1463,13 @@
         <v>17.571428571428</v>
       </c>
       <c r="E47" s="2">
-        <v>28718</v>
+        <v>28717</v>
       </c>
       <c r="F47" s="2">
         <v>409</v>
       </c>
       <c r="G47" s="4">
-        <v>0.020654911838</v>
+        <v>0.02065838092</v>
       </c>
     </row>
     <row r="48" spans="1:7">
@@ -1486,13 +1486,13 @@
         <v>18</v>
       </c>
       <c r="E48" s="2">
-        <v>29111</v>
+        <v>29110</v>
       </c>
       <c r="F48" s="2">
         <v>393</v>
       </c>
       <c r="G48" s="4">
-        <v>0.020986009327</v>
+        <v>0.020989505247</v>
       </c>
     </row>
     <row r="49" spans="1:7">
@@ -1509,13 +1509,13 @@
         <v>22.428571428571</v>
       </c>
       <c r="E49" s="2">
-        <v>30475</v>
+        <v>30474</v>
       </c>
       <c r="F49" s="2">
         <v>1364</v>
       </c>
       <c r="G49" s="4">
-        <v>0.025051858943</v>
+        <v>0.025055857006</v>
       </c>
     </row>
     <row r="50" spans="1:7">
@@ -1532,13 +1532,13 @@
         <v>25.714285714285</v>
       </c>
       <c r="E50" s="2">
-        <v>32136</v>
+        <v>32135</v>
       </c>
       <c r="F50" s="2">
         <v>1661</v>
       </c>
       <c r="G50" s="4">
-        <v>0.026877706435</v>
+        <v>0.02688172043</v>
       </c>
     </row>
     <row r="51" spans="1:7">
@@ -1555,7 +1555,7 @@
         <v>26.142857142857</v>
       </c>
       <c r="E51" s="2">
-        <v>33273</v>
+        <v>33272</v>
       </c>
       <c r="F51" s="2">
         <v>1137</v>
@@ -1578,7 +1578,7 @@
         <v>27.428571428571</v>
       </c>
       <c r="E52" s="2">
-        <v>34405</v>
+        <v>34404</v>
       </c>
       <c r="F52" s="2">
         <v>1132</v>
@@ -1601,7 +1601,7 @@
         <v>29.142857142857</v>
       </c>
       <c r="E53" s="2">
-        <v>35494</v>
+        <v>35493</v>
       </c>
       <c r="F53" s="2">
         <v>1089</v>
@@ -1627,10 +1627,10 @@
         <v>36012</v>
       </c>
       <c r="F54" s="2">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="G54" s="4">
-        <v>0.026871401151</v>
+        <v>0.026867717614</v>
       </c>
     </row>
     <row r="55" spans="1:7">
@@ -1647,10 +1647,10 @@
         <v>27.571428571428</v>
       </c>
       <c r="E55" s="2">
-        <v>36407</v>
+        <v>36406</v>
       </c>
       <c r="F55" s="2">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="G55" s="4">
         <v>0.026452850877</v>
@@ -1670,7 +1670,7 @@
         <v>23.285714285714</v>
       </c>
       <c r="E56" s="2">
-        <v>36872</v>
+        <v>36871</v>
       </c>
       <c r="F56" s="2">
         <v>465</v>
@@ -1693,7 +1693,7 @@
         <v>23.714285714285</v>
       </c>
       <c r="E57" s="2">
-        <v>38068</v>
+        <v>38067</v>
       </c>
       <c r="F57" s="2">
         <v>1196</v>
@@ -1716,7 +1716,7 @@
         <v>23.714285714285</v>
       </c>
       <c r="E58" s="2">
-        <v>39181</v>
+        <v>39180</v>
       </c>
       <c r="F58" s="2">
         <v>1113</v>
@@ -1739,7 +1739,7 @@
         <v>26.285714285714</v>
       </c>
       <c r="E59" s="2">
-        <v>40318</v>
+        <v>40317</v>
       </c>
       <c r="F59" s="2">
         <v>1137</v>
@@ -1762,7 +1762,7 @@
         <v>26.571428571428</v>
       </c>
       <c r="E60" s="2">
-        <v>41721</v>
+        <v>41720</v>
       </c>
       <c r="F60" s="2">
         <v>1403</v>
@@ -1785,13 +1785,13 @@
         <v>26.285714285714</v>
       </c>
       <c r="E61" s="2">
-        <v>42453</v>
+        <v>42452</v>
       </c>
       <c r="F61" s="2">
         <v>732</v>
       </c>
       <c r="G61" s="4">
-        <v>0.028566992702</v>
+        <v>0.028571428571</v>
       </c>
     </row>
     <row r="62" spans="1:7">
@@ -1808,7 +1808,7 @@
         <v>26</v>
       </c>
       <c r="E62" s="2">
-        <v>42851</v>
+        <v>42850</v>
       </c>
       <c r="F62" s="2">
         <v>398</v>
@@ -1831,7 +1831,7 @@
         <v>29.285714285714</v>
       </c>
       <c r="E63" s="2">
-        <v>44225</v>
+        <v>44224</v>
       </c>
       <c r="F63" s="2">
         <v>1374</v>
@@ -1854,7 +1854,7 @@
         <v>28.285714285714</v>
       </c>
       <c r="E64" s="2">
-        <v>45442</v>
+        <v>45441</v>
       </c>
       <c r="F64" s="2">
         <v>1217</v>
@@ -1877,7 +1877,7 @@
         <v>27.857142857142</v>
       </c>
       <c r="E65" s="2">
-        <v>46599</v>
+        <v>46598</v>
       </c>
       <c r="F65" s="2">
         <v>1157</v>
@@ -1900,7 +1900,7 @@
         <v>28.571428571428</v>
       </c>
       <c r="E66" s="2">
-        <v>47950</v>
+        <v>47949</v>
       </c>
       <c r="F66" s="2">
         <v>1351</v>
@@ -1923,7 +1923,7 @@
         <v>29.285714285714</v>
       </c>
       <c r="E67" s="2">
-        <v>49582</v>
+        <v>49581</v>
       </c>
       <c r="F67" s="2">
         <v>1632</v>
@@ -1946,7 +1946,7 @@
         <v>30.571428571428</v>
       </c>
       <c r="E68" s="2">
-        <v>50187</v>
+        <v>50186</v>
       </c>
       <c r="F68" s="2">
         <v>605</v>
@@ -1969,7 +1969,7 @@
         <v>32.428571428571</v>
       </c>
       <c r="E69" s="2">
-        <v>50672</v>
+        <v>50671</v>
       </c>
       <c r="F69" s="2">
         <v>485</v>
@@ -1992,7 +1992,7 @@
         <v>34.714285714285</v>
       </c>
       <c r="E70" s="2">
-        <v>52510</v>
+        <v>52509</v>
       </c>
       <c r="F70" s="2">
         <v>1838</v>
@@ -2015,7 +2015,7 @@
         <v>36.428571428571</v>
       </c>
       <c r="E71" s="2">
-        <v>54359</v>
+        <v>54358</v>
       </c>
       <c r="F71" s="2">
         <v>1849</v>
@@ -2038,7 +2038,7 @@
         <v>40</v>
       </c>
       <c r="E72" s="2">
-        <v>56350</v>
+        <v>56349</v>
       </c>
       <c r="F72" s="2">
         <v>1991</v>
@@ -2061,7 +2061,7 @@
         <v>40.285714285714</v>
       </c>
       <c r="E73" s="2">
-        <v>58496</v>
+        <v>58495</v>
       </c>
       <c r="F73" s="2">
         <v>2146</v>
@@ -2084,7 +2084,7 @@
         <v>41.857142857142</v>
       </c>
       <c r="E74" s="2">
-        <v>60741</v>
+        <v>60740</v>
       </c>
       <c r="F74" s="2">
         <v>2245</v>
@@ -2107,7 +2107,7 @@
         <v>44.142857142857</v>
       </c>
       <c r="E75" s="2">
-        <v>61579</v>
+        <v>61578</v>
       </c>
       <c r="F75" s="2">
         <v>838</v>
@@ -2130,7 +2130,7 @@
         <v>45.428571428571</v>
       </c>
       <c r="E76" s="2">
-        <v>62162</v>
+        <v>62161</v>
       </c>
       <c r="F76" s="2">
         <v>583</v>
@@ -2153,7 +2153,7 @@
         <v>46.714285714285</v>
       </c>
       <c r="E77" s="2">
-        <v>64378</v>
+        <v>64377</v>
       </c>
       <c r="F77" s="2">
         <v>2216</v>
@@ -2176,7 +2176,7 @@
         <v>52.571428571428</v>
       </c>
       <c r="E78" s="2">
-        <v>66899</v>
+        <v>66898</v>
       </c>
       <c r="F78" s="2">
         <v>2521</v>
@@ -2199,7 +2199,7 @@
         <v>57.285714285714</v>
       </c>
       <c r="E79" s="2">
-        <v>69470</v>
+        <v>69469</v>
       </c>
       <c r="F79" s="2">
         <v>2571</v>
@@ -2222,7 +2222,7 @@
         <v>62.57142857142801</v>
       </c>
       <c r="E80" s="2">
-        <v>71995</v>
+        <v>71994</v>
       </c>
       <c r="F80" s="2">
         <v>2525</v>
@@ -2245,7 +2245,7 @@
         <v>68.85714285714199</v>
       </c>
       <c r="E81" s="2">
-        <v>74438</v>
+        <v>74437</v>
       </c>
       <c r="F81" s="2">
         <v>2443</v>
@@ -2268,7 +2268,7 @@
         <v>71.428571428571</v>
       </c>
       <c r="E82" s="2">
-        <v>75390</v>
+        <v>75389</v>
       </c>
       <c r="F82" s="2">
         <v>952</v>
@@ -2291,7 +2291,7 @@
         <v>73.28571428571399</v>
       </c>
       <c r="E83" s="2">
-        <v>76087</v>
+        <v>76086</v>
       </c>
       <c r="F83" s="2">
         <v>697</v>
@@ -2314,7 +2314,7 @@
         <v>81</v>
       </c>
       <c r="E84" s="2">
-        <v>78707</v>
+        <v>78706</v>
       </c>
       <c r="F84" s="2">
         <v>2620</v>
@@ -2337,7 +2337,7 @@
         <v>88</v>
       </c>
       <c r="E85" s="2">
-        <v>81492</v>
+        <v>81491</v>
       </c>
       <c r="F85" s="2">
         <v>2785</v>
@@ -2360,7 +2360,7 @@
         <v>96</v>
       </c>
       <c r="E86" s="2">
-        <v>84520</v>
+        <v>84519</v>
       </c>
       <c r="F86" s="2">
         <v>3028</v>
@@ -2383,7 +2383,7 @@
         <v>104.714285714285</v>
       </c>
       <c r="E87" s="2">
-        <v>87878</v>
+        <v>87877</v>
       </c>
       <c r="F87" s="2">
         <v>3358</v>
@@ -2406,7 +2406,7 @@
         <v>114.285714285714</v>
       </c>
       <c r="E88" s="2">
-        <v>90846</v>
+        <v>90845</v>
       </c>
       <c r="F88" s="2">
         <v>2968</v>
@@ -2429,7 +2429,7 @@
         <v>118.285714285714</v>
       </c>
       <c r="E89" s="2">
-        <v>91920</v>
+        <v>91919</v>
       </c>
       <c r="F89" s="2">
         <v>1074</v>
@@ -2452,7 +2452,7 @@
         <v>121</v>
       </c>
       <c r="E90" s="2">
-        <v>92715</v>
+        <v>92714</v>
       </c>
       <c r="F90" s="2">
         <v>795</v>
@@ -2475,7 +2475,7 @@
         <v>133.285714285714</v>
       </c>
       <c r="E91" s="2">
-        <v>96400</v>
+        <v>96399</v>
       </c>
       <c r="F91" s="2">
         <v>3685</v>
@@ -2498,7 +2498,7 @@
         <v>136.857142857142</v>
       </c>
       <c r="E92" s="2">
-        <v>99876</v>
+        <v>99875</v>
       </c>
       <c r="F92" s="2">
         <v>3476</v>
@@ -2521,13 +2521,13 @@
         <v>141.142857142857</v>
       </c>
       <c r="E93" s="2">
-        <v>103416</v>
+        <v>103414</v>
       </c>
       <c r="F93" s="2">
-        <v>3540</v>
+        <v>3539</v>
       </c>
       <c r="G93" s="4">
-        <v>0.052286198137</v>
+        <v>0.052288965334</v>
       </c>
     </row>
     <row r="94" spans="1:7">
@@ -2544,13 +2544,13 @@
         <v>149.714285714285</v>
       </c>
       <c r="E94" s="2">
-        <v>107339</v>
+        <v>107337</v>
       </c>
       <c r="F94" s="2">
         <v>3923</v>
       </c>
       <c r="G94" s="4">
-        <v>0.053851292328</v>
+        <v>0.053854059609</v>
       </c>
     </row>
     <row r="95" spans="1:7">
@@ -2567,13 +2567,13 @@
         <v>146.142857142857</v>
       </c>
       <c r="E95" s="2">
-        <v>109980</v>
+        <v>109978</v>
       </c>
       <c r="F95" s="2">
         <v>2641</v>
       </c>
       <c r="G95" s="4">
-        <v>0.053465036061</v>
+        <v>0.05346783045</v>
       </c>
     </row>
     <row r="96" spans="1:7">
@@ -2590,13 +2590,13 @@
         <v>148</v>
       </c>
       <c r="E96" s="2">
-        <v>111097</v>
+        <v>111095</v>
       </c>
       <c r="F96" s="2">
         <v>1117</v>
       </c>
       <c r="G96" s="4">
-        <v>0.054023048443</v>
+        <v>0.054025865665</v>
       </c>
     </row>
     <row r="97" spans="1:7">
@@ -2613,13 +2613,13 @@
         <v>151.857142857142</v>
       </c>
       <c r="E97" s="2">
-        <v>112226</v>
+        <v>112224</v>
       </c>
       <c r="F97" s="2">
         <v>1129</v>
       </c>
       <c r="G97" s="4">
-        <v>0.054482087027</v>
+        <v>0.054484879548</v>
       </c>
     </row>
     <row r="98" spans="1:7">
@@ -2636,13 +2636,13 @@
         <v>152.857142857142</v>
       </c>
       <c r="E98" s="2">
-        <v>116298</v>
+        <v>116296</v>
       </c>
       <c r="F98" s="2">
         <v>4072</v>
       </c>
       <c r="G98" s="4">
-        <v>0.053774248668</v>
+        <v>0.053776951299</v>
       </c>
     </row>
     <row r="99" spans="1:7">
@@ -2659,13 +2659,13 @@
         <v>161.142857142857</v>
       </c>
       <c r="E99" s="2">
-        <v>120371</v>
+        <v>120369</v>
       </c>
       <c r="F99" s="2">
         <v>4073</v>
       </c>
       <c r="G99" s="4">
-        <v>0.055037814101</v>
+        <v>0.055040499658</v>
       </c>
     </row>
     <row r="100" spans="1:7">
@@ -2682,7 +2682,7 @@
         <v>168.571428571428</v>
       </c>
       <c r="E100" s="2">
-        <v>124627</v>
+        <v>124625</v>
       </c>
       <c r="F100" s="2">
         <v>4256</v>
@@ -2705,7 +2705,7 @@
         <v>174.285714285714</v>
       </c>
       <c r="E101" s="2">
-        <v>129223</v>
+        <v>129221</v>
       </c>
       <c r="F101" s="2">
         <v>4596</v>
@@ -2728,7 +2728,7 @@
         <v>189</v>
       </c>
       <c r="E102" s="2">
-        <v>133686</v>
+        <v>133684</v>
       </c>
       <c r="F102" s="2">
         <v>4463</v>
@@ -2751,7 +2751,7 @@
         <v>195.714285714285</v>
       </c>
       <c r="E103" s="2">
-        <v>135756</v>
+        <v>135754</v>
       </c>
       <c r="F103" s="2">
         <v>2070</v>
@@ -2774,7 +2774,7 @@
         <v>197.857142857142</v>
       </c>
       <c r="E104" s="2">
-        <v>137082</v>
+        <v>137080</v>
       </c>
       <c r="F104" s="2">
         <v>1326</v>
@@ -2800,10 +2800,10 @@
         <v>141684</v>
       </c>
       <c r="F105" s="2">
-        <v>4602</v>
+        <v>4604</v>
       </c>
       <c r="G105" s="4">
-        <v>0.056802962262</v>
+        <v>0.056798487474</v>
       </c>
     </row>
     <row r="106" spans="1:7">
@@ -2826,7 +2826,7 @@
         <v>3756</v>
       </c>
       <c r="G106" s="4">
-        <v>0.05903705772</v>
+        <v>0.059032348131</v>
       </c>
     </row>
     <row r="107" spans="1:7">
@@ -2849,7 +2849,7 @@
         <v>4343</v>
       </c>
       <c r="G107" s="4">
-        <v>0.060224200985</v>
+        <v>0.060219413307</v>
       </c>
     </row>
     <row r="108" spans="1:7">
@@ -2872,7 +2872,7 @@
         <v>4183</v>
       </c>
       <c r="G108" s="4">
-        <v>0.061391100513</v>
+        <v>0.061386138613</v>
       </c>
     </row>
     <row r="109" spans="1:7">
@@ -2895,7 +2895,7 @@
         <v>4200</v>
       </c>
       <c r="G109" s="4">
-        <v>0.062214052287</v>
+        <v>0.062208969855</v>
       </c>
     </row>
     <row r="110" spans="1:7">
@@ -2918,7 +2918,7 @@
         <v>2223</v>
       </c>
       <c r="G110" s="4">
-        <v>0.061381074168</v>
+        <v>0.061376090927</v>
       </c>
     </row>
     <row r="111" spans="1:7">
@@ -2941,7 +2941,7 @@
         <v>1257</v>
       </c>
       <c r="G111" s="4">
-        <v>0.061472072952</v>
+        <v>0.061467068305</v>
       </c>
     </row>
     <row r="112" spans="1:7">
@@ -2958,13 +2958,13 @@
         <v>219.857142857142</v>
       </c>
       <c r="E112" s="2">
-        <v>165891</v>
+        <v>165892</v>
       </c>
       <c r="F112" s="2">
-        <v>4245</v>
+        <v>4246</v>
       </c>
       <c r="G112" s="4">
-        <v>0.06357665138099999</v>
+        <v>0.063574025115</v>
       </c>
     </row>
     <row r="113" spans="1:7">
@@ -2981,13 +2981,13 @@
         <v>217.857142857142</v>
       </c>
       <c r="E113" s="2">
-        <v>169721</v>
+        <v>169728</v>
       </c>
       <c r="F113" s="2">
-        <v>3830</v>
+        <v>3836</v>
       </c>
       <c r="G113" s="4">
-        <v>0.06280630946</v>
+        <v>0.062788208168</v>
       </c>
     </row>
     <row r="114" spans="1:7">
@@ -3004,13 +3004,13 @@
         <v>216.428571428571</v>
       </c>
       <c r="E114" s="2">
-        <v>173377</v>
+        <v>173387</v>
       </c>
       <c r="F114" s="2">
-        <v>3656</v>
+        <v>3659</v>
       </c>
       <c r="G114" s="4">
-        <v>0.064211240145</v>
+        <v>0.064184036603</v>
       </c>
     </row>
     <row r="115" spans="1:7">
@@ -3018,22 +3018,22 @@
         <v>44035</v>
       </c>
       <c r="B115" s="2">
-        <v>8460</v>
+        <v>8461</v>
       </c>
       <c r="C115" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="D115" s="3">
-        <v>212.857142857142</v>
+        <v>213</v>
       </c>
       <c r="E115" s="2">
-        <v>176699</v>
+        <v>176710</v>
       </c>
       <c r="F115" s="2">
-        <v>3322</v>
+        <v>3323</v>
       </c>
       <c r="G115" s="4">
-        <v>0.065543483042</v>
+        <v>0.065555750967</v>
       </c>
     </row>
     <row r="116" spans="1:7">
@@ -3041,22 +3041,22 @@
         <v>44036</v>
       </c>
       <c r="B116" s="2">
-        <v>8679</v>
+        <v>8680</v>
       </c>
       <c r="C116" s="2">
         <v>219</v>
       </c>
       <c r="D116" s="3">
-        <v>208.285714285714</v>
+        <v>208.428571428571</v>
       </c>
       <c r="E116" s="2">
-        <v>180329</v>
+        <v>180340</v>
       </c>
       <c r="F116" s="2">
         <v>3630</v>
       </c>
       <c r="G116" s="4">
-        <v>0.065785317872</v>
+        <v>0.065797781185</v>
       </c>
     </row>
     <row r="117" spans="1:7">
@@ -3064,22 +3064,22 @@
         <v>44037</v>
       </c>
       <c r="B117" s="2">
-        <v>8790</v>
+        <v>8791</v>
       </c>
       <c r="C117" s="2">
         <v>111</v>
       </c>
       <c r="D117" s="3">
-        <v>205.714285714285</v>
+        <v>205.857142857142</v>
       </c>
       <c r="E117" s="2">
-        <v>181948</v>
+        <v>181959</v>
       </c>
       <c r="F117" s="2">
         <v>1619</v>
       </c>
       <c r="G117" s="4">
-        <v>0.066793450531</v>
+        <v>0.066805748725</v>
       </c>
     </row>
     <row r="118" spans="1:7">
@@ -3087,22 +3087,22 @@
         <v>44038</v>
       </c>
       <c r="B118" s="2">
-        <v>8893</v>
+        <v>8894</v>
       </c>
       <c r="C118" s="2">
         <v>103</v>
       </c>
       <c r="D118" s="3">
-        <v>206.285714285714</v>
+        <v>206.428571428571</v>
       </c>
       <c r="E118" s="2">
-        <v>183201</v>
+        <v>183212</v>
       </c>
       <c r="F118" s="2">
         <v>1253</v>
       </c>
       <c r="G118" s="4">
-        <v>0.066991417304</v>
+        <v>0.06700361680399999</v>
       </c>
     </row>
     <row r="119" spans="1:7">
@@ -3110,22 +3110,22 @@
         <v>44039</v>
       </c>
       <c r="B119" s="2">
-        <v>9135</v>
+        <v>9136</v>
       </c>
       <c r="C119" s="2">
         <v>242</v>
       </c>
       <c r="D119" s="3">
-        <v>199.428571428571</v>
+        <v>199.571428571428</v>
       </c>
       <c r="E119" s="2">
-        <v>187369</v>
+        <v>187380</v>
       </c>
       <c r="F119" s="2">
         <v>4168</v>
       </c>
       <c r="G119" s="4">
-        <v>0.064996740851</v>
+        <v>0.065013030528</v>
       </c>
     </row>
     <row r="120" spans="1:7">
@@ -3133,22 +3133,22 @@
         <v>44040</v>
       </c>
       <c r="B120" s="2">
-        <v>9380</v>
+        <v>9381</v>
       </c>
       <c r="C120" s="2">
         <v>245</v>
       </c>
       <c r="D120" s="3">
-        <v>200.142857142857</v>
+        <v>200.285714285714</v>
       </c>
       <c r="E120" s="2">
-        <v>191237</v>
+        <v>191248</v>
       </c>
       <c r="F120" s="2">
         <v>3868</v>
       </c>
       <c r="G120" s="4">
-        <v>0.06511433351900001</v>
+        <v>0.065148698884</v>
       </c>
     </row>
     <row r="121" spans="1:7">
@@ -3156,22 +3156,22 @@
         <v>44041</v>
       </c>
       <c r="B121" s="2">
-        <v>9629</v>
+        <v>9630</v>
       </c>
       <c r="C121" s="2">
         <v>249</v>
       </c>
       <c r="D121" s="3">
-        <v>200</v>
+        <v>200.142857142857</v>
       </c>
       <c r="E121" s="2">
-        <v>195092</v>
+        <v>195103</v>
       </c>
       <c r="F121" s="2">
         <v>3855</v>
       </c>
       <c r="G121" s="4">
-        <v>0.064471563435</v>
+        <v>0.06451464358</v>
       </c>
     </row>
     <row r="122" spans="1:7">
@@ -3179,7 +3179,7 @@
         <v>44042</v>
       </c>
       <c r="B122" s="2">
-        <v>9845</v>
+        <v>9846</v>
       </c>
       <c r="C122" s="2">
         <v>216</v>
@@ -3188,7 +3188,7 @@
         <v>197.857142857142</v>
       </c>
       <c r="E122" s="2">
-        <v>198761</v>
+        <v>198772</v>
       </c>
       <c r="F122" s="2">
         <v>3669</v>
@@ -3202,22 +3202,22 @@
         <v>44043</v>
       </c>
       <c r="B123" s="2">
-        <v>10077</v>
+        <v>10079</v>
       </c>
       <c r="C123" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="D123" s="3">
-        <v>199.714285714285</v>
+        <v>199.857142857142</v>
       </c>
       <c r="E123" s="2">
-        <v>202296</v>
+        <v>202308</v>
       </c>
       <c r="F123" s="2">
-        <v>3535</v>
+        <v>3536</v>
       </c>
       <c r="G123" s="4">
-        <v>0.06364091591899999</v>
+        <v>0.06368353969399999</v>
       </c>
     </row>
     <row r="124" spans="1:7">
@@ -3225,22 +3225,22 @@
         <v>44044</v>
       </c>
       <c r="B124" s="2">
-        <v>10184</v>
+        <v>10186</v>
       </c>
       <c r="C124" s="2">
         <v>107</v>
       </c>
       <c r="D124" s="3">
-        <v>199.142857142857</v>
+        <v>199.285714285714</v>
       </c>
       <c r="E124" s="2">
-        <v>203885</v>
+        <v>203897</v>
       </c>
       <c r="F124" s="2">
         <v>1589</v>
       </c>
       <c r="G124" s="4">
-        <v>0.063545607877</v>
+        <v>0.063588294283</v>
       </c>
     </row>
     <row r="125" spans="1:7">
@@ -3248,22 +3248,22 @@
         <v>44045</v>
       </c>
       <c r="B125" s="2">
-        <v>10263</v>
+        <v>10265</v>
       </c>
       <c r="C125" s="2">
         <v>79</v>
       </c>
       <c r="D125" s="3">
-        <v>195.714285714285</v>
+        <v>195.857142857142</v>
       </c>
       <c r="E125" s="2">
-        <v>205008</v>
+        <v>205020</v>
       </c>
       <c r="F125" s="2">
         <v>1123</v>
       </c>
       <c r="G125" s="4">
-        <v>0.062823863896</v>
+        <v>0.06286683785699999</v>
       </c>
     </row>
     <row r="126" spans="1:7">
@@ -3271,22 +3271,22 @@
         <v>44046</v>
       </c>
       <c r="B126" s="2">
-        <v>10516</v>
+        <v>10518</v>
       </c>
       <c r="C126" s="2">
         <v>253</v>
       </c>
       <c r="D126" s="3">
-        <v>197.285714285714</v>
+        <v>197.428571428571</v>
       </c>
       <c r="E126" s="2">
-        <v>208804</v>
+        <v>208816</v>
       </c>
       <c r="F126" s="2">
         <v>3796</v>
       </c>
       <c r="G126" s="4">
-        <v>0.064427338465</v>
+        <v>0.064470983392</v>
       </c>
     </row>
     <row r="127" spans="1:7">
@@ -3294,22 +3294,22 @@
         <v>44047</v>
       </c>
       <c r="B127" s="2">
-        <v>10748</v>
+        <v>10750</v>
       </c>
       <c r="C127" s="2">
         <v>232</v>
       </c>
       <c r="D127" s="3">
-        <v>195.428571428571</v>
+        <v>195.571428571428</v>
       </c>
       <c r="E127" s="2">
-        <v>212098</v>
+        <v>212110</v>
       </c>
       <c r="F127" s="2">
         <v>3294</v>
       </c>
       <c r="G127" s="4">
-        <v>0.065576913858</v>
+        <v>0.065621704534</v>
       </c>
     </row>
     <row r="128" spans="1:7">
@@ -3317,22 +3317,22 @@
         <v>44048</v>
       </c>
       <c r="B128" s="2">
-        <v>10935</v>
+        <v>10937</v>
       </c>
       <c r="C128" s="2">
         <v>187</v>
       </c>
       <c r="D128" s="3">
-        <v>186.571428571428</v>
+        <v>186.714285714285</v>
       </c>
       <c r="E128" s="2">
-        <v>215306</v>
+        <v>215318</v>
       </c>
       <c r="F128" s="2">
         <v>3208</v>
       </c>
       <c r="G128" s="4">
-        <v>0.064608687048</v>
+        <v>0.064654959188</v>
       </c>
     </row>
     <row r="129" spans="1:7">
@@ -3340,22 +3340,22 @@
         <v>44049</v>
       </c>
       <c r="B129" s="2">
-        <v>11131</v>
+        <v>11133</v>
       </c>
       <c r="C129" s="2">
         <v>196</v>
       </c>
       <c r="D129" s="3">
-        <v>183.714285714285</v>
+        <v>183.857142857142</v>
       </c>
       <c r="E129" s="2">
-        <v>218956</v>
+        <v>218968</v>
       </c>
       <c r="F129" s="2">
         <v>3650</v>
       </c>
       <c r="G129" s="4">
-        <v>0.063679128497</v>
+        <v>0.063725490196</v>
       </c>
     </row>
     <row r="130" spans="1:7">
@@ -3363,7 +3363,7 @@
         <v>44050</v>
       </c>
       <c r="B130" s="2">
-        <v>11310</v>
+        <v>11312</v>
       </c>
       <c r="C130" s="2">
         <v>179</v>
@@ -3372,7 +3372,7 @@
         <v>176.142857142857</v>
       </c>
       <c r="E130" s="2">
-        <v>222222</v>
+        <v>222234</v>
       </c>
       <c r="F130" s="2">
         <v>3266</v>
@@ -3386,7 +3386,7 @@
         <v>44051</v>
       </c>
       <c r="B131" s="2">
-        <v>11432</v>
+        <v>11434</v>
       </c>
       <c r="C131" s="2">
         <v>122</v>
@@ -3395,7 +3395,7 @@
         <v>178.285714285714</v>
       </c>
       <c r="E131" s="2">
-        <v>223926</v>
+        <v>223938</v>
       </c>
       <c r="F131" s="2">
         <v>1704</v>
@@ -3409,7 +3409,7 @@
         <v>44052</v>
       </c>
       <c r="B132" s="2">
-        <v>11515</v>
+        <v>11517</v>
       </c>
       <c r="C132" s="2">
         <v>83</v>
@@ -3418,7 +3418,7 @@
         <v>178.857142857142</v>
       </c>
       <c r="E132" s="2">
-        <v>224968</v>
+        <v>224980</v>
       </c>
       <c r="F132" s="2">
         <v>1042</v>
@@ -3432,7 +3432,7 @@
         <v>44053</v>
       </c>
       <c r="B133" s="2">
-        <v>11752</v>
+        <v>11754</v>
       </c>
       <c r="C133" s="2">
         <v>237</v>
@@ -3441,7 +3441,7 @@
         <v>176.571428571428</v>
       </c>
       <c r="E133" s="2">
-        <v>228862</v>
+        <v>228874</v>
       </c>
       <c r="F133" s="2">
         <v>3894</v>
@@ -3455,7 +3455,7 @@
         <v>44054</v>
       </c>
       <c r="B134" s="2">
-        <v>11953</v>
+        <v>11955</v>
       </c>
       <c r="C134" s="2">
         <v>201</v>
@@ -3464,7 +3464,7 @@
         <v>172.142857142857</v>
       </c>
       <c r="E134" s="2">
-        <v>232277</v>
+        <v>232289</v>
       </c>
       <c r="F134" s="2">
         <v>3415</v>
@@ -3478,22 +3478,22 @@
         <v>44055</v>
       </c>
       <c r="B135" s="2">
-        <v>12154</v>
+        <v>12155</v>
       </c>
       <c r="C135" s="2">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D135" s="3">
-        <v>174.142857142857</v>
+        <v>174</v>
       </c>
       <c r="E135" s="2">
-        <v>236131</v>
+        <v>236142</v>
       </c>
       <c r="F135" s="2">
-        <v>3854</v>
+        <v>3853</v>
       </c>
       <c r="G135" s="4">
-        <v>0.058535414165</v>
+        <v>0.058490203611</v>
       </c>
     </row>
     <row r="136" spans="1:7">
@@ -3501,22 +3501,22 @@
         <v>44056</v>
       </c>
       <c r="B136" s="2">
-        <v>12330</v>
+        <v>12331</v>
       </c>
       <c r="C136" s="2">
         <v>176</v>
       </c>
       <c r="D136" s="3">
-        <v>171.285714285714</v>
+        <v>171.142857142857</v>
       </c>
       <c r="E136" s="2">
-        <v>239398</v>
+        <v>239409</v>
       </c>
       <c r="F136" s="2">
         <v>3267</v>
       </c>
       <c r="G136" s="4">
-        <v>0.058653752079</v>
+        <v>0.05860770021</v>
       </c>
     </row>
     <row r="137" spans="1:7">
@@ -3524,19 +3524,19 @@
         <v>44057</v>
       </c>
       <c r="B137" s="2">
-        <v>12503</v>
+        <v>12505</v>
       </c>
       <c r="C137" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D137" s="3">
         <v>170.428571428571</v>
       </c>
       <c r="E137" s="2">
-        <v>242753</v>
+        <v>242765</v>
       </c>
       <c r="F137" s="2">
-        <v>3355</v>
+        <v>3356</v>
       </c>
       <c r="G137" s="4">
         <v>0.058107252447</v>
@@ -3547,7 +3547,7 @@
         <v>44058</v>
       </c>
       <c r="B138" s="2">
-        <v>12596</v>
+        <v>12598</v>
       </c>
       <c r="C138" s="2">
         <v>93</v>
@@ -3556,7 +3556,7 @@
         <v>166.285714285714</v>
       </c>
       <c r="E138" s="2">
-        <v>244314</v>
+        <v>244326</v>
       </c>
       <c r="F138" s="2">
         <v>1561</v>
@@ -3570,7 +3570,7 @@
         <v>44059</v>
       </c>
       <c r="B139" s="2">
-        <v>12641</v>
+        <v>12643</v>
       </c>
       <c r="C139" s="2">
         <v>45</v>
@@ -3579,7 +3579,7 @@
         <v>160.857142857142</v>
       </c>
       <c r="E139" s="2">
-        <v>245090</v>
+        <v>245102</v>
       </c>
       <c r="F139" s="2">
         <v>776</v>
@@ -3593,22 +3593,22 @@
         <v>44060</v>
       </c>
       <c r="B140" s="2">
-        <v>12853</v>
+        <v>12856</v>
       </c>
       <c r="C140" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D140" s="3">
-        <v>157.285714285714</v>
+        <v>157.428571428571</v>
       </c>
       <c r="E140" s="2">
-        <v>248748</v>
+        <v>248761</v>
       </c>
       <c r="F140" s="2">
-        <v>3658</v>
+        <v>3659</v>
       </c>
       <c r="G140" s="4">
-        <v>0.055365583827</v>
+        <v>0.055413083924</v>
       </c>
     </row>
     <row r="141" spans="1:7">
@@ -3616,22 +3616,22 @@
         <v>44061</v>
       </c>
       <c r="B141" s="2">
-        <v>13020</v>
+        <v>13024</v>
       </c>
       <c r="C141" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D141" s="3">
-        <v>152.428571428571</v>
+        <v>152.714285714285</v>
       </c>
       <c r="E141" s="2">
-        <v>251814</v>
+        <v>251828</v>
       </c>
       <c r="F141" s="2">
-        <v>3066</v>
+        <v>3067</v>
       </c>
       <c r="G141" s="4">
-        <v>0.054614321543</v>
+        <v>0.054711090639</v>
       </c>
     </row>
     <row r="142" spans="1:7">
@@ -3639,22 +3639,22 @@
         <v>44062</v>
       </c>
       <c r="B142" s="2">
-        <v>13177</v>
+        <v>13182</v>
       </c>
       <c r="C142" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D142" s="3">
-        <v>146.142857142857</v>
+        <v>146.714285714285</v>
       </c>
       <c r="E142" s="2">
-        <v>254867</v>
+        <v>254882</v>
       </c>
       <c r="F142" s="2">
-        <v>3053</v>
+        <v>3054</v>
       </c>
       <c r="G142" s="4">
-        <v>0.054600768573</v>
+        <v>0.054802561366</v>
       </c>
     </row>
     <row r="143" spans="1:7">
@@ -3662,22 +3662,22 @@
         <v>44063</v>
       </c>
       <c r="B143" s="2">
-        <v>13308</v>
+        <v>13314</v>
       </c>
       <c r="C143" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D143" s="3">
-        <v>139.714285714285</v>
+        <v>140.428571428571</v>
       </c>
       <c r="E143" s="2">
-        <v>258031</v>
+        <v>258047</v>
       </c>
       <c r="F143" s="2">
-        <v>3164</v>
+        <v>3165</v>
       </c>
       <c r="G143" s="4">
-        <v>0.052487522138</v>
+        <v>0.052741710483</v>
       </c>
     </row>
     <row r="144" spans="1:7">
@@ -3685,22 +3685,22 @@
         <v>44064</v>
       </c>
       <c r="B144" s="2">
-        <v>13470</v>
+        <v>13476</v>
       </c>
       <c r="C144" s="2">
         <v>162</v>
       </c>
       <c r="D144" s="3">
-        <v>138.142857142857</v>
+        <v>138.714285714285</v>
       </c>
       <c r="E144" s="2">
-        <v>261069</v>
+        <v>261085</v>
       </c>
       <c r="F144" s="2">
         <v>3038</v>
       </c>
       <c r="G144" s="4">
-        <v>0.052795370168</v>
+        <v>0.053002183406</v>
       </c>
     </row>
     <row r="145" spans="1:7">
@@ -3708,22 +3708,22 @@
         <v>44065</v>
       </c>
       <c r="B145" s="2">
-        <v>13531</v>
+        <v>13537</v>
       </c>
       <c r="C145" s="2">
         <v>61</v>
       </c>
       <c r="D145" s="3">
-        <v>133.571428571428</v>
+        <v>134.142857142857</v>
       </c>
       <c r="E145" s="2">
-        <v>262398</v>
+        <v>262414</v>
       </c>
       <c r="F145" s="2">
         <v>1329</v>
       </c>
       <c r="G145" s="4">
-        <v>0.051703163017</v>
+        <v>0.051912870411</v>
       </c>
     </row>
     <row r="146" spans="1:7">
@@ -3731,22 +3731,22 @@
         <v>44066</v>
       </c>
       <c r="B146" s="2">
-        <v>13597</v>
+        <v>13604</v>
       </c>
       <c r="C146" s="2">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D146" s="3">
-        <v>136.571428571428</v>
+        <v>137.285714285714</v>
       </c>
       <c r="E146" s="2">
-        <v>263364</v>
+        <v>263381</v>
       </c>
       <c r="F146" s="2">
-        <v>966</v>
+        <v>967</v>
       </c>
       <c r="G146" s="4">
-        <v>0.052314764145</v>
+        <v>0.052573992012</v>
       </c>
     </row>
     <row r="147" spans="1:7">
@@ -3754,22 +3754,22 @@
         <v>44067</v>
       </c>
       <c r="B147" s="2">
-        <v>13746</v>
+        <v>13753</v>
       </c>
       <c r="C147" s="2">
         <v>149</v>
       </c>
       <c r="D147" s="3">
-        <v>127.571428571428</v>
+        <v>128.142857142857</v>
       </c>
       <c r="E147" s="2">
-        <v>266343</v>
+        <v>266360</v>
       </c>
       <c r="F147" s="2">
         <v>2979</v>
       </c>
       <c r="G147" s="4">
-        <v>0.050753054845</v>
+        <v>0.050968805045</v>
       </c>
     </row>
     <row r="148" spans="1:7">
@@ -3777,22 +3777,22 @@
         <v>44068</v>
       </c>
       <c r="B148" s="2">
-        <v>13879</v>
+        <v>13887</v>
       </c>
       <c r="C148" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D148" s="3">
-        <v>122.714285714285</v>
+        <v>123.285714285714</v>
       </c>
       <c r="E148" s="2">
-        <v>269357</v>
+        <v>269375</v>
       </c>
       <c r="F148" s="2">
-        <v>3014</v>
+        <v>3015</v>
       </c>
       <c r="G148" s="4">
-        <v>0.048965399304</v>
+        <v>0.049182196386</v>
       </c>
     </row>
     <row r="149" spans="1:7">
@@ -3800,22 +3800,22 @@
         <v>44069</v>
       </c>
       <c r="B149" s="2">
-        <v>14013</v>
+        <v>14022</v>
       </c>
       <c r="C149" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D149" s="3">
-        <v>119.428571428571</v>
+        <v>120</v>
       </c>
       <c r="E149" s="2">
-        <v>272314</v>
+        <v>272333</v>
       </c>
       <c r="F149" s="2">
-        <v>2957</v>
+        <v>2958</v>
       </c>
       <c r="G149" s="4">
-        <v>0.047916547257</v>
+        <v>0.048134777376</v>
       </c>
     </row>
     <row r="150" spans="1:7">
@@ -3823,22 +3823,22 @@
         <v>44070</v>
       </c>
       <c r="B150" s="2">
-        <v>14178</v>
+        <v>14189</v>
       </c>
       <c r="C150" s="2">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="D150" s="3">
-        <v>124.285714285714</v>
+        <v>125</v>
       </c>
       <c r="E150" s="2">
-        <v>275549</v>
+        <v>275570</v>
       </c>
       <c r="F150" s="2">
-        <v>3235</v>
+        <v>3237</v>
       </c>
       <c r="G150" s="4">
-        <v>0.049663203562</v>
+        <v>0.049934371968</v>
       </c>
     </row>
     <row r="151" spans="1:7">
@@ -3846,22 +3846,22 @@
         <v>44071</v>
       </c>
       <c r="B151" s="2">
-        <v>14294</v>
+        <v>14305</v>
       </c>
       <c r="C151" s="2">
         <v>116</v>
       </c>
       <c r="D151" s="3">
-        <v>117.714285714285</v>
+        <v>118.428571428571</v>
       </c>
       <c r="E151" s="2">
-        <v>278318</v>
+        <v>278339</v>
       </c>
       <c r="F151" s="2">
         <v>2769</v>
       </c>
       <c r="G151" s="4">
-        <v>0.047770885268</v>
+        <v>0.04804682972</v>
       </c>
     </row>
     <row r="152" spans="1:7">
@@ -3869,22 +3869,22 @@
         <v>44072</v>
       </c>
       <c r="B152" s="2">
-        <v>14358</v>
+        <v>14369</v>
       </c>
       <c r="C152" s="2">
         <v>64</v>
       </c>
       <c r="D152" s="3">
-        <v>118.142857142857</v>
+        <v>118.857142857142</v>
       </c>
       <c r="E152" s="2">
-        <v>279752</v>
+        <v>279773</v>
       </c>
       <c r="F152" s="2">
         <v>1434</v>
       </c>
       <c r="G152" s="4">
-        <v>0.047654719373</v>
+        <v>0.047929028169</v>
       </c>
     </row>
     <row r="153" spans="1:7">
@@ -3892,22 +3892,22 @@
         <v>44073</v>
       </c>
       <c r="B153" s="2">
-        <v>14415</v>
+        <v>14427</v>
       </c>
       <c r="C153" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D153" s="3">
-        <v>116.857142857142</v>
+        <v>117.571428571428</v>
       </c>
       <c r="E153" s="2">
-        <v>280830</v>
+        <v>280852</v>
       </c>
       <c r="F153" s="2">
-        <v>1078</v>
+        <v>1079</v>
       </c>
       <c r="G153" s="4">
-        <v>0.04683384862</v>
+        <v>0.04710663385</v>
       </c>
     </row>
     <row r="154" spans="1:7">
@@ -3915,22 +3915,22 @@
         <v>44074</v>
       </c>
       <c r="B154" s="2">
-        <v>14552</v>
+        <v>14565</v>
       </c>
       <c r="C154" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D154" s="3">
-        <v>115.142857142857</v>
+        <v>116</v>
       </c>
       <c r="E154" s="2">
-        <v>283954</v>
+        <v>283977</v>
       </c>
       <c r="F154" s="2">
-        <v>3124</v>
+        <v>3125</v>
       </c>
       <c r="G154" s="4">
-        <v>0.045766850264</v>
+        <v>0.046091843106</v>
       </c>
     </row>
     <row r="155" spans="1:7">
@@ -3938,22 +3938,22 @@
         <v>44075</v>
       </c>
       <c r="B155" s="2">
-        <v>14682</v>
+        <v>14696</v>
       </c>
       <c r="C155" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D155" s="3">
-        <v>114.714285714285</v>
+        <v>115.571428571428</v>
       </c>
       <c r="E155" s="2">
-        <v>287220</v>
+        <v>287244</v>
       </c>
       <c r="F155" s="2">
-        <v>3266</v>
+        <v>3267</v>
       </c>
       <c r="G155" s="4">
-        <v>0.044953255332</v>
+        <v>0.045273938105</v>
       </c>
     </row>
     <row r="156" spans="1:7">
@@ -3961,22 +3961,22 @@
         <v>44076</v>
       </c>
       <c r="B156" s="2">
-        <v>14797</v>
+        <v>14811</v>
       </c>
       <c r="C156" s="2">
         <v>115</v>
       </c>
       <c r="D156" s="3">
-        <v>112</v>
+        <v>112.714285714285</v>
       </c>
       <c r="E156" s="2">
-        <v>290185</v>
+        <v>290209</v>
       </c>
       <c r="F156" s="2">
         <v>2965</v>
       </c>
       <c r="G156" s="4">
-        <v>0.043869956913</v>
+        <v>0.044137390915</v>
       </c>
     </row>
     <row r="157" spans="1:7">
@@ -3984,22 +3984,22 @@
         <v>44077</v>
       </c>
       <c r="B157" s="2">
-        <v>14892</v>
+        <v>14906</v>
       </c>
       <c r="C157" s="2">
         <v>95</v>
       </c>
       <c r="D157" s="3">
-        <v>102</v>
+        <v>102.428571428571</v>
       </c>
       <c r="E157" s="2">
-        <v>293115</v>
+        <v>293139</v>
       </c>
       <c r="F157" s="2">
         <v>2930</v>
       </c>
       <c r="G157" s="4">
-        <v>0.040646703859</v>
+        <v>0.040810518526</v>
       </c>
     </row>
     <row r="158" spans="1:7">
@@ -4007,22 +4007,22 @@
         <v>44078</v>
       </c>
       <c r="B158" s="2">
-        <v>15013</v>
+        <v>15028</v>
       </c>
       <c r="C158" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D158" s="3">
-        <v>102.714285714285</v>
+        <v>103.285714285714</v>
       </c>
       <c r="E158" s="2">
-        <v>295917</v>
+        <v>295942</v>
       </c>
       <c r="F158" s="2">
-        <v>2802</v>
+        <v>2803</v>
       </c>
       <c r="G158" s="4">
-        <v>0.040854594011</v>
+        <v>0.041072544452</v>
       </c>
     </row>
     <row r="159" spans="1:7">
@@ -4030,22 +4030,22 @@
         <v>44079</v>
       </c>
       <c r="B159" s="2">
-        <v>15079</v>
+        <v>15094</v>
       </c>
       <c r="C159" s="2">
         <v>66</v>
       </c>
       <c r="D159" s="3">
-        <v>103</v>
+        <v>103.571428571428</v>
       </c>
       <c r="E159" s="2">
-        <v>297253</v>
+        <v>297278</v>
       </c>
       <c r="F159" s="2">
         <v>1336</v>
       </c>
       <c r="G159" s="4">
-        <v>0.041197645848</v>
+        <v>0.041416738074</v>
       </c>
     </row>
     <row r="160" spans="1:7">
@@ -4053,22 +4053,22 @@
         <v>44080</v>
       </c>
       <c r="B160" s="2">
-        <v>15132</v>
+        <v>15147</v>
       </c>
       <c r="C160" s="2">
         <v>53</v>
       </c>
       <c r="D160" s="3">
-        <v>102.428571428571</v>
+        <v>102.857142857142</v>
       </c>
       <c r="E160" s="2">
-        <v>298339</v>
+        <v>298364</v>
       </c>
       <c r="F160" s="2">
         <v>1086</v>
       </c>
       <c r="G160" s="4">
-        <v>0.040950368381</v>
+        <v>0.04111466423</v>
       </c>
     </row>
     <row r="161" spans="1:7">
@@ -4076,22 +4076,22 @@
         <v>44081</v>
       </c>
       <c r="B161" s="2">
-        <v>15200</v>
+        <v>15215</v>
       </c>
       <c r="C161" s="2">
         <v>68</v>
       </c>
       <c r="D161" s="3">
-        <v>92.571428571428</v>
+        <v>92.85714285714199</v>
       </c>
       <c r="E161" s="2">
-        <v>299590</v>
+        <v>299615</v>
       </c>
       <c r="F161" s="2">
         <v>1251</v>
       </c>
       <c r="G161" s="4">
-        <v>0.041442824251</v>
+        <v>0.041565417572</v>
       </c>
     </row>
     <row r="162" spans="1:7">
@@ -4099,22 +4099,22 @@
         <v>44082</v>
       </c>
       <c r="B162" s="2">
-        <v>15344</v>
+        <v>15359</v>
       </c>
       <c r="C162" s="2">
         <v>144</v>
       </c>
       <c r="D162" s="3">
-        <v>94.571428571428</v>
+        <v>94.714285714285</v>
       </c>
       <c r="E162" s="2">
-        <v>303865</v>
+        <v>303890</v>
       </c>
       <c r="F162" s="2">
         <v>4275</v>
       </c>
       <c r="G162" s="4">
-        <v>0.039771703214</v>
+        <v>0.039829388441</v>
       </c>
     </row>
     <row r="163" spans="1:7">
@@ -4122,22 +4122,22 @@
         <v>44083</v>
       </c>
       <c r="B163" s="2">
-        <v>15494</v>
+        <v>15509</v>
       </c>
       <c r="C163" s="2">
         <v>150</v>
       </c>
       <c r="D163" s="3">
-        <v>99.571428571428</v>
+        <v>99.714285714285</v>
       </c>
       <c r="E163" s="2">
-        <v>307371</v>
+        <v>307396</v>
       </c>
       <c r="F163" s="2">
         <v>3506</v>
       </c>
       <c r="G163" s="4">
-        <v>0.040556266728</v>
+        <v>0.040612090533</v>
       </c>
     </row>
     <row r="164" spans="1:7">
@@ -4145,22 +4145,22 @@
         <v>44084</v>
       </c>
       <c r="B164" s="2">
-        <v>15596</v>
+        <v>15611</v>
       </c>
       <c r="C164" s="2">
         <v>102</v>
       </c>
       <c r="D164" s="3">
-        <v>100.571428571428</v>
+        <v>100.714285714285</v>
       </c>
       <c r="E164" s="2">
-        <v>310640</v>
+        <v>310665</v>
       </c>
       <c r="F164" s="2">
         <v>3269</v>
       </c>
       <c r="G164" s="4">
-        <v>0.040171184022</v>
+        <v>0.040225950017</v>
       </c>
     </row>
     <row r="165" spans="1:7">
@@ -4168,7 +4168,7 @@
         <v>44085</v>
       </c>
       <c r="B165" s="2">
-        <v>15668</v>
+        <v>15683</v>
       </c>
       <c r="C165" s="2">
         <v>72</v>
@@ -4177,13 +4177,13 @@
         <v>93.571428571428</v>
       </c>
       <c r="E165" s="2">
-        <v>313129</v>
+        <v>313152</v>
       </c>
       <c r="F165" s="2">
-        <v>2489</v>
+        <v>2487</v>
       </c>
       <c r="G165" s="4">
-        <v>0.038054845456</v>
+        <v>0.038059267867</v>
       </c>
     </row>
     <row r="166" spans="1:7">
@@ -4191,7 +4191,7 @@
         <v>44086</v>
       </c>
       <c r="B166" s="2">
-        <v>15716</v>
+        <v>15731</v>
       </c>
       <c r="C166" s="2">
         <v>48</v>
@@ -4200,13 +4200,13 @@
         <v>91</v>
       </c>
       <c r="E166" s="2">
-        <v>314520</v>
+        <v>314543</v>
       </c>
       <c r="F166" s="2">
         <v>1391</v>
       </c>
       <c r="G166" s="4">
-        <v>0.036891179706</v>
+        <v>0.036895453229</v>
       </c>
     </row>
     <row r="167" spans="1:7">
@@ -4214,7 +4214,7 @@
         <v>44087</v>
       </c>
       <c r="B167" s="2">
-        <v>15748</v>
+        <v>15763</v>
       </c>
       <c r="C167" s="2">
         <v>32</v>
@@ -4223,13 +4223,13 @@
         <v>88</v>
       </c>
       <c r="E167" s="2">
-        <v>315362</v>
+        <v>315385</v>
       </c>
       <c r="F167" s="2">
         <v>842</v>
       </c>
       <c r="G167" s="4">
-        <v>0.036186336133</v>
+        <v>0.036190588097</v>
       </c>
     </row>
     <row r="168" spans="1:7">
@@ -4237,7 +4237,7 @@
         <v>44088</v>
       </c>
       <c r="B168" s="2">
-        <v>15849</v>
+        <v>15864</v>
       </c>
       <c r="C168" s="2">
         <v>101</v>
@@ -4246,13 +4246,13 @@
         <v>92.714285714285</v>
       </c>
       <c r="E168" s="2">
-        <v>318740</v>
+        <v>318761</v>
       </c>
       <c r="F168" s="2">
-        <v>3378</v>
+        <v>3376</v>
       </c>
       <c r="G168" s="4">
-        <v>0.033890339425</v>
+        <v>0.033897419826</v>
       </c>
     </row>
     <row r="169" spans="1:7">
@@ -4260,7 +4260,7 @@
         <v>44089</v>
       </c>
       <c r="B169" s="2">
-        <v>15979</v>
+        <v>15994</v>
       </c>
       <c r="C169" s="2">
         <v>130</v>
@@ -4269,13 +4269,13 @@
         <v>90.714285714285</v>
       </c>
       <c r="E169" s="2">
-        <v>322692</v>
+        <v>322712</v>
       </c>
       <c r="F169" s="2">
-        <v>3952</v>
+        <v>3951</v>
       </c>
       <c r="G169" s="4">
-        <v>0.033728156371</v>
+        <v>0.03373711614</v>
       </c>
     </row>
     <row r="170" spans="1:7">
@@ -4283,7 +4283,7 @@
         <v>44090</v>
       </c>
       <c r="B170" s="2">
-        <v>16065</v>
+        <v>16080</v>
       </c>
       <c r="C170" s="2">
         <v>86</v>
@@ -4292,13 +4292,13 @@
         <v>81.571428571428</v>
       </c>
       <c r="E170" s="2">
-        <v>325978</v>
+        <v>325998</v>
       </c>
       <c r="F170" s="2">
         <v>3286</v>
       </c>
       <c r="G170" s="4">
-        <v>0.030687375718</v>
+        <v>0.030695624126</v>
       </c>
     </row>
     <row r="171" spans="1:7">
@@ -4306,7 +4306,7 @@
         <v>44091</v>
       </c>
       <c r="B171" s="2">
-        <v>16168</v>
+        <v>16183</v>
       </c>
       <c r="C171" s="2">
         <v>103</v>
@@ -4315,13 +4315,13 @@
         <v>81.714285714285</v>
       </c>
       <c r="E171" s="2">
-        <v>329578</v>
+        <v>329598</v>
       </c>
       <c r="F171" s="2">
         <v>3600</v>
       </c>
       <c r="G171" s="4">
-        <v>0.030203823001</v>
+        <v>0.030211799503</v>
       </c>
     </row>
     <row r="172" spans="1:7">
@@ -4329,7 +4329,7 @@
         <v>44092</v>
       </c>
       <c r="B172" s="2">
-        <v>16272</v>
+        <v>16287</v>
       </c>
       <c r="C172" s="2">
         <v>104</v>
@@ -4338,13 +4338,13 @@
         <v>86.28571428571399</v>
       </c>
       <c r="E172" s="2">
-        <v>332845</v>
+        <v>332865</v>
       </c>
       <c r="F172" s="2">
         <v>3267</v>
       </c>
       <c r="G172" s="4">
-        <v>0.030635017244</v>
+        <v>0.030639679399</v>
       </c>
     </row>
     <row r="173" spans="1:7">
@@ -4352,7 +4352,7 @@
         <v>44093</v>
       </c>
       <c r="B173" s="2">
-        <v>16344</v>
+        <v>16359</v>
       </c>
       <c r="C173" s="2">
         <v>72</v>
@@ -4361,13 +4361,13 @@
         <v>89.714285714285</v>
       </c>
       <c r="E173" s="2">
-        <v>334361</v>
+        <v>334381</v>
       </c>
       <c r="F173" s="2">
         <v>1516</v>
       </c>
       <c r="G173" s="4">
-        <v>0.031651630462</v>
+        <v>0.031656416977</v>
       </c>
     </row>
     <row r="174" spans="1:7">
@@ -4375,7 +4375,7 @@
         <v>44094</v>
       </c>
       <c r="B174" s="2">
-        <v>16386</v>
+        <v>16401</v>
       </c>
       <c r="C174" s="2">
         <v>42</v>
@@ -4384,13 +4384,13 @@
         <v>91.142857142857</v>
       </c>
       <c r="E174" s="2">
-        <v>335512</v>
+        <v>335532</v>
       </c>
       <c r="F174" s="2">
         <v>1151</v>
       </c>
       <c r="G174" s="4">
-        <v>0.031662531017</v>
+        <v>0.031667245743</v>
       </c>
     </row>
     <row r="175" spans="1:7">
@@ -4398,7 +4398,7 @@
         <v>44095</v>
       </c>
       <c r="B175" s="2">
-        <v>16529</v>
+        <v>16544</v>
       </c>
       <c r="C175" s="2">
         <v>143</v>
@@ -4407,10 +4407,10 @@
         <v>97.142857142857</v>
       </c>
       <c r="E175" s="2">
-        <v>339854</v>
+        <v>339875</v>
       </c>
       <c r="F175" s="2">
-        <v>4342</v>
+        <v>4343</v>
       </c>
       <c r="G175" s="4">
         <v>0.032206119162</v>
@@ -4421,7 +4421,7 @@
         <v>44096</v>
       </c>
       <c r="B176" s="2">
-        <v>16627</v>
+        <v>16642</v>
       </c>
       <c r="C176" s="2">
         <v>98</v>
@@ -4430,13 +4430,13 @@
         <v>92.571428571428</v>
       </c>
       <c r="E176" s="2">
-        <v>343608</v>
+        <v>343630</v>
       </c>
       <c r="F176" s="2">
-        <v>3754</v>
+        <v>3755</v>
       </c>
       <c r="G176" s="4">
-        <v>0.030981067125</v>
+        <v>0.030978104981</v>
       </c>
     </row>
     <row r="177" spans="1:7">
@@ -4444,7 +4444,7 @@
         <v>44097</v>
       </c>
       <c r="B177" s="2">
-        <v>16721</v>
+        <v>16736</v>
       </c>
       <c r="C177" s="2">
         <v>94</v>
@@ -4453,13 +4453,13 @@
         <v>93.714285714285</v>
       </c>
       <c r="E177" s="2">
-        <v>347085</v>
+        <v>347107</v>
       </c>
       <c r="F177" s="2">
         <v>3477</v>
       </c>
       <c r="G177" s="4">
-        <v>0.03107973658</v>
+        <v>0.031076791889</v>
       </c>
     </row>
     <row r="178" spans="1:7">
@@ -4467,7 +4467,7 @@
         <v>44098</v>
       </c>
       <c r="B178" s="2">
-        <v>16812</v>
+        <v>16827</v>
       </c>
       <c r="C178" s="2">
         <v>91</v>
@@ -4476,13 +4476,13 @@
         <v>92</v>
       </c>
       <c r="E178" s="2">
-        <v>350794</v>
+        <v>350816</v>
       </c>
       <c r="F178" s="2">
         <v>3709</v>
       </c>
       <c r="G178" s="4">
-        <v>0.030354449472</v>
+        <v>0.030351588274</v>
       </c>
     </row>
     <row r="179" spans="1:7">
@@ -4490,7 +4490,7 @@
         <v>44099</v>
       </c>
       <c r="B179" s="2">
-        <v>16902</v>
+        <v>16917</v>
       </c>
       <c r="C179" s="2">
         <v>90</v>
@@ -4499,13 +4499,13 @@
         <v>90</v>
       </c>
       <c r="E179" s="2">
-        <v>354076</v>
+        <v>354098</v>
       </c>
       <c r="F179" s="2">
         <v>3282</v>
       </c>
       <c r="G179" s="4">
-        <v>0.029673590504</v>
+        <v>0.029670795459</v>
       </c>
     </row>
     <row r="180" spans="1:7">
@@ -4513,7 +4513,7 @@
         <v>44100</v>
       </c>
       <c r="B180" s="2">
-        <v>16962</v>
+        <v>16977</v>
       </c>
       <c r="C180" s="2">
         <v>60</v>
@@ -4522,13 +4522,13 @@
         <v>88.28571428571399</v>
       </c>
       <c r="E180" s="2">
-        <v>355939</v>
+        <v>355962</v>
       </c>
       <c r="F180" s="2">
-        <v>1863</v>
+        <v>1864</v>
       </c>
       <c r="G180" s="4">
-        <v>0.028640281768</v>
+        <v>0.028636300449</v>
       </c>
     </row>
     <row r="181" spans="1:7">
@@ -4536,7 +4536,7 @@
         <v>44101</v>
       </c>
       <c r="B181" s="2">
-        <v>16984</v>
+        <v>16999</v>
       </c>
       <c r="C181" s="2">
         <v>22</v>
@@ -4545,13 +4545,13 @@
         <v>85.428571428571</v>
       </c>
       <c r="E181" s="2">
-        <v>357058</v>
+        <v>357081</v>
       </c>
       <c r="F181" s="2">
         <v>1119</v>
       </c>
       <c r="G181" s="4">
-        <v>0.027754571614</v>
+        <v>0.027750707689</v>
       </c>
     </row>
     <row r="182" spans="1:7">
@@ -4559,7 +4559,7 @@
         <v>44102</v>
       </c>
       <c r="B182" s="2">
-        <v>17096</v>
+        <v>17111</v>
       </c>
       <c r="C182" s="2">
         <v>112</v>
@@ -4568,13 +4568,13 @@
         <v>81</v>
       </c>
       <c r="E182" s="2">
-        <v>361119</v>
+        <v>361142</v>
       </c>
       <c r="F182" s="2">
         <v>4061</v>
       </c>
       <c r="G182" s="4">
-        <v>0.026663531624</v>
+        <v>0.026661024121</v>
       </c>
     </row>
     <row r="183" spans="1:7">
@@ -4582,7 +4582,7 @@
         <v>44103</v>
       </c>
       <c r="B183" s="2">
-        <v>17171</v>
+        <v>17186</v>
       </c>
       <c r="C183" s="2">
         <v>75</v>
@@ -4591,13 +4591,13 @@
         <v>77.714285714285</v>
       </c>
       <c r="E183" s="2">
-        <v>364923</v>
+        <v>364949</v>
       </c>
       <c r="F183" s="2">
-        <v>3804</v>
+        <v>3807</v>
       </c>
       <c r="G183" s="4">
-        <v>0.025521932911</v>
+        <v>0.025517144331</v>
       </c>
     </row>
     <row r="184" spans="1:7">
@@ -4605,7 +4605,7 @@
         <v>44104</v>
       </c>
       <c r="B184" s="2">
-        <v>17230</v>
+        <v>17245</v>
       </c>
       <c r="C184" s="2">
         <v>59</v>
@@ -4614,13 +4614,13 @@
         <v>72.714285714285</v>
       </c>
       <c r="E184" s="2">
-        <v>368459</v>
+        <v>368485</v>
       </c>
       <c r="F184" s="2">
         <v>3536</v>
       </c>
       <c r="G184" s="4">
-        <v>0.023813979601</v>
+        <v>0.023809523809</v>
       </c>
     </row>
     <row r="185" spans="1:7">
@@ -4628,7 +4628,7 @@
         <v>44105</v>
       </c>
       <c r="B185" s="2">
-        <v>17292</v>
+        <v>17307</v>
       </c>
       <c r="C185" s="2">
         <v>62</v>
@@ -4637,13 +4637,13 @@
         <v>68.571428571428</v>
       </c>
       <c r="E185" s="2">
-        <v>371948</v>
+        <v>371981</v>
       </c>
       <c r="F185" s="2">
-        <v>3489</v>
+        <v>3496</v>
       </c>
       <c r="G185" s="4">
-        <v>0.022690744067</v>
+        <v>0.022678951098</v>
       </c>
     </row>
     <row r="186" spans="1:7">
@@ -4651,7 +4651,7 @@
         <v>44106</v>
       </c>
       <c r="B186" s="2">
-        <v>17370</v>
+        <v>17385</v>
       </c>
       <c r="C186" s="2">
         <v>78</v>
@@ -4660,13 +4660,13 @@
         <v>66.85714285714199</v>
       </c>
       <c r="E186" s="2">
-        <v>375464</v>
+        <v>375500</v>
       </c>
       <c r="F186" s="2">
-        <v>3516</v>
+        <v>3519</v>
       </c>
       <c r="G186" s="4">
-        <v>0.021881428838</v>
+        <v>0.021867115222</v>
       </c>
     </row>
     <row r="187" spans="1:7">
@@ -4674,7 +4674,7 @@
         <v>44107</v>
       </c>
       <c r="B187" s="2">
-        <v>17414</v>
+        <v>17429</v>
       </c>
       <c r="C187" s="2">
         <v>44</v>
@@ -4683,13 +4683,36 @@
         <v>64.571428571428</v>
       </c>
       <c r="E187" s="2">
-        <v>377437</v>
+        <v>377476</v>
       </c>
       <c r="F187" s="2">
-        <v>1973</v>
+        <v>1976</v>
       </c>
       <c r="G187" s="4">
-        <v>0.021025211647</v>
+        <v>0.02100957516</v>
+      </c>
+    </row>
+    <row r="188" spans="1:7">
+      <c r="A188" s="1">
+        <v>44108</v>
+      </c>
+      <c r="B188" s="2">
+        <v>17466</v>
+      </c>
+      <c r="C188" s="2">
+        <v>37</v>
+      </c>
+      <c r="D188" s="3">
+        <v>66.714285714285</v>
+      </c>
+      <c r="E188" s="2">
+        <v>378822</v>
+      </c>
+      <c r="F188" s="2">
+        <v>1346</v>
+      </c>
+      <c r="G188" s="4">
+        <v>0.021480152706</v>
       </c>
     </row>
   </sheetData>

--- a/contra_costa_county_testing.xlsx
+++ b/contra_costa_county_testing.xlsx
@@ -376,7 +376,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G188"/>
+  <dimension ref="A1:G189"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1279,13 +1279,13 @@
         <v>15.285714285714</v>
       </c>
       <c r="E39" s="2">
-        <v>22381</v>
+        <v>22382</v>
       </c>
       <c r="F39" s="2">
-        <v>1142</v>
+        <v>1143</v>
       </c>
       <c r="G39" s="4">
-        <v>0.021344504288</v>
+        <v>0.021340247307</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -1302,13 +1302,13 @@
         <v>14.714285714285</v>
       </c>
       <c r="E40" s="2">
-        <v>22763</v>
+        <v>22764</v>
       </c>
       <c r="F40" s="2">
         <v>382</v>
       </c>
       <c r="G40" s="4">
-        <v>0.020168396318</v>
+        <v>0.020164447924</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -1328,7 +1328,7 @@
         <v>23107</v>
       </c>
       <c r="F41" s="2">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="G41" s="4">
         <v>0.020435704646</v>
@@ -1348,13 +1348,13 @@
         <v>13</v>
       </c>
       <c r="E42" s="2">
-        <v>24208</v>
+        <v>24210</v>
       </c>
       <c r="F42" s="2">
-        <v>1101</v>
+        <v>1103</v>
       </c>
       <c r="G42" s="4">
-        <v>0.016515426497</v>
+        <v>0.016509433962</v>
       </c>
     </row>
     <row r="43" spans="1:7">
@@ -1371,13 +1371,13 @@
         <v>12.285714285714</v>
       </c>
       <c r="E43" s="2">
-        <v>25439</v>
+        <v>25441</v>
       </c>
       <c r="F43" s="2">
         <v>1231</v>
       </c>
       <c r="G43" s="4">
-        <v>0.014189077709</v>
+        <v>0.014184397163</v>
       </c>
     </row>
     <row r="44" spans="1:7">
@@ -1394,13 +1394,13 @@
         <v>12.857142857142</v>
       </c>
       <c r="E44" s="2">
-        <v>26537</v>
+        <v>26539</v>
       </c>
       <c r="F44" s="2">
         <v>1098</v>
       </c>
       <c r="G44" s="4">
-        <v>0.014530190506</v>
+        <v>0.014525500322</v>
       </c>
     </row>
     <row r="45" spans="1:7">
@@ -1417,13 +1417,13 @@
         <v>14</v>
       </c>
       <c r="E45" s="2">
-        <v>27390</v>
+        <v>27400</v>
       </c>
       <c r="F45" s="2">
-        <v>853</v>
+        <v>861</v>
       </c>
       <c r="G45" s="4">
-        <v>0.01593236872</v>
+        <v>0.015906508683</v>
       </c>
     </row>
     <row r="46" spans="1:7">
@@ -1440,13 +1440,13 @@
         <v>15.714285714285</v>
       </c>
       <c r="E46" s="2">
-        <v>28308</v>
+        <v>28319</v>
       </c>
       <c r="F46" s="2">
-        <v>918</v>
+        <v>919</v>
       </c>
       <c r="G46" s="4">
-        <v>0.018559136156</v>
+        <v>0.018527876031</v>
       </c>
     </row>
     <row r="47" spans="1:7">
@@ -1463,13 +1463,13 @@
         <v>17.571428571428</v>
       </c>
       <c r="E47" s="2">
-        <v>28717</v>
+        <v>28728</v>
       </c>
       <c r="F47" s="2">
         <v>409</v>
       </c>
       <c r="G47" s="4">
-        <v>0.02065838092</v>
+        <v>0.020623742454</v>
       </c>
     </row>
     <row r="48" spans="1:7">
@@ -1486,13 +1486,13 @@
         <v>18</v>
       </c>
       <c r="E48" s="2">
-        <v>29110</v>
+        <v>29120</v>
       </c>
       <c r="F48" s="2">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="G48" s="4">
-        <v>0.020989505247</v>
+        <v>0.02095459837</v>
       </c>
     </row>
     <row r="49" spans="1:7">
@@ -1509,13 +1509,13 @@
         <v>22.428571428571</v>
       </c>
       <c r="E49" s="2">
-        <v>30474</v>
+        <v>30485</v>
       </c>
       <c r="F49" s="2">
-        <v>1364</v>
+        <v>1365</v>
       </c>
       <c r="G49" s="4">
-        <v>0.025055857006</v>
+        <v>0.025019920318</v>
       </c>
     </row>
     <row r="50" spans="1:7">
@@ -1532,13 +1532,13 @@
         <v>25.714285714285</v>
       </c>
       <c r="E50" s="2">
-        <v>32135</v>
+        <v>32146</v>
       </c>
       <c r="F50" s="2">
         <v>1661</v>
       </c>
       <c r="G50" s="4">
-        <v>0.02688172043</v>
+        <v>0.026845637583</v>
       </c>
     </row>
     <row r="51" spans="1:7">
@@ -1555,13 +1555,13 @@
         <v>26.142857142857</v>
       </c>
       <c r="E51" s="2">
-        <v>33272</v>
+        <v>33287</v>
       </c>
       <c r="F51" s="2">
-        <v>1137</v>
+        <v>1141</v>
       </c>
       <c r="G51" s="4">
-        <v>0.027171492204</v>
+        <v>0.027119146413</v>
       </c>
     </row>
     <row r="52" spans="1:7">
@@ -1578,13 +1578,13 @@
         <v>27.428571428571</v>
       </c>
       <c r="E52" s="2">
-        <v>34404</v>
+        <v>34419</v>
       </c>
       <c r="F52" s="2">
         <v>1132</v>
       </c>
       <c r="G52" s="4">
-        <v>0.027373823781</v>
+        <v>0.027354323977</v>
       </c>
     </row>
     <row r="53" spans="1:7">
@@ -1601,13 +1601,13 @@
         <v>29.142857142857</v>
       </c>
       <c r="E53" s="2">
-        <v>35493</v>
+        <v>35508</v>
       </c>
       <c r="F53" s="2">
         <v>1089</v>
       </c>
       <c r="G53" s="4">
-        <v>0.028392484342</v>
+        <v>0.028376686604</v>
       </c>
     </row>
     <row r="54" spans="1:7">
@@ -1624,13 +1624,13 @@
         <v>28</v>
       </c>
       <c r="E54" s="2">
-        <v>36012</v>
+        <v>36027</v>
       </c>
       <c r="F54" s="2">
         <v>519</v>
       </c>
       <c r="G54" s="4">
-        <v>0.026867717614</v>
+        <v>0.02685299356</v>
       </c>
     </row>
     <row r="55" spans="1:7">
@@ -1647,13 +1647,13 @@
         <v>27.571428571428</v>
       </c>
       <c r="E55" s="2">
-        <v>36406</v>
+        <v>36421</v>
       </c>
       <c r="F55" s="2">
         <v>394</v>
       </c>
       <c r="G55" s="4">
-        <v>0.026452850877</v>
+        <v>0.026434734967</v>
       </c>
     </row>
     <row r="56" spans="1:7">
@@ -1670,13 +1670,13 @@
         <v>23.285714285714</v>
       </c>
       <c r="E56" s="2">
-        <v>36871</v>
+        <v>36886</v>
       </c>
       <c r="F56" s="2">
         <v>465</v>
       </c>
       <c r="G56" s="4">
-        <v>0.025480694075</v>
+        <v>0.025464771129</v>
       </c>
     </row>
     <row r="57" spans="1:7">
@@ -1693,13 +1693,13 @@
         <v>23.714285714285</v>
       </c>
       <c r="E57" s="2">
-        <v>38067</v>
+        <v>38082</v>
       </c>
       <c r="F57" s="2">
         <v>1196</v>
       </c>
       <c r="G57" s="4">
-        <v>0.027983816587</v>
+        <v>0.027964959568</v>
       </c>
     </row>
     <row r="58" spans="1:7">
@@ -1716,7 +1716,7 @@
         <v>23.714285714285</v>
       </c>
       <c r="E58" s="2">
-        <v>39180</v>
+        <v>39195</v>
       </c>
       <c r="F58" s="2">
         <v>1113</v>
@@ -1739,7 +1739,7 @@
         <v>26.285714285714</v>
       </c>
       <c r="E59" s="2">
-        <v>40317</v>
+        <v>40332</v>
       </c>
       <c r="F59" s="2">
         <v>1137</v>
@@ -1762,7 +1762,7 @@
         <v>26.571428571428</v>
       </c>
       <c r="E60" s="2">
-        <v>41720</v>
+        <v>41735</v>
       </c>
       <c r="F60" s="2">
         <v>1403</v>
@@ -1785,13 +1785,13 @@
         <v>26.285714285714</v>
       </c>
       <c r="E61" s="2">
-        <v>42452</v>
+        <v>42469</v>
       </c>
       <c r="F61" s="2">
-        <v>732</v>
+        <v>734</v>
       </c>
       <c r="G61" s="4">
-        <v>0.028571428571</v>
+        <v>0.028562558211</v>
       </c>
     </row>
     <row r="62" spans="1:7">
@@ -1808,13 +1808,13 @@
         <v>26</v>
       </c>
       <c r="E62" s="2">
-        <v>42850</v>
+        <v>42867</v>
       </c>
       <c r="F62" s="2">
         <v>398</v>
       </c>
       <c r="G62" s="4">
-        <v>0.028243327126</v>
+        <v>0.02823456407</v>
       </c>
     </row>
     <row r="63" spans="1:7">
@@ -1831,13 +1831,13 @@
         <v>29.285714285714</v>
       </c>
       <c r="E63" s="2">
-        <v>44224</v>
+        <v>44245</v>
       </c>
       <c r="F63" s="2">
-        <v>1374</v>
+        <v>1378</v>
       </c>
       <c r="G63" s="4">
-        <v>0.027879776961</v>
+        <v>0.027857045794</v>
       </c>
     </row>
     <row r="64" spans="1:7">
@@ -1854,13 +1854,13 @@
         <v>28.285714285714</v>
       </c>
       <c r="E64" s="2">
-        <v>45441</v>
+        <v>45462</v>
       </c>
       <c r="F64" s="2">
         <v>1217</v>
       </c>
       <c r="G64" s="4">
-        <v>0.026851098454</v>
+        <v>0.026829268292</v>
       </c>
     </row>
     <row r="65" spans="1:7">
@@ -1877,13 +1877,13 @@
         <v>27.857142857142</v>
       </c>
       <c r="E65" s="2">
-        <v>46598</v>
+        <v>46626</v>
       </c>
       <c r="F65" s="2">
-        <v>1157</v>
+        <v>1164</v>
       </c>
       <c r="G65" s="4">
-        <v>0.026287409005</v>
+        <v>0.026241421073</v>
       </c>
     </row>
     <row r="66" spans="1:7">
@@ -1900,13 +1900,13 @@
         <v>28.571428571428</v>
       </c>
       <c r="E66" s="2">
-        <v>47949</v>
+        <v>47978</v>
       </c>
       <c r="F66" s="2">
-        <v>1351</v>
+        <v>1352</v>
       </c>
       <c r="G66" s="4">
-        <v>0.026205450733</v>
+        <v>0.026157467957</v>
       </c>
     </row>
     <row r="67" spans="1:7">
@@ -1923,13 +1923,13 @@
         <v>29.285714285714</v>
       </c>
       <c r="E67" s="2">
-        <v>49581</v>
+        <v>49610</v>
       </c>
       <c r="F67" s="2">
         <v>1632</v>
       </c>
       <c r="G67" s="4">
-        <v>0.026078107111</v>
+        <v>0.026031746031</v>
       </c>
     </row>
     <row r="68" spans="1:7">
@@ -1946,13 +1946,13 @@
         <v>30.571428571428</v>
       </c>
       <c r="E68" s="2">
-        <v>50186</v>
+        <v>50215</v>
       </c>
       <c r="F68" s="2">
         <v>605</v>
       </c>
       <c r="G68" s="4">
-        <v>0.027670028445</v>
+        <v>0.027627162406</v>
       </c>
     </row>
     <row r="69" spans="1:7">
@@ -1969,13 +1969,13 @@
         <v>32.428571428571</v>
       </c>
       <c r="E69" s="2">
-        <v>50671</v>
+        <v>50700</v>
       </c>
       <c r="F69" s="2">
         <v>485</v>
       </c>
       <c r="G69" s="4">
-        <v>0.029024421429</v>
+        <v>0.028979956593</v>
       </c>
     </row>
     <row r="70" spans="1:7">
@@ -1992,13 +1992,13 @@
         <v>34.714285714285</v>
       </c>
       <c r="E70" s="2">
-        <v>52509</v>
+        <v>52538</v>
       </c>
       <c r="F70" s="2">
         <v>1838</v>
       </c>
       <c r="G70" s="4">
-        <v>0.029330114665</v>
+        <v>0.029301820812</v>
       </c>
     </row>
     <row r="71" spans="1:7">
@@ -2015,13 +2015,13 @@
         <v>36.428571428571</v>
       </c>
       <c r="E71" s="2">
-        <v>54358</v>
+        <v>54387</v>
       </c>
       <c r="F71" s="2">
         <v>1849</v>
       </c>
       <c r="G71" s="4">
-        <v>0.028597061792</v>
+        <v>0.028571428571</v>
       </c>
     </row>
     <row r="72" spans="1:7">
@@ -2038,13 +2038,13 @@
         <v>40</v>
       </c>
       <c r="E72" s="2">
-        <v>56349</v>
+        <v>56378</v>
       </c>
       <c r="F72" s="2">
         <v>1991</v>
       </c>
       <c r="G72" s="4">
-        <v>0.028715003589</v>
+        <v>0.028712059064</v>
       </c>
     </row>
     <row r="73" spans="1:7">
@@ -2061,7 +2061,7 @@
         <v>40.285714285714</v>
       </c>
       <c r="E73" s="2">
-        <v>58495</v>
+        <v>58524</v>
       </c>
       <c r="F73" s="2">
         <v>2146</v>
@@ -2084,7 +2084,7 @@
         <v>41.857142857142</v>
       </c>
       <c r="E74" s="2">
-        <v>60740</v>
+        <v>60769</v>
       </c>
       <c r="F74" s="2">
         <v>2245</v>
@@ -2107,7 +2107,7 @@
         <v>44.142857142857</v>
       </c>
       <c r="E75" s="2">
-        <v>61578</v>
+        <v>61607</v>
       </c>
       <c r="F75" s="2">
         <v>838</v>
@@ -2130,7 +2130,7 @@
         <v>45.428571428571</v>
       </c>
       <c r="E76" s="2">
-        <v>62161</v>
+        <v>62190</v>
       </c>
       <c r="F76" s="2">
         <v>583</v>
@@ -2153,7 +2153,7 @@
         <v>46.714285714285</v>
       </c>
       <c r="E77" s="2">
-        <v>64377</v>
+        <v>64406</v>
       </c>
       <c r="F77" s="2">
         <v>2216</v>
@@ -2176,7 +2176,7 @@
         <v>52.571428571428</v>
       </c>
       <c r="E78" s="2">
-        <v>66898</v>
+        <v>66927</v>
       </c>
       <c r="F78" s="2">
         <v>2521</v>
@@ -2199,7 +2199,7 @@
         <v>57.285714285714</v>
       </c>
       <c r="E79" s="2">
-        <v>69469</v>
+        <v>69498</v>
       </c>
       <c r="F79" s="2">
         <v>2571</v>
@@ -2222,7 +2222,7 @@
         <v>62.57142857142801</v>
       </c>
       <c r="E80" s="2">
-        <v>71994</v>
+        <v>72023</v>
       </c>
       <c r="F80" s="2">
         <v>2525</v>
@@ -2245,7 +2245,7 @@
         <v>68.85714285714199</v>
       </c>
       <c r="E81" s="2">
-        <v>74437</v>
+        <v>74466</v>
       </c>
       <c r="F81" s="2">
         <v>2443</v>
@@ -2268,7 +2268,7 @@
         <v>71.428571428571</v>
       </c>
       <c r="E82" s="2">
-        <v>75389</v>
+        <v>75418</v>
       </c>
       <c r="F82" s="2">
         <v>952</v>
@@ -2291,7 +2291,7 @@
         <v>73.28571428571399</v>
       </c>
       <c r="E83" s="2">
-        <v>76086</v>
+        <v>76115</v>
       </c>
       <c r="F83" s="2">
         <v>697</v>
@@ -2314,7 +2314,7 @@
         <v>81</v>
       </c>
       <c r="E84" s="2">
-        <v>78706</v>
+        <v>78735</v>
       </c>
       <c r="F84" s="2">
         <v>2620</v>
@@ -2337,7 +2337,7 @@
         <v>88</v>
       </c>
       <c r="E85" s="2">
-        <v>81491</v>
+        <v>81520</v>
       </c>
       <c r="F85" s="2">
         <v>2785</v>
@@ -2360,7 +2360,7 @@
         <v>96</v>
       </c>
       <c r="E86" s="2">
-        <v>84519</v>
+        <v>84548</v>
       </c>
       <c r="F86" s="2">
         <v>3028</v>
@@ -2383,7 +2383,7 @@
         <v>104.714285714285</v>
       </c>
       <c r="E87" s="2">
-        <v>87877</v>
+        <v>87906</v>
       </c>
       <c r="F87" s="2">
         <v>3358</v>
@@ -2406,7 +2406,7 @@
         <v>114.285714285714</v>
       </c>
       <c r="E88" s="2">
-        <v>90845</v>
+        <v>90874</v>
       </c>
       <c r="F88" s="2">
         <v>2968</v>
@@ -2429,7 +2429,7 @@
         <v>118.285714285714</v>
       </c>
       <c r="E89" s="2">
-        <v>91919</v>
+        <v>91948</v>
       </c>
       <c r="F89" s="2">
         <v>1074</v>
@@ -2452,7 +2452,7 @@
         <v>121</v>
       </c>
       <c r="E90" s="2">
-        <v>92714</v>
+        <v>92743</v>
       </c>
       <c r="F90" s="2">
         <v>795</v>
@@ -2475,7 +2475,7 @@
         <v>133.285714285714</v>
       </c>
       <c r="E91" s="2">
-        <v>96399</v>
+        <v>96428</v>
       </c>
       <c r="F91" s="2">
         <v>3685</v>
@@ -2498,7 +2498,7 @@
         <v>136.857142857142</v>
       </c>
       <c r="E92" s="2">
-        <v>99875</v>
+        <v>99904</v>
       </c>
       <c r="F92" s="2">
         <v>3476</v>
@@ -2521,7 +2521,7 @@
         <v>141.142857142857</v>
       </c>
       <c r="E93" s="2">
-        <v>103414</v>
+        <v>103443</v>
       </c>
       <c r="F93" s="2">
         <v>3539</v>
@@ -2544,7 +2544,7 @@
         <v>149.714285714285</v>
       </c>
       <c r="E94" s="2">
-        <v>107337</v>
+        <v>107366</v>
       </c>
       <c r="F94" s="2">
         <v>3923</v>
@@ -2567,7 +2567,7 @@
         <v>146.142857142857</v>
       </c>
       <c r="E95" s="2">
-        <v>109978</v>
+        <v>110007</v>
       </c>
       <c r="F95" s="2">
         <v>2641</v>
@@ -2590,7 +2590,7 @@
         <v>148</v>
       </c>
       <c r="E96" s="2">
-        <v>111095</v>
+        <v>111124</v>
       </c>
       <c r="F96" s="2">
         <v>1117</v>
@@ -2613,7 +2613,7 @@
         <v>151.857142857142</v>
       </c>
       <c r="E97" s="2">
-        <v>112224</v>
+        <v>112253</v>
       </c>
       <c r="F97" s="2">
         <v>1129</v>
@@ -2636,7 +2636,7 @@
         <v>152.857142857142</v>
       </c>
       <c r="E98" s="2">
-        <v>116296</v>
+        <v>116325</v>
       </c>
       <c r="F98" s="2">
         <v>4072</v>
@@ -2659,7 +2659,7 @@
         <v>161.142857142857</v>
       </c>
       <c r="E99" s="2">
-        <v>120369</v>
+        <v>120398</v>
       </c>
       <c r="F99" s="2">
         <v>4073</v>
@@ -2682,7 +2682,7 @@
         <v>168.571428571428</v>
       </c>
       <c r="E100" s="2">
-        <v>124625</v>
+        <v>124654</v>
       </c>
       <c r="F100" s="2">
         <v>4256</v>
@@ -2705,7 +2705,7 @@
         <v>174.285714285714</v>
       </c>
       <c r="E101" s="2">
-        <v>129221</v>
+        <v>129250</v>
       </c>
       <c r="F101" s="2">
         <v>4596</v>
@@ -2728,7 +2728,7 @@
         <v>189</v>
       </c>
       <c r="E102" s="2">
-        <v>133684</v>
+        <v>133713</v>
       </c>
       <c r="F102" s="2">
         <v>4463</v>
@@ -2751,7 +2751,7 @@
         <v>195.714285714285</v>
       </c>
       <c r="E103" s="2">
-        <v>135754</v>
+        <v>135783</v>
       </c>
       <c r="F103" s="2">
         <v>2070</v>
@@ -2774,7 +2774,7 @@
         <v>197.857142857142</v>
       </c>
       <c r="E104" s="2">
-        <v>137080</v>
+        <v>137109</v>
       </c>
       <c r="F104" s="2">
         <v>1326</v>
@@ -2797,7 +2797,7 @@
         <v>206</v>
       </c>
       <c r="E105" s="2">
-        <v>141684</v>
+        <v>141713</v>
       </c>
       <c r="F105" s="2">
         <v>4604</v>
@@ -2820,13 +2820,13 @@
         <v>211.428571428571</v>
       </c>
       <c r="E106" s="2">
-        <v>145440</v>
+        <v>145470</v>
       </c>
       <c r="F106" s="2">
-        <v>3756</v>
+        <v>3757</v>
       </c>
       <c r="G106" s="4">
-        <v>0.059032348131</v>
+        <v>0.059029993618</v>
       </c>
     </row>
     <row r="107" spans="1:7">
@@ -2843,13 +2843,13 @@
         <v>216.428571428571</v>
       </c>
       <c r="E107" s="2">
-        <v>149783</v>
+        <v>149813</v>
       </c>
       <c r="F107" s="2">
         <v>4343</v>
       </c>
       <c r="G107" s="4">
-        <v>0.060219413307</v>
+        <v>0.060217019754</v>
       </c>
     </row>
     <row r="108" spans="1:7">
@@ -2866,13 +2866,13 @@
         <v>217</v>
       </c>
       <c r="E108" s="2">
-        <v>153966</v>
+        <v>153996</v>
       </c>
       <c r="F108" s="2">
         <v>4183</v>
       </c>
       <c r="G108" s="4">
-        <v>0.061386138613</v>
+        <v>0.061383657964</v>
       </c>
     </row>
     <row r="109" spans="1:7">
@@ -2889,13 +2889,13 @@
         <v>217.571428571428</v>
       </c>
       <c r="E109" s="2">
-        <v>158166</v>
+        <v>158197</v>
       </c>
       <c r="F109" s="2">
-        <v>4200</v>
+        <v>4201</v>
       </c>
       <c r="G109" s="4">
-        <v>0.062208969855</v>
+        <v>0.062203888253</v>
       </c>
     </row>
     <row r="110" spans="1:7">
@@ -2912,13 +2912,13 @@
         <v>216</v>
       </c>
       <c r="E110" s="2">
-        <v>160389</v>
+        <v>160420</v>
       </c>
       <c r="F110" s="2">
         <v>2223</v>
       </c>
       <c r="G110" s="4">
-        <v>0.061376090927</v>
+        <v>0.061371108495</v>
       </c>
     </row>
     <row r="111" spans="1:7">
@@ -2935,13 +2935,13 @@
         <v>215.714285714285</v>
       </c>
       <c r="E111" s="2">
-        <v>161646</v>
+        <v>161677</v>
       </c>
       <c r="F111" s="2">
         <v>1257</v>
       </c>
       <c r="G111" s="4">
-        <v>0.061467068305</v>
+        <v>0.061462064474</v>
       </c>
     </row>
     <row r="112" spans="1:7">
@@ -2958,13 +2958,13 @@
         <v>219.857142857142</v>
       </c>
       <c r="E112" s="2">
-        <v>165892</v>
+        <v>165923</v>
       </c>
       <c r="F112" s="2">
         <v>4246</v>
       </c>
       <c r="G112" s="4">
-        <v>0.063574025115</v>
+        <v>0.063568773234</v>
       </c>
     </row>
     <row r="113" spans="1:7">
@@ -2981,13 +2981,13 @@
         <v>217.857142857142</v>
       </c>
       <c r="E113" s="2">
-        <v>169728</v>
+        <v>169760</v>
       </c>
       <c r="F113" s="2">
-        <v>3836</v>
+        <v>3837</v>
       </c>
       <c r="G113" s="4">
-        <v>0.062788208168</v>
+        <v>0.06278303828700001</v>
       </c>
     </row>
     <row r="114" spans="1:7">
@@ -3004,13 +3004,13 @@
         <v>216.428571428571</v>
       </c>
       <c r="E114" s="2">
-        <v>173387</v>
+        <v>173421</v>
       </c>
       <c r="F114" s="2">
-        <v>3659</v>
+        <v>3661</v>
       </c>
       <c r="G114" s="4">
-        <v>0.064184036603</v>
+        <v>0.06417316164</v>
       </c>
     </row>
     <row r="115" spans="1:7">
@@ -3027,13 +3027,13 @@
         <v>213</v>
       </c>
       <c r="E115" s="2">
-        <v>176710</v>
+        <v>176745</v>
       </c>
       <c r="F115" s="2">
-        <v>3323</v>
+        <v>3324</v>
       </c>
       <c r="G115" s="4">
-        <v>0.065555750967</v>
+        <v>0.06554134247600001</v>
       </c>
     </row>
     <row r="116" spans="1:7">
@@ -3050,13 +3050,13 @@
         <v>208.428571428571</v>
       </c>
       <c r="E116" s="2">
-        <v>180340</v>
+        <v>180378</v>
       </c>
       <c r="F116" s="2">
-        <v>3630</v>
+        <v>3633</v>
       </c>
       <c r="G116" s="4">
-        <v>0.065797781185</v>
+        <v>0.065777016365</v>
       </c>
     </row>
     <row r="117" spans="1:7">
@@ -3073,13 +3073,13 @@
         <v>205.857142857142</v>
       </c>
       <c r="E117" s="2">
-        <v>181959</v>
+        <v>181997</v>
       </c>
       <c r="F117" s="2">
         <v>1619</v>
       </c>
       <c r="G117" s="4">
-        <v>0.066805748725</v>
+        <v>0.066784075636</v>
       </c>
     </row>
     <row r="118" spans="1:7">
@@ -3096,13 +3096,13 @@
         <v>206.428571428571</v>
       </c>
       <c r="E118" s="2">
-        <v>183212</v>
+        <v>183250</v>
       </c>
       <c r="F118" s="2">
         <v>1253</v>
       </c>
       <c r="G118" s="4">
-        <v>0.06700361680399999</v>
+        <v>0.06698187549200001</v>
       </c>
     </row>
     <row r="119" spans="1:7">
@@ -3119,13 +3119,13 @@
         <v>199.571428571428</v>
       </c>
       <c r="E119" s="2">
-        <v>187380</v>
+        <v>187419</v>
       </c>
       <c r="F119" s="2">
-        <v>4168</v>
+        <v>4169</v>
       </c>
       <c r="G119" s="4">
-        <v>0.065013030528</v>
+        <v>0.064988835132</v>
       </c>
     </row>
     <row r="120" spans="1:7">
@@ -3142,13 +3142,13 @@
         <v>200.285714285714</v>
       </c>
       <c r="E120" s="2">
-        <v>191248</v>
+        <v>191287</v>
       </c>
       <c r="F120" s="2">
         <v>3868</v>
       </c>
       <c r="G120" s="4">
-        <v>0.065148698884</v>
+        <v>0.065127514284</v>
       </c>
     </row>
     <row r="121" spans="1:7">
@@ -3165,13 +3165,13 @@
         <v>200.142857142857</v>
       </c>
       <c r="E121" s="2">
-        <v>195103</v>
+        <v>195143</v>
       </c>
       <c r="F121" s="2">
-        <v>3855</v>
+        <v>3856</v>
       </c>
       <c r="G121" s="4">
-        <v>0.06451464358</v>
+        <v>0.064496823496</v>
       </c>
     </row>
     <row r="122" spans="1:7">
@@ -3188,13 +3188,13 @@
         <v>197.857142857142</v>
       </c>
       <c r="E122" s="2">
-        <v>198772</v>
+        <v>198814</v>
       </c>
       <c r="F122" s="2">
-        <v>3669</v>
+        <v>3671</v>
       </c>
       <c r="G122" s="4">
-        <v>0.06277762668799999</v>
+        <v>0.06275771444100001</v>
       </c>
     </row>
     <row r="123" spans="1:7">
@@ -3211,13 +3211,13 @@
         <v>199.857142857142</v>
       </c>
       <c r="E123" s="2">
-        <v>202308</v>
+        <v>202350</v>
       </c>
       <c r="F123" s="2">
         <v>3536</v>
       </c>
       <c r="G123" s="4">
-        <v>0.06368353969399999</v>
+        <v>0.06367194611300001</v>
       </c>
     </row>
     <row r="124" spans="1:7">
@@ -3234,13 +3234,13 @@
         <v>199.285714285714</v>
       </c>
       <c r="E124" s="2">
-        <v>203897</v>
+        <v>203939</v>
       </c>
       <c r="F124" s="2">
         <v>1589</v>
       </c>
       <c r="G124" s="4">
-        <v>0.063588294283</v>
+        <v>0.063576702214</v>
       </c>
     </row>
     <row r="125" spans="1:7">
@@ -3257,13 +3257,13 @@
         <v>195.857142857142</v>
       </c>
       <c r="E125" s="2">
-        <v>205020</v>
+        <v>205062</v>
       </c>
       <c r="F125" s="2">
         <v>1123</v>
       </c>
       <c r="G125" s="4">
-        <v>0.06286683785699999</v>
+        <v>0.06285530900400001</v>
       </c>
     </row>
     <row r="126" spans="1:7">
@@ -3280,13 +3280,13 @@
         <v>197.428571428571</v>
       </c>
       <c r="E126" s="2">
-        <v>208816</v>
+        <v>208858</v>
       </c>
       <c r="F126" s="2">
         <v>3796</v>
       </c>
       <c r="G126" s="4">
-        <v>0.064470983392</v>
+        <v>0.064461961845</v>
       </c>
     </row>
     <row r="127" spans="1:7">
@@ -3303,13 +3303,13 @@
         <v>195.571428571428</v>
       </c>
       <c r="E127" s="2">
-        <v>212110</v>
+        <v>212152</v>
       </c>
       <c r="F127" s="2">
         <v>3294</v>
       </c>
       <c r="G127" s="4">
-        <v>0.065621704534</v>
+        <v>0.06561226935</v>
       </c>
     </row>
     <row r="128" spans="1:7">
@@ -3317,22 +3317,22 @@
         <v>44048</v>
       </c>
       <c r="B128" s="2">
-        <v>10937</v>
+        <v>10938</v>
       </c>
       <c r="C128" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D128" s="3">
-        <v>186.714285714285</v>
+        <v>186.857142857142</v>
       </c>
       <c r="E128" s="2">
-        <v>215318</v>
+        <v>215361</v>
       </c>
       <c r="F128" s="2">
-        <v>3208</v>
+        <v>3209</v>
       </c>
       <c r="G128" s="4">
-        <v>0.064654959188</v>
+        <v>0.064694826392</v>
       </c>
     </row>
     <row r="129" spans="1:7">
@@ -3340,22 +3340,22 @@
         <v>44049</v>
       </c>
       <c r="B129" s="2">
-        <v>11133</v>
+        <v>11134</v>
       </c>
       <c r="C129" s="2">
         <v>196</v>
       </c>
       <c r="D129" s="3">
-        <v>183.857142857142</v>
+        <v>184</v>
       </c>
       <c r="E129" s="2">
-        <v>218968</v>
+        <v>219011</v>
       </c>
       <c r="F129" s="2">
         <v>3650</v>
       </c>
       <c r="G129" s="4">
-        <v>0.063725490196</v>
+        <v>0.063771847304</v>
       </c>
     </row>
     <row r="130" spans="1:7">
@@ -3363,22 +3363,22 @@
         <v>44050</v>
       </c>
       <c r="B130" s="2">
-        <v>11312</v>
+        <v>11313</v>
       </c>
       <c r="C130" s="2">
         <v>179</v>
       </c>
       <c r="D130" s="3">
-        <v>176.142857142857</v>
+        <v>176.285714285714</v>
       </c>
       <c r="E130" s="2">
-        <v>222234</v>
+        <v>222277</v>
       </c>
       <c r="F130" s="2">
         <v>3266</v>
       </c>
       <c r="G130" s="4">
-        <v>0.061878952122</v>
+        <v>0.061926030009</v>
       </c>
     </row>
     <row r="131" spans="1:7">
@@ -3386,22 +3386,22 @@
         <v>44051</v>
       </c>
       <c r="B131" s="2">
-        <v>11434</v>
+        <v>11435</v>
       </c>
       <c r="C131" s="2">
         <v>122</v>
       </c>
       <c r="D131" s="3">
-        <v>178.285714285714</v>
+        <v>178.428571428571</v>
       </c>
       <c r="E131" s="2">
-        <v>223938</v>
+        <v>223981</v>
       </c>
       <c r="F131" s="2">
         <v>1704</v>
       </c>
       <c r="G131" s="4">
-        <v>0.062272341699</v>
+        <v>0.062319129827</v>
       </c>
     </row>
     <row r="132" spans="1:7">
@@ -3409,22 +3409,22 @@
         <v>44052</v>
       </c>
       <c r="B132" s="2">
-        <v>11517</v>
+        <v>11518</v>
       </c>
       <c r="C132" s="2">
         <v>83</v>
       </c>
       <c r="D132" s="3">
-        <v>178.857142857142</v>
+        <v>179</v>
       </c>
       <c r="E132" s="2">
-        <v>224980</v>
+        <v>225023</v>
       </c>
       <c r="F132" s="2">
         <v>1042</v>
       </c>
       <c r="G132" s="4">
-        <v>0.062725450901</v>
+        <v>0.062772406192</v>
       </c>
     </row>
     <row r="133" spans="1:7">
@@ -3432,22 +3432,22 @@
         <v>44053</v>
       </c>
       <c r="B133" s="2">
-        <v>11754</v>
+        <v>11755</v>
       </c>
       <c r="C133" s="2">
         <v>237</v>
       </c>
       <c r="D133" s="3">
-        <v>176.571428571428</v>
+        <v>176.714285714285</v>
       </c>
       <c r="E133" s="2">
-        <v>228874</v>
+        <v>228917</v>
       </c>
       <c r="F133" s="2">
         <v>3894</v>
       </c>
       <c r="G133" s="4">
-        <v>0.061621298235</v>
+        <v>0.061668079166</v>
       </c>
     </row>
     <row r="134" spans="1:7">
@@ -3455,22 +3455,22 @@
         <v>44054</v>
       </c>
       <c r="B134" s="2">
-        <v>11955</v>
+        <v>11956</v>
       </c>
       <c r="C134" s="2">
         <v>201</v>
       </c>
       <c r="D134" s="3">
-        <v>172.142857142857</v>
+        <v>172.285714285714</v>
       </c>
       <c r="E134" s="2">
-        <v>232289</v>
+        <v>232332</v>
       </c>
       <c r="F134" s="2">
         <v>3415</v>
       </c>
       <c r="G134" s="4">
-        <v>0.059715545864</v>
+        <v>0.059762140733</v>
       </c>
     </row>
     <row r="135" spans="1:7">
@@ -3478,7 +3478,7 @@
         <v>44055</v>
       </c>
       <c r="B135" s="2">
-        <v>12155</v>
+        <v>12156</v>
       </c>
       <c r="C135" s="2">
         <v>200</v>
@@ -3487,7 +3487,7 @@
         <v>174</v>
       </c>
       <c r="E135" s="2">
-        <v>236142</v>
+        <v>236185</v>
       </c>
       <c r="F135" s="2">
         <v>3853</v>
@@ -3501,7 +3501,7 @@
         <v>44056</v>
       </c>
       <c r="B136" s="2">
-        <v>12331</v>
+        <v>12332</v>
       </c>
       <c r="C136" s="2">
         <v>176</v>
@@ -3510,7 +3510,7 @@
         <v>171.142857142857</v>
       </c>
       <c r="E136" s="2">
-        <v>239409</v>
+        <v>239452</v>
       </c>
       <c r="F136" s="2">
         <v>3267</v>
@@ -3524,7 +3524,7 @@
         <v>44057</v>
       </c>
       <c r="B137" s="2">
-        <v>12505</v>
+        <v>12506</v>
       </c>
       <c r="C137" s="2">
         <v>174</v>
@@ -3533,7 +3533,7 @@
         <v>170.428571428571</v>
       </c>
       <c r="E137" s="2">
-        <v>242765</v>
+        <v>242808</v>
       </c>
       <c r="F137" s="2">
         <v>3356</v>
@@ -3547,7 +3547,7 @@
         <v>44058</v>
       </c>
       <c r="B138" s="2">
-        <v>12598</v>
+        <v>12599</v>
       </c>
       <c r="C138" s="2">
         <v>93</v>
@@ -3556,7 +3556,7 @@
         <v>166.285714285714</v>
       </c>
       <c r="E138" s="2">
-        <v>244326</v>
+        <v>244369</v>
       </c>
       <c r="F138" s="2">
         <v>1561</v>
@@ -3570,7 +3570,7 @@
         <v>44059</v>
       </c>
       <c r="B139" s="2">
-        <v>12643</v>
+        <v>12644</v>
       </c>
       <c r="C139" s="2">
         <v>45</v>
@@ -3579,7 +3579,7 @@
         <v>160.857142857142</v>
       </c>
       <c r="E139" s="2">
-        <v>245102</v>
+        <v>245145</v>
       </c>
       <c r="F139" s="2">
         <v>776</v>
@@ -3593,7 +3593,7 @@
         <v>44060</v>
       </c>
       <c r="B140" s="2">
-        <v>12856</v>
+        <v>12857</v>
       </c>
       <c r="C140" s="2">
         <v>213</v>
@@ -3602,7 +3602,7 @@
         <v>157.428571428571</v>
       </c>
       <c r="E140" s="2">
-        <v>248761</v>
+        <v>248804</v>
       </c>
       <c r="F140" s="2">
         <v>3659</v>
@@ -3616,7 +3616,7 @@
         <v>44061</v>
       </c>
       <c r="B141" s="2">
-        <v>13024</v>
+        <v>13025</v>
       </c>
       <c r="C141" s="2">
         <v>168</v>
@@ -3625,7 +3625,7 @@
         <v>152.714285714285</v>
       </c>
       <c r="E141" s="2">
-        <v>251828</v>
+        <v>251871</v>
       </c>
       <c r="F141" s="2">
         <v>3067</v>
@@ -3639,7 +3639,7 @@
         <v>44062</v>
       </c>
       <c r="B142" s="2">
-        <v>13182</v>
+        <v>13183</v>
       </c>
       <c r="C142" s="2">
         <v>158</v>
@@ -3648,7 +3648,7 @@
         <v>146.714285714285</v>
       </c>
       <c r="E142" s="2">
-        <v>254882</v>
+        <v>254925</v>
       </c>
       <c r="F142" s="2">
         <v>3054</v>
@@ -3662,7 +3662,7 @@
         <v>44063</v>
       </c>
       <c r="B143" s="2">
-        <v>13314</v>
+        <v>13315</v>
       </c>
       <c r="C143" s="2">
         <v>132</v>
@@ -3671,7 +3671,7 @@
         <v>140.428571428571</v>
       </c>
       <c r="E143" s="2">
-        <v>258047</v>
+        <v>258090</v>
       </c>
       <c r="F143" s="2">
         <v>3165</v>
@@ -3685,7 +3685,7 @@
         <v>44064</v>
       </c>
       <c r="B144" s="2">
-        <v>13476</v>
+        <v>13477</v>
       </c>
       <c r="C144" s="2">
         <v>162</v>
@@ -3694,7 +3694,7 @@
         <v>138.714285714285</v>
       </c>
       <c r="E144" s="2">
-        <v>261085</v>
+        <v>261128</v>
       </c>
       <c r="F144" s="2">
         <v>3038</v>
@@ -3708,7 +3708,7 @@
         <v>44065</v>
       </c>
       <c r="B145" s="2">
-        <v>13537</v>
+        <v>13538</v>
       </c>
       <c r="C145" s="2">
         <v>61</v>
@@ -3717,7 +3717,7 @@
         <v>134.142857142857</v>
       </c>
       <c r="E145" s="2">
-        <v>262414</v>
+        <v>262457</v>
       </c>
       <c r="F145" s="2">
         <v>1329</v>
@@ -3731,7 +3731,7 @@
         <v>44066</v>
       </c>
       <c r="B146" s="2">
-        <v>13604</v>
+        <v>13605</v>
       </c>
       <c r="C146" s="2">
         <v>67</v>
@@ -3740,7 +3740,7 @@
         <v>137.285714285714</v>
       </c>
       <c r="E146" s="2">
-        <v>263381</v>
+        <v>263424</v>
       </c>
       <c r="F146" s="2">
         <v>967</v>
@@ -3754,7 +3754,7 @@
         <v>44067</v>
       </c>
       <c r="B147" s="2">
-        <v>13753</v>
+        <v>13754</v>
       </c>
       <c r="C147" s="2">
         <v>149</v>
@@ -3763,7 +3763,7 @@
         <v>128.142857142857</v>
       </c>
       <c r="E147" s="2">
-        <v>266360</v>
+        <v>266403</v>
       </c>
       <c r="F147" s="2">
         <v>2979</v>
@@ -3777,7 +3777,7 @@
         <v>44068</v>
       </c>
       <c r="B148" s="2">
-        <v>13887</v>
+        <v>13888</v>
       </c>
       <c r="C148" s="2">
         <v>134</v>
@@ -3786,7 +3786,7 @@
         <v>123.285714285714</v>
       </c>
       <c r="E148" s="2">
-        <v>269375</v>
+        <v>269418</v>
       </c>
       <c r="F148" s="2">
         <v>3015</v>
@@ -3800,7 +3800,7 @@
         <v>44069</v>
       </c>
       <c r="B149" s="2">
-        <v>14022</v>
+        <v>14023</v>
       </c>
       <c r="C149" s="2">
         <v>135</v>
@@ -3809,7 +3809,7 @@
         <v>120</v>
       </c>
       <c r="E149" s="2">
-        <v>272333</v>
+        <v>272376</v>
       </c>
       <c r="F149" s="2">
         <v>2958</v>
@@ -3823,7 +3823,7 @@
         <v>44070</v>
       </c>
       <c r="B150" s="2">
-        <v>14189</v>
+        <v>14190</v>
       </c>
       <c r="C150" s="2">
         <v>167</v>
@@ -3832,13 +3832,13 @@
         <v>125</v>
       </c>
       <c r="E150" s="2">
-        <v>275570</v>
+        <v>275619</v>
       </c>
       <c r="F150" s="2">
-        <v>3237</v>
+        <v>3243</v>
       </c>
       <c r="G150" s="4">
-        <v>0.049934371968</v>
+        <v>0.049917279936</v>
       </c>
     </row>
     <row r="151" spans="1:7">
@@ -3846,7 +3846,7 @@
         <v>44071</v>
       </c>
       <c r="B151" s="2">
-        <v>14305</v>
+        <v>14306</v>
       </c>
       <c r="C151" s="2">
         <v>116</v>
@@ -3855,13 +3855,13 @@
         <v>118.428571428571</v>
       </c>
       <c r="E151" s="2">
-        <v>278339</v>
+        <v>278388</v>
       </c>
       <c r="F151" s="2">
         <v>2769</v>
       </c>
       <c r="G151" s="4">
-        <v>0.04804682972</v>
+        <v>0.048030127462</v>
       </c>
     </row>
     <row r="152" spans="1:7">
@@ -3869,7 +3869,7 @@
         <v>44072</v>
       </c>
       <c r="B152" s="2">
-        <v>14369</v>
+        <v>14370</v>
       </c>
       <c r="C152" s="2">
         <v>64</v>
@@ -3878,13 +3878,13 @@
         <v>118.857142857142</v>
       </c>
       <c r="E152" s="2">
-        <v>279773</v>
+        <v>279822</v>
       </c>
       <c r="F152" s="2">
         <v>1434</v>
       </c>
       <c r="G152" s="4">
-        <v>0.047929028169</v>
+        <v>0.047912467607</v>
       </c>
     </row>
     <row r="153" spans="1:7">
@@ -3892,7 +3892,7 @@
         <v>44073</v>
       </c>
       <c r="B153" s="2">
-        <v>14427</v>
+        <v>14428</v>
       </c>
       <c r="C153" s="2">
         <v>58</v>
@@ -3901,13 +3901,13 @@
         <v>117.571428571428</v>
       </c>
       <c r="E153" s="2">
-        <v>280852</v>
+        <v>280901</v>
       </c>
       <c r="F153" s="2">
         <v>1079</v>
       </c>
       <c r="G153" s="4">
-        <v>0.04710663385</v>
+        <v>0.047090461749</v>
       </c>
     </row>
     <row r="154" spans="1:7">
@@ -3915,7 +3915,7 @@
         <v>44074</v>
       </c>
       <c r="B154" s="2">
-        <v>14565</v>
+        <v>14566</v>
       </c>
       <c r="C154" s="2">
         <v>138</v>
@@ -3924,13 +3924,13 @@
         <v>116</v>
       </c>
       <c r="E154" s="2">
-        <v>283977</v>
+        <v>284026</v>
       </c>
       <c r="F154" s="2">
         <v>3125</v>
       </c>
       <c r="G154" s="4">
-        <v>0.046091843106</v>
+        <v>0.046076150485</v>
       </c>
     </row>
     <row r="155" spans="1:7">
@@ -3938,7 +3938,7 @@
         <v>44075</v>
       </c>
       <c r="B155" s="2">
-        <v>14696</v>
+        <v>14697</v>
       </c>
       <c r="C155" s="2">
         <v>131</v>
@@ -3947,13 +3947,13 @@
         <v>115.571428571428</v>
       </c>
       <c r="E155" s="2">
-        <v>287244</v>
+        <v>287293</v>
       </c>
       <c r="F155" s="2">
         <v>3267</v>
       </c>
       <c r="G155" s="4">
-        <v>0.045273938105</v>
+        <v>0.045258741258</v>
       </c>
     </row>
     <row r="156" spans="1:7">
@@ -3961,7 +3961,7 @@
         <v>44076</v>
       </c>
       <c r="B156" s="2">
-        <v>14811</v>
+        <v>14812</v>
       </c>
       <c r="C156" s="2">
         <v>115</v>
@@ -3970,13 +3970,13 @@
         <v>112.714285714285</v>
       </c>
       <c r="E156" s="2">
-        <v>290209</v>
+        <v>290258</v>
       </c>
       <c r="F156" s="2">
         <v>2965</v>
       </c>
       <c r="G156" s="4">
-        <v>0.044137390915</v>
+        <v>0.044122581366</v>
       </c>
     </row>
     <row r="157" spans="1:7">
@@ -3984,7 +3984,7 @@
         <v>44077</v>
       </c>
       <c r="B157" s="2">
-        <v>14906</v>
+        <v>14907</v>
       </c>
       <c r="C157" s="2">
         <v>95</v>
@@ -3993,7 +3993,7 @@
         <v>102.428571428571</v>
       </c>
       <c r="E157" s="2">
-        <v>293139</v>
+        <v>293188</v>
       </c>
       <c r="F157" s="2">
         <v>2930</v>
@@ -4007,7 +4007,7 @@
         <v>44078</v>
       </c>
       <c r="B158" s="2">
-        <v>15028</v>
+        <v>15029</v>
       </c>
       <c r="C158" s="2">
         <v>122</v>
@@ -4016,7 +4016,7 @@
         <v>103.285714285714</v>
       </c>
       <c r="E158" s="2">
-        <v>295942</v>
+        <v>295991</v>
       </c>
       <c r="F158" s="2">
         <v>2803</v>
@@ -4030,7 +4030,7 @@
         <v>44079</v>
       </c>
       <c r="B159" s="2">
-        <v>15094</v>
+        <v>15095</v>
       </c>
       <c r="C159" s="2">
         <v>66</v>
@@ -4039,7 +4039,7 @@
         <v>103.571428571428</v>
       </c>
       <c r="E159" s="2">
-        <v>297278</v>
+        <v>297327</v>
       </c>
       <c r="F159" s="2">
         <v>1336</v>
@@ -4053,7 +4053,7 @@
         <v>44080</v>
       </c>
       <c r="B160" s="2">
-        <v>15147</v>
+        <v>15148</v>
       </c>
       <c r="C160" s="2">
         <v>53</v>
@@ -4062,7 +4062,7 @@
         <v>102.857142857142</v>
       </c>
       <c r="E160" s="2">
-        <v>298364</v>
+        <v>298413</v>
       </c>
       <c r="F160" s="2">
         <v>1086</v>
@@ -4076,7 +4076,7 @@
         <v>44081</v>
       </c>
       <c r="B161" s="2">
-        <v>15215</v>
+        <v>15216</v>
       </c>
       <c r="C161" s="2">
         <v>68</v>
@@ -4085,7 +4085,7 @@
         <v>92.85714285714199</v>
       </c>
       <c r="E161" s="2">
-        <v>299615</v>
+        <v>299664</v>
       </c>
       <c r="F161" s="2">
         <v>1251</v>
@@ -4099,7 +4099,7 @@
         <v>44082</v>
       </c>
       <c r="B162" s="2">
-        <v>15359</v>
+        <v>15360</v>
       </c>
       <c r="C162" s="2">
         <v>144</v>
@@ -4108,7 +4108,7 @@
         <v>94.714285714285</v>
       </c>
       <c r="E162" s="2">
-        <v>303890</v>
+        <v>303939</v>
       </c>
       <c r="F162" s="2">
         <v>4275</v>
@@ -4122,7 +4122,7 @@
         <v>44083</v>
       </c>
       <c r="B163" s="2">
-        <v>15509</v>
+        <v>15510</v>
       </c>
       <c r="C163" s="2">
         <v>150</v>
@@ -4131,7 +4131,7 @@
         <v>99.714285714285</v>
       </c>
       <c r="E163" s="2">
-        <v>307396</v>
+        <v>307445</v>
       </c>
       <c r="F163" s="2">
         <v>3506</v>
@@ -4145,7 +4145,7 @@
         <v>44084</v>
       </c>
       <c r="B164" s="2">
-        <v>15611</v>
+        <v>15612</v>
       </c>
       <c r="C164" s="2">
         <v>102</v>
@@ -4154,7 +4154,7 @@
         <v>100.714285714285</v>
       </c>
       <c r="E164" s="2">
-        <v>310665</v>
+        <v>310714</v>
       </c>
       <c r="F164" s="2">
         <v>3269</v>
@@ -4168,7 +4168,7 @@
         <v>44085</v>
       </c>
       <c r="B165" s="2">
-        <v>15683</v>
+        <v>15684</v>
       </c>
       <c r="C165" s="2">
         <v>72</v>
@@ -4177,7 +4177,7 @@
         <v>93.571428571428</v>
       </c>
       <c r="E165" s="2">
-        <v>313152</v>
+        <v>313201</v>
       </c>
       <c r="F165" s="2">
         <v>2487</v>
@@ -4191,7 +4191,7 @@
         <v>44086</v>
       </c>
       <c r="B166" s="2">
-        <v>15731</v>
+        <v>15732</v>
       </c>
       <c r="C166" s="2">
         <v>48</v>
@@ -4200,7 +4200,7 @@
         <v>91</v>
       </c>
       <c r="E166" s="2">
-        <v>314543</v>
+        <v>314592</v>
       </c>
       <c r="F166" s="2">
         <v>1391</v>
@@ -4214,7 +4214,7 @@
         <v>44087</v>
       </c>
       <c r="B167" s="2">
-        <v>15763</v>
+        <v>15764</v>
       </c>
       <c r="C167" s="2">
         <v>32</v>
@@ -4223,7 +4223,7 @@
         <v>88</v>
       </c>
       <c r="E167" s="2">
-        <v>315385</v>
+        <v>315434</v>
       </c>
       <c r="F167" s="2">
         <v>842</v>
@@ -4237,7 +4237,7 @@
         <v>44088</v>
       </c>
       <c r="B168" s="2">
-        <v>15864</v>
+        <v>15865</v>
       </c>
       <c r="C168" s="2">
         <v>101</v>
@@ -4246,7 +4246,7 @@
         <v>92.714285714285</v>
       </c>
       <c r="E168" s="2">
-        <v>318761</v>
+        <v>318810</v>
       </c>
       <c r="F168" s="2">
         <v>3376</v>
@@ -4260,7 +4260,7 @@
         <v>44089</v>
       </c>
       <c r="B169" s="2">
-        <v>15994</v>
+        <v>15995</v>
       </c>
       <c r="C169" s="2">
         <v>130</v>
@@ -4269,13 +4269,13 @@
         <v>90.714285714285</v>
       </c>
       <c r="E169" s="2">
-        <v>322712</v>
+        <v>322762</v>
       </c>
       <c r="F169" s="2">
-        <v>3951</v>
+        <v>3952</v>
       </c>
       <c r="G169" s="4">
-        <v>0.03373711614</v>
+        <v>0.033735323805</v>
       </c>
     </row>
     <row r="170" spans="1:7">
@@ -4283,7 +4283,7 @@
         <v>44090</v>
       </c>
       <c r="B170" s="2">
-        <v>16080</v>
+        <v>16081</v>
       </c>
       <c r="C170" s="2">
         <v>86</v>
@@ -4292,10 +4292,10 @@
         <v>81.571428571428</v>
       </c>
       <c r="E170" s="2">
-        <v>325998</v>
+        <v>326047</v>
       </c>
       <c r="F170" s="2">
-        <v>3286</v>
+        <v>3285</v>
       </c>
       <c r="G170" s="4">
         <v>0.030695624126</v>
@@ -4306,7 +4306,7 @@
         <v>44091</v>
       </c>
       <c r="B171" s="2">
-        <v>16183</v>
+        <v>16184</v>
       </c>
       <c r="C171" s="2">
         <v>103</v>
@@ -4315,13 +4315,13 @@
         <v>81.714285714285</v>
       </c>
       <c r="E171" s="2">
-        <v>329598</v>
+        <v>329649</v>
       </c>
       <c r="F171" s="2">
-        <v>3600</v>
+        <v>3602</v>
       </c>
       <c r="G171" s="4">
-        <v>0.030211799503</v>
+        <v>0.030208608397</v>
       </c>
     </row>
     <row r="172" spans="1:7">
@@ -4329,7 +4329,7 @@
         <v>44092</v>
       </c>
       <c r="B172" s="2">
-        <v>16287</v>
+        <v>16288</v>
       </c>
       <c r="C172" s="2">
         <v>104</v>
@@ -4338,13 +4338,13 @@
         <v>86.28571428571399</v>
       </c>
       <c r="E172" s="2">
-        <v>332865</v>
+        <v>332916</v>
       </c>
       <c r="F172" s="2">
         <v>3267</v>
       </c>
       <c r="G172" s="4">
-        <v>0.030639679399</v>
+        <v>0.030636571138</v>
       </c>
     </row>
     <row r="173" spans="1:7">
@@ -4352,7 +4352,7 @@
         <v>44093</v>
       </c>
       <c r="B173" s="2">
-        <v>16359</v>
+        <v>16360</v>
       </c>
       <c r="C173" s="2">
         <v>72</v>
@@ -4361,13 +4361,13 @@
         <v>89.714285714285</v>
       </c>
       <c r="E173" s="2">
-        <v>334381</v>
+        <v>334433</v>
       </c>
       <c r="F173" s="2">
-        <v>1516</v>
+        <v>1517</v>
       </c>
       <c r="G173" s="4">
-        <v>0.031656416977</v>
+        <v>0.031651630462</v>
       </c>
     </row>
     <row r="174" spans="1:7">
@@ -4375,7 +4375,7 @@
         <v>44094</v>
       </c>
       <c r="B174" s="2">
-        <v>16401</v>
+        <v>16402</v>
       </c>
       <c r="C174" s="2">
         <v>42</v>
@@ -4384,13 +4384,13 @@
         <v>91.142857142857</v>
       </c>
       <c r="E174" s="2">
-        <v>335532</v>
+        <v>335584</v>
       </c>
       <c r="F174" s="2">
         <v>1151</v>
       </c>
       <c r="G174" s="4">
-        <v>0.031667245743</v>
+        <v>0.031662531017</v>
       </c>
     </row>
     <row r="175" spans="1:7">
@@ -4398,7 +4398,7 @@
         <v>44095</v>
       </c>
       <c r="B175" s="2">
-        <v>16544</v>
+        <v>16545</v>
       </c>
       <c r="C175" s="2">
         <v>143</v>
@@ -4407,13 +4407,13 @@
         <v>97.142857142857</v>
       </c>
       <c r="E175" s="2">
-        <v>339875</v>
+        <v>339927</v>
       </c>
       <c r="F175" s="2">
         <v>4343</v>
       </c>
       <c r="G175" s="4">
-        <v>0.032206119162</v>
+        <v>0.032201543779</v>
       </c>
     </row>
     <row r="176" spans="1:7">
@@ -4421,7 +4421,7 @@
         <v>44096</v>
       </c>
       <c r="B176" s="2">
-        <v>16642</v>
+        <v>16643</v>
       </c>
       <c r="C176" s="2">
         <v>98</v>
@@ -4430,13 +4430,13 @@
         <v>92.571428571428</v>
       </c>
       <c r="E176" s="2">
-        <v>343630</v>
+        <v>343691</v>
       </c>
       <c r="F176" s="2">
-        <v>3755</v>
+        <v>3764</v>
       </c>
       <c r="G176" s="4">
-        <v>0.030978104981</v>
+        <v>0.030961823307</v>
       </c>
     </row>
     <row r="177" spans="1:7">
@@ -4444,22 +4444,22 @@
         <v>44097</v>
       </c>
       <c r="B177" s="2">
-        <v>16736</v>
+        <v>16738</v>
       </c>
       <c r="C177" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D177" s="3">
-        <v>93.714285714285</v>
+        <v>93.85714285714199</v>
       </c>
       <c r="E177" s="2">
-        <v>347107</v>
+        <v>347169</v>
       </c>
       <c r="F177" s="2">
-        <v>3477</v>
+        <v>3478</v>
       </c>
       <c r="G177" s="4">
-        <v>0.031076791889</v>
+        <v>0.031105008995</v>
       </c>
     </row>
     <row r="178" spans="1:7">
@@ -4467,22 +4467,22 @@
         <v>44098</v>
       </c>
       <c r="B178" s="2">
-        <v>16827</v>
+        <v>16829</v>
       </c>
       <c r="C178" s="2">
         <v>91</v>
       </c>
       <c r="D178" s="3">
-        <v>92</v>
+        <v>92.142857142857</v>
       </c>
       <c r="E178" s="2">
-        <v>350816</v>
+        <v>350880</v>
       </c>
       <c r="F178" s="2">
-        <v>3709</v>
+        <v>3711</v>
       </c>
       <c r="G178" s="4">
-        <v>0.030351588274</v>
+        <v>0.030380104564</v>
       </c>
     </row>
     <row r="179" spans="1:7">
@@ -4490,22 +4490,22 @@
         <v>44099</v>
       </c>
       <c r="B179" s="2">
-        <v>16917</v>
+        <v>16919</v>
       </c>
       <c r="C179" s="2">
         <v>90</v>
       </c>
       <c r="D179" s="3">
-        <v>90</v>
+        <v>90.142857142857</v>
       </c>
       <c r="E179" s="2">
-        <v>354098</v>
+        <v>354164</v>
       </c>
       <c r="F179" s="2">
-        <v>3282</v>
+        <v>3284</v>
       </c>
       <c r="G179" s="4">
-        <v>0.029670795459</v>
+        <v>0.02969691265</v>
       </c>
     </row>
     <row r="180" spans="1:7">
@@ -4513,22 +4513,22 @@
         <v>44100</v>
       </c>
       <c r="B180" s="2">
-        <v>16977</v>
+        <v>16978</v>
       </c>
       <c r="C180" s="2">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D180" s="3">
         <v>88.28571428571399</v>
       </c>
       <c r="E180" s="2">
-        <v>355962</v>
+        <v>356027</v>
       </c>
       <c r="F180" s="2">
-        <v>1864</v>
+        <v>1863</v>
       </c>
       <c r="G180" s="4">
-        <v>0.028636300449</v>
+        <v>0.02861906085</v>
       </c>
     </row>
     <row r="181" spans="1:7">
@@ -4536,7 +4536,7 @@
         <v>44101</v>
       </c>
       <c r="B181" s="2">
-        <v>16999</v>
+        <v>17000</v>
       </c>
       <c r="C181" s="2">
         <v>22</v>
@@ -4545,13 +4545,13 @@
         <v>85.428571428571</v>
       </c>
       <c r="E181" s="2">
-        <v>357081</v>
+        <v>357146</v>
       </c>
       <c r="F181" s="2">
         <v>1119</v>
       </c>
       <c r="G181" s="4">
-        <v>0.027750707689</v>
+        <v>0.02773397644</v>
       </c>
     </row>
     <row r="182" spans="1:7">
@@ -4559,7 +4559,7 @@
         <v>44102</v>
       </c>
       <c r="B182" s="2">
-        <v>17111</v>
+        <v>17112</v>
       </c>
       <c r="C182" s="2">
         <v>112</v>
@@ -4568,13 +4568,13 @@
         <v>81</v>
       </c>
       <c r="E182" s="2">
-        <v>361142</v>
+        <v>361208</v>
       </c>
       <c r="F182" s="2">
-        <v>4061</v>
+        <v>4062</v>
       </c>
       <c r="G182" s="4">
-        <v>0.026661024121</v>
+        <v>0.026643484798</v>
       </c>
     </row>
     <row r="183" spans="1:7">
@@ -4582,7 +4582,7 @@
         <v>44103</v>
       </c>
       <c r="B183" s="2">
-        <v>17186</v>
+        <v>17187</v>
       </c>
       <c r="C183" s="2">
         <v>75</v>
@@ -4591,13 +4591,13 @@
         <v>77.714285714285</v>
       </c>
       <c r="E183" s="2">
-        <v>364949</v>
+        <v>365014</v>
       </c>
       <c r="F183" s="2">
-        <v>3807</v>
+        <v>3806</v>
       </c>
       <c r="G183" s="4">
-        <v>0.025517144331</v>
+        <v>0.025512357548</v>
       </c>
     </row>
     <row r="184" spans="1:7">
@@ -4605,22 +4605,22 @@
         <v>44104</v>
       </c>
       <c r="B184" s="2">
-        <v>17245</v>
+        <v>17246</v>
       </c>
       <c r="C184" s="2">
         <v>59</v>
       </c>
       <c r="D184" s="3">
-        <v>72.714285714285</v>
+        <v>72.571428571428</v>
       </c>
       <c r="E184" s="2">
-        <v>368485</v>
+        <v>368550</v>
       </c>
       <c r="F184" s="2">
         <v>3536</v>
       </c>
       <c r="G184" s="4">
-        <v>0.023809523809</v>
+        <v>0.023759412562</v>
       </c>
     </row>
     <row r="185" spans="1:7">
@@ -4628,22 +4628,22 @@
         <v>44105</v>
       </c>
       <c r="B185" s="2">
-        <v>17307</v>
+        <v>17308</v>
       </c>
       <c r="C185" s="2">
         <v>62</v>
       </c>
       <c r="D185" s="3">
-        <v>68.571428571428</v>
+        <v>68.428571428571</v>
       </c>
       <c r="E185" s="2">
-        <v>371981</v>
+        <v>372054</v>
       </c>
       <c r="F185" s="2">
-        <v>3496</v>
+        <v>3504</v>
       </c>
       <c r="G185" s="4">
-        <v>0.022678951098</v>
+        <v>0.022622083687</v>
       </c>
     </row>
     <row r="186" spans="1:7">
@@ -4651,22 +4651,22 @@
         <v>44106</v>
       </c>
       <c r="B186" s="2">
-        <v>17385</v>
+        <v>17386</v>
       </c>
       <c r="C186" s="2">
         <v>78</v>
       </c>
       <c r="D186" s="3">
-        <v>66.85714285714199</v>
+        <v>66.714285714285</v>
       </c>
       <c r="E186" s="2">
-        <v>375500</v>
+        <v>375583</v>
       </c>
       <c r="F186" s="2">
-        <v>3519</v>
+        <v>3529</v>
       </c>
       <c r="G186" s="4">
-        <v>0.021867115222</v>
+        <v>0.021803072038</v>
       </c>
     </row>
     <row r="187" spans="1:7">
@@ -4674,7 +4674,7 @@
         <v>44107</v>
       </c>
       <c r="B187" s="2">
-        <v>17429</v>
+        <v>17430</v>
       </c>
       <c r="C187" s="2">
         <v>44</v>
@@ -4683,13 +4683,13 @@
         <v>64.571428571428</v>
       </c>
       <c r="E187" s="2">
-        <v>377476</v>
+        <v>377566</v>
       </c>
       <c r="F187" s="2">
-        <v>1976</v>
+        <v>1983</v>
       </c>
       <c r="G187" s="4">
-        <v>0.02100957516</v>
+        <v>0.020985189655</v>
       </c>
     </row>
     <row r="188" spans="1:7">
@@ -4697,7 +4697,7 @@
         <v>44108</v>
       </c>
       <c r="B188" s="2">
-        <v>17466</v>
+        <v>17467</v>
       </c>
       <c r="C188" s="2">
         <v>37</v>
@@ -4706,13 +4706,36 @@
         <v>66.714285714285</v>
       </c>
       <c r="E188" s="2">
-        <v>378822</v>
+        <v>378942</v>
       </c>
       <c r="F188" s="2">
-        <v>1346</v>
+        <v>1376</v>
       </c>
       <c r="G188" s="4">
-        <v>0.021480152706</v>
+        <v>0.021425949715</v>
+      </c>
+    </row>
+    <row r="189" spans="1:7">
+      <c r="A189" s="1">
+        <v>44109</v>
+      </c>
+      <c r="B189" s="2">
+        <v>17544</v>
+      </c>
+      <c r="C189" s="2">
+        <v>77</v>
+      </c>
+      <c r="D189" s="3">
+        <v>61.71428571428499</v>
+      </c>
+      <c r="E189" s="2">
+        <v>383704</v>
+      </c>
+      <c r="F189" s="2">
+        <v>4762</v>
+      </c>
+      <c r="G189" s="4">
+        <v>0.01920341394</v>
       </c>
     </row>
   </sheetData>

--- a/contra_costa_county_testing.xlsx
+++ b/contra_costa_county_testing.xlsx
@@ -376,7 +376,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G189"/>
+  <dimension ref="A1:G190"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1279,13 +1279,13 @@
         <v>15.285714285714</v>
       </c>
       <c r="E39" s="2">
-        <v>22382</v>
+        <v>22381</v>
       </c>
       <c r="F39" s="2">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="G39" s="4">
-        <v>0.021340247307</v>
+        <v>0.021344504288</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -1302,13 +1302,13 @@
         <v>14.714285714285</v>
       </c>
       <c r="E40" s="2">
-        <v>22764</v>
+        <v>22763</v>
       </c>
       <c r="F40" s="2">
         <v>382</v>
       </c>
       <c r="G40" s="4">
-        <v>0.020164447924</v>
+        <v>0.020168396318</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -1325,13 +1325,13 @@
         <v>15.142857142857</v>
       </c>
       <c r="E41" s="2">
-        <v>23107</v>
+        <v>23106</v>
       </c>
       <c r="F41" s="2">
         <v>343</v>
       </c>
       <c r="G41" s="4">
-        <v>0.020435704646</v>
+        <v>0.020439645198</v>
       </c>
     </row>
     <row r="42" spans="1:7">
@@ -1348,13 +1348,13 @@
         <v>13</v>
       </c>
       <c r="E42" s="2">
-        <v>24210</v>
+        <v>24209</v>
       </c>
       <c r="F42" s="2">
         <v>1103</v>
       </c>
       <c r="G42" s="4">
-        <v>0.016509433962</v>
+        <v>0.016512429686</v>
       </c>
     </row>
     <row r="43" spans="1:7">
@@ -1371,13 +1371,13 @@
         <v>12.285714285714</v>
       </c>
       <c r="E43" s="2">
-        <v>25441</v>
+        <v>25440</v>
       </c>
       <c r="F43" s="2">
         <v>1231</v>
       </c>
       <c r="G43" s="4">
-        <v>0.014184397163</v>
+        <v>0.01418673705</v>
       </c>
     </row>
     <row r="44" spans="1:7">
@@ -1394,13 +1394,13 @@
         <v>12.857142857142</v>
       </c>
       <c r="E44" s="2">
-        <v>26539</v>
+        <v>26538</v>
       </c>
       <c r="F44" s="2">
         <v>1098</v>
       </c>
       <c r="G44" s="4">
-        <v>0.014525500322</v>
+        <v>0.014527845036</v>
       </c>
     </row>
     <row r="45" spans="1:7">
@@ -1417,13 +1417,13 @@
         <v>14</v>
       </c>
       <c r="E45" s="2">
-        <v>27400</v>
+        <v>27399</v>
       </c>
       <c r="F45" s="2">
         <v>861</v>
       </c>
       <c r="G45" s="4">
-        <v>0.015906508683</v>
+        <v>0.015909090909</v>
       </c>
     </row>
     <row r="46" spans="1:7">
@@ -1440,7 +1440,7 @@
         <v>15.714285714285</v>
       </c>
       <c r="E46" s="2">
-        <v>28319</v>
+        <v>28318</v>
       </c>
       <c r="F46" s="2">
         <v>919</v>
@@ -1463,7 +1463,7 @@
         <v>17.571428571428</v>
       </c>
       <c r="E47" s="2">
-        <v>28728</v>
+        <v>28727</v>
       </c>
       <c r="F47" s="2">
         <v>409</v>
@@ -1486,13 +1486,13 @@
         <v>18</v>
       </c>
       <c r="E48" s="2">
-        <v>29120</v>
+        <v>29118</v>
       </c>
       <c r="F48" s="2">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="G48" s="4">
-        <v>0.02095459837</v>
+        <v>0.020958083832</v>
       </c>
     </row>
     <row r="49" spans="1:7">
@@ -1509,13 +1509,13 @@
         <v>22.428571428571</v>
       </c>
       <c r="E49" s="2">
-        <v>30485</v>
+        <v>30483</v>
       </c>
       <c r="F49" s="2">
         <v>1365</v>
       </c>
       <c r="G49" s="4">
-        <v>0.025019920318</v>
+        <v>0.025023908192</v>
       </c>
     </row>
     <row r="50" spans="1:7">
@@ -1532,13 +1532,13 @@
         <v>25.714285714285</v>
       </c>
       <c r="E50" s="2">
-        <v>32146</v>
+        <v>32144</v>
       </c>
       <c r="F50" s="2">
         <v>1661</v>
       </c>
       <c r="G50" s="4">
-        <v>0.026845637583</v>
+        <v>0.026849642004</v>
       </c>
     </row>
     <row r="51" spans="1:7">
@@ -1555,13 +1555,13 @@
         <v>26.142857142857</v>
       </c>
       <c r="E51" s="2">
-        <v>33287</v>
+        <v>33285</v>
       </c>
       <c r="F51" s="2">
         <v>1141</v>
       </c>
       <c r="G51" s="4">
-        <v>0.027119146413</v>
+        <v>0.027123165851</v>
       </c>
     </row>
     <row r="52" spans="1:7">
@@ -1578,13 +1578,13 @@
         <v>27.428571428571</v>
       </c>
       <c r="E52" s="2">
-        <v>34419</v>
+        <v>34417</v>
       </c>
       <c r="F52" s="2">
         <v>1132</v>
       </c>
       <c r="G52" s="4">
-        <v>0.027354323977</v>
+        <v>0.027358221715</v>
       </c>
     </row>
     <row r="53" spans="1:7">
@@ -1601,13 +1601,13 @@
         <v>29.142857142857</v>
       </c>
       <c r="E53" s="2">
-        <v>35508</v>
+        <v>35506</v>
       </c>
       <c r="F53" s="2">
         <v>1089</v>
       </c>
       <c r="G53" s="4">
-        <v>0.028376686604</v>
+        <v>0.02838063439</v>
       </c>
     </row>
     <row r="54" spans="1:7">
@@ -1624,13 +1624,13 @@
         <v>28</v>
       </c>
       <c r="E54" s="2">
-        <v>36027</v>
+        <v>36025</v>
       </c>
       <c r="F54" s="2">
         <v>519</v>
       </c>
       <c r="G54" s="4">
-        <v>0.02685299356</v>
+        <v>0.026856673061</v>
       </c>
     </row>
     <row r="55" spans="1:7">
@@ -1647,7 +1647,7 @@
         <v>27.571428571428</v>
       </c>
       <c r="E55" s="2">
-        <v>36421</v>
+        <v>36419</v>
       </c>
       <c r="F55" s="2">
         <v>394</v>
@@ -1670,7 +1670,7 @@
         <v>23.285714285714</v>
       </c>
       <c r="E56" s="2">
-        <v>36886</v>
+        <v>36884</v>
       </c>
       <c r="F56" s="2">
         <v>465</v>
@@ -1693,7 +1693,7 @@
         <v>23.714285714285</v>
       </c>
       <c r="E57" s="2">
-        <v>38082</v>
+        <v>38080</v>
       </c>
       <c r="F57" s="2">
         <v>1196</v>
@@ -1716,7 +1716,7 @@
         <v>23.714285714285</v>
       </c>
       <c r="E58" s="2">
-        <v>39195</v>
+        <v>39193</v>
       </c>
       <c r="F58" s="2">
         <v>1113</v>
@@ -1739,7 +1739,7 @@
         <v>26.285714285714</v>
       </c>
       <c r="E59" s="2">
-        <v>40332</v>
+        <v>40330</v>
       </c>
       <c r="F59" s="2">
         <v>1137</v>
@@ -1762,7 +1762,7 @@
         <v>26.571428571428</v>
       </c>
       <c r="E60" s="2">
-        <v>41735</v>
+        <v>41733</v>
       </c>
       <c r="F60" s="2">
         <v>1403</v>
@@ -1785,7 +1785,7 @@
         <v>26.285714285714</v>
       </c>
       <c r="E61" s="2">
-        <v>42469</v>
+        <v>42467</v>
       </c>
       <c r="F61" s="2">
         <v>734</v>
@@ -1808,7 +1808,7 @@
         <v>26</v>
       </c>
       <c r="E62" s="2">
-        <v>42867</v>
+        <v>42865</v>
       </c>
       <c r="F62" s="2">
         <v>398</v>
@@ -1831,7 +1831,7 @@
         <v>29.285714285714</v>
       </c>
       <c r="E63" s="2">
-        <v>44245</v>
+        <v>44243</v>
       </c>
       <c r="F63" s="2">
         <v>1378</v>
@@ -1854,7 +1854,7 @@
         <v>28.285714285714</v>
       </c>
       <c r="E64" s="2">
-        <v>45462</v>
+        <v>45460</v>
       </c>
       <c r="F64" s="2">
         <v>1217</v>
@@ -1877,7 +1877,7 @@
         <v>27.857142857142</v>
       </c>
       <c r="E65" s="2">
-        <v>46626</v>
+        <v>46624</v>
       </c>
       <c r="F65" s="2">
         <v>1164</v>
@@ -1900,7 +1900,7 @@
         <v>28.571428571428</v>
       </c>
       <c r="E66" s="2">
-        <v>47978</v>
+        <v>47976</v>
       </c>
       <c r="F66" s="2">
         <v>1352</v>
@@ -1923,7 +1923,7 @@
         <v>29.285714285714</v>
       </c>
       <c r="E67" s="2">
-        <v>49610</v>
+        <v>49608</v>
       </c>
       <c r="F67" s="2">
         <v>1632</v>
@@ -1946,7 +1946,7 @@
         <v>30.571428571428</v>
       </c>
       <c r="E68" s="2">
-        <v>50215</v>
+        <v>50213</v>
       </c>
       <c r="F68" s="2">
         <v>605</v>
@@ -1969,7 +1969,7 @@
         <v>32.428571428571</v>
       </c>
       <c r="E69" s="2">
-        <v>50700</v>
+        <v>50698</v>
       </c>
       <c r="F69" s="2">
         <v>485</v>
@@ -1992,7 +1992,7 @@
         <v>34.714285714285</v>
       </c>
       <c r="E70" s="2">
-        <v>52538</v>
+        <v>52536</v>
       </c>
       <c r="F70" s="2">
         <v>1838</v>
@@ -2015,13 +2015,13 @@
         <v>36.428571428571</v>
       </c>
       <c r="E71" s="2">
-        <v>54387</v>
+        <v>54384</v>
       </c>
       <c r="F71" s="2">
-        <v>1849</v>
+        <v>1848</v>
       </c>
       <c r="G71" s="4">
-        <v>0.028571428571</v>
+        <v>0.02857463021</v>
       </c>
     </row>
     <row r="72" spans="1:7">
@@ -2038,13 +2038,13 @@
         <v>40</v>
       </c>
       <c r="E72" s="2">
-        <v>56378</v>
+        <v>56375</v>
       </c>
       <c r="F72" s="2">
         <v>1991</v>
       </c>
       <c r="G72" s="4">
-        <v>0.028712059064</v>
+        <v>0.028715003589</v>
       </c>
     </row>
     <row r="73" spans="1:7">
@@ -2061,13 +2061,13 @@
         <v>40.285714285714</v>
       </c>
       <c r="E73" s="2">
-        <v>58524</v>
+        <v>58521</v>
       </c>
       <c r="F73" s="2">
         <v>2146</v>
       </c>
       <c r="G73" s="4">
-        <v>0.026739996207</v>
+        <v>0.026742532005</v>
       </c>
     </row>
     <row r="74" spans="1:7">
@@ -2084,13 +2084,13 @@
         <v>41.857142857142</v>
       </c>
       <c r="E74" s="2">
-        <v>60769</v>
+        <v>60770</v>
       </c>
       <c r="F74" s="2">
-        <v>2245</v>
+        <v>2249</v>
       </c>
       <c r="G74" s="4">
-        <v>0.026256833049</v>
+        <v>0.026249776025</v>
       </c>
     </row>
     <row r="75" spans="1:7">
@@ -2107,13 +2107,13 @@
         <v>44.142857142857</v>
       </c>
       <c r="E75" s="2">
-        <v>61607</v>
+        <v>61610</v>
       </c>
       <c r="F75" s="2">
-        <v>838</v>
+        <v>840</v>
       </c>
       <c r="G75" s="4">
-        <v>0.027124297752</v>
+        <v>0.027112397999</v>
       </c>
     </row>
     <row r="76" spans="1:7">
@@ -2130,13 +2130,13 @@
         <v>45.428571428571</v>
       </c>
       <c r="E76" s="2">
-        <v>62190</v>
+        <v>62193</v>
       </c>
       <c r="F76" s="2">
         <v>583</v>
       </c>
       <c r="G76" s="4">
-        <v>0.027676240208</v>
+        <v>0.027664201826</v>
       </c>
     </row>
     <row r="77" spans="1:7">
@@ -2153,13 +2153,13 @@
         <v>46.714285714285</v>
       </c>
       <c r="E77" s="2">
-        <v>64406</v>
+        <v>64409</v>
       </c>
       <c r="F77" s="2">
         <v>2216</v>
       </c>
       <c r="G77" s="4">
-        <v>0.027553083923</v>
+        <v>0.02754148067</v>
       </c>
     </row>
     <row r="78" spans="1:7">
@@ -2176,13 +2176,13 @@
         <v>52.571428571428</v>
       </c>
       <c r="E78" s="2">
-        <v>66927</v>
+        <v>66930</v>
       </c>
       <c r="F78" s="2">
         <v>2521</v>
       </c>
       <c r="G78" s="4">
-        <v>0.029346092503</v>
+        <v>0.029332058026</v>
       </c>
     </row>
     <row r="79" spans="1:7">
@@ -2199,13 +2199,13 @@
         <v>57.285714285714</v>
       </c>
       <c r="E79" s="2">
-        <v>69498</v>
+        <v>69501</v>
       </c>
       <c r="F79" s="2">
         <v>2571</v>
       </c>
       <c r="G79" s="4">
-        <v>0.03056402439</v>
+        <v>0.030550053329</v>
       </c>
     </row>
     <row r="80" spans="1:7">
@@ -2222,13 +2222,13 @@
         <v>62.57142857142801</v>
       </c>
       <c r="E80" s="2">
-        <v>72023</v>
+        <v>72026</v>
       </c>
       <c r="F80" s="2">
         <v>2525</v>
       </c>
       <c r="G80" s="4">
-        <v>0.032446847914</v>
+        <v>0.032432432432</v>
       </c>
     </row>
     <row r="81" spans="1:7">
@@ -2245,13 +2245,13 @@
         <v>68.85714285714199</v>
       </c>
       <c r="E81" s="2">
-        <v>74466</v>
+        <v>74469</v>
       </c>
       <c r="F81" s="2">
         <v>2443</v>
       </c>
       <c r="G81" s="4">
-        <v>0.035190187632</v>
+        <v>0.035185050003</v>
       </c>
     </row>
     <row r="82" spans="1:7">
@@ -2268,7 +2268,7 @@
         <v>71.428571428571</v>
       </c>
       <c r="E82" s="2">
-        <v>75418</v>
+        <v>75421</v>
       </c>
       <c r="F82" s="2">
         <v>952</v>
@@ -2291,7 +2291,7 @@
         <v>73.28571428571399</v>
       </c>
       <c r="E83" s="2">
-        <v>76115</v>
+        <v>76118</v>
       </c>
       <c r="F83" s="2">
         <v>697</v>
@@ -2314,13 +2314,13 @@
         <v>81</v>
       </c>
       <c r="E84" s="2">
-        <v>78735</v>
+        <v>78739</v>
       </c>
       <c r="F84" s="2">
-        <v>2620</v>
+        <v>2621</v>
       </c>
       <c r="G84" s="4">
-        <v>0.039570102589</v>
+        <v>0.039567341242</v>
       </c>
     </row>
     <row r="85" spans="1:7">
@@ -2337,13 +2337,13 @@
         <v>88</v>
       </c>
       <c r="E85" s="2">
-        <v>81520</v>
+        <v>81524</v>
       </c>
       <c r="F85" s="2">
         <v>2785</v>
       </c>
       <c r="G85" s="4">
-        <v>0.042212019461</v>
+        <v>0.042209127038</v>
       </c>
     </row>
     <row r="86" spans="1:7">
@@ -2360,13 +2360,13 @@
         <v>96</v>
       </c>
       <c r="E86" s="2">
-        <v>84548</v>
+        <v>84553</v>
       </c>
       <c r="F86" s="2">
-        <v>3028</v>
+        <v>3029</v>
       </c>
       <c r="G86" s="4">
-        <v>0.04465116279</v>
+        <v>0.044645229869</v>
       </c>
     </row>
     <row r="87" spans="1:7">
@@ -2383,13 +2383,13 @@
         <v>104.714285714285</v>
       </c>
       <c r="E87" s="2">
-        <v>87906</v>
+        <v>87911</v>
       </c>
       <c r="F87" s="2">
         <v>3358</v>
       </c>
       <c r="G87" s="4">
-        <v>0.046149971667</v>
+        <v>0.046144161158</v>
       </c>
     </row>
     <row r="88" spans="1:7">
@@ -2406,13 +2406,13 @@
         <v>114.285714285714</v>
       </c>
       <c r="E88" s="2">
-        <v>90874</v>
+        <v>90879</v>
       </c>
       <c r="F88" s="2">
         <v>2968</v>
       </c>
       <c r="G88" s="4">
-        <v>0.048756704046</v>
+        <v>0.04875076173</v>
       </c>
     </row>
     <row r="89" spans="1:7">
@@ -2429,13 +2429,13 @@
         <v>118.285714285714</v>
       </c>
       <c r="E89" s="2">
-        <v>91948</v>
+        <v>91953</v>
       </c>
       <c r="F89" s="2">
         <v>1074</v>
       </c>
       <c r="G89" s="4">
-        <v>0.050090744101</v>
+        <v>0.050084684248</v>
       </c>
     </row>
     <row r="90" spans="1:7">
@@ -2452,13 +2452,13 @@
         <v>121</v>
       </c>
       <c r="E90" s="2">
-        <v>92743</v>
+        <v>92748</v>
       </c>
       <c r="F90" s="2">
         <v>795</v>
       </c>
       <c r="G90" s="4">
-        <v>0.050938176569</v>
+        <v>0.050932050511</v>
       </c>
     </row>
     <row r="91" spans="1:7">
@@ -2475,13 +2475,13 @@
         <v>133.285714285714</v>
       </c>
       <c r="E91" s="2">
-        <v>96428</v>
+        <v>96433</v>
       </c>
       <c r="F91" s="2">
         <v>3685</v>
       </c>
       <c r="G91" s="4">
-        <v>0.052732719154</v>
+        <v>0.052729738894</v>
       </c>
     </row>
     <row r="92" spans="1:7">
@@ -2498,13 +2498,13 @@
         <v>136.857142857142</v>
       </c>
       <c r="E92" s="2">
-        <v>99904</v>
+        <v>99910</v>
       </c>
       <c r="F92" s="2">
-        <v>3476</v>
+        <v>3477</v>
       </c>
       <c r="G92" s="4">
-        <v>0.052110530896</v>
+        <v>0.052104862395</v>
       </c>
     </row>
     <row r="93" spans="1:7">
@@ -2521,13 +2521,13 @@
         <v>141.142857142857</v>
       </c>
       <c r="E93" s="2">
-        <v>103443</v>
+        <v>103449</v>
       </c>
       <c r="F93" s="2">
         <v>3539</v>
       </c>
       <c r="G93" s="4">
-        <v>0.052288965334</v>
+        <v>0.052286198137</v>
       </c>
     </row>
     <row r="94" spans="1:7">
@@ -2544,13 +2544,13 @@
         <v>149.714285714285</v>
       </c>
       <c r="E94" s="2">
-        <v>107366</v>
+        <v>107372</v>
       </c>
       <c r="F94" s="2">
         <v>3923</v>
       </c>
       <c r="G94" s="4">
-        <v>0.053854059609</v>
+        <v>0.053851292328</v>
       </c>
     </row>
     <row r="95" spans="1:7">
@@ -2567,13 +2567,13 @@
         <v>146.142857142857</v>
       </c>
       <c r="E95" s="2">
-        <v>110007</v>
+        <v>110013</v>
       </c>
       <c r="F95" s="2">
         <v>2641</v>
       </c>
       <c r="G95" s="4">
-        <v>0.05346783045</v>
+        <v>0.053465036061</v>
       </c>
     </row>
     <row r="96" spans="1:7">
@@ -2590,13 +2590,13 @@
         <v>148</v>
       </c>
       <c r="E96" s="2">
-        <v>111124</v>
+        <v>111130</v>
       </c>
       <c r="F96" s="2">
         <v>1117</v>
       </c>
       <c r="G96" s="4">
-        <v>0.054025865665</v>
+        <v>0.054023048443</v>
       </c>
     </row>
     <row r="97" spans="1:7">
@@ -2613,13 +2613,13 @@
         <v>151.857142857142</v>
       </c>
       <c r="E97" s="2">
-        <v>112253</v>
+        <v>112259</v>
       </c>
       <c r="F97" s="2">
         <v>1129</v>
       </c>
       <c r="G97" s="4">
-        <v>0.054484879548</v>
+        <v>0.054482087027</v>
       </c>
     </row>
     <row r="98" spans="1:7">
@@ -2636,13 +2636,13 @@
         <v>152.857142857142</v>
       </c>
       <c r="E98" s="2">
-        <v>116325</v>
+        <v>116331</v>
       </c>
       <c r="F98" s="2">
         <v>4072</v>
       </c>
       <c r="G98" s="4">
-        <v>0.053776951299</v>
+        <v>0.053774248668</v>
       </c>
     </row>
     <row r="99" spans="1:7">
@@ -2659,13 +2659,13 @@
         <v>161.142857142857</v>
       </c>
       <c r="E99" s="2">
-        <v>120398</v>
+        <v>120406</v>
       </c>
       <c r="F99" s="2">
-        <v>4073</v>
+        <v>4075</v>
       </c>
       <c r="G99" s="4">
-        <v>0.055040499658</v>
+        <v>0.055035128805</v>
       </c>
     </row>
     <row r="100" spans="1:7">
@@ -2682,13 +2682,13 @@
         <v>168.571428571428</v>
       </c>
       <c r="E100" s="2">
-        <v>124654</v>
+        <v>124665</v>
       </c>
       <c r="F100" s="2">
-        <v>4256</v>
+        <v>4259</v>
       </c>
       <c r="G100" s="4">
-        <v>0.055631511951</v>
+        <v>0.055618401206</v>
       </c>
     </row>
     <row r="101" spans="1:7">
@@ -2705,13 +2705,13 @@
         <v>174.285714285714</v>
       </c>
       <c r="E101" s="2">
-        <v>129250</v>
+        <v>129266</v>
       </c>
       <c r="F101" s="2">
-        <v>4596</v>
+        <v>4601</v>
       </c>
       <c r="G101" s="4">
-        <v>0.055748492048</v>
+        <v>0.05572302914</v>
       </c>
     </row>
     <row r="102" spans="1:7">
@@ -2728,13 +2728,13 @@
         <v>189</v>
       </c>
       <c r="E102" s="2">
-        <v>133713</v>
+        <v>133729</v>
       </c>
       <c r="F102" s="2">
         <v>4463</v>
       </c>
       <c r="G102" s="4">
-        <v>0.055808656036</v>
+        <v>0.055785123966</v>
       </c>
     </row>
     <row r="103" spans="1:7">
@@ -2751,13 +2751,13 @@
         <v>195.714285714285</v>
       </c>
       <c r="E103" s="2">
-        <v>135783</v>
+        <v>135799</v>
       </c>
       <c r="F103" s="2">
         <v>2070</v>
       </c>
       <c r="G103" s="4">
-        <v>0.055557808508</v>
+        <v>0.055535287202</v>
       </c>
     </row>
     <row r="104" spans="1:7">
@@ -2774,13 +2774,13 @@
         <v>197.857142857142</v>
       </c>
       <c r="E104" s="2">
-        <v>137109</v>
+        <v>137125</v>
       </c>
       <c r="F104" s="2">
         <v>1326</v>
       </c>
       <c r="G104" s="4">
-        <v>0.055720952687</v>
+        <v>0.055698544196</v>
       </c>
     </row>
     <row r="105" spans="1:7">
@@ -2797,13 +2797,13 @@
         <v>206</v>
       </c>
       <c r="E105" s="2">
-        <v>141713</v>
+        <v>141730</v>
       </c>
       <c r="F105" s="2">
-        <v>4604</v>
+        <v>4605</v>
       </c>
       <c r="G105" s="4">
-        <v>0.056798487474</v>
+        <v>0.056773888735</v>
       </c>
     </row>
     <row r="106" spans="1:7">
@@ -2820,13 +2820,13 @@
         <v>211.428571428571</v>
       </c>
       <c r="E106" s="2">
-        <v>145470</v>
+        <v>145487</v>
       </c>
       <c r="F106" s="2">
         <v>3757</v>
       </c>
       <c r="G106" s="4">
-        <v>0.059029993618</v>
+        <v>0.05900881145</v>
       </c>
     </row>
     <row r="107" spans="1:7">
@@ -2843,13 +2843,13 @@
         <v>216.428571428571</v>
       </c>
       <c r="E107" s="2">
-        <v>149813</v>
+        <v>149830</v>
       </c>
       <c r="F107" s="2">
         <v>4343</v>
       </c>
       <c r="G107" s="4">
-        <v>0.060217019754</v>
+        <v>0.060202662427</v>
       </c>
     </row>
     <row r="108" spans="1:7">
@@ -2866,13 +2866,13 @@
         <v>217</v>
       </c>
       <c r="E108" s="2">
-        <v>153996</v>
+        <v>154013</v>
       </c>
       <c r="F108" s="2">
         <v>4183</v>
       </c>
       <c r="G108" s="4">
-        <v>0.061383657964</v>
+        <v>0.061381177516</v>
       </c>
     </row>
     <row r="109" spans="1:7">
@@ -2889,13 +2889,13 @@
         <v>217.571428571428</v>
       </c>
       <c r="E109" s="2">
-        <v>158197</v>
+        <v>158214</v>
       </c>
       <c r="F109" s="2">
         <v>4201</v>
       </c>
       <c r="G109" s="4">
-        <v>0.062203888253</v>
+        <v>0.062201347763</v>
       </c>
     </row>
     <row r="110" spans="1:7">
@@ -2912,13 +2912,13 @@
         <v>216</v>
       </c>
       <c r="E110" s="2">
-        <v>160420</v>
+        <v>160438</v>
       </c>
       <c r="F110" s="2">
-        <v>2223</v>
+        <v>2224</v>
       </c>
       <c r="G110" s="4">
-        <v>0.061371108495</v>
+        <v>0.061366126872</v>
       </c>
     </row>
     <row r="111" spans="1:7">
@@ -2935,13 +2935,13 @@
         <v>215.714285714285</v>
       </c>
       <c r="E111" s="2">
-        <v>161677</v>
+        <v>161695</v>
       </c>
       <c r="F111" s="2">
         <v>1257</v>
       </c>
       <c r="G111" s="4">
-        <v>0.061462064474</v>
+        <v>0.061457061457</v>
       </c>
     </row>
     <row r="112" spans="1:7">
@@ -2958,13 +2958,13 @@
         <v>219.857142857142</v>
       </c>
       <c r="E112" s="2">
-        <v>165923</v>
+        <v>165941</v>
       </c>
       <c r="F112" s="2">
         <v>4246</v>
       </c>
       <c r="G112" s="4">
-        <v>0.063568773234</v>
+        <v>0.063566147618</v>
       </c>
     </row>
     <row r="113" spans="1:7">
@@ -2981,13 +2981,13 @@
         <v>217.857142857142</v>
       </c>
       <c r="E113" s="2">
-        <v>169760</v>
+        <v>169779</v>
       </c>
       <c r="F113" s="2">
-        <v>3837</v>
+        <v>3838</v>
       </c>
       <c r="G113" s="4">
-        <v>0.06278303828700001</v>
+        <v>0.062777869257</v>
       </c>
     </row>
     <row r="114" spans="1:7">
@@ -3004,13 +3004,13 @@
         <v>216.428571428571</v>
       </c>
       <c r="E114" s="2">
-        <v>173421</v>
+        <v>173440</v>
       </c>
       <c r="F114" s="2">
         <v>3661</v>
       </c>
       <c r="G114" s="4">
-        <v>0.06417316164</v>
+        <v>0.06416772554</v>
       </c>
     </row>
     <row r="115" spans="1:7">
@@ -3027,13 +3027,13 @@
         <v>213</v>
       </c>
       <c r="E115" s="2">
-        <v>176745</v>
+        <v>176764</v>
       </c>
       <c r="F115" s="2">
         <v>3324</v>
       </c>
       <c r="G115" s="4">
-        <v>0.06554134247600001</v>
+        <v>0.065535580853</v>
       </c>
     </row>
     <row r="116" spans="1:7">
@@ -3050,13 +3050,13 @@
         <v>208.428571428571</v>
       </c>
       <c r="E116" s="2">
-        <v>180378</v>
+        <v>180398</v>
       </c>
       <c r="F116" s="2">
-        <v>3633</v>
+        <v>3634</v>
       </c>
       <c r="G116" s="4">
-        <v>0.065777016365</v>
+        <v>0.065768121168</v>
       </c>
     </row>
     <row r="117" spans="1:7">
@@ -3073,13 +3073,13 @@
         <v>205.857142857142</v>
       </c>
       <c r="E117" s="2">
-        <v>181997</v>
+        <v>182017</v>
       </c>
       <c r="F117" s="2">
         <v>1619</v>
       </c>
       <c r="G117" s="4">
-        <v>0.066784075636</v>
+        <v>0.066777885907</v>
       </c>
     </row>
     <row r="118" spans="1:7">
@@ -3096,13 +3096,13 @@
         <v>206.428571428571</v>
       </c>
       <c r="E118" s="2">
-        <v>183250</v>
+        <v>183270</v>
       </c>
       <c r="F118" s="2">
         <v>1253</v>
       </c>
       <c r="G118" s="4">
-        <v>0.06698187549200001</v>
+        <v>0.06697566628</v>
       </c>
     </row>
     <row r="119" spans="1:7">
@@ -3119,13 +3119,13 @@
         <v>199.571428571428</v>
       </c>
       <c r="E119" s="2">
-        <v>187419</v>
+        <v>187439</v>
       </c>
       <c r="F119" s="2">
         <v>4169</v>
       </c>
       <c r="G119" s="4">
-        <v>0.064988835132</v>
+        <v>0.064982789096</v>
       </c>
     </row>
     <row r="120" spans="1:7">
@@ -3133,22 +3133,22 @@
         <v>44040</v>
       </c>
       <c r="B120" s="2">
-        <v>9381</v>
+        <v>9383</v>
       </c>
       <c r="C120" s="2">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="D120" s="3">
-        <v>200.285714285714</v>
+        <v>200.571428571428</v>
       </c>
       <c r="E120" s="2">
-        <v>191287</v>
+        <v>191310</v>
       </c>
       <c r="F120" s="2">
-        <v>3868</v>
+        <v>3871</v>
       </c>
       <c r="G120" s="4">
-        <v>0.065127514284</v>
+        <v>0.06520830430500001</v>
       </c>
     </row>
     <row r="121" spans="1:7">
@@ -3156,22 +3156,22 @@
         <v>44041</v>
       </c>
       <c r="B121" s="2">
-        <v>9630</v>
+        <v>9632</v>
       </c>
       <c r="C121" s="2">
         <v>249</v>
       </c>
       <c r="D121" s="3">
-        <v>200.142857142857</v>
+        <v>200.428571428571</v>
       </c>
       <c r="E121" s="2">
-        <v>195143</v>
+        <v>195166</v>
       </c>
       <c r="F121" s="2">
         <v>3856</v>
       </c>
       <c r="G121" s="4">
-        <v>0.064496823496</v>
+        <v>0.06457700450999999</v>
       </c>
     </row>
     <row r="122" spans="1:7">
@@ -3179,22 +3179,22 @@
         <v>44042</v>
       </c>
       <c r="B122" s="2">
-        <v>9846</v>
+        <v>9848</v>
       </c>
       <c r="C122" s="2">
         <v>216</v>
       </c>
       <c r="D122" s="3">
-        <v>197.857142857142</v>
+        <v>198.142857142857</v>
       </c>
       <c r="E122" s="2">
-        <v>198814</v>
+        <v>198837</v>
       </c>
       <c r="F122" s="2">
         <v>3671</v>
       </c>
       <c r="G122" s="4">
-        <v>0.06275771444100001</v>
+        <v>0.06283695012</v>
       </c>
     </row>
     <row r="123" spans="1:7">
@@ -3202,22 +3202,22 @@
         <v>44043</v>
       </c>
       <c r="B123" s="2">
-        <v>10079</v>
+        <v>10081</v>
       </c>
       <c r="C123" s="2">
         <v>233</v>
       </c>
       <c r="D123" s="3">
-        <v>199.857142857142</v>
+        <v>200.142857142857</v>
       </c>
       <c r="E123" s="2">
-        <v>202350</v>
+        <v>202373</v>
       </c>
       <c r="F123" s="2">
         <v>3536</v>
       </c>
       <c r="G123" s="4">
-        <v>0.06367194611300001</v>
+        <v>0.063754266211</v>
       </c>
     </row>
     <row r="124" spans="1:7">
@@ -3225,22 +3225,22 @@
         <v>44044</v>
       </c>
       <c r="B124" s="2">
-        <v>10186</v>
+        <v>10188</v>
       </c>
       <c r="C124" s="2">
         <v>107</v>
       </c>
       <c r="D124" s="3">
-        <v>199.285714285714</v>
+        <v>199.571428571428</v>
       </c>
       <c r="E124" s="2">
-        <v>203939</v>
+        <v>203962</v>
       </c>
       <c r="F124" s="2">
         <v>1589</v>
       </c>
       <c r="G124" s="4">
-        <v>0.063576702214</v>
+        <v>0.063659147869</v>
       </c>
     </row>
     <row r="125" spans="1:7">
@@ -3248,22 +3248,22 @@
         <v>44045</v>
       </c>
       <c r="B125" s="2">
-        <v>10265</v>
+        <v>10267</v>
       </c>
       <c r="C125" s="2">
         <v>79</v>
       </c>
       <c r="D125" s="3">
-        <v>195.857142857142</v>
+        <v>196.142857142857</v>
       </c>
       <c r="E125" s="2">
-        <v>205062</v>
+        <v>205085</v>
       </c>
       <c r="F125" s="2">
         <v>1123</v>
       </c>
       <c r="G125" s="4">
-        <v>0.06285530900400001</v>
+        <v>0.06293834517499999</v>
       </c>
     </row>
     <row r="126" spans="1:7">
@@ -3271,22 +3271,22 @@
         <v>44046</v>
       </c>
       <c r="B126" s="2">
-        <v>10518</v>
+        <v>10520</v>
       </c>
       <c r="C126" s="2">
         <v>253</v>
       </c>
       <c r="D126" s="3">
-        <v>197.428571428571</v>
+        <v>197.714285714285</v>
       </c>
       <c r="E126" s="2">
-        <v>208858</v>
+        <v>208881</v>
       </c>
       <c r="F126" s="2">
         <v>3796</v>
       </c>
       <c r="G126" s="4">
-        <v>0.064461961845</v>
+        <v>0.06454621770299999</v>
       </c>
     </row>
     <row r="127" spans="1:7">
@@ -3294,7 +3294,7 @@
         <v>44047</v>
       </c>
       <c r="B127" s="2">
-        <v>10750</v>
+        <v>10752</v>
       </c>
       <c r="C127" s="2">
         <v>232</v>
@@ -3303,7 +3303,7 @@
         <v>195.571428571428</v>
       </c>
       <c r="E127" s="2">
-        <v>212152</v>
+        <v>212175</v>
       </c>
       <c r="F127" s="2">
         <v>3294</v>
@@ -3317,22 +3317,22 @@
         <v>44048</v>
       </c>
       <c r="B128" s="2">
-        <v>10938</v>
+        <v>10942</v>
       </c>
       <c r="C128" s="2">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="D128" s="3">
-        <v>186.857142857142</v>
+        <v>187.142857142857</v>
       </c>
       <c r="E128" s="2">
-        <v>215361</v>
+        <v>215387</v>
       </c>
       <c r="F128" s="2">
-        <v>3209</v>
+        <v>3212</v>
       </c>
       <c r="G128" s="4">
-        <v>0.064694826392</v>
+        <v>0.064784135304</v>
       </c>
     </row>
     <row r="129" spans="1:7">
@@ -3340,22 +3340,22 @@
         <v>44049</v>
       </c>
       <c r="B129" s="2">
-        <v>11134</v>
+        <v>11138</v>
       </c>
       <c r="C129" s="2">
         <v>196</v>
       </c>
       <c r="D129" s="3">
-        <v>184</v>
+        <v>184.285714285714</v>
       </c>
       <c r="E129" s="2">
-        <v>219011</v>
+        <v>219037</v>
       </c>
       <c r="F129" s="2">
         <v>3650</v>
       </c>
       <c r="G129" s="4">
-        <v>0.063771847304</v>
+        <v>0.06386138613800001</v>
       </c>
     </row>
     <row r="130" spans="1:7">
@@ -3363,22 +3363,22 @@
         <v>44050</v>
       </c>
       <c r="B130" s="2">
-        <v>11313</v>
+        <v>11317</v>
       </c>
       <c r="C130" s="2">
         <v>179</v>
       </c>
       <c r="D130" s="3">
-        <v>176.285714285714</v>
+        <v>176.571428571428</v>
       </c>
       <c r="E130" s="2">
-        <v>222277</v>
+        <v>222304</v>
       </c>
       <c r="F130" s="2">
-        <v>3266</v>
+        <v>3267</v>
       </c>
       <c r="G130" s="4">
-        <v>0.061926030009</v>
+        <v>0.062013948121</v>
       </c>
     </row>
     <row r="131" spans="1:7">
@@ -3386,22 +3386,22 @@
         <v>44051</v>
       </c>
       <c r="B131" s="2">
-        <v>11435</v>
+        <v>11439</v>
       </c>
       <c r="C131" s="2">
         <v>122</v>
       </c>
       <c r="D131" s="3">
-        <v>178.428571428571</v>
+        <v>178.714285714285</v>
       </c>
       <c r="E131" s="2">
-        <v>223981</v>
+        <v>224008</v>
       </c>
       <c r="F131" s="2">
         <v>1704</v>
       </c>
       <c r="G131" s="4">
-        <v>0.062319129827</v>
+        <v>0.06240646513</v>
       </c>
     </row>
     <row r="132" spans="1:7">
@@ -3409,22 +3409,22 @@
         <v>44052</v>
       </c>
       <c r="B132" s="2">
-        <v>11518</v>
+        <v>11522</v>
       </c>
       <c r="C132" s="2">
         <v>83</v>
       </c>
       <c r="D132" s="3">
-        <v>179</v>
+        <v>179.285714285714</v>
       </c>
       <c r="E132" s="2">
-        <v>225023</v>
+        <v>225050</v>
       </c>
       <c r="F132" s="2">
         <v>1042</v>
       </c>
       <c r="G132" s="4">
-        <v>0.062772406192</v>
+        <v>0.062860005008</v>
       </c>
     </row>
     <row r="133" spans="1:7">
@@ -3432,22 +3432,22 @@
         <v>44053</v>
       </c>
       <c r="B133" s="2">
-        <v>11755</v>
+        <v>11759</v>
       </c>
       <c r="C133" s="2">
         <v>237</v>
       </c>
       <c r="D133" s="3">
-        <v>176.714285714285</v>
+        <v>177</v>
       </c>
       <c r="E133" s="2">
-        <v>228917</v>
+        <v>228944</v>
       </c>
       <c r="F133" s="2">
         <v>3894</v>
       </c>
       <c r="G133" s="4">
-        <v>0.061668079166</v>
+        <v>0.061755470268</v>
       </c>
     </row>
     <row r="134" spans="1:7">
@@ -3455,22 +3455,22 @@
         <v>44054</v>
       </c>
       <c r="B134" s="2">
-        <v>11956</v>
+        <v>11960</v>
       </c>
       <c r="C134" s="2">
         <v>201</v>
       </c>
       <c r="D134" s="3">
-        <v>172.285714285714</v>
+        <v>172.571428571428</v>
       </c>
       <c r="E134" s="2">
-        <v>232332</v>
+        <v>232359</v>
       </c>
       <c r="F134" s="2">
         <v>3415</v>
       </c>
       <c r="G134" s="4">
-        <v>0.059762140733</v>
+        <v>0.059849385652</v>
       </c>
     </row>
     <row r="135" spans="1:7">
@@ -3478,7 +3478,7 @@
         <v>44055</v>
       </c>
       <c r="B135" s="2">
-        <v>12156</v>
+        <v>12160</v>
       </c>
       <c r="C135" s="2">
         <v>200</v>
@@ -3487,13 +3487,13 @@
         <v>174</v>
       </c>
       <c r="E135" s="2">
-        <v>236185</v>
+        <v>236214</v>
       </c>
       <c r="F135" s="2">
-        <v>3853</v>
+        <v>3855</v>
       </c>
       <c r="G135" s="4">
-        <v>0.058490203611</v>
+        <v>0.05848177846</v>
       </c>
     </row>
     <row r="136" spans="1:7">
@@ -3501,7 +3501,7 @@
         <v>44056</v>
       </c>
       <c r="B136" s="2">
-        <v>12332</v>
+        <v>12336</v>
       </c>
       <c r="C136" s="2">
         <v>176</v>
@@ -3510,13 +3510,13 @@
         <v>171.142857142857</v>
       </c>
       <c r="E136" s="2">
-        <v>239452</v>
+        <v>239481</v>
       </c>
       <c r="F136" s="2">
         <v>3267</v>
       </c>
       <c r="G136" s="4">
-        <v>0.05860770021</v>
+        <v>0.05859909998</v>
       </c>
     </row>
     <row r="137" spans="1:7">
@@ -3524,7 +3524,7 @@
         <v>44057</v>
       </c>
       <c r="B137" s="2">
-        <v>12506</v>
+        <v>12510</v>
       </c>
       <c r="C137" s="2">
         <v>174</v>
@@ -3533,13 +3533,13 @@
         <v>170.428571428571</v>
       </c>
       <c r="E137" s="2">
-        <v>242808</v>
+        <v>242838</v>
       </c>
       <c r="F137" s="2">
-        <v>3356</v>
+        <v>3357</v>
       </c>
       <c r="G137" s="4">
-        <v>0.058107252447</v>
+        <v>0.058098763027</v>
       </c>
     </row>
     <row r="138" spans="1:7">
@@ -3547,7 +3547,7 @@
         <v>44058</v>
       </c>
       <c r="B138" s="2">
-        <v>12599</v>
+        <v>12603</v>
       </c>
       <c r="C138" s="2">
         <v>93</v>
@@ -3556,13 +3556,13 @@
         <v>166.285714285714</v>
       </c>
       <c r="E138" s="2">
-        <v>244369</v>
+        <v>244399</v>
       </c>
       <c r="F138" s="2">
         <v>1561</v>
       </c>
       <c r="G138" s="4">
-        <v>0.057092407298</v>
+        <v>0.05708400765</v>
       </c>
     </row>
     <row r="139" spans="1:7">
@@ -3570,7 +3570,7 @@
         <v>44059</v>
       </c>
       <c r="B139" s="2">
-        <v>12644</v>
+        <v>12648</v>
       </c>
       <c r="C139" s="2">
         <v>45</v>
@@ -3579,13 +3579,13 @@
         <v>160.857142857142</v>
       </c>
       <c r="E139" s="2">
-        <v>245145</v>
+        <v>245175</v>
       </c>
       <c r="F139" s="2">
         <v>776</v>
       </c>
       <c r="G139" s="4">
-        <v>0.055958652221</v>
+        <v>0.055950310559</v>
       </c>
     </row>
     <row r="140" spans="1:7">
@@ -3593,7 +3593,7 @@
         <v>44060</v>
       </c>
       <c r="B140" s="2">
-        <v>12857</v>
+        <v>12861</v>
       </c>
       <c r="C140" s="2">
         <v>213</v>
@@ -3602,13 +3602,13 @@
         <v>157.428571428571</v>
       </c>
       <c r="E140" s="2">
-        <v>248804</v>
+        <v>248834</v>
       </c>
       <c r="F140" s="2">
         <v>3659</v>
       </c>
       <c r="G140" s="4">
-        <v>0.055413083924</v>
+        <v>0.055404725992</v>
       </c>
     </row>
     <row r="141" spans="1:7">
@@ -3616,7 +3616,7 @@
         <v>44061</v>
       </c>
       <c r="B141" s="2">
-        <v>13025</v>
+        <v>13029</v>
       </c>
       <c r="C141" s="2">
         <v>168</v>
@@ -3625,13 +3625,13 @@
         <v>152.714285714285</v>
       </c>
       <c r="E141" s="2">
-        <v>251871</v>
+        <v>251904</v>
       </c>
       <c r="F141" s="2">
-        <v>3067</v>
+        <v>3070</v>
       </c>
       <c r="G141" s="4">
-        <v>0.054711090639</v>
+        <v>0.054694295216</v>
       </c>
     </row>
     <row r="142" spans="1:7">
@@ -3639,7 +3639,7 @@
         <v>44062</v>
       </c>
       <c r="B142" s="2">
-        <v>13183</v>
+        <v>13187</v>
       </c>
       <c r="C142" s="2">
         <v>158</v>
@@ -3648,13 +3648,13 @@
         <v>146.714285714285</v>
       </c>
       <c r="E142" s="2">
-        <v>254925</v>
+        <v>254958</v>
       </c>
       <c r="F142" s="2">
         <v>3054</v>
       </c>
       <c r="G142" s="4">
-        <v>0.054802561366</v>
+        <v>0.05479086641</v>
       </c>
     </row>
     <row r="143" spans="1:7">
@@ -3662,7 +3662,7 @@
         <v>44063</v>
       </c>
       <c r="B143" s="2">
-        <v>13315</v>
+        <v>13319</v>
       </c>
       <c r="C143" s="2">
         <v>132</v>
@@ -3671,13 +3671,13 @@
         <v>140.428571428571</v>
       </c>
       <c r="E143" s="2">
-        <v>258090</v>
+        <v>258123</v>
       </c>
       <c r="F143" s="2">
         <v>3165</v>
       </c>
       <c r="G143" s="4">
-        <v>0.052741710483</v>
+        <v>0.052730393734</v>
       </c>
     </row>
     <row r="144" spans="1:7">
@@ -3685,7 +3685,7 @@
         <v>44064</v>
       </c>
       <c r="B144" s="2">
-        <v>13477</v>
+        <v>13481</v>
       </c>
       <c r="C144" s="2">
         <v>162</v>
@@ -3694,13 +3694,13 @@
         <v>138.714285714285</v>
       </c>
       <c r="E144" s="2">
-        <v>261128</v>
+        <v>261161</v>
       </c>
       <c r="F144" s="2">
         <v>3038</v>
       </c>
       <c r="G144" s="4">
-        <v>0.053002183406</v>
+        <v>0.05299350543</v>
       </c>
     </row>
     <row r="145" spans="1:7">
@@ -3708,7 +3708,7 @@
         <v>44065</v>
       </c>
       <c r="B145" s="2">
-        <v>13538</v>
+        <v>13542</v>
       </c>
       <c r="C145" s="2">
         <v>61</v>
@@ -3717,13 +3717,13 @@
         <v>134.142857142857</v>
       </c>
       <c r="E145" s="2">
-        <v>262457</v>
+        <v>262490</v>
       </c>
       <c r="F145" s="2">
         <v>1329</v>
       </c>
       <c r="G145" s="4">
-        <v>0.051912870411</v>
+        <v>0.051904261787</v>
       </c>
     </row>
     <row r="146" spans="1:7">
@@ -3731,7 +3731,7 @@
         <v>44066</v>
       </c>
       <c r="B146" s="2">
-        <v>13605</v>
+        <v>13609</v>
       </c>
       <c r="C146" s="2">
         <v>67</v>
@@ -3740,13 +3740,13 @@
         <v>137.285714285714</v>
       </c>
       <c r="E146" s="2">
-        <v>263424</v>
+        <v>263457</v>
       </c>
       <c r="F146" s="2">
         <v>967</v>
       </c>
       <c r="G146" s="4">
-        <v>0.052573992012</v>
+        <v>0.052565364839</v>
       </c>
     </row>
     <row r="147" spans="1:7">
@@ -3754,7 +3754,7 @@
         <v>44067</v>
       </c>
       <c r="B147" s="2">
-        <v>13754</v>
+        <v>13758</v>
       </c>
       <c r="C147" s="2">
         <v>149</v>
@@ -3763,13 +3763,13 @@
         <v>128.142857142857</v>
       </c>
       <c r="E147" s="2">
-        <v>266403</v>
+        <v>266439</v>
       </c>
       <c r="F147" s="2">
-        <v>2979</v>
+        <v>2982</v>
       </c>
       <c r="G147" s="4">
-        <v>0.050968805045</v>
+        <v>0.050951434251</v>
       </c>
     </row>
     <row r="148" spans="1:7">
@@ -3777,7 +3777,7 @@
         <v>44068</v>
       </c>
       <c r="B148" s="2">
-        <v>13888</v>
+        <v>13892</v>
       </c>
       <c r="C148" s="2">
         <v>134</v>
@@ -3786,13 +3786,13 @@
         <v>123.285714285714</v>
       </c>
       <c r="E148" s="2">
-        <v>269418</v>
+        <v>269455</v>
       </c>
       <c r="F148" s="2">
-        <v>3015</v>
+        <v>3016</v>
       </c>
       <c r="G148" s="4">
-        <v>0.049182196386</v>
+        <v>0.049170987408</v>
       </c>
     </row>
     <row r="149" spans="1:7">
@@ -3800,7 +3800,7 @@
         <v>44069</v>
       </c>
       <c r="B149" s="2">
-        <v>14023</v>
+        <v>14027</v>
       </c>
       <c r="C149" s="2">
         <v>135</v>
@@ -3809,13 +3809,13 @@
         <v>120</v>
       </c>
       <c r="E149" s="2">
-        <v>272376</v>
+        <v>272415</v>
       </c>
       <c r="F149" s="2">
-        <v>2958</v>
+        <v>2960</v>
       </c>
       <c r="G149" s="4">
-        <v>0.048134777376</v>
+        <v>0.048118233373</v>
       </c>
     </row>
     <row r="150" spans="1:7">
@@ -3823,7 +3823,7 @@
         <v>44070</v>
       </c>
       <c r="B150" s="2">
-        <v>14190</v>
+        <v>14194</v>
       </c>
       <c r="C150" s="2">
         <v>167</v>
@@ -3832,13 +3832,13 @@
         <v>125</v>
       </c>
       <c r="E150" s="2">
-        <v>275619</v>
+        <v>275665</v>
       </c>
       <c r="F150" s="2">
-        <v>3243</v>
+        <v>3250</v>
       </c>
       <c r="G150" s="4">
-        <v>0.049917279936</v>
+        <v>0.04988028731</v>
       </c>
     </row>
     <row r="151" spans="1:7">
@@ -3846,7 +3846,7 @@
         <v>44071</v>
       </c>
       <c r="B151" s="2">
-        <v>14306</v>
+        <v>14310</v>
       </c>
       <c r="C151" s="2">
         <v>116</v>
@@ -3855,13 +3855,13 @@
         <v>118.428571428571</v>
       </c>
       <c r="E151" s="2">
-        <v>278388</v>
+        <v>278434</v>
       </c>
       <c r="F151" s="2">
         <v>2769</v>
       </c>
       <c r="G151" s="4">
-        <v>0.048030127462</v>
+        <v>0.047993979042</v>
       </c>
     </row>
     <row r="152" spans="1:7">
@@ -3869,7 +3869,7 @@
         <v>44072</v>
       </c>
       <c r="B152" s="2">
-        <v>14370</v>
+        <v>14374</v>
       </c>
       <c r="C152" s="2">
         <v>64</v>
@@ -3878,13 +3878,13 @@
         <v>118.857142857142</v>
       </c>
       <c r="E152" s="2">
-        <v>279822</v>
+        <v>279868</v>
       </c>
       <c r="F152" s="2">
         <v>1434</v>
       </c>
       <c r="G152" s="4">
-        <v>0.047912467607</v>
+        <v>0.047876625618</v>
       </c>
     </row>
     <row r="153" spans="1:7">
@@ -3892,7 +3892,7 @@
         <v>44073</v>
       </c>
       <c r="B153" s="2">
-        <v>14428</v>
+        <v>14432</v>
       </c>
       <c r="C153" s="2">
         <v>58</v>
@@ -3901,13 +3901,13 @@
         <v>117.571428571428</v>
       </c>
       <c r="E153" s="2">
-        <v>280901</v>
+        <v>280947</v>
       </c>
       <c r="F153" s="2">
         <v>1079</v>
       </c>
       <c r="G153" s="4">
-        <v>0.047090461749</v>
+        <v>0.047055460263</v>
       </c>
     </row>
     <row r="154" spans="1:7">
@@ -3915,7 +3915,7 @@
         <v>44074</v>
       </c>
       <c r="B154" s="2">
-        <v>14566</v>
+        <v>14570</v>
       </c>
       <c r="C154" s="2">
         <v>138</v>
@@ -3924,13 +3924,13 @@
         <v>116</v>
       </c>
       <c r="E154" s="2">
-        <v>284026</v>
+        <v>284072</v>
       </c>
       <c r="F154" s="2">
         <v>3125</v>
       </c>
       <c r="G154" s="4">
-        <v>0.046076150485</v>
+        <v>0.046050019849</v>
       </c>
     </row>
     <row r="155" spans="1:7">
@@ -3938,7 +3938,7 @@
         <v>44075</v>
       </c>
       <c r="B155" s="2">
-        <v>14697</v>
+        <v>14701</v>
       </c>
       <c r="C155" s="2">
         <v>131</v>
@@ -3947,13 +3947,13 @@
         <v>115.571428571428</v>
       </c>
       <c r="E155" s="2">
-        <v>287293</v>
+        <v>287339</v>
       </c>
       <c r="F155" s="2">
         <v>3267</v>
       </c>
       <c r="G155" s="4">
-        <v>0.045258741258</v>
+        <v>0.045235965108</v>
       </c>
     </row>
     <row r="156" spans="1:7">
@@ -3961,7 +3961,7 @@
         <v>44076</v>
       </c>
       <c r="B156" s="2">
-        <v>14812</v>
+        <v>14816</v>
       </c>
       <c r="C156" s="2">
         <v>115</v>
@@ -3970,13 +3970,13 @@
         <v>112.714285714285</v>
       </c>
       <c r="E156" s="2">
-        <v>290258</v>
+        <v>290305</v>
       </c>
       <c r="F156" s="2">
-        <v>2965</v>
+        <v>2966</v>
       </c>
       <c r="G156" s="4">
-        <v>0.044122581366</v>
+        <v>0.044102850754</v>
       </c>
     </row>
     <row r="157" spans="1:7">
@@ -3984,7 +3984,7 @@
         <v>44077</v>
       </c>
       <c r="B157" s="2">
-        <v>14907</v>
+        <v>14911</v>
       </c>
       <c r="C157" s="2">
         <v>95</v>
@@ -3993,13 +3993,13 @@
         <v>102.428571428571</v>
       </c>
       <c r="E157" s="2">
-        <v>293188</v>
+        <v>293235</v>
       </c>
       <c r="F157" s="2">
         <v>2930</v>
       </c>
       <c r="G157" s="4">
-        <v>0.040810518526</v>
+        <v>0.040808195788</v>
       </c>
     </row>
     <row r="158" spans="1:7">
@@ -4007,7 +4007,7 @@
         <v>44078</v>
       </c>
       <c r="B158" s="2">
-        <v>15029</v>
+        <v>15033</v>
       </c>
       <c r="C158" s="2">
         <v>122</v>
@@ -4016,13 +4016,13 @@
         <v>103.285714285714</v>
       </c>
       <c r="E158" s="2">
-        <v>295991</v>
+        <v>296039</v>
       </c>
       <c r="F158" s="2">
-        <v>2803</v>
+        <v>2804</v>
       </c>
       <c r="G158" s="4">
-        <v>0.041072544452</v>
+        <v>0.041067878443</v>
       </c>
     </row>
     <row r="159" spans="1:7">
@@ -4030,7 +4030,7 @@
         <v>44079</v>
       </c>
       <c r="B159" s="2">
-        <v>15095</v>
+        <v>15099</v>
       </c>
       <c r="C159" s="2">
         <v>66</v>
@@ -4039,13 +4039,13 @@
         <v>103.571428571428</v>
       </c>
       <c r="E159" s="2">
-        <v>297327</v>
+        <v>297375</v>
       </c>
       <c r="F159" s="2">
         <v>1336</v>
       </c>
       <c r="G159" s="4">
-        <v>0.041416738074</v>
+        <v>0.041412006625</v>
       </c>
     </row>
     <row r="160" spans="1:7">
@@ -4053,7 +4053,7 @@
         <v>44080</v>
       </c>
       <c r="B160" s="2">
-        <v>15148</v>
+        <v>15152</v>
       </c>
       <c r="C160" s="2">
         <v>53</v>
@@ -4062,13 +4062,13 @@
         <v>102.857142857142</v>
       </c>
       <c r="E160" s="2">
-        <v>298413</v>
+        <v>298461</v>
       </c>
       <c r="F160" s="2">
         <v>1086</v>
       </c>
       <c r="G160" s="4">
-        <v>0.04111466423</v>
+        <v>0.041109969167</v>
       </c>
     </row>
     <row r="161" spans="1:7">
@@ -4076,7 +4076,7 @@
         <v>44081</v>
       </c>
       <c r="B161" s="2">
-        <v>15216</v>
+        <v>15220</v>
       </c>
       <c r="C161" s="2">
         <v>68</v>
@@ -4085,13 +4085,13 @@
         <v>92.85714285714199</v>
       </c>
       <c r="E161" s="2">
-        <v>299664</v>
+        <v>299712</v>
       </c>
       <c r="F161" s="2">
         <v>1251</v>
       </c>
       <c r="G161" s="4">
-        <v>0.041565417572</v>
+        <v>0.041560102301</v>
       </c>
     </row>
     <row r="162" spans="1:7">
@@ -4099,7 +4099,7 @@
         <v>44082</v>
       </c>
       <c r="B162" s="2">
-        <v>15360</v>
+        <v>15364</v>
       </c>
       <c r="C162" s="2">
         <v>144</v>
@@ -4108,13 +4108,13 @@
         <v>94.714285714285</v>
       </c>
       <c r="E162" s="2">
-        <v>303939</v>
+        <v>303988</v>
       </c>
       <c r="F162" s="2">
-        <v>4275</v>
+        <v>4276</v>
       </c>
       <c r="G162" s="4">
-        <v>0.039829388441</v>
+        <v>0.039822211544</v>
       </c>
     </row>
     <row r="163" spans="1:7">
@@ -4122,22 +4122,22 @@
         <v>44083</v>
       </c>
       <c r="B163" s="2">
-        <v>15510</v>
+        <v>15515</v>
       </c>
       <c r="C163" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D163" s="3">
-        <v>99.714285714285</v>
+        <v>99.85714285714199</v>
       </c>
       <c r="E163" s="2">
-        <v>307445</v>
+        <v>307496</v>
       </c>
       <c r="F163" s="2">
-        <v>3506</v>
+        <v>3508</v>
       </c>
       <c r="G163" s="4">
-        <v>0.040612090533</v>
+        <v>0.040660810889</v>
       </c>
     </row>
     <row r="164" spans="1:7">
@@ -4145,22 +4145,22 @@
         <v>44084</v>
       </c>
       <c r="B164" s="2">
-        <v>15612</v>
+        <v>15617</v>
       </c>
       <c r="C164" s="2">
         <v>102</v>
       </c>
       <c r="D164" s="3">
-        <v>100.714285714285</v>
+        <v>100.857142857142</v>
       </c>
       <c r="E164" s="2">
-        <v>310714</v>
+        <v>310765</v>
       </c>
       <c r="F164" s="2">
         <v>3269</v>
       </c>
       <c r="G164" s="4">
-        <v>0.040225950017</v>
+        <v>0.040273816314</v>
       </c>
     </row>
     <row r="165" spans="1:7">
@@ -4168,22 +4168,22 @@
         <v>44085</v>
       </c>
       <c r="B165" s="2">
-        <v>15684</v>
+        <v>15689</v>
       </c>
       <c r="C165" s="2">
         <v>72</v>
       </c>
       <c r="D165" s="3">
-        <v>93.571428571428</v>
+        <v>93.714285714285</v>
       </c>
       <c r="E165" s="2">
-        <v>313201</v>
+        <v>313252</v>
       </c>
       <c r="F165" s="2">
         <v>2487</v>
       </c>
       <c r="G165" s="4">
-        <v>0.038059267867</v>
+        <v>0.038110730262</v>
       </c>
     </row>
     <row r="166" spans="1:7">
@@ -4191,22 +4191,22 @@
         <v>44086</v>
       </c>
       <c r="B166" s="2">
-        <v>15732</v>
+        <v>15737</v>
       </c>
       <c r="C166" s="2">
         <v>48</v>
       </c>
       <c r="D166" s="3">
-        <v>91</v>
+        <v>91.142857142857</v>
       </c>
       <c r="E166" s="2">
-        <v>314592</v>
+        <v>314643</v>
       </c>
       <c r="F166" s="2">
         <v>1391</v>
       </c>
       <c r="G166" s="4">
-        <v>0.036895453229</v>
+        <v>0.036946953903</v>
       </c>
     </row>
     <row r="167" spans="1:7">
@@ -4214,22 +4214,22 @@
         <v>44087</v>
       </c>
       <c r="B167" s="2">
-        <v>15764</v>
+        <v>15769</v>
       </c>
       <c r="C167" s="2">
         <v>32</v>
       </c>
       <c r="D167" s="3">
-        <v>88</v>
+        <v>88.142857142857</v>
       </c>
       <c r="E167" s="2">
-        <v>315434</v>
+        <v>315486</v>
       </c>
       <c r="F167" s="2">
-        <v>842</v>
+        <v>843</v>
       </c>
       <c r="G167" s="4">
-        <v>0.036190588097</v>
+        <v>0.03624082232</v>
       </c>
     </row>
     <row r="168" spans="1:7">
@@ -4237,22 +4237,22 @@
         <v>44088</v>
       </c>
       <c r="B168" s="2">
-        <v>15865</v>
+        <v>15870</v>
       </c>
       <c r="C168" s="2">
         <v>101</v>
       </c>
       <c r="D168" s="3">
-        <v>92.714285714285</v>
+        <v>92.85714285714199</v>
       </c>
       <c r="E168" s="2">
-        <v>318810</v>
+        <v>318863</v>
       </c>
       <c r="F168" s="2">
-        <v>3376</v>
+        <v>3377</v>
       </c>
       <c r="G168" s="4">
-        <v>0.033897419826</v>
+        <v>0.033940786381</v>
       </c>
     </row>
     <row r="169" spans="1:7">
@@ -4260,22 +4260,22 @@
         <v>44089</v>
       </c>
       <c r="B169" s="2">
-        <v>15995</v>
+        <v>16000</v>
       </c>
       <c r="C169" s="2">
         <v>130</v>
       </c>
       <c r="D169" s="3">
-        <v>90.714285714285</v>
+        <v>90.85714285714199</v>
       </c>
       <c r="E169" s="2">
-        <v>322762</v>
+        <v>322814</v>
       </c>
       <c r="F169" s="2">
-        <v>3952</v>
+        <v>3951</v>
       </c>
       <c r="G169" s="4">
-        <v>0.033735323805</v>
+        <v>0.033783065972</v>
       </c>
     </row>
     <row r="170" spans="1:7">
@@ -4283,7 +4283,7 @@
         <v>44090</v>
       </c>
       <c r="B170" s="2">
-        <v>16081</v>
+        <v>16086</v>
       </c>
       <c r="C170" s="2">
         <v>86</v>
@@ -4292,13 +4292,13 @@
         <v>81.571428571428</v>
       </c>
       <c r="E170" s="2">
-        <v>326047</v>
+        <v>326099</v>
       </c>
       <c r="F170" s="2">
         <v>3285</v>
       </c>
       <c r="G170" s="4">
-        <v>0.030695624126</v>
+        <v>0.03069397409</v>
       </c>
     </row>
     <row r="171" spans="1:7">
@@ -4306,7 +4306,7 @@
         <v>44091</v>
       </c>
       <c r="B171" s="2">
-        <v>16184</v>
+        <v>16189</v>
       </c>
       <c r="C171" s="2">
         <v>103</v>
@@ -4315,13 +4315,13 @@
         <v>81.714285714285</v>
       </c>
       <c r="E171" s="2">
-        <v>329649</v>
+        <v>329703</v>
       </c>
       <c r="F171" s="2">
-        <v>3602</v>
+        <v>3604</v>
       </c>
       <c r="G171" s="4">
-        <v>0.030208608397</v>
+        <v>0.030203823001</v>
       </c>
     </row>
     <row r="172" spans="1:7">
@@ -4329,7 +4329,7 @@
         <v>44092</v>
       </c>
       <c r="B172" s="2">
-        <v>16288</v>
+        <v>16293</v>
       </c>
       <c r="C172" s="2">
         <v>104</v>
@@ -4338,13 +4338,13 @@
         <v>86.28571428571399</v>
       </c>
       <c r="E172" s="2">
-        <v>332916</v>
+        <v>332971</v>
       </c>
       <c r="F172" s="2">
-        <v>3267</v>
+        <v>3268</v>
       </c>
       <c r="G172" s="4">
-        <v>0.030636571138</v>
+        <v>0.030630356508</v>
       </c>
     </row>
     <row r="173" spans="1:7">
@@ -4352,7 +4352,7 @@
         <v>44093</v>
       </c>
       <c r="B173" s="2">
-        <v>16360</v>
+        <v>16365</v>
       </c>
       <c r="C173" s="2">
         <v>72</v>
@@ -4361,13 +4361,13 @@
         <v>89.714285714285</v>
       </c>
       <c r="E173" s="2">
-        <v>334433</v>
+        <v>334490</v>
       </c>
       <c r="F173" s="2">
-        <v>1517</v>
+        <v>1519</v>
       </c>
       <c r="G173" s="4">
-        <v>0.031651630462</v>
+        <v>0.031642061772</v>
       </c>
     </row>
     <row r="174" spans="1:7">
@@ -4375,7 +4375,7 @@
         <v>44094</v>
       </c>
       <c r="B174" s="2">
-        <v>16402</v>
+        <v>16407</v>
       </c>
       <c r="C174" s="2">
         <v>42</v>
@@ -4384,13 +4384,13 @@
         <v>91.142857142857</v>
       </c>
       <c r="E174" s="2">
-        <v>335584</v>
+        <v>335641</v>
       </c>
       <c r="F174" s="2">
         <v>1151</v>
       </c>
       <c r="G174" s="4">
-        <v>0.031662531017</v>
+        <v>0.031654676258</v>
       </c>
     </row>
     <row r="175" spans="1:7">
@@ -4398,7 +4398,7 @@
         <v>44095</v>
       </c>
       <c r="B175" s="2">
-        <v>16545</v>
+        <v>16550</v>
       </c>
       <c r="C175" s="2">
         <v>143</v>
@@ -4407,13 +4407,13 @@
         <v>97.142857142857</v>
       </c>
       <c r="E175" s="2">
-        <v>339927</v>
+        <v>339985</v>
       </c>
       <c r="F175" s="2">
-        <v>4343</v>
+        <v>4344</v>
       </c>
       <c r="G175" s="4">
-        <v>0.032201543779</v>
+        <v>0.03219392103</v>
       </c>
     </row>
     <row r="176" spans="1:7">
@@ -4421,7 +4421,7 @@
         <v>44096</v>
       </c>
       <c r="B176" s="2">
-        <v>16643</v>
+        <v>16648</v>
       </c>
       <c r="C176" s="2">
         <v>98</v>
@@ -4430,13 +4430,13 @@
         <v>92.571428571428</v>
       </c>
       <c r="E176" s="2">
-        <v>343691</v>
+        <v>343762</v>
       </c>
       <c r="F176" s="2">
-        <v>3764</v>
+        <v>3777</v>
       </c>
       <c r="G176" s="4">
-        <v>0.030961823307</v>
+        <v>0.030933740691</v>
       </c>
     </row>
     <row r="177" spans="1:7">
@@ -4444,7 +4444,7 @@
         <v>44097</v>
       </c>
       <c r="B177" s="2">
-        <v>16738</v>
+        <v>16743</v>
       </c>
       <c r="C177" s="2">
         <v>95</v>
@@ -4453,13 +4453,13 @@
         <v>93.85714285714199</v>
       </c>
       <c r="E177" s="2">
-        <v>347169</v>
+        <v>347241</v>
       </c>
       <c r="F177" s="2">
-        <v>3478</v>
+        <v>3479</v>
       </c>
       <c r="G177" s="4">
-        <v>0.031105008995</v>
+        <v>0.031075584145</v>
       </c>
     </row>
     <row r="178" spans="1:7">
@@ -4467,7 +4467,7 @@
         <v>44098</v>
       </c>
       <c r="B178" s="2">
-        <v>16829</v>
+        <v>16834</v>
       </c>
       <c r="C178" s="2">
         <v>91</v>
@@ -4476,13 +4476,13 @@
         <v>92.142857142857</v>
       </c>
       <c r="E178" s="2">
-        <v>350880</v>
+        <v>350960</v>
       </c>
       <c r="F178" s="2">
-        <v>3711</v>
+        <v>3719</v>
       </c>
       <c r="G178" s="4">
-        <v>0.030380104564</v>
+        <v>0.030342945853</v>
       </c>
     </row>
     <row r="179" spans="1:7">
@@ -4490,7 +4490,7 @@
         <v>44099</v>
       </c>
       <c r="B179" s="2">
-        <v>16919</v>
+        <v>16924</v>
       </c>
       <c r="C179" s="2">
         <v>90</v>
@@ -4499,13 +4499,13 @@
         <v>90.142857142857</v>
       </c>
       <c r="E179" s="2">
-        <v>354164</v>
+        <v>354245</v>
       </c>
       <c r="F179" s="2">
-        <v>3284</v>
+        <v>3285</v>
       </c>
       <c r="G179" s="4">
-        <v>0.02969691265</v>
+        <v>0.029660618595</v>
       </c>
     </row>
     <row r="180" spans="1:7">
@@ -4513,7 +4513,7 @@
         <v>44100</v>
       </c>
       <c r="B180" s="2">
-        <v>16978</v>
+        <v>16983</v>
       </c>
       <c r="C180" s="2">
         <v>59</v>
@@ -4522,13 +4522,13 @@
         <v>88.28571428571399</v>
       </c>
       <c r="E180" s="2">
-        <v>356027</v>
+        <v>356109</v>
       </c>
       <c r="F180" s="2">
-        <v>1863</v>
+        <v>1864</v>
       </c>
       <c r="G180" s="4">
-        <v>0.02861906085</v>
+        <v>0.028585966048</v>
       </c>
     </row>
     <row r="181" spans="1:7">
@@ -4536,22 +4536,22 @@
         <v>44101</v>
       </c>
       <c r="B181" s="2">
-        <v>17000</v>
+        <v>17006</v>
       </c>
       <c r="C181" s="2">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D181" s="3">
-        <v>85.428571428571</v>
+        <v>85.571428571428</v>
       </c>
       <c r="E181" s="2">
-        <v>357146</v>
+        <v>357229</v>
       </c>
       <c r="F181" s="2">
-        <v>1119</v>
+        <v>1120</v>
       </c>
       <c r="G181" s="4">
-        <v>0.02773397644</v>
+        <v>0.027746896423</v>
       </c>
     </row>
     <row r="182" spans="1:7">
@@ -4559,22 +4559,22 @@
         <v>44102</v>
       </c>
       <c r="B182" s="2">
-        <v>17112</v>
+        <v>17118</v>
       </c>
       <c r="C182" s="2">
         <v>112</v>
       </c>
       <c r="D182" s="3">
-        <v>81</v>
+        <v>81.142857142857</v>
       </c>
       <c r="E182" s="2">
-        <v>361208</v>
+        <v>361291</v>
       </c>
       <c r="F182" s="2">
         <v>4062</v>
       </c>
       <c r="G182" s="4">
-        <v>0.026643484798</v>
+        <v>0.026659157044</v>
       </c>
     </row>
     <row r="183" spans="1:7">
@@ -4582,22 +4582,22 @@
         <v>44103</v>
       </c>
       <c r="B183" s="2">
-        <v>17187</v>
+        <v>17193</v>
       </c>
       <c r="C183" s="2">
         <v>75</v>
       </c>
       <c r="D183" s="3">
-        <v>77.714285714285</v>
+        <v>77.85714285714199</v>
       </c>
       <c r="E183" s="2">
-        <v>365014</v>
+        <v>365098</v>
       </c>
       <c r="F183" s="2">
-        <v>3806</v>
+        <v>3807</v>
       </c>
       <c r="G183" s="4">
-        <v>0.025512357548</v>
+        <v>0.025543682039</v>
       </c>
     </row>
     <row r="184" spans="1:7">
@@ -4605,22 +4605,22 @@
         <v>44104</v>
       </c>
       <c r="B184" s="2">
-        <v>17246</v>
+        <v>17252</v>
       </c>
       <c r="C184" s="2">
         <v>59</v>
       </c>
       <c r="D184" s="3">
-        <v>72.571428571428</v>
+        <v>72.714285714285</v>
       </c>
       <c r="E184" s="2">
-        <v>368550</v>
+        <v>368635</v>
       </c>
       <c r="F184" s="2">
-        <v>3536</v>
+        <v>3537</v>
       </c>
       <c r="G184" s="4">
-        <v>0.023759412562</v>
+        <v>0.023791717303</v>
       </c>
     </row>
     <row r="185" spans="1:7">
@@ -4628,22 +4628,22 @@
         <v>44105</v>
       </c>
       <c r="B185" s="2">
-        <v>17308</v>
+        <v>17314</v>
       </c>
       <c r="C185" s="2">
         <v>62</v>
       </c>
       <c r="D185" s="3">
-        <v>68.428571428571</v>
+        <v>68.571428571428</v>
       </c>
       <c r="E185" s="2">
-        <v>372054</v>
+        <v>372139</v>
       </c>
       <c r="F185" s="2">
         <v>3504</v>
       </c>
       <c r="G185" s="4">
-        <v>0.022622083687</v>
+        <v>0.022663959582</v>
       </c>
     </row>
     <row r="186" spans="1:7">
@@ -4651,22 +4651,22 @@
         <v>44106</v>
       </c>
       <c r="B186" s="2">
-        <v>17386</v>
+        <v>17393</v>
       </c>
       <c r="C186" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D186" s="3">
-        <v>66.714285714285</v>
+        <v>67</v>
       </c>
       <c r="E186" s="2">
-        <v>375583</v>
+        <v>375671</v>
       </c>
       <c r="F186" s="2">
-        <v>3529</v>
+        <v>3532</v>
       </c>
       <c r="G186" s="4">
-        <v>0.021803072038</v>
+        <v>0.021889293381</v>
       </c>
     </row>
     <row r="187" spans="1:7">
@@ -4674,22 +4674,22 @@
         <v>44107</v>
       </c>
       <c r="B187" s="2">
-        <v>17430</v>
+        <v>17437</v>
       </c>
       <c r="C187" s="2">
         <v>44</v>
       </c>
       <c r="D187" s="3">
-        <v>64.571428571428</v>
+        <v>64.85714285714199</v>
       </c>
       <c r="E187" s="2">
-        <v>377566</v>
+        <v>377655</v>
       </c>
       <c r="F187" s="2">
-        <v>1983</v>
+        <v>1984</v>
       </c>
       <c r="G187" s="4">
-        <v>0.020985189655</v>
+        <v>0.021071196509</v>
       </c>
     </row>
     <row r="188" spans="1:7">
@@ -4697,22 +4697,22 @@
         <v>44108</v>
       </c>
       <c r="B188" s="2">
-        <v>17467</v>
+        <v>17474</v>
       </c>
       <c r="C188" s="2">
         <v>37</v>
       </c>
       <c r="D188" s="3">
-        <v>66.714285714285</v>
+        <v>66.85714285714199</v>
       </c>
       <c r="E188" s="2">
-        <v>378942</v>
+        <v>379031</v>
       </c>
       <c r="F188" s="2">
         <v>1376</v>
       </c>
       <c r="G188" s="4">
-        <v>0.021425949715</v>
+        <v>0.021465920557</v>
       </c>
     </row>
     <row r="189" spans="1:7">
@@ -4720,22 +4720,45 @@
         <v>44109</v>
       </c>
       <c r="B189" s="2">
-        <v>17544</v>
+        <v>17551</v>
       </c>
       <c r="C189" s="2">
         <v>77</v>
       </c>
       <c r="D189" s="3">
-        <v>61.71428571428499</v>
+        <v>61.857142857142</v>
       </c>
       <c r="E189" s="2">
-        <v>383704</v>
+        <v>383802</v>
       </c>
       <c r="F189" s="2">
-        <v>4762</v>
+        <v>4771</v>
       </c>
       <c r="G189" s="4">
-        <v>0.01920341394</v>
+        <v>0.019235040646</v>
+      </c>
+    </row>
+    <row r="190" spans="1:7">
+      <c r="A190" s="1">
+        <v>44110</v>
+      </c>
+      <c r="B190" s="2">
+        <v>17613</v>
+      </c>
+      <c r="C190" s="2">
+        <v>62</v>
+      </c>
+      <c r="D190" s="3">
+        <v>60</v>
+      </c>
+      <c r="E190" s="2">
+        <v>388404</v>
+      </c>
+      <c r="F190" s="2">
+        <v>4602</v>
+      </c>
+      <c r="G190" s="4">
+        <v>0.018021110443</v>
       </c>
     </row>
   </sheetData>

--- a/contra_costa_county_testing.xlsx
+++ b/contra_costa_county_testing.xlsx
@@ -376,7 +376,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G190"/>
+  <dimension ref="A1:G191"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1210,13 +1210,13 @@
         <v>15.428571428571</v>
       </c>
       <c r="E36" s="2">
-        <v>19378</v>
+        <v>19379</v>
       </c>
       <c r="F36" s="2">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="G36" s="4">
-        <v>0.025192442267</v>
+        <v>0.025186567164</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -1233,13 +1233,13 @@
         <v>16.428571428571</v>
       </c>
       <c r="E37" s="2">
-        <v>20343</v>
+        <v>20344</v>
       </c>
       <c r="F37" s="2">
         <v>965</v>
       </c>
       <c r="G37" s="4">
-        <v>0.025258071601</v>
+        <v>0.025252525252</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -1256,13 +1256,13 @@
         <v>14.428571428571</v>
       </c>
       <c r="E38" s="2">
-        <v>21239</v>
+        <v>21240</v>
       </c>
       <c r="F38" s="2">
         <v>896</v>
       </c>
       <c r="G38" s="4">
-        <v>0.021942211601</v>
+        <v>0.021937445699</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -1282,7 +1282,7 @@
         <v>22381</v>
       </c>
       <c r="F39" s="2">
-        <v>1142</v>
+        <v>1141</v>
       </c>
       <c r="G39" s="4">
         <v>0.021344504288</v>
@@ -1377,7 +1377,7 @@
         <v>1231</v>
       </c>
       <c r="G43" s="4">
-        <v>0.01418673705</v>
+        <v>0.014189077709</v>
       </c>
     </row>
     <row r="44" spans="1:7">
@@ -1400,7 +1400,7 @@
         <v>1098</v>
       </c>
       <c r="G44" s="4">
-        <v>0.014527845036</v>
+        <v>0.014530190506</v>
       </c>
     </row>
     <row r="45" spans="1:7">
@@ -1423,7 +1423,7 @@
         <v>861</v>
       </c>
       <c r="G45" s="4">
-        <v>0.015909090909</v>
+        <v>0.015911673973</v>
       </c>
     </row>
     <row r="46" spans="1:7">
@@ -1532,13 +1532,13 @@
         <v>25.714285714285</v>
       </c>
       <c r="E50" s="2">
-        <v>32144</v>
+        <v>32143</v>
       </c>
       <c r="F50" s="2">
-        <v>1661</v>
+        <v>1660</v>
       </c>
       <c r="G50" s="4">
-        <v>0.026849642004</v>
+        <v>0.02685364762</v>
       </c>
     </row>
     <row r="51" spans="1:7">
@@ -1555,13 +1555,13 @@
         <v>26.142857142857</v>
       </c>
       <c r="E51" s="2">
-        <v>33285</v>
+        <v>33284</v>
       </c>
       <c r="F51" s="2">
         <v>1141</v>
       </c>
       <c r="G51" s="4">
-        <v>0.027123165851</v>
+        <v>0.02712718648</v>
       </c>
     </row>
     <row r="52" spans="1:7">
@@ -1578,13 +1578,13 @@
         <v>27.428571428571</v>
       </c>
       <c r="E52" s="2">
-        <v>34417</v>
+        <v>34416</v>
       </c>
       <c r="F52" s="2">
         <v>1132</v>
       </c>
       <c r="G52" s="4">
-        <v>0.027358221715</v>
+        <v>0.027362120564</v>
       </c>
     </row>
     <row r="53" spans="1:7">
@@ -1601,13 +1601,13 @@
         <v>29.142857142857</v>
       </c>
       <c r="E53" s="2">
-        <v>35506</v>
+        <v>35505</v>
       </c>
       <c r="F53" s="2">
         <v>1089</v>
       </c>
       <c r="G53" s="4">
-        <v>0.02838063439</v>
+        <v>0.028384583275</v>
       </c>
     </row>
     <row r="54" spans="1:7">
@@ -1624,13 +1624,13 @@
         <v>28</v>
       </c>
       <c r="E54" s="2">
-        <v>36025</v>
+        <v>36024</v>
       </c>
       <c r="F54" s="2">
         <v>519</v>
       </c>
       <c r="G54" s="4">
-        <v>0.026856673061</v>
+        <v>0.026860353569</v>
       </c>
     </row>
     <row r="55" spans="1:7">
@@ -1647,13 +1647,13 @@
         <v>27.571428571428</v>
       </c>
       <c r="E55" s="2">
-        <v>36419</v>
+        <v>36418</v>
       </c>
       <c r="F55" s="2">
         <v>394</v>
       </c>
       <c r="G55" s="4">
-        <v>0.026434734967</v>
+        <v>0.026438356164</v>
       </c>
     </row>
     <row r="56" spans="1:7">
@@ -1670,13 +1670,13 @@
         <v>23.285714285714</v>
       </c>
       <c r="E56" s="2">
-        <v>36884</v>
+        <v>36883</v>
       </c>
       <c r="F56" s="2">
         <v>465</v>
       </c>
       <c r="G56" s="4">
-        <v>0.025464771129</v>
+        <v>0.02546875</v>
       </c>
     </row>
     <row r="57" spans="1:7">
@@ -1696,10 +1696,10 @@
         <v>38080</v>
       </c>
       <c r="F57" s="2">
-        <v>1196</v>
+        <v>1197</v>
       </c>
       <c r="G57" s="4">
-        <v>0.027964959568</v>
+        <v>0.027960249284</v>
       </c>
     </row>
     <row r="58" spans="1:7">
@@ -1722,7 +1722,7 @@
         <v>1113</v>
       </c>
       <c r="G58" s="4">
-        <v>0.028097494922</v>
+        <v>0.028092739888</v>
       </c>
     </row>
     <row r="59" spans="1:7">
@@ -1745,7 +1745,7 @@
         <v>1137</v>
       </c>
       <c r="G59" s="4">
-        <v>0.031117875866</v>
+        <v>0.031112614135</v>
       </c>
     </row>
     <row r="60" spans="1:7">
@@ -1768,7 +1768,7 @@
         <v>1403</v>
       </c>
       <c r="G60" s="4">
-        <v>0.02986992131</v>
+        <v>0.02986512524</v>
       </c>
     </row>
     <row r="61" spans="1:7">
@@ -1791,7 +1791,7 @@
         <v>734</v>
       </c>
       <c r="G61" s="4">
-        <v>0.028562558211</v>
+        <v>0.028558125097</v>
       </c>
     </row>
     <row r="62" spans="1:7">
@@ -1814,7 +1814,7 @@
         <v>398</v>
       </c>
       <c r="G62" s="4">
-        <v>0.02823456407</v>
+        <v>0.028230184581</v>
       </c>
     </row>
     <row r="63" spans="1:7">
@@ -1831,13 +1831,13 @@
         <v>29.285714285714</v>
       </c>
       <c r="E63" s="2">
-        <v>44243</v>
+        <v>44241</v>
       </c>
       <c r="F63" s="2">
-        <v>1378</v>
+        <v>1376</v>
       </c>
       <c r="G63" s="4">
-        <v>0.027857045794</v>
+        <v>0.027860831747</v>
       </c>
     </row>
     <row r="64" spans="1:7">
@@ -1854,13 +1854,13 @@
         <v>28.285714285714</v>
       </c>
       <c r="E64" s="2">
-        <v>45460</v>
+        <v>45458</v>
       </c>
       <c r="F64" s="2">
         <v>1217</v>
       </c>
       <c r="G64" s="4">
-        <v>0.026829268292</v>
+        <v>0.026836541068</v>
       </c>
     </row>
     <row r="65" spans="1:7">
@@ -1877,13 +1877,13 @@
         <v>27.857142857142</v>
       </c>
       <c r="E65" s="2">
-        <v>46624</v>
+        <v>46622</v>
       </c>
       <c r="F65" s="2">
         <v>1164</v>
       </c>
       <c r="G65" s="4">
-        <v>0.026241421073</v>
+        <v>0.026248485664</v>
       </c>
     </row>
     <row r="66" spans="1:7">
@@ -1900,13 +1900,13 @@
         <v>28.571428571428</v>
       </c>
       <c r="E66" s="2">
-        <v>47976</v>
+        <v>47974</v>
       </c>
       <c r="F66" s="2">
         <v>1352</v>
       </c>
       <c r="G66" s="4">
-        <v>0.026157467957</v>
+        <v>0.026164311878</v>
       </c>
     </row>
     <row r="67" spans="1:7">
@@ -1923,13 +1923,13 @@
         <v>29.285714285714</v>
       </c>
       <c r="E67" s="2">
-        <v>49608</v>
+        <v>49606</v>
       </c>
       <c r="F67" s="2">
         <v>1632</v>
       </c>
       <c r="G67" s="4">
-        <v>0.026031746031</v>
+        <v>0.026038358948</v>
       </c>
     </row>
     <row r="68" spans="1:7">
@@ -1946,13 +1946,13 @@
         <v>30.571428571428</v>
       </c>
       <c r="E68" s="2">
-        <v>50213</v>
+        <v>50211</v>
       </c>
       <c r="F68" s="2">
         <v>605</v>
       </c>
       <c r="G68" s="4">
-        <v>0.027627162406</v>
+        <v>0.02763429752</v>
       </c>
     </row>
     <row r="69" spans="1:7">
@@ -1969,13 +1969,13 @@
         <v>32.428571428571</v>
       </c>
       <c r="E69" s="2">
-        <v>50698</v>
+        <v>50696</v>
       </c>
       <c r="F69" s="2">
         <v>485</v>
       </c>
       <c r="G69" s="4">
-        <v>0.028979956593</v>
+        <v>0.028987357936</v>
       </c>
     </row>
     <row r="70" spans="1:7">
@@ -1992,7 +1992,7 @@
         <v>34.714285714285</v>
       </c>
       <c r="E70" s="2">
-        <v>52536</v>
+        <v>52534</v>
       </c>
       <c r="F70" s="2">
         <v>1838</v>
@@ -2015,7 +2015,7 @@
         <v>36.428571428571</v>
       </c>
       <c r="E71" s="2">
-        <v>54384</v>
+        <v>54382</v>
       </c>
       <c r="F71" s="2">
         <v>1848</v>
@@ -2038,7 +2038,7 @@
         <v>40</v>
       </c>
       <c r="E72" s="2">
-        <v>56375</v>
+        <v>56373</v>
       </c>
       <c r="F72" s="2">
         <v>1991</v>
@@ -2061,13 +2061,13 @@
         <v>40.285714285714</v>
       </c>
       <c r="E73" s="2">
-        <v>58521</v>
+        <v>58525</v>
       </c>
       <c r="F73" s="2">
-        <v>2146</v>
+        <v>2152</v>
       </c>
       <c r="G73" s="4">
-        <v>0.026742532005</v>
+        <v>0.026727324424</v>
       </c>
     </row>
     <row r="74" spans="1:7">
@@ -2084,13 +2084,13 @@
         <v>41.857142857142</v>
       </c>
       <c r="E74" s="2">
-        <v>60770</v>
+        <v>60782</v>
       </c>
       <c r="F74" s="2">
-        <v>2249</v>
+        <v>2257</v>
       </c>
       <c r="G74" s="4">
-        <v>0.026249776025</v>
+        <v>0.026216893342</v>
       </c>
     </row>
     <row r="75" spans="1:7">
@@ -2107,13 +2107,13 @@
         <v>44.142857142857</v>
       </c>
       <c r="E75" s="2">
-        <v>61610</v>
+        <v>61622</v>
       </c>
       <c r="F75" s="2">
         <v>840</v>
       </c>
       <c r="G75" s="4">
-        <v>0.027112397999</v>
+        <v>0.027079134168</v>
       </c>
     </row>
     <row r="76" spans="1:7">
@@ -2130,13 +2130,13 @@
         <v>45.428571428571</v>
       </c>
       <c r="E76" s="2">
-        <v>62193</v>
+        <v>62205</v>
       </c>
       <c r="F76" s="2">
         <v>583</v>
       </c>
       <c r="G76" s="4">
-        <v>0.027664201826</v>
+        <v>0.027630550004</v>
       </c>
     </row>
     <row r="77" spans="1:7">
@@ -2153,13 +2153,13 @@
         <v>46.714285714285</v>
       </c>
       <c r="E77" s="2">
-        <v>64409</v>
+        <v>64422</v>
       </c>
       <c r="F77" s="2">
-        <v>2216</v>
+        <v>2217</v>
       </c>
       <c r="G77" s="4">
-        <v>0.02754148067</v>
+        <v>0.027506729475</v>
       </c>
     </row>
     <row r="78" spans="1:7">
@@ -2176,13 +2176,13 @@
         <v>52.571428571428</v>
       </c>
       <c r="E78" s="2">
-        <v>66930</v>
+        <v>66943</v>
       </c>
       <c r="F78" s="2">
         <v>2521</v>
       </c>
       <c r="G78" s="4">
-        <v>0.029332058026</v>
+        <v>0.029297030491</v>
       </c>
     </row>
     <row r="79" spans="1:7">
@@ -2199,13 +2199,13 @@
         <v>57.285714285714</v>
       </c>
       <c r="E79" s="2">
-        <v>69501</v>
+        <v>69514</v>
       </c>
       <c r="F79" s="2">
         <v>2571</v>
       </c>
       <c r="G79" s="4">
-        <v>0.030550053329</v>
+        <v>0.030515181493</v>
       </c>
     </row>
     <row r="80" spans="1:7">
@@ -2222,13 +2222,13 @@
         <v>62.57142857142801</v>
       </c>
       <c r="E80" s="2">
-        <v>72026</v>
+        <v>72039</v>
       </c>
       <c r="F80" s="2">
         <v>2525</v>
       </c>
       <c r="G80" s="4">
-        <v>0.032432432432</v>
+        <v>0.03241083321</v>
       </c>
     </row>
     <row r="81" spans="1:7">
@@ -2245,13 +2245,13 @@
         <v>68.85714285714199</v>
       </c>
       <c r="E81" s="2">
-        <v>74469</v>
+        <v>74482</v>
       </c>
       <c r="F81" s="2">
         <v>2443</v>
       </c>
       <c r="G81" s="4">
-        <v>0.035185050003</v>
+        <v>0.035182481751</v>
       </c>
     </row>
     <row r="82" spans="1:7">
@@ -2268,13 +2268,13 @@
         <v>71.428571428571</v>
       </c>
       <c r="E82" s="2">
-        <v>75421</v>
+        <v>75434</v>
       </c>
       <c r="F82" s="2">
         <v>952</v>
       </c>
       <c r="G82" s="4">
-        <v>0.036203026573</v>
+        <v>0.036200405444</v>
       </c>
     </row>
     <row r="83" spans="1:7">
@@ -2291,13 +2291,13 @@
         <v>73.28571428571399</v>
       </c>
       <c r="E83" s="2">
-        <v>76118</v>
+        <v>76131</v>
       </c>
       <c r="F83" s="2">
         <v>697</v>
       </c>
       <c r="G83" s="4">
-        <v>0.036840215439</v>
+        <v>0.036837570012</v>
       </c>
     </row>
     <row r="84" spans="1:7">
@@ -2314,7 +2314,7 @@
         <v>81</v>
       </c>
       <c r="E84" s="2">
-        <v>78739</v>
+        <v>78752</v>
       </c>
       <c r="F84" s="2">
         <v>2621</v>
@@ -2337,7 +2337,7 @@
         <v>88</v>
       </c>
       <c r="E85" s="2">
-        <v>81524</v>
+        <v>81537</v>
       </c>
       <c r="F85" s="2">
         <v>2785</v>
@@ -2360,7 +2360,7 @@
         <v>96</v>
       </c>
       <c r="E86" s="2">
-        <v>84553</v>
+        <v>84566</v>
       </c>
       <c r="F86" s="2">
         <v>3029</v>
@@ -2383,7 +2383,7 @@
         <v>104.714285714285</v>
       </c>
       <c r="E87" s="2">
-        <v>87911</v>
+        <v>87924</v>
       </c>
       <c r="F87" s="2">
         <v>3358</v>
@@ -2397,22 +2397,22 @@
         <v>44008</v>
       </c>
       <c r="B88" s="2">
-        <v>3352</v>
+        <v>3353</v>
       </c>
       <c r="C88" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D88" s="3">
-        <v>114.285714285714</v>
+        <v>114.428571428571</v>
       </c>
       <c r="E88" s="2">
-        <v>90879</v>
+        <v>90893</v>
       </c>
       <c r="F88" s="2">
-        <v>2968</v>
+        <v>2969</v>
       </c>
       <c r="G88" s="4">
-        <v>0.04875076173</v>
+        <v>0.048808725854</v>
       </c>
     </row>
     <row r="89" spans="1:7">
@@ -2420,22 +2420,22 @@
         <v>44009</v>
       </c>
       <c r="B89" s="2">
-        <v>3432</v>
+        <v>3433</v>
       </c>
       <c r="C89" s="2">
         <v>80</v>
       </c>
       <c r="D89" s="3">
-        <v>118.285714285714</v>
+        <v>118.428571428571</v>
       </c>
       <c r="E89" s="2">
-        <v>91953</v>
+        <v>91967</v>
       </c>
       <c r="F89" s="2">
         <v>1074</v>
       </c>
       <c r="G89" s="4">
-        <v>0.050084684248</v>
+        <v>0.050142139962</v>
       </c>
     </row>
     <row r="90" spans="1:7">
@@ -2443,22 +2443,22 @@
         <v>44010</v>
       </c>
       <c r="B90" s="2">
-        <v>3491</v>
+        <v>3492</v>
       </c>
       <c r="C90" s="2">
         <v>59</v>
       </c>
       <c r="D90" s="3">
-        <v>121</v>
+        <v>121.142857142857</v>
       </c>
       <c r="E90" s="2">
-        <v>92748</v>
+        <v>92762</v>
       </c>
       <c r="F90" s="2">
         <v>795</v>
       </c>
       <c r="G90" s="4">
-        <v>0.050932050511</v>
+        <v>0.050989116709</v>
       </c>
     </row>
     <row r="91" spans="1:7">
@@ -2466,22 +2466,22 @@
         <v>44011</v>
       </c>
       <c r="B91" s="2">
-        <v>3688</v>
+        <v>3689</v>
       </c>
       <c r="C91" s="2">
         <v>197</v>
       </c>
       <c r="D91" s="3">
-        <v>133.285714285714</v>
+        <v>133.428571428571</v>
       </c>
       <c r="E91" s="2">
-        <v>96433</v>
+        <v>96447</v>
       </c>
       <c r="F91" s="2">
         <v>3685</v>
       </c>
       <c r="G91" s="4">
-        <v>0.052729738894</v>
+        <v>0.05278327211</v>
       </c>
     </row>
     <row r="92" spans="1:7">
@@ -2489,22 +2489,22 @@
         <v>44012</v>
       </c>
       <c r="B92" s="2">
-        <v>3846</v>
+        <v>3847</v>
       </c>
       <c r="C92" s="2">
         <v>158</v>
       </c>
       <c r="D92" s="3">
-        <v>136.857142857142</v>
+        <v>137</v>
       </c>
       <c r="E92" s="2">
-        <v>99910</v>
+        <v>99926</v>
       </c>
       <c r="F92" s="2">
-        <v>3477</v>
+        <v>3479</v>
       </c>
       <c r="G92" s="4">
-        <v>0.052104862395</v>
+        <v>0.052150742291</v>
       </c>
     </row>
     <row r="93" spans="1:7">
@@ -2512,22 +2512,22 @@
         <v>44013</v>
       </c>
       <c r="B93" s="2">
-        <v>4019</v>
+        <v>4020</v>
       </c>
       <c r="C93" s="2">
         <v>173</v>
       </c>
       <c r="D93" s="3">
-        <v>141.142857142857</v>
+        <v>141.285714285714</v>
       </c>
       <c r="E93" s="2">
-        <v>103449</v>
+        <v>103465</v>
       </c>
       <c r="F93" s="2">
         <v>3539</v>
       </c>
       <c r="G93" s="4">
-        <v>0.052286198137</v>
+        <v>0.052330811154</v>
       </c>
     </row>
     <row r="94" spans="1:7">
@@ -2535,22 +2535,22 @@
         <v>44014</v>
       </c>
       <c r="B94" s="2">
-        <v>4231</v>
+        <v>4232</v>
       </c>
       <c r="C94" s="2">
         <v>212</v>
       </c>
       <c r="D94" s="3">
-        <v>149.714285714285</v>
+        <v>149.857142857142</v>
       </c>
       <c r="E94" s="2">
-        <v>107372</v>
+        <v>107388</v>
       </c>
       <c r="F94" s="2">
         <v>3923</v>
       </c>
       <c r="G94" s="4">
-        <v>0.053851292328</v>
+        <v>0.053894369091</v>
       </c>
     </row>
     <row r="95" spans="1:7">
@@ -2558,7 +2558,7 @@
         <v>44015</v>
       </c>
       <c r="B95" s="2">
-        <v>4375</v>
+        <v>4376</v>
       </c>
       <c r="C95" s="2">
         <v>144</v>
@@ -2567,13 +2567,13 @@
         <v>146.142857142857</v>
       </c>
       <c r="E95" s="2">
-        <v>110013</v>
+        <v>110029</v>
       </c>
       <c r="F95" s="2">
         <v>2641</v>
       </c>
       <c r="G95" s="4">
-        <v>0.053465036061</v>
+        <v>0.05345944816</v>
       </c>
     </row>
     <row r="96" spans="1:7">
@@ -2581,7 +2581,7 @@
         <v>44016</v>
       </c>
       <c r="B96" s="2">
-        <v>4468</v>
+        <v>4469</v>
       </c>
       <c r="C96" s="2">
         <v>93</v>
@@ -2590,13 +2590,13 @@
         <v>148</v>
       </c>
       <c r="E96" s="2">
-        <v>111130</v>
+        <v>111146</v>
       </c>
       <c r="F96" s="2">
         <v>1117</v>
       </c>
       <c r="G96" s="4">
-        <v>0.054023048443</v>
+        <v>0.05401741488</v>
       </c>
     </row>
     <row r="97" spans="1:7">
@@ -2604,7 +2604,7 @@
         <v>44017</v>
       </c>
       <c r="B97" s="2">
-        <v>4554</v>
+        <v>4555</v>
       </c>
       <c r="C97" s="2">
         <v>86</v>
@@ -2613,13 +2613,13 @@
         <v>151.857142857142</v>
       </c>
       <c r="E97" s="2">
-        <v>112259</v>
+        <v>112275</v>
       </c>
       <c r="F97" s="2">
         <v>1129</v>
       </c>
       <c r="G97" s="4">
-        <v>0.054482087027</v>
+        <v>0.054476502844</v>
       </c>
     </row>
     <row r="98" spans="1:7">
@@ -2627,7 +2627,7 @@
         <v>44018</v>
       </c>
       <c r="B98" s="2">
-        <v>4758</v>
+        <v>4759</v>
       </c>
       <c r="C98" s="2">
         <v>204</v>
@@ -2636,13 +2636,13 @@
         <v>152.857142857142</v>
       </c>
       <c r="E98" s="2">
-        <v>116331</v>
+        <v>116349</v>
       </c>
       <c r="F98" s="2">
-        <v>4072</v>
+        <v>4074</v>
       </c>
       <c r="G98" s="4">
-        <v>0.053774248668</v>
+        <v>0.05376344086</v>
       </c>
     </row>
     <row r="99" spans="1:7">
@@ -2650,7 +2650,7 @@
         <v>44019</v>
       </c>
       <c r="B99" s="2">
-        <v>4974</v>
+        <v>4975</v>
       </c>
       <c r="C99" s="2">
         <v>216</v>
@@ -2659,13 +2659,13 @@
         <v>161.142857142857</v>
       </c>
       <c r="E99" s="2">
-        <v>120406</v>
+        <v>120427</v>
       </c>
       <c r="F99" s="2">
-        <v>4075</v>
+        <v>4078</v>
       </c>
       <c r="G99" s="4">
-        <v>0.055035128805</v>
+        <v>0.055021706258</v>
       </c>
     </row>
     <row r="100" spans="1:7">
@@ -2673,7 +2673,7 @@
         <v>44020</v>
       </c>
       <c r="B100" s="2">
-        <v>5199</v>
+        <v>5200</v>
       </c>
       <c r="C100" s="2">
         <v>225</v>
@@ -2682,13 +2682,13 @@
         <v>168.571428571428</v>
       </c>
       <c r="E100" s="2">
-        <v>124665</v>
+        <v>124689</v>
       </c>
       <c r="F100" s="2">
-        <v>4259</v>
+        <v>4262</v>
       </c>
       <c r="G100" s="4">
-        <v>0.055618401206</v>
+        <v>0.055597436863</v>
       </c>
     </row>
     <row r="101" spans="1:7">
@@ -2696,7 +2696,7 @@
         <v>44021</v>
       </c>
       <c r="B101" s="2">
-        <v>5451</v>
+        <v>5452</v>
       </c>
       <c r="C101" s="2">
         <v>252</v>
@@ -2705,13 +2705,13 @@
         <v>174.285714285714</v>
       </c>
       <c r="E101" s="2">
-        <v>129266</v>
+        <v>129292</v>
       </c>
       <c r="F101" s="2">
-        <v>4601</v>
+        <v>4603</v>
       </c>
       <c r="G101" s="4">
-        <v>0.05572302914</v>
+        <v>0.055697589481</v>
       </c>
     </row>
     <row r="102" spans="1:7">
@@ -2719,7 +2719,7 @@
         <v>44022</v>
       </c>
       <c r="B102" s="2">
-        <v>5698</v>
+        <v>5699</v>
       </c>
       <c r="C102" s="2">
         <v>247</v>
@@ -2728,13 +2728,13 @@
         <v>189</v>
       </c>
       <c r="E102" s="2">
-        <v>133729</v>
+        <v>133755</v>
       </c>
       <c r="F102" s="2">
         <v>4463</v>
       </c>
       <c r="G102" s="4">
-        <v>0.055785123966</v>
+        <v>0.055761611733</v>
       </c>
     </row>
     <row r="103" spans="1:7">
@@ -2742,7 +2742,7 @@
         <v>44023</v>
       </c>
       <c r="B103" s="2">
-        <v>5838</v>
+        <v>5839</v>
       </c>
       <c r="C103" s="2">
         <v>140</v>
@@ -2751,13 +2751,13 @@
         <v>195.714285714285</v>
       </c>
       <c r="E103" s="2">
-        <v>135799</v>
+        <v>135826</v>
       </c>
       <c r="F103" s="2">
-        <v>2070</v>
+        <v>2071</v>
       </c>
       <c r="G103" s="4">
-        <v>0.055535287202</v>
+        <v>0.055510534846</v>
       </c>
     </row>
     <row r="104" spans="1:7">
@@ -2765,7 +2765,7 @@
         <v>44024</v>
       </c>
       <c r="B104" s="2">
-        <v>5939</v>
+        <v>5940</v>
       </c>
       <c r="C104" s="2">
         <v>101</v>
@@ -2774,13 +2774,13 @@
         <v>197.857142857142</v>
       </c>
       <c r="E104" s="2">
-        <v>137125</v>
+        <v>137152</v>
       </c>
       <c r="F104" s="2">
         <v>1326</v>
       </c>
       <c r="G104" s="4">
-        <v>0.055698544196</v>
+        <v>0.055673915665</v>
       </c>
     </row>
     <row r="105" spans="1:7">
@@ -2788,7 +2788,7 @@
         <v>44025</v>
       </c>
       <c r="B105" s="2">
-        <v>6200</v>
+        <v>6201</v>
       </c>
       <c r="C105" s="2">
         <v>261</v>
@@ -2797,13 +2797,13 @@
         <v>206</v>
       </c>
       <c r="E105" s="2">
-        <v>141730</v>
+        <v>141757</v>
       </c>
       <c r="F105" s="2">
         <v>4605</v>
       </c>
       <c r="G105" s="4">
-        <v>0.056773888735</v>
+        <v>0.056753778337</v>
       </c>
     </row>
     <row r="106" spans="1:7">
@@ -2811,7 +2811,7 @@
         <v>44026</v>
       </c>
       <c r="B106" s="2">
-        <v>6454</v>
+        <v>6455</v>
       </c>
       <c r="C106" s="2">
         <v>254</v>
@@ -2820,13 +2820,13 @@
         <v>211.428571428571</v>
       </c>
       <c r="E106" s="2">
-        <v>145487</v>
+        <v>145518</v>
       </c>
       <c r="F106" s="2">
-        <v>3757</v>
+        <v>3761</v>
       </c>
       <c r="G106" s="4">
-        <v>0.05900881145</v>
+        <v>0.058985293531</v>
       </c>
     </row>
     <row r="107" spans="1:7">
@@ -2834,7 +2834,7 @@
         <v>44027</v>
       </c>
       <c r="B107" s="2">
-        <v>6714</v>
+        <v>6715</v>
       </c>
       <c r="C107" s="2">
         <v>260</v>
@@ -2843,13 +2843,13 @@
         <v>216.428571428571</v>
       </c>
       <c r="E107" s="2">
-        <v>149830</v>
+        <v>149864</v>
       </c>
       <c r="F107" s="2">
-        <v>4343</v>
+        <v>4346</v>
       </c>
       <c r="G107" s="4">
-        <v>0.060202662427</v>
+        <v>0.060178748758</v>
       </c>
     </row>
     <row r="108" spans="1:7">
@@ -2857,7 +2857,7 @@
         <v>44028</v>
       </c>
       <c r="B108" s="2">
-        <v>6970</v>
+        <v>6971</v>
       </c>
       <c r="C108" s="2">
         <v>256</v>
@@ -2866,13 +2866,13 @@
         <v>217</v>
       </c>
       <c r="E108" s="2">
-        <v>154013</v>
+        <v>154047</v>
       </c>
       <c r="F108" s="2">
         <v>4183</v>
       </c>
       <c r="G108" s="4">
-        <v>0.061381177516</v>
+        <v>0.061361341143</v>
       </c>
     </row>
     <row r="109" spans="1:7">
@@ -2880,7 +2880,7 @@
         <v>44029</v>
       </c>
       <c r="B109" s="2">
-        <v>7221</v>
+        <v>7222</v>
       </c>
       <c r="C109" s="2">
         <v>251</v>
@@ -2889,13 +2889,13 @@
         <v>217.571428571428</v>
       </c>
       <c r="E109" s="2">
-        <v>158214</v>
+        <v>158249</v>
       </c>
       <c r="F109" s="2">
-        <v>4201</v>
+        <v>4202</v>
       </c>
       <c r="G109" s="4">
-        <v>0.062201347763</v>
+        <v>0.062178492692</v>
       </c>
     </row>
     <row r="110" spans="1:7">
@@ -2903,7 +2903,7 @@
         <v>44030</v>
       </c>
       <c r="B110" s="2">
-        <v>7350</v>
+        <v>7351</v>
       </c>
       <c r="C110" s="2">
         <v>129</v>
@@ -2912,13 +2912,13 @@
         <v>216</v>
       </c>
       <c r="E110" s="2">
-        <v>160438</v>
+        <v>160474</v>
       </c>
       <c r="F110" s="2">
-        <v>2224</v>
+        <v>2225</v>
       </c>
       <c r="G110" s="4">
-        <v>0.061366126872</v>
+        <v>0.061343719571</v>
       </c>
     </row>
     <row r="111" spans="1:7">
@@ -2926,7 +2926,7 @@
         <v>44031</v>
       </c>
       <c r="B111" s="2">
-        <v>7449</v>
+        <v>7450</v>
       </c>
       <c r="C111" s="2">
         <v>99</v>
@@ -2935,13 +2935,13 @@
         <v>215.714285714285</v>
       </c>
       <c r="E111" s="2">
-        <v>161695</v>
+        <v>161731</v>
       </c>
       <c r="F111" s="2">
         <v>1257</v>
       </c>
       <c r="G111" s="4">
-        <v>0.061457061457</v>
+        <v>0.061434557955</v>
       </c>
     </row>
     <row r="112" spans="1:7">
@@ -2949,7 +2949,7 @@
         <v>44032</v>
       </c>
       <c r="B112" s="2">
-        <v>7739</v>
+        <v>7740</v>
       </c>
       <c r="C112" s="2">
         <v>290</v>
@@ -2958,13 +2958,13 @@
         <v>219.857142857142</v>
       </c>
       <c r="E112" s="2">
-        <v>165941</v>
+        <v>165977</v>
       </c>
       <c r="F112" s="2">
         <v>4246</v>
       </c>
       <c r="G112" s="4">
-        <v>0.063566147618</v>
+        <v>0.063542526837</v>
       </c>
     </row>
     <row r="113" spans="1:7">
@@ -2972,7 +2972,7 @@
         <v>44033</v>
       </c>
       <c r="B113" s="2">
-        <v>7979</v>
+        <v>7980</v>
       </c>
       <c r="C113" s="2">
         <v>240</v>
@@ -2981,13 +2981,13 @@
         <v>217.857142857142</v>
       </c>
       <c r="E113" s="2">
-        <v>169779</v>
+        <v>169816</v>
       </c>
       <c r="F113" s="2">
-        <v>3838</v>
+        <v>3839</v>
       </c>
       <c r="G113" s="4">
-        <v>0.062777869257</v>
+        <v>0.062762367273</v>
       </c>
     </row>
     <row r="114" spans="1:7">
@@ -2995,7 +2995,7 @@
         <v>44034</v>
       </c>
       <c r="B114" s="2">
-        <v>8229</v>
+        <v>8230</v>
       </c>
       <c r="C114" s="2">
         <v>250</v>
@@ -3004,13 +3004,13 @@
         <v>216.428571428571</v>
       </c>
       <c r="E114" s="2">
-        <v>173440</v>
+        <v>173478</v>
       </c>
       <c r="F114" s="2">
-        <v>3661</v>
+        <v>3662</v>
       </c>
       <c r="G114" s="4">
-        <v>0.06416772554</v>
+        <v>0.064156856102</v>
       </c>
     </row>
     <row r="115" spans="1:7">
@@ -3018,7 +3018,7 @@
         <v>44035</v>
       </c>
       <c r="B115" s="2">
-        <v>8461</v>
+        <v>8462</v>
       </c>
       <c r="C115" s="2">
         <v>232</v>
@@ -3027,13 +3027,13 @@
         <v>213</v>
       </c>
       <c r="E115" s="2">
-        <v>176764</v>
+        <v>176803</v>
       </c>
       <c r="F115" s="2">
-        <v>3324</v>
+        <v>3325</v>
       </c>
       <c r="G115" s="4">
-        <v>0.065535580853</v>
+        <v>0.06552118122599999</v>
       </c>
     </row>
     <row r="116" spans="1:7">
@@ -3041,7 +3041,7 @@
         <v>44036</v>
       </c>
       <c r="B116" s="2">
-        <v>8680</v>
+        <v>8681</v>
       </c>
       <c r="C116" s="2">
         <v>219</v>
@@ -3050,13 +3050,13 @@
         <v>208.428571428571</v>
       </c>
       <c r="E116" s="2">
-        <v>180398</v>
+        <v>180437</v>
       </c>
       <c r="F116" s="2">
         <v>3634</v>
       </c>
       <c r="G116" s="4">
-        <v>0.065768121168</v>
+        <v>0.065756264647</v>
       </c>
     </row>
     <row r="117" spans="1:7">
@@ -3064,7 +3064,7 @@
         <v>44037</v>
       </c>
       <c r="B117" s="2">
-        <v>8791</v>
+        <v>8792</v>
       </c>
       <c r="C117" s="2">
         <v>111</v>
@@ -3073,13 +3073,13 @@
         <v>205.857142857142</v>
       </c>
       <c r="E117" s="2">
-        <v>182017</v>
+        <v>182056</v>
       </c>
       <c r="F117" s="2">
         <v>1619</v>
       </c>
       <c r="G117" s="4">
-        <v>0.066777885907</v>
+        <v>0.06676860346500001</v>
       </c>
     </row>
     <row r="118" spans="1:7">
@@ -3087,7 +3087,7 @@
         <v>44038</v>
       </c>
       <c r="B118" s="2">
-        <v>8894</v>
+        <v>8895</v>
       </c>
       <c r="C118" s="2">
         <v>103</v>
@@ -3096,13 +3096,13 @@
         <v>206.428571428571</v>
       </c>
       <c r="E118" s="2">
-        <v>183270</v>
+        <v>183309</v>
       </c>
       <c r="F118" s="2">
         <v>1253</v>
       </c>
       <c r="G118" s="4">
-        <v>0.06697566628</v>
+        <v>0.06696635462</v>
       </c>
     </row>
     <row r="119" spans="1:7">
@@ -3110,7 +3110,7 @@
         <v>44039</v>
       </c>
       <c r="B119" s="2">
-        <v>9136</v>
+        <v>9137</v>
       </c>
       <c r="C119" s="2">
         <v>242</v>
@@ -3119,13 +3119,13 @@
         <v>199.571428571428</v>
       </c>
       <c r="E119" s="2">
-        <v>187439</v>
+        <v>187479</v>
       </c>
       <c r="F119" s="2">
-        <v>4169</v>
+        <v>4170</v>
       </c>
       <c r="G119" s="4">
-        <v>0.064982789096</v>
+        <v>0.06497070039900001</v>
       </c>
     </row>
     <row r="120" spans="1:7">
@@ -3133,22 +3133,22 @@
         <v>44040</v>
       </c>
       <c r="B120" s="2">
-        <v>9383</v>
+        <v>9385</v>
       </c>
       <c r="C120" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="D120" s="3">
-        <v>200.571428571428</v>
+        <v>200.714285714285</v>
       </c>
       <c r="E120" s="2">
-        <v>191310</v>
+        <v>191351</v>
       </c>
       <c r="F120" s="2">
-        <v>3871</v>
+        <v>3872</v>
       </c>
       <c r="G120" s="4">
-        <v>0.06520830430500001</v>
+        <v>0.065242628279</v>
       </c>
     </row>
     <row r="121" spans="1:7">
@@ -3156,22 +3156,22 @@
         <v>44041</v>
       </c>
       <c r="B121" s="2">
-        <v>9632</v>
+        <v>9634</v>
       </c>
       <c r="C121" s="2">
         <v>249</v>
       </c>
       <c r="D121" s="3">
-        <v>200.428571428571</v>
+        <v>200.571428571428</v>
       </c>
       <c r="E121" s="2">
-        <v>195166</v>
+        <v>195208</v>
       </c>
       <c r="F121" s="2">
-        <v>3856</v>
+        <v>3857</v>
       </c>
       <c r="G121" s="4">
-        <v>0.06457700450999999</v>
+        <v>0.064611136677</v>
       </c>
     </row>
     <row r="122" spans="1:7">
@@ -3179,22 +3179,22 @@
         <v>44042</v>
       </c>
       <c r="B122" s="2">
-        <v>9848</v>
+        <v>9851</v>
       </c>
       <c r="C122" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D122" s="3">
-        <v>198.142857142857</v>
+        <v>198.428571428571</v>
       </c>
       <c r="E122" s="2">
-        <v>198837</v>
+        <v>198880</v>
       </c>
       <c r="F122" s="2">
-        <v>3671</v>
+        <v>3672</v>
       </c>
       <c r="G122" s="4">
-        <v>0.06283695012</v>
+        <v>0.062916157086</v>
       </c>
     </row>
     <row r="123" spans="1:7">
@@ -3202,22 +3202,22 @@
         <v>44043</v>
       </c>
       <c r="B123" s="2">
-        <v>10081</v>
+        <v>10084</v>
       </c>
       <c r="C123" s="2">
         <v>233</v>
       </c>
       <c r="D123" s="3">
-        <v>200.142857142857</v>
+        <v>200.428571428571</v>
       </c>
       <c r="E123" s="2">
-        <v>202373</v>
+        <v>202416</v>
       </c>
       <c r="F123" s="2">
         <v>3536</v>
       </c>
       <c r="G123" s="4">
-        <v>0.063754266211</v>
+        <v>0.063833659402</v>
       </c>
     </row>
     <row r="124" spans="1:7">
@@ -3225,22 +3225,22 @@
         <v>44044</v>
       </c>
       <c r="B124" s="2">
-        <v>10188</v>
+        <v>10191</v>
       </c>
       <c r="C124" s="2">
         <v>107</v>
       </c>
       <c r="D124" s="3">
-        <v>199.571428571428</v>
+        <v>199.857142857142</v>
       </c>
       <c r="E124" s="2">
-        <v>203962</v>
+        <v>204005</v>
       </c>
       <c r="F124" s="2">
         <v>1589</v>
       </c>
       <c r="G124" s="4">
-        <v>0.063659147869</v>
+        <v>0.063738666909</v>
       </c>
     </row>
     <row r="125" spans="1:7">
@@ -3248,22 +3248,22 @@
         <v>44045</v>
       </c>
       <c r="B125" s="2">
-        <v>10267</v>
+        <v>10270</v>
       </c>
       <c r="C125" s="2">
         <v>79</v>
       </c>
       <c r="D125" s="3">
-        <v>196.142857142857</v>
+        <v>196.428571428571</v>
       </c>
       <c r="E125" s="2">
-        <v>205085</v>
+        <v>205128</v>
       </c>
       <c r="F125" s="2">
         <v>1123</v>
       </c>
       <c r="G125" s="4">
-        <v>0.06293834517499999</v>
+        <v>0.06301847014</v>
       </c>
     </row>
     <row r="126" spans="1:7">
@@ -3271,22 +3271,22 @@
         <v>44046</v>
       </c>
       <c r="B126" s="2">
-        <v>10520</v>
+        <v>10523</v>
       </c>
       <c r="C126" s="2">
         <v>253</v>
       </c>
       <c r="D126" s="3">
-        <v>197.714285714285</v>
+        <v>198</v>
       </c>
       <c r="E126" s="2">
-        <v>208881</v>
+        <v>208924</v>
       </c>
       <c r="F126" s="2">
         <v>3796</v>
       </c>
       <c r="G126" s="4">
-        <v>0.06454621770299999</v>
+        <v>0.06463044998799999</v>
       </c>
     </row>
     <row r="127" spans="1:7">
@@ -3294,22 +3294,22 @@
         <v>44047</v>
       </c>
       <c r="B127" s="2">
-        <v>10752</v>
+        <v>10755</v>
       </c>
       <c r="C127" s="2">
         <v>232</v>
       </c>
       <c r="D127" s="3">
-        <v>195.571428571428</v>
+        <v>195.714285714285</v>
       </c>
       <c r="E127" s="2">
-        <v>212175</v>
+        <v>212219</v>
       </c>
       <c r="F127" s="2">
-        <v>3294</v>
+        <v>3295</v>
       </c>
       <c r="G127" s="4">
-        <v>0.06561226935</v>
+        <v>0.06565075714</v>
       </c>
     </row>
     <row r="128" spans="1:7">
@@ -3317,22 +3317,22 @@
         <v>44048</v>
       </c>
       <c r="B128" s="2">
-        <v>10942</v>
+        <v>10947</v>
       </c>
       <c r="C128" s="2">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="D128" s="3">
-        <v>187.142857142857</v>
+        <v>187.571428571428</v>
       </c>
       <c r="E128" s="2">
-        <v>215387</v>
+        <v>215434</v>
       </c>
       <c r="F128" s="2">
-        <v>3212</v>
+        <v>3215</v>
       </c>
       <c r="G128" s="4">
-        <v>0.064784135304</v>
+        <v>0.06491644418</v>
       </c>
     </row>
     <row r="129" spans="1:7">
@@ -3340,22 +3340,22 @@
         <v>44049</v>
       </c>
       <c r="B129" s="2">
-        <v>11138</v>
+        <v>11144</v>
       </c>
       <c r="C129" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D129" s="3">
-        <v>184.285714285714</v>
+        <v>184.714285714285</v>
       </c>
       <c r="E129" s="2">
-        <v>219037</v>
+        <v>219086</v>
       </c>
       <c r="F129" s="2">
-        <v>3650</v>
+        <v>3652</v>
       </c>
       <c r="G129" s="4">
-        <v>0.06386138613800001</v>
+        <v>0.06399089379300001</v>
       </c>
     </row>
     <row r="130" spans="1:7">
@@ -3363,22 +3363,22 @@
         <v>44050</v>
       </c>
       <c r="B130" s="2">
-        <v>11317</v>
+        <v>11324</v>
       </c>
       <c r="C130" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D130" s="3">
-        <v>176.571428571428</v>
+        <v>177.142857142857</v>
       </c>
       <c r="E130" s="2">
-        <v>222304</v>
+        <v>222355</v>
       </c>
       <c r="F130" s="2">
-        <v>3267</v>
+        <v>3269</v>
       </c>
       <c r="G130" s="4">
-        <v>0.062013948121</v>
+        <v>0.062189678519</v>
       </c>
     </row>
     <row r="131" spans="1:7">
@@ -3386,22 +3386,22 @@
         <v>44051</v>
       </c>
       <c r="B131" s="2">
-        <v>11439</v>
+        <v>11446</v>
       </c>
       <c r="C131" s="2">
         <v>122</v>
       </c>
       <c r="D131" s="3">
-        <v>178.714285714285</v>
+        <v>179.285714285714</v>
       </c>
       <c r="E131" s="2">
-        <v>224008</v>
+        <v>224059</v>
       </c>
       <c r="F131" s="2">
         <v>1704</v>
       </c>
       <c r="G131" s="4">
-        <v>0.06240646513</v>
+        <v>0.062581031215</v>
       </c>
     </row>
     <row r="132" spans="1:7">
@@ -3409,22 +3409,22 @@
         <v>44052</v>
       </c>
       <c r="B132" s="2">
-        <v>11522</v>
+        <v>11529</v>
       </c>
       <c r="C132" s="2">
         <v>83</v>
       </c>
       <c r="D132" s="3">
-        <v>179.285714285714</v>
+        <v>179.857142857142</v>
       </c>
       <c r="E132" s="2">
-        <v>225050</v>
+        <v>225101</v>
       </c>
       <c r="F132" s="2">
         <v>1042</v>
       </c>
       <c r="G132" s="4">
-        <v>0.062860005008</v>
+        <v>0.06303509738099999</v>
       </c>
     </row>
     <row r="133" spans="1:7">
@@ -3432,22 +3432,22 @@
         <v>44053</v>
       </c>
       <c r="B133" s="2">
-        <v>11759</v>
+        <v>11766</v>
       </c>
       <c r="C133" s="2">
         <v>237</v>
       </c>
       <c r="D133" s="3">
-        <v>177</v>
+        <v>177.571428571428</v>
       </c>
       <c r="E133" s="2">
-        <v>228944</v>
+        <v>228997</v>
       </c>
       <c r="F133" s="2">
-        <v>3894</v>
+        <v>3896</v>
       </c>
       <c r="G133" s="4">
-        <v>0.061755470268</v>
+        <v>0.061923977482</v>
       </c>
     </row>
     <row r="134" spans="1:7">
@@ -3455,22 +3455,22 @@
         <v>44054</v>
       </c>
       <c r="B134" s="2">
-        <v>11960</v>
+        <v>11967</v>
       </c>
       <c r="C134" s="2">
         <v>201</v>
       </c>
       <c r="D134" s="3">
-        <v>172.571428571428</v>
+        <v>173.142857142857</v>
       </c>
       <c r="E134" s="2">
-        <v>232359</v>
+        <v>232414</v>
       </c>
       <c r="F134" s="2">
-        <v>3415</v>
+        <v>3417</v>
       </c>
       <c r="G134" s="4">
-        <v>0.059849385652</v>
+        <v>0.060014855162</v>
       </c>
     </row>
     <row r="135" spans="1:7">
@@ -3478,22 +3478,22 @@
         <v>44055</v>
       </c>
       <c r="B135" s="2">
-        <v>12160</v>
+        <v>12167</v>
       </c>
       <c r="C135" s="2">
         <v>200</v>
       </c>
       <c r="D135" s="3">
-        <v>174</v>
+        <v>174.285714285714</v>
       </c>
       <c r="E135" s="2">
-        <v>236214</v>
+        <v>236273</v>
       </c>
       <c r="F135" s="2">
-        <v>3855</v>
+        <v>3859</v>
       </c>
       <c r="G135" s="4">
-        <v>0.05848177846</v>
+        <v>0.058544076011</v>
       </c>
     </row>
     <row r="136" spans="1:7">
@@ -3501,22 +3501,22 @@
         <v>44056</v>
       </c>
       <c r="B136" s="2">
-        <v>12336</v>
+        <v>12343</v>
       </c>
       <c r="C136" s="2">
         <v>176</v>
       </c>
       <c r="D136" s="3">
-        <v>171.142857142857</v>
+        <v>171.285714285714</v>
       </c>
       <c r="E136" s="2">
-        <v>239481</v>
+        <v>239540</v>
       </c>
       <c r="F136" s="2">
         <v>3267</v>
       </c>
       <c r="G136" s="4">
-        <v>0.05859909998</v>
+        <v>0.05861934096</v>
       </c>
     </row>
     <row r="137" spans="1:7">
@@ -3524,22 +3524,22 @@
         <v>44057</v>
       </c>
       <c r="B137" s="2">
-        <v>12510</v>
+        <v>12518</v>
       </c>
       <c r="C137" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D137" s="3">
-        <v>170.428571428571</v>
+        <v>170.571428571428</v>
       </c>
       <c r="E137" s="2">
-        <v>242838</v>
+        <v>242898</v>
       </c>
       <c r="F137" s="2">
-        <v>3357</v>
+        <v>3358</v>
       </c>
       <c r="G137" s="4">
-        <v>0.058098763027</v>
+        <v>0.058121988025</v>
       </c>
     </row>
     <row r="138" spans="1:7">
@@ -3547,22 +3547,22 @@
         <v>44058</v>
       </c>
       <c r="B138" s="2">
-        <v>12603</v>
+        <v>12611</v>
       </c>
       <c r="C138" s="2">
         <v>93</v>
       </c>
       <c r="D138" s="3">
-        <v>166.285714285714</v>
+        <v>166.428571428571</v>
       </c>
       <c r="E138" s="2">
-        <v>244399</v>
+        <v>244459</v>
       </c>
       <c r="F138" s="2">
         <v>1561</v>
       </c>
       <c r="G138" s="4">
-        <v>0.05708400765</v>
+        <v>0.057107843137</v>
       </c>
     </row>
     <row r="139" spans="1:7">
@@ -3570,22 +3570,22 @@
         <v>44059</v>
       </c>
       <c r="B139" s="2">
-        <v>12648</v>
+        <v>12656</v>
       </c>
       <c r="C139" s="2">
         <v>45</v>
       </c>
       <c r="D139" s="3">
-        <v>160.857142857142</v>
+        <v>161</v>
       </c>
       <c r="E139" s="2">
-        <v>245175</v>
+        <v>245235</v>
       </c>
       <c r="F139" s="2">
         <v>776</v>
       </c>
       <c r="G139" s="4">
-        <v>0.055950310559</v>
+        <v>0.055974967716</v>
       </c>
     </row>
     <row r="140" spans="1:7">
@@ -3593,22 +3593,22 @@
         <v>44060</v>
       </c>
       <c r="B140" s="2">
-        <v>12861</v>
+        <v>12869</v>
       </c>
       <c r="C140" s="2">
         <v>213</v>
       </c>
       <c r="D140" s="3">
-        <v>157.428571428571</v>
+        <v>157.571428571428</v>
       </c>
       <c r="E140" s="2">
-        <v>248834</v>
+        <v>248897</v>
       </c>
       <c r="F140" s="2">
-        <v>3659</v>
+        <v>3662</v>
       </c>
       <c r="G140" s="4">
-        <v>0.055404725992</v>
+        <v>0.055427135678</v>
       </c>
     </row>
     <row r="141" spans="1:7">
@@ -3616,22 +3616,22 @@
         <v>44061</v>
       </c>
       <c r="B141" s="2">
-        <v>13029</v>
+        <v>13037</v>
       </c>
       <c r="C141" s="2">
         <v>168</v>
       </c>
       <c r="D141" s="3">
-        <v>152.714285714285</v>
+        <v>152.857142857142</v>
       </c>
       <c r="E141" s="2">
-        <v>251904</v>
+        <v>251969</v>
       </c>
       <c r="F141" s="2">
-        <v>3070</v>
+        <v>3072</v>
       </c>
       <c r="G141" s="4">
-        <v>0.054694295216</v>
+        <v>0.054717463564</v>
       </c>
     </row>
     <row r="142" spans="1:7">
@@ -3639,22 +3639,22 @@
         <v>44062</v>
       </c>
       <c r="B142" s="2">
-        <v>13187</v>
+        <v>13195</v>
       </c>
       <c r="C142" s="2">
         <v>158</v>
       </c>
       <c r="D142" s="3">
-        <v>146.714285714285</v>
+        <v>146.857142857142</v>
       </c>
       <c r="E142" s="2">
-        <v>254958</v>
+        <v>255024</v>
       </c>
       <c r="F142" s="2">
-        <v>3054</v>
+        <v>3055</v>
       </c>
       <c r="G142" s="4">
-        <v>0.05479086641</v>
+        <v>0.054823742733</v>
       </c>
     </row>
     <row r="143" spans="1:7">
@@ -3662,22 +3662,22 @@
         <v>44063</v>
       </c>
       <c r="B143" s="2">
-        <v>13319</v>
+        <v>13327</v>
       </c>
       <c r="C143" s="2">
         <v>132</v>
       </c>
       <c r="D143" s="3">
-        <v>140.428571428571</v>
+        <v>140.571428571428</v>
       </c>
       <c r="E143" s="2">
-        <v>258123</v>
+        <v>258190</v>
       </c>
       <c r="F143" s="2">
-        <v>3165</v>
+        <v>3166</v>
       </c>
       <c r="G143" s="4">
-        <v>0.052730393734</v>
+        <v>0.052761394101</v>
       </c>
     </row>
     <row r="144" spans="1:7">
@@ -3685,7 +3685,7 @@
         <v>44064</v>
       </c>
       <c r="B144" s="2">
-        <v>13481</v>
+        <v>13489</v>
       </c>
       <c r="C144" s="2">
         <v>162</v>
@@ -3694,13 +3694,13 @@
         <v>138.714285714285</v>
       </c>
       <c r="E144" s="2">
-        <v>261161</v>
+        <v>261228</v>
       </c>
       <c r="F144" s="2">
         <v>3038</v>
       </c>
       <c r="G144" s="4">
-        <v>0.05299350543</v>
+        <v>0.052973267866</v>
       </c>
     </row>
     <row r="145" spans="1:7">
@@ -3708,7 +3708,7 @@
         <v>44065</v>
       </c>
       <c r="B145" s="2">
-        <v>13542</v>
+        <v>13550</v>
       </c>
       <c r="C145" s="2">
         <v>61</v>
@@ -3717,13 +3717,13 @@
         <v>134.142857142857</v>
       </c>
       <c r="E145" s="2">
-        <v>262490</v>
+        <v>262557</v>
       </c>
       <c r="F145" s="2">
         <v>1329</v>
       </c>
       <c r="G145" s="4">
-        <v>0.051904261787</v>
+        <v>0.051884186097</v>
       </c>
     </row>
     <row r="146" spans="1:7">
@@ -3731,7 +3731,7 @@
         <v>44066</v>
       </c>
       <c r="B146" s="2">
-        <v>13609</v>
+        <v>13617</v>
       </c>
       <c r="C146" s="2">
         <v>67</v>
@@ -3740,13 +3740,13 @@
         <v>137.285714285714</v>
       </c>
       <c r="E146" s="2">
-        <v>263457</v>
+        <v>263524</v>
       </c>
       <c r="F146" s="2">
         <v>967</v>
       </c>
       <c r="G146" s="4">
-        <v>0.052565364839</v>
+        <v>0.052545245776</v>
       </c>
     </row>
     <row r="147" spans="1:7">
@@ -3754,7 +3754,7 @@
         <v>44067</v>
       </c>
       <c r="B147" s="2">
-        <v>13758</v>
+        <v>13766</v>
       </c>
       <c r="C147" s="2">
         <v>149</v>
@@ -3763,13 +3763,13 @@
         <v>128.142857142857</v>
       </c>
       <c r="E147" s="2">
-        <v>266439</v>
+        <v>266508</v>
       </c>
       <c r="F147" s="2">
-        <v>2982</v>
+        <v>2984</v>
       </c>
       <c r="G147" s="4">
-        <v>0.050951434251</v>
+        <v>0.050934075293</v>
       </c>
     </row>
     <row r="148" spans="1:7">
@@ -3777,7 +3777,7 @@
         <v>44068</v>
       </c>
       <c r="B148" s="2">
-        <v>13892</v>
+        <v>13900</v>
       </c>
       <c r="C148" s="2">
         <v>134</v>
@@ -3786,13 +3786,13 @@
         <v>123.285714285714</v>
       </c>
       <c r="E148" s="2">
-        <v>269455</v>
+        <v>269526</v>
       </c>
       <c r="F148" s="2">
-        <v>3016</v>
+        <v>3018</v>
       </c>
       <c r="G148" s="4">
-        <v>0.049170987408</v>
+        <v>0.049154183516</v>
       </c>
     </row>
     <row r="149" spans="1:7">
@@ -3800,7 +3800,7 @@
         <v>44069</v>
       </c>
       <c r="B149" s="2">
-        <v>14027</v>
+        <v>14035</v>
       </c>
       <c r="C149" s="2">
         <v>135</v>
@@ -3809,13 +3809,13 @@
         <v>120</v>
       </c>
       <c r="E149" s="2">
-        <v>272415</v>
+        <v>272489</v>
       </c>
       <c r="F149" s="2">
-        <v>2960</v>
+        <v>2963</v>
       </c>
       <c r="G149" s="4">
-        <v>0.048118233373</v>
+        <v>0.048096192384</v>
       </c>
     </row>
     <row r="150" spans="1:7">
@@ -3823,7 +3823,7 @@
         <v>44070</v>
       </c>
       <c r="B150" s="2">
-        <v>14194</v>
+        <v>14202</v>
       </c>
       <c r="C150" s="2">
         <v>167</v>
@@ -3832,13 +3832,13 @@
         <v>125</v>
       </c>
       <c r="E150" s="2">
-        <v>275665</v>
+        <v>275742</v>
       </c>
       <c r="F150" s="2">
-        <v>3250</v>
+        <v>3253</v>
       </c>
       <c r="G150" s="4">
-        <v>0.04988028731</v>
+        <v>0.049851868732</v>
       </c>
     </row>
     <row r="151" spans="1:7">
@@ -3846,7 +3846,7 @@
         <v>44071</v>
       </c>
       <c r="B151" s="2">
-        <v>14310</v>
+        <v>14318</v>
       </c>
       <c r="C151" s="2">
         <v>116</v>
@@ -3855,13 +3855,13 @@
         <v>118.428571428571</v>
       </c>
       <c r="E151" s="2">
-        <v>278434</v>
+        <v>278512</v>
       </c>
       <c r="F151" s="2">
-        <v>2769</v>
+        <v>2770</v>
       </c>
       <c r="G151" s="4">
-        <v>0.047993979042</v>
+        <v>0.04796343439</v>
       </c>
     </row>
     <row r="152" spans="1:7">
@@ -3869,7 +3869,7 @@
         <v>44072</v>
       </c>
       <c r="B152" s="2">
-        <v>14374</v>
+        <v>14382</v>
       </c>
       <c r="C152" s="2">
         <v>64</v>
@@ -3878,13 +3878,13 @@
         <v>118.857142857142</v>
       </c>
       <c r="E152" s="2">
-        <v>279868</v>
+        <v>279946</v>
       </c>
       <c r="F152" s="2">
         <v>1434</v>
       </c>
       <c r="G152" s="4">
-        <v>0.047876625618</v>
+        <v>0.04784633964</v>
       </c>
     </row>
     <row r="153" spans="1:7">
@@ -3892,7 +3892,7 @@
         <v>44073</v>
       </c>
       <c r="B153" s="2">
-        <v>14432</v>
+        <v>14440</v>
       </c>
       <c r="C153" s="2">
         <v>58</v>
@@ -3901,13 +3901,13 @@
         <v>117.571428571428</v>
       </c>
       <c r="E153" s="2">
-        <v>280947</v>
+        <v>281025</v>
       </c>
       <c r="F153" s="2">
         <v>1079</v>
       </c>
       <c r="G153" s="4">
-        <v>0.047055460263</v>
+        <v>0.047025884235</v>
       </c>
     </row>
     <row r="154" spans="1:7">
@@ -3915,7 +3915,7 @@
         <v>44074</v>
       </c>
       <c r="B154" s="2">
-        <v>14570</v>
+        <v>14578</v>
       </c>
       <c r="C154" s="2">
         <v>138</v>
@@ -3924,13 +3924,13 @@
         <v>116</v>
       </c>
       <c r="E154" s="2">
-        <v>284072</v>
+        <v>284150</v>
       </c>
       <c r="F154" s="2">
         <v>3125</v>
       </c>
       <c r="G154" s="4">
-        <v>0.046050019849</v>
+        <v>0.046026527604</v>
       </c>
     </row>
     <row r="155" spans="1:7">
@@ -3938,7 +3938,7 @@
         <v>44075</v>
       </c>
       <c r="B155" s="2">
-        <v>14701</v>
+        <v>14709</v>
       </c>
       <c r="C155" s="2">
         <v>131</v>
@@ -3947,13 +3947,13 @@
         <v>115.571428571428</v>
       </c>
       <c r="E155" s="2">
-        <v>287339</v>
+        <v>287417</v>
       </c>
       <c r="F155" s="2">
         <v>3267</v>
       </c>
       <c r="G155" s="4">
-        <v>0.045235965108</v>
+        <v>0.045218266167</v>
       </c>
     </row>
     <row r="156" spans="1:7">
@@ -3961,7 +3961,7 @@
         <v>44076</v>
       </c>
       <c r="B156" s="2">
-        <v>14816</v>
+        <v>14824</v>
       </c>
       <c r="C156" s="2">
         <v>115</v>
@@ -3970,13 +3970,13 @@
         <v>112.714285714285</v>
       </c>
       <c r="E156" s="2">
-        <v>290305</v>
+        <v>290385</v>
       </c>
       <c r="F156" s="2">
-        <v>2966</v>
+        <v>2968</v>
       </c>
       <c r="G156" s="4">
-        <v>0.044102850754</v>
+        <v>0.044088064371</v>
       </c>
     </row>
     <row r="157" spans="1:7">
@@ -3984,7 +3984,7 @@
         <v>44077</v>
       </c>
       <c r="B157" s="2">
-        <v>14911</v>
+        <v>14919</v>
       </c>
       <c r="C157" s="2">
         <v>95</v>
@@ -3993,13 +3993,13 @@
         <v>102.428571428571</v>
       </c>
       <c r="E157" s="2">
-        <v>293235</v>
+        <v>293315</v>
       </c>
       <c r="F157" s="2">
         <v>2930</v>
       </c>
       <c r="G157" s="4">
-        <v>0.040808195788</v>
+        <v>0.040801229158</v>
       </c>
     </row>
     <row r="158" spans="1:7">
@@ -4007,7 +4007,7 @@
         <v>44078</v>
       </c>
       <c r="B158" s="2">
-        <v>15033</v>
+        <v>15041</v>
       </c>
       <c r="C158" s="2">
         <v>122</v>
@@ -4016,13 +4016,13 @@
         <v>103.285714285714</v>
       </c>
       <c r="E158" s="2">
-        <v>296039</v>
+        <v>296119</v>
       </c>
       <c r="F158" s="2">
         <v>2804</v>
       </c>
       <c r="G158" s="4">
-        <v>0.041067878443</v>
+        <v>0.041063213494</v>
       </c>
     </row>
     <row r="159" spans="1:7">
@@ -4030,7 +4030,7 @@
         <v>44079</v>
       </c>
       <c r="B159" s="2">
-        <v>15099</v>
+        <v>15107</v>
       </c>
       <c r="C159" s="2">
         <v>66</v>
@@ -4039,13 +4039,13 @@
         <v>103.571428571428</v>
       </c>
       <c r="E159" s="2">
-        <v>297375</v>
+        <v>297455</v>
       </c>
       <c r="F159" s="2">
         <v>1336</v>
       </c>
       <c r="G159" s="4">
-        <v>0.041412006625</v>
+        <v>0.041407276257</v>
       </c>
     </row>
     <row r="160" spans="1:7">
@@ -4053,7 +4053,7 @@
         <v>44080</v>
       </c>
       <c r="B160" s="2">
-        <v>15152</v>
+        <v>15160</v>
       </c>
       <c r="C160" s="2">
         <v>53</v>
@@ -4062,13 +4062,13 @@
         <v>102.857142857142</v>
       </c>
       <c r="E160" s="2">
-        <v>298461</v>
+        <v>298541</v>
       </c>
       <c r="F160" s="2">
         <v>1086</v>
       </c>
       <c r="G160" s="4">
-        <v>0.041109969167</v>
+        <v>0.041105275176</v>
       </c>
     </row>
     <row r="161" spans="1:7">
@@ -4076,7 +4076,7 @@
         <v>44081</v>
       </c>
       <c r="B161" s="2">
-        <v>15220</v>
+        <v>15228</v>
       </c>
       <c r="C161" s="2">
         <v>68</v>
@@ -4085,13 +4085,13 @@
         <v>92.85714285714199</v>
       </c>
       <c r="E161" s="2">
-        <v>299712</v>
+        <v>299792</v>
       </c>
       <c r="F161" s="2">
         <v>1251</v>
       </c>
       <c r="G161" s="4">
-        <v>0.041560102301</v>
+        <v>0.04155478839</v>
       </c>
     </row>
     <row r="162" spans="1:7">
@@ -4099,7 +4099,7 @@
         <v>44082</v>
       </c>
       <c r="B162" s="2">
-        <v>15364</v>
+        <v>15372</v>
       </c>
       <c r="C162" s="2">
         <v>144</v>
@@ -4108,13 +4108,13 @@
         <v>94.714285714285</v>
       </c>
       <c r="E162" s="2">
-        <v>303988</v>
+        <v>304071</v>
       </c>
       <c r="F162" s="2">
-        <v>4276</v>
+        <v>4279</v>
       </c>
       <c r="G162" s="4">
-        <v>0.039822211544</v>
+        <v>0.039810255794</v>
       </c>
     </row>
     <row r="163" spans="1:7">
@@ -4122,7 +4122,7 @@
         <v>44083</v>
       </c>
       <c r="B163" s="2">
-        <v>15515</v>
+        <v>15523</v>
       </c>
       <c r="C163" s="2">
         <v>151</v>
@@ -4131,13 +4131,13 @@
         <v>99.85714285714199</v>
       </c>
       <c r="E163" s="2">
-        <v>307496</v>
+        <v>307582</v>
       </c>
       <c r="F163" s="2">
-        <v>3508</v>
+        <v>3511</v>
       </c>
       <c r="G163" s="4">
-        <v>0.040660810889</v>
+        <v>0.040646624411</v>
       </c>
     </row>
     <row r="164" spans="1:7">
@@ -4145,7 +4145,7 @@
         <v>44084</v>
       </c>
       <c r="B164" s="2">
-        <v>15617</v>
+        <v>15625</v>
       </c>
       <c r="C164" s="2">
         <v>102</v>
@@ -4154,13 +4154,13 @@
         <v>100.857142857142</v>
       </c>
       <c r="E164" s="2">
-        <v>310765</v>
+        <v>310852</v>
       </c>
       <c r="F164" s="2">
-        <v>3269</v>
+        <v>3270</v>
       </c>
       <c r="G164" s="4">
-        <v>0.040273816314</v>
+        <v>0.040257740776</v>
       </c>
     </row>
     <row r="165" spans="1:7">
@@ -4168,7 +4168,7 @@
         <v>44085</v>
       </c>
       <c r="B165" s="2">
-        <v>15689</v>
+        <v>15697</v>
       </c>
       <c r="C165" s="2">
         <v>72</v>
@@ -4177,13 +4177,13 @@
         <v>93.714285714285</v>
       </c>
       <c r="E165" s="2">
-        <v>313252</v>
+        <v>313337</v>
       </c>
       <c r="F165" s="2">
-        <v>2487</v>
+        <v>2485</v>
       </c>
       <c r="G165" s="4">
-        <v>0.038110730262</v>
+        <v>0.038099663143</v>
       </c>
     </row>
     <row r="166" spans="1:7">
@@ -4191,7 +4191,7 @@
         <v>44086</v>
       </c>
       <c r="B166" s="2">
-        <v>15737</v>
+        <v>15745</v>
       </c>
       <c r="C166" s="2">
         <v>48</v>
@@ -4200,13 +4200,13 @@
         <v>91.142857142857</v>
       </c>
       <c r="E166" s="2">
-        <v>314643</v>
+        <v>314728</v>
       </c>
       <c r="F166" s="2">
         <v>1391</v>
       </c>
       <c r="G166" s="4">
-        <v>0.036946953903</v>
+        <v>0.036936258901</v>
       </c>
     </row>
     <row r="167" spans="1:7">
@@ -4214,7 +4214,7 @@
         <v>44087</v>
       </c>
       <c r="B167" s="2">
-        <v>15769</v>
+        <v>15777</v>
       </c>
       <c r="C167" s="2">
         <v>32</v>
@@ -4223,13 +4223,13 @@
         <v>88.142857142857</v>
       </c>
       <c r="E167" s="2">
-        <v>315486</v>
+        <v>315571</v>
       </c>
       <c r="F167" s="2">
         <v>843</v>
       </c>
       <c r="G167" s="4">
-        <v>0.03624082232</v>
+        <v>0.036230182031</v>
       </c>
     </row>
     <row r="168" spans="1:7">
@@ -4237,7 +4237,7 @@
         <v>44088</v>
       </c>
       <c r="B168" s="2">
-        <v>15870</v>
+        <v>15878</v>
       </c>
       <c r="C168" s="2">
         <v>101</v>
@@ -4246,13 +4246,13 @@
         <v>92.85714285714199</v>
       </c>
       <c r="E168" s="2">
-        <v>318863</v>
+        <v>318948</v>
       </c>
       <c r="F168" s="2">
         <v>3377</v>
       </c>
       <c r="G168" s="4">
-        <v>0.033940786381</v>
+        <v>0.033931927333</v>
       </c>
     </row>
     <row r="169" spans="1:7">
@@ -4260,7 +4260,7 @@
         <v>44089</v>
       </c>
       <c r="B169" s="2">
-        <v>16000</v>
+        <v>16008</v>
       </c>
       <c r="C169" s="2">
         <v>130</v>
@@ -4269,13 +4269,13 @@
         <v>90.85714285714199</v>
       </c>
       <c r="E169" s="2">
-        <v>322814</v>
+        <v>322898</v>
       </c>
       <c r="F169" s="2">
-        <v>3951</v>
+        <v>3950</v>
       </c>
       <c r="G169" s="4">
-        <v>0.033783065972</v>
+        <v>0.033781271578</v>
       </c>
     </row>
     <row r="170" spans="1:7">
@@ -4283,7 +4283,7 @@
         <v>44090</v>
       </c>
       <c r="B170" s="2">
-        <v>16086</v>
+        <v>16094</v>
       </c>
       <c r="C170" s="2">
         <v>86</v>
@@ -4292,13 +4292,13 @@
         <v>81.571428571428</v>
       </c>
       <c r="E170" s="2">
-        <v>326099</v>
+        <v>326183</v>
       </c>
       <c r="F170" s="2">
         <v>3285</v>
       </c>
       <c r="G170" s="4">
-        <v>0.03069397409</v>
+        <v>0.03069727434</v>
       </c>
     </row>
     <row r="171" spans="1:7">
@@ -4306,7 +4306,7 @@
         <v>44091</v>
       </c>
       <c r="B171" s="2">
-        <v>16189</v>
+        <v>16197</v>
       </c>
       <c r="C171" s="2">
         <v>103</v>
@@ -4315,13 +4315,13 @@
         <v>81.714285714285</v>
       </c>
       <c r="E171" s="2">
-        <v>329703</v>
+        <v>329787</v>
       </c>
       <c r="F171" s="2">
         <v>3604</v>
       </c>
       <c r="G171" s="4">
-        <v>0.030203823001</v>
+        <v>0.030208608397</v>
       </c>
     </row>
     <row r="172" spans="1:7">
@@ -4329,7 +4329,7 @@
         <v>44092</v>
       </c>
       <c r="B172" s="2">
-        <v>16293</v>
+        <v>16301</v>
       </c>
       <c r="C172" s="2">
         <v>104</v>
@@ -4338,13 +4338,13 @@
         <v>86.28571428571399</v>
       </c>
       <c r="E172" s="2">
-        <v>332971</v>
+        <v>333055</v>
       </c>
       <c r="F172" s="2">
         <v>3268</v>
       </c>
       <c r="G172" s="4">
-        <v>0.030630356508</v>
+        <v>0.03063190993</v>
       </c>
     </row>
     <row r="173" spans="1:7">
@@ -4352,7 +4352,7 @@
         <v>44093</v>
       </c>
       <c r="B173" s="2">
-        <v>16365</v>
+        <v>16373</v>
       </c>
       <c r="C173" s="2">
         <v>72</v>
@@ -4361,10 +4361,10 @@
         <v>89.714285714285</v>
       </c>
       <c r="E173" s="2">
-        <v>334490</v>
+        <v>334575</v>
       </c>
       <c r="F173" s="2">
-        <v>1519</v>
+        <v>1520</v>
       </c>
       <c r="G173" s="4">
         <v>0.031642061772</v>
@@ -4375,7 +4375,7 @@
         <v>44094</v>
       </c>
       <c r="B174" s="2">
-        <v>16407</v>
+        <v>16415</v>
       </c>
       <c r="C174" s="2">
         <v>42</v>
@@ -4384,7 +4384,7 @@
         <v>91.142857142857</v>
       </c>
       <c r="E174" s="2">
-        <v>335641</v>
+        <v>335726</v>
       </c>
       <c r="F174" s="2">
         <v>1151</v>
@@ -4398,7 +4398,7 @@
         <v>44095</v>
       </c>
       <c r="B175" s="2">
-        <v>16550</v>
+        <v>16558</v>
       </c>
       <c r="C175" s="2">
         <v>143</v>
@@ -4407,13 +4407,13 @@
         <v>97.142857142857</v>
       </c>
       <c r="E175" s="2">
-        <v>339985</v>
+        <v>340076</v>
       </c>
       <c r="F175" s="2">
-        <v>4344</v>
+        <v>4350</v>
       </c>
       <c r="G175" s="4">
-        <v>0.03219392103</v>
+        <v>0.032184778492</v>
       </c>
     </row>
     <row r="176" spans="1:7">
@@ -4421,7 +4421,7 @@
         <v>44096</v>
       </c>
       <c r="B176" s="2">
-        <v>16648</v>
+        <v>16656</v>
       </c>
       <c r="C176" s="2">
         <v>98</v>
@@ -4430,13 +4430,13 @@
         <v>92.571428571428</v>
       </c>
       <c r="E176" s="2">
-        <v>343762</v>
+        <v>343855</v>
       </c>
       <c r="F176" s="2">
-        <v>3777</v>
+        <v>3779</v>
       </c>
       <c r="G176" s="4">
-        <v>0.030933740691</v>
+        <v>0.030920456172</v>
       </c>
     </row>
     <row r="177" spans="1:7">
@@ -4444,7 +4444,7 @@
         <v>44097</v>
       </c>
       <c r="B177" s="2">
-        <v>16743</v>
+        <v>16751</v>
       </c>
       <c r="C177" s="2">
         <v>95</v>
@@ -4453,13 +4453,13 @@
         <v>93.85714285714199</v>
       </c>
       <c r="E177" s="2">
-        <v>347241</v>
+        <v>347334</v>
       </c>
       <c r="F177" s="2">
         <v>3479</v>
       </c>
       <c r="G177" s="4">
-        <v>0.031075584145</v>
+        <v>0.031062361117</v>
       </c>
     </row>
     <row r="178" spans="1:7">
@@ -4467,7 +4467,7 @@
         <v>44098</v>
       </c>
       <c r="B178" s="2">
-        <v>16834</v>
+        <v>16842</v>
       </c>
       <c r="C178" s="2">
         <v>91</v>
@@ -4476,13 +4476,13 @@
         <v>92.142857142857</v>
       </c>
       <c r="E178" s="2">
-        <v>350960</v>
+        <v>351055</v>
       </c>
       <c r="F178" s="2">
-        <v>3719</v>
+        <v>3721</v>
       </c>
       <c r="G178" s="4">
-        <v>0.030342945853</v>
+        <v>0.030327252209</v>
       </c>
     </row>
     <row r="179" spans="1:7">
@@ -4490,7 +4490,7 @@
         <v>44099</v>
       </c>
       <c r="B179" s="2">
-        <v>16924</v>
+        <v>16932</v>
       </c>
       <c r="C179" s="2">
         <v>90</v>
@@ -4499,13 +4499,13 @@
         <v>90.142857142857</v>
       </c>
       <c r="E179" s="2">
-        <v>354245</v>
+        <v>354340</v>
       </c>
       <c r="F179" s="2">
         <v>3285</v>
       </c>
       <c r="G179" s="4">
-        <v>0.029660618595</v>
+        <v>0.02964529011</v>
       </c>
     </row>
     <row r="180" spans="1:7">
@@ -4513,7 +4513,7 @@
         <v>44100</v>
       </c>
       <c r="B180" s="2">
-        <v>16983</v>
+        <v>16991</v>
       </c>
       <c r="C180" s="2">
         <v>59</v>
@@ -4522,13 +4522,13 @@
         <v>88.28571428571399</v>
       </c>
       <c r="E180" s="2">
-        <v>356109</v>
+        <v>356204</v>
       </c>
       <c r="F180" s="2">
         <v>1864</v>
       </c>
       <c r="G180" s="4">
-        <v>0.028585966048</v>
+        <v>0.028572749549</v>
       </c>
     </row>
     <row r="181" spans="1:7">
@@ -4536,7 +4536,7 @@
         <v>44101</v>
       </c>
       <c r="B181" s="2">
-        <v>17006</v>
+        <v>17014</v>
       </c>
       <c r="C181" s="2">
         <v>23</v>
@@ -4545,13 +4545,13 @@
         <v>85.571428571428</v>
       </c>
       <c r="E181" s="2">
-        <v>357229</v>
+        <v>357324</v>
       </c>
       <c r="F181" s="2">
         <v>1120</v>
       </c>
       <c r="G181" s="4">
-        <v>0.027746896423</v>
+        <v>0.027734049449</v>
       </c>
     </row>
     <row r="182" spans="1:7">
@@ -4559,7 +4559,7 @@
         <v>44102</v>
       </c>
       <c r="B182" s="2">
-        <v>17118</v>
+        <v>17126</v>
       </c>
       <c r="C182" s="2">
         <v>112</v>
@@ -4568,13 +4568,13 @@
         <v>81.142857142857</v>
       </c>
       <c r="E182" s="2">
-        <v>361291</v>
+        <v>361387</v>
       </c>
       <c r="F182" s="2">
-        <v>4062</v>
+        <v>4063</v>
       </c>
       <c r="G182" s="4">
-        <v>0.026659157044</v>
+        <v>0.026652902257</v>
       </c>
     </row>
     <row r="183" spans="1:7">
@@ -4582,7 +4582,7 @@
         <v>44103</v>
       </c>
       <c r="B183" s="2">
-        <v>17193</v>
+        <v>17201</v>
       </c>
       <c r="C183" s="2">
         <v>75</v>
@@ -4591,13 +4591,13 @@
         <v>77.85714285714199</v>
       </c>
       <c r="E183" s="2">
-        <v>365098</v>
+        <v>365196</v>
       </c>
       <c r="F183" s="2">
-        <v>3807</v>
+        <v>3809</v>
       </c>
       <c r="G183" s="4">
-        <v>0.025543682039</v>
+        <v>0.02553769739</v>
       </c>
     </row>
     <row r="184" spans="1:7">
@@ -4605,7 +4605,7 @@
         <v>44104</v>
       </c>
       <c r="B184" s="2">
-        <v>17252</v>
+        <v>17260</v>
       </c>
       <c r="C184" s="2">
         <v>59</v>
@@ -4614,13 +4614,13 @@
         <v>72.714285714285</v>
       </c>
       <c r="E184" s="2">
-        <v>368635</v>
+        <v>368733</v>
       </c>
       <c r="F184" s="2">
         <v>3537</v>
       </c>
       <c r="G184" s="4">
-        <v>0.023791717303</v>
+        <v>0.023786158231</v>
       </c>
     </row>
     <row r="185" spans="1:7">
@@ -4628,7 +4628,7 @@
         <v>44105</v>
       </c>
       <c r="B185" s="2">
-        <v>17314</v>
+        <v>17322</v>
       </c>
       <c r="C185" s="2">
         <v>62</v>
@@ -4637,13 +4637,13 @@
         <v>68.571428571428</v>
       </c>
       <c r="E185" s="2">
-        <v>372139</v>
+        <v>372237</v>
       </c>
       <c r="F185" s="2">
         <v>3504</v>
       </c>
       <c r="G185" s="4">
-        <v>0.022663959582</v>
+        <v>0.022660749693</v>
       </c>
     </row>
     <row r="186" spans="1:7">
@@ -4651,7 +4651,7 @@
         <v>44106</v>
       </c>
       <c r="B186" s="2">
-        <v>17393</v>
+        <v>17401</v>
       </c>
       <c r="C186" s="2">
         <v>79</v>
@@ -4660,13 +4660,13 @@
         <v>67</v>
       </c>
       <c r="E186" s="2">
-        <v>375671</v>
+        <v>375769</v>
       </c>
       <c r="F186" s="2">
         <v>3532</v>
       </c>
       <c r="G186" s="4">
-        <v>0.021889293381</v>
+        <v>0.021886228942</v>
       </c>
     </row>
     <row r="187" spans="1:7">
@@ -4674,22 +4674,22 @@
         <v>44107</v>
       </c>
       <c r="B187" s="2">
-        <v>17437</v>
+        <v>17444</v>
       </c>
       <c r="C187" s="2">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D187" s="3">
-        <v>64.85714285714199</v>
+        <v>64.714285714285</v>
       </c>
       <c r="E187" s="2">
-        <v>377655</v>
+        <v>377752</v>
       </c>
       <c r="F187" s="2">
-        <v>1984</v>
+        <v>1983</v>
       </c>
       <c r="G187" s="4">
-        <v>0.021071196509</v>
+        <v>0.021022832745</v>
       </c>
     </row>
     <row r="188" spans="1:7">
@@ -4697,22 +4697,22 @@
         <v>44108</v>
       </c>
       <c r="B188" s="2">
-        <v>17474</v>
+        <v>17481</v>
       </c>
       <c r="C188" s="2">
         <v>37</v>
       </c>
       <c r="D188" s="3">
-        <v>66.85714285714199</v>
+        <v>66.714285714285</v>
       </c>
       <c r="E188" s="2">
-        <v>379031</v>
+        <v>379128</v>
       </c>
       <c r="F188" s="2">
         <v>1376</v>
       </c>
       <c r="G188" s="4">
-        <v>0.021465920557</v>
+        <v>0.021418088424</v>
       </c>
     </row>
     <row r="189" spans="1:7">
@@ -4720,22 +4720,22 @@
         <v>44109</v>
       </c>
       <c r="B189" s="2">
-        <v>17551</v>
+        <v>17558</v>
       </c>
       <c r="C189" s="2">
         <v>77</v>
       </c>
       <c r="D189" s="3">
-        <v>61.857142857142</v>
+        <v>61.71428571428499</v>
       </c>
       <c r="E189" s="2">
-        <v>383802</v>
+        <v>383918</v>
       </c>
       <c r="F189" s="2">
-        <v>4771</v>
+        <v>4790</v>
       </c>
       <c r="G189" s="4">
-        <v>0.019235040646</v>
+        <v>0.019173583063</v>
       </c>
     </row>
     <row r="190" spans="1:7">
@@ -4743,22 +4743,45 @@
         <v>44110</v>
       </c>
       <c r="B190" s="2">
-        <v>17613</v>
+        <v>17620</v>
       </c>
       <c r="C190" s="2">
         <v>62</v>
       </c>
       <c r="D190" s="3">
-        <v>60</v>
+        <v>59.857142857142</v>
       </c>
       <c r="E190" s="2">
-        <v>388404</v>
+        <v>388545</v>
       </c>
       <c r="F190" s="2">
-        <v>4602</v>
+        <v>4627</v>
       </c>
       <c r="G190" s="4">
-        <v>0.018021110443</v>
+        <v>0.017945094008</v>
+      </c>
+    </row>
+    <row r="191" spans="1:7">
+      <c r="A191" s="1">
+        <v>44111</v>
+      </c>
+      <c r="B191" s="2">
+        <v>17692</v>
+      </c>
+      <c r="C191" s="2">
+        <v>72</v>
+      </c>
+      <c r="D191" s="3">
+        <v>61.71428571428499</v>
+      </c>
+      <c r="E191" s="2">
+        <v>392681</v>
+      </c>
+      <c r="F191" s="2">
+        <v>4136</v>
+      </c>
+      <c r="G191" s="4">
+        <v>0.018039084683</v>
       </c>
     </row>
   </sheetData>

--- a/contra_costa_county_testing.xlsx
+++ b/contra_costa_county_testing.xlsx
@@ -376,7 +376,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G191"/>
+  <dimension ref="A1:G194"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -543,13 +543,13 @@
         <v>26.857142857142</v>
       </c>
       <c r="E7" s="2">
-        <v>7189</v>
+        <v>7188</v>
       </c>
       <c r="F7" s="2">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="G7" s="4">
-        <v>0.085029398462</v>
+        <v>0.085067873303</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -566,13 +566,13 @@
         <v>28.142857142857</v>
       </c>
       <c r="E8" s="2">
-        <v>7577</v>
+        <v>7576</v>
       </c>
       <c r="F8" s="2">
         <v>388</v>
       </c>
       <c r="G8" s="4">
-        <v>0.08763345195699999</v>
+        <v>0.087672452158</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -589,13 +589,13 @@
         <v>27.571428571428</v>
       </c>
       <c r="E9" s="2">
-        <v>7921</v>
+        <v>7920</v>
       </c>
       <c r="F9" s="2">
         <v>344</v>
       </c>
       <c r="G9" s="4">
-        <v>0.085322723253</v>
+        <v>0.085360459973</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -612,13 +612,13 @@
         <v>24</v>
       </c>
       <c r="E10" s="2">
-        <v>8245</v>
+        <v>8244</v>
       </c>
       <c r="F10" s="2">
         <v>324</v>
       </c>
       <c r="G10" s="4">
-        <v>0.075709779179</v>
+        <v>0.075743913435</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -635,13 +635,13 @@
         <v>25.857142857142</v>
       </c>
       <c r="E11" s="2">
-        <v>8723</v>
+        <v>8722</v>
       </c>
       <c r="F11" s="2">
         <v>478</v>
       </c>
       <c r="G11" s="4">
-        <v>0.079982324348</v>
+        <v>0.080017683465</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -658,13 +658,13 @@
         <v>24.428571428571</v>
       </c>
       <c r="E12" s="2">
-        <v>8902</v>
+        <v>8901</v>
       </c>
       <c r="F12" s="2">
         <v>179</v>
       </c>
       <c r="G12" s="4">
-        <v>0.07583148558699999</v>
+        <v>0.07586512866</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -681,13 +681,13 @@
         <v>23.285714285714</v>
       </c>
       <c r="E13" s="2">
-        <v>9017</v>
+        <v>9016</v>
       </c>
       <c r="F13" s="2">
         <v>115</v>
       </c>
       <c r="G13" s="4">
-        <v>0.073956442831</v>
+        <v>0.073990013617</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -704,7 +704,7 @@
         <v>23.428571428571</v>
       </c>
       <c r="E14" s="2">
-        <v>9374</v>
+        <v>9373</v>
       </c>
       <c r="F14" s="2">
         <v>357</v>
@@ -727,7 +727,7 @@
         <v>20.714285714285</v>
       </c>
       <c r="E15" s="2">
-        <v>9695</v>
+        <v>9694</v>
       </c>
       <c r="F15" s="2">
         <v>321</v>
@@ -750,7 +750,7 @@
         <v>21.857142857142</v>
       </c>
       <c r="E16" s="2">
-        <v>10045</v>
+        <v>10044</v>
       </c>
       <c r="F16" s="2">
         <v>350</v>
@@ -773,7 +773,7 @@
         <v>22.428571428571</v>
       </c>
       <c r="E17" s="2">
-        <v>10427</v>
+        <v>10426</v>
       </c>
       <c r="F17" s="2">
         <v>382</v>
@@ -796,7 +796,7 @@
         <v>17.428571428571</v>
       </c>
       <c r="E18" s="2">
-        <v>10773</v>
+        <v>10772</v>
       </c>
       <c r="F18" s="2">
         <v>346</v>
@@ -819,7 +819,7 @@
         <v>16.714285714285</v>
       </c>
       <c r="E19" s="2">
-        <v>10928</v>
+        <v>10927</v>
       </c>
       <c r="F19" s="2">
         <v>155</v>
@@ -842,7 +842,7 @@
         <v>17.428571428571</v>
       </c>
       <c r="E20" s="2">
-        <v>11074</v>
+        <v>11073</v>
       </c>
       <c r="F20" s="2">
         <v>146</v>
@@ -865,7 +865,7 @@
         <v>15.142857142857</v>
       </c>
       <c r="E21" s="2">
-        <v>11441</v>
+        <v>11440</v>
       </c>
       <c r="F21" s="2">
         <v>367</v>
@@ -888,7 +888,7 @@
         <v>15.428571428571</v>
       </c>
       <c r="E22" s="2">
-        <v>11846</v>
+        <v>11845</v>
       </c>
       <c r="F22" s="2">
         <v>405</v>
@@ -911,7 +911,7 @@
         <v>13.428571428571</v>
       </c>
       <c r="E23" s="2">
-        <v>12367</v>
+        <v>12366</v>
       </c>
       <c r="F23" s="2">
         <v>521</v>
@@ -934,7 +934,7 @@
         <v>12.714285714285</v>
       </c>
       <c r="E24" s="2">
-        <v>12926</v>
+        <v>12925</v>
       </c>
       <c r="F24" s="2">
         <v>559</v>
@@ -957,7 +957,7 @@
         <v>14</v>
       </c>
       <c r="E25" s="2">
-        <v>13491</v>
+        <v>13490</v>
       </c>
       <c r="F25" s="2">
         <v>565</v>
@@ -980,7 +980,7 @@
         <v>13.714285714285</v>
       </c>
       <c r="E26" s="2">
-        <v>13722</v>
+        <v>13721</v>
       </c>
       <c r="F26" s="2">
         <v>231</v>
@@ -1003,7 +1003,7 @@
         <v>14.285714285714</v>
       </c>
       <c r="E27" s="2">
-        <v>13952</v>
+        <v>13951</v>
       </c>
       <c r="F27" s="2">
         <v>230</v>
@@ -1026,13 +1026,13 @@
         <v>15.428571428571</v>
       </c>
       <c r="E28" s="2">
-        <v>14552</v>
+        <v>14550</v>
       </c>
       <c r="F28" s="2">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="G28" s="4">
-        <v>0.034715525554</v>
+        <v>0.034726688102</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -1049,13 +1049,13 @@
         <v>15.285714285714</v>
       </c>
       <c r="E29" s="2">
-        <v>15091</v>
+        <v>15089</v>
       </c>
       <c r="F29" s="2">
         <v>539</v>
       </c>
       <c r="G29" s="4">
-        <v>0.032973805855</v>
+        <v>0.032983970406</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -1072,13 +1072,13 @@
         <v>15.857142857142</v>
       </c>
       <c r="E30" s="2">
-        <v>15790</v>
+        <v>15788</v>
       </c>
       <c r="F30" s="2">
         <v>699</v>
       </c>
       <c r="G30" s="4">
-        <v>0.032427695004</v>
+        <v>0.032437171244</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -1095,13 +1095,13 @@
         <v>16.857142857142</v>
       </c>
       <c r="E31" s="2">
-        <v>16636</v>
+        <v>16634</v>
       </c>
       <c r="F31" s="2">
         <v>846</v>
       </c>
       <c r="G31" s="4">
-        <v>0.031805929919</v>
+        <v>0.031814505257</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -1118,13 +1118,13 @@
         <v>15.285714285714</v>
       </c>
       <c r="E32" s="2">
-        <v>17368</v>
+        <v>17366</v>
       </c>
       <c r="F32" s="2">
         <v>732</v>
       </c>
       <c r="G32" s="4">
-        <v>0.027598658756</v>
+        <v>0.027605779153</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -1141,13 +1141,13 @@
         <v>15.857142857142</v>
       </c>
       <c r="E33" s="2">
-        <v>17656</v>
+        <v>17654</v>
       </c>
       <c r="F33" s="2">
         <v>288</v>
       </c>
       <c r="G33" s="4">
-        <v>0.028215556685</v>
+        <v>0.028222730739</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -1164,13 +1164,13 @@
         <v>14.857142857142</v>
       </c>
       <c r="E34" s="2">
-        <v>17920</v>
+        <v>17918</v>
       </c>
       <c r="F34" s="2">
         <v>264</v>
       </c>
       <c r="G34" s="4">
-        <v>0.026209677419</v>
+        <v>0.026216284345</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -1187,7 +1187,7 @@
         <v>15.285714285714</v>
       </c>
       <c r="E35" s="2">
-        <v>18698</v>
+        <v>18696</v>
       </c>
       <c r="F35" s="2">
         <v>778</v>
@@ -1210,13 +1210,13 @@
         <v>15.428571428571</v>
       </c>
       <c r="E36" s="2">
-        <v>19379</v>
+        <v>19376</v>
       </c>
       <c r="F36" s="2">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="G36" s="4">
-        <v>0.025186567164</v>
+        <v>0.025192442267</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -1233,13 +1233,13 @@
         <v>16.428571428571</v>
       </c>
       <c r="E37" s="2">
-        <v>20344</v>
+        <v>20341</v>
       </c>
       <c r="F37" s="2">
         <v>965</v>
       </c>
       <c r="G37" s="4">
-        <v>0.025252525252</v>
+        <v>0.025258071601</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -1256,13 +1256,13 @@
         <v>14.428571428571</v>
       </c>
       <c r="E38" s="2">
-        <v>21240</v>
+        <v>21237</v>
       </c>
       <c r="F38" s="2">
         <v>896</v>
       </c>
       <c r="G38" s="4">
-        <v>0.021937445699</v>
+        <v>0.021942211601</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -1279,13 +1279,13 @@
         <v>15.285714285714</v>
       </c>
       <c r="E39" s="2">
-        <v>22381</v>
+        <v>22377</v>
       </c>
       <c r="F39" s="2">
-        <v>1141</v>
+        <v>1140</v>
       </c>
       <c r="G39" s="4">
-        <v>0.021344504288</v>
+        <v>0.021353023348</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -1302,13 +1302,13 @@
         <v>14.714285714285</v>
       </c>
       <c r="E40" s="2">
-        <v>22763</v>
+        <v>22759</v>
       </c>
       <c r="F40" s="2">
         <v>382</v>
       </c>
       <c r="G40" s="4">
-        <v>0.020168396318</v>
+        <v>0.020176297747</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -1325,13 +1325,13 @@
         <v>15.142857142857</v>
       </c>
       <c r="E41" s="2">
-        <v>23106</v>
+        <v>23102</v>
       </c>
       <c r="F41" s="2">
         <v>343</v>
       </c>
       <c r="G41" s="4">
-        <v>0.020439645198</v>
+        <v>0.020447530864</v>
       </c>
     </row>
     <row r="42" spans="1:7">
@@ -1348,13 +1348,13 @@
         <v>13</v>
       </c>
       <c r="E42" s="2">
-        <v>24209</v>
+        <v>24205</v>
       </c>
       <c r="F42" s="2">
         <v>1103</v>
       </c>
       <c r="G42" s="4">
-        <v>0.016512429686</v>
+        <v>0.016518424396</v>
       </c>
     </row>
     <row r="43" spans="1:7">
@@ -1371,13 +1371,13 @@
         <v>12.285714285714</v>
       </c>
       <c r="E43" s="2">
-        <v>25440</v>
+        <v>25436</v>
       </c>
       <c r="F43" s="2">
         <v>1231</v>
       </c>
       <c r="G43" s="4">
-        <v>0.014189077709</v>
+        <v>0.014191419141</v>
       </c>
     </row>
     <row r="44" spans="1:7">
@@ -1394,13 +1394,13 @@
         <v>12.857142857142</v>
       </c>
       <c r="E44" s="2">
-        <v>26538</v>
+        <v>26533</v>
       </c>
       <c r="F44" s="2">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="G44" s="4">
-        <v>0.014530190506</v>
+        <v>0.01453488372</v>
       </c>
     </row>
     <row r="45" spans="1:7">
@@ -1417,13 +1417,13 @@
         <v>14</v>
       </c>
       <c r="E45" s="2">
-        <v>27399</v>
+        <v>27394</v>
       </c>
       <c r="F45" s="2">
         <v>861</v>
       </c>
       <c r="G45" s="4">
-        <v>0.015911673973</v>
+        <v>0.015916842618</v>
       </c>
     </row>
     <row r="46" spans="1:7">
@@ -1440,13 +1440,13 @@
         <v>15.714285714285</v>
       </c>
       <c r="E46" s="2">
-        <v>28318</v>
+        <v>28313</v>
       </c>
       <c r="F46" s="2">
         <v>919</v>
       </c>
       <c r="G46" s="4">
-        <v>0.018527876031</v>
+        <v>0.018530997304</v>
       </c>
     </row>
     <row r="47" spans="1:7">
@@ -1463,13 +1463,13 @@
         <v>17.571428571428</v>
       </c>
       <c r="E47" s="2">
-        <v>28727</v>
+        <v>28722</v>
       </c>
       <c r="F47" s="2">
         <v>409</v>
       </c>
       <c r="G47" s="4">
-        <v>0.020623742454</v>
+        <v>0.020627201073</v>
       </c>
     </row>
     <row r="48" spans="1:7">
@@ -1486,13 +1486,13 @@
         <v>18</v>
       </c>
       <c r="E48" s="2">
-        <v>29118</v>
+        <v>29113</v>
       </c>
       <c r="F48" s="2">
         <v>391</v>
       </c>
       <c r="G48" s="4">
-        <v>0.020958083832</v>
+        <v>0.020961570454</v>
       </c>
     </row>
     <row r="49" spans="1:7">
@@ -1509,13 +1509,13 @@
         <v>22.428571428571</v>
       </c>
       <c r="E49" s="2">
-        <v>30483</v>
+        <v>30478</v>
       </c>
       <c r="F49" s="2">
         <v>1365</v>
       </c>
       <c r="G49" s="4">
-        <v>0.025023908192</v>
+        <v>0.025027897337</v>
       </c>
     </row>
     <row r="50" spans="1:7">
@@ -1532,13 +1532,13 @@
         <v>25.714285714285</v>
       </c>
       <c r="E50" s="2">
-        <v>32143</v>
+        <v>32137</v>
       </c>
       <c r="F50" s="2">
-        <v>1660</v>
+        <v>1659</v>
       </c>
       <c r="G50" s="4">
-        <v>0.02685364762</v>
+        <v>0.026861662438</v>
       </c>
     </row>
     <row r="51" spans="1:7">
@@ -1555,13 +1555,13 @@
         <v>26.142857142857</v>
       </c>
       <c r="E51" s="2">
-        <v>33284</v>
+        <v>33278</v>
       </c>
       <c r="F51" s="2">
         <v>1141</v>
       </c>
       <c r="G51" s="4">
-        <v>0.02712718648</v>
+        <v>0.027131208302</v>
       </c>
     </row>
     <row r="52" spans="1:7">
@@ -1578,13 +1578,13 @@
         <v>27.428571428571</v>
       </c>
       <c r="E52" s="2">
-        <v>34416</v>
+        <v>34409</v>
       </c>
       <c r="F52" s="2">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="G52" s="4">
-        <v>0.027362120564</v>
+        <v>0.027369921596</v>
       </c>
     </row>
     <row r="53" spans="1:7">
@@ -1601,13 +1601,13 @@
         <v>29.142857142857</v>
       </c>
       <c r="E53" s="2">
-        <v>35505</v>
+        <v>35498</v>
       </c>
       <c r="F53" s="2">
         <v>1089</v>
       </c>
       <c r="G53" s="4">
-        <v>0.028384583275</v>
+        <v>0.028392484342</v>
       </c>
     </row>
     <row r="54" spans="1:7">
@@ -1624,13 +1624,13 @@
         <v>28</v>
       </c>
       <c r="E54" s="2">
-        <v>36024</v>
+        <v>36017</v>
       </c>
       <c r="F54" s="2">
         <v>519</v>
       </c>
       <c r="G54" s="4">
-        <v>0.026860353569</v>
+        <v>0.026867717614</v>
       </c>
     </row>
     <row r="55" spans="1:7">
@@ -1647,13 +1647,13 @@
         <v>27.571428571428</v>
       </c>
       <c r="E55" s="2">
-        <v>36418</v>
+        <v>36411</v>
       </c>
       <c r="F55" s="2">
         <v>394</v>
       </c>
       <c r="G55" s="4">
-        <v>0.026438356164</v>
+        <v>0.026445601534</v>
       </c>
     </row>
     <row r="56" spans="1:7">
@@ -1670,13 +1670,13 @@
         <v>23.285714285714</v>
       </c>
       <c r="E56" s="2">
-        <v>36883</v>
+        <v>36873</v>
       </c>
       <c r="F56" s="2">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="G56" s="4">
-        <v>0.02546875</v>
+        <v>0.025488663017</v>
       </c>
     </row>
     <row r="57" spans="1:7">
@@ -1693,13 +1693,13 @@
         <v>23.714285714285</v>
       </c>
       <c r="E57" s="2">
-        <v>38080</v>
+        <v>38070</v>
       </c>
       <c r="F57" s="2">
         <v>1197</v>
       </c>
       <c r="G57" s="4">
-        <v>0.027960249284</v>
+        <v>0.027979099949</v>
       </c>
     </row>
     <row r="58" spans="1:7">
@@ -1716,13 +1716,13 @@
         <v>23.714285714285</v>
       </c>
       <c r="E58" s="2">
-        <v>39193</v>
+        <v>39183</v>
       </c>
       <c r="F58" s="2">
         <v>1113</v>
       </c>
       <c r="G58" s="4">
-        <v>0.028092739888</v>
+        <v>0.028111769686</v>
       </c>
     </row>
     <row r="59" spans="1:7">
@@ -1739,13 +1739,13 @@
         <v>26.285714285714</v>
       </c>
       <c r="E59" s="2">
-        <v>40330</v>
+        <v>40319</v>
       </c>
       <c r="F59" s="2">
-        <v>1137</v>
+        <v>1136</v>
       </c>
       <c r="G59" s="4">
-        <v>0.031112614135</v>
+        <v>0.031133671742</v>
       </c>
     </row>
     <row r="60" spans="1:7">
@@ -1753,22 +1753,22 @@
         <v>43980</v>
       </c>
       <c r="B60" s="2">
-        <v>1572</v>
+        <v>1571</v>
       </c>
       <c r="C60" s="2">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D60" s="3">
-        <v>26.571428571428</v>
+        <v>26.428571428571</v>
       </c>
       <c r="E60" s="2">
-        <v>41733</v>
+        <v>41721</v>
       </c>
       <c r="F60" s="2">
-        <v>1403</v>
+        <v>1402</v>
       </c>
       <c r="G60" s="4">
-        <v>0.02986512524</v>
+        <v>0.029728426803</v>
       </c>
     </row>
     <row r="61" spans="1:7">
@@ -1776,22 +1776,22 @@
         <v>43981</v>
       </c>
       <c r="B61" s="2">
-        <v>1581</v>
+        <v>1580</v>
       </c>
       <c r="C61" s="2">
         <v>9</v>
       </c>
       <c r="D61" s="3">
-        <v>26.285714285714</v>
+        <v>26.142857142857</v>
       </c>
       <c r="E61" s="2">
-        <v>42467</v>
+        <v>42455</v>
       </c>
       <c r="F61" s="2">
         <v>734</v>
       </c>
       <c r="G61" s="4">
-        <v>0.028558125097</v>
+        <v>0.0284249767</v>
       </c>
     </row>
     <row r="62" spans="1:7">
@@ -1799,22 +1799,22 @@
         <v>43982</v>
       </c>
       <c r="B62" s="2">
-        <v>1586</v>
+        <v>1585</v>
       </c>
       <c r="C62" s="2">
         <v>5</v>
       </c>
       <c r="D62" s="3">
-        <v>26</v>
+        <v>25.857142857142</v>
       </c>
       <c r="E62" s="2">
-        <v>42865</v>
+        <v>42853</v>
       </c>
       <c r="F62" s="2">
         <v>398</v>
       </c>
       <c r="G62" s="4">
-        <v>0.028230184581</v>
+        <v>0.028096864327</v>
       </c>
     </row>
     <row r="63" spans="1:7">
@@ -1822,22 +1822,22 @@
         <v>43983</v>
       </c>
       <c r="B63" s="2">
-        <v>1618</v>
+        <v>1617</v>
       </c>
       <c r="C63" s="2">
         <v>32</v>
       </c>
       <c r="D63" s="3">
-        <v>29.285714285714</v>
+        <v>29.142857142857</v>
       </c>
       <c r="E63" s="2">
-        <v>44241</v>
+        <v>44229</v>
       </c>
       <c r="F63" s="2">
         <v>1376</v>
       </c>
       <c r="G63" s="4">
-        <v>0.027860831747</v>
+        <v>0.027732463295</v>
       </c>
     </row>
     <row r="64" spans="1:7">
@@ -1845,22 +1845,22 @@
         <v>43984</v>
       </c>
       <c r="B64" s="2">
-        <v>1649</v>
+        <v>1648</v>
       </c>
       <c r="C64" s="2">
         <v>31</v>
       </c>
       <c r="D64" s="3">
-        <v>28.285714285714</v>
+        <v>28.142857142857</v>
       </c>
       <c r="E64" s="2">
-        <v>45458</v>
+        <v>45446</v>
       </c>
       <c r="F64" s="2">
         <v>1217</v>
       </c>
       <c r="G64" s="4">
-        <v>0.026836541068</v>
+        <v>0.02670824295</v>
       </c>
     </row>
     <row r="65" spans="1:7">
@@ -1868,22 +1868,22 @@
         <v>43985</v>
       </c>
       <c r="B65" s="2">
-        <v>1678</v>
+        <v>1677</v>
       </c>
       <c r="C65" s="2">
         <v>29</v>
       </c>
       <c r="D65" s="3">
-        <v>27.857142857142</v>
+        <v>27.714285714285</v>
       </c>
       <c r="E65" s="2">
-        <v>46622</v>
+        <v>46610</v>
       </c>
       <c r="F65" s="2">
         <v>1164</v>
       </c>
       <c r="G65" s="4">
-        <v>0.026248485664</v>
+        <v>0.026120910192</v>
       </c>
     </row>
     <row r="66" spans="1:7">
@@ -1891,22 +1891,22 @@
         <v>43986</v>
       </c>
       <c r="B66" s="2">
-        <v>1730</v>
+        <v>1729</v>
       </c>
       <c r="C66" s="2">
         <v>52</v>
       </c>
       <c r="D66" s="3">
-        <v>28.571428571428</v>
+        <v>28.428571428571</v>
       </c>
       <c r="E66" s="2">
-        <v>47974</v>
+        <v>47962</v>
       </c>
       <c r="F66" s="2">
         <v>1352</v>
       </c>
       <c r="G66" s="4">
-        <v>0.026164311878</v>
+        <v>0.026036896506</v>
       </c>
     </row>
     <row r="67" spans="1:7">
@@ -1914,7 +1914,7 @@
         <v>43987</v>
       </c>
       <c r="B67" s="2">
-        <v>1777</v>
+        <v>1776</v>
       </c>
       <c r="C67" s="2">
         <v>47</v>
@@ -1923,13 +1923,13 @@
         <v>29.285714285714</v>
       </c>
       <c r="E67" s="2">
-        <v>49606</v>
+        <v>49593</v>
       </c>
       <c r="F67" s="2">
-        <v>1632</v>
+        <v>1631</v>
       </c>
       <c r="G67" s="4">
-        <v>0.026038358948</v>
+        <v>0.026041666666</v>
       </c>
     </row>
     <row r="68" spans="1:7">
@@ -1937,7 +1937,7 @@
         <v>43988</v>
       </c>
       <c r="B68" s="2">
-        <v>1795</v>
+        <v>1794</v>
       </c>
       <c r="C68" s="2">
         <v>18</v>
@@ -1946,13 +1946,13 @@
         <v>30.571428571428</v>
       </c>
       <c r="E68" s="2">
-        <v>50211</v>
+        <v>50198</v>
       </c>
       <c r="F68" s="2">
         <v>605</v>
       </c>
       <c r="G68" s="4">
-        <v>0.02763429752</v>
+        <v>0.02763786646</v>
       </c>
     </row>
     <row r="69" spans="1:7">
@@ -1960,7 +1960,7 @@
         <v>43989</v>
       </c>
       <c r="B69" s="2">
-        <v>1813</v>
+        <v>1812</v>
       </c>
       <c r="C69" s="2">
         <v>18</v>
@@ -1969,13 +1969,13 @@
         <v>32.428571428571</v>
       </c>
       <c r="E69" s="2">
-        <v>50696</v>
+        <v>50683</v>
       </c>
       <c r="F69" s="2">
         <v>485</v>
       </c>
       <c r="G69" s="4">
-        <v>0.028987357936</v>
+        <v>0.028991060025</v>
       </c>
     </row>
     <row r="70" spans="1:7">
@@ -1983,7 +1983,7 @@
         <v>43990</v>
       </c>
       <c r="B70" s="2">
-        <v>1861</v>
+        <v>1860</v>
       </c>
       <c r="C70" s="2">
         <v>48</v>
@@ -1992,13 +1992,13 @@
         <v>34.714285714285</v>
       </c>
       <c r="E70" s="2">
-        <v>52534</v>
+        <v>52520</v>
       </c>
       <c r="F70" s="2">
-        <v>1838</v>
+        <v>1837</v>
       </c>
       <c r="G70" s="4">
-        <v>0.029301820812</v>
+        <v>0.029308889156</v>
       </c>
     </row>
     <row r="71" spans="1:7">
@@ -2006,7 +2006,7 @@
         <v>43991</v>
       </c>
       <c r="B71" s="2">
-        <v>1904</v>
+        <v>1903</v>
       </c>
       <c r="C71" s="2">
         <v>43</v>
@@ -2015,13 +2015,13 @@
         <v>36.428571428571</v>
       </c>
       <c r="E71" s="2">
-        <v>54382</v>
+        <v>54368</v>
       </c>
       <c r="F71" s="2">
         <v>1848</v>
       </c>
       <c r="G71" s="4">
-        <v>0.02857463021</v>
+        <v>0.028581035642</v>
       </c>
     </row>
     <row r="72" spans="1:7">
@@ -2029,7 +2029,7 @@
         <v>43992</v>
       </c>
       <c r="B72" s="2">
-        <v>1958</v>
+        <v>1957</v>
       </c>
       <c r="C72" s="2">
         <v>54</v>
@@ -2038,13 +2038,13 @@
         <v>40</v>
       </c>
       <c r="E72" s="2">
-        <v>56373</v>
+        <v>56359</v>
       </c>
       <c r="F72" s="2">
         <v>1991</v>
       </c>
       <c r="G72" s="4">
-        <v>0.028715003589</v>
+        <v>0.02872089445</v>
       </c>
     </row>
     <row r="73" spans="1:7">
@@ -2052,7 +2052,7 @@
         <v>43993</v>
       </c>
       <c r="B73" s="2">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="C73" s="2">
         <v>54</v>
@@ -2061,13 +2061,13 @@
         <v>40.285714285714</v>
       </c>
       <c r="E73" s="2">
-        <v>58525</v>
+        <v>58514</v>
       </c>
       <c r="F73" s="2">
-        <v>2152</v>
+        <v>2155</v>
       </c>
       <c r="G73" s="4">
-        <v>0.026727324424</v>
+        <v>0.026724791508</v>
       </c>
     </row>
     <row r="74" spans="1:7">
@@ -2075,7 +2075,7 @@
         <v>43994</v>
       </c>
       <c r="B74" s="2">
-        <v>2070</v>
+        <v>2069</v>
       </c>
       <c r="C74" s="2">
         <v>58</v>
@@ -2084,13 +2084,13 @@
         <v>41.857142857142</v>
       </c>
       <c r="E74" s="2">
-        <v>60782</v>
+        <v>60776</v>
       </c>
       <c r="F74" s="2">
-        <v>2257</v>
+        <v>2262</v>
       </c>
       <c r="G74" s="4">
-        <v>0.026216893342</v>
+        <v>0.026200482875</v>
       </c>
     </row>
     <row r="75" spans="1:7">
@@ -2098,7 +2098,7 @@
         <v>43995</v>
       </c>
       <c r="B75" s="2">
-        <v>2104</v>
+        <v>2103</v>
       </c>
       <c r="C75" s="2">
         <v>34</v>
@@ -2107,13 +2107,13 @@
         <v>44.142857142857</v>
       </c>
       <c r="E75" s="2">
-        <v>61622</v>
+        <v>61620</v>
       </c>
       <c r="F75" s="2">
-        <v>840</v>
+        <v>844</v>
       </c>
       <c r="G75" s="4">
-        <v>0.027079134168</v>
+        <v>0.027053055506</v>
       </c>
     </row>
     <row r="76" spans="1:7">
@@ -2121,7 +2121,7 @@
         <v>43996</v>
       </c>
       <c r="B76" s="2">
-        <v>2131</v>
+        <v>2130</v>
       </c>
       <c r="C76" s="2">
         <v>27</v>
@@ -2130,13 +2130,13 @@
         <v>45.428571428571</v>
       </c>
       <c r="E76" s="2">
-        <v>62205</v>
+        <v>62207</v>
       </c>
       <c r="F76" s="2">
-        <v>583</v>
+        <v>587</v>
       </c>
       <c r="G76" s="4">
-        <v>0.027630550004</v>
+        <v>0.027594585213</v>
       </c>
     </row>
     <row r="77" spans="1:7">
@@ -2144,7 +2144,7 @@
         <v>43997</v>
       </c>
       <c r="B77" s="2">
-        <v>2188</v>
+        <v>2187</v>
       </c>
       <c r="C77" s="2">
         <v>57</v>
@@ -2153,13 +2153,13 @@
         <v>46.714285714285</v>
       </c>
       <c r="E77" s="2">
-        <v>64422</v>
+        <v>64426</v>
       </c>
       <c r="F77" s="2">
-        <v>2217</v>
+        <v>2219</v>
       </c>
       <c r="G77" s="4">
-        <v>0.027506729475</v>
+        <v>0.027465143625</v>
       </c>
     </row>
     <row r="78" spans="1:7">
@@ -2167,7 +2167,7 @@
         <v>43998</v>
       </c>
       <c r="B78" s="2">
-        <v>2272</v>
+        <v>2271</v>
       </c>
       <c r="C78" s="2">
         <v>84</v>
@@ -2176,13 +2176,13 @@
         <v>52.571428571428</v>
       </c>
       <c r="E78" s="2">
-        <v>66943</v>
+        <v>66947</v>
       </c>
       <c r="F78" s="2">
         <v>2521</v>
       </c>
       <c r="G78" s="4">
-        <v>0.029297030491</v>
+        <v>0.029255107719</v>
       </c>
     </row>
     <row r="79" spans="1:7">
@@ -2190,7 +2190,7 @@
         <v>43999</v>
       </c>
       <c r="B79" s="2">
-        <v>2359</v>
+        <v>2358</v>
       </c>
       <c r="C79" s="2">
         <v>87</v>
@@ -2199,13 +2199,13 @@
         <v>57.285714285714</v>
       </c>
       <c r="E79" s="2">
-        <v>69514</v>
+        <v>69518</v>
       </c>
       <c r="F79" s="2">
         <v>2571</v>
       </c>
       <c r="G79" s="4">
-        <v>0.030515181493</v>
+        <v>0.030473440231</v>
       </c>
     </row>
     <row r="80" spans="1:7">
@@ -2213,7 +2213,7 @@
         <v>44000</v>
       </c>
       <c r="B80" s="2">
-        <v>2450</v>
+        <v>2449</v>
       </c>
       <c r="C80" s="2">
         <v>91</v>
@@ -2222,13 +2222,13 @@
         <v>62.57142857142801</v>
       </c>
       <c r="E80" s="2">
-        <v>72039</v>
+        <v>72043</v>
       </c>
       <c r="F80" s="2">
         <v>2525</v>
       </c>
       <c r="G80" s="4">
-        <v>0.03241083321</v>
+        <v>0.032374898366</v>
       </c>
     </row>
     <row r="81" spans="1:7">
@@ -2236,7 +2236,7 @@
         <v>44001</v>
       </c>
       <c r="B81" s="2">
-        <v>2552</v>
+        <v>2551</v>
       </c>
       <c r="C81" s="2">
         <v>102</v>
@@ -2245,13 +2245,13 @@
         <v>68.85714285714199</v>
       </c>
       <c r="E81" s="2">
-        <v>74482</v>
+        <v>74486</v>
       </c>
       <c r="F81" s="2">
         <v>2443</v>
       </c>
       <c r="G81" s="4">
-        <v>0.035182481751</v>
+        <v>0.035156819839</v>
       </c>
     </row>
     <row r="82" spans="1:7">
@@ -2259,7 +2259,7 @@
         <v>44002</v>
       </c>
       <c r="B82" s="2">
-        <v>2604</v>
+        <v>2603</v>
       </c>
       <c r="C82" s="2">
         <v>52</v>
@@ -2268,13 +2268,13 @@
         <v>71.428571428571</v>
       </c>
       <c r="E82" s="2">
-        <v>75434</v>
+        <v>75438</v>
       </c>
       <c r="F82" s="2">
         <v>952</v>
       </c>
       <c r="G82" s="4">
-        <v>0.036200405444</v>
+        <v>0.03618468664</v>
       </c>
     </row>
     <row r="83" spans="1:7">
@@ -2282,7 +2282,7 @@
         <v>44003</v>
       </c>
       <c r="B83" s="2">
-        <v>2644</v>
+        <v>2643</v>
       </c>
       <c r="C83" s="2">
         <v>40</v>
@@ -2291,13 +2291,13 @@
         <v>73.28571428571399</v>
       </c>
       <c r="E83" s="2">
-        <v>76131</v>
+        <v>76135</v>
       </c>
       <c r="F83" s="2">
         <v>697</v>
       </c>
       <c r="G83" s="4">
-        <v>0.036837570012</v>
+        <v>0.036832280298</v>
       </c>
     </row>
     <row r="84" spans="1:7">
@@ -2305,7 +2305,7 @@
         <v>44004</v>
       </c>
       <c r="B84" s="2">
-        <v>2755</v>
+        <v>2754</v>
       </c>
       <c r="C84" s="2">
         <v>111</v>
@@ -2314,13 +2314,13 @@
         <v>81</v>
       </c>
       <c r="E84" s="2">
-        <v>78752</v>
+        <v>78753</v>
       </c>
       <c r="F84" s="2">
-        <v>2621</v>
+        <v>2618</v>
       </c>
       <c r="G84" s="4">
-        <v>0.039567341242</v>
+        <v>0.039575626439</v>
       </c>
     </row>
     <row r="85" spans="1:7">
@@ -2328,7 +2328,7 @@
         <v>44005</v>
       </c>
       <c r="B85" s="2">
-        <v>2888</v>
+        <v>2887</v>
       </c>
       <c r="C85" s="2">
         <v>133</v>
@@ -2337,13 +2337,13 @@
         <v>88</v>
       </c>
       <c r="E85" s="2">
-        <v>81537</v>
+        <v>81539</v>
       </c>
       <c r="F85" s="2">
-        <v>2785</v>
+        <v>2786</v>
       </c>
       <c r="G85" s="4">
-        <v>0.042209127038</v>
+        <v>0.04221491228</v>
       </c>
     </row>
     <row r="86" spans="1:7">
@@ -2351,7 +2351,7 @@
         <v>44006</v>
       </c>
       <c r="B86" s="2">
-        <v>3031</v>
+        <v>3030</v>
       </c>
       <c r="C86" s="2">
         <v>143</v>
@@ -2360,13 +2360,13 @@
         <v>96</v>
       </c>
       <c r="E86" s="2">
-        <v>84566</v>
+        <v>84568</v>
       </c>
       <c r="F86" s="2">
         <v>3029</v>
       </c>
       <c r="G86" s="4">
-        <v>0.044645229869</v>
+        <v>0.04465116279</v>
       </c>
     </row>
     <row r="87" spans="1:7">
@@ -2374,7 +2374,7 @@
         <v>44007</v>
       </c>
       <c r="B87" s="2">
-        <v>3183</v>
+        <v>3182</v>
       </c>
       <c r="C87" s="2">
         <v>152</v>
@@ -2383,13 +2383,13 @@
         <v>104.714285714285</v>
       </c>
       <c r="E87" s="2">
-        <v>87924</v>
+        <v>87927</v>
       </c>
       <c r="F87" s="2">
-        <v>3358</v>
+        <v>3359</v>
       </c>
       <c r="G87" s="4">
-        <v>0.046144161158</v>
+        <v>0.04614706623</v>
       </c>
     </row>
     <row r="88" spans="1:7">
@@ -2397,7 +2397,7 @@
         <v>44008</v>
       </c>
       <c r="B88" s="2">
-        <v>3353</v>
+        <v>3352</v>
       </c>
       <c r="C88" s="2">
         <v>170</v>
@@ -2406,13 +2406,13 @@
         <v>114.428571428571</v>
       </c>
       <c r="E88" s="2">
-        <v>90893</v>
+        <v>90896</v>
       </c>
       <c r="F88" s="2">
         <v>2969</v>
       </c>
       <c r="G88" s="4">
-        <v>0.048808725854</v>
+        <v>0.048811700182</v>
       </c>
     </row>
     <row r="89" spans="1:7">
@@ -2420,7 +2420,7 @@
         <v>44009</v>
       </c>
       <c r="B89" s="2">
-        <v>3433</v>
+        <v>3432</v>
       </c>
       <c r="C89" s="2">
         <v>80</v>
@@ -2429,13 +2429,13 @@
         <v>118.428571428571</v>
       </c>
       <c r="E89" s="2">
-        <v>91967</v>
+        <v>91970</v>
       </c>
       <c r="F89" s="2">
         <v>1074</v>
       </c>
       <c r="G89" s="4">
-        <v>0.050142139962</v>
+        <v>0.050145172997</v>
       </c>
     </row>
     <row r="90" spans="1:7">
@@ -2443,7 +2443,7 @@
         <v>44010</v>
       </c>
       <c r="B90" s="2">
-        <v>3492</v>
+        <v>3491</v>
       </c>
       <c r="C90" s="2">
         <v>59</v>
@@ -2452,13 +2452,13 @@
         <v>121.142857142857</v>
       </c>
       <c r="E90" s="2">
-        <v>92762</v>
+        <v>92765</v>
       </c>
       <c r="F90" s="2">
         <v>795</v>
       </c>
       <c r="G90" s="4">
-        <v>0.050989116709</v>
+        <v>0.050992182802</v>
       </c>
     </row>
     <row r="91" spans="1:7">
@@ -2466,7 +2466,7 @@
         <v>44011</v>
       </c>
       <c r="B91" s="2">
-        <v>3689</v>
+        <v>3688</v>
       </c>
       <c r="C91" s="2">
         <v>197</v>
@@ -2475,13 +2475,13 @@
         <v>133.428571428571</v>
       </c>
       <c r="E91" s="2">
-        <v>96447</v>
+        <v>96451</v>
       </c>
       <c r="F91" s="2">
-        <v>3685</v>
+        <v>3686</v>
       </c>
       <c r="G91" s="4">
-        <v>0.05278327211</v>
+        <v>0.052774324782</v>
       </c>
     </row>
     <row r="92" spans="1:7">
@@ -2489,7 +2489,7 @@
         <v>44012</v>
       </c>
       <c r="B92" s="2">
-        <v>3847</v>
+        <v>3846</v>
       </c>
       <c r="C92" s="2">
         <v>158</v>
@@ -2498,13 +2498,13 @@
         <v>137</v>
       </c>
       <c r="E92" s="2">
-        <v>99926</v>
+        <v>99930</v>
       </c>
       <c r="F92" s="2">
         <v>3479</v>
       </c>
       <c r="G92" s="4">
-        <v>0.052150742291</v>
+        <v>0.052145070958</v>
       </c>
     </row>
     <row r="93" spans="1:7">
@@ -2512,7 +2512,7 @@
         <v>44013</v>
       </c>
       <c r="B93" s="2">
-        <v>4020</v>
+        <v>4019</v>
       </c>
       <c r="C93" s="2">
         <v>173</v>
@@ -2521,13 +2521,13 @@
         <v>141.285714285714</v>
       </c>
       <c r="E93" s="2">
-        <v>103465</v>
+        <v>103469</v>
       </c>
       <c r="F93" s="2">
         <v>3539</v>
       </c>
       <c r="G93" s="4">
-        <v>0.052330811154</v>
+        <v>0.052325273795</v>
       </c>
     </row>
     <row r="94" spans="1:7">
@@ -2535,7 +2535,7 @@
         <v>44014</v>
       </c>
       <c r="B94" s="2">
-        <v>4232</v>
+        <v>4231</v>
       </c>
       <c r="C94" s="2">
         <v>212</v>
@@ -2544,13 +2544,13 @@
         <v>149.857142857142</v>
       </c>
       <c r="E94" s="2">
-        <v>107388</v>
+        <v>107392</v>
       </c>
       <c r="F94" s="2">
         <v>3923</v>
       </c>
       <c r="G94" s="4">
-        <v>0.053894369091</v>
+        <v>0.053891600308</v>
       </c>
     </row>
     <row r="95" spans="1:7">
@@ -2558,7 +2558,7 @@
         <v>44015</v>
       </c>
       <c r="B95" s="2">
-        <v>4376</v>
+        <v>4375</v>
       </c>
       <c r="C95" s="2">
         <v>144</v>
@@ -2567,13 +2567,13 @@
         <v>146.142857142857</v>
       </c>
       <c r="E95" s="2">
-        <v>110029</v>
+        <v>110033</v>
       </c>
       <c r="F95" s="2">
         <v>2641</v>
       </c>
       <c r="G95" s="4">
-        <v>0.05345944816</v>
+        <v>0.053456654648</v>
       </c>
     </row>
     <row r="96" spans="1:7">
@@ -2581,7 +2581,7 @@
         <v>44016</v>
       </c>
       <c r="B96" s="2">
-        <v>4469</v>
+        <v>4468</v>
       </c>
       <c r="C96" s="2">
         <v>93</v>
@@ -2590,13 +2590,13 @@
         <v>148</v>
       </c>
       <c r="E96" s="2">
-        <v>111146</v>
+        <v>111150</v>
       </c>
       <c r="F96" s="2">
         <v>1117</v>
       </c>
       <c r="G96" s="4">
-        <v>0.05401741488</v>
+        <v>0.05401459854</v>
       </c>
     </row>
     <row r="97" spans="1:7">
@@ -2604,7 +2604,7 @@
         <v>44017</v>
       </c>
       <c r="B97" s="2">
-        <v>4555</v>
+        <v>4554</v>
       </c>
       <c r="C97" s="2">
         <v>86</v>
@@ -2613,13 +2613,13 @@
         <v>151.857142857142</v>
       </c>
       <c r="E97" s="2">
-        <v>112275</v>
+        <v>112279</v>
       </c>
       <c r="F97" s="2">
         <v>1129</v>
       </c>
       <c r="G97" s="4">
-        <v>0.054476502844</v>
+        <v>0.054473711181</v>
       </c>
     </row>
     <row r="98" spans="1:7">
@@ -2627,7 +2627,7 @@
         <v>44018</v>
       </c>
       <c r="B98" s="2">
-        <v>4759</v>
+        <v>4758</v>
       </c>
       <c r="C98" s="2">
         <v>204</v>
@@ -2636,13 +2636,13 @@
         <v>152.857142857142</v>
       </c>
       <c r="E98" s="2">
-        <v>116349</v>
+        <v>116355</v>
       </c>
       <c r="F98" s="2">
-        <v>4074</v>
+        <v>4076</v>
       </c>
       <c r="G98" s="4">
-        <v>0.05376344086</v>
+        <v>0.053758038585</v>
       </c>
     </row>
     <row r="99" spans="1:7">
@@ -2650,7 +2650,7 @@
         <v>44019</v>
       </c>
       <c r="B99" s="2">
-        <v>4975</v>
+        <v>4974</v>
       </c>
       <c r="C99" s="2">
         <v>216</v>
@@ -2659,13 +2659,13 @@
         <v>161.142857142857</v>
       </c>
       <c r="E99" s="2">
-        <v>120427</v>
+        <v>120433</v>
       </c>
       <c r="F99" s="2">
         <v>4078</v>
       </c>
       <c r="G99" s="4">
-        <v>0.055021706258</v>
+        <v>0.055016339072</v>
       </c>
     </row>
     <row r="100" spans="1:7">
@@ -2673,7 +2673,7 @@
         <v>44020</v>
       </c>
       <c r="B100" s="2">
-        <v>5200</v>
+        <v>5199</v>
       </c>
       <c r="C100" s="2">
         <v>225</v>
@@ -2682,13 +2682,13 @@
         <v>168.571428571428</v>
       </c>
       <c r="E100" s="2">
-        <v>124689</v>
+        <v>124696</v>
       </c>
       <c r="F100" s="2">
-        <v>4262</v>
+        <v>4263</v>
       </c>
       <c r="G100" s="4">
-        <v>0.055597436863</v>
+        <v>0.055589579309</v>
       </c>
     </row>
     <row r="101" spans="1:7">
@@ -2696,7 +2696,7 @@
         <v>44021</v>
       </c>
       <c r="B101" s="2">
-        <v>5452</v>
+        <v>5451</v>
       </c>
       <c r="C101" s="2">
         <v>252</v>
@@ -2705,13 +2705,13 @@
         <v>174.285714285714</v>
       </c>
       <c r="E101" s="2">
-        <v>129292</v>
+        <v>129299</v>
       </c>
       <c r="F101" s="2">
         <v>4603</v>
       </c>
       <c r="G101" s="4">
-        <v>0.055697589481</v>
+        <v>0.055689962112</v>
       </c>
     </row>
     <row r="102" spans="1:7">
@@ -2719,22 +2719,22 @@
         <v>44022</v>
       </c>
       <c r="B102" s="2">
-        <v>5699</v>
+        <v>5697</v>
       </c>
       <c r="C102" s="2">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D102" s="3">
-        <v>189</v>
+        <v>188.857142857142</v>
       </c>
       <c r="E102" s="2">
-        <v>133755</v>
+        <v>133761</v>
       </c>
       <c r="F102" s="2">
-        <v>4463</v>
+        <v>4462</v>
       </c>
       <c r="G102" s="4">
-        <v>0.055761611733</v>
+        <v>0.055714767363</v>
       </c>
     </row>
     <row r="103" spans="1:7">
@@ -2742,22 +2742,22 @@
         <v>44023</v>
       </c>
       <c r="B103" s="2">
-        <v>5839</v>
+        <v>5837</v>
       </c>
       <c r="C103" s="2">
         <v>140</v>
       </c>
       <c r="D103" s="3">
-        <v>195.714285714285</v>
+        <v>195.571428571428</v>
       </c>
       <c r="E103" s="2">
-        <v>135826</v>
+        <v>135832</v>
       </c>
       <c r="F103" s="2">
         <v>2071</v>
       </c>
       <c r="G103" s="4">
-        <v>0.055510534846</v>
+        <v>0.055465521432</v>
       </c>
     </row>
     <row r="104" spans="1:7">
@@ -2765,22 +2765,22 @@
         <v>44024</v>
       </c>
       <c r="B104" s="2">
-        <v>5940</v>
+        <v>5938</v>
       </c>
       <c r="C104" s="2">
         <v>101</v>
       </c>
       <c r="D104" s="3">
-        <v>197.857142857142</v>
+        <v>197.714285714285</v>
       </c>
       <c r="E104" s="2">
-        <v>137152</v>
+        <v>137158</v>
       </c>
       <c r="F104" s="2">
         <v>1326</v>
       </c>
       <c r="G104" s="4">
-        <v>0.055673915665</v>
+        <v>0.055629245548</v>
       </c>
     </row>
     <row r="105" spans="1:7">
@@ -2788,22 +2788,22 @@
         <v>44025</v>
       </c>
       <c r="B105" s="2">
-        <v>6201</v>
+        <v>6199</v>
       </c>
       <c r="C105" s="2">
         <v>261</v>
       </c>
       <c r="D105" s="3">
-        <v>206</v>
+        <v>205.857142857142</v>
       </c>
       <c r="E105" s="2">
-        <v>141757</v>
+        <v>141762</v>
       </c>
       <c r="F105" s="2">
-        <v>4605</v>
+        <v>4604</v>
       </c>
       <c r="G105" s="4">
-        <v>0.056753778337</v>
+        <v>0.05671665289</v>
       </c>
     </row>
     <row r="106" spans="1:7">
@@ -2811,22 +2811,22 @@
         <v>44026</v>
       </c>
       <c r="B106" s="2">
-        <v>6455</v>
+        <v>6453</v>
       </c>
       <c r="C106" s="2">
         <v>254</v>
       </c>
       <c r="D106" s="3">
-        <v>211.428571428571</v>
+        <v>211.285714285714</v>
       </c>
       <c r="E106" s="2">
-        <v>145518</v>
+        <v>145524</v>
       </c>
       <c r="F106" s="2">
-        <v>3761</v>
+        <v>3762</v>
       </c>
       <c r="G106" s="4">
-        <v>0.058985293531</v>
+        <v>0.058945438603</v>
       </c>
     </row>
     <row r="107" spans="1:7">
@@ -2834,22 +2834,22 @@
         <v>44027</v>
       </c>
       <c r="B107" s="2">
-        <v>6715</v>
+        <v>6713</v>
       </c>
       <c r="C107" s="2">
         <v>260</v>
       </c>
       <c r="D107" s="3">
-        <v>216.428571428571</v>
+        <v>216.285714285714</v>
       </c>
       <c r="E107" s="2">
-        <v>149864</v>
+        <v>149870</v>
       </c>
       <c r="F107" s="2">
         <v>4346</v>
       </c>
       <c r="G107" s="4">
-        <v>0.060178748758</v>
+        <v>0.060141415746</v>
       </c>
     </row>
     <row r="108" spans="1:7">
@@ -2857,22 +2857,22 @@
         <v>44028</v>
       </c>
       <c r="B108" s="2">
-        <v>6971</v>
+        <v>6969</v>
       </c>
       <c r="C108" s="2">
         <v>256</v>
       </c>
       <c r="D108" s="3">
-        <v>217</v>
+        <v>216.857142857142</v>
       </c>
       <c r="E108" s="2">
-        <v>154047</v>
+        <v>154054</v>
       </c>
       <c r="F108" s="2">
-        <v>4183</v>
+        <v>4184</v>
       </c>
       <c r="G108" s="4">
-        <v>0.061361341143</v>
+        <v>0.061320945263</v>
       </c>
     </row>
     <row r="109" spans="1:7">
@@ -2880,7 +2880,7 @@
         <v>44029</v>
       </c>
       <c r="B109" s="2">
-        <v>7222</v>
+        <v>7220</v>
       </c>
       <c r="C109" s="2">
         <v>251</v>
@@ -2889,13 +2889,13 @@
         <v>217.571428571428</v>
       </c>
       <c r="E109" s="2">
-        <v>158249</v>
+        <v>158258</v>
       </c>
       <c r="F109" s="2">
-        <v>4202</v>
+        <v>4204</v>
       </c>
       <c r="G109" s="4">
-        <v>0.062178492692</v>
+        <v>0.062170878066</v>
       </c>
     </row>
     <row r="110" spans="1:7">
@@ -2903,7 +2903,7 @@
         <v>44030</v>
       </c>
       <c r="B110" s="2">
-        <v>7351</v>
+        <v>7349</v>
       </c>
       <c r="C110" s="2">
         <v>129</v>
@@ -2912,13 +2912,13 @@
         <v>216</v>
       </c>
       <c r="E110" s="2">
-        <v>160474</v>
+        <v>160483</v>
       </c>
       <c r="F110" s="2">
         <v>2225</v>
       </c>
       <c r="G110" s="4">
-        <v>0.061343719571</v>
+        <v>0.061336254107</v>
       </c>
     </row>
     <row r="111" spans="1:7">
@@ -2926,7 +2926,7 @@
         <v>44031</v>
       </c>
       <c r="B111" s="2">
-        <v>7450</v>
+        <v>7448</v>
       </c>
       <c r="C111" s="2">
         <v>99</v>
@@ -2935,13 +2935,13 @@
         <v>215.714285714285</v>
       </c>
       <c r="E111" s="2">
-        <v>161731</v>
+        <v>161740</v>
       </c>
       <c r="F111" s="2">
         <v>1257</v>
       </c>
       <c r="G111" s="4">
-        <v>0.061434557955</v>
+        <v>0.06142706045</v>
       </c>
     </row>
     <row r="112" spans="1:7">
@@ -2949,7 +2949,7 @@
         <v>44032</v>
       </c>
       <c r="B112" s="2">
-        <v>7740</v>
+        <v>7738</v>
       </c>
       <c r="C112" s="2">
         <v>290</v>
@@ -2958,13 +2958,13 @@
         <v>219.857142857142</v>
       </c>
       <c r="E112" s="2">
-        <v>165977</v>
+        <v>165985</v>
       </c>
       <c r="F112" s="2">
-        <v>4246</v>
+        <v>4245</v>
       </c>
       <c r="G112" s="4">
-        <v>0.063542526837</v>
+        <v>0.063534657144</v>
       </c>
     </row>
     <row r="113" spans="1:7">
@@ -2972,7 +2972,7 @@
         <v>44033</v>
       </c>
       <c r="B113" s="2">
-        <v>7980</v>
+        <v>7978</v>
       </c>
       <c r="C113" s="2">
         <v>240</v>
@@ -2981,13 +2981,13 @@
         <v>217.857142857142</v>
       </c>
       <c r="E113" s="2">
-        <v>169816</v>
+        <v>169823</v>
       </c>
       <c r="F113" s="2">
-        <v>3839</v>
+        <v>3838</v>
       </c>
       <c r="G113" s="4">
-        <v>0.062762367273</v>
+        <v>0.062759784353</v>
       </c>
     </row>
     <row r="114" spans="1:7">
@@ -2995,7 +2995,7 @@
         <v>44034</v>
       </c>
       <c r="B114" s="2">
-        <v>8230</v>
+        <v>8228</v>
       </c>
       <c r="C114" s="2">
         <v>250</v>
@@ -3004,13 +3004,13 @@
         <v>216.428571428571</v>
       </c>
       <c r="E114" s="2">
-        <v>173478</v>
+        <v>173486</v>
       </c>
       <c r="F114" s="2">
-        <v>3662</v>
+        <v>3663</v>
       </c>
       <c r="G114" s="4">
-        <v>0.064156856102</v>
+        <v>0.064151422764</v>
       </c>
     </row>
     <row r="115" spans="1:7">
@@ -3018,7 +3018,7 @@
         <v>44035</v>
       </c>
       <c r="B115" s="2">
-        <v>8462</v>
+        <v>8460</v>
       </c>
       <c r="C115" s="2">
         <v>232</v>
@@ -3027,13 +3027,13 @@
         <v>213</v>
       </c>
       <c r="E115" s="2">
-        <v>176803</v>
+        <v>176811</v>
       </c>
       <c r="F115" s="2">
         <v>3325</v>
       </c>
       <c r="G115" s="4">
-        <v>0.06552118122599999</v>
+        <v>0.06551830206000001</v>
       </c>
     </row>
     <row r="116" spans="1:7">
@@ -3041,7 +3041,7 @@
         <v>44036</v>
       </c>
       <c r="B116" s="2">
-        <v>8681</v>
+        <v>8679</v>
       </c>
       <c r="C116" s="2">
         <v>219</v>
@@ -3050,13 +3050,13 @@
         <v>208.428571428571</v>
       </c>
       <c r="E116" s="2">
-        <v>180437</v>
+        <v>180445</v>
       </c>
       <c r="F116" s="2">
         <v>3634</v>
       </c>
       <c r="G116" s="4">
-        <v>0.065756264647</v>
+        <v>0.065759228376</v>
       </c>
     </row>
     <row r="117" spans="1:7">
@@ -3064,7 +3064,7 @@
         <v>44037</v>
       </c>
       <c r="B117" s="2">
-        <v>8792</v>
+        <v>8790</v>
       </c>
       <c r="C117" s="2">
         <v>111</v>
@@ -3073,13 +3073,13 @@
         <v>205.857142857142</v>
       </c>
       <c r="E117" s="2">
-        <v>182056</v>
+        <v>182064</v>
       </c>
       <c r="F117" s="2">
         <v>1619</v>
       </c>
       <c r="G117" s="4">
-        <v>0.06676860346500001</v>
+        <v>0.066771697326</v>
       </c>
     </row>
     <row r="118" spans="1:7">
@@ -3087,7 +3087,7 @@
         <v>44038</v>
       </c>
       <c r="B118" s="2">
-        <v>8895</v>
+        <v>8893</v>
       </c>
       <c r="C118" s="2">
         <v>103</v>
@@ -3096,13 +3096,13 @@
         <v>206.428571428571</v>
       </c>
       <c r="E118" s="2">
-        <v>183309</v>
+        <v>183317</v>
       </c>
       <c r="F118" s="2">
         <v>1253</v>
       </c>
       <c r="G118" s="4">
-        <v>0.06696635462</v>
+        <v>0.06696945821899999</v>
       </c>
     </row>
     <row r="119" spans="1:7">
@@ -3110,7 +3110,7 @@
         <v>44039</v>
       </c>
       <c r="B119" s="2">
-        <v>9137</v>
+        <v>9135</v>
       </c>
       <c r="C119" s="2">
         <v>242</v>
@@ -3119,7 +3119,7 @@
         <v>199.571428571428</v>
       </c>
       <c r="E119" s="2">
-        <v>187479</v>
+        <v>187487</v>
       </c>
       <c r="F119" s="2">
         <v>4170</v>
@@ -3133,22 +3133,22 @@
         <v>44040</v>
       </c>
       <c r="B120" s="2">
-        <v>9385</v>
+        <v>9384</v>
       </c>
       <c r="C120" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="D120" s="3">
-        <v>200.714285714285</v>
+        <v>200.857142857142</v>
       </c>
       <c r="E120" s="2">
-        <v>191351</v>
+        <v>191360</v>
       </c>
       <c r="F120" s="2">
-        <v>3872</v>
+        <v>3873</v>
       </c>
       <c r="G120" s="4">
-        <v>0.065242628279</v>
+        <v>0.065283001346</v>
       </c>
     </row>
     <row r="121" spans="1:7">
@@ -3156,22 +3156,22 @@
         <v>44041</v>
       </c>
       <c r="B121" s="2">
-        <v>9634</v>
+        <v>9635</v>
       </c>
       <c r="C121" s="2">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="D121" s="3">
-        <v>200.571428571428</v>
+        <v>201</v>
       </c>
       <c r="E121" s="2">
-        <v>195208</v>
+        <v>195220</v>
       </c>
       <c r="F121" s="2">
-        <v>3857</v>
+        <v>3860</v>
       </c>
       <c r="G121" s="4">
-        <v>0.064611136677</v>
+        <v>0.06473727799700001</v>
       </c>
     </row>
     <row r="122" spans="1:7">
@@ -3179,22 +3179,22 @@
         <v>44042</v>
       </c>
       <c r="B122" s="2">
-        <v>9851</v>
+        <v>9853</v>
       </c>
       <c r="C122" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D122" s="3">
-        <v>198.428571428571</v>
+        <v>199</v>
       </c>
       <c r="E122" s="2">
-        <v>198880</v>
+        <v>198893</v>
       </c>
       <c r="F122" s="2">
-        <v>3672</v>
+        <v>3673</v>
       </c>
       <c r="G122" s="4">
-        <v>0.062916157086</v>
+        <v>0.063083054071</v>
       </c>
     </row>
     <row r="123" spans="1:7">
@@ -3202,22 +3202,22 @@
         <v>44043</v>
       </c>
       <c r="B123" s="2">
-        <v>10084</v>
+        <v>10086</v>
       </c>
       <c r="C123" s="2">
         <v>233</v>
       </c>
       <c r="D123" s="3">
-        <v>200.428571428571</v>
+        <v>201</v>
       </c>
       <c r="E123" s="2">
-        <v>202416</v>
+        <v>202428</v>
       </c>
       <c r="F123" s="2">
-        <v>3536</v>
+        <v>3535</v>
       </c>
       <c r="G123" s="4">
-        <v>0.063833659402</v>
+        <v>0.064004003093</v>
       </c>
     </row>
     <row r="124" spans="1:7">
@@ -3225,22 +3225,22 @@
         <v>44044</v>
       </c>
       <c r="B124" s="2">
-        <v>10191</v>
+        <v>10194</v>
       </c>
       <c r="C124" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D124" s="3">
-        <v>199.857142857142</v>
+        <v>200.571428571428</v>
       </c>
       <c r="E124" s="2">
-        <v>204005</v>
+        <v>204018</v>
       </c>
       <c r="F124" s="2">
-        <v>1589</v>
+        <v>1590</v>
       </c>
       <c r="G124" s="4">
-        <v>0.063738666909</v>
+        <v>0.06395189942600001</v>
       </c>
     </row>
     <row r="125" spans="1:7">
@@ -3248,22 +3248,22 @@
         <v>44045</v>
       </c>
       <c r="B125" s="2">
-        <v>10270</v>
+        <v>10273</v>
       </c>
       <c r="C125" s="2">
         <v>79</v>
       </c>
       <c r="D125" s="3">
-        <v>196.428571428571</v>
+        <v>197.142857142857</v>
       </c>
       <c r="E125" s="2">
-        <v>205128</v>
+        <v>205141</v>
       </c>
       <c r="F125" s="2">
         <v>1123</v>
       </c>
       <c r="G125" s="4">
-        <v>0.06301847014</v>
+        <v>0.063233137829</v>
       </c>
     </row>
     <row r="126" spans="1:7">
@@ -3271,22 +3271,22 @@
         <v>44046</v>
       </c>
       <c r="B126" s="2">
-        <v>10523</v>
+        <v>10527</v>
       </c>
       <c r="C126" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="D126" s="3">
-        <v>198</v>
+        <v>198.857142857142</v>
       </c>
       <c r="E126" s="2">
-        <v>208924</v>
+        <v>208939</v>
       </c>
       <c r="F126" s="2">
-        <v>3796</v>
+        <v>3798</v>
       </c>
       <c r="G126" s="4">
-        <v>0.06463044998799999</v>
+        <v>0.064889054633</v>
       </c>
     </row>
     <row r="127" spans="1:7">
@@ -3294,22 +3294,22 @@
         <v>44047</v>
       </c>
       <c r="B127" s="2">
-        <v>10755</v>
+        <v>10759</v>
       </c>
       <c r="C127" s="2">
         <v>232</v>
       </c>
       <c r="D127" s="3">
-        <v>195.714285714285</v>
+        <v>196.428571428571</v>
       </c>
       <c r="E127" s="2">
-        <v>212219</v>
+        <v>212235</v>
       </c>
       <c r="F127" s="2">
-        <v>3295</v>
+        <v>3296</v>
       </c>
       <c r="G127" s="4">
-        <v>0.06565075714</v>
+        <v>0.065868263473</v>
       </c>
     </row>
     <row r="128" spans="1:7">
@@ -3317,22 +3317,22 @@
         <v>44048</v>
       </c>
       <c r="B128" s="2">
-        <v>10947</v>
+        <v>10951</v>
       </c>
       <c r="C128" s="2">
         <v>192</v>
       </c>
       <c r="D128" s="3">
-        <v>187.571428571428</v>
+        <v>188</v>
       </c>
       <c r="E128" s="2">
-        <v>215434</v>
+        <v>215450</v>
       </c>
       <c r="F128" s="2">
         <v>3215</v>
       </c>
       <c r="G128" s="4">
-        <v>0.06491644418</v>
+        <v>0.065051903114</v>
       </c>
     </row>
     <row r="129" spans="1:7">
@@ -3340,22 +3340,22 @@
         <v>44049</v>
       </c>
       <c r="B129" s="2">
-        <v>11144</v>
+        <v>11148</v>
       </c>
       <c r="C129" s="2">
         <v>197</v>
       </c>
       <c r="D129" s="3">
-        <v>184.714285714285</v>
+        <v>185</v>
       </c>
       <c r="E129" s="2">
-        <v>219086</v>
+        <v>219103</v>
       </c>
       <c r="F129" s="2">
-        <v>3652</v>
+        <v>3653</v>
       </c>
       <c r="G129" s="4">
-        <v>0.06399089379300001</v>
+        <v>0.06407718950999999</v>
       </c>
     </row>
     <row r="130" spans="1:7">
@@ -3363,22 +3363,22 @@
         <v>44050</v>
       </c>
       <c r="B130" s="2">
-        <v>11324</v>
+        <v>11328</v>
       </c>
       <c r="C130" s="2">
         <v>180</v>
       </c>
       <c r="D130" s="3">
-        <v>177.142857142857</v>
+        <v>177.428571428571</v>
       </c>
       <c r="E130" s="2">
-        <v>222355</v>
+        <v>222374</v>
       </c>
       <c r="F130" s="2">
-        <v>3269</v>
+        <v>3271</v>
       </c>
       <c r="G130" s="4">
-        <v>0.062189678519</v>
+        <v>0.062268123934</v>
       </c>
     </row>
     <row r="131" spans="1:7">
@@ -3386,22 +3386,22 @@
         <v>44051</v>
       </c>
       <c r="B131" s="2">
-        <v>11446</v>
+        <v>11450</v>
       </c>
       <c r="C131" s="2">
         <v>122</v>
       </c>
       <c r="D131" s="3">
-        <v>179.285714285714</v>
+        <v>179.428571428571</v>
       </c>
       <c r="E131" s="2">
-        <v>224059</v>
+        <v>224078</v>
       </c>
       <c r="F131" s="2">
         <v>1704</v>
       </c>
       <c r="G131" s="4">
-        <v>0.062581031215</v>
+        <v>0.06261216350899999</v>
       </c>
     </row>
     <row r="132" spans="1:7">
@@ -3409,22 +3409,22 @@
         <v>44052</v>
       </c>
       <c r="B132" s="2">
-        <v>11529</v>
+        <v>11533</v>
       </c>
       <c r="C132" s="2">
         <v>83</v>
       </c>
       <c r="D132" s="3">
-        <v>179.857142857142</v>
+        <v>180</v>
       </c>
       <c r="E132" s="2">
-        <v>225101</v>
+        <v>225121</v>
       </c>
       <c r="F132" s="2">
-        <v>1042</v>
+        <v>1043</v>
       </c>
       <c r="G132" s="4">
-        <v>0.06303509738099999</v>
+        <v>0.063063063063</v>
       </c>
     </row>
     <row r="133" spans="1:7">
@@ -3432,7 +3432,7 @@
         <v>44053</v>
       </c>
       <c r="B133" s="2">
-        <v>11766</v>
+        <v>11770</v>
       </c>
       <c r="C133" s="2">
         <v>237</v>
@@ -3441,13 +3441,13 @@
         <v>177.571428571428</v>
       </c>
       <c r="E133" s="2">
-        <v>228997</v>
+        <v>229018</v>
       </c>
       <c r="F133" s="2">
-        <v>3896</v>
+        <v>3897</v>
       </c>
       <c r="G133" s="4">
-        <v>0.061923977482</v>
+        <v>0.06190547338</v>
       </c>
     </row>
     <row r="134" spans="1:7">
@@ -3455,7 +3455,7 @@
         <v>44054</v>
       </c>
       <c r="B134" s="2">
-        <v>11967</v>
+        <v>11971</v>
       </c>
       <c r="C134" s="2">
         <v>201</v>
@@ -3464,13 +3464,13 @@
         <v>173.142857142857</v>
       </c>
       <c r="E134" s="2">
-        <v>232414</v>
+        <v>232436</v>
       </c>
       <c r="F134" s="2">
-        <v>3417</v>
+        <v>3418</v>
       </c>
       <c r="G134" s="4">
-        <v>0.060014855162</v>
+        <v>0.05999702985</v>
       </c>
     </row>
     <row r="135" spans="1:7">
@@ -3478,7 +3478,7 @@
         <v>44055</v>
       </c>
       <c r="B135" s="2">
-        <v>12167</v>
+        <v>12171</v>
       </c>
       <c r="C135" s="2">
         <v>200</v>
@@ -3487,13 +3487,13 @@
         <v>174.285714285714</v>
       </c>
       <c r="E135" s="2">
-        <v>236273</v>
+        <v>236296</v>
       </c>
       <c r="F135" s="2">
-        <v>3859</v>
+        <v>3860</v>
       </c>
       <c r="G135" s="4">
-        <v>0.058544076011</v>
+        <v>0.058524417154</v>
       </c>
     </row>
     <row r="136" spans="1:7">
@@ -3501,7 +3501,7 @@
         <v>44056</v>
       </c>
       <c r="B136" s="2">
-        <v>12343</v>
+        <v>12347</v>
       </c>
       <c r="C136" s="2">
         <v>176</v>
@@ -3510,13 +3510,13 @@
         <v>171.285714285714</v>
       </c>
       <c r="E136" s="2">
-        <v>239540</v>
+        <v>239563</v>
       </c>
       <c r="F136" s="2">
         <v>3267</v>
       </c>
       <c r="G136" s="4">
-        <v>0.05861934096</v>
+        <v>0.058602150537</v>
       </c>
     </row>
     <row r="137" spans="1:7">
@@ -3524,7 +3524,7 @@
         <v>44057</v>
       </c>
       <c r="B137" s="2">
-        <v>12518</v>
+        <v>12522</v>
       </c>
       <c r="C137" s="2">
         <v>175</v>
@@ -3533,13 +3533,13 @@
         <v>170.571428571428</v>
       </c>
       <c r="E137" s="2">
-        <v>242898</v>
+        <v>242922</v>
       </c>
       <c r="F137" s="2">
-        <v>3358</v>
+        <v>3359</v>
       </c>
       <c r="G137" s="4">
-        <v>0.058121988025</v>
+        <v>0.058107845045</v>
       </c>
     </row>
     <row r="138" spans="1:7">
@@ -3547,7 +3547,7 @@
         <v>44058</v>
       </c>
       <c r="B138" s="2">
-        <v>12611</v>
+        <v>12615</v>
       </c>
       <c r="C138" s="2">
         <v>93</v>
@@ -3556,13 +3556,13 @@
         <v>166.428571428571</v>
       </c>
       <c r="E138" s="2">
-        <v>244459</v>
+        <v>244483</v>
       </c>
       <c r="F138" s="2">
         <v>1561</v>
       </c>
       <c r="G138" s="4">
-        <v>0.057107843137</v>
+        <v>0.057093849546</v>
       </c>
     </row>
     <row r="139" spans="1:7">
@@ -3570,7 +3570,7 @@
         <v>44059</v>
       </c>
       <c r="B139" s="2">
-        <v>12656</v>
+        <v>12660</v>
       </c>
       <c r="C139" s="2">
         <v>45</v>
@@ -3579,13 +3579,13 @@
         <v>161</v>
       </c>
       <c r="E139" s="2">
-        <v>245235</v>
+        <v>245258</v>
       </c>
       <c r="F139" s="2">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="G139" s="4">
-        <v>0.055974967716</v>
+        <v>0.055966628594</v>
       </c>
     </row>
     <row r="140" spans="1:7">
@@ -3593,7 +3593,7 @@
         <v>44060</v>
       </c>
       <c r="B140" s="2">
-        <v>12869</v>
+        <v>12873</v>
       </c>
       <c r="C140" s="2">
         <v>213</v>
@@ -3602,13 +3602,13 @@
         <v>157.571428571428</v>
       </c>
       <c r="E140" s="2">
-        <v>248897</v>
+        <v>248913</v>
       </c>
       <c r="F140" s="2">
-        <v>3662</v>
+        <v>3655</v>
       </c>
       <c r="G140" s="4">
-        <v>0.055427135678</v>
+        <v>0.055441065594</v>
       </c>
     </row>
     <row r="141" spans="1:7">
@@ -3616,7 +3616,7 @@
         <v>44061</v>
       </c>
       <c r="B141" s="2">
-        <v>13037</v>
+        <v>13041</v>
       </c>
       <c r="C141" s="2">
         <v>168</v>
@@ -3625,13 +3625,13 @@
         <v>152.857142857142</v>
       </c>
       <c r="E141" s="2">
-        <v>251969</v>
+        <v>251987</v>
       </c>
       <c r="F141" s="2">
-        <v>3072</v>
+        <v>3074</v>
       </c>
       <c r="G141" s="4">
-        <v>0.054717463564</v>
+        <v>0.05472865838</v>
       </c>
     </row>
     <row r="142" spans="1:7">
@@ -3639,7 +3639,7 @@
         <v>44062</v>
       </c>
       <c r="B142" s="2">
-        <v>13195</v>
+        <v>13199</v>
       </c>
       <c r="C142" s="2">
         <v>158</v>
@@ -3648,13 +3648,13 @@
         <v>146.857142857142</v>
       </c>
       <c r="E142" s="2">
-        <v>255024</v>
+        <v>255043</v>
       </c>
       <c r="F142" s="2">
-        <v>3055</v>
+        <v>3056</v>
       </c>
       <c r="G142" s="4">
-        <v>0.054823742733</v>
+        <v>0.054835440337</v>
       </c>
     </row>
     <row r="143" spans="1:7">
@@ -3662,7 +3662,7 @@
         <v>44063</v>
       </c>
       <c r="B143" s="2">
-        <v>13327</v>
+        <v>13331</v>
       </c>
       <c r="C143" s="2">
         <v>132</v>
@@ -3671,13 +3671,13 @@
         <v>140.571428571428</v>
       </c>
       <c r="E143" s="2">
-        <v>258190</v>
+        <v>258209</v>
       </c>
       <c r="F143" s="2">
         <v>3166</v>
       </c>
       <c r="G143" s="4">
-        <v>0.052761394101</v>
+        <v>0.052772712646</v>
       </c>
     </row>
     <row r="144" spans="1:7">
@@ -3685,7 +3685,7 @@
         <v>44064</v>
       </c>
       <c r="B144" s="2">
-        <v>13489</v>
+        <v>13493</v>
       </c>
       <c r="C144" s="2">
         <v>162</v>
@@ -3694,13 +3694,13 @@
         <v>138.714285714285</v>
       </c>
       <c r="E144" s="2">
-        <v>261228</v>
+        <v>261247</v>
       </c>
       <c r="F144" s="2">
         <v>3038</v>
       </c>
       <c r="G144" s="4">
-        <v>0.052973267866</v>
+        <v>0.052987721691</v>
       </c>
     </row>
     <row r="145" spans="1:7">
@@ -3708,7 +3708,7 @@
         <v>44065</v>
       </c>
       <c r="B145" s="2">
-        <v>13550</v>
+        <v>13554</v>
       </c>
       <c r="C145" s="2">
         <v>61</v>
@@ -3717,13 +3717,13 @@
         <v>134.142857142857</v>
       </c>
       <c r="E145" s="2">
-        <v>262557</v>
+        <v>262576</v>
       </c>
       <c r="F145" s="2">
         <v>1329</v>
       </c>
       <c r="G145" s="4">
-        <v>0.051884186097</v>
+        <v>0.051898524291</v>
       </c>
     </row>
     <row r="146" spans="1:7">
@@ -3731,7 +3731,7 @@
         <v>44066</v>
       </c>
       <c r="B146" s="2">
-        <v>13617</v>
+        <v>13621</v>
       </c>
       <c r="C146" s="2">
         <v>67</v>
@@ -3740,13 +3740,13 @@
         <v>137.285714285714</v>
       </c>
       <c r="E146" s="2">
-        <v>263524</v>
+        <v>263543</v>
       </c>
       <c r="F146" s="2">
         <v>967</v>
       </c>
       <c r="G146" s="4">
-        <v>0.052545245776</v>
+        <v>0.052556740497</v>
       </c>
     </row>
     <row r="147" spans="1:7">
@@ -3754,7 +3754,7 @@
         <v>44067</v>
       </c>
       <c r="B147" s="2">
-        <v>13766</v>
+        <v>13770</v>
       </c>
       <c r="C147" s="2">
         <v>149</v>
@@ -3763,13 +3763,13 @@
         <v>128.142857142857</v>
       </c>
       <c r="E147" s="2">
-        <v>266508</v>
+        <v>266530</v>
       </c>
       <c r="F147" s="2">
-        <v>2984</v>
+        <v>2987</v>
       </c>
       <c r="G147" s="4">
-        <v>0.050934075293</v>
+        <v>0.05091672816</v>
       </c>
     </row>
     <row r="148" spans="1:7">
@@ -3777,22 +3777,22 @@
         <v>44068</v>
       </c>
       <c r="B148" s="2">
-        <v>13900</v>
+        <v>13905</v>
       </c>
       <c r="C148" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D148" s="3">
-        <v>123.285714285714</v>
+        <v>123.428571428571</v>
       </c>
       <c r="E148" s="2">
-        <v>269526</v>
+        <v>269552</v>
       </c>
       <c r="F148" s="2">
-        <v>3018</v>
+        <v>3022</v>
       </c>
       <c r="G148" s="4">
-        <v>0.049154183516</v>
+        <v>0.049188727583</v>
       </c>
     </row>
     <row r="149" spans="1:7">
@@ -3800,22 +3800,22 @@
         <v>44069</v>
       </c>
       <c r="B149" s="2">
-        <v>14035</v>
+        <v>14040</v>
       </c>
       <c r="C149" s="2">
         <v>135</v>
       </c>
       <c r="D149" s="3">
-        <v>120</v>
+        <v>120.142857142857</v>
       </c>
       <c r="E149" s="2">
-        <v>272489</v>
+        <v>272516</v>
       </c>
       <c r="F149" s="2">
-        <v>2963</v>
+        <v>2964</v>
       </c>
       <c r="G149" s="4">
-        <v>0.048096192384</v>
+        <v>0.048131402735</v>
       </c>
     </row>
     <row r="150" spans="1:7">
@@ -3823,22 +3823,22 @@
         <v>44070</v>
       </c>
       <c r="B150" s="2">
-        <v>14202</v>
+        <v>14210</v>
       </c>
       <c r="C150" s="2">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="D150" s="3">
-        <v>125</v>
+        <v>125.571428571428</v>
       </c>
       <c r="E150" s="2">
-        <v>275742</v>
+        <v>275774</v>
       </c>
       <c r="F150" s="2">
-        <v>3253</v>
+        <v>3258</v>
       </c>
       <c r="G150" s="4">
-        <v>0.049851868732</v>
+        <v>0.050042698548</v>
       </c>
     </row>
     <row r="151" spans="1:7">
@@ -3846,22 +3846,22 @@
         <v>44071</v>
       </c>
       <c r="B151" s="2">
-        <v>14318</v>
+        <v>14326</v>
       </c>
       <c r="C151" s="2">
         <v>116</v>
       </c>
       <c r="D151" s="3">
-        <v>118.428571428571</v>
+        <v>119</v>
       </c>
       <c r="E151" s="2">
-        <v>278512</v>
+        <v>278554</v>
       </c>
       <c r="F151" s="2">
-        <v>2770</v>
+        <v>2780</v>
       </c>
       <c r="G151" s="4">
-        <v>0.04796343439</v>
+        <v>0.048130814121</v>
       </c>
     </row>
     <row r="152" spans="1:7">
@@ -3869,22 +3869,22 @@
         <v>44072</v>
       </c>
       <c r="B152" s="2">
-        <v>14382</v>
+        <v>14390</v>
       </c>
       <c r="C152" s="2">
         <v>64</v>
       </c>
       <c r="D152" s="3">
-        <v>118.857142857142</v>
+        <v>119.428571428571</v>
       </c>
       <c r="E152" s="2">
-        <v>279946</v>
+        <v>279995</v>
       </c>
       <c r="F152" s="2">
-        <v>1434</v>
+        <v>1441</v>
       </c>
       <c r="G152" s="4">
-        <v>0.04784633964</v>
+        <v>0.047993570239</v>
       </c>
     </row>
     <row r="153" spans="1:7">
@@ -3892,22 +3892,22 @@
         <v>44073</v>
       </c>
       <c r="B153" s="2">
-        <v>14440</v>
+        <v>14448</v>
       </c>
       <c r="C153" s="2">
         <v>58</v>
       </c>
       <c r="D153" s="3">
-        <v>117.571428571428</v>
+        <v>118.142857142857</v>
       </c>
       <c r="E153" s="2">
-        <v>281025</v>
+        <v>281078</v>
       </c>
       <c r="F153" s="2">
-        <v>1079</v>
+        <v>1083</v>
       </c>
       <c r="G153" s="4">
-        <v>0.047025884235</v>
+        <v>0.047162817222</v>
       </c>
     </row>
     <row r="154" spans="1:7">
@@ -3915,22 +3915,22 @@
         <v>44074</v>
       </c>
       <c r="B154" s="2">
-        <v>14578</v>
+        <v>14586</v>
       </c>
       <c r="C154" s="2">
         <v>138</v>
       </c>
       <c r="D154" s="3">
-        <v>116</v>
+        <v>116.571428571428</v>
       </c>
       <c r="E154" s="2">
-        <v>284150</v>
+        <v>284202</v>
       </c>
       <c r="F154" s="2">
-        <v>3125</v>
+        <v>3124</v>
       </c>
       <c r="G154" s="4">
-        <v>0.046026527604</v>
+        <v>0.046174739701</v>
       </c>
     </row>
     <row r="155" spans="1:7">
@@ -3938,22 +3938,22 @@
         <v>44075</v>
       </c>
       <c r="B155" s="2">
-        <v>14709</v>
+        <v>14717</v>
       </c>
       <c r="C155" s="2">
         <v>131</v>
       </c>
       <c r="D155" s="3">
-        <v>115.571428571428</v>
+        <v>116</v>
       </c>
       <c r="E155" s="2">
-        <v>287417</v>
+        <v>287468</v>
       </c>
       <c r="F155" s="2">
-        <v>3267</v>
+        <v>3266</v>
       </c>
       <c r="G155" s="4">
-        <v>0.045218266167</v>
+        <v>0.045322616655</v>
       </c>
     </row>
     <row r="156" spans="1:7">
@@ -3961,22 +3961,22 @@
         <v>44076</v>
       </c>
       <c r="B156" s="2">
-        <v>14824</v>
+        <v>14832</v>
       </c>
       <c r="C156" s="2">
         <v>115</v>
       </c>
       <c r="D156" s="3">
-        <v>112.714285714285</v>
+        <v>113.142857142857</v>
       </c>
       <c r="E156" s="2">
-        <v>290385</v>
+        <v>290435</v>
       </c>
       <c r="F156" s="2">
-        <v>2968</v>
+        <v>2967</v>
       </c>
       <c r="G156" s="4">
-        <v>0.044088064371</v>
+        <v>0.044198895027</v>
       </c>
     </row>
     <row r="157" spans="1:7">
@@ -3984,7 +3984,7 @@
         <v>44077</v>
       </c>
       <c r="B157" s="2">
-        <v>14919</v>
+        <v>14927</v>
       </c>
       <c r="C157" s="2">
         <v>95</v>
@@ -3993,13 +3993,13 @@
         <v>102.428571428571</v>
       </c>
       <c r="E157" s="2">
-        <v>293315</v>
+        <v>293365</v>
       </c>
       <c r="F157" s="2">
         <v>2930</v>
       </c>
       <c r="G157" s="4">
-        <v>0.040801229158</v>
+        <v>0.040759479279</v>
       </c>
     </row>
     <row r="158" spans="1:7">
@@ -4007,7 +4007,7 @@
         <v>44078</v>
       </c>
       <c r="B158" s="2">
-        <v>15041</v>
+        <v>15049</v>
       </c>
       <c r="C158" s="2">
         <v>122</v>
@@ -4016,13 +4016,13 @@
         <v>103.285714285714</v>
       </c>
       <c r="E158" s="2">
-        <v>296119</v>
+        <v>296169</v>
       </c>
       <c r="F158" s="2">
         <v>2804</v>
       </c>
       <c r="G158" s="4">
-        <v>0.041063213494</v>
+        <v>0.041044564291</v>
       </c>
     </row>
     <row r="159" spans="1:7">
@@ -4030,7 +4030,7 @@
         <v>44079</v>
       </c>
       <c r="B159" s="2">
-        <v>15107</v>
+        <v>15115</v>
       </c>
       <c r="C159" s="2">
         <v>66</v>
@@ -4039,13 +4039,13 @@
         <v>103.571428571428</v>
       </c>
       <c r="E159" s="2">
-        <v>297455</v>
+        <v>297505</v>
       </c>
       <c r="F159" s="2">
         <v>1336</v>
       </c>
       <c r="G159" s="4">
-        <v>0.041407276257</v>
+        <v>0.041404911479</v>
       </c>
     </row>
     <row r="160" spans="1:7">
@@ -4053,7 +4053,7 @@
         <v>44080</v>
       </c>
       <c r="B160" s="2">
-        <v>15160</v>
+        <v>15168</v>
       </c>
       <c r="C160" s="2">
         <v>53</v>
@@ -4062,13 +4062,13 @@
         <v>102.857142857142</v>
       </c>
       <c r="E160" s="2">
-        <v>298541</v>
+        <v>298588</v>
       </c>
       <c r="F160" s="2">
-        <v>1086</v>
+        <v>1083</v>
       </c>
       <c r="G160" s="4">
-        <v>0.041105275176</v>
+        <v>0.041119360365</v>
       </c>
     </row>
     <row r="161" spans="1:7">
@@ -4076,7 +4076,7 @@
         <v>44081</v>
       </c>
       <c r="B161" s="2">
-        <v>15228</v>
+        <v>15236</v>
       </c>
       <c r="C161" s="2">
         <v>68</v>
@@ -4085,13 +4085,13 @@
         <v>92.85714285714199</v>
       </c>
       <c r="E161" s="2">
-        <v>299792</v>
+        <v>299838</v>
       </c>
       <c r="F161" s="2">
-        <v>1251</v>
+        <v>1250</v>
       </c>
       <c r="G161" s="4">
-        <v>0.04155478839</v>
+        <v>0.041570734203</v>
       </c>
     </row>
     <row r="162" spans="1:7">
@@ -4099,22 +4099,22 @@
         <v>44082</v>
       </c>
       <c r="B162" s="2">
-        <v>15372</v>
+        <v>15379</v>
       </c>
       <c r="C162" s="2">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D162" s="3">
-        <v>94.714285714285</v>
+        <v>94.571428571428</v>
       </c>
       <c r="E162" s="2">
-        <v>304071</v>
+        <v>304116</v>
       </c>
       <c r="F162" s="2">
-        <v>4279</v>
+        <v>4278</v>
       </c>
       <c r="G162" s="4">
-        <v>0.039810255794</v>
+        <v>0.03976453628</v>
       </c>
     </row>
     <row r="163" spans="1:7">
@@ -4122,22 +4122,22 @@
         <v>44083</v>
       </c>
       <c r="B163" s="2">
-        <v>15523</v>
+        <v>15529</v>
       </c>
       <c r="C163" s="2">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D163" s="3">
-        <v>99.85714285714199</v>
+        <v>99.571428571428</v>
       </c>
       <c r="E163" s="2">
-        <v>307582</v>
+        <v>307621</v>
       </c>
       <c r="F163" s="2">
-        <v>3511</v>
+        <v>3505</v>
       </c>
       <c r="G163" s="4">
-        <v>0.040646624411</v>
+        <v>0.040556266728</v>
       </c>
     </row>
     <row r="164" spans="1:7">
@@ -4145,22 +4145,22 @@
         <v>44084</v>
       </c>
       <c r="B164" s="2">
-        <v>15625</v>
+        <v>15631</v>
       </c>
       <c r="C164" s="2">
         <v>102</v>
       </c>
       <c r="D164" s="3">
-        <v>100.857142857142</v>
+        <v>100.571428571428</v>
       </c>
       <c r="E164" s="2">
-        <v>310852</v>
+        <v>310892</v>
       </c>
       <c r="F164" s="2">
-        <v>3270</v>
+        <v>3271</v>
       </c>
       <c r="G164" s="4">
-        <v>0.040257740776</v>
+        <v>0.040166600102</v>
       </c>
     </row>
     <row r="165" spans="1:7">
@@ -4168,22 +4168,22 @@
         <v>44085</v>
       </c>
       <c r="B165" s="2">
-        <v>15697</v>
+        <v>15703</v>
       </c>
       <c r="C165" s="2">
         <v>72</v>
       </c>
       <c r="D165" s="3">
-        <v>93.714285714285</v>
+        <v>93.428571428571</v>
       </c>
       <c r="E165" s="2">
-        <v>313337</v>
+        <v>313377</v>
       </c>
       <c r="F165" s="2">
         <v>2485</v>
       </c>
       <c r="G165" s="4">
-        <v>0.038099663143</v>
+        <v>0.0380055788</v>
       </c>
     </row>
     <row r="166" spans="1:7">
@@ -4191,22 +4191,22 @@
         <v>44086</v>
       </c>
       <c r="B166" s="2">
-        <v>15745</v>
+        <v>15751</v>
       </c>
       <c r="C166" s="2">
         <v>48</v>
       </c>
       <c r="D166" s="3">
-        <v>91.142857142857</v>
+        <v>90.85714285714199</v>
       </c>
       <c r="E166" s="2">
-        <v>314728</v>
+        <v>314768</v>
       </c>
       <c r="F166" s="2">
         <v>1391</v>
       </c>
       <c r="G166" s="4">
-        <v>0.036936258901</v>
+        <v>0.036841800382</v>
       </c>
     </row>
     <row r="167" spans="1:7">
@@ -4214,22 +4214,22 @@
         <v>44087</v>
       </c>
       <c r="B167" s="2">
-        <v>15777</v>
+        <v>15783</v>
       </c>
       <c r="C167" s="2">
         <v>32</v>
       </c>
       <c r="D167" s="3">
-        <v>88.142857142857</v>
+        <v>87.85714285714199</v>
       </c>
       <c r="E167" s="2">
-        <v>315571</v>
+        <v>315609</v>
       </c>
       <c r="F167" s="2">
-        <v>843</v>
+        <v>841</v>
       </c>
       <c r="G167" s="4">
-        <v>0.036230182031</v>
+        <v>0.036131837142</v>
       </c>
     </row>
     <row r="168" spans="1:7">
@@ -4237,22 +4237,22 @@
         <v>44088</v>
       </c>
       <c r="B168" s="2">
-        <v>15878</v>
+        <v>15884</v>
       </c>
       <c r="C168" s="2">
         <v>101</v>
       </c>
       <c r="D168" s="3">
-        <v>92.85714285714199</v>
+        <v>92.571428571428</v>
       </c>
       <c r="E168" s="2">
-        <v>318948</v>
+        <v>318980</v>
       </c>
       <c r="F168" s="2">
-        <v>3377</v>
+        <v>3371</v>
       </c>
       <c r="G168" s="4">
-        <v>0.033931927333</v>
+        <v>0.033852262041</v>
       </c>
     </row>
     <row r="169" spans="1:7">
@@ -4260,22 +4260,22 @@
         <v>44089</v>
       </c>
       <c r="B169" s="2">
-        <v>16008</v>
+        <v>16014</v>
       </c>
       <c r="C169" s="2">
         <v>130</v>
       </c>
       <c r="D169" s="3">
-        <v>90.85714285714199</v>
+        <v>90.714285714285</v>
       </c>
       <c r="E169" s="2">
-        <v>322898</v>
+        <v>322927</v>
       </c>
       <c r="F169" s="2">
-        <v>3950</v>
+        <v>3947</v>
       </c>
       <c r="G169" s="4">
-        <v>0.033781271578</v>
+        <v>0.033756844399</v>
       </c>
     </row>
     <row r="170" spans="1:7">
@@ -4283,7 +4283,7 @@
         <v>44090</v>
       </c>
       <c r="B170" s="2">
-        <v>16094</v>
+        <v>16100</v>
       </c>
       <c r="C170" s="2">
         <v>86</v>
@@ -4292,13 +4292,13 @@
         <v>81.571428571428</v>
       </c>
       <c r="E170" s="2">
-        <v>326183</v>
+        <v>326209</v>
       </c>
       <c r="F170" s="2">
-        <v>3285</v>
+        <v>3282</v>
       </c>
       <c r="G170" s="4">
-        <v>0.03069727434</v>
+        <v>0.030718743275</v>
       </c>
     </row>
     <row r="171" spans="1:7">
@@ -4306,7 +4306,7 @@
         <v>44091</v>
       </c>
       <c r="B171" s="2">
-        <v>16197</v>
+        <v>16203</v>
       </c>
       <c r="C171" s="2">
         <v>103</v>
@@ -4315,13 +4315,13 @@
         <v>81.714285714285</v>
       </c>
       <c r="E171" s="2">
-        <v>329787</v>
+        <v>329810</v>
       </c>
       <c r="F171" s="2">
-        <v>3604</v>
+        <v>3601</v>
       </c>
       <c r="G171" s="4">
-        <v>0.030208608397</v>
+        <v>0.030235754308</v>
       </c>
     </row>
     <row r="172" spans="1:7">
@@ -4329,7 +4329,7 @@
         <v>44092</v>
       </c>
       <c r="B172" s="2">
-        <v>16301</v>
+        <v>16307</v>
       </c>
       <c r="C172" s="2">
         <v>104</v>
@@ -4338,13 +4338,13 @@
         <v>86.28571428571399</v>
       </c>
       <c r="E172" s="2">
-        <v>333055</v>
+        <v>333078</v>
       </c>
       <c r="F172" s="2">
         <v>3268</v>
       </c>
       <c r="G172" s="4">
-        <v>0.03063190993</v>
+        <v>0.030658342216</v>
       </c>
     </row>
     <row r="173" spans="1:7">
@@ -4352,7 +4352,7 @@
         <v>44093</v>
       </c>
       <c r="B173" s="2">
-        <v>16373</v>
+        <v>16379</v>
       </c>
       <c r="C173" s="2">
         <v>72</v>
@@ -4361,13 +4361,13 @@
         <v>89.714285714285</v>
       </c>
       <c r="E173" s="2">
-        <v>334575</v>
+        <v>334595</v>
       </c>
       <c r="F173" s="2">
-        <v>1520</v>
+        <v>1517</v>
       </c>
       <c r="G173" s="4">
-        <v>0.031642061772</v>
+        <v>0.031673979926</v>
       </c>
     </row>
     <row r="174" spans="1:7">
@@ -4375,7 +4375,7 @@
         <v>44094</v>
       </c>
       <c r="B174" s="2">
-        <v>16415</v>
+        <v>16421</v>
       </c>
       <c r="C174" s="2">
         <v>42</v>
@@ -4384,13 +4384,13 @@
         <v>91.142857142857</v>
       </c>
       <c r="E174" s="2">
-        <v>335726</v>
+        <v>335746</v>
       </c>
       <c r="F174" s="2">
         <v>1151</v>
       </c>
       <c r="G174" s="4">
-        <v>0.031654676258</v>
+        <v>0.031682971644</v>
       </c>
     </row>
     <row r="175" spans="1:7">
@@ -4398,7 +4398,7 @@
         <v>44095</v>
       </c>
       <c r="B175" s="2">
-        <v>16558</v>
+        <v>16564</v>
       </c>
       <c r="C175" s="2">
         <v>143</v>
@@ -4407,13 +4407,13 @@
         <v>97.142857142857</v>
       </c>
       <c r="E175" s="2">
-        <v>340076</v>
+        <v>340092</v>
       </c>
       <c r="F175" s="2">
-        <v>4350</v>
+        <v>4346</v>
       </c>
       <c r="G175" s="4">
-        <v>0.032184778492</v>
+        <v>0.03220917014</v>
       </c>
     </row>
     <row r="176" spans="1:7">
@@ -4421,7 +4421,7 @@
         <v>44096</v>
       </c>
       <c r="B176" s="2">
-        <v>16656</v>
+        <v>16662</v>
       </c>
       <c r="C176" s="2">
         <v>98</v>
@@ -4430,13 +4430,13 @@
         <v>92.571428571428</v>
       </c>
       <c r="E176" s="2">
-        <v>343855</v>
+        <v>343850</v>
       </c>
       <c r="F176" s="2">
-        <v>3779</v>
+        <v>3758</v>
       </c>
       <c r="G176" s="4">
-        <v>0.030920456172</v>
+        <v>0.030970702098</v>
       </c>
     </row>
     <row r="177" spans="1:7">
@@ -4444,7 +4444,7 @@
         <v>44097</v>
       </c>
       <c r="B177" s="2">
-        <v>16751</v>
+        <v>16757</v>
       </c>
       <c r="C177" s="2">
         <v>95</v>
@@ -4453,13 +4453,13 @@
         <v>93.85714285714199</v>
       </c>
       <c r="E177" s="2">
-        <v>347334</v>
+        <v>347329</v>
       </c>
       <c r="F177" s="2">
         <v>3479</v>
       </c>
       <c r="G177" s="4">
-        <v>0.031062361117</v>
+        <v>0.031107954545</v>
       </c>
     </row>
     <row r="178" spans="1:7">
@@ -4467,7 +4467,7 @@
         <v>44098</v>
       </c>
       <c r="B178" s="2">
-        <v>16842</v>
+        <v>16848</v>
       </c>
       <c r="C178" s="2">
         <v>91</v>
@@ -4476,13 +4476,13 @@
         <v>92.142857142857</v>
       </c>
       <c r="E178" s="2">
-        <v>351055</v>
+        <v>351036</v>
       </c>
       <c r="F178" s="2">
-        <v>3721</v>
+        <v>3707</v>
       </c>
       <c r="G178" s="4">
-        <v>0.030327252209</v>
+        <v>0.030387260906</v>
       </c>
     </row>
     <row r="179" spans="1:7">
@@ -4490,22 +4490,22 @@
         <v>44099</v>
       </c>
       <c r="B179" s="2">
-        <v>16932</v>
+        <v>16937</v>
       </c>
       <c r="C179" s="2">
+        <v>89</v>
+      </c>
+      <c r="D179" s="3">
         <v>90</v>
       </c>
-      <c r="D179" s="3">
-        <v>90.142857142857</v>
-      </c>
       <c r="E179" s="2">
-        <v>354340</v>
+        <v>354318</v>
       </c>
       <c r="F179" s="2">
-        <v>3285</v>
+        <v>3282</v>
       </c>
       <c r="G179" s="4">
-        <v>0.02964529011</v>
+        <v>0.029661016949</v>
       </c>
     </row>
     <row r="180" spans="1:7">
@@ -4513,22 +4513,22 @@
         <v>44100</v>
       </c>
       <c r="B180" s="2">
-        <v>16991</v>
+        <v>16996</v>
       </c>
       <c r="C180" s="2">
         <v>59</v>
       </c>
       <c r="D180" s="3">
-        <v>88.28571428571399</v>
+        <v>88.142857142857</v>
       </c>
       <c r="E180" s="2">
-        <v>356204</v>
+        <v>356181</v>
       </c>
       <c r="F180" s="2">
-        <v>1864</v>
+        <v>1863</v>
       </c>
       <c r="G180" s="4">
-        <v>0.028572749549</v>
+        <v>0.028583341054</v>
       </c>
     </row>
     <row r="181" spans="1:7">
@@ -4536,22 +4536,22 @@
         <v>44101</v>
       </c>
       <c r="B181" s="2">
-        <v>17014</v>
+        <v>17019</v>
       </c>
       <c r="C181" s="2">
         <v>23</v>
       </c>
       <c r="D181" s="3">
-        <v>85.571428571428</v>
+        <v>85.428571428571</v>
       </c>
       <c r="E181" s="2">
-        <v>357324</v>
+        <v>357303</v>
       </c>
       <c r="F181" s="2">
-        <v>1120</v>
+        <v>1122</v>
       </c>
       <c r="G181" s="4">
-        <v>0.027734049449</v>
+        <v>0.027740409147</v>
       </c>
     </row>
     <row r="182" spans="1:7">
@@ -4559,22 +4559,22 @@
         <v>44102</v>
       </c>
       <c r="B182" s="2">
-        <v>17126</v>
+        <v>17131</v>
       </c>
       <c r="C182" s="2">
         <v>112</v>
       </c>
       <c r="D182" s="3">
-        <v>81.142857142857</v>
+        <v>81</v>
       </c>
       <c r="E182" s="2">
-        <v>361387</v>
+        <v>361362</v>
       </c>
       <c r="F182" s="2">
-        <v>4063</v>
+        <v>4059</v>
       </c>
       <c r="G182" s="4">
-        <v>0.026652902257</v>
+        <v>0.026657263751</v>
       </c>
     </row>
     <row r="183" spans="1:7">
@@ -4582,22 +4582,22 @@
         <v>44103</v>
       </c>
       <c r="B183" s="2">
-        <v>17201</v>
+        <v>17206</v>
       </c>
       <c r="C183" s="2">
         <v>75</v>
       </c>
       <c r="D183" s="3">
-        <v>77.85714285714199</v>
+        <v>77.714285714285</v>
       </c>
       <c r="E183" s="2">
-        <v>365196</v>
+        <v>365177</v>
       </c>
       <c r="F183" s="2">
-        <v>3809</v>
+        <v>3815</v>
       </c>
       <c r="G183" s="4">
-        <v>0.02553769739</v>
+        <v>0.02550757256</v>
       </c>
     </row>
     <row r="184" spans="1:7">
@@ -4605,22 +4605,22 @@
         <v>44104</v>
       </c>
       <c r="B184" s="2">
-        <v>17260</v>
+        <v>17265</v>
       </c>
       <c r="C184" s="2">
         <v>59</v>
       </c>
       <c r="D184" s="3">
-        <v>72.714285714285</v>
+        <v>72.571428571428</v>
       </c>
       <c r="E184" s="2">
-        <v>368733</v>
+        <v>368716</v>
       </c>
       <c r="F184" s="2">
-        <v>3537</v>
+        <v>3539</v>
       </c>
       <c r="G184" s="4">
-        <v>0.023786158231</v>
+        <v>0.023752746995</v>
       </c>
     </row>
     <row r="185" spans="1:7">
@@ -4628,22 +4628,22 @@
         <v>44105</v>
       </c>
       <c r="B185" s="2">
-        <v>17322</v>
+        <v>17327</v>
       </c>
       <c r="C185" s="2">
         <v>62</v>
       </c>
       <c r="D185" s="3">
-        <v>68.571428571428</v>
+        <v>68.428571428571</v>
       </c>
       <c r="E185" s="2">
-        <v>372237</v>
+        <v>372220</v>
       </c>
       <c r="F185" s="2">
         <v>3504</v>
       </c>
       <c r="G185" s="4">
-        <v>0.022660749693</v>
+        <v>0.022611404833</v>
       </c>
     </row>
     <row r="186" spans="1:7">
@@ -4651,22 +4651,22 @@
         <v>44106</v>
       </c>
       <c r="B186" s="2">
-        <v>17401</v>
+        <v>17405</v>
       </c>
       <c r="C186" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D186" s="3">
-        <v>67</v>
+        <v>66.85714285714199</v>
       </c>
       <c r="E186" s="2">
-        <v>375769</v>
+        <v>375751</v>
       </c>
       <c r="F186" s="2">
-        <v>3532</v>
+        <v>3531</v>
       </c>
       <c r="G186" s="4">
-        <v>0.021886228942</v>
+        <v>0.021835487332</v>
       </c>
     </row>
     <row r="187" spans="1:7">
@@ -4674,22 +4674,22 @@
         <v>44107</v>
       </c>
       <c r="B187" s="2">
-        <v>17444</v>
+        <v>17448</v>
       </c>
       <c r="C187" s="2">
         <v>43</v>
       </c>
       <c r="D187" s="3">
-        <v>64.714285714285</v>
+        <v>64.571428571428</v>
       </c>
       <c r="E187" s="2">
-        <v>377752</v>
+        <v>377738</v>
       </c>
       <c r="F187" s="2">
-        <v>1983</v>
+        <v>1987</v>
       </c>
       <c r="G187" s="4">
-        <v>0.021022832745</v>
+        <v>0.020967667115</v>
       </c>
     </row>
     <row r="188" spans="1:7">
@@ -4697,22 +4697,22 @@
         <v>44108</v>
       </c>
       <c r="B188" s="2">
-        <v>17481</v>
+        <v>17485</v>
       </c>
       <c r="C188" s="2">
         <v>37</v>
       </c>
       <c r="D188" s="3">
-        <v>66.714285714285</v>
+        <v>66.571428571428</v>
       </c>
       <c r="E188" s="2">
-        <v>379128</v>
+        <v>379117</v>
       </c>
       <c r="F188" s="2">
-        <v>1376</v>
+        <v>1379</v>
       </c>
       <c r="G188" s="4">
-        <v>0.021418088424</v>
+        <v>0.021362427798</v>
       </c>
     </row>
     <row r="189" spans="1:7">
@@ -4720,22 +4720,22 @@
         <v>44109</v>
       </c>
       <c r="B189" s="2">
-        <v>17558</v>
+        <v>17562</v>
       </c>
       <c r="C189" s="2">
         <v>77</v>
       </c>
       <c r="D189" s="3">
-        <v>61.71428571428499</v>
+        <v>61.57142857142801</v>
       </c>
       <c r="E189" s="2">
-        <v>383918</v>
+        <v>383909</v>
       </c>
       <c r="F189" s="2">
-        <v>4790</v>
+        <v>4792</v>
       </c>
       <c r="G189" s="4">
-        <v>0.019173583063</v>
+        <v>0.019115625138</v>
       </c>
     </row>
     <row r="190" spans="1:7">
@@ -4743,22 +4743,22 @@
         <v>44110</v>
       </c>
       <c r="B190" s="2">
-        <v>17620</v>
+        <v>17624</v>
       </c>
       <c r="C190" s="2">
         <v>62</v>
       </c>
       <c r="D190" s="3">
-        <v>59.857142857142</v>
+        <v>59.71428571428499</v>
       </c>
       <c r="E190" s="2">
-        <v>388545</v>
+        <v>388544</v>
       </c>
       <c r="F190" s="2">
-        <v>4627</v>
+        <v>4635</v>
       </c>
       <c r="G190" s="4">
-        <v>0.017945094008</v>
+        <v>0.0178884752</v>
       </c>
     </row>
     <row r="191" spans="1:7">
@@ -4766,22 +4766,91 @@
         <v>44111</v>
       </c>
       <c r="B191" s="2">
-        <v>17692</v>
+        <v>17696</v>
       </c>
       <c r="C191" s="2">
         <v>72</v>
       </c>
       <c r="D191" s="3">
-        <v>61.71428571428499</v>
+        <v>61.57142857142801</v>
       </c>
       <c r="E191" s="2">
         <v>392681</v>
       </c>
       <c r="F191" s="2">
-        <v>4136</v>
+        <v>4137</v>
       </c>
       <c r="G191" s="4">
-        <v>0.018039084683</v>
+        <v>0.017984560817</v>
+      </c>
+    </row>
+    <row r="192" spans="1:7">
+      <c r="A192" s="1">
+        <v>44112</v>
+      </c>
+      <c r="B192" s="2">
+        <v>17791</v>
+      </c>
+      <c r="C192" s="2">
+        <v>95</v>
+      </c>
+      <c r="D192" s="3">
+        <v>66.28571428571399</v>
+      </c>
+      <c r="E192" s="2">
+        <v>396883</v>
+      </c>
+      <c r="F192" s="2">
+        <v>4202</v>
+      </c>
+      <c r="G192" s="4">
+        <v>0.018813607428</v>
+      </c>
+    </row>
+    <row r="193" spans="1:7">
+      <c r="A193" s="1">
+        <v>44113</v>
+      </c>
+      <c r="B193" s="2">
+        <v>17847</v>
+      </c>
+      <c r="C193" s="2">
+        <v>56</v>
+      </c>
+      <c r="D193" s="3">
+        <v>63.142857142857</v>
+      </c>
+      <c r="E193" s="2">
+        <v>400485</v>
+      </c>
+      <c r="F193" s="2">
+        <v>3602</v>
+      </c>
+      <c r="G193" s="4">
+        <v>0.017870138271</v>
+      </c>
+    </row>
+    <row r="194" spans="1:7">
+      <c r="A194" s="1">
+        <v>44114</v>
+      </c>
+      <c r="B194" s="2">
+        <v>17869</v>
+      </c>
+      <c r="C194" s="2">
+        <v>22</v>
+      </c>
+      <c r="D194" s="3">
+        <v>60.142857142857</v>
+      </c>
+      <c r="E194" s="2">
+        <v>401598</v>
+      </c>
+      <c r="F194" s="2">
+        <v>1113</v>
+      </c>
+      <c r="G194" s="4">
+        <v>0.017644593461</v>
       </c>
     </row>
   </sheetData>

--- a/contra_costa_county_testing.xlsx
+++ b/contra_costa_county_testing.xlsx
@@ -376,7 +376,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G194"/>
+  <dimension ref="A1:G196"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -911,13 +911,13 @@
         <v>13.428571428571</v>
       </c>
       <c r="E23" s="2">
-        <v>12366</v>
+        <v>12365</v>
       </c>
       <c r="F23" s="2">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="G23" s="4">
-        <v>0.040482342807</v>
+        <v>0.040499784575</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -934,13 +934,13 @@
         <v>12.714285714285</v>
       </c>
       <c r="E24" s="2">
-        <v>12925</v>
+        <v>12924</v>
       </c>
       <c r="F24" s="2">
         <v>559</v>
       </c>
       <c r="G24" s="4">
-        <v>0.035614245698</v>
+        <v>0.035628502802</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -957,13 +957,13 @@
         <v>14</v>
       </c>
       <c r="E25" s="2">
-        <v>13490</v>
+        <v>13489</v>
       </c>
       <c r="F25" s="2">
         <v>565</v>
       </c>
       <c r="G25" s="4">
-        <v>0.036055923473</v>
+        <v>0.036069193963</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -980,13 +980,13 @@
         <v>13.714285714285</v>
       </c>
       <c r="E26" s="2">
-        <v>13721</v>
+        <v>13720</v>
       </c>
       <c r="F26" s="2">
         <v>231</v>
       </c>
       <c r="G26" s="4">
-        <v>0.034359341445</v>
+        <v>0.034371643394</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -1003,13 +1003,13 @@
         <v>14.285714285714</v>
       </c>
       <c r="E27" s="2">
-        <v>13951</v>
+        <v>13950</v>
       </c>
       <c r="F27" s="2">
         <v>230</v>
       </c>
       <c r="G27" s="4">
-        <v>0.034746351633</v>
+        <v>0.034758428919</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -1026,13 +1026,13 @@
         <v>15.428571428571</v>
       </c>
       <c r="E28" s="2">
-        <v>14550</v>
+        <v>14549</v>
       </c>
       <c r="F28" s="2">
         <v>599</v>
       </c>
       <c r="G28" s="4">
-        <v>0.034726688102</v>
+        <v>0.034737857832</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -1049,13 +1049,13 @@
         <v>15.285714285714</v>
       </c>
       <c r="E29" s="2">
-        <v>15089</v>
+        <v>15088</v>
       </c>
       <c r="F29" s="2">
         <v>539</v>
       </c>
       <c r="G29" s="4">
-        <v>0.032983970406</v>
+        <v>0.032994141227</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -1072,7 +1072,7 @@
         <v>15.857142857142</v>
       </c>
       <c r="E30" s="2">
-        <v>15788</v>
+        <v>15787</v>
       </c>
       <c r="F30" s="2">
         <v>699</v>
@@ -1095,7 +1095,7 @@
         <v>16.857142857142</v>
       </c>
       <c r="E31" s="2">
-        <v>16634</v>
+        <v>16633</v>
       </c>
       <c r="F31" s="2">
         <v>846</v>
@@ -1118,7 +1118,7 @@
         <v>15.285714285714</v>
       </c>
       <c r="E32" s="2">
-        <v>17366</v>
+        <v>17365</v>
       </c>
       <c r="F32" s="2">
         <v>732</v>
@@ -1141,7 +1141,7 @@
         <v>15.857142857142</v>
       </c>
       <c r="E33" s="2">
-        <v>17654</v>
+        <v>17653</v>
       </c>
       <c r="F33" s="2">
         <v>288</v>
@@ -1164,7 +1164,7 @@
         <v>14.857142857142</v>
       </c>
       <c r="E34" s="2">
-        <v>17918</v>
+        <v>17917</v>
       </c>
       <c r="F34" s="2">
         <v>264</v>
@@ -1187,7 +1187,7 @@
         <v>15.285714285714</v>
       </c>
       <c r="E35" s="2">
-        <v>18696</v>
+        <v>18695</v>
       </c>
       <c r="F35" s="2">
         <v>778</v>
@@ -1210,7 +1210,7 @@
         <v>15.428571428571</v>
       </c>
       <c r="E36" s="2">
-        <v>19376</v>
+        <v>19375</v>
       </c>
       <c r="F36" s="2">
         <v>680</v>
@@ -1233,7 +1233,7 @@
         <v>16.428571428571</v>
       </c>
       <c r="E37" s="2">
-        <v>20341</v>
+        <v>20340</v>
       </c>
       <c r="F37" s="2">
         <v>965</v>
@@ -1256,7 +1256,7 @@
         <v>14.428571428571</v>
       </c>
       <c r="E38" s="2">
-        <v>21237</v>
+        <v>21236</v>
       </c>
       <c r="F38" s="2">
         <v>896</v>
@@ -1279,7 +1279,7 @@
         <v>15.285714285714</v>
       </c>
       <c r="E39" s="2">
-        <v>22377</v>
+        <v>22376</v>
       </c>
       <c r="F39" s="2">
         <v>1140</v>
@@ -1302,7 +1302,7 @@
         <v>14.714285714285</v>
       </c>
       <c r="E40" s="2">
-        <v>22759</v>
+        <v>22758</v>
       </c>
       <c r="F40" s="2">
         <v>382</v>
@@ -1325,7 +1325,7 @@
         <v>15.142857142857</v>
       </c>
       <c r="E41" s="2">
-        <v>23102</v>
+        <v>23101</v>
       </c>
       <c r="F41" s="2">
         <v>343</v>
@@ -1348,7 +1348,7 @@
         <v>13</v>
       </c>
       <c r="E42" s="2">
-        <v>24205</v>
+        <v>24204</v>
       </c>
       <c r="F42" s="2">
         <v>1103</v>
@@ -1371,7 +1371,7 @@
         <v>12.285714285714</v>
       </c>
       <c r="E43" s="2">
-        <v>25436</v>
+        <v>25435</v>
       </c>
       <c r="F43" s="2">
         <v>1231</v>
@@ -1394,13 +1394,13 @@
         <v>12.857142857142</v>
       </c>
       <c r="E44" s="2">
-        <v>26533</v>
+        <v>26531</v>
       </c>
       <c r="F44" s="2">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="G44" s="4">
-        <v>0.01453488372</v>
+        <v>0.014537231465</v>
       </c>
     </row>
     <row r="45" spans="1:7">
@@ -1417,13 +1417,13 @@
         <v>14</v>
       </c>
       <c r="E45" s="2">
-        <v>27394</v>
+        <v>27392</v>
       </c>
       <c r="F45" s="2">
         <v>861</v>
       </c>
       <c r="G45" s="4">
-        <v>0.015916842618</v>
+        <v>0.0159194282</v>
       </c>
     </row>
     <row r="46" spans="1:7">
@@ -1440,13 +1440,13 @@
         <v>15.714285714285</v>
       </c>
       <c r="E46" s="2">
-        <v>28313</v>
+        <v>28311</v>
       </c>
       <c r="F46" s="2">
         <v>919</v>
       </c>
       <c r="G46" s="4">
-        <v>0.018530997304</v>
+        <v>0.018534119629</v>
       </c>
     </row>
     <row r="47" spans="1:7">
@@ -1463,13 +1463,13 @@
         <v>17.571428571428</v>
       </c>
       <c r="E47" s="2">
-        <v>28722</v>
+        <v>28720</v>
       </c>
       <c r="F47" s="2">
         <v>409</v>
       </c>
       <c r="G47" s="4">
-        <v>0.020627201073</v>
+        <v>0.020630660852</v>
       </c>
     </row>
     <row r="48" spans="1:7">
@@ -1486,13 +1486,13 @@
         <v>18</v>
       </c>
       <c r="E48" s="2">
-        <v>29113</v>
+        <v>29111</v>
       </c>
       <c r="F48" s="2">
         <v>391</v>
       </c>
       <c r="G48" s="4">
-        <v>0.020961570454</v>
+        <v>0.020965058236</v>
       </c>
     </row>
     <row r="49" spans="1:7">
@@ -1509,13 +1509,13 @@
         <v>22.428571428571</v>
       </c>
       <c r="E49" s="2">
-        <v>30478</v>
+        <v>30476</v>
       </c>
       <c r="F49" s="2">
         <v>1365</v>
       </c>
       <c r="G49" s="4">
-        <v>0.025027897337</v>
+        <v>0.025031887755</v>
       </c>
     </row>
     <row r="50" spans="1:7">
@@ -1532,13 +1532,13 @@
         <v>25.714285714285</v>
       </c>
       <c r="E50" s="2">
-        <v>32137</v>
+        <v>32135</v>
       </c>
       <c r="F50" s="2">
         <v>1659</v>
       </c>
       <c r="G50" s="4">
-        <v>0.026861662438</v>
+        <v>0.026865671641</v>
       </c>
     </row>
     <row r="51" spans="1:7">
@@ -1555,7 +1555,7 @@
         <v>26.142857142857</v>
       </c>
       <c r="E51" s="2">
-        <v>33278</v>
+        <v>33276</v>
       </c>
       <c r="F51" s="2">
         <v>1141</v>
@@ -1578,7 +1578,7 @@
         <v>27.428571428571</v>
       </c>
       <c r="E52" s="2">
-        <v>34409</v>
+        <v>34407</v>
       </c>
       <c r="F52" s="2">
         <v>1131</v>
@@ -1601,7 +1601,7 @@
         <v>29.142857142857</v>
       </c>
       <c r="E53" s="2">
-        <v>35498</v>
+        <v>35496</v>
       </c>
       <c r="F53" s="2">
         <v>1089</v>
@@ -1624,7 +1624,7 @@
         <v>28</v>
       </c>
       <c r="E54" s="2">
-        <v>36017</v>
+        <v>36015</v>
       </c>
       <c r="F54" s="2">
         <v>519</v>
@@ -1647,7 +1647,7 @@
         <v>27.571428571428</v>
       </c>
       <c r="E55" s="2">
-        <v>36411</v>
+        <v>36409</v>
       </c>
       <c r="F55" s="2">
         <v>394</v>
@@ -1670,7 +1670,7 @@
         <v>23.285714285714</v>
       </c>
       <c r="E56" s="2">
-        <v>36873</v>
+        <v>36871</v>
       </c>
       <c r="F56" s="2">
         <v>462</v>
@@ -1693,7 +1693,7 @@
         <v>23.714285714285</v>
       </c>
       <c r="E57" s="2">
-        <v>38070</v>
+        <v>38068</v>
       </c>
       <c r="F57" s="2">
         <v>1197</v>
@@ -1716,13 +1716,13 @@
         <v>23.714285714285</v>
       </c>
       <c r="E58" s="2">
-        <v>39183</v>
+        <v>39180</v>
       </c>
       <c r="F58" s="2">
-        <v>1113</v>
+        <v>1112</v>
       </c>
       <c r="G58" s="4">
-        <v>0.028111769686</v>
+        <v>0.028116531165</v>
       </c>
     </row>
     <row r="59" spans="1:7">
@@ -1739,13 +1739,13 @@
         <v>26.285714285714</v>
       </c>
       <c r="E59" s="2">
-        <v>40319</v>
+        <v>40316</v>
       </c>
       <c r="F59" s="2">
         <v>1136</v>
       </c>
       <c r="G59" s="4">
-        <v>0.031133671742</v>
+        <v>0.031138940599</v>
       </c>
     </row>
     <row r="60" spans="1:7">
@@ -1762,13 +1762,13 @@
         <v>26.428571428571</v>
       </c>
       <c r="E60" s="2">
-        <v>41721</v>
+        <v>41718</v>
       </c>
       <c r="F60" s="2">
         <v>1402</v>
       </c>
       <c r="G60" s="4">
-        <v>0.029728426803</v>
+        <v>0.029733204757</v>
       </c>
     </row>
     <row r="61" spans="1:7">
@@ -1785,13 +1785,13 @@
         <v>26.142857142857</v>
       </c>
       <c r="E61" s="2">
-        <v>42455</v>
+        <v>42452</v>
       </c>
       <c r="F61" s="2">
         <v>734</v>
       </c>
       <c r="G61" s="4">
-        <v>0.0284249767</v>
+        <v>0.028429392574</v>
       </c>
     </row>
     <row r="62" spans="1:7">
@@ -1808,13 +1808,13 @@
         <v>25.857142857142</v>
       </c>
       <c r="E62" s="2">
-        <v>42853</v>
+        <v>42850</v>
       </c>
       <c r="F62" s="2">
         <v>398</v>
       </c>
       <c r="G62" s="4">
-        <v>0.028096864327</v>
+        <v>0.028101226517</v>
       </c>
     </row>
     <row r="63" spans="1:7">
@@ -1831,13 +1831,13 @@
         <v>29.142857142857</v>
       </c>
       <c r="E63" s="2">
-        <v>44229</v>
+        <v>44226</v>
       </c>
       <c r="F63" s="2">
         <v>1376</v>
       </c>
       <c r="G63" s="4">
-        <v>0.027732463295</v>
+        <v>0.027736233854</v>
       </c>
     </row>
     <row r="64" spans="1:7">
@@ -1854,13 +1854,13 @@
         <v>28.142857142857</v>
       </c>
       <c r="E64" s="2">
-        <v>45446</v>
+        <v>45443</v>
       </c>
       <c r="F64" s="2">
         <v>1217</v>
       </c>
       <c r="G64" s="4">
-        <v>0.02670824295</v>
+        <v>0.026711864406</v>
       </c>
     </row>
     <row r="65" spans="1:7">
@@ -1877,7 +1877,7 @@
         <v>27.714285714285</v>
       </c>
       <c r="E65" s="2">
-        <v>46610</v>
+        <v>46607</v>
       </c>
       <c r="F65" s="2">
         <v>1164</v>
@@ -1900,7 +1900,7 @@
         <v>28.428571428571</v>
       </c>
       <c r="E66" s="2">
-        <v>47962</v>
+        <v>47959</v>
       </c>
       <c r="F66" s="2">
         <v>1352</v>
@@ -1923,13 +1923,13 @@
         <v>29.285714285714</v>
       </c>
       <c r="E67" s="2">
-        <v>49593</v>
+        <v>49589</v>
       </c>
       <c r="F67" s="2">
-        <v>1631</v>
+        <v>1630</v>
       </c>
       <c r="G67" s="4">
-        <v>0.026041666666</v>
+        <v>0.026044975225</v>
       </c>
     </row>
     <row r="68" spans="1:7">
@@ -1946,13 +1946,13 @@
         <v>30.571428571428</v>
       </c>
       <c r="E68" s="2">
-        <v>50198</v>
+        <v>50194</v>
       </c>
       <c r="F68" s="2">
         <v>605</v>
       </c>
       <c r="G68" s="4">
-        <v>0.02763786646</v>
+        <v>0.027641436321</v>
       </c>
     </row>
     <row r="69" spans="1:7">
@@ -1969,13 +1969,13 @@
         <v>32.428571428571</v>
       </c>
       <c r="E69" s="2">
-        <v>50683</v>
+        <v>50679</v>
       </c>
       <c r="F69" s="2">
         <v>485</v>
       </c>
       <c r="G69" s="4">
-        <v>0.028991060025</v>
+        <v>0.02899476306</v>
       </c>
     </row>
     <row r="70" spans="1:7">
@@ -1992,13 +1992,13 @@
         <v>34.714285714285</v>
       </c>
       <c r="E70" s="2">
-        <v>52520</v>
+        <v>52516</v>
       </c>
       <c r="F70" s="2">
         <v>1837</v>
       </c>
       <c r="G70" s="4">
-        <v>0.029308889156</v>
+        <v>0.029312424607</v>
       </c>
     </row>
     <row r="71" spans="1:7">
@@ -2015,13 +2015,13 @@
         <v>36.428571428571</v>
       </c>
       <c r="E71" s="2">
-        <v>54368</v>
+        <v>54364</v>
       </c>
       <c r="F71" s="2">
         <v>1848</v>
       </c>
       <c r="G71" s="4">
-        <v>0.028581035642</v>
+        <v>0.028584239435</v>
       </c>
     </row>
     <row r="72" spans="1:7">
@@ -2038,13 +2038,13 @@
         <v>40</v>
       </c>
       <c r="E72" s="2">
-        <v>56359</v>
+        <v>56355</v>
       </c>
       <c r="F72" s="2">
         <v>1991</v>
       </c>
       <c r="G72" s="4">
-        <v>0.02872089445</v>
+        <v>0.028723840787</v>
       </c>
     </row>
     <row r="73" spans="1:7">
@@ -2061,13 +2061,13 @@
         <v>40.285714285714</v>
       </c>
       <c r="E73" s="2">
-        <v>58514</v>
+        <v>58510</v>
       </c>
       <c r="F73" s="2">
         <v>2155</v>
       </c>
       <c r="G73" s="4">
-        <v>0.026724791508</v>
+        <v>0.026727324424</v>
       </c>
     </row>
     <row r="74" spans="1:7">
@@ -2084,7 +2084,7 @@
         <v>41.857142857142</v>
       </c>
       <c r="E74" s="2">
-        <v>60776</v>
+        <v>60772</v>
       </c>
       <c r="F74" s="2">
         <v>2262</v>
@@ -2107,7 +2107,7 @@
         <v>44.142857142857</v>
       </c>
       <c r="E75" s="2">
-        <v>61620</v>
+        <v>61616</v>
       </c>
       <c r="F75" s="2">
         <v>844</v>
@@ -2130,7 +2130,7 @@
         <v>45.428571428571</v>
       </c>
       <c r="E76" s="2">
-        <v>62207</v>
+        <v>62203</v>
       </c>
       <c r="F76" s="2">
         <v>587</v>
@@ -2153,7 +2153,7 @@
         <v>46.714285714285</v>
       </c>
       <c r="E77" s="2">
-        <v>64426</v>
+        <v>64422</v>
       </c>
       <c r="F77" s="2">
         <v>2219</v>
@@ -2176,7 +2176,7 @@
         <v>52.571428571428</v>
       </c>
       <c r="E78" s="2">
-        <v>66947</v>
+        <v>66943</v>
       </c>
       <c r="F78" s="2">
         <v>2521</v>
@@ -2199,7 +2199,7 @@
         <v>57.285714285714</v>
       </c>
       <c r="E79" s="2">
-        <v>69518</v>
+        <v>69514</v>
       </c>
       <c r="F79" s="2">
         <v>2571</v>
@@ -2222,7 +2222,7 @@
         <v>62.57142857142801</v>
       </c>
       <c r="E80" s="2">
-        <v>72043</v>
+        <v>72039</v>
       </c>
       <c r="F80" s="2">
         <v>2525</v>
@@ -2245,7 +2245,7 @@
         <v>68.85714285714199</v>
       </c>
       <c r="E81" s="2">
-        <v>74486</v>
+        <v>74482</v>
       </c>
       <c r="F81" s="2">
         <v>2443</v>
@@ -2268,7 +2268,7 @@
         <v>71.428571428571</v>
       </c>
       <c r="E82" s="2">
-        <v>75438</v>
+        <v>75434</v>
       </c>
       <c r="F82" s="2">
         <v>952</v>
@@ -2291,7 +2291,7 @@
         <v>73.28571428571399</v>
       </c>
       <c r="E83" s="2">
-        <v>76135</v>
+        <v>76131</v>
       </c>
       <c r="F83" s="2">
         <v>697</v>
@@ -2314,7 +2314,7 @@
         <v>81</v>
       </c>
       <c r="E84" s="2">
-        <v>78753</v>
+        <v>78749</v>
       </c>
       <c r="F84" s="2">
         <v>2618</v>
@@ -2337,7 +2337,7 @@
         <v>88</v>
       </c>
       <c r="E85" s="2">
-        <v>81539</v>
+        <v>81535</v>
       </c>
       <c r="F85" s="2">
         <v>2786</v>
@@ -2360,7 +2360,7 @@
         <v>96</v>
       </c>
       <c r="E86" s="2">
-        <v>84568</v>
+        <v>84564</v>
       </c>
       <c r="F86" s="2">
         <v>3029</v>
@@ -2383,7 +2383,7 @@
         <v>104.714285714285</v>
       </c>
       <c r="E87" s="2">
-        <v>87927</v>
+        <v>87923</v>
       </c>
       <c r="F87" s="2">
         <v>3359</v>
@@ -2406,7 +2406,7 @@
         <v>114.428571428571</v>
       </c>
       <c r="E88" s="2">
-        <v>90896</v>
+        <v>90892</v>
       </c>
       <c r="F88" s="2">
         <v>2969</v>
@@ -2429,7 +2429,7 @@
         <v>118.428571428571</v>
       </c>
       <c r="E89" s="2">
-        <v>91970</v>
+        <v>91966</v>
       </c>
       <c r="F89" s="2">
         <v>1074</v>
@@ -2452,7 +2452,7 @@
         <v>121.142857142857</v>
       </c>
       <c r="E90" s="2">
-        <v>92765</v>
+        <v>92761</v>
       </c>
       <c r="F90" s="2">
         <v>795</v>
@@ -2475,7 +2475,7 @@
         <v>133.428571428571</v>
       </c>
       <c r="E91" s="2">
-        <v>96451</v>
+        <v>96447</v>
       </c>
       <c r="F91" s="2">
         <v>3686</v>
@@ -2498,13 +2498,13 @@
         <v>137</v>
       </c>
       <c r="E92" s="2">
-        <v>99930</v>
+        <v>99927</v>
       </c>
       <c r="F92" s="2">
-        <v>3479</v>
+        <v>3480</v>
       </c>
       <c r="G92" s="4">
-        <v>0.052145070958</v>
+        <v>0.052142235754</v>
       </c>
     </row>
     <row r="93" spans="1:7">
@@ -2521,13 +2521,13 @@
         <v>141.285714285714</v>
       </c>
       <c r="E93" s="2">
-        <v>103469</v>
+        <v>103466</v>
       </c>
       <c r="F93" s="2">
         <v>3539</v>
       </c>
       <c r="G93" s="4">
-        <v>0.052325273795</v>
+        <v>0.052322505554</v>
       </c>
     </row>
     <row r="94" spans="1:7">
@@ -2544,13 +2544,13 @@
         <v>149.857142857142</v>
       </c>
       <c r="E94" s="2">
-        <v>107392</v>
+        <v>107389</v>
       </c>
       <c r="F94" s="2">
         <v>3923</v>
       </c>
       <c r="G94" s="4">
-        <v>0.053891600308</v>
+        <v>0.053888831809</v>
       </c>
     </row>
     <row r="95" spans="1:7">
@@ -2567,13 +2567,13 @@
         <v>146.142857142857</v>
       </c>
       <c r="E95" s="2">
-        <v>110033</v>
+        <v>110030</v>
       </c>
       <c r="F95" s="2">
         <v>2641</v>
       </c>
       <c r="G95" s="4">
-        <v>0.053456654648</v>
+        <v>0.053453861427</v>
       </c>
     </row>
     <row r="96" spans="1:7">
@@ -2590,13 +2590,13 @@
         <v>148</v>
       </c>
       <c r="E96" s="2">
-        <v>111150</v>
+        <v>111147</v>
       </c>
       <c r="F96" s="2">
         <v>1117</v>
       </c>
       <c r="G96" s="4">
-        <v>0.05401459854</v>
+        <v>0.054011782493</v>
       </c>
     </row>
     <row r="97" spans="1:7">
@@ -2613,13 +2613,13 @@
         <v>151.857142857142</v>
       </c>
       <c r="E97" s="2">
-        <v>112279</v>
+        <v>112276</v>
       </c>
       <c r="F97" s="2">
         <v>1129</v>
       </c>
       <c r="G97" s="4">
-        <v>0.054473711181</v>
+        <v>0.054470919805</v>
       </c>
     </row>
     <row r="98" spans="1:7">
@@ -2636,13 +2636,13 @@
         <v>152.857142857142</v>
       </c>
       <c r="E98" s="2">
-        <v>116355</v>
+        <v>116352</v>
       </c>
       <c r="F98" s="2">
         <v>4076</v>
       </c>
       <c r="G98" s="4">
-        <v>0.053758038585</v>
+        <v>0.053755337854</v>
       </c>
     </row>
     <row r="99" spans="1:7">
@@ -2659,13 +2659,13 @@
         <v>161.142857142857</v>
       </c>
       <c r="E99" s="2">
-        <v>120433</v>
+        <v>120432</v>
       </c>
       <c r="F99" s="2">
-        <v>4078</v>
+        <v>4080</v>
       </c>
       <c r="G99" s="4">
-        <v>0.055016339072</v>
+        <v>0.055010972933</v>
       </c>
     </row>
     <row r="100" spans="1:7">
@@ -2682,13 +2682,13 @@
         <v>168.571428571428</v>
       </c>
       <c r="E100" s="2">
-        <v>124696</v>
+        <v>124695</v>
       </c>
       <c r="F100" s="2">
         <v>4263</v>
       </c>
       <c r="G100" s="4">
-        <v>0.055589579309</v>
+        <v>0.055584342173</v>
       </c>
     </row>
     <row r="101" spans="1:7">
@@ -2705,13 +2705,13 @@
         <v>174.285714285714</v>
       </c>
       <c r="E101" s="2">
-        <v>129299</v>
+        <v>129298</v>
       </c>
       <c r="F101" s="2">
         <v>4603</v>
       </c>
       <c r="G101" s="4">
-        <v>0.055689962112</v>
+        <v>0.05568487836</v>
       </c>
     </row>
     <row r="102" spans="1:7">
@@ -2731,10 +2731,10 @@
         <v>133761</v>
       </c>
       <c r="F102" s="2">
-        <v>4462</v>
+        <v>4463</v>
       </c>
       <c r="G102" s="4">
-        <v>0.055714767363</v>
+        <v>0.055707724073</v>
       </c>
     </row>
     <row r="103" spans="1:7">
@@ -2757,7 +2757,7 @@
         <v>2071</v>
       </c>
       <c r="G103" s="4">
-        <v>0.055465521432</v>
+        <v>0.055458780636</v>
       </c>
     </row>
     <row r="104" spans="1:7">
@@ -2780,7 +2780,7 @@
         <v>1326</v>
       </c>
       <c r="G104" s="4">
-        <v>0.055629245548</v>
+        <v>0.055622538381</v>
       </c>
     </row>
     <row r="105" spans="1:7">
@@ -2797,13 +2797,13 @@
         <v>205.857142857142</v>
       </c>
       <c r="E105" s="2">
-        <v>141762</v>
+        <v>141764</v>
       </c>
       <c r="F105" s="2">
-        <v>4604</v>
+        <v>4606</v>
       </c>
       <c r="G105" s="4">
-        <v>0.05671665289</v>
+        <v>0.056705493467</v>
       </c>
     </row>
     <row r="106" spans="1:7">
@@ -2820,13 +2820,13 @@
         <v>211.285714285714</v>
       </c>
       <c r="E106" s="2">
-        <v>145524</v>
+        <v>145531</v>
       </c>
       <c r="F106" s="2">
-        <v>3762</v>
+        <v>3767</v>
       </c>
       <c r="G106" s="4">
-        <v>0.058945438603</v>
+        <v>0.058926650464</v>
       </c>
     </row>
     <row r="107" spans="1:7">
@@ -2843,13 +2843,13 @@
         <v>216.285714285714</v>
       </c>
       <c r="E107" s="2">
-        <v>149870</v>
+        <v>149877</v>
       </c>
       <c r="F107" s="2">
         <v>4346</v>
       </c>
       <c r="G107" s="4">
-        <v>0.060141415746</v>
+        <v>0.060122309586</v>
       </c>
     </row>
     <row r="108" spans="1:7">
@@ -2866,13 +2866,13 @@
         <v>216.857142857142</v>
       </c>
       <c r="E108" s="2">
-        <v>154054</v>
+        <v>154061</v>
       </c>
       <c r="F108" s="2">
         <v>4184</v>
       </c>
       <c r="G108" s="4">
-        <v>0.061320945263</v>
+        <v>0.061301134757</v>
       </c>
     </row>
     <row r="109" spans="1:7">
@@ -2889,13 +2889,13 @@
         <v>217.571428571428</v>
       </c>
       <c r="E109" s="2">
-        <v>158258</v>
+        <v>158265</v>
       </c>
       <c r="F109" s="2">
         <v>4204</v>
       </c>
       <c r="G109" s="4">
-        <v>0.062170878066</v>
+        <v>0.062153117858</v>
       </c>
     </row>
     <row r="110" spans="1:7">
@@ -2912,13 +2912,13 @@
         <v>216</v>
       </c>
       <c r="E110" s="2">
-        <v>160483</v>
+        <v>160490</v>
       </c>
       <c r="F110" s="2">
         <v>2225</v>
       </c>
       <c r="G110" s="4">
-        <v>0.061336254107</v>
+        <v>0.061318841755</v>
       </c>
     </row>
     <row r="111" spans="1:7">
@@ -2935,13 +2935,13 @@
         <v>215.714285714285</v>
       </c>
       <c r="E111" s="2">
-        <v>161740</v>
+        <v>161747</v>
       </c>
       <c r="F111" s="2">
         <v>1257</v>
       </c>
       <c r="G111" s="4">
-        <v>0.06142706045</v>
+        <v>0.061409573386</v>
       </c>
     </row>
     <row r="112" spans="1:7">
@@ -2949,22 +2949,22 @@
         <v>44032</v>
       </c>
       <c r="B112" s="2">
-        <v>7738</v>
+        <v>7739</v>
       </c>
       <c r="C112" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="D112" s="3">
-        <v>219.857142857142</v>
+        <v>220</v>
       </c>
       <c r="E112" s="2">
-        <v>165985</v>
+        <v>165993</v>
       </c>
       <c r="F112" s="2">
-        <v>4245</v>
+        <v>4246</v>
       </c>
       <c r="G112" s="4">
-        <v>0.063534657144</v>
+        <v>0.063560196458</v>
       </c>
     </row>
     <row r="113" spans="1:7">
@@ -2972,22 +2972,22 @@
         <v>44033</v>
       </c>
       <c r="B113" s="2">
-        <v>7978</v>
+        <v>7979</v>
       </c>
       <c r="C113" s="2">
         <v>240</v>
       </c>
       <c r="D113" s="3">
-        <v>217.857142857142</v>
+        <v>218</v>
       </c>
       <c r="E113" s="2">
-        <v>169823</v>
+        <v>169831</v>
       </c>
       <c r="F113" s="2">
         <v>3838</v>
       </c>
       <c r="G113" s="4">
-        <v>0.062759784353</v>
+        <v>0.062798353909</v>
       </c>
     </row>
     <row r="114" spans="1:7">
@@ -2998,16 +2998,16 @@
         <v>8228</v>
       </c>
       <c r="C114" s="2">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D114" s="3">
         <v>216.428571428571</v>
       </c>
       <c r="E114" s="2">
-        <v>173486</v>
+        <v>173493</v>
       </c>
       <c r="F114" s="2">
-        <v>3663</v>
+        <v>3662</v>
       </c>
       <c r="G114" s="4">
         <v>0.064151422764</v>
@@ -3027,7 +3027,7 @@
         <v>213</v>
       </c>
       <c r="E115" s="2">
-        <v>176811</v>
+        <v>176818</v>
       </c>
       <c r="F115" s="2">
         <v>3325</v>
@@ -3050,7 +3050,7 @@
         <v>208.428571428571</v>
       </c>
       <c r="E116" s="2">
-        <v>180445</v>
+        <v>180452</v>
       </c>
       <c r="F116" s="2">
         <v>3634</v>
@@ -3073,7 +3073,7 @@
         <v>205.857142857142</v>
       </c>
       <c r="E117" s="2">
-        <v>182064</v>
+        <v>182071</v>
       </c>
       <c r="F117" s="2">
         <v>1619</v>
@@ -3096,7 +3096,7 @@
         <v>206.428571428571</v>
       </c>
       <c r="E118" s="2">
-        <v>183317</v>
+        <v>183324</v>
       </c>
       <c r="F118" s="2">
         <v>1253</v>
@@ -3110,22 +3110,22 @@
         <v>44039</v>
       </c>
       <c r="B119" s="2">
-        <v>9135</v>
+        <v>9136</v>
       </c>
       <c r="C119" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="D119" s="3">
         <v>199.571428571428</v>
       </c>
       <c r="E119" s="2">
-        <v>187487</v>
+        <v>187496</v>
       </c>
       <c r="F119" s="2">
-        <v>4170</v>
+        <v>4172</v>
       </c>
       <c r="G119" s="4">
-        <v>0.06497070039900001</v>
+        <v>0.064967678928</v>
       </c>
     </row>
     <row r="120" spans="1:7">
@@ -3133,22 +3133,22 @@
         <v>44040</v>
       </c>
       <c r="B120" s="2">
-        <v>9384</v>
+        <v>9388</v>
       </c>
       <c r="C120" s="2">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="D120" s="3">
-        <v>200.857142857142</v>
+        <v>201.285714285714</v>
       </c>
       <c r="E120" s="2">
-        <v>191360</v>
+        <v>191410</v>
       </c>
       <c r="F120" s="2">
-        <v>3873</v>
+        <v>3914</v>
       </c>
       <c r="G120" s="4">
-        <v>0.065283001346</v>
+        <v>0.065294962695</v>
       </c>
     </row>
     <row r="121" spans="1:7">
@@ -3156,22 +3156,22 @@
         <v>44041</v>
       </c>
       <c r="B121" s="2">
-        <v>9635</v>
+        <v>9639</v>
       </c>
       <c r="C121" s="2">
         <v>251</v>
       </c>
       <c r="D121" s="3">
-        <v>201</v>
+        <v>201.571428571428</v>
       </c>
       <c r="E121" s="2">
-        <v>195220</v>
+        <v>195270</v>
       </c>
       <c r="F121" s="2">
         <v>3860</v>
       </c>
       <c r="G121" s="4">
-        <v>0.06473727799700001</v>
+        <v>0.064793130366</v>
       </c>
     </row>
     <row r="122" spans="1:7">
@@ -3179,22 +3179,22 @@
         <v>44042</v>
       </c>
       <c r="B122" s="2">
-        <v>9853</v>
+        <v>9857</v>
       </c>
       <c r="C122" s="2">
         <v>218</v>
       </c>
       <c r="D122" s="3">
-        <v>199</v>
+        <v>199.571428571428</v>
       </c>
       <c r="E122" s="2">
-        <v>198893</v>
+        <v>198943</v>
       </c>
       <c r="F122" s="2">
         <v>3673</v>
       </c>
       <c r="G122" s="4">
-        <v>0.063083054071</v>
+        <v>0.06314124293700001</v>
       </c>
     </row>
     <row r="123" spans="1:7">
@@ -3202,22 +3202,22 @@
         <v>44043</v>
       </c>
       <c r="B123" s="2">
-        <v>10086</v>
+        <v>10090</v>
       </c>
       <c r="C123" s="2">
         <v>233</v>
       </c>
       <c r="D123" s="3">
-        <v>201</v>
+        <v>201.571428571428</v>
       </c>
       <c r="E123" s="2">
-        <v>202428</v>
+        <v>202481</v>
       </c>
       <c r="F123" s="2">
-        <v>3535</v>
+        <v>3538</v>
       </c>
       <c r="G123" s="4">
-        <v>0.064004003093</v>
+        <v>0.064051931544</v>
       </c>
     </row>
     <row r="124" spans="1:7">
@@ -3225,22 +3225,22 @@
         <v>44044</v>
       </c>
       <c r="B124" s="2">
-        <v>10194</v>
+        <v>10198</v>
       </c>
       <c r="C124" s="2">
         <v>108</v>
       </c>
       <c r="D124" s="3">
-        <v>200.571428571428</v>
+        <v>201.142857142857</v>
       </c>
       <c r="E124" s="2">
-        <v>204018</v>
+        <v>204133</v>
       </c>
       <c r="F124" s="2">
-        <v>1590</v>
+        <v>1652</v>
       </c>
       <c r="G124" s="4">
-        <v>0.06395189942600001</v>
+        <v>0.063820143232</v>
       </c>
     </row>
     <row r="125" spans="1:7">
@@ -3248,22 +3248,22 @@
         <v>44045</v>
       </c>
       <c r="B125" s="2">
-        <v>10273</v>
+        <v>10277</v>
       </c>
       <c r="C125" s="2">
         <v>79</v>
       </c>
       <c r="D125" s="3">
-        <v>197.142857142857</v>
+        <v>197.714285714285</v>
       </c>
       <c r="E125" s="2">
-        <v>205141</v>
+        <v>205281</v>
       </c>
       <c r="F125" s="2">
-        <v>1123</v>
+        <v>1148</v>
       </c>
       <c r="G125" s="4">
-        <v>0.063233137829</v>
+        <v>0.06303229038499999</v>
       </c>
     </row>
     <row r="126" spans="1:7">
@@ -3271,22 +3271,22 @@
         <v>44046</v>
       </c>
       <c r="B126" s="2">
-        <v>10527</v>
+        <v>10532</v>
       </c>
       <c r="C126" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="D126" s="3">
-        <v>198.857142857142</v>
+        <v>199.428571428571</v>
       </c>
       <c r="E126" s="2">
-        <v>208939</v>
+        <v>209150</v>
       </c>
       <c r="F126" s="2">
-        <v>3798</v>
+        <v>3869</v>
       </c>
       <c r="G126" s="4">
-        <v>0.064889054633</v>
+        <v>0.06446845848299999</v>
       </c>
     </row>
     <row r="127" spans="1:7">
@@ -3294,22 +3294,22 @@
         <v>44047</v>
       </c>
       <c r="B127" s="2">
-        <v>10759</v>
+        <v>10764</v>
       </c>
       <c r="C127" s="2">
         <v>232</v>
       </c>
       <c r="D127" s="3">
-        <v>196.428571428571</v>
+        <v>196.571428571428</v>
       </c>
       <c r="E127" s="2">
-        <v>212235</v>
+        <v>212459</v>
       </c>
       <c r="F127" s="2">
-        <v>3296</v>
+        <v>3309</v>
       </c>
       <c r="G127" s="4">
-        <v>0.065868263473</v>
+        <v>0.065371276545</v>
       </c>
     </row>
     <row r="128" spans="1:7">
@@ -3317,22 +3317,22 @@
         <v>44048</v>
       </c>
       <c r="B128" s="2">
-        <v>10951</v>
+        <v>10956</v>
       </c>
       <c r="C128" s="2">
         <v>192</v>
       </c>
       <c r="D128" s="3">
-        <v>188</v>
+        <v>188.142857142857</v>
       </c>
       <c r="E128" s="2">
-        <v>215450</v>
+        <v>215717</v>
       </c>
       <c r="F128" s="2">
-        <v>3215</v>
+        <v>3258</v>
       </c>
       <c r="G128" s="4">
-        <v>0.065051903114</v>
+        <v>0.064410426957</v>
       </c>
     </row>
     <row r="129" spans="1:7">
@@ -3340,22 +3340,22 @@
         <v>44049</v>
       </c>
       <c r="B129" s="2">
-        <v>11148</v>
+        <v>11153</v>
       </c>
       <c r="C129" s="2">
         <v>197</v>
       </c>
       <c r="D129" s="3">
-        <v>185</v>
+        <v>185.142857142857</v>
       </c>
       <c r="E129" s="2">
-        <v>219103</v>
+        <v>219376</v>
       </c>
       <c r="F129" s="2">
-        <v>3653</v>
+        <v>3659</v>
       </c>
       <c r="G129" s="4">
-        <v>0.06407718950999999</v>
+        <v>0.063426809572</v>
       </c>
     </row>
     <row r="130" spans="1:7">
@@ -3363,22 +3363,22 @@
         <v>44050</v>
       </c>
       <c r="B130" s="2">
-        <v>11328</v>
+        <v>11335</v>
       </c>
       <c r="C130" s="2">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="D130" s="3">
-        <v>177.428571428571</v>
+        <v>177.857142857142</v>
       </c>
       <c r="E130" s="2">
-        <v>222374</v>
+        <v>222700</v>
       </c>
       <c r="F130" s="2">
-        <v>3271</v>
+        <v>3324</v>
       </c>
       <c r="G130" s="4">
-        <v>0.062268123934</v>
+        <v>0.061575745585</v>
       </c>
     </row>
     <row r="131" spans="1:7">
@@ -3386,22 +3386,22 @@
         <v>44051</v>
       </c>
       <c r="B131" s="2">
-        <v>11450</v>
+        <v>11455</v>
       </c>
       <c r="C131" s="2">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D131" s="3">
-        <v>179.428571428571</v>
+        <v>179.571428571428</v>
       </c>
       <c r="E131" s="2">
-        <v>224078</v>
+        <v>224406</v>
       </c>
       <c r="F131" s="2">
-        <v>1704</v>
+        <v>1706</v>
       </c>
       <c r="G131" s="4">
-        <v>0.06261216350899999</v>
+        <v>0.062003650175</v>
       </c>
     </row>
     <row r="132" spans="1:7">
@@ -3409,22 +3409,22 @@
         <v>44052</v>
       </c>
       <c r="B132" s="2">
-        <v>11533</v>
+        <v>11540</v>
       </c>
       <c r="C132" s="2">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D132" s="3">
-        <v>180</v>
+        <v>180.428571428571</v>
       </c>
       <c r="E132" s="2">
-        <v>225121</v>
+        <v>225470</v>
       </c>
       <c r="F132" s="2">
-        <v>1043</v>
+        <v>1064</v>
       </c>
       <c r="G132" s="4">
-        <v>0.063063063063</v>
+        <v>0.062558819158</v>
       </c>
     </row>
     <row r="133" spans="1:7">
@@ -3432,22 +3432,22 @@
         <v>44053</v>
       </c>
       <c r="B133" s="2">
-        <v>11770</v>
+        <v>11777</v>
       </c>
       <c r="C133" s="2">
         <v>237</v>
       </c>
       <c r="D133" s="3">
-        <v>177.571428571428</v>
+        <v>177.857142857142</v>
       </c>
       <c r="E133" s="2">
-        <v>229018</v>
+        <v>229367</v>
       </c>
       <c r="F133" s="2">
         <v>3897</v>
       </c>
       <c r="G133" s="4">
-        <v>0.06190547338</v>
+        <v>0.061581837067</v>
       </c>
     </row>
     <row r="134" spans="1:7">
@@ -3455,22 +3455,22 @@
         <v>44054</v>
       </c>
       <c r="B134" s="2">
-        <v>11971</v>
+        <v>11978</v>
       </c>
       <c r="C134" s="2">
         <v>201</v>
       </c>
       <c r="D134" s="3">
-        <v>173.142857142857</v>
+        <v>173.428571428571</v>
       </c>
       <c r="E134" s="2">
-        <v>232436</v>
+        <v>232785</v>
       </c>
       <c r="F134" s="2">
         <v>3418</v>
       </c>
       <c r="G134" s="4">
-        <v>0.05999702985</v>
+        <v>0.059726458722</v>
       </c>
     </row>
     <row r="135" spans="1:7">
@@ -3478,22 +3478,22 @@
         <v>44055</v>
       </c>
       <c r="B135" s="2">
-        <v>12171</v>
+        <v>12178</v>
       </c>
       <c r="C135" s="2">
         <v>200</v>
       </c>
       <c r="D135" s="3">
-        <v>174.285714285714</v>
+        <v>174.571428571428</v>
       </c>
       <c r="E135" s="2">
-        <v>236296</v>
+        <v>236645</v>
       </c>
       <c r="F135" s="2">
         <v>3860</v>
       </c>
       <c r="G135" s="4">
-        <v>0.058524417154</v>
+        <v>0.058390672782</v>
       </c>
     </row>
     <row r="136" spans="1:7">
@@ -3501,22 +3501,22 @@
         <v>44056</v>
       </c>
       <c r="B136" s="2">
-        <v>12347</v>
+        <v>12354</v>
       </c>
       <c r="C136" s="2">
         <v>176</v>
       </c>
       <c r="D136" s="3">
-        <v>171.285714285714</v>
+        <v>171.571428571428</v>
       </c>
       <c r="E136" s="2">
-        <v>239563</v>
+        <v>239912</v>
       </c>
       <c r="F136" s="2">
         <v>3267</v>
       </c>
       <c r="G136" s="4">
-        <v>0.058602150537</v>
+        <v>0.058482664589</v>
       </c>
     </row>
     <row r="137" spans="1:7">
@@ -3524,7 +3524,7 @@
         <v>44057</v>
       </c>
       <c r="B137" s="2">
-        <v>12522</v>
+        <v>12529</v>
       </c>
       <c r="C137" s="2">
         <v>175</v>
@@ -3533,13 +3533,13 @@
         <v>170.571428571428</v>
       </c>
       <c r="E137" s="2">
-        <v>242922</v>
+        <v>243271</v>
       </c>
       <c r="F137" s="2">
         <v>3359</v>
       </c>
       <c r="G137" s="4">
-        <v>0.058107845045</v>
+        <v>0.058042875893</v>
       </c>
     </row>
     <row r="138" spans="1:7">
@@ -3547,22 +3547,22 @@
         <v>44058</v>
       </c>
       <c r="B138" s="2">
-        <v>12615</v>
+        <v>12622</v>
       </c>
       <c r="C138" s="2">
         <v>93</v>
       </c>
       <c r="D138" s="3">
-        <v>166.428571428571</v>
+        <v>166.714285714285</v>
       </c>
       <c r="E138" s="2">
-        <v>244483</v>
+        <v>244832</v>
       </c>
       <c r="F138" s="2">
         <v>1561</v>
       </c>
       <c r="G138" s="4">
-        <v>0.057093849546</v>
+        <v>0.0571330657</v>
       </c>
     </row>
     <row r="139" spans="1:7">
@@ -3570,7 +3570,7 @@
         <v>44059</v>
       </c>
       <c r="B139" s="2">
-        <v>12660</v>
+        <v>12667</v>
       </c>
       <c r="C139" s="2">
         <v>45</v>
@@ -3579,7 +3579,7 @@
         <v>161</v>
       </c>
       <c r="E139" s="2">
-        <v>245258</v>
+        <v>245607</v>
       </c>
       <c r="F139" s="2">
         <v>775</v>
@@ -3593,7 +3593,7 @@
         <v>44060</v>
       </c>
       <c r="B140" s="2">
-        <v>12873</v>
+        <v>12880</v>
       </c>
       <c r="C140" s="2">
         <v>213</v>
@@ -3602,7 +3602,7 @@
         <v>157.571428571428</v>
       </c>
       <c r="E140" s="2">
-        <v>248913</v>
+        <v>249262</v>
       </c>
       <c r="F140" s="2">
         <v>3655</v>
@@ -3616,7 +3616,7 @@
         <v>44061</v>
       </c>
       <c r="B141" s="2">
-        <v>13041</v>
+        <v>13048</v>
       </c>
       <c r="C141" s="2">
         <v>168</v>
@@ -3625,7 +3625,7 @@
         <v>152.857142857142</v>
       </c>
       <c r="E141" s="2">
-        <v>251987</v>
+        <v>252336</v>
       </c>
       <c r="F141" s="2">
         <v>3074</v>
@@ -3639,7 +3639,7 @@
         <v>44062</v>
       </c>
       <c r="B142" s="2">
-        <v>13199</v>
+        <v>13206</v>
       </c>
       <c r="C142" s="2">
         <v>158</v>
@@ -3648,7 +3648,7 @@
         <v>146.857142857142</v>
       </c>
       <c r="E142" s="2">
-        <v>255043</v>
+        <v>255392</v>
       </c>
       <c r="F142" s="2">
         <v>3056</v>
@@ -3662,7 +3662,7 @@
         <v>44063</v>
       </c>
       <c r="B143" s="2">
-        <v>13331</v>
+        <v>13338</v>
       </c>
       <c r="C143" s="2">
         <v>132</v>
@@ -3671,7 +3671,7 @@
         <v>140.571428571428</v>
       </c>
       <c r="E143" s="2">
-        <v>258209</v>
+        <v>258558</v>
       </c>
       <c r="F143" s="2">
         <v>3166</v>
@@ -3685,7 +3685,7 @@
         <v>44064</v>
       </c>
       <c r="B144" s="2">
-        <v>13493</v>
+        <v>13500</v>
       </c>
       <c r="C144" s="2">
         <v>162</v>
@@ -3694,7 +3694,7 @@
         <v>138.714285714285</v>
       </c>
       <c r="E144" s="2">
-        <v>261247</v>
+        <v>261596</v>
       </c>
       <c r="F144" s="2">
         <v>3038</v>
@@ -3708,22 +3708,22 @@
         <v>44065</v>
       </c>
       <c r="B145" s="2">
-        <v>13554</v>
+        <v>13562</v>
       </c>
       <c r="C145" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D145" s="3">
-        <v>134.142857142857</v>
+        <v>134.285714285714</v>
       </c>
       <c r="E145" s="2">
-        <v>262576</v>
+        <v>262925</v>
       </c>
       <c r="F145" s="2">
         <v>1329</v>
       </c>
       <c r="G145" s="4">
-        <v>0.051898524291</v>
+        <v>0.051953794285</v>
       </c>
     </row>
     <row r="146" spans="1:7">
@@ -3731,22 +3731,22 @@
         <v>44066</v>
       </c>
       <c r="B146" s="2">
-        <v>13621</v>
+        <v>13629</v>
       </c>
       <c r="C146" s="2">
         <v>67</v>
       </c>
       <c r="D146" s="3">
-        <v>137.285714285714</v>
+        <v>137.428571428571</v>
       </c>
       <c r="E146" s="2">
-        <v>263543</v>
+        <v>263892</v>
       </c>
       <c r="F146" s="2">
         <v>967</v>
       </c>
       <c r="G146" s="4">
-        <v>0.052556740497</v>
+        <v>0.052611430133</v>
       </c>
     </row>
     <row r="147" spans="1:7">
@@ -3754,22 +3754,22 @@
         <v>44067</v>
       </c>
       <c r="B147" s="2">
-        <v>13770</v>
+        <v>13779</v>
       </c>
       <c r="C147" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D147" s="3">
-        <v>128.142857142857</v>
+        <v>128.428571428571</v>
       </c>
       <c r="E147" s="2">
-        <v>266530</v>
+        <v>266880</v>
       </c>
       <c r="F147" s="2">
-        <v>2987</v>
+        <v>2988</v>
       </c>
       <c r="G147" s="4">
-        <v>0.05091672816</v>
+        <v>0.051027358383</v>
       </c>
     </row>
     <row r="148" spans="1:7">
@@ -3777,22 +3777,22 @@
         <v>44068</v>
       </c>
       <c r="B148" s="2">
-        <v>13905</v>
+        <v>13914</v>
       </c>
       <c r="C148" s="2">
         <v>135</v>
       </c>
       <c r="D148" s="3">
-        <v>123.428571428571</v>
+        <v>123.714285714285</v>
       </c>
       <c r="E148" s="2">
-        <v>269552</v>
+        <v>269902</v>
       </c>
       <c r="F148" s="2">
         <v>3022</v>
       </c>
       <c r="G148" s="4">
-        <v>0.049188727583</v>
+        <v>0.049299783673</v>
       </c>
     </row>
     <row r="149" spans="1:7">
@@ -3800,22 +3800,22 @@
         <v>44069</v>
       </c>
       <c r="B149" s="2">
-        <v>14040</v>
+        <v>14049</v>
       </c>
       <c r="C149" s="2">
         <v>135</v>
       </c>
       <c r="D149" s="3">
-        <v>120.142857142857</v>
+        <v>120.428571428571</v>
       </c>
       <c r="E149" s="2">
-        <v>272516</v>
+        <v>272866</v>
       </c>
       <c r="F149" s="2">
         <v>2964</v>
       </c>
       <c r="G149" s="4">
-        <v>0.048131402735</v>
+        <v>0.04824310404</v>
       </c>
     </row>
     <row r="150" spans="1:7">
@@ -3823,22 +3823,22 @@
         <v>44070</v>
       </c>
       <c r="B150" s="2">
-        <v>14210</v>
+        <v>14219</v>
       </c>
       <c r="C150" s="2">
         <v>170</v>
       </c>
       <c r="D150" s="3">
-        <v>125.571428571428</v>
+        <v>125.857142857142</v>
       </c>
       <c r="E150" s="2">
-        <v>275774</v>
+        <v>276124</v>
       </c>
       <c r="F150" s="2">
         <v>3258</v>
       </c>
       <c r="G150" s="4">
-        <v>0.050042698548</v>
+        <v>0.050153706022</v>
       </c>
     </row>
     <row r="151" spans="1:7">
@@ -3846,22 +3846,22 @@
         <v>44071</v>
       </c>
       <c r="B151" s="2">
-        <v>14326</v>
+        <v>14335</v>
       </c>
       <c r="C151" s="2">
         <v>116</v>
       </c>
       <c r="D151" s="3">
-        <v>119</v>
+        <v>119.285714285714</v>
       </c>
       <c r="E151" s="2">
-        <v>278554</v>
+        <v>278907</v>
       </c>
       <c r="F151" s="2">
-        <v>2780</v>
+        <v>2783</v>
       </c>
       <c r="G151" s="4">
-        <v>0.048130814121</v>
+        <v>0.048235226156</v>
       </c>
     </row>
     <row r="152" spans="1:7">
@@ -3869,22 +3869,22 @@
         <v>44072</v>
       </c>
       <c r="B152" s="2">
-        <v>14390</v>
+        <v>14399</v>
       </c>
       <c r="C152" s="2">
         <v>64</v>
       </c>
       <c r="D152" s="3">
-        <v>119.428571428571</v>
+        <v>119.571428571428</v>
       </c>
       <c r="E152" s="2">
-        <v>279995</v>
+        <v>280348</v>
       </c>
       <c r="F152" s="2">
         <v>1441</v>
       </c>
       <c r="G152" s="4">
-        <v>0.047993570239</v>
+        <v>0.048039947196</v>
       </c>
     </row>
     <row r="153" spans="1:7">
@@ -3892,22 +3892,22 @@
         <v>44073</v>
       </c>
       <c r="B153" s="2">
-        <v>14448</v>
+        <v>14457</v>
       </c>
       <c r="C153" s="2">
         <v>58</v>
       </c>
       <c r="D153" s="3">
-        <v>118.142857142857</v>
+        <v>118.285714285714</v>
       </c>
       <c r="E153" s="2">
-        <v>281078</v>
+        <v>281431</v>
       </c>
       <c r="F153" s="2">
         <v>1083</v>
       </c>
       <c r="G153" s="4">
-        <v>0.047162817222</v>
+        <v>0.047209076914</v>
       </c>
     </row>
     <row r="154" spans="1:7">
@@ -3915,7 +3915,7 @@
         <v>44074</v>
       </c>
       <c r="B154" s="2">
-        <v>14586</v>
+        <v>14595</v>
       </c>
       <c r="C154" s="2">
         <v>138</v>
@@ -3924,13 +3924,13 @@
         <v>116.571428571428</v>
       </c>
       <c r="E154" s="2">
-        <v>284202</v>
+        <v>284566</v>
       </c>
       <c r="F154" s="2">
-        <v>3124</v>
+        <v>3135</v>
       </c>
       <c r="G154" s="4">
-        <v>0.046174739701</v>
+        <v>0.046138188397</v>
       </c>
     </row>
     <row r="155" spans="1:7">
@@ -3938,22 +3938,22 @@
         <v>44075</v>
       </c>
       <c r="B155" s="2">
-        <v>14717</v>
+        <v>14727</v>
       </c>
       <c r="C155" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D155" s="3">
-        <v>116</v>
+        <v>116.142857142857</v>
       </c>
       <c r="E155" s="2">
-        <v>287468</v>
+        <v>287833</v>
       </c>
       <c r="F155" s="2">
-        <v>3266</v>
+        <v>3267</v>
       </c>
       <c r="G155" s="4">
-        <v>0.045322616655</v>
+        <v>0.045340471808</v>
       </c>
     </row>
     <row r="156" spans="1:7">
@@ -3961,22 +3961,22 @@
         <v>44076</v>
       </c>
       <c r="B156" s="2">
-        <v>14832</v>
+        <v>14842</v>
       </c>
       <c r="C156" s="2">
         <v>115</v>
       </c>
       <c r="D156" s="3">
-        <v>113.142857142857</v>
+        <v>113.285714285714</v>
       </c>
       <c r="E156" s="2">
-        <v>290435</v>
+        <v>290800</v>
       </c>
       <c r="F156" s="2">
         <v>2967</v>
       </c>
       <c r="G156" s="4">
-        <v>0.044198895027</v>
+        <v>0.044217687074</v>
       </c>
     </row>
     <row r="157" spans="1:7">
@@ -3984,22 +3984,22 @@
         <v>44077</v>
       </c>
       <c r="B157" s="2">
-        <v>14927</v>
+        <v>14937</v>
       </c>
       <c r="C157" s="2">
         <v>95</v>
       </c>
       <c r="D157" s="3">
-        <v>102.428571428571</v>
+        <v>102.571428571428</v>
       </c>
       <c r="E157" s="2">
-        <v>293365</v>
+        <v>293730</v>
       </c>
       <c r="F157" s="2">
         <v>2930</v>
       </c>
       <c r="G157" s="4">
-        <v>0.040759479279</v>
+        <v>0.040781551743</v>
       </c>
     </row>
     <row r="158" spans="1:7">
@@ -4007,22 +4007,22 @@
         <v>44078</v>
       </c>
       <c r="B158" s="2">
-        <v>15049</v>
+        <v>15059</v>
       </c>
       <c r="C158" s="2">
         <v>122</v>
       </c>
       <c r="D158" s="3">
-        <v>103.285714285714</v>
+        <v>103.428571428571</v>
       </c>
       <c r="E158" s="2">
-        <v>296169</v>
+        <v>296534</v>
       </c>
       <c r="F158" s="2">
         <v>2804</v>
       </c>
       <c r="G158" s="4">
-        <v>0.041044564291</v>
+        <v>0.041073353378</v>
       </c>
     </row>
     <row r="159" spans="1:7">
@@ -4030,22 +4030,22 @@
         <v>44079</v>
       </c>
       <c r="B159" s="2">
-        <v>15115</v>
+        <v>15125</v>
       </c>
       <c r="C159" s="2">
         <v>66</v>
       </c>
       <c r="D159" s="3">
-        <v>103.571428571428</v>
+        <v>103.714285714285</v>
       </c>
       <c r="E159" s="2">
-        <v>297505</v>
+        <v>297870</v>
       </c>
       <c r="F159" s="2">
         <v>1336</v>
       </c>
       <c r="G159" s="4">
-        <v>0.041404911479</v>
+        <v>0.041433626298</v>
       </c>
     </row>
     <row r="160" spans="1:7">
@@ -4053,22 +4053,22 @@
         <v>44080</v>
       </c>
       <c r="B160" s="2">
-        <v>15168</v>
+        <v>15178</v>
       </c>
       <c r="C160" s="2">
         <v>53</v>
       </c>
       <c r="D160" s="3">
-        <v>102.857142857142</v>
+        <v>103</v>
       </c>
       <c r="E160" s="2">
-        <v>298588</v>
+        <v>298953</v>
       </c>
       <c r="F160" s="2">
         <v>1083</v>
       </c>
       <c r="G160" s="4">
-        <v>0.041119360365</v>
+        <v>0.041148270745</v>
       </c>
     </row>
     <row r="161" spans="1:7">
@@ -4076,22 +4076,22 @@
         <v>44081</v>
       </c>
       <c r="B161" s="2">
-        <v>15236</v>
+        <v>15246</v>
       </c>
       <c r="C161" s="2">
         <v>68</v>
       </c>
       <c r="D161" s="3">
-        <v>92.85714285714199</v>
+        <v>93</v>
       </c>
       <c r="E161" s="2">
-        <v>299838</v>
+        <v>300203</v>
       </c>
       <c r="F161" s="2">
         <v>1250</v>
       </c>
       <c r="G161" s="4">
-        <v>0.041570734203</v>
+        <v>0.041632026603</v>
       </c>
     </row>
     <row r="162" spans="1:7">
@@ -4099,7 +4099,7 @@
         <v>44082</v>
       </c>
       <c r="B162" s="2">
-        <v>15379</v>
+        <v>15389</v>
       </c>
       <c r="C162" s="2">
         <v>143</v>
@@ -4108,7 +4108,7 @@
         <v>94.571428571428</v>
       </c>
       <c r="E162" s="2">
-        <v>304116</v>
+        <v>304481</v>
       </c>
       <c r="F162" s="2">
         <v>4278</v>
@@ -4122,7 +4122,7 @@
         <v>44083</v>
       </c>
       <c r="B163" s="2">
-        <v>15529</v>
+        <v>15539</v>
       </c>
       <c r="C163" s="2">
         <v>150</v>
@@ -4131,13 +4131,13 @@
         <v>99.571428571428</v>
       </c>
       <c r="E163" s="2">
-        <v>307621</v>
+        <v>307985</v>
       </c>
       <c r="F163" s="2">
-        <v>3505</v>
+        <v>3504</v>
       </c>
       <c r="G163" s="4">
-        <v>0.040556266728</v>
+        <v>0.040558626709</v>
       </c>
     </row>
     <row r="164" spans="1:7">
@@ -4145,22 +4145,22 @@
         <v>44084</v>
       </c>
       <c r="B164" s="2">
-        <v>15631</v>
+        <v>15642</v>
       </c>
       <c r="C164" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D164" s="3">
-        <v>100.571428571428</v>
+        <v>100.714285714285</v>
       </c>
       <c r="E164" s="2">
-        <v>310892</v>
+        <v>311256</v>
       </c>
       <c r="F164" s="2">
         <v>3271</v>
       </c>
       <c r="G164" s="4">
-        <v>0.040166600102</v>
+        <v>0.040225950017</v>
       </c>
     </row>
     <row r="165" spans="1:7">
@@ -4168,22 +4168,22 @@
         <v>44085</v>
       </c>
       <c r="B165" s="2">
-        <v>15703</v>
+        <v>15714</v>
       </c>
       <c r="C165" s="2">
         <v>72</v>
       </c>
       <c r="D165" s="3">
-        <v>93.428571428571</v>
+        <v>93.571428571428</v>
       </c>
       <c r="E165" s="2">
-        <v>313377</v>
+        <v>313741</v>
       </c>
       <c r="F165" s="2">
         <v>2485</v>
       </c>
       <c r="G165" s="4">
-        <v>0.0380055788</v>
+        <v>0.038065903411</v>
       </c>
     </row>
     <row r="166" spans="1:7">
@@ -4191,22 +4191,22 @@
         <v>44086</v>
       </c>
       <c r="B166" s="2">
-        <v>15751</v>
+        <v>15762</v>
       </c>
       <c r="C166" s="2">
         <v>48</v>
       </c>
       <c r="D166" s="3">
-        <v>90.85714285714199</v>
+        <v>91</v>
       </c>
       <c r="E166" s="2">
-        <v>314768</v>
+        <v>315132</v>
       </c>
       <c r="F166" s="2">
         <v>1391</v>
       </c>
       <c r="G166" s="4">
-        <v>0.036841800382</v>
+        <v>0.036901865369</v>
       </c>
     </row>
     <row r="167" spans="1:7">
@@ -4214,22 +4214,22 @@
         <v>44087</v>
       </c>
       <c r="B167" s="2">
-        <v>15783</v>
+        <v>15794</v>
       </c>
       <c r="C167" s="2">
         <v>32</v>
       </c>
       <c r="D167" s="3">
-        <v>87.85714285714199</v>
+        <v>88</v>
       </c>
       <c r="E167" s="2">
-        <v>315609</v>
+        <v>315974</v>
       </c>
       <c r="F167" s="2">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="G167" s="4">
-        <v>0.036131837142</v>
+        <v>0.036190588097</v>
       </c>
     </row>
     <row r="168" spans="1:7">
@@ -4237,22 +4237,22 @@
         <v>44088</v>
       </c>
       <c r="B168" s="2">
-        <v>15884</v>
+        <v>15895</v>
       </c>
       <c r="C168" s="2">
         <v>101</v>
       </c>
       <c r="D168" s="3">
-        <v>92.571428571428</v>
+        <v>92.714285714285</v>
       </c>
       <c r="E168" s="2">
-        <v>318980</v>
+        <v>319350</v>
       </c>
       <c r="F168" s="2">
-        <v>3371</v>
+        <v>3376</v>
       </c>
       <c r="G168" s="4">
-        <v>0.033852262041</v>
+        <v>0.033895649448</v>
       </c>
     </row>
     <row r="169" spans="1:7">
@@ -4260,22 +4260,22 @@
         <v>44089</v>
       </c>
       <c r="B169" s="2">
-        <v>16014</v>
+        <v>16025</v>
       </c>
       <c r="C169" s="2">
         <v>130</v>
       </c>
       <c r="D169" s="3">
-        <v>90.714285714285</v>
+        <v>90.85714285714199</v>
       </c>
       <c r="E169" s="2">
-        <v>322927</v>
+        <v>323298</v>
       </c>
       <c r="F169" s="2">
-        <v>3947</v>
+        <v>3948</v>
       </c>
       <c r="G169" s="4">
-        <v>0.033756844399</v>
+        <v>0.033799224105</v>
       </c>
     </row>
     <row r="170" spans="1:7">
@@ -4283,22 +4283,22 @@
         <v>44090</v>
       </c>
       <c r="B170" s="2">
-        <v>16100</v>
+        <v>16111</v>
       </c>
       <c r="C170" s="2">
         <v>86</v>
       </c>
       <c r="D170" s="3">
-        <v>81.571428571428</v>
+        <v>81.714285714285</v>
       </c>
       <c r="E170" s="2">
-        <v>326209</v>
+        <v>326580</v>
       </c>
       <c r="F170" s="2">
         <v>3282</v>
       </c>
       <c r="G170" s="4">
-        <v>0.030718743275</v>
+        <v>0.030760957246</v>
       </c>
     </row>
     <row r="171" spans="1:7">
@@ -4306,22 +4306,22 @@
         <v>44091</v>
       </c>
       <c r="B171" s="2">
-        <v>16203</v>
+        <v>16215</v>
       </c>
       <c r="C171" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D171" s="3">
-        <v>81.714285714285</v>
+        <v>81.85714285714199</v>
       </c>
       <c r="E171" s="2">
-        <v>329810</v>
+        <v>330183</v>
       </c>
       <c r="F171" s="2">
-        <v>3601</v>
+        <v>3603</v>
       </c>
       <c r="G171" s="4">
-        <v>0.030235754308</v>
+        <v>0.030274211443</v>
       </c>
     </row>
     <row r="172" spans="1:7">
@@ -4329,22 +4329,22 @@
         <v>44092</v>
       </c>
       <c r="B172" s="2">
-        <v>16307</v>
+        <v>16319</v>
       </c>
       <c r="C172" s="2">
         <v>104</v>
       </c>
       <c r="D172" s="3">
-        <v>86.28571428571399</v>
+        <v>86.428571428571</v>
       </c>
       <c r="E172" s="2">
-        <v>333078</v>
+        <v>333451</v>
       </c>
       <c r="F172" s="2">
         <v>3268</v>
       </c>
       <c r="G172" s="4">
-        <v>0.030658342216</v>
+        <v>0.03069507864</v>
       </c>
     </row>
     <row r="173" spans="1:7">
@@ -4352,22 +4352,22 @@
         <v>44093</v>
       </c>
       <c r="B173" s="2">
-        <v>16379</v>
+        <v>16391</v>
       </c>
       <c r="C173" s="2">
         <v>72</v>
       </c>
       <c r="D173" s="3">
-        <v>89.714285714285</v>
+        <v>89.85714285714199</v>
       </c>
       <c r="E173" s="2">
-        <v>334595</v>
+        <v>334968</v>
       </c>
       <c r="F173" s="2">
         <v>1517</v>
       </c>
       <c r="G173" s="4">
-        <v>0.031673979926</v>
+        <v>0.031710022181</v>
       </c>
     </row>
     <row r="174" spans="1:7">
@@ -4375,22 +4375,22 @@
         <v>44094</v>
       </c>
       <c r="B174" s="2">
-        <v>16421</v>
+        <v>16433</v>
       </c>
       <c r="C174" s="2">
         <v>42</v>
       </c>
       <c r="D174" s="3">
-        <v>91.142857142857</v>
+        <v>91.28571428571399</v>
       </c>
       <c r="E174" s="2">
-        <v>335746</v>
+        <v>336119</v>
       </c>
       <c r="F174" s="2">
         <v>1151</v>
       </c>
       <c r="G174" s="4">
-        <v>0.031682971644</v>
+        <v>0.031720029784</v>
       </c>
     </row>
     <row r="175" spans="1:7">
@@ -4398,22 +4398,22 @@
         <v>44095</v>
       </c>
       <c r="B175" s="2">
-        <v>16564</v>
+        <v>16576</v>
       </c>
       <c r="C175" s="2">
         <v>143</v>
       </c>
       <c r="D175" s="3">
-        <v>97.142857142857</v>
+        <v>97.28571428571399</v>
       </c>
       <c r="E175" s="2">
-        <v>340092</v>
+        <v>340465</v>
       </c>
       <c r="F175" s="2">
         <v>4346</v>
       </c>
       <c r="G175" s="4">
-        <v>0.03220917014</v>
+        <v>0.032251953587</v>
       </c>
     </row>
     <row r="176" spans="1:7">
@@ -4421,22 +4421,22 @@
         <v>44096</v>
       </c>
       <c r="B176" s="2">
-        <v>16662</v>
+        <v>16674</v>
       </c>
       <c r="C176" s="2">
         <v>98</v>
       </c>
       <c r="D176" s="3">
-        <v>92.571428571428</v>
+        <v>92.714285714285</v>
       </c>
       <c r="E176" s="2">
-        <v>343850</v>
+        <v>344225</v>
       </c>
       <c r="F176" s="2">
-        <v>3758</v>
+        <v>3760</v>
       </c>
       <c r="G176" s="4">
-        <v>0.030970702098</v>
+        <v>0.031012567496</v>
       </c>
     </row>
     <row r="177" spans="1:7">
@@ -4444,22 +4444,22 @@
         <v>44097</v>
       </c>
       <c r="B177" s="2">
-        <v>16757</v>
+        <v>16768</v>
       </c>
       <c r="C177" s="2">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D177" s="3">
         <v>93.85714285714199</v>
       </c>
       <c r="E177" s="2">
-        <v>347329</v>
+        <v>347703</v>
       </c>
       <c r="F177" s="2">
-        <v>3479</v>
+        <v>3478</v>
       </c>
       <c r="G177" s="4">
-        <v>0.031107954545</v>
+        <v>0.031103536429</v>
       </c>
     </row>
     <row r="178" spans="1:7">
@@ -4467,22 +4467,22 @@
         <v>44098</v>
       </c>
       <c r="B178" s="2">
-        <v>16848</v>
+        <v>16859</v>
       </c>
       <c r="C178" s="2">
         <v>91</v>
       </c>
       <c r="D178" s="3">
-        <v>92.142857142857</v>
+        <v>92</v>
       </c>
       <c r="E178" s="2">
-        <v>351036</v>
+        <v>351413</v>
       </c>
       <c r="F178" s="2">
-        <v>3707</v>
+        <v>3710</v>
       </c>
       <c r="G178" s="4">
-        <v>0.030387260906</v>
+        <v>0.030334432406</v>
       </c>
     </row>
     <row r="179" spans="1:7">
@@ -4490,22 +4490,22 @@
         <v>44099</v>
       </c>
       <c r="B179" s="2">
-        <v>16937</v>
+        <v>16948</v>
       </c>
       <c r="C179" s="2">
         <v>89</v>
       </c>
       <c r="D179" s="3">
-        <v>90</v>
+        <v>89.85714285714199</v>
       </c>
       <c r="E179" s="2">
-        <v>354318</v>
+        <v>354696</v>
       </c>
       <c r="F179" s="2">
-        <v>3282</v>
+        <v>3283</v>
       </c>
       <c r="G179" s="4">
-        <v>0.029661016949</v>
+        <v>0.029606966345</v>
       </c>
     </row>
     <row r="180" spans="1:7">
@@ -4513,22 +4513,22 @@
         <v>44100</v>
       </c>
       <c r="B180" s="2">
-        <v>16996</v>
+        <v>17007</v>
       </c>
       <c r="C180" s="2">
         <v>59</v>
       </c>
       <c r="D180" s="3">
-        <v>88.142857142857</v>
+        <v>88</v>
       </c>
       <c r="E180" s="2">
-        <v>356181</v>
+        <v>356560</v>
       </c>
       <c r="F180" s="2">
-        <v>1863</v>
+        <v>1864</v>
       </c>
       <c r="G180" s="4">
-        <v>0.028583341054</v>
+        <v>0.028529084846</v>
       </c>
     </row>
     <row r="181" spans="1:7">
@@ -4536,22 +4536,22 @@
         <v>44101</v>
       </c>
       <c r="B181" s="2">
-        <v>17019</v>
+        <v>17030</v>
       </c>
       <c r="C181" s="2">
         <v>23</v>
       </c>
       <c r="D181" s="3">
-        <v>85.428571428571</v>
+        <v>85.28571428571399</v>
       </c>
       <c r="E181" s="2">
-        <v>357303</v>
+        <v>357682</v>
       </c>
       <c r="F181" s="2">
         <v>1122</v>
       </c>
       <c r="G181" s="4">
-        <v>0.027740409147</v>
+        <v>0.02768631452</v>
       </c>
     </row>
     <row r="182" spans="1:7">
@@ -4559,22 +4559,22 @@
         <v>44102</v>
       </c>
       <c r="B182" s="2">
-        <v>17131</v>
+        <v>17143</v>
       </c>
       <c r="C182" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D182" s="3">
         <v>81</v>
       </c>
       <c r="E182" s="2">
-        <v>361362</v>
+        <v>361742</v>
       </c>
       <c r="F182" s="2">
-        <v>4059</v>
+        <v>4060</v>
       </c>
       <c r="G182" s="4">
-        <v>0.026657263751</v>
+        <v>0.026648493678</v>
       </c>
     </row>
     <row r="183" spans="1:7">
@@ -4582,7 +4582,7 @@
         <v>44103</v>
       </c>
       <c r="B183" s="2">
-        <v>17206</v>
+        <v>17218</v>
       </c>
       <c r="C183" s="2">
         <v>75</v>
@@ -4591,13 +4591,13 @@
         <v>77.714285714285</v>
       </c>
       <c r="E183" s="2">
-        <v>365177</v>
+        <v>365557</v>
       </c>
       <c r="F183" s="2">
         <v>3815</v>
       </c>
       <c r="G183" s="4">
-        <v>0.02550757256</v>
+        <v>0.025501593849</v>
       </c>
     </row>
     <row r="184" spans="1:7">
@@ -4605,22 +4605,22 @@
         <v>44104</v>
       </c>
       <c r="B184" s="2">
-        <v>17265</v>
+        <v>17278</v>
       </c>
       <c r="C184" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D184" s="3">
-        <v>72.571428571428</v>
+        <v>72.85714285714199</v>
       </c>
       <c r="E184" s="2">
-        <v>368716</v>
+        <v>369097</v>
       </c>
       <c r="F184" s="2">
-        <v>3539</v>
+        <v>3540</v>
       </c>
       <c r="G184" s="4">
-        <v>0.023752746995</v>
+        <v>0.023838459381</v>
       </c>
     </row>
     <row r="185" spans="1:7">
@@ -4628,22 +4628,22 @@
         <v>44105</v>
       </c>
       <c r="B185" s="2">
-        <v>17327</v>
+        <v>17343</v>
       </c>
       <c r="C185" s="2">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="D185" s="3">
-        <v>68.428571428571</v>
+        <v>69.142857142857</v>
       </c>
       <c r="E185" s="2">
-        <v>372220</v>
+        <v>372604</v>
       </c>
       <c r="F185" s="2">
-        <v>3504</v>
+        <v>3507</v>
       </c>
       <c r="G185" s="4">
-        <v>0.022611404833</v>
+        <v>0.022839884856</v>
       </c>
     </row>
     <row r="186" spans="1:7">
@@ -4651,22 +4651,22 @@
         <v>44106</v>
       </c>
       <c r="B186" s="2">
-        <v>17405</v>
+        <v>17421</v>
       </c>
       <c r="C186" s="2">
         <v>78</v>
       </c>
       <c r="D186" s="3">
-        <v>66.85714285714199</v>
+        <v>67.571428571428</v>
       </c>
       <c r="E186" s="2">
-        <v>375751</v>
+        <v>376135</v>
       </c>
       <c r="F186" s="2">
         <v>3531</v>
       </c>
       <c r="G186" s="4">
-        <v>0.021835487332</v>
+        <v>0.022062596203</v>
       </c>
     </row>
     <row r="187" spans="1:7">
@@ -4674,22 +4674,22 @@
         <v>44107</v>
       </c>
       <c r="B187" s="2">
-        <v>17448</v>
+        <v>17464</v>
       </c>
       <c r="C187" s="2">
         <v>43</v>
       </c>
       <c r="D187" s="3">
-        <v>64.571428571428</v>
+        <v>65.28571428571399</v>
       </c>
       <c r="E187" s="2">
-        <v>377738</v>
+        <v>378124</v>
       </c>
       <c r="F187" s="2">
-        <v>1987</v>
+        <v>1989</v>
       </c>
       <c r="G187" s="4">
-        <v>0.020967667115</v>
+        <v>0.021192728621</v>
       </c>
     </row>
     <row r="188" spans="1:7">
@@ -4697,22 +4697,22 @@
         <v>44108</v>
       </c>
       <c r="B188" s="2">
-        <v>17485</v>
+        <v>17501</v>
       </c>
       <c r="C188" s="2">
         <v>37</v>
       </c>
       <c r="D188" s="3">
-        <v>66.571428571428</v>
+        <v>67.28571428571399</v>
       </c>
       <c r="E188" s="2">
-        <v>379117</v>
+        <v>379503</v>
       </c>
       <c r="F188" s="2">
         <v>1379</v>
       </c>
       <c r="G188" s="4">
-        <v>0.021362427798</v>
+        <v>0.021584711974</v>
       </c>
     </row>
     <row r="189" spans="1:7">
@@ -4720,22 +4720,22 @@
         <v>44109</v>
       </c>
       <c r="B189" s="2">
-        <v>17562</v>
+        <v>17578</v>
       </c>
       <c r="C189" s="2">
         <v>77</v>
       </c>
       <c r="D189" s="3">
-        <v>61.57142857142801</v>
+        <v>62.142857142857</v>
       </c>
       <c r="E189" s="2">
-        <v>383909</v>
+        <v>384298</v>
       </c>
       <c r="F189" s="2">
-        <v>4792</v>
+        <v>4795</v>
       </c>
       <c r="G189" s="4">
-        <v>0.019115625138</v>
+        <v>0.019285334279</v>
       </c>
     </row>
     <row r="190" spans="1:7">
@@ -4743,22 +4743,22 @@
         <v>44110</v>
       </c>
       <c r="B190" s="2">
-        <v>17624</v>
+        <v>17640</v>
       </c>
       <c r="C190" s="2">
         <v>62</v>
       </c>
       <c r="D190" s="3">
-        <v>59.71428571428499</v>
+        <v>60.28571428571399</v>
       </c>
       <c r="E190" s="2">
-        <v>388544</v>
+        <v>388938</v>
       </c>
       <c r="F190" s="2">
-        <v>4635</v>
+        <v>4640</v>
       </c>
       <c r="G190" s="4">
-        <v>0.0178884752</v>
+        <v>0.018048843077</v>
       </c>
     </row>
     <row r="191" spans="1:7">
@@ -4766,22 +4766,22 @@
         <v>44111</v>
       </c>
       <c r="B191" s="2">
-        <v>17696</v>
+        <v>17712</v>
       </c>
       <c r="C191" s="2">
         <v>72</v>
       </c>
       <c r="D191" s="3">
-        <v>61.57142857142801</v>
+        <v>62</v>
       </c>
       <c r="E191" s="2">
-        <v>392681</v>
+        <v>393086</v>
       </c>
       <c r="F191" s="2">
-        <v>4137</v>
+        <v>4148</v>
       </c>
       <c r="G191" s="4">
-        <v>0.017984560817</v>
+        <v>0.018091625328</v>
       </c>
     </row>
     <row r="192" spans="1:7">
@@ -4789,7 +4789,7 @@
         <v>44112</v>
       </c>
       <c r="B192" s="2">
-        <v>17791</v>
+        <v>17807</v>
       </c>
       <c r="C192" s="2">
         <v>95</v>
@@ -4798,13 +4798,13 @@
         <v>66.28571428571399</v>
       </c>
       <c r="E192" s="2">
-        <v>396883</v>
+        <v>397292</v>
       </c>
       <c r="F192" s="2">
-        <v>4202</v>
+        <v>4206</v>
       </c>
       <c r="G192" s="4">
-        <v>0.018813607428</v>
+        <v>0.018794556059</v>
       </c>
     </row>
     <row r="193" spans="1:7">
@@ -4812,22 +4812,22 @@
         <v>44113</v>
       </c>
       <c r="B193" s="2">
-        <v>17847</v>
+        <v>17865</v>
       </c>
       <c r="C193" s="2">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D193" s="3">
-        <v>63.142857142857</v>
+        <v>63.428571428571</v>
       </c>
       <c r="E193" s="2">
-        <v>400485</v>
+        <v>401023</v>
       </c>
       <c r="F193" s="2">
-        <v>3602</v>
+        <v>3731</v>
       </c>
       <c r="G193" s="4">
-        <v>0.017870138271</v>
+        <v>0.017839922854</v>
       </c>
     </row>
     <row r="194" spans="1:7">
@@ -4835,22 +4835,68 @@
         <v>44114</v>
       </c>
       <c r="B194" s="2">
-        <v>17869</v>
+        <v>17899</v>
       </c>
       <c r="C194" s="2">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="D194" s="3">
-        <v>60.142857142857</v>
+        <v>62.142857142857</v>
       </c>
       <c r="E194" s="2">
-        <v>401598</v>
+        <v>402767</v>
       </c>
       <c r="F194" s="2">
-        <v>1113</v>
+        <v>1744</v>
       </c>
       <c r="G194" s="4">
-        <v>0.017644593461</v>
+        <v>0.017652071582</v>
+      </c>
+    </row>
+    <row r="195" spans="1:7">
+      <c r="A195" s="1">
+        <v>44115</v>
+      </c>
+      <c r="B195" s="2">
+        <v>17920</v>
+      </c>
+      <c r="C195" s="2">
+        <v>21</v>
+      </c>
+      <c r="D195" s="3">
+        <v>59.857142857142</v>
+      </c>
+      <c r="E195" s="2">
+        <v>404038</v>
+      </c>
+      <c r="F195" s="2">
+        <v>1271</v>
+      </c>
+      <c r="G195" s="4">
+        <v>0.017077644181</v>
+      </c>
+    </row>
+    <row r="196" spans="1:7">
+      <c r="A196" s="1">
+        <v>44116</v>
+      </c>
+      <c r="B196" s="2">
+        <v>18009</v>
+      </c>
+      <c r="C196" s="2">
+        <v>89</v>
+      </c>
+      <c r="D196" s="3">
+        <v>61.57142857142801</v>
+      </c>
+      <c r="E196" s="2">
+        <v>408483</v>
+      </c>
+      <c r="F196" s="2">
+        <v>4445</v>
+      </c>
+      <c r="G196" s="4">
+        <v>0.017820963407</v>
       </c>
     </row>
   </sheetData>

--- a/contra_costa_county_testing.xlsx
+++ b/contra_costa_county_testing.xlsx
@@ -376,7 +376,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G196"/>
+  <dimension ref="A1:G197"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1647,13 +1647,13 @@
         <v>27.571428571428</v>
       </c>
       <c r="E55" s="2">
-        <v>36409</v>
+        <v>36407</v>
       </c>
       <c r="F55" s="2">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="G55" s="4">
-        <v>0.026445601534</v>
+        <v>0.026452850877</v>
       </c>
     </row>
     <row r="56" spans="1:7">
@@ -1670,13 +1670,13 @@
         <v>23.285714285714</v>
       </c>
       <c r="E56" s="2">
-        <v>36871</v>
+        <v>36869</v>
       </c>
       <c r="F56" s="2">
         <v>462</v>
       </c>
       <c r="G56" s="4">
-        <v>0.025488663017</v>
+        <v>0.025496636946</v>
       </c>
     </row>
     <row r="57" spans="1:7">
@@ -1693,13 +1693,13 @@
         <v>23.714285714285</v>
       </c>
       <c r="E57" s="2">
-        <v>38068</v>
+        <v>38066</v>
       </c>
       <c r="F57" s="2">
         <v>1197</v>
       </c>
       <c r="G57" s="4">
-        <v>0.027979099949</v>
+        <v>0.027988534817</v>
       </c>
     </row>
     <row r="58" spans="1:7">
@@ -1716,13 +1716,13 @@
         <v>23.714285714285</v>
       </c>
       <c r="E58" s="2">
-        <v>39180</v>
+        <v>39177</v>
       </c>
       <c r="F58" s="2">
-        <v>1112</v>
+        <v>1111</v>
       </c>
       <c r="G58" s="4">
-        <v>0.028116531165</v>
+        <v>0.028130825283</v>
       </c>
     </row>
     <row r="59" spans="1:7">
@@ -1739,13 +1739,13 @@
         <v>26.285714285714</v>
       </c>
       <c r="E59" s="2">
-        <v>40316</v>
+        <v>40313</v>
       </c>
       <c r="F59" s="2">
         <v>1136</v>
       </c>
       <c r="G59" s="4">
-        <v>0.031138940599</v>
+        <v>0.031154757873</v>
       </c>
     </row>
     <row r="60" spans="1:7">
@@ -1762,13 +1762,13 @@
         <v>26.428571428571</v>
       </c>
       <c r="E60" s="2">
-        <v>41718</v>
+        <v>41715</v>
       </c>
       <c r="F60" s="2">
         <v>1402</v>
       </c>
       <c r="G60" s="4">
-        <v>0.029733204757</v>
+        <v>0.029747547837</v>
       </c>
     </row>
     <row r="61" spans="1:7">
@@ -1785,13 +1785,13 @@
         <v>26.142857142857</v>
       </c>
       <c r="E61" s="2">
-        <v>42452</v>
+        <v>42449</v>
       </c>
       <c r="F61" s="2">
         <v>734</v>
       </c>
       <c r="G61" s="4">
-        <v>0.028429392574</v>
+        <v>0.02844264843</v>
       </c>
     </row>
     <row r="62" spans="1:7">
@@ -1808,13 +1808,13 @@
         <v>25.857142857142</v>
       </c>
       <c r="E62" s="2">
-        <v>42850</v>
+        <v>42847</v>
       </c>
       <c r="F62" s="2">
         <v>398</v>
       </c>
       <c r="G62" s="4">
-        <v>0.028101226517</v>
+        <v>0.028105590062</v>
       </c>
     </row>
     <row r="63" spans="1:7">
@@ -1831,13 +1831,13 @@
         <v>29.142857142857</v>
       </c>
       <c r="E63" s="2">
-        <v>44226</v>
+        <v>44223</v>
       </c>
       <c r="F63" s="2">
         <v>1376</v>
       </c>
       <c r="G63" s="4">
-        <v>0.027736233854</v>
+        <v>0.027740005439</v>
       </c>
     </row>
     <row r="64" spans="1:7">
@@ -1854,13 +1854,13 @@
         <v>28.142857142857</v>
       </c>
       <c r="E64" s="2">
-        <v>45443</v>
+        <v>45440</v>
       </c>
       <c r="F64" s="2">
         <v>1217</v>
       </c>
       <c r="G64" s="4">
-        <v>0.026711864406</v>
+        <v>0.026715486845</v>
       </c>
     </row>
     <row r="65" spans="1:7">
@@ -1877,7 +1877,7 @@
         <v>27.714285714285</v>
       </c>
       <c r="E65" s="2">
-        <v>46607</v>
+        <v>46604</v>
       </c>
       <c r="F65" s="2">
         <v>1164</v>
@@ -1900,7 +1900,7 @@
         <v>28.428571428571</v>
       </c>
       <c r="E66" s="2">
-        <v>47959</v>
+        <v>47956</v>
       </c>
       <c r="F66" s="2">
         <v>1352</v>
@@ -1923,7 +1923,7 @@
         <v>29.285714285714</v>
       </c>
       <c r="E67" s="2">
-        <v>49589</v>
+        <v>49586</v>
       </c>
       <c r="F67" s="2">
         <v>1630</v>
@@ -1946,7 +1946,7 @@
         <v>30.571428571428</v>
       </c>
       <c r="E68" s="2">
-        <v>50194</v>
+        <v>50191</v>
       </c>
       <c r="F68" s="2">
         <v>605</v>
@@ -1969,7 +1969,7 @@
         <v>32.428571428571</v>
       </c>
       <c r="E69" s="2">
-        <v>50679</v>
+        <v>50676</v>
       </c>
       <c r="F69" s="2">
         <v>485</v>
@@ -1992,7 +1992,7 @@
         <v>34.714285714285</v>
       </c>
       <c r="E70" s="2">
-        <v>52516</v>
+        <v>52513</v>
       </c>
       <c r="F70" s="2">
         <v>1837</v>
@@ -2015,7 +2015,7 @@
         <v>36.428571428571</v>
       </c>
       <c r="E71" s="2">
-        <v>54364</v>
+        <v>54361</v>
       </c>
       <c r="F71" s="2">
         <v>1848</v>
@@ -2038,7 +2038,7 @@
         <v>40</v>
       </c>
       <c r="E72" s="2">
-        <v>56355</v>
+        <v>56352</v>
       </c>
       <c r="F72" s="2">
         <v>1991</v>
@@ -2061,7 +2061,7 @@
         <v>40.285714285714</v>
       </c>
       <c r="E73" s="2">
-        <v>58510</v>
+        <v>58507</v>
       </c>
       <c r="F73" s="2">
         <v>2155</v>
@@ -2084,13 +2084,13 @@
         <v>41.857142857142</v>
       </c>
       <c r="E74" s="2">
-        <v>60772</v>
+        <v>60768</v>
       </c>
       <c r="F74" s="2">
-        <v>2262</v>
+        <v>2261</v>
       </c>
       <c r="G74" s="4">
-        <v>0.026200482875</v>
+        <v>0.02620282597</v>
       </c>
     </row>
     <row r="75" spans="1:7">
@@ -2107,13 +2107,13 @@
         <v>44.142857142857</v>
       </c>
       <c r="E75" s="2">
-        <v>61616</v>
+        <v>61612</v>
       </c>
       <c r="F75" s="2">
         <v>844</v>
       </c>
       <c r="G75" s="4">
-        <v>0.027053055506</v>
+        <v>0.027055424218</v>
       </c>
     </row>
     <row r="76" spans="1:7">
@@ -2130,13 +2130,13 @@
         <v>45.428571428571</v>
       </c>
       <c r="E76" s="2">
-        <v>62203</v>
+        <v>62199</v>
       </c>
       <c r="F76" s="2">
         <v>587</v>
       </c>
       <c r="G76" s="4">
-        <v>0.027594585213</v>
+        <v>0.027596979953</v>
       </c>
     </row>
     <row r="77" spans="1:7">
@@ -2153,13 +2153,13 @@
         <v>46.714285714285</v>
       </c>
       <c r="E77" s="2">
-        <v>64422</v>
+        <v>64418</v>
       </c>
       <c r="F77" s="2">
         <v>2219</v>
       </c>
       <c r="G77" s="4">
-        <v>0.027465143625</v>
+        <v>0.02746745065</v>
       </c>
     </row>
     <row r="78" spans="1:7">
@@ -2176,13 +2176,13 @@
         <v>52.571428571428</v>
       </c>
       <c r="E78" s="2">
-        <v>66943</v>
+        <v>66939</v>
       </c>
       <c r="F78" s="2">
         <v>2521</v>
       </c>
       <c r="G78" s="4">
-        <v>0.029255107719</v>
+        <v>0.029257433614</v>
       </c>
     </row>
     <row r="79" spans="1:7">
@@ -2199,13 +2199,13 @@
         <v>57.285714285714</v>
       </c>
       <c r="E79" s="2">
-        <v>69514</v>
+        <v>69510</v>
       </c>
       <c r="F79" s="2">
         <v>2571</v>
       </c>
       <c r="G79" s="4">
-        <v>0.030473440231</v>
+        <v>0.030475756193</v>
       </c>
     </row>
     <row r="80" spans="1:7">
@@ -2222,13 +2222,13 @@
         <v>62.57142857142801</v>
       </c>
       <c r="E80" s="2">
-        <v>72039</v>
+        <v>72035</v>
       </c>
       <c r="F80" s="2">
         <v>2525</v>
       </c>
       <c r="G80" s="4">
-        <v>0.032374898366</v>
+        <v>0.032377291543</v>
       </c>
     </row>
     <row r="81" spans="1:7">
@@ -2245,7 +2245,7 @@
         <v>68.85714285714199</v>
       </c>
       <c r="E81" s="2">
-        <v>74482</v>
+        <v>74478</v>
       </c>
       <c r="F81" s="2">
         <v>2443</v>
@@ -2268,7 +2268,7 @@
         <v>71.428571428571</v>
       </c>
       <c r="E82" s="2">
-        <v>75434</v>
+        <v>75430</v>
       </c>
       <c r="F82" s="2">
         <v>952</v>
@@ -2291,7 +2291,7 @@
         <v>73.28571428571399</v>
       </c>
       <c r="E83" s="2">
-        <v>76131</v>
+        <v>76127</v>
       </c>
       <c r="F83" s="2">
         <v>697</v>
@@ -2314,7 +2314,7 @@
         <v>81</v>
       </c>
       <c r="E84" s="2">
-        <v>78749</v>
+        <v>78745</v>
       </c>
       <c r="F84" s="2">
         <v>2618</v>
@@ -2337,7 +2337,7 @@
         <v>88</v>
       </c>
       <c r="E85" s="2">
-        <v>81535</v>
+        <v>81531</v>
       </c>
       <c r="F85" s="2">
         <v>2786</v>
@@ -2360,7 +2360,7 @@
         <v>96</v>
       </c>
       <c r="E86" s="2">
-        <v>84564</v>
+        <v>84560</v>
       </c>
       <c r="F86" s="2">
         <v>3029</v>
@@ -2383,7 +2383,7 @@
         <v>104.714285714285</v>
       </c>
       <c r="E87" s="2">
-        <v>87923</v>
+        <v>87919</v>
       </c>
       <c r="F87" s="2">
         <v>3359</v>
@@ -2406,7 +2406,7 @@
         <v>114.428571428571</v>
       </c>
       <c r="E88" s="2">
-        <v>90892</v>
+        <v>90888</v>
       </c>
       <c r="F88" s="2">
         <v>2969</v>
@@ -2429,7 +2429,7 @@
         <v>118.428571428571</v>
       </c>
       <c r="E89" s="2">
-        <v>91966</v>
+        <v>91962</v>
       </c>
       <c r="F89" s="2">
         <v>1074</v>
@@ -2452,7 +2452,7 @@
         <v>121.142857142857</v>
       </c>
       <c r="E90" s="2">
-        <v>92761</v>
+        <v>92757</v>
       </c>
       <c r="F90" s="2">
         <v>795</v>
@@ -2475,7 +2475,7 @@
         <v>133.428571428571</v>
       </c>
       <c r="E91" s="2">
-        <v>96447</v>
+        <v>96443</v>
       </c>
       <c r="F91" s="2">
         <v>3686</v>
@@ -2498,7 +2498,7 @@
         <v>137</v>
       </c>
       <c r="E92" s="2">
-        <v>99927</v>
+        <v>99923</v>
       </c>
       <c r="F92" s="2">
         <v>3480</v>
@@ -2521,7 +2521,7 @@
         <v>141.285714285714</v>
       </c>
       <c r="E93" s="2">
-        <v>103466</v>
+        <v>103462</v>
       </c>
       <c r="F93" s="2">
         <v>3539</v>
@@ -2544,7 +2544,7 @@
         <v>149.857142857142</v>
       </c>
       <c r="E94" s="2">
-        <v>107389</v>
+        <v>107385</v>
       </c>
       <c r="F94" s="2">
         <v>3923</v>
@@ -2567,7 +2567,7 @@
         <v>146.142857142857</v>
       </c>
       <c r="E95" s="2">
-        <v>110030</v>
+        <v>110026</v>
       </c>
       <c r="F95" s="2">
         <v>2641</v>
@@ -2590,7 +2590,7 @@
         <v>148</v>
       </c>
       <c r="E96" s="2">
-        <v>111147</v>
+        <v>111143</v>
       </c>
       <c r="F96" s="2">
         <v>1117</v>
@@ -2613,7 +2613,7 @@
         <v>151.857142857142</v>
       </c>
       <c r="E97" s="2">
-        <v>112276</v>
+        <v>112272</v>
       </c>
       <c r="F97" s="2">
         <v>1129</v>
@@ -2636,13 +2636,13 @@
         <v>152.857142857142</v>
       </c>
       <c r="E98" s="2">
-        <v>116352</v>
+        <v>116349</v>
       </c>
       <c r="F98" s="2">
-        <v>4076</v>
+        <v>4077</v>
       </c>
       <c r="G98" s="4">
-        <v>0.053755337854</v>
+        <v>0.053752637395</v>
       </c>
     </row>
     <row r="99" spans="1:7">
@@ -2659,13 +2659,13 @@
         <v>161.142857142857</v>
       </c>
       <c r="E99" s="2">
-        <v>120432</v>
+        <v>120430</v>
       </c>
       <c r="F99" s="2">
-        <v>4080</v>
+        <v>4081</v>
       </c>
       <c r="G99" s="4">
-        <v>0.055010972933</v>
+        <v>0.055005607841</v>
       </c>
     </row>
     <row r="100" spans="1:7">
@@ -2682,13 +2682,13 @@
         <v>168.571428571428</v>
       </c>
       <c r="E100" s="2">
-        <v>124695</v>
+        <v>124694</v>
       </c>
       <c r="F100" s="2">
-        <v>4263</v>
+        <v>4264</v>
       </c>
       <c r="G100" s="4">
-        <v>0.055584342173</v>
+        <v>0.055576488319</v>
       </c>
     </row>
     <row r="101" spans="1:7">
@@ -2705,13 +2705,13 @@
         <v>174.285714285714</v>
       </c>
       <c r="E101" s="2">
-        <v>129298</v>
+        <v>129297</v>
       </c>
       <c r="F101" s="2">
         <v>4603</v>
       </c>
       <c r="G101" s="4">
-        <v>0.05568487836</v>
+        <v>0.055677254472</v>
       </c>
     </row>
     <row r="102" spans="1:7">
@@ -2728,13 +2728,13 @@
         <v>188.857142857142</v>
       </c>
       <c r="E102" s="2">
-        <v>133761</v>
+        <v>133760</v>
       </c>
       <c r="F102" s="2">
         <v>4463</v>
       </c>
       <c r="G102" s="4">
-        <v>0.055707724073</v>
+        <v>0.055700682565</v>
       </c>
     </row>
     <row r="103" spans="1:7">
@@ -2751,13 +2751,13 @@
         <v>195.571428571428</v>
       </c>
       <c r="E103" s="2">
-        <v>135832</v>
+        <v>135831</v>
       </c>
       <c r="F103" s="2">
         <v>2071</v>
       </c>
       <c r="G103" s="4">
-        <v>0.055458780636</v>
+        <v>0.055452041477</v>
       </c>
     </row>
     <row r="104" spans="1:7">
@@ -2774,13 +2774,13 @@
         <v>197.714285714285</v>
       </c>
       <c r="E104" s="2">
-        <v>137158</v>
+        <v>137157</v>
       </c>
       <c r="F104" s="2">
         <v>1326</v>
       </c>
       <c r="G104" s="4">
-        <v>0.055622538381</v>
+        <v>0.055615832831</v>
       </c>
     </row>
     <row r="105" spans="1:7">
@@ -2797,13 +2797,13 @@
         <v>205.857142857142</v>
       </c>
       <c r="E105" s="2">
-        <v>141764</v>
+        <v>141763</v>
       </c>
       <c r="F105" s="2">
         <v>4606</v>
       </c>
       <c r="G105" s="4">
-        <v>0.056705493467</v>
+        <v>0.056701030927</v>
       </c>
     </row>
     <row r="106" spans="1:7">
@@ -2820,13 +2820,13 @@
         <v>211.285714285714</v>
       </c>
       <c r="E106" s="2">
-        <v>145531</v>
+        <v>145530</v>
       </c>
       <c r="F106" s="2">
         <v>3767</v>
       </c>
       <c r="G106" s="4">
-        <v>0.058926650464</v>
+        <v>0.058924302788</v>
       </c>
     </row>
     <row r="107" spans="1:7">
@@ -2843,7 +2843,7 @@
         <v>216.285714285714</v>
       </c>
       <c r="E107" s="2">
-        <v>149877</v>
+        <v>149876</v>
       </c>
       <c r="F107" s="2">
         <v>4346</v>
@@ -2866,7 +2866,7 @@
         <v>216.857142857142</v>
       </c>
       <c r="E108" s="2">
-        <v>154061</v>
+        <v>154060</v>
       </c>
       <c r="F108" s="2">
         <v>4184</v>
@@ -2889,7 +2889,7 @@
         <v>217.571428571428</v>
       </c>
       <c r="E109" s="2">
-        <v>158265</v>
+        <v>158264</v>
       </c>
       <c r="F109" s="2">
         <v>4204</v>
@@ -2912,7 +2912,7 @@
         <v>216</v>
       </c>
       <c r="E110" s="2">
-        <v>160490</v>
+        <v>160489</v>
       </c>
       <c r="F110" s="2">
         <v>2225</v>
@@ -2935,7 +2935,7 @@
         <v>215.714285714285</v>
       </c>
       <c r="E111" s="2">
-        <v>161747</v>
+        <v>161746</v>
       </c>
       <c r="F111" s="2">
         <v>1257</v>
@@ -2961,10 +2961,10 @@
         <v>165993</v>
       </c>
       <c r="F112" s="2">
-        <v>4246</v>
+        <v>4247</v>
       </c>
       <c r="G112" s="4">
-        <v>0.063560196458</v>
+        <v>0.06355757325600001</v>
       </c>
     </row>
     <row r="113" spans="1:7">
@@ -2987,7 +2987,7 @@
         <v>3838</v>
       </c>
       <c r="G113" s="4">
-        <v>0.062798353909</v>
+        <v>0.062795769721</v>
       </c>
     </row>
     <row r="114" spans="1:7">
@@ -3010,7 +3010,7 @@
         <v>3662</v>
       </c>
       <c r="G114" s="4">
-        <v>0.064151422764</v>
+        <v>0.06414870643999999</v>
       </c>
     </row>
     <row r="115" spans="1:7">
@@ -3033,7 +3033,7 @@
         <v>3325</v>
       </c>
       <c r="G115" s="4">
-        <v>0.06551830206000001</v>
+        <v>0.065515423147</v>
       </c>
     </row>
     <row r="116" spans="1:7">
@@ -3056,7 +3056,7 @@
         <v>3634</v>
       </c>
       <c r="G116" s="4">
-        <v>0.065759228376</v>
+        <v>0.065756264647</v>
       </c>
     </row>
     <row r="117" spans="1:7">
@@ -3073,13 +3073,13 @@
         <v>205.857142857142</v>
       </c>
       <c r="E117" s="2">
-        <v>182071</v>
+        <v>182072</v>
       </c>
       <c r="F117" s="2">
-        <v>1619</v>
+        <v>1620</v>
       </c>
       <c r="G117" s="4">
-        <v>0.066771697326</v>
+        <v>0.066765509892</v>
       </c>
     </row>
     <row r="118" spans="1:7">
@@ -3096,13 +3096,13 @@
         <v>206.428571428571</v>
       </c>
       <c r="E118" s="2">
-        <v>183324</v>
+        <v>183326</v>
       </c>
       <c r="F118" s="2">
-        <v>1253</v>
+        <v>1254</v>
       </c>
       <c r="G118" s="4">
-        <v>0.06696945821899999</v>
+        <v>0.06696014828500001</v>
       </c>
     </row>
     <row r="119" spans="1:7">
@@ -3119,13 +3119,13 @@
         <v>199.571428571428</v>
       </c>
       <c r="E119" s="2">
-        <v>187496</v>
+        <v>187498</v>
       </c>
       <c r="F119" s="2">
         <v>4172</v>
       </c>
       <c r="G119" s="4">
-        <v>0.064967678928</v>
+        <v>0.06496163682800001</v>
       </c>
     </row>
     <row r="120" spans="1:7">
@@ -3133,22 +3133,22 @@
         <v>44040</v>
       </c>
       <c r="B120" s="2">
-        <v>9388</v>
+        <v>9391</v>
       </c>
       <c r="C120" s="2">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="D120" s="3">
-        <v>201.285714285714</v>
+        <v>201.714285714285</v>
       </c>
       <c r="E120" s="2">
-        <v>191410</v>
+        <v>191414</v>
       </c>
       <c r="F120" s="2">
-        <v>3914</v>
+        <v>3916</v>
       </c>
       <c r="G120" s="4">
-        <v>0.065294962695</v>
+        <v>0.06542185979700001</v>
       </c>
     </row>
     <row r="121" spans="1:7">
@@ -3156,22 +3156,22 @@
         <v>44041</v>
       </c>
       <c r="B121" s="2">
-        <v>9639</v>
+        <v>9642</v>
       </c>
       <c r="C121" s="2">
         <v>251</v>
       </c>
       <c r="D121" s="3">
-        <v>201.571428571428</v>
+        <v>202</v>
       </c>
       <c r="E121" s="2">
-        <v>195270</v>
+        <v>195275</v>
       </c>
       <c r="F121" s="2">
-        <v>3860</v>
+        <v>3861</v>
       </c>
       <c r="G121" s="4">
-        <v>0.064793130366</v>
+        <v>0.064915985676</v>
       </c>
     </row>
     <row r="122" spans="1:7">
@@ -3179,22 +3179,22 @@
         <v>44042</v>
       </c>
       <c r="B122" s="2">
-        <v>9857</v>
+        <v>9860</v>
       </c>
       <c r="C122" s="2">
         <v>218</v>
       </c>
       <c r="D122" s="3">
-        <v>199.571428571428</v>
+        <v>200</v>
       </c>
       <c r="E122" s="2">
-        <v>198943</v>
+        <v>198948</v>
       </c>
       <c r="F122" s="2">
         <v>3673</v>
       </c>
       <c r="G122" s="4">
-        <v>0.06314124293700001</v>
+        <v>0.063262539539</v>
       </c>
     </row>
     <row r="123" spans="1:7">
@@ -3202,22 +3202,22 @@
         <v>44043</v>
       </c>
       <c r="B123" s="2">
-        <v>10090</v>
+        <v>10093</v>
       </c>
       <c r="C123" s="2">
         <v>233</v>
       </c>
       <c r="D123" s="3">
-        <v>201.571428571428</v>
+        <v>202</v>
       </c>
       <c r="E123" s="2">
-        <v>202481</v>
+        <v>202486</v>
       </c>
       <c r="F123" s="2">
         <v>3538</v>
       </c>
       <c r="G123" s="4">
-        <v>0.064051931544</v>
+        <v>0.064173549968</v>
       </c>
     </row>
     <row r="124" spans="1:7">
@@ -3225,22 +3225,22 @@
         <v>44044</v>
       </c>
       <c r="B124" s="2">
-        <v>10198</v>
+        <v>10201</v>
       </c>
       <c r="C124" s="2">
         <v>108</v>
       </c>
       <c r="D124" s="3">
-        <v>201.142857142857</v>
+        <v>201.571428571428</v>
       </c>
       <c r="E124" s="2">
-        <v>204133</v>
+        <v>204138</v>
       </c>
       <c r="F124" s="2">
         <v>1652</v>
       </c>
       <c r="G124" s="4">
-        <v>0.063820143232</v>
+        <v>0.06394453004599999</v>
       </c>
     </row>
     <row r="125" spans="1:7">
@@ -3248,22 +3248,22 @@
         <v>44045</v>
       </c>
       <c r="B125" s="2">
-        <v>10277</v>
+        <v>10280</v>
       </c>
       <c r="C125" s="2">
         <v>79</v>
       </c>
       <c r="D125" s="3">
-        <v>197.714285714285</v>
+        <v>198.142857142857</v>
       </c>
       <c r="E125" s="2">
-        <v>205281</v>
+        <v>205286</v>
       </c>
       <c r="F125" s="2">
         <v>1148</v>
       </c>
       <c r="G125" s="4">
-        <v>0.06303229038499999</v>
+        <v>0.063160291438</v>
       </c>
     </row>
     <row r="126" spans="1:7">
@@ -3271,22 +3271,22 @@
         <v>44046</v>
       </c>
       <c r="B126" s="2">
-        <v>10532</v>
+        <v>10535</v>
       </c>
       <c r="C126" s="2">
         <v>255</v>
       </c>
       <c r="D126" s="3">
-        <v>199.428571428571</v>
+        <v>199.857142857142</v>
       </c>
       <c r="E126" s="2">
-        <v>209150</v>
+        <v>209155</v>
       </c>
       <c r="F126" s="2">
         <v>3869</v>
       </c>
       <c r="G126" s="4">
-        <v>0.06446845848299999</v>
+        <v>0.064598051438</v>
       </c>
     </row>
     <row r="127" spans="1:7">
@@ -3294,7 +3294,7 @@
         <v>44047</v>
       </c>
       <c r="B127" s="2">
-        <v>10764</v>
+        <v>10767</v>
       </c>
       <c r="C127" s="2">
         <v>232</v>
@@ -3303,13 +3303,13 @@
         <v>196.571428571428</v>
       </c>
       <c r="E127" s="2">
-        <v>212459</v>
+        <v>212464</v>
       </c>
       <c r="F127" s="2">
         <v>3309</v>
       </c>
       <c r="G127" s="4">
-        <v>0.065371276545</v>
+        <v>0.065368171021</v>
       </c>
     </row>
     <row r="128" spans="1:7">
@@ -3317,22 +3317,22 @@
         <v>44048</v>
       </c>
       <c r="B128" s="2">
-        <v>10956</v>
+        <v>10960</v>
       </c>
       <c r="C128" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D128" s="3">
-        <v>188.142857142857</v>
+        <v>188.285714285714</v>
       </c>
       <c r="E128" s="2">
-        <v>215717</v>
+        <v>215723</v>
       </c>
       <c r="F128" s="2">
-        <v>3258</v>
+        <v>3259</v>
       </c>
       <c r="G128" s="4">
-        <v>0.064410426957</v>
+        <v>0.06445618153300001</v>
       </c>
     </row>
     <row r="129" spans="1:7">
@@ -3340,22 +3340,22 @@
         <v>44049</v>
       </c>
       <c r="B129" s="2">
-        <v>11153</v>
+        <v>11159</v>
       </c>
       <c r="C129" s="2">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="D129" s="3">
-        <v>185.142857142857</v>
+        <v>185.571428571428</v>
       </c>
       <c r="E129" s="2">
-        <v>219376</v>
+        <v>219385</v>
       </c>
       <c r="F129" s="2">
-        <v>3659</v>
+        <v>3662</v>
       </c>
       <c r="G129" s="4">
-        <v>0.063426809572</v>
+        <v>0.063561188041</v>
       </c>
     </row>
     <row r="130" spans="1:7">
@@ -3363,22 +3363,22 @@
         <v>44050</v>
       </c>
       <c r="B130" s="2">
-        <v>11335</v>
+        <v>11341</v>
       </c>
       <c r="C130" s="2">
         <v>182</v>
       </c>
       <c r="D130" s="3">
-        <v>177.857142857142</v>
+        <v>178.285714285714</v>
       </c>
       <c r="E130" s="2">
-        <v>222700</v>
+        <v>222709</v>
       </c>
       <c r="F130" s="2">
         <v>3324</v>
       </c>
       <c r="G130" s="4">
-        <v>0.061575745585</v>
+        <v>0.061711912179</v>
       </c>
     </row>
     <row r="131" spans="1:7">
@@ -3386,22 +3386,22 @@
         <v>44051</v>
       </c>
       <c r="B131" s="2">
-        <v>11455</v>
+        <v>11461</v>
       </c>
       <c r="C131" s="2">
         <v>120</v>
       </c>
       <c r="D131" s="3">
-        <v>179.571428571428</v>
+        <v>180</v>
       </c>
       <c r="E131" s="2">
-        <v>224406</v>
+        <v>224415</v>
       </c>
       <c r="F131" s="2">
         <v>1706</v>
       </c>
       <c r="G131" s="4">
-        <v>0.062003650175</v>
+        <v>0.062139369729</v>
       </c>
     </row>
     <row r="132" spans="1:7">
@@ -3409,22 +3409,22 @@
         <v>44052</v>
       </c>
       <c r="B132" s="2">
-        <v>11540</v>
+        <v>11546</v>
       </c>
       <c r="C132" s="2">
         <v>85</v>
       </c>
       <c r="D132" s="3">
-        <v>180.428571428571</v>
+        <v>180.857142857142</v>
       </c>
       <c r="E132" s="2">
-        <v>225470</v>
+        <v>225479</v>
       </c>
       <c r="F132" s="2">
         <v>1064</v>
       </c>
       <c r="G132" s="4">
-        <v>0.062558819158</v>
+        <v>0.062694993314</v>
       </c>
     </row>
     <row r="133" spans="1:7">
@@ -3432,22 +3432,22 @@
         <v>44053</v>
       </c>
       <c r="B133" s="2">
-        <v>11777</v>
+        <v>11783</v>
       </c>
       <c r="C133" s="2">
         <v>237</v>
       </c>
       <c r="D133" s="3">
-        <v>177.857142857142</v>
+        <v>178.285714285714</v>
       </c>
       <c r="E133" s="2">
-        <v>229367</v>
+        <v>229376</v>
       </c>
       <c r="F133" s="2">
         <v>3897</v>
       </c>
       <c r="G133" s="4">
-        <v>0.061581837067</v>
+        <v>0.061718015924</v>
       </c>
     </row>
     <row r="134" spans="1:7">
@@ -3455,22 +3455,22 @@
         <v>44054</v>
       </c>
       <c r="B134" s="2">
-        <v>11978</v>
+        <v>11984</v>
       </c>
       <c r="C134" s="2">
         <v>201</v>
       </c>
       <c r="D134" s="3">
-        <v>173.428571428571</v>
+        <v>173.857142857142</v>
       </c>
       <c r="E134" s="2">
-        <v>232785</v>
+        <v>232795</v>
       </c>
       <c r="F134" s="2">
-        <v>3418</v>
+        <v>3419</v>
       </c>
       <c r="G134" s="4">
-        <v>0.059726458722</v>
+        <v>0.059859328119</v>
       </c>
     </row>
     <row r="135" spans="1:7">
@@ -3478,22 +3478,22 @@
         <v>44055</v>
       </c>
       <c r="B135" s="2">
-        <v>12178</v>
+        <v>12184</v>
       </c>
       <c r="C135" s="2">
         <v>200</v>
       </c>
       <c r="D135" s="3">
-        <v>174.571428571428</v>
+        <v>174.857142857142</v>
       </c>
       <c r="E135" s="2">
-        <v>236645</v>
+        <v>236655</v>
       </c>
       <c r="F135" s="2">
         <v>3860</v>
       </c>
       <c r="G135" s="4">
-        <v>0.058390672782</v>
+        <v>0.058475062105</v>
       </c>
     </row>
     <row r="136" spans="1:7">
@@ -3501,7 +3501,7 @@
         <v>44056</v>
       </c>
       <c r="B136" s="2">
-        <v>12354</v>
+        <v>12360</v>
       </c>
       <c r="C136" s="2">
         <v>176</v>
@@ -3510,13 +3510,13 @@
         <v>171.571428571428</v>
       </c>
       <c r="E136" s="2">
-        <v>239912</v>
+        <v>239922</v>
       </c>
       <c r="F136" s="2">
         <v>3267</v>
       </c>
       <c r="G136" s="4">
-        <v>0.058482664589</v>
+        <v>0.058479816915</v>
       </c>
     </row>
     <row r="137" spans="1:7">
@@ -3524,7 +3524,7 @@
         <v>44057</v>
       </c>
       <c r="B137" s="2">
-        <v>12529</v>
+        <v>12535</v>
       </c>
       <c r="C137" s="2">
         <v>175</v>
@@ -3533,13 +3533,13 @@
         <v>170.571428571428</v>
       </c>
       <c r="E137" s="2">
-        <v>243271</v>
+        <v>243281</v>
       </c>
       <c r="F137" s="2">
         <v>3359</v>
       </c>
       <c r="G137" s="4">
-        <v>0.058042875893</v>
+        <v>0.058040054442</v>
       </c>
     </row>
     <row r="138" spans="1:7">
@@ -3547,7 +3547,7 @@
         <v>44058</v>
       </c>
       <c r="B138" s="2">
-        <v>12622</v>
+        <v>12628</v>
       </c>
       <c r="C138" s="2">
         <v>93</v>
@@ -3556,13 +3556,13 @@
         <v>166.714285714285</v>
       </c>
       <c r="E138" s="2">
-        <v>244832</v>
+        <v>244842</v>
       </c>
       <c r="F138" s="2">
         <v>1561</v>
       </c>
       <c r="G138" s="4">
-        <v>0.0571330657</v>
+        <v>0.057130268761</v>
       </c>
     </row>
     <row r="139" spans="1:7">
@@ -3570,7 +3570,7 @@
         <v>44059</v>
       </c>
       <c r="B139" s="2">
-        <v>12667</v>
+        <v>12673</v>
       </c>
       <c r="C139" s="2">
         <v>45</v>
@@ -3579,13 +3579,13 @@
         <v>161</v>
       </c>
       <c r="E139" s="2">
-        <v>245607</v>
+        <v>245617</v>
       </c>
       <c r="F139" s="2">
         <v>775</v>
       </c>
       <c r="G139" s="4">
-        <v>0.055966628594</v>
+        <v>0.055963849438</v>
       </c>
     </row>
     <row r="140" spans="1:7">
@@ -3593,7 +3593,7 @@
         <v>44060</v>
       </c>
       <c r="B140" s="2">
-        <v>12880</v>
+        <v>12886</v>
       </c>
       <c r="C140" s="2">
         <v>213</v>
@@ -3602,13 +3602,13 @@
         <v>157.571428571428</v>
       </c>
       <c r="E140" s="2">
-        <v>249262</v>
+        <v>249272</v>
       </c>
       <c r="F140" s="2">
         <v>3655</v>
       </c>
       <c r="G140" s="4">
-        <v>0.055441065594</v>
+        <v>0.055438279051</v>
       </c>
     </row>
     <row r="141" spans="1:7">
@@ -3616,7 +3616,7 @@
         <v>44061</v>
       </c>
       <c r="B141" s="2">
-        <v>13048</v>
+        <v>13054</v>
       </c>
       <c r="C141" s="2">
         <v>168</v>
@@ -3625,7 +3625,7 @@
         <v>152.857142857142</v>
       </c>
       <c r="E141" s="2">
-        <v>252336</v>
+        <v>252346</v>
       </c>
       <c r="F141" s="2">
         <v>3074</v>
@@ -3639,7 +3639,7 @@
         <v>44062</v>
       </c>
       <c r="B142" s="2">
-        <v>13206</v>
+        <v>13212</v>
       </c>
       <c r="C142" s="2">
         <v>158</v>
@@ -3648,7 +3648,7 @@
         <v>146.857142857142</v>
       </c>
       <c r="E142" s="2">
-        <v>255392</v>
+        <v>255402</v>
       </c>
       <c r="F142" s="2">
         <v>3056</v>
@@ -3662,7 +3662,7 @@
         <v>44063</v>
       </c>
       <c r="B143" s="2">
-        <v>13338</v>
+        <v>13344</v>
       </c>
       <c r="C143" s="2">
         <v>132</v>
@@ -3671,7 +3671,7 @@
         <v>140.571428571428</v>
       </c>
       <c r="E143" s="2">
-        <v>258558</v>
+        <v>258568</v>
       </c>
       <c r="F143" s="2">
         <v>3166</v>
@@ -3685,7 +3685,7 @@
         <v>44064</v>
       </c>
       <c r="B144" s="2">
-        <v>13500</v>
+        <v>13506</v>
       </c>
       <c r="C144" s="2">
         <v>162</v>
@@ -3694,13 +3694,13 @@
         <v>138.714285714285</v>
       </c>
       <c r="E144" s="2">
-        <v>261596</v>
+        <v>261608</v>
       </c>
       <c r="F144" s="2">
-        <v>3038</v>
+        <v>3040</v>
       </c>
       <c r="G144" s="4">
-        <v>0.052987721691</v>
+        <v>0.052981939215</v>
       </c>
     </row>
     <row r="145" spans="1:7">
@@ -3708,7 +3708,7 @@
         <v>44065</v>
       </c>
       <c r="B145" s="2">
-        <v>13562</v>
+        <v>13568</v>
       </c>
       <c r="C145" s="2">
         <v>62</v>
@@ -3717,13 +3717,13 @@
         <v>134.285714285714</v>
       </c>
       <c r="E145" s="2">
-        <v>262925</v>
+        <v>262937</v>
       </c>
       <c r="F145" s="2">
         <v>1329</v>
       </c>
       <c r="G145" s="4">
-        <v>0.051953794285</v>
+        <v>0.051948051948</v>
       </c>
     </row>
     <row r="146" spans="1:7">
@@ -3731,22 +3731,22 @@
         <v>44066</v>
       </c>
       <c r="B146" s="2">
-        <v>13629</v>
+        <v>13636</v>
       </c>
       <c r="C146" s="2">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D146" s="3">
-        <v>137.428571428571</v>
+        <v>137.571428571428</v>
       </c>
       <c r="E146" s="2">
-        <v>263892</v>
+        <v>263905</v>
       </c>
       <c r="F146" s="2">
-        <v>967</v>
+        <v>968</v>
       </c>
       <c r="G146" s="4">
-        <v>0.052611430133</v>
+        <v>0.052657480314</v>
       </c>
     </row>
     <row r="147" spans="1:7">
@@ -3754,22 +3754,22 @@
         <v>44067</v>
       </c>
       <c r="B147" s="2">
-        <v>13779</v>
+        <v>13788</v>
       </c>
       <c r="C147" s="2">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="D147" s="3">
-        <v>128.428571428571</v>
+        <v>128.857142857142</v>
       </c>
       <c r="E147" s="2">
-        <v>266880</v>
+        <v>266895</v>
       </c>
       <c r="F147" s="2">
-        <v>2988</v>
+        <v>2990</v>
       </c>
       <c r="G147" s="4">
-        <v>0.051027358383</v>
+        <v>0.051183112977</v>
       </c>
     </row>
     <row r="148" spans="1:7">
@@ -3777,22 +3777,22 @@
         <v>44068</v>
       </c>
       <c r="B148" s="2">
-        <v>13914</v>
+        <v>13923</v>
       </c>
       <c r="C148" s="2">
         <v>135</v>
       </c>
       <c r="D148" s="3">
-        <v>123.714285714285</v>
+        <v>124.142857142857</v>
       </c>
       <c r="E148" s="2">
-        <v>269902</v>
+        <v>269917</v>
       </c>
       <c r="F148" s="2">
         <v>3022</v>
       </c>
       <c r="G148" s="4">
-        <v>0.049299783673</v>
+        <v>0.049456490808</v>
       </c>
     </row>
     <row r="149" spans="1:7">
@@ -3800,22 +3800,22 @@
         <v>44069</v>
       </c>
       <c r="B149" s="2">
-        <v>14049</v>
+        <v>14058</v>
       </c>
       <c r="C149" s="2">
         <v>135</v>
       </c>
       <c r="D149" s="3">
-        <v>120.428571428571</v>
+        <v>120.857142857142</v>
       </c>
       <c r="E149" s="2">
-        <v>272866</v>
+        <v>272882</v>
       </c>
       <c r="F149" s="2">
-        <v>2964</v>
+        <v>2965</v>
       </c>
       <c r="G149" s="4">
-        <v>0.04824310404</v>
+        <v>0.048398169336</v>
       </c>
     </row>
     <row r="150" spans="1:7">
@@ -3823,22 +3823,22 @@
         <v>44070</v>
       </c>
       <c r="B150" s="2">
-        <v>14219</v>
+        <v>14230</v>
       </c>
       <c r="C150" s="2">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="D150" s="3">
-        <v>125.857142857142</v>
+        <v>126.571428571428</v>
       </c>
       <c r="E150" s="2">
-        <v>276124</v>
+        <v>276142</v>
       </c>
       <c r="F150" s="2">
-        <v>3258</v>
+        <v>3260</v>
       </c>
       <c r="G150" s="4">
-        <v>0.050153706022</v>
+        <v>0.050415386366</v>
       </c>
     </row>
     <row r="151" spans="1:7">
@@ -3846,22 +3846,22 @@
         <v>44071</v>
       </c>
       <c r="B151" s="2">
-        <v>14335</v>
+        <v>14346</v>
       </c>
       <c r="C151" s="2">
         <v>116</v>
       </c>
       <c r="D151" s="3">
-        <v>119.285714285714</v>
+        <v>120</v>
       </c>
       <c r="E151" s="2">
-        <v>278907</v>
+        <v>278925</v>
       </c>
       <c r="F151" s="2">
         <v>2783</v>
       </c>
       <c r="G151" s="4">
-        <v>0.048235226156</v>
+        <v>0.048507247213</v>
       </c>
     </row>
     <row r="152" spans="1:7">
@@ -3869,22 +3869,22 @@
         <v>44072</v>
       </c>
       <c r="B152" s="2">
-        <v>14399</v>
+        <v>14410</v>
       </c>
       <c r="C152" s="2">
         <v>64</v>
       </c>
       <c r="D152" s="3">
-        <v>119.571428571428</v>
+        <v>120.285714285714</v>
       </c>
       <c r="E152" s="2">
-        <v>280348</v>
+        <v>280366</v>
       </c>
       <c r="F152" s="2">
         <v>1441</v>
       </c>
       <c r="G152" s="4">
-        <v>0.048039947196</v>
+        <v>0.048310287451</v>
       </c>
     </row>
     <row r="153" spans="1:7">
@@ -3892,22 +3892,22 @@
         <v>44073</v>
       </c>
       <c r="B153" s="2">
-        <v>14457</v>
+        <v>14468</v>
       </c>
       <c r="C153" s="2">
         <v>58</v>
       </c>
       <c r="D153" s="3">
-        <v>118.285714285714</v>
+        <v>118.857142857142</v>
       </c>
       <c r="E153" s="2">
-        <v>281431</v>
+        <v>281449</v>
       </c>
       <c r="F153" s="2">
         <v>1083</v>
       </c>
       <c r="G153" s="4">
-        <v>0.047209076914</v>
+        <v>0.047423620611</v>
       </c>
     </row>
     <row r="154" spans="1:7">
@@ -3915,22 +3915,22 @@
         <v>44074</v>
       </c>
       <c r="B154" s="2">
-        <v>14595</v>
+        <v>14608</v>
       </c>
       <c r="C154" s="2">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="D154" s="3">
-        <v>116.571428571428</v>
+        <v>117.142857142857</v>
       </c>
       <c r="E154" s="2">
-        <v>284566</v>
+        <v>284592</v>
       </c>
       <c r="F154" s="2">
-        <v>3135</v>
+        <v>3143</v>
       </c>
       <c r="G154" s="4">
-        <v>0.046138188397</v>
+        <v>0.046335537096</v>
       </c>
     </row>
     <row r="155" spans="1:7">
@@ -3938,22 +3938,22 @@
         <v>44075</v>
       </c>
       <c r="B155" s="2">
-        <v>14727</v>
+        <v>14740</v>
       </c>
       <c r="C155" s="2">
         <v>132</v>
       </c>
       <c r="D155" s="3">
-        <v>116.142857142857</v>
+        <v>116.714285714285</v>
       </c>
       <c r="E155" s="2">
-        <v>287833</v>
+        <v>287870</v>
       </c>
       <c r="F155" s="2">
-        <v>3267</v>
+        <v>3278</v>
       </c>
       <c r="G155" s="4">
-        <v>0.045340471808</v>
+        <v>0.045507714588</v>
       </c>
     </row>
     <row r="156" spans="1:7">
@@ -3961,22 +3961,22 @@
         <v>44076</v>
       </c>
       <c r="B156" s="2">
-        <v>14842</v>
+        <v>14855</v>
       </c>
       <c r="C156" s="2">
         <v>115</v>
       </c>
       <c r="D156" s="3">
-        <v>113.285714285714</v>
+        <v>113.857142857142</v>
       </c>
       <c r="E156" s="2">
-        <v>290800</v>
+        <v>290851</v>
       </c>
       <c r="F156" s="2">
-        <v>2967</v>
+        <v>2981</v>
       </c>
       <c r="G156" s="4">
-        <v>0.044217687074</v>
+        <v>0.044354165507</v>
       </c>
     </row>
     <row r="157" spans="1:7">
@@ -3984,22 +3984,22 @@
         <v>44077</v>
       </c>
       <c r="B157" s="2">
-        <v>14937</v>
+        <v>14950</v>
       </c>
       <c r="C157" s="2">
         <v>95</v>
       </c>
       <c r="D157" s="3">
-        <v>102.571428571428</v>
+        <v>102.857142857142</v>
       </c>
       <c r="E157" s="2">
-        <v>293730</v>
+        <v>293794</v>
       </c>
       <c r="F157" s="2">
-        <v>2930</v>
+        <v>2943</v>
       </c>
       <c r="G157" s="4">
-        <v>0.040781551743</v>
+        <v>0.040788579197</v>
       </c>
     </row>
     <row r="158" spans="1:7">
@@ -4007,22 +4007,22 @@
         <v>44078</v>
       </c>
       <c r="B158" s="2">
-        <v>15059</v>
+        <v>15072</v>
       </c>
       <c r="C158" s="2">
         <v>122</v>
       </c>
       <c r="D158" s="3">
-        <v>103.428571428571</v>
+        <v>103.714285714285</v>
       </c>
       <c r="E158" s="2">
-        <v>296534</v>
+        <v>296617</v>
       </c>
       <c r="F158" s="2">
-        <v>2804</v>
+        <v>2823</v>
       </c>
       <c r="G158" s="4">
-        <v>0.041073353378</v>
+        <v>0.041035496269</v>
       </c>
     </row>
     <row r="159" spans="1:7">
@@ -4030,22 +4030,22 @@
         <v>44079</v>
       </c>
       <c r="B159" s="2">
-        <v>15125</v>
+        <v>15138</v>
       </c>
       <c r="C159" s="2">
         <v>66</v>
       </c>
       <c r="D159" s="3">
-        <v>103.714285714285</v>
+        <v>104</v>
       </c>
       <c r="E159" s="2">
-        <v>297870</v>
+        <v>297955</v>
       </c>
       <c r="F159" s="2">
-        <v>1336</v>
+        <v>1338</v>
       </c>
       <c r="G159" s="4">
-        <v>0.041433626298</v>
+        <v>0.041389504804</v>
       </c>
     </row>
     <row r="160" spans="1:7">
@@ -4053,22 +4053,22 @@
         <v>44080</v>
       </c>
       <c r="B160" s="2">
-        <v>15178</v>
+        <v>15191</v>
       </c>
       <c r="C160" s="2">
         <v>53</v>
       </c>
       <c r="D160" s="3">
-        <v>103</v>
+        <v>103.285714285714</v>
       </c>
       <c r="E160" s="2">
-        <v>298953</v>
+        <v>299040</v>
       </c>
       <c r="F160" s="2">
-        <v>1083</v>
+        <v>1085</v>
       </c>
       <c r="G160" s="4">
-        <v>0.041148270745</v>
+        <v>0.041100562787</v>
       </c>
     </row>
     <row r="161" spans="1:7">
@@ -4076,7 +4076,7 @@
         <v>44081</v>
       </c>
       <c r="B161" s="2">
-        <v>15246</v>
+        <v>15259</v>
       </c>
       <c r="C161" s="2">
         <v>68</v>
@@ -4085,13 +4085,13 @@
         <v>93</v>
       </c>
       <c r="E161" s="2">
-        <v>300203</v>
+        <v>300296</v>
       </c>
       <c r="F161" s="2">
-        <v>1250</v>
+        <v>1256</v>
       </c>
       <c r="G161" s="4">
-        <v>0.041632026603</v>
+        <v>0.04145440652</v>
       </c>
     </row>
     <row r="162" spans="1:7">
@@ -4099,7 +4099,7 @@
         <v>44082</v>
       </c>
       <c r="B162" s="2">
-        <v>15389</v>
+        <v>15402</v>
       </c>
       <c r="C162" s="2">
         <v>143</v>
@@ -4108,13 +4108,13 @@
         <v>94.571428571428</v>
       </c>
       <c r="E162" s="2">
-        <v>304481</v>
+        <v>304603</v>
       </c>
       <c r="F162" s="2">
-        <v>4278</v>
+        <v>4307</v>
       </c>
       <c r="G162" s="4">
-        <v>0.03976453628</v>
+        <v>0.039562541086</v>
       </c>
     </row>
     <row r="163" spans="1:7">
@@ -4122,7 +4122,7 @@
         <v>44083</v>
       </c>
       <c r="B163" s="2">
-        <v>15539</v>
+        <v>15552</v>
       </c>
       <c r="C163" s="2">
         <v>150</v>
@@ -4131,13 +4131,13 @@
         <v>99.571428571428</v>
       </c>
       <c r="E163" s="2">
-        <v>307985</v>
+        <v>308126</v>
       </c>
       <c r="F163" s="2">
-        <v>3504</v>
+        <v>3523</v>
       </c>
       <c r="G163" s="4">
-        <v>0.040558626709</v>
+        <v>0.04034732272</v>
       </c>
     </row>
     <row r="164" spans="1:7">
@@ -4145,7 +4145,7 @@
         <v>44084</v>
       </c>
       <c r="B164" s="2">
-        <v>15642</v>
+        <v>15655</v>
       </c>
       <c r="C164" s="2">
         <v>103</v>
@@ -4154,13 +4154,13 @@
         <v>100.714285714285</v>
       </c>
       <c r="E164" s="2">
-        <v>311256</v>
+        <v>311415</v>
       </c>
       <c r="F164" s="2">
-        <v>3271</v>
+        <v>3289</v>
       </c>
       <c r="G164" s="4">
-        <v>0.040225950017</v>
+        <v>0.040009080074</v>
       </c>
     </row>
     <row r="165" spans="1:7">
@@ -4168,7 +4168,7 @@
         <v>44085</v>
       </c>
       <c r="B165" s="2">
-        <v>15714</v>
+        <v>15727</v>
       </c>
       <c r="C165" s="2">
         <v>72</v>
@@ -4177,13 +4177,13 @@
         <v>93.571428571428</v>
       </c>
       <c r="E165" s="2">
-        <v>313741</v>
+        <v>313918</v>
       </c>
       <c r="F165" s="2">
-        <v>2485</v>
+        <v>2503</v>
       </c>
       <c r="G165" s="4">
-        <v>0.038065903411</v>
+        <v>0.037859083289</v>
       </c>
     </row>
     <row r="166" spans="1:7">
@@ -4191,7 +4191,7 @@
         <v>44086</v>
       </c>
       <c r="B166" s="2">
-        <v>15762</v>
+        <v>15775</v>
       </c>
       <c r="C166" s="2">
         <v>48</v>
@@ -4200,13 +4200,13 @@
         <v>91</v>
       </c>
       <c r="E166" s="2">
-        <v>315132</v>
+        <v>315316</v>
       </c>
       <c r="F166" s="2">
-        <v>1391</v>
+        <v>1398</v>
       </c>
       <c r="G166" s="4">
-        <v>0.036901865369</v>
+        <v>0.036691434825</v>
       </c>
     </row>
     <row r="167" spans="1:7">
@@ -4214,22 +4214,22 @@
         <v>44087</v>
       </c>
       <c r="B167" s="2">
-        <v>15794</v>
+        <v>15808</v>
       </c>
       <c r="C167" s="2">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D167" s="3">
-        <v>88</v>
+        <v>88.142857142857</v>
       </c>
       <c r="E167" s="2">
-        <v>315974</v>
+        <v>316164</v>
       </c>
       <c r="F167" s="2">
-        <v>842</v>
+        <v>848</v>
       </c>
       <c r="G167" s="4">
-        <v>0.036190588097</v>
+        <v>0.036031301097</v>
       </c>
     </row>
     <row r="168" spans="1:7">
@@ -4237,22 +4237,22 @@
         <v>44088</v>
       </c>
       <c r="B168" s="2">
-        <v>15895</v>
+        <v>15909</v>
       </c>
       <c r="C168" s="2">
         <v>101</v>
       </c>
       <c r="D168" s="3">
-        <v>92.714285714285</v>
+        <v>92.85714285714199</v>
       </c>
       <c r="E168" s="2">
-        <v>319350</v>
+        <v>319567</v>
       </c>
       <c r="F168" s="2">
-        <v>3376</v>
+        <v>3403</v>
       </c>
       <c r="G168" s="4">
-        <v>0.033895649448</v>
+        <v>0.033729438015</v>
       </c>
     </row>
     <row r="169" spans="1:7">
@@ -4260,22 +4260,22 @@
         <v>44089</v>
       </c>
       <c r="B169" s="2">
-        <v>16025</v>
+        <v>16040</v>
       </c>
       <c r="C169" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D169" s="3">
-        <v>90.85714285714199</v>
+        <v>91.142857142857</v>
       </c>
       <c r="E169" s="2">
-        <v>323298</v>
+        <v>323553</v>
       </c>
       <c r="F169" s="2">
-        <v>3948</v>
+        <v>3986</v>
       </c>
       <c r="G169" s="4">
-        <v>0.033799224105</v>
+        <v>0.033667546174</v>
       </c>
     </row>
     <row r="170" spans="1:7">
@@ -4283,22 +4283,22 @@
         <v>44090</v>
       </c>
       <c r="B170" s="2">
-        <v>16111</v>
+        <v>16126</v>
       </c>
       <c r="C170" s="2">
         <v>86</v>
       </c>
       <c r="D170" s="3">
-        <v>81.714285714285</v>
+        <v>82</v>
       </c>
       <c r="E170" s="2">
-        <v>326580</v>
+        <v>326861</v>
       </c>
       <c r="F170" s="2">
-        <v>3282</v>
+        <v>3308</v>
       </c>
       <c r="G170" s="4">
-        <v>0.030760957246</v>
+        <v>0.030637843608</v>
       </c>
     </row>
     <row r="171" spans="1:7">
@@ -4306,22 +4306,22 @@
         <v>44091</v>
       </c>
       <c r="B171" s="2">
-        <v>16215</v>
+        <v>16230</v>
       </c>
       <c r="C171" s="2">
         <v>104</v>
       </c>
       <c r="D171" s="3">
-        <v>81.85714285714199</v>
+        <v>82.142857142857</v>
       </c>
       <c r="E171" s="2">
-        <v>330183</v>
+        <v>330479</v>
       </c>
       <c r="F171" s="2">
-        <v>3603</v>
+        <v>3618</v>
       </c>
       <c r="G171" s="4">
-        <v>0.030274211443</v>
+        <v>0.030161561057</v>
       </c>
     </row>
     <row r="172" spans="1:7">
@@ -4329,22 +4329,22 @@
         <v>44092</v>
       </c>
       <c r="B172" s="2">
-        <v>16319</v>
+        <v>16334</v>
       </c>
       <c r="C172" s="2">
         <v>104</v>
       </c>
       <c r="D172" s="3">
-        <v>86.428571428571</v>
+        <v>86.714285714285</v>
       </c>
       <c r="E172" s="2">
-        <v>333451</v>
+        <v>333754</v>
       </c>
       <c r="F172" s="2">
-        <v>3268</v>
+        <v>3275</v>
       </c>
       <c r="G172" s="4">
-        <v>0.03069507864</v>
+        <v>0.030600927606</v>
       </c>
     </row>
     <row r="173" spans="1:7">
@@ -4352,22 +4352,22 @@
         <v>44093</v>
       </c>
       <c r="B173" s="2">
-        <v>16391</v>
+        <v>16406</v>
       </c>
       <c r="C173" s="2">
         <v>72</v>
       </c>
       <c r="D173" s="3">
-        <v>89.85714285714199</v>
+        <v>90.142857142857</v>
       </c>
       <c r="E173" s="2">
-        <v>334968</v>
+        <v>335273</v>
       </c>
       <c r="F173" s="2">
-        <v>1517</v>
+        <v>1519</v>
       </c>
       <c r="G173" s="4">
-        <v>0.031710022181</v>
+        <v>0.031617978654</v>
       </c>
     </row>
     <row r="174" spans="1:7">
@@ -4375,22 +4375,22 @@
         <v>44094</v>
       </c>
       <c r="B174" s="2">
-        <v>16433</v>
+        <v>16448</v>
       </c>
       <c r="C174" s="2">
         <v>42</v>
       </c>
       <c r="D174" s="3">
-        <v>91.28571428571399</v>
+        <v>91.428571428571</v>
       </c>
       <c r="E174" s="2">
-        <v>336119</v>
+        <v>336429</v>
       </c>
       <c r="F174" s="2">
-        <v>1151</v>
+        <v>1156</v>
       </c>
       <c r="G174" s="4">
-        <v>0.031720029784</v>
+        <v>0.031581544534</v>
       </c>
     </row>
     <row r="175" spans="1:7">
@@ -4398,22 +4398,22 @@
         <v>44095</v>
       </c>
       <c r="B175" s="2">
-        <v>16576</v>
+        <v>16591</v>
       </c>
       <c r="C175" s="2">
         <v>143</v>
       </c>
       <c r="D175" s="3">
-        <v>97.28571428571399</v>
+        <v>97.428571428571</v>
       </c>
       <c r="E175" s="2">
-        <v>340465</v>
+        <v>340805</v>
       </c>
       <c r="F175" s="2">
-        <v>4346</v>
+        <v>4376</v>
       </c>
       <c r="G175" s="4">
-        <v>0.032251953587</v>
+        <v>0.032112251624</v>
       </c>
     </row>
     <row r="176" spans="1:7">
@@ -4421,7 +4421,7 @@
         <v>44096</v>
       </c>
       <c r="B176" s="2">
-        <v>16674</v>
+        <v>16689</v>
       </c>
       <c r="C176" s="2">
         <v>98</v>
@@ -4430,13 +4430,13 @@
         <v>92.714285714285</v>
       </c>
       <c r="E176" s="2">
-        <v>344225</v>
+        <v>344595</v>
       </c>
       <c r="F176" s="2">
-        <v>3760</v>
+        <v>3790</v>
       </c>
       <c r="G176" s="4">
-        <v>0.031012567496</v>
+        <v>0.030843075753</v>
       </c>
     </row>
     <row r="177" spans="1:7">
@@ -4444,7 +4444,7 @@
         <v>44097</v>
       </c>
       <c r="B177" s="2">
-        <v>16768</v>
+        <v>16783</v>
       </c>
       <c r="C177" s="2">
         <v>94</v>
@@ -4453,13 +4453,13 @@
         <v>93.85714285714199</v>
       </c>
       <c r="E177" s="2">
-        <v>347703</v>
+        <v>348098</v>
       </c>
       <c r="F177" s="2">
-        <v>3478</v>
+        <v>3503</v>
       </c>
       <c r="G177" s="4">
-        <v>0.031103536429</v>
+        <v>0.030936572962</v>
       </c>
     </row>
     <row r="178" spans="1:7">
@@ -4467,7 +4467,7 @@
         <v>44098</v>
       </c>
       <c r="B178" s="2">
-        <v>16859</v>
+        <v>16874</v>
       </c>
       <c r="C178" s="2">
         <v>91</v>
@@ -4476,13 +4476,13 @@
         <v>92</v>
       </c>
       <c r="E178" s="2">
-        <v>351413</v>
+        <v>351828</v>
       </c>
       <c r="F178" s="2">
-        <v>3710</v>
+        <v>3730</v>
       </c>
       <c r="G178" s="4">
-        <v>0.030334432406</v>
+        <v>0.030165347323</v>
       </c>
     </row>
     <row r="179" spans="1:7">
@@ -4490,7 +4490,7 @@
         <v>44099</v>
       </c>
       <c r="B179" s="2">
-        <v>16948</v>
+        <v>16963</v>
       </c>
       <c r="C179" s="2">
         <v>89</v>
@@ -4499,13 +4499,13 @@
         <v>89.85714285714199</v>
       </c>
       <c r="E179" s="2">
-        <v>354696</v>
+        <v>355125</v>
       </c>
       <c r="F179" s="2">
-        <v>3283</v>
+        <v>3297</v>
       </c>
       <c r="G179" s="4">
-        <v>0.029606966345</v>
+        <v>0.029432408403</v>
       </c>
     </row>
     <row r="180" spans="1:7">
@@ -4513,7 +4513,7 @@
         <v>44100</v>
       </c>
       <c r="B180" s="2">
-        <v>17007</v>
+        <v>17022</v>
       </c>
       <c r="C180" s="2">
         <v>59</v>
@@ -4522,13 +4522,13 @@
         <v>88</v>
       </c>
       <c r="E180" s="2">
-        <v>356560</v>
+        <v>356998</v>
       </c>
       <c r="F180" s="2">
-        <v>1864</v>
+        <v>1873</v>
       </c>
       <c r="G180" s="4">
-        <v>0.028529084846</v>
+        <v>0.028354430379</v>
       </c>
     </row>
     <row r="181" spans="1:7">
@@ -4536,7 +4536,7 @@
         <v>44101</v>
       </c>
       <c r="B181" s="2">
-        <v>17030</v>
+        <v>17045</v>
       </c>
       <c r="C181" s="2">
         <v>23</v>
@@ -4545,13 +4545,13 @@
         <v>85.28571428571399</v>
       </c>
       <c r="E181" s="2">
-        <v>357682</v>
+        <v>358127</v>
       </c>
       <c r="F181" s="2">
-        <v>1122</v>
+        <v>1129</v>
       </c>
       <c r="G181" s="4">
-        <v>0.02768631452</v>
+        <v>0.027514056595</v>
       </c>
     </row>
     <row r="182" spans="1:7">
@@ -4559,7 +4559,7 @@
         <v>44102</v>
       </c>
       <c r="B182" s="2">
-        <v>17143</v>
+        <v>17158</v>
       </c>
       <c r="C182" s="2">
         <v>113</v>
@@ -4568,13 +4568,13 @@
         <v>81</v>
       </c>
       <c r="E182" s="2">
-        <v>361742</v>
+        <v>362225</v>
       </c>
       <c r="F182" s="2">
-        <v>4060</v>
+        <v>4098</v>
       </c>
       <c r="G182" s="4">
-        <v>0.026648493678</v>
+        <v>0.026470588235</v>
       </c>
     </row>
     <row r="183" spans="1:7">
@@ -4582,7 +4582,7 @@
         <v>44103</v>
       </c>
       <c r="B183" s="2">
-        <v>17218</v>
+        <v>17233</v>
       </c>
       <c r="C183" s="2">
         <v>75</v>
@@ -4591,13 +4591,13 @@
         <v>77.714285714285</v>
       </c>
       <c r="E183" s="2">
-        <v>365557</v>
+        <v>366059</v>
       </c>
       <c r="F183" s="2">
-        <v>3815</v>
+        <v>3834</v>
       </c>
       <c r="G183" s="4">
-        <v>0.025501593849</v>
+        <v>0.025344763324</v>
       </c>
     </row>
     <row r="184" spans="1:7">
@@ -4605,7 +4605,7 @@
         <v>44104</v>
       </c>
       <c r="B184" s="2">
-        <v>17278</v>
+        <v>17293</v>
       </c>
       <c r="C184" s="2">
         <v>60</v>
@@ -4614,13 +4614,13 @@
         <v>72.85714285714199</v>
       </c>
       <c r="E184" s="2">
-        <v>369097</v>
+        <v>369618</v>
       </c>
       <c r="F184" s="2">
-        <v>3540</v>
+        <v>3559</v>
       </c>
       <c r="G184" s="4">
-        <v>0.023838459381</v>
+        <v>0.023698884758</v>
       </c>
     </row>
     <row r="185" spans="1:7">
@@ -4628,7 +4628,7 @@
         <v>44105</v>
       </c>
       <c r="B185" s="2">
-        <v>17343</v>
+        <v>17358</v>
       </c>
       <c r="C185" s="2">
         <v>65</v>
@@ -4637,13 +4637,13 @@
         <v>69.142857142857</v>
       </c>
       <c r="E185" s="2">
-        <v>372604</v>
+        <v>373143</v>
       </c>
       <c r="F185" s="2">
-        <v>3507</v>
+        <v>3525</v>
       </c>
       <c r="G185" s="4">
-        <v>0.022839884856</v>
+        <v>0.02270701384</v>
       </c>
     </row>
     <row r="186" spans="1:7">
@@ -4651,7 +4651,7 @@
         <v>44106</v>
       </c>
       <c r="B186" s="2">
-        <v>17421</v>
+        <v>17436</v>
       </c>
       <c r="C186" s="2">
         <v>78</v>
@@ -4660,13 +4660,13 @@
         <v>67.571428571428</v>
       </c>
       <c r="E186" s="2">
-        <v>376135</v>
+        <v>376687</v>
       </c>
       <c r="F186" s="2">
-        <v>3531</v>
+        <v>3544</v>
       </c>
       <c r="G186" s="4">
-        <v>0.022062596203</v>
+        <v>0.021936740562</v>
       </c>
     </row>
     <row r="187" spans="1:7">
@@ -4674,7 +4674,7 @@
         <v>44107</v>
       </c>
       <c r="B187" s="2">
-        <v>17464</v>
+        <v>17479</v>
       </c>
       <c r="C187" s="2">
         <v>43</v>
@@ -4683,13 +4683,13 @@
         <v>65.28571428571399</v>
       </c>
       <c r="E187" s="2">
-        <v>378124</v>
+        <v>378683</v>
       </c>
       <c r="F187" s="2">
-        <v>1989</v>
+        <v>1996</v>
       </c>
       <c r="G187" s="4">
-        <v>0.021192728621</v>
+        <v>0.021074475443</v>
       </c>
     </row>
     <row r="188" spans="1:7">
@@ -4697,7 +4697,7 @@
         <v>44108</v>
       </c>
       <c r="B188" s="2">
-        <v>17501</v>
+        <v>17516</v>
       </c>
       <c r="C188" s="2">
         <v>37</v>
@@ -4706,13 +4706,13 @@
         <v>67.28571428571399</v>
       </c>
       <c r="E188" s="2">
-        <v>379503</v>
+        <v>380068</v>
       </c>
       <c r="F188" s="2">
-        <v>1379</v>
+        <v>1385</v>
       </c>
       <c r="G188" s="4">
-        <v>0.021584711974</v>
+        <v>0.021466660589</v>
       </c>
     </row>
     <row r="189" spans="1:7">
@@ -4720,7 +4720,7 @@
         <v>44109</v>
       </c>
       <c r="B189" s="2">
-        <v>17578</v>
+        <v>17593</v>
       </c>
       <c r="C189" s="2">
         <v>77</v>
@@ -4729,13 +4729,13 @@
         <v>62.142857142857</v>
       </c>
       <c r="E189" s="2">
-        <v>384298</v>
+        <v>384885</v>
       </c>
       <c r="F189" s="2">
-        <v>4795</v>
+        <v>4817</v>
       </c>
       <c r="G189" s="4">
-        <v>0.019285334279</v>
+        <v>0.019196822594</v>
       </c>
     </row>
     <row r="190" spans="1:7">
@@ -4743,22 +4743,22 @@
         <v>44110</v>
       </c>
       <c r="B190" s="2">
-        <v>17640</v>
+        <v>17656</v>
       </c>
       <c r="C190" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D190" s="3">
-        <v>60.28571428571399</v>
+        <v>60.428571428571</v>
       </c>
       <c r="E190" s="2">
-        <v>388938</v>
+        <v>389545</v>
       </c>
       <c r="F190" s="2">
-        <v>4640</v>
+        <v>4660</v>
       </c>
       <c r="G190" s="4">
-        <v>0.018048843077</v>
+        <v>0.018010729796</v>
       </c>
     </row>
     <row r="191" spans="1:7">
@@ -4766,22 +4766,22 @@
         <v>44111</v>
       </c>
       <c r="B191" s="2">
-        <v>17712</v>
+        <v>17730</v>
       </c>
       <c r="C191" s="2">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D191" s="3">
-        <v>62</v>
+        <v>62.428571428571</v>
       </c>
       <c r="E191" s="2">
-        <v>393086</v>
+        <v>393718</v>
       </c>
       <c r="F191" s="2">
-        <v>4148</v>
+        <v>4173</v>
       </c>
       <c r="G191" s="4">
-        <v>0.018091625328</v>
+        <v>0.018132780082</v>
       </c>
     </row>
     <row r="192" spans="1:7">
@@ -4789,22 +4789,22 @@
         <v>44112</v>
       </c>
       <c r="B192" s="2">
-        <v>17807</v>
+        <v>17825</v>
       </c>
       <c r="C192" s="2">
         <v>95</v>
       </c>
       <c r="D192" s="3">
-        <v>66.28571428571399</v>
+        <v>66.714285714285</v>
       </c>
       <c r="E192" s="2">
-        <v>397292</v>
+        <v>397945</v>
       </c>
       <c r="F192" s="2">
-        <v>4206</v>
+        <v>4227</v>
       </c>
       <c r="G192" s="4">
-        <v>0.018794556059</v>
+        <v>0.018829126683</v>
       </c>
     </row>
     <row r="193" spans="1:7">
@@ -4812,22 +4812,22 @@
         <v>44113</v>
       </c>
       <c r="B193" s="2">
-        <v>17865</v>
+        <v>17883</v>
       </c>
       <c r="C193" s="2">
         <v>58</v>
       </c>
       <c r="D193" s="3">
-        <v>63.428571428571</v>
+        <v>63.857142857142</v>
       </c>
       <c r="E193" s="2">
-        <v>401023</v>
+        <v>401695</v>
       </c>
       <c r="F193" s="2">
-        <v>3731</v>
+        <v>3750</v>
       </c>
       <c r="G193" s="4">
-        <v>0.017839922854</v>
+        <v>0.01787428023</v>
       </c>
     </row>
     <row r="194" spans="1:7">
@@ -4835,22 +4835,22 @@
         <v>44114</v>
       </c>
       <c r="B194" s="2">
-        <v>17899</v>
+        <v>17922</v>
       </c>
       <c r="C194" s="2">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="D194" s="3">
-        <v>62.142857142857</v>
+        <v>63.28571428571399</v>
       </c>
       <c r="E194" s="2">
-        <v>402767</v>
+        <v>403447</v>
       </c>
       <c r="F194" s="2">
-        <v>1744</v>
+        <v>1752</v>
       </c>
       <c r="G194" s="4">
-        <v>0.017652071582</v>
+        <v>0.017888870941</v>
       </c>
     </row>
     <row r="195" spans="1:7">
@@ -4858,22 +4858,22 @@
         <v>44115</v>
       </c>
       <c r="B195" s="2">
-        <v>17920</v>
+        <v>17945</v>
       </c>
       <c r="C195" s="2">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D195" s="3">
-        <v>59.857142857142</v>
+        <v>61.28571428571399</v>
       </c>
       <c r="E195" s="2">
-        <v>404038</v>
+        <v>404726</v>
       </c>
       <c r="F195" s="2">
-        <v>1271</v>
+        <v>1279</v>
       </c>
       <c r="G195" s="4">
-        <v>0.017077644181</v>
+        <v>0.017398004704</v>
       </c>
     </row>
     <row r="196" spans="1:7">
@@ -4881,22 +4881,45 @@
         <v>44116</v>
       </c>
       <c r="B196" s="2">
-        <v>18009</v>
+        <v>18037</v>
       </c>
       <c r="C196" s="2">
+        <v>92</v>
+      </c>
+      <c r="D196" s="3">
+        <v>63.428571428571</v>
+      </c>
+      <c r="E196" s="2">
+        <v>409201</v>
+      </c>
+      <c r="F196" s="2">
+        <v>4475</v>
+      </c>
+      <c r="G196" s="4">
+        <v>0.018259582168</v>
+      </c>
+    </row>
+    <row r="197" spans="1:7">
+      <c r="A197" s="1">
+        <v>44117</v>
+      </c>
+      <c r="B197" s="2">
+        <v>18126</v>
+      </c>
+      <c r="C197" s="2">
         <v>89</v>
       </c>
-      <c r="D196" s="3">
-        <v>61.57142857142801</v>
-      </c>
-      <c r="E196" s="2">
-        <v>408483</v>
-      </c>
-      <c r="F196" s="2">
-        <v>4445</v>
-      </c>
-      <c r="G196" s="4">
-        <v>0.017820963407</v>
+      <c r="D197" s="3">
+        <v>67.142857142857</v>
+      </c>
+      <c r="E197" s="2">
+        <v>413670</v>
+      </c>
+      <c r="F197" s="2">
+        <v>4469</v>
+      </c>
+      <c r="G197" s="4">
+        <v>0.019481865284</v>
       </c>
     </row>
   </sheetData>

--- a/contra_costa_county_testing.xlsx
+++ b/contra_costa_county_testing.xlsx
@@ -376,7 +376,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G197"/>
+  <dimension ref="A1:G198"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1647,13 +1647,13 @@
         <v>27.571428571428</v>
       </c>
       <c r="E55" s="2">
-        <v>36407</v>
+        <v>36406</v>
       </c>
       <c r="F55" s="2">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="G55" s="4">
-        <v>0.026452850877</v>
+        <v>0.026456477039</v>
       </c>
     </row>
     <row r="56" spans="1:7">
@@ -1670,13 +1670,13 @@
         <v>23.285714285714</v>
       </c>
       <c r="E56" s="2">
-        <v>36869</v>
+        <v>36868</v>
       </c>
       <c r="F56" s="2">
         <v>462</v>
       </c>
       <c r="G56" s="4">
-        <v>0.025496636946</v>
+        <v>0.025500625782</v>
       </c>
     </row>
     <row r="57" spans="1:7">
@@ -1693,13 +1693,13 @@
         <v>23.714285714285</v>
       </c>
       <c r="E57" s="2">
-        <v>38066</v>
+        <v>38065</v>
       </c>
       <c r="F57" s="2">
         <v>1197</v>
       </c>
       <c r="G57" s="4">
-        <v>0.027988534817</v>
+        <v>0.027993254637</v>
       </c>
     </row>
     <row r="58" spans="1:7">
@@ -1716,13 +1716,13 @@
         <v>23.714285714285</v>
       </c>
       <c r="E58" s="2">
-        <v>39177</v>
+        <v>39176</v>
       </c>
       <c r="F58" s="2">
         <v>1111</v>
       </c>
       <c r="G58" s="4">
-        <v>0.028130825283</v>
+        <v>0.02813559322</v>
       </c>
     </row>
     <row r="59" spans="1:7">
@@ -1739,13 +1739,13 @@
         <v>26.285714285714</v>
       </c>
       <c r="E59" s="2">
-        <v>40313</v>
+        <v>40312</v>
       </c>
       <c r="F59" s="2">
         <v>1136</v>
       </c>
       <c r="G59" s="4">
-        <v>0.031154757873</v>
+        <v>0.031160033869</v>
       </c>
     </row>
     <row r="60" spans="1:7">
@@ -1762,13 +1762,13 @@
         <v>26.428571428571</v>
       </c>
       <c r="E60" s="2">
-        <v>41715</v>
+        <v>41714</v>
       </c>
       <c r="F60" s="2">
         <v>1402</v>
       </c>
       <c r="G60" s="4">
-        <v>0.029747547837</v>
+        <v>0.029752331939</v>
       </c>
     </row>
     <row r="61" spans="1:7">
@@ -1785,13 +1785,13 @@
         <v>26.142857142857</v>
       </c>
       <c r="E61" s="2">
-        <v>42449</v>
+        <v>42448</v>
       </c>
       <c r="F61" s="2">
         <v>734</v>
       </c>
       <c r="G61" s="4">
-        <v>0.02844264843</v>
+        <v>0.028447069796</v>
       </c>
     </row>
     <row r="62" spans="1:7">
@@ -1808,7 +1808,7 @@
         <v>25.857142857142</v>
       </c>
       <c r="E62" s="2">
-        <v>42847</v>
+        <v>42846</v>
       </c>
       <c r="F62" s="2">
         <v>398</v>
@@ -1831,13 +1831,13 @@
         <v>29.142857142857</v>
       </c>
       <c r="E63" s="2">
-        <v>44223</v>
+        <v>44221</v>
       </c>
       <c r="F63" s="2">
-        <v>1376</v>
+        <v>1375</v>
       </c>
       <c r="G63" s="4">
-        <v>0.027740005439</v>
+        <v>0.027743778049</v>
       </c>
     </row>
     <row r="64" spans="1:7">
@@ -1854,13 +1854,13 @@
         <v>28.142857142857</v>
       </c>
       <c r="E64" s="2">
-        <v>45440</v>
+        <v>45438</v>
       </c>
       <c r="F64" s="2">
         <v>1217</v>
       </c>
       <c r="G64" s="4">
-        <v>0.026715486845</v>
+        <v>0.026719110267</v>
       </c>
     </row>
     <row r="65" spans="1:7">
@@ -1877,13 +1877,13 @@
         <v>27.714285714285</v>
       </c>
       <c r="E65" s="2">
-        <v>46604</v>
+        <v>46602</v>
       </c>
       <c r="F65" s="2">
         <v>1164</v>
       </c>
       <c r="G65" s="4">
-        <v>0.026120910192</v>
+        <v>0.026124427686</v>
       </c>
     </row>
     <row r="66" spans="1:7">
@@ -1900,13 +1900,13 @@
         <v>28.428571428571</v>
       </c>
       <c r="E66" s="2">
-        <v>47956</v>
+        <v>47954</v>
       </c>
       <c r="F66" s="2">
         <v>1352</v>
       </c>
       <c r="G66" s="4">
-        <v>0.026036896506</v>
+        <v>0.026040303585</v>
       </c>
     </row>
     <row r="67" spans="1:7">
@@ -1923,13 +1923,13 @@
         <v>29.285714285714</v>
       </c>
       <c r="E67" s="2">
-        <v>49586</v>
+        <v>49584</v>
       </c>
       <c r="F67" s="2">
         <v>1630</v>
       </c>
       <c r="G67" s="4">
-        <v>0.026044975225</v>
+        <v>0.026048284625</v>
       </c>
     </row>
     <row r="68" spans="1:7">
@@ -1946,13 +1946,13 @@
         <v>30.571428571428</v>
       </c>
       <c r="E68" s="2">
-        <v>50191</v>
+        <v>50189</v>
       </c>
       <c r="F68" s="2">
         <v>605</v>
       </c>
       <c r="G68" s="4">
-        <v>0.027641436321</v>
+        <v>0.027645007105</v>
       </c>
     </row>
     <row r="69" spans="1:7">
@@ -1969,13 +1969,13 @@
         <v>32.428571428571</v>
       </c>
       <c r="E69" s="2">
-        <v>50676</v>
+        <v>50674</v>
       </c>
       <c r="F69" s="2">
         <v>485</v>
       </c>
       <c r="G69" s="4">
-        <v>0.02899476306</v>
+        <v>0.028998467041</v>
       </c>
     </row>
     <row r="70" spans="1:7">
@@ -1992,7 +1992,7 @@
         <v>34.714285714285</v>
       </c>
       <c r="E70" s="2">
-        <v>52513</v>
+        <v>52511</v>
       </c>
       <c r="F70" s="2">
         <v>1837</v>
@@ -2015,13 +2015,13 @@
         <v>36.428571428571</v>
       </c>
       <c r="E71" s="2">
-        <v>54361</v>
+        <v>54358</v>
       </c>
       <c r="F71" s="2">
-        <v>1848</v>
+        <v>1847</v>
       </c>
       <c r="G71" s="4">
-        <v>0.028584239435</v>
+        <v>0.028587443946</v>
       </c>
     </row>
     <row r="72" spans="1:7">
@@ -2038,13 +2038,13 @@
         <v>40</v>
       </c>
       <c r="E72" s="2">
-        <v>56352</v>
+        <v>56349</v>
       </c>
       <c r="F72" s="2">
         <v>1991</v>
       </c>
       <c r="G72" s="4">
-        <v>0.028723840787</v>
+        <v>0.028726787729</v>
       </c>
     </row>
     <row r="73" spans="1:7">
@@ -2061,13 +2061,13 @@
         <v>40.285714285714</v>
       </c>
       <c r="E73" s="2">
-        <v>58507</v>
+        <v>58504</v>
       </c>
       <c r="F73" s="2">
         <v>2155</v>
       </c>
       <c r="G73" s="4">
-        <v>0.026727324424</v>
+        <v>0.026729857819</v>
       </c>
     </row>
     <row r="74" spans="1:7">
@@ -2084,13 +2084,13 @@
         <v>41.857142857142</v>
       </c>
       <c r="E74" s="2">
-        <v>60768</v>
+        <v>60765</v>
       </c>
       <c r="F74" s="2">
         <v>2261</v>
       </c>
       <c r="G74" s="4">
-        <v>0.02620282597</v>
+        <v>0.026205169483</v>
       </c>
     </row>
     <row r="75" spans="1:7">
@@ -2107,13 +2107,13 @@
         <v>44.142857142857</v>
       </c>
       <c r="E75" s="2">
-        <v>61612</v>
+        <v>61609</v>
       </c>
       <c r="F75" s="2">
         <v>844</v>
       </c>
       <c r="G75" s="4">
-        <v>0.027055424218</v>
+        <v>0.027057793345</v>
       </c>
     </row>
     <row r="76" spans="1:7">
@@ -2130,13 +2130,13 @@
         <v>45.428571428571</v>
       </c>
       <c r="E76" s="2">
-        <v>62199</v>
+        <v>62196</v>
       </c>
       <c r="F76" s="2">
         <v>587</v>
       </c>
       <c r="G76" s="4">
-        <v>0.027596979953</v>
+        <v>0.027599375108</v>
       </c>
     </row>
     <row r="77" spans="1:7">
@@ -2153,13 +2153,13 @@
         <v>46.714285714285</v>
       </c>
       <c r="E77" s="2">
-        <v>64418</v>
+        <v>64415</v>
       </c>
       <c r="F77" s="2">
         <v>2219</v>
       </c>
       <c r="G77" s="4">
-        <v>0.02746745065</v>
+        <v>0.027469758064</v>
       </c>
     </row>
     <row r="78" spans="1:7">
@@ -2176,7 +2176,7 @@
         <v>52.571428571428</v>
       </c>
       <c r="E78" s="2">
-        <v>66939</v>
+        <v>66936</v>
       </c>
       <c r="F78" s="2">
         <v>2521</v>
@@ -2199,7 +2199,7 @@
         <v>57.285714285714</v>
       </c>
       <c r="E79" s="2">
-        <v>69510</v>
+        <v>69507</v>
       </c>
       <c r="F79" s="2">
         <v>2571</v>
@@ -2222,13 +2222,13 @@
         <v>62.57142857142801</v>
       </c>
       <c r="E80" s="2">
-        <v>72035</v>
+        <v>72033</v>
       </c>
       <c r="F80" s="2">
-        <v>2525</v>
+        <v>2526</v>
       </c>
       <c r="G80" s="4">
-        <v>0.032377291543</v>
+        <v>0.032374898366</v>
       </c>
     </row>
     <row r="81" spans="1:7">
@@ -2245,13 +2245,13 @@
         <v>68.85714285714199</v>
       </c>
       <c r="E81" s="2">
-        <v>74478</v>
+        <v>74476</v>
       </c>
       <c r="F81" s="2">
         <v>2443</v>
       </c>
       <c r="G81" s="4">
-        <v>0.035156819839</v>
+        <v>0.035154255707</v>
       </c>
     </row>
     <row r="82" spans="1:7">
@@ -2268,13 +2268,13 @@
         <v>71.428571428571</v>
       </c>
       <c r="E82" s="2">
-        <v>75430</v>
+        <v>75428</v>
       </c>
       <c r="F82" s="2">
         <v>952</v>
       </c>
       <c r="G82" s="4">
-        <v>0.03618468664</v>
+        <v>0.036182068167</v>
       </c>
     </row>
     <row r="83" spans="1:7">
@@ -2291,13 +2291,13 @@
         <v>73.28571428571399</v>
       </c>
       <c r="E83" s="2">
-        <v>76127</v>
+        <v>76125</v>
       </c>
       <c r="F83" s="2">
         <v>697</v>
       </c>
       <c r="G83" s="4">
-        <v>0.036832280298</v>
+        <v>0.036829636011</v>
       </c>
     </row>
     <row r="84" spans="1:7">
@@ -2314,13 +2314,13 @@
         <v>81</v>
       </c>
       <c r="E84" s="2">
-        <v>78745</v>
+        <v>78743</v>
       </c>
       <c r="F84" s="2">
         <v>2618</v>
       </c>
       <c r="G84" s="4">
-        <v>0.039575626439</v>
+        <v>0.039572864321</v>
       </c>
     </row>
     <row r="85" spans="1:7">
@@ -2337,13 +2337,13 @@
         <v>88</v>
       </c>
       <c r="E85" s="2">
-        <v>81531</v>
+        <v>81529</v>
       </c>
       <c r="F85" s="2">
         <v>2786</v>
       </c>
       <c r="G85" s="4">
-        <v>0.04221491228</v>
+        <v>0.042212019461</v>
       </c>
     </row>
     <row r="86" spans="1:7">
@@ -2360,13 +2360,13 @@
         <v>96</v>
       </c>
       <c r="E86" s="2">
-        <v>84560</v>
+        <v>84558</v>
       </c>
       <c r="F86" s="2">
         <v>3029</v>
       </c>
       <c r="G86" s="4">
-        <v>0.04465116279</v>
+        <v>0.044648196133</v>
       </c>
     </row>
     <row r="87" spans="1:7">
@@ -2383,7 +2383,7 @@
         <v>104.714285714285</v>
       </c>
       <c r="E87" s="2">
-        <v>87919</v>
+        <v>87917</v>
       </c>
       <c r="F87" s="2">
         <v>3359</v>
@@ -2406,7 +2406,7 @@
         <v>114.428571428571</v>
       </c>
       <c r="E88" s="2">
-        <v>90888</v>
+        <v>90886</v>
       </c>
       <c r="F88" s="2">
         <v>2969</v>
@@ -2429,7 +2429,7 @@
         <v>118.428571428571</v>
       </c>
       <c r="E89" s="2">
-        <v>91962</v>
+        <v>91960</v>
       </c>
       <c r="F89" s="2">
         <v>1074</v>
@@ -2452,7 +2452,7 @@
         <v>121.142857142857</v>
       </c>
       <c r="E90" s="2">
-        <v>92757</v>
+        <v>92755</v>
       </c>
       <c r="F90" s="2">
         <v>795</v>
@@ -2475,7 +2475,7 @@
         <v>133.428571428571</v>
       </c>
       <c r="E91" s="2">
-        <v>96443</v>
+        <v>96441</v>
       </c>
       <c r="F91" s="2">
         <v>3686</v>
@@ -2498,7 +2498,7 @@
         <v>137</v>
       </c>
       <c r="E92" s="2">
-        <v>99923</v>
+        <v>99921</v>
       </c>
       <c r="F92" s="2">
         <v>3480</v>
@@ -2521,7 +2521,7 @@
         <v>141.285714285714</v>
       </c>
       <c r="E93" s="2">
-        <v>103462</v>
+        <v>103460</v>
       </c>
       <c r="F93" s="2">
         <v>3539</v>
@@ -2544,13 +2544,13 @@
         <v>149.857142857142</v>
       </c>
       <c r="E94" s="2">
-        <v>107385</v>
+        <v>107384</v>
       </c>
       <c r="F94" s="2">
-        <v>3923</v>
+        <v>3924</v>
       </c>
       <c r="G94" s="4">
-        <v>0.053888831809</v>
+        <v>0.053886063594</v>
       </c>
     </row>
     <row r="95" spans="1:7">
@@ -2567,13 +2567,13 @@
         <v>146.142857142857</v>
       </c>
       <c r="E95" s="2">
-        <v>110026</v>
+        <v>110025</v>
       </c>
       <c r="F95" s="2">
         <v>2641</v>
       </c>
       <c r="G95" s="4">
-        <v>0.053453861427</v>
+        <v>0.053451068498</v>
       </c>
     </row>
     <row r="96" spans="1:7">
@@ -2590,13 +2590,13 @@
         <v>148</v>
       </c>
       <c r="E96" s="2">
-        <v>111143</v>
+        <v>111142</v>
       </c>
       <c r="F96" s="2">
         <v>1117</v>
       </c>
       <c r="G96" s="4">
-        <v>0.054011782493</v>
+        <v>0.054008966739</v>
       </c>
     </row>
     <row r="97" spans="1:7">
@@ -2613,13 +2613,13 @@
         <v>151.857142857142</v>
       </c>
       <c r="E97" s="2">
-        <v>112272</v>
+        <v>112271</v>
       </c>
       <c r="F97" s="2">
         <v>1129</v>
       </c>
       <c r="G97" s="4">
-        <v>0.054470919805</v>
+        <v>0.054468128714</v>
       </c>
     </row>
     <row r="98" spans="1:7">
@@ -2636,13 +2636,13 @@
         <v>152.857142857142</v>
       </c>
       <c r="E98" s="2">
-        <v>116349</v>
+        <v>116348</v>
       </c>
       <c r="F98" s="2">
         <v>4077</v>
       </c>
       <c r="G98" s="4">
-        <v>0.053752637395</v>
+        <v>0.053749937208</v>
       </c>
     </row>
     <row r="99" spans="1:7">
@@ -2659,13 +2659,13 @@
         <v>161.142857142857</v>
       </c>
       <c r="E99" s="2">
-        <v>120430</v>
+        <v>120429</v>
       </c>
       <c r="F99" s="2">
         <v>4081</v>
       </c>
       <c r="G99" s="4">
-        <v>0.055005607841</v>
+        <v>0.055002925687</v>
       </c>
     </row>
     <row r="100" spans="1:7">
@@ -2682,13 +2682,13 @@
         <v>168.571428571428</v>
       </c>
       <c r="E100" s="2">
-        <v>124694</v>
+        <v>124693</v>
       </c>
       <c r="F100" s="2">
         <v>4264</v>
       </c>
       <c r="G100" s="4">
-        <v>0.055576488319</v>
+        <v>0.055573870861</v>
       </c>
     </row>
     <row r="101" spans="1:7">
@@ -2705,7 +2705,7 @@
         <v>174.285714285714</v>
       </c>
       <c r="E101" s="2">
-        <v>129297</v>
+        <v>129296</v>
       </c>
       <c r="F101" s="2">
         <v>4603</v>
@@ -2728,7 +2728,7 @@
         <v>188.857142857142</v>
       </c>
       <c r="E102" s="2">
-        <v>133760</v>
+        <v>133759</v>
       </c>
       <c r="F102" s="2">
         <v>4463</v>
@@ -2751,7 +2751,7 @@
         <v>195.571428571428</v>
       </c>
       <c r="E103" s="2">
-        <v>135831</v>
+        <v>135830</v>
       </c>
       <c r="F103" s="2">
         <v>2071</v>
@@ -2774,7 +2774,7 @@
         <v>197.714285714285</v>
       </c>
       <c r="E104" s="2">
-        <v>137157</v>
+        <v>137156</v>
       </c>
       <c r="F104" s="2">
         <v>1326</v>
@@ -2797,13 +2797,13 @@
         <v>205.857142857142</v>
       </c>
       <c r="E105" s="2">
-        <v>141763</v>
+        <v>141761</v>
       </c>
       <c r="F105" s="2">
-        <v>4606</v>
+        <v>4605</v>
       </c>
       <c r="G105" s="4">
-        <v>0.056701030927</v>
+        <v>0.056703262109</v>
       </c>
     </row>
     <row r="106" spans="1:7">
@@ -2820,13 +2820,13 @@
         <v>211.285714285714</v>
       </c>
       <c r="E106" s="2">
-        <v>145530</v>
+        <v>145528</v>
       </c>
       <c r="F106" s="2">
         <v>3767</v>
       </c>
       <c r="G106" s="4">
-        <v>0.058924302788</v>
+        <v>0.058926650464</v>
       </c>
     </row>
     <row r="107" spans="1:7">
@@ -2843,13 +2843,13 @@
         <v>216.285714285714</v>
       </c>
       <c r="E107" s="2">
-        <v>149876</v>
+        <v>149874</v>
       </c>
       <c r="F107" s="2">
         <v>4346</v>
       </c>
       <c r="G107" s="4">
-        <v>0.060122309586</v>
+        <v>0.060124697192</v>
       </c>
     </row>
     <row r="108" spans="1:7">
@@ -2866,13 +2866,13 @@
         <v>216.857142857142</v>
       </c>
       <c r="E108" s="2">
-        <v>154060</v>
+        <v>154058</v>
       </c>
       <c r="F108" s="2">
         <v>4184</v>
       </c>
       <c r="G108" s="4">
-        <v>0.061301134757</v>
+        <v>0.06130361037</v>
       </c>
     </row>
     <row r="109" spans="1:7">
@@ -2889,13 +2889,13 @@
         <v>217.571428571428</v>
       </c>
       <c r="E109" s="2">
-        <v>158264</v>
+        <v>158262</v>
       </c>
       <c r="F109" s="2">
         <v>4204</v>
       </c>
       <c r="G109" s="4">
-        <v>0.062153117858</v>
+        <v>0.062155654409</v>
       </c>
     </row>
     <row r="110" spans="1:7">
@@ -2912,13 +2912,13 @@
         <v>216</v>
       </c>
       <c r="E110" s="2">
-        <v>160489</v>
+        <v>160487</v>
       </c>
       <c r="F110" s="2">
         <v>2225</v>
       </c>
       <c r="G110" s="4">
-        <v>0.061318841755</v>
+        <v>0.061321328628</v>
       </c>
     </row>
     <row r="111" spans="1:7">
@@ -2935,13 +2935,13 @@
         <v>215.714285714285</v>
       </c>
       <c r="E111" s="2">
-        <v>161746</v>
+        <v>161744</v>
       </c>
       <c r="F111" s="2">
         <v>1257</v>
       </c>
       <c r="G111" s="4">
-        <v>0.061409573386</v>
+        <v>0.061412070928</v>
       </c>
     </row>
     <row r="112" spans="1:7">
@@ -2958,13 +2958,13 @@
         <v>220</v>
       </c>
       <c r="E112" s="2">
-        <v>165993</v>
+        <v>165992</v>
       </c>
       <c r="F112" s="2">
-        <v>4247</v>
+        <v>4248</v>
       </c>
       <c r="G112" s="4">
-        <v>0.06355757325600001</v>
+        <v>0.06355495026999999</v>
       </c>
     </row>
     <row r="113" spans="1:7">
@@ -2981,13 +2981,13 @@
         <v>218</v>
       </c>
       <c r="E113" s="2">
-        <v>169831</v>
+        <v>169830</v>
       </c>
       <c r="F113" s="2">
         <v>3838</v>
       </c>
       <c r="G113" s="4">
-        <v>0.062795769721</v>
+        <v>0.062793185746</v>
       </c>
     </row>
     <row r="114" spans="1:7">
@@ -3004,13 +3004,13 @@
         <v>216.428571428571</v>
       </c>
       <c r="E114" s="2">
-        <v>173493</v>
+        <v>173492</v>
       </c>
       <c r="F114" s="2">
         <v>3662</v>
       </c>
       <c r="G114" s="4">
-        <v>0.06414870643999999</v>
+        <v>0.06414599034600001</v>
       </c>
     </row>
     <row r="115" spans="1:7">
@@ -3027,13 +3027,13 @@
         <v>213</v>
       </c>
       <c r="E115" s="2">
-        <v>176818</v>
+        <v>176817</v>
       </c>
       <c r="F115" s="2">
         <v>3325</v>
       </c>
       <c r="G115" s="4">
-        <v>0.065515423147</v>
+        <v>0.065512544487</v>
       </c>
     </row>
     <row r="116" spans="1:7">
@@ -3050,13 +3050,13 @@
         <v>208.428571428571</v>
       </c>
       <c r="E116" s="2">
-        <v>180452</v>
+        <v>180451</v>
       </c>
       <c r="F116" s="2">
         <v>3634</v>
       </c>
       <c r="G116" s="4">
-        <v>0.065756264647</v>
+        <v>0.065753301185</v>
       </c>
     </row>
     <row r="117" spans="1:7">
@@ -3073,13 +3073,13 @@
         <v>205.857142857142</v>
       </c>
       <c r="E117" s="2">
-        <v>182072</v>
+        <v>182071</v>
       </c>
       <c r="F117" s="2">
         <v>1620</v>
       </c>
       <c r="G117" s="4">
-        <v>0.066765509892</v>
+        <v>0.06676241660399999</v>
       </c>
     </row>
     <row r="118" spans="1:7">
@@ -3096,13 +3096,13 @@
         <v>206.428571428571</v>
       </c>
       <c r="E118" s="2">
-        <v>183326</v>
+        <v>183325</v>
       </c>
       <c r="F118" s="2">
         <v>1254</v>
       </c>
       <c r="G118" s="4">
-        <v>0.06696014828500001</v>
+        <v>0.066957045549</v>
       </c>
     </row>
     <row r="119" spans="1:7">
@@ -3119,13 +3119,13 @@
         <v>199.571428571428</v>
       </c>
       <c r="E119" s="2">
-        <v>187498</v>
+        <v>187494</v>
       </c>
       <c r="F119" s="2">
-        <v>4172</v>
+        <v>4169</v>
       </c>
       <c r="G119" s="4">
-        <v>0.06496163682800001</v>
+        <v>0.06497070039900001</v>
       </c>
     </row>
     <row r="120" spans="1:7">
@@ -3142,13 +3142,13 @@
         <v>201.714285714285</v>
       </c>
       <c r="E120" s="2">
-        <v>191414</v>
+        <v>191403</v>
       </c>
       <c r="F120" s="2">
-        <v>3916</v>
+        <v>3909</v>
       </c>
       <c r="G120" s="4">
-        <v>0.06542185979700001</v>
+        <v>0.065452185602</v>
       </c>
     </row>
     <row r="121" spans="1:7">
@@ -3156,22 +3156,22 @@
         <v>44041</v>
       </c>
       <c r="B121" s="2">
-        <v>9642</v>
+        <v>9643</v>
       </c>
       <c r="C121" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="D121" s="3">
-        <v>202</v>
+        <v>202.142857142857</v>
       </c>
       <c r="E121" s="2">
-        <v>195275</v>
+        <v>195264</v>
       </c>
       <c r="F121" s="2">
         <v>3861</v>
       </c>
       <c r="G121" s="4">
-        <v>0.064915985676</v>
+        <v>0.0649917325</v>
       </c>
     </row>
     <row r="122" spans="1:7">
@@ -3179,22 +3179,22 @@
         <v>44042</v>
       </c>
       <c r="B122" s="2">
-        <v>9860</v>
+        <v>9861</v>
       </c>
       <c r="C122" s="2">
         <v>218</v>
       </c>
       <c r="D122" s="3">
-        <v>200</v>
+        <v>200.142857142857</v>
       </c>
       <c r="E122" s="2">
-        <v>198948</v>
+        <v>198934</v>
       </c>
       <c r="F122" s="2">
-        <v>3673</v>
+        <v>3670</v>
       </c>
       <c r="G122" s="4">
-        <v>0.063262539539</v>
+        <v>0.063344938282</v>
       </c>
     </row>
     <row r="123" spans="1:7">
@@ -3202,22 +3202,22 @@
         <v>44043</v>
       </c>
       <c r="B123" s="2">
-        <v>10093</v>
+        <v>10094</v>
       </c>
       <c r="C123" s="2">
         <v>233</v>
       </c>
       <c r="D123" s="3">
-        <v>202</v>
+        <v>202.142857142857</v>
       </c>
       <c r="E123" s="2">
-        <v>202486</v>
+        <v>202472</v>
       </c>
       <c r="F123" s="2">
         <v>3538</v>
       </c>
       <c r="G123" s="4">
-        <v>0.064173549968</v>
+        <v>0.064256845738</v>
       </c>
     </row>
     <row r="124" spans="1:7">
@@ -3225,22 +3225,22 @@
         <v>44044</v>
       </c>
       <c r="B124" s="2">
-        <v>10201</v>
+        <v>10202</v>
       </c>
       <c r="C124" s="2">
         <v>108</v>
       </c>
       <c r="D124" s="3">
-        <v>201.571428571428</v>
+        <v>201.714285714285</v>
       </c>
       <c r="E124" s="2">
-        <v>204138</v>
+        <v>204124</v>
       </c>
       <c r="F124" s="2">
         <v>1652</v>
       </c>
       <c r="G124" s="4">
-        <v>0.06394453004599999</v>
+        <v>0.064027569945</v>
       </c>
     </row>
     <row r="125" spans="1:7">
@@ -3248,22 +3248,22 @@
         <v>44045</v>
       </c>
       <c r="B125" s="2">
-        <v>10280</v>
+        <v>10281</v>
       </c>
       <c r="C125" s="2">
         <v>79</v>
       </c>
       <c r="D125" s="3">
-        <v>198.142857142857</v>
+        <v>198.285714285714</v>
       </c>
       <c r="E125" s="2">
-        <v>205286</v>
+        <v>205272</v>
       </c>
       <c r="F125" s="2">
         <v>1148</v>
       </c>
       <c r="G125" s="4">
-        <v>0.063160291438</v>
+        <v>0.06324326787200001</v>
       </c>
     </row>
     <row r="126" spans="1:7">
@@ -3271,22 +3271,22 @@
         <v>44046</v>
       </c>
       <c r="B126" s="2">
-        <v>10535</v>
+        <v>10536</v>
       </c>
       <c r="C126" s="2">
         <v>255</v>
       </c>
       <c r="D126" s="3">
-        <v>199.857142857142</v>
+        <v>200</v>
       </c>
       <c r="E126" s="2">
-        <v>209155</v>
+        <v>209141</v>
       </c>
       <c r="F126" s="2">
         <v>3869</v>
       </c>
       <c r="G126" s="4">
-        <v>0.064598051438</v>
+        <v>0.064674088788</v>
       </c>
     </row>
     <row r="127" spans="1:7">
@@ -3294,22 +3294,22 @@
         <v>44047</v>
       </c>
       <c r="B127" s="2">
-        <v>10767</v>
+        <v>10769</v>
       </c>
       <c r="C127" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="D127" s="3">
-        <v>196.571428571428</v>
+        <v>196.857142857142</v>
       </c>
       <c r="E127" s="2">
-        <v>212464</v>
+        <v>212451</v>
       </c>
       <c r="F127" s="2">
-        <v>3309</v>
+        <v>3310</v>
       </c>
       <c r="G127" s="4">
-        <v>0.065368171021</v>
+        <v>0.06546940326800001</v>
       </c>
     </row>
     <row r="128" spans="1:7">
@@ -3317,22 +3317,22 @@
         <v>44048</v>
       </c>
       <c r="B128" s="2">
-        <v>10960</v>
+        <v>10964</v>
       </c>
       <c r="C128" s="2">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="D128" s="3">
-        <v>188.285714285714</v>
+        <v>188.714285714285</v>
       </c>
       <c r="E128" s="2">
-        <v>215723</v>
+        <v>215712</v>
       </c>
       <c r="F128" s="2">
-        <v>3259</v>
+        <v>3261</v>
       </c>
       <c r="G128" s="4">
-        <v>0.06445618153300001</v>
+        <v>0.06460289514799999</v>
       </c>
     </row>
     <row r="129" spans="1:7">
@@ -3340,22 +3340,22 @@
         <v>44049</v>
       </c>
       <c r="B129" s="2">
-        <v>11159</v>
+        <v>11163</v>
       </c>
       <c r="C129" s="2">
         <v>199</v>
       </c>
       <c r="D129" s="3">
-        <v>185.571428571428</v>
+        <v>186</v>
       </c>
       <c r="E129" s="2">
-        <v>219385</v>
+        <v>219374</v>
       </c>
       <c r="F129" s="2">
         <v>3662</v>
       </c>
       <c r="G129" s="4">
-        <v>0.063561188041</v>
+        <v>0.063698630136</v>
       </c>
     </row>
     <row r="130" spans="1:7">
@@ -3363,22 +3363,22 @@
         <v>44050</v>
       </c>
       <c r="B130" s="2">
-        <v>11341</v>
+        <v>11345</v>
       </c>
       <c r="C130" s="2">
         <v>182</v>
       </c>
       <c r="D130" s="3">
-        <v>178.285714285714</v>
+        <v>178.714285714285</v>
       </c>
       <c r="E130" s="2">
-        <v>222709</v>
+        <v>222697</v>
       </c>
       <c r="F130" s="2">
-        <v>3324</v>
+        <v>3323</v>
       </c>
       <c r="G130" s="4">
-        <v>0.061711912179</v>
+        <v>0.061854140914</v>
       </c>
     </row>
     <row r="131" spans="1:7">
@@ -3386,22 +3386,22 @@
         <v>44051</v>
       </c>
       <c r="B131" s="2">
-        <v>11461</v>
+        <v>11465</v>
       </c>
       <c r="C131" s="2">
         <v>120</v>
       </c>
       <c r="D131" s="3">
-        <v>180</v>
+        <v>180.428571428571</v>
       </c>
       <c r="E131" s="2">
-        <v>224415</v>
+        <v>224403</v>
       </c>
       <c r="F131" s="2">
         <v>1706</v>
       </c>
       <c r="G131" s="4">
-        <v>0.062139369729</v>
+        <v>0.062281177572</v>
       </c>
     </row>
     <row r="132" spans="1:7">
@@ -3409,22 +3409,22 @@
         <v>44052</v>
       </c>
       <c r="B132" s="2">
-        <v>11546</v>
+        <v>11550</v>
       </c>
       <c r="C132" s="2">
         <v>85</v>
       </c>
       <c r="D132" s="3">
-        <v>180.857142857142</v>
+        <v>181.285714285714</v>
       </c>
       <c r="E132" s="2">
-        <v>225479</v>
+        <v>225467</v>
       </c>
       <c r="F132" s="2">
         <v>1064</v>
       </c>
       <c r="G132" s="4">
-        <v>0.062694993314</v>
+        <v>0.062837335974</v>
       </c>
     </row>
     <row r="133" spans="1:7">
@@ -3432,22 +3432,22 @@
         <v>44053</v>
       </c>
       <c r="B133" s="2">
-        <v>11783</v>
+        <v>11787</v>
       </c>
       <c r="C133" s="2">
         <v>237</v>
       </c>
       <c r="D133" s="3">
-        <v>178.285714285714</v>
+        <v>178.714285714285</v>
       </c>
       <c r="E133" s="2">
-        <v>229376</v>
+        <v>229364</v>
       </c>
       <c r="F133" s="2">
         <v>3897</v>
       </c>
       <c r="G133" s="4">
-        <v>0.061718015924</v>
+        <v>0.061860258121</v>
       </c>
     </row>
     <row r="134" spans="1:7">
@@ -3455,22 +3455,22 @@
         <v>44054</v>
       </c>
       <c r="B134" s="2">
-        <v>11984</v>
+        <v>11988</v>
       </c>
       <c r="C134" s="2">
         <v>201</v>
       </c>
       <c r="D134" s="3">
-        <v>173.857142857142</v>
+        <v>174.142857142857</v>
       </c>
       <c r="E134" s="2">
-        <v>232795</v>
+        <v>232783</v>
       </c>
       <c r="F134" s="2">
         <v>3419</v>
       </c>
       <c r="G134" s="4">
-        <v>0.059859328119</v>
+        <v>0.059954751131</v>
       </c>
     </row>
     <row r="135" spans="1:7">
@@ -3478,7 +3478,7 @@
         <v>44055</v>
       </c>
       <c r="B135" s="2">
-        <v>12184</v>
+        <v>12188</v>
       </c>
       <c r="C135" s="2">
         <v>200</v>
@@ -3487,13 +3487,13 @@
         <v>174.857142857142</v>
       </c>
       <c r="E135" s="2">
-        <v>236655</v>
+        <v>236642</v>
       </c>
       <c r="F135" s="2">
-        <v>3860</v>
+        <v>3859</v>
       </c>
       <c r="G135" s="4">
-        <v>0.058475062105</v>
+        <v>0.058480649784</v>
       </c>
     </row>
     <row r="136" spans="1:7">
@@ -3501,7 +3501,7 @@
         <v>44056</v>
       </c>
       <c r="B136" s="2">
-        <v>12360</v>
+        <v>12364</v>
       </c>
       <c r="C136" s="2">
         <v>176</v>
@@ -3510,13 +3510,13 @@
         <v>171.571428571428</v>
       </c>
       <c r="E136" s="2">
-        <v>239922</v>
+        <v>239908</v>
       </c>
       <c r="F136" s="2">
-        <v>3267</v>
+        <v>3266</v>
       </c>
       <c r="G136" s="4">
-        <v>0.058479816915</v>
+        <v>0.058488360767</v>
       </c>
     </row>
     <row r="137" spans="1:7">
@@ -3524,7 +3524,7 @@
         <v>44057</v>
       </c>
       <c r="B137" s="2">
-        <v>12535</v>
+        <v>12539</v>
       </c>
       <c r="C137" s="2">
         <v>175</v>
@@ -3533,13 +3533,13 @@
         <v>170.571428571428</v>
       </c>
       <c r="E137" s="2">
-        <v>243281</v>
+        <v>243267</v>
       </c>
       <c r="F137" s="2">
         <v>3359</v>
       </c>
       <c r="G137" s="4">
-        <v>0.058040054442</v>
+        <v>0.058045697617</v>
       </c>
     </row>
     <row r="138" spans="1:7">
@@ -3547,7 +3547,7 @@
         <v>44058</v>
       </c>
       <c r="B138" s="2">
-        <v>12628</v>
+        <v>12632</v>
       </c>
       <c r="C138" s="2">
         <v>93</v>
@@ -3556,13 +3556,13 @@
         <v>166.714285714285</v>
       </c>
       <c r="E138" s="2">
-        <v>244842</v>
+        <v>244828</v>
       </c>
       <c r="F138" s="2">
         <v>1561</v>
       </c>
       <c r="G138" s="4">
-        <v>0.057130268761</v>
+        <v>0.057135862913</v>
       </c>
     </row>
     <row r="139" spans="1:7">
@@ -3570,7 +3570,7 @@
         <v>44059</v>
       </c>
       <c r="B139" s="2">
-        <v>12673</v>
+        <v>12677</v>
       </c>
       <c r="C139" s="2">
         <v>45</v>
@@ -3579,13 +3579,13 @@
         <v>161</v>
       </c>
       <c r="E139" s="2">
-        <v>245617</v>
+        <v>245603</v>
       </c>
       <c r="F139" s="2">
         <v>775</v>
       </c>
       <c r="G139" s="4">
-        <v>0.055963849438</v>
+        <v>0.055969408025</v>
       </c>
     </row>
     <row r="140" spans="1:7">
@@ -3593,7 +3593,7 @@
         <v>44060</v>
       </c>
       <c r="B140" s="2">
-        <v>12886</v>
+        <v>12890</v>
       </c>
       <c r="C140" s="2">
         <v>213</v>
@@ -3602,13 +3602,13 @@
         <v>157.571428571428</v>
       </c>
       <c r="E140" s="2">
-        <v>249272</v>
+        <v>249258</v>
       </c>
       <c r="F140" s="2">
         <v>3655</v>
       </c>
       <c r="G140" s="4">
-        <v>0.055438279051</v>
+        <v>0.055443852417</v>
       </c>
     </row>
     <row r="141" spans="1:7">
@@ -3616,7 +3616,7 @@
         <v>44061</v>
       </c>
       <c r="B141" s="2">
-        <v>13054</v>
+        <v>13058</v>
       </c>
       <c r="C141" s="2">
         <v>168</v>
@@ -3625,13 +3625,13 @@
         <v>152.857142857142</v>
       </c>
       <c r="E141" s="2">
-        <v>252346</v>
+        <v>252332</v>
       </c>
       <c r="F141" s="2">
         <v>3074</v>
       </c>
       <c r="G141" s="4">
-        <v>0.05472865838</v>
+        <v>0.054734257506</v>
       </c>
     </row>
     <row r="142" spans="1:7">
@@ -3639,7 +3639,7 @@
         <v>44062</v>
       </c>
       <c r="B142" s="2">
-        <v>13212</v>
+        <v>13216</v>
       </c>
       <c r="C142" s="2">
         <v>158</v>
@@ -3648,13 +3648,13 @@
         <v>146.857142857142</v>
       </c>
       <c r="E142" s="2">
-        <v>255402</v>
+        <v>255388</v>
       </c>
       <c r="F142" s="2">
         <v>3056</v>
       </c>
       <c r="G142" s="4">
-        <v>0.054835440337</v>
+        <v>0.054838365517</v>
       </c>
     </row>
     <row r="143" spans="1:7">
@@ -3662,7 +3662,7 @@
         <v>44063</v>
       </c>
       <c r="B143" s="2">
-        <v>13344</v>
+        <v>13348</v>
       </c>
       <c r="C143" s="2">
         <v>132</v>
@@ -3671,7 +3671,7 @@
         <v>140.571428571428</v>
       </c>
       <c r="E143" s="2">
-        <v>258568</v>
+        <v>258554</v>
       </c>
       <c r="F143" s="2">
         <v>3166</v>
@@ -3685,7 +3685,7 @@
         <v>44064</v>
       </c>
       <c r="B144" s="2">
-        <v>13506</v>
+        <v>13510</v>
       </c>
       <c r="C144" s="2">
         <v>162</v>
@@ -3694,7 +3694,7 @@
         <v>138.714285714285</v>
       </c>
       <c r="E144" s="2">
-        <v>261608</v>
+        <v>261594</v>
       </c>
       <c r="F144" s="2">
         <v>3040</v>
@@ -3708,7 +3708,7 @@
         <v>44065</v>
       </c>
       <c r="B145" s="2">
-        <v>13568</v>
+        <v>13572</v>
       </c>
       <c r="C145" s="2">
         <v>62</v>
@@ -3717,13 +3717,13 @@
         <v>134.285714285714</v>
       </c>
       <c r="E145" s="2">
-        <v>262937</v>
+        <v>262924</v>
       </c>
       <c r="F145" s="2">
-        <v>1329</v>
+        <v>1330</v>
       </c>
       <c r="G145" s="4">
-        <v>0.051948051948</v>
+        <v>0.051945181255</v>
       </c>
     </row>
     <row r="146" spans="1:7">
@@ -3731,7 +3731,7 @@
         <v>44066</v>
       </c>
       <c r="B146" s="2">
-        <v>13636</v>
+        <v>13640</v>
       </c>
       <c r="C146" s="2">
         <v>68</v>
@@ -3740,13 +3740,13 @@
         <v>137.571428571428</v>
       </c>
       <c r="E146" s="2">
-        <v>263905</v>
+        <v>263892</v>
       </c>
       <c r="F146" s="2">
         <v>968</v>
       </c>
       <c r="G146" s="4">
-        <v>0.052657480314</v>
+        <v>0.052654601126</v>
       </c>
     </row>
     <row r="147" spans="1:7">
@@ -3754,7 +3754,7 @@
         <v>44067</v>
       </c>
       <c r="B147" s="2">
-        <v>13788</v>
+        <v>13792</v>
       </c>
       <c r="C147" s="2">
         <v>152</v>
@@ -3763,13 +3763,13 @@
         <v>128.857142857142</v>
       </c>
       <c r="E147" s="2">
-        <v>266895</v>
+        <v>266882</v>
       </c>
       <c r="F147" s="2">
         <v>2990</v>
       </c>
       <c r="G147" s="4">
-        <v>0.051183112977</v>
+        <v>0.051180208806</v>
       </c>
     </row>
     <row r="148" spans="1:7">
@@ -3777,7 +3777,7 @@
         <v>44068</v>
       </c>
       <c r="B148" s="2">
-        <v>13923</v>
+        <v>13927</v>
       </c>
       <c r="C148" s="2">
         <v>135</v>
@@ -3786,13 +3786,13 @@
         <v>124.142857142857</v>
       </c>
       <c r="E148" s="2">
-        <v>269917</v>
+        <v>269904</v>
       </c>
       <c r="F148" s="2">
         <v>3022</v>
       </c>
       <c r="G148" s="4">
-        <v>0.049456490808</v>
+        <v>0.049453676303</v>
       </c>
     </row>
     <row r="149" spans="1:7">
@@ -3800,7 +3800,7 @@
         <v>44069</v>
       </c>
       <c r="B149" s="2">
-        <v>14058</v>
+        <v>14062</v>
       </c>
       <c r="C149" s="2">
         <v>135</v>
@@ -3809,13 +3809,13 @@
         <v>120.857142857142</v>
       </c>
       <c r="E149" s="2">
-        <v>272882</v>
+        <v>272870</v>
       </c>
       <c r="F149" s="2">
-        <v>2965</v>
+        <v>2966</v>
       </c>
       <c r="G149" s="4">
-        <v>0.048398169336</v>
+        <v>0.048392632421</v>
       </c>
     </row>
     <row r="150" spans="1:7">
@@ -3823,7 +3823,7 @@
         <v>44070</v>
       </c>
       <c r="B150" s="2">
-        <v>14230</v>
+        <v>14234</v>
       </c>
       <c r="C150" s="2">
         <v>172</v>
@@ -3832,13 +3832,13 @@
         <v>126.571428571428</v>
       </c>
       <c r="E150" s="2">
-        <v>276142</v>
+        <v>276130</v>
       </c>
       <c r="F150" s="2">
         <v>3260</v>
       </c>
       <c r="G150" s="4">
-        <v>0.050415386366</v>
+        <v>0.050409649522</v>
       </c>
     </row>
     <row r="151" spans="1:7">
@@ -3846,7 +3846,7 @@
         <v>44071</v>
       </c>
       <c r="B151" s="2">
-        <v>14346</v>
+        <v>14350</v>
       </c>
       <c r="C151" s="2">
         <v>116</v>
@@ -3855,13 +3855,13 @@
         <v>120</v>
       </c>
       <c r="E151" s="2">
-        <v>278925</v>
+        <v>278913</v>
       </c>
       <c r="F151" s="2">
         <v>2783</v>
       </c>
       <c r="G151" s="4">
-        <v>0.048507247213</v>
+        <v>0.048501645591</v>
       </c>
     </row>
     <row r="152" spans="1:7">
@@ -3869,7 +3869,7 @@
         <v>44072</v>
       </c>
       <c r="B152" s="2">
-        <v>14410</v>
+        <v>14414</v>
       </c>
       <c r="C152" s="2">
         <v>64</v>
@@ -3878,13 +3878,13 @@
         <v>120.285714285714</v>
       </c>
       <c r="E152" s="2">
-        <v>280366</v>
+        <v>280354</v>
       </c>
       <c r="F152" s="2">
         <v>1441</v>
       </c>
       <c r="G152" s="4">
-        <v>0.048310287451</v>
+        <v>0.048307515777</v>
       </c>
     </row>
     <row r="153" spans="1:7">
@@ -3892,7 +3892,7 @@
         <v>44073</v>
       </c>
       <c r="B153" s="2">
-        <v>14468</v>
+        <v>14472</v>
       </c>
       <c r="C153" s="2">
         <v>58</v>
@@ -3901,13 +3901,13 @@
         <v>118.857142857142</v>
       </c>
       <c r="E153" s="2">
-        <v>281449</v>
+        <v>281437</v>
       </c>
       <c r="F153" s="2">
         <v>1083</v>
       </c>
       <c r="G153" s="4">
-        <v>0.047423620611</v>
+        <v>0.04742091764</v>
       </c>
     </row>
     <row r="154" spans="1:7">
@@ -3915,7 +3915,7 @@
         <v>44074</v>
       </c>
       <c r="B154" s="2">
-        <v>14608</v>
+        <v>14612</v>
       </c>
       <c r="C154" s="2">
         <v>140</v>
@@ -3924,13 +3924,13 @@
         <v>117.142857142857</v>
       </c>
       <c r="E154" s="2">
-        <v>284592</v>
+        <v>284580</v>
       </c>
       <c r="F154" s="2">
         <v>3143</v>
       </c>
       <c r="G154" s="4">
-        <v>0.046335537096</v>
+        <v>0.046332918973</v>
       </c>
     </row>
     <row r="155" spans="1:7">
@@ -3938,7 +3938,7 @@
         <v>44075</v>
       </c>
       <c r="B155" s="2">
-        <v>14740</v>
+        <v>14744</v>
       </c>
       <c r="C155" s="2">
         <v>132</v>
@@ -3947,13 +3947,13 @@
         <v>116.714285714285</v>
       </c>
       <c r="E155" s="2">
-        <v>287870</v>
+        <v>287858</v>
       </c>
       <c r="F155" s="2">
         <v>3278</v>
       </c>
       <c r="G155" s="4">
-        <v>0.045507714588</v>
+        <v>0.045505179904</v>
       </c>
     </row>
     <row r="156" spans="1:7">
@@ -3961,7 +3961,7 @@
         <v>44076</v>
       </c>
       <c r="B156" s="2">
-        <v>14855</v>
+        <v>14859</v>
       </c>
       <c r="C156" s="2">
         <v>115</v>
@@ -3970,7 +3970,7 @@
         <v>113.857142857142</v>
       </c>
       <c r="E156" s="2">
-        <v>290851</v>
+        <v>290839</v>
       </c>
       <c r="F156" s="2">
         <v>2981</v>
@@ -3984,7 +3984,7 @@
         <v>44077</v>
       </c>
       <c r="B157" s="2">
-        <v>14950</v>
+        <v>14954</v>
       </c>
       <c r="C157" s="2">
         <v>95</v>
@@ -3993,7 +3993,7 @@
         <v>102.857142857142</v>
       </c>
       <c r="E157" s="2">
-        <v>293794</v>
+        <v>293782</v>
       </c>
       <c r="F157" s="2">
         <v>2943</v>
@@ -4007,7 +4007,7 @@
         <v>44078</v>
       </c>
       <c r="B158" s="2">
-        <v>15072</v>
+        <v>15076</v>
       </c>
       <c r="C158" s="2">
         <v>122</v>
@@ -4016,7 +4016,7 @@
         <v>103.714285714285</v>
       </c>
       <c r="E158" s="2">
-        <v>296617</v>
+        <v>296605</v>
       </c>
       <c r="F158" s="2">
         <v>2823</v>
@@ -4030,7 +4030,7 @@
         <v>44079</v>
       </c>
       <c r="B159" s="2">
-        <v>15138</v>
+        <v>15142</v>
       </c>
       <c r="C159" s="2">
         <v>66</v>
@@ -4039,7 +4039,7 @@
         <v>104</v>
       </c>
       <c r="E159" s="2">
-        <v>297955</v>
+        <v>297943</v>
       </c>
       <c r="F159" s="2">
         <v>1338</v>
@@ -4053,7 +4053,7 @@
         <v>44080</v>
       </c>
       <c r="B160" s="2">
-        <v>15191</v>
+        <v>15195</v>
       </c>
       <c r="C160" s="2">
         <v>53</v>
@@ -4062,7 +4062,7 @@
         <v>103.285714285714</v>
       </c>
       <c r="E160" s="2">
-        <v>299040</v>
+        <v>299028</v>
       </c>
       <c r="F160" s="2">
         <v>1085</v>
@@ -4076,7 +4076,7 @@
         <v>44081</v>
       </c>
       <c r="B161" s="2">
-        <v>15259</v>
+        <v>15263</v>
       </c>
       <c r="C161" s="2">
         <v>68</v>
@@ -4085,7 +4085,7 @@
         <v>93</v>
       </c>
       <c r="E161" s="2">
-        <v>300296</v>
+        <v>300284</v>
       </c>
       <c r="F161" s="2">
         <v>1256</v>
@@ -4099,7 +4099,7 @@
         <v>44082</v>
       </c>
       <c r="B162" s="2">
-        <v>15402</v>
+        <v>15406</v>
       </c>
       <c r="C162" s="2">
         <v>143</v>
@@ -4108,13 +4108,13 @@
         <v>94.571428571428</v>
       </c>
       <c r="E162" s="2">
-        <v>304603</v>
+        <v>304593</v>
       </c>
       <c r="F162" s="2">
-        <v>4307</v>
+        <v>4309</v>
       </c>
       <c r="G162" s="4">
-        <v>0.039562541086</v>
+        <v>0.039557812966</v>
       </c>
     </row>
     <row r="163" spans="1:7">
@@ -4122,7 +4122,7 @@
         <v>44083</v>
       </c>
       <c r="B163" s="2">
-        <v>15552</v>
+        <v>15556</v>
       </c>
       <c r="C163" s="2">
         <v>150</v>
@@ -4131,13 +4131,13 @@
         <v>99.571428571428</v>
       </c>
       <c r="E163" s="2">
-        <v>308126</v>
+        <v>308117</v>
       </c>
       <c r="F163" s="2">
-        <v>3523</v>
+        <v>3524</v>
       </c>
       <c r="G163" s="4">
-        <v>0.04034732272</v>
+        <v>0.040340317166</v>
       </c>
     </row>
     <row r="164" spans="1:7">
@@ -4145,7 +4145,7 @@
         <v>44084</v>
       </c>
       <c r="B164" s="2">
-        <v>15655</v>
+        <v>15659</v>
       </c>
       <c r="C164" s="2">
         <v>103</v>
@@ -4154,13 +4154,13 @@
         <v>100.714285714285</v>
       </c>
       <c r="E164" s="2">
-        <v>311415</v>
+        <v>311408</v>
       </c>
       <c r="F164" s="2">
-        <v>3289</v>
+        <v>3291</v>
       </c>
       <c r="G164" s="4">
-        <v>0.040009080074</v>
+        <v>0.039997730625</v>
       </c>
     </row>
     <row r="165" spans="1:7">
@@ -4168,7 +4168,7 @@
         <v>44085</v>
       </c>
       <c r="B165" s="2">
-        <v>15727</v>
+        <v>15731</v>
       </c>
       <c r="C165" s="2">
         <v>72</v>
@@ -4177,13 +4177,13 @@
         <v>93.571428571428</v>
       </c>
       <c r="E165" s="2">
-        <v>313918</v>
+        <v>313913</v>
       </c>
       <c r="F165" s="2">
-        <v>2503</v>
+        <v>2505</v>
       </c>
       <c r="G165" s="4">
-        <v>0.037859083289</v>
+        <v>0.037843771666</v>
       </c>
     </row>
     <row r="166" spans="1:7">
@@ -4191,22 +4191,22 @@
         <v>44086</v>
       </c>
       <c r="B166" s="2">
-        <v>15775</v>
+        <v>15780</v>
       </c>
       <c r="C166" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D166" s="3">
-        <v>91</v>
+        <v>91.142857142857</v>
       </c>
       <c r="E166" s="2">
-        <v>315316</v>
+        <v>315313</v>
       </c>
       <c r="F166" s="2">
-        <v>1398</v>
+        <v>1400</v>
       </c>
       <c r="G166" s="4">
-        <v>0.036691434825</v>
+        <v>0.036729994242</v>
       </c>
     </row>
     <row r="167" spans="1:7">
@@ -4214,22 +4214,22 @@
         <v>44087</v>
       </c>
       <c r="B167" s="2">
-        <v>15808</v>
+        <v>15814</v>
       </c>
       <c r="C167" s="2">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D167" s="3">
-        <v>88.142857142857</v>
+        <v>88.428571428571</v>
       </c>
       <c r="E167" s="2">
-        <v>316164</v>
+        <v>316161</v>
       </c>
       <c r="F167" s="2">
         <v>848</v>
       </c>
       <c r="G167" s="4">
-        <v>0.036031301097</v>
+        <v>0.03612910757</v>
       </c>
     </row>
     <row r="168" spans="1:7">
@@ -4237,22 +4237,22 @@
         <v>44088</v>
       </c>
       <c r="B168" s="2">
-        <v>15909</v>
+        <v>15915</v>
       </c>
       <c r="C168" s="2">
         <v>101</v>
       </c>
       <c r="D168" s="3">
-        <v>92.85714285714199</v>
+        <v>93.142857142857</v>
       </c>
       <c r="E168" s="2">
-        <v>319567</v>
+        <v>319566</v>
       </c>
       <c r="F168" s="2">
-        <v>3403</v>
+        <v>3405</v>
       </c>
       <c r="G168" s="4">
-        <v>0.033729438015</v>
+        <v>0.033813919717</v>
       </c>
     </row>
     <row r="169" spans="1:7">
@@ -4260,22 +4260,22 @@
         <v>44089</v>
       </c>
       <c r="B169" s="2">
-        <v>16040</v>
+        <v>16046</v>
       </c>
       <c r="C169" s="2">
         <v>131</v>
       </c>
       <c r="D169" s="3">
-        <v>91.142857142857</v>
+        <v>91.428571428571</v>
       </c>
       <c r="E169" s="2">
         <v>323553</v>
       </c>
       <c r="F169" s="2">
-        <v>3986</v>
+        <v>3987</v>
       </c>
       <c r="G169" s="4">
-        <v>0.033667546174</v>
+        <v>0.033755274261</v>
       </c>
     </row>
     <row r="170" spans="1:7">
@@ -4283,22 +4283,22 @@
         <v>44090</v>
       </c>
       <c r="B170" s="2">
-        <v>16126</v>
+        <v>16132</v>
       </c>
       <c r="C170" s="2">
         <v>86</v>
       </c>
       <c r="D170" s="3">
-        <v>82</v>
+        <v>82.28571428571399</v>
       </c>
       <c r="E170" s="2">
-        <v>326861</v>
+        <v>326864</v>
       </c>
       <c r="F170" s="2">
-        <v>3308</v>
+        <v>3311</v>
       </c>
       <c r="G170" s="4">
-        <v>0.030637843608</v>
+        <v>0.030724915986</v>
       </c>
     </row>
     <row r="171" spans="1:7">
@@ -4306,22 +4306,22 @@
         <v>44091</v>
       </c>
       <c r="B171" s="2">
-        <v>16230</v>
+        <v>16236</v>
       </c>
       <c r="C171" s="2">
         <v>104</v>
       </c>
       <c r="D171" s="3">
-        <v>82.142857142857</v>
+        <v>82.428571428571</v>
       </c>
       <c r="E171" s="2">
-        <v>330479</v>
+        <v>330482</v>
       </c>
       <c r="F171" s="2">
         <v>3618</v>
       </c>
       <c r="G171" s="4">
-        <v>0.030161561057</v>
+        <v>0.030250602914</v>
       </c>
     </row>
     <row r="172" spans="1:7">
@@ -4329,22 +4329,22 @@
         <v>44092</v>
       </c>
       <c r="B172" s="2">
-        <v>16334</v>
+        <v>16340</v>
       </c>
       <c r="C172" s="2">
         <v>104</v>
       </c>
       <c r="D172" s="3">
-        <v>86.714285714285</v>
+        <v>87</v>
       </c>
       <c r="E172" s="2">
-        <v>333754</v>
+        <v>333757</v>
       </c>
       <c r="F172" s="2">
         <v>3275</v>
       </c>
       <c r="G172" s="4">
-        <v>0.030600927606</v>
+        <v>0.030689377141</v>
       </c>
     </row>
     <row r="173" spans="1:7">
@@ -4352,22 +4352,22 @@
         <v>44093</v>
       </c>
       <c r="B173" s="2">
-        <v>16406</v>
+        <v>16412</v>
       </c>
       <c r="C173" s="2">
         <v>72</v>
       </c>
       <c r="D173" s="3">
-        <v>90.142857142857</v>
+        <v>90.28571428571399</v>
       </c>
       <c r="E173" s="2">
-        <v>335273</v>
+        <v>335275</v>
       </c>
       <c r="F173" s="2">
-        <v>1519</v>
+        <v>1518</v>
       </c>
       <c r="G173" s="4">
-        <v>0.031617978654</v>
+        <v>0.031660154293</v>
       </c>
     </row>
     <row r="174" spans="1:7">
@@ -4375,7 +4375,7 @@
         <v>44094</v>
       </c>
       <c r="B174" s="2">
-        <v>16448</v>
+        <v>16454</v>
       </c>
       <c r="C174" s="2">
         <v>42</v>
@@ -4384,13 +4384,13 @@
         <v>91.428571428571</v>
       </c>
       <c r="E174" s="2">
-        <v>336429</v>
+        <v>336430</v>
       </c>
       <c r="F174" s="2">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="G174" s="4">
-        <v>0.031581544534</v>
+        <v>0.031575312052</v>
       </c>
     </row>
     <row r="175" spans="1:7">
@@ -4398,7 +4398,7 @@
         <v>44095</v>
       </c>
       <c r="B175" s="2">
-        <v>16591</v>
+        <v>16597</v>
       </c>
       <c r="C175" s="2">
         <v>143</v>
@@ -4407,13 +4407,13 @@
         <v>97.428571428571</v>
       </c>
       <c r="E175" s="2">
-        <v>340805</v>
+        <v>340801</v>
       </c>
       <c r="F175" s="2">
-        <v>4376</v>
+        <v>4371</v>
       </c>
       <c r="G175" s="4">
-        <v>0.032112251624</v>
+        <v>0.032116788321</v>
       </c>
     </row>
     <row r="176" spans="1:7">
@@ -4421,7 +4421,7 @@
         <v>44096</v>
       </c>
       <c r="B176" s="2">
-        <v>16689</v>
+        <v>16695</v>
       </c>
       <c r="C176" s="2">
         <v>98</v>
@@ -4430,13 +4430,13 @@
         <v>92.714285714285</v>
       </c>
       <c r="E176" s="2">
-        <v>344595</v>
+        <v>344583</v>
       </c>
       <c r="F176" s="2">
-        <v>3790</v>
+        <v>3782</v>
       </c>
       <c r="G176" s="4">
-        <v>0.030843075753</v>
+        <v>0.030860675225</v>
       </c>
     </row>
     <row r="177" spans="1:7">
@@ -4444,7 +4444,7 @@
         <v>44097</v>
       </c>
       <c r="B177" s="2">
-        <v>16783</v>
+        <v>16789</v>
       </c>
       <c r="C177" s="2">
         <v>94</v>
@@ -4453,13 +4453,13 @@
         <v>93.85714285714199</v>
       </c>
       <c r="E177" s="2">
-        <v>348098</v>
+        <v>348082</v>
       </c>
       <c r="F177" s="2">
-        <v>3503</v>
+        <v>3499</v>
       </c>
       <c r="G177" s="4">
-        <v>0.030936572962</v>
+        <v>0.030964275615</v>
       </c>
     </row>
     <row r="178" spans="1:7">
@@ -4467,7 +4467,7 @@
         <v>44098</v>
       </c>
       <c r="B178" s="2">
-        <v>16874</v>
+        <v>16880</v>
       </c>
       <c r="C178" s="2">
         <v>91</v>
@@ -4476,13 +4476,13 @@
         <v>92</v>
       </c>
       <c r="E178" s="2">
-        <v>351828</v>
+        <v>351806</v>
       </c>
       <c r="F178" s="2">
-        <v>3730</v>
+        <v>3724</v>
       </c>
       <c r="G178" s="4">
-        <v>0.030165347323</v>
+        <v>0.030200712811</v>
       </c>
     </row>
     <row r="179" spans="1:7">
@@ -4490,7 +4490,7 @@
         <v>44099</v>
       </c>
       <c r="B179" s="2">
-        <v>16963</v>
+        <v>16969</v>
       </c>
       <c r="C179" s="2">
         <v>89</v>
@@ -4499,13 +4499,13 @@
         <v>89.85714285714199</v>
       </c>
       <c r="E179" s="2">
-        <v>355125</v>
+        <v>355104</v>
       </c>
       <c r="F179" s="2">
-        <v>3297</v>
+        <v>3298</v>
       </c>
       <c r="G179" s="4">
-        <v>0.029432408403</v>
+        <v>0.029465498664</v>
       </c>
     </row>
     <row r="180" spans="1:7">
@@ -4513,7 +4513,7 @@
         <v>44100</v>
       </c>
       <c r="B180" s="2">
-        <v>17022</v>
+        <v>17028</v>
       </c>
       <c r="C180" s="2">
         <v>59</v>
@@ -4522,13 +4522,13 @@
         <v>88</v>
       </c>
       <c r="E180" s="2">
-        <v>356998</v>
+        <v>356977</v>
       </c>
       <c r="F180" s="2">
         <v>1873</v>
       </c>
       <c r="G180" s="4">
-        <v>0.028354430379</v>
+        <v>0.028384480693</v>
       </c>
     </row>
     <row r="181" spans="1:7">
@@ -4536,7 +4536,7 @@
         <v>44101</v>
       </c>
       <c r="B181" s="2">
-        <v>17045</v>
+        <v>17051</v>
       </c>
       <c r="C181" s="2">
         <v>23</v>
@@ -4545,13 +4545,13 @@
         <v>85.28571428571399</v>
       </c>
       <c r="E181" s="2">
-        <v>358127</v>
+        <v>358105</v>
       </c>
       <c r="F181" s="2">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="G181" s="4">
-        <v>0.027514056595</v>
+        <v>0.027543252595</v>
       </c>
     </row>
     <row r="182" spans="1:7">
@@ -4559,7 +4559,7 @@
         <v>44102</v>
       </c>
       <c r="B182" s="2">
-        <v>17158</v>
+        <v>17164</v>
       </c>
       <c r="C182" s="2">
         <v>113</v>
@@ -4568,13 +4568,13 @@
         <v>81</v>
       </c>
       <c r="E182" s="2">
-        <v>362225</v>
+        <v>362187</v>
       </c>
       <c r="F182" s="2">
-        <v>4098</v>
+        <v>4082</v>
       </c>
       <c r="G182" s="4">
-        <v>0.026470588235</v>
+        <v>0.026512671841</v>
       </c>
     </row>
     <row r="183" spans="1:7">
@@ -4582,7 +4582,7 @@
         <v>44103</v>
       </c>
       <c r="B183" s="2">
-        <v>17233</v>
+        <v>17239</v>
       </c>
       <c r="C183" s="2">
         <v>75</v>
@@ -4591,13 +4591,13 @@
         <v>77.714285714285</v>
       </c>
       <c r="E183" s="2">
-        <v>366059</v>
+        <v>366004</v>
       </c>
       <c r="F183" s="2">
-        <v>3834</v>
+        <v>3817</v>
       </c>
       <c r="G183" s="4">
-        <v>0.025344763324</v>
+        <v>0.025395639792</v>
       </c>
     </row>
     <row r="184" spans="1:7">
@@ -4605,7 +4605,7 @@
         <v>44104</v>
       </c>
       <c r="B184" s="2">
-        <v>17293</v>
+        <v>17299</v>
       </c>
       <c r="C184" s="2">
         <v>60</v>
@@ -4614,13 +4614,13 @@
         <v>72.85714285714199</v>
       </c>
       <c r="E184" s="2">
-        <v>369618</v>
+        <v>369547</v>
       </c>
       <c r="F184" s="2">
-        <v>3559</v>
+        <v>3543</v>
       </c>
       <c r="G184" s="4">
-        <v>0.023698884758</v>
+        <v>0.023759608665</v>
       </c>
     </row>
     <row r="185" spans="1:7">
@@ -4628,7 +4628,7 @@
         <v>44105</v>
       </c>
       <c r="B185" s="2">
-        <v>17358</v>
+        <v>17364</v>
       </c>
       <c r="C185" s="2">
         <v>65</v>
@@ -4637,13 +4637,13 @@
         <v>69.142857142857</v>
       </c>
       <c r="E185" s="2">
-        <v>373143</v>
+        <v>373060</v>
       </c>
       <c r="F185" s="2">
-        <v>3525</v>
+        <v>3513</v>
       </c>
       <c r="G185" s="4">
-        <v>0.02270701384</v>
+        <v>0.022772184059</v>
       </c>
     </row>
     <row r="186" spans="1:7">
@@ -4651,7 +4651,7 @@
         <v>44106</v>
       </c>
       <c r="B186" s="2">
-        <v>17436</v>
+        <v>17442</v>
       </c>
       <c r="C186" s="2">
         <v>78</v>
@@ -4660,13 +4660,13 @@
         <v>67.571428571428</v>
       </c>
       <c r="E186" s="2">
-        <v>376687</v>
+        <v>376596</v>
       </c>
       <c r="F186" s="2">
-        <v>3544</v>
+        <v>3536</v>
       </c>
       <c r="G186" s="4">
-        <v>0.021936740562</v>
+        <v>0.022008189093</v>
       </c>
     </row>
     <row r="187" spans="1:7">
@@ -4674,7 +4674,7 @@
         <v>44107</v>
       </c>
       <c r="B187" s="2">
-        <v>17479</v>
+        <v>17485</v>
       </c>
       <c r="C187" s="2">
         <v>43</v>
@@ -4683,13 +4683,13 @@
         <v>65.28571428571399</v>
       </c>
       <c r="E187" s="2">
-        <v>378683</v>
+        <v>378588</v>
       </c>
       <c r="F187" s="2">
-        <v>1996</v>
+        <v>1992</v>
       </c>
       <c r="G187" s="4">
-        <v>0.021074475443</v>
+        <v>0.021146638286</v>
       </c>
     </row>
     <row r="188" spans="1:7">
@@ -4697,7 +4697,7 @@
         <v>44108</v>
       </c>
       <c r="B188" s="2">
-        <v>17516</v>
+        <v>17522</v>
       </c>
       <c r="C188" s="2">
         <v>37</v>
@@ -4706,13 +4706,13 @@
         <v>67.28571428571399</v>
       </c>
       <c r="E188" s="2">
-        <v>380068</v>
+        <v>379969</v>
       </c>
       <c r="F188" s="2">
-        <v>1385</v>
+        <v>1381</v>
       </c>
       <c r="G188" s="4">
-        <v>0.021466660589</v>
+        <v>0.021542261251</v>
       </c>
     </row>
     <row r="189" spans="1:7">
@@ -4720,7 +4720,7 @@
         <v>44109</v>
       </c>
       <c r="B189" s="2">
-        <v>17593</v>
+        <v>17599</v>
       </c>
       <c r="C189" s="2">
         <v>77</v>
@@ -4729,13 +4729,13 @@
         <v>62.142857142857</v>
       </c>
       <c r="E189" s="2">
-        <v>384885</v>
+        <v>384722</v>
       </c>
       <c r="F189" s="2">
-        <v>4817</v>
+        <v>4753</v>
       </c>
       <c r="G189" s="4">
-        <v>0.019196822594</v>
+        <v>0.019303305968</v>
       </c>
     </row>
     <row r="190" spans="1:7">
@@ -4743,7 +4743,7 @@
         <v>44110</v>
       </c>
       <c r="B190" s="2">
-        <v>17656</v>
+        <v>17662</v>
       </c>
       <c r="C190" s="2">
         <v>63</v>
@@ -4752,13 +4752,13 @@
         <v>60.428571428571</v>
       </c>
       <c r="E190" s="2">
-        <v>389545</v>
+        <v>389335</v>
       </c>
       <c r="F190" s="2">
-        <v>4660</v>
+        <v>4613</v>
       </c>
       <c r="G190" s="4">
-        <v>0.018010729796</v>
+        <v>0.018130384467</v>
       </c>
     </row>
     <row r="191" spans="1:7">
@@ -4766,7 +4766,7 @@
         <v>44111</v>
       </c>
       <c r="B191" s="2">
-        <v>17730</v>
+        <v>17736</v>
       </c>
       <c r="C191" s="2">
         <v>74</v>
@@ -4775,13 +4775,13 @@
         <v>62.428571428571</v>
       </c>
       <c r="E191" s="2">
-        <v>393718</v>
+        <v>393479</v>
       </c>
       <c r="F191" s="2">
-        <v>4173</v>
+        <v>4144</v>
       </c>
       <c r="G191" s="4">
-        <v>0.018132780082</v>
+        <v>0.018260070198</v>
       </c>
     </row>
     <row r="192" spans="1:7">
@@ -4789,22 +4789,22 @@
         <v>44112</v>
       </c>
       <c r="B192" s="2">
-        <v>17825</v>
+        <v>17830</v>
       </c>
       <c r="C192" s="2">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D192" s="3">
-        <v>66.714285714285</v>
+        <v>66.571428571428</v>
       </c>
       <c r="E192" s="2">
-        <v>397945</v>
+        <v>397682</v>
       </c>
       <c r="F192" s="2">
-        <v>4227</v>
+        <v>4203</v>
       </c>
       <c r="G192" s="4">
-        <v>0.018829126683</v>
+        <v>0.018926163593</v>
       </c>
     </row>
     <row r="193" spans="1:7">
@@ -4812,22 +4812,22 @@
         <v>44113</v>
       </c>
       <c r="B193" s="2">
-        <v>17883</v>
+        <v>17887</v>
       </c>
       <c r="C193" s="2">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D193" s="3">
-        <v>63.857142857142</v>
+        <v>63.57142857142801</v>
       </c>
       <c r="E193" s="2">
-        <v>401695</v>
+        <v>401427</v>
       </c>
       <c r="F193" s="2">
-        <v>3750</v>
+        <v>3745</v>
       </c>
       <c r="G193" s="4">
-        <v>0.01787428023</v>
+        <v>0.017921146953</v>
       </c>
     </row>
     <row r="194" spans="1:7">
@@ -4835,22 +4835,22 @@
         <v>44114</v>
       </c>
       <c r="B194" s="2">
-        <v>17922</v>
+        <v>17926</v>
       </c>
       <c r="C194" s="2">
         <v>39</v>
       </c>
       <c r="D194" s="3">
-        <v>63.28571428571399</v>
+        <v>63</v>
       </c>
       <c r="E194" s="2">
-        <v>403447</v>
+        <v>403176</v>
       </c>
       <c r="F194" s="2">
-        <v>1752</v>
+        <v>1749</v>
       </c>
       <c r="G194" s="4">
-        <v>0.017888870941</v>
+        <v>0.01793557833</v>
       </c>
     </row>
     <row r="195" spans="1:7">
@@ -4858,22 +4858,22 @@
         <v>44115</v>
       </c>
       <c r="B195" s="2">
-        <v>17945</v>
+        <v>17949</v>
       </c>
       <c r="C195" s="2">
         <v>23</v>
       </c>
       <c r="D195" s="3">
-        <v>61.28571428571399</v>
+        <v>61</v>
       </c>
       <c r="E195" s="2">
-        <v>404726</v>
+        <v>404446</v>
       </c>
       <c r="F195" s="2">
-        <v>1279</v>
+        <v>1270</v>
       </c>
       <c r="G195" s="4">
-        <v>0.017398004704</v>
+        <v>0.017444948318</v>
       </c>
     </row>
     <row r="196" spans="1:7">
@@ -4881,22 +4881,22 @@
         <v>44116</v>
       </c>
       <c r="B196" s="2">
-        <v>18037</v>
+        <v>18040</v>
       </c>
       <c r="C196" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D196" s="3">
-        <v>63.428571428571</v>
+        <v>63</v>
       </c>
       <c r="E196" s="2">
-        <v>409201</v>
+        <v>408890</v>
       </c>
       <c r="F196" s="2">
-        <v>4475</v>
+        <v>4444</v>
       </c>
       <c r="G196" s="4">
-        <v>0.018259582168</v>
+        <v>0.018247269116</v>
       </c>
     </row>
     <row r="197" spans="1:7">
@@ -4904,22 +4904,45 @@
         <v>44117</v>
       </c>
       <c r="B197" s="2">
-        <v>18126</v>
+        <v>18129</v>
       </c>
       <c r="C197" s="2">
         <v>89</v>
       </c>
       <c r="D197" s="3">
-        <v>67.142857142857</v>
+        <v>66.714285714285</v>
       </c>
       <c r="E197" s="2">
-        <v>413670</v>
+        <v>413333</v>
       </c>
       <c r="F197" s="2">
-        <v>4469</v>
+        <v>4443</v>
       </c>
       <c r="G197" s="4">
-        <v>0.019481865284</v>
+        <v>0.019459954996</v>
+      </c>
+    </row>
+    <row r="198" spans="1:7">
+      <c r="A198" s="1">
+        <v>44118</v>
+      </c>
+      <c r="B198" s="2">
+        <v>18197</v>
+      </c>
+      <c r="C198" s="2">
+        <v>68</v>
+      </c>
+      <c r="D198" s="3">
+        <v>65.85714285714199</v>
+      </c>
+      <c r="E198" s="2">
+        <v>417512</v>
+      </c>
+      <c r="F198" s="2">
+        <v>4179</v>
+      </c>
+      <c r="G198" s="4">
+        <v>0.01918195814</v>
       </c>
     </row>
   </sheetData>

--- a/contra_costa_county_testing.xlsx
+++ b/contra_costa_county_testing.xlsx
@@ -376,7 +376,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G198"/>
+  <dimension ref="A1:G201"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -750,13 +750,13 @@
         <v>21.857142857142</v>
       </c>
       <c r="E16" s="2">
-        <v>10044</v>
+        <v>10045</v>
       </c>
       <c r="F16" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="G16" s="4">
-        <v>0.072033898305</v>
+        <v>0.07199999999999999</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -773,13 +773,13 @@
         <v>22.428571428571</v>
       </c>
       <c r="E17" s="2">
-        <v>10426</v>
+        <v>10427</v>
       </c>
       <c r="F17" s="2">
         <v>382</v>
       </c>
       <c r="G17" s="4">
-        <v>0.071952337305</v>
+        <v>0.071919377004</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -796,13 +796,13 @@
         <v>17.428571428571</v>
       </c>
       <c r="E18" s="2">
-        <v>10772</v>
+        <v>10773</v>
       </c>
       <c r="F18" s="2">
         <v>346</v>
       </c>
       <c r="G18" s="4">
-        <v>0.059512195121</v>
+        <v>0.059483178937</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -819,13 +819,13 @@
         <v>16.714285714285</v>
       </c>
       <c r="E19" s="2">
-        <v>10927</v>
+        <v>10928</v>
       </c>
       <c r="F19" s="2">
         <v>155</v>
       </c>
       <c r="G19" s="4">
-        <v>0.057749259624</v>
+        <v>0.05772076961</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -842,13 +842,13 @@
         <v>17.428571428571</v>
       </c>
       <c r="E20" s="2">
-        <v>11073</v>
+        <v>11075</v>
       </c>
       <c r="F20" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="G20" s="4">
-        <v>0.059309674282</v>
+        <v>0.059252064108</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -865,13 +865,13 @@
         <v>15.142857142857</v>
       </c>
       <c r="E21" s="2">
-        <v>11440</v>
+        <v>11442</v>
       </c>
       <c r="F21" s="2">
         <v>367</v>
       </c>
       <c r="G21" s="4">
-        <v>0.051282051282</v>
+        <v>0.051232479458</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -888,13 +888,13 @@
         <v>15.428571428571</v>
       </c>
       <c r="E22" s="2">
-        <v>11845</v>
+        <v>11847</v>
       </c>
       <c r="F22" s="2">
         <v>405</v>
       </c>
       <c r="G22" s="4">
-        <v>0.05020920502</v>
+        <v>0.050162563864</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -911,13 +911,13 @@
         <v>13.428571428571</v>
       </c>
       <c r="E23" s="2">
-        <v>12365</v>
+        <v>12367</v>
       </c>
       <c r="F23" s="2">
         <v>520</v>
       </c>
       <c r="G23" s="4">
-        <v>0.040499784575</v>
+        <v>0.040482342807</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -934,10 +934,10 @@
         <v>12.714285714285</v>
       </c>
       <c r="E24" s="2">
-        <v>12924</v>
+        <v>12925</v>
       </c>
       <c r="F24" s="2">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="G24" s="4">
         <v>0.035628502802</v>
@@ -957,7 +957,7 @@
         <v>14</v>
       </c>
       <c r="E25" s="2">
-        <v>13489</v>
+        <v>13490</v>
       </c>
       <c r="F25" s="2">
         <v>565</v>
@@ -980,7 +980,7 @@
         <v>13.714285714285</v>
       </c>
       <c r="E26" s="2">
-        <v>13720</v>
+        <v>13721</v>
       </c>
       <c r="F26" s="2">
         <v>231</v>
@@ -1003,13 +1003,13 @@
         <v>14.285714285714</v>
       </c>
       <c r="E27" s="2">
-        <v>13950</v>
+        <v>13951</v>
       </c>
       <c r="F27" s="2">
         <v>230</v>
       </c>
       <c r="G27" s="4">
-        <v>0.034758428919</v>
+        <v>0.034770514603</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -1026,13 +1026,13 @@
         <v>15.428571428571</v>
       </c>
       <c r="E28" s="2">
-        <v>14549</v>
+        <v>14552</v>
       </c>
       <c r="F28" s="2">
-        <v>599</v>
+        <v>601</v>
       </c>
       <c r="G28" s="4">
-        <v>0.034737857832</v>
+        <v>0.034726688102</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -1049,13 +1049,13 @@
         <v>15.285714285714</v>
       </c>
       <c r="E29" s="2">
-        <v>15088</v>
+        <v>15091</v>
       </c>
       <c r="F29" s="2">
         <v>539</v>
       </c>
       <c r="G29" s="4">
-        <v>0.032994141227</v>
+        <v>0.032983970406</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -1072,13 +1072,13 @@
         <v>15.857142857142</v>
       </c>
       <c r="E30" s="2">
-        <v>15787</v>
+        <v>15790</v>
       </c>
       <c r="F30" s="2">
         <v>699</v>
       </c>
       <c r="G30" s="4">
-        <v>0.032437171244</v>
+        <v>0.032427695004</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -1095,13 +1095,13 @@
         <v>16.857142857142</v>
       </c>
       <c r="E31" s="2">
-        <v>16633</v>
+        <v>16636</v>
       </c>
       <c r="F31" s="2">
         <v>846</v>
       </c>
       <c r="G31" s="4">
-        <v>0.031814505257</v>
+        <v>0.031797359202</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -1118,13 +1118,13 @@
         <v>15.285714285714</v>
       </c>
       <c r="E32" s="2">
-        <v>17365</v>
+        <v>17368</v>
       </c>
       <c r="F32" s="2">
         <v>732</v>
       </c>
       <c r="G32" s="4">
-        <v>0.027605779153</v>
+        <v>0.027591542031</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -1141,13 +1141,13 @@
         <v>15.857142857142</v>
       </c>
       <c r="E33" s="2">
-        <v>17653</v>
+        <v>17656</v>
       </c>
       <c r="F33" s="2">
         <v>288</v>
       </c>
       <c r="G33" s="4">
-        <v>0.028222730739</v>
+        <v>0.028208386277</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -1164,13 +1164,13 @@
         <v>14.857142857142</v>
       </c>
       <c r="E34" s="2">
-        <v>17917</v>
+        <v>17920</v>
       </c>
       <c r="F34" s="2">
         <v>264</v>
       </c>
       <c r="G34" s="4">
-        <v>0.026216284345</v>
+        <v>0.026203073822</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -1187,7 +1187,7 @@
         <v>15.285714285714</v>
       </c>
       <c r="E35" s="2">
-        <v>18695</v>
+        <v>18698</v>
       </c>
       <c r="F35" s="2">
         <v>778</v>
@@ -1210,7 +1210,7 @@
         <v>15.428571428571</v>
       </c>
       <c r="E36" s="2">
-        <v>19375</v>
+        <v>19378</v>
       </c>
       <c r="F36" s="2">
         <v>680</v>
@@ -1233,7 +1233,7 @@
         <v>16.428571428571</v>
       </c>
       <c r="E37" s="2">
-        <v>20340</v>
+        <v>20343</v>
       </c>
       <c r="F37" s="2">
         <v>965</v>
@@ -1256,7 +1256,7 @@
         <v>14.428571428571</v>
       </c>
       <c r="E38" s="2">
-        <v>21236</v>
+        <v>21239</v>
       </c>
       <c r="F38" s="2">
         <v>896</v>
@@ -1279,7 +1279,7 @@
         <v>15.285714285714</v>
       </c>
       <c r="E39" s="2">
-        <v>22376</v>
+        <v>22379</v>
       </c>
       <c r="F39" s="2">
         <v>1140</v>
@@ -1302,7 +1302,7 @@
         <v>14.714285714285</v>
       </c>
       <c r="E40" s="2">
-        <v>22758</v>
+        <v>22761</v>
       </c>
       <c r="F40" s="2">
         <v>382</v>
@@ -1325,7 +1325,7 @@
         <v>15.142857142857</v>
       </c>
       <c r="E41" s="2">
-        <v>23101</v>
+        <v>23104</v>
       </c>
       <c r="F41" s="2">
         <v>343</v>
@@ -1348,7 +1348,7 @@
         <v>13</v>
       </c>
       <c r="E42" s="2">
-        <v>24204</v>
+        <v>24207</v>
       </c>
       <c r="F42" s="2">
         <v>1103</v>
@@ -1371,7 +1371,7 @@
         <v>12.285714285714</v>
       </c>
       <c r="E43" s="2">
-        <v>25435</v>
+        <v>25438</v>
       </c>
       <c r="F43" s="2">
         <v>1231</v>
@@ -1394,13 +1394,13 @@
         <v>12.857142857142</v>
       </c>
       <c r="E44" s="2">
-        <v>26531</v>
+        <v>26532</v>
       </c>
       <c r="F44" s="2">
-        <v>1096</v>
+        <v>1094</v>
       </c>
       <c r="G44" s="4">
-        <v>0.014537231465</v>
+        <v>0.014541929229</v>
       </c>
     </row>
     <row r="45" spans="1:7">
@@ -1417,13 +1417,13 @@
         <v>14</v>
       </c>
       <c r="E45" s="2">
-        <v>27392</v>
+        <v>27393</v>
       </c>
       <c r="F45" s="2">
         <v>861</v>
       </c>
       <c r="G45" s="4">
-        <v>0.0159194282</v>
+        <v>0.015924601884</v>
       </c>
     </row>
     <row r="46" spans="1:7">
@@ -1440,13 +1440,13 @@
         <v>15.714285714285</v>
       </c>
       <c r="E46" s="2">
-        <v>28311</v>
+        <v>28312</v>
       </c>
       <c r="F46" s="2">
         <v>919</v>
       </c>
       <c r="G46" s="4">
-        <v>0.018534119629</v>
+        <v>0.018540367436</v>
       </c>
     </row>
     <row r="47" spans="1:7">
@@ -1463,13 +1463,13 @@
         <v>17.571428571428</v>
       </c>
       <c r="E47" s="2">
-        <v>28720</v>
+        <v>28721</v>
       </c>
       <c r="F47" s="2">
         <v>409</v>
       </c>
       <c r="G47" s="4">
-        <v>0.020630660852</v>
+        <v>0.020637583892</v>
       </c>
     </row>
     <row r="48" spans="1:7">
@@ -1489,10 +1489,10 @@
         <v>29111</v>
       </c>
       <c r="F48" s="2">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="G48" s="4">
-        <v>0.020965058236</v>
+        <v>0.02097552855</v>
       </c>
     </row>
     <row r="49" spans="1:7">
@@ -1515,7 +1515,7 @@
         <v>1365</v>
       </c>
       <c r="G49" s="4">
-        <v>0.025031887755</v>
+        <v>0.025043866645</v>
       </c>
     </row>
     <row r="50" spans="1:7">
@@ -1538,7 +1538,7 @@
         <v>1659</v>
       </c>
       <c r="G50" s="4">
-        <v>0.026865671641</v>
+        <v>0.026877706435</v>
       </c>
     </row>
     <row r="51" spans="1:7">
@@ -1561,7 +1561,7 @@
         <v>1141</v>
       </c>
       <c r="G51" s="4">
-        <v>0.027131208302</v>
+        <v>0.027135231316</v>
       </c>
     </row>
     <row r="52" spans="1:7">
@@ -1584,7 +1584,7 @@
         <v>1131</v>
       </c>
       <c r="G52" s="4">
-        <v>0.027369921596</v>
+        <v>0.027373823781</v>
       </c>
     </row>
     <row r="53" spans="1:7">
@@ -1607,7 +1607,7 @@
         <v>1089</v>
       </c>
       <c r="G53" s="4">
-        <v>0.028392484342</v>
+        <v>0.028396436525</v>
       </c>
     </row>
     <row r="54" spans="1:7">
@@ -1630,7 +1630,7 @@
         <v>519</v>
       </c>
       <c r="G54" s="4">
-        <v>0.026867717614</v>
+        <v>0.026871401151</v>
       </c>
     </row>
     <row r="55" spans="1:7">
@@ -1900,13 +1900,13 @@
         <v>28.428571428571</v>
       </c>
       <c r="E66" s="2">
-        <v>47954</v>
+        <v>47953</v>
       </c>
       <c r="F66" s="2">
-        <v>1352</v>
+        <v>1351</v>
       </c>
       <c r="G66" s="4">
-        <v>0.026040303585</v>
+        <v>0.026043711556</v>
       </c>
     </row>
     <row r="67" spans="1:7">
@@ -1923,13 +1923,13 @@
         <v>29.285714285714</v>
       </c>
       <c r="E67" s="2">
-        <v>49584</v>
+        <v>49583</v>
       </c>
       <c r="F67" s="2">
         <v>1630</v>
       </c>
       <c r="G67" s="4">
-        <v>0.026048284625</v>
+        <v>0.026051594865</v>
       </c>
     </row>
     <row r="68" spans="1:7">
@@ -1946,13 +1946,13 @@
         <v>30.571428571428</v>
       </c>
       <c r="E68" s="2">
-        <v>50189</v>
+        <v>50188</v>
       </c>
       <c r="F68" s="2">
         <v>605</v>
       </c>
       <c r="G68" s="4">
-        <v>0.027645007105</v>
+        <v>0.027648578811</v>
       </c>
     </row>
     <row r="69" spans="1:7">
@@ -1969,13 +1969,13 @@
         <v>32.428571428571</v>
       </c>
       <c r="E69" s="2">
-        <v>50674</v>
+        <v>50673</v>
       </c>
       <c r="F69" s="2">
         <v>485</v>
       </c>
       <c r="G69" s="4">
-        <v>0.028998467041</v>
+        <v>0.029002171968</v>
       </c>
     </row>
     <row r="70" spans="1:7">
@@ -1992,13 +1992,13 @@
         <v>34.714285714285</v>
       </c>
       <c r="E70" s="2">
-        <v>52511</v>
+        <v>52509</v>
       </c>
       <c r="F70" s="2">
-        <v>1837</v>
+        <v>1836</v>
       </c>
       <c r="G70" s="4">
-        <v>0.029312424607</v>
+        <v>0.029319498069</v>
       </c>
     </row>
     <row r="71" spans="1:7">
@@ -2015,13 +2015,13 @@
         <v>36.428571428571</v>
       </c>
       <c r="E71" s="2">
-        <v>54358</v>
+        <v>54356</v>
       </c>
       <c r="F71" s="2">
         <v>1847</v>
       </c>
       <c r="G71" s="4">
-        <v>0.028587443946</v>
+        <v>0.028593855124</v>
       </c>
     </row>
     <row r="72" spans="1:7">
@@ -2038,13 +2038,13 @@
         <v>40</v>
       </c>
       <c r="E72" s="2">
-        <v>56349</v>
+        <v>56347</v>
       </c>
       <c r="F72" s="2">
         <v>1991</v>
       </c>
       <c r="G72" s="4">
-        <v>0.028726787729</v>
+        <v>0.028732683427</v>
       </c>
     </row>
     <row r="73" spans="1:7">
@@ -2061,13 +2061,13 @@
         <v>40.285714285714</v>
       </c>
       <c r="E73" s="2">
-        <v>58504</v>
+        <v>58502</v>
       </c>
       <c r="F73" s="2">
         <v>2155</v>
       </c>
       <c r="G73" s="4">
-        <v>0.026729857819</v>
+        <v>0.026732391695</v>
       </c>
     </row>
     <row r="74" spans="1:7">
@@ -2084,13 +2084,13 @@
         <v>41.857142857142</v>
       </c>
       <c r="E74" s="2">
-        <v>60765</v>
+        <v>60763</v>
       </c>
       <c r="F74" s="2">
         <v>2261</v>
       </c>
       <c r="G74" s="4">
-        <v>0.026205169483</v>
+        <v>0.026207513416</v>
       </c>
     </row>
     <row r="75" spans="1:7">
@@ -2107,13 +2107,13 @@
         <v>44.142857142857</v>
       </c>
       <c r="E75" s="2">
-        <v>61609</v>
+        <v>61606</v>
       </c>
       <c r="F75" s="2">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="G75" s="4">
-        <v>0.027057793345</v>
+        <v>0.027062532842</v>
       </c>
     </row>
     <row r="76" spans="1:7">
@@ -2130,13 +2130,13 @@
         <v>45.428571428571</v>
       </c>
       <c r="E76" s="2">
-        <v>62196</v>
+        <v>62193</v>
       </c>
       <c r="F76" s="2">
         <v>587</v>
       </c>
       <c r="G76" s="4">
-        <v>0.027599375108</v>
+        <v>0.027604166666</v>
       </c>
     </row>
     <row r="77" spans="1:7">
@@ -2153,13 +2153,13 @@
         <v>46.714285714285</v>
       </c>
       <c r="E77" s="2">
-        <v>64415</v>
+        <v>64412</v>
       </c>
       <c r="F77" s="2">
         <v>2219</v>
       </c>
       <c r="G77" s="4">
-        <v>0.027469758064</v>
+        <v>0.027472065865</v>
       </c>
     </row>
     <row r="78" spans="1:7">
@@ -2176,13 +2176,13 @@
         <v>52.571428571428</v>
       </c>
       <c r="E78" s="2">
-        <v>66936</v>
+        <v>66933</v>
       </c>
       <c r="F78" s="2">
         <v>2521</v>
       </c>
       <c r="G78" s="4">
-        <v>0.029257433614</v>
+        <v>0.029259759879</v>
       </c>
     </row>
     <row r="79" spans="1:7">
@@ -2199,10 +2199,10 @@
         <v>57.285714285714</v>
       </c>
       <c r="E79" s="2">
-        <v>69507</v>
+        <v>69505</v>
       </c>
       <c r="F79" s="2">
-        <v>2571</v>
+        <v>2572</v>
       </c>
       <c r="G79" s="4">
         <v>0.030475756193</v>
@@ -2222,7 +2222,7 @@
         <v>62.57142857142801</v>
       </c>
       <c r="E80" s="2">
-        <v>72033</v>
+        <v>72031</v>
       </c>
       <c r="F80" s="2">
         <v>2526</v>
@@ -2245,7 +2245,7 @@
         <v>68.85714285714199</v>
       </c>
       <c r="E81" s="2">
-        <v>74476</v>
+        <v>74474</v>
       </c>
       <c r="F81" s="2">
         <v>2443</v>
@@ -2268,13 +2268,13 @@
         <v>71.428571428571</v>
       </c>
       <c r="E82" s="2">
-        <v>75428</v>
+        <v>75426</v>
       </c>
       <c r="F82" s="2">
         <v>952</v>
       </c>
       <c r="G82" s="4">
-        <v>0.036182068167</v>
+        <v>0.036179450072</v>
       </c>
     </row>
     <row r="83" spans="1:7">
@@ -2291,13 +2291,13 @@
         <v>73.28571428571399</v>
       </c>
       <c r="E83" s="2">
-        <v>76125</v>
+        <v>76123</v>
       </c>
       <c r="F83" s="2">
         <v>697</v>
       </c>
       <c r="G83" s="4">
-        <v>0.036829636011</v>
+        <v>0.036826992103</v>
       </c>
     </row>
     <row r="84" spans="1:7">
@@ -2314,13 +2314,13 @@
         <v>81</v>
       </c>
       <c r="E84" s="2">
-        <v>78743</v>
+        <v>78741</v>
       </c>
       <c r="F84" s="2">
         <v>2618</v>
       </c>
       <c r="G84" s="4">
-        <v>0.039572864321</v>
+        <v>0.039570102589</v>
       </c>
     </row>
     <row r="85" spans="1:7">
@@ -2337,13 +2337,13 @@
         <v>88</v>
       </c>
       <c r="E85" s="2">
-        <v>81529</v>
+        <v>81527</v>
       </c>
       <c r="F85" s="2">
         <v>2786</v>
       </c>
       <c r="G85" s="4">
-        <v>0.042212019461</v>
+        <v>0.042209127038</v>
       </c>
     </row>
     <row r="86" spans="1:7">
@@ -2360,13 +2360,13 @@
         <v>96</v>
       </c>
       <c r="E86" s="2">
-        <v>84558</v>
+        <v>84557</v>
       </c>
       <c r="F86" s="2">
-        <v>3029</v>
+        <v>3030</v>
       </c>
       <c r="G86" s="4">
-        <v>0.044648196133</v>
+        <v>0.044645229869</v>
       </c>
     </row>
     <row r="87" spans="1:7">
@@ -2383,13 +2383,13 @@
         <v>104.714285714285</v>
       </c>
       <c r="E87" s="2">
-        <v>87917</v>
+        <v>87916</v>
       </c>
       <c r="F87" s="2">
         <v>3359</v>
       </c>
       <c r="G87" s="4">
-        <v>0.04614706623</v>
+        <v>0.046144161158</v>
       </c>
     </row>
     <row r="88" spans="1:7">
@@ -2406,13 +2406,13 @@
         <v>114.428571428571</v>
       </c>
       <c r="E88" s="2">
-        <v>90886</v>
+        <v>90885</v>
       </c>
       <c r="F88" s="2">
         <v>2969</v>
       </c>
       <c r="G88" s="4">
-        <v>0.048811700182</v>
+        <v>0.048808725854</v>
       </c>
     </row>
     <row r="89" spans="1:7">
@@ -2429,13 +2429,13 @@
         <v>118.428571428571</v>
       </c>
       <c r="E89" s="2">
-        <v>91960</v>
+        <v>91959</v>
       </c>
       <c r="F89" s="2">
         <v>1074</v>
       </c>
       <c r="G89" s="4">
-        <v>0.050145172997</v>
+        <v>0.050142139962</v>
       </c>
     </row>
     <row r="90" spans="1:7">
@@ -2452,13 +2452,13 @@
         <v>121.142857142857</v>
       </c>
       <c r="E90" s="2">
-        <v>92755</v>
+        <v>92754</v>
       </c>
       <c r="F90" s="2">
         <v>795</v>
       </c>
       <c r="G90" s="4">
-        <v>0.050992182802</v>
+        <v>0.050989116709</v>
       </c>
     </row>
     <row r="91" spans="1:7">
@@ -2475,13 +2475,13 @@
         <v>133.428571428571</v>
       </c>
       <c r="E91" s="2">
-        <v>96441</v>
+        <v>96440</v>
       </c>
       <c r="F91" s="2">
         <v>3686</v>
       </c>
       <c r="G91" s="4">
-        <v>0.052774324782</v>
+        <v>0.052771343013</v>
       </c>
     </row>
     <row r="92" spans="1:7">
@@ -2498,13 +2498,13 @@
         <v>137</v>
       </c>
       <c r="E92" s="2">
-        <v>99921</v>
+        <v>99920</v>
       </c>
       <c r="F92" s="2">
         <v>3480</v>
       </c>
       <c r="G92" s="4">
-        <v>0.052142235754</v>
+        <v>0.052139400859</v>
       </c>
     </row>
     <row r="93" spans="1:7">
@@ -2524,10 +2524,10 @@
         <v>103460</v>
       </c>
       <c r="F93" s="2">
-        <v>3539</v>
+        <v>3540</v>
       </c>
       <c r="G93" s="4">
-        <v>0.052322505554</v>
+        <v>0.052319737607</v>
       </c>
     </row>
     <row r="94" spans="1:7">
@@ -2550,7 +2550,7 @@
         <v>3924</v>
       </c>
       <c r="G94" s="4">
-        <v>0.053886063594</v>
+        <v>0.053883295664</v>
       </c>
     </row>
     <row r="95" spans="1:7">
@@ -2573,7 +2573,7 @@
         <v>2641</v>
       </c>
       <c r="G95" s="4">
-        <v>0.053451068498</v>
+        <v>0.053448275862</v>
       </c>
     </row>
     <row r="96" spans="1:7">
@@ -2596,7 +2596,7 @@
         <v>1117</v>
       </c>
       <c r="G96" s="4">
-        <v>0.054008966739</v>
+        <v>0.054006151279</v>
       </c>
     </row>
     <row r="97" spans="1:7">
@@ -2619,7 +2619,7 @@
         <v>1129</v>
       </c>
       <c r="G97" s="4">
-        <v>0.054468128714</v>
+        <v>0.05446533791</v>
       </c>
     </row>
     <row r="98" spans="1:7">
@@ -2642,7 +2642,7 @@
         <v>4077</v>
       </c>
       <c r="G98" s="4">
-        <v>0.053749937208</v>
+        <v>0.053747237291</v>
       </c>
     </row>
     <row r="99" spans="1:7">
@@ -2659,13 +2659,13 @@
         <v>161.142857142857</v>
       </c>
       <c r="E99" s="2">
-        <v>120429</v>
+        <v>120431</v>
       </c>
       <c r="F99" s="2">
-        <v>4081</v>
+        <v>4083</v>
       </c>
       <c r="G99" s="4">
-        <v>0.055002925687</v>
+        <v>0.054994880795</v>
       </c>
     </row>
     <row r="100" spans="1:7">
@@ -2682,13 +2682,13 @@
         <v>168.571428571428</v>
       </c>
       <c r="E100" s="2">
-        <v>124693</v>
+        <v>124695</v>
       </c>
       <c r="F100" s="2">
         <v>4264</v>
       </c>
       <c r="G100" s="4">
-        <v>0.055573870861</v>
+        <v>0.055568636684</v>
       </c>
     </row>
     <row r="101" spans="1:7">
@@ -2705,13 +2705,13 @@
         <v>174.285714285714</v>
       </c>
       <c r="E101" s="2">
-        <v>129296</v>
+        <v>129298</v>
       </c>
       <c r="F101" s="2">
         <v>4603</v>
       </c>
       <c r="G101" s="4">
-        <v>0.055677254472</v>
+        <v>0.05567217304</v>
       </c>
     </row>
     <row r="102" spans="1:7">
@@ -2728,13 +2728,13 @@
         <v>188.857142857142</v>
       </c>
       <c r="E102" s="2">
-        <v>133759</v>
+        <v>133760</v>
       </c>
       <c r="F102" s="2">
-        <v>4463</v>
+        <v>4462</v>
       </c>
       <c r="G102" s="4">
-        <v>0.055700682565</v>
+        <v>0.055698335791</v>
       </c>
     </row>
     <row r="103" spans="1:7">
@@ -2751,13 +2751,13 @@
         <v>195.571428571428</v>
       </c>
       <c r="E103" s="2">
-        <v>135830</v>
+        <v>135832</v>
       </c>
       <c r="F103" s="2">
-        <v>2071</v>
+        <v>2072</v>
       </c>
       <c r="G103" s="4">
-        <v>0.055452041477</v>
+        <v>0.055447549615</v>
       </c>
     </row>
     <row r="104" spans="1:7">
@@ -2774,13 +2774,13 @@
         <v>197.714285714285</v>
       </c>
       <c r="E104" s="2">
-        <v>137156</v>
+        <v>137158</v>
       </c>
       <c r="F104" s="2">
         <v>1326</v>
       </c>
       <c r="G104" s="4">
-        <v>0.055615832831</v>
+        <v>0.055611363362</v>
       </c>
     </row>
     <row r="105" spans="1:7">
@@ -2797,13 +2797,13 @@
         <v>205.857142857142</v>
       </c>
       <c r="E105" s="2">
-        <v>141761</v>
+        <v>141764</v>
       </c>
       <c r="F105" s="2">
-        <v>4605</v>
+        <v>4606</v>
       </c>
       <c r="G105" s="4">
-        <v>0.056703262109</v>
+        <v>0.05669656909</v>
       </c>
     </row>
     <row r="106" spans="1:7">
@@ -2811,22 +2811,22 @@
         <v>44026</v>
       </c>
       <c r="B106" s="2">
-        <v>6453</v>
+        <v>6454</v>
       </c>
       <c r="C106" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="D106" s="3">
-        <v>211.285714285714</v>
+        <v>211.428571428571</v>
       </c>
       <c r="E106" s="2">
-        <v>145528</v>
+        <v>145532</v>
       </c>
       <c r="F106" s="2">
-        <v>3767</v>
+        <v>3768</v>
       </c>
       <c r="G106" s="4">
-        <v>0.058926650464</v>
+        <v>0.05896179435</v>
       </c>
     </row>
     <row r="107" spans="1:7">
@@ -2834,22 +2834,22 @@
         <v>44027</v>
       </c>
       <c r="B107" s="2">
-        <v>6713</v>
+        <v>6714</v>
       </c>
       <c r="C107" s="2">
         <v>260</v>
       </c>
       <c r="D107" s="3">
-        <v>216.285714285714</v>
+        <v>216.428571428571</v>
       </c>
       <c r="E107" s="2">
-        <v>149874</v>
+        <v>149879</v>
       </c>
       <c r="F107" s="2">
-        <v>4346</v>
+        <v>4347</v>
       </c>
       <c r="G107" s="4">
-        <v>0.060124697192</v>
+        <v>0.060157242693</v>
       </c>
     </row>
     <row r="108" spans="1:7">
@@ -2857,22 +2857,22 @@
         <v>44028</v>
       </c>
       <c r="B108" s="2">
-        <v>6969</v>
+        <v>6970</v>
       </c>
       <c r="C108" s="2">
         <v>256</v>
       </c>
       <c r="D108" s="3">
-        <v>216.857142857142</v>
+        <v>217</v>
       </c>
       <c r="E108" s="2">
-        <v>154058</v>
+        <v>154063</v>
       </c>
       <c r="F108" s="2">
         <v>4184</v>
       </c>
       <c r="G108" s="4">
-        <v>0.06130361037</v>
+        <v>0.061336563698</v>
       </c>
     </row>
     <row r="109" spans="1:7">
@@ -2883,19 +2883,19 @@
         <v>7220</v>
       </c>
       <c r="C109" s="2">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D109" s="3">
         <v>217.571428571428</v>
       </c>
       <c r="E109" s="2">
-        <v>158262</v>
+        <v>158267</v>
       </c>
       <c r="F109" s="2">
         <v>4204</v>
       </c>
       <c r="G109" s="4">
-        <v>0.062155654409</v>
+        <v>0.062145509446</v>
       </c>
     </row>
     <row r="110" spans="1:7">
@@ -2912,13 +2912,13 @@
         <v>216</v>
       </c>
       <c r="E110" s="2">
-        <v>160487</v>
+        <v>160492</v>
       </c>
       <c r="F110" s="2">
         <v>2225</v>
       </c>
       <c r="G110" s="4">
-        <v>0.061321328628</v>
+        <v>0.061313868613</v>
       </c>
     </row>
     <row r="111" spans="1:7">
@@ -2935,13 +2935,13 @@
         <v>215.714285714285</v>
       </c>
       <c r="E111" s="2">
-        <v>161744</v>
+        <v>161749</v>
       </c>
       <c r="F111" s="2">
         <v>1257</v>
       </c>
       <c r="G111" s="4">
-        <v>0.061412070928</v>
+        <v>0.06140457891</v>
       </c>
     </row>
     <row r="112" spans="1:7">
@@ -2958,13 +2958,13 @@
         <v>220</v>
       </c>
       <c r="E112" s="2">
-        <v>165992</v>
+        <v>165997</v>
       </c>
       <c r="F112" s="2">
         <v>4248</v>
       </c>
       <c r="G112" s="4">
-        <v>0.06355495026999999</v>
+        <v>0.063549704947</v>
       </c>
     </row>
     <row r="113" spans="1:7">
@@ -2978,16 +2978,16 @@
         <v>240</v>
       </c>
       <c r="D113" s="3">
-        <v>218</v>
+        <v>217.857142857142</v>
       </c>
       <c r="E113" s="2">
-        <v>169830</v>
+        <v>169836</v>
       </c>
       <c r="F113" s="2">
-        <v>3838</v>
+        <v>3839</v>
       </c>
       <c r="G113" s="4">
-        <v>0.062793185746</v>
+        <v>0.062746872942</v>
       </c>
     </row>
     <row r="114" spans="1:7">
@@ -3001,16 +3001,16 @@
         <v>249</v>
       </c>
       <c r="D114" s="3">
-        <v>216.428571428571</v>
+        <v>216.285714285714</v>
       </c>
       <c r="E114" s="2">
-        <v>173492</v>
+        <v>173498</v>
       </c>
       <c r="F114" s="2">
         <v>3662</v>
       </c>
       <c r="G114" s="4">
-        <v>0.06414599034600001</v>
+        <v>0.064100935687</v>
       </c>
     </row>
     <row r="115" spans="1:7">
@@ -3024,16 +3024,16 @@
         <v>232</v>
       </c>
       <c r="D115" s="3">
-        <v>213</v>
+        <v>212.857142857142</v>
       </c>
       <c r="E115" s="2">
-        <v>176817</v>
+        <v>176823</v>
       </c>
       <c r="F115" s="2">
         <v>3325</v>
       </c>
       <c r="G115" s="4">
-        <v>0.065512544487</v>
+        <v>0.065465729349</v>
       </c>
     </row>
     <row r="116" spans="1:7">
@@ -3050,13 +3050,13 @@
         <v>208.428571428571</v>
       </c>
       <c r="E116" s="2">
-        <v>180451</v>
+        <v>180457</v>
       </c>
       <c r="F116" s="2">
         <v>3634</v>
       </c>
       <c r="G116" s="4">
-        <v>0.065753301185</v>
+        <v>0.06575033799</v>
       </c>
     </row>
     <row r="117" spans="1:7">
@@ -3064,22 +3064,22 @@
         <v>44037</v>
       </c>
       <c r="B117" s="2">
-        <v>8790</v>
+        <v>8791</v>
       </c>
       <c r="C117" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D117" s="3">
-        <v>205.857142857142</v>
+        <v>206</v>
       </c>
       <c r="E117" s="2">
-        <v>182071</v>
+        <v>182078</v>
       </c>
       <c r="F117" s="2">
-        <v>1620</v>
+        <v>1621</v>
       </c>
       <c r="G117" s="4">
-        <v>0.06676241660399999</v>
+        <v>0.06680255721300001</v>
       </c>
     </row>
     <row r="118" spans="1:7">
@@ -3087,22 +3087,22 @@
         <v>44038</v>
       </c>
       <c r="B118" s="2">
-        <v>8893</v>
+        <v>8894</v>
       </c>
       <c r="C118" s="2">
         <v>103</v>
       </c>
       <c r="D118" s="3">
-        <v>206.428571428571</v>
+        <v>206.571428571428</v>
       </c>
       <c r="E118" s="2">
-        <v>183325</v>
+        <v>183332</v>
       </c>
       <c r="F118" s="2">
         <v>1254</v>
       </c>
       <c r="G118" s="4">
-        <v>0.066957045549</v>
+        <v>0.066997173701</v>
       </c>
     </row>
     <row r="119" spans="1:7">
@@ -3110,22 +3110,22 @@
         <v>44039</v>
       </c>
       <c r="B119" s="2">
-        <v>9136</v>
+        <v>9137</v>
       </c>
       <c r="C119" s="2">
         <v>243</v>
       </c>
       <c r="D119" s="3">
-        <v>199.571428571428</v>
+        <v>199.714285714285</v>
       </c>
       <c r="E119" s="2">
-        <v>187494</v>
+        <v>187503</v>
       </c>
       <c r="F119" s="2">
-        <v>4169</v>
+        <v>4171</v>
       </c>
       <c r="G119" s="4">
-        <v>0.06497070039900001</v>
+        <v>0.065005114851</v>
       </c>
     </row>
     <row r="120" spans="1:7">
@@ -3133,22 +3133,22 @@
         <v>44040</v>
       </c>
       <c r="B120" s="2">
-        <v>9391</v>
+        <v>9392</v>
       </c>
       <c r="C120" s="2">
         <v>255</v>
       </c>
       <c r="D120" s="3">
-        <v>201.714285714285</v>
+        <v>201.857142857142</v>
       </c>
       <c r="E120" s="2">
-        <v>191403</v>
+        <v>191417</v>
       </c>
       <c r="F120" s="2">
-        <v>3909</v>
+        <v>3914</v>
       </c>
       <c r="G120" s="4">
-        <v>0.065452185602</v>
+        <v>0.065474259765</v>
       </c>
     </row>
     <row r="121" spans="1:7">
@@ -3156,22 +3156,22 @@
         <v>44041</v>
       </c>
       <c r="B121" s="2">
-        <v>9643</v>
+        <v>9644</v>
       </c>
       <c r="C121" s="2">
         <v>252</v>
       </c>
       <c r="D121" s="3">
-        <v>202.142857142857</v>
+        <v>202.285714285714</v>
       </c>
       <c r="E121" s="2">
-        <v>195264</v>
+        <v>195280</v>
       </c>
       <c r="F121" s="2">
-        <v>3861</v>
+        <v>3863</v>
       </c>
       <c r="G121" s="4">
-        <v>0.0649917325</v>
+        <v>0.06500780460900001</v>
       </c>
     </row>
     <row r="122" spans="1:7">
@@ -3179,22 +3179,22 @@
         <v>44042</v>
       </c>
       <c r="B122" s="2">
-        <v>9861</v>
+        <v>9862</v>
       </c>
       <c r="C122" s="2">
         <v>218</v>
       </c>
       <c r="D122" s="3">
-        <v>200.142857142857</v>
+        <v>200.285714285714</v>
       </c>
       <c r="E122" s="2">
-        <v>198934</v>
+        <v>198952</v>
       </c>
       <c r="F122" s="2">
-        <v>3670</v>
+        <v>3672</v>
       </c>
       <c r="G122" s="4">
-        <v>0.063344938282</v>
+        <v>0.06335577748600001</v>
       </c>
     </row>
     <row r="123" spans="1:7">
@@ -3202,22 +3202,22 @@
         <v>44043</v>
       </c>
       <c r="B123" s="2">
-        <v>10094</v>
+        <v>10095</v>
       </c>
       <c r="C123" s="2">
         <v>233</v>
       </c>
       <c r="D123" s="3">
-        <v>202.142857142857</v>
+        <v>202.285714285714</v>
       </c>
       <c r="E123" s="2">
-        <v>202472</v>
+        <v>202491</v>
       </c>
       <c r="F123" s="2">
-        <v>3538</v>
+        <v>3539</v>
       </c>
       <c r="G123" s="4">
-        <v>0.064256845738</v>
+        <v>0.06426431878</v>
       </c>
     </row>
     <row r="124" spans="1:7">
@@ -3225,7 +3225,7 @@
         <v>44044</v>
       </c>
       <c r="B124" s="2">
-        <v>10202</v>
+        <v>10203</v>
       </c>
       <c r="C124" s="2">
         <v>108</v>
@@ -3234,13 +3234,13 @@
         <v>201.714285714285</v>
       </c>
       <c r="E124" s="2">
-        <v>204124</v>
+        <v>204143</v>
       </c>
       <c r="F124" s="2">
         <v>1652</v>
       </c>
       <c r="G124" s="4">
-        <v>0.064027569945</v>
+        <v>0.063992748697</v>
       </c>
     </row>
     <row r="125" spans="1:7">
@@ -3248,7 +3248,7 @@
         <v>44045</v>
       </c>
       <c r="B125" s="2">
-        <v>10281</v>
+        <v>10282</v>
       </c>
       <c r="C125" s="2">
         <v>79</v>
@@ -3257,13 +3257,13 @@
         <v>198.285714285714</v>
       </c>
       <c r="E125" s="2">
-        <v>205272</v>
+        <v>205291</v>
       </c>
       <c r="F125" s="2">
         <v>1148</v>
       </c>
       <c r="G125" s="4">
-        <v>0.06324326787200001</v>
+        <v>0.06320870713600001</v>
       </c>
     </row>
     <row r="126" spans="1:7">
@@ -3271,7 +3271,7 @@
         <v>44046</v>
       </c>
       <c r="B126" s="2">
-        <v>10536</v>
+        <v>10537</v>
       </c>
       <c r="C126" s="2">
         <v>255</v>
@@ -3280,13 +3280,13 @@
         <v>200</v>
       </c>
       <c r="E126" s="2">
-        <v>209141</v>
+        <v>209160</v>
       </c>
       <c r="F126" s="2">
         <v>3869</v>
       </c>
       <c r="G126" s="4">
-        <v>0.064674088788</v>
+        <v>0.064644225885</v>
       </c>
     </row>
     <row r="127" spans="1:7">
@@ -3294,22 +3294,22 @@
         <v>44047</v>
       </c>
       <c r="B127" s="2">
-        <v>10769</v>
+        <v>10771</v>
       </c>
       <c r="C127" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="D127" s="3">
-        <v>196.857142857142</v>
+        <v>197</v>
       </c>
       <c r="E127" s="2">
-        <v>212451</v>
+        <v>212471</v>
       </c>
       <c r="F127" s="2">
-        <v>3310</v>
+        <v>3311</v>
       </c>
       <c r="G127" s="4">
-        <v>0.06546940326800001</v>
+        <v>0.065498242614</v>
       </c>
     </row>
     <row r="128" spans="1:7">
@@ -3317,22 +3317,22 @@
         <v>44048</v>
       </c>
       <c r="B128" s="2">
-        <v>10964</v>
+        <v>10970</v>
       </c>
       <c r="C128" s="2">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="D128" s="3">
-        <v>188.714285714285</v>
+        <v>189.428571428571</v>
       </c>
       <c r="E128" s="2">
-        <v>215712</v>
+        <v>215736</v>
       </c>
       <c r="F128" s="2">
-        <v>3261</v>
+        <v>3265</v>
       </c>
       <c r="G128" s="4">
-        <v>0.06460289514799999</v>
+        <v>0.064822057098</v>
       </c>
     </row>
     <row r="129" spans="1:7">
@@ -3340,22 +3340,22 @@
         <v>44049</v>
       </c>
       <c r="B129" s="2">
-        <v>11163</v>
+        <v>11169</v>
       </c>
       <c r="C129" s="2">
         <v>199</v>
       </c>
       <c r="D129" s="3">
-        <v>186</v>
+        <v>186.714285714285</v>
       </c>
       <c r="E129" s="2">
-        <v>219374</v>
+        <v>219397</v>
       </c>
       <c r="F129" s="2">
-        <v>3662</v>
+        <v>3661</v>
       </c>
       <c r="G129" s="4">
-        <v>0.063698630136</v>
+        <v>0.06392761066200001</v>
       </c>
     </row>
     <row r="130" spans="1:7">
@@ -3363,22 +3363,22 @@
         <v>44050</v>
       </c>
       <c r="B130" s="2">
-        <v>11345</v>
+        <v>11353</v>
       </c>
       <c r="C130" s="2">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="D130" s="3">
-        <v>178.714285714285</v>
+        <v>179.714285714285</v>
       </c>
       <c r="E130" s="2">
-        <v>222697</v>
+        <v>222724</v>
       </c>
       <c r="F130" s="2">
-        <v>3323</v>
+        <v>3327</v>
       </c>
       <c r="G130" s="4">
-        <v>0.061854140914</v>
+        <v>0.062175653635</v>
       </c>
     </row>
     <row r="131" spans="1:7">
@@ -3386,22 +3386,22 @@
         <v>44051</v>
       </c>
       <c r="B131" s="2">
-        <v>11465</v>
+        <v>11473</v>
       </c>
       <c r="C131" s="2">
         <v>120</v>
       </c>
       <c r="D131" s="3">
-        <v>180.428571428571</v>
+        <v>181.428571428571</v>
       </c>
       <c r="E131" s="2">
-        <v>224403</v>
+        <v>224430</v>
       </c>
       <c r="F131" s="2">
         <v>1706</v>
       </c>
       <c r="G131" s="4">
-        <v>0.062281177572</v>
+        <v>0.062601666091</v>
       </c>
     </row>
     <row r="132" spans="1:7">
@@ -3409,22 +3409,22 @@
         <v>44052</v>
       </c>
       <c r="B132" s="2">
-        <v>11550</v>
+        <v>11558</v>
       </c>
       <c r="C132" s="2">
         <v>85</v>
       </c>
       <c r="D132" s="3">
-        <v>181.285714285714</v>
+        <v>182.285714285714</v>
       </c>
       <c r="E132" s="2">
-        <v>225467</v>
+        <v>225495</v>
       </c>
       <c r="F132" s="2">
-        <v>1064</v>
+        <v>1065</v>
       </c>
       <c r="G132" s="4">
-        <v>0.062837335974</v>
+        <v>0.06315581073</v>
       </c>
     </row>
     <row r="133" spans="1:7">
@@ -3432,22 +3432,22 @@
         <v>44053</v>
       </c>
       <c r="B133" s="2">
-        <v>11787</v>
+        <v>11795</v>
       </c>
       <c r="C133" s="2">
         <v>237</v>
       </c>
       <c r="D133" s="3">
-        <v>178.714285714285</v>
+        <v>179.714285714285</v>
       </c>
       <c r="E133" s="2">
-        <v>229364</v>
+        <v>229392</v>
       </c>
       <c r="F133" s="2">
         <v>3897</v>
       </c>
       <c r="G133" s="4">
-        <v>0.061860258121</v>
+        <v>0.062178726769</v>
       </c>
     </row>
     <row r="134" spans="1:7">
@@ -3455,22 +3455,22 @@
         <v>44054</v>
       </c>
       <c r="B134" s="2">
-        <v>11988</v>
+        <v>11995</v>
       </c>
       <c r="C134" s="2">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D134" s="3">
-        <v>174.142857142857</v>
+        <v>174.857142857142</v>
       </c>
       <c r="E134" s="2">
-        <v>232783</v>
+        <v>232810</v>
       </c>
       <c r="F134" s="2">
-        <v>3419</v>
+        <v>3418</v>
       </c>
       <c r="G134" s="4">
-        <v>0.059954751131</v>
+        <v>0.06017994985</v>
       </c>
     </row>
     <row r="135" spans="1:7">
@@ -3478,22 +3478,22 @@
         <v>44055</v>
       </c>
       <c r="B135" s="2">
-        <v>12188</v>
+        <v>12194</v>
       </c>
       <c r="C135" s="2">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D135" s="3">
         <v>174.857142857142</v>
       </c>
       <c r="E135" s="2">
-        <v>236642</v>
+        <v>236668</v>
       </c>
       <c r="F135" s="2">
-        <v>3859</v>
+        <v>3858</v>
       </c>
       <c r="G135" s="4">
-        <v>0.058480649784</v>
+        <v>0.058475062105</v>
       </c>
     </row>
     <row r="136" spans="1:7">
@@ -3501,22 +3501,22 @@
         <v>44056</v>
       </c>
       <c r="B136" s="2">
-        <v>12364</v>
+        <v>12369</v>
       </c>
       <c r="C136" s="2">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D136" s="3">
-        <v>171.571428571428</v>
+        <v>171.428571428571</v>
       </c>
       <c r="E136" s="2">
-        <v>239908</v>
+        <v>239935</v>
       </c>
       <c r="F136" s="2">
-        <v>3266</v>
+        <v>3267</v>
       </c>
       <c r="G136" s="4">
-        <v>0.058488360767</v>
+        <v>0.058428279287</v>
       </c>
     </row>
     <row r="137" spans="1:7">
@@ -3524,22 +3524,22 @@
         <v>44057</v>
       </c>
       <c r="B137" s="2">
-        <v>12539</v>
+        <v>12544</v>
       </c>
       <c r="C137" s="2">
         <v>175</v>
       </c>
       <c r="D137" s="3">
-        <v>170.571428571428</v>
+        <v>170.142857142857</v>
       </c>
       <c r="E137" s="2">
-        <v>243267</v>
+        <v>243295</v>
       </c>
       <c r="F137" s="2">
-        <v>3359</v>
+        <v>3360</v>
       </c>
       <c r="G137" s="4">
-        <v>0.058045697617</v>
+        <v>0.057897039521</v>
       </c>
     </row>
     <row r="138" spans="1:7">
@@ -3547,22 +3547,22 @@
         <v>44058</v>
       </c>
       <c r="B138" s="2">
-        <v>12632</v>
+        <v>12637</v>
       </c>
       <c r="C138" s="2">
         <v>93</v>
       </c>
       <c r="D138" s="3">
-        <v>166.714285714285</v>
+        <v>166.285714285714</v>
       </c>
       <c r="E138" s="2">
-        <v>244828</v>
+        <v>244858</v>
       </c>
       <c r="F138" s="2">
-        <v>1561</v>
+        <v>1563</v>
       </c>
       <c r="G138" s="4">
-        <v>0.057135862913</v>
+        <v>0.056980614842</v>
       </c>
     </row>
     <row r="139" spans="1:7">
@@ -3570,22 +3570,22 @@
         <v>44059</v>
       </c>
       <c r="B139" s="2">
-        <v>12677</v>
+        <v>12682</v>
       </c>
       <c r="C139" s="2">
         <v>45</v>
       </c>
       <c r="D139" s="3">
-        <v>161</v>
+        <v>160.571428571428</v>
       </c>
       <c r="E139" s="2">
-        <v>245603</v>
+        <v>245633</v>
       </c>
       <c r="F139" s="2">
         <v>775</v>
       </c>
       <c r="G139" s="4">
-        <v>0.055969408025</v>
+        <v>0.055814877346</v>
       </c>
     </row>
     <row r="140" spans="1:7">
@@ -3593,22 +3593,22 @@
         <v>44060</v>
       </c>
       <c r="B140" s="2">
-        <v>12890</v>
+        <v>12895</v>
       </c>
       <c r="C140" s="2">
         <v>213</v>
       </c>
       <c r="D140" s="3">
-        <v>157.571428571428</v>
+        <v>157.142857142857</v>
       </c>
       <c r="E140" s="2">
-        <v>249258</v>
+        <v>249291</v>
       </c>
       <c r="F140" s="2">
-        <v>3655</v>
+        <v>3658</v>
       </c>
       <c r="G140" s="4">
-        <v>0.055443852417</v>
+        <v>0.055279159756</v>
       </c>
     </row>
     <row r="141" spans="1:7">
@@ -3616,22 +3616,22 @@
         <v>44061</v>
       </c>
       <c r="B141" s="2">
-        <v>13058</v>
+        <v>13063</v>
       </c>
       <c r="C141" s="2">
         <v>168</v>
       </c>
       <c r="D141" s="3">
-        <v>152.857142857142</v>
+        <v>152.571428571428</v>
       </c>
       <c r="E141" s="2">
-        <v>252332</v>
+        <v>252373</v>
       </c>
       <c r="F141" s="2">
-        <v>3074</v>
+        <v>3082</v>
       </c>
       <c r="G141" s="4">
-        <v>0.054734257506</v>
+        <v>0.054592853856</v>
       </c>
     </row>
     <row r="142" spans="1:7">
@@ -3639,22 +3639,22 @@
         <v>44062</v>
       </c>
       <c r="B142" s="2">
-        <v>13216</v>
+        <v>13221</v>
       </c>
       <c r="C142" s="2">
         <v>158</v>
       </c>
       <c r="D142" s="3">
-        <v>146.857142857142</v>
+        <v>146.714285714285</v>
       </c>
       <c r="E142" s="2">
-        <v>255388</v>
+        <v>255430</v>
       </c>
       <c r="F142" s="2">
-        <v>3056</v>
+        <v>3057</v>
       </c>
       <c r="G142" s="4">
-        <v>0.054838365517</v>
+        <v>0.05473830082</v>
       </c>
     </row>
     <row r="143" spans="1:7">
@@ -3662,7 +3662,7 @@
         <v>44063</v>
       </c>
       <c r="B143" s="2">
-        <v>13348</v>
+        <v>13353</v>
       </c>
       <c r="C143" s="2">
         <v>132</v>
@@ -3671,13 +3671,13 @@
         <v>140.571428571428</v>
       </c>
       <c r="E143" s="2">
-        <v>258554</v>
+        <v>258599</v>
       </c>
       <c r="F143" s="2">
-        <v>3166</v>
+        <v>3169</v>
       </c>
       <c r="G143" s="4">
-        <v>0.052772712646</v>
+        <v>0.052721817402</v>
       </c>
     </row>
     <row r="144" spans="1:7">
@@ -3685,7 +3685,7 @@
         <v>44064</v>
       </c>
       <c r="B144" s="2">
-        <v>13510</v>
+        <v>13515</v>
       </c>
       <c r="C144" s="2">
         <v>162</v>
@@ -3694,13 +3694,13 @@
         <v>138.714285714285</v>
       </c>
       <c r="E144" s="2">
-        <v>261594</v>
+        <v>261640</v>
       </c>
       <c r="F144" s="2">
-        <v>3040</v>
+        <v>3041</v>
       </c>
       <c r="G144" s="4">
-        <v>0.052981939215</v>
+        <v>0.052929953665</v>
       </c>
     </row>
     <row r="145" spans="1:7">
@@ -3708,7 +3708,7 @@
         <v>44065</v>
       </c>
       <c r="B145" s="2">
-        <v>13572</v>
+        <v>13577</v>
       </c>
       <c r="C145" s="2">
         <v>62</v>
@@ -3717,13 +3717,13 @@
         <v>134.285714285714</v>
       </c>
       <c r="E145" s="2">
-        <v>262924</v>
+        <v>262970</v>
       </c>
       <c r="F145" s="2">
         <v>1330</v>
       </c>
       <c r="G145" s="4">
-        <v>0.051945181255</v>
+        <v>0.051899293286</v>
       </c>
     </row>
     <row r="146" spans="1:7">
@@ -3731,7 +3731,7 @@
         <v>44066</v>
       </c>
       <c r="B146" s="2">
-        <v>13640</v>
+        <v>13645</v>
       </c>
       <c r="C146" s="2">
         <v>68</v>
@@ -3740,13 +3740,13 @@
         <v>137.571428571428</v>
       </c>
       <c r="E146" s="2">
-        <v>263892</v>
+        <v>263938</v>
       </c>
       <c r="F146" s="2">
         <v>968</v>
       </c>
       <c r="G146" s="4">
-        <v>0.052654601126</v>
+        <v>0.052608576891</v>
       </c>
     </row>
     <row r="147" spans="1:7">
@@ -3754,22 +3754,22 @@
         <v>44067</v>
       </c>
       <c r="B147" s="2">
-        <v>13792</v>
+        <v>13795</v>
       </c>
       <c r="C147" s="2">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D147" s="3">
-        <v>128.857142857142</v>
+        <v>128.571428571428</v>
       </c>
       <c r="E147" s="2">
-        <v>266882</v>
+        <v>266928</v>
       </c>
       <c r="F147" s="2">
         <v>2990</v>
       </c>
       <c r="G147" s="4">
-        <v>0.051180208806</v>
+        <v>0.051029086579</v>
       </c>
     </row>
     <row r="148" spans="1:7">
@@ -3777,22 +3777,22 @@
         <v>44068</v>
       </c>
       <c r="B148" s="2">
-        <v>13927</v>
+        <v>13930</v>
       </c>
       <c r="C148" s="2">
         <v>135</v>
       </c>
       <c r="D148" s="3">
-        <v>124.142857142857</v>
+        <v>123.857142857142</v>
       </c>
       <c r="E148" s="2">
-        <v>269904</v>
+        <v>269952</v>
       </c>
       <c r="F148" s="2">
-        <v>3022</v>
+        <v>3024</v>
       </c>
       <c r="G148" s="4">
-        <v>0.049453676303</v>
+        <v>0.049320211616</v>
       </c>
     </row>
     <row r="149" spans="1:7">
@@ -3800,22 +3800,22 @@
         <v>44069</v>
       </c>
       <c r="B149" s="2">
-        <v>14062</v>
+        <v>14065</v>
       </c>
       <c r="C149" s="2">
         <v>135</v>
       </c>
       <c r="D149" s="3">
-        <v>120.857142857142</v>
+        <v>120.571428571428</v>
       </c>
       <c r="E149" s="2">
-        <v>272870</v>
+        <v>272919</v>
       </c>
       <c r="F149" s="2">
-        <v>2966</v>
+        <v>2967</v>
       </c>
       <c r="G149" s="4">
-        <v>0.048392632421</v>
+        <v>0.048258905597</v>
       </c>
     </row>
     <row r="150" spans="1:7">
@@ -3823,22 +3823,22 @@
         <v>44070</v>
       </c>
       <c r="B150" s="2">
-        <v>14234</v>
+        <v>14237</v>
       </c>
       <c r="C150" s="2">
         <v>172</v>
       </c>
       <c r="D150" s="3">
-        <v>126.571428571428</v>
+        <v>126.285714285714</v>
       </c>
       <c r="E150" s="2">
-        <v>276130</v>
+        <v>276192</v>
       </c>
       <c r="F150" s="2">
-        <v>3260</v>
+        <v>3273</v>
       </c>
       <c r="G150" s="4">
-        <v>0.050409649522</v>
+        <v>0.050247257431</v>
       </c>
     </row>
     <row r="151" spans="1:7">
@@ -3846,22 +3846,22 @@
         <v>44071</v>
       </c>
       <c r="B151" s="2">
-        <v>14350</v>
+        <v>14353</v>
       </c>
       <c r="C151" s="2">
         <v>116</v>
       </c>
       <c r="D151" s="3">
-        <v>120</v>
+        <v>119.714285714285</v>
       </c>
       <c r="E151" s="2">
-        <v>278913</v>
+        <v>278978</v>
       </c>
       <c r="F151" s="2">
-        <v>2783</v>
+        <v>2786</v>
       </c>
       <c r="G151" s="4">
-        <v>0.048501645591</v>
+        <v>0.048333141077</v>
       </c>
     </row>
     <row r="152" spans="1:7">
@@ -3869,22 +3869,22 @@
         <v>44072</v>
       </c>
       <c r="B152" s="2">
-        <v>14414</v>
+        <v>14417</v>
       </c>
       <c r="C152" s="2">
         <v>64</v>
       </c>
       <c r="D152" s="3">
-        <v>120.285714285714</v>
+        <v>120</v>
       </c>
       <c r="E152" s="2">
-        <v>280354</v>
+        <v>280420</v>
       </c>
       <c r="F152" s="2">
-        <v>1441</v>
+        <v>1442</v>
       </c>
       <c r="G152" s="4">
-        <v>0.048307515777</v>
+        <v>0.048137535816</v>
       </c>
     </row>
     <row r="153" spans="1:7">
@@ -3892,22 +3892,22 @@
         <v>44073</v>
       </c>
       <c r="B153" s="2">
-        <v>14472</v>
+        <v>14475</v>
       </c>
       <c r="C153" s="2">
         <v>58</v>
       </c>
       <c r="D153" s="3">
-        <v>118.857142857142</v>
+        <v>118.571428571428</v>
       </c>
       <c r="E153" s="2">
-        <v>281437</v>
+        <v>281503</v>
       </c>
       <c r="F153" s="2">
         <v>1083</v>
       </c>
       <c r="G153" s="4">
-        <v>0.04742091764</v>
+        <v>0.047253060062</v>
       </c>
     </row>
     <row r="154" spans="1:7">
@@ -3915,22 +3915,22 @@
         <v>44074</v>
       </c>
       <c r="B154" s="2">
-        <v>14612</v>
+        <v>14617</v>
       </c>
       <c r="C154" s="2">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="D154" s="3">
-        <v>117.142857142857</v>
+        <v>117.428571428571</v>
       </c>
       <c r="E154" s="2">
-        <v>284580</v>
+        <v>284649</v>
       </c>
       <c r="F154" s="2">
-        <v>3143</v>
+        <v>3146</v>
       </c>
       <c r="G154" s="4">
-        <v>0.046332918973</v>
+        <v>0.046385644151</v>
       </c>
     </row>
     <row r="155" spans="1:7">
@@ -3938,22 +3938,22 @@
         <v>44075</v>
       </c>
       <c r="B155" s="2">
-        <v>14744</v>
+        <v>14750</v>
       </c>
       <c r="C155" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D155" s="3">
-        <v>116.714285714285</v>
+        <v>117.142857142857</v>
       </c>
       <c r="E155" s="2">
-        <v>287858</v>
+        <v>287929</v>
       </c>
       <c r="F155" s="2">
-        <v>3278</v>
+        <v>3280</v>
       </c>
       <c r="G155" s="4">
-        <v>0.045505179904</v>
+        <v>0.045613839906</v>
       </c>
     </row>
     <row r="156" spans="1:7">
@@ -3961,22 +3961,22 @@
         <v>44076</v>
       </c>
       <c r="B156" s="2">
-        <v>14859</v>
+        <v>14865</v>
       </c>
       <c r="C156" s="2">
         <v>115</v>
       </c>
       <c r="D156" s="3">
-        <v>113.857142857142</v>
+        <v>114.285714285714</v>
       </c>
       <c r="E156" s="2">
-        <v>290839</v>
+        <v>290914</v>
       </c>
       <c r="F156" s="2">
-        <v>2981</v>
+        <v>2985</v>
       </c>
       <c r="G156" s="4">
-        <v>0.044354165507</v>
+        <v>0.044456793553</v>
       </c>
     </row>
     <row r="157" spans="1:7">
@@ -3984,22 +3984,22 @@
         <v>44077</v>
       </c>
       <c r="B157" s="2">
-        <v>14954</v>
+        <v>14960</v>
       </c>
       <c r="C157" s="2">
         <v>95</v>
       </c>
       <c r="D157" s="3">
-        <v>102.857142857142</v>
+        <v>103.285714285714</v>
       </c>
       <c r="E157" s="2">
-        <v>293782</v>
+        <v>293857</v>
       </c>
       <c r="F157" s="2">
         <v>2943</v>
       </c>
       <c r="G157" s="4">
-        <v>0.040788579197</v>
+        <v>0.04092838947</v>
       </c>
     </row>
     <row r="158" spans="1:7">
@@ -4007,22 +4007,22 @@
         <v>44078</v>
       </c>
       <c r="B158" s="2">
-        <v>15076</v>
+        <v>15082</v>
       </c>
       <c r="C158" s="2">
         <v>122</v>
       </c>
       <c r="D158" s="3">
-        <v>103.714285714285</v>
+        <v>104.142857142857</v>
       </c>
       <c r="E158" s="2">
-        <v>296605</v>
+        <v>296680</v>
       </c>
       <c r="F158" s="2">
         <v>2823</v>
       </c>
       <c r="G158" s="4">
-        <v>0.041035496269</v>
+        <v>0.041181787368</v>
       </c>
     </row>
     <row r="159" spans="1:7">
@@ -4030,22 +4030,22 @@
         <v>44079</v>
       </c>
       <c r="B159" s="2">
-        <v>15142</v>
+        <v>15148</v>
       </c>
       <c r="C159" s="2">
         <v>66</v>
       </c>
       <c r="D159" s="3">
-        <v>104</v>
+        <v>104.428571428571</v>
       </c>
       <c r="E159" s="2">
-        <v>297943</v>
+        <v>298018</v>
       </c>
       <c r="F159" s="2">
         <v>1338</v>
       </c>
       <c r="G159" s="4">
-        <v>0.041389504804</v>
+        <v>0.041538811228</v>
       </c>
     </row>
     <row r="160" spans="1:7">
@@ -4053,22 +4053,22 @@
         <v>44080</v>
       </c>
       <c r="B160" s="2">
-        <v>15195</v>
+        <v>15201</v>
       </c>
       <c r="C160" s="2">
         <v>53</v>
       </c>
       <c r="D160" s="3">
-        <v>103.285714285714</v>
+        <v>103.714285714285</v>
       </c>
       <c r="E160" s="2">
-        <v>299028</v>
+        <v>299103</v>
       </c>
       <c r="F160" s="2">
         <v>1085</v>
       </c>
       <c r="G160" s="4">
-        <v>0.041100562787</v>
+        <v>0.04125</v>
       </c>
     </row>
     <row r="161" spans="1:7">
@@ -4076,22 +4076,22 @@
         <v>44081</v>
       </c>
       <c r="B161" s="2">
-        <v>15263</v>
+        <v>15270</v>
       </c>
       <c r="C161" s="2">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D161" s="3">
-        <v>93</v>
+        <v>93.28571428571399</v>
       </c>
       <c r="E161" s="2">
-        <v>300284</v>
+        <v>300359</v>
       </c>
       <c r="F161" s="2">
         <v>1256</v>
       </c>
       <c r="G161" s="4">
-        <v>0.04145440652</v>
+        <v>0.041565881604</v>
       </c>
     </row>
     <row r="162" spans="1:7">
@@ -4099,22 +4099,22 @@
         <v>44082</v>
       </c>
       <c r="B162" s="2">
-        <v>15406</v>
+        <v>15413</v>
       </c>
       <c r="C162" s="2">
         <v>143</v>
       </c>
       <c r="D162" s="3">
-        <v>94.571428571428</v>
+        <v>94.714285714285</v>
       </c>
       <c r="E162" s="2">
-        <v>304593</v>
+        <v>304668</v>
       </c>
       <c r="F162" s="2">
         <v>4309</v>
       </c>
       <c r="G162" s="4">
-        <v>0.039557812966</v>
+        <v>0.039608100842</v>
       </c>
     </row>
     <row r="163" spans="1:7">
@@ -4122,22 +4122,22 @@
         <v>44083</v>
       </c>
       <c r="B163" s="2">
-        <v>15556</v>
+        <v>15564</v>
       </c>
       <c r="C163" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D163" s="3">
-        <v>99.571428571428</v>
+        <v>99.85714285714199</v>
       </c>
       <c r="E163" s="2">
-        <v>308117</v>
+        <v>308192</v>
       </c>
       <c r="F163" s="2">
         <v>3524</v>
       </c>
       <c r="G163" s="4">
-        <v>0.040340317166</v>
+        <v>0.040456071304</v>
       </c>
     </row>
     <row r="164" spans="1:7">
@@ -4145,22 +4145,22 @@
         <v>44084</v>
       </c>
       <c r="B164" s="2">
-        <v>15659</v>
+        <v>15667</v>
       </c>
       <c r="C164" s="2">
         <v>103</v>
       </c>
       <c r="D164" s="3">
-        <v>100.714285714285</v>
+        <v>101</v>
       </c>
       <c r="E164" s="2">
-        <v>311408</v>
+        <v>311479</v>
       </c>
       <c r="F164" s="2">
-        <v>3291</v>
+        <v>3287</v>
       </c>
       <c r="G164" s="4">
-        <v>0.039997730625</v>
+        <v>0.040120304165</v>
       </c>
     </row>
     <row r="165" spans="1:7">
@@ -4168,22 +4168,22 @@
         <v>44085</v>
       </c>
       <c r="B165" s="2">
-        <v>15731</v>
+        <v>15740</v>
       </c>
       <c r="C165" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D165" s="3">
-        <v>93.571428571428</v>
+        <v>94</v>
       </c>
       <c r="E165" s="2">
-        <v>313913</v>
+        <v>313984</v>
       </c>
       <c r="F165" s="2">
         <v>2505</v>
       </c>
       <c r="G165" s="4">
-        <v>0.037843771666</v>
+        <v>0.038025889967</v>
       </c>
     </row>
     <row r="166" spans="1:7">
@@ -4191,22 +4191,22 @@
         <v>44086</v>
       </c>
       <c r="B166" s="2">
-        <v>15780</v>
+        <v>15789</v>
       </c>
       <c r="C166" s="2">
         <v>49</v>
       </c>
       <c r="D166" s="3">
-        <v>91.142857142857</v>
+        <v>91.571428571428</v>
       </c>
       <c r="E166" s="2">
-        <v>315313</v>
+        <v>315383</v>
       </c>
       <c r="F166" s="2">
-        <v>1400</v>
+        <v>1399</v>
       </c>
       <c r="G166" s="4">
-        <v>0.036729994242</v>
+        <v>0.036913331413</v>
       </c>
     </row>
     <row r="167" spans="1:7">
@@ -4214,22 +4214,22 @@
         <v>44087</v>
       </c>
       <c r="B167" s="2">
-        <v>15814</v>
+        <v>15823</v>
       </c>
       <c r="C167" s="2">
         <v>34</v>
       </c>
       <c r="D167" s="3">
-        <v>88.428571428571</v>
+        <v>88.85714285714199</v>
       </c>
       <c r="E167" s="2">
-        <v>316161</v>
+        <v>316233</v>
       </c>
       <c r="F167" s="2">
-        <v>848</v>
+        <v>850</v>
       </c>
       <c r="G167" s="4">
-        <v>0.03612910757</v>
+        <v>0.036310566258</v>
       </c>
     </row>
     <row r="168" spans="1:7">
@@ -4237,22 +4237,22 @@
         <v>44088</v>
       </c>
       <c r="B168" s="2">
-        <v>15915</v>
+        <v>15924</v>
       </c>
       <c r="C168" s="2">
         <v>101</v>
       </c>
       <c r="D168" s="3">
-        <v>93.142857142857</v>
+        <v>93.428571428571</v>
       </c>
       <c r="E168" s="2">
-        <v>319566</v>
+        <v>319642</v>
       </c>
       <c r="F168" s="2">
-        <v>3405</v>
+        <v>3409</v>
       </c>
       <c r="G168" s="4">
-        <v>0.033813919717</v>
+        <v>0.033915884457</v>
       </c>
     </row>
     <row r="169" spans="1:7">
@@ -4260,22 +4260,22 @@
         <v>44089</v>
       </c>
       <c r="B169" s="2">
-        <v>16046</v>
+        <v>16054</v>
       </c>
       <c r="C169" s="2">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D169" s="3">
-        <v>91.428571428571</v>
+        <v>91.571428571428</v>
       </c>
       <c r="E169" s="2">
-        <v>323553</v>
+        <v>323628</v>
       </c>
       <c r="F169" s="2">
-        <v>3987</v>
+        <v>3986</v>
       </c>
       <c r="G169" s="4">
-        <v>0.033755274261</v>
+        <v>0.033808016877</v>
       </c>
     </row>
     <row r="170" spans="1:7">
@@ -4283,22 +4283,22 @@
         <v>44090</v>
       </c>
       <c r="B170" s="2">
-        <v>16132</v>
+        <v>16141</v>
       </c>
       <c r="C170" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D170" s="3">
-        <v>82.28571428571399</v>
+        <v>82.428571428571</v>
       </c>
       <c r="E170" s="2">
-        <v>326864</v>
+        <v>326944</v>
       </c>
       <c r="F170" s="2">
-        <v>3311</v>
+        <v>3316</v>
       </c>
       <c r="G170" s="4">
-        <v>0.030724915986</v>
+        <v>0.030770051194</v>
       </c>
     </row>
     <row r="171" spans="1:7">
@@ -4306,22 +4306,22 @@
         <v>44091</v>
       </c>
       <c r="B171" s="2">
-        <v>16236</v>
+        <v>16245</v>
       </c>
       <c r="C171" s="2">
         <v>104</v>
       </c>
       <c r="D171" s="3">
-        <v>82.428571428571</v>
+        <v>82.571428571428</v>
       </c>
       <c r="E171" s="2">
-        <v>330482</v>
+        <v>330563</v>
       </c>
       <c r="F171" s="2">
-        <v>3618</v>
+        <v>3619</v>
       </c>
       <c r="G171" s="4">
-        <v>0.030250602914</v>
+        <v>0.03028715154</v>
       </c>
     </row>
     <row r="172" spans="1:7">
@@ -4329,7 +4329,7 @@
         <v>44092</v>
       </c>
       <c r="B172" s="2">
-        <v>16340</v>
+        <v>16349</v>
       </c>
       <c r="C172" s="2">
         <v>104</v>
@@ -4338,13 +4338,13 @@
         <v>87</v>
       </c>
       <c r="E172" s="2">
-        <v>333757</v>
+        <v>333838</v>
       </c>
       <c r="F172" s="2">
         <v>3275</v>
       </c>
       <c r="G172" s="4">
-        <v>0.030689377141</v>
+        <v>0.030673919613</v>
       </c>
     </row>
     <row r="173" spans="1:7">
@@ -4352,7 +4352,7 @@
         <v>44093</v>
       </c>
       <c r="B173" s="2">
-        <v>16412</v>
+        <v>16421</v>
       </c>
       <c r="C173" s="2">
         <v>72</v>
@@ -4361,13 +4361,13 @@
         <v>90.28571428571399</v>
       </c>
       <c r="E173" s="2">
-        <v>335275</v>
+        <v>335357</v>
       </c>
       <c r="F173" s="2">
-        <v>1518</v>
+        <v>1519</v>
       </c>
       <c r="G173" s="4">
-        <v>0.031660154293</v>
+        <v>0.031641133473</v>
       </c>
     </row>
     <row r="174" spans="1:7">
@@ -4375,7 +4375,7 @@
         <v>44094</v>
       </c>
       <c r="B174" s="2">
-        <v>16454</v>
+        <v>16463</v>
       </c>
       <c r="C174" s="2">
         <v>42</v>
@@ -4384,13 +4384,13 @@
         <v>91.428571428571</v>
       </c>
       <c r="E174" s="2">
-        <v>336430</v>
+        <v>336513</v>
       </c>
       <c r="F174" s="2">
-        <v>1155</v>
+        <v>1156</v>
       </c>
       <c r="G174" s="4">
-        <v>0.031575312052</v>
+        <v>0.031558185404</v>
       </c>
     </row>
     <row r="175" spans="1:7">
@@ -4398,7 +4398,7 @@
         <v>44095</v>
       </c>
       <c r="B175" s="2">
-        <v>16597</v>
+        <v>16606</v>
       </c>
       <c r="C175" s="2">
         <v>143</v>
@@ -4407,13 +4407,13 @@
         <v>97.428571428571</v>
       </c>
       <c r="E175" s="2">
-        <v>340801</v>
+        <v>340890</v>
       </c>
       <c r="F175" s="2">
-        <v>4371</v>
+        <v>4377</v>
       </c>
       <c r="G175" s="4">
-        <v>0.032116788321</v>
+        <v>0.032097138554</v>
       </c>
     </row>
     <row r="176" spans="1:7">
@@ -4421,22 +4421,22 @@
         <v>44096</v>
       </c>
       <c r="B176" s="2">
-        <v>16695</v>
+        <v>16704</v>
       </c>
       <c r="C176" s="2">
         <v>98</v>
       </c>
       <c r="D176" s="3">
-        <v>92.714285714285</v>
+        <v>92.85714285714199</v>
       </c>
       <c r="E176" s="2">
-        <v>344583</v>
+        <v>344681</v>
       </c>
       <c r="F176" s="2">
-        <v>3782</v>
+        <v>3791</v>
       </c>
       <c r="G176" s="4">
-        <v>0.030860675225</v>
+        <v>0.030874459696</v>
       </c>
     </row>
     <row r="177" spans="1:7">
@@ -4444,7 +4444,7 @@
         <v>44097</v>
       </c>
       <c r="B177" s="2">
-        <v>16789</v>
+        <v>16798</v>
       </c>
       <c r="C177" s="2">
         <v>94</v>
@@ -4453,13 +4453,13 @@
         <v>93.85714285714199</v>
       </c>
       <c r="E177" s="2">
-        <v>348082</v>
+        <v>348189</v>
       </c>
       <c r="F177" s="2">
-        <v>3499</v>
+        <v>3508</v>
       </c>
       <c r="G177" s="4">
-        <v>0.030964275615</v>
+        <v>0.030924923511</v>
       </c>
     </row>
     <row r="178" spans="1:7">
@@ -4467,7 +4467,7 @@
         <v>44098</v>
       </c>
       <c r="B178" s="2">
-        <v>16880</v>
+        <v>16889</v>
       </c>
       <c r="C178" s="2">
         <v>91</v>
@@ -4476,13 +4476,13 @@
         <v>92</v>
       </c>
       <c r="E178" s="2">
-        <v>351806</v>
+        <v>351923</v>
       </c>
       <c r="F178" s="2">
-        <v>3724</v>
+        <v>3734</v>
       </c>
       <c r="G178" s="4">
-        <v>0.030200712811</v>
+        <v>0.030149812734</v>
       </c>
     </row>
     <row r="179" spans="1:7">
@@ -4490,7 +4490,7 @@
         <v>44099</v>
       </c>
       <c r="B179" s="2">
-        <v>16969</v>
+        <v>16978</v>
       </c>
       <c r="C179" s="2">
         <v>89</v>
@@ -4499,13 +4499,13 @@
         <v>89.85714285714199</v>
       </c>
       <c r="E179" s="2">
-        <v>355104</v>
+        <v>355226</v>
       </c>
       <c r="F179" s="2">
-        <v>3298</v>
+        <v>3303</v>
       </c>
       <c r="G179" s="4">
-        <v>0.029465498664</v>
+        <v>0.0294090144</v>
       </c>
     </row>
     <row r="180" spans="1:7">
@@ -4513,7 +4513,7 @@
         <v>44100</v>
       </c>
       <c r="B180" s="2">
-        <v>17028</v>
+        <v>17037</v>
       </c>
       <c r="C180" s="2">
         <v>59</v>
@@ -4522,13 +4522,13 @@
         <v>88</v>
       </c>
       <c r="E180" s="2">
-        <v>356977</v>
+        <v>357099</v>
       </c>
       <c r="F180" s="2">
         <v>1873</v>
       </c>
       <c r="G180" s="4">
-        <v>0.028384480693</v>
+        <v>0.028332260141</v>
       </c>
     </row>
     <row r="181" spans="1:7">
@@ -4536,7 +4536,7 @@
         <v>44101</v>
       </c>
       <c r="B181" s="2">
-        <v>17051</v>
+        <v>17060</v>
       </c>
       <c r="C181" s="2">
         <v>23</v>
@@ -4545,13 +4545,13 @@
         <v>85.28571428571399</v>
       </c>
       <c r="E181" s="2">
-        <v>358105</v>
+        <v>358228</v>
       </c>
       <c r="F181" s="2">
-        <v>1128</v>
+        <v>1129</v>
       </c>
       <c r="G181" s="4">
-        <v>0.027543252595</v>
+        <v>0.027492516693</v>
       </c>
     </row>
     <row r="182" spans="1:7">
@@ -4559,7 +4559,7 @@
         <v>44102</v>
       </c>
       <c r="B182" s="2">
-        <v>17164</v>
+        <v>17173</v>
       </c>
       <c r="C182" s="2">
         <v>113</v>
@@ -4568,13 +4568,13 @@
         <v>81</v>
       </c>
       <c r="E182" s="2">
-        <v>362187</v>
+        <v>362327</v>
       </c>
       <c r="F182" s="2">
-        <v>4082</v>
+        <v>4099</v>
       </c>
       <c r="G182" s="4">
-        <v>0.026512671841</v>
+        <v>0.026449596492</v>
       </c>
     </row>
     <row r="183" spans="1:7">
@@ -4582,7 +4582,7 @@
         <v>44103</v>
       </c>
       <c r="B183" s="2">
-        <v>17239</v>
+        <v>17248</v>
       </c>
       <c r="C183" s="2">
         <v>75</v>
@@ -4591,13 +4591,13 @@
         <v>77.714285714285</v>
       </c>
       <c r="E183" s="2">
-        <v>366004</v>
+        <v>366163</v>
       </c>
       <c r="F183" s="2">
-        <v>3817</v>
+        <v>3836</v>
       </c>
       <c r="G183" s="4">
-        <v>0.025395639792</v>
+        <v>0.025323526673</v>
       </c>
     </row>
     <row r="184" spans="1:7">
@@ -4605,7 +4605,7 @@
         <v>44104</v>
       </c>
       <c r="B184" s="2">
-        <v>17299</v>
+        <v>17308</v>
       </c>
       <c r="C184" s="2">
         <v>60</v>
@@ -4614,13 +4614,13 @@
         <v>72.85714285714199</v>
       </c>
       <c r="E184" s="2">
-        <v>369547</v>
+        <v>369722</v>
       </c>
       <c r="F184" s="2">
-        <v>3543</v>
+        <v>3559</v>
       </c>
       <c r="G184" s="4">
-        <v>0.023759608665</v>
+        <v>0.02368457716</v>
       </c>
     </row>
     <row r="185" spans="1:7">
@@ -4628,7 +4628,7 @@
         <v>44105</v>
       </c>
       <c r="B185" s="2">
-        <v>17364</v>
+        <v>17373</v>
       </c>
       <c r="C185" s="2">
         <v>65</v>
@@ -4637,13 +4637,13 @@
         <v>69.142857142857</v>
       </c>
       <c r="E185" s="2">
-        <v>373060</v>
+        <v>373247</v>
       </c>
       <c r="F185" s="2">
-        <v>3513</v>
+        <v>3525</v>
       </c>
       <c r="G185" s="4">
-        <v>0.022772184059</v>
+        <v>0.022697430125</v>
       </c>
     </row>
     <row r="186" spans="1:7">
@@ -4651,7 +4651,7 @@
         <v>44106</v>
       </c>
       <c r="B186" s="2">
-        <v>17442</v>
+        <v>17451</v>
       </c>
       <c r="C186" s="2">
         <v>78</v>
@@ -4660,13 +4660,13 @@
         <v>67.571428571428</v>
       </c>
       <c r="E186" s="2">
-        <v>376596</v>
+        <v>376794</v>
       </c>
       <c r="F186" s="2">
-        <v>3536</v>
+        <v>3547</v>
       </c>
       <c r="G186" s="4">
-        <v>0.022008189093</v>
+        <v>0.021930637982</v>
       </c>
     </row>
     <row r="187" spans="1:7">
@@ -4674,7 +4674,7 @@
         <v>44107</v>
       </c>
       <c r="B187" s="2">
-        <v>17485</v>
+        <v>17494</v>
       </c>
       <c r="C187" s="2">
         <v>43</v>
@@ -4683,13 +4683,13 @@
         <v>65.28571428571399</v>
       </c>
       <c r="E187" s="2">
-        <v>378588</v>
+        <v>378790</v>
       </c>
       <c r="F187" s="2">
-        <v>1992</v>
+        <v>1996</v>
       </c>
       <c r="G187" s="4">
-        <v>0.021146638286</v>
+        <v>0.021068645982</v>
       </c>
     </row>
     <row r="188" spans="1:7">
@@ -4697,7 +4697,7 @@
         <v>44108</v>
       </c>
       <c r="B188" s="2">
-        <v>17522</v>
+        <v>17531</v>
       </c>
       <c r="C188" s="2">
         <v>37</v>
@@ -4706,13 +4706,13 @@
         <v>67.28571428571399</v>
       </c>
       <c r="E188" s="2">
-        <v>379969</v>
+        <v>380174</v>
       </c>
       <c r="F188" s="2">
-        <v>1381</v>
+        <v>1384</v>
       </c>
       <c r="G188" s="4">
-        <v>0.021542261251</v>
+        <v>0.021461769798</v>
       </c>
     </row>
     <row r="189" spans="1:7">
@@ -4720,7 +4720,7 @@
         <v>44109</v>
       </c>
       <c r="B189" s="2">
-        <v>17599</v>
+        <v>17608</v>
       </c>
       <c r="C189" s="2">
         <v>77</v>
@@ -4729,13 +4729,13 @@
         <v>62.142857142857</v>
       </c>
       <c r="E189" s="2">
-        <v>384722</v>
+        <v>384979</v>
       </c>
       <c r="F189" s="2">
-        <v>4753</v>
+        <v>4805</v>
       </c>
       <c r="G189" s="4">
-        <v>0.019303305968</v>
+        <v>0.01920360233</v>
       </c>
     </row>
     <row r="190" spans="1:7">
@@ -4743,7 +4743,7 @@
         <v>44110</v>
       </c>
       <c r="B190" s="2">
-        <v>17662</v>
+        <v>17671</v>
       </c>
       <c r="C190" s="2">
         <v>63</v>
@@ -4752,13 +4752,13 @@
         <v>60.428571428571</v>
       </c>
       <c r="E190" s="2">
-        <v>389335</v>
+        <v>389635</v>
       </c>
       <c r="F190" s="2">
-        <v>4613</v>
+        <v>4656</v>
       </c>
       <c r="G190" s="4">
-        <v>0.018130384467</v>
+        <v>0.018021472392</v>
       </c>
     </row>
     <row r="191" spans="1:7">
@@ -4766,22 +4766,22 @@
         <v>44111</v>
       </c>
       <c r="B191" s="2">
-        <v>17736</v>
+        <v>17746</v>
       </c>
       <c r="C191" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D191" s="3">
-        <v>62.428571428571</v>
+        <v>62.57142857142801</v>
       </c>
       <c r="E191" s="2">
-        <v>393479</v>
+        <v>393811</v>
       </c>
       <c r="F191" s="2">
-        <v>4144</v>
+        <v>4176</v>
       </c>
       <c r="G191" s="4">
-        <v>0.018260070198</v>
+        <v>0.018182572958</v>
       </c>
     </row>
     <row r="192" spans="1:7">
@@ -4789,22 +4789,22 @@
         <v>44112</v>
       </c>
       <c r="B192" s="2">
-        <v>17830</v>
+        <v>17840</v>
       </c>
       <c r="C192" s="2">
         <v>94</v>
       </c>
       <c r="D192" s="3">
-        <v>66.571428571428</v>
+        <v>66.714285714285</v>
       </c>
       <c r="E192" s="2">
-        <v>397682</v>
+        <v>398042</v>
       </c>
       <c r="F192" s="2">
-        <v>4203</v>
+        <v>4231</v>
       </c>
       <c r="G192" s="4">
-        <v>0.018926163593</v>
+        <v>0.018834442427</v>
       </c>
     </row>
     <row r="193" spans="1:7">
@@ -4812,22 +4812,22 @@
         <v>44113</v>
       </c>
       <c r="B193" s="2">
-        <v>17887</v>
+        <v>17898</v>
       </c>
       <c r="C193" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D193" s="3">
-        <v>63.57142857142801</v>
+        <v>63.857142857142</v>
       </c>
       <c r="E193" s="2">
-        <v>401427</v>
+        <v>401812</v>
       </c>
       <c r="F193" s="2">
-        <v>3745</v>
+        <v>3770</v>
       </c>
       <c r="G193" s="4">
-        <v>0.017921146953</v>
+        <v>0.017867135662</v>
       </c>
     </row>
     <row r="194" spans="1:7">
@@ -4835,22 +4835,22 @@
         <v>44114</v>
       </c>
       <c r="B194" s="2">
-        <v>17926</v>
+        <v>17939</v>
       </c>
       <c r="C194" s="2">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D194" s="3">
-        <v>63</v>
+        <v>63.57142857142801</v>
       </c>
       <c r="E194" s="2">
-        <v>403176</v>
+        <v>403598</v>
       </c>
       <c r="F194" s="2">
-        <v>1749</v>
+        <v>1786</v>
       </c>
       <c r="G194" s="4">
-        <v>0.01793557833</v>
+        <v>0.017937762012</v>
       </c>
     </row>
     <row r="195" spans="1:7">
@@ -4858,22 +4858,22 @@
         <v>44115</v>
       </c>
       <c r="B195" s="2">
-        <v>17949</v>
+        <v>17963</v>
       </c>
       <c r="C195" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D195" s="3">
-        <v>61</v>
+        <v>61.71428571428499</v>
       </c>
       <c r="E195" s="2">
-        <v>404446</v>
+        <v>404920</v>
       </c>
       <c r="F195" s="2">
-        <v>1270</v>
+        <v>1322</v>
       </c>
       <c r="G195" s="4">
-        <v>0.017444948318</v>
+        <v>0.017457366847</v>
       </c>
     </row>
     <row r="196" spans="1:7">
@@ -4881,22 +4881,22 @@
         <v>44116</v>
       </c>
       <c r="B196" s="2">
-        <v>18040</v>
+        <v>18055</v>
       </c>
       <c r="C196" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D196" s="3">
-        <v>63</v>
+        <v>63.857142857142</v>
       </c>
       <c r="E196" s="2">
-        <v>408890</v>
+        <v>409435</v>
       </c>
       <c r="F196" s="2">
-        <v>4444</v>
+        <v>4515</v>
       </c>
       <c r="G196" s="4">
-        <v>0.018247269116</v>
+        <v>0.018277723258</v>
       </c>
     </row>
     <row r="197" spans="1:7">
@@ -4904,22 +4904,22 @@
         <v>44117</v>
       </c>
       <c r="B197" s="2">
-        <v>18129</v>
+        <v>18145</v>
       </c>
       <c r="C197" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D197" s="3">
-        <v>66.714285714285</v>
+        <v>67.714285714285</v>
       </c>
       <c r="E197" s="2">
-        <v>413333</v>
+        <v>413935</v>
       </c>
       <c r="F197" s="2">
-        <v>4443</v>
+        <v>4500</v>
       </c>
       <c r="G197" s="4">
-        <v>0.019459954996</v>
+        <v>0.019506172839</v>
       </c>
     </row>
     <row r="198" spans="1:7">
@@ -4927,22 +4927,91 @@
         <v>44118</v>
       </c>
       <c r="B198" s="2">
-        <v>18197</v>
+        <v>18215</v>
       </c>
       <c r="C198" s="2">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D198" s="3">
-        <v>65.85714285714199</v>
+        <v>67</v>
       </c>
       <c r="E198" s="2">
-        <v>417512</v>
+        <v>418147</v>
       </c>
       <c r="F198" s="2">
-        <v>4179</v>
+        <v>4212</v>
       </c>
       <c r="G198" s="4">
-        <v>0.01918195814</v>
+        <v>0.019271860618</v>
+      </c>
+    </row>
+    <row r="199" spans="1:7">
+      <c r="A199" s="1">
+        <v>44119</v>
+      </c>
+      <c r="B199" s="2">
+        <v>18266</v>
+      </c>
+      <c r="C199" s="2">
+        <v>51</v>
+      </c>
+      <c r="D199" s="3">
+        <v>60.857142857142</v>
+      </c>
+      <c r="E199" s="2">
+        <v>422139</v>
+      </c>
+      <c r="F199" s="2">
+        <v>3992</v>
+      </c>
+      <c r="G199" s="4">
+        <v>0.017678549196</v>
+      </c>
+    </row>
+    <row r="200" spans="1:7">
+      <c r="A200" s="1">
+        <v>44120</v>
+      </c>
+      <c r="B200" s="2">
+        <v>18323</v>
+      </c>
+      <c r="C200" s="2">
+        <v>57</v>
+      </c>
+      <c r="D200" s="3">
+        <v>60.71428571428499</v>
+      </c>
+      <c r="E200" s="2">
+        <v>426119</v>
+      </c>
+      <c r="F200" s="2">
+        <v>3980</v>
+      </c>
+      <c r="G200" s="4">
+        <v>0.017484675196</v>
+      </c>
+    </row>
+    <row r="201" spans="1:7">
+      <c r="A201" s="1">
+        <v>44121</v>
+      </c>
+      <c r="B201" s="2">
+        <v>18368</v>
+      </c>
+      <c r="C201" s="2">
+        <v>45</v>
+      </c>
+      <c r="D201" s="3">
+        <v>61.28571428571399</v>
+      </c>
+      <c r="E201" s="2">
+        <v>428016</v>
+      </c>
+      <c r="F201" s="2">
+        <v>1897</v>
+      </c>
+      <c r="G201" s="4">
+        <v>0.01756900647</v>
       </c>
     </row>
   </sheetData>

--- a/contra_costa_county_testing.xlsx
+++ b/contra_costa_county_testing.xlsx
@@ -376,7 +376,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G201"/>
+  <dimension ref="A1:G202"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1808,13 +1808,13 @@
         <v>25.857142857142</v>
       </c>
       <c r="E62" s="2">
-        <v>42846</v>
+        <v>42845</v>
       </c>
       <c r="F62" s="2">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="G62" s="4">
-        <v>0.028105590062</v>
+        <v>0.028109954961</v>
       </c>
     </row>
     <row r="63" spans="1:7">
@@ -1831,13 +1831,13 @@
         <v>29.142857142857</v>
       </c>
       <c r="E63" s="2">
-        <v>44221</v>
+        <v>44220</v>
       </c>
       <c r="F63" s="2">
         <v>1375</v>
       </c>
       <c r="G63" s="4">
-        <v>0.027743778049</v>
+        <v>0.027747551686</v>
       </c>
     </row>
     <row r="64" spans="1:7">
@@ -1854,13 +1854,13 @@
         <v>28.142857142857</v>
       </c>
       <c r="E64" s="2">
-        <v>45438</v>
+        <v>45437</v>
       </c>
       <c r="F64" s="2">
         <v>1217</v>
       </c>
       <c r="G64" s="4">
-        <v>0.026719110267</v>
+        <v>0.026722734671</v>
       </c>
     </row>
     <row r="65" spans="1:7">
@@ -1877,13 +1877,13 @@
         <v>27.714285714285</v>
       </c>
       <c r="E65" s="2">
-        <v>46602</v>
+        <v>46600</v>
       </c>
       <c r="F65" s="2">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="G65" s="4">
-        <v>0.026124427686</v>
+        <v>0.026131465517</v>
       </c>
     </row>
     <row r="66" spans="1:7">
@@ -1900,13 +1900,13 @@
         <v>28.428571428571</v>
       </c>
       <c r="E66" s="2">
-        <v>47953</v>
+        <v>47951</v>
       </c>
       <c r="F66" s="2">
         <v>1351</v>
       </c>
       <c r="G66" s="4">
-        <v>0.026043711556</v>
+        <v>0.026050530174</v>
       </c>
     </row>
     <row r="67" spans="1:7">
@@ -1923,13 +1923,13 @@
         <v>29.285714285714</v>
       </c>
       <c r="E67" s="2">
-        <v>49583</v>
+        <v>49581</v>
       </c>
       <c r="F67" s="2">
         <v>1630</v>
       </c>
       <c r="G67" s="4">
-        <v>0.026051594865</v>
+        <v>0.026058217872</v>
       </c>
     </row>
     <row r="68" spans="1:7">
@@ -1946,13 +1946,13 @@
         <v>30.571428571428</v>
       </c>
       <c r="E68" s="2">
-        <v>50188</v>
+        <v>50186</v>
       </c>
       <c r="F68" s="2">
         <v>605</v>
       </c>
       <c r="G68" s="4">
-        <v>0.027648578811</v>
+        <v>0.027655724993</v>
       </c>
     </row>
     <row r="69" spans="1:7">
@@ -1969,13 +1969,13 @@
         <v>32.428571428571</v>
       </c>
       <c r="E69" s="2">
-        <v>50673</v>
+        <v>50671</v>
       </c>
       <c r="F69" s="2">
         <v>485</v>
       </c>
       <c r="G69" s="4">
-        <v>0.029002171968</v>
+        <v>0.029005877843</v>
       </c>
     </row>
     <row r="70" spans="1:7">
@@ -1992,13 +1992,13 @@
         <v>34.714285714285</v>
       </c>
       <c r="E70" s="2">
-        <v>52509</v>
+        <v>52507</v>
       </c>
       <c r="F70" s="2">
         <v>1836</v>
       </c>
       <c r="G70" s="4">
-        <v>0.029319498069</v>
+        <v>0.02932303608</v>
       </c>
     </row>
     <row r="71" spans="1:7">
@@ -2015,13 +2015,13 @@
         <v>36.428571428571</v>
       </c>
       <c r="E71" s="2">
-        <v>54356</v>
+        <v>54354</v>
       </c>
       <c r="F71" s="2">
         <v>1847</v>
       </c>
       <c r="G71" s="4">
-        <v>0.028593855124</v>
+        <v>0.028597061792</v>
       </c>
     </row>
     <row r="72" spans="1:7">
@@ -2038,7 +2038,7 @@
         <v>40</v>
       </c>
       <c r="E72" s="2">
-        <v>56347</v>
+        <v>56345</v>
       </c>
       <c r="F72" s="2">
         <v>1991</v>
@@ -2061,7 +2061,7 @@
         <v>40.285714285714</v>
       </c>
       <c r="E73" s="2">
-        <v>58502</v>
+        <v>58500</v>
       </c>
       <c r="F73" s="2">
         <v>2155</v>
@@ -2084,7 +2084,7 @@
         <v>41.857142857142</v>
       </c>
       <c r="E74" s="2">
-        <v>60763</v>
+        <v>60761</v>
       </c>
       <c r="F74" s="2">
         <v>2261</v>
@@ -2107,7 +2107,7 @@
         <v>44.142857142857</v>
       </c>
       <c r="E75" s="2">
-        <v>61606</v>
+        <v>61604</v>
       </c>
       <c r="F75" s="2">
         <v>843</v>
@@ -2130,7 +2130,7 @@
         <v>45.428571428571</v>
       </c>
       <c r="E76" s="2">
-        <v>62193</v>
+        <v>62191</v>
       </c>
       <c r="F76" s="2">
         <v>587</v>
@@ -2153,7 +2153,7 @@
         <v>46.714285714285</v>
       </c>
       <c r="E77" s="2">
-        <v>64412</v>
+        <v>64410</v>
       </c>
       <c r="F77" s="2">
         <v>2219</v>
@@ -2176,13 +2176,13 @@
         <v>52.571428571428</v>
       </c>
       <c r="E78" s="2">
-        <v>66933</v>
+        <v>66932</v>
       </c>
       <c r="F78" s="2">
-        <v>2521</v>
+        <v>2522</v>
       </c>
       <c r="G78" s="4">
-        <v>0.029259759879</v>
+        <v>0.029257433614</v>
       </c>
     </row>
     <row r="79" spans="1:7">
@@ -2199,13 +2199,13 @@
         <v>57.285714285714</v>
       </c>
       <c r="E79" s="2">
-        <v>69505</v>
+        <v>69504</v>
       </c>
       <c r="F79" s="2">
         <v>2572</v>
       </c>
       <c r="G79" s="4">
-        <v>0.030475756193</v>
+        <v>0.030473440231</v>
       </c>
     </row>
     <row r="80" spans="1:7">
@@ -2222,13 +2222,13 @@
         <v>62.57142857142801</v>
       </c>
       <c r="E80" s="2">
-        <v>72031</v>
+        <v>72032</v>
       </c>
       <c r="F80" s="2">
-        <v>2526</v>
+        <v>2528</v>
       </c>
       <c r="G80" s="4">
-        <v>0.032374898366</v>
+        <v>0.032367720957</v>
       </c>
     </row>
     <row r="81" spans="1:7">
@@ -2245,13 +2245,13 @@
         <v>68.85714285714199</v>
       </c>
       <c r="E81" s="2">
-        <v>74474</v>
+        <v>74475</v>
       </c>
       <c r="F81" s="2">
         <v>2443</v>
       </c>
       <c r="G81" s="4">
-        <v>0.035154255707</v>
+        <v>0.035146565553</v>
       </c>
     </row>
     <row r="82" spans="1:7">
@@ -2268,13 +2268,13 @@
         <v>71.428571428571</v>
       </c>
       <c r="E82" s="2">
-        <v>75426</v>
+        <v>75427</v>
       </c>
       <c r="F82" s="2">
         <v>952</v>
       </c>
       <c r="G82" s="4">
-        <v>0.036179450072</v>
+        <v>0.036171598061</v>
       </c>
     </row>
     <row r="83" spans="1:7">
@@ -2291,13 +2291,13 @@
         <v>73.28571428571399</v>
       </c>
       <c r="E83" s="2">
-        <v>76123</v>
+        <v>76125</v>
       </c>
       <c r="F83" s="2">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="G83" s="4">
-        <v>0.036826992103</v>
+        <v>0.036816420266</v>
       </c>
     </row>
     <row r="84" spans="1:7">
@@ -2314,13 +2314,13 @@
         <v>81</v>
       </c>
       <c r="E84" s="2">
-        <v>78741</v>
+        <v>78743</v>
       </c>
       <c r="F84" s="2">
         <v>2618</v>
       </c>
       <c r="G84" s="4">
-        <v>0.039570102589</v>
+        <v>0.039559059513</v>
       </c>
     </row>
     <row r="85" spans="1:7">
@@ -2337,13 +2337,13 @@
         <v>88</v>
       </c>
       <c r="E85" s="2">
-        <v>81527</v>
+        <v>81528</v>
       </c>
       <c r="F85" s="2">
-        <v>2786</v>
+        <v>2785</v>
       </c>
       <c r="G85" s="4">
-        <v>0.042209127038</v>
+        <v>0.042203343381</v>
       </c>
     </row>
     <row r="86" spans="1:7">
@@ -2360,13 +2360,13 @@
         <v>96</v>
       </c>
       <c r="E86" s="2">
-        <v>84557</v>
+        <v>84558</v>
       </c>
       <c r="F86" s="2">
         <v>3030</v>
       </c>
       <c r="G86" s="4">
-        <v>0.044645229869</v>
+        <v>0.044639298525</v>
       </c>
     </row>
     <row r="87" spans="1:7">
@@ -2383,13 +2383,13 @@
         <v>104.714285714285</v>
       </c>
       <c r="E87" s="2">
-        <v>87916</v>
+        <v>87918</v>
       </c>
       <c r="F87" s="2">
-        <v>3359</v>
+        <v>3360</v>
       </c>
       <c r="G87" s="4">
-        <v>0.046144161158</v>
+        <v>0.046141256452</v>
       </c>
     </row>
     <row r="88" spans="1:7">
@@ -2406,13 +2406,13 @@
         <v>114.428571428571</v>
       </c>
       <c r="E88" s="2">
-        <v>90885</v>
+        <v>90887</v>
       </c>
       <c r="F88" s="2">
         <v>2969</v>
       </c>
       <c r="G88" s="4">
-        <v>0.048808725854</v>
+        <v>0.048805751888</v>
       </c>
     </row>
     <row r="89" spans="1:7">
@@ -2429,13 +2429,13 @@
         <v>118.428571428571</v>
       </c>
       <c r="E89" s="2">
-        <v>91959</v>
+        <v>91961</v>
       </c>
       <c r="F89" s="2">
         <v>1074</v>
       </c>
       <c r="G89" s="4">
-        <v>0.050142139962</v>
+        <v>0.050139107294</v>
       </c>
     </row>
     <row r="90" spans="1:7">
@@ -2452,7 +2452,7 @@
         <v>121.142857142857</v>
       </c>
       <c r="E90" s="2">
-        <v>92754</v>
+        <v>92756</v>
       </c>
       <c r="F90" s="2">
         <v>795</v>
@@ -2475,7 +2475,7 @@
         <v>133.428571428571</v>
       </c>
       <c r="E91" s="2">
-        <v>96440</v>
+        <v>96442</v>
       </c>
       <c r="F91" s="2">
         <v>3686</v>
@@ -2498,13 +2498,13 @@
         <v>137</v>
       </c>
       <c r="E92" s="2">
-        <v>99920</v>
+        <v>99922</v>
       </c>
       <c r="F92" s="2">
         <v>3480</v>
       </c>
       <c r="G92" s="4">
-        <v>0.052139400859</v>
+        <v>0.052136566271</v>
       </c>
     </row>
     <row r="93" spans="1:7">
@@ -2521,13 +2521,13 @@
         <v>141.285714285714</v>
       </c>
       <c r="E93" s="2">
-        <v>103460</v>
+        <v>103462</v>
       </c>
       <c r="F93" s="2">
         <v>3540</v>
       </c>
       <c r="G93" s="4">
-        <v>0.052319737607</v>
+        <v>0.052316969953</v>
       </c>
     </row>
     <row r="94" spans="1:7">
@@ -2544,7 +2544,7 @@
         <v>149.857142857142</v>
       </c>
       <c r="E94" s="2">
-        <v>107384</v>
+        <v>107386</v>
       </c>
       <c r="F94" s="2">
         <v>3924</v>
@@ -2567,7 +2567,7 @@
         <v>146.142857142857</v>
       </c>
       <c r="E95" s="2">
-        <v>110025</v>
+        <v>110027</v>
       </c>
       <c r="F95" s="2">
         <v>2641</v>
@@ -2590,7 +2590,7 @@
         <v>148</v>
       </c>
       <c r="E96" s="2">
-        <v>111142</v>
+        <v>111144</v>
       </c>
       <c r="F96" s="2">
         <v>1117</v>
@@ -2613,7 +2613,7 @@
         <v>151.857142857142</v>
       </c>
       <c r="E97" s="2">
-        <v>112271</v>
+        <v>112273</v>
       </c>
       <c r="F97" s="2">
         <v>1129</v>
@@ -2636,13 +2636,13 @@
         <v>152.857142857142</v>
       </c>
       <c r="E98" s="2">
-        <v>116348</v>
+        <v>116351</v>
       </c>
       <c r="F98" s="2">
-        <v>4077</v>
+        <v>4078</v>
       </c>
       <c r="G98" s="4">
-        <v>0.053747237291</v>
+        <v>0.053744537646</v>
       </c>
     </row>
     <row r="99" spans="1:7">
@@ -2659,13 +2659,13 @@
         <v>161.142857142857</v>
       </c>
       <c r="E99" s="2">
-        <v>120431</v>
+        <v>120434</v>
       </c>
       <c r="F99" s="2">
         <v>4083</v>
       </c>
       <c r="G99" s="4">
-        <v>0.054994880795</v>
+        <v>0.054992199687</v>
       </c>
     </row>
     <row r="100" spans="1:7">
@@ -2682,13 +2682,13 @@
         <v>168.571428571428</v>
       </c>
       <c r="E100" s="2">
-        <v>124695</v>
+        <v>124698</v>
       </c>
       <c r="F100" s="2">
         <v>4264</v>
       </c>
       <c r="G100" s="4">
-        <v>0.055568636684</v>
+        <v>0.055566019966</v>
       </c>
     </row>
     <row r="101" spans="1:7">
@@ -2705,13 +2705,13 @@
         <v>174.285714285714</v>
       </c>
       <c r="E101" s="2">
-        <v>129298</v>
+        <v>129301</v>
       </c>
       <c r="F101" s="2">
         <v>4603</v>
       </c>
       <c r="G101" s="4">
-        <v>0.05567217304</v>
+        <v>0.055669632671</v>
       </c>
     </row>
     <row r="102" spans="1:7">
@@ -2728,13 +2728,13 @@
         <v>188.857142857142</v>
       </c>
       <c r="E102" s="2">
-        <v>133760</v>
+        <v>133763</v>
       </c>
       <c r="F102" s="2">
         <v>4462</v>
       </c>
       <c r="G102" s="4">
-        <v>0.055698335791</v>
+        <v>0.055695989214</v>
       </c>
     </row>
     <row r="103" spans="1:7">
@@ -2751,13 +2751,13 @@
         <v>195.571428571428</v>
       </c>
       <c r="E103" s="2">
-        <v>135832</v>
+        <v>135835</v>
       </c>
       <c r="F103" s="2">
         <v>2072</v>
       </c>
       <c r="G103" s="4">
-        <v>0.055447549615</v>
+        <v>0.055445303956</v>
       </c>
     </row>
     <row r="104" spans="1:7">
@@ -2774,13 +2774,13 @@
         <v>197.714285714285</v>
       </c>
       <c r="E104" s="2">
-        <v>137158</v>
+        <v>137161</v>
       </c>
       <c r="F104" s="2">
         <v>1326</v>
       </c>
       <c r="G104" s="4">
-        <v>0.055611363362</v>
+        <v>0.055609128897</v>
       </c>
     </row>
     <row r="105" spans="1:7">
@@ -2797,7 +2797,7 @@
         <v>205.857142857142</v>
       </c>
       <c r="E105" s="2">
-        <v>141764</v>
+        <v>141767</v>
       </c>
       <c r="F105" s="2">
         <v>4606</v>
@@ -2820,7 +2820,7 @@
         <v>211.428571428571</v>
       </c>
       <c r="E106" s="2">
-        <v>145532</v>
+        <v>145535</v>
       </c>
       <c r="F106" s="2">
         <v>3768</v>
@@ -2843,7 +2843,7 @@
         <v>216.428571428571</v>
       </c>
       <c r="E107" s="2">
-        <v>149879</v>
+        <v>149882</v>
       </c>
       <c r="F107" s="2">
         <v>4347</v>
@@ -2866,13 +2866,13 @@
         <v>217</v>
       </c>
       <c r="E108" s="2">
-        <v>154063</v>
+        <v>154067</v>
       </c>
       <c r="F108" s="2">
-        <v>4184</v>
+        <v>4185</v>
       </c>
       <c r="G108" s="4">
-        <v>0.061336563698</v>
+        <v>0.061334087054</v>
       </c>
     </row>
     <row r="109" spans="1:7">
@@ -2889,13 +2889,13 @@
         <v>217.571428571428</v>
       </c>
       <c r="E109" s="2">
-        <v>158267</v>
+        <v>158271</v>
       </c>
       <c r="F109" s="2">
         <v>4204</v>
       </c>
       <c r="G109" s="4">
-        <v>0.062145509446</v>
+        <v>0.062142973722</v>
       </c>
     </row>
     <row r="110" spans="1:7">
@@ -2912,13 +2912,13 @@
         <v>216</v>
       </c>
       <c r="E110" s="2">
-        <v>160492</v>
+        <v>160496</v>
       </c>
       <c r="F110" s="2">
         <v>2225</v>
       </c>
       <c r="G110" s="4">
-        <v>0.061313868613</v>
+        <v>0.061311382344</v>
       </c>
     </row>
     <row r="111" spans="1:7">
@@ -2935,13 +2935,13 @@
         <v>215.714285714285</v>
       </c>
       <c r="E111" s="2">
-        <v>161749</v>
+        <v>161753</v>
       </c>
       <c r="F111" s="2">
         <v>1257</v>
       </c>
       <c r="G111" s="4">
-        <v>0.06140457891</v>
+        <v>0.061402081977</v>
       </c>
     </row>
     <row r="112" spans="1:7">
@@ -2958,13 +2958,13 @@
         <v>220</v>
       </c>
       <c r="E112" s="2">
-        <v>165997</v>
+        <v>166002</v>
       </c>
       <c r="F112" s="2">
-        <v>4248</v>
+        <v>4249</v>
       </c>
       <c r="G112" s="4">
-        <v>0.063549704947</v>
+        <v>0.063544460491</v>
       </c>
     </row>
     <row r="113" spans="1:7">
@@ -2981,13 +2981,13 @@
         <v>217.857142857142</v>
       </c>
       <c r="E113" s="2">
-        <v>169836</v>
+        <v>169841</v>
       </c>
       <c r="F113" s="2">
         <v>3839</v>
       </c>
       <c r="G113" s="4">
-        <v>0.062746872942</v>
+        <v>0.06274170986499999</v>
       </c>
     </row>
     <row r="114" spans="1:7">
@@ -3004,13 +3004,13 @@
         <v>216.285714285714</v>
       </c>
       <c r="E114" s="2">
-        <v>173498</v>
+        <v>173503</v>
       </c>
       <c r="F114" s="2">
         <v>3662</v>
       </c>
       <c r="G114" s="4">
-        <v>0.064100935687</v>
+        <v>0.064095508234</v>
       </c>
     </row>
     <row r="115" spans="1:7">
@@ -3027,13 +3027,13 @@
         <v>212.857142857142</v>
       </c>
       <c r="E115" s="2">
-        <v>176823</v>
+        <v>176828</v>
       </c>
       <c r="F115" s="2">
         <v>3325</v>
       </c>
       <c r="G115" s="4">
-        <v>0.065465729349</v>
+        <v>0.065462853125</v>
       </c>
     </row>
     <row r="116" spans="1:7">
@@ -3050,13 +3050,13 @@
         <v>208.428571428571</v>
       </c>
       <c r="E116" s="2">
-        <v>180457</v>
+        <v>180462</v>
       </c>
       <c r="F116" s="2">
         <v>3634</v>
       </c>
       <c r="G116" s="4">
-        <v>0.06575033799</v>
+        <v>0.06574737506099999</v>
       </c>
     </row>
     <row r="117" spans="1:7">
@@ -3073,13 +3073,13 @@
         <v>206</v>
       </c>
       <c r="E117" s="2">
-        <v>182078</v>
+        <v>182083</v>
       </c>
       <c r="F117" s="2">
         <v>1621</v>
       </c>
       <c r="G117" s="4">
-        <v>0.06680255721300001</v>
+        <v>0.066799462639</v>
       </c>
     </row>
     <row r="118" spans="1:7">
@@ -3096,13 +3096,13 @@
         <v>206.571428571428</v>
       </c>
       <c r="E118" s="2">
-        <v>183332</v>
+        <v>183337</v>
       </c>
       <c r="F118" s="2">
         <v>1254</v>
       </c>
       <c r="G118" s="4">
-        <v>0.066997173701</v>
+        <v>0.066994069681</v>
       </c>
     </row>
     <row r="119" spans="1:7">
@@ -3119,7 +3119,7 @@
         <v>199.714285714285</v>
       </c>
       <c r="E119" s="2">
-        <v>187503</v>
+        <v>187508</v>
       </c>
       <c r="F119" s="2">
         <v>4171</v>
@@ -3142,7 +3142,7 @@
         <v>201.857142857142</v>
       </c>
       <c r="E120" s="2">
-        <v>191417</v>
+        <v>191422</v>
       </c>
       <c r="F120" s="2">
         <v>3914</v>
@@ -3165,13 +3165,13 @@
         <v>202.285714285714</v>
       </c>
       <c r="E121" s="2">
-        <v>195280</v>
+        <v>195284</v>
       </c>
       <c r="F121" s="2">
-        <v>3863</v>
+        <v>3862</v>
       </c>
       <c r="G121" s="4">
-        <v>0.06500780460900001</v>
+        <v>0.065010789219</v>
       </c>
     </row>
     <row r="122" spans="1:7">
@@ -3188,13 +3188,13 @@
         <v>200.285714285714</v>
       </c>
       <c r="E122" s="2">
-        <v>198952</v>
+        <v>198956</v>
       </c>
       <c r="F122" s="2">
         <v>3672</v>
       </c>
       <c r="G122" s="4">
-        <v>0.06335577748600001</v>
+        <v>0.063358640636</v>
       </c>
     </row>
     <row r="123" spans="1:7">
@@ -3211,13 +3211,13 @@
         <v>202.285714285714</v>
       </c>
       <c r="E123" s="2">
-        <v>202491</v>
+        <v>202495</v>
       </c>
       <c r="F123" s="2">
         <v>3539</v>
       </c>
       <c r="G123" s="4">
-        <v>0.06426431878</v>
+        <v>0.06426723551000001</v>
       </c>
     </row>
     <row r="124" spans="1:7">
@@ -3234,13 +3234,13 @@
         <v>201.714285714285</v>
       </c>
       <c r="E124" s="2">
-        <v>204143</v>
+        <v>204147</v>
       </c>
       <c r="F124" s="2">
         <v>1652</v>
       </c>
       <c r="G124" s="4">
-        <v>0.063992748697</v>
+        <v>0.063995649021</v>
       </c>
     </row>
     <row r="125" spans="1:7">
@@ -3257,13 +3257,13 @@
         <v>198.285714285714</v>
       </c>
       <c r="E125" s="2">
-        <v>205291</v>
+        <v>205295</v>
       </c>
       <c r="F125" s="2">
         <v>1148</v>
       </c>
       <c r="G125" s="4">
-        <v>0.06320870713600001</v>
+        <v>0.063211585754</v>
       </c>
     </row>
     <row r="126" spans="1:7">
@@ -3280,13 +3280,13 @@
         <v>200</v>
       </c>
       <c r="E126" s="2">
-        <v>209160</v>
+        <v>209164</v>
       </c>
       <c r="F126" s="2">
         <v>3869</v>
       </c>
       <c r="G126" s="4">
-        <v>0.064644225885</v>
+        <v>0.064647210934</v>
       </c>
     </row>
     <row r="127" spans="1:7">
@@ -3303,13 +3303,13 @@
         <v>197</v>
       </c>
       <c r="E127" s="2">
-        <v>212471</v>
+        <v>212475</v>
       </c>
       <c r="F127" s="2">
         <v>3311</v>
       </c>
       <c r="G127" s="4">
-        <v>0.065498242614</v>
+        <v>0.06550135372599999</v>
       </c>
     </row>
     <row r="128" spans="1:7">
@@ -3326,7 +3326,7 @@
         <v>189.428571428571</v>
       </c>
       <c r="E128" s="2">
-        <v>215736</v>
+        <v>215740</v>
       </c>
       <c r="F128" s="2">
         <v>3265</v>
@@ -3349,7 +3349,7 @@
         <v>186.714285714285</v>
       </c>
       <c r="E129" s="2">
-        <v>219397</v>
+        <v>219401</v>
       </c>
       <c r="F129" s="2">
         <v>3661</v>
@@ -3372,13 +3372,13 @@
         <v>179.714285714285</v>
       </c>
       <c r="E130" s="2">
-        <v>222724</v>
+        <v>222727</v>
       </c>
       <c r="F130" s="2">
-        <v>3327</v>
+        <v>3326</v>
       </c>
       <c r="G130" s="4">
-        <v>0.062175653635</v>
+        <v>0.062178726769</v>
       </c>
     </row>
     <row r="131" spans="1:7">
@@ -3395,13 +3395,13 @@
         <v>181.428571428571</v>
       </c>
       <c r="E131" s="2">
-        <v>224430</v>
+        <v>224433</v>
       </c>
       <c r="F131" s="2">
         <v>1706</v>
       </c>
       <c r="G131" s="4">
-        <v>0.062601666091</v>
+        <v>0.062604752045</v>
       </c>
     </row>
     <row r="132" spans="1:7">
@@ -3418,13 +3418,13 @@
         <v>182.285714285714</v>
       </c>
       <c r="E132" s="2">
-        <v>225495</v>
+        <v>225498</v>
       </c>
       <c r="F132" s="2">
         <v>1065</v>
       </c>
       <c r="G132" s="4">
-        <v>0.06315581073</v>
+        <v>0.063158936791</v>
       </c>
     </row>
     <row r="133" spans="1:7">
@@ -3441,13 +3441,13 @@
         <v>179.714285714285</v>
       </c>
       <c r="E133" s="2">
-        <v>229392</v>
+        <v>229395</v>
       </c>
       <c r="F133" s="2">
         <v>3897</v>
       </c>
       <c r="G133" s="4">
-        <v>0.062178726769</v>
+        <v>0.062181800207</v>
       </c>
     </row>
     <row r="134" spans="1:7">
@@ -3464,10 +3464,10 @@
         <v>174.857142857142</v>
       </c>
       <c r="E134" s="2">
-        <v>232810</v>
+        <v>232814</v>
       </c>
       <c r="F134" s="2">
-        <v>3418</v>
+        <v>3419</v>
       </c>
       <c r="G134" s="4">
         <v>0.06017994985</v>
@@ -3487,7 +3487,7 @@
         <v>174.857142857142</v>
       </c>
       <c r="E135" s="2">
-        <v>236668</v>
+        <v>236672</v>
       </c>
       <c r="F135" s="2">
         <v>3858</v>
@@ -3510,7 +3510,7 @@
         <v>171.428571428571</v>
       </c>
       <c r="E136" s="2">
-        <v>239935</v>
+        <v>239939</v>
       </c>
       <c r="F136" s="2">
         <v>3267</v>
@@ -3533,13 +3533,13 @@
         <v>170.142857142857</v>
       </c>
       <c r="E137" s="2">
-        <v>243295</v>
+        <v>243299</v>
       </c>
       <c r="F137" s="2">
         <v>3360</v>
       </c>
       <c r="G137" s="4">
-        <v>0.057897039521</v>
+        <v>0.05789422516</v>
       </c>
     </row>
     <row r="138" spans="1:7">
@@ -3556,13 +3556,13 @@
         <v>166.285714285714</v>
       </c>
       <c r="E138" s="2">
-        <v>244858</v>
+        <v>244862</v>
       </c>
       <c r="F138" s="2">
         <v>1563</v>
       </c>
       <c r="G138" s="4">
-        <v>0.056980614842</v>
+        <v>0.05697782564</v>
       </c>
     </row>
     <row r="139" spans="1:7">
@@ -3579,13 +3579,13 @@
         <v>160.571428571428</v>
       </c>
       <c r="E139" s="2">
-        <v>245633</v>
+        <v>245637</v>
       </c>
       <c r="F139" s="2">
         <v>775</v>
       </c>
       <c r="G139" s="4">
-        <v>0.055814877346</v>
+        <v>0.055812105864</v>
       </c>
     </row>
     <row r="140" spans="1:7">
@@ -3602,13 +3602,13 @@
         <v>157.142857142857</v>
       </c>
       <c r="E140" s="2">
-        <v>249291</v>
+        <v>249295</v>
       </c>
       <c r="F140" s="2">
         <v>3658</v>
       </c>
       <c r="G140" s="4">
-        <v>0.055279159756</v>
+        <v>0.055276381909</v>
       </c>
     </row>
     <row r="141" spans="1:7">
@@ -3625,7 +3625,7 @@
         <v>152.571428571428</v>
       </c>
       <c r="E141" s="2">
-        <v>252373</v>
+        <v>252377</v>
       </c>
       <c r="F141" s="2">
         <v>3082</v>
@@ -3648,7 +3648,7 @@
         <v>146.714285714285</v>
       </c>
       <c r="E142" s="2">
-        <v>255430</v>
+        <v>255434</v>
       </c>
       <c r="F142" s="2">
         <v>3057</v>
@@ -3671,7 +3671,7 @@
         <v>140.571428571428</v>
       </c>
       <c r="E143" s="2">
-        <v>258599</v>
+        <v>258603</v>
       </c>
       <c r="F143" s="2">
         <v>3169</v>
@@ -3694,7 +3694,7 @@
         <v>138.714285714285</v>
       </c>
       <c r="E144" s="2">
-        <v>261640</v>
+        <v>261644</v>
       </c>
       <c r="F144" s="2">
         <v>3041</v>
@@ -3717,7 +3717,7 @@
         <v>134.285714285714</v>
       </c>
       <c r="E145" s="2">
-        <v>262970</v>
+        <v>262974</v>
       </c>
       <c r="F145" s="2">
         <v>1330</v>
@@ -3740,7 +3740,7 @@
         <v>137.571428571428</v>
       </c>
       <c r="E146" s="2">
-        <v>263938</v>
+        <v>263942</v>
       </c>
       <c r="F146" s="2">
         <v>968</v>
@@ -3763,7 +3763,7 @@
         <v>128.571428571428</v>
       </c>
       <c r="E147" s="2">
-        <v>266928</v>
+        <v>266932</v>
       </c>
       <c r="F147" s="2">
         <v>2990</v>
@@ -3786,7 +3786,7 @@
         <v>123.857142857142</v>
       </c>
       <c r="E148" s="2">
-        <v>269952</v>
+        <v>269956</v>
       </c>
       <c r="F148" s="2">
         <v>3024</v>
@@ -3809,7 +3809,7 @@
         <v>120.571428571428</v>
       </c>
       <c r="E149" s="2">
-        <v>272919</v>
+        <v>272923</v>
       </c>
       <c r="F149" s="2">
         <v>2967</v>
@@ -3832,7 +3832,7 @@
         <v>126.285714285714</v>
       </c>
       <c r="E150" s="2">
-        <v>276192</v>
+        <v>276196</v>
       </c>
       <c r="F150" s="2">
         <v>3273</v>
@@ -3855,13 +3855,13 @@
         <v>119.714285714285</v>
       </c>
       <c r="E151" s="2">
-        <v>278978</v>
+        <v>278983</v>
       </c>
       <c r="F151" s="2">
-        <v>2786</v>
+        <v>2787</v>
       </c>
       <c r="G151" s="4">
-        <v>0.048333141077</v>
+        <v>0.048330353538</v>
       </c>
     </row>
     <row r="152" spans="1:7">
@@ -3878,13 +3878,13 @@
         <v>120</v>
       </c>
       <c r="E152" s="2">
-        <v>280420</v>
+        <v>280425</v>
       </c>
       <c r="F152" s="2">
         <v>1442</v>
       </c>
       <c r="G152" s="4">
-        <v>0.048137535816</v>
+        <v>0.048134777376</v>
       </c>
     </row>
     <row r="153" spans="1:7">
@@ -3901,13 +3901,13 @@
         <v>118.571428571428</v>
       </c>
       <c r="E153" s="2">
-        <v>281503</v>
+        <v>281508</v>
       </c>
       <c r="F153" s="2">
         <v>1083</v>
       </c>
       <c r="G153" s="4">
-        <v>0.047253060062</v>
+        <v>0.047250370033</v>
       </c>
     </row>
     <row r="154" spans="1:7">
@@ -3924,13 +3924,13 @@
         <v>117.428571428571</v>
       </c>
       <c r="E154" s="2">
-        <v>284649</v>
+        <v>284654</v>
       </c>
       <c r="F154" s="2">
         <v>3146</v>
       </c>
       <c r="G154" s="4">
-        <v>0.046385644151</v>
+        <v>0.046383026746</v>
       </c>
     </row>
     <row r="155" spans="1:7">
@@ -3947,13 +3947,13 @@
         <v>117.142857142857</v>
       </c>
       <c r="E155" s="2">
-        <v>287929</v>
+        <v>287934</v>
       </c>
       <c r="F155" s="2">
         <v>3280</v>
       </c>
       <c r="G155" s="4">
-        <v>0.045613839906</v>
+        <v>0.045611302703</v>
       </c>
     </row>
     <row r="156" spans="1:7">
@@ -3970,13 +3970,13 @@
         <v>114.285714285714</v>
       </c>
       <c r="E156" s="2">
-        <v>290914</v>
+        <v>290919</v>
       </c>
       <c r="F156" s="2">
         <v>2985</v>
       </c>
       <c r="G156" s="4">
-        <v>0.044456793553</v>
+        <v>0.044454323182</v>
       </c>
     </row>
     <row r="157" spans="1:7">
@@ -3993,13 +3993,13 @@
         <v>103.285714285714</v>
       </c>
       <c r="E157" s="2">
-        <v>293857</v>
+        <v>293862</v>
       </c>
       <c r="F157" s="2">
         <v>2943</v>
       </c>
       <c r="G157" s="4">
-        <v>0.04092838947</v>
+        <v>0.040926072681</v>
       </c>
     </row>
     <row r="158" spans="1:7">
@@ -4016,7 +4016,7 @@
         <v>104.142857142857</v>
       </c>
       <c r="E158" s="2">
-        <v>296680</v>
+        <v>296685</v>
       </c>
       <c r="F158" s="2">
         <v>2823</v>
@@ -4039,7 +4039,7 @@
         <v>104.428571428571</v>
       </c>
       <c r="E159" s="2">
-        <v>298018</v>
+        <v>298023</v>
       </c>
       <c r="F159" s="2">
         <v>1338</v>
@@ -4062,7 +4062,7 @@
         <v>103.714285714285</v>
       </c>
       <c r="E160" s="2">
-        <v>299103</v>
+        <v>299108</v>
       </c>
       <c r="F160" s="2">
         <v>1085</v>
@@ -4085,7 +4085,7 @@
         <v>93.28571428571399</v>
       </c>
       <c r="E161" s="2">
-        <v>300359</v>
+        <v>300364</v>
       </c>
       <c r="F161" s="2">
         <v>1256</v>
@@ -4108,7 +4108,7 @@
         <v>94.714285714285</v>
       </c>
       <c r="E162" s="2">
-        <v>304668</v>
+        <v>304673</v>
       </c>
       <c r="F162" s="2">
         <v>4309</v>
@@ -4131,7 +4131,7 @@
         <v>99.85714285714199</v>
       </c>
       <c r="E163" s="2">
-        <v>308192</v>
+        <v>308197</v>
       </c>
       <c r="F163" s="2">
         <v>3524</v>
@@ -4154,13 +4154,13 @@
         <v>101</v>
       </c>
       <c r="E164" s="2">
-        <v>311479</v>
+        <v>311485</v>
       </c>
       <c r="F164" s="2">
-        <v>3287</v>
+        <v>3288</v>
       </c>
       <c r="G164" s="4">
-        <v>0.040120304165</v>
+        <v>0.040118027577</v>
       </c>
     </row>
     <row r="165" spans="1:7">
@@ -4177,10 +4177,10 @@
         <v>94</v>
       </c>
       <c r="E165" s="2">
-        <v>313984</v>
+        <v>313989</v>
       </c>
       <c r="F165" s="2">
-        <v>2505</v>
+        <v>2504</v>
       </c>
       <c r="G165" s="4">
         <v>0.038025889967</v>
@@ -4200,13 +4200,13 @@
         <v>91.571428571428</v>
       </c>
       <c r="E166" s="2">
-        <v>315383</v>
+        <v>315389</v>
       </c>
       <c r="F166" s="2">
-        <v>1399</v>
+        <v>1400</v>
       </c>
       <c r="G166" s="4">
-        <v>0.036913331413</v>
+        <v>0.036911205804</v>
       </c>
     </row>
     <row r="167" spans="1:7">
@@ -4223,13 +4223,13 @@
         <v>88.85714285714199</v>
       </c>
       <c r="E167" s="2">
-        <v>316233</v>
+        <v>316239</v>
       </c>
       <c r="F167" s="2">
         <v>850</v>
       </c>
       <c r="G167" s="4">
-        <v>0.036310566258</v>
+        <v>0.036308446675</v>
       </c>
     </row>
     <row r="168" spans="1:7">
@@ -4246,13 +4246,13 @@
         <v>93.428571428571</v>
       </c>
       <c r="E168" s="2">
-        <v>319642</v>
+        <v>319651</v>
       </c>
       <c r="F168" s="2">
-        <v>3409</v>
+        <v>3412</v>
       </c>
       <c r="G168" s="4">
-        <v>0.033915884457</v>
+        <v>0.033908850521</v>
       </c>
     </row>
     <row r="169" spans="1:7">
@@ -4269,13 +4269,13 @@
         <v>91.571428571428</v>
       </c>
       <c r="E169" s="2">
-        <v>323628</v>
+        <v>323643</v>
       </c>
       <c r="F169" s="2">
-        <v>3986</v>
+        <v>3992</v>
       </c>
       <c r="G169" s="4">
-        <v>0.033808016877</v>
+        <v>0.033790195044</v>
       </c>
     </row>
     <row r="170" spans="1:7">
@@ -4292,13 +4292,13 @@
         <v>82.428571428571</v>
       </c>
       <c r="E170" s="2">
-        <v>326944</v>
+        <v>326960</v>
       </c>
       <c r="F170" s="2">
-        <v>3316</v>
+        <v>3317</v>
       </c>
       <c r="G170" s="4">
-        <v>0.030770051194</v>
+        <v>0.030752011938</v>
       </c>
     </row>
     <row r="171" spans="1:7">
@@ -4315,13 +4315,13 @@
         <v>82.571428571428</v>
       </c>
       <c r="E171" s="2">
-        <v>330563</v>
+        <v>330596</v>
       </c>
       <c r="F171" s="2">
-        <v>3619</v>
+        <v>3636</v>
       </c>
       <c r="G171" s="4">
-        <v>0.03028715154</v>
+        <v>0.030244361885</v>
       </c>
     </row>
     <row r="172" spans="1:7">
@@ -4338,13 +4338,13 @@
         <v>87</v>
       </c>
       <c r="E172" s="2">
-        <v>333838</v>
+        <v>333871</v>
       </c>
       <c r="F172" s="2">
         <v>3275</v>
       </c>
       <c r="G172" s="4">
-        <v>0.030673919613</v>
+        <v>0.030630721255</v>
       </c>
     </row>
     <row r="173" spans="1:7">
@@ -4361,13 +4361,13 @@
         <v>90.28571428571399</v>
       </c>
       <c r="E173" s="2">
-        <v>335357</v>
+        <v>335390</v>
       </c>
       <c r="F173" s="2">
         <v>1519</v>
       </c>
       <c r="G173" s="4">
-        <v>0.031641133473</v>
+        <v>0.031598420078</v>
       </c>
     </row>
     <row r="174" spans="1:7">
@@ -4384,13 +4384,13 @@
         <v>91.428571428571</v>
       </c>
       <c r="E174" s="2">
-        <v>336513</v>
+        <v>336546</v>
       </c>
       <c r="F174" s="2">
         <v>1156</v>
       </c>
       <c r="G174" s="4">
-        <v>0.031558185404</v>
+        <v>0.031516225931</v>
       </c>
     </row>
     <row r="175" spans="1:7">
@@ -4407,13 +4407,13 @@
         <v>97.428571428571</v>
       </c>
       <c r="E175" s="2">
-        <v>340890</v>
+        <v>340923</v>
       </c>
       <c r="F175" s="2">
         <v>4377</v>
       </c>
       <c r="G175" s="4">
-        <v>0.032097138554</v>
+        <v>0.032060925159</v>
       </c>
     </row>
     <row r="176" spans="1:7">
@@ -4430,13 +4430,13 @@
         <v>92.85714285714199</v>
       </c>
       <c r="E176" s="2">
-        <v>344681</v>
+        <v>344716</v>
       </c>
       <c r="F176" s="2">
-        <v>3791</v>
+        <v>3793</v>
       </c>
       <c r="G176" s="4">
-        <v>0.030874459696</v>
+        <v>0.03084515731</v>
       </c>
     </row>
     <row r="177" spans="1:7">
@@ -4453,13 +4453,13 @@
         <v>93.85714285714199</v>
       </c>
       <c r="E177" s="2">
-        <v>348189</v>
+        <v>348226</v>
       </c>
       <c r="F177" s="2">
-        <v>3508</v>
+        <v>3510</v>
       </c>
       <c r="G177" s="4">
-        <v>0.030924923511</v>
+        <v>0.030894385403</v>
       </c>
     </row>
     <row r="178" spans="1:7">
@@ -4476,13 +4476,13 @@
         <v>92</v>
       </c>
       <c r="E178" s="2">
-        <v>351923</v>
+        <v>351961</v>
       </c>
       <c r="F178" s="2">
-        <v>3734</v>
+        <v>3735</v>
       </c>
       <c r="G178" s="4">
-        <v>0.030149812734</v>
+        <v>0.030142756845</v>
       </c>
     </row>
     <row r="179" spans="1:7">
@@ -4499,13 +4499,13 @@
         <v>89.85714285714199</v>
       </c>
       <c r="E179" s="2">
-        <v>355226</v>
+        <v>355265</v>
       </c>
       <c r="F179" s="2">
-        <v>3303</v>
+        <v>3304</v>
       </c>
       <c r="G179" s="4">
-        <v>0.0294090144</v>
+        <v>0.02940076657</v>
       </c>
     </row>
     <row r="180" spans="1:7">
@@ -4522,13 +4522,13 @@
         <v>88</v>
       </c>
       <c r="E180" s="2">
-        <v>357099</v>
+        <v>357138</v>
       </c>
       <c r="F180" s="2">
         <v>1873</v>
       </c>
       <c r="G180" s="4">
-        <v>0.028332260141</v>
+        <v>0.028324443627</v>
       </c>
     </row>
     <row r="181" spans="1:7">
@@ -4545,13 +4545,13 @@
         <v>85.28571428571399</v>
       </c>
       <c r="E181" s="2">
-        <v>358228</v>
+        <v>358267</v>
       </c>
       <c r="F181" s="2">
         <v>1129</v>
       </c>
       <c r="G181" s="4">
-        <v>0.027492516693</v>
+        <v>0.027484922425</v>
       </c>
     </row>
     <row r="182" spans="1:7">
@@ -4568,13 +4568,13 @@
         <v>81</v>
       </c>
       <c r="E182" s="2">
-        <v>362327</v>
+        <v>362366</v>
       </c>
       <c r="F182" s="2">
         <v>4099</v>
       </c>
       <c r="G182" s="4">
-        <v>0.026449596492</v>
+        <v>0.026442195588</v>
       </c>
     </row>
     <row r="183" spans="1:7">
@@ -4591,13 +4591,13 @@
         <v>77.714285714285</v>
       </c>
       <c r="E183" s="2">
-        <v>366163</v>
+        <v>366202</v>
       </c>
       <c r="F183" s="2">
         <v>3836</v>
       </c>
       <c r="G183" s="4">
-        <v>0.025323526673</v>
+        <v>0.025318812249</v>
       </c>
     </row>
     <row r="184" spans="1:7">
@@ -4614,13 +4614,13 @@
         <v>72.85714285714199</v>
       </c>
       <c r="E184" s="2">
-        <v>369722</v>
+        <v>369762</v>
       </c>
       <c r="F184" s="2">
-        <v>3559</v>
+        <v>3560</v>
       </c>
       <c r="G184" s="4">
-        <v>0.02368457716</v>
+        <v>0.02368127786</v>
       </c>
     </row>
     <row r="185" spans="1:7">
@@ -4637,13 +4637,13 @@
         <v>69.142857142857</v>
       </c>
       <c r="E185" s="2">
-        <v>373247</v>
+        <v>373287</v>
       </c>
       <c r="F185" s="2">
         <v>3525</v>
       </c>
       <c r="G185" s="4">
-        <v>0.022697430125</v>
+        <v>0.022695301509</v>
       </c>
     </row>
     <row r="186" spans="1:7">
@@ -4660,13 +4660,13 @@
         <v>67.571428571428</v>
       </c>
       <c r="E186" s="2">
-        <v>376794</v>
+        <v>376834</v>
       </c>
       <c r="F186" s="2">
         <v>3547</v>
       </c>
       <c r="G186" s="4">
-        <v>0.021930637982</v>
+        <v>0.021929621215</v>
       </c>
     </row>
     <row r="187" spans="1:7">
@@ -4683,13 +4683,13 @@
         <v>65.28571428571399</v>
       </c>
       <c r="E187" s="2">
-        <v>378790</v>
+        <v>378830</v>
       </c>
       <c r="F187" s="2">
         <v>1996</v>
       </c>
       <c r="G187" s="4">
-        <v>0.021068645982</v>
+        <v>0.021067674718</v>
       </c>
     </row>
     <row r="188" spans="1:7">
@@ -4706,13 +4706,13 @@
         <v>67.28571428571399</v>
       </c>
       <c r="E188" s="2">
-        <v>380174</v>
+        <v>380214</v>
       </c>
       <c r="F188" s="2">
         <v>1384</v>
       </c>
       <c r="G188" s="4">
-        <v>0.021461769798</v>
+        <v>0.021460791907</v>
       </c>
     </row>
     <row r="189" spans="1:7">
@@ -4729,13 +4729,13 @@
         <v>62.142857142857</v>
       </c>
       <c r="E189" s="2">
-        <v>384979</v>
+        <v>385019</v>
       </c>
       <c r="F189" s="2">
         <v>4805</v>
       </c>
       <c r="G189" s="4">
-        <v>0.01920360233</v>
+        <v>0.019202754602</v>
       </c>
     </row>
     <row r="190" spans="1:7">
@@ -4752,13 +4752,13 @@
         <v>60.428571428571</v>
       </c>
       <c r="E190" s="2">
-        <v>389635</v>
+        <v>389673</v>
       </c>
       <c r="F190" s="2">
-        <v>4656</v>
+        <v>4654</v>
       </c>
       <c r="G190" s="4">
-        <v>0.018021472392</v>
+        <v>0.018022240211</v>
       </c>
     </row>
     <row r="191" spans="1:7">
@@ -4775,13 +4775,13 @@
         <v>62.57142857142801</v>
       </c>
       <c r="E191" s="2">
-        <v>393811</v>
+        <v>393848</v>
       </c>
       <c r="F191" s="2">
-        <v>4176</v>
+        <v>4175</v>
       </c>
       <c r="G191" s="4">
-        <v>0.018182572958</v>
+        <v>0.018184837665</v>
       </c>
     </row>
     <row r="192" spans="1:7">
@@ -4798,10 +4798,10 @@
         <v>66.714285714285</v>
       </c>
       <c r="E192" s="2">
-        <v>398042</v>
+        <v>398082</v>
       </c>
       <c r="F192" s="2">
-        <v>4231</v>
+        <v>4234</v>
       </c>
       <c r="G192" s="4">
         <v>0.018834442427</v>
@@ -4821,13 +4821,13 @@
         <v>63.857142857142</v>
       </c>
       <c r="E193" s="2">
-        <v>401812</v>
+        <v>401855</v>
       </c>
       <c r="F193" s="2">
-        <v>3770</v>
+        <v>3773</v>
       </c>
       <c r="G193" s="4">
-        <v>0.017867135662</v>
+        <v>0.017864993405</v>
       </c>
     </row>
     <row r="194" spans="1:7">
@@ -4844,13 +4844,13 @@
         <v>63.57142857142801</v>
       </c>
       <c r="E194" s="2">
-        <v>403598</v>
+        <v>403641</v>
       </c>
       <c r="F194" s="2">
         <v>1786</v>
       </c>
       <c r="G194" s="4">
-        <v>0.017937762012</v>
+        <v>0.017935593083</v>
       </c>
     </row>
     <row r="195" spans="1:7">
@@ -4867,13 +4867,13 @@
         <v>61.71428571428499</v>
       </c>
       <c r="E195" s="2">
-        <v>404920</v>
+        <v>404970</v>
       </c>
       <c r="F195" s="2">
-        <v>1322</v>
+        <v>1329</v>
       </c>
       <c r="G195" s="4">
-        <v>0.017457366847</v>
+        <v>0.017450315075</v>
       </c>
     </row>
     <row r="196" spans="1:7">
@@ -4890,13 +4890,13 @@
         <v>63.857142857142</v>
       </c>
       <c r="E196" s="2">
-        <v>409435</v>
+        <v>409486</v>
       </c>
       <c r="F196" s="2">
-        <v>4515</v>
+        <v>4516</v>
       </c>
       <c r="G196" s="4">
-        <v>0.018277723258</v>
+        <v>0.018269505865</v>
       </c>
     </row>
     <row r="197" spans="1:7">
@@ -4913,13 +4913,13 @@
         <v>67.714285714285</v>
       </c>
       <c r="E197" s="2">
-        <v>413935</v>
+        <v>413986</v>
       </c>
       <c r="F197" s="2">
         <v>4500</v>
       </c>
       <c r="G197" s="4">
-        <v>0.019506172839</v>
+        <v>0.019495743018</v>
       </c>
     </row>
     <row r="198" spans="1:7">
@@ -4936,13 +4936,13 @@
         <v>67</v>
       </c>
       <c r="E198" s="2">
-        <v>418147</v>
+        <v>418200</v>
       </c>
       <c r="F198" s="2">
-        <v>4212</v>
+        <v>4214</v>
       </c>
       <c r="G198" s="4">
-        <v>0.019271860618</v>
+        <v>0.019259198423</v>
       </c>
     </row>
     <row r="199" spans="1:7">
@@ -4959,13 +4959,13 @@
         <v>60.857142857142</v>
       </c>
       <c r="E199" s="2">
-        <v>422139</v>
+        <v>422193</v>
       </c>
       <c r="F199" s="2">
-        <v>3992</v>
+        <v>3993</v>
       </c>
       <c r="G199" s="4">
-        <v>0.017678549196</v>
+        <v>0.017668284185</v>
       </c>
     </row>
     <row r="200" spans="1:7">
@@ -4982,13 +4982,13 @@
         <v>60.71428571428499</v>
       </c>
       <c r="E200" s="2">
-        <v>426119</v>
+        <v>426173</v>
       </c>
       <c r="F200" s="2">
         <v>3980</v>
       </c>
       <c r="G200" s="4">
-        <v>0.017484675196</v>
+        <v>0.017476766181</v>
       </c>
     </row>
     <row r="201" spans="1:7">
@@ -5005,13 +5005,36 @@
         <v>61.28571428571399</v>
       </c>
       <c r="E201" s="2">
-        <v>428016</v>
+        <v>428070</v>
       </c>
       <c r="F201" s="2">
         <v>1897</v>
       </c>
       <c r="G201" s="4">
-        <v>0.01756900647</v>
+        <v>0.017561095419</v>
+      </c>
+    </row>
+    <row r="202" spans="1:7">
+      <c r="A202" s="1">
+        <v>44122</v>
+      </c>
+      <c r="B202" s="2">
+        <v>18404</v>
+      </c>
+      <c r="C202" s="2">
+        <v>36</v>
+      </c>
+      <c r="D202" s="3">
+        <v>63</v>
+      </c>
+      <c r="E202" s="2">
+        <v>429442</v>
+      </c>
+      <c r="F202" s="2">
+        <v>1372</v>
+      </c>
+      <c r="G202" s="4">
+        <v>0.018020594965</v>
       </c>
     </row>
   </sheetData>

--- a/contra_costa_county_testing.xlsx
+++ b/contra_costa_county_testing.xlsx
@@ -376,7 +376,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G202"/>
+  <dimension ref="A1:G203"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -428,13 +428,13 @@
         <v>21.285714285714</v>
       </c>
       <c r="E2" s="2">
-        <v>5659</v>
+        <v>5658</v>
       </c>
       <c r="F2" s="2">
         <v>330</v>
       </c>
       <c r="G2" s="4">
-        <v>0.068098720292</v>
+        <v>0.068067610781</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -451,13 +451,13 @@
         <v>24.571428571428</v>
       </c>
       <c r="E3" s="2">
-        <v>6026</v>
+        <v>6025</v>
       </c>
       <c r="F3" s="2">
         <v>367</v>
       </c>
       <c r="G3" s="4">
-        <v>0.07985143918199999</v>
+        <v>0.07981438515</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -474,7 +474,7 @@
         <v>27</v>
       </c>
       <c r="E4" s="2">
-        <v>6460</v>
+        <v>6459</v>
       </c>
       <c r="F4" s="2">
         <v>434</v>
@@ -497,7 +497,7 @@
         <v>27.857142857142</v>
       </c>
       <c r="E5" s="2">
-        <v>6647</v>
+        <v>6646</v>
       </c>
       <c r="F5" s="2">
         <v>187</v>
@@ -520,7 +520,7 @@
         <v>27.857142857142</v>
       </c>
       <c r="E6" s="2">
-        <v>6813</v>
+        <v>6812</v>
       </c>
       <c r="F6" s="2">
         <v>166</v>
@@ -543,7 +543,7 @@
         <v>26.857142857142</v>
       </c>
       <c r="E7" s="2">
-        <v>7188</v>
+        <v>7187</v>
       </c>
       <c r="F7" s="2">
         <v>375</v>
@@ -566,7 +566,7 @@
         <v>28.142857142857</v>
       </c>
       <c r="E8" s="2">
-        <v>7576</v>
+        <v>7575</v>
       </c>
       <c r="F8" s="2">
         <v>388</v>
@@ -589,7 +589,7 @@
         <v>27.571428571428</v>
       </c>
       <c r="E9" s="2">
-        <v>7920</v>
+        <v>7919</v>
       </c>
       <c r="F9" s="2">
         <v>344</v>
@@ -612,7 +612,7 @@
         <v>24</v>
       </c>
       <c r="E10" s="2">
-        <v>8244</v>
+        <v>8243</v>
       </c>
       <c r="F10" s="2">
         <v>324</v>
@@ -635,7 +635,7 @@
         <v>25.857142857142</v>
       </c>
       <c r="E11" s="2">
-        <v>8722</v>
+        <v>8721</v>
       </c>
       <c r="F11" s="2">
         <v>478</v>
@@ -658,7 +658,7 @@
         <v>24.428571428571</v>
       </c>
       <c r="E12" s="2">
-        <v>8901</v>
+        <v>8900</v>
       </c>
       <c r="F12" s="2">
         <v>179</v>
@@ -681,7 +681,7 @@
         <v>23.285714285714</v>
       </c>
       <c r="E13" s="2">
-        <v>9016</v>
+        <v>9015</v>
       </c>
       <c r="F13" s="2">
         <v>115</v>
@@ -704,7 +704,7 @@
         <v>23.428571428571</v>
       </c>
       <c r="E14" s="2">
-        <v>9373</v>
+        <v>9372</v>
       </c>
       <c r="F14" s="2">
         <v>357</v>
@@ -727,7 +727,7 @@
         <v>20.714285714285</v>
       </c>
       <c r="E15" s="2">
-        <v>9694</v>
+        <v>9693</v>
       </c>
       <c r="F15" s="2">
         <v>321</v>
@@ -750,7 +750,7 @@
         <v>21.857142857142</v>
       </c>
       <c r="E16" s="2">
-        <v>10045</v>
+        <v>10044</v>
       </c>
       <c r="F16" s="2">
         <v>351</v>
@@ -773,7 +773,7 @@
         <v>22.428571428571</v>
       </c>
       <c r="E17" s="2">
-        <v>10427</v>
+        <v>10426</v>
       </c>
       <c r="F17" s="2">
         <v>382</v>
@@ -796,7 +796,7 @@
         <v>17.428571428571</v>
       </c>
       <c r="E18" s="2">
-        <v>10773</v>
+        <v>10772</v>
       </c>
       <c r="F18" s="2">
         <v>346</v>
@@ -819,7 +819,7 @@
         <v>16.714285714285</v>
       </c>
       <c r="E19" s="2">
-        <v>10928</v>
+        <v>10927</v>
       </c>
       <c r="F19" s="2">
         <v>155</v>
@@ -842,7 +842,7 @@
         <v>17.428571428571</v>
       </c>
       <c r="E20" s="2">
-        <v>11075</v>
+        <v>11074</v>
       </c>
       <c r="F20" s="2">
         <v>147</v>
@@ -865,7 +865,7 @@
         <v>15.142857142857</v>
       </c>
       <c r="E21" s="2">
-        <v>11442</v>
+        <v>11441</v>
       </c>
       <c r="F21" s="2">
         <v>367</v>
@@ -888,7 +888,7 @@
         <v>15.428571428571</v>
       </c>
       <c r="E22" s="2">
-        <v>11847</v>
+        <v>11846</v>
       </c>
       <c r="F22" s="2">
         <v>405</v>
@@ -911,7 +911,7 @@
         <v>13.428571428571</v>
       </c>
       <c r="E23" s="2">
-        <v>12367</v>
+        <v>12366</v>
       </c>
       <c r="F23" s="2">
         <v>520</v>
@@ -934,7 +934,7 @@
         <v>12.714285714285</v>
       </c>
       <c r="E24" s="2">
-        <v>12925</v>
+        <v>12924</v>
       </c>
       <c r="F24" s="2">
         <v>558</v>
@@ -957,7 +957,7 @@
         <v>14</v>
       </c>
       <c r="E25" s="2">
-        <v>13490</v>
+        <v>13489</v>
       </c>
       <c r="F25" s="2">
         <v>565</v>
@@ -980,7 +980,7 @@
         <v>13.714285714285</v>
       </c>
       <c r="E26" s="2">
-        <v>13721</v>
+        <v>13720</v>
       </c>
       <c r="F26" s="2">
         <v>231</v>
@@ -1003,7 +1003,7 @@
         <v>14.285714285714</v>
       </c>
       <c r="E27" s="2">
-        <v>13951</v>
+        <v>13950</v>
       </c>
       <c r="F27" s="2">
         <v>230</v>
@@ -1026,7 +1026,7 @@
         <v>15.428571428571</v>
       </c>
       <c r="E28" s="2">
-        <v>14552</v>
+        <v>14551</v>
       </c>
       <c r="F28" s="2">
         <v>601</v>
@@ -1049,7 +1049,7 @@
         <v>15.285714285714</v>
       </c>
       <c r="E29" s="2">
-        <v>15091</v>
+        <v>15090</v>
       </c>
       <c r="F29" s="2">
         <v>539</v>
@@ -1072,7 +1072,7 @@
         <v>15.857142857142</v>
       </c>
       <c r="E30" s="2">
-        <v>15790</v>
+        <v>15789</v>
       </c>
       <c r="F30" s="2">
         <v>699</v>
@@ -1095,7 +1095,7 @@
         <v>16.857142857142</v>
       </c>
       <c r="E31" s="2">
-        <v>16636</v>
+        <v>16635</v>
       </c>
       <c r="F31" s="2">
         <v>846</v>
@@ -1118,7 +1118,7 @@
         <v>15.285714285714</v>
       </c>
       <c r="E32" s="2">
-        <v>17368</v>
+        <v>17367</v>
       </c>
       <c r="F32" s="2">
         <v>732</v>
@@ -1141,7 +1141,7 @@
         <v>15.857142857142</v>
       </c>
       <c r="E33" s="2">
-        <v>17656</v>
+        <v>17655</v>
       </c>
       <c r="F33" s="2">
         <v>288</v>
@@ -1164,7 +1164,7 @@
         <v>14.857142857142</v>
       </c>
       <c r="E34" s="2">
-        <v>17920</v>
+        <v>17919</v>
       </c>
       <c r="F34" s="2">
         <v>264</v>
@@ -1187,7 +1187,7 @@
         <v>15.285714285714</v>
       </c>
       <c r="E35" s="2">
-        <v>18698</v>
+        <v>18697</v>
       </c>
       <c r="F35" s="2">
         <v>778</v>
@@ -1210,7 +1210,7 @@
         <v>15.428571428571</v>
       </c>
       <c r="E36" s="2">
-        <v>19378</v>
+        <v>19377</v>
       </c>
       <c r="F36" s="2">
         <v>680</v>
@@ -1233,7 +1233,7 @@
         <v>16.428571428571</v>
       </c>
       <c r="E37" s="2">
-        <v>20343</v>
+        <v>20342</v>
       </c>
       <c r="F37" s="2">
         <v>965</v>
@@ -1256,7 +1256,7 @@
         <v>14.428571428571</v>
       </c>
       <c r="E38" s="2">
-        <v>21239</v>
+        <v>21238</v>
       </c>
       <c r="F38" s="2">
         <v>896</v>
@@ -1279,7 +1279,7 @@
         <v>15.285714285714</v>
       </c>
       <c r="E39" s="2">
-        <v>22379</v>
+        <v>22378</v>
       </c>
       <c r="F39" s="2">
         <v>1140</v>
@@ -1302,7 +1302,7 @@
         <v>14.714285714285</v>
       </c>
       <c r="E40" s="2">
-        <v>22761</v>
+        <v>22760</v>
       </c>
       <c r="F40" s="2">
         <v>382</v>
@@ -1325,7 +1325,7 @@
         <v>15.142857142857</v>
       </c>
       <c r="E41" s="2">
-        <v>23104</v>
+        <v>23103</v>
       </c>
       <c r="F41" s="2">
         <v>343</v>
@@ -1348,7 +1348,7 @@
         <v>13</v>
       </c>
       <c r="E42" s="2">
-        <v>24207</v>
+        <v>24206</v>
       </c>
       <c r="F42" s="2">
         <v>1103</v>
@@ -1371,7 +1371,7 @@
         <v>12.285714285714</v>
       </c>
       <c r="E43" s="2">
-        <v>25438</v>
+        <v>25437</v>
       </c>
       <c r="F43" s="2">
         <v>1231</v>
@@ -1394,7 +1394,7 @@
         <v>12.857142857142</v>
       </c>
       <c r="E44" s="2">
-        <v>26532</v>
+        <v>26531</v>
       </c>
       <c r="F44" s="2">
         <v>1094</v>
@@ -1417,7 +1417,7 @@
         <v>14</v>
       </c>
       <c r="E45" s="2">
-        <v>27393</v>
+        <v>27392</v>
       </c>
       <c r="F45" s="2">
         <v>861</v>
@@ -1440,7 +1440,7 @@
         <v>15.714285714285</v>
       </c>
       <c r="E46" s="2">
-        <v>28312</v>
+        <v>28311</v>
       </c>
       <c r="F46" s="2">
         <v>919</v>
@@ -1463,7 +1463,7 @@
         <v>17.571428571428</v>
       </c>
       <c r="E47" s="2">
-        <v>28721</v>
+        <v>28720</v>
       </c>
       <c r="F47" s="2">
         <v>409</v>
@@ -1486,13 +1486,13 @@
         <v>18</v>
       </c>
       <c r="E48" s="2">
-        <v>29111</v>
+        <v>29109</v>
       </c>
       <c r="F48" s="2">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="G48" s="4">
-        <v>0.02097552855</v>
+        <v>0.020979020979</v>
       </c>
     </row>
     <row r="49" spans="1:7">
@@ -1509,13 +1509,13 @@
         <v>22.428571428571</v>
       </c>
       <c r="E49" s="2">
-        <v>30476</v>
+        <v>30474</v>
       </c>
       <c r="F49" s="2">
         <v>1365</v>
       </c>
       <c r="G49" s="4">
-        <v>0.025043866645</v>
+        <v>0.025047862156</v>
       </c>
     </row>
     <row r="50" spans="1:7">
@@ -1532,13 +1532,13 @@
         <v>25.714285714285</v>
       </c>
       <c r="E50" s="2">
-        <v>32135</v>
+        <v>32133</v>
       </c>
       <c r="F50" s="2">
         <v>1659</v>
       </c>
       <c r="G50" s="4">
-        <v>0.026877706435</v>
+        <v>0.02688172043</v>
       </c>
     </row>
     <row r="51" spans="1:7">
@@ -1555,13 +1555,13 @@
         <v>26.142857142857</v>
       </c>
       <c r="E51" s="2">
-        <v>33276</v>
+        <v>33273</v>
       </c>
       <c r="F51" s="2">
-        <v>1141</v>
+        <v>1140</v>
       </c>
       <c r="G51" s="4">
-        <v>0.027135231316</v>
+        <v>0.027143280925</v>
       </c>
     </row>
     <row r="52" spans="1:7">
@@ -1578,13 +1578,13 @@
         <v>27.428571428571</v>
       </c>
       <c r="E52" s="2">
-        <v>34407</v>
+        <v>34404</v>
       </c>
       <c r="F52" s="2">
         <v>1131</v>
       </c>
       <c r="G52" s="4">
-        <v>0.027373823781</v>
+        <v>0.027381631488</v>
       </c>
     </row>
     <row r="53" spans="1:7">
@@ -1601,13 +1601,13 @@
         <v>29.142857142857</v>
       </c>
       <c r="E53" s="2">
-        <v>35496</v>
+        <v>35493</v>
       </c>
       <c r="F53" s="2">
         <v>1089</v>
       </c>
       <c r="G53" s="4">
-        <v>0.028396436525</v>
+        <v>0.028404344193</v>
       </c>
     </row>
     <row r="54" spans="1:7">
@@ -1624,13 +1624,13 @@
         <v>28</v>
       </c>
       <c r="E54" s="2">
-        <v>36015</v>
+        <v>36012</v>
       </c>
       <c r="F54" s="2">
         <v>519</v>
       </c>
       <c r="G54" s="4">
-        <v>0.026871401151</v>
+        <v>0.026878771256</v>
       </c>
     </row>
     <row r="55" spans="1:7">
@@ -1647,13 +1647,13 @@
         <v>27.571428571428</v>
       </c>
       <c r="E55" s="2">
-        <v>36406</v>
+        <v>36403</v>
       </c>
       <c r="F55" s="2">
         <v>391</v>
       </c>
       <c r="G55" s="4">
-        <v>0.026456477039</v>
+        <v>0.026460104195</v>
       </c>
     </row>
     <row r="56" spans="1:7">
@@ -1670,13 +1670,13 @@
         <v>23.285714285714</v>
       </c>
       <c r="E56" s="2">
-        <v>36868</v>
+        <v>36865</v>
       </c>
       <c r="F56" s="2">
         <v>462</v>
       </c>
       <c r="G56" s="4">
-        <v>0.025500625782</v>
+        <v>0.025504615866</v>
       </c>
     </row>
     <row r="57" spans="1:7">
@@ -1693,13 +1693,13 @@
         <v>23.714285714285</v>
       </c>
       <c r="E57" s="2">
-        <v>38065</v>
+        <v>38062</v>
       </c>
       <c r="F57" s="2">
         <v>1197</v>
       </c>
       <c r="G57" s="4">
-        <v>0.027993254637</v>
+        <v>0.027997976049</v>
       </c>
     </row>
     <row r="58" spans="1:7">
@@ -1716,7 +1716,7 @@
         <v>23.714285714285</v>
       </c>
       <c r="E58" s="2">
-        <v>39176</v>
+        <v>39173</v>
       </c>
       <c r="F58" s="2">
         <v>1111</v>
@@ -1739,7 +1739,7 @@
         <v>26.285714285714</v>
       </c>
       <c r="E59" s="2">
-        <v>40312</v>
+        <v>40309</v>
       </c>
       <c r="F59" s="2">
         <v>1136</v>
@@ -1762,7 +1762,7 @@
         <v>26.428571428571</v>
       </c>
       <c r="E60" s="2">
-        <v>41714</v>
+        <v>41711</v>
       </c>
       <c r="F60" s="2">
         <v>1402</v>
@@ -1785,7 +1785,7 @@
         <v>26.142857142857</v>
       </c>
       <c r="E61" s="2">
-        <v>42448</v>
+        <v>42445</v>
       </c>
       <c r="F61" s="2">
         <v>734</v>
@@ -1808,7 +1808,7 @@
         <v>25.857142857142</v>
       </c>
       <c r="E62" s="2">
-        <v>42845</v>
+        <v>42842</v>
       </c>
       <c r="F62" s="2">
         <v>397</v>
@@ -1831,7 +1831,7 @@
         <v>29.142857142857</v>
       </c>
       <c r="E63" s="2">
-        <v>44220</v>
+        <v>44217</v>
       </c>
       <c r="F63" s="2">
         <v>1375</v>
@@ -1854,7 +1854,7 @@
         <v>28.142857142857</v>
       </c>
       <c r="E64" s="2">
-        <v>45437</v>
+        <v>45434</v>
       </c>
       <c r="F64" s="2">
         <v>1217</v>
@@ -1877,7 +1877,7 @@
         <v>27.714285714285</v>
       </c>
       <c r="E65" s="2">
-        <v>46600</v>
+        <v>46597</v>
       </c>
       <c r="F65" s="2">
         <v>1163</v>
@@ -1900,7 +1900,7 @@
         <v>28.428571428571</v>
       </c>
       <c r="E66" s="2">
-        <v>47951</v>
+        <v>47948</v>
       </c>
       <c r="F66" s="2">
         <v>1351</v>
@@ -1923,7 +1923,7 @@
         <v>29.285714285714</v>
       </c>
       <c r="E67" s="2">
-        <v>49581</v>
+        <v>49578</v>
       </c>
       <c r="F67" s="2">
         <v>1630</v>
@@ -1946,7 +1946,7 @@
         <v>30.571428571428</v>
       </c>
       <c r="E68" s="2">
-        <v>50186</v>
+        <v>50183</v>
       </c>
       <c r="F68" s="2">
         <v>605</v>
@@ -1969,7 +1969,7 @@
         <v>32.428571428571</v>
       </c>
       <c r="E69" s="2">
-        <v>50671</v>
+        <v>50668</v>
       </c>
       <c r="F69" s="2">
         <v>485</v>
@@ -1992,13 +1992,13 @@
         <v>34.714285714285</v>
       </c>
       <c r="E70" s="2">
-        <v>52507</v>
+        <v>52506</v>
       </c>
       <c r="F70" s="2">
-        <v>1836</v>
+        <v>1838</v>
       </c>
       <c r="G70" s="4">
-        <v>0.02932303608</v>
+        <v>0.029315960912</v>
       </c>
     </row>
     <row r="71" spans="1:7">
@@ -2015,13 +2015,13 @@
         <v>36.428571428571</v>
       </c>
       <c r="E71" s="2">
-        <v>54354</v>
+        <v>54353</v>
       </c>
       <c r="F71" s="2">
         <v>1847</v>
       </c>
       <c r="G71" s="4">
-        <v>0.028597061792</v>
+        <v>0.028590649175</v>
       </c>
     </row>
     <row r="72" spans="1:7">
@@ -2038,13 +2038,13 @@
         <v>40</v>
       </c>
       <c r="E72" s="2">
-        <v>56345</v>
+        <v>56344</v>
       </c>
       <c r="F72" s="2">
         <v>1991</v>
       </c>
       <c r="G72" s="4">
-        <v>0.028732683427</v>
+        <v>0.028726787729</v>
       </c>
     </row>
     <row r="73" spans="1:7">
@@ -2061,13 +2061,13 @@
         <v>40.285714285714</v>
       </c>
       <c r="E73" s="2">
-        <v>58500</v>
+        <v>58499</v>
       </c>
       <c r="F73" s="2">
         <v>2155</v>
       </c>
       <c r="G73" s="4">
-        <v>0.026732391695</v>
+        <v>0.026727324424</v>
       </c>
     </row>
     <row r="74" spans="1:7">
@@ -2084,13 +2084,13 @@
         <v>41.857142857142</v>
       </c>
       <c r="E74" s="2">
-        <v>60761</v>
+        <v>60760</v>
       </c>
       <c r="F74" s="2">
         <v>2261</v>
       </c>
       <c r="G74" s="4">
-        <v>0.026207513416</v>
+        <v>0.02620282597</v>
       </c>
     </row>
     <row r="75" spans="1:7">
@@ -2107,13 +2107,13 @@
         <v>44.142857142857</v>
       </c>
       <c r="E75" s="2">
-        <v>61604</v>
+        <v>61603</v>
       </c>
       <c r="F75" s="2">
         <v>843</v>
       </c>
       <c r="G75" s="4">
-        <v>0.027062532842</v>
+        <v>0.027057793345</v>
       </c>
     </row>
     <row r="76" spans="1:7">
@@ -2130,13 +2130,13 @@
         <v>45.428571428571</v>
       </c>
       <c r="E76" s="2">
-        <v>62191</v>
+        <v>62190</v>
       </c>
       <c r="F76" s="2">
         <v>587</v>
       </c>
       <c r="G76" s="4">
-        <v>0.027604166666</v>
+        <v>0.027599375108</v>
       </c>
     </row>
     <row r="77" spans="1:7">
@@ -2153,13 +2153,13 @@
         <v>46.714285714285</v>
       </c>
       <c r="E77" s="2">
-        <v>64410</v>
+        <v>64411</v>
       </c>
       <c r="F77" s="2">
-        <v>2219</v>
+        <v>2221</v>
       </c>
       <c r="G77" s="4">
-        <v>0.027472065865</v>
+        <v>0.02746745065</v>
       </c>
     </row>
     <row r="78" spans="1:7">
@@ -2176,13 +2176,13 @@
         <v>52.571428571428</v>
       </c>
       <c r="E78" s="2">
-        <v>66932</v>
+        <v>66934</v>
       </c>
       <c r="F78" s="2">
-        <v>2522</v>
+        <v>2523</v>
       </c>
       <c r="G78" s="4">
-        <v>0.029257433614</v>
+        <v>0.029250457038</v>
       </c>
     </row>
     <row r="79" spans="1:7">
@@ -2199,13 +2199,13 @@
         <v>57.285714285714</v>
       </c>
       <c r="E79" s="2">
-        <v>69504</v>
+        <v>69506</v>
       </c>
       <c r="F79" s="2">
         <v>2572</v>
       </c>
       <c r="G79" s="4">
-        <v>0.030473440231</v>
+        <v>0.030466494453</v>
       </c>
     </row>
     <row r="80" spans="1:7">
@@ -2222,13 +2222,13 @@
         <v>62.57142857142801</v>
       </c>
       <c r="E80" s="2">
-        <v>72032</v>
+        <v>72036</v>
       </c>
       <c r="F80" s="2">
-        <v>2528</v>
+        <v>2530</v>
       </c>
       <c r="G80" s="4">
-        <v>0.032367720957</v>
+        <v>0.032355765679</v>
       </c>
     </row>
     <row r="81" spans="1:7">
@@ -2245,13 +2245,13 @@
         <v>68.85714285714199</v>
       </c>
       <c r="E81" s="2">
-        <v>74475</v>
+        <v>74479</v>
       </c>
       <c r="F81" s="2">
         <v>2443</v>
       </c>
       <c r="G81" s="4">
-        <v>0.035146565553</v>
+        <v>0.035133756104</v>
       </c>
     </row>
     <row r="82" spans="1:7">
@@ -2268,13 +2268,13 @@
         <v>71.428571428571</v>
       </c>
       <c r="E82" s="2">
-        <v>75427</v>
+        <v>75431</v>
       </c>
       <c r="F82" s="2">
         <v>952</v>
       </c>
       <c r="G82" s="4">
-        <v>0.036171598061</v>
+        <v>0.036158518947</v>
       </c>
     </row>
     <row r="83" spans="1:7">
@@ -2291,13 +2291,13 @@
         <v>73.28571428571399</v>
       </c>
       <c r="E83" s="2">
-        <v>76125</v>
+        <v>76129</v>
       </c>
       <c r="F83" s="2">
         <v>698</v>
       </c>
       <c r="G83" s="4">
-        <v>0.036816420266</v>
+        <v>0.036803214003</v>
       </c>
     </row>
     <row r="84" spans="1:7">
@@ -2314,13 +2314,13 @@
         <v>81</v>
       </c>
       <c r="E84" s="2">
-        <v>78743</v>
+        <v>78747</v>
       </c>
       <c r="F84" s="2">
         <v>2618</v>
       </c>
       <c r="G84" s="4">
-        <v>0.039559059513</v>
+        <v>0.03955078125</v>
       </c>
     </row>
     <row r="85" spans="1:7">
@@ -2337,13 +2337,13 @@
         <v>88</v>
       </c>
       <c r="E85" s="2">
-        <v>81528</v>
+        <v>81532</v>
       </c>
       <c r="F85" s="2">
         <v>2785</v>
       </c>
       <c r="G85" s="4">
-        <v>0.042203343381</v>
+        <v>0.042197561309</v>
       </c>
     </row>
     <row r="86" spans="1:7">
@@ -2360,13 +2360,13 @@
         <v>96</v>
       </c>
       <c r="E86" s="2">
-        <v>84558</v>
+        <v>84564</v>
       </c>
       <c r="F86" s="2">
-        <v>3030</v>
+        <v>3032</v>
       </c>
       <c r="G86" s="4">
-        <v>0.044639298525</v>
+        <v>0.044627440563</v>
       </c>
     </row>
     <row r="87" spans="1:7">
@@ -2383,13 +2383,13 @@
         <v>104.714285714285</v>
       </c>
       <c r="E87" s="2">
-        <v>87918</v>
+        <v>87924</v>
       </c>
       <c r="F87" s="2">
         <v>3360</v>
       </c>
       <c r="G87" s="4">
-        <v>0.046141256452</v>
+        <v>0.046135448136</v>
       </c>
     </row>
     <row r="88" spans="1:7">
@@ -2406,13 +2406,13 @@
         <v>114.428571428571</v>
       </c>
       <c r="E88" s="2">
-        <v>90887</v>
+        <v>90893</v>
       </c>
       <c r="F88" s="2">
         <v>2969</v>
       </c>
       <c r="G88" s="4">
-        <v>0.048805751888</v>
+        <v>0.048799805044</v>
       </c>
     </row>
     <row r="89" spans="1:7">
@@ -2429,13 +2429,13 @@
         <v>118.428571428571</v>
       </c>
       <c r="E89" s="2">
-        <v>91961</v>
+        <v>91967</v>
       </c>
       <c r="F89" s="2">
         <v>1074</v>
       </c>
       <c r="G89" s="4">
-        <v>0.050139107294</v>
+        <v>0.050133043057</v>
       </c>
     </row>
     <row r="90" spans="1:7">
@@ -2452,13 +2452,13 @@
         <v>121.142857142857</v>
       </c>
       <c r="E90" s="2">
-        <v>92756</v>
+        <v>92763</v>
       </c>
       <c r="F90" s="2">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="G90" s="4">
-        <v>0.050989116709</v>
+        <v>0.050979920644</v>
       </c>
     </row>
     <row r="91" spans="1:7">
@@ -2475,13 +2475,13 @@
         <v>133.428571428571</v>
       </c>
       <c r="E91" s="2">
-        <v>96442</v>
+        <v>96449</v>
       </c>
       <c r="F91" s="2">
         <v>3686</v>
       </c>
       <c r="G91" s="4">
-        <v>0.052771343013</v>
+        <v>0.052762399728</v>
       </c>
     </row>
     <row r="92" spans="1:7">
@@ -2498,13 +2498,13 @@
         <v>137</v>
       </c>
       <c r="E92" s="2">
-        <v>99922</v>
+        <v>99929</v>
       </c>
       <c r="F92" s="2">
         <v>3480</v>
       </c>
       <c r="G92" s="4">
-        <v>0.052136566271</v>
+        <v>0.052128064358</v>
       </c>
     </row>
     <row r="93" spans="1:7">
@@ -2521,13 +2521,13 @@
         <v>141.285714285714</v>
       </c>
       <c r="E93" s="2">
-        <v>103462</v>
+        <v>103470</v>
       </c>
       <c r="F93" s="2">
-        <v>3540</v>
+        <v>3541</v>
       </c>
       <c r="G93" s="4">
-        <v>0.052316969953</v>
+        <v>0.052311435523</v>
       </c>
     </row>
     <row r="94" spans="1:7">
@@ -2544,13 +2544,13 @@
         <v>149.857142857142</v>
       </c>
       <c r="E94" s="2">
-        <v>107386</v>
+        <v>107394</v>
       </c>
       <c r="F94" s="2">
         <v>3924</v>
       </c>
       <c r="G94" s="4">
-        <v>0.053883295664</v>
+        <v>0.053877760657</v>
       </c>
     </row>
     <row r="95" spans="1:7">
@@ -2567,13 +2567,13 @@
         <v>146.142857142857</v>
       </c>
       <c r="E95" s="2">
-        <v>110027</v>
+        <v>110035</v>
       </c>
       <c r="F95" s="2">
         <v>2641</v>
       </c>
       <c r="G95" s="4">
-        <v>0.053448275862</v>
+        <v>0.053442691463</v>
       </c>
     </row>
     <row r="96" spans="1:7">
@@ -2590,13 +2590,13 @@
         <v>148</v>
       </c>
       <c r="E96" s="2">
-        <v>111144</v>
+        <v>111152</v>
       </c>
       <c r="F96" s="2">
         <v>1117</v>
       </c>
       <c r="G96" s="4">
-        <v>0.054006151279</v>
+        <v>0.05400052124</v>
       </c>
     </row>
     <row r="97" spans="1:7">
@@ -2613,13 +2613,13 @@
         <v>151.857142857142</v>
       </c>
       <c r="E97" s="2">
-        <v>112273</v>
+        <v>112281</v>
       </c>
       <c r="F97" s="2">
         <v>1129</v>
       </c>
       <c r="G97" s="4">
-        <v>0.05446533791</v>
+        <v>0.054462547392</v>
       </c>
     </row>
     <row r="98" spans="1:7">
@@ -2636,13 +2636,13 @@
         <v>152.857142857142</v>
       </c>
       <c r="E98" s="2">
-        <v>116351</v>
+        <v>116360</v>
       </c>
       <c r="F98" s="2">
-        <v>4078</v>
+        <v>4079</v>
       </c>
       <c r="G98" s="4">
-        <v>0.053744537646</v>
+        <v>0.053739139169</v>
       </c>
     </row>
     <row r="99" spans="1:7">
@@ -2659,13 +2659,13 @@
         <v>161.142857142857</v>
       </c>
       <c r="E99" s="2">
-        <v>120434</v>
+        <v>120443</v>
       </c>
       <c r="F99" s="2">
         <v>4083</v>
       </c>
       <c r="G99" s="4">
-        <v>0.054992199687</v>
+        <v>0.054986838256</v>
       </c>
     </row>
     <row r="100" spans="1:7">
@@ -2682,13 +2682,13 @@
         <v>168.571428571428</v>
       </c>
       <c r="E100" s="2">
-        <v>124698</v>
+        <v>124707</v>
       </c>
       <c r="F100" s="2">
         <v>4264</v>
       </c>
       <c r="G100" s="4">
-        <v>0.055566019966</v>
+        <v>0.055563403493</v>
       </c>
     </row>
     <row r="101" spans="1:7">
@@ -2705,13 +2705,13 @@
         <v>174.285714285714</v>
       </c>
       <c r="E101" s="2">
-        <v>129301</v>
+        <v>129310</v>
       </c>
       <c r="F101" s="2">
         <v>4603</v>
       </c>
       <c r="G101" s="4">
-        <v>0.055669632671</v>
+        <v>0.055667092535</v>
       </c>
     </row>
     <row r="102" spans="1:7">
@@ -2728,13 +2728,13 @@
         <v>188.857142857142</v>
       </c>
       <c r="E102" s="2">
-        <v>133763</v>
+        <v>133772</v>
       </c>
       <c r="F102" s="2">
         <v>4462</v>
       </c>
       <c r="G102" s="4">
-        <v>0.055695989214</v>
+        <v>0.055693642836</v>
       </c>
     </row>
     <row r="103" spans="1:7">
@@ -2751,13 +2751,13 @@
         <v>195.571428571428</v>
       </c>
       <c r="E103" s="2">
-        <v>135835</v>
+        <v>135845</v>
       </c>
       <c r="F103" s="2">
-        <v>2072</v>
+        <v>2073</v>
       </c>
       <c r="G103" s="4">
-        <v>0.055445303956</v>
+        <v>0.055440813185</v>
       </c>
     </row>
     <row r="104" spans="1:7">
@@ -2774,13 +2774,13 @@
         <v>197.714285714285</v>
       </c>
       <c r="E104" s="2">
-        <v>137161</v>
+        <v>137171</v>
       </c>
       <c r="F104" s="2">
         <v>1326</v>
       </c>
       <c r="G104" s="4">
-        <v>0.055609128897</v>
+        <v>0.055604660506</v>
       </c>
     </row>
     <row r="105" spans="1:7">
@@ -2797,13 +2797,13 @@
         <v>205.857142857142</v>
       </c>
       <c r="E105" s="2">
-        <v>141767</v>
+        <v>141777</v>
       </c>
       <c r="F105" s="2">
         <v>4606</v>
       </c>
       <c r="G105" s="4">
-        <v>0.05669656909</v>
+        <v>0.056694338434</v>
       </c>
     </row>
     <row r="106" spans="1:7">
@@ -2820,13 +2820,13 @@
         <v>211.428571428571</v>
       </c>
       <c r="E106" s="2">
-        <v>145535</v>
+        <v>145545</v>
       </c>
       <c r="F106" s="2">
         <v>3768</v>
       </c>
       <c r="G106" s="4">
-        <v>0.05896179435</v>
+        <v>0.058959445462</v>
       </c>
     </row>
     <row r="107" spans="1:7">
@@ -2843,13 +2843,13 @@
         <v>216.428571428571</v>
       </c>
       <c r="E107" s="2">
-        <v>149882</v>
+        <v>149892</v>
       </c>
       <c r="F107" s="2">
         <v>4347</v>
       </c>
       <c r="G107" s="4">
-        <v>0.060157242693</v>
+        <v>0.060154854079</v>
       </c>
     </row>
     <row r="108" spans="1:7">
@@ -2866,13 +2866,13 @@
         <v>217</v>
       </c>
       <c r="E108" s="2">
-        <v>154067</v>
+        <v>154077</v>
       </c>
       <c r="F108" s="2">
         <v>4185</v>
       </c>
       <c r="G108" s="4">
-        <v>0.061334087054</v>
+        <v>0.06133161061</v>
       </c>
     </row>
     <row r="109" spans="1:7">
@@ -2889,13 +2889,13 @@
         <v>217.571428571428</v>
       </c>
       <c r="E109" s="2">
-        <v>158271</v>
+        <v>158281</v>
       </c>
       <c r="F109" s="2">
         <v>4204</v>
       </c>
       <c r="G109" s="4">
-        <v>0.062142973722</v>
+        <v>0.062140438206</v>
       </c>
     </row>
     <row r="110" spans="1:7">
@@ -2912,13 +2912,13 @@
         <v>216</v>
       </c>
       <c r="E110" s="2">
-        <v>160496</v>
+        <v>160505</v>
       </c>
       <c r="F110" s="2">
-        <v>2225</v>
+        <v>2224</v>
       </c>
       <c r="G110" s="4">
-        <v>0.061311382344</v>
+        <v>0.061313868613</v>
       </c>
     </row>
     <row r="111" spans="1:7">
@@ -2935,10 +2935,10 @@
         <v>215.714285714285</v>
       </c>
       <c r="E111" s="2">
-        <v>161753</v>
+        <v>161763</v>
       </c>
       <c r="F111" s="2">
-        <v>1257</v>
+        <v>1258</v>
       </c>
       <c r="G111" s="4">
         <v>0.061402081977</v>
@@ -2958,7 +2958,7 @@
         <v>220</v>
       </c>
       <c r="E112" s="2">
-        <v>166002</v>
+        <v>166012</v>
       </c>
       <c r="F112" s="2">
         <v>4249</v>
@@ -2981,7 +2981,7 @@
         <v>217.857142857142</v>
       </c>
       <c r="E113" s="2">
-        <v>169841</v>
+        <v>169851</v>
       </c>
       <c r="F113" s="2">
         <v>3839</v>
@@ -3004,7 +3004,7 @@
         <v>216.285714285714</v>
       </c>
       <c r="E114" s="2">
-        <v>173503</v>
+        <v>173513</v>
       </c>
       <c r="F114" s="2">
         <v>3662</v>
@@ -3027,7 +3027,7 @@
         <v>212.857142857142</v>
       </c>
       <c r="E115" s="2">
-        <v>176828</v>
+        <v>176838</v>
       </c>
       <c r="F115" s="2">
         <v>3325</v>
@@ -3050,7 +3050,7 @@
         <v>208.428571428571</v>
       </c>
       <c r="E116" s="2">
-        <v>180462</v>
+        <v>180472</v>
       </c>
       <c r="F116" s="2">
         <v>3634</v>
@@ -3073,13 +3073,13 @@
         <v>206</v>
       </c>
       <c r="E117" s="2">
-        <v>182083</v>
+        <v>182093</v>
       </c>
       <c r="F117" s="2">
         <v>1621</v>
       </c>
       <c r="G117" s="4">
-        <v>0.066799462639</v>
+        <v>0.06679636835199999</v>
       </c>
     </row>
     <row r="118" spans="1:7">
@@ -3096,13 +3096,13 @@
         <v>206.571428571428</v>
       </c>
       <c r="E118" s="2">
-        <v>183337</v>
+        <v>183346</v>
       </c>
       <c r="F118" s="2">
-        <v>1254</v>
+        <v>1253</v>
       </c>
       <c r="G118" s="4">
-        <v>0.066994069681</v>
+        <v>0.066997173701</v>
       </c>
     </row>
     <row r="119" spans="1:7">
@@ -3119,10 +3119,10 @@
         <v>199.714285714285</v>
       </c>
       <c r="E119" s="2">
-        <v>187508</v>
+        <v>187518</v>
       </c>
       <c r="F119" s="2">
-        <v>4171</v>
+        <v>4172</v>
       </c>
       <c r="G119" s="4">
         <v>0.065005114851</v>
@@ -3142,7 +3142,7 @@
         <v>201.857142857142</v>
       </c>
       <c r="E120" s="2">
-        <v>191422</v>
+        <v>191432</v>
       </c>
       <c r="F120" s="2">
         <v>3914</v>
@@ -3165,7 +3165,7 @@
         <v>202.285714285714</v>
       </c>
       <c r="E121" s="2">
-        <v>195284</v>
+        <v>195294</v>
       </c>
       <c r="F121" s="2">
         <v>3862</v>
@@ -3188,7 +3188,7 @@
         <v>200.285714285714</v>
       </c>
       <c r="E122" s="2">
-        <v>198956</v>
+        <v>198966</v>
       </c>
       <c r="F122" s="2">
         <v>3672</v>
@@ -3211,7 +3211,7 @@
         <v>202.285714285714</v>
       </c>
       <c r="E123" s="2">
-        <v>202495</v>
+        <v>202505</v>
       </c>
       <c r="F123" s="2">
         <v>3539</v>
@@ -3234,7 +3234,7 @@
         <v>201.714285714285</v>
       </c>
       <c r="E124" s="2">
-        <v>204147</v>
+        <v>204157</v>
       </c>
       <c r="F124" s="2">
         <v>1652</v>
@@ -3257,13 +3257,13 @@
         <v>198.285714285714</v>
       </c>
       <c r="E125" s="2">
-        <v>205295</v>
+        <v>205305</v>
       </c>
       <c r="F125" s="2">
         <v>1148</v>
       </c>
       <c r="G125" s="4">
-        <v>0.063211585754</v>
+        <v>0.06320870713600001</v>
       </c>
     </row>
     <row r="126" spans="1:7">
@@ -3280,7 +3280,7 @@
         <v>200</v>
       </c>
       <c r="E126" s="2">
-        <v>209164</v>
+        <v>209174</v>
       </c>
       <c r="F126" s="2">
         <v>3869</v>
@@ -3303,7 +3303,7 @@
         <v>197</v>
       </c>
       <c r="E127" s="2">
-        <v>212475</v>
+        <v>212485</v>
       </c>
       <c r="F127" s="2">
         <v>3311</v>
@@ -3326,7 +3326,7 @@
         <v>189.428571428571</v>
       </c>
       <c r="E128" s="2">
-        <v>215740</v>
+        <v>215750</v>
       </c>
       <c r="F128" s="2">
         <v>3265</v>
@@ -3349,7 +3349,7 @@
         <v>186.714285714285</v>
       </c>
       <c r="E129" s="2">
-        <v>219401</v>
+        <v>219411</v>
       </c>
       <c r="F129" s="2">
         <v>3661</v>
@@ -3372,7 +3372,7 @@
         <v>179.714285714285</v>
       </c>
       <c r="E130" s="2">
-        <v>222727</v>
+        <v>222737</v>
       </c>
       <c r="F130" s="2">
         <v>3326</v>
@@ -3395,7 +3395,7 @@
         <v>181.428571428571</v>
       </c>
       <c r="E131" s="2">
-        <v>224433</v>
+        <v>224443</v>
       </c>
       <c r="F131" s="2">
         <v>1706</v>
@@ -3418,7 +3418,7 @@
         <v>182.285714285714</v>
       </c>
       <c r="E132" s="2">
-        <v>225498</v>
+        <v>225508</v>
       </c>
       <c r="F132" s="2">
         <v>1065</v>
@@ -3441,7 +3441,7 @@
         <v>179.714285714285</v>
       </c>
       <c r="E133" s="2">
-        <v>229395</v>
+        <v>229405</v>
       </c>
       <c r="F133" s="2">
         <v>3897</v>
@@ -3464,13 +3464,13 @@
         <v>174.857142857142</v>
       </c>
       <c r="E134" s="2">
-        <v>232814</v>
+        <v>232825</v>
       </c>
       <c r="F134" s="2">
-        <v>3419</v>
+        <v>3420</v>
       </c>
       <c r="G134" s="4">
-        <v>0.06017994985</v>
+        <v>0.06017699115</v>
       </c>
     </row>
     <row r="135" spans="1:7">
@@ -3487,13 +3487,13 @@
         <v>174.857142857142</v>
       </c>
       <c r="E135" s="2">
-        <v>236672</v>
+        <v>236683</v>
       </c>
       <c r="F135" s="2">
         <v>3858</v>
       </c>
       <c r="G135" s="4">
-        <v>0.058475062105</v>
+        <v>0.058472268666</v>
       </c>
     </row>
     <row r="136" spans="1:7">
@@ -3510,13 +3510,13 @@
         <v>171.428571428571</v>
       </c>
       <c r="E136" s="2">
-        <v>239939</v>
+        <v>239950</v>
       </c>
       <c r="F136" s="2">
         <v>3267</v>
       </c>
       <c r="G136" s="4">
-        <v>0.058428279287</v>
+        <v>0.058425434539</v>
       </c>
     </row>
     <row r="137" spans="1:7">
@@ -3533,13 +3533,13 @@
         <v>170.142857142857</v>
       </c>
       <c r="E137" s="2">
-        <v>243299</v>
+        <v>243311</v>
       </c>
       <c r="F137" s="2">
-        <v>3360</v>
+        <v>3361</v>
       </c>
       <c r="G137" s="4">
-        <v>0.05789422516</v>
+        <v>0.057888597258</v>
       </c>
     </row>
     <row r="138" spans="1:7">
@@ -3556,13 +3556,13 @@
         <v>166.285714285714</v>
       </c>
       <c r="E138" s="2">
-        <v>244862</v>
+        <v>244874</v>
       </c>
       <c r="F138" s="2">
         <v>1563</v>
       </c>
       <c r="G138" s="4">
-        <v>0.05697782564</v>
+        <v>0.056972248054</v>
       </c>
     </row>
     <row r="139" spans="1:7">
@@ -3579,13 +3579,13 @@
         <v>160.571428571428</v>
       </c>
       <c r="E139" s="2">
-        <v>245637</v>
+        <v>245649</v>
       </c>
       <c r="F139" s="2">
         <v>775</v>
       </c>
       <c r="G139" s="4">
-        <v>0.055812105864</v>
+        <v>0.055806563725</v>
       </c>
     </row>
     <row r="140" spans="1:7">
@@ -3602,13 +3602,13 @@
         <v>157.142857142857</v>
       </c>
       <c r="E140" s="2">
-        <v>249295</v>
+        <v>249307</v>
       </c>
       <c r="F140" s="2">
         <v>3658</v>
       </c>
       <c r="G140" s="4">
-        <v>0.055276381909</v>
+        <v>0.055270827052</v>
       </c>
     </row>
     <row r="141" spans="1:7">
@@ -3625,13 +3625,13 @@
         <v>152.571428571428</v>
       </c>
       <c r="E141" s="2">
-        <v>252377</v>
+        <v>252389</v>
       </c>
       <c r="F141" s="2">
         <v>3082</v>
       </c>
       <c r="G141" s="4">
-        <v>0.054592853856</v>
+        <v>0.054590063381</v>
       </c>
     </row>
     <row r="142" spans="1:7">
@@ -3648,13 +3648,13 @@
         <v>146.714285714285</v>
       </c>
       <c r="E142" s="2">
-        <v>255434</v>
+        <v>255446</v>
       </c>
       <c r="F142" s="2">
         <v>3057</v>
       </c>
       <c r="G142" s="4">
-        <v>0.05473830082</v>
+        <v>0.054735383467</v>
       </c>
     </row>
     <row r="143" spans="1:7">
@@ -3671,13 +3671,13 @@
         <v>140.571428571428</v>
       </c>
       <c r="E143" s="2">
-        <v>258603</v>
+        <v>258616</v>
       </c>
       <c r="F143" s="2">
-        <v>3169</v>
+        <v>3170</v>
       </c>
       <c r="G143" s="4">
-        <v>0.052721817402</v>
+        <v>0.052716168434</v>
       </c>
     </row>
     <row r="144" spans="1:7">
@@ -3694,13 +3694,13 @@
         <v>138.714285714285</v>
       </c>
       <c r="E144" s="2">
-        <v>261644</v>
+        <v>261657</v>
       </c>
       <c r="F144" s="2">
         <v>3041</v>
       </c>
       <c r="G144" s="4">
-        <v>0.052929953665</v>
+        <v>0.05292706857</v>
       </c>
     </row>
     <row r="145" spans="1:7">
@@ -3717,13 +3717,13 @@
         <v>134.285714285714</v>
       </c>
       <c r="E145" s="2">
-        <v>262974</v>
+        <v>262987</v>
       </c>
       <c r="F145" s="2">
         <v>1330</v>
       </c>
       <c r="G145" s="4">
-        <v>0.051899293286</v>
+        <v>0.051896427979</v>
       </c>
     </row>
     <row r="146" spans="1:7">
@@ -3740,13 +3740,13 @@
         <v>137.571428571428</v>
       </c>
       <c r="E146" s="2">
-        <v>263942</v>
+        <v>263955</v>
       </c>
       <c r="F146" s="2">
         <v>968</v>
       </c>
       <c r="G146" s="4">
-        <v>0.052608576891</v>
+        <v>0.052605703048</v>
       </c>
     </row>
     <row r="147" spans="1:7">
@@ -3763,13 +3763,13 @@
         <v>128.571428571428</v>
       </c>
       <c r="E147" s="2">
-        <v>266932</v>
+        <v>266945</v>
       </c>
       <c r="F147" s="2">
         <v>2990</v>
       </c>
       <c r="G147" s="4">
-        <v>0.051029086579</v>
+        <v>0.051026193445</v>
       </c>
     </row>
     <row r="148" spans="1:7">
@@ -3786,13 +3786,13 @@
         <v>123.857142857142</v>
       </c>
       <c r="E148" s="2">
-        <v>269956</v>
+        <v>269969</v>
       </c>
       <c r="F148" s="2">
         <v>3024</v>
       </c>
       <c r="G148" s="4">
-        <v>0.049320211616</v>
+        <v>0.049317406143</v>
       </c>
     </row>
     <row r="149" spans="1:7">
@@ -3809,13 +3809,13 @@
         <v>120.571428571428</v>
       </c>
       <c r="E149" s="2">
-        <v>272923</v>
+        <v>272936</v>
       </c>
       <c r="F149" s="2">
         <v>2967</v>
       </c>
       <c r="G149" s="4">
-        <v>0.048258905597</v>
+        <v>0.048256146369</v>
       </c>
     </row>
     <row r="150" spans="1:7">
@@ -3832,7 +3832,7 @@
         <v>126.285714285714</v>
       </c>
       <c r="E150" s="2">
-        <v>276196</v>
+        <v>276209</v>
       </c>
       <c r="F150" s="2">
         <v>3273</v>
@@ -3855,13 +3855,13 @@
         <v>119.714285714285</v>
       </c>
       <c r="E151" s="2">
-        <v>278983</v>
+        <v>278997</v>
       </c>
       <c r="F151" s="2">
-        <v>2787</v>
+        <v>2788</v>
       </c>
       <c r="G151" s="4">
-        <v>0.048330353538</v>
+        <v>0.04832756632</v>
       </c>
     </row>
     <row r="152" spans="1:7">
@@ -3878,13 +3878,13 @@
         <v>120</v>
       </c>
       <c r="E152" s="2">
-        <v>280425</v>
+        <v>280440</v>
       </c>
       <c r="F152" s="2">
-        <v>1442</v>
+        <v>1443</v>
       </c>
       <c r="G152" s="4">
-        <v>0.048134777376</v>
+        <v>0.048129261445</v>
       </c>
     </row>
     <row r="153" spans="1:7">
@@ -3901,13 +3901,13 @@
         <v>118.571428571428</v>
       </c>
       <c r="E153" s="2">
-        <v>281508</v>
+        <v>281523</v>
       </c>
       <c r="F153" s="2">
         <v>1083</v>
       </c>
       <c r="G153" s="4">
-        <v>0.047250370033</v>
+        <v>0.047244990892</v>
       </c>
     </row>
     <row r="154" spans="1:7">
@@ -3924,13 +3924,13 @@
         <v>117.428571428571</v>
       </c>
       <c r="E154" s="2">
-        <v>284654</v>
+        <v>284669</v>
       </c>
       <c r="F154" s="2">
         <v>3146</v>
       </c>
       <c r="G154" s="4">
-        <v>0.046383026746</v>
+        <v>0.046377792823</v>
       </c>
     </row>
     <row r="155" spans="1:7">
@@ -3947,13 +3947,13 @@
         <v>117.142857142857</v>
       </c>
       <c r="E155" s="2">
-        <v>287934</v>
+        <v>287951</v>
       </c>
       <c r="F155" s="2">
-        <v>3280</v>
+        <v>3282</v>
       </c>
       <c r="G155" s="4">
-        <v>0.045611302703</v>
+        <v>0.045601156712</v>
       </c>
     </row>
     <row r="156" spans="1:7">
@@ -3970,13 +3970,13 @@
         <v>114.285714285714</v>
       </c>
       <c r="E156" s="2">
-        <v>290919</v>
+        <v>290936</v>
       </c>
       <c r="F156" s="2">
         <v>2985</v>
       </c>
       <c r="G156" s="4">
-        <v>0.044454323182</v>
+        <v>0.044444444444</v>
       </c>
     </row>
     <row r="157" spans="1:7">
@@ -3993,13 +3993,13 @@
         <v>103.285714285714</v>
       </c>
       <c r="E157" s="2">
-        <v>293862</v>
+        <v>293879</v>
       </c>
       <c r="F157" s="2">
         <v>2943</v>
       </c>
       <c r="G157" s="4">
-        <v>0.040926072681</v>
+        <v>0.040916808149</v>
       </c>
     </row>
     <row r="158" spans="1:7">
@@ -4016,13 +4016,13 @@
         <v>104.142857142857</v>
       </c>
       <c r="E158" s="2">
-        <v>296685</v>
+        <v>296702</v>
       </c>
       <c r="F158" s="2">
         <v>2823</v>
       </c>
       <c r="G158" s="4">
-        <v>0.041181787368</v>
+        <v>0.041174809375</v>
       </c>
     </row>
     <row r="159" spans="1:7">
@@ -4039,13 +4039,13 @@
         <v>104.428571428571</v>
       </c>
       <c r="E159" s="2">
-        <v>298023</v>
+        <v>298040</v>
       </c>
       <c r="F159" s="2">
         <v>1338</v>
       </c>
       <c r="G159" s="4">
-        <v>0.041538811228</v>
+        <v>0.041534090909</v>
       </c>
     </row>
     <row r="160" spans="1:7">
@@ -4062,13 +4062,13 @@
         <v>103.714285714285</v>
       </c>
       <c r="E160" s="2">
-        <v>299108</v>
+        <v>299125</v>
       </c>
       <c r="F160" s="2">
         <v>1085</v>
       </c>
       <c r="G160" s="4">
-        <v>0.04125</v>
+        <v>0.041245313032</v>
       </c>
     </row>
     <row r="161" spans="1:7">
@@ -4085,13 +4085,13 @@
         <v>93.28571428571399</v>
       </c>
       <c r="E161" s="2">
-        <v>300364</v>
+        <v>300381</v>
       </c>
       <c r="F161" s="2">
         <v>1256</v>
       </c>
       <c r="G161" s="4">
-        <v>0.041565881604</v>
+        <v>0.041560590631</v>
       </c>
     </row>
     <row r="162" spans="1:7">
@@ -4108,7 +4108,7 @@
         <v>94.714285714285</v>
       </c>
       <c r="E162" s="2">
-        <v>304673</v>
+        <v>304690</v>
       </c>
       <c r="F162" s="2">
         <v>4309</v>
@@ -4131,7 +4131,7 @@
         <v>99.85714285714199</v>
       </c>
       <c r="E163" s="2">
-        <v>308197</v>
+        <v>308214</v>
       </c>
       <c r="F163" s="2">
         <v>3524</v>
@@ -4145,22 +4145,22 @@
         <v>44084</v>
       </c>
       <c r="B164" s="2">
-        <v>15667</v>
+        <v>15668</v>
       </c>
       <c r="C164" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D164" s="3">
-        <v>101</v>
+        <v>101.142857142857</v>
       </c>
       <c r="E164" s="2">
-        <v>311485</v>
+        <v>311504</v>
       </c>
       <c r="F164" s="2">
-        <v>3288</v>
+        <v>3290</v>
       </c>
       <c r="G164" s="4">
-        <v>0.040118027577</v>
+        <v>0.040170212765</v>
       </c>
     </row>
     <row r="165" spans="1:7">
@@ -4168,22 +4168,22 @@
         <v>44085</v>
       </c>
       <c r="B165" s="2">
-        <v>15740</v>
+        <v>15742</v>
       </c>
       <c r="C165" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D165" s="3">
-        <v>94</v>
+        <v>94.28571428571399</v>
       </c>
       <c r="E165" s="2">
-        <v>313989</v>
+        <v>314009</v>
       </c>
       <c r="F165" s="2">
-        <v>2504</v>
+        <v>2505</v>
       </c>
       <c r="G165" s="4">
-        <v>0.038025889967</v>
+        <v>0.038134858727</v>
       </c>
     </row>
     <row r="166" spans="1:7">
@@ -4191,22 +4191,22 @@
         <v>44086</v>
       </c>
       <c r="B166" s="2">
-        <v>15789</v>
+        <v>15791</v>
       </c>
       <c r="C166" s="2">
         <v>49</v>
       </c>
       <c r="D166" s="3">
-        <v>91.571428571428</v>
+        <v>91.85714285714199</v>
       </c>
       <c r="E166" s="2">
-        <v>315389</v>
+        <v>315410</v>
       </c>
       <c r="F166" s="2">
-        <v>1400</v>
+        <v>1401</v>
       </c>
       <c r="G166" s="4">
-        <v>0.036911205804</v>
+        <v>0.037017846862</v>
       </c>
     </row>
     <row r="167" spans="1:7">
@@ -4214,22 +4214,22 @@
         <v>44087</v>
       </c>
       <c r="B167" s="2">
-        <v>15823</v>
+        <v>15825</v>
       </c>
       <c r="C167" s="2">
         <v>34</v>
       </c>
       <c r="D167" s="3">
-        <v>88.85714285714199</v>
+        <v>89.142857142857</v>
       </c>
       <c r="E167" s="2">
-        <v>316239</v>
+        <v>316260</v>
       </c>
       <c r="F167" s="2">
         <v>850</v>
       </c>
       <c r="G167" s="4">
-        <v>0.036308446675</v>
+        <v>0.036416690983</v>
       </c>
     </row>
     <row r="168" spans="1:7">
@@ -4237,22 +4237,22 @@
         <v>44088</v>
       </c>
       <c r="B168" s="2">
-        <v>15924</v>
+        <v>15926</v>
       </c>
       <c r="C168" s="2">
         <v>101</v>
       </c>
       <c r="D168" s="3">
-        <v>93.428571428571</v>
+        <v>93.714285714285</v>
       </c>
       <c r="E168" s="2">
-        <v>319651</v>
+        <v>319674</v>
       </c>
       <c r="F168" s="2">
-        <v>3412</v>
+        <v>3414</v>
       </c>
       <c r="G168" s="4">
-        <v>0.033908850521</v>
+        <v>0.034001969626</v>
       </c>
     </row>
     <row r="169" spans="1:7">
@@ -4260,22 +4260,22 @@
         <v>44089</v>
       </c>
       <c r="B169" s="2">
-        <v>16054</v>
+        <v>16056</v>
       </c>
       <c r="C169" s="2">
         <v>130</v>
       </c>
       <c r="D169" s="3">
-        <v>91.571428571428</v>
+        <v>91.85714285714199</v>
       </c>
       <c r="E169" s="2">
-        <v>323643</v>
+        <v>323667</v>
       </c>
       <c r="F169" s="2">
-        <v>3992</v>
+        <v>3993</v>
       </c>
       <c r="G169" s="4">
-        <v>0.033790195044</v>
+        <v>0.033883121673</v>
       </c>
     </row>
     <row r="170" spans="1:7">
@@ -4283,22 +4283,22 @@
         <v>44090</v>
       </c>
       <c r="B170" s="2">
-        <v>16141</v>
+        <v>16143</v>
       </c>
       <c r="C170" s="2">
         <v>87</v>
       </c>
       <c r="D170" s="3">
-        <v>82.428571428571</v>
+        <v>82.714285714285</v>
       </c>
       <c r="E170" s="2">
-        <v>326960</v>
+        <v>326986</v>
       </c>
       <c r="F170" s="2">
-        <v>3317</v>
+        <v>3319</v>
       </c>
       <c r="G170" s="4">
-        <v>0.030752011938</v>
+        <v>0.030843809929</v>
       </c>
     </row>
     <row r="171" spans="1:7">
@@ -4306,22 +4306,22 @@
         <v>44091</v>
       </c>
       <c r="B171" s="2">
-        <v>16245</v>
+        <v>16247</v>
       </c>
       <c r="C171" s="2">
         <v>104</v>
       </c>
       <c r="D171" s="3">
-        <v>82.571428571428</v>
+        <v>82.714285714285</v>
       </c>
       <c r="E171" s="2">
-        <v>330596</v>
+        <v>330629</v>
       </c>
       <c r="F171" s="2">
-        <v>3636</v>
+        <v>3643</v>
       </c>
       <c r="G171" s="4">
-        <v>0.030244361885</v>
+        <v>0.030274509803</v>
       </c>
     </row>
     <row r="172" spans="1:7">
@@ -4329,7 +4329,7 @@
         <v>44092</v>
       </c>
       <c r="B172" s="2">
-        <v>16349</v>
+        <v>16351</v>
       </c>
       <c r="C172" s="2">
         <v>104</v>
@@ -4338,13 +4338,13 @@
         <v>87</v>
       </c>
       <c r="E172" s="2">
-        <v>333871</v>
+        <v>333905</v>
       </c>
       <c r="F172" s="2">
-        <v>3275</v>
+        <v>3276</v>
       </c>
       <c r="G172" s="4">
-        <v>0.030630721255</v>
+        <v>0.030609167671</v>
       </c>
     </row>
     <row r="173" spans="1:7">
@@ -4352,7 +4352,7 @@
         <v>44093</v>
       </c>
       <c r="B173" s="2">
-        <v>16421</v>
+        <v>16423</v>
       </c>
       <c r="C173" s="2">
         <v>72</v>
@@ -4361,13 +4361,13 @@
         <v>90.28571428571399</v>
       </c>
       <c r="E173" s="2">
-        <v>335390</v>
+        <v>335424</v>
       </c>
       <c r="F173" s="2">
         <v>1519</v>
       </c>
       <c r="G173" s="4">
-        <v>0.031598420078</v>
+        <v>0.031577895473</v>
       </c>
     </row>
     <row r="174" spans="1:7">
@@ -4375,7 +4375,7 @@
         <v>44094</v>
       </c>
       <c r="B174" s="2">
-        <v>16463</v>
+        <v>16465</v>
       </c>
       <c r="C174" s="2">
         <v>42</v>
@@ -4384,13 +4384,13 @@
         <v>91.428571428571</v>
       </c>
       <c r="E174" s="2">
-        <v>336546</v>
+        <v>336580</v>
       </c>
       <c r="F174" s="2">
         <v>1156</v>
       </c>
       <c r="G174" s="4">
-        <v>0.031516225931</v>
+        <v>0.031496062992</v>
       </c>
     </row>
     <row r="175" spans="1:7">
@@ -4398,7 +4398,7 @@
         <v>44095</v>
       </c>
       <c r="B175" s="2">
-        <v>16606</v>
+        <v>16608</v>
       </c>
       <c r="C175" s="2">
         <v>143</v>
@@ -4407,13 +4407,13 @@
         <v>97.428571428571</v>
       </c>
       <c r="E175" s="2">
-        <v>340923</v>
+        <v>340957</v>
       </c>
       <c r="F175" s="2">
         <v>4377</v>
       </c>
       <c r="G175" s="4">
-        <v>0.032060925159</v>
+        <v>0.032044354649</v>
       </c>
     </row>
     <row r="176" spans="1:7">
@@ -4421,7 +4421,7 @@
         <v>44096</v>
       </c>
       <c r="B176" s="2">
-        <v>16704</v>
+        <v>16706</v>
       </c>
       <c r="C176" s="2">
         <v>98</v>
@@ -4430,13 +4430,13 @@
         <v>92.85714285714199</v>
       </c>
       <c r="E176" s="2">
-        <v>344716</v>
+        <v>344751</v>
       </c>
       <c r="F176" s="2">
-        <v>3793</v>
+        <v>3794</v>
       </c>
       <c r="G176" s="4">
-        <v>0.03084515731</v>
+        <v>0.030829064693</v>
       </c>
     </row>
     <row r="177" spans="1:7">
@@ -4444,7 +4444,7 @@
         <v>44097</v>
       </c>
       <c r="B177" s="2">
-        <v>16798</v>
+        <v>16800</v>
       </c>
       <c r="C177" s="2">
         <v>94</v>
@@ -4453,13 +4453,13 @@
         <v>93.85714285714199</v>
       </c>
       <c r="E177" s="2">
-        <v>348226</v>
+        <v>348262</v>
       </c>
       <c r="F177" s="2">
-        <v>3510</v>
+        <v>3511</v>
       </c>
       <c r="G177" s="4">
-        <v>0.030894385403</v>
+        <v>0.030879864636</v>
       </c>
     </row>
     <row r="178" spans="1:7">
@@ -4467,7 +4467,7 @@
         <v>44098</v>
       </c>
       <c r="B178" s="2">
-        <v>16889</v>
+        <v>16891</v>
       </c>
       <c r="C178" s="2">
         <v>91</v>
@@ -4476,13 +4476,13 @@
         <v>92</v>
       </c>
       <c r="E178" s="2">
-        <v>351961</v>
+        <v>351997</v>
       </c>
       <c r="F178" s="2">
         <v>3735</v>
       </c>
       <c r="G178" s="4">
-        <v>0.030142756845</v>
+        <v>0.030138524897</v>
       </c>
     </row>
     <row r="179" spans="1:7">
@@ -4490,7 +4490,7 @@
         <v>44099</v>
       </c>
       <c r="B179" s="2">
-        <v>16978</v>
+        <v>16980</v>
       </c>
       <c r="C179" s="2">
         <v>89</v>
@@ -4499,13 +4499,13 @@
         <v>89.85714285714199</v>
       </c>
       <c r="E179" s="2">
-        <v>355265</v>
+        <v>355301</v>
       </c>
       <c r="F179" s="2">
         <v>3304</v>
       </c>
       <c r="G179" s="4">
-        <v>0.02940076657</v>
+        <v>0.029398018321</v>
       </c>
     </row>
     <row r="180" spans="1:7">
@@ -4513,7 +4513,7 @@
         <v>44100</v>
       </c>
       <c r="B180" s="2">
-        <v>17037</v>
+        <v>17039</v>
       </c>
       <c r="C180" s="2">
         <v>59</v>
@@ -4522,13 +4522,13 @@
         <v>88</v>
       </c>
       <c r="E180" s="2">
-        <v>357138</v>
+        <v>357174</v>
       </c>
       <c r="F180" s="2">
         <v>1873</v>
       </c>
       <c r="G180" s="4">
-        <v>0.028324443627</v>
+        <v>0.02832183908</v>
       </c>
     </row>
     <row r="181" spans="1:7">
@@ -4536,7 +4536,7 @@
         <v>44101</v>
       </c>
       <c r="B181" s="2">
-        <v>17060</v>
+        <v>17062</v>
       </c>
       <c r="C181" s="2">
         <v>23</v>
@@ -4545,13 +4545,13 @@
         <v>85.28571428571399</v>
       </c>
       <c r="E181" s="2">
-        <v>358267</v>
+        <v>358303</v>
       </c>
       <c r="F181" s="2">
         <v>1129</v>
       </c>
       <c r="G181" s="4">
-        <v>0.027484922425</v>
+        <v>0.027482391934</v>
       </c>
     </row>
     <row r="182" spans="1:7">
@@ -4559,7 +4559,7 @@
         <v>44102</v>
       </c>
       <c r="B182" s="2">
-        <v>17173</v>
+        <v>17175</v>
       </c>
       <c r="C182" s="2">
         <v>113</v>
@@ -4568,13 +4568,13 @@
         <v>81</v>
       </c>
       <c r="E182" s="2">
-        <v>362366</v>
+        <v>362404</v>
       </c>
       <c r="F182" s="2">
-        <v>4099</v>
+        <v>4101</v>
       </c>
       <c r="G182" s="4">
-        <v>0.026442195588</v>
+        <v>0.026437263953</v>
       </c>
     </row>
     <row r="183" spans="1:7">
@@ -4582,7 +4582,7 @@
         <v>44103</v>
       </c>
       <c r="B183" s="2">
-        <v>17248</v>
+        <v>17250</v>
       </c>
       <c r="C183" s="2">
         <v>75</v>
@@ -4591,13 +4591,13 @@
         <v>77.714285714285</v>
       </c>
       <c r="E183" s="2">
-        <v>366202</v>
+        <v>366245</v>
       </c>
       <c r="F183" s="2">
-        <v>3836</v>
+        <v>3841</v>
       </c>
       <c r="G183" s="4">
-        <v>0.025318812249</v>
+        <v>0.025309388666</v>
       </c>
     </row>
     <row r="184" spans="1:7">
@@ -4605,7 +4605,7 @@
         <v>44104</v>
       </c>
       <c r="B184" s="2">
-        <v>17308</v>
+        <v>17310</v>
       </c>
       <c r="C184" s="2">
         <v>60</v>
@@ -4614,13 +4614,13 @@
         <v>72.85714285714199</v>
       </c>
       <c r="E184" s="2">
-        <v>369762</v>
+        <v>369805</v>
       </c>
       <c r="F184" s="2">
         <v>3560</v>
       </c>
       <c r="G184" s="4">
-        <v>0.02368127786</v>
+        <v>0.023673583066</v>
       </c>
     </row>
     <row r="185" spans="1:7">
@@ -4628,7 +4628,7 @@
         <v>44105</v>
       </c>
       <c r="B185" s="2">
-        <v>17373</v>
+        <v>17375</v>
       </c>
       <c r="C185" s="2">
         <v>65</v>
@@ -4637,13 +4637,13 @@
         <v>69.142857142857</v>
       </c>
       <c r="E185" s="2">
-        <v>373287</v>
+        <v>373331</v>
       </c>
       <c r="F185" s="2">
-        <v>3525</v>
+        <v>3526</v>
       </c>
       <c r="G185" s="4">
-        <v>0.022695301509</v>
+        <v>0.022686791037</v>
       </c>
     </row>
     <row r="186" spans="1:7">
@@ -4654,19 +4654,19 @@
         <v>17451</v>
       </c>
       <c r="C186" s="2">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D186" s="3">
-        <v>67.571428571428</v>
+        <v>67.28571428571399</v>
       </c>
       <c r="E186" s="2">
-        <v>376834</v>
+        <v>376876</v>
       </c>
       <c r="F186" s="2">
-        <v>3547</v>
+        <v>3545</v>
       </c>
       <c r="G186" s="4">
-        <v>0.021929621215</v>
+        <v>0.021830822711</v>
       </c>
     </row>
     <row r="187" spans="1:7">
@@ -4680,16 +4680,16 @@
         <v>43</v>
       </c>
       <c r="D187" s="3">
-        <v>65.28571428571399</v>
+        <v>65</v>
       </c>
       <c r="E187" s="2">
-        <v>378830</v>
+        <v>378872</v>
       </c>
       <c r="F187" s="2">
         <v>1996</v>
       </c>
       <c r="G187" s="4">
-        <v>0.021067674718</v>
+        <v>0.020969674624</v>
       </c>
     </row>
     <row r="188" spans="1:7">
@@ -4703,16 +4703,16 @@
         <v>37</v>
       </c>
       <c r="D188" s="3">
-        <v>67.28571428571399</v>
+        <v>67</v>
       </c>
       <c r="E188" s="2">
-        <v>380214</v>
+        <v>380256</v>
       </c>
       <c r="F188" s="2">
         <v>1384</v>
       </c>
       <c r="G188" s="4">
-        <v>0.021460791907</v>
+        <v>0.021363822712</v>
       </c>
     </row>
     <row r="189" spans="1:7">
@@ -4726,16 +4726,16 @@
         <v>77</v>
       </c>
       <c r="D189" s="3">
-        <v>62.142857142857</v>
+        <v>61.857142857142</v>
       </c>
       <c r="E189" s="2">
-        <v>385019</v>
+        <v>385062</v>
       </c>
       <c r="F189" s="2">
-        <v>4805</v>
+        <v>4806</v>
       </c>
       <c r="G189" s="4">
-        <v>0.019202754602</v>
+        <v>0.019110248036</v>
       </c>
     </row>
     <row r="190" spans="1:7">
@@ -4749,16 +4749,16 @@
         <v>63</v>
       </c>
       <c r="D190" s="3">
-        <v>60.428571428571</v>
+        <v>60.142857142857</v>
       </c>
       <c r="E190" s="2">
-        <v>389673</v>
+        <v>389715</v>
       </c>
       <c r="F190" s="2">
-        <v>4654</v>
+        <v>4653</v>
       </c>
       <c r="G190" s="4">
-        <v>0.018022240211</v>
+        <v>0.017937792927</v>
       </c>
     </row>
     <row r="191" spans="1:7">
@@ -4766,22 +4766,22 @@
         <v>44111</v>
       </c>
       <c r="B191" s="2">
-        <v>17746</v>
+        <v>17747</v>
       </c>
       <c r="C191" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D191" s="3">
-        <v>62.57142857142801</v>
+        <v>62.428571428571</v>
       </c>
       <c r="E191" s="2">
-        <v>393848</v>
+        <v>393892</v>
       </c>
       <c r="F191" s="2">
-        <v>4175</v>
+        <v>4177</v>
       </c>
       <c r="G191" s="4">
-        <v>0.018184837665</v>
+        <v>0.018142566529</v>
       </c>
     </row>
     <row r="192" spans="1:7">
@@ -4789,22 +4789,22 @@
         <v>44112</v>
       </c>
       <c r="B192" s="2">
-        <v>17840</v>
+        <v>17841</v>
       </c>
       <c r="C192" s="2">
         <v>94</v>
       </c>
       <c r="D192" s="3">
-        <v>66.714285714285</v>
+        <v>66.571428571428</v>
       </c>
       <c r="E192" s="2">
-        <v>398082</v>
+        <v>398128</v>
       </c>
       <c r="F192" s="2">
-        <v>4234</v>
+        <v>4236</v>
       </c>
       <c r="G192" s="4">
-        <v>0.018834442427</v>
+        <v>0.018792595878</v>
       </c>
     </row>
     <row r="193" spans="1:7">
@@ -4812,22 +4812,22 @@
         <v>44113</v>
       </c>
       <c r="B193" s="2">
-        <v>17898</v>
+        <v>17899</v>
       </c>
       <c r="C193" s="2">
         <v>58</v>
       </c>
       <c r="D193" s="3">
-        <v>63.857142857142</v>
+        <v>64</v>
       </c>
       <c r="E193" s="2">
-        <v>401855</v>
+        <v>401901</v>
       </c>
       <c r="F193" s="2">
         <v>3773</v>
       </c>
       <c r="G193" s="4">
-        <v>0.017864993405</v>
+        <v>0.017902097902</v>
       </c>
     </row>
     <row r="194" spans="1:7">
@@ -4835,22 +4835,22 @@
         <v>44114</v>
       </c>
       <c r="B194" s="2">
-        <v>17939</v>
+        <v>17940</v>
       </c>
       <c r="C194" s="2">
         <v>41</v>
       </c>
       <c r="D194" s="3">
-        <v>63.57142857142801</v>
+        <v>63.71428571428499</v>
       </c>
       <c r="E194" s="2">
-        <v>403641</v>
+        <v>403688</v>
       </c>
       <c r="F194" s="2">
-        <v>1786</v>
+        <v>1787</v>
       </c>
       <c r="G194" s="4">
-        <v>0.017935593083</v>
+        <v>0.01797227595</v>
       </c>
     </row>
     <row r="195" spans="1:7">
@@ -4858,22 +4858,22 @@
         <v>44115</v>
       </c>
       <c r="B195" s="2">
-        <v>17963</v>
+        <v>17964</v>
       </c>
       <c r="C195" s="2">
         <v>24</v>
       </c>
       <c r="D195" s="3">
-        <v>61.71428571428499</v>
+        <v>61.857142857142</v>
       </c>
       <c r="E195" s="2">
-        <v>404970</v>
+        <v>405017</v>
       </c>
       <c r="F195" s="2">
         <v>1329</v>
       </c>
       <c r="G195" s="4">
-        <v>0.017450315075</v>
+        <v>0.017487177416</v>
       </c>
     </row>
     <row r="196" spans="1:7">
@@ -4881,22 +4881,22 @@
         <v>44116</v>
       </c>
       <c r="B196" s="2">
-        <v>18055</v>
+        <v>18056</v>
       </c>
       <c r="C196" s="2">
         <v>92</v>
       </c>
       <c r="D196" s="3">
-        <v>63.857142857142</v>
+        <v>64</v>
       </c>
       <c r="E196" s="2">
-        <v>409486</v>
+        <v>409535</v>
       </c>
       <c r="F196" s="2">
-        <v>4516</v>
+        <v>4518</v>
       </c>
       <c r="G196" s="4">
-        <v>0.018269505865</v>
+        <v>0.018305888121</v>
       </c>
     </row>
     <row r="197" spans="1:7">
@@ -4904,22 +4904,22 @@
         <v>44117</v>
       </c>
       <c r="B197" s="2">
-        <v>18145</v>
+        <v>18146</v>
       </c>
       <c r="C197" s="2">
         <v>90</v>
       </c>
       <c r="D197" s="3">
-        <v>67.714285714285</v>
+        <v>67.85714285714199</v>
       </c>
       <c r="E197" s="2">
-        <v>413986</v>
+        <v>414037</v>
       </c>
       <c r="F197" s="2">
-        <v>4500</v>
+        <v>4502</v>
       </c>
       <c r="G197" s="4">
-        <v>0.019495743018</v>
+        <v>0.019529643943</v>
       </c>
     </row>
     <row r="198" spans="1:7">
@@ -4930,19 +4930,19 @@
         <v>18215</v>
       </c>
       <c r="C198" s="2">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D198" s="3">
-        <v>67</v>
+        <v>66.85714285714199</v>
       </c>
       <c r="E198" s="2">
-        <v>418200</v>
+        <v>418254</v>
       </c>
       <c r="F198" s="2">
-        <v>4214</v>
+        <v>4217</v>
       </c>
       <c r="G198" s="4">
-        <v>0.019259198423</v>
+        <v>0.019210245464</v>
       </c>
     </row>
     <row r="199" spans="1:7">
@@ -4956,16 +4956,16 @@
         <v>51</v>
       </c>
       <c r="D199" s="3">
-        <v>60.857142857142</v>
+        <v>60.71428571428499</v>
       </c>
       <c r="E199" s="2">
-        <v>422193</v>
+        <v>422253</v>
       </c>
       <c r="F199" s="2">
-        <v>3993</v>
+        <v>3999</v>
       </c>
       <c r="G199" s="4">
-        <v>0.017668284185</v>
+        <v>0.01761658031</v>
       </c>
     </row>
     <row r="200" spans="1:7">
@@ -4979,16 +4979,16 @@
         <v>57</v>
       </c>
       <c r="D200" s="3">
-        <v>60.71428571428499</v>
+        <v>60.57142857142801</v>
       </c>
       <c r="E200" s="2">
-        <v>426173</v>
+        <v>426235</v>
       </c>
       <c r="F200" s="2">
-        <v>3980</v>
+        <v>3982</v>
       </c>
       <c r="G200" s="4">
-        <v>0.017476766181</v>
+        <v>0.017424180159</v>
       </c>
     </row>
     <row r="201" spans="1:7">
@@ -5002,16 +5002,16 @@
         <v>45</v>
       </c>
       <c r="D201" s="3">
-        <v>61.28571428571399</v>
+        <v>61.142857142857</v>
       </c>
       <c r="E201" s="2">
-        <v>428070</v>
+        <v>428133</v>
       </c>
       <c r="F201" s="2">
-        <v>1897</v>
+        <v>1898</v>
       </c>
       <c r="G201" s="4">
-        <v>0.017561095419</v>
+        <v>0.017508692984</v>
       </c>
     </row>
     <row r="202" spans="1:7">
@@ -5025,16 +5025,39 @@
         <v>36</v>
       </c>
       <c r="D202" s="3">
-        <v>63</v>
+        <v>62.857142857142</v>
       </c>
       <c r="E202" s="2">
-        <v>429442</v>
+        <v>429507</v>
       </c>
       <c r="F202" s="2">
-        <v>1372</v>
+        <v>1374</v>
       </c>
       <c r="G202" s="4">
-        <v>0.018020594965</v>
+        <v>0.017966516945</v>
+      </c>
+    </row>
+    <row r="203" spans="1:7">
+      <c r="A203" s="1">
+        <v>44123</v>
+      </c>
+      <c r="B203" s="2">
+        <v>18493</v>
+      </c>
+      <c r="C203" s="2">
+        <v>89</v>
+      </c>
+      <c r="D203" s="3">
+        <v>62.428571428571</v>
+      </c>
+      <c r="E203" s="2">
+        <v>434317</v>
+      </c>
+      <c r="F203" s="2">
+        <v>4810</v>
+      </c>
+      <c r="G203" s="4">
+        <v>0.017633766443</v>
       </c>
     </row>
   </sheetData>

--- a/contra_costa_county_testing.xlsx
+++ b/contra_costa_county_testing.xlsx
@@ -376,7 +376,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G203"/>
+  <dimension ref="A1:G204"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -773,13 +773,13 @@
         <v>22.428571428571</v>
       </c>
       <c r="E17" s="2">
-        <v>10426</v>
+        <v>10427</v>
       </c>
       <c r="F17" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="G17" s="4">
-        <v>0.071919377004</v>
+        <v>0.071886446886</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -796,13 +796,13 @@
         <v>17.428571428571</v>
       </c>
       <c r="E18" s="2">
-        <v>10772</v>
+        <v>10773</v>
       </c>
       <c r="F18" s="2">
         <v>346</v>
       </c>
       <c r="G18" s="4">
-        <v>0.059483178937</v>
+        <v>0.059454191033</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -819,13 +819,13 @@
         <v>16.714285714285</v>
       </c>
       <c r="E19" s="2">
-        <v>10927</v>
+        <v>10928</v>
       </c>
       <c r="F19" s="2">
         <v>155</v>
       </c>
       <c r="G19" s="4">
-        <v>0.05772076961</v>
+        <v>0.057692307692</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -842,13 +842,13 @@
         <v>17.428571428571</v>
       </c>
       <c r="E20" s="2">
-        <v>11074</v>
+        <v>11075</v>
       </c>
       <c r="F20" s="2">
         <v>147</v>
       </c>
       <c r="G20" s="4">
-        <v>0.059252064108</v>
+        <v>0.05922330097</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -865,13 +865,13 @@
         <v>15.142857142857</v>
       </c>
       <c r="E21" s="2">
-        <v>11441</v>
+        <v>11442</v>
       </c>
       <c r="F21" s="2">
         <v>367</v>
       </c>
       <c r="G21" s="4">
-        <v>0.051232479458</v>
+        <v>0.051207729468</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -888,13 +888,13 @@
         <v>15.428571428571</v>
       </c>
       <c r="E22" s="2">
-        <v>11846</v>
+        <v>11847</v>
       </c>
       <c r="F22" s="2">
         <v>405</v>
       </c>
       <c r="G22" s="4">
-        <v>0.050162563864</v>
+        <v>0.050139275766</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -911,13 +911,13 @@
         <v>13.428571428571</v>
       </c>
       <c r="E23" s="2">
-        <v>12366</v>
+        <v>12367</v>
       </c>
       <c r="F23" s="2">
         <v>520</v>
       </c>
       <c r="G23" s="4">
-        <v>0.040482342807</v>
+        <v>0.040464916056</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -934,7 +934,7 @@
         <v>12.714285714285</v>
       </c>
       <c r="E24" s="2">
-        <v>12924</v>
+        <v>12925</v>
       </c>
       <c r="F24" s="2">
         <v>558</v>
@@ -957,7 +957,7 @@
         <v>14</v>
       </c>
       <c r="E25" s="2">
-        <v>13489</v>
+        <v>13490</v>
       </c>
       <c r="F25" s="2">
         <v>565</v>
@@ -980,7 +980,7 @@
         <v>13.714285714285</v>
       </c>
       <c r="E26" s="2">
-        <v>13720</v>
+        <v>13721</v>
       </c>
       <c r="F26" s="2">
         <v>231</v>
@@ -1003,7 +1003,7 @@
         <v>14.285714285714</v>
       </c>
       <c r="E27" s="2">
-        <v>13950</v>
+        <v>13951</v>
       </c>
       <c r="F27" s="2">
         <v>230</v>
@@ -1026,7 +1026,7 @@
         <v>15.428571428571</v>
       </c>
       <c r="E28" s="2">
-        <v>14551</v>
+        <v>14552</v>
       </c>
       <c r="F28" s="2">
         <v>601</v>
@@ -1049,7 +1049,7 @@
         <v>15.285714285714</v>
       </c>
       <c r="E29" s="2">
-        <v>15090</v>
+        <v>15091</v>
       </c>
       <c r="F29" s="2">
         <v>539</v>
@@ -1072,7 +1072,7 @@
         <v>15.857142857142</v>
       </c>
       <c r="E30" s="2">
-        <v>15789</v>
+        <v>15790</v>
       </c>
       <c r="F30" s="2">
         <v>699</v>
@@ -1095,7 +1095,7 @@
         <v>16.857142857142</v>
       </c>
       <c r="E31" s="2">
-        <v>16635</v>
+        <v>16636</v>
       </c>
       <c r="F31" s="2">
         <v>846</v>
@@ -1118,7 +1118,7 @@
         <v>15.285714285714</v>
       </c>
       <c r="E32" s="2">
-        <v>17367</v>
+        <v>17368</v>
       </c>
       <c r="F32" s="2">
         <v>732</v>
@@ -1141,7 +1141,7 @@
         <v>15.857142857142</v>
       </c>
       <c r="E33" s="2">
-        <v>17655</v>
+        <v>17656</v>
       </c>
       <c r="F33" s="2">
         <v>288</v>
@@ -1164,7 +1164,7 @@
         <v>14.857142857142</v>
       </c>
       <c r="E34" s="2">
-        <v>17919</v>
+        <v>17920</v>
       </c>
       <c r="F34" s="2">
         <v>264</v>
@@ -1187,7 +1187,7 @@
         <v>15.285714285714</v>
       </c>
       <c r="E35" s="2">
-        <v>18697</v>
+        <v>18698</v>
       </c>
       <c r="F35" s="2">
         <v>778</v>
@@ -1210,7 +1210,7 @@
         <v>15.428571428571</v>
       </c>
       <c r="E36" s="2">
-        <v>19377</v>
+        <v>19378</v>
       </c>
       <c r="F36" s="2">
         <v>680</v>
@@ -1233,7 +1233,7 @@
         <v>16.428571428571</v>
       </c>
       <c r="E37" s="2">
-        <v>20342</v>
+        <v>20343</v>
       </c>
       <c r="F37" s="2">
         <v>965</v>
@@ -1256,7 +1256,7 @@
         <v>14.428571428571</v>
       </c>
       <c r="E38" s="2">
-        <v>21238</v>
+        <v>21239</v>
       </c>
       <c r="F38" s="2">
         <v>896</v>
@@ -1279,7 +1279,7 @@
         <v>15.285714285714</v>
       </c>
       <c r="E39" s="2">
-        <v>22378</v>
+        <v>22379</v>
       </c>
       <c r="F39" s="2">
         <v>1140</v>
@@ -1302,7 +1302,7 @@
         <v>14.714285714285</v>
       </c>
       <c r="E40" s="2">
-        <v>22760</v>
+        <v>22761</v>
       </c>
       <c r="F40" s="2">
         <v>382</v>
@@ -1325,7 +1325,7 @@
         <v>15.142857142857</v>
       </c>
       <c r="E41" s="2">
-        <v>23103</v>
+        <v>23104</v>
       </c>
       <c r="F41" s="2">
         <v>343</v>
@@ -1348,7 +1348,7 @@
         <v>13</v>
       </c>
       <c r="E42" s="2">
-        <v>24206</v>
+        <v>24207</v>
       </c>
       <c r="F42" s="2">
         <v>1103</v>
@@ -1371,7 +1371,7 @@
         <v>12.285714285714</v>
       </c>
       <c r="E43" s="2">
-        <v>25437</v>
+        <v>25438</v>
       </c>
       <c r="F43" s="2">
         <v>1231</v>
@@ -1394,7 +1394,7 @@
         <v>12.857142857142</v>
       </c>
       <c r="E44" s="2">
-        <v>26531</v>
+        <v>26532</v>
       </c>
       <c r="F44" s="2">
         <v>1094</v>
@@ -1417,7 +1417,7 @@
         <v>14</v>
       </c>
       <c r="E45" s="2">
-        <v>27392</v>
+        <v>27393</v>
       </c>
       <c r="F45" s="2">
         <v>861</v>
@@ -1440,7 +1440,7 @@
         <v>15.714285714285</v>
       </c>
       <c r="E46" s="2">
-        <v>28311</v>
+        <v>28312</v>
       </c>
       <c r="F46" s="2">
         <v>919</v>
@@ -1463,7 +1463,7 @@
         <v>17.571428571428</v>
       </c>
       <c r="E47" s="2">
-        <v>28720</v>
+        <v>28721</v>
       </c>
       <c r="F47" s="2">
         <v>409</v>
@@ -1486,7 +1486,7 @@
         <v>18</v>
       </c>
       <c r="E48" s="2">
-        <v>29109</v>
+        <v>29110</v>
       </c>
       <c r="F48" s="2">
         <v>389</v>
@@ -1509,7 +1509,7 @@
         <v>22.428571428571</v>
       </c>
       <c r="E49" s="2">
-        <v>30474</v>
+        <v>30475</v>
       </c>
       <c r="F49" s="2">
         <v>1365</v>
@@ -1532,7 +1532,7 @@
         <v>25.714285714285</v>
       </c>
       <c r="E50" s="2">
-        <v>32133</v>
+        <v>32134</v>
       </c>
       <c r="F50" s="2">
         <v>1659</v>
@@ -1555,7 +1555,7 @@
         <v>26.142857142857</v>
       </c>
       <c r="E51" s="2">
-        <v>33273</v>
+        <v>33274</v>
       </c>
       <c r="F51" s="2">
         <v>1140</v>
@@ -1578,7 +1578,7 @@
         <v>27.428571428571</v>
       </c>
       <c r="E52" s="2">
-        <v>34404</v>
+        <v>34405</v>
       </c>
       <c r="F52" s="2">
         <v>1131</v>
@@ -1601,7 +1601,7 @@
         <v>29.142857142857</v>
       </c>
       <c r="E53" s="2">
-        <v>35493</v>
+        <v>35494</v>
       </c>
       <c r="F53" s="2">
         <v>1089</v>
@@ -1624,7 +1624,7 @@
         <v>28</v>
       </c>
       <c r="E54" s="2">
-        <v>36012</v>
+        <v>36013</v>
       </c>
       <c r="F54" s="2">
         <v>519</v>
@@ -1647,7 +1647,7 @@
         <v>27.571428571428</v>
       </c>
       <c r="E55" s="2">
-        <v>36403</v>
+        <v>36404</v>
       </c>
       <c r="F55" s="2">
         <v>391</v>
@@ -1670,7 +1670,7 @@
         <v>23.285714285714</v>
       </c>
       <c r="E56" s="2">
-        <v>36865</v>
+        <v>36866</v>
       </c>
       <c r="F56" s="2">
         <v>462</v>
@@ -1693,7 +1693,7 @@
         <v>23.714285714285</v>
       </c>
       <c r="E57" s="2">
-        <v>38062</v>
+        <v>38063</v>
       </c>
       <c r="F57" s="2">
         <v>1197</v>
@@ -1719,10 +1719,10 @@
         <v>39173</v>
       </c>
       <c r="F58" s="2">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="G58" s="4">
-        <v>0.02813559322</v>
+        <v>0.028140362773</v>
       </c>
     </row>
     <row r="59" spans="1:7">
@@ -1745,7 +1745,7 @@
         <v>1136</v>
       </c>
       <c r="G59" s="4">
-        <v>0.031160033869</v>
+        <v>0.031165311653</v>
       </c>
     </row>
     <row r="60" spans="1:7">
@@ -1768,7 +1768,7 @@
         <v>1402</v>
       </c>
       <c r="G60" s="4">
-        <v>0.029752331939</v>
+        <v>0.02975711758</v>
       </c>
     </row>
     <row r="61" spans="1:7">
@@ -1791,7 +1791,7 @@
         <v>734</v>
       </c>
       <c r="G61" s="4">
-        <v>0.028447069796</v>
+        <v>0.028451492537</v>
       </c>
     </row>
     <row r="62" spans="1:7">
@@ -1814,7 +1814,7 @@
         <v>397</v>
       </c>
       <c r="G62" s="4">
-        <v>0.028109954961</v>
+        <v>0.028114321217</v>
       </c>
     </row>
     <row r="63" spans="1:7">
@@ -1837,7 +1837,7 @@
         <v>1375</v>
       </c>
       <c r="G63" s="4">
-        <v>0.027747551686</v>
+        <v>0.02775132635</v>
       </c>
     </row>
     <row r="64" spans="1:7">
@@ -1860,7 +1860,7 @@
         <v>1217</v>
       </c>
       <c r="G64" s="4">
-        <v>0.026722734671</v>
+        <v>0.026726360059</v>
       </c>
     </row>
     <row r="65" spans="1:7">
@@ -2337,13 +2337,13 @@
         <v>88</v>
       </c>
       <c r="E85" s="2">
-        <v>81532</v>
+        <v>81533</v>
       </c>
       <c r="F85" s="2">
-        <v>2785</v>
+        <v>2786</v>
       </c>
       <c r="G85" s="4">
-        <v>0.042197561309</v>
+        <v>0.042194670867</v>
       </c>
     </row>
     <row r="86" spans="1:7">
@@ -2360,13 +2360,13 @@
         <v>96</v>
       </c>
       <c r="E86" s="2">
-        <v>84564</v>
+        <v>84565</v>
       </c>
       <c r="F86" s="2">
         <v>3032</v>
       </c>
       <c r="G86" s="4">
-        <v>0.044627440563</v>
+        <v>0.044624477056</v>
       </c>
     </row>
     <row r="87" spans="1:7">
@@ -2383,13 +2383,13 @@
         <v>104.714285714285</v>
       </c>
       <c r="E87" s="2">
-        <v>87924</v>
+        <v>87926</v>
       </c>
       <c r="F87" s="2">
-        <v>3360</v>
+        <v>3361</v>
       </c>
       <c r="G87" s="4">
-        <v>0.046135448136</v>
+        <v>0.046129641283</v>
       </c>
     </row>
     <row r="88" spans="1:7">
@@ -2406,13 +2406,13 @@
         <v>114.428571428571</v>
       </c>
       <c r="E88" s="2">
-        <v>90893</v>
+        <v>90896</v>
       </c>
       <c r="F88" s="2">
-        <v>2969</v>
+        <v>2970</v>
       </c>
       <c r="G88" s="4">
-        <v>0.048799805044</v>
+        <v>0.048790887494</v>
       </c>
     </row>
     <row r="89" spans="1:7">
@@ -2429,13 +2429,13 @@
         <v>118.428571428571</v>
       </c>
       <c r="E89" s="2">
-        <v>91967</v>
+        <v>91970</v>
       </c>
       <c r="F89" s="2">
         <v>1074</v>
       </c>
       <c r="G89" s="4">
-        <v>0.050133043057</v>
+        <v>0.050123949452</v>
       </c>
     </row>
     <row r="90" spans="1:7">
@@ -2452,13 +2452,13 @@
         <v>121.142857142857</v>
       </c>
       <c r="E90" s="2">
-        <v>92763</v>
+        <v>92766</v>
       </c>
       <c r="F90" s="2">
         <v>796</v>
       </c>
       <c r="G90" s="4">
-        <v>0.050979920644</v>
+        <v>0.050970727895</v>
       </c>
     </row>
     <row r="91" spans="1:7">
@@ -2478,7 +2478,7 @@
         <v>96449</v>
       </c>
       <c r="F91" s="2">
-        <v>3686</v>
+        <v>3683</v>
       </c>
       <c r="G91" s="4">
         <v>0.052762399728</v>
@@ -2498,13 +2498,13 @@
         <v>137</v>
       </c>
       <c r="E92" s="2">
-        <v>99929</v>
+        <v>99932</v>
       </c>
       <c r="F92" s="2">
-        <v>3480</v>
+        <v>3483</v>
       </c>
       <c r="G92" s="4">
-        <v>0.052128064358</v>
+        <v>0.052122397956</v>
       </c>
     </row>
     <row r="93" spans="1:7">
@@ -2521,13 +2521,13 @@
         <v>141.285714285714</v>
       </c>
       <c r="E93" s="2">
-        <v>103470</v>
+        <v>103475</v>
       </c>
       <c r="F93" s="2">
-        <v>3541</v>
+        <v>3543</v>
       </c>
       <c r="G93" s="4">
-        <v>0.052311435523</v>
+        <v>0.052300370174</v>
       </c>
     </row>
     <row r="94" spans="1:7">
@@ -2544,13 +2544,13 @@
         <v>149.857142857142</v>
       </c>
       <c r="E94" s="2">
-        <v>107394</v>
+        <v>107399</v>
       </c>
       <c r="F94" s="2">
         <v>3924</v>
       </c>
       <c r="G94" s="4">
-        <v>0.053877760657</v>
+        <v>0.053869460278</v>
       </c>
     </row>
     <row r="95" spans="1:7">
@@ -2567,13 +2567,13 @@
         <v>146.142857142857</v>
       </c>
       <c r="E95" s="2">
-        <v>110035</v>
+        <v>110040</v>
       </c>
       <c r="F95" s="2">
         <v>2641</v>
       </c>
       <c r="G95" s="4">
-        <v>0.053442691463</v>
+        <v>0.053437108232</v>
       </c>
     </row>
     <row r="96" spans="1:7">
@@ -2590,13 +2590,13 @@
         <v>148</v>
       </c>
       <c r="E96" s="2">
-        <v>111152</v>
+        <v>111157</v>
       </c>
       <c r="F96" s="2">
         <v>1117</v>
       </c>
       <c r="G96" s="4">
-        <v>0.05400052124</v>
+        <v>0.053994892375</v>
       </c>
     </row>
     <row r="97" spans="1:7">
@@ -2613,13 +2613,13 @@
         <v>151.857142857142</v>
       </c>
       <c r="E97" s="2">
-        <v>112281</v>
+        <v>112286</v>
       </c>
       <c r="F97" s="2">
         <v>1129</v>
       </c>
       <c r="G97" s="4">
-        <v>0.054462547392</v>
+        <v>0.054456967213</v>
       </c>
     </row>
     <row r="98" spans="1:7">
@@ -2636,13 +2636,13 @@
         <v>152.857142857142</v>
       </c>
       <c r="E98" s="2">
-        <v>116360</v>
+        <v>116365</v>
       </c>
       <c r="F98" s="2">
         <v>4079</v>
       </c>
       <c r="G98" s="4">
-        <v>0.053739139169</v>
+        <v>0.05372564772</v>
       </c>
     </row>
     <row r="99" spans="1:7">
@@ -2659,13 +2659,13 @@
         <v>161.142857142857</v>
       </c>
       <c r="E99" s="2">
-        <v>120443</v>
+        <v>120448</v>
       </c>
       <c r="F99" s="2">
         <v>4083</v>
       </c>
       <c r="G99" s="4">
-        <v>0.054986838256</v>
+        <v>0.05498147787</v>
       </c>
     </row>
     <row r="100" spans="1:7">
@@ -2682,7 +2682,7 @@
         <v>168.571428571428</v>
       </c>
       <c r="E100" s="2">
-        <v>124707</v>
+        <v>124712</v>
       </c>
       <c r="F100" s="2">
         <v>4264</v>
@@ -2705,7 +2705,7 @@
         <v>174.285714285714</v>
       </c>
       <c r="E101" s="2">
-        <v>129310</v>
+        <v>129315</v>
       </c>
       <c r="F101" s="2">
         <v>4603</v>
@@ -2728,13 +2728,13 @@
         <v>188.857142857142</v>
       </c>
       <c r="E102" s="2">
-        <v>133772</v>
+        <v>133778</v>
       </c>
       <c r="F102" s="2">
-        <v>4462</v>
+        <v>4463</v>
       </c>
       <c r="G102" s="4">
-        <v>0.055693642836</v>
+        <v>0.055691296655</v>
       </c>
     </row>
     <row r="103" spans="1:7">
@@ -2751,13 +2751,13 @@
         <v>195.571428571428</v>
       </c>
       <c r="E103" s="2">
-        <v>135845</v>
+        <v>135853</v>
       </c>
       <c r="F103" s="2">
-        <v>2073</v>
+        <v>2075</v>
       </c>
       <c r="G103" s="4">
-        <v>0.055440813185</v>
+        <v>0.055434078393</v>
       </c>
     </row>
     <row r="104" spans="1:7">
@@ -2774,13 +2774,13 @@
         <v>197.714285714285</v>
       </c>
       <c r="E104" s="2">
-        <v>137171</v>
+        <v>137179</v>
       </c>
       <c r="F104" s="2">
         <v>1326</v>
       </c>
       <c r="G104" s="4">
-        <v>0.055604660506</v>
+        <v>0.055597959265</v>
       </c>
     </row>
     <row r="105" spans="1:7">
@@ -2797,13 +2797,13 @@
         <v>205.857142857142</v>
       </c>
       <c r="E105" s="2">
-        <v>141777</v>
+        <v>141785</v>
       </c>
       <c r="F105" s="2">
         <v>4606</v>
       </c>
       <c r="G105" s="4">
-        <v>0.056694338434</v>
+        <v>0.056687647521</v>
       </c>
     </row>
     <row r="106" spans="1:7">
@@ -2820,13 +2820,13 @@
         <v>211.428571428571</v>
       </c>
       <c r="E106" s="2">
-        <v>145545</v>
+        <v>145553</v>
       </c>
       <c r="F106" s="2">
         <v>3768</v>
       </c>
       <c r="G106" s="4">
-        <v>0.058959445462</v>
+        <v>0.05895239992</v>
       </c>
     </row>
     <row r="107" spans="1:7">
@@ -2843,13 +2843,13 @@
         <v>216.428571428571</v>
       </c>
       <c r="E107" s="2">
-        <v>149892</v>
+        <v>149902</v>
       </c>
       <c r="F107" s="2">
-        <v>4347</v>
+        <v>4349</v>
       </c>
       <c r="G107" s="4">
-        <v>0.060154854079</v>
+        <v>0.060142913854</v>
       </c>
     </row>
     <row r="108" spans="1:7">
@@ -2866,13 +2866,13 @@
         <v>217</v>
       </c>
       <c r="E108" s="2">
-        <v>154077</v>
+        <v>154092</v>
       </c>
       <c r="F108" s="2">
-        <v>4185</v>
+        <v>4190</v>
       </c>
       <c r="G108" s="4">
-        <v>0.06133161061</v>
+        <v>0.061306857165</v>
       </c>
     </row>
     <row r="109" spans="1:7">
@@ -2889,13 +2889,13 @@
         <v>217.571428571428</v>
       </c>
       <c r="E109" s="2">
-        <v>158281</v>
+        <v>158298</v>
       </c>
       <c r="F109" s="2">
-        <v>4204</v>
+        <v>4206</v>
       </c>
       <c r="G109" s="4">
-        <v>0.062140438206</v>
+        <v>0.062112561174</v>
       </c>
     </row>
     <row r="110" spans="1:7">
@@ -2912,13 +2912,13 @@
         <v>216</v>
       </c>
       <c r="E110" s="2">
-        <v>160505</v>
+        <v>160526</v>
       </c>
       <c r="F110" s="2">
-        <v>2224</v>
+        <v>2228</v>
       </c>
       <c r="G110" s="4">
-        <v>0.061313868613</v>
+        <v>0.061281562841</v>
       </c>
     </row>
     <row r="111" spans="1:7">
@@ -2935,13 +2935,13 @@
         <v>215.714285714285</v>
       </c>
       <c r="E111" s="2">
-        <v>161763</v>
+        <v>161785</v>
       </c>
       <c r="F111" s="2">
-        <v>1258</v>
+        <v>1259</v>
       </c>
       <c r="G111" s="4">
-        <v>0.061402081977</v>
+        <v>0.061367146224</v>
       </c>
     </row>
     <row r="112" spans="1:7">
@@ -2958,13 +2958,13 @@
         <v>220</v>
       </c>
       <c r="E112" s="2">
-        <v>166012</v>
+        <v>166037</v>
       </c>
       <c r="F112" s="2">
-        <v>4249</v>
+        <v>4252</v>
       </c>
       <c r="G112" s="4">
-        <v>0.063544460491</v>
+        <v>0.063499917532</v>
       </c>
     </row>
     <row r="113" spans="1:7">
@@ -2981,13 +2981,13 @@
         <v>217.857142857142</v>
       </c>
       <c r="E113" s="2">
-        <v>169851</v>
+        <v>169877</v>
       </c>
       <c r="F113" s="2">
-        <v>3839</v>
+        <v>3840</v>
       </c>
       <c r="G113" s="4">
-        <v>0.06274170986499999</v>
+        <v>0.062695280381</v>
       </c>
     </row>
     <row r="114" spans="1:7">
@@ -3004,13 +3004,13 @@
         <v>216.285714285714</v>
       </c>
       <c r="E114" s="2">
-        <v>173513</v>
+        <v>173541</v>
       </c>
       <c r="F114" s="2">
-        <v>3662</v>
+        <v>3664</v>
       </c>
       <c r="G114" s="4">
-        <v>0.064095508234</v>
+        <v>0.064046702483</v>
       </c>
     </row>
     <row r="115" spans="1:7">
@@ -3027,13 +3027,13 @@
         <v>212.857142857142</v>
       </c>
       <c r="E115" s="2">
-        <v>176838</v>
+        <v>176872</v>
       </c>
       <c r="F115" s="2">
-        <v>3325</v>
+        <v>3331</v>
       </c>
       <c r="G115" s="4">
-        <v>0.065462853125</v>
+        <v>0.065408252853</v>
       </c>
     </row>
     <row r="116" spans="1:7">
@@ -3050,13 +3050,13 @@
         <v>208.428571428571</v>
       </c>
       <c r="E116" s="2">
-        <v>180472</v>
+        <v>180551</v>
       </c>
       <c r="F116" s="2">
-        <v>3634</v>
+        <v>3679</v>
       </c>
       <c r="G116" s="4">
-        <v>0.06574737506099999</v>
+        <v>0.06556419359100001</v>
       </c>
     </row>
     <row r="117" spans="1:7">
@@ -3073,13 +3073,13 @@
         <v>206</v>
       </c>
       <c r="E117" s="2">
-        <v>182093</v>
+        <v>182184</v>
       </c>
       <c r="F117" s="2">
-        <v>1621</v>
+        <v>1633</v>
       </c>
       <c r="G117" s="4">
-        <v>0.06679636835199999</v>
+        <v>0.066580478345</v>
       </c>
     </row>
     <row r="118" spans="1:7">
@@ -3096,13 +3096,13 @@
         <v>206.571428571428</v>
       </c>
       <c r="E118" s="2">
-        <v>183346</v>
+        <v>183437</v>
       </c>
       <c r="F118" s="2">
         <v>1253</v>
       </c>
       <c r="G118" s="4">
-        <v>0.066997173701</v>
+        <v>0.066783668945</v>
       </c>
     </row>
     <row r="119" spans="1:7">
@@ -3119,13 +3119,13 @@
         <v>199.714285714285</v>
       </c>
       <c r="E119" s="2">
-        <v>187518</v>
+        <v>187621</v>
       </c>
       <c r="F119" s="2">
-        <v>4172</v>
+        <v>4184</v>
       </c>
       <c r="G119" s="4">
-        <v>0.065005114851</v>
+        <v>0.064770200148</v>
       </c>
     </row>
     <row r="120" spans="1:7">
@@ -3142,13 +3142,13 @@
         <v>201.857142857142</v>
       </c>
       <c r="E120" s="2">
-        <v>191432</v>
+        <v>191556</v>
       </c>
       <c r="F120" s="2">
-        <v>3914</v>
+        <v>3935</v>
       </c>
       <c r="G120" s="4">
-        <v>0.065474259765</v>
+        <v>0.06517828313100001</v>
       </c>
     </row>
     <row r="121" spans="1:7">
@@ -3165,13 +3165,13 @@
         <v>202.285714285714</v>
       </c>
       <c r="E121" s="2">
-        <v>195294</v>
+        <v>195421</v>
       </c>
       <c r="F121" s="2">
-        <v>3862</v>
+        <v>3865</v>
       </c>
       <c r="G121" s="4">
-        <v>0.065010789219</v>
+        <v>0.06471663619699999</v>
       </c>
     </row>
     <row r="122" spans="1:7">
@@ -3188,13 +3188,13 @@
         <v>200.285714285714</v>
       </c>
       <c r="E122" s="2">
-        <v>198966</v>
+        <v>199096</v>
       </c>
       <c r="F122" s="2">
-        <v>3672</v>
+        <v>3675</v>
       </c>
       <c r="G122" s="4">
-        <v>0.063358640636</v>
+        <v>0.063084953203</v>
       </c>
     </row>
     <row r="123" spans="1:7">
@@ -3211,13 +3211,13 @@
         <v>202.285714285714</v>
       </c>
       <c r="E123" s="2">
-        <v>202505</v>
+        <v>202645</v>
       </c>
       <c r="F123" s="2">
-        <v>3539</v>
+        <v>3549</v>
       </c>
       <c r="G123" s="4">
-        <v>0.06426723551000001</v>
+        <v>0.064089798135</v>
       </c>
     </row>
     <row r="124" spans="1:7">
@@ -3234,13 +3234,13 @@
         <v>201.714285714285</v>
       </c>
       <c r="E124" s="2">
-        <v>204157</v>
+        <v>204314</v>
       </c>
       <c r="F124" s="2">
-        <v>1652</v>
+        <v>1669</v>
       </c>
       <c r="G124" s="4">
-        <v>0.063995649021</v>
+        <v>0.063804789877</v>
       </c>
     </row>
     <row r="125" spans="1:7">
@@ -3257,13 +3257,13 @@
         <v>198.285714285714</v>
       </c>
       <c r="E125" s="2">
-        <v>205305</v>
+        <v>205463</v>
       </c>
       <c r="F125" s="2">
-        <v>1148</v>
+        <v>1149</v>
       </c>
       <c r="G125" s="4">
-        <v>0.06320870713600001</v>
+        <v>0.063016435122</v>
       </c>
     </row>
     <row r="126" spans="1:7">
@@ -3280,13 +3280,13 @@
         <v>200</v>
       </c>
       <c r="E126" s="2">
-        <v>209174</v>
+        <v>209339</v>
       </c>
       <c r="F126" s="2">
-        <v>3869</v>
+        <v>3876</v>
       </c>
       <c r="G126" s="4">
-        <v>0.064647210934</v>
+        <v>0.064462657703</v>
       </c>
     </row>
     <row r="127" spans="1:7">
@@ -3303,13 +3303,13 @@
         <v>197</v>
       </c>
       <c r="E127" s="2">
-        <v>212485</v>
+        <v>212665</v>
       </c>
       <c r="F127" s="2">
-        <v>3311</v>
+        <v>3326</v>
       </c>
       <c r="G127" s="4">
-        <v>0.06550135372599999</v>
+        <v>0.06532758539</v>
       </c>
     </row>
     <row r="128" spans="1:7">
@@ -3317,22 +3317,22 @@
         <v>44048</v>
       </c>
       <c r="B128" s="2">
-        <v>10970</v>
+        <v>10971</v>
       </c>
       <c r="C128" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D128" s="3">
-        <v>189.428571428571</v>
+        <v>189.571428571428</v>
       </c>
       <c r="E128" s="2">
-        <v>215750</v>
+        <v>215941</v>
       </c>
       <c r="F128" s="2">
-        <v>3265</v>
+        <v>3276</v>
       </c>
       <c r="G128" s="4">
-        <v>0.064822057098</v>
+        <v>0.06466861598400001</v>
       </c>
     </row>
     <row r="129" spans="1:7">
@@ -3340,22 +3340,22 @@
         <v>44049</v>
       </c>
       <c r="B129" s="2">
-        <v>11169</v>
+        <v>11171</v>
       </c>
       <c r="C129" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D129" s="3">
-        <v>186.714285714285</v>
+        <v>187</v>
       </c>
       <c r="E129" s="2">
-        <v>219411</v>
+        <v>219608</v>
       </c>
       <c r="F129" s="2">
-        <v>3661</v>
+        <v>3667</v>
       </c>
       <c r="G129" s="4">
-        <v>0.06392761066200001</v>
+        <v>0.063816302652</v>
       </c>
     </row>
     <row r="130" spans="1:7">
@@ -3363,22 +3363,22 @@
         <v>44050</v>
       </c>
       <c r="B130" s="2">
-        <v>11353</v>
+        <v>11355</v>
       </c>
       <c r="C130" s="2">
         <v>184</v>
       </c>
       <c r="D130" s="3">
-        <v>179.714285714285</v>
+        <v>180</v>
       </c>
       <c r="E130" s="2">
-        <v>222737</v>
+        <v>222938</v>
       </c>
       <c r="F130" s="2">
-        <v>3326</v>
+        <v>3330</v>
       </c>
       <c r="G130" s="4">
-        <v>0.062178726769</v>
+        <v>0.062090375991</v>
       </c>
     </row>
     <row r="131" spans="1:7">
@@ -3386,22 +3386,22 @@
         <v>44051</v>
       </c>
       <c r="B131" s="2">
-        <v>11473</v>
+        <v>11475</v>
       </c>
       <c r="C131" s="2">
         <v>120</v>
       </c>
       <c r="D131" s="3">
-        <v>181.428571428571</v>
+        <v>181.714285714285</v>
       </c>
       <c r="E131" s="2">
-        <v>224443</v>
+        <v>224647</v>
       </c>
       <c r="F131" s="2">
-        <v>1706</v>
+        <v>1709</v>
       </c>
       <c r="G131" s="4">
-        <v>0.062604752045</v>
+        <v>0.062558402596</v>
       </c>
     </row>
     <row r="132" spans="1:7">
@@ -3409,22 +3409,22 @@
         <v>44052</v>
       </c>
       <c r="B132" s="2">
-        <v>11558</v>
+        <v>11560</v>
       </c>
       <c r="C132" s="2">
         <v>85</v>
       </c>
       <c r="D132" s="3">
-        <v>182.285714285714</v>
+        <v>182.571428571428</v>
       </c>
       <c r="E132" s="2">
-        <v>225508</v>
+        <v>225712</v>
       </c>
       <c r="F132" s="2">
         <v>1065</v>
       </c>
       <c r="G132" s="4">
-        <v>0.063158936791</v>
+        <v>0.063114227863</v>
       </c>
     </row>
     <row r="133" spans="1:7">
@@ -3432,22 +3432,22 @@
         <v>44053</v>
       </c>
       <c r="B133" s="2">
-        <v>11795</v>
+        <v>11797</v>
       </c>
       <c r="C133" s="2">
         <v>237</v>
       </c>
       <c r="D133" s="3">
-        <v>179.714285714285</v>
+        <v>180</v>
       </c>
       <c r="E133" s="2">
-        <v>229405</v>
+        <v>229612</v>
       </c>
       <c r="F133" s="2">
-        <v>3897</v>
+        <v>3900</v>
       </c>
       <c r="G133" s="4">
-        <v>0.062181800207</v>
+        <v>0.062151630247</v>
       </c>
     </row>
     <row r="134" spans="1:7">
@@ -3455,22 +3455,22 @@
         <v>44054</v>
       </c>
       <c r="B134" s="2">
-        <v>11995</v>
+        <v>11997</v>
       </c>
       <c r="C134" s="2">
         <v>200</v>
       </c>
       <c r="D134" s="3">
-        <v>174.857142857142</v>
+        <v>175.142857142857</v>
       </c>
       <c r="E134" s="2">
-        <v>232825</v>
+        <v>233032</v>
       </c>
       <c r="F134" s="2">
         <v>3420</v>
       </c>
       <c r="G134" s="4">
-        <v>0.06017699115</v>
+        <v>0.06019541415</v>
       </c>
     </row>
     <row r="135" spans="1:7">
@@ -3478,22 +3478,22 @@
         <v>44055</v>
       </c>
       <c r="B135" s="2">
-        <v>12194</v>
+        <v>12196</v>
       </c>
       <c r="C135" s="2">
         <v>199</v>
       </c>
       <c r="D135" s="3">
-        <v>174.857142857142</v>
+        <v>175</v>
       </c>
       <c r="E135" s="2">
-        <v>236683</v>
+        <v>236893</v>
       </c>
       <c r="F135" s="2">
-        <v>3858</v>
+        <v>3861</v>
       </c>
       <c r="G135" s="4">
-        <v>0.058472268666</v>
+        <v>0.058466972126</v>
       </c>
     </row>
     <row r="136" spans="1:7">
@@ -3501,7 +3501,7 @@
         <v>44056</v>
       </c>
       <c r="B136" s="2">
-        <v>12369</v>
+        <v>12371</v>
       </c>
       <c r="C136" s="2">
         <v>175</v>
@@ -3510,13 +3510,13 @@
         <v>171.428571428571</v>
       </c>
       <c r="E136" s="2">
-        <v>239950</v>
+        <v>240162</v>
       </c>
       <c r="F136" s="2">
-        <v>3267</v>
+        <v>3269</v>
       </c>
       <c r="G136" s="4">
-        <v>0.058425434539</v>
+        <v>0.058382796535</v>
       </c>
     </row>
     <row r="137" spans="1:7">
@@ -3524,7 +3524,7 @@
         <v>44057</v>
       </c>
       <c r="B137" s="2">
-        <v>12544</v>
+        <v>12546</v>
       </c>
       <c r="C137" s="2">
         <v>175</v>
@@ -3533,13 +3533,13 @@
         <v>170.142857142857</v>
       </c>
       <c r="E137" s="2">
-        <v>243311</v>
+        <v>243524</v>
       </c>
       <c r="F137" s="2">
-        <v>3361</v>
+        <v>3362</v>
       </c>
       <c r="G137" s="4">
-        <v>0.057888597258</v>
+        <v>0.057854852812</v>
       </c>
     </row>
     <row r="138" spans="1:7">
@@ -3547,7 +3547,7 @@
         <v>44058</v>
       </c>
       <c r="B138" s="2">
-        <v>12637</v>
+        <v>12639</v>
       </c>
       <c r="C138" s="2">
         <v>93</v>
@@ -3556,13 +3556,13 @@
         <v>166.285714285714</v>
       </c>
       <c r="E138" s="2">
-        <v>244874</v>
+        <v>245087</v>
       </c>
       <c r="F138" s="2">
         <v>1563</v>
       </c>
       <c r="G138" s="4">
-        <v>0.056972248054</v>
+        <v>0.056947162426</v>
       </c>
     </row>
     <row r="139" spans="1:7">
@@ -3570,7 +3570,7 @@
         <v>44059</v>
       </c>
       <c r="B139" s="2">
-        <v>12682</v>
+        <v>12684</v>
       </c>
       <c r="C139" s="2">
         <v>45</v>
@@ -3579,13 +3579,13 @@
         <v>160.571428571428</v>
       </c>
       <c r="E139" s="2">
-        <v>245649</v>
+        <v>245862</v>
       </c>
       <c r="F139" s="2">
         <v>775</v>
       </c>
       <c r="G139" s="4">
-        <v>0.055806563725</v>
+        <v>0.055781637717</v>
       </c>
     </row>
     <row r="140" spans="1:7">
@@ -3593,7 +3593,7 @@
         <v>44060</v>
       </c>
       <c r="B140" s="2">
-        <v>12895</v>
+        <v>12897</v>
       </c>
       <c r="C140" s="2">
         <v>213</v>
@@ -3602,13 +3602,13 @@
         <v>157.142857142857</v>
       </c>
       <c r="E140" s="2">
-        <v>249307</v>
+        <v>249520</v>
       </c>
       <c r="F140" s="2">
         <v>3658</v>
       </c>
       <c r="G140" s="4">
-        <v>0.055270827052</v>
+        <v>0.055254169178</v>
       </c>
     </row>
     <row r="141" spans="1:7">
@@ -3616,7 +3616,7 @@
         <v>44061</v>
       </c>
       <c r="B141" s="2">
-        <v>13063</v>
+        <v>13065</v>
       </c>
       <c r="C141" s="2">
         <v>168</v>
@@ -3625,13 +3625,13 @@
         <v>152.571428571428</v>
       </c>
       <c r="E141" s="2">
-        <v>252389</v>
+        <v>252603</v>
       </c>
       <c r="F141" s="2">
-        <v>3082</v>
+        <v>3083</v>
       </c>
       <c r="G141" s="4">
-        <v>0.054590063381</v>
+        <v>0.05457053804</v>
       </c>
     </row>
     <row r="142" spans="1:7">
@@ -3639,7 +3639,7 @@
         <v>44062</v>
       </c>
       <c r="B142" s="2">
-        <v>13221</v>
+        <v>13223</v>
       </c>
       <c r="C142" s="2">
         <v>158</v>
@@ -3648,13 +3648,13 @@
         <v>146.714285714285</v>
       </c>
       <c r="E142" s="2">
-        <v>255446</v>
+        <v>255661</v>
       </c>
       <c r="F142" s="2">
-        <v>3057</v>
+        <v>3058</v>
       </c>
       <c r="G142" s="4">
-        <v>0.054735383467</v>
+        <v>0.054720801364</v>
       </c>
     </row>
     <row r="143" spans="1:7">
@@ -3662,7 +3662,7 @@
         <v>44063</v>
       </c>
       <c r="B143" s="2">
-        <v>13353</v>
+        <v>13355</v>
       </c>
       <c r="C143" s="2">
         <v>132</v>
@@ -3671,13 +3671,13 @@
         <v>140.571428571428</v>
       </c>
       <c r="E143" s="2">
-        <v>258616</v>
+        <v>258831</v>
       </c>
       <c r="F143" s="2">
         <v>3170</v>
       </c>
       <c r="G143" s="4">
-        <v>0.052716168434</v>
+        <v>0.052707697252</v>
       </c>
     </row>
     <row r="144" spans="1:7">
@@ -3685,7 +3685,7 @@
         <v>44064</v>
       </c>
       <c r="B144" s="2">
-        <v>13515</v>
+        <v>13517</v>
       </c>
       <c r="C144" s="2">
         <v>162</v>
@@ -3694,13 +3694,13 @@
         <v>138.714285714285</v>
       </c>
       <c r="E144" s="2">
-        <v>261657</v>
+        <v>261872</v>
       </c>
       <c r="F144" s="2">
         <v>3041</v>
       </c>
       <c r="G144" s="4">
-        <v>0.05292706857</v>
+        <v>0.052921299324</v>
       </c>
     </row>
     <row r="145" spans="1:7">
@@ -3708,7 +3708,7 @@
         <v>44065</v>
       </c>
       <c r="B145" s="2">
-        <v>13577</v>
+        <v>13579</v>
       </c>
       <c r="C145" s="2">
         <v>62</v>
@@ -3717,13 +3717,13 @@
         <v>134.285714285714</v>
       </c>
       <c r="E145" s="2">
-        <v>262987</v>
+        <v>263202</v>
       </c>
       <c r="F145" s="2">
         <v>1330</v>
       </c>
       <c r="G145" s="4">
-        <v>0.051896427979</v>
+        <v>0.051890698316</v>
       </c>
     </row>
     <row r="146" spans="1:7">
@@ -3731,7 +3731,7 @@
         <v>44066</v>
       </c>
       <c r="B146" s="2">
-        <v>13645</v>
+        <v>13647</v>
       </c>
       <c r="C146" s="2">
         <v>68</v>
@@ -3740,13 +3740,13 @@
         <v>137.571428571428</v>
       </c>
       <c r="E146" s="2">
-        <v>263955</v>
+        <v>264170</v>
       </c>
       <c r="F146" s="2">
         <v>968</v>
       </c>
       <c r="G146" s="4">
-        <v>0.052605703048</v>
+        <v>0.052599956303</v>
       </c>
     </row>
     <row r="147" spans="1:7">
@@ -3754,7 +3754,7 @@
         <v>44067</v>
       </c>
       <c r="B147" s="2">
-        <v>13795</v>
+        <v>13797</v>
       </c>
       <c r="C147" s="2">
         <v>150</v>
@@ -3763,13 +3763,13 @@
         <v>128.571428571428</v>
       </c>
       <c r="E147" s="2">
-        <v>266945</v>
+        <v>267160</v>
       </c>
       <c r="F147" s="2">
         <v>2990</v>
       </c>
       <c r="G147" s="4">
-        <v>0.051026193445</v>
+        <v>0.051020408163</v>
       </c>
     </row>
     <row r="148" spans="1:7">
@@ -3777,7 +3777,7 @@
         <v>44068</v>
       </c>
       <c r="B148" s="2">
-        <v>13930</v>
+        <v>13932</v>
       </c>
       <c r="C148" s="2">
         <v>135</v>
@@ -3786,13 +3786,13 @@
         <v>123.857142857142</v>
       </c>
       <c r="E148" s="2">
-        <v>269969</v>
+        <v>270185</v>
       </c>
       <c r="F148" s="2">
-        <v>3024</v>
+        <v>3025</v>
       </c>
       <c r="G148" s="4">
-        <v>0.049317406143</v>
+        <v>0.049311796155</v>
       </c>
     </row>
     <row r="149" spans="1:7">
@@ -3800,7 +3800,7 @@
         <v>44069</v>
       </c>
       <c r="B149" s="2">
-        <v>14065</v>
+        <v>14067</v>
       </c>
       <c r="C149" s="2">
         <v>135</v>
@@ -3809,13 +3809,13 @@
         <v>120.571428571428</v>
       </c>
       <c r="E149" s="2">
-        <v>272936</v>
+        <v>273152</v>
       </c>
       <c r="F149" s="2">
         <v>2967</v>
       </c>
       <c r="G149" s="4">
-        <v>0.048256146369</v>
+        <v>0.048253387456</v>
       </c>
     </row>
     <row r="150" spans="1:7">
@@ -3823,7 +3823,7 @@
         <v>44070</v>
       </c>
       <c r="B150" s="2">
-        <v>14237</v>
+        <v>14239</v>
       </c>
       <c r="C150" s="2">
         <v>172</v>
@@ -3832,13 +3832,13 @@
         <v>126.285714285714</v>
       </c>
       <c r="E150" s="2">
-        <v>276209</v>
+        <v>276425</v>
       </c>
       <c r="F150" s="2">
         <v>3273</v>
       </c>
       <c r="G150" s="4">
-        <v>0.050247257431</v>
+        <v>0.0502444015</v>
       </c>
     </row>
     <row r="151" spans="1:7">
@@ -3846,7 +3846,7 @@
         <v>44071</v>
       </c>
       <c r="B151" s="2">
-        <v>14353</v>
+        <v>14355</v>
       </c>
       <c r="C151" s="2">
         <v>116</v>
@@ -3855,13 +3855,13 @@
         <v>119.714285714285</v>
       </c>
       <c r="E151" s="2">
-        <v>278997</v>
+        <v>279213</v>
       </c>
       <c r="F151" s="2">
         <v>2788</v>
       </c>
       <c r="G151" s="4">
-        <v>0.04832756632</v>
+        <v>0.048324779424</v>
       </c>
     </row>
     <row r="152" spans="1:7">
@@ -3869,7 +3869,7 @@
         <v>44072</v>
       </c>
       <c r="B152" s="2">
-        <v>14417</v>
+        <v>14419</v>
       </c>
       <c r="C152" s="2">
         <v>64</v>
@@ -3878,13 +3878,13 @@
         <v>120</v>
       </c>
       <c r="E152" s="2">
-        <v>280440</v>
+        <v>280656</v>
       </c>
       <c r="F152" s="2">
         <v>1443</v>
       </c>
       <c r="G152" s="4">
-        <v>0.048129261445</v>
+        <v>0.048126503953</v>
       </c>
     </row>
     <row r="153" spans="1:7">
@@ -3892,7 +3892,7 @@
         <v>44073</v>
       </c>
       <c r="B153" s="2">
-        <v>14475</v>
+        <v>14477</v>
       </c>
       <c r="C153" s="2">
         <v>58</v>
@@ -3901,13 +3901,13 @@
         <v>118.571428571428</v>
       </c>
       <c r="E153" s="2">
-        <v>281523</v>
+        <v>281739</v>
       </c>
       <c r="F153" s="2">
         <v>1083</v>
       </c>
       <c r="G153" s="4">
-        <v>0.047244990892</v>
+        <v>0.047242301781</v>
       </c>
     </row>
     <row r="154" spans="1:7">
@@ -3915,7 +3915,7 @@
         <v>44074</v>
       </c>
       <c r="B154" s="2">
-        <v>14617</v>
+        <v>14619</v>
       </c>
       <c r="C154" s="2">
         <v>142</v>
@@ -3924,13 +3924,13 @@
         <v>117.428571428571</v>
       </c>
       <c r="E154" s="2">
-        <v>284669</v>
+        <v>284885</v>
       </c>
       <c r="F154" s="2">
         <v>3146</v>
       </c>
       <c r="G154" s="4">
-        <v>0.046377792823</v>
+        <v>0.046375176304</v>
       </c>
     </row>
     <row r="155" spans="1:7">
@@ -3938,7 +3938,7 @@
         <v>44075</v>
       </c>
       <c r="B155" s="2">
-        <v>14750</v>
+        <v>14752</v>
       </c>
       <c r="C155" s="2">
         <v>133</v>
@@ -3947,13 +3947,13 @@
         <v>117.142857142857</v>
       </c>
       <c r="E155" s="2">
-        <v>287951</v>
+        <v>288169</v>
       </c>
       <c r="F155" s="2">
-        <v>3282</v>
+        <v>3284</v>
       </c>
       <c r="G155" s="4">
-        <v>0.045601156712</v>
+        <v>0.045596085409</v>
       </c>
     </row>
     <row r="156" spans="1:7">
@@ -3961,7 +3961,7 @@
         <v>44076</v>
       </c>
       <c r="B156" s="2">
-        <v>14865</v>
+        <v>14867</v>
       </c>
       <c r="C156" s="2">
         <v>115</v>
@@ -3970,13 +3970,13 @@
         <v>114.285714285714</v>
       </c>
       <c r="E156" s="2">
-        <v>290936</v>
+        <v>291154</v>
       </c>
       <c r="F156" s="2">
         <v>2985</v>
       </c>
       <c r="G156" s="4">
-        <v>0.044444444444</v>
+        <v>0.044439506721</v>
       </c>
     </row>
     <row r="157" spans="1:7">
@@ -3984,7 +3984,7 @@
         <v>44077</v>
       </c>
       <c r="B157" s="2">
-        <v>14960</v>
+        <v>14962</v>
       </c>
       <c r="C157" s="2">
         <v>95</v>
@@ -3993,13 +3993,13 @@
         <v>103.285714285714</v>
       </c>
       <c r="E157" s="2">
-        <v>293879</v>
+        <v>294097</v>
       </c>
       <c r="F157" s="2">
         <v>2943</v>
       </c>
       <c r="G157" s="4">
-        <v>0.040916808149</v>
+        <v>0.040912177455</v>
       </c>
     </row>
     <row r="158" spans="1:7">
@@ -4007,7 +4007,7 @@
         <v>44078</v>
       </c>
       <c r="B158" s="2">
-        <v>15082</v>
+        <v>15084</v>
       </c>
       <c r="C158" s="2">
         <v>122</v>
@@ -4016,13 +4016,13 @@
         <v>104.142857142857</v>
       </c>
       <c r="E158" s="2">
-        <v>296702</v>
+        <v>296920</v>
       </c>
       <c r="F158" s="2">
         <v>2823</v>
       </c>
       <c r="G158" s="4">
-        <v>0.041174809375</v>
+        <v>0.041170158694</v>
       </c>
     </row>
     <row r="159" spans="1:7">
@@ -4030,7 +4030,7 @@
         <v>44079</v>
       </c>
       <c r="B159" s="2">
-        <v>15148</v>
+        <v>15150</v>
       </c>
       <c r="C159" s="2">
         <v>66</v>
@@ -4039,13 +4039,13 @@
         <v>104.428571428571</v>
       </c>
       <c r="E159" s="2">
-        <v>298040</v>
+        <v>298258</v>
       </c>
       <c r="F159" s="2">
         <v>1338</v>
       </c>
       <c r="G159" s="4">
-        <v>0.041534090909</v>
+        <v>0.041529371662</v>
       </c>
     </row>
     <row r="160" spans="1:7">
@@ -4053,7 +4053,7 @@
         <v>44080</v>
       </c>
       <c r="B160" s="2">
-        <v>15201</v>
+        <v>15203</v>
       </c>
       <c r="C160" s="2">
         <v>53</v>
@@ -4062,13 +4062,13 @@
         <v>103.714285714285</v>
       </c>
       <c r="E160" s="2">
-        <v>299125</v>
+        <v>299343</v>
       </c>
       <c r="F160" s="2">
         <v>1085</v>
       </c>
       <c r="G160" s="4">
-        <v>0.041245313032</v>
+        <v>0.04124062713</v>
       </c>
     </row>
     <row r="161" spans="1:7">
@@ -4076,7 +4076,7 @@
         <v>44081</v>
       </c>
       <c r="B161" s="2">
-        <v>15270</v>
+        <v>15272</v>
       </c>
       <c r="C161" s="2">
         <v>69</v>
@@ -4085,13 +4085,13 @@
         <v>93.28571428571399</v>
       </c>
       <c r="E161" s="2">
-        <v>300381</v>
+        <v>300599</v>
       </c>
       <c r="F161" s="2">
         <v>1256</v>
       </c>
       <c r="G161" s="4">
-        <v>0.041560590631</v>
+        <v>0.041555301005</v>
       </c>
     </row>
     <row r="162" spans="1:7">
@@ -4099,7 +4099,7 @@
         <v>44082</v>
       </c>
       <c r="B162" s="2">
-        <v>15413</v>
+        <v>15415</v>
       </c>
       <c r="C162" s="2">
         <v>143</v>
@@ -4108,7 +4108,7 @@
         <v>94.714285714285</v>
       </c>
       <c r="E162" s="2">
-        <v>304690</v>
+        <v>304908</v>
       </c>
       <c r="F162" s="2">
         <v>4309</v>
@@ -4122,7 +4122,7 @@
         <v>44083</v>
       </c>
       <c r="B163" s="2">
-        <v>15564</v>
+        <v>15566</v>
       </c>
       <c r="C163" s="2">
         <v>151</v>
@@ -4131,7 +4131,7 @@
         <v>99.85714285714199</v>
       </c>
       <c r="E163" s="2">
-        <v>308214</v>
+        <v>308432</v>
       </c>
       <c r="F163" s="2">
         <v>3524</v>
@@ -4145,7 +4145,7 @@
         <v>44084</v>
       </c>
       <c r="B164" s="2">
-        <v>15668</v>
+        <v>15670</v>
       </c>
       <c r="C164" s="2">
         <v>104</v>
@@ -4154,13 +4154,13 @@
         <v>101.142857142857</v>
       </c>
       <c r="E164" s="2">
-        <v>311504</v>
+        <v>311723</v>
       </c>
       <c r="F164" s="2">
-        <v>3290</v>
+        <v>3291</v>
       </c>
       <c r="G164" s="4">
-        <v>0.040170212765</v>
+        <v>0.040167933734</v>
       </c>
     </row>
     <row r="165" spans="1:7">
@@ -4168,7 +4168,7 @@
         <v>44085</v>
       </c>
       <c r="B165" s="2">
-        <v>15742</v>
+        <v>15744</v>
       </c>
       <c r="C165" s="2">
         <v>74</v>
@@ -4177,13 +4177,13 @@
         <v>94.28571428571399</v>
       </c>
       <c r="E165" s="2">
-        <v>314009</v>
+        <v>314228</v>
       </c>
       <c r="F165" s="2">
         <v>2505</v>
       </c>
       <c r="G165" s="4">
-        <v>0.038134858727</v>
+        <v>0.038132655419</v>
       </c>
     </row>
     <row r="166" spans="1:7">
@@ -4191,22 +4191,22 @@
         <v>44086</v>
       </c>
       <c r="B166" s="2">
-        <v>15791</v>
+        <v>15794</v>
       </c>
       <c r="C166" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D166" s="3">
-        <v>91.85714285714199</v>
+        <v>92</v>
       </c>
       <c r="E166" s="2">
-        <v>315410</v>
+        <v>315630</v>
       </c>
       <c r="F166" s="2">
-        <v>1401</v>
+        <v>1402</v>
       </c>
       <c r="G166" s="4">
-        <v>0.037017846862</v>
+        <v>0.037071148975</v>
       </c>
     </row>
     <row r="167" spans="1:7">
@@ -4214,22 +4214,22 @@
         <v>44087</v>
       </c>
       <c r="B167" s="2">
-        <v>15825</v>
+        <v>15830</v>
       </c>
       <c r="C167" s="2">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D167" s="3">
-        <v>89.142857142857</v>
+        <v>89.571428571428</v>
       </c>
       <c r="E167" s="2">
-        <v>316260</v>
+        <v>316482</v>
       </c>
       <c r="F167" s="2">
-        <v>850</v>
+        <v>852</v>
       </c>
       <c r="G167" s="4">
-        <v>0.036416690983</v>
+        <v>0.036583231227</v>
       </c>
     </row>
     <row r="168" spans="1:7">
@@ -4237,22 +4237,22 @@
         <v>44088</v>
       </c>
       <c r="B168" s="2">
-        <v>15926</v>
+        <v>15931</v>
       </c>
       <c r="C168" s="2">
         <v>101</v>
       </c>
       <c r="D168" s="3">
-        <v>93.714285714285</v>
+        <v>94.142857142857</v>
       </c>
       <c r="E168" s="2">
-        <v>319674</v>
+        <v>319900</v>
       </c>
       <c r="F168" s="2">
-        <v>3414</v>
+        <v>3418</v>
       </c>
       <c r="G168" s="4">
-        <v>0.034001969626</v>
+        <v>0.034143308636</v>
       </c>
     </row>
     <row r="169" spans="1:7">
@@ -4260,22 +4260,22 @@
         <v>44089</v>
       </c>
       <c r="B169" s="2">
-        <v>16056</v>
+        <v>16061</v>
       </c>
       <c r="C169" s="2">
         <v>130</v>
       </c>
       <c r="D169" s="3">
-        <v>91.85714285714199</v>
+        <v>92.28571428571399</v>
       </c>
       <c r="E169" s="2">
-        <v>323667</v>
+        <v>323894</v>
       </c>
       <c r="F169" s="2">
-        <v>3993</v>
+        <v>3994</v>
       </c>
       <c r="G169" s="4">
-        <v>0.033883121673</v>
+        <v>0.034025071105</v>
       </c>
     </row>
     <row r="170" spans="1:7">
@@ -4283,22 +4283,22 @@
         <v>44090</v>
       </c>
       <c r="B170" s="2">
-        <v>16143</v>
+        <v>16148</v>
       </c>
       <c r="C170" s="2">
         <v>87</v>
       </c>
       <c r="D170" s="3">
-        <v>82.714285714285</v>
+        <v>83.142857142857</v>
       </c>
       <c r="E170" s="2">
-        <v>326986</v>
+        <v>327216</v>
       </c>
       <c r="F170" s="2">
-        <v>3319</v>
+        <v>3322</v>
       </c>
       <c r="G170" s="4">
-        <v>0.030843809929</v>
+        <v>0.030983816013</v>
       </c>
     </row>
     <row r="171" spans="1:7">
@@ -4306,22 +4306,22 @@
         <v>44091</v>
       </c>
       <c r="B171" s="2">
-        <v>16247</v>
+        <v>16252</v>
       </c>
       <c r="C171" s="2">
         <v>104</v>
       </c>
       <c r="D171" s="3">
-        <v>82.714285714285</v>
+        <v>83.142857142857</v>
       </c>
       <c r="E171" s="2">
-        <v>330629</v>
+        <v>330861</v>
       </c>
       <c r="F171" s="2">
-        <v>3643</v>
+        <v>3645</v>
       </c>
       <c r="G171" s="4">
-        <v>0.030274509803</v>
+        <v>0.030410701222</v>
       </c>
     </row>
     <row r="172" spans="1:7">
@@ -4329,22 +4329,22 @@
         <v>44092</v>
       </c>
       <c r="B172" s="2">
-        <v>16351</v>
+        <v>16356</v>
       </c>
       <c r="C172" s="2">
         <v>104</v>
       </c>
       <c r="D172" s="3">
-        <v>87</v>
+        <v>87.428571428571</v>
       </c>
       <c r="E172" s="2">
-        <v>333905</v>
+        <v>334137</v>
       </c>
       <c r="F172" s="2">
         <v>3276</v>
       </c>
       <c r="G172" s="4">
-        <v>0.030609167671</v>
+        <v>0.030739866392</v>
       </c>
     </row>
     <row r="173" spans="1:7">
@@ -4352,22 +4352,22 @@
         <v>44093</v>
       </c>
       <c r="B173" s="2">
-        <v>16423</v>
+        <v>16428</v>
       </c>
       <c r="C173" s="2">
         <v>72</v>
       </c>
       <c r="D173" s="3">
-        <v>90.28571428571399</v>
+        <v>90.571428571428</v>
       </c>
       <c r="E173" s="2">
-        <v>335424</v>
+        <v>335656</v>
       </c>
       <c r="F173" s="2">
         <v>1519</v>
       </c>
       <c r="G173" s="4">
-        <v>0.031577895473</v>
+        <v>0.031658843503</v>
       </c>
     </row>
     <row r="174" spans="1:7">
@@ -4375,7 +4375,7 @@
         <v>44094</v>
       </c>
       <c r="B174" s="2">
-        <v>16465</v>
+        <v>16470</v>
       </c>
       <c r="C174" s="2">
         <v>42</v>
@@ -4384,13 +4384,13 @@
         <v>91.428571428571</v>
       </c>
       <c r="E174" s="2">
-        <v>336580</v>
+        <v>336812</v>
       </c>
       <c r="F174" s="2">
         <v>1156</v>
       </c>
       <c r="G174" s="4">
-        <v>0.031496062992</v>
+        <v>0.031480570585</v>
       </c>
     </row>
     <row r="175" spans="1:7">
@@ -4398,7 +4398,7 @@
         <v>44095</v>
       </c>
       <c r="B175" s="2">
-        <v>16608</v>
+        <v>16613</v>
       </c>
       <c r="C175" s="2">
         <v>143</v>
@@ -4407,13 +4407,13 @@
         <v>97.428571428571</v>
       </c>
       <c r="E175" s="2">
-        <v>340957</v>
+        <v>341190</v>
       </c>
       <c r="F175" s="2">
-        <v>4377</v>
+        <v>4378</v>
       </c>
       <c r="G175" s="4">
-        <v>0.032044354649</v>
+        <v>0.032033818694</v>
       </c>
     </row>
     <row r="176" spans="1:7">
@@ -4421,7 +4421,7 @@
         <v>44096</v>
       </c>
       <c r="B176" s="2">
-        <v>16706</v>
+        <v>16711</v>
       </c>
       <c r="C176" s="2">
         <v>98</v>
@@ -4430,13 +4430,13 @@
         <v>92.85714285714199</v>
       </c>
       <c r="E176" s="2">
-        <v>344751</v>
+        <v>344986</v>
       </c>
       <c r="F176" s="2">
-        <v>3794</v>
+        <v>3796</v>
       </c>
       <c r="G176" s="4">
-        <v>0.030829064693</v>
+        <v>0.030817371515</v>
       </c>
     </row>
     <row r="177" spans="1:7">
@@ -4444,7 +4444,7 @@
         <v>44097</v>
       </c>
       <c r="B177" s="2">
-        <v>16800</v>
+        <v>16805</v>
       </c>
       <c r="C177" s="2">
         <v>94</v>
@@ -4453,13 +4453,13 @@
         <v>93.85714285714199</v>
       </c>
       <c r="E177" s="2">
-        <v>348262</v>
+        <v>348499</v>
       </c>
       <c r="F177" s="2">
-        <v>3511</v>
+        <v>3513</v>
       </c>
       <c r="G177" s="4">
-        <v>0.030879864636</v>
+        <v>0.030869708217</v>
       </c>
     </row>
     <row r="178" spans="1:7">
@@ -4467,7 +4467,7 @@
         <v>44098</v>
       </c>
       <c r="B178" s="2">
-        <v>16891</v>
+        <v>16896</v>
       </c>
       <c r="C178" s="2">
         <v>91</v>
@@ -4476,13 +4476,13 @@
         <v>92</v>
       </c>
       <c r="E178" s="2">
-        <v>351997</v>
+        <v>352236</v>
       </c>
       <c r="F178" s="2">
-        <v>3735</v>
+        <v>3737</v>
       </c>
       <c r="G178" s="4">
-        <v>0.030138524897</v>
+        <v>0.03012865497</v>
       </c>
     </row>
     <row r="179" spans="1:7">
@@ -4490,7 +4490,7 @@
         <v>44099</v>
       </c>
       <c r="B179" s="2">
-        <v>16980</v>
+        <v>16985</v>
       </c>
       <c r="C179" s="2">
         <v>89</v>
@@ -4499,13 +4499,13 @@
         <v>89.85714285714199</v>
       </c>
       <c r="E179" s="2">
-        <v>355301</v>
+        <v>355540</v>
       </c>
       <c r="F179" s="2">
         <v>3304</v>
       </c>
       <c r="G179" s="4">
-        <v>0.029398018321</v>
+        <v>0.029388403494</v>
       </c>
     </row>
     <row r="180" spans="1:7">
@@ -4513,7 +4513,7 @@
         <v>44100</v>
       </c>
       <c r="B180" s="2">
-        <v>17039</v>
+        <v>17044</v>
       </c>
       <c r="C180" s="2">
         <v>59</v>
@@ -4522,13 +4522,13 @@
         <v>88</v>
       </c>
       <c r="E180" s="2">
-        <v>357174</v>
+        <v>357413</v>
       </c>
       <c r="F180" s="2">
         <v>1873</v>
       </c>
       <c r="G180" s="4">
-        <v>0.02832183908</v>
+        <v>0.028312726938</v>
       </c>
     </row>
     <row r="181" spans="1:7">
@@ -4536,7 +4536,7 @@
         <v>44101</v>
       </c>
       <c r="B181" s="2">
-        <v>17062</v>
+        <v>17067</v>
       </c>
       <c r="C181" s="2">
         <v>23</v>
@@ -4545,13 +4545,13 @@
         <v>85.28571428571399</v>
       </c>
       <c r="E181" s="2">
-        <v>358303</v>
+        <v>358542</v>
       </c>
       <c r="F181" s="2">
         <v>1129</v>
       </c>
       <c r="G181" s="4">
-        <v>0.027482391934</v>
+        <v>0.027473538886</v>
       </c>
     </row>
     <row r="182" spans="1:7">
@@ -4559,7 +4559,7 @@
         <v>44102</v>
       </c>
       <c r="B182" s="2">
-        <v>17175</v>
+        <v>17180</v>
       </c>
       <c r="C182" s="2">
         <v>113</v>
@@ -4568,13 +4568,13 @@
         <v>81</v>
       </c>
       <c r="E182" s="2">
-        <v>362404</v>
+        <v>362644</v>
       </c>
       <c r="F182" s="2">
-        <v>4101</v>
+        <v>4102</v>
       </c>
       <c r="G182" s="4">
-        <v>0.026437263953</v>
+        <v>0.026428638016</v>
       </c>
     </row>
     <row r="183" spans="1:7">
@@ -4582,7 +4582,7 @@
         <v>44103</v>
       </c>
       <c r="B183" s="2">
-        <v>17250</v>
+        <v>17255</v>
       </c>
       <c r="C183" s="2">
         <v>75</v>
@@ -4591,13 +4591,13 @@
         <v>77.714285714285</v>
       </c>
       <c r="E183" s="2">
-        <v>366245</v>
+        <v>366486</v>
       </c>
       <c r="F183" s="2">
-        <v>3841</v>
+        <v>3842</v>
       </c>
       <c r="G183" s="4">
-        <v>0.025309388666</v>
+        <v>0.025302325581</v>
       </c>
     </row>
     <row r="184" spans="1:7">
@@ -4605,7 +4605,7 @@
         <v>44104</v>
       </c>
       <c r="B184" s="2">
-        <v>17310</v>
+        <v>17315</v>
       </c>
       <c r="C184" s="2">
         <v>60</v>
@@ -4614,13 +4614,13 @@
         <v>72.85714285714199</v>
       </c>
       <c r="E184" s="2">
-        <v>369805</v>
+        <v>370047</v>
       </c>
       <c r="F184" s="2">
-        <v>3560</v>
+        <v>3561</v>
       </c>
       <c r="G184" s="4">
-        <v>0.023673583066</v>
+        <v>0.023668089845</v>
       </c>
     </row>
     <row r="185" spans="1:7">
@@ -4628,7 +4628,7 @@
         <v>44105</v>
       </c>
       <c r="B185" s="2">
-        <v>17375</v>
+        <v>17380</v>
       </c>
       <c r="C185" s="2">
         <v>65</v>
@@ -4637,13 +4637,13 @@
         <v>69.142857142857</v>
       </c>
       <c r="E185" s="2">
-        <v>373331</v>
+        <v>373574</v>
       </c>
       <c r="F185" s="2">
-        <v>3526</v>
+        <v>3527</v>
       </c>
       <c r="G185" s="4">
-        <v>0.022686791037</v>
+        <v>0.022682538194</v>
       </c>
     </row>
     <row r="186" spans="1:7">
@@ -4651,7 +4651,7 @@
         <v>44106</v>
       </c>
       <c r="B186" s="2">
-        <v>17451</v>
+        <v>17456</v>
       </c>
       <c r="C186" s="2">
         <v>76</v>
@@ -4660,13 +4660,13 @@
         <v>67.28571428571399</v>
       </c>
       <c r="E186" s="2">
-        <v>376876</v>
+        <v>377119</v>
       </c>
       <c r="F186" s="2">
         <v>3545</v>
       </c>
       <c r="G186" s="4">
-        <v>0.021830822711</v>
+        <v>0.021826776032</v>
       </c>
     </row>
     <row r="187" spans="1:7">
@@ -4674,7 +4674,7 @@
         <v>44107</v>
       </c>
       <c r="B187" s="2">
-        <v>17494</v>
+        <v>17499</v>
       </c>
       <c r="C187" s="2">
         <v>43</v>
@@ -4683,13 +4683,13 @@
         <v>65</v>
       </c>
       <c r="E187" s="2">
-        <v>378872</v>
+        <v>379115</v>
       </c>
       <c r="F187" s="2">
         <v>1996</v>
       </c>
       <c r="G187" s="4">
-        <v>0.020969674624</v>
+        <v>0.020965809602</v>
       </c>
     </row>
     <row r="188" spans="1:7">
@@ -4697,7 +4697,7 @@
         <v>44108</v>
       </c>
       <c r="B188" s="2">
-        <v>17531</v>
+        <v>17536</v>
       </c>
       <c r="C188" s="2">
         <v>37</v>
@@ -4706,13 +4706,13 @@
         <v>67</v>
       </c>
       <c r="E188" s="2">
-        <v>380256</v>
+        <v>380499</v>
       </c>
       <c r="F188" s="2">
         <v>1384</v>
       </c>
       <c r="G188" s="4">
-        <v>0.021363822712</v>
+        <v>0.021359930773</v>
       </c>
     </row>
     <row r="189" spans="1:7">
@@ -4720,7 +4720,7 @@
         <v>44109</v>
       </c>
       <c r="B189" s="2">
-        <v>17608</v>
+        <v>17613</v>
       </c>
       <c r="C189" s="2">
         <v>77</v>
@@ -4729,13 +4729,13 @@
         <v>61.857142857142</v>
       </c>
       <c r="E189" s="2">
-        <v>385062</v>
+        <v>385311</v>
       </c>
       <c r="F189" s="2">
-        <v>4806</v>
+        <v>4812</v>
       </c>
       <c r="G189" s="4">
-        <v>0.019110248036</v>
+        <v>0.019102660254</v>
       </c>
     </row>
     <row r="190" spans="1:7">
@@ -4743,7 +4743,7 @@
         <v>44110</v>
       </c>
       <c r="B190" s="2">
-        <v>17671</v>
+        <v>17676</v>
       </c>
       <c r="C190" s="2">
         <v>63</v>
@@ -4752,13 +4752,13 @@
         <v>60.142857142857</v>
       </c>
       <c r="E190" s="2">
-        <v>389715</v>
+        <v>389970</v>
       </c>
       <c r="F190" s="2">
-        <v>4653</v>
+        <v>4659</v>
       </c>
       <c r="G190" s="4">
-        <v>0.017937792927</v>
+        <v>0.017927099301</v>
       </c>
     </row>
     <row r="191" spans="1:7">
@@ -4766,7 +4766,7 @@
         <v>44111</v>
       </c>
       <c r="B191" s="2">
-        <v>17747</v>
+        <v>17752</v>
       </c>
       <c r="C191" s="2">
         <v>76</v>
@@ -4775,13 +4775,13 @@
         <v>62.428571428571</v>
       </c>
       <c r="E191" s="2">
-        <v>393892</v>
+        <v>394158</v>
       </c>
       <c r="F191" s="2">
-        <v>4177</v>
+        <v>4188</v>
       </c>
       <c r="G191" s="4">
-        <v>0.018142566529</v>
+        <v>0.018124507486</v>
       </c>
     </row>
     <row r="192" spans="1:7">
@@ -4789,7 +4789,7 @@
         <v>44112</v>
       </c>
       <c r="B192" s="2">
-        <v>17841</v>
+        <v>17846</v>
       </c>
       <c r="C192" s="2">
         <v>94</v>
@@ -4798,13 +4798,13 @@
         <v>66.571428571428</v>
       </c>
       <c r="E192" s="2">
-        <v>398128</v>
+        <v>398399</v>
       </c>
       <c r="F192" s="2">
-        <v>4236</v>
+        <v>4241</v>
       </c>
       <c r="G192" s="4">
-        <v>0.018792595878</v>
+        <v>0.018771399798</v>
       </c>
     </row>
     <row r="193" spans="1:7">
@@ -4812,7 +4812,7 @@
         <v>44113</v>
       </c>
       <c r="B193" s="2">
-        <v>17899</v>
+        <v>17904</v>
       </c>
       <c r="C193" s="2">
         <v>58</v>
@@ -4821,13 +4821,13 @@
         <v>64</v>
       </c>
       <c r="E193" s="2">
-        <v>401901</v>
+        <v>402172</v>
       </c>
       <c r="F193" s="2">
         <v>3773</v>
       </c>
       <c r="G193" s="4">
-        <v>0.017902097902</v>
+        <v>0.017882089969</v>
       </c>
     </row>
     <row r="194" spans="1:7">
@@ -4835,7 +4835,7 @@
         <v>44114</v>
       </c>
       <c r="B194" s="2">
-        <v>17940</v>
+        <v>17945</v>
       </c>
       <c r="C194" s="2">
         <v>41</v>
@@ -4844,13 +4844,13 @@
         <v>63.71428571428499</v>
       </c>
       <c r="E194" s="2">
-        <v>403688</v>
+        <v>403959</v>
       </c>
       <c r="F194" s="2">
         <v>1787</v>
       </c>
       <c r="G194" s="4">
-        <v>0.01797227595</v>
+        <v>0.017952020608</v>
       </c>
     </row>
     <row r="195" spans="1:7">
@@ -4858,7 +4858,7 @@
         <v>44115</v>
       </c>
       <c r="B195" s="2">
-        <v>17964</v>
+        <v>17969</v>
       </c>
       <c r="C195" s="2">
         <v>24</v>
@@ -4867,13 +4867,13 @@
         <v>61.857142857142</v>
       </c>
       <c r="E195" s="2">
-        <v>405017</v>
+        <v>405288</v>
       </c>
       <c r="F195" s="2">
         <v>1329</v>
       </c>
       <c r="G195" s="4">
-        <v>0.017487177416</v>
+        <v>0.017467425067</v>
       </c>
     </row>
     <row r="196" spans="1:7">
@@ -4881,7 +4881,7 @@
         <v>44116</v>
       </c>
       <c r="B196" s="2">
-        <v>18056</v>
+        <v>18061</v>
       </c>
       <c r="C196" s="2">
         <v>92</v>
@@ -4890,13 +4890,13 @@
         <v>64</v>
       </c>
       <c r="E196" s="2">
-        <v>409535</v>
+        <v>409806</v>
       </c>
       <c r="F196" s="2">
         <v>4518</v>
       </c>
       <c r="G196" s="4">
-        <v>0.018305888121</v>
+        <v>0.018289446825</v>
       </c>
     </row>
     <row r="197" spans="1:7">
@@ -4904,7 +4904,7 @@
         <v>44117</v>
       </c>
       <c r="B197" s="2">
-        <v>18146</v>
+        <v>18151</v>
       </c>
       <c r="C197" s="2">
         <v>90</v>
@@ -4913,13 +4913,13 @@
         <v>67.85714285714199</v>
       </c>
       <c r="E197" s="2">
-        <v>414037</v>
+        <v>414308</v>
       </c>
       <c r="F197" s="2">
         <v>4502</v>
       </c>
       <c r="G197" s="4">
-        <v>0.019529643943</v>
+        <v>0.019516804996</v>
       </c>
     </row>
     <row r="198" spans="1:7">
@@ -4927,22 +4927,22 @@
         <v>44118</v>
       </c>
       <c r="B198" s="2">
-        <v>18215</v>
+        <v>18221</v>
       </c>
       <c r="C198" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D198" s="3">
-        <v>66.85714285714199</v>
+        <v>67</v>
       </c>
       <c r="E198" s="2">
-        <v>418254</v>
+        <v>418526</v>
       </c>
       <c r="F198" s="2">
-        <v>4217</v>
+        <v>4218</v>
       </c>
       <c r="G198" s="4">
-        <v>0.019210245464</v>
+        <v>0.019246552856</v>
       </c>
     </row>
     <row r="199" spans="1:7">
@@ -4950,22 +4950,22 @@
         <v>44119</v>
       </c>
       <c r="B199" s="2">
-        <v>18266</v>
+        <v>18273</v>
       </c>
       <c r="C199" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D199" s="3">
-        <v>60.71428571428499</v>
+        <v>61</v>
       </c>
       <c r="E199" s="2">
-        <v>422253</v>
+        <v>422528</v>
       </c>
       <c r="F199" s="2">
-        <v>3999</v>
+        <v>4002</v>
       </c>
       <c r="G199" s="4">
-        <v>0.01761658031</v>
+        <v>0.017696547722</v>
       </c>
     </row>
     <row r="200" spans="1:7">
@@ -4973,22 +4973,22 @@
         <v>44120</v>
       </c>
       <c r="B200" s="2">
-        <v>18323</v>
+        <v>18331</v>
       </c>
       <c r="C200" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D200" s="3">
-        <v>60.57142857142801</v>
+        <v>61</v>
       </c>
       <c r="E200" s="2">
-        <v>426235</v>
+        <v>426511</v>
       </c>
       <c r="F200" s="2">
-        <v>3982</v>
+        <v>3983</v>
       </c>
       <c r="G200" s="4">
-        <v>0.017424180159</v>
+        <v>0.017543859649</v>
       </c>
     </row>
     <row r="201" spans="1:7">
@@ -4996,22 +4996,22 @@
         <v>44121</v>
       </c>
       <c r="B201" s="2">
-        <v>18368</v>
+        <v>18376</v>
       </c>
       <c r="C201" s="2">
         <v>45</v>
       </c>
       <c r="D201" s="3">
-        <v>61.142857142857</v>
+        <v>61.57142857142801</v>
       </c>
       <c r="E201" s="2">
-        <v>428133</v>
+        <v>428410</v>
       </c>
       <c r="F201" s="2">
-        <v>1898</v>
+        <v>1899</v>
       </c>
       <c r="G201" s="4">
-        <v>0.017508692984</v>
+        <v>0.017627090916</v>
       </c>
     </row>
     <row r="202" spans="1:7">
@@ -5019,22 +5019,22 @@
         <v>44122</v>
       </c>
       <c r="B202" s="2">
-        <v>18404</v>
+        <v>18412</v>
       </c>
       <c r="C202" s="2">
         <v>36</v>
       </c>
       <c r="D202" s="3">
-        <v>62.857142857142</v>
+        <v>63.28571428571399</v>
       </c>
       <c r="E202" s="2">
-        <v>429507</v>
+        <v>429785</v>
       </c>
       <c r="F202" s="2">
-        <v>1374</v>
+        <v>1375</v>
       </c>
       <c r="G202" s="4">
-        <v>0.017966516945</v>
+        <v>0.018083847001</v>
       </c>
     </row>
     <row r="203" spans="1:7">
@@ -5042,22 +5042,45 @@
         <v>44123</v>
       </c>
       <c r="B203" s="2">
-        <v>18493</v>
+        <v>18501</v>
       </c>
       <c r="C203" s="2">
         <v>89</v>
       </c>
       <c r="D203" s="3">
-        <v>62.428571428571</v>
+        <v>62.857142857142</v>
       </c>
       <c r="E203" s="2">
-        <v>434317</v>
+        <v>434599</v>
       </c>
       <c r="F203" s="2">
-        <v>4810</v>
+        <v>4814</v>
       </c>
       <c r="G203" s="4">
-        <v>0.017633766443</v>
+        <v>0.017746944702</v>
+      </c>
+    </row>
+    <row r="204" spans="1:7">
+      <c r="A204" s="1">
+        <v>44124</v>
+      </c>
+      <c r="B204" s="2">
+        <v>18593</v>
+      </c>
+      <c r="C204" s="2">
+        <v>92</v>
+      </c>
+      <c r="D204" s="3">
+        <v>63.142857142857</v>
+      </c>
+      <c r="E204" s="2">
+        <v>439362</v>
+      </c>
+      <c r="F204" s="2">
+        <v>4763</v>
+      </c>
+      <c r="G204" s="4">
+        <v>0.01764189351</v>
       </c>
     </row>
   </sheetData>

--- a/contra_costa_county_testing.xlsx
+++ b/contra_costa_county_testing.xlsx
@@ -376,7 +376,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G204"/>
+  <dimension ref="A1:G205"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1072,13 +1072,13 @@
         <v>15.857142857142</v>
       </c>
       <c r="E30" s="2">
-        <v>15790</v>
+        <v>15789</v>
       </c>
       <c r="F30" s="2">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="G30" s="4">
-        <v>0.032427695004</v>
+        <v>0.032437171244</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -1098,7 +1098,7 @@
         <v>16636</v>
       </c>
       <c r="F31" s="2">
-        <v>846</v>
+        <v>847</v>
       </c>
       <c r="G31" s="4">
         <v>0.031797359202</v>
@@ -1239,7 +1239,7 @@
         <v>965</v>
       </c>
       <c r="G37" s="4">
-        <v>0.025258071601</v>
+        <v>0.025252525252</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -1256,13 +1256,13 @@
         <v>14.428571428571</v>
       </c>
       <c r="E38" s="2">
-        <v>21239</v>
+        <v>21240</v>
       </c>
       <c r="F38" s="2">
-        <v>896</v>
+        <v>897</v>
       </c>
       <c r="G38" s="4">
-        <v>0.021942211601</v>
+        <v>0.021937445699</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -1279,13 +1279,13 @@
         <v>15.285714285714</v>
       </c>
       <c r="E39" s="2">
-        <v>22379</v>
+        <v>22380</v>
       </c>
       <c r="F39" s="2">
         <v>1140</v>
       </c>
       <c r="G39" s="4">
-        <v>0.021353023348</v>
+        <v>0.021348762968</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -1302,13 +1302,13 @@
         <v>14.714285714285</v>
       </c>
       <c r="E40" s="2">
-        <v>22761</v>
+        <v>22762</v>
       </c>
       <c r="F40" s="2">
         <v>382</v>
       </c>
       <c r="G40" s="4">
-        <v>0.020176297747</v>
+        <v>0.020172346259</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -1325,13 +1325,13 @@
         <v>15.142857142857</v>
       </c>
       <c r="E41" s="2">
-        <v>23104</v>
+        <v>23105</v>
       </c>
       <c r="F41" s="2">
         <v>343</v>
       </c>
       <c r="G41" s="4">
-        <v>0.020447530864</v>
+        <v>0.02044358727</v>
       </c>
     </row>
     <row r="42" spans="1:7">
@@ -1348,13 +1348,13 @@
         <v>13</v>
       </c>
       <c r="E42" s="2">
-        <v>24207</v>
+        <v>24208</v>
       </c>
       <c r="F42" s="2">
         <v>1103</v>
       </c>
       <c r="G42" s="4">
-        <v>0.016518424396</v>
+        <v>0.016515426497</v>
       </c>
     </row>
     <row r="43" spans="1:7">
@@ -1371,13 +1371,13 @@
         <v>12.285714285714</v>
       </c>
       <c r="E43" s="2">
-        <v>25438</v>
+        <v>25439</v>
       </c>
       <c r="F43" s="2">
         <v>1231</v>
       </c>
       <c r="G43" s="4">
-        <v>0.014191419141</v>
+        <v>0.014189077709</v>
       </c>
     </row>
     <row r="44" spans="1:7">
@@ -1394,13 +1394,13 @@
         <v>12.857142857142</v>
       </c>
       <c r="E44" s="2">
-        <v>26532</v>
+        <v>26533</v>
       </c>
       <c r="F44" s="2">
         <v>1094</v>
       </c>
       <c r="G44" s="4">
-        <v>0.014541929229</v>
+        <v>0.014539579967</v>
       </c>
     </row>
     <row r="45" spans="1:7">
@@ -1417,7 +1417,7 @@
         <v>14</v>
       </c>
       <c r="E45" s="2">
-        <v>27393</v>
+        <v>27394</v>
       </c>
       <c r="F45" s="2">
         <v>861</v>
@@ -1440,7 +1440,7 @@
         <v>15.714285714285</v>
       </c>
       <c r="E46" s="2">
-        <v>28312</v>
+        <v>28313</v>
       </c>
       <c r="F46" s="2">
         <v>919</v>
@@ -1463,7 +1463,7 @@
         <v>17.571428571428</v>
       </c>
       <c r="E47" s="2">
-        <v>28721</v>
+        <v>28722</v>
       </c>
       <c r="F47" s="2">
         <v>409</v>
@@ -1486,7 +1486,7 @@
         <v>18</v>
       </c>
       <c r="E48" s="2">
-        <v>29110</v>
+        <v>29111</v>
       </c>
       <c r="F48" s="2">
         <v>389</v>
@@ -1509,7 +1509,7 @@
         <v>22.428571428571</v>
       </c>
       <c r="E49" s="2">
-        <v>30475</v>
+        <v>30476</v>
       </c>
       <c r="F49" s="2">
         <v>1365</v>
@@ -1532,7 +1532,7 @@
         <v>25.714285714285</v>
       </c>
       <c r="E50" s="2">
-        <v>32134</v>
+        <v>32135</v>
       </c>
       <c r="F50" s="2">
         <v>1659</v>
@@ -1555,7 +1555,7 @@
         <v>26.142857142857</v>
       </c>
       <c r="E51" s="2">
-        <v>33274</v>
+        <v>33275</v>
       </c>
       <c r="F51" s="2">
         <v>1140</v>
@@ -1578,7 +1578,7 @@
         <v>27.428571428571</v>
       </c>
       <c r="E52" s="2">
-        <v>34405</v>
+        <v>34406</v>
       </c>
       <c r="F52" s="2">
         <v>1131</v>
@@ -1601,7 +1601,7 @@
         <v>29.142857142857</v>
       </c>
       <c r="E53" s="2">
-        <v>35494</v>
+        <v>35495</v>
       </c>
       <c r="F53" s="2">
         <v>1089</v>
@@ -1624,7 +1624,7 @@
         <v>28</v>
       </c>
       <c r="E54" s="2">
-        <v>36013</v>
+        <v>36014</v>
       </c>
       <c r="F54" s="2">
         <v>519</v>
@@ -1647,7 +1647,7 @@
         <v>27.571428571428</v>
       </c>
       <c r="E55" s="2">
-        <v>36404</v>
+        <v>36405</v>
       </c>
       <c r="F55" s="2">
         <v>391</v>
@@ -1670,7 +1670,7 @@
         <v>23.285714285714</v>
       </c>
       <c r="E56" s="2">
-        <v>36866</v>
+        <v>36867</v>
       </c>
       <c r="F56" s="2">
         <v>462</v>
@@ -1693,7 +1693,7 @@
         <v>23.714285714285</v>
       </c>
       <c r="E57" s="2">
-        <v>38063</v>
+        <v>38064</v>
       </c>
       <c r="F57" s="2">
         <v>1197</v>
@@ -1719,10 +1719,10 @@
         <v>39173</v>
       </c>
       <c r="F58" s="2">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="G58" s="4">
-        <v>0.028140362773</v>
+        <v>0.028145133943</v>
       </c>
     </row>
     <row r="59" spans="1:7">
@@ -1745,7 +1745,7 @@
         <v>1136</v>
       </c>
       <c r="G59" s="4">
-        <v>0.031165311653</v>
+        <v>0.031170591224</v>
       </c>
     </row>
     <row r="60" spans="1:7">
@@ -1753,22 +1753,22 @@
         <v>43980</v>
       </c>
       <c r="B60" s="2">
-        <v>1571</v>
+        <v>1570</v>
       </c>
       <c r="C60" s="2">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D60" s="3">
-        <v>26.428571428571</v>
+        <v>26.285714285714</v>
       </c>
       <c r="E60" s="2">
-        <v>41711</v>
+        <v>41710</v>
       </c>
       <c r="F60" s="2">
-        <v>1402</v>
+        <v>1401</v>
       </c>
       <c r="G60" s="4">
-        <v>0.02975711758</v>
+        <v>0.029605792437</v>
       </c>
     </row>
     <row r="61" spans="1:7">
@@ -1776,22 +1776,22 @@
         <v>43981</v>
       </c>
       <c r="B61" s="2">
-        <v>1580</v>
+        <v>1579</v>
       </c>
       <c r="C61" s="2">
         <v>9</v>
       </c>
       <c r="D61" s="3">
-        <v>26.142857142857</v>
+        <v>26</v>
       </c>
       <c r="E61" s="2">
-        <v>42445</v>
+        <v>42444</v>
       </c>
       <c r="F61" s="2">
         <v>734</v>
       </c>
       <c r="G61" s="4">
-        <v>0.028451492537</v>
+        <v>0.02830482115</v>
       </c>
     </row>
     <row r="62" spans="1:7">
@@ -1799,22 +1799,22 @@
         <v>43982</v>
       </c>
       <c r="B62" s="2">
-        <v>1585</v>
+        <v>1584</v>
       </c>
       <c r="C62" s="2">
         <v>5</v>
       </c>
       <c r="D62" s="3">
-        <v>25.857142857142</v>
+        <v>25.714285714285</v>
       </c>
       <c r="E62" s="2">
-        <v>42842</v>
+        <v>42840</v>
       </c>
       <c r="F62" s="2">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="G62" s="4">
-        <v>0.028114321217</v>
+        <v>0.027972027972</v>
       </c>
     </row>
     <row r="63" spans="1:7">
@@ -1822,22 +1822,22 @@
         <v>43983</v>
       </c>
       <c r="B63" s="2">
-        <v>1617</v>
+        <v>1616</v>
       </c>
       <c r="C63" s="2">
         <v>32</v>
       </c>
       <c r="D63" s="3">
-        <v>29.142857142857</v>
+        <v>29</v>
       </c>
       <c r="E63" s="2">
-        <v>44217</v>
+        <v>44215</v>
       </c>
       <c r="F63" s="2">
         <v>1375</v>
       </c>
       <c r="G63" s="4">
-        <v>0.02775132635</v>
+        <v>0.027626565051</v>
       </c>
     </row>
     <row r="64" spans="1:7">
@@ -1845,22 +1845,22 @@
         <v>43984</v>
       </c>
       <c r="B64" s="2">
-        <v>1648</v>
+        <v>1647</v>
       </c>
       <c r="C64" s="2">
         <v>31</v>
       </c>
       <c r="D64" s="3">
-        <v>28.142857142857</v>
+        <v>28</v>
       </c>
       <c r="E64" s="2">
-        <v>45434</v>
+        <v>45432</v>
       </c>
       <c r="F64" s="2">
         <v>1217</v>
       </c>
       <c r="G64" s="4">
-        <v>0.026726360059</v>
+        <v>0.026601520086</v>
       </c>
     </row>
     <row r="65" spans="1:7">
@@ -1868,22 +1868,22 @@
         <v>43985</v>
       </c>
       <c r="B65" s="2">
-        <v>1677</v>
+        <v>1676</v>
       </c>
       <c r="C65" s="2">
         <v>29</v>
       </c>
       <c r="D65" s="3">
-        <v>27.714285714285</v>
+        <v>27.571428571428</v>
       </c>
       <c r="E65" s="2">
-        <v>46597</v>
+        <v>46595</v>
       </c>
       <c r="F65" s="2">
         <v>1163</v>
       </c>
       <c r="G65" s="4">
-        <v>0.026131465517</v>
+        <v>0.026003772568</v>
       </c>
     </row>
     <row r="66" spans="1:7">
@@ -1891,22 +1891,22 @@
         <v>43986</v>
       </c>
       <c r="B66" s="2">
-        <v>1729</v>
+        <v>1728</v>
       </c>
       <c r="C66" s="2">
         <v>52</v>
       </c>
       <c r="D66" s="3">
-        <v>28.428571428571</v>
+        <v>28.285714285714</v>
       </c>
       <c r="E66" s="2">
-        <v>47948</v>
+        <v>47946</v>
       </c>
       <c r="F66" s="2">
         <v>1351</v>
       </c>
       <c r="G66" s="4">
-        <v>0.026050530174</v>
+        <v>0.025926410894</v>
       </c>
     </row>
     <row r="67" spans="1:7">
@@ -1914,7 +1914,7 @@
         <v>43987</v>
       </c>
       <c r="B67" s="2">
-        <v>1776</v>
+        <v>1775</v>
       </c>
       <c r="C67" s="2">
         <v>47</v>
@@ -1923,13 +1923,13 @@
         <v>29.285714285714</v>
       </c>
       <c r="E67" s="2">
-        <v>49578</v>
+        <v>49576</v>
       </c>
       <c r="F67" s="2">
         <v>1630</v>
       </c>
       <c r="G67" s="4">
-        <v>0.026058217872</v>
+        <v>0.026061530638</v>
       </c>
     </row>
     <row r="68" spans="1:7">
@@ -1937,7 +1937,7 @@
         <v>43988</v>
       </c>
       <c r="B68" s="2">
-        <v>1794</v>
+        <v>1793</v>
       </c>
       <c r="C68" s="2">
         <v>18</v>
@@ -1946,13 +1946,13 @@
         <v>30.571428571428</v>
       </c>
       <c r="E68" s="2">
-        <v>50183</v>
+        <v>50181</v>
       </c>
       <c r="F68" s="2">
         <v>605</v>
       </c>
       <c r="G68" s="4">
-        <v>0.027655724993</v>
+        <v>0.02765929947</v>
       </c>
     </row>
     <row r="69" spans="1:7">
@@ -1960,7 +1960,7 @@
         <v>43989</v>
       </c>
       <c r="B69" s="2">
-        <v>1812</v>
+        <v>1811</v>
       </c>
       <c r="C69" s="2">
         <v>18</v>
@@ -1969,7 +1969,7 @@
         <v>32.428571428571</v>
       </c>
       <c r="E69" s="2">
-        <v>50668</v>
+        <v>50666</v>
       </c>
       <c r="F69" s="2">
         <v>485</v>
@@ -1983,7 +1983,7 @@
         <v>43990</v>
       </c>
       <c r="B70" s="2">
-        <v>1860</v>
+        <v>1859</v>
       </c>
       <c r="C70" s="2">
         <v>48</v>
@@ -1992,7 +1992,7 @@
         <v>34.714285714285</v>
       </c>
       <c r="E70" s="2">
-        <v>52506</v>
+        <v>52504</v>
       </c>
       <c r="F70" s="2">
         <v>1838</v>
@@ -2006,7 +2006,7 @@
         <v>43991</v>
       </c>
       <c r="B71" s="2">
-        <v>1903</v>
+        <v>1902</v>
       </c>
       <c r="C71" s="2">
         <v>43</v>
@@ -2015,13 +2015,13 @@
         <v>36.428571428571</v>
       </c>
       <c r="E71" s="2">
-        <v>54353</v>
+        <v>54350</v>
       </c>
       <c r="F71" s="2">
-        <v>1847</v>
+        <v>1846</v>
       </c>
       <c r="G71" s="4">
-        <v>0.028590649175</v>
+        <v>0.028593855124</v>
       </c>
     </row>
     <row r="72" spans="1:7">
@@ -2029,7 +2029,7 @@
         <v>43992</v>
       </c>
       <c r="B72" s="2">
-        <v>1957</v>
+        <v>1956</v>
       </c>
       <c r="C72" s="2">
         <v>54</v>
@@ -2038,13 +2038,13 @@
         <v>40</v>
       </c>
       <c r="E72" s="2">
-        <v>56344</v>
+        <v>56341</v>
       </c>
       <c r="F72" s="2">
         <v>1991</v>
       </c>
       <c r="G72" s="4">
-        <v>0.028726787729</v>
+        <v>0.028729735276</v>
       </c>
     </row>
     <row r="73" spans="1:7">
@@ -2052,7 +2052,7 @@
         <v>43993</v>
       </c>
       <c r="B73" s="2">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="C73" s="2">
         <v>54</v>
@@ -2061,13 +2061,13 @@
         <v>40.285714285714</v>
       </c>
       <c r="E73" s="2">
-        <v>58499</v>
+        <v>58496</v>
       </c>
       <c r="F73" s="2">
         <v>2155</v>
       </c>
       <c r="G73" s="4">
-        <v>0.026727324424</v>
+        <v>0.026729857819</v>
       </c>
     </row>
     <row r="74" spans="1:7">
@@ -2075,7 +2075,7 @@
         <v>43994</v>
       </c>
       <c r="B74" s="2">
-        <v>2069</v>
+        <v>2068</v>
       </c>
       <c r="C74" s="2">
         <v>58</v>
@@ -2084,13 +2084,13 @@
         <v>41.857142857142</v>
       </c>
       <c r="E74" s="2">
-        <v>60760</v>
+        <v>60757</v>
       </c>
       <c r="F74" s="2">
         <v>2261</v>
       </c>
       <c r="G74" s="4">
-        <v>0.02620282597</v>
+        <v>0.026205169483</v>
       </c>
     </row>
     <row r="75" spans="1:7">
@@ -2098,7 +2098,7 @@
         <v>43995</v>
       </c>
       <c r="B75" s="2">
-        <v>2103</v>
+        <v>2102</v>
       </c>
       <c r="C75" s="2">
         <v>34</v>
@@ -2107,13 +2107,13 @@
         <v>44.142857142857</v>
       </c>
       <c r="E75" s="2">
-        <v>61603</v>
+        <v>61600</v>
       </c>
       <c r="F75" s="2">
         <v>843</v>
       </c>
       <c r="G75" s="4">
-        <v>0.027057793345</v>
+        <v>0.027060162886</v>
       </c>
     </row>
     <row r="76" spans="1:7">
@@ -2121,7 +2121,7 @@
         <v>43996</v>
       </c>
       <c r="B76" s="2">
-        <v>2130</v>
+        <v>2129</v>
       </c>
       <c r="C76" s="2">
         <v>27</v>
@@ -2130,13 +2130,13 @@
         <v>45.428571428571</v>
       </c>
       <c r="E76" s="2">
-        <v>62190</v>
+        <v>62187</v>
       </c>
       <c r="F76" s="2">
         <v>587</v>
       </c>
       <c r="G76" s="4">
-        <v>0.027599375108</v>
+        <v>0.027601770679</v>
       </c>
     </row>
     <row r="77" spans="1:7">
@@ -2144,7 +2144,7 @@
         <v>43997</v>
       </c>
       <c r="B77" s="2">
-        <v>2187</v>
+        <v>2186</v>
       </c>
       <c r="C77" s="2">
         <v>57</v>
@@ -2153,13 +2153,13 @@
         <v>46.714285714285</v>
       </c>
       <c r="E77" s="2">
-        <v>64411</v>
+        <v>64408</v>
       </c>
       <c r="F77" s="2">
         <v>2221</v>
       </c>
       <c r="G77" s="4">
-        <v>0.02746745065</v>
+        <v>0.027469758064</v>
       </c>
     </row>
     <row r="78" spans="1:7">
@@ -2167,7 +2167,7 @@
         <v>43998</v>
       </c>
       <c r="B78" s="2">
-        <v>2271</v>
+        <v>2270</v>
       </c>
       <c r="C78" s="2">
         <v>84</v>
@@ -2176,7 +2176,7 @@
         <v>52.571428571428</v>
       </c>
       <c r="E78" s="2">
-        <v>66934</v>
+        <v>66931</v>
       </c>
       <c r="F78" s="2">
         <v>2523</v>
@@ -2190,7 +2190,7 @@
         <v>43999</v>
       </c>
       <c r="B79" s="2">
-        <v>2358</v>
+        <v>2357</v>
       </c>
       <c r="C79" s="2">
         <v>87</v>
@@ -2199,7 +2199,7 @@
         <v>57.285714285714</v>
       </c>
       <c r="E79" s="2">
-        <v>69506</v>
+        <v>69503</v>
       </c>
       <c r="F79" s="2">
         <v>2572</v>
@@ -2213,7 +2213,7 @@
         <v>44000</v>
       </c>
       <c r="B80" s="2">
-        <v>2449</v>
+        <v>2448</v>
       </c>
       <c r="C80" s="2">
         <v>91</v>
@@ -2222,7 +2222,7 @@
         <v>62.57142857142801</v>
       </c>
       <c r="E80" s="2">
-        <v>72036</v>
+        <v>72033</v>
       </c>
       <c r="F80" s="2">
         <v>2530</v>
@@ -2236,7 +2236,7 @@
         <v>44001</v>
       </c>
       <c r="B81" s="2">
-        <v>2551</v>
+        <v>2550</v>
       </c>
       <c r="C81" s="2">
         <v>102</v>
@@ -2245,7 +2245,7 @@
         <v>68.85714285714199</v>
       </c>
       <c r="E81" s="2">
-        <v>74479</v>
+        <v>74476</v>
       </c>
       <c r="F81" s="2">
         <v>2443</v>
@@ -2259,7 +2259,7 @@
         <v>44002</v>
       </c>
       <c r="B82" s="2">
-        <v>2603</v>
+        <v>2602</v>
       </c>
       <c r="C82" s="2">
         <v>52</v>
@@ -2268,13 +2268,13 @@
         <v>71.428571428571</v>
       </c>
       <c r="E82" s="2">
-        <v>75431</v>
+        <v>75429</v>
       </c>
       <c r="F82" s="2">
-        <v>952</v>
+        <v>953</v>
       </c>
       <c r="G82" s="4">
-        <v>0.036158518947</v>
+        <v>0.036155904259</v>
       </c>
     </row>
     <row r="83" spans="1:7">
@@ -2282,7 +2282,7 @@
         <v>44003</v>
       </c>
       <c r="B83" s="2">
-        <v>2643</v>
+        <v>2642</v>
       </c>
       <c r="C83" s="2">
         <v>40</v>
@@ -2291,13 +2291,13 @@
         <v>73.28571428571399</v>
       </c>
       <c r="E83" s="2">
-        <v>76129</v>
+        <v>76127</v>
       </c>
       <c r="F83" s="2">
         <v>698</v>
       </c>
       <c r="G83" s="4">
-        <v>0.036803214003</v>
+        <v>0.036800573888</v>
       </c>
     </row>
     <row r="84" spans="1:7">
@@ -2305,7 +2305,7 @@
         <v>44004</v>
       </c>
       <c r="B84" s="2">
-        <v>2754</v>
+        <v>2753</v>
       </c>
       <c r="C84" s="2">
         <v>111</v>
@@ -2314,13 +2314,13 @@
         <v>81</v>
       </c>
       <c r="E84" s="2">
-        <v>78747</v>
+        <v>78745</v>
       </c>
       <c r="F84" s="2">
         <v>2618</v>
       </c>
       <c r="G84" s="4">
-        <v>0.03955078125</v>
+        <v>0.039548022598</v>
       </c>
     </row>
     <row r="85" spans="1:7">
@@ -2328,7 +2328,7 @@
         <v>44005</v>
       </c>
       <c r="B85" s="2">
-        <v>2887</v>
+        <v>2886</v>
       </c>
       <c r="C85" s="2">
         <v>133</v>
@@ -2337,13 +2337,13 @@
         <v>88</v>
       </c>
       <c r="E85" s="2">
-        <v>81533</v>
+        <v>81531</v>
       </c>
       <c r="F85" s="2">
         <v>2786</v>
       </c>
       <c r="G85" s="4">
-        <v>0.042194670867</v>
+        <v>0.042191780821</v>
       </c>
     </row>
     <row r="86" spans="1:7">
@@ -2351,7 +2351,7 @@
         <v>44006</v>
       </c>
       <c r="B86" s="2">
-        <v>3030</v>
+        <v>3029</v>
       </c>
       <c r="C86" s="2">
         <v>143</v>
@@ -2360,13 +2360,13 @@
         <v>96</v>
       </c>
       <c r="E86" s="2">
-        <v>84565</v>
+        <v>84564</v>
       </c>
       <c r="F86" s="2">
-        <v>3032</v>
+        <v>3033</v>
       </c>
       <c r="G86" s="4">
-        <v>0.044624477056</v>
+        <v>0.044618551225</v>
       </c>
     </row>
     <row r="87" spans="1:7">
@@ -2374,7 +2374,7 @@
         <v>44007</v>
       </c>
       <c r="B87" s="2">
-        <v>3182</v>
+        <v>3181</v>
       </c>
       <c r="C87" s="2">
         <v>152</v>
@@ -2383,13 +2383,13 @@
         <v>104.714285714285</v>
       </c>
       <c r="E87" s="2">
-        <v>87926</v>
+        <v>87928</v>
       </c>
       <c r="F87" s="2">
-        <v>3361</v>
+        <v>3364</v>
       </c>
       <c r="G87" s="4">
-        <v>0.046129641283</v>
+        <v>0.046115130544</v>
       </c>
     </row>
     <row r="88" spans="1:7">
@@ -2397,7 +2397,7 @@
         <v>44008</v>
       </c>
       <c r="B88" s="2">
-        <v>3352</v>
+        <v>3351</v>
       </c>
       <c r="C88" s="2">
         <v>170</v>
@@ -2406,13 +2406,13 @@
         <v>114.428571428571</v>
       </c>
       <c r="E88" s="2">
-        <v>90896</v>
+        <v>90898</v>
       </c>
       <c r="F88" s="2">
         <v>2970</v>
       </c>
       <c r="G88" s="4">
-        <v>0.048790887494</v>
+        <v>0.048776032151</v>
       </c>
     </row>
     <row r="89" spans="1:7">
@@ -2420,7 +2420,7 @@
         <v>44009</v>
       </c>
       <c r="B89" s="2">
-        <v>3432</v>
+        <v>3431</v>
       </c>
       <c r="C89" s="2">
         <v>80</v>
@@ -2429,13 +2429,13 @@
         <v>118.428571428571</v>
       </c>
       <c r="E89" s="2">
-        <v>91970</v>
+        <v>91972</v>
       </c>
       <c r="F89" s="2">
         <v>1074</v>
       </c>
       <c r="G89" s="4">
-        <v>0.050123949452</v>
+        <v>0.050111829776</v>
       </c>
     </row>
     <row r="90" spans="1:7">
@@ -2443,7 +2443,7 @@
         <v>44010</v>
       </c>
       <c r="B90" s="2">
-        <v>3491</v>
+        <v>3490</v>
       </c>
       <c r="C90" s="2">
         <v>59</v>
@@ -2452,13 +2452,13 @@
         <v>121.142857142857</v>
       </c>
       <c r="E90" s="2">
-        <v>92766</v>
+        <v>92768</v>
       </c>
       <c r="F90" s="2">
         <v>796</v>
       </c>
       <c r="G90" s="4">
-        <v>0.050970727895</v>
+        <v>0.050958476053</v>
       </c>
     </row>
     <row r="91" spans="1:7">
@@ -2466,7 +2466,7 @@
         <v>44011</v>
       </c>
       <c r="B91" s="2">
-        <v>3688</v>
+        <v>3687</v>
       </c>
       <c r="C91" s="2">
         <v>197</v>
@@ -2475,13 +2475,13 @@
         <v>133.428571428571</v>
       </c>
       <c r="E91" s="2">
-        <v>96449</v>
+        <v>96451</v>
       </c>
       <c r="F91" s="2">
         <v>3683</v>
       </c>
       <c r="G91" s="4">
-        <v>0.052762399728</v>
+        <v>0.052750480063</v>
       </c>
     </row>
     <row r="92" spans="1:7">
@@ -2489,7 +2489,7 @@
         <v>44012</v>
       </c>
       <c r="B92" s="2">
-        <v>3846</v>
+        <v>3845</v>
       </c>
       <c r="C92" s="2">
         <v>158</v>
@@ -2498,13 +2498,13 @@
         <v>137</v>
       </c>
       <c r="E92" s="2">
-        <v>99932</v>
+        <v>99935</v>
       </c>
       <c r="F92" s="2">
-        <v>3483</v>
+        <v>3484</v>
       </c>
       <c r="G92" s="4">
-        <v>0.052122397956</v>
+        <v>0.052108237339</v>
       </c>
     </row>
     <row r="93" spans="1:7">
@@ -2512,7 +2512,7 @@
         <v>44013</v>
       </c>
       <c r="B93" s="2">
-        <v>4019</v>
+        <v>4018</v>
       </c>
       <c r="C93" s="2">
         <v>173</v>
@@ -2521,13 +2521,13 @@
         <v>141.285714285714</v>
       </c>
       <c r="E93" s="2">
-        <v>103475</v>
+        <v>103478</v>
       </c>
       <c r="F93" s="2">
         <v>3543</v>
       </c>
       <c r="G93" s="4">
-        <v>0.052300370174</v>
+        <v>0.052289309506</v>
       </c>
     </row>
     <row r="94" spans="1:7">
@@ -2535,7 +2535,7 @@
         <v>44014</v>
       </c>
       <c r="B94" s="2">
-        <v>4231</v>
+        <v>4230</v>
       </c>
       <c r="C94" s="2">
         <v>212</v>
@@ -2544,13 +2544,13 @@
         <v>149.857142857142</v>
       </c>
       <c r="E94" s="2">
-        <v>107399</v>
+        <v>107402</v>
       </c>
       <c r="F94" s="2">
         <v>3924</v>
       </c>
       <c r="G94" s="4">
-        <v>0.053869460278</v>
+        <v>0.053866694053</v>
       </c>
     </row>
     <row r="95" spans="1:7">
@@ -2558,7 +2558,7 @@
         <v>44015</v>
       </c>
       <c r="B95" s="2">
-        <v>4375</v>
+        <v>4374</v>
       </c>
       <c r="C95" s="2">
         <v>144</v>
@@ -2567,13 +2567,13 @@
         <v>146.142857142857</v>
       </c>
       <c r="E95" s="2">
-        <v>110040</v>
+        <v>110043</v>
       </c>
       <c r="F95" s="2">
         <v>2641</v>
       </c>
       <c r="G95" s="4">
-        <v>0.053437108232</v>
+        <v>0.053434317054</v>
       </c>
     </row>
     <row r="96" spans="1:7">
@@ -2581,7 +2581,7 @@
         <v>44016</v>
       </c>
       <c r="B96" s="2">
-        <v>4468</v>
+        <v>4467</v>
       </c>
       <c r="C96" s="2">
         <v>93</v>
@@ -2590,13 +2590,13 @@
         <v>148</v>
       </c>
       <c r="E96" s="2">
-        <v>111157</v>
+        <v>111160</v>
       </c>
       <c r="F96" s="2">
         <v>1117</v>
       </c>
       <c r="G96" s="4">
-        <v>0.053994892375</v>
+        <v>0.053992078382</v>
       </c>
     </row>
     <row r="97" spans="1:7">
@@ -2604,7 +2604,7 @@
         <v>44017</v>
       </c>
       <c r="B97" s="2">
-        <v>4554</v>
+        <v>4553</v>
       </c>
       <c r="C97" s="2">
         <v>86</v>
@@ -2613,13 +2613,13 @@
         <v>151.857142857142</v>
       </c>
       <c r="E97" s="2">
-        <v>112286</v>
+        <v>112289</v>
       </c>
       <c r="F97" s="2">
         <v>1129</v>
       </c>
       <c r="G97" s="4">
-        <v>0.054456967213</v>
+        <v>0.054454177552</v>
       </c>
     </row>
     <row r="98" spans="1:7">
@@ -2627,7 +2627,7 @@
         <v>44018</v>
       </c>
       <c r="B98" s="2">
-        <v>4758</v>
+        <v>4757</v>
       </c>
       <c r="C98" s="2">
         <v>204</v>
@@ -2636,13 +2636,13 @@
         <v>152.857142857142</v>
       </c>
       <c r="E98" s="2">
-        <v>116365</v>
+        <v>116368</v>
       </c>
       <c r="F98" s="2">
         <v>4079</v>
       </c>
       <c r="G98" s="4">
-        <v>0.05372564772</v>
+        <v>0.053722950243</v>
       </c>
     </row>
     <row r="99" spans="1:7">
@@ -2650,7 +2650,7 @@
         <v>44019</v>
       </c>
       <c r="B99" s="2">
-        <v>4974</v>
+        <v>4973</v>
       </c>
       <c r="C99" s="2">
         <v>216</v>
@@ -2659,7 +2659,7 @@
         <v>161.142857142857</v>
       </c>
       <c r="E99" s="2">
-        <v>120448</v>
+        <v>120451</v>
       </c>
       <c r="F99" s="2">
         <v>4083</v>
@@ -2673,7 +2673,7 @@
         <v>44020</v>
       </c>
       <c r="B100" s="2">
-        <v>5199</v>
+        <v>5198</v>
       </c>
       <c r="C100" s="2">
         <v>225</v>
@@ -2682,7 +2682,7 @@
         <v>168.571428571428</v>
       </c>
       <c r="E100" s="2">
-        <v>124712</v>
+        <v>124715</v>
       </c>
       <c r="F100" s="2">
         <v>4264</v>
@@ -2696,7 +2696,7 @@
         <v>44021</v>
       </c>
       <c r="B101" s="2">
-        <v>5451</v>
+        <v>5450</v>
       </c>
       <c r="C101" s="2">
         <v>252</v>
@@ -2705,7 +2705,7 @@
         <v>174.285714285714</v>
       </c>
       <c r="E101" s="2">
-        <v>129315</v>
+        <v>129318</v>
       </c>
       <c r="F101" s="2">
         <v>4603</v>
@@ -2719,7 +2719,7 @@
         <v>44022</v>
       </c>
       <c r="B102" s="2">
-        <v>5697</v>
+        <v>5696</v>
       </c>
       <c r="C102" s="2">
         <v>246</v>
@@ -2728,7 +2728,7 @@
         <v>188.857142857142</v>
       </c>
       <c r="E102" s="2">
-        <v>133778</v>
+        <v>133781</v>
       </c>
       <c r="F102" s="2">
         <v>4463</v>
@@ -2742,7 +2742,7 @@
         <v>44023</v>
       </c>
       <c r="B103" s="2">
-        <v>5837</v>
+        <v>5836</v>
       </c>
       <c r="C103" s="2">
         <v>140</v>
@@ -2751,7 +2751,7 @@
         <v>195.571428571428</v>
       </c>
       <c r="E103" s="2">
-        <v>135853</v>
+        <v>135856</v>
       </c>
       <c r="F103" s="2">
         <v>2075</v>
@@ -2765,7 +2765,7 @@
         <v>44024</v>
       </c>
       <c r="B104" s="2">
-        <v>5938</v>
+        <v>5937</v>
       </c>
       <c r="C104" s="2">
         <v>101</v>
@@ -2774,7 +2774,7 @@
         <v>197.714285714285</v>
       </c>
       <c r="E104" s="2">
-        <v>137179</v>
+        <v>137182</v>
       </c>
       <c r="F104" s="2">
         <v>1326</v>
@@ -2788,7 +2788,7 @@
         <v>44025</v>
       </c>
       <c r="B105" s="2">
-        <v>6199</v>
+        <v>6198</v>
       </c>
       <c r="C105" s="2">
         <v>261</v>
@@ -2797,7 +2797,7 @@
         <v>205.857142857142</v>
       </c>
       <c r="E105" s="2">
-        <v>141785</v>
+        <v>141788</v>
       </c>
       <c r="F105" s="2">
         <v>4606</v>
@@ -2811,7 +2811,7 @@
         <v>44026</v>
       </c>
       <c r="B106" s="2">
-        <v>6454</v>
+        <v>6453</v>
       </c>
       <c r="C106" s="2">
         <v>255</v>
@@ -2820,7 +2820,7 @@
         <v>211.428571428571</v>
       </c>
       <c r="E106" s="2">
-        <v>145553</v>
+        <v>145556</v>
       </c>
       <c r="F106" s="2">
         <v>3768</v>
@@ -2834,7 +2834,7 @@
         <v>44027</v>
       </c>
       <c r="B107" s="2">
-        <v>6714</v>
+        <v>6713</v>
       </c>
       <c r="C107" s="2">
         <v>260</v>
@@ -2843,7 +2843,7 @@
         <v>216.428571428571</v>
       </c>
       <c r="E107" s="2">
-        <v>149902</v>
+        <v>149905</v>
       </c>
       <c r="F107" s="2">
         <v>4349</v>
@@ -2857,7 +2857,7 @@
         <v>44028</v>
       </c>
       <c r="B108" s="2">
-        <v>6970</v>
+        <v>6969</v>
       </c>
       <c r="C108" s="2">
         <v>256</v>
@@ -2866,7 +2866,7 @@
         <v>217</v>
       </c>
       <c r="E108" s="2">
-        <v>154092</v>
+        <v>154095</v>
       </c>
       <c r="F108" s="2">
         <v>4190</v>
@@ -2880,7 +2880,7 @@
         <v>44029</v>
       </c>
       <c r="B109" s="2">
-        <v>7220</v>
+        <v>7219</v>
       </c>
       <c r="C109" s="2">
         <v>250</v>
@@ -2889,7 +2889,7 @@
         <v>217.571428571428</v>
       </c>
       <c r="E109" s="2">
-        <v>158298</v>
+        <v>158301</v>
       </c>
       <c r="F109" s="2">
         <v>4206</v>
@@ -2903,7 +2903,7 @@
         <v>44030</v>
       </c>
       <c r="B110" s="2">
-        <v>7349</v>
+        <v>7348</v>
       </c>
       <c r="C110" s="2">
         <v>129</v>
@@ -2912,7 +2912,7 @@
         <v>216</v>
       </c>
       <c r="E110" s="2">
-        <v>160526</v>
+        <v>160529</v>
       </c>
       <c r="F110" s="2">
         <v>2228</v>
@@ -2926,7 +2926,7 @@
         <v>44031</v>
       </c>
       <c r="B111" s="2">
-        <v>7448</v>
+        <v>7447</v>
       </c>
       <c r="C111" s="2">
         <v>99</v>
@@ -2935,7 +2935,7 @@
         <v>215.714285714285</v>
       </c>
       <c r="E111" s="2">
-        <v>161785</v>
+        <v>161788</v>
       </c>
       <c r="F111" s="2">
         <v>1259</v>
@@ -2949,7 +2949,7 @@
         <v>44032</v>
       </c>
       <c r="B112" s="2">
-        <v>7739</v>
+        <v>7738</v>
       </c>
       <c r="C112" s="2">
         <v>291</v>
@@ -2958,7 +2958,7 @@
         <v>220</v>
       </c>
       <c r="E112" s="2">
-        <v>166037</v>
+        <v>166040</v>
       </c>
       <c r="F112" s="2">
         <v>4252</v>
@@ -2975,19 +2975,19 @@
         <v>7979</v>
       </c>
       <c r="C113" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D113" s="3">
-        <v>217.857142857142</v>
+        <v>218</v>
       </c>
       <c r="E113" s="2">
-        <v>169877</v>
+        <v>169881</v>
       </c>
       <c r="F113" s="2">
-        <v>3840</v>
+        <v>3841</v>
       </c>
       <c r="G113" s="4">
-        <v>0.062695280381</v>
+        <v>0.062733812949</v>
       </c>
     </row>
     <row r="114" spans="1:7">
@@ -2995,22 +2995,22 @@
         <v>44034</v>
       </c>
       <c r="B114" s="2">
-        <v>8228</v>
+        <v>8229</v>
       </c>
       <c r="C114" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="D114" s="3">
-        <v>216.285714285714</v>
+        <v>216.571428571428</v>
       </c>
       <c r="E114" s="2">
-        <v>173541</v>
+        <v>173546</v>
       </c>
       <c r="F114" s="2">
-        <v>3664</v>
+        <v>3665</v>
       </c>
       <c r="G114" s="4">
-        <v>0.064046702483</v>
+        <v>0.064125882999</v>
       </c>
     </row>
     <row r="115" spans="1:7">
@@ -3018,22 +3018,22 @@
         <v>44035</v>
       </c>
       <c r="B115" s="2">
-        <v>8460</v>
+        <v>8462</v>
       </c>
       <c r="C115" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="D115" s="3">
-        <v>212.857142857142</v>
+        <v>213.285714285714</v>
       </c>
       <c r="E115" s="2">
-        <v>176872</v>
+        <v>176878</v>
       </c>
       <c r="F115" s="2">
-        <v>3331</v>
+        <v>3332</v>
       </c>
       <c r="G115" s="4">
-        <v>0.065408252853</v>
+        <v>0.06553131721</v>
       </c>
     </row>
     <row r="116" spans="1:7">
@@ -3041,22 +3041,22 @@
         <v>44036</v>
       </c>
       <c r="B116" s="2">
-        <v>8679</v>
+        <v>8682</v>
       </c>
       <c r="C116" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="D116" s="3">
-        <v>208.428571428571</v>
+        <v>209</v>
       </c>
       <c r="E116" s="2">
-        <v>180551</v>
+        <v>180558</v>
       </c>
       <c r="F116" s="2">
-        <v>3679</v>
+        <v>3680</v>
       </c>
       <c r="G116" s="4">
-        <v>0.06556419359100001</v>
+        <v>0.065732129217</v>
       </c>
     </row>
     <row r="117" spans="1:7">
@@ -3064,22 +3064,22 @@
         <v>44037</v>
       </c>
       <c r="B117" s="2">
-        <v>8791</v>
+        <v>8796</v>
       </c>
       <c r="C117" s="2">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="D117" s="3">
-        <v>206</v>
+        <v>206.857142857142</v>
       </c>
       <c r="E117" s="2">
-        <v>182184</v>
+        <v>182194</v>
       </c>
       <c r="F117" s="2">
-        <v>1633</v>
+        <v>1636</v>
       </c>
       <c r="G117" s="4">
-        <v>0.066580478345</v>
+        <v>0.066835910454</v>
       </c>
     </row>
     <row r="118" spans="1:7">
@@ -3087,22 +3087,22 @@
         <v>44038</v>
       </c>
       <c r="B118" s="2">
-        <v>8894</v>
+        <v>8899</v>
       </c>
       <c r="C118" s="2">
         <v>103</v>
       </c>
       <c r="D118" s="3">
-        <v>206.571428571428</v>
+        <v>207.428571428571</v>
       </c>
       <c r="E118" s="2">
-        <v>183437</v>
+        <v>183448</v>
       </c>
       <c r="F118" s="2">
-        <v>1253</v>
+        <v>1254</v>
       </c>
       <c r="G118" s="4">
-        <v>0.066783668945</v>
+        <v>0.06703601108</v>
       </c>
     </row>
     <row r="119" spans="1:7">
@@ -3110,22 +3110,22 @@
         <v>44039</v>
       </c>
       <c r="B119" s="2">
-        <v>9137</v>
+        <v>9143</v>
       </c>
       <c r="C119" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="D119" s="3">
-        <v>199.714285714285</v>
+        <v>200.714285714285</v>
       </c>
       <c r="E119" s="2">
-        <v>187621</v>
+        <v>187633</v>
       </c>
       <c r="F119" s="2">
-        <v>4184</v>
+        <v>4185</v>
       </c>
       <c r="G119" s="4">
-        <v>0.064770200148</v>
+        <v>0.065067382948</v>
       </c>
     </row>
     <row r="120" spans="1:7">
@@ -3133,22 +3133,22 @@
         <v>44040</v>
       </c>
       <c r="B120" s="2">
-        <v>9392</v>
+        <v>9402</v>
       </c>
       <c r="C120" s="2">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="D120" s="3">
-        <v>201.857142857142</v>
+        <v>203.285714285714</v>
       </c>
       <c r="E120" s="2">
-        <v>191556</v>
+        <v>191573</v>
       </c>
       <c r="F120" s="2">
-        <v>3935</v>
+        <v>3940</v>
       </c>
       <c r="G120" s="4">
-        <v>0.06517828313100001</v>
+        <v>0.065600221279</v>
       </c>
     </row>
     <row r="121" spans="1:7">
@@ -3156,22 +3156,22 @@
         <v>44041</v>
       </c>
       <c r="B121" s="2">
-        <v>9644</v>
+        <v>9655</v>
       </c>
       <c r="C121" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="D121" s="3">
-        <v>202.285714285714</v>
+        <v>203.714285714285</v>
       </c>
       <c r="E121" s="2">
-        <v>195421</v>
+        <v>195439</v>
       </c>
       <c r="F121" s="2">
-        <v>3865</v>
+        <v>3866</v>
       </c>
       <c r="G121" s="4">
-        <v>0.06471663619699999</v>
+        <v>0.065134974649</v>
       </c>
     </row>
     <row r="122" spans="1:7">
@@ -3179,22 +3179,22 @@
         <v>44042</v>
       </c>
       <c r="B122" s="2">
-        <v>9862</v>
+        <v>9874</v>
       </c>
       <c r="C122" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="D122" s="3">
-        <v>200.285714285714</v>
+        <v>201.714285714285</v>
       </c>
       <c r="E122" s="2">
-        <v>199096</v>
+        <v>199115</v>
       </c>
       <c r="F122" s="2">
-        <v>3675</v>
+        <v>3676</v>
       </c>
       <c r="G122" s="4">
-        <v>0.063084953203</v>
+        <v>0.06349777398000001</v>
       </c>
     </row>
     <row r="123" spans="1:7">
@@ -3202,22 +3202,22 @@
         <v>44043</v>
       </c>
       <c r="B123" s="2">
-        <v>10095</v>
+        <v>10109</v>
       </c>
       <c r="C123" s="2">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="D123" s="3">
-        <v>202.285714285714</v>
+        <v>203.857142857142</v>
       </c>
       <c r="E123" s="2">
-        <v>202645</v>
+        <v>202667</v>
       </c>
       <c r="F123" s="2">
-        <v>3549</v>
+        <v>3552</v>
       </c>
       <c r="G123" s="4">
-        <v>0.064089798135</v>
+        <v>0.06454385092000001</v>
       </c>
     </row>
     <row r="124" spans="1:7">
@@ -3225,22 +3225,22 @@
         <v>44044</v>
       </c>
       <c r="B124" s="2">
-        <v>10203</v>
+        <v>10217</v>
       </c>
       <c r="C124" s="2">
         <v>108</v>
       </c>
       <c r="D124" s="3">
-        <v>201.714285714285</v>
+        <v>203</v>
       </c>
       <c r="E124" s="2">
-        <v>204314</v>
+        <v>204336</v>
       </c>
       <c r="F124" s="2">
         <v>1669</v>
       </c>
       <c r="G124" s="4">
-        <v>0.063804789877</v>
+        <v>0.064176677806</v>
       </c>
     </row>
     <row r="125" spans="1:7">
@@ -3248,22 +3248,22 @@
         <v>44045</v>
       </c>
       <c r="B125" s="2">
-        <v>10282</v>
+        <v>10296</v>
       </c>
       <c r="C125" s="2">
         <v>79</v>
       </c>
       <c r="D125" s="3">
-        <v>198.285714285714</v>
+        <v>199.571428571428</v>
       </c>
       <c r="E125" s="2">
-        <v>205463</v>
+        <v>205485</v>
       </c>
       <c r="F125" s="2">
         <v>1149</v>
       </c>
       <c r="G125" s="4">
-        <v>0.063016435122</v>
+        <v>0.06339338385399999</v>
       </c>
     </row>
     <row r="126" spans="1:7">
@@ -3271,22 +3271,22 @@
         <v>44046</v>
       </c>
       <c r="B126" s="2">
-        <v>10537</v>
+        <v>10552</v>
       </c>
       <c r="C126" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="D126" s="3">
-        <v>200</v>
+        <v>201.285714285714</v>
       </c>
       <c r="E126" s="2">
-        <v>209339</v>
+        <v>209362</v>
       </c>
       <c r="F126" s="2">
-        <v>3876</v>
+        <v>3877</v>
       </c>
       <c r="G126" s="4">
-        <v>0.064462657703</v>
+        <v>0.064844217405</v>
       </c>
     </row>
     <row r="127" spans="1:7">
@@ -3294,22 +3294,22 @@
         <v>44047</v>
       </c>
       <c r="B127" s="2">
-        <v>10771</v>
+        <v>10791</v>
       </c>
       <c r="C127" s="2">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="D127" s="3">
-        <v>197</v>
+        <v>198.428571428571</v>
       </c>
       <c r="E127" s="2">
-        <v>212665</v>
+        <v>212693</v>
       </c>
       <c r="F127" s="2">
-        <v>3326</v>
+        <v>3331</v>
       </c>
       <c r="G127" s="4">
-        <v>0.06532758539</v>
+        <v>0.065767045454</v>
       </c>
     </row>
     <row r="128" spans="1:7">
@@ -3317,22 +3317,22 @@
         <v>44048</v>
       </c>
       <c r="B128" s="2">
-        <v>10971</v>
+        <v>10992</v>
       </c>
       <c r="C128" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D128" s="3">
-        <v>189.571428571428</v>
+        <v>191</v>
       </c>
       <c r="E128" s="2">
-        <v>215941</v>
+        <v>215970</v>
       </c>
       <c r="F128" s="2">
-        <v>3276</v>
+        <v>3277</v>
       </c>
       <c r="G128" s="4">
-        <v>0.06466861598400001</v>
+        <v>0.065121036481</v>
       </c>
     </row>
     <row r="129" spans="1:7">
@@ -3340,22 +3340,22 @@
         <v>44049</v>
       </c>
       <c r="B129" s="2">
-        <v>11171</v>
+        <v>11192</v>
       </c>
       <c r="C129" s="2">
         <v>200</v>
       </c>
       <c r="D129" s="3">
-        <v>187</v>
+        <v>188.285714285714</v>
       </c>
       <c r="E129" s="2">
-        <v>219608</v>
+        <v>219637</v>
       </c>
       <c r="F129" s="2">
         <v>3667</v>
       </c>
       <c r="G129" s="4">
-        <v>0.063816302652</v>
+        <v>0.064223759867</v>
       </c>
     </row>
     <row r="130" spans="1:7">
@@ -3363,22 +3363,22 @@
         <v>44050</v>
       </c>
       <c r="B130" s="2">
-        <v>11355</v>
+        <v>11377</v>
       </c>
       <c r="C130" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D130" s="3">
-        <v>180</v>
+        <v>181.142857142857</v>
       </c>
       <c r="E130" s="2">
-        <v>222938</v>
+        <v>222969</v>
       </c>
       <c r="F130" s="2">
-        <v>3330</v>
+        <v>3332</v>
       </c>
       <c r="G130" s="4">
-        <v>0.062090375991</v>
+        <v>0.062456900797</v>
       </c>
     </row>
     <row r="131" spans="1:7">
@@ -3386,22 +3386,22 @@
         <v>44051</v>
       </c>
       <c r="B131" s="2">
-        <v>11475</v>
+        <v>11497</v>
       </c>
       <c r="C131" s="2">
         <v>120</v>
       </c>
       <c r="D131" s="3">
-        <v>181.714285714285</v>
+        <v>182.857142857142</v>
       </c>
       <c r="E131" s="2">
-        <v>224647</v>
+        <v>224678</v>
       </c>
       <c r="F131" s="2">
         <v>1709</v>
       </c>
       <c r="G131" s="4">
-        <v>0.062558402596</v>
+        <v>0.06292399960599999</v>
       </c>
     </row>
     <row r="132" spans="1:7">
@@ -3409,22 +3409,22 @@
         <v>44052</v>
       </c>
       <c r="B132" s="2">
-        <v>11560</v>
+        <v>11582</v>
       </c>
       <c r="C132" s="2">
         <v>85</v>
       </c>
       <c r="D132" s="3">
-        <v>182.571428571428</v>
+        <v>183.714285714285</v>
       </c>
       <c r="E132" s="2">
-        <v>225712</v>
+        <v>225743</v>
       </c>
       <c r="F132" s="2">
         <v>1065</v>
       </c>
       <c r="G132" s="4">
-        <v>0.063114227863</v>
+        <v>0.063481093888</v>
       </c>
     </row>
     <row r="133" spans="1:7">
@@ -3432,22 +3432,22 @@
         <v>44053</v>
       </c>
       <c r="B133" s="2">
-        <v>11797</v>
+        <v>11820</v>
       </c>
       <c r="C133" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="D133" s="3">
-        <v>180</v>
+        <v>181.142857142857</v>
       </c>
       <c r="E133" s="2">
-        <v>229612</v>
+        <v>229645</v>
       </c>
       <c r="F133" s="2">
-        <v>3900</v>
+        <v>3902</v>
       </c>
       <c r="G133" s="4">
-        <v>0.062151630247</v>
+        <v>0.062515406991</v>
       </c>
     </row>
     <row r="134" spans="1:7">
@@ -3455,22 +3455,22 @@
         <v>44054</v>
       </c>
       <c r="B134" s="2">
-        <v>11997</v>
+        <v>12020</v>
       </c>
       <c r="C134" s="2">
         <v>200</v>
       </c>
       <c r="D134" s="3">
-        <v>175.142857142857</v>
+        <v>175.571428571428</v>
       </c>
       <c r="E134" s="2">
-        <v>233032</v>
+        <v>233065</v>
       </c>
       <c r="F134" s="2">
         <v>3420</v>
       </c>
       <c r="G134" s="4">
-        <v>0.06019541415</v>
+        <v>0.06032790104</v>
       </c>
     </row>
     <row r="135" spans="1:7">
@@ -3478,22 +3478,22 @@
         <v>44055</v>
       </c>
       <c r="B135" s="2">
-        <v>12196</v>
+        <v>12220</v>
       </c>
       <c r="C135" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D135" s="3">
-        <v>175</v>
+        <v>175.428571428571</v>
       </c>
       <c r="E135" s="2">
-        <v>236893</v>
+        <v>236929</v>
       </c>
       <c r="F135" s="2">
-        <v>3861</v>
+        <v>3864</v>
       </c>
       <c r="G135" s="4">
-        <v>0.058466972126</v>
+        <v>0.058590581611</v>
       </c>
     </row>
     <row r="136" spans="1:7">
@@ -3501,22 +3501,22 @@
         <v>44056</v>
       </c>
       <c r="B136" s="2">
-        <v>12371</v>
+        <v>12395</v>
       </c>
       <c r="C136" s="2">
         <v>175</v>
       </c>
       <c r="D136" s="3">
-        <v>171.428571428571</v>
+        <v>171.857142857142</v>
       </c>
       <c r="E136" s="2">
-        <v>240162</v>
+        <v>240198</v>
       </c>
       <c r="F136" s="2">
         <v>3269</v>
       </c>
       <c r="G136" s="4">
-        <v>0.058382796535</v>
+        <v>0.058508827391</v>
       </c>
     </row>
     <row r="137" spans="1:7">
@@ -3524,22 +3524,22 @@
         <v>44057</v>
       </c>
       <c r="B137" s="2">
-        <v>12546</v>
+        <v>12570</v>
       </c>
       <c r="C137" s="2">
         <v>175</v>
       </c>
       <c r="D137" s="3">
-        <v>170.142857142857</v>
+        <v>170.428571428571</v>
       </c>
       <c r="E137" s="2">
-        <v>243524</v>
+        <v>243560</v>
       </c>
       <c r="F137" s="2">
         <v>3362</v>
       </c>
       <c r="G137" s="4">
-        <v>0.057854852812</v>
+        <v>0.057937934048</v>
       </c>
     </row>
     <row r="138" spans="1:7">
@@ -3547,22 +3547,22 @@
         <v>44058</v>
       </c>
       <c r="B138" s="2">
-        <v>12639</v>
+        <v>12663</v>
       </c>
       <c r="C138" s="2">
         <v>93</v>
       </c>
       <c r="D138" s="3">
-        <v>166.285714285714</v>
+        <v>166.571428571428</v>
       </c>
       <c r="E138" s="2">
-        <v>245087</v>
+        <v>245123</v>
       </c>
       <c r="F138" s="2">
         <v>1563</v>
       </c>
       <c r="G138" s="4">
-        <v>0.056947162426</v>
+        <v>0.057031058938</v>
       </c>
     </row>
     <row r="139" spans="1:7">
@@ -3570,22 +3570,22 @@
         <v>44059</v>
       </c>
       <c r="B139" s="2">
-        <v>12684</v>
+        <v>12708</v>
       </c>
       <c r="C139" s="2">
         <v>45</v>
       </c>
       <c r="D139" s="3">
-        <v>160.571428571428</v>
+        <v>160.857142857142</v>
       </c>
       <c r="E139" s="2">
-        <v>245862</v>
+        <v>245898</v>
       </c>
       <c r="F139" s="2">
         <v>775</v>
       </c>
       <c r="G139" s="4">
-        <v>0.055781637717</v>
+        <v>0.055867030513</v>
       </c>
     </row>
     <row r="140" spans="1:7">
@@ -3593,22 +3593,22 @@
         <v>44060</v>
       </c>
       <c r="B140" s="2">
-        <v>12897</v>
+        <v>12921</v>
       </c>
       <c r="C140" s="2">
         <v>213</v>
       </c>
       <c r="D140" s="3">
-        <v>157.142857142857</v>
+        <v>157.285714285714</v>
       </c>
       <c r="E140" s="2">
-        <v>249520</v>
+        <v>249556</v>
       </c>
       <c r="F140" s="2">
         <v>3658</v>
       </c>
       <c r="G140" s="4">
-        <v>0.055254169178</v>
+        <v>0.0552960675</v>
       </c>
     </row>
     <row r="141" spans="1:7">
@@ -3616,22 +3616,22 @@
         <v>44061</v>
       </c>
       <c r="B141" s="2">
-        <v>13065</v>
+        <v>13089</v>
       </c>
       <c r="C141" s="2">
         <v>168</v>
       </c>
       <c r="D141" s="3">
-        <v>152.571428571428</v>
+        <v>152.714285714285</v>
       </c>
       <c r="E141" s="2">
-        <v>252603</v>
+        <v>252639</v>
       </c>
       <c r="F141" s="2">
         <v>3083</v>
       </c>
       <c r="G141" s="4">
-        <v>0.05457053804</v>
+        <v>0.054613262491</v>
       </c>
     </row>
     <row r="142" spans="1:7">
@@ -3639,7 +3639,7 @@
         <v>44062</v>
       </c>
       <c r="B142" s="2">
-        <v>13223</v>
+        <v>13247</v>
       </c>
       <c r="C142" s="2">
         <v>158</v>
@@ -3648,13 +3648,13 @@
         <v>146.714285714285</v>
       </c>
       <c r="E142" s="2">
-        <v>255661</v>
+        <v>255698</v>
       </c>
       <c r="F142" s="2">
-        <v>3058</v>
+        <v>3059</v>
       </c>
       <c r="G142" s="4">
-        <v>0.054720801364</v>
+        <v>0.054717885875</v>
       </c>
     </row>
     <row r="143" spans="1:7">
@@ -3662,7 +3662,7 @@
         <v>44063</v>
       </c>
       <c r="B143" s="2">
-        <v>13355</v>
+        <v>13379</v>
       </c>
       <c r="C143" s="2">
         <v>132</v>
@@ -3671,13 +3671,13 @@
         <v>140.571428571428</v>
       </c>
       <c r="E143" s="2">
-        <v>258831</v>
+        <v>258868</v>
       </c>
       <c r="F143" s="2">
         <v>3170</v>
       </c>
       <c r="G143" s="4">
-        <v>0.052707697252</v>
+        <v>0.052704874129</v>
       </c>
     </row>
     <row r="144" spans="1:7">
@@ -3685,7 +3685,7 @@
         <v>44064</v>
       </c>
       <c r="B144" s="2">
-        <v>13517</v>
+        <v>13541</v>
       </c>
       <c r="C144" s="2">
         <v>162</v>
@@ -3694,10 +3694,10 @@
         <v>138.714285714285</v>
       </c>
       <c r="E144" s="2">
-        <v>261872</v>
+        <v>261908</v>
       </c>
       <c r="F144" s="2">
-        <v>3041</v>
+        <v>3040</v>
       </c>
       <c r="G144" s="4">
         <v>0.052921299324</v>
@@ -3708,7 +3708,7 @@
         <v>44065</v>
       </c>
       <c r="B145" s="2">
-        <v>13579</v>
+        <v>13603</v>
       </c>
       <c r="C145" s="2">
         <v>62</v>
@@ -3717,7 +3717,7 @@
         <v>134.285714285714</v>
       </c>
       <c r="E145" s="2">
-        <v>263202</v>
+        <v>263238</v>
       </c>
       <c r="F145" s="2">
         <v>1330</v>
@@ -3731,7 +3731,7 @@
         <v>44066</v>
       </c>
       <c r="B146" s="2">
-        <v>13647</v>
+        <v>13671</v>
       </c>
       <c r="C146" s="2">
         <v>68</v>
@@ -3740,7 +3740,7 @@
         <v>137.571428571428</v>
       </c>
       <c r="E146" s="2">
-        <v>264170</v>
+        <v>264206</v>
       </c>
       <c r="F146" s="2">
         <v>968</v>
@@ -3754,7 +3754,7 @@
         <v>44067</v>
       </c>
       <c r="B147" s="2">
-        <v>13797</v>
+        <v>13821</v>
       </c>
       <c r="C147" s="2">
         <v>150</v>
@@ -3763,7 +3763,7 @@
         <v>128.571428571428</v>
       </c>
       <c r="E147" s="2">
-        <v>267160</v>
+        <v>267196</v>
       </c>
       <c r="F147" s="2">
         <v>2990</v>
@@ -3777,7 +3777,7 @@
         <v>44068</v>
       </c>
       <c r="B148" s="2">
-        <v>13932</v>
+        <v>13956</v>
       </c>
       <c r="C148" s="2">
         <v>135</v>
@@ -3786,7 +3786,7 @@
         <v>123.857142857142</v>
       </c>
       <c r="E148" s="2">
-        <v>270185</v>
+        <v>270221</v>
       </c>
       <c r="F148" s="2">
         <v>3025</v>
@@ -3800,7 +3800,7 @@
         <v>44069</v>
       </c>
       <c r="B149" s="2">
-        <v>14067</v>
+        <v>14091</v>
       </c>
       <c r="C149" s="2">
         <v>135</v>
@@ -3809,13 +3809,13 @@
         <v>120.571428571428</v>
       </c>
       <c r="E149" s="2">
-        <v>273152</v>
+        <v>273188</v>
       </c>
       <c r="F149" s="2">
         <v>2967</v>
       </c>
       <c r="G149" s="4">
-        <v>0.048253387456</v>
+        <v>0.048256146369</v>
       </c>
     </row>
     <row r="150" spans="1:7">
@@ -3823,7 +3823,7 @@
         <v>44070</v>
       </c>
       <c r="B150" s="2">
-        <v>14239</v>
+        <v>14263</v>
       </c>
       <c r="C150" s="2">
         <v>172</v>
@@ -3832,13 +3832,13 @@
         <v>126.285714285714</v>
       </c>
       <c r="E150" s="2">
-        <v>276425</v>
+        <v>276461</v>
       </c>
       <c r="F150" s="2">
         <v>3273</v>
       </c>
       <c r="G150" s="4">
-        <v>0.0502444015</v>
+        <v>0.050247257431</v>
       </c>
     </row>
     <row r="151" spans="1:7">
@@ -3846,7 +3846,7 @@
         <v>44071</v>
       </c>
       <c r="B151" s="2">
-        <v>14355</v>
+        <v>14379</v>
       </c>
       <c r="C151" s="2">
         <v>116</v>
@@ -3855,13 +3855,13 @@
         <v>119.714285714285</v>
       </c>
       <c r="E151" s="2">
-        <v>279213</v>
+        <v>279250</v>
       </c>
       <c r="F151" s="2">
-        <v>2788</v>
+        <v>2789</v>
       </c>
       <c r="G151" s="4">
-        <v>0.048324779424</v>
+        <v>0.048321992849</v>
       </c>
     </row>
     <row r="152" spans="1:7">
@@ -3869,7 +3869,7 @@
         <v>44072</v>
       </c>
       <c r="B152" s="2">
-        <v>14419</v>
+        <v>14443</v>
       </c>
       <c r="C152" s="2">
         <v>64</v>
@@ -3878,13 +3878,13 @@
         <v>120</v>
       </c>
       <c r="E152" s="2">
-        <v>280656</v>
+        <v>280693</v>
       </c>
       <c r="F152" s="2">
         <v>1443</v>
       </c>
       <c r="G152" s="4">
-        <v>0.048126503953</v>
+        <v>0.048123746777</v>
       </c>
     </row>
     <row r="153" spans="1:7">
@@ -3892,7 +3892,7 @@
         <v>44073</v>
       </c>
       <c r="B153" s="2">
-        <v>14477</v>
+        <v>14501</v>
       </c>
       <c r="C153" s="2">
         <v>58</v>
@@ -3901,13 +3901,13 @@
         <v>118.571428571428</v>
       </c>
       <c r="E153" s="2">
-        <v>281739</v>
+        <v>281776</v>
       </c>
       <c r="F153" s="2">
         <v>1083</v>
       </c>
       <c r="G153" s="4">
-        <v>0.047242301781</v>
+        <v>0.047239612976</v>
       </c>
     </row>
     <row r="154" spans="1:7">
@@ -3915,7 +3915,7 @@
         <v>44074</v>
       </c>
       <c r="B154" s="2">
-        <v>14619</v>
+        <v>14643</v>
       </c>
       <c r="C154" s="2">
         <v>142</v>
@@ -3924,13 +3924,13 @@
         <v>117.428571428571</v>
       </c>
       <c r="E154" s="2">
-        <v>284885</v>
+        <v>284923</v>
       </c>
       <c r="F154" s="2">
-        <v>3146</v>
+        <v>3147</v>
       </c>
       <c r="G154" s="4">
-        <v>0.046375176304</v>
+        <v>0.046369944152</v>
       </c>
     </row>
     <row r="155" spans="1:7">
@@ -3938,7 +3938,7 @@
         <v>44075</v>
       </c>
       <c r="B155" s="2">
-        <v>14752</v>
+        <v>14776</v>
       </c>
       <c r="C155" s="2">
         <v>133</v>
@@ -3947,13 +3947,13 @@
         <v>117.142857142857</v>
       </c>
       <c r="E155" s="2">
-        <v>288169</v>
+        <v>288207</v>
       </c>
       <c r="F155" s="2">
         <v>3284</v>
       </c>
       <c r="G155" s="4">
-        <v>0.045596085409</v>
+        <v>0.045591015234</v>
       </c>
     </row>
     <row r="156" spans="1:7">
@@ -3961,7 +3961,7 @@
         <v>44076</v>
       </c>
       <c r="B156" s="2">
-        <v>14867</v>
+        <v>14891</v>
       </c>
       <c r="C156" s="2">
         <v>115</v>
@@ -3970,13 +3970,13 @@
         <v>114.285714285714</v>
       </c>
       <c r="E156" s="2">
-        <v>291154</v>
+        <v>291193</v>
       </c>
       <c r="F156" s="2">
-        <v>2985</v>
+        <v>2986</v>
       </c>
       <c r="G156" s="4">
-        <v>0.044439506721</v>
+        <v>0.044432102193</v>
       </c>
     </row>
     <row r="157" spans="1:7">
@@ -3984,7 +3984,7 @@
         <v>44077</v>
       </c>
       <c r="B157" s="2">
-        <v>14962</v>
+        <v>14986</v>
       </c>
       <c r="C157" s="2">
         <v>95</v>
@@ -3993,13 +3993,13 @@
         <v>103.285714285714</v>
       </c>
       <c r="E157" s="2">
-        <v>294097</v>
+        <v>294137</v>
       </c>
       <c r="F157" s="2">
-        <v>2943</v>
+        <v>2944</v>
       </c>
       <c r="G157" s="4">
-        <v>0.040912177455</v>
+        <v>0.040902919212</v>
       </c>
     </row>
     <row r="158" spans="1:7">
@@ -4007,7 +4007,7 @@
         <v>44078</v>
       </c>
       <c r="B158" s="2">
-        <v>15084</v>
+        <v>15108</v>
       </c>
       <c r="C158" s="2">
         <v>122</v>
@@ -4016,13 +4016,13 @@
         <v>104.142857142857</v>
       </c>
       <c r="E158" s="2">
-        <v>296920</v>
+        <v>296962</v>
       </c>
       <c r="F158" s="2">
-        <v>2823</v>
+        <v>2825</v>
       </c>
       <c r="G158" s="4">
-        <v>0.041170158694</v>
+        <v>0.041158536585</v>
       </c>
     </row>
     <row r="159" spans="1:7">
@@ -4030,7 +4030,7 @@
         <v>44079</v>
       </c>
       <c r="B159" s="2">
-        <v>15150</v>
+        <v>15174</v>
       </c>
       <c r="C159" s="2">
         <v>66</v>
@@ -4039,13 +4039,13 @@
         <v>104.428571428571</v>
       </c>
       <c r="E159" s="2">
-        <v>298258</v>
+        <v>298300</v>
       </c>
       <c r="F159" s="2">
         <v>1338</v>
       </c>
       <c r="G159" s="4">
-        <v>0.041529371662</v>
+        <v>0.041517578235</v>
       </c>
     </row>
     <row r="160" spans="1:7">
@@ -4053,7 +4053,7 @@
         <v>44080</v>
       </c>
       <c r="B160" s="2">
-        <v>15203</v>
+        <v>15227</v>
       </c>
       <c r="C160" s="2">
         <v>53</v>
@@ -4062,13 +4062,13 @@
         <v>103.714285714285</v>
       </c>
       <c r="E160" s="2">
-        <v>299343</v>
+        <v>299385</v>
       </c>
       <c r="F160" s="2">
         <v>1085</v>
       </c>
       <c r="G160" s="4">
-        <v>0.04124062713</v>
+        <v>0.041228917031</v>
       </c>
     </row>
     <row r="161" spans="1:7">
@@ -4076,7 +4076,7 @@
         <v>44081</v>
       </c>
       <c r="B161" s="2">
-        <v>15272</v>
+        <v>15296</v>
       </c>
       <c r="C161" s="2">
         <v>69</v>
@@ -4085,13 +4085,13 @@
         <v>93.28571428571399</v>
       </c>
       <c r="E161" s="2">
-        <v>300599</v>
+        <v>300641</v>
       </c>
       <c r="F161" s="2">
         <v>1256</v>
       </c>
       <c r="G161" s="4">
-        <v>0.041555301005</v>
+        <v>0.041544725792</v>
       </c>
     </row>
     <row r="162" spans="1:7">
@@ -4099,7 +4099,7 @@
         <v>44082</v>
       </c>
       <c r="B162" s="2">
-        <v>15415</v>
+        <v>15439</v>
       </c>
       <c r="C162" s="2">
         <v>143</v>
@@ -4108,13 +4108,13 @@
         <v>94.714285714285</v>
       </c>
       <c r="E162" s="2">
-        <v>304908</v>
+        <v>304950</v>
       </c>
       <c r="F162" s="2">
         <v>4309</v>
       </c>
       <c r="G162" s="4">
-        <v>0.039608100842</v>
+        <v>0.039598638236</v>
       </c>
     </row>
     <row r="163" spans="1:7">
@@ -4122,7 +4122,7 @@
         <v>44083</v>
       </c>
       <c r="B163" s="2">
-        <v>15566</v>
+        <v>15590</v>
       </c>
       <c r="C163" s="2">
         <v>151</v>
@@ -4131,13 +4131,13 @@
         <v>99.85714285714199</v>
       </c>
       <c r="E163" s="2">
-        <v>308432</v>
+        <v>308475</v>
       </c>
       <c r="F163" s="2">
-        <v>3524</v>
+        <v>3525</v>
       </c>
       <c r="G163" s="4">
-        <v>0.040456071304</v>
+        <v>0.040446707556</v>
       </c>
     </row>
     <row r="164" spans="1:7">
@@ -4145,7 +4145,7 @@
         <v>44084</v>
       </c>
       <c r="B164" s="2">
-        <v>15670</v>
+        <v>15694</v>
       </c>
       <c r="C164" s="2">
         <v>104</v>
@@ -4154,13 +4154,13 @@
         <v>101.142857142857</v>
       </c>
       <c r="E164" s="2">
-        <v>311723</v>
+        <v>311768</v>
       </c>
       <c r="F164" s="2">
-        <v>3291</v>
+        <v>3293</v>
       </c>
       <c r="G164" s="4">
-        <v>0.040167933734</v>
+        <v>0.040156542453</v>
       </c>
     </row>
     <row r="165" spans="1:7">
@@ -4168,7 +4168,7 @@
         <v>44085</v>
       </c>
       <c r="B165" s="2">
-        <v>15744</v>
+        <v>15768</v>
       </c>
       <c r="C165" s="2">
         <v>74</v>
@@ -4177,13 +4177,13 @@
         <v>94.28571428571399</v>
       </c>
       <c r="E165" s="2">
-        <v>314228</v>
+        <v>314273</v>
       </c>
       <c r="F165" s="2">
         <v>2505</v>
       </c>
       <c r="G165" s="4">
-        <v>0.038132655419</v>
+        <v>0.038126047022</v>
       </c>
     </row>
     <row r="166" spans="1:7">
@@ -4191,7 +4191,7 @@
         <v>44086</v>
       </c>
       <c r="B166" s="2">
-        <v>15794</v>
+        <v>15818</v>
       </c>
       <c r="C166" s="2">
         <v>50</v>
@@ -4200,13 +4200,13 @@
         <v>92</v>
       </c>
       <c r="E166" s="2">
-        <v>315630</v>
+        <v>315675</v>
       </c>
       <c r="F166" s="2">
         <v>1402</v>
       </c>
       <c r="G166" s="4">
-        <v>0.037071148975</v>
+        <v>0.037064748201</v>
       </c>
     </row>
     <row r="167" spans="1:7">
@@ -4214,22 +4214,22 @@
         <v>44087</v>
       </c>
       <c r="B167" s="2">
-        <v>15830</v>
+        <v>15855</v>
       </c>
       <c r="C167" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D167" s="3">
-        <v>89.571428571428</v>
+        <v>89.714285714285</v>
       </c>
       <c r="E167" s="2">
-        <v>316482</v>
+        <v>316528</v>
       </c>
       <c r="F167" s="2">
-        <v>852</v>
+        <v>853</v>
       </c>
       <c r="G167" s="4">
-        <v>0.036583231227</v>
+        <v>0.036633028058</v>
       </c>
     </row>
     <row r="168" spans="1:7">
@@ -4237,22 +4237,22 @@
         <v>44088</v>
       </c>
       <c r="B168" s="2">
-        <v>15931</v>
+        <v>15956</v>
       </c>
       <c r="C168" s="2">
         <v>101</v>
       </c>
       <c r="D168" s="3">
-        <v>94.142857142857</v>
+        <v>94.28571428571399</v>
       </c>
       <c r="E168" s="2">
-        <v>319900</v>
+        <v>319946</v>
       </c>
       <c r="F168" s="2">
         <v>3418</v>
       </c>
       <c r="G168" s="4">
-        <v>0.034143308636</v>
+        <v>0.034188034188</v>
       </c>
     </row>
     <row r="169" spans="1:7">
@@ -4260,22 +4260,22 @@
         <v>44089</v>
       </c>
       <c r="B169" s="2">
-        <v>16061</v>
+        <v>16086</v>
       </c>
       <c r="C169" s="2">
         <v>130</v>
       </c>
       <c r="D169" s="3">
-        <v>92.28571428571399</v>
+        <v>92.428571428571</v>
       </c>
       <c r="E169" s="2">
-        <v>323894</v>
+        <v>323940</v>
       </c>
       <c r="F169" s="2">
         <v>3994</v>
       </c>
       <c r="G169" s="4">
-        <v>0.034025071105</v>
+        <v>0.034070563454</v>
       </c>
     </row>
     <row r="170" spans="1:7">
@@ -4283,22 +4283,22 @@
         <v>44090</v>
       </c>
       <c r="B170" s="2">
-        <v>16148</v>
+        <v>16173</v>
       </c>
       <c r="C170" s="2">
         <v>87</v>
       </c>
       <c r="D170" s="3">
-        <v>83.142857142857</v>
+        <v>83.28571428571399</v>
       </c>
       <c r="E170" s="2">
-        <v>327216</v>
+        <v>327263</v>
       </c>
       <c r="F170" s="2">
-        <v>3322</v>
+        <v>3323</v>
       </c>
       <c r="G170" s="4">
-        <v>0.030983816013</v>
+        <v>0.031030444964</v>
       </c>
     </row>
     <row r="171" spans="1:7">
@@ -4306,22 +4306,22 @@
         <v>44091</v>
       </c>
       <c r="B171" s="2">
-        <v>16252</v>
+        <v>16277</v>
       </c>
       <c r="C171" s="2">
         <v>104</v>
       </c>
       <c r="D171" s="3">
-        <v>83.142857142857</v>
+        <v>83.28571428571399</v>
       </c>
       <c r="E171" s="2">
-        <v>330861</v>
+        <v>330936</v>
       </c>
       <c r="F171" s="2">
-        <v>3645</v>
+        <v>3673</v>
       </c>
       <c r="G171" s="4">
-        <v>0.030410701222</v>
+        <v>0.030415275459</v>
       </c>
     </row>
     <row r="172" spans="1:7">
@@ -4329,22 +4329,22 @@
         <v>44092</v>
       </c>
       <c r="B172" s="2">
-        <v>16356</v>
+        <v>16381</v>
       </c>
       <c r="C172" s="2">
         <v>104</v>
       </c>
       <c r="D172" s="3">
-        <v>87.428571428571</v>
+        <v>87.571428571428</v>
       </c>
       <c r="E172" s="2">
-        <v>334137</v>
+        <v>334212</v>
       </c>
       <c r="F172" s="2">
         <v>3276</v>
       </c>
       <c r="G172" s="4">
-        <v>0.030739866392</v>
+        <v>0.030743768493</v>
       </c>
     </row>
     <row r="173" spans="1:7">
@@ -4352,22 +4352,22 @@
         <v>44093</v>
       </c>
       <c r="B173" s="2">
-        <v>16428</v>
+        <v>16453</v>
       </c>
       <c r="C173" s="2">
         <v>72</v>
       </c>
       <c r="D173" s="3">
-        <v>90.571428571428</v>
+        <v>90.714285714285</v>
       </c>
       <c r="E173" s="2">
-        <v>335656</v>
+        <v>335731</v>
       </c>
       <c r="F173" s="2">
         <v>1519</v>
       </c>
       <c r="G173" s="4">
-        <v>0.031658843503</v>
+        <v>0.031661348224</v>
       </c>
     </row>
     <row r="174" spans="1:7">
@@ -4375,7 +4375,7 @@
         <v>44094</v>
       </c>
       <c r="B174" s="2">
-        <v>16470</v>
+        <v>16495</v>
       </c>
       <c r="C174" s="2">
         <v>42</v>
@@ -4384,13 +4384,13 @@
         <v>91.428571428571</v>
       </c>
       <c r="E174" s="2">
-        <v>336812</v>
+        <v>336887</v>
       </c>
       <c r="F174" s="2">
         <v>1156</v>
       </c>
       <c r="G174" s="4">
-        <v>0.031480570585</v>
+        <v>0.03143572867</v>
       </c>
     </row>
     <row r="175" spans="1:7">
@@ -4398,7 +4398,7 @@
         <v>44095</v>
       </c>
       <c r="B175" s="2">
-        <v>16613</v>
+        <v>16638</v>
       </c>
       <c r="C175" s="2">
         <v>143</v>
@@ -4407,13 +4407,13 @@
         <v>97.428571428571</v>
       </c>
       <c r="E175" s="2">
-        <v>341190</v>
+        <v>341265</v>
       </c>
       <c r="F175" s="2">
         <v>4378</v>
       </c>
       <c r="G175" s="4">
-        <v>0.032033818694</v>
+        <v>0.031990243444</v>
       </c>
     </row>
     <row r="176" spans="1:7">
@@ -4421,7 +4421,7 @@
         <v>44096</v>
       </c>
       <c r="B176" s="2">
-        <v>16711</v>
+        <v>16736</v>
       </c>
       <c r="C176" s="2">
         <v>98</v>
@@ -4430,13 +4430,13 @@
         <v>92.85714285714199</v>
       </c>
       <c r="E176" s="2">
-        <v>344986</v>
+        <v>345061</v>
       </c>
       <c r="F176" s="2">
         <v>3796</v>
       </c>
       <c r="G176" s="4">
-        <v>0.030817371515</v>
+        <v>0.030775057999</v>
       </c>
     </row>
     <row r="177" spans="1:7">
@@ -4444,7 +4444,7 @@
         <v>44097</v>
       </c>
       <c r="B177" s="2">
-        <v>16805</v>
+        <v>16830</v>
       </c>
       <c r="C177" s="2">
         <v>94</v>
@@ -4453,13 +4453,13 @@
         <v>93.85714285714199</v>
       </c>
       <c r="E177" s="2">
-        <v>348499</v>
+        <v>348574</v>
       </c>
       <c r="F177" s="2">
         <v>3513</v>
       </c>
       <c r="G177" s="4">
-        <v>0.030869708217</v>
+        <v>0.030829149265</v>
       </c>
     </row>
     <row r="178" spans="1:7">
@@ -4467,7 +4467,7 @@
         <v>44098</v>
       </c>
       <c r="B178" s="2">
-        <v>16896</v>
+        <v>16921</v>
       </c>
       <c r="C178" s="2">
         <v>91</v>
@@ -4476,7 +4476,7 @@
         <v>92</v>
       </c>
       <c r="E178" s="2">
-        <v>352236</v>
+        <v>352311</v>
       </c>
       <c r="F178" s="2">
         <v>3737</v>
@@ -4490,7 +4490,7 @@
         <v>44099</v>
       </c>
       <c r="B179" s="2">
-        <v>16985</v>
+        <v>17010</v>
       </c>
       <c r="C179" s="2">
         <v>89</v>
@@ -4499,13 +4499,13 @@
         <v>89.85714285714199</v>
       </c>
       <c r="E179" s="2">
-        <v>355540</v>
+        <v>355616</v>
       </c>
       <c r="F179" s="2">
-        <v>3304</v>
+        <v>3305</v>
       </c>
       <c r="G179" s="4">
-        <v>0.029388403494</v>
+        <v>0.029387030461</v>
       </c>
     </row>
     <row r="180" spans="1:7">
@@ -4513,7 +4513,7 @@
         <v>44100</v>
       </c>
       <c r="B180" s="2">
-        <v>17044</v>
+        <v>17069</v>
       </c>
       <c r="C180" s="2">
         <v>59</v>
@@ -4522,13 +4522,13 @@
         <v>88</v>
       </c>
       <c r="E180" s="2">
-        <v>357413</v>
+        <v>357489</v>
       </c>
       <c r="F180" s="2">
         <v>1873</v>
       </c>
       <c r="G180" s="4">
-        <v>0.028312726938</v>
+        <v>0.028311425682</v>
       </c>
     </row>
     <row r="181" spans="1:7">
@@ -4536,7 +4536,7 @@
         <v>44101</v>
       </c>
       <c r="B181" s="2">
-        <v>17067</v>
+        <v>17092</v>
       </c>
       <c r="C181" s="2">
         <v>23</v>
@@ -4545,13 +4545,13 @@
         <v>85.28571428571399</v>
       </c>
       <c r="E181" s="2">
-        <v>358542</v>
+        <v>358618</v>
       </c>
       <c r="F181" s="2">
         <v>1129</v>
       </c>
       <c r="G181" s="4">
-        <v>0.027473538886</v>
+        <v>0.02747227463</v>
       </c>
     </row>
     <row r="182" spans="1:7">
@@ -4559,7 +4559,7 @@
         <v>44102</v>
       </c>
       <c r="B182" s="2">
-        <v>17180</v>
+        <v>17205</v>
       </c>
       <c r="C182" s="2">
         <v>113</v>
@@ -4568,13 +4568,13 @@
         <v>81</v>
       </c>
       <c r="E182" s="2">
-        <v>362644</v>
+        <v>362724</v>
       </c>
       <c r="F182" s="2">
-        <v>4102</v>
+        <v>4106</v>
       </c>
       <c r="G182" s="4">
-        <v>0.026428638016</v>
+        <v>0.026422480078</v>
       </c>
     </row>
     <row r="183" spans="1:7">
@@ -4582,7 +4582,7 @@
         <v>44103</v>
       </c>
       <c r="B183" s="2">
-        <v>17255</v>
+        <v>17280</v>
       </c>
       <c r="C183" s="2">
         <v>75</v>
@@ -4591,13 +4591,13 @@
         <v>77.714285714285</v>
       </c>
       <c r="E183" s="2">
-        <v>366486</v>
+        <v>366567</v>
       </c>
       <c r="F183" s="2">
-        <v>3842</v>
+        <v>3843</v>
       </c>
       <c r="G183" s="4">
-        <v>0.025302325581</v>
+        <v>0.025295266437</v>
       </c>
     </row>
     <row r="184" spans="1:7">
@@ -4605,7 +4605,7 @@
         <v>44104</v>
       </c>
       <c r="B184" s="2">
-        <v>17315</v>
+        <v>17340</v>
       </c>
       <c r="C184" s="2">
         <v>60</v>
@@ -4614,13 +4614,13 @@
         <v>72.85714285714199</v>
       </c>
       <c r="E184" s="2">
-        <v>370047</v>
+        <v>370127</v>
       </c>
       <c r="F184" s="2">
-        <v>3561</v>
+        <v>3560</v>
       </c>
       <c r="G184" s="4">
-        <v>0.023668089845</v>
+        <v>0.023662599174</v>
       </c>
     </row>
     <row r="185" spans="1:7">
@@ -4628,7 +4628,7 @@
         <v>44105</v>
       </c>
       <c r="B185" s="2">
-        <v>17380</v>
+        <v>17405</v>
       </c>
       <c r="C185" s="2">
         <v>65</v>
@@ -4637,13 +4637,13 @@
         <v>69.142857142857</v>
       </c>
       <c r="E185" s="2">
-        <v>373574</v>
+        <v>373654</v>
       </c>
       <c r="F185" s="2">
         <v>3527</v>
       </c>
       <c r="G185" s="4">
-        <v>0.022682538194</v>
+        <v>0.022677224382</v>
       </c>
     </row>
     <row r="186" spans="1:7">
@@ -4651,7 +4651,7 @@
         <v>44106</v>
       </c>
       <c r="B186" s="2">
-        <v>17456</v>
+        <v>17481</v>
       </c>
       <c r="C186" s="2">
         <v>76</v>
@@ -4660,13 +4660,13 @@
         <v>67.28571428571399</v>
       </c>
       <c r="E186" s="2">
-        <v>377119</v>
+        <v>377199</v>
       </c>
       <c r="F186" s="2">
         <v>3545</v>
       </c>
       <c r="G186" s="4">
-        <v>0.021826776032</v>
+        <v>0.021822730852</v>
       </c>
     </row>
     <row r="187" spans="1:7">
@@ -4674,7 +4674,7 @@
         <v>44107</v>
       </c>
       <c r="B187" s="2">
-        <v>17499</v>
+        <v>17524</v>
       </c>
       <c r="C187" s="2">
         <v>43</v>
@@ -4683,13 +4683,13 @@
         <v>65</v>
       </c>
       <c r="E187" s="2">
-        <v>379115</v>
+        <v>379195</v>
       </c>
       <c r="F187" s="2">
         <v>1996</v>
       </c>
       <c r="G187" s="4">
-        <v>0.020965809602</v>
+        <v>0.020961946005</v>
       </c>
     </row>
     <row r="188" spans="1:7">
@@ -4697,7 +4697,7 @@
         <v>44108</v>
       </c>
       <c r="B188" s="2">
-        <v>17536</v>
+        <v>17561</v>
       </c>
       <c r="C188" s="2">
         <v>37</v>
@@ -4706,13 +4706,13 @@
         <v>67</v>
       </c>
       <c r="E188" s="2">
-        <v>380499</v>
+        <v>380579</v>
       </c>
       <c r="F188" s="2">
         <v>1384</v>
       </c>
       <c r="G188" s="4">
-        <v>0.021359930773</v>
+        <v>0.021356040253</v>
       </c>
     </row>
     <row r="189" spans="1:7">
@@ -4720,7 +4720,7 @@
         <v>44109</v>
       </c>
       <c r="B189" s="2">
-        <v>17613</v>
+        <v>17638</v>
       </c>
       <c r="C189" s="2">
         <v>77</v>
@@ -4729,13 +4729,13 @@
         <v>61.857142857142</v>
       </c>
       <c r="E189" s="2">
-        <v>385311</v>
+        <v>385389</v>
       </c>
       <c r="F189" s="2">
-        <v>4812</v>
+        <v>4810</v>
       </c>
       <c r="G189" s="4">
-        <v>0.019102660254</v>
+        <v>0.019104345907</v>
       </c>
     </row>
     <row r="190" spans="1:7">
@@ -4743,7 +4743,7 @@
         <v>44110</v>
       </c>
       <c r="B190" s="2">
-        <v>17676</v>
+        <v>17701</v>
       </c>
       <c r="C190" s="2">
         <v>63</v>
@@ -4752,13 +4752,13 @@
         <v>60.142857142857</v>
       </c>
       <c r="E190" s="2">
-        <v>389970</v>
+        <v>390052</v>
       </c>
       <c r="F190" s="2">
-        <v>4659</v>
+        <v>4663</v>
       </c>
       <c r="G190" s="4">
-        <v>0.017927099301</v>
+        <v>0.017926335959</v>
       </c>
     </row>
     <row r="191" spans="1:7">
@@ -4766,7 +4766,7 @@
         <v>44111</v>
       </c>
       <c r="B191" s="2">
-        <v>17752</v>
+        <v>17777</v>
       </c>
       <c r="C191" s="2">
         <v>76</v>
@@ -4775,13 +4775,13 @@
         <v>62.428571428571</v>
       </c>
       <c r="E191" s="2">
-        <v>394158</v>
+        <v>394245</v>
       </c>
       <c r="F191" s="2">
-        <v>4188</v>
+        <v>4193</v>
       </c>
       <c r="G191" s="4">
-        <v>0.018124507486</v>
+        <v>0.018119247035</v>
       </c>
     </row>
     <row r="192" spans="1:7">
@@ -4789,7 +4789,7 @@
         <v>44112</v>
       </c>
       <c r="B192" s="2">
-        <v>17846</v>
+        <v>17871</v>
       </c>
       <c r="C192" s="2">
         <v>94</v>
@@ -4798,13 +4798,13 @@
         <v>66.571428571428</v>
       </c>
       <c r="E192" s="2">
-        <v>398399</v>
+        <v>398492</v>
       </c>
       <c r="F192" s="2">
-        <v>4241</v>
+        <v>4247</v>
       </c>
       <c r="G192" s="4">
-        <v>0.018771399798</v>
+        <v>0.018761575006</v>
       </c>
     </row>
     <row r="193" spans="1:7">
@@ -4812,7 +4812,7 @@
         <v>44113</v>
       </c>
       <c r="B193" s="2">
-        <v>17904</v>
+        <v>17929</v>
       </c>
       <c r="C193" s="2">
         <v>58</v>
@@ -4821,13 +4821,13 @@
         <v>64</v>
       </c>
       <c r="E193" s="2">
-        <v>402172</v>
+        <v>402267</v>
       </c>
       <c r="F193" s="2">
-        <v>3773</v>
+        <v>3775</v>
       </c>
       <c r="G193" s="4">
-        <v>0.017882089969</v>
+        <v>0.017871389819</v>
       </c>
     </row>
     <row r="194" spans="1:7">
@@ -4835,7 +4835,7 @@
         <v>44114</v>
       </c>
       <c r="B194" s="2">
-        <v>17945</v>
+        <v>17970</v>
       </c>
       <c r="C194" s="2">
         <v>41</v>
@@ -4844,13 +4844,13 @@
         <v>63.71428571428499</v>
       </c>
       <c r="E194" s="2">
-        <v>403959</v>
+        <v>404054</v>
       </c>
       <c r="F194" s="2">
         <v>1787</v>
       </c>
       <c r="G194" s="4">
-        <v>0.017952020608</v>
+        <v>0.017941188302</v>
       </c>
     </row>
     <row r="195" spans="1:7">
@@ -4858,7 +4858,7 @@
         <v>44115</v>
       </c>
       <c r="B195" s="2">
-        <v>17969</v>
+        <v>17994</v>
       </c>
       <c r="C195" s="2">
         <v>24</v>
@@ -4867,13 +4867,13 @@
         <v>61.857142857142</v>
       </c>
       <c r="E195" s="2">
-        <v>405288</v>
+        <v>405384</v>
       </c>
       <c r="F195" s="2">
-        <v>1329</v>
+        <v>1330</v>
       </c>
       <c r="G195" s="4">
-        <v>0.017467425067</v>
+        <v>0.017456158032</v>
       </c>
     </row>
     <row r="196" spans="1:7">
@@ -4881,7 +4881,7 @@
         <v>44116</v>
       </c>
       <c r="B196" s="2">
-        <v>18061</v>
+        <v>18086</v>
       </c>
       <c r="C196" s="2">
         <v>92</v>
@@ -4890,13 +4890,13 @@
         <v>64</v>
       </c>
       <c r="E196" s="2">
-        <v>409806</v>
+        <v>409904</v>
       </c>
       <c r="F196" s="2">
-        <v>4518</v>
+        <v>4520</v>
       </c>
       <c r="G196" s="4">
-        <v>0.018289446825</v>
+        <v>0.0182745258</v>
       </c>
     </row>
     <row r="197" spans="1:7">
@@ -4904,7 +4904,7 @@
         <v>44117</v>
       </c>
       <c r="B197" s="2">
-        <v>18151</v>
+        <v>18176</v>
       </c>
       <c r="C197" s="2">
         <v>90</v>
@@ -4913,13 +4913,13 @@
         <v>67.85714285714199</v>
       </c>
       <c r="E197" s="2">
-        <v>414308</v>
+        <v>414412</v>
       </c>
       <c r="F197" s="2">
-        <v>4502</v>
+        <v>4508</v>
       </c>
       <c r="G197" s="4">
-        <v>0.019516804996</v>
+        <v>0.019499178981</v>
       </c>
     </row>
     <row r="198" spans="1:7">
@@ -4927,7 +4927,7 @@
         <v>44118</v>
       </c>
       <c r="B198" s="2">
-        <v>18221</v>
+        <v>18246</v>
       </c>
       <c r="C198" s="2">
         <v>70</v>
@@ -4936,13 +4936,13 @@
         <v>67</v>
       </c>
       <c r="E198" s="2">
-        <v>418526</v>
+        <v>418636</v>
       </c>
       <c r="F198" s="2">
-        <v>4218</v>
+        <v>4224</v>
       </c>
       <c r="G198" s="4">
-        <v>0.019246552856</v>
+        <v>0.019228403919</v>
       </c>
     </row>
     <row r="199" spans="1:7">
@@ -4950,22 +4950,22 @@
         <v>44119</v>
       </c>
       <c r="B199" s="2">
-        <v>18273</v>
+        <v>18297</v>
       </c>
       <c r="C199" s="2">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D199" s="3">
-        <v>61</v>
+        <v>60.857142857142</v>
       </c>
       <c r="E199" s="2">
-        <v>422528</v>
+        <v>422638</v>
       </c>
       <c r="F199" s="2">
         <v>4002</v>
       </c>
       <c r="G199" s="4">
-        <v>0.017696547722</v>
+        <v>0.017642673734</v>
       </c>
     </row>
     <row r="200" spans="1:7">
@@ -4973,22 +4973,22 @@
         <v>44120</v>
       </c>
       <c r="B200" s="2">
-        <v>18331</v>
+        <v>18355</v>
       </c>
       <c r="C200" s="2">
         <v>58</v>
       </c>
       <c r="D200" s="3">
-        <v>61</v>
+        <v>60.857142857142</v>
       </c>
       <c r="E200" s="2">
-        <v>426511</v>
+        <v>426623</v>
       </c>
       <c r="F200" s="2">
-        <v>3983</v>
+        <v>3985</v>
       </c>
       <c r="G200" s="4">
-        <v>0.017543859649</v>
+        <v>0.017490556741</v>
       </c>
     </row>
     <row r="201" spans="1:7">
@@ -4996,22 +4996,22 @@
         <v>44121</v>
       </c>
       <c r="B201" s="2">
-        <v>18376</v>
+        <v>18400</v>
       </c>
       <c r="C201" s="2">
         <v>45</v>
       </c>
       <c r="D201" s="3">
-        <v>61.57142857142801</v>
+        <v>61.428571428571</v>
       </c>
       <c r="E201" s="2">
-        <v>428410</v>
+        <v>428522</v>
       </c>
       <c r="F201" s="2">
         <v>1899</v>
       </c>
       <c r="G201" s="4">
-        <v>0.017627090916</v>
+        <v>0.01757397417</v>
       </c>
     </row>
     <row r="202" spans="1:7">
@@ -5019,22 +5019,22 @@
         <v>44122</v>
       </c>
       <c r="B202" s="2">
-        <v>18412</v>
+        <v>18436</v>
       </c>
       <c r="C202" s="2">
         <v>36</v>
       </c>
       <c r="D202" s="3">
-        <v>63.28571428571399</v>
+        <v>63.142857142857</v>
       </c>
       <c r="E202" s="2">
-        <v>429785</v>
+        <v>429898</v>
       </c>
       <c r="F202" s="2">
-        <v>1375</v>
+        <v>1376</v>
       </c>
       <c r="G202" s="4">
-        <v>0.018083847001</v>
+        <v>0.018030513176</v>
       </c>
     </row>
     <row r="203" spans="1:7">
@@ -5042,22 +5042,22 @@
         <v>44123</v>
       </c>
       <c r="B203" s="2">
-        <v>18501</v>
+        <v>18525</v>
       </c>
       <c r="C203" s="2">
         <v>89</v>
       </c>
       <c r="D203" s="3">
-        <v>62.857142857142</v>
+        <v>62.71428571428499</v>
       </c>
       <c r="E203" s="2">
-        <v>434599</v>
+        <v>434717</v>
       </c>
       <c r="F203" s="2">
-        <v>4814</v>
+        <v>4819</v>
       </c>
       <c r="G203" s="4">
-        <v>0.017746944702</v>
+        <v>0.017692338693</v>
       </c>
     </row>
     <row r="204" spans="1:7">
@@ -5065,22 +5065,45 @@
         <v>44124</v>
       </c>
       <c r="B204" s="2">
-        <v>18593</v>
+        <v>18619</v>
       </c>
       <c r="C204" s="2">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D204" s="3">
-        <v>63.142857142857</v>
+        <v>63.28571428571399</v>
       </c>
       <c r="E204" s="2">
-        <v>439362</v>
+        <v>439485</v>
       </c>
       <c r="F204" s="2">
-        <v>4763</v>
+        <v>4768</v>
       </c>
       <c r="G204" s="4">
-        <v>0.01764189351</v>
+        <v>0.017668408247</v>
+      </c>
+    </row>
+    <row r="205" spans="1:7">
+      <c r="A205" s="1">
+        <v>44125</v>
+      </c>
+      <c r="B205" s="2">
+        <v>18700</v>
+      </c>
+      <c r="C205" s="2">
+        <v>81</v>
+      </c>
+      <c r="D205" s="3">
+        <v>64.85714285714199</v>
+      </c>
+      <c r="E205" s="2">
+        <v>443758</v>
+      </c>
+      <c r="F205" s="2">
+        <v>4273</v>
+      </c>
+      <c r="G205" s="4">
+        <v>0.018071809569</v>
       </c>
     </row>
   </sheetData>

--- a/contra_costa_county_testing.xlsx
+++ b/contra_costa_county_testing.xlsx
@@ -376,7 +376,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G205"/>
+  <dimension ref="A1:G208"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -428,13 +428,13 @@
         <v>21.285714285714</v>
       </c>
       <c r="E2" s="2">
-        <v>5658</v>
+        <v>5659</v>
       </c>
       <c r="F2" s="2">
         <v>330</v>
       </c>
       <c r="G2" s="4">
-        <v>0.068067610781</v>
+        <v>0.06803652968</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -451,13 +451,13 @@
         <v>24.571428571428</v>
       </c>
       <c r="E3" s="2">
-        <v>6025</v>
+        <v>6026</v>
       </c>
       <c r="F3" s="2">
         <v>367</v>
       </c>
       <c r="G3" s="4">
-        <v>0.07981438515</v>
+        <v>0.07977736549099999</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -474,13 +474,13 @@
         <v>27</v>
       </c>
       <c r="E4" s="2">
-        <v>6459</v>
+        <v>6460</v>
       </c>
       <c r="F4" s="2">
         <v>434</v>
       </c>
       <c r="G4" s="4">
-        <v>0.08630136986299999</v>
+        <v>0.08626198083</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -497,13 +497,13 @@
         <v>27.857142857142</v>
       </c>
       <c r="E5" s="2">
-        <v>6646</v>
+        <v>6647</v>
       </c>
       <c r="F5" s="2">
         <v>187</v>
       </c>
       <c r="G5" s="4">
-        <v>0.088797814207</v>
+        <v>0.08875739644900001</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -520,13 +520,13 @@
         <v>27.857142857142</v>
       </c>
       <c r="E6" s="2">
-        <v>6812</v>
+        <v>6814</v>
       </c>
       <c r="F6" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="G6" s="4">
-        <v>0.08883826879200001</v>
+        <v>0.088797814207</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -543,13 +543,13 @@
         <v>26.857142857142</v>
       </c>
       <c r="E7" s="2">
-        <v>7187</v>
+        <v>7189</v>
       </c>
       <c r="F7" s="2">
         <v>375</v>
       </c>
       <c r="G7" s="4">
-        <v>0.085067873303</v>
+        <v>0.085029398462</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -566,13 +566,13 @@
         <v>28.142857142857</v>
       </c>
       <c r="E8" s="2">
-        <v>7575</v>
+        <v>7577</v>
       </c>
       <c r="F8" s="2">
         <v>388</v>
       </c>
       <c r="G8" s="4">
-        <v>0.087672452158</v>
+        <v>0.08763345195699999</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -589,13 +589,13 @@
         <v>27.571428571428</v>
       </c>
       <c r="E9" s="2">
-        <v>7919</v>
+        <v>7921</v>
       </c>
       <c r="F9" s="2">
         <v>344</v>
       </c>
       <c r="G9" s="4">
-        <v>0.085360459973</v>
+        <v>0.085322723253</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -612,13 +612,13 @@
         <v>24</v>
       </c>
       <c r="E10" s="2">
-        <v>8243</v>
+        <v>8245</v>
       </c>
       <c r="F10" s="2">
         <v>324</v>
       </c>
       <c r="G10" s="4">
-        <v>0.075743913435</v>
+        <v>0.075709779179</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -635,13 +635,13 @@
         <v>25.857142857142</v>
       </c>
       <c r="E11" s="2">
-        <v>8721</v>
+        <v>8723</v>
       </c>
       <c r="F11" s="2">
         <v>478</v>
       </c>
       <c r="G11" s="4">
-        <v>0.080017683465</v>
+        <v>0.079982324348</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -658,13 +658,13 @@
         <v>24.428571428571</v>
       </c>
       <c r="E12" s="2">
-        <v>8900</v>
+        <v>8902</v>
       </c>
       <c r="F12" s="2">
         <v>179</v>
       </c>
       <c r="G12" s="4">
-        <v>0.07586512866</v>
+        <v>0.07583148558699999</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -681,7 +681,7 @@
         <v>23.285714285714</v>
       </c>
       <c r="E13" s="2">
-        <v>9015</v>
+        <v>9017</v>
       </c>
       <c r="F13" s="2">
         <v>115</v>
@@ -704,7 +704,7 @@
         <v>23.428571428571</v>
       </c>
       <c r="E14" s="2">
-        <v>9372</v>
+        <v>9374</v>
       </c>
       <c r="F14" s="2">
         <v>357</v>
@@ -727,7 +727,7 @@
         <v>20.714285714285</v>
       </c>
       <c r="E15" s="2">
-        <v>9693</v>
+        <v>9695</v>
       </c>
       <c r="F15" s="2">
         <v>321</v>
@@ -750,7 +750,7 @@
         <v>21.857142857142</v>
       </c>
       <c r="E16" s="2">
-        <v>10044</v>
+        <v>10046</v>
       </c>
       <c r="F16" s="2">
         <v>351</v>
@@ -773,7 +773,7 @@
         <v>22.428571428571</v>
       </c>
       <c r="E17" s="2">
-        <v>10427</v>
+        <v>10429</v>
       </c>
       <c r="F17" s="2">
         <v>383</v>
@@ -796,7 +796,7 @@
         <v>17.428571428571</v>
       </c>
       <c r="E18" s="2">
-        <v>10773</v>
+        <v>10775</v>
       </c>
       <c r="F18" s="2">
         <v>346</v>
@@ -819,7 +819,7 @@
         <v>16.714285714285</v>
       </c>
       <c r="E19" s="2">
-        <v>10928</v>
+        <v>10930</v>
       </c>
       <c r="F19" s="2">
         <v>155</v>
@@ -842,7 +842,7 @@
         <v>17.428571428571</v>
       </c>
       <c r="E20" s="2">
-        <v>11075</v>
+        <v>11077</v>
       </c>
       <c r="F20" s="2">
         <v>147</v>
@@ -865,7 +865,7 @@
         <v>15.142857142857</v>
       </c>
       <c r="E21" s="2">
-        <v>11442</v>
+        <v>11444</v>
       </c>
       <c r="F21" s="2">
         <v>367</v>
@@ -888,7 +888,7 @@
         <v>15.428571428571</v>
       </c>
       <c r="E22" s="2">
-        <v>11847</v>
+        <v>11849</v>
       </c>
       <c r="F22" s="2">
         <v>405</v>
@@ -911,7 +911,7 @@
         <v>13.428571428571</v>
       </c>
       <c r="E23" s="2">
-        <v>12367</v>
+        <v>12369</v>
       </c>
       <c r="F23" s="2">
         <v>520</v>
@@ -934,7 +934,7 @@
         <v>12.714285714285</v>
       </c>
       <c r="E24" s="2">
-        <v>12925</v>
+        <v>12927</v>
       </c>
       <c r="F24" s="2">
         <v>558</v>
@@ -957,7 +957,7 @@
         <v>14</v>
       </c>
       <c r="E25" s="2">
-        <v>13490</v>
+        <v>13492</v>
       </c>
       <c r="F25" s="2">
         <v>565</v>
@@ -980,7 +980,7 @@
         <v>13.714285714285</v>
       </c>
       <c r="E26" s="2">
-        <v>13721</v>
+        <v>13723</v>
       </c>
       <c r="F26" s="2">
         <v>231</v>
@@ -1003,7 +1003,7 @@
         <v>14.285714285714</v>
       </c>
       <c r="E27" s="2">
-        <v>13951</v>
+        <v>13953</v>
       </c>
       <c r="F27" s="2">
         <v>230</v>
@@ -1026,7 +1026,7 @@
         <v>15.428571428571</v>
       </c>
       <c r="E28" s="2">
-        <v>14552</v>
+        <v>14554</v>
       </c>
       <c r="F28" s="2">
         <v>601</v>
@@ -1049,7 +1049,7 @@
         <v>15.285714285714</v>
       </c>
       <c r="E29" s="2">
-        <v>15091</v>
+        <v>15093</v>
       </c>
       <c r="F29" s="2">
         <v>539</v>
@@ -1072,13 +1072,13 @@
         <v>15.857142857142</v>
       </c>
       <c r="E30" s="2">
-        <v>15789</v>
+        <v>15790</v>
       </c>
       <c r="F30" s="2">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="G30" s="4">
-        <v>0.032437171244</v>
+        <v>0.032446653025</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -1098,10 +1098,10 @@
         <v>16636</v>
       </c>
       <c r="F31" s="2">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="G31" s="4">
-        <v>0.031797359202</v>
+        <v>0.031814505257</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -1118,13 +1118,13 @@
         <v>15.285714285714</v>
       </c>
       <c r="E32" s="2">
-        <v>17368</v>
+        <v>17367</v>
       </c>
       <c r="F32" s="2">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="G32" s="4">
-        <v>0.027591542031</v>
+        <v>0.027612903225</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -1141,13 +1141,13 @@
         <v>15.857142857142</v>
       </c>
       <c r="E33" s="2">
-        <v>17656</v>
+        <v>17655</v>
       </c>
       <c r="F33" s="2">
         <v>288</v>
       </c>
       <c r="G33" s="4">
-        <v>0.028208386277</v>
+        <v>0.028229908443</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -1164,13 +1164,13 @@
         <v>14.857142857142</v>
       </c>
       <c r="E34" s="2">
-        <v>17920</v>
+        <v>17919</v>
       </c>
       <c r="F34" s="2">
         <v>264</v>
       </c>
       <c r="G34" s="4">
-        <v>0.026203073822</v>
+        <v>0.026222894604</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -1187,13 +1187,13 @@
         <v>15.285714285714</v>
       </c>
       <c r="E35" s="2">
-        <v>18698</v>
+        <v>18697</v>
       </c>
       <c r="F35" s="2">
         <v>778</v>
       </c>
       <c r="G35" s="4">
-        <v>0.025808007718</v>
+        <v>0.025826695631</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -1210,13 +1210,13 @@
         <v>15.428571428571</v>
       </c>
       <c r="E36" s="2">
-        <v>19378</v>
+        <v>19377</v>
       </c>
       <c r="F36" s="2">
         <v>680</v>
       </c>
       <c r="G36" s="4">
-        <v>0.025192442267</v>
+        <v>0.025210084033</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -1233,13 +1233,13 @@
         <v>16.428571428571</v>
       </c>
       <c r="E37" s="2">
-        <v>20343</v>
+        <v>20342</v>
       </c>
       <c r="F37" s="2">
         <v>965</v>
       </c>
       <c r="G37" s="4">
-        <v>0.025252525252</v>
+        <v>0.025263620386</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -1256,13 +1256,13 @@
         <v>14.428571428571</v>
       </c>
       <c r="E38" s="2">
-        <v>21240</v>
+        <v>21239</v>
       </c>
       <c r="F38" s="2">
         <v>897</v>
       </c>
       <c r="G38" s="4">
-        <v>0.021937445699</v>
+        <v>0.021942211601</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -1279,7 +1279,7 @@
         <v>15.285714285714</v>
       </c>
       <c r="E39" s="2">
-        <v>22380</v>
+        <v>22379</v>
       </c>
       <c r="F39" s="2">
         <v>1140</v>
@@ -1302,7 +1302,7 @@
         <v>14.714285714285</v>
       </c>
       <c r="E40" s="2">
-        <v>22762</v>
+        <v>22761</v>
       </c>
       <c r="F40" s="2">
         <v>382</v>
@@ -1325,7 +1325,7 @@
         <v>15.142857142857</v>
       </c>
       <c r="E41" s="2">
-        <v>23105</v>
+        <v>23104</v>
       </c>
       <c r="F41" s="2">
         <v>343</v>
@@ -1348,7 +1348,7 @@
         <v>13</v>
       </c>
       <c r="E42" s="2">
-        <v>24208</v>
+        <v>24207</v>
       </c>
       <c r="F42" s="2">
         <v>1103</v>
@@ -1371,7 +1371,7 @@
         <v>12.285714285714</v>
       </c>
       <c r="E43" s="2">
-        <v>25439</v>
+        <v>25438</v>
       </c>
       <c r="F43" s="2">
         <v>1231</v>
@@ -1394,13 +1394,13 @@
         <v>12.857142857142</v>
       </c>
       <c r="E44" s="2">
-        <v>26533</v>
+        <v>26531</v>
       </c>
       <c r="F44" s="2">
-        <v>1094</v>
+        <v>1093</v>
       </c>
       <c r="G44" s="4">
-        <v>0.014539579967</v>
+        <v>0.014541929229</v>
       </c>
     </row>
     <row r="45" spans="1:7">
@@ -1417,13 +1417,13 @@
         <v>14</v>
       </c>
       <c r="E45" s="2">
-        <v>27394</v>
+        <v>27392</v>
       </c>
       <c r="F45" s="2">
         <v>861</v>
       </c>
       <c r="G45" s="4">
-        <v>0.015924601884</v>
+        <v>0.015927189988</v>
       </c>
     </row>
     <row r="46" spans="1:7">
@@ -1440,13 +1440,13 @@
         <v>15.714285714285</v>
       </c>
       <c r="E46" s="2">
-        <v>28313</v>
+        <v>28311</v>
       </c>
       <c r="F46" s="2">
         <v>919</v>
       </c>
       <c r="G46" s="4">
-        <v>0.018540367436</v>
+        <v>0.018543492919</v>
       </c>
     </row>
     <row r="47" spans="1:7">
@@ -1463,13 +1463,13 @@
         <v>17.571428571428</v>
       </c>
       <c r="E47" s="2">
-        <v>28722</v>
+        <v>28720</v>
       </c>
       <c r="F47" s="2">
         <v>409</v>
       </c>
       <c r="G47" s="4">
-        <v>0.020637583892</v>
+        <v>0.020641047155</v>
       </c>
     </row>
     <row r="48" spans="1:7">
@@ -1486,13 +1486,13 @@
         <v>18</v>
       </c>
       <c r="E48" s="2">
-        <v>29111</v>
+        <v>29106</v>
       </c>
       <c r="F48" s="2">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="G48" s="4">
-        <v>0.020979020979</v>
+        <v>0.020993002332</v>
       </c>
     </row>
     <row r="49" spans="1:7">
@@ -1509,13 +1509,13 @@
         <v>22.428571428571</v>
       </c>
       <c r="E49" s="2">
-        <v>30476</v>
+        <v>30471</v>
       </c>
       <c r="F49" s="2">
         <v>1365</v>
       </c>
       <c r="G49" s="4">
-        <v>0.025047862156</v>
+        <v>0.02506385696</v>
       </c>
     </row>
     <row r="50" spans="1:7">
@@ -1532,13 +1532,13 @@
         <v>25.714285714285</v>
       </c>
       <c r="E50" s="2">
-        <v>32135</v>
+        <v>32130</v>
       </c>
       <c r="F50" s="2">
         <v>1659</v>
       </c>
       <c r="G50" s="4">
-        <v>0.02688172043</v>
+        <v>0.026897788404</v>
       </c>
     </row>
     <row r="51" spans="1:7">
@@ -1555,13 +1555,13 @@
         <v>26.142857142857</v>
       </c>
       <c r="E51" s="2">
-        <v>33275</v>
+        <v>33270</v>
       </c>
       <c r="F51" s="2">
         <v>1140</v>
       </c>
       <c r="G51" s="4">
-        <v>0.027143280925</v>
+        <v>0.027155364297</v>
       </c>
     </row>
     <row r="52" spans="1:7">
@@ -1578,13 +1578,13 @@
         <v>27.428571428571</v>
       </c>
       <c r="E52" s="2">
-        <v>34406</v>
+        <v>34401</v>
       </c>
       <c r="F52" s="2">
         <v>1131</v>
       </c>
       <c r="G52" s="4">
-        <v>0.027381631488</v>
+        <v>0.027393351405</v>
       </c>
     </row>
     <row r="53" spans="1:7">
@@ -1601,13 +1601,13 @@
         <v>29.142857142857</v>
       </c>
       <c r="E53" s="2">
-        <v>35495</v>
+        <v>35490</v>
       </c>
       <c r="F53" s="2">
         <v>1089</v>
       </c>
       <c r="G53" s="4">
-        <v>0.028404344193</v>
+        <v>0.028416213957</v>
       </c>
     </row>
     <row r="54" spans="1:7">
@@ -1624,13 +1624,13 @@
         <v>28</v>
       </c>
       <c r="E54" s="2">
-        <v>36014</v>
+        <v>36009</v>
       </c>
       <c r="F54" s="2">
         <v>519</v>
       </c>
       <c r="G54" s="4">
-        <v>0.026878771256</v>
+        <v>0.026889833996</v>
       </c>
     </row>
     <row r="55" spans="1:7">
@@ -1647,7 +1647,7 @@
         <v>27.571428571428</v>
       </c>
       <c r="E55" s="2">
-        <v>36405</v>
+        <v>36400</v>
       </c>
       <c r="F55" s="2">
         <v>391</v>
@@ -1670,13 +1670,13 @@
         <v>23.285714285714</v>
       </c>
       <c r="E56" s="2">
-        <v>36867</v>
+        <v>36861</v>
       </c>
       <c r="F56" s="2">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="G56" s="4">
-        <v>0.025504615866</v>
+        <v>0.025508607198</v>
       </c>
     </row>
     <row r="57" spans="1:7">
@@ -1693,13 +1693,13 @@
         <v>23.714285714285</v>
       </c>
       <c r="E57" s="2">
-        <v>38064</v>
+        <v>38058</v>
       </c>
       <c r="F57" s="2">
         <v>1197</v>
       </c>
       <c r="G57" s="4">
-        <v>0.027997976049</v>
+        <v>0.028002699055</v>
       </c>
     </row>
     <row r="58" spans="1:7">
@@ -1716,13 +1716,13 @@
         <v>23.714285714285</v>
       </c>
       <c r="E58" s="2">
-        <v>39173</v>
+        <v>39166</v>
       </c>
       <c r="F58" s="2">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="G58" s="4">
-        <v>0.028145133943</v>
+        <v>0.028154681139</v>
       </c>
     </row>
     <row r="59" spans="1:7">
@@ -1739,13 +1739,13 @@
         <v>26.285714285714</v>
       </c>
       <c r="E59" s="2">
-        <v>40309</v>
+        <v>40302</v>
       </c>
       <c r="F59" s="2">
         <v>1136</v>
       </c>
       <c r="G59" s="4">
-        <v>0.031170591224</v>
+        <v>0.031181155736</v>
       </c>
     </row>
     <row r="60" spans="1:7">
@@ -1762,13 +1762,13 @@
         <v>26.285714285714</v>
       </c>
       <c r="E60" s="2">
-        <v>41710</v>
+        <v>41703</v>
       </c>
       <c r="F60" s="2">
         <v>1401</v>
       </c>
       <c r="G60" s="4">
-        <v>0.029605792437</v>
+        <v>0.02961532271</v>
       </c>
     </row>
     <row r="61" spans="1:7">
@@ -1785,13 +1785,13 @@
         <v>26</v>
       </c>
       <c r="E61" s="2">
-        <v>42444</v>
+        <v>42437</v>
       </c>
       <c r="F61" s="2">
         <v>734</v>
       </c>
       <c r="G61" s="4">
-        <v>0.02830482115</v>
+        <v>0.028313627878</v>
       </c>
     </row>
     <row r="62" spans="1:7">
@@ -1808,13 +1808,13 @@
         <v>25.714285714285</v>
       </c>
       <c r="E62" s="2">
-        <v>42840</v>
+        <v>42833</v>
       </c>
       <c r="F62" s="2">
         <v>396</v>
       </c>
       <c r="G62" s="4">
-        <v>0.027972027972</v>
+        <v>0.027980724389</v>
       </c>
     </row>
     <row r="63" spans="1:7">
@@ -1831,13 +1831,13 @@
         <v>29</v>
       </c>
       <c r="E63" s="2">
-        <v>44215</v>
+        <v>44208</v>
       </c>
       <c r="F63" s="2">
         <v>1375</v>
       </c>
       <c r="G63" s="4">
-        <v>0.027626565051</v>
+        <v>0.027630325302</v>
       </c>
     </row>
     <row r="64" spans="1:7">
@@ -1854,13 +1854,13 @@
         <v>28</v>
       </c>
       <c r="E64" s="2">
-        <v>45432</v>
+        <v>45425</v>
       </c>
       <c r="F64" s="2">
         <v>1217</v>
       </c>
       <c r="G64" s="4">
-        <v>0.026601520086</v>
+        <v>0.026605130989</v>
       </c>
     </row>
     <row r="65" spans="1:7">
@@ -1877,13 +1877,13 @@
         <v>27.571428571428</v>
       </c>
       <c r="E65" s="2">
-        <v>46595</v>
+        <v>46589</v>
       </c>
       <c r="F65" s="2">
-        <v>1163</v>
+        <v>1164</v>
       </c>
       <c r="G65" s="4">
-        <v>0.026003772568</v>
+        <v>0.026000269432</v>
       </c>
     </row>
     <row r="66" spans="1:7">
@@ -1900,13 +1900,13 @@
         <v>28.285714285714</v>
       </c>
       <c r="E66" s="2">
-        <v>47946</v>
+        <v>47940</v>
       </c>
       <c r="F66" s="2">
         <v>1351</v>
       </c>
       <c r="G66" s="4">
-        <v>0.025926410894</v>
+        <v>0.025923016496</v>
       </c>
     </row>
     <row r="67" spans="1:7">
@@ -1923,13 +1923,13 @@
         <v>29.285714285714</v>
       </c>
       <c r="E67" s="2">
-        <v>49576</v>
+        <v>49570</v>
       </c>
       <c r="F67" s="2">
         <v>1630</v>
       </c>
       <c r="G67" s="4">
-        <v>0.026061530638</v>
+        <v>0.026058217872</v>
       </c>
     </row>
     <row r="68" spans="1:7">
@@ -1946,13 +1946,13 @@
         <v>30.571428571428</v>
       </c>
       <c r="E68" s="2">
-        <v>50181</v>
+        <v>50175</v>
       </c>
       <c r="F68" s="2">
         <v>605</v>
       </c>
       <c r="G68" s="4">
-        <v>0.02765929947</v>
+        <v>0.027655724993</v>
       </c>
     </row>
     <row r="69" spans="1:7">
@@ -1969,10 +1969,10 @@
         <v>32.428571428571</v>
       </c>
       <c r="E69" s="2">
-        <v>50666</v>
+        <v>50659</v>
       </c>
       <c r="F69" s="2">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="G69" s="4">
         <v>0.029005877843</v>
@@ -1992,13 +1992,13 @@
         <v>34.714285714285</v>
       </c>
       <c r="E70" s="2">
-        <v>52504</v>
+        <v>52496</v>
       </c>
       <c r="F70" s="2">
-        <v>1838</v>
+        <v>1837</v>
       </c>
       <c r="G70" s="4">
-        <v>0.029315960912</v>
+        <v>0.029319498069</v>
       </c>
     </row>
     <row r="71" spans="1:7">
@@ -2015,13 +2015,13 @@
         <v>36.428571428571</v>
       </c>
       <c r="E71" s="2">
-        <v>54350</v>
+        <v>54342</v>
       </c>
       <c r="F71" s="2">
         <v>1846</v>
       </c>
       <c r="G71" s="4">
-        <v>0.028593855124</v>
+        <v>0.028597061792</v>
       </c>
     </row>
     <row r="72" spans="1:7">
@@ -2038,13 +2038,13 @@
         <v>40</v>
       </c>
       <c r="E72" s="2">
-        <v>56341</v>
+        <v>56333</v>
       </c>
       <c r="F72" s="2">
         <v>1991</v>
       </c>
       <c r="G72" s="4">
-        <v>0.028729735276</v>
+        <v>0.028735632183</v>
       </c>
     </row>
     <row r="73" spans="1:7">
@@ -2061,13 +2061,13 @@
         <v>40.285714285714</v>
       </c>
       <c r="E73" s="2">
-        <v>58496</v>
+        <v>58488</v>
       </c>
       <c r="F73" s="2">
         <v>2155</v>
       </c>
       <c r="G73" s="4">
-        <v>0.026729857819</v>
+        <v>0.026734926052</v>
       </c>
     </row>
     <row r="74" spans="1:7">
@@ -2084,13 +2084,13 @@
         <v>41.857142857142</v>
       </c>
       <c r="E74" s="2">
-        <v>60757</v>
+        <v>60749</v>
       </c>
       <c r="F74" s="2">
         <v>2261</v>
       </c>
       <c r="G74" s="4">
-        <v>0.026205169483</v>
+        <v>0.026209857769</v>
       </c>
     </row>
     <row r="75" spans="1:7">
@@ -2107,13 +2107,13 @@
         <v>44.142857142857</v>
       </c>
       <c r="E75" s="2">
-        <v>61600</v>
+        <v>61593</v>
       </c>
       <c r="F75" s="2">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="G75" s="4">
-        <v>0.027060162886</v>
+        <v>0.027062532842</v>
       </c>
     </row>
     <row r="76" spans="1:7">
@@ -2130,7 +2130,7 @@
         <v>45.428571428571</v>
       </c>
       <c r="E76" s="2">
-        <v>62187</v>
+        <v>62180</v>
       </c>
       <c r="F76" s="2">
         <v>587</v>
@@ -2153,13 +2153,13 @@
         <v>46.714285714285</v>
       </c>
       <c r="E77" s="2">
-        <v>64408</v>
+        <v>64401</v>
       </c>
       <c r="F77" s="2">
         <v>2221</v>
       </c>
       <c r="G77" s="4">
-        <v>0.027469758064</v>
+        <v>0.02746745065</v>
       </c>
     </row>
     <row r="78" spans="1:7">
@@ -2176,13 +2176,13 @@
         <v>52.571428571428</v>
       </c>
       <c r="E78" s="2">
-        <v>66931</v>
+        <v>66930</v>
       </c>
       <c r="F78" s="2">
-        <v>2523</v>
+        <v>2529</v>
       </c>
       <c r="G78" s="4">
-        <v>0.029250457038</v>
+        <v>0.029234191293</v>
       </c>
     </row>
     <row r="79" spans="1:7">
@@ -2199,13 +2199,13 @@
         <v>57.285714285714</v>
       </c>
       <c r="E79" s="2">
-        <v>69503</v>
+        <v>69505</v>
       </c>
       <c r="F79" s="2">
-        <v>2572</v>
+        <v>2575</v>
       </c>
       <c r="G79" s="4">
-        <v>0.030466494453</v>
+        <v>0.030443364713</v>
       </c>
     </row>
     <row r="80" spans="1:7">
@@ -2222,13 +2222,13 @@
         <v>62.57142857142801</v>
       </c>
       <c r="E80" s="2">
-        <v>72033</v>
+        <v>72037</v>
       </c>
       <c r="F80" s="2">
-        <v>2530</v>
+        <v>2532</v>
       </c>
       <c r="G80" s="4">
-        <v>0.032355765679</v>
+        <v>0.032327109011</v>
       </c>
     </row>
     <row r="81" spans="1:7">
@@ -2245,13 +2245,13 @@
         <v>68.85714285714199</v>
       </c>
       <c r="E81" s="2">
-        <v>74476</v>
+        <v>74480</v>
       </c>
       <c r="F81" s="2">
         <v>2443</v>
       </c>
       <c r="G81" s="4">
-        <v>0.035133756104</v>
+        <v>0.035103051489</v>
       </c>
     </row>
     <row r="82" spans="1:7">
@@ -2268,13 +2268,13 @@
         <v>71.428571428571</v>
       </c>
       <c r="E82" s="2">
-        <v>75429</v>
+        <v>75433</v>
       </c>
       <c r="F82" s="2">
         <v>953</v>
       </c>
       <c r="G82" s="4">
-        <v>0.036155904259</v>
+        <v>0.03612716763</v>
       </c>
     </row>
     <row r="83" spans="1:7">
@@ -2291,13 +2291,13 @@
         <v>73.28571428571399</v>
       </c>
       <c r="E83" s="2">
-        <v>76127</v>
+        <v>76131</v>
       </c>
       <c r="F83" s="2">
         <v>698</v>
       </c>
       <c r="G83" s="4">
-        <v>0.036800573888</v>
+        <v>0.036771557594</v>
       </c>
     </row>
     <row r="84" spans="1:7">
@@ -2314,13 +2314,13 @@
         <v>81</v>
       </c>
       <c r="E84" s="2">
-        <v>78745</v>
+        <v>78749</v>
       </c>
       <c r="F84" s="2">
         <v>2618</v>
       </c>
       <c r="G84" s="4">
-        <v>0.039548022598</v>
+        <v>0.039517702815</v>
       </c>
     </row>
     <row r="85" spans="1:7">
@@ -2337,13 +2337,13 @@
         <v>88</v>
       </c>
       <c r="E85" s="2">
-        <v>81531</v>
+        <v>81534</v>
       </c>
       <c r="F85" s="2">
-        <v>2786</v>
+        <v>2785</v>
       </c>
       <c r="G85" s="4">
-        <v>0.042191780821</v>
+        <v>0.042180224596</v>
       </c>
     </row>
     <row r="86" spans="1:7">
@@ -2360,13 +2360,13 @@
         <v>96</v>
       </c>
       <c r="E86" s="2">
-        <v>84564</v>
+        <v>84571</v>
       </c>
       <c r="F86" s="2">
-        <v>3033</v>
+        <v>3037</v>
       </c>
       <c r="G86" s="4">
-        <v>0.044618551225</v>
+        <v>0.044603743528</v>
       </c>
     </row>
     <row r="87" spans="1:7">
@@ -2383,13 +2383,13 @@
         <v>104.714285714285</v>
       </c>
       <c r="E87" s="2">
-        <v>87928</v>
+        <v>87938</v>
       </c>
       <c r="F87" s="2">
-        <v>3364</v>
+        <v>3367</v>
       </c>
       <c r="G87" s="4">
-        <v>0.046115130544</v>
+        <v>0.046097729702</v>
       </c>
     </row>
     <row r="88" spans="1:7">
@@ -2406,13 +2406,13 @@
         <v>114.428571428571</v>
       </c>
       <c r="E88" s="2">
-        <v>90898</v>
+        <v>90908</v>
       </c>
       <c r="F88" s="2">
         <v>2970</v>
       </c>
       <c r="G88" s="4">
-        <v>0.048776032151</v>
+        <v>0.048758217677</v>
       </c>
     </row>
     <row r="89" spans="1:7">
@@ -2429,13 +2429,13 @@
         <v>118.428571428571</v>
       </c>
       <c r="E89" s="2">
-        <v>91972</v>
+        <v>91982</v>
       </c>
       <c r="F89" s="2">
         <v>1074</v>
       </c>
       <c r="G89" s="4">
-        <v>0.050111829776</v>
+        <v>0.050093661248</v>
       </c>
     </row>
     <row r="90" spans="1:7">
@@ -2452,13 +2452,13 @@
         <v>121.142857142857</v>
       </c>
       <c r="E90" s="2">
-        <v>92768</v>
+        <v>92778</v>
       </c>
       <c r="F90" s="2">
         <v>796</v>
       </c>
       <c r="G90" s="4">
-        <v>0.050958476053</v>
+        <v>0.050940109329</v>
       </c>
     </row>
     <row r="91" spans="1:7">
@@ -2475,13 +2475,13 @@
         <v>133.428571428571</v>
       </c>
       <c r="E91" s="2">
-        <v>96451</v>
+        <v>96462</v>
       </c>
       <c r="F91" s="2">
-        <v>3683</v>
+        <v>3684</v>
       </c>
       <c r="G91" s="4">
-        <v>0.052750480063</v>
+        <v>0.052729633602</v>
       </c>
     </row>
     <row r="92" spans="1:7">
@@ -2498,13 +2498,13 @@
         <v>137</v>
       </c>
       <c r="E92" s="2">
-        <v>99935</v>
+        <v>99947</v>
       </c>
       <c r="F92" s="2">
-        <v>3484</v>
+        <v>3485</v>
       </c>
       <c r="G92" s="4">
-        <v>0.052108237339</v>
+        <v>0.052082767609</v>
       </c>
     </row>
     <row r="93" spans="1:7">
@@ -2521,13 +2521,13 @@
         <v>141.285714285714</v>
       </c>
       <c r="E93" s="2">
-        <v>103478</v>
+        <v>103490</v>
       </c>
       <c r="F93" s="2">
         <v>3543</v>
       </c>
       <c r="G93" s="4">
-        <v>0.052289309506</v>
+        <v>0.052275490247</v>
       </c>
     </row>
     <row r="94" spans="1:7">
@@ -2544,13 +2544,13 @@
         <v>149.857142857142</v>
       </c>
       <c r="E94" s="2">
-        <v>107402</v>
+        <v>107414</v>
       </c>
       <c r="F94" s="2">
         <v>3924</v>
       </c>
       <c r="G94" s="4">
-        <v>0.053866694053</v>
+        <v>0.053861162456</v>
       </c>
     </row>
     <row r="95" spans="1:7">
@@ -2567,13 +2567,13 @@
         <v>146.142857142857</v>
       </c>
       <c r="E95" s="2">
-        <v>110043</v>
+        <v>110055</v>
       </c>
       <c r="F95" s="2">
         <v>2641</v>
       </c>
       <c r="G95" s="4">
-        <v>0.053434317054</v>
+        <v>0.053428735572</v>
       </c>
     </row>
     <row r="96" spans="1:7">
@@ -2590,13 +2590,13 @@
         <v>148</v>
       </c>
       <c r="E96" s="2">
-        <v>111160</v>
+        <v>111173</v>
       </c>
       <c r="F96" s="2">
-        <v>1117</v>
+        <v>1118</v>
       </c>
       <c r="G96" s="4">
-        <v>0.053992078382</v>
+        <v>0.053983638163</v>
       </c>
     </row>
     <row r="97" spans="1:7">
@@ -2613,13 +2613,13 @@
         <v>151.857142857142</v>
       </c>
       <c r="E97" s="2">
-        <v>112289</v>
+        <v>112302</v>
       </c>
       <c r="F97" s="2">
         <v>1129</v>
       </c>
       <c r="G97" s="4">
-        <v>0.054454177552</v>
+        <v>0.054445810284</v>
       </c>
     </row>
     <row r="98" spans="1:7">
@@ -2636,13 +2636,13 @@
         <v>152.857142857142</v>
       </c>
       <c r="E98" s="2">
-        <v>116368</v>
+        <v>116385</v>
       </c>
       <c r="F98" s="2">
-        <v>4079</v>
+        <v>4083</v>
       </c>
       <c r="G98" s="4">
-        <v>0.053722950243</v>
+        <v>0.053706771068</v>
       </c>
     </row>
     <row r="99" spans="1:7">
@@ -2659,13 +2659,13 @@
         <v>161.142857142857</v>
       </c>
       <c r="E99" s="2">
-        <v>120451</v>
+        <v>120469</v>
       </c>
       <c r="F99" s="2">
-        <v>4083</v>
+        <v>4084</v>
       </c>
       <c r="G99" s="4">
-        <v>0.05498147787</v>
+        <v>0.054965402982</v>
       </c>
     </row>
     <row r="100" spans="1:7">
@@ -2682,13 +2682,13 @@
         <v>168.571428571428</v>
       </c>
       <c r="E100" s="2">
-        <v>124715</v>
+        <v>124733</v>
       </c>
       <c r="F100" s="2">
         <v>4264</v>
       </c>
       <c r="G100" s="4">
-        <v>0.055563403493</v>
+        <v>0.055547709833</v>
       </c>
     </row>
     <row r="101" spans="1:7">
@@ -2705,13 +2705,13 @@
         <v>174.285714285714</v>
       </c>
       <c r="E101" s="2">
-        <v>129318</v>
+        <v>129336</v>
       </c>
       <c r="F101" s="2">
         <v>4603</v>
       </c>
       <c r="G101" s="4">
-        <v>0.055667092535</v>
+        <v>0.055651856582</v>
       </c>
     </row>
     <row r="102" spans="1:7">
@@ -2728,13 +2728,13 @@
         <v>188.857142857142</v>
       </c>
       <c r="E102" s="2">
-        <v>133781</v>
+        <v>133798</v>
       </c>
       <c r="F102" s="2">
-        <v>4463</v>
+        <v>4462</v>
       </c>
       <c r="G102" s="4">
-        <v>0.055691296655</v>
+        <v>0.055679568714</v>
       </c>
     </row>
     <row r="103" spans="1:7">
@@ -2751,13 +2751,13 @@
         <v>195.571428571428</v>
       </c>
       <c r="E103" s="2">
-        <v>135856</v>
+        <v>135872</v>
       </c>
       <c r="F103" s="2">
-        <v>2075</v>
+        <v>2074</v>
       </c>
       <c r="G103" s="4">
-        <v>0.055434078393</v>
+        <v>0.055427345236</v>
       </c>
     </row>
     <row r="104" spans="1:7">
@@ -2765,22 +2765,22 @@
         <v>44024</v>
       </c>
       <c r="B104" s="2">
-        <v>5937</v>
+        <v>5936</v>
       </c>
       <c r="C104" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D104" s="3">
-        <v>197.714285714285</v>
+        <v>197.571428571428</v>
       </c>
       <c r="E104" s="2">
-        <v>137182</v>
+        <v>137197</v>
       </c>
       <c r="F104" s="2">
-        <v>1326</v>
+        <v>1325</v>
       </c>
       <c r="G104" s="4">
-        <v>0.055597959265</v>
+        <v>0.05555332396</v>
       </c>
     </row>
     <row r="105" spans="1:7">
@@ -2788,22 +2788,22 @@
         <v>44025</v>
       </c>
       <c r="B105" s="2">
-        <v>6198</v>
+        <v>6197</v>
       </c>
       <c r="C105" s="2">
         <v>261</v>
       </c>
       <c r="D105" s="3">
-        <v>205.857142857142</v>
+        <v>205.714285714285</v>
       </c>
       <c r="E105" s="2">
-        <v>141788</v>
+        <v>141803</v>
       </c>
       <c r="F105" s="2">
         <v>4606</v>
       </c>
       <c r="G105" s="4">
-        <v>0.056687647521</v>
+        <v>0.056652765756</v>
       </c>
     </row>
     <row r="106" spans="1:7">
@@ -2811,22 +2811,22 @@
         <v>44026</v>
       </c>
       <c r="B106" s="2">
-        <v>6453</v>
+        <v>6452</v>
       </c>
       <c r="C106" s="2">
         <v>255</v>
       </c>
       <c r="D106" s="3">
-        <v>211.428571428571</v>
+        <v>211.285714285714</v>
       </c>
       <c r="E106" s="2">
-        <v>145556</v>
+        <v>145571</v>
       </c>
       <c r="F106" s="2">
         <v>3768</v>
       </c>
       <c r="G106" s="4">
-        <v>0.05895239992</v>
+        <v>0.058919607999</v>
       </c>
     </row>
     <row r="107" spans="1:7">
@@ -2834,22 +2834,22 @@
         <v>44027</v>
       </c>
       <c r="B107" s="2">
-        <v>6713</v>
+        <v>6712</v>
       </c>
       <c r="C107" s="2">
         <v>260</v>
       </c>
       <c r="D107" s="3">
-        <v>216.428571428571</v>
+        <v>216.285714285714</v>
       </c>
       <c r="E107" s="2">
-        <v>149905</v>
+        <v>149920</v>
       </c>
       <c r="F107" s="2">
         <v>4349</v>
       </c>
       <c r="G107" s="4">
-        <v>0.060142913854</v>
+        <v>0.060110374399</v>
       </c>
     </row>
     <row r="108" spans="1:7">
@@ -2857,22 +2857,22 @@
         <v>44028</v>
       </c>
       <c r="B108" s="2">
-        <v>6969</v>
+        <v>6968</v>
       </c>
       <c r="C108" s="2">
         <v>256</v>
       </c>
       <c r="D108" s="3">
-        <v>217</v>
+        <v>216.857142857142</v>
       </c>
       <c r="E108" s="2">
-        <v>154095</v>
+        <v>154111</v>
       </c>
       <c r="F108" s="2">
-        <v>4190</v>
+        <v>4191</v>
       </c>
       <c r="G108" s="4">
-        <v>0.061306857165</v>
+        <v>0.061271442986</v>
       </c>
     </row>
     <row r="109" spans="1:7">
@@ -2880,22 +2880,22 @@
         <v>44029</v>
       </c>
       <c r="B109" s="2">
-        <v>7219</v>
+        <v>7218</v>
       </c>
       <c r="C109" s="2">
         <v>250</v>
       </c>
       <c r="D109" s="3">
-        <v>217.571428571428</v>
+        <v>217.428571428571</v>
       </c>
       <c r="E109" s="2">
-        <v>158301</v>
+        <v>158318</v>
       </c>
       <c r="F109" s="2">
-        <v>4206</v>
+        <v>4207</v>
       </c>
       <c r="G109" s="4">
-        <v>0.062112561174</v>
+        <v>0.06207177814</v>
       </c>
     </row>
     <row r="110" spans="1:7">
@@ -2903,22 +2903,22 @@
         <v>44030</v>
       </c>
       <c r="B110" s="2">
-        <v>7348</v>
+        <v>7347</v>
       </c>
       <c r="C110" s="2">
         <v>129</v>
       </c>
       <c r="D110" s="3">
-        <v>216</v>
+        <v>215.857142857142</v>
       </c>
       <c r="E110" s="2">
-        <v>160529</v>
+        <v>160546</v>
       </c>
       <c r="F110" s="2">
         <v>2228</v>
       </c>
       <c r="G110" s="4">
-        <v>0.061281562841</v>
+        <v>0.061238550701</v>
       </c>
     </row>
     <row r="111" spans="1:7">
@@ -2926,7 +2926,7 @@
         <v>44031</v>
       </c>
       <c r="B111" s="2">
-        <v>7447</v>
+        <v>7446</v>
       </c>
       <c r="C111" s="2">
         <v>99</v>
@@ -2935,13 +2935,13 @@
         <v>215.714285714285</v>
       </c>
       <c r="E111" s="2">
-        <v>161788</v>
+        <v>161806</v>
       </c>
       <c r="F111" s="2">
-        <v>1259</v>
+        <v>1260</v>
       </c>
       <c r="G111" s="4">
-        <v>0.061367146224</v>
+        <v>0.061359665163</v>
       </c>
     </row>
     <row r="112" spans="1:7">
@@ -2952,19 +2952,19 @@
         <v>7738</v>
       </c>
       <c r="C112" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="D112" s="3">
-        <v>220</v>
+        <v>220.142857142857</v>
       </c>
       <c r="E112" s="2">
-        <v>166040</v>
+        <v>166059</v>
       </c>
       <c r="F112" s="2">
-        <v>4252</v>
+        <v>4253</v>
       </c>
       <c r="G112" s="4">
-        <v>0.063499917532</v>
+        <v>0.063530672823</v>
       </c>
     </row>
     <row r="113" spans="1:7">
@@ -2978,16 +2978,16 @@
         <v>241</v>
       </c>
       <c r="D113" s="3">
-        <v>218</v>
+        <v>218.142857142857</v>
       </c>
       <c r="E113" s="2">
-        <v>169881</v>
+        <v>169900</v>
       </c>
       <c r="F113" s="2">
         <v>3841</v>
       </c>
       <c r="G113" s="4">
-        <v>0.062733812949</v>
+        <v>0.062764601915</v>
       </c>
     </row>
     <row r="114" spans="1:7">
@@ -3001,16 +3001,16 @@
         <v>250</v>
       </c>
       <c r="D114" s="3">
-        <v>216.571428571428</v>
+        <v>216.714285714285</v>
       </c>
       <c r="E114" s="2">
-        <v>173546</v>
+        <v>173565</v>
       </c>
       <c r="F114" s="2">
         <v>3665</v>
       </c>
       <c r="G114" s="4">
-        <v>0.064125882999</v>
+        <v>0.06415732713</v>
       </c>
     </row>
     <row r="115" spans="1:7">
@@ -3024,16 +3024,16 @@
         <v>233</v>
       </c>
       <c r="D115" s="3">
-        <v>213.285714285714</v>
+        <v>213.428571428571</v>
       </c>
       <c r="E115" s="2">
-        <v>176878</v>
+        <v>176897</v>
       </c>
       <c r="F115" s="2">
         <v>3332</v>
       </c>
       <c r="G115" s="4">
-        <v>0.06553131721</v>
+        <v>0.065566575967</v>
       </c>
     </row>
     <row r="116" spans="1:7">
@@ -3047,16 +3047,16 @@
         <v>220</v>
       </c>
       <c r="D116" s="3">
-        <v>209</v>
+        <v>209.142857142857</v>
       </c>
       <c r="E116" s="2">
-        <v>180558</v>
+        <v>180577</v>
       </c>
       <c r="F116" s="2">
         <v>3680</v>
       </c>
       <c r="G116" s="4">
-        <v>0.065732129217</v>
+        <v>0.065771148748</v>
       </c>
     </row>
     <row r="117" spans="1:7">
@@ -3070,16 +3070,16 @@
         <v>114</v>
       </c>
       <c r="D117" s="3">
-        <v>206.857142857142</v>
+        <v>207</v>
       </c>
       <c r="E117" s="2">
-        <v>182194</v>
+        <v>182213</v>
       </c>
       <c r="F117" s="2">
         <v>1636</v>
       </c>
       <c r="G117" s="4">
-        <v>0.066835910454</v>
+        <v>0.06687589421700001</v>
       </c>
     </row>
     <row r="118" spans="1:7">
@@ -3093,16 +3093,16 @@
         <v>103</v>
       </c>
       <c r="D118" s="3">
-        <v>207.428571428571</v>
+        <v>207.571428571428</v>
       </c>
       <c r="E118" s="2">
-        <v>183448</v>
+        <v>183467</v>
       </c>
       <c r="F118" s="2">
         <v>1254</v>
       </c>
       <c r="G118" s="4">
-        <v>0.06703601108</v>
+        <v>0.06707908222099999</v>
       </c>
     </row>
     <row r="119" spans="1:7">
@@ -3119,13 +3119,13 @@
         <v>200.714285714285</v>
       </c>
       <c r="E119" s="2">
-        <v>187633</v>
+        <v>187653</v>
       </c>
       <c r="F119" s="2">
-        <v>4185</v>
+        <v>4186</v>
       </c>
       <c r="G119" s="4">
-        <v>0.065067382948</v>
+        <v>0.065064369732</v>
       </c>
     </row>
     <row r="120" spans="1:7">
@@ -3142,13 +3142,13 @@
         <v>203.285714285714</v>
       </c>
       <c r="E120" s="2">
-        <v>191573</v>
+        <v>191594</v>
       </c>
       <c r="F120" s="2">
-        <v>3940</v>
+        <v>3941</v>
       </c>
       <c r="G120" s="4">
-        <v>0.065600221279</v>
+        <v>0.065594173504</v>
       </c>
     </row>
     <row r="121" spans="1:7">
@@ -3165,13 +3165,13 @@
         <v>203.714285714285</v>
       </c>
       <c r="E121" s="2">
-        <v>195439</v>
+        <v>195460</v>
       </c>
       <c r="F121" s="2">
         <v>3866</v>
       </c>
       <c r="G121" s="4">
-        <v>0.065134974649</v>
+        <v>0.065129024891</v>
       </c>
     </row>
     <row r="122" spans="1:7">
@@ -3188,13 +3188,13 @@
         <v>201.714285714285</v>
       </c>
       <c r="E122" s="2">
-        <v>199115</v>
+        <v>199136</v>
       </c>
       <c r="F122" s="2">
         <v>3676</v>
       </c>
       <c r="G122" s="4">
-        <v>0.06349777398000001</v>
+        <v>0.063492063492</v>
       </c>
     </row>
     <row r="123" spans="1:7">
@@ -3211,13 +3211,13 @@
         <v>203.857142857142</v>
       </c>
       <c r="E123" s="2">
-        <v>202667</v>
+        <v>202688</v>
       </c>
       <c r="F123" s="2">
         <v>3552</v>
       </c>
       <c r="G123" s="4">
-        <v>0.06454385092000001</v>
+        <v>0.064538012753</v>
       </c>
     </row>
     <row r="124" spans="1:7">
@@ -3234,13 +3234,13 @@
         <v>203</v>
       </c>
       <c r="E124" s="2">
-        <v>204336</v>
+        <v>204357</v>
       </c>
       <c r="F124" s="2">
         <v>1669</v>
       </c>
       <c r="G124" s="4">
-        <v>0.064176677806</v>
+        <v>0.064170881502</v>
       </c>
     </row>
     <row r="125" spans="1:7">
@@ -3257,13 +3257,13 @@
         <v>199.571428571428</v>
       </c>
       <c r="E125" s="2">
-        <v>205485</v>
+        <v>205506</v>
       </c>
       <c r="F125" s="2">
         <v>1149</v>
       </c>
       <c r="G125" s="4">
-        <v>0.06339338385399999</v>
+        <v>0.063387631017</v>
       </c>
     </row>
     <row r="126" spans="1:7">
@@ -3280,13 +3280,13 @@
         <v>201.285714285714</v>
       </c>
       <c r="E126" s="2">
-        <v>209362</v>
+        <v>209384</v>
       </c>
       <c r="F126" s="2">
-        <v>3877</v>
+        <v>3878</v>
       </c>
       <c r="G126" s="4">
-        <v>0.064844217405</v>
+        <v>0.064838249505</v>
       </c>
     </row>
     <row r="127" spans="1:7">
@@ -3303,13 +3303,13 @@
         <v>198.428571428571</v>
       </c>
       <c r="E127" s="2">
-        <v>212693</v>
+        <v>212715</v>
       </c>
       <c r="F127" s="2">
         <v>3331</v>
       </c>
       <c r="G127" s="4">
-        <v>0.065767045454</v>
+        <v>0.06576393163200001</v>
       </c>
     </row>
     <row r="128" spans="1:7">
@@ -3317,22 +3317,22 @@
         <v>44048</v>
       </c>
       <c r="B128" s="2">
-        <v>10992</v>
+        <v>10993</v>
       </c>
       <c r="C128" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D128" s="3">
-        <v>191</v>
+        <v>191.142857142857</v>
       </c>
       <c r="E128" s="2">
-        <v>215970</v>
+        <v>215993</v>
       </c>
       <c r="F128" s="2">
-        <v>3277</v>
+        <v>3278</v>
       </c>
       <c r="G128" s="4">
-        <v>0.065121036481</v>
+        <v>0.06516339550899999</v>
       </c>
     </row>
     <row r="129" spans="1:7">
@@ -3340,22 +3340,22 @@
         <v>44049</v>
       </c>
       <c r="B129" s="2">
-        <v>11192</v>
+        <v>11193</v>
       </c>
       <c r="C129" s="2">
         <v>200</v>
       </c>
       <c r="D129" s="3">
-        <v>188.285714285714</v>
+        <v>188.428571428571</v>
       </c>
       <c r="E129" s="2">
-        <v>219637</v>
+        <v>219660</v>
       </c>
       <c r="F129" s="2">
         <v>3667</v>
       </c>
       <c r="G129" s="4">
-        <v>0.064223759867</v>
+        <v>0.064266224907</v>
       </c>
     </row>
     <row r="130" spans="1:7">
@@ -3363,22 +3363,22 @@
         <v>44050</v>
       </c>
       <c r="B130" s="2">
-        <v>11377</v>
+        <v>11378</v>
       </c>
       <c r="C130" s="2">
         <v>185</v>
       </c>
       <c r="D130" s="3">
-        <v>181.142857142857</v>
+        <v>181.285714285714</v>
       </c>
       <c r="E130" s="2">
-        <v>222969</v>
+        <v>222992</v>
       </c>
       <c r="F130" s="2">
         <v>3332</v>
       </c>
       <c r="G130" s="4">
-        <v>0.062456900797</v>
+        <v>0.0625</v>
       </c>
     </row>
     <row r="131" spans="1:7">
@@ -3386,22 +3386,22 @@
         <v>44051</v>
       </c>
       <c r="B131" s="2">
-        <v>11497</v>
+        <v>11498</v>
       </c>
       <c r="C131" s="2">
         <v>120</v>
       </c>
       <c r="D131" s="3">
-        <v>182.857142857142</v>
+        <v>183</v>
       </c>
       <c r="E131" s="2">
-        <v>224678</v>
+        <v>224701</v>
       </c>
       <c r="F131" s="2">
         <v>1709</v>
       </c>
       <c r="G131" s="4">
-        <v>0.06292399960599999</v>
+        <v>0.06296696814699999</v>
       </c>
     </row>
     <row r="132" spans="1:7">
@@ -3409,22 +3409,22 @@
         <v>44052</v>
       </c>
       <c r="B132" s="2">
-        <v>11582</v>
+        <v>11583</v>
       </c>
       <c r="C132" s="2">
         <v>85</v>
       </c>
       <c r="D132" s="3">
-        <v>183.714285714285</v>
+        <v>183.857142857142</v>
       </c>
       <c r="E132" s="2">
-        <v>225743</v>
+        <v>225766</v>
       </c>
       <c r="F132" s="2">
         <v>1065</v>
       </c>
       <c r="G132" s="4">
-        <v>0.063481093888</v>
+        <v>0.063524185587</v>
       </c>
     </row>
     <row r="133" spans="1:7">
@@ -3435,19 +3435,19 @@
         <v>11820</v>
       </c>
       <c r="C133" s="2">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D133" s="3">
         <v>181.142857142857</v>
       </c>
       <c r="E133" s="2">
-        <v>229645</v>
+        <v>229669</v>
       </c>
       <c r="F133" s="2">
-        <v>3902</v>
+        <v>3903</v>
       </c>
       <c r="G133" s="4">
-        <v>0.062515406991</v>
+        <v>0.062509243283</v>
       </c>
     </row>
     <row r="134" spans="1:7">
@@ -3464,13 +3464,13 @@
         <v>175.571428571428</v>
       </c>
       <c r="E134" s="2">
-        <v>233065</v>
+        <v>233089</v>
       </c>
       <c r="F134" s="2">
         <v>3420</v>
       </c>
       <c r="G134" s="4">
-        <v>0.06032790104</v>
+        <v>0.060321978992</v>
       </c>
     </row>
     <row r="135" spans="1:7">
@@ -3484,16 +3484,16 @@
         <v>200</v>
       </c>
       <c r="D135" s="3">
-        <v>175.428571428571</v>
+        <v>175.285714285714</v>
       </c>
       <c r="E135" s="2">
-        <v>236929</v>
+        <v>236955</v>
       </c>
       <c r="F135" s="2">
-        <v>3864</v>
+        <v>3866</v>
       </c>
       <c r="G135" s="4">
-        <v>0.058590581611</v>
+        <v>0.058534490983</v>
       </c>
     </row>
     <row r="136" spans="1:7">
@@ -3507,16 +3507,16 @@
         <v>175</v>
       </c>
       <c r="D136" s="3">
-        <v>171.857142857142</v>
+        <v>171.714285714285</v>
       </c>
       <c r="E136" s="2">
-        <v>240198</v>
+        <v>240225</v>
       </c>
       <c r="F136" s="2">
-        <v>3269</v>
+        <v>3270</v>
       </c>
       <c r="G136" s="4">
-        <v>0.058508827391</v>
+        <v>0.058448820812</v>
       </c>
     </row>
     <row r="137" spans="1:7">
@@ -3530,16 +3530,16 @@
         <v>175</v>
       </c>
       <c r="D137" s="3">
-        <v>170.428571428571</v>
+        <v>170.285714285714</v>
       </c>
       <c r="E137" s="2">
-        <v>243560</v>
+        <v>243587</v>
       </c>
       <c r="F137" s="2">
         <v>3362</v>
       </c>
       <c r="G137" s="4">
-        <v>0.057937934048</v>
+        <v>0.057878125758</v>
       </c>
     </row>
     <row r="138" spans="1:7">
@@ -3547,22 +3547,22 @@
         <v>44058</v>
       </c>
       <c r="B138" s="2">
-        <v>12663</v>
+        <v>12664</v>
       </c>
       <c r="C138" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D138" s="3">
         <v>166.571428571428</v>
       </c>
       <c r="E138" s="2">
-        <v>245123</v>
+        <v>245151</v>
       </c>
       <c r="F138" s="2">
-        <v>1563</v>
+        <v>1564</v>
       </c>
       <c r="G138" s="4">
-        <v>0.057031058938</v>
+        <v>0.057017114914</v>
       </c>
     </row>
     <row r="139" spans="1:7">
@@ -3570,7 +3570,7 @@
         <v>44059</v>
       </c>
       <c r="B139" s="2">
-        <v>12708</v>
+        <v>12709</v>
       </c>
       <c r="C139" s="2">
         <v>45</v>
@@ -3579,13 +3579,13 @@
         <v>160.857142857142</v>
       </c>
       <c r="E139" s="2">
-        <v>245898</v>
+        <v>245927</v>
       </c>
       <c r="F139" s="2">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="G139" s="4">
-        <v>0.055867030513</v>
+        <v>0.055850404245</v>
       </c>
     </row>
     <row r="140" spans="1:7">
@@ -3593,22 +3593,22 @@
         <v>44060</v>
       </c>
       <c r="B140" s="2">
-        <v>12921</v>
+        <v>12922</v>
       </c>
       <c r="C140" s="2">
         <v>213</v>
       </c>
       <c r="D140" s="3">
-        <v>157.285714285714</v>
+        <v>157.428571428571</v>
       </c>
       <c r="E140" s="2">
-        <v>249556</v>
+        <v>249585</v>
       </c>
       <c r="F140" s="2">
         <v>3658</v>
       </c>
       <c r="G140" s="4">
-        <v>0.0552960675</v>
+        <v>0.055332396063</v>
       </c>
     </row>
     <row r="141" spans="1:7">
@@ -3616,22 +3616,22 @@
         <v>44061</v>
       </c>
       <c r="B141" s="2">
-        <v>13089</v>
+        <v>13090</v>
       </c>
       <c r="C141" s="2">
         <v>168</v>
       </c>
       <c r="D141" s="3">
-        <v>152.714285714285</v>
+        <v>152.857142857142</v>
       </c>
       <c r="E141" s="2">
-        <v>252639</v>
+        <v>252668</v>
       </c>
       <c r="F141" s="2">
         <v>3083</v>
       </c>
       <c r="G141" s="4">
-        <v>0.054613262491</v>
+        <v>0.054650390724</v>
       </c>
     </row>
     <row r="142" spans="1:7">
@@ -3639,22 +3639,22 @@
         <v>44062</v>
       </c>
       <c r="B142" s="2">
-        <v>13247</v>
+        <v>13248</v>
       </c>
       <c r="C142" s="2">
         <v>158</v>
       </c>
       <c r="D142" s="3">
-        <v>146.714285714285</v>
+        <v>146.857142857142</v>
       </c>
       <c r="E142" s="2">
-        <v>255698</v>
+        <v>255726</v>
       </c>
       <c r="F142" s="2">
-        <v>3059</v>
+        <v>3058</v>
       </c>
       <c r="G142" s="4">
-        <v>0.054717885875</v>
+        <v>0.054765329497</v>
       </c>
     </row>
     <row r="143" spans="1:7">
@@ -3662,22 +3662,22 @@
         <v>44063</v>
       </c>
       <c r="B143" s="2">
-        <v>13379</v>
+        <v>13380</v>
       </c>
       <c r="C143" s="2">
         <v>132</v>
       </c>
       <c r="D143" s="3">
-        <v>140.571428571428</v>
+        <v>140.714285714285</v>
       </c>
       <c r="E143" s="2">
-        <v>258868</v>
+        <v>258896</v>
       </c>
       <c r="F143" s="2">
         <v>3170</v>
       </c>
       <c r="G143" s="4">
-        <v>0.052704874129</v>
+        <v>0.052755610304</v>
       </c>
     </row>
     <row r="144" spans="1:7">
@@ -3685,22 +3685,22 @@
         <v>44064</v>
       </c>
       <c r="B144" s="2">
-        <v>13541</v>
+        <v>13542</v>
       </c>
       <c r="C144" s="2">
         <v>162</v>
       </c>
       <c r="D144" s="3">
-        <v>138.714285714285</v>
+        <v>138.857142857142</v>
       </c>
       <c r="E144" s="2">
-        <v>261908</v>
+        <v>261936</v>
       </c>
       <c r="F144" s="2">
         <v>3040</v>
       </c>
       <c r="G144" s="4">
-        <v>0.052921299324</v>
+        <v>0.052972914055</v>
       </c>
     </row>
     <row r="145" spans="1:7">
@@ -3708,7 +3708,7 @@
         <v>44065</v>
       </c>
       <c r="B145" s="2">
-        <v>13603</v>
+        <v>13604</v>
       </c>
       <c r="C145" s="2">
         <v>62</v>
@@ -3717,7 +3717,7 @@
         <v>134.285714285714</v>
       </c>
       <c r="E145" s="2">
-        <v>263238</v>
+        <v>263266</v>
       </c>
       <c r="F145" s="2">
         <v>1330</v>
@@ -3731,7 +3731,7 @@
         <v>44066</v>
       </c>
       <c r="B146" s="2">
-        <v>13671</v>
+        <v>13672</v>
       </c>
       <c r="C146" s="2">
         <v>68</v>
@@ -3740,10 +3740,10 @@
         <v>137.571428571428</v>
       </c>
       <c r="E146" s="2">
-        <v>264206</v>
+        <v>264235</v>
       </c>
       <c r="F146" s="2">
-        <v>968</v>
+        <v>969</v>
       </c>
       <c r="G146" s="4">
         <v>0.052599956303</v>
@@ -3754,7 +3754,7 @@
         <v>44067</v>
       </c>
       <c r="B147" s="2">
-        <v>13821</v>
+        <v>13822</v>
       </c>
       <c r="C147" s="2">
         <v>150</v>
@@ -3763,7 +3763,7 @@
         <v>128.571428571428</v>
       </c>
       <c r="E147" s="2">
-        <v>267196</v>
+        <v>267225</v>
       </c>
       <c r="F147" s="2">
         <v>2990</v>
@@ -3777,7 +3777,7 @@
         <v>44068</v>
       </c>
       <c r="B148" s="2">
-        <v>13956</v>
+        <v>13957</v>
       </c>
       <c r="C148" s="2">
         <v>135</v>
@@ -3786,7 +3786,7 @@
         <v>123.857142857142</v>
       </c>
       <c r="E148" s="2">
-        <v>270221</v>
+        <v>270250</v>
       </c>
       <c r="F148" s="2">
         <v>3025</v>
@@ -3800,7 +3800,7 @@
         <v>44069</v>
       </c>
       <c r="B149" s="2">
-        <v>14091</v>
+        <v>14092</v>
       </c>
       <c r="C149" s="2">
         <v>135</v>
@@ -3809,13 +3809,13 @@
         <v>120.571428571428</v>
       </c>
       <c r="E149" s="2">
-        <v>273188</v>
+        <v>273218</v>
       </c>
       <c r="F149" s="2">
-        <v>2967</v>
+        <v>2968</v>
       </c>
       <c r="G149" s="4">
-        <v>0.048256146369</v>
+        <v>0.048250628858</v>
       </c>
     </row>
     <row r="150" spans="1:7">
@@ -3823,7 +3823,7 @@
         <v>44070</v>
       </c>
       <c r="B150" s="2">
-        <v>14263</v>
+        <v>14264</v>
       </c>
       <c r="C150" s="2">
         <v>172</v>
@@ -3832,13 +3832,13 @@
         <v>126.285714285714</v>
       </c>
       <c r="E150" s="2">
-        <v>276461</v>
+        <v>276498</v>
       </c>
       <c r="F150" s="2">
-        <v>3273</v>
+        <v>3280</v>
       </c>
       <c r="G150" s="4">
-        <v>0.050247257431</v>
+        <v>0.050221565731</v>
       </c>
     </row>
     <row r="151" spans="1:7">
@@ -3846,7 +3846,7 @@
         <v>44071</v>
       </c>
       <c r="B151" s="2">
-        <v>14379</v>
+        <v>14380</v>
       </c>
       <c r="C151" s="2">
         <v>116</v>
@@ -3855,13 +3855,13 @@
         <v>119.714285714285</v>
       </c>
       <c r="E151" s="2">
-        <v>279250</v>
+        <v>279288</v>
       </c>
       <c r="F151" s="2">
-        <v>2789</v>
+        <v>2790</v>
       </c>
       <c r="G151" s="4">
-        <v>0.048321992849</v>
+        <v>0.048294144767</v>
       </c>
     </row>
     <row r="152" spans="1:7">
@@ -3869,7 +3869,7 @@
         <v>44072</v>
       </c>
       <c r="B152" s="2">
-        <v>14443</v>
+        <v>14444</v>
       </c>
       <c r="C152" s="2">
         <v>64</v>
@@ -3878,13 +3878,13 @@
         <v>120</v>
       </c>
       <c r="E152" s="2">
-        <v>280693</v>
+        <v>280731</v>
       </c>
       <c r="F152" s="2">
         <v>1443</v>
       </c>
       <c r="G152" s="4">
-        <v>0.048123746777</v>
+        <v>0.048096192384</v>
       </c>
     </row>
     <row r="153" spans="1:7">
@@ -3892,22 +3892,22 @@
         <v>44073</v>
       </c>
       <c r="B153" s="2">
-        <v>14501</v>
+        <v>14503</v>
       </c>
       <c r="C153" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D153" s="3">
-        <v>118.571428571428</v>
+        <v>118.714285714285</v>
       </c>
       <c r="E153" s="2">
-        <v>281776</v>
+        <v>281815</v>
       </c>
       <c r="F153" s="2">
-        <v>1083</v>
+        <v>1084</v>
       </c>
       <c r="G153" s="4">
-        <v>0.047239612976</v>
+        <v>0.047269624573</v>
       </c>
     </row>
     <row r="154" spans="1:7">
@@ -3915,22 +3915,22 @@
         <v>44074</v>
       </c>
       <c r="B154" s="2">
-        <v>14643</v>
+        <v>14645</v>
       </c>
       <c r="C154" s="2">
         <v>142</v>
       </c>
       <c r="D154" s="3">
-        <v>117.428571428571</v>
+        <v>117.571428571428</v>
       </c>
       <c r="E154" s="2">
-        <v>284923</v>
+        <v>284963</v>
       </c>
       <c r="F154" s="2">
-        <v>3147</v>
+        <v>3148</v>
       </c>
       <c r="G154" s="4">
-        <v>0.046369944152</v>
+        <v>0.04639756455</v>
       </c>
     </row>
     <row r="155" spans="1:7">
@@ -3938,22 +3938,22 @@
         <v>44075</v>
       </c>
       <c r="B155" s="2">
-        <v>14776</v>
+        <v>14778</v>
       </c>
       <c r="C155" s="2">
         <v>133</v>
       </c>
       <c r="D155" s="3">
-        <v>117.142857142857</v>
+        <v>117.285714285714</v>
       </c>
       <c r="E155" s="2">
-        <v>288207</v>
+        <v>288248</v>
       </c>
       <c r="F155" s="2">
-        <v>3284</v>
+        <v>3285</v>
       </c>
       <c r="G155" s="4">
-        <v>0.045591015234</v>
+        <v>0.045616179575</v>
       </c>
     </row>
     <row r="156" spans="1:7">
@@ -3961,22 +3961,22 @@
         <v>44076</v>
       </c>
       <c r="B156" s="2">
-        <v>14891</v>
+        <v>14895</v>
       </c>
       <c r="C156" s="2">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="D156" s="3">
-        <v>114.285714285714</v>
+        <v>114.714285714285</v>
       </c>
       <c r="E156" s="2">
-        <v>291193</v>
+        <v>291237</v>
       </c>
       <c r="F156" s="2">
-        <v>2986</v>
+        <v>2989</v>
       </c>
       <c r="G156" s="4">
-        <v>0.044432102193</v>
+        <v>0.044564071258</v>
       </c>
     </row>
     <row r="157" spans="1:7">
@@ -3984,22 +3984,22 @@
         <v>44077</v>
       </c>
       <c r="B157" s="2">
-        <v>14986</v>
+        <v>14990</v>
       </c>
       <c r="C157" s="2">
         <v>95</v>
       </c>
       <c r="D157" s="3">
-        <v>103.285714285714</v>
+        <v>103.714285714285</v>
       </c>
       <c r="E157" s="2">
-        <v>294137</v>
+        <v>294184</v>
       </c>
       <c r="F157" s="2">
-        <v>2944</v>
+        <v>2947</v>
       </c>
       <c r="G157" s="4">
-        <v>0.040902919212</v>
+        <v>0.041049417618</v>
       </c>
     </row>
     <row r="158" spans="1:7">
@@ -4007,22 +4007,22 @@
         <v>44078</v>
       </c>
       <c r="B158" s="2">
-        <v>15108</v>
+        <v>15112</v>
       </c>
       <c r="C158" s="2">
         <v>122</v>
       </c>
       <c r="D158" s="3">
-        <v>104.142857142857</v>
+        <v>104.571428571428</v>
       </c>
       <c r="E158" s="2">
-        <v>296962</v>
+        <v>297010</v>
       </c>
       <c r="F158" s="2">
-        <v>2825</v>
+        <v>2826</v>
       </c>
       <c r="G158" s="4">
-        <v>0.041158536585</v>
+        <v>0.041304593161</v>
       </c>
     </row>
     <row r="159" spans="1:7">
@@ -4030,22 +4030,22 @@
         <v>44079</v>
       </c>
       <c r="B159" s="2">
-        <v>15174</v>
+        <v>15178</v>
       </c>
       <c r="C159" s="2">
         <v>66</v>
       </c>
       <c r="D159" s="3">
-        <v>104.428571428571</v>
+        <v>104.857142857142</v>
       </c>
       <c r="E159" s="2">
-        <v>298300</v>
+        <v>298348</v>
       </c>
       <c r="F159" s="2">
         <v>1338</v>
       </c>
       <c r="G159" s="4">
-        <v>0.041517578235</v>
+        <v>0.041664301526</v>
       </c>
     </row>
     <row r="160" spans="1:7">
@@ -4053,22 +4053,22 @@
         <v>44080</v>
       </c>
       <c r="B160" s="2">
-        <v>15227</v>
+        <v>15231</v>
       </c>
       <c r="C160" s="2">
         <v>53</v>
       </c>
       <c r="D160" s="3">
-        <v>103.714285714285</v>
+        <v>104</v>
       </c>
       <c r="E160" s="2">
-        <v>299385</v>
+        <v>299433</v>
       </c>
       <c r="F160" s="2">
         <v>1085</v>
       </c>
       <c r="G160" s="4">
-        <v>0.041228917031</v>
+        <v>0.041321375865</v>
       </c>
     </row>
     <row r="161" spans="1:7">
@@ -4076,22 +4076,22 @@
         <v>44081</v>
       </c>
       <c r="B161" s="2">
-        <v>15296</v>
+        <v>15300</v>
       </c>
       <c r="C161" s="2">
         <v>69</v>
       </c>
       <c r="D161" s="3">
-        <v>93.28571428571399</v>
+        <v>93.571428571428</v>
       </c>
       <c r="E161" s="2">
-        <v>300641</v>
+        <v>300691</v>
       </c>
       <c r="F161" s="2">
-        <v>1256</v>
+        <v>1258</v>
       </c>
       <c r="G161" s="4">
-        <v>0.041544725792</v>
+        <v>0.041645473041</v>
       </c>
     </row>
     <row r="162" spans="1:7">
@@ -4099,22 +4099,22 @@
         <v>44082</v>
       </c>
       <c r="B162" s="2">
-        <v>15439</v>
+        <v>15443</v>
       </c>
       <c r="C162" s="2">
         <v>143</v>
       </c>
       <c r="D162" s="3">
-        <v>94.714285714285</v>
+        <v>95</v>
       </c>
       <c r="E162" s="2">
-        <v>304950</v>
+        <v>305000</v>
       </c>
       <c r="F162" s="2">
         <v>4309</v>
       </c>
       <c r="G162" s="4">
-        <v>0.039598638236</v>
+        <v>0.039696752626</v>
       </c>
     </row>
     <row r="163" spans="1:7">
@@ -4122,7 +4122,7 @@
         <v>44083</v>
       </c>
       <c r="B163" s="2">
-        <v>15590</v>
+        <v>15594</v>
       </c>
       <c r="C163" s="2">
         <v>151</v>
@@ -4131,13 +4131,13 @@
         <v>99.85714285714199</v>
       </c>
       <c r="E163" s="2">
-        <v>308475</v>
+        <v>308525</v>
       </c>
       <c r="F163" s="2">
         <v>3525</v>
       </c>
       <c r="G163" s="4">
-        <v>0.040446707556</v>
+        <v>0.04043267006</v>
       </c>
     </row>
     <row r="164" spans="1:7">
@@ -4145,7 +4145,7 @@
         <v>44084</v>
       </c>
       <c r="B164" s="2">
-        <v>15694</v>
+        <v>15698</v>
       </c>
       <c r="C164" s="2">
         <v>104</v>
@@ -4154,13 +4154,13 @@
         <v>101.142857142857</v>
       </c>
       <c r="E164" s="2">
-        <v>311768</v>
+        <v>311818</v>
       </c>
       <c r="F164" s="2">
         <v>3293</v>
       </c>
       <c r="G164" s="4">
-        <v>0.040156542453</v>
+        <v>0.040149710785</v>
       </c>
     </row>
     <row r="165" spans="1:7">
@@ -4168,22 +4168,22 @@
         <v>44085</v>
       </c>
       <c r="B165" s="2">
-        <v>15768</v>
+        <v>15771</v>
       </c>
       <c r="C165" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D165" s="3">
-        <v>94.28571428571399</v>
+        <v>94.142857142857</v>
       </c>
       <c r="E165" s="2">
-        <v>314273</v>
+        <v>314323</v>
       </c>
       <c r="F165" s="2">
         <v>2505</v>
       </c>
       <c r="G165" s="4">
-        <v>0.038126047022</v>
+        <v>0.038063882631</v>
       </c>
     </row>
     <row r="166" spans="1:7">
@@ -4191,22 +4191,22 @@
         <v>44086</v>
       </c>
       <c r="B166" s="2">
-        <v>15818</v>
+        <v>15821</v>
       </c>
       <c r="C166" s="2">
         <v>50</v>
       </c>
       <c r="D166" s="3">
-        <v>92</v>
+        <v>91.85714285714199</v>
       </c>
       <c r="E166" s="2">
-        <v>315675</v>
+        <v>315725</v>
       </c>
       <c r="F166" s="2">
         <v>1402</v>
       </c>
       <c r="G166" s="4">
-        <v>0.037064748201</v>
+        <v>0.037002934913</v>
       </c>
     </row>
     <row r="167" spans="1:7">
@@ -4214,22 +4214,22 @@
         <v>44087</v>
       </c>
       <c r="B167" s="2">
-        <v>15855</v>
+        <v>15858</v>
       </c>
       <c r="C167" s="2">
         <v>37</v>
       </c>
       <c r="D167" s="3">
-        <v>89.714285714285</v>
+        <v>89.571428571428</v>
       </c>
       <c r="E167" s="2">
-        <v>316528</v>
+        <v>316578</v>
       </c>
       <c r="F167" s="2">
         <v>853</v>
       </c>
       <c r="G167" s="4">
-        <v>0.036633028058</v>
+        <v>0.036570428696</v>
       </c>
     </row>
     <row r="168" spans="1:7">
@@ -4237,22 +4237,22 @@
         <v>44088</v>
       </c>
       <c r="B168" s="2">
-        <v>15956</v>
+        <v>15959</v>
       </c>
       <c r="C168" s="2">
         <v>101</v>
       </c>
       <c r="D168" s="3">
-        <v>94.28571428571399</v>
+        <v>94.142857142857</v>
       </c>
       <c r="E168" s="2">
-        <v>319946</v>
+        <v>319996</v>
       </c>
       <c r="F168" s="2">
         <v>3418</v>
       </c>
       <c r="G168" s="4">
-        <v>0.034188034188</v>
+        <v>0.034136234136</v>
       </c>
     </row>
     <row r="169" spans="1:7">
@@ -4260,22 +4260,22 @@
         <v>44089</v>
       </c>
       <c r="B169" s="2">
-        <v>16086</v>
+        <v>16089</v>
       </c>
       <c r="C169" s="2">
         <v>130</v>
       </c>
       <c r="D169" s="3">
-        <v>92.428571428571</v>
+        <v>92.28571428571399</v>
       </c>
       <c r="E169" s="2">
-        <v>323940</v>
+        <v>323990</v>
       </c>
       <c r="F169" s="2">
         <v>3994</v>
       </c>
       <c r="G169" s="4">
-        <v>0.034070563454</v>
+        <v>0.03401790416</v>
       </c>
     </row>
     <row r="170" spans="1:7">
@@ -4283,22 +4283,22 @@
         <v>44090</v>
       </c>
       <c r="B170" s="2">
-        <v>16173</v>
+        <v>16176</v>
       </c>
       <c r="C170" s="2">
         <v>87</v>
       </c>
       <c r="D170" s="3">
-        <v>83.28571428571399</v>
+        <v>83.142857142857</v>
       </c>
       <c r="E170" s="2">
-        <v>327263</v>
+        <v>327313</v>
       </c>
       <c r="F170" s="2">
         <v>3323</v>
       </c>
       <c r="G170" s="4">
-        <v>0.031030444964</v>
+        <v>0.030977219501</v>
       </c>
     </row>
     <row r="171" spans="1:7">
@@ -4306,22 +4306,22 @@
         <v>44091</v>
       </c>
       <c r="B171" s="2">
-        <v>16277</v>
+        <v>16280</v>
       </c>
       <c r="C171" s="2">
         <v>104</v>
       </c>
       <c r="D171" s="3">
-        <v>83.28571428571399</v>
+        <v>83.142857142857</v>
       </c>
       <c r="E171" s="2">
-        <v>330936</v>
+        <v>331060</v>
       </c>
       <c r="F171" s="2">
-        <v>3673</v>
+        <v>3747</v>
       </c>
       <c r="G171" s="4">
-        <v>0.030415275459</v>
+        <v>0.030246336139</v>
       </c>
     </row>
     <row r="172" spans="1:7">
@@ -4329,7 +4329,7 @@
         <v>44092</v>
       </c>
       <c r="B172" s="2">
-        <v>16381</v>
+        <v>16384</v>
       </c>
       <c r="C172" s="2">
         <v>104</v>
@@ -4338,13 +4338,13 @@
         <v>87.571428571428</v>
       </c>
       <c r="E172" s="2">
-        <v>334212</v>
+        <v>334336</v>
       </c>
       <c r="F172" s="2">
         <v>3276</v>
       </c>
       <c r="G172" s="4">
-        <v>0.030743768493</v>
+        <v>0.030630090441</v>
       </c>
     </row>
     <row r="173" spans="1:7">
@@ -4352,7 +4352,7 @@
         <v>44093</v>
       </c>
       <c r="B173" s="2">
-        <v>16453</v>
+        <v>16456</v>
       </c>
       <c r="C173" s="2">
         <v>72</v>
@@ -4361,13 +4361,13 @@
         <v>90.714285714285</v>
       </c>
       <c r="E173" s="2">
-        <v>335731</v>
+        <v>335855</v>
       </c>
       <c r="F173" s="2">
         <v>1519</v>
       </c>
       <c r="G173" s="4">
-        <v>0.031661348224</v>
+        <v>0.031544957774</v>
       </c>
     </row>
     <row r="174" spans="1:7">
@@ -4375,7 +4375,7 @@
         <v>44094</v>
       </c>
       <c r="B174" s="2">
-        <v>16495</v>
+        <v>16498</v>
       </c>
       <c r="C174" s="2">
         <v>42</v>
@@ -4384,13 +4384,13 @@
         <v>91.428571428571</v>
       </c>
       <c r="E174" s="2">
-        <v>336887</v>
+        <v>337011</v>
       </c>
       <c r="F174" s="2">
         <v>1156</v>
       </c>
       <c r="G174" s="4">
-        <v>0.03143572867</v>
+        <v>0.03132188127</v>
       </c>
     </row>
     <row r="175" spans="1:7">
@@ -4398,7 +4398,7 @@
         <v>44095</v>
       </c>
       <c r="B175" s="2">
-        <v>16638</v>
+        <v>16641</v>
       </c>
       <c r="C175" s="2">
         <v>143</v>
@@ -4407,13 +4407,13 @@
         <v>97.428571428571</v>
       </c>
       <c r="E175" s="2">
-        <v>341265</v>
+        <v>341390</v>
       </c>
       <c r="F175" s="2">
-        <v>4378</v>
+        <v>4379</v>
       </c>
       <c r="G175" s="4">
-        <v>0.031990243444</v>
+        <v>0.031878096662</v>
       </c>
     </row>
     <row r="176" spans="1:7">
@@ -4421,7 +4421,7 @@
         <v>44096</v>
       </c>
       <c r="B176" s="2">
-        <v>16736</v>
+        <v>16739</v>
       </c>
       <c r="C176" s="2">
         <v>98</v>
@@ -4430,13 +4430,13 @@
         <v>92.85714285714199</v>
       </c>
       <c r="E176" s="2">
-        <v>345061</v>
+        <v>345186</v>
       </c>
       <c r="F176" s="2">
         <v>3796</v>
       </c>
       <c r="G176" s="4">
-        <v>0.030775057999</v>
+        <v>0.030666163427</v>
       </c>
     </row>
     <row r="177" spans="1:7">
@@ -4444,7 +4444,7 @@
         <v>44097</v>
       </c>
       <c r="B177" s="2">
-        <v>16830</v>
+        <v>16833</v>
       </c>
       <c r="C177" s="2">
         <v>94</v>
@@ -4453,13 +4453,13 @@
         <v>93.85714285714199</v>
       </c>
       <c r="E177" s="2">
-        <v>348574</v>
+        <v>348699</v>
       </c>
       <c r="F177" s="2">
         <v>3513</v>
       </c>
       <c r="G177" s="4">
-        <v>0.030829149265</v>
+        <v>0.030721032451</v>
       </c>
     </row>
     <row r="178" spans="1:7">
@@ -4467,7 +4467,7 @@
         <v>44098</v>
       </c>
       <c r="B178" s="2">
-        <v>16921</v>
+        <v>16924</v>
       </c>
       <c r="C178" s="2">
         <v>91</v>
@@ -4476,13 +4476,13 @@
         <v>92</v>
       </c>
       <c r="E178" s="2">
-        <v>352311</v>
+        <v>352437</v>
       </c>
       <c r="F178" s="2">
-        <v>3737</v>
+        <v>3738</v>
       </c>
       <c r="G178" s="4">
-        <v>0.03012865497</v>
+        <v>0.030125836179</v>
       </c>
     </row>
     <row r="179" spans="1:7">
@@ -4490,7 +4490,7 @@
         <v>44099</v>
       </c>
       <c r="B179" s="2">
-        <v>17010</v>
+        <v>17013</v>
       </c>
       <c r="C179" s="2">
         <v>89</v>
@@ -4499,13 +4499,13 @@
         <v>89.85714285714199</v>
       </c>
       <c r="E179" s="2">
-        <v>355616</v>
+        <v>355745</v>
       </c>
       <c r="F179" s="2">
-        <v>3305</v>
+        <v>3308</v>
       </c>
       <c r="G179" s="4">
-        <v>0.029387030461</v>
+        <v>0.029380167219</v>
       </c>
     </row>
     <row r="180" spans="1:7">
@@ -4513,7 +4513,7 @@
         <v>44100</v>
       </c>
       <c r="B180" s="2">
-        <v>17069</v>
+        <v>17072</v>
       </c>
       <c r="C180" s="2">
         <v>59</v>
@@ -4522,13 +4522,13 @@
         <v>88</v>
       </c>
       <c r="E180" s="2">
-        <v>357489</v>
+        <v>357618</v>
       </c>
       <c r="F180" s="2">
         <v>1873</v>
       </c>
       <c r="G180" s="4">
-        <v>0.028311425682</v>
+        <v>0.028304921196</v>
       </c>
     </row>
     <row r="181" spans="1:7">
@@ -4536,7 +4536,7 @@
         <v>44101</v>
       </c>
       <c r="B181" s="2">
-        <v>17092</v>
+        <v>17095</v>
       </c>
       <c r="C181" s="2">
         <v>23</v>
@@ -4545,13 +4545,13 @@
         <v>85.28571428571399</v>
       </c>
       <c r="E181" s="2">
-        <v>358618</v>
+        <v>358747</v>
       </c>
       <c r="F181" s="2">
         <v>1129</v>
       </c>
       <c r="G181" s="4">
-        <v>0.02747227463</v>
+        <v>0.027465955097</v>
       </c>
     </row>
     <row r="182" spans="1:7">
@@ -4559,7 +4559,7 @@
         <v>44102</v>
       </c>
       <c r="B182" s="2">
-        <v>17205</v>
+        <v>17208</v>
       </c>
       <c r="C182" s="2">
         <v>113</v>
@@ -4568,13 +4568,13 @@
         <v>81</v>
       </c>
       <c r="E182" s="2">
-        <v>362724</v>
+        <v>362854</v>
       </c>
       <c r="F182" s="2">
-        <v>4106</v>
+        <v>4107</v>
       </c>
       <c r="G182" s="4">
-        <v>0.026422480078</v>
+        <v>0.026416325009</v>
       </c>
     </row>
     <row r="183" spans="1:7">
@@ -4582,7 +4582,7 @@
         <v>44103</v>
       </c>
       <c r="B183" s="2">
-        <v>17280</v>
+        <v>17283</v>
       </c>
       <c r="C183" s="2">
         <v>75</v>
@@ -4591,13 +4591,13 @@
         <v>77.714285714285</v>
       </c>
       <c r="E183" s="2">
-        <v>366567</v>
+        <v>366697</v>
       </c>
       <c r="F183" s="2">
         <v>3843</v>
       </c>
       <c r="G183" s="4">
-        <v>0.025295266437</v>
+        <v>0.025289386825</v>
       </c>
     </row>
     <row r="184" spans="1:7">
@@ -4605,7 +4605,7 @@
         <v>44104</v>
       </c>
       <c r="B184" s="2">
-        <v>17340</v>
+        <v>17343</v>
       </c>
       <c r="C184" s="2">
         <v>60</v>
@@ -4614,13 +4614,13 @@
         <v>72.85714285714199</v>
       </c>
       <c r="E184" s="2">
-        <v>370127</v>
+        <v>370257</v>
       </c>
       <c r="F184" s="2">
         <v>3560</v>
       </c>
       <c r="G184" s="4">
-        <v>0.023662599174</v>
+        <v>0.023657111049</v>
       </c>
     </row>
     <row r="185" spans="1:7">
@@ -4628,7 +4628,7 @@
         <v>44105</v>
       </c>
       <c r="B185" s="2">
-        <v>17405</v>
+        <v>17408</v>
       </c>
       <c r="C185" s="2">
         <v>65</v>
@@ -4637,13 +4637,13 @@
         <v>69.142857142857</v>
       </c>
       <c r="E185" s="2">
-        <v>373654</v>
+        <v>373784</v>
       </c>
       <c r="F185" s="2">
         <v>3527</v>
       </c>
       <c r="G185" s="4">
-        <v>0.022677224382</v>
+        <v>0.022672975125</v>
       </c>
     </row>
     <row r="186" spans="1:7">
@@ -4651,7 +4651,7 @@
         <v>44106</v>
       </c>
       <c r="B186" s="2">
-        <v>17481</v>
+        <v>17484</v>
       </c>
       <c r="C186" s="2">
         <v>76</v>
@@ -4660,13 +4660,13 @@
         <v>67.28571428571399</v>
       </c>
       <c r="E186" s="2">
-        <v>377199</v>
+        <v>377329</v>
       </c>
       <c r="F186" s="2">
         <v>3545</v>
       </c>
       <c r="G186" s="4">
-        <v>0.021822730852</v>
+        <v>0.021821719792</v>
       </c>
     </row>
     <row r="187" spans="1:7">
@@ -4674,7 +4674,7 @@
         <v>44107</v>
       </c>
       <c r="B187" s="2">
-        <v>17524</v>
+        <v>17527</v>
       </c>
       <c r="C187" s="2">
         <v>43</v>
@@ -4683,13 +4683,13 @@
         <v>65</v>
       </c>
       <c r="E187" s="2">
-        <v>379195</v>
+        <v>379325</v>
       </c>
       <c r="F187" s="2">
         <v>1996</v>
       </c>
       <c r="G187" s="4">
-        <v>0.020961946005</v>
+        <v>0.020960980328</v>
       </c>
     </row>
     <row r="188" spans="1:7">
@@ -4697,7 +4697,7 @@
         <v>44108</v>
       </c>
       <c r="B188" s="2">
-        <v>17561</v>
+        <v>17564</v>
       </c>
       <c r="C188" s="2">
         <v>37</v>
@@ -4706,13 +4706,13 @@
         <v>67</v>
       </c>
       <c r="E188" s="2">
-        <v>380579</v>
+        <v>380709</v>
       </c>
       <c r="F188" s="2">
         <v>1384</v>
       </c>
       <c r="G188" s="4">
-        <v>0.021356040253</v>
+        <v>0.021355067844</v>
       </c>
     </row>
     <row r="189" spans="1:7">
@@ -4720,7 +4720,7 @@
         <v>44109</v>
       </c>
       <c r="B189" s="2">
-        <v>17638</v>
+        <v>17641</v>
       </c>
       <c r="C189" s="2">
         <v>77</v>
@@ -4729,13 +4729,13 @@
         <v>61.857142857142</v>
       </c>
       <c r="E189" s="2">
-        <v>385389</v>
+        <v>385515</v>
       </c>
       <c r="F189" s="2">
-        <v>4810</v>
+        <v>4806</v>
       </c>
       <c r="G189" s="4">
-        <v>0.019104345907</v>
+        <v>0.019107718105</v>
       </c>
     </row>
     <row r="190" spans="1:7">
@@ -4743,7 +4743,7 @@
         <v>44110</v>
       </c>
       <c r="B190" s="2">
-        <v>17701</v>
+        <v>17704</v>
       </c>
       <c r="C190" s="2">
         <v>63</v>
@@ -4752,13 +4752,13 @@
         <v>60.142857142857</v>
       </c>
       <c r="E190" s="2">
-        <v>390052</v>
+        <v>390175</v>
       </c>
       <c r="F190" s="2">
-        <v>4663</v>
+        <v>4660</v>
       </c>
       <c r="G190" s="4">
-        <v>0.017926335959</v>
+        <v>0.017931680722</v>
       </c>
     </row>
     <row r="191" spans="1:7">
@@ -4766,7 +4766,7 @@
         <v>44111</v>
       </c>
       <c r="B191" s="2">
-        <v>17777</v>
+        <v>17780</v>
       </c>
       <c r="C191" s="2">
         <v>76</v>
@@ -4775,13 +4775,13 @@
         <v>62.428571428571</v>
       </c>
       <c r="E191" s="2">
-        <v>394245</v>
+        <v>394367</v>
       </c>
       <c r="F191" s="2">
-        <v>4193</v>
+        <v>4192</v>
       </c>
       <c r="G191" s="4">
-        <v>0.018119247035</v>
+        <v>0.018125259228</v>
       </c>
     </row>
     <row r="192" spans="1:7">
@@ -4789,7 +4789,7 @@
         <v>44112</v>
       </c>
       <c r="B192" s="2">
-        <v>17871</v>
+        <v>17874</v>
       </c>
       <c r="C192" s="2">
         <v>94</v>
@@ -4798,13 +4798,13 @@
         <v>66.571428571428</v>
       </c>
       <c r="E192" s="2">
-        <v>398492</v>
+        <v>398616</v>
       </c>
       <c r="F192" s="2">
-        <v>4247</v>
+        <v>4249</v>
       </c>
       <c r="G192" s="4">
-        <v>0.018761575006</v>
+        <v>0.018766108247</v>
       </c>
     </row>
     <row r="193" spans="1:7">
@@ -4812,7 +4812,7 @@
         <v>44113</v>
       </c>
       <c r="B193" s="2">
-        <v>17929</v>
+        <v>17932</v>
       </c>
       <c r="C193" s="2">
         <v>58</v>
@@ -4821,13 +4821,13 @@
         <v>64</v>
       </c>
       <c r="E193" s="2">
-        <v>402267</v>
+        <v>402396</v>
       </c>
       <c r="F193" s="2">
-        <v>3775</v>
+        <v>3780</v>
       </c>
       <c r="G193" s="4">
-        <v>0.017871389819</v>
+        <v>0.017872102764</v>
       </c>
     </row>
     <row r="194" spans="1:7">
@@ -4835,7 +4835,7 @@
         <v>44114</v>
       </c>
       <c r="B194" s="2">
-        <v>17970</v>
+        <v>17973</v>
       </c>
       <c r="C194" s="2">
         <v>41</v>
@@ -4844,13 +4844,13 @@
         <v>63.71428571428499</v>
       </c>
       <c r="E194" s="2">
-        <v>404054</v>
+        <v>404189</v>
       </c>
       <c r="F194" s="2">
-        <v>1787</v>
+        <v>1793</v>
       </c>
       <c r="G194" s="4">
-        <v>0.017941188302</v>
+        <v>0.017937580437</v>
       </c>
     </row>
     <row r="195" spans="1:7">
@@ -4858,7 +4858,7 @@
         <v>44115</v>
       </c>
       <c r="B195" s="2">
-        <v>17994</v>
+        <v>17997</v>
       </c>
       <c r="C195" s="2">
         <v>24</v>
@@ -4867,13 +4867,13 @@
         <v>61.857142857142</v>
       </c>
       <c r="E195" s="2">
-        <v>405384</v>
+        <v>405523</v>
       </c>
       <c r="F195" s="2">
-        <v>1330</v>
+        <v>1334</v>
       </c>
       <c r="G195" s="4">
-        <v>0.017456158032</v>
+        <v>0.01744982671</v>
       </c>
     </row>
     <row r="196" spans="1:7">
@@ -4881,7 +4881,7 @@
         <v>44116</v>
       </c>
       <c r="B196" s="2">
-        <v>18086</v>
+        <v>18089</v>
       </c>
       <c r="C196" s="2">
         <v>92</v>
@@ -4890,13 +4890,13 @@
         <v>64</v>
       </c>
       <c r="E196" s="2">
-        <v>409904</v>
+        <v>410045</v>
       </c>
       <c r="F196" s="2">
-        <v>4520</v>
+        <v>4522</v>
       </c>
       <c r="G196" s="4">
-        <v>0.0182745258</v>
+        <v>0.018263350998</v>
       </c>
     </row>
     <row r="197" spans="1:7">
@@ -4904,7 +4904,7 @@
         <v>44117</v>
       </c>
       <c r="B197" s="2">
-        <v>18176</v>
+        <v>18179</v>
       </c>
       <c r="C197" s="2">
         <v>90</v>
@@ -4913,13 +4913,13 @@
         <v>67.85714285714199</v>
       </c>
       <c r="E197" s="2">
-        <v>414412</v>
+        <v>414556</v>
       </c>
       <c r="F197" s="2">
-        <v>4508</v>
+        <v>4511</v>
       </c>
       <c r="G197" s="4">
-        <v>0.019499178981</v>
+        <v>0.019482383823</v>
       </c>
     </row>
     <row r="198" spans="1:7">
@@ -4927,7 +4927,7 @@
         <v>44118</v>
       </c>
       <c r="B198" s="2">
-        <v>18246</v>
+        <v>18249</v>
       </c>
       <c r="C198" s="2">
         <v>70</v>
@@ -4936,13 +4936,13 @@
         <v>67</v>
       </c>
       <c r="E198" s="2">
-        <v>418636</v>
+        <v>418780</v>
       </c>
       <c r="F198" s="2">
         <v>4224</v>
       </c>
       <c r="G198" s="4">
-        <v>0.019228403919</v>
+        <v>0.019211076066</v>
       </c>
     </row>
     <row r="199" spans="1:7">
@@ -4950,7 +4950,7 @@
         <v>44119</v>
       </c>
       <c r="B199" s="2">
-        <v>18297</v>
+        <v>18300</v>
       </c>
       <c r="C199" s="2">
         <v>51</v>
@@ -4959,13 +4959,13 @@
         <v>60.857142857142</v>
       </c>
       <c r="E199" s="2">
-        <v>422638</v>
+        <v>422790</v>
       </c>
       <c r="F199" s="2">
-        <v>4002</v>
+        <v>4010</v>
       </c>
       <c r="G199" s="4">
-        <v>0.017642673734</v>
+        <v>0.017622238768</v>
       </c>
     </row>
     <row r="200" spans="1:7">
@@ -4973,7 +4973,7 @@
         <v>44120</v>
       </c>
       <c r="B200" s="2">
-        <v>18355</v>
+        <v>18358</v>
       </c>
       <c r="C200" s="2">
         <v>58</v>
@@ -4982,13 +4982,13 @@
         <v>60.857142857142</v>
       </c>
       <c r="E200" s="2">
-        <v>426623</v>
+        <v>426776</v>
       </c>
       <c r="F200" s="2">
-        <v>3985</v>
+        <v>3986</v>
       </c>
       <c r="G200" s="4">
-        <v>0.017490556741</v>
+        <v>0.017473338802</v>
       </c>
     </row>
     <row r="201" spans="1:7">
@@ -4996,7 +4996,7 @@
         <v>44121</v>
       </c>
       <c r="B201" s="2">
-        <v>18400</v>
+        <v>18403</v>
       </c>
       <c r="C201" s="2">
         <v>45</v>
@@ -5005,13 +5005,13 @@
         <v>61.428571428571</v>
       </c>
       <c r="E201" s="2">
-        <v>428522</v>
+        <v>428675</v>
       </c>
       <c r="F201" s="2">
         <v>1899</v>
       </c>
       <c r="G201" s="4">
-        <v>0.01757397417</v>
+        <v>0.017561055296</v>
       </c>
     </row>
     <row r="202" spans="1:7">
@@ -5019,7 +5019,7 @@
         <v>44122</v>
       </c>
       <c r="B202" s="2">
-        <v>18436</v>
+        <v>18439</v>
       </c>
       <c r="C202" s="2">
         <v>36</v>
@@ -5028,13 +5028,13 @@
         <v>63.142857142857</v>
       </c>
       <c r="E202" s="2">
-        <v>429898</v>
+        <v>430052</v>
       </c>
       <c r="F202" s="2">
-        <v>1376</v>
+        <v>1377</v>
       </c>
       <c r="G202" s="4">
-        <v>0.018030513176</v>
+        <v>0.018019487137</v>
       </c>
     </row>
     <row r="203" spans="1:7">
@@ -5042,7 +5042,7 @@
         <v>44123</v>
       </c>
       <c r="B203" s="2">
-        <v>18525</v>
+        <v>18528</v>
       </c>
       <c r="C203" s="2">
         <v>89</v>
@@ -5051,13 +5051,13 @@
         <v>62.71428571428499</v>
       </c>
       <c r="E203" s="2">
-        <v>434717</v>
+        <v>434873</v>
       </c>
       <c r="F203" s="2">
-        <v>4819</v>
+        <v>4821</v>
       </c>
       <c r="G203" s="4">
-        <v>0.017692338693</v>
+        <v>0.01768164975</v>
       </c>
     </row>
     <row r="204" spans="1:7">
@@ -5065,22 +5065,22 @@
         <v>44124</v>
       </c>
       <c r="B204" s="2">
-        <v>18619</v>
+        <v>18623</v>
       </c>
       <c r="C204" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D204" s="3">
-        <v>63.28571428571399</v>
+        <v>63.428571428571</v>
       </c>
       <c r="E204" s="2">
-        <v>439485</v>
+        <v>439652</v>
       </c>
       <c r="F204" s="2">
-        <v>4768</v>
+        <v>4779</v>
       </c>
       <c r="G204" s="4">
-        <v>0.017668408247</v>
+        <v>0.01769206248</v>
       </c>
     </row>
     <row r="205" spans="1:7">
@@ -5088,22 +5088,91 @@
         <v>44125</v>
       </c>
       <c r="B205" s="2">
-        <v>18700</v>
+        <v>18705</v>
       </c>
       <c r="C205" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D205" s="3">
-        <v>64.85714285714199</v>
+        <v>65.142857142857</v>
       </c>
       <c r="E205" s="2">
-        <v>443758</v>
+        <v>443933</v>
       </c>
       <c r="F205" s="2">
-        <v>4273</v>
+        <v>4281</v>
       </c>
       <c r="G205" s="4">
-        <v>0.018071809569</v>
+        <v>0.018129050212</v>
+      </c>
+    </row>
+    <row r="206" spans="1:7">
+      <c r="A206" s="1">
+        <v>44126</v>
+      </c>
+      <c r="B206" s="2">
+        <v>18768</v>
+      </c>
+      <c r="C206" s="2">
+        <v>63</v>
+      </c>
+      <c r="D206" s="3">
+        <v>66.85714285714199</v>
+      </c>
+      <c r="E206" s="2">
+        <v>447832</v>
+      </c>
+      <c r="F206" s="2">
+        <v>3899</v>
+      </c>
+      <c r="G206" s="4">
+        <v>0.018688603146</v>
+      </c>
+    </row>
+    <row r="207" spans="1:7">
+      <c r="A207" s="1">
+        <v>44127</v>
+      </c>
+      <c r="B207" s="2">
+        <v>18852</v>
+      </c>
+      <c r="C207" s="2">
+        <v>84</v>
+      </c>
+      <c r="D207" s="3">
+        <v>70.571428571428</v>
+      </c>
+      <c r="E207" s="2">
+        <v>451616</v>
+      </c>
+      <c r="F207" s="2">
+        <v>3784</v>
+      </c>
+      <c r="G207" s="4">
+        <v>0.019887278582</v>
+      </c>
+    </row>
+    <row r="208" spans="1:7">
+      <c r="A208" s="1">
+        <v>44128</v>
+      </c>
+      <c r="B208" s="2">
+        <v>18906</v>
+      </c>
+      <c r="C208" s="2">
+        <v>54</v>
+      </c>
+      <c r="D208" s="3">
+        <v>71.85714285714199</v>
+      </c>
+      <c r="E208" s="2">
+        <v>453544</v>
+      </c>
+      <c r="F208" s="2">
+        <v>1928</v>
+      </c>
+      <c r="G208" s="4">
+        <v>0.020225984156</v>
       </c>
     </row>
   </sheetData>

--- a/contra_costa_county_testing.xlsx
+++ b/contra_costa_county_testing.xlsx
@@ -376,7 +376,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G208"/>
+  <dimension ref="A1:G209"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1532,13 +1532,13 @@
         <v>25.714285714285</v>
       </c>
       <c r="E50" s="2">
-        <v>32130</v>
+        <v>32129</v>
       </c>
       <c r="F50" s="2">
-        <v>1659</v>
+        <v>1658</v>
       </c>
       <c r="G50" s="4">
-        <v>0.026897788404</v>
+        <v>0.026901808399</v>
       </c>
     </row>
     <row r="51" spans="1:7">
@@ -1558,7 +1558,7 @@
         <v>33270</v>
       </c>
       <c r="F51" s="2">
-        <v>1140</v>
+        <v>1141</v>
       </c>
       <c r="G51" s="4">
         <v>0.027155364297</v>
@@ -1699,7 +1699,7 @@
         <v>1197</v>
       </c>
       <c r="G57" s="4">
-        <v>0.028002699055</v>
+        <v>0.027997976049</v>
       </c>
     </row>
     <row r="58" spans="1:7">
@@ -1992,13 +1992,13 @@
         <v>34.714285714285</v>
       </c>
       <c r="E70" s="2">
-        <v>52496</v>
+        <v>52495</v>
       </c>
       <c r="F70" s="2">
-        <v>1837</v>
+        <v>1836</v>
       </c>
       <c r="G70" s="4">
-        <v>0.029319498069</v>
+        <v>0.02932303608</v>
       </c>
     </row>
     <row r="71" spans="1:7">
@@ -2015,13 +2015,13 @@
         <v>36.428571428571</v>
       </c>
       <c r="E71" s="2">
-        <v>54342</v>
+        <v>54341</v>
       </c>
       <c r="F71" s="2">
         <v>1846</v>
       </c>
       <c r="G71" s="4">
-        <v>0.028597061792</v>
+        <v>0.028600269179</v>
       </c>
     </row>
     <row r="72" spans="1:7">
@@ -2038,13 +2038,13 @@
         <v>40</v>
       </c>
       <c r="E72" s="2">
-        <v>56333</v>
+        <v>56332</v>
       </c>
       <c r="F72" s="2">
         <v>1991</v>
       </c>
       <c r="G72" s="4">
-        <v>0.028735632183</v>
+        <v>0.028738581545</v>
       </c>
     </row>
     <row r="73" spans="1:7">
@@ -2061,13 +2061,13 @@
         <v>40.285714285714</v>
       </c>
       <c r="E73" s="2">
-        <v>58488</v>
+        <v>58487</v>
       </c>
       <c r="F73" s="2">
         <v>2155</v>
       </c>
       <c r="G73" s="4">
-        <v>0.026734926052</v>
+        <v>0.026737460889</v>
       </c>
     </row>
     <row r="74" spans="1:7">
@@ -2084,13 +2084,13 @@
         <v>41.857142857142</v>
       </c>
       <c r="E74" s="2">
-        <v>60749</v>
+        <v>60748</v>
       </c>
       <c r="F74" s="2">
         <v>2261</v>
       </c>
       <c r="G74" s="4">
-        <v>0.026209857769</v>
+        <v>0.02621220254</v>
       </c>
     </row>
     <row r="75" spans="1:7">
@@ -2107,13 +2107,13 @@
         <v>44.142857142857</v>
       </c>
       <c r="E75" s="2">
-        <v>61593</v>
+        <v>61592</v>
       </c>
       <c r="F75" s="2">
         <v>844</v>
       </c>
       <c r="G75" s="4">
-        <v>0.027062532842</v>
+        <v>0.027064903214</v>
       </c>
     </row>
     <row r="76" spans="1:7">
@@ -2130,13 +2130,13 @@
         <v>45.428571428571</v>
       </c>
       <c r="E76" s="2">
-        <v>62180</v>
+        <v>62179</v>
       </c>
       <c r="F76" s="2">
         <v>587</v>
       </c>
       <c r="G76" s="4">
-        <v>0.027601770679</v>
+        <v>0.027604166666</v>
       </c>
     </row>
     <row r="77" spans="1:7">
@@ -2153,7 +2153,7 @@
         <v>46.714285714285</v>
       </c>
       <c r="E77" s="2">
-        <v>64401</v>
+        <v>64400</v>
       </c>
       <c r="F77" s="2">
         <v>2221</v>
@@ -2176,13 +2176,13 @@
         <v>52.571428571428</v>
       </c>
       <c r="E78" s="2">
-        <v>66930</v>
+        <v>66931</v>
       </c>
       <c r="F78" s="2">
-        <v>2529</v>
+        <v>2531</v>
       </c>
       <c r="G78" s="4">
-        <v>0.029234191293</v>
+        <v>0.029229547259</v>
       </c>
     </row>
     <row r="79" spans="1:7">
@@ -2199,13 +2199,13 @@
         <v>57.285714285714</v>
       </c>
       <c r="E79" s="2">
-        <v>69505</v>
+        <v>69506</v>
       </c>
       <c r="F79" s="2">
         <v>2575</v>
       </c>
       <c r="G79" s="4">
-        <v>0.030443364713</v>
+        <v>0.030438742978</v>
       </c>
     </row>
     <row r="80" spans="1:7">
@@ -2222,13 +2222,13 @@
         <v>62.57142857142801</v>
       </c>
       <c r="E80" s="2">
-        <v>72037</v>
+        <v>72038</v>
       </c>
       <c r="F80" s="2">
         <v>2532</v>
       </c>
       <c r="G80" s="4">
-        <v>0.032327109011</v>
+        <v>0.032322337834</v>
       </c>
     </row>
     <row r="81" spans="1:7">
@@ -2245,13 +2245,13 @@
         <v>68.85714285714199</v>
       </c>
       <c r="E81" s="2">
-        <v>74480</v>
+        <v>74481</v>
       </c>
       <c r="F81" s="2">
         <v>2443</v>
       </c>
       <c r="G81" s="4">
-        <v>0.035103051489</v>
+        <v>0.03509793927</v>
       </c>
     </row>
     <row r="82" spans="1:7">
@@ -2268,13 +2268,13 @@
         <v>71.428571428571</v>
       </c>
       <c r="E82" s="2">
-        <v>75433</v>
+        <v>75434</v>
       </c>
       <c r="F82" s="2">
         <v>953</v>
       </c>
       <c r="G82" s="4">
-        <v>0.03612716763</v>
+        <v>0.036121947695</v>
       </c>
     </row>
     <row r="83" spans="1:7">
@@ -2291,13 +2291,13 @@
         <v>73.28571428571399</v>
       </c>
       <c r="E83" s="2">
-        <v>76131</v>
+        <v>76132</v>
       </c>
       <c r="F83" s="2">
         <v>698</v>
       </c>
       <c r="G83" s="4">
-        <v>0.036771557594</v>
+        <v>0.03676628682</v>
       </c>
     </row>
     <row r="84" spans="1:7">
@@ -2314,13 +2314,13 @@
         <v>81</v>
       </c>
       <c r="E84" s="2">
-        <v>78749</v>
+        <v>78750</v>
       </c>
       <c r="F84" s="2">
         <v>2618</v>
       </c>
       <c r="G84" s="4">
-        <v>0.039517702815</v>
+        <v>0.039512195121</v>
       </c>
     </row>
     <row r="85" spans="1:7">
@@ -2337,7 +2337,7 @@
         <v>88</v>
       </c>
       <c r="E85" s="2">
-        <v>81534</v>
+        <v>81535</v>
       </c>
       <c r="F85" s="2">
         <v>2785</v>
@@ -2360,7 +2360,7 @@
         <v>96</v>
       </c>
       <c r="E86" s="2">
-        <v>84571</v>
+        <v>84572</v>
       </c>
       <c r="F86" s="2">
         <v>3037</v>
@@ -2383,7 +2383,7 @@
         <v>104.714285714285</v>
       </c>
       <c r="E87" s="2">
-        <v>87938</v>
+        <v>87939</v>
       </c>
       <c r="F87" s="2">
         <v>3367</v>
@@ -2406,7 +2406,7 @@
         <v>114.428571428571</v>
       </c>
       <c r="E88" s="2">
-        <v>90908</v>
+        <v>90909</v>
       </c>
       <c r="F88" s="2">
         <v>2970</v>
@@ -2429,7 +2429,7 @@
         <v>118.428571428571</v>
       </c>
       <c r="E89" s="2">
-        <v>91982</v>
+        <v>91983</v>
       </c>
       <c r="F89" s="2">
         <v>1074</v>
@@ -2452,7 +2452,7 @@
         <v>121.142857142857</v>
       </c>
       <c r="E90" s="2">
-        <v>92778</v>
+        <v>92779</v>
       </c>
       <c r="F90" s="2">
         <v>796</v>
@@ -2478,10 +2478,10 @@
         <v>96462</v>
       </c>
       <c r="F91" s="2">
-        <v>3684</v>
+        <v>3683</v>
       </c>
       <c r="G91" s="4">
-        <v>0.052729633602</v>
+        <v>0.052732610659</v>
       </c>
     </row>
     <row r="92" spans="1:7">
@@ -2504,7 +2504,7 @@
         <v>3485</v>
       </c>
       <c r="G92" s="4">
-        <v>0.052082767609</v>
+        <v>0.05208559635</v>
       </c>
     </row>
     <row r="93" spans="1:7">
@@ -2527,7 +2527,7 @@
         <v>3543</v>
       </c>
       <c r="G93" s="4">
-        <v>0.052275490247</v>
+        <v>0.052278253515</v>
       </c>
     </row>
     <row r="94" spans="1:7">
@@ -2550,7 +2550,7 @@
         <v>3924</v>
       </c>
       <c r="G94" s="4">
-        <v>0.053861162456</v>
+        <v>0.053863928112</v>
       </c>
     </row>
     <row r="95" spans="1:7">
@@ -2573,7 +2573,7 @@
         <v>2641</v>
       </c>
       <c r="G95" s="4">
-        <v>0.053428735572</v>
+        <v>0.053431526167</v>
       </c>
     </row>
     <row r="96" spans="1:7">
@@ -2596,7 +2596,7 @@
         <v>1118</v>
       </c>
       <c r="G96" s="4">
-        <v>0.053983638163</v>
+        <v>0.053986451276</v>
       </c>
     </row>
     <row r="97" spans="1:7">
@@ -2619,7 +2619,7 @@
         <v>1129</v>
       </c>
       <c r="G97" s="4">
-        <v>0.054445810284</v>
+        <v>0.054448599088</v>
       </c>
     </row>
     <row r="98" spans="1:7">
@@ -2751,13 +2751,13 @@
         <v>195.571428571428</v>
       </c>
       <c r="E103" s="2">
-        <v>135872</v>
+        <v>135873</v>
       </c>
       <c r="F103" s="2">
-        <v>2074</v>
+        <v>2075</v>
       </c>
       <c r="G103" s="4">
-        <v>0.055427345236</v>
+        <v>0.055425101214</v>
       </c>
     </row>
     <row r="104" spans="1:7">
@@ -2774,13 +2774,13 @@
         <v>197.571428571428</v>
       </c>
       <c r="E104" s="2">
-        <v>137197</v>
+        <v>137198</v>
       </c>
       <c r="F104" s="2">
         <v>1325</v>
       </c>
       <c r="G104" s="4">
-        <v>0.05555332396</v>
+        <v>0.055551092544</v>
       </c>
     </row>
     <row r="105" spans="1:7">
@@ -2797,13 +2797,13 @@
         <v>205.714285714285</v>
       </c>
       <c r="E105" s="2">
-        <v>141803</v>
+        <v>141804</v>
       </c>
       <c r="F105" s="2">
         <v>4606</v>
       </c>
       <c r="G105" s="4">
-        <v>0.056652765756</v>
+        <v>0.056650536999</v>
       </c>
     </row>
     <row r="106" spans="1:7">
@@ -2820,13 +2820,13 @@
         <v>211.285714285714</v>
       </c>
       <c r="E106" s="2">
-        <v>145571</v>
+        <v>145572</v>
       </c>
       <c r="F106" s="2">
         <v>3768</v>
       </c>
       <c r="G106" s="4">
-        <v>0.058919607999</v>
+        <v>0.058917260885</v>
       </c>
     </row>
     <row r="107" spans="1:7">
@@ -2843,13 +2843,13 @@
         <v>216.285714285714</v>
       </c>
       <c r="E107" s="2">
-        <v>149920</v>
+        <v>149921</v>
       </c>
       <c r="F107" s="2">
         <v>4349</v>
       </c>
       <c r="G107" s="4">
-        <v>0.060110374399</v>
+        <v>0.06010798793</v>
       </c>
     </row>
     <row r="108" spans="1:7">
@@ -2866,13 +2866,13 @@
         <v>216.857142857142</v>
       </c>
       <c r="E108" s="2">
-        <v>154111</v>
+        <v>154112</v>
       </c>
       <c r="F108" s="2">
         <v>4191</v>
       </c>
       <c r="G108" s="4">
-        <v>0.061271442986</v>
+        <v>0.06126896997</v>
       </c>
     </row>
     <row r="109" spans="1:7">
@@ -2889,13 +2889,13 @@
         <v>217.428571428571</v>
       </c>
       <c r="E109" s="2">
-        <v>158318</v>
+        <v>158319</v>
       </c>
       <c r="F109" s="2">
         <v>4207</v>
       </c>
       <c r="G109" s="4">
-        <v>0.06207177814</v>
+        <v>0.062069246768</v>
       </c>
     </row>
     <row r="110" spans="1:7">
@@ -2912,7 +2912,7 @@
         <v>215.857142857142</v>
       </c>
       <c r="E110" s="2">
-        <v>160546</v>
+        <v>160547</v>
       </c>
       <c r="F110" s="2">
         <v>2228</v>
@@ -2935,7 +2935,7 @@
         <v>215.714285714285</v>
       </c>
       <c r="E111" s="2">
-        <v>161806</v>
+        <v>161807</v>
       </c>
       <c r="F111" s="2">
         <v>1260</v>
@@ -2958,7 +2958,7 @@
         <v>220.142857142857</v>
       </c>
       <c r="E112" s="2">
-        <v>166059</v>
+        <v>166060</v>
       </c>
       <c r="F112" s="2">
         <v>4253</v>
@@ -2981,7 +2981,7 @@
         <v>218.142857142857</v>
       </c>
       <c r="E113" s="2">
-        <v>169900</v>
+        <v>169901</v>
       </c>
       <c r="F113" s="2">
         <v>3841</v>
@@ -3004,7 +3004,7 @@
         <v>216.714285714285</v>
       </c>
       <c r="E114" s="2">
-        <v>173565</v>
+        <v>173566</v>
       </c>
       <c r="F114" s="2">
         <v>3665</v>
@@ -3027,7 +3027,7 @@
         <v>213.428571428571</v>
       </c>
       <c r="E115" s="2">
-        <v>176897</v>
+        <v>176898</v>
       </c>
       <c r="F115" s="2">
         <v>3332</v>
@@ -3050,7 +3050,7 @@
         <v>209.142857142857</v>
       </c>
       <c r="E116" s="2">
-        <v>180577</v>
+        <v>180578</v>
       </c>
       <c r="F116" s="2">
         <v>3680</v>
@@ -3073,7 +3073,7 @@
         <v>207</v>
       </c>
       <c r="E117" s="2">
-        <v>182213</v>
+        <v>182214</v>
       </c>
       <c r="F117" s="2">
         <v>1636</v>
@@ -3096,7 +3096,7 @@
         <v>207.571428571428</v>
       </c>
       <c r="E118" s="2">
-        <v>183467</v>
+        <v>183468</v>
       </c>
       <c r="F118" s="2">
         <v>1254</v>
@@ -3119,7 +3119,7 @@
         <v>200.714285714285</v>
       </c>
       <c r="E119" s="2">
-        <v>187653</v>
+        <v>187654</v>
       </c>
       <c r="F119" s="2">
         <v>4186</v>
@@ -3142,7 +3142,7 @@
         <v>203.285714285714</v>
       </c>
       <c r="E120" s="2">
-        <v>191594</v>
+        <v>191595</v>
       </c>
       <c r="F120" s="2">
         <v>3941</v>
@@ -3165,7 +3165,7 @@
         <v>203.714285714285</v>
       </c>
       <c r="E121" s="2">
-        <v>195460</v>
+        <v>195461</v>
       </c>
       <c r="F121" s="2">
         <v>3866</v>
@@ -3188,7 +3188,7 @@
         <v>201.714285714285</v>
       </c>
       <c r="E122" s="2">
-        <v>199136</v>
+        <v>199137</v>
       </c>
       <c r="F122" s="2">
         <v>3676</v>
@@ -3211,7 +3211,7 @@
         <v>203.857142857142</v>
       </c>
       <c r="E123" s="2">
-        <v>202688</v>
+        <v>202689</v>
       </c>
       <c r="F123" s="2">
         <v>3552</v>
@@ -3234,7 +3234,7 @@
         <v>203</v>
       </c>
       <c r="E124" s="2">
-        <v>204357</v>
+        <v>204358</v>
       </c>
       <c r="F124" s="2">
         <v>1669</v>
@@ -3257,7 +3257,7 @@
         <v>199.571428571428</v>
       </c>
       <c r="E125" s="2">
-        <v>205506</v>
+        <v>205507</v>
       </c>
       <c r="F125" s="2">
         <v>1149</v>
@@ -3280,7 +3280,7 @@
         <v>201.285714285714</v>
       </c>
       <c r="E126" s="2">
-        <v>209384</v>
+        <v>209385</v>
       </c>
       <c r="F126" s="2">
         <v>3878</v>
@@ -3303,7 +3303,7 @@
         <v>198.428571428571</v>
       </c>
       <c r="E127" s="2">
-        <v>212715</v>
+        <v>212716</v>
       </c>
       <c r="F127" s="2">
         <v>3331</v>
@@ -3326,7 +3326,7 @@
         <v>191.142857142857</v>
       </c>
       <c r="E128" s="2">
-        <v>215993</v>
+        <v>215994</v>
       </c>
       <c r="F128" s="2">
         <v>3278</v>
@@ -3349,7 +3349,7 @@
         <v>188.428571428571</v>
       </c>
       <c r="E129" s="2">
-        <v>219660</v>
+        <v>219661</v>
       </c>
       <c r="F129" s="2">
         <v>3667</v>
@@ -3372,7 +3372,7 @@
         <v>181.285714285714</v>
       </c>
       <c r="E130" s="2">
-        <v>222992</v>
+        <v>222993</v>
       </c>
       <c r="F130" s="2">
         <v>3332</v>
@@ -3395,7 +3395,7 @@
         <v>183</v>
       </c>
       <c r="E131" s="2">
-        <v>224701</v>
+        <v>224702</v>
       </c>
       <c r="F131" s="2">
         <v>1709</v>
@@ -3418,7 +3418,7 @@
         <v>183.857142857142</v>
       </c>
       <c r="E132" s="2">
-        <v>225766</v>
+        <v>225767</v>
       </c>
       <c r="F132" s="2">
         <v>1065</v>
@@ -3441,13 +3441,13 @@
         <v>181.142857142857</v>
       </c>
       <c r="E133" s="2">
-        <v>229669</v>
+        <v>229671</v>
       </c>
       <c r="F133" s="2">
-        <v>3903</v>
+        <v>3904</v>
       </c>
       <c r="G133" s="4">
-        <v>0.062509243283</v>
+        <v>0.06250616188499999</v>
       </c>
     </row>
     <row r="134" spans="1:7">
@@ -3464,13 +3464,13 @@
         <v>175.571428571428</v>
       </c>
       <c r="E134" s="2">
-        <v>233089</v>
+        <v>233091</v>
       </c>
       <c r="F134" s="2">
         <v>3420</v>
       </c>
       <c r="G134" s="4">
-        <v>0.060321978992</v>
+        <v>0.060319018404</v>
       </c>
     </row>
     <row r="135" spans="1:7">
@@ -3487,13 +3487,13 @@
         <v>175.285714285714</v>
       </c>
       <c r="E135" s="2">
-        <v>236955</v>
+        <v>236957</v>
       </c>
       <c r="F135" s="2">
         <v>3866</v>
       </c>
       <c r="G135" s="4">
-        <v>0.058534490983</v>
+        <v>0.058531698707</v>
       </c>
     </row>
     <row r="136" spans="1:7">
@@ -3510,13 +3510,13 @@
         <v>171.714285714285</v>
       </c>
       <c r="E136" s="2">
-        <v>240225</v>
+        <v>240227</v>
       </c>
       <c r="F136" s="2">
         <v>3270</v>
       </c>
       <c r="G136" s="4">
-        <v>0.058448820812</v>
+        <v>0.058445978799</v>
       </c>
     </row>
     <row r="137" spans="1:7">
@@ -3533,13 +3533,13 @@
         <v>170.285714285714</v>
       </c>
       <c r="E137" s="2">
-        <v>243587</v>
+        <v>243589</v>
       </c>
       <c r="F137" s="2">
         <v>3362</v>
       </c>
       <c r="G137" s="4">
-        <v>0.057878125758</v>
+        <v>0.057875315595</v>
       </c>
     </row>
     <row r="138" spans="1:7">
@@ -3556,13 +3556,13 @@
         <v>166.571428571428</v>
       </c>
       <c r="E138" s="2">
-        <v>245151</v>
+        <v>245153</v>
       </c>
       <c r="F138" s="2">
         <v>1564</v>
       </c>
       <c r="G138" s="4">
-        <v>0.057017114914</v>
+        <v>0.057014326927</v>
       </c>
     </row>
     <row r="139" spans="1:7">
@@ -3579,13 +3579,13 @@
         <v>160.857142857142</v>
       </c>
       <c r="E139" s="2">
-        <v>245927</v>
+        <v>245929</v>
       </c>
       <c r="F139" s="2">
         <v>776</v>
       </c>
       <c r="G139" s="4">
-        <v>0.055850404245</v>
+        <v>0.055847634163</v>
       </c>
     </row>
     <row r="140" spans="1:7">
@@ -3602,7 +3602,7 @@
         <v>157.428571428571</v>
       </c>
       <c r="E140" s="2">
-        <v>249585</v>
+        <v>249587</v>
       </c>
       <c r="F140" s="2">
         <v>3658</v>
@@ -3625,7 +3625,7 @@
         <v>152.857142857142</v>
       </c>
       <c r="E141" s="2">
-        <v>252668</v>
+        <v>252670</v>
       </c>
       <c r="F141" s="2">
         <v>3083</v>
@@ -3648,7 +3648,7 @@
         <v>146.857142857142</v>
       </c>
       <c r="E142" s="2">
-        <v>255726</v>
+        <v>255728</v>
       </c>
       <c r="F142" s="2">
         <v>3058</v>
@@ -3671,7 +3671,7 @@
         <v>140.714285714285</v>
       </c>
       <c r="E143" s="2">
-        <v>258896</v>
+        <v>258898</v>
       </c>
       <c r="F143" s="2">
         <v>3170</v>
@@ -3694,7 +3694,7 @@
         <v>138.857142857142</v>
       </c>
       <c r="E144" s="2">
-        <v>261936</v>
+        <v>261938</v>
       </c>
       <c r="F144" s="2">
         <v>3040</v>
@@ -3717,7 +3717,7 @@
         <v>134.285714285714</v>
       </c>
       <c r="E145" s="2">
-        <v>263266</v>
+        <v>263268</v>
       </c>
       <c r="F145" s="2">
         <v>1330</v>
@@ -3740,7 +3740,7 @@
         <v>137.571428571428</v>
       </c>
       <c r="E146" s="2">
-        <v>264235</v>
+        <v>264237</v>
       </c>
       <c r="F146" s="2">
         <v>969</v>
@@ -3763,7 +3763,7 @@
         <v>128.571428571428</v>
       </c>
       <c r="E147" s="2">
-        <v>267225</v>
+        <v>267227</v>
       </c>
       <c r="F147" s="2">
         <v>2990</v>
@@ -3786,7 +3786,7 @@
         <v>123.857142857142</v>
       </c>
       <c r="E148" s="2">
-        <v>270250</v>
+        <v>270252</v>
       </c>
       <c r="F148" s="2">
         <v>3025</v>
@@ -3809,7 +3809,7 @@
         <v>120.571428571428</v>
       </c>
       <c r="E149" s="2">
-        <v>273218</v>
+        <v>273220</v>
       </c>
       <c r="F149" s="2">
         <v>2968</v>
@@ -3832,13 +3832,13 @@
         <v>126.285714285714</v>
       </c>
       <c r="E150" s="2">
-        <v>276498</v>
+        <v>276505</v>
       </c>
       <c r="F150" s="2">
-        <v>3280</v>
+        <v>3285</v>
       </c>
       <c r="G150" s="4">
-        <v>0.050221565731</v>
+        <v>0.050207303913</v>
       </c>
     </row>
     <row r="151" spans="1:7">
@@ -3855,13 +3855,13 @@
         <v>119.714285714285</v>
       </c>
       <c r="E151" s="2">
-        <v>279288</v>
+        <v>279295</v>
       </c>
       <c r="F151" s="2">
         <v>2790</v>
       </c>
       <c r="G151" s="4">
-        <v>0.048294144767</v>
+        <v>0.048280232759</v>
       </c>
     </row>
     <row r="152" spans="1:7">
@@ -3878,13 +3878,13 @@
         <v>120</v>
       </c>
       <c r="E152" s="2">
-        <v>280731</v>
+        <v>280738</v>
       </c>
       <c r="F152" s="2">
         <v>1443</v>
       </c>
       <c r="G152" s="4">
-        <v>0.048096192384</v>
+        <v>0.048082427017</v>
       </c>
     </row>
     <row r="153" spans="1:7">
@@ -3901,13 +3901,13 @@
         <v>118.714285714285</v>
       </c>
       <c r="E153" s="2">
-        <v>281815</v>
+        <v>281822</v>
       </c>
       <c r="F153" s="2">
         <v>1084</v>
       </c>
       <c r="G153" s="4">
-        <v>0.047269624573</v>
+        <v>0.047256184247</v>
       </c>
     </row>
     <row r="154" spans="1:7">
@@ -3924,13 +3924,13 @@
         <v>117.571428571428</v>
       </c>
       <c r="E154" s="2">
-        <v>284963</v>
+        <v>284973</v>
       </c>
       <c r="F154" s="2">
-        <v>3148</v>
+        <v>3151</v>
       </c>
       <c r="G154" s="4">
-        <v>0.04639756455</v>
+        <v>0.046376648258</v>
       </c>
     </row>
     <row r="155" spans="1:7">
@@ -3947,13 +3947,13 @@
         <v>117.285714285714</v>
       </c>
       <c r="E155" s="2">
-        <v>288248</v>
+        <v>288259</v>
       </c>
       <c r="F155" s="2">
-        <v>3285</v>
+        <v>3286</v>
       </c>
       <c r="G155" s="4">
-        <v>0.045616179575</v>
+        <v>0.045593380352</v>
       </c>
     </row>
     <row r="156" spans="1:7">
@@ -3970,13 +3970,13 @@
         <v>114.714285714285</v>
       </c>
       <c r="E156" s="2">
-        <v>291237</v>
+        <v>291250</v>
       </c>
       <c r="F156" s="2">
-        <v>2989</v>
+        <v>2991</v>
       </c>
       <c r="G156" s="4">
-        <v>0.044564071258</v>
+        <v>0.044536882972</v>
       </c>
     </row>
     <row r="157" spans="1:7">
@@ -3993,13 +3993,13 @@
         <v>103.714285714285</v>
       </c>
       <c r="E157" s="2">
-        <v>294184</v>
+        <v>294198</v>
       </c>
       <c r="F157" s="2">
-        <v>2947</v>
+        <v>2948</v>
       </c>
       <c r="G157" s="4">
-        <v>0.041049417618</v>
+        <v>0.041033176962</v>
       </c>
     </row>
     <row r="158" spans="1:7">
@@ -4016,13 +4016,13 @@
         <v>104.571428571428</v>
       </c>
       <c r="E158" s="2">
-        <v>297010</v>
+        <v>297025</v>
       </c>
       <c r="F158" s="2">
-        <v>2826</v>
+        <v>2827</v>
       </c>
       <c r="G158" s="4">
-        <v>0.041304593161</v>
+        <v>0.041285956006</v>
       </c>
     </row>
     <row r="159" spans="1:7">
@@ -4039,13 +4039,13 @@
         <v>104.857142857142</v>
       </c>
       <c r="E159" s="2">
-        <v>298348</v>
+        <v>298363</v>
       </c>
       <c r="F159" s="2">
         <v>1338</v>
       </c>
       <c r="G159" s="4">
-        <v>0.041664301526</v>
+        <v>0.04164539007</v>
       </c>
     </row>
     <row r="160" spans="1:7">
@@ -4062,13 +4062,13 @@
         <v>104</v>
       </c>
       <c r="E160" s="2">
-        <v>299433</v>
+        <v>299448</v>
       </c>
       <c r="F160" s="2">
         <v>1085</v>
       </c>
       <c r="G160" s="4">
-        <v>0.041321375865</v>
+        <v>0.041302621127</v>
       </c>
     </row>
     <row r="161" spans="1:7">
@@ -4085,13 +4085,13 @@
         <v>93.571428571428</v>
       </c>
       <c r="E161" s="2">
-        <v>300691</v>
+        <v>300706</v>
       </c>
       <c r="F161" s="2">
         <v>1258</v>
       </c>
       <c r="G161" s="4">
-        <v>0.041645473041</v>
+        <v>0.041632237971</v>
       </c>
     </row>
     <row r="162" spans="1:7">
@@ -4108,13 +4108,13 @@
         <v>95</v>
       </c>
       <c r="E162" s="2">
-        <v>305000</v>
+        <v>305015</v>
       </c>
       <c r="F162" s="2">
         <v>4309</v>
       </c>
       <c r="G162" s="4">
-        <v>0.039696752626</v>
+        <v>0.039687276199</v>
       </c>
     </row>
     <row r="163" spans="1:7">
@@ -4131,13 +4131,13 @@
         <v>99.85714285714199</v>
       </c>
       <c r="E163" s="2">
-        <v>308525</v>
+        <v>308541</v>
       </c>
       <c r="F163" s="2">
-        <v>3525</v>
+        <v>3526</v>
       </c>
       <c r="G163" s="4">
-        <v>0.04043267006</v>
+        <v>0.040425654965</v>
       </c>
     </row>
     <row r="164" spans="1:7">
@@ -4154,13 +4154,13 @@
         <v>101.142857142857</v>
       </c>
       <c r="E164" s="2">
-        <v>311818</v>
+        <v>311836</v>
       </c>
       <c r="F164" s="2">
-        <v>3293</v>
+        <v>3295</v>
       </c>
       <c r="G164" s="4">
-        <v>0.040149710785</v>
+        <v>0.04014060551</v>
       </c>
     </row>
     <row r="165" spans="1:7">
@@ -4177,13 +4177,13 @@
         <v>94.142857142857</v>
       </c>
       <c r="E165" s="2">
-        <v>314323</v>
+        <v>314342</v>
       </c>
       <c r="F165" s="2">
-        <v>2505</v>
+        <v>2506</v>
       </c>
       <c r="G165" s="4">
-        <v>0.038063882631</v>
+        <v>0.038055090373</v>
       </c>
     </row>
     <row r="166" spans="1:7">
@@ -4200,13 +4200,13 @@
         <v>91.85714285714199</v>
       </c>
       <c r="E166" s="2">
-        <v>315725</v>
+        <v>315744</v>
       </c>
       <c r="F166" s="2">
         <v>1402</v>
       </c>
       <c r="G166" s="4">
-        <v>0.037002934913</v>
+        <v>0.036994419193</v>
       </c>
     </row>
     <row r="167" spans="1:7">
@@ -4223,13 +4223,13 @@
         <v>89.571428571428</v>
       </c>
       <c r="E167" s="2">
-        <v>316578</v>
+        <v>316597</v>
       </c>
       <c r="F167" s="2">
         <v>853</v>
       </c>
       <c r="G167" s="4">
-        <v>0.036570428696</v>
+        <v>0.036561898652</v>
       </c>
     </row>
     <row r="168" spans="1:7">
@@ -4246,13 +4246,13 @@
         <v>94.142857142857</v>
       </c>
       <c r="E168" s="2">
-        <v>319996</v>
+        <v>320015</v>
       </c>
       <c r="F168" s="2">
         <v>3418</v>
       </c>
       <c r="G168" s="4">
-        <v>0.034136234136</v>
+        <v>0.034129162566</v>
       </c>
     </row>
     <row r="169" spans="1:7">
@@ -4269,13 +4269,13 @@
         <v>92.28571428571399</v>
       </c>
       <c r="E169" s="2">
-        <v>323990</v>
+        <v>324009</v>
       </c>
       <c r="F169" s="2">
         <v>3994</v>
       </c>
       <c r="G169" s="4">
-        <v>0.03401790416</v>
+        <v>0.034010740233</v>
       </c>
     </row>
     <row r="170" spans="1:7">
@@ -4292,13 +4292,13 @@
         <v>83.142857142857</v>
       </c>
       <c r="E170" s="2">
-        <v>327313</v>
+        <v>327334</v>
       </c>
       <c r="F170" s="2">
-        <v>3323</v>
+        <v>3325</v>
       </c>
       <c r="G170" s="4">
-        <v>0.030977219501</v>
+        <v>0.03096897781</v>
       </c>
     </row>
     <row r="171" spans="1:7">
@@ -4315,13 +4315,13 @@
         <v>83.142857142857</v>
       </c>
       <c r="E171" s="2">
-        <v>331060</v>
+        <v>331085</v>
       </c>
       <c r="F171" s="2">
-        <v>3747</v>
+        <v>3751</v>
       </c>
       <c r="G171" s="4">
-        <v>0.030246336139</v>
+        <v>0.0302353369</v>
       </c>
     </row>
     <row r="172" spans="1:7">
@@ -4338,13 +4338,13 @@
         <v>87.571428571428</v>
       </c>
       <c r="E172" s="2">
-        <v>334336</v>
+        <v>334361</v>
       </c>
       <c r="F172" s="2">
         <v>3276</v>
       </c>
       <c r="G172" s="4">
-        <v>0.030630090441</v>
+        <v>0.030620910135</v>
       </c>
     </row>
     <row r="173" spans="1:7">
@@ -4361,13 +4361,13 @@
         <v>90.714285714285</v>
       </c>
       <c r="E173" s="2">
-        <v>335855</v>
+        <v>335880</v>
       </c>
       <c r="F173" s="2">
         <v>1519</v>
       </c>
       <c r="G173" s="4">
-        <v>0.031544957774</v>
+        <v>0.031535558204</v>
       </c>
     </row>
     <row r="174" spans="1:7">
@@ -4384,13 +4384,13 @@
         <v>91.428571428571</v>
       </c>
       <c r="E174" s="2">
-        <v>337011</v>
+        <v>337036</v>
       </c>
       <c r="F174" s="2">
         <v>1156</v>
       </c>
       <c r="G174" s="4">
-        <v>0.03132188127</v>
+        <v>0.03131268653</v>
       </c>
     </row>
     <row r="175" spans="1:7">
@@ -4407,13 +4407,13 @@
         <v>97.428571428571</v>
       </c>
       <c r="E175" s="2">
-        <v>341390</v>
+        <v>341415</v>
       </c>
       <c r="F175" s="2">
         <v>4379</v>
       </c>
       <c r="G175" s="4">
-        <v>0.031878096662</v>
+        <v>0.031869158878</v>
       </c>
     </row>
     <row r="176" spans="1:7">
@@ -4430,13 +4430,13 @@
         <v>92.85714285714199</v>
       </c>
       <c r="E176" s="2">
-        <v>345186</v>
+        <v>345211</v>
       </c>
       <c r="F176" s="2">
         <v>3796</v>
       </c>
       <c r="G176" s="4">
-        <v>0.030666163427</v>
+        <v>0.030657485142</v>
       </c>
     </row>
     <row r="177" spans="1:7">
@@ -4453,13 +4453,13 @@
         <v>93.85714285714199</v>
       </c>
       <c r="E177" s="2">
-        <v>348699</v>
+        <v>348724</v>
       </c>
       <c r="F177" s="2">
         <v>3513</v>
       </c>
       <c r="G177" s="4">
-        <v>0.030721032451</v>
+        <v>0.030715287517</v>
       </c>
     </row>
     <row r="178" spans="1:7">
@@ -4476,13 +4476,13 @@
         <v>92</v>
       </c>
       <c r="E178" s="2">
-        <v>352437</v>
+        <v>352463</v>
       </c>
       <c r="F178" s="2">
-        <v>3738</v>
+        <v>3739</v>
       </c>
       <c r="G178" s="4">
-        <v>0.030125836179</v>
+        <v>0.030124426981</v>
       </c>
     </row>
     <row r="179" spans="1:7">
@@ -4499,13 +4499,13 @@
         <v>89.85714285714199</v>
       </c>
       <c r="E179" s="2">
-        <v>355745</v>
+        <v>355773</v>
       </c>
       <c r="F179" s="2">
-        <v>3308</v>
+        <v>3310</v>
       </c>
       <c r="G179" s="4">
-        <v>0.029380167219</v>
+        <v>0.029376050812</v>
       </c>
     </row>
     <row r="180" spans="1:7">
@@ -4522,13 +4522,13 @@
         <v>88</v>
       </c>
       <c r="E180" s="2">
-        <v>357618</v>
+        <v>357646</v>
       </c>
       <c r="F180" s="2">
         <v>1873</v>
       </c>
       <c r="G180" s="4">
-        <v>0.028304921196</v>
+        <v>0.028301019939</v>
       </c>
     </row>
     <row r="181" spans="1:7">
@@ -4545,13 +4545,13 @@
         <v>85.28571428571399</v>
       </c>
       <c r="E181" s="2">
-        <v>358747</v>
+        <v>358775</v>
       </c>
       <c r="F181" s="2">
         <v>1129</v>
       </c>
       <c r="G181" s="4">
-        <v>0.027465955097</v>
+        <v>0.027462164772</v>
       </c>
     </row>
     <row r="182" spans="1:7">
@@ -4568,13 +4568,13 @@
         <v>81</v>
       </c>
       <c r="E182" s="2">
-        <v>362854</v>
+        <v>362882</v>
       </c>
       <c r="F182" s="2">
         <v>4107</v>
       </c>
       <c r="G182" s="4">
-        <v>0.026416325009</v>
+        <v>0.026412633344</v>
       </c>
     </row>
     <row r="183" spans="1:7">
@@ -4591,13 +4591,13 @@
         <v>77.714285714285</v>
       </c>
       <c r="E183" s="2">
-        <v>366697</v>
+        <v>366725</v>
       </c>
       <c r="F183" s="2">
         <v>3843</v>
       </c>
       <c r="G183" s="4">
-        <v>0.025289386825</v>
+        <v>0.025285860369</v>
       </c>
     </row>
     <row r="184" spans="1:7">
@@ -4614,13 +4614,13 @@
         <v>72.85714285714199</v>
       </c>
       <c r="E184" s="2">
-        <v>370257</v>
+        <v>370285</v>
       </c>
       <c r="F184" s="2">
         <v>3560</v>
       </c>
       <c r="G184" s="4">
-        <v>0.023657111049</v>
+        <v>0.023653819396</v>
       </c>
     </row>
     <row r="185" spans="1:7">
@@ -4637,13 +4637,13 @@
         <v>69.142857142857</v>
       </c>
       <c r="E185" s="2">
-        <v>373784</v>
+        <v>373812</v>
       </c>
       <c r="F185" s="2">
         <v>3527</v>
       </c>
       <c r="G185" s="4">
-        <v>0.022672975125</v>
+        <v>0.022670851093</v>
       </c>
     </row>
     <row r="186" spans="1:7">
@@ -4660,7 +4660,7 @@
         <v>67.28571428571399</v>
       </c>
       <c r="E186" s="2">
-        <v>377329</v>
+        <v>377357</v>
       </c>
       <c r="F186" s="2">
         <v>3545</v>
@@ -4683,7 +4683,7 @@
         <v>65</v>
       </c>
       <c r="E187" s="2">
-        <v>379325</v>
+        <v>379353</v>
       </c>
       <c r="F187" s="2">
         <v>1996</v>
@@ -4706,7 +4706,7 @@
         <v>67</v>
       </c>
       <c r="E188" s="2">
-        <v>380709</v>
+        <v>380737</v>
       </c>
       <c r="F188" s="2">
         <v>1384</v>
@@ -4729,7 +4729,7 @@
         <v>61.857142857142</v>
       </c>
       <c r="E189" s="2">
-        <v>385515</v>
+        <v>385543</v>
       </c>
       <c r="F189" s="2">
         <v>4806</v>
@@ -4752,7 +4752,7 @@
         <v>60.142857142857</v>
       </c>
       <c r="E190" s="2">
-        <v>390175</v>
+        <v>390203</v>
       </c>
       <c r="F190" s="2">
         <v>4660</v>
@@ -4775,7 +4775,7 @@
         <v>62.428571428571</v>
       </c>
       <c r="E191" s="2">
-        <v>394367</v>
+        <v>394395</v>
       </c>
       <c r="F191" s="2">
         <v>4192</v>
@@ -4798,13 +4798,13 @@
         <v>66.571428571428</v>
       </c>
       <c r="E192" s="2">
-        <v>398616</v>
+        <v>398648</v>
       </c>
       <c r="F192" s="2">
-        <v>4249</v>
+        <v>4253</v>
       </c>
       <c r="G192" s="4">
-        <v>0.018766108247</v>
+        <v>0.018763085843</v>
       </c>
     </row>
     <row r="193" spans="1:7">
@@ -4821,13 +4821,13 @@
         <v>64</v>
       </c>
       <c r="E193" s="2">
-        <v>402396</v>
+        <v>402430</v>
       </c>
       <c r="F193" s="2">
-        <v>3780</v>
+        <v>3782</v>
       </c>
       <c r="G193" s="4">
-        <v>0.017872102764</v>
+        <v>0.017867825948</v>
       </c>
     </row>
     <row r="194" spans="1:7">
@@ -4844,13 +4844,13 @@
         <v>63.71428571428499</v>
       </c>
       <c r="E194" s="2">
-        <v>404189</v>
+        <v>404223</v>
       </c>
       <c r="F194" s="2">
         <v>1793</v>
       </c>
       <c r="G194" s="4">
-        <v>0.017937580437</v>
+        <v>0.017933252915</v>
       </c>
     </row>
     <row r="195" spans="1:7">
@@ -4867,13 +4867,13 @@
         <v>61.857142857142</v>
       </c>
       <c r="E195" s="2">
-        <v>405523</v>
+        <v>405557</v>
       </c>
       <c r="F195" s="2">
         <v>1334</v>
       </c>
       <c r="G195" s="4">
-        <v>0.01744982671</v>
+        <v>0.01744560838</v>
       </c>
     </row>
     <row r="196" spans="1:7">
@@ -4890,13 +4890,13 @@
         <v>64</v>
       </c>
       <c r="E196" s="2">
-        <v>410045</v>
+        <v>410079</v>
       </c>
       <c r="F196" s="2">
         <v>4522</v>
       </c>
       <c r="G196" s="4">
-        <v>0.018263350998</v>
+        <v>0.018258884903</v>
       </c>
     </row>
     <row r="197" spans="1:7">
@@ -4913,13 +4913,13 @@
         <v>67.85714285714199</v>
       </c>
       <c r="E197" s="2">
-        <v>414556</v>
+        <v>414590</v>
       </c>
       <c r="F197" s="2">
         <v>4511</v>
       </c>
       <c r="G197" s="4">
-        <v>0.019482383823</v>
+        <v>0.019477590519</v>
       </c>
     </row>
     <row r="198" spans="1:7">
@@ -4936,13 +4936,13 @@
         <v>67</v>
       </c>
       <c r="E198" s="2">
-        <v>418780</v>
+        <v>418814</v>
       </c>
       <c r="F198" s="2">
         <v>4224</v>
       </c>
       <c r="G198" s="4">
-        <v>0.019211076066</v>
+        <v>0.019206355706</v>
       </c>
     </row>
     <row r="199" spans="1:7">
@@ -4959,13 +4959,13 @@
         <v>60.857142857142</v>
       </c>
       <c r="E199" s="2">
-        <v>422790</v>
+        <v>422825</v>
       </c>
       <c r="F199" s="2">
-        <v>4010</v>
+        <v>4011</v>
       </c>
       <c r="G199" s="4">
-        <v>0.017622238768</v>
+        <v>0.017620052115</v>
       </c>
     </row>
     <row r="200" spans="1:7">
@@ -4982,10 +4982,10 @@
         <v>60.857142857142</v>
       </c>
       <c r="E200" s="2">
-        <v>426776</v>
+        <v>426810</v>
       </c>
       <c r="F200" s="2">
-        <v>3986</v>
+        <v>3985</v>
       </c>
       <c r="G200" s="4">
         <v>0.017473338802</v>
@@ -5005,13 +5005,13 @@
         <v>61.428571428571</v>
       </c>
       <c r="E201" s="2">
-        <v>428675</v>
+        <v>428710</v>
       </c>
       <c r="F201" s="2">
-        <v>1899</v>
+        <v>1900</v>
       </c>
       <c r="G201" s="4">
-        <v>0.017561055296</v>
+        <v>0.017560338138</v>
       </c>
     </row>
     <row r="202" spans="1:7">
@@ -5028,13 +5028,13 @@
         <v>63.142857142857</v>
       </c>
       <c r="E202" s="2">
-        <v>430052</v>
+        <v>430087</v>
       </c>
       <c r="F202" s="2">
         <v>1377</v>
       </c>
       <c r="G202" s="4">
-        <v>0.018019487137</v>
+        <v>0.018018752547</v>
       </c>
     </row>
     <row r="203" spans="1:7">
@@ -5051,13 +5051,13 @@
         <v>62.71428571428499</v>
       </c>
       <c r="E203" s="2">
-        <v>434873</v>
+        <v>434910</v>
       </c>
       <c r="F203" s="2">
-        <v>4821</v>
+        <v>4823</v>
       </c>
       <c r="G203" s="4">
-        <v>0.01768164975</v>
+        <v>0.017679513511</v>
       </c>
     </row>
     <row r="204" spans="1:7">
@@ -5074,13 +5074,13 @@
         <v>63.428571428571</v>
       </c>
       <c r="E204" s="2">
-        <v>439652</v>
+        <v>439689</v>
       </c>
       <c r="F204" s="2">
         <v>4779</v>
       </c>
       <c r="G204" s="4">
-        <v>0.01769206248</v>
+        <v>0.017689947806</v>
       </c>
     </row>
     <row r="205" spans="1:7">
@@ -5097,13 +5097,13 @@
         <v>65.142857142857</v>
       </c>
       <c r="E205" s="2">
-        <v>443933</v>
+        <v>443970</v>
       </c>
       <c r="F205" s="2">
         <v>4281</v>
       </c>
       <c r="G205" s="4">
-        <v>0.018129050212</v>
+        <v>0.018126888217</v>
       </c>
     </row>
     <row r="206" spans="1:7">
@@ -5120,13 +5120,13 @@
         <v>66.85714285714199</v>
       </c>
       <c r="E206" s="2">
-        <v>447832</v>
+        <v>447869</v>
       </c>
       <c r="F206" s="2">
         <v>3899</v>
       </c>
       <c r="G206" s="4">
-        <v>0.018688603146</v>
+        <v>0.018687110685</v>
       </c>
     </row>
     <row r="207" spans="1:7">
@@ -5143,13 +5143,13 @@
         <v>70.571428571428</v>
       </c>
       <c r="E207" s="2">
-        <v>451616</v>
+        <v>451656</v>
       </c>
       <c r="F207" s="2">
-        <v>3784</v>
+        <v>3787</v>
       </c>
       <c r="G207" s="4">
-        <v>0.019887278582</v>
+        <v>0.019882476052</v>
       </c>
     </row>
     <row r="208" spans="1:7">
@@ -5166,13 +5166,36 @@
         <v>71.85714285714199</v>
       </c>
       <c r="E208" s="2">
-        <v>453544</v>
+        <v>453587</v>
       </c>
       <c r="F208" s="2">
-        <v>1928</v>
+        <v>1931</v>
       </c>
       <c r="G208" s="4">
-        <v>0.020225984156</v>
+        <v>0.02021947984</v>
+      </c>
+    </row>
+    <row r="209" spans="1:7">
+      <c r="A209" s="1">
+        <v>44129</v>
+      </c>
+      <c r="B209" s="2">
+        <v>18939</v>
+      </c>
+      <c r="C209" s="2">
+        <v>33</v>
+      </c>
+      <c r="D209" s="3">
+        <v>71.428571428571</v>
+      </c>
+      <c r="E209" s="2">
+        <v>455176</v>
+      </c>
+      <c r="F209" s="2">
+        <v>1589</v>
+      </c>
+      <c r="G209" s="4">
+        <v>0.019929052572</v>
       </c>
     </row>
   </sheetData>

--- a/contra_costa_county_testing.xlsx
+++ b/contra_costa_county_testing.xlsx
@@ -376,7 +376,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G209"/>
+  <dimension ref="A1:G210"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1210,13 +1210,13 @@
         <v>15.428571428571</v>
       </c>
       <c r="E36" s="2">
-        <v>19377</v>
+        <v>19376</v>
       </c>
       <c r="F36" s="2">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="G36" s="4">
-        <v>0.025210084033</v>
+        <v>0.025215970114</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -1233,13 +1233,13 @@
         <v>16.428571428571</v>
       </c>
       <c r="E37" s="2">
-        <v>20342</v>
+        <v>20341</v>
       </c>
       <c r="F37" s="2">
         <v>965</v>
       </c>
       <c r="G37" s="4">
-        <v>0.025263620386</v>
+        <v>0.02526917161</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -1256,13 +1256,13 @@
         <v>14.428571428571</v>
       </c>
       <c r="E38" s="2">
-        <v>21239</v>
+        <v>21238</v>
       </c>
       <c r="F38" s="2">
         <v>897</v>
       </c>
       <c r="G38" s="4">
-        <v>0.021942211601</v>
+        <v>0.021946979574</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -1279,13 +1279,13 @@
         <v>15.285714285714</v>
       </c>
       <c r="E39" s="2">
-        <v>22379</v>
+        <v>22378</v>
       </c>
       <c r="F39" s="2">
         <v>1140</v>
       </c>
       <c r="G39" s="4">
-        <v>0.021348762968</v>
+        <v>0.021353023348</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -1302,13 +1302,13 @@
         <v>14.714285714285</v>
       </c>
       <c r="E40" s="2">
-        <v>22761</v>
+        <v>22760</v>
       </c>
       <c r="F40" s="2">
         <v>382</v>
       </c>
       <c r="G40" s="4">
-        <v>0.020172346259</v>
+        <v>0.020176297747</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -1325,13 +1325,13 @@
         <v>15.142857142857</v>
       </c>
       <c r="E41" s="2">
-        <v>23104</v>
+        <v>23103</v>
       </c>
       <c r="F41" s="2">
         <v>343</v>
       </c>
       <c r="G41" s="4">
-        <v>0.02044358727</v>
+        <v>0.020447530864</v>
       </c>
     </row>
     <row r="42" spans="1:7">
@@ -1348,13 +1348,13 @@
         <v>13</v>
       </c>
       <c r="E42" s="2">
-        <v>24207</v>
+        <v>24206</v>
       </c>
       <c r="F42" s="2">
         <v>1103</v>
       </c>
       <c r="G42" s="4">
-        <v>0.016515426497</v>
+        <v>0.016518424396</v>
       </c>
     </row>
     <row r="43" spans="1:7">
@@ -1371,7 +1371,7 @@
         <v>12.285714285714</v>
       </c>
       <c r="E43" s="2">
-        <v>25438</v>
+        <v>25437</v>
       </c>
       <c r="F43" s="2">
         <v>1231</v>
@@ -1394,7 +1394,7 @@
         <v>12.857142857142</v>
       </c>
       <c r="E44" s="2">
-        <v>26531</v>
+        <v>26530</v>
       </c>
       <c r="F44" s="2">
         <v>1093</v>
@@ -1417,7 +1417,7 @@
         <v>14</v>
       </c>
       <c r="E45" s="2">
-        <v>27392</v>
+        <v>27391</v>
       </c>
       <c r="F45" s="2">
         <v>861</v>
@@ -1440,7 +1440,7 @@
         <v>15.714285714285</v>
       </c>
       <c r="E46" s="2">
-        <v>28311</v>
+        <v>28310</v>
       </c>
       <c r="F46" s="2">
         <v>919</v>
@@ -1463,7 +1463,7 @@
         <v>17.571428571428</v>
       </c>
       <c r="E47" s="2">
-        <v>28720</v>
+        <v>28719</v>
       </c>
       <c r="F47" s="2">
         <v>409</v>
@@ -1486,13 +1486,13 @@
         <v>18</v>
       </c>
       <c r="E48" s="2">
-        <v>29106</v>
+        <v>29104</v>
       </c>
       <c r="F48" s="2">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="G48" s="4">
-        <v>0.020993002332</v>
+        <v>0.020996500583</v>
       </c>
     </row>
     <row r="49" spans="1:7">
@@ -1509,13 +1509,13 @@
         <v>22.428571428571</v>
       </c>
       <c r="E49" s="2">
-        <v>30471</v>
+        <v>30469</v>
       </c>
       <c r="F49" s="2">
         <v>1365</v>
       </c>
       <c r="G49" s="4">
-        <v>0.02506385696</v>
+        <v>0.025067858853</v>
       </c>
     </row>
     <row r="50" spans="1:7">
@@ -1532,10 +1532,10 @@
         <v>25.714285714285</v>
       </c>
       <c r="E50" s="2">
-        <v>32129</v>
+        <v>32128</v>
       </c>
       <c r="F50" s="2">
-        <v>1658</v>
+        <v>1659</v>
       </c>
       <c r="G50" s="4">
         <v>0.026901808399</v>
@@ -1555,7 +1555,7 @@
         <v>26.142857142857</v>
       </c>
       <c r="E51" s="2">
-        <v>33270</v>
+        <v>33269</v>
       </c>
       <c r="F51" s="2">
         <v>1141</v>
@@ -1578,7 +1578,7 @@
         <v>27.428571428571</v>
       </c>
       <c r="E52" s="2">
-        <v>34401</v>
+        <v>34400</v>
       </c>
       <c r="F52" s="2">
         <v>1131</v>
@@ -1601,7 +1601,7 @@
         <v>29.142857142857</v>
       </c>
       <c r="E53" s="2">
-        <v>35490</v>
+        <v>35489</v>
       </c>
       <c r="F53" s="2">
         <v>1089</v>
@@ -1624,7 +1624,7 @@
         <v>28</v>
       </c>
       <c r="E54" s="2">
-        <v>36009</v>
+        <v>36008</v>
       </c>
       <c r="F54" s="2">
         <v>519</v>
@@ -1647,13 +1647,13 @@
         <v>27.571428571428</v>
       </c>
       <c r="E55" s="2">
-        <v>36400</v>
+        <v>36399</v>
       </c>
       <c r="F55" s="2">
         <v>391</v>
       </c>
       <c r="G55" s="4">
-        <v>0.026460104195</v>
+        <v>0.026456477039</v>
       </c>
     </row>
     <row r="56" spans="1:7">
@@ -1670,13 +1670,13 @@
         <v>23.285714285714</v>
       </c>
       <c r="E56" s="2">
-        <v>36861</v>
+        <v>36860</v>
       </c>
       <c r="F56" s="2">
         <v>461</v>
       </c>
       <c r="G56" s="4">
-        <v>0.025508607198</v>
+        <v>0.025504615866</v>
       </c>
     </row>
     <row r="57" spans="1:7">
@@ -1693,7 +1693,7 @@
         <v>23.714285714285</v>
       </c>
       <c r="E57" s="2">
-        <v>38058</v>
+        <v>38057</v>
       </c>
       <c r="F57" s="2">
         <v>1197</v>
@@ -1716,13 +1716,13 @@
         <v>23.714285714285</v>
       </c>
       <c r="E58" s="2">
-        <v>39166</v>
+        <v>39164</v>
       </c>
       <c r="F58" s="2">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="G58" s="4">
-        <v>0.028154681139</v>
+        <v>0.028159457167</v>
       </c>
     </row>
     <row r="59" spans="1:7">
@@ -1739,13 +1739,13 @@
         <v>26.285714285714</v>
       </c>
       <c r="E59" s="2">
-        <v>40302</v>
+        <v>40300</v>
       </c>
       <c r="F59" s="2">
         <v>1136</v>
       </c>
       <c r="G59" s="4">
-        <v>0.031181155736</v>
+        <v>0.031186440677</v>
       </c>
     </row>
     <row r="60" spans="1:7">
@@ -1762,13 +1762,13 @@
         <v>26.285714285714</v>
       </c>
       <c r="E60" s="2">
-        <v>41703</v>
+        <v>41701</v>
       </c>
       <c r="F60" s="2">
         <v>1401</v>
       </c>
       <c r="G60" s="4">
-        <v>0.02961532271</v>
+        <v>0.029620090148</v>
       </c>
     </row>
     <row r="61" spans="1:7">
@@ -1785,13 +1785,13 @@
         <v>26</v>
       </c>
       <c r="E61" s="2">
-        <v>42437</v>
+        <v>42435</v>
       </c>
       <c r="F61" s="2">
         <v>734</v>
       </c>
       <c r="G61" s="4">
-        <v>0.028313627878</v>
+        <v>0.028318033297</v>
       </c>
     </row>
     <row r="62" spans="1:7">
@@ -1808,13 +1808,13 @@
         <v>25.714285714285</v>
       </c>
       <c r="E62" s="2">
-        <v>42833</v>
+        <v>42831</v>
       </c>
       <c r="F62" s="2">
         <v>396</v>
       </c>
       <c r="G62" s="4">
-        <v>0.027980724389</v>
+        <v>0.027985074626</v>
       </c>
     </row>
     <row r="63" spans="1:7">
@@ -1831,13 +1831,13 @@
         <v>29</v>
       </c>
       <c r="E63" s="2">
-        <v>44208</v>
+        <v>44206</v>
       </c>
       <c r="F63" s="2">
         <v>1375</v>
       </c>
       <c r="G63" s="4">
-        <v>0.027630325302</v>
+        <v>0.027634086577</v>
       </c>
     </row>
     <row r="64" spans="1:7">
@@ -1854,13 +1854,13 @@
         <v>28</v>
       </c>
       <c r="E64" s="2">
-        <v>45425</v>
+        <v>45423</v>
       </c>
       <c r="F64" s="2">
         <v>1217</v>
       </c>
       <c r="G64" s="4">
-        <v>0.026605130989</v>
+        <v>0.026608742872</v>
       </c>
     </row>
     <row r="65" spans="1:7">
@@ -1877,13 +1877,13 @@
         <v>27.571428571428</v>
       </c>
       <c r="E65" s="2">
-        <v>46589</v>
+        <v>46586</v>
       </c>
       <c r="F65" s="2">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="G65" s="4">
-        <v>0.026000269432</v>
+        <v>0.026003772568</v>
       </c>
     </row>
     <row r="66" spans="1:7">
@@ -1900,13 +1900,13 @@
         <v>28.285714285714</v>
       </c>
       <c r="E66" s="2">
-        <v>47940</v>
+        <v>47936</v>
       </c>
       <c r="F66" s="2">
-        <v>1351</v>
+        <v>1350</v>
       </c>
       <c r="G66" s="4">
-        <v>0.025923016496</v>
+        <v>0.025929806181</v>
       </c>
     </row>
     <row r="67" spans="1:7">
@@ -1923,13 +1923,13 @@
         <v>29.285714285714</v>
       </c>
       <c r="E67" s="2">
-        <v>49570</v>
+        <v>49566</v>
       </c>
       <c r="F67" s="2">
         <v>1630</v>
       </c>
       <c r="G67" s="4">
-        <v>0.026058217872</v>
+        <v>0.026064844246</v>
       </c>
     </row>
     <row r="68" spans="1:7">
@@ -1946,13 +1946,13 @@
         <v>30.571428571428</v>
       </c>
       <c r="E68" s="2">
-        <v>50175</v>
+        <v>50171</v>
       </c>
       <c r="F68" s="2">
         <v>605</v>
       </c>
       <c r="G68" s="4">
-        <v>0.027655724993</v>
+        <v>0.02766287487</v>
       </c>
     </row>
     <row r="69" spans="1:7">
@@ -1969,13 +1969,13 @@
         <v>32.428571428571</v>
       </c>
       <c r="E69" s="2">
-        <v>50659</v>
+        <v>50655</v>
       </c>
       <c r="F69" s="2">
         <v>484</v>
       </c>
       <c r="G69" s="4">
-        <v>0.029005877843</v>
+        <v>0.029013292433</v>
       </c>
     </row>
     <row r="70" spans="1:7">
@@ -1992,13 +1992,13 @@
         <v>34.714285714285</v>
       </c>
       <c r="E70" s="2">
-        <v>52495</v>
+        <v>52491</v>
       </c>
       <c r="F70" s="2">
         <v>1836</v>
       </c>
       <c r="G70" s="4">
-        <v>0.02932303608</v>
+        <v>0.029330114665</v>
       </c>
     </row>
     <row r="71" spans="1:7">
@@ -2015,13 +2015,13 @@
         <v>36.428571428571</v>
       </c>
       <c r="E71" s="2">
-        <v>54341</v>
+        <v>54337</v>
       </c>
       <c r="F71" s="2">
         <v>1846</v>
       </c>
       <c r="G71" s="4">
-        <v>0.028600269179</v>
+        <v>0.028606686111</v>
       </c>
     </row>
     <row r="72" spans="1:7">
@@ -2038,13 +2038,13 @@
         <v>40</v>
       </c>
       <c r="E72" s="2">
-        <v>56332</v>
+        <v>56328</v>
       </c>
       <c r="F72" s="2">
         <v>1991</v>
       </c>
       <c r="G72" s="4">
-        <v>0.028738581545</v>
+        <v>0.028741531513</v>
       </c>
     </row>
     <row r="73" spans="1:7">
@@ -2061,7 +2061,7 @@
         <v>40.285714285714</v>
       </c>
       <c r="E73" s="2">
-        <v>58487</v>
+        <v>58483</v>
       </c>
       <c r="F73" s="2">
         <v>2155</v>
@@ -2084,7 +2084,7 @@
         <v>41.857142857142</v>
       </c>
       <c r="E74" s="2">
-        <v>60748</v>
+        <v>60744</v>
       </c>
       <c r="F74" s="2">
         <v>2261</v>
@@ -2107,7 +2107,7 @@
         <v>44.142857142857</v>
       </c>
       <c r="E75" s="2">
-        <v>61592</v>
+        <v>61588</v>
       </c>
       <c r="F75" s="2">
         <v>844</v>
@@ -2130,7 +2130,7 @@
         <v>45.428571428571</v>
       </c>
       <c r="E76" s="2">
-        <v>62179</v>
+        <v>62175</v>
       </c>
       <c r="F76" s="2">
         <v>587</v>
@@ -2153,7 +2153,7 @@
         <v>46.714285714285</v>
       </c>
       <c r="E77" s="2">
-        <v>64400</v>
+        <v>64396</v>
       </c>
       <c r="F77" s="2">
         <v>2221</v>
@@ -2176,7 +2176,7 @@
         <v>52.571428571428</v>
       </c>
       <c r="E78" s="2">
-        <v>66931</v>
+        <v>66927</v>
       </c>
       <c r="F78" s="2">
         <v>2531</v>
@@ -2199,7 +2199,7 @@
         <v>57.285714285714</v>
       </c>
       <c r="E79" s="2">
-        <v>69506</v>
+        <v>69502</v>
       </c>
       <c r="F79" s="2">
         <v>2575</v>
@@ -2222,7 +2222,7 @@
         <v>62.57142857142801</v>
       </c>
       <c r="E80" s="2">
-        <v>72038</v>
+        <v>72034</v>
       </c>
       <c r="F80" s="2">
         <v>2532</v>
@@ -2245,7 +2245,7 @@
         <v>68.85714285714199</v>
       </c>
       <c r="E81" s="2">
-        <v>74481</v>
+        <v>74477</v>
       </c>
       <c r="F81" s="2">
         <v>2443</v>
@@ -2268,7 +2268,7 @@
         <v>71.428571428571</v>
       </c>
       <c r="E82" s="2">
-        <v>75434</v>
+        <v>75430</v>
       </c>
       <c r="F82" s="2">
         <v>953</v>
@@ -2291,7 +2291,7 @@
         <v>73.28571428571399</v>
       </c>
       <c r="E83" s="2">
-        <v>76132</v>
+        <v>76128</v>
       </c>
       <c r="F83" s="2">
         <v>698</v>
@@ -2314,7 +2314,7 @@
         <v>81</v>
       </c>
       <c r="E84" s="2">
-        <v>78750</v>
+        <v>78746</v>
       </c>
       <c r="F84" s="2">
         <v>2618</v>
@@ -2337,7 +2337,7 @@
         <v>88</v>
       </c>
       <c r="E85" s="2">
-        <v>81535</v>
+        <v>81531</v>
       </c>
       <c r="F85" s="2">
         <v>2785</v>
@@ -2360,7 +2360,7 @@
         <v>96</v>
       </c>
       <c r="E86" s="2">
-        <v>84572</v>
+        <v>84568</v>
       </c>
       <c r="F86" s="2">
         <v>3037</v>
@@ -2383,7 +2383,7 @@
         <v>104.714285714285</v>
       </c>
       <c r="E87" s="2">
-        <v>87939</v>
+        <v>87935</v>
       </c>
       <c r="F87" s="2">
         <v>3367</v>
@@ -2406,7 +2406,7 @@
         <v>114.428571428571</v>
       </c>
       <c r="E88" s="2">
-        <v>90909</v>
+        <v>90905</v>
       </c>
       <c r="F88" s="2">
         <v>2970</v>
@@ -2429,7 +2429,7 @@
         <v>118.428571428571</v>
       </c>
       <c r="E89" s="2">
-        <v>91983</v>
+        <v>91979</v>
       </c>
       <c r="F89" s="2">
         <v>1074</v>
@@ -2452,7 +2452,7 @@
         <v>121.142857142857</v>
       </c>
       <c r="E90" s="2">
-        <v>92779</v>
+        <v>92775</v>
       </c>
       <c r="F90" s="2">
         <v>796</v>
@@ -2475,7 +2475,7 @@
         <v>133.428571428571</v>
       </c>
       <c r="E91" s="2">
-        <v>96462</v>
+        <v>96458</v>
       </c>
       <c r="F91" s="2">
         <v>3683</v>
@@ -2498,7 +2498,7 @@
         <v>137</v>
       </c>
       <c r="E92" s="2">
-        <v>99947</v>
+        <v>99943</v>
       </c>
       <c r="F92" s="2">
         <v>3485</v>
@@ -2521,7 +2521,7 @@
         <v>141.285714285714</v>
       </c>
       <c r="E93" s="2">
-        <v>103490</v>
+        <v>103486</v>
       </c>
       <c r="F93" s="2">
         <v>3543</v>
@@ -2544,7 +2544,7 @@
         <v>149.857142857142</v>
       </c>
       <c r="E94" s="2">
-        <v>107414</v>
+        <v>107410</v>
       </c>
       <c r="F94" s="2">
         <v>3924</v>
@@ -2567,7 +2567,7 @@
         <v>146.142857142857</v>
       </c>
       <c r="E95" s="2">
-        <v>110055</v>
+        <v>110051</v>
       </c>
       <c r="F95" s="2">
         <v>2641</v>
@@ -2590,7 +2590,7 @@
         <v>148</v>
       </c>
       <c r="E96" s="2">
-        <v>111173</v>
+        <v>111169</v>
       </c>
       <c r="F96" s="2">
         <v>1118</v>
@@ -2613,7 +2613,7 @@
         <v>151.857142857142</v>
       </c>
       <c r="E97" s="2">
-        <v>112302</v>
+        <v>112298</v>
       </c>
       <c r="F97" s="2">
         <v>1129</v>
@@ -2636,7 +2636,7 @@
         <v>152.857142857142</v>
       </c>
       <c r="E98" s="2">
-        <v>116385</v>
+        <v>116381</v>
       </c>
       <c r="F98" s="2">
         <v>4083</v>
@@ -2659,7 +2659,7 @@
         <v>161.142857142857</v>
       </c>
       <c r="E99" s="2">
-        <v>120469</v>
+        <v>120465</v>
       </c>
       <c r="F99" s="2">
         <v>4084</v>
@@ -2682,7 +2682,7 @@
         <v>168.571428571428</v>
       </c>
       <c r="E100" s="2">
-        <v>124733</v>
+        <v>124729</v>
       </c>
       <c r="F100" s="2">
         <v>4264</v>
@@ -2705,7 +2705,7 @@
         <v>174.285714285714</v>
       </c>
       <c r="E101" s="2">
-        <v>129336</v>
+        <v>129332</v>
       </c>
       <c r="F101" s="2">
         <v>4603</v>
@@ -2728,7 +2728,7 @@
         <v>188.857142857142</v>
       </c>
       <c r="E102" s="2">
-        <v>133798</v>
+        <v>133794</v>
       </c>
       <c r="F102" s="2">
         <v>4462</v>
@@ -2751,13 +2751,13 @@
         <v>195.571428571428</v>
       </c>
       <c r="E103" s="2">
-        <v>135873</v>
+        <v>135870</v>
       </c>
       <c r="F103" s="2">
-        <v>2075</v>
+        <v>2076</v>
       </c>
       <c r="G103" s="4">
-        <v>0.055425101214</v>
+        <v>0.055422857374</v>
       </c>
     </row>
     <row r="104" spans="1:7">
@@ -2774,13 +2774,13 @@
         <v>197.571428571428</v>
       </c>
       <c r="E104" s="2">
-        <v>137198</v>
+        <v>137196</v>
       </c>
       <c r="F104" s="2">
-        <v>1325</v>
+        <v>1326</v>
       </c>
       <c r="G104" s="4">
-        <v>0.055551092544</v>
+        <v>0.055546630251</v>
       </c>
     </row>
     <row r="105" spans="1:7">
@@ -2797,13 +2797,13 @@
         <v>205.714285714285</v>
       </c>
       <c r="E105" s="2">
-        <v>141804</v>
+        <v>141802</v>
       </c>
       <c r="F105" s="2">
         <v>4606</v>
       </c>
       <c r="G105" s="4">
-        <v>0.056650536999</v>
+        <v>0.056646080012</v>
       </c>
     </row>
     <row r="106" spans="1:7">
@@ -2820,13 +2820,13 @@
         <v>211.285714285714</v>
       </c>
       <c r="E106" s="2">
-        <v>145572</v>
+        <v>145570</v>
       </c>
       <c r="F106" s="2">
         <v>3768</v>
       </c>
       <c r="G106" s="4">
-        <v>0.058917260885</v>
+        <v>0.058912567217</v>
       </c>
     </row>
     <row r="107" spans="1:7">
@@ -2843,13 +2843,13 @@
         <v>216.285714285714</v>
       </c>
       <c r="E107" s="2">
-        <v>149921</v>
+        <v>149919</v>
       </c>
       <c r="F107" s="2">
         <v>4349</v>
       </c>
       <c r="G107" s="4">
-        <v>0.06010798793</v>
+        <v>0.060103215561</v>
       </c>
     </row>
     <row r="108" spans="1:7">
@@ -2866,13 +2866,13 @@
         <v>216.857142857142</v>
       </c>
       <c r="E108" s="2">
-        <v>154112</v>
+        <v>154110</v>
       </c>
       <c r="F108" s="2">
         <v>4191</v>
       </c>
       <c r="G108" s="4">
-        <v>0.06126896997</v>
+        <v>0.061264024537</v>
       </c>
     </row>
     <row r="109" spans="1:7">
@@ -2889,13 +2889,13 @@
         <v>217.428571428571</v>
       </c>
       <c r="E109" s="2">
-        <v>158319</v>
+        <v>158317</v>
       </c>
       <c r="F109" s="2">
         <v>4207</v>
       </c>
       <c r="G109" s="4">
-        <v>0.062069246768</v>
+        <v>0.062064184642</v>
       </c>
     </row>
     <row r="110" spans="1:7">
@@ -2912,13 +2912,13 @@
         <v>215.857142857142</v>
       </c>
       <c r="E110" s="2">
-        <v>160547</v>
+        <v>160545</v>
       </c>
       <c r="F110" s="2">
         <v>2228</v>
       </c>
       <c r="G110" s="4">
-        <v>0.061238550701</v>
+        <v>0.061236068895</v>
       </c>
     </row>
     <row r="111" spans="1:7">
@@ -2935,7 +2935,7 @@
         <v>215.714285714285</v>
       </c>
       <c r="E111" s="2">
-        <v>161807</v>
+        <v>161805</v>
       </c>
       <c r="F111" s="2">
         <v>1260</v>
@@ -2958,7 +2958,7 @@
         <v>220.142857142857</v>
       </c>
       <c r="E112" s="2">
-        <v>166060</v>
+        <v>166058</v>
       </c>
       <c r="F112" s="2">
         <v>4253</v>
@@ -2981,7 +2981,7 @@
         <v>218.142857142857</v>
       </c>
       <c r="E113" s="2">
-        <v>169901</v>
+        <v>169899</v>
       </c>
       <c r="F113" s="2">
         <v>3841</v>
@@ -3004,7 +3004,7 @@
         <v>216.714285714285</v>
       </c>
       <c r="E114" s="2">
-        <v>173566</v>
+        <v>173564</v>
       </c>
       <c r="F114" s="2">
         <v>3665</v>
@@ -3027,7 +3027,7 @@
         <v>213.428571428571</v>
       </c>
       <c r="E115" s="2">
-        <v>176898</v>
+        <v>176896</v>
       </c>
       <c r="F115" s="2">
         <v>3332</v>
@@ -3050,7 +3050,7 @@
         <v>209.142857142857</v>
       </c>
       <c r="E116" s="2">
-        <v>180578</v>
+        <v>180576</v>
       </c>
       <c r="F116" s="2">
         <v>3680</v>
@@ -3073,7 +3073,7 @@
         <v>207</v>
       </c>
       <c r="E117" s="2">
-        <v>182214</v>
+        <v>182212</v>
       </c>
       <c r="F117" s="2">
         <v>1636</v>
@@ -3096,7 +3096,7 @@
         <v>207.571428571428</v>
       </c>
       <c r="E118" s="2">
-        <v>183468</v>
+        <v>183466</v>
       </c>
       <c r="F118" s="2">
         <v>1254</v>
@@ -3119,7 +3119,7 @@
         <v>200.714285714285</v>
       </c>
       <c r="E119" s="2">
-        <v>187654</v>
+        <v>187652</v>
       </c>
       <c r="F119" s="2">
         <v>4186</v>
@@ -3142,7 +3142,7 @@
         <v>203.285714285714</v>
       </c>
       <c r="E120" s="2">
-        <v>191595</v>
+        <v>191593</v>
       </c>
       <c r="F120" s="2">
         <v>3941</v>
@@ -3165,7 +3165,7 @@
         <v>203.714285714285</v>
       </c>
       <c r="E121" s="2">
-        <v>195461</v>
+        <v>195459</v>
       </c>
       <c r="F121" s="2">
         <v>3866</v>
@@ -3188,7 +3188,7 @@
         <v>201.714285714285</v>
       </c>
       <c r="E122" s="2">
-        <v>199137</v>
+        <v>199135</v>
       </c>
       <c r="F122" s="2">
         <v>3676</v>
@@ -3211,7 +3211,7 @@
         <v>203.857142857142</v>
       </c>
       <c r="E123" s="2">
-        <v>202689</v>
+        <v>202687</v>
       </c>
       <c r="F123" s="2">
         <v>3552</v>
@@ -3234,7 +3234,7 @@
         <v>203</v>
       </c>
       <c r="E124" s="2">
-        <v>204358</v>
+        <v>204356</v>
       </c>
       <c r="F124" s="2">
         <v>1669</v>
@@ -3257,7 +3257,7 @@
         <v>199.571428571428</v>
       </c>
       <c r="E125" s="2">
-        <v>205507</v>
+        <v>205505</v>
       </c>
       <c r="F125" s="2">
         <v>1149</v>
@@ -3280,7 +3280,7 @@
         <v>201.285714285714</v>
       </c>
       <c r="E126" s="2">
-        <v>209385</v>
+        <v>209383</v>
       </c>
       <c r="F126" s="2">
         <v>3878</v>
@@ -3303,7 +3303,7 @@
         <v>198.428571428571</v>
       </c>
       <c r="E127" s="2">
-        <v>212716</v>
+        <v>212714</v>
       </c>
       <c r="F127" s="2">
         <v>3331</v>
@@ -3326,7 +3326,7 @@
         <v>191.142857142857</v>
       </c>
       <c r="E128" s="2">
-        <v>215994</v>
+        <v>215992</v>
       </c>
       <c r="F128" s="2">
         <v>3278</v>
@@ -3349,7 +3349,7 @@
         <v>188.428571428571</v>
       </c>
       <c r="E129" s="2">
-        <v>219661</v>
+        <v>219659</v>
       </c>
       <c r="F129" s="2">
         <v>3667</v>
@@ -3372,7 +3372,7 @@
         <v>181.285714285714</v>
       </c>
       <c r="E130" s="2">
-        <v>222993</v>
+        <v>222991</v>
       </c>
       <c r="F130" s="2">
         <v>3332</v>
@@ -3395,7 +3395,7 @@
         <v>183</v>
       </c>
       <c r="E131" s="2">
-        <v>224702</v>
+        <v>224700</v>
       </c>
       <c r="F131" s="2">
         <v>1709</v>
@@ -3418,7 +3418,7 @@
         <v>183.857142857142</v>
       </c>
       <c r="E132" s="2">
-        <v>225767</v>
+        <v>225765</v>
       </c>
       <c r="F132" s="2">
         <v>1065</v>
@@ -3441,7 +3441,7 @@
         <v>181.142857142857</v>
       </c>
       <c r="E133" s="2">
-        <v>229671</v>
+        <v>229669</v>
       </c>
       <c r="F133" s="2">
         <v>3904</v>
@@ -3464,7 +3464,7 @@
         <v>175.571428571428</v>
       </c>
       <c r="E134" s="2">
-        <v>233091</v>
+        <v>233089</v>
       </c>
       <c r="F134" s="2">
         <v>3420</v>
@@ -3490,10 +3490,10 @@
         <v>236957</v>
       </c>
       <c r="F135" s="2">
-        <v>3866</v>
+        <v>3868</v>
       </c>
       <c r="G135" s="4">
-        <v>0.058531698707</v>
+        <v>0.058526114953</v>
       </c>
     </row>
     <row r="136" spans="1:7">
@@ -3516,7 +3516,7 @@
         <v>3270</v>
       </c>
       <c r="G136" s="4">
-        <v>0.058445978799</v>
+        <v>0.058440295604</v>
       </c>
     </row>
     <row r="137" spans="1:7">
@@ -3539,7 +3539,7 @@
         <v>3362</v>
       </c>
       <c r="G137" s="4">
-        <v>0.057875315595</v>
+        <v>0.057869696086</v>
       </c>
     </row>
     <row r="138" spans="1:7">
@@ -3562,7 +3562,7 @@
         <v>1564</v>
       </c>
       <c r="G138" s="4">
-        <v>0.057014326927</v>
+        <v>0.057008751772</v>
       </c>
     </row>
     <row r="139" spans="1:7">
@@ -3585,7 +3585,7 @@
         <v>776</v>
       </c>
       <c r="G139" s="4">
-        <v>0.055847634163</v>
+        <v>0.055842094822</v>
       </c>
     </row>
     <row r="140" spans="1:7">
@@ -3608,7 +3608,7 @@
         <v>3658</v>
       </c>
       <c r="G140" s="4">
-        <v>0.055332396063</v>
+        <v>0.055326840044</v>
       </c>
     </row>
     <row r="141" spans="1:7">
@@ -3631,7 +3631,7 @@
         <v>3083</v>
       </c>
       <c r="G141" s="4">
-        <v>0.054650390724</v>
+        <v>0.054644808743</v>
       </c>
     </row>
     <row r="142" spans="1:7">
@@ -3786,13 +3786,13 @@
         <v>123.857142857142</v>
       </c>
       <c r="E148" s="2">
-        <v>270252</v>
+        <v>270253</v>
       </c>
       <c r="F148" s="2">
-        <v>3025</v>
+        <v>3026</v>
       </c>
       <c r="G148" s="4">
-        <v>0.049311796155</v>
+        <v>0.049308991639</v>
       </c>
     </row>
     <row r="149" spans="1:7">
@@ -3809,13 +3809,13 @@
         <v>120.571428571428</v>
       </c>
       <c r="E149" s="2">
-        <v>273220</v>
+        <v>273221</v>
       </c>
       <c r="F149" s="2">
         <v>2968</v>
       </c>
       <c r="G149" s="4">
-        <v>0.048250628858</v>
+        <v>0.048247870576</v>
       </c>
     </row>
     <row r="150" spans="1:7">
@@ -3832,13 +3832,13 @@
         <v>126.285714285714</v>
       </c>
       <c r="E150" s="2">
-        <v>276505</v>
+        <v>276507</v>
       </c>
       <c r="F150" s="2">
-        <v>3285</v>
+        <v>3286</v>
       </c>
       <c r="G150" s="4">
-        <v>0.050207303913</v>
+        <v>0.050201601453</v>
       </c>
     </row>
     <row r="151" spans="1:7">
@@ -3855,13 +3855,13 @@
         <v>119.714285714285</v>
       </c>
       <c r="E151" s="2">
-        <v>279295</v>
+        <v>279300</v>
       </c>
       <c r="F151" s="2">
-        <v>2790</v>
+        <v>2793</v>
       </c>
       <c r="G151" s="4">
-        <v>0.048280232759</v>
+        <v>0.048266328763</v>
       </c>
     </row>
     <row r="152" spans="1:7">
@@ -3878,13 +3878,13 @@
         <v>120</v>
       </c>
       <c r="E152" s="2">
-        <v>280738</v>
+        <v>280743</v>
       </c>
       <c r="F152" s="2">
         <v>1443</v>
       </c>
       <c r="G152" s="4">
-        <v>0.048082427017</v>
+        <v>0.048068669527</v>
       </c>
     </row>
     <row r="153" spans="1:7">
@@ -3901,13 +3901,13 @@
         <v>118.714285714285</v>
       </c>
       <c r="E153" s="2">
-        <v>281822</v>
+        <v>281827</v>
       </c>
       <c r="F153" s="2">
         <v>1084</v>
       </c>
       <c r="G153" s="4">
-        <v>0.047256184247</v>
+        <v>0.047242751563</v>
       </c>
     </row>
     <row r="154" spans="1:7">
@@ -3924,13 +3924,13 @@
         <v>117.571428571428</v>
       </c>
       <c r="E154" s="2">
-        <v>284973</v>
+        <v>284982</v>
       </c>
       <c r="F154" s="2">
-        <v>3151</v>
+        <v>3155</v>
       </c>
       <c r="G154" s="4">
-        <v>0.046376648258</v>
+        <v>0.04635313996</v>
       </c>
     </row>
     <row r="155" spans="1:7">
@@ -3947,13 +3947,13 @@
         <v>117.285714285714</v>
       </c>
       <c r="E155" s="2">
-        <v>288259</v>
+        <v>288268</v>
       </c>
       <c r="F155" s="2">
         <v>3286</v>
       </c>
       <c r="G155" s="4">
-        <v>0.045593380352</v>
+        <v>0.045573133499</v>
       </c>
     </row>
     <row r="156" spans="1:7">
@@ -3970,13 +3970,13 @@
         <v>114.714285714285</v>
       </c>
       <c r="E156" s="2">
-        <v>291250</v>
+        <v>291260</v>
       </c>
       <c r="F156" s="2">
-        <v>2991</v>
+        <v>2992</v>
       </c>
       <c r="G156" s="4">
-        <v>0.044536882972</v>
+        <v>0.044514662675</v>
       </c>
     </row>
     <row r="157" spans="1:7">
@@ -3993,13 +3993,13 @@
         <v>103.714285714285</v>
       </c>
       <c r="E157" s="2">
-        <v>294198</v>
+        <v>294209</v>
       </c>
       <c r="F157" s="2">
-        <v>2948</v>
+        <v>2949</v>
       </c>
       <c r="G157" s="4">
-        <v>0.041033176962</v>
+        <v>0.041012314992</v>
       </c>
     </row>
     <row r="158" spans="1:7">
@@ -4016,13 +4016,13 @@
         <v>104.571428571428</v>
       </c>
       <c r="E158" s="2">
-        <v>297025</v>
+        <v>297042</v>
       </c>
       <c r="F158" s="2">
-        <v>2827</v>
+        <v>2833</v>
       </c>
       <c r="G158" s="4">
-        <v>0.041285956006</v>
+        <v>0.041258031788</v>
       </c>
     </row>
     <row r="159" spans="1:7">
@@ -4039,13 +4039,13 @@
         <v>104.857142857142</v>
       </c>
       <c r="E159" s="2">
-        <v>298363</v>
+        <v>298380</v>
       </c>
       <c r="F159" s="2">
         <v>1338</v>
       </c>
       <c r="G159" s="4">
-        <v>0.04164539007</v>
+        <v>0.041617055054</v>
       </c>
     </row>
     <row r="160" spans="1:7">
@@ -4062,13 +4062,13 @@
         <v>104</v>
       </c>
       <c r="E160" s="2">
-        <v>299448</v>
+        <v>299465</v>
       </c>
       <c r="F160" s="2">
         <v>1085</v>
       </c>
       <c r="G160" s="4">
-        <v>0.041302621127</v>
+        <v>0.04127452092</v>
       </c>
     </row>
     <row r="161" spans="1:7">
@@ -4085,13 +4085,13 @@
         <v>93.571428571428</v>
       </c>
       <c r="E161" s="2">
-        <v>300706</v>
+        <v>300723</v>
       </c>
       <c r="F161" s="2">
         <v>1258</v>
       </c>
       <c r="G161" s="4">
-        <v>0.041632237971</v>
+        <v>0.041611079346</v>
       </c>
     </row>
     <row r="162" spans="1:7">
@@ -4108,13 +4108,13 @@
         <v>95</v>
       </c>
       <c r="E162" s="2">
-        <v>305015</v>
+        <v>305035</v>
       </c>
       <c r="F162" s="2">
-        <v>4309</v>
+        <v>4312</v>
       </c>
       <c r="G162" s="4">
-        <v>0.039687276199</v>
+        <v>0.039661239339</v>
       </c>
     </row>
     <row r="163" spans="1:7">
@@ -4131,13 +4131,13 @@
         <v>99.85714285714199</v>
       </c>
       <c r="E163" s="2">
-        <v>308541</v>
+        <v>308565</v>
       </c>
       <c r="F163" s="2">
-        <v>3526</v>
+        <v>3530</v>
       </c>
       <c r="G163" s="4">
-        <v>0.040425654965</v>
+        <v>0.040392950014</v>
       </c>
     </row>
     <row r="164" spans="1:7">
@@ -4154,13 +4154,13 @@
         <v>101.142857142857</v>
       </c>
       <c r="E164" s="2">
-        <v>311836</v>
+        <v>311860</v>
       </c>
       <c r="F164" s="2">
         <v>3295</v>
       </c>
       <c r="G164" s="4">
-        <v>0.04014060551</v>
+        <v>0.040111041867</v>
       </c>
     </row>
     <row r="165" spans="1:7">
@@ -4177,13 +4177,13 @@
         <v>94.142857142857</v>
       </c>
       <c r="E165" s="2">
-        <v>314342</v>
+        <v>314366</v>
       </c>
       <c r="F165" s="2">
         <v>2506</v>
       </c>
       <c r="G165" s="4">
-        <v>0.038055090373</v>
+        <v>0.038039713691</v>
       </c>
     </row>
     <row r="166" spans="1:7">
@@ -4200,13 +4200,13 @@
         <v>91.85714285714199</v>
       </c>
       <c r="E166" s="2">
-        <v>315744</v>
+        <v>315769</v>
       </c>
       <c r="F166" s="2">
-        <v>1402</v>
+        <v>1403</v>
       </c>
       <c r="G166" s="4">
-        <v>0.036994419193</v>
+        <v>0.036977399505</v>
       </c>
     </row>
     <row r="167" spans="1:7">
@@ -4223,13 +4223,13 @@
         <v>89.571428571428</v>
       </c>
       <c r="E167" s="2">
-        <v>316597</v>
+        <v>316622</v>
       </c>
       <c r="F167" s="2">
         <v>853</v>
       </c>
       <c r="G167" s="4">
-        <v>0.036561898652</v>
+        <v>0.036544850498</v>
       </c>
     </row>
     <row r="168" spans="1:7">
@@ -4246,13 +4246,13 @@
         <v>94.142857142857</v>
       </c>
       <c r="E168" s="2">
-        <v>320015</v>
+        <v>320040</v>
       </c>
       <c r="F168" s="2">
         <v>3418</v>
       </c>
       <c r="G168" s="4">
-        <v>0.034129162566</v>
+        <v>0.034115028213</v>
       </c>
     </row>
     <row r="169" spans="1:7">
@@ -4269,13 +4269,13 @@
         <v>92.28571428571399</v>
       </c>
       <c r="E169" s="2">
-        <v>324009</v>
+        <v>324034</v>
       </c>
       <c r="F169" s="2">
         <v>3994</v>
       </c>
       <c r="G169" s="4">
-        <v>0.034010740233</v>
+        <v>0.034001789567</v>
       </c>
     </row>
     <row r="170" spans="1:7">
@@ -4292,13 +4292,13 @@
         <v>83.142857142857</v>
       </c>
       <c r="E170" s="2">
-        <v>327334</v>
+        <v>327359</v>
       </c>
       <c r="F170" s="2">
         <v>3325</v>
       </c>
       <c r="G170" s="4">
-        <v>0.03096897781</v>
+        <v>0.030967329998</v>
       </c>
     </row>
     <row r="171" spans="1:7">
@@ -4315,13 +4315,13 @@
         <v>83.142857142857</v>
       </c>
       <c r="E171" s="2">
-        <v>331085</v>
+        <v>331110</v>
       </c>
       <c r="F171" s="2">
         <v>3751</v>
       </c>
       <c r="G171" s="4">
-        <v>0.0302353369</v>
+        <v>0.030233766233</v>
       </c>
     </row>
     <row r="172" spans="1:7">
@@ -4338,13 +4338,13 @@
         <v>87.571428571428</v>
       </c>
       <c r="E172" s="2">
-        <v>334361</v>
+        <v>334386</v>
       </c>
       <c r="F172" s="2">
         <v>3276</v>
       </c>
       <c r="G172" s="4">
-        <v>0.030620910135</v>
+        <v>0.030619380619</v>
       </c>
     </row>
     <row r="173" spans="1:7">
@@ -4361,7 +4361,7 @@
         <v>90.714285714285</v>
       </c>
       <c r="E173" s="2">
-        <v>335880</v>
+        <v>335905</v>
       </c>
       <c r="F173" s="2">
         <v>1519</v>
@@ -4384,7 +4384,7 @@
         <v>91.428571428571</v>
       </c>
       <c r="E174" s="2">
-        <v>337036</v>
+        <v>337061</v>
       </c>
       <c r="F174" s="2">
         <v>1156</v>
@@ -4407,7 +4407,7 @@
         <v>97.428571428571</v>
       </c>
       <c r="E175" s="2">
-        <v>341415</v>
+        <v>341440</v>
       </c>
       <c r="F175" s="2">
         <v>4379</v>
@@ -4430,7 +4430,7 @@
         <v>92.85714285714199</v>
       </c>
       <c r="E176" s="2">
-        <v>345211</v>
+        <v>345236</v>
       </c>
       <c r="F176" s="2">
         <v>3796</v>
@@ -4453,7 +4453,7 @@
         <v>93.85714285714199</v>
       </c>
       <c r="E177" s="2">
-        <v>348724</v>
+        <v>348749</v>
       </c>
       <c r="F177" s="2">
         <v>3513</v>
@@ -4476,7 +4476,7 @@
         <v>92</v>
       </c>
       <c r="E178" s="2">
-        <v>352463</v>
+        <v>352488</v>
       </c>
       <c r="F178" s="2">
         <v>3739</v>
@@ -4499,13 +4499,13 @@
         <v>89.85714285714199</v>
       </c>
       <c r="E179" s="2">
-        <v>355773</v>
+        <v>355800</v>
       </c>
       <c r="F179" s="2">
-        <v>3310</v>
+        <v>3312</v>
       </c>
       <c r="G179" s="4">
-        <v>0.029376050812</v>
+        <v>0.029373307182</v>
       </c>
     </row>
     <row r="180" spans="1:7">
@@ -4513,22 +4513,22 @@
         <v>44100</v>
       </c>
       <c r="B180" s="2">
-        <v>17072</v>
+        <v>17071</v>
       </c>
       <c r="C180" s="2">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D180" s="3">
-        <v>88</v>
+        <v>87.85714285714199</v>
       </c>
       <c r="E180" s="2">
-        <v>357646</v>
+        <v>357672</v>
       </c>
       <c r="F180" s="2">
-        <v>1873</v>
+        <v>1872</v>
       </c>
       <c r="G180" s="4">
-        <v>0.028301019939</v>
+        <v>0.028253778655</v>
       </c>
     </row>
     <row r="181" spans="1:7">
@@ -4536,22 +4536,22 @@
         <v>44101</v>
       </c>
       <c r="B181" s="2">
-        <v>17095</v>
+        <v>17094</v>
       </c>
       <c r="C181" s="2">
         <v>23</v>
       </c>
       <c r="D181" s="3">
-        <v>85.28571428571399</v>
+        <v>85.142857142857</v>
       </c>
       <c r="E181" s="2">
-        <v>358775</v>
+        <v>358801</v>
       </c>
       <c r="F181" s="2">
         <v>1129</v>
       </c>
       <c r="G181" s="4">
-        <v>0.027462164772</v>
+        <v>0.027414903403</v>
       </c>
     </row>
     <row r="182" spans="1:7">
@@ -4559,22 +4559,22 @@
         <v>44102</v>
       </c>
       <c r="B182" s="2">
-        <v>17208</v>
+        <v>17207</v>
       </c>
       <c r="C182" s="2">
         <v>113</v>
       </c>
       <c r="D182" s="3">
-        <v>81</v>
+        <v>80.85714285714199</v>
       </c>
       <c r="E182" s="2">
-        <v>362882</v>
+        <v>362908</v>
       </c>
       <c r="F182" s="2">
         <v>4107</v>
       </c>
       <c r="G182" s="4">
-        <v>0.026412633344</v>
+        <v>0.02636482206</v>
       </c>
     </row>
     <row r="183" spans="1:7">
@@ -4582,22 +4582,22 @@
         <v>44103</v>
       </c>
       <c r="B183" s="2">
-        <v>17283</v>
+        <v>17282</v>
       </c>
       <c r="C183" s="2">
         <v>75</v>
       </c>
       <c r="D183" s="3">
-        <v>77.714285714285</v>
+        <v>77.571428571428</v>
       </c>
       <c r="E183" s="2">
-        <v>366725</v>
+        <v>366751</v>
       </c>
       <c r="F183" s="2">
         <v>3843</v>
       </c>
       <c r="G183" s="4">
-        <v>0.025285860369</v>
+        <v>0.025238205902</v>
       </c>
     </row>
     <row r="184" spans="1:7">
@@ -4605,22 +4605,22 @@
         <v>44104</v>
       </c>
       <c r="B184" s="2">
-        <v>17343</v>
+        <v>17342</v>
       </c>
       <c r="C184" s="2">
         <v>60</v>
       </c>
       <c r="D184" s="3">
-        <v>72.85714285714199</v>
+        <v>72.714285714285</v>
       </c>
       <c r="E184" s="2">
-        <v>370285</v>
+        <v>370311</v>
       </c>
       <c r="F184" s="2">
         <v>3560</v>
       </c>
       <c r="G184" s="4">
-        <v>0.023653819396</v>
+        <v>0.023606344494</v>
       </c>
     </row>
     <row r="185" spans="1:7">
@@ -4628,22 +4628,22 @@
         <v>44105</v>
       </c>
       <c r="B185" s="2">
-        <v>17408</v>
+        <v>17407</v>
       </c>
       <c r="C185" s="2">
         <v>65</v>
       </c>
       <c r="D185" s="3">
-        <v>69.142857142857</v>
+        <v>69</v>
       </c>
       <c r="E185" s="2">
-        <v>373812</v>
+        <v>373838</v>
       </c>
       <c r="F185" s="2">
         <v>3527</v>
       </c>
       <c r="G185" s="4">
-        <v>0.022670851093</v>
+        <v>0.022622950819</v>
       </c>
     </row>
     <row r="186" spans="1:7">
@@ -4651,22 +4651,22 @@
         <v>44106</v>
       </c>
       <c r="B186" s="2">
-        <v>17484</v>
+        <v>17483</v>
       </c>
       <c r="C186" s="2">
         <v>76</v>
       </c>
       <c r="D186" s="3">
-        <v>67.28571428571399</v>
+        <v>67.142857142857</v>
       </c>
       <c r="E186" s="2">
-        <v>377357</v>
+        <v>377383</v>
       </c>
       <c r="F186" s="2">
         <v>3545</v>
       </c>
       <c r="G186" s="4">
-        <v>0.021821719792</v>
+        <v>0.021776398091</v>
       </c>
     </row>
     <row r="187" spans="1:7">
@@ -4674,7 +4674,7 @@
         <v>44107</v>
       </c>
       <c r="B187" s="2">
-        <v>17527</v>
+        <v>17526</v>
       </c>
       <c r="C187" s="2">
         <v>43</v>
@@ -4683,7 +4683,7 @@
         <v>65</v>
       </c>
       <c r="E187" s="2">
-        <v>379353</v>
+        <v>379379</v>
       </c>
       <c r="F187" s="2">
         <v>1996</v>
@@ -4697,7 +4697,7 @@
         <v>44108</v>
       </c>
       <c r="B188" s="2">
-        <v>17564</v>
+        <v>17563</v>
       </c>
       <c r="C188" s="2">
         <v>37</v>
@@ -4706,7 +4706,7 @@
         <v>67</v>
       </c>
       <c r="E188" s="2">
-        <v>380737</v>
+        <v>380763</v>
       </c>
       <c r="F188" s="2">
         <v>1384</v>
@@ -4720,7 +4720,7 @@
         <v>44109</v>
       </c>
       <c r="B189" s="2">
-        <v>17641</v>
+        <v>17640</v>
       </c>
       <c r="C189" s="2">
         <v>77</v>
@@ -4729,7 +4729,7 @@
         <v>61.857142857142</v>
       </c>
       <c r="E189" s="2">
-        <v>385543</v>
+        <v>385569</v>
       </c>
       <c r="F189" s="2">
         <v>4806</v>
@@ -4743,7 +4743,7 @@
         <v>44110</v>
       </c>
       <c r="B190" s="2">
-        <v>17704</v>
+        <v>17703</v>
       </c>
       <c r="C190" s="2">
         <v>63</v>
@@ -4752,7 +4752,7 @@
         <v>60.142857142857</v>
       </c>
       <c r="E190" s="2">
-        <v>390203</v>
+        <v>390229</v>
       </c>
       <c r="F190" s="2">
         <v>4660</v>
@@ -4766,7 +4766,7 @@
         <v>44111</v>
       </c>
       <c r="B191" s="2">
-        <v>17780</v>
+        <v>17779</v>
       </c>
       <c r="C191" s="2">
         <v>76</v>
@@ -4775,7 +4775,7 @@
         <v>62.428571428571</v>
       </c>
       <c r="E191" s="2">
-        <v>394395</v>
+        <v>394421</v>
       </c>
       <c r="F191" s="2">
         <v>4192</v>
@@ -4789,7 +4789,7 @@
         <v>44112</v>
       </c>
       <c r="B192" s="2">
-        <v>17874</v>
+        <v>17873</v>
       </c>
       <c r="C192" s="2">
         <v>94</v>
@@ -4798,7 +4798,7 @@
         <v>66.571428571428</v>
       </c>
       <c r="E192" s="2">
-        <v>398648</v>
+        <v>398674</v>
       </c>
       <c r="F192" s="2">
         <v>4253</v>
@@ -4812,7 +4812,7 @@
         <v>44113</v>
       </c>
       <c r="B193" s="2">
-        <v>17932</v>
+        <v>17931</v>
       </c>
       <c r="C193" s="2">
         <v>58</v>
@@ -4821,7 +4821,7 @@
         <v>64</v>
       </c>
       <c r="E193" s="2">
-        <v>402430</v>
+        <v>402456</v>
       </c>
       <c r="F193" s="2">
         <v>3782</v>
@@ -4835,7 +4835,7 @@
         <v>44114</v>
       </c>
       <c r="B194" s="2">
-        <v>17973</v>
+        <v>17972</v>
       </c>
       <c r="C194" s="2">
         <v>41</v>
@@ -4844,7 +4844,7 @@
         <v>63.71428571428499</v>
       </c>
       <c r="E194" s="2">
-        <v>404223</v>
+        <v>404249</v>
       </c>
       <c r="F194" s="2">
         <v>1793</v>
@@ -4858,7 +4858,7 @@
         <v>44115</v>
       </c>
       <c r="B195" s="2">
-        <v>17997</v>
+        <v>17996</v>
       </c>
       <c r="C195" s="2">
         <v>24</v>
@@ -4867,7 +4867,7 @@
         <v>61.857142857142</v>
       </c>
       <c r="E195" s="2">
-        <v>405557</v>
+        <v>405583</v>
       </c>
       <c r="F195" s="2">
         <v>1334</v>
@@ -4881,7 +4881,7 @@
         <v>44116</v>
       </c>
       <c r="B196" s="2">
-        <v>18089</v>
+        <v>18088</v>
       </c>
       <c r="C196" s="2">
         <v>92</v>
@@ -4890,7 +4890,7 @@
         <v>64</v>
       </c>
       <c r="E196" s="2">
-        <v>410079</v>
+        <v>410105</v>
       </c>
       <c r="F196" s="2">
         <v>4522</v>
@@ -4904,7 +4904,7 @@
         <v>44117</v>
       </c>
       <c r="B197" s="2">
-        <v>18179</v>
+        <v>18178</v>
       </c>
       <c r="C197" s="2">
         <v>90</v>
@@ -4913,7 +4913,7 @@
         <v>67.85714285714199</v>
       </c>
       <c r="E197" s="2">
-        <v>414590</v>
+        <v>414616</v>
       </c>
       <c r="F197" s="2">
         <v>4511</v>
@@ -4927,7 +4927,7 @@
         <v>44118</v>
       </c>
       <c r="B198" s="2">
-        <v>18249</v>
+        <v>18248</v>
       </c>
       <c r="C198" s="2">
         <v>70</v>
@@ -4936,7 +4936,7 @@
         <v>67</v>
       </c>
       <c r="E198" s="2">
-        <v>418814</v>
+        <v>418840</v>
       </c>
       <c r="F198" s="2">
         <v>4224</v>
@@ -4950,7 +4950,7 @@
         <v>44119</v>
       </c>
       <c r="B199" s="2">
-        <v>18300</v>
+        <v>18299</v>
       </c>
       <c r="C199" s="2">
         <v>51</v>
@@ -4959,7 +4959,7 @@
         <v>60.857142857142</v>
       </c>
       <c r="E199" s="2">
-        <v>422825</v>
+        <v>422851</v>
       </c>
       <c r="F199" s="2">
         <v>4011</v>
@@ -4973,7 +4973,7 @@
         <v>44120</v>
       </c>
       <c r="B200" s="2">
-        <v>18358</v>
+        <v>18357</v>
       </c>
       <c r="C200" s="2">
         <v>58</v>
@@ -4982,7 +4982,7 @@
         <v>60.857142857142</v>
       </c>
       <c r="E200" s="2">
-        <v>426810</v>
+        <v>426836</v>
       </c>
       <c r="F200" s="2">
         <v>3985</v>
@@ -4996,7 +4996,7 @@
         <v>44121</v>
       </c>
       <c r="B201" s="2">
-        <v>18403</v>
+        <v>18402</v>
       </c>
       <c r="C201" s="2">
         <v>45</v>
@@ -5005,7 +5005,7 @@
         <v>61.428571428571</v>
       </c>
       <c r="E201" s="2">
-        <v>428710</v>
+        <v>428736</v>
       </c>
       <c r="F201" s="2">
         <v>1900</v>
@@ -5019,7 +5019,7 @@
         <v>44122</v>
       </c>
       <c r="B202" s="2">
-        <v>18439</v>
+        <v>18438</v>
       </c>
       <c r="C202" s="2">
         <v>36</v>
@@ -5028,13 +5028,13 @@
         <v>63.142857142857</v>
       </c>
       <c r="E202" s="2">
-        <v>430087</v>
+        <v>430114</v>
       </c>
       <c r="F202" s="2">
-        <v>1377</v>
+        <v>1378</v>
       </c>
       <c r="G202" s="4">
-        <v>0.018018752547</v>
+        <v>0.018018018018</v>
       </c>
     </row>
     <row r="203" spans="1:7">
@@ -5042,7 +5042,7 @@
         <v>44123</v>
       </c>
       <c r="B203" s="2">
-        <v>18528</v>
+        <v>18527</v>
       </c>
       <c r="C203" s="2">
         <v>89</v>
@@ -5051,13 +5051,13 @@
         <v>62.71428571428499</v>
       </c>
       <c r="E203" s="2">
-        <v>434910</v>
+        <v>434938</v>
       </c>
       <c r="F203" s="2">
-        <v>4823</v>
+        <v>4824</v>
       </c>
       <c r="G203" s="4">
-        <v>0.017679513511</v>
+        <v>0.017678089638</v>
       </c>
     </row>
     <row r="204" spans="1:7">
@@ -5065,7 +5065,7 @@
         <v>44124</v>
       </c>
       <c r="B204" s="2">
-        <v>18623</v>
+        <v>18622</v>
       </c>
       <c r="C204" s="2">
         <v>95</v>
@@ -5074,13 +5074,13 @@
         <v>63.428571428571</v>
       </c>
       <c r="E204" s="2">
-        <v>439689</v>
+        <v>439718</v>
       </c>
       <c r="F204" s="2">
-        <v>4779</v>
+        <v>4780</v>
       </c>
       <c r="G204" s="4">
-        <v>0.017689947806</v>
+        <v>0.017687833638</v>
       </c>
     </row>
     <row r="205" spans="1:7">
@@ -5088,7 +5088,7 @@
         <v>44125</v>
       </c>
       <c r="B205" s="2">
-        <v>18705</v>
+        <v>18704</v>
       </c>
       <c r="C205" s="2">
         <v>82</v>
@@ -5097,13 +5097,13 @@
         <v>65.142857142857</v>
       </c>
       <c r="E205" s="2">
-        <v>443970</v>
+        <v>443999</v>
       </c>
       <c r="F205" s="2">
         <v>4281</v>
       </c>
       <c r="G205" s="4">
-        <v>0.018126888217</v>
+        <v>0.018124726737</v>
       </c>
     </row>
     <row r="206" spans="1:7">
@@ -5111,7 +5111,7 @@
         <v>44126</v>
       </c>
       <c r="B206" s="2">
-        <v>18768</v>
+        <v>18767</v>
       </c>
       <c r="C206" s="2">
         <v>63</v>
@@ -5120,13 +5120,13 @@
         <v>66.85714285714199</v>
       </c>
       <c r="E206" s="2">
-        <v>447869</v>
+        <v>447898</v>
       </c>
       <c r="F206" s="2">
         <v>3899</v>
       </c>
       <c r="G206" s="4">
-        <v>0.018687110685</v>
+        <v>0.018684872439</v>
       </c>
     </row>
     <row r="207" spans="1:7">
@@ -5134,7 +5134,7 @@
         <v>44127</v>
       </c>
       <c r="B207" s="2">
-        <v>18852</v>
+        <v>18851</v>
       </c>
       <c r="C207" s="2">
         <v>84</v>
@@ -5143,13 +5143,13 @@
         <v>70.571428571428</v>
       </c>
       <c r="E207" s="2">
-        <v>451656</v>
+        <v>451691</v>
       </c>
       <c r="F207" s="2">
-        <v>3787</v>
+        <v>3793</v>
       </c>
       <c r="G207" s="4">
-        <v>0.019882476052</v>
+        <v>0.019875276604</v>
       </c>
     </row>
     <row r="208" spans="1:7">
@@ -5157,7 +5157,7 @@
         <v>44128</v>
       </c>
       <c r="B208" s="2">
-        <v>18906</v>
+        <v>18905</v>
       </c>
       <c r="C208" s="2">
         <v>54</v>
@@ -5166,13 +5166,13 @@
         <v>71.85714285714199</v>
       </c>
       <c r="E208" s="2">
-        <v>453587</v>
+        <v>453624</v>
       </c>
       <c r="F208" s="2">
-        <v>1931</v>
+        <v>1933</v>
       </c>
       <c r="G208" s="4">
-        <v>0.02021947984</v>
+        <v>0.020210543233</v>
       </c>
     </row>
     <row r="209" spans="1:7">
@@ -5180,7 +5180,7 @@
         <v>44129</v>
       </c>
       <c r="B209" s="2">
-        <v>18939</v>
+        <v>18938</v>
       </c>
       <c r="C209" s="2">
         <v>33</v>
@@ -5189,13 +5189,36 @@
         <v>71.428571428571</v>
       </c>
       <c r="E209" s="2">
-        <v>455176</v>
+        <v>455215</v>
       </c>
       <c r="F209" s="2">
-        <v>1589</v>
+        <v>1591</v>
       </c>
       <c r="G209" s="4">
-        <v>0.019929052572</v>
+        <v>0.019919525118</v>
+      </c>
+    </row>
+    <row r="210" spans="1:7">
+      <c r="A210" s="1">
+        <v>44130</v>
+      </c>
+      <c r="B210" s="2">
+        <v>19047</v>
+      </c>
+      <c r="C210" s="2">
+        <v>109</v>
+      </c>
+      <c r="D210" s="3">
+        <v>74.28571428571399</v>
+      </c>
+      <c r="E210" s="2">
+        <v>460081</v>
+      </c>
+      <c r="F210" s="2">
+        <v>4866</v>
+      </c>
+      <c r="G210" s="4">
+        <v>0.020681700672</v>
       </c>
     </row>
   </sheetData>

--- a/contra_costa_county_testing.xlsx
+++ b/contra_costa_county_testing.xlsx
@@ -376,7 +376,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G210"/>
+  <dimension ref="A1:G211"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1463,13 +1463,13 @@
         <v>17.571428571428</v>
       </c>
       <c r="E47" s="2">
-        <v>28719</v>
+        <v>28720</v>
       </c>
       <c r="F47" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="G47" s="4">
-        <v>0.020641047155</v>
+        <v>0.020637583892</v>
       </c>
     </row>
     <row r="48" spans="1:7">
@@ -1486,13 +1486,13 @@
         <v>18</v>
       </c>
       <c r="E48" s="2">
-        <v>29104</v>
+        <v>29105</v>
       </c>
       <c r="F48" s="2">
         <v>385</v>
       </c>
       <c r="G48" s="4">
-        <v>0.020996500583</v>
+        <v>0.020993002332</v>
       </c>
     </row>
     <row r="49" spans="1:7">
@@ -1512,7 +1512,7 @@
         <v>30469</v>
       </c>
       <c r="F49" s="2">
-        <v>1365</v>
+        <v>1364</v>
       </c>
       <c r="G49" s="4">
         <v>0.025067858853</v>
@@ -1630,7 +1630,7 @@
         <v>519</v>
       </c>
       <c r="G54" s="4">
-        <v>0.026889833996</v>
+        <v>0.0268935236</v>
       </c>
     </row>
     <row r="55" spans="1:7">
@@ -1653,7 +1653,7 @@
         <v>391</v>
       </c>
       <c r="G55" s="4">
-        <v>0.026456477039</v>
+        <v>0.026460104195</v>
       </c>
     </row>
     <row r="56" spans="1:7">
@@ -1716,13 +1716,13 @@
         <v>23.714285714285</v>
       </c>
       <c r="E58" s="2">
-        <v>39164</v>
+        <v>39163</v>
       </c>
       <c r="F58" s="2">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="G58" s="4">
-        <v>0.028159457167</v>
+        <v>0.028164234815</v>
       </c>
     </row>
     <row r="59" spans="1:7">
@@ -1739,13 +1739,13 @@
         <v>26.285714285714</v>
       </c>
       <c r="E59" s="2">
-        <v>40300</v>
+        <v>40299</v>
       </c>
       <c r="F59" s="2">
         <v>1136</v>
       </c>
       <c r="G59" s="4">
-        <v>0.031186440677</v>
+        <v>0.031191727411</v>
       </c>
     </row>
     <row r="60" spans="1:7">
@@ -1762,13 +1762,13 @@
         <v>26.285714285714</v>
       </c>
       <c r="E60" s="2">
-        <v>41701</v>
+        <v>41700</v>
       </c>
       <c r="F60" s="2">
         <v>1401</v>
       </c>
       <c r="G60" s="4">
-        <v>0.029620090148</v>
+        <v>0.02962485912</v>
       </c>
     </row>
     <row r="61" spans="1:7">
@@ -1785,13 +1785,13 @@
         <v>26</v>
       </c>
       <c r="E61" s="2">
-        <v>42435</v>
+        <v>42434</v>
       </c>
       <c r="F61" s="2">
         <v>734</v>
       </c>
       <c r="G61" s="4">
-        <v>0.028318033297</v>
+        <v>0.028322440087</v>
       </c>
     </row>
     <row r="62" spans="1:7">
@@ -1808,13 +1808,13 @@
         <v>25.714285714285</v>
       </c>
       <c r="E62" s="2">
-        <v>42831</v>
+        <v>42830</v>
       </c>
       <c r="F62" s="2">
         <v>396</v>
       </c>
       <c r="G62" s="4">
-        <v>0.027985074626</v>
+        <v>0.027989426216</v>
       </c>
     </row>
     <row r="63" spans="1:7">
@@ -1831,13 +1831,13 @@
         <v>29</v>
       </c>
       <c r="E63" s="2">
-        <v>44206</v>
+        <v>44204</v>
       </c>
       <c r="F63" s="2">
-        <v>1375</v>
+        <v>1374</v>
       </c>
       <c r="G63" s="4">
-        <v>0.027634086577</v>
+        <v>0.0276416122</v>
       </c>
     </row>
     <row r="64" spans="1:7">
@@ -1854,13 +1854,13 @@
         <v>28</v>
       </c>
       <c r="E64" s="2">
-        <v>45423</v>
+        <v>45421</v>
       </c>
       <c r="F64" s="2">
         <v>1217</v>
       </c>
       <c r="G64" s="4">
-        <v>0.026608742872</v>
+        <v>0.026615969581</v>
       </c>
     </row>
     <row r="65" spans="1:7">
@@ -1877,13 +1877,13 @@
         <v>27.571428571428</v>
       </c>
       <c r="E65" s="2">
-        <v>46586</v>
+        <v>46584</v>
       </c>
       <c r="F65" s="2">
         <v>1163</v>
       </c>
       <c r="G65" s="4">
-        <v>0.026003772568</v>
+        <v>0.026007276647</v>
       </c>
     </row>
     <row r="66" spans="1:7">
@@ -1900,13 +1900,13 @@
         <v>28.285714285714</v>
       </c>
       <c r="E66" s="2">
-        <v>47936</v>
+        <v>47934</v>
       </c>
       <c r="F66" s="2">
         <v>1350</v>
       </c>
       <c r="G66" s="4">
-        <v>0.025929806181</v>
+        <v>0.025933202357</v>
       </c>
     </row>
     <row r="67" spans="1:7">
@@ -1923,13 +1923,13 @@
         <v>29.285714285714</v>
       </c>
       <c r="E67" s="2">
-        <v>49566</v>
+        <v>49564</v>
       </c>
       <c r="F67" s="2">
         <v>1630</v>
       </c>
       <c r="G67" s="4">
-        <v>0.026064844246</v>
+        <v>0.026068158697</v>
       </c>
     </row>
     <row r="68" spans="1:7">
@@ -1946,13 +1946,13 @@
         <v>30.571428571428</v>
       </c>
       <c r="E68" s="2">
-        <v>50171</v>
+        <v>50169</v>
       </c>
       <c r="F68" s="2">
         <v>605</v>
       </c>
       <c r="G68" s="4">
-        <v>0.02766287487</v>
+        <v>0.027666451195</v>
       </c>
     </row>
     <row r="69" spans="1:7">
@@ -1969,13 +1969,13 @@
         <v>32.428571428571</v>
       </c>
       <c r="E69" s="2">
-        <v>50655</v>
+        <v>50653</v>
       </c>
       <c r="F69" s="2">
         <v>484</v>
       </c>
       <c r="G69" s="4">
-        <v>0.029013292433</v>
+        <v>0.02901700115</v>
       </c>
     </row>
     <row r="70" spans="1:7">
@@ -1992,13 +1992,13 @@
         <v>34.714285714285</v>
       </c>
       <c r="E70" s="2">
-        <v>52491</v>
+        <v>52488</v>
       </c>
       <c r="F70" s="2">
-        <v>1836</v>
+        <v>1835</v>
       </c>
       <c r="G70" s="4">
-        <v>0.029330114665</v>
+        <v>0.029333655239</v>
       </c>
     </row>
     <row r="71" spans="1:7">
@@ -2015,13 +2015,13 @@
         <v>36.428571428571</v>
       </c>
       <c r="E71" s="2">
-        <v>54337</v>
+        <v>54334</v>
       </c>
       <c r="F71" s="2">
         <v>1846</v>
       </c>
       <c r="G71" s="4">
-        <v>0.028606686111</v>
+        <v>0.028609895658</v>
       </c>
     </row>
     <row r="72" spans="1:7">
@@ -2038,13 +2038,13 @@
         <v>40</v>
       </c>
       <c r="E72" s="2">
-        <v>56328</v>
+        <v>56325</v>
       </c>
       <c r="F72" s="2">
         <v>1991</v>
       </c>
       <c r="G72" s="4">
-        <v>0.028741531513</v>
+        <v>0.028744482086</v>
       </c>
     </row>
     <row r="73" spans="1:7">
@@ -2061,13 +2061,13 @@
         <v>40.285714285714</v>
       </c>
       <c r="E73" s="2">
-        <v>58483</v>
+        <v>58480</v>
       </c>
       <c r="F73" s="2">
         <v>2155</v>
       </c>
       <c r="G73" s="4">
-        <v>0.026737460889</v>
+        <v>0.026739996207</v>
       </c>
     </row>
     <row r="74" spans="1:7">
@@ -2084,13 +2084,13 @@
         <v>41.857142857142</v>
       </c>
       <c r="E74" s="2">
-        <v>60744</v>
+        <v>60741</v>
       </c>
       <c r="F74" s="2">
         <v>2261</v>
       </c>
       <c r="G74" s="4">
-        <v>0.02621220254</v>
+        <v>0.026214547731</v>
       </c>
     </row>
     <row r="75" spans="1:7">
@@ -2107,13 +2107,13 @@
         <v>44.142857142857</v>
       </c>
       <c r="E75" s="2">
-        <v>61588</v>
+        <v>61585</v>
       </c>
       <c r="F75" s="2">
         <v>844</v>
       </c>
       <c r="G75" s="4">
-        <v>0.027064903214</v>
+        <v>0.027067274001</v>
       </c>
     </row>
     <row r="76" spans="1:7">
@@ -2130,13 +2130,13 @@
         <v>45.428571428571</v>
       </c>
       <c r="E76" s="2">
-        <v>62175</v>
+        <v>62172</v>
       </c>
       <c r="F76" s="2">
         <v>587</v>
       </c>
       <c r="G76" s="4">
-        <v>0.027604166666</v>
+        <v>0.027606563069</v>
       </c>
     </row>
     <row r="77" spans="1:7">
@@ -2153,7 +2153,7 @@
         <v>46.714285714285</v>
       </c>
       <c r="E77" s="2">
-        <v>64396</v>
+        <v>64393</v>
       </c>
       <c r="F77" s="2">
         <v>2221</v>
@@ -2176,7 +2176,7 @@
         <v>52.571428571428</v>
       </c>
       <c r="E78" s="2">
-        <v>66927</v>
+        <v>66924</v>
       </c>
       <c r="F78" s="2">
         <v>2531</v>
@@ -2199,7 +2199,7 @@
         <v>57.285714285714</v>
       </c>
       <c r="E79" s="2">
-        <v>69502</v>
+        <v>69499</v>
       </c>
       <c r="F79" s="2">
         <v>2575</v>
@@ -2222,7 +2222,7 @@
         <v>62.57142857142801</v>
       </c>
       <c r="E80" s="2">
-        <v>72034</v>
+        <v>72031</v>
       </c>
       <c r="F80" s="2">
         <v>2532</v>
@@ -2245,7 +2245,7 @@
         <v>68.85714285714199</v>
       </c>
       <c r="E81" s="2">
-        <v>74477</v>
+        <v>74474</v>
       </c>
       <c r="F81" s="2">
         <v>2443</v>
@@ -2268,7 +2268,7 @@
         <v>71.428571428571</v>
       </c>
       <c r="E82" s="2">
-        <v>75430</v>
+        <v>75427</v>
       </c>
       <c r="F82" s="2">
         <v>953</v>
@@ -2291,7 +2291,7 @@
         <v>73.28571428571399</v>
       </c>
       <c r="E83" s="2">
-        <v>76128</v>
+        <v>76125</v>
       </c>
       <c r="F83" s="2">
         <v>698</v>
@@ -2314,7 +2314,7 @@
         <v>81</v>
       </c>
       <c r="E84" s="2">
-        <v>78746</v>
+        <v>78743</v>
       </c>
       <c r="F84" s="2">
         <v>2618</v>
@@ -2337,7 +2337,7 @@
         <v>88</v>
       </c>
       <c r="E85" s="2">
-        <v>81531</v>
+        <v>81528</v>
       </c>
       <c r="F85" s="2">
         <v>2785</v>
@@ -2360,13 +2360,13 @@
         <v>96</v>
       </c>
       <c r="E86" s="2">
-        <v>84568</v>
+        <v>84564</v>
       </c>
       <c r="F86" s="2">
-        <v>3037</v>
+        <v>3036</v>
       </c>
       <c r="G86" s="4">
-        <v>0.044603743528</v>
+        <v>0.044606704281</v>
       </c>
     </row>
     <row r="87" spans="1:7">
@@ -2383,13 +2383,13 @@
         <v>104.714285714285</v>
       </c>
       <c r="E87" s="2">
-        <v>87935</v>
+        <v>87931</v>
       </c>
       <c r="F87" s="2">
         <v>3367</v>
       </c>
       <c r="G87" s="4">
-        <v>0.046097729702</v>
+        <v>0.04610062893</v>
       </c>
     </row>
     <row r="88" spans="1:7">
@@ -2406,13 +2406,13 @@
         <v>114.428571428571</v>
       </c>
       <c r="E88" s="2">
-        <v>90905</v>
+        <v>90901</v>
       </c>
       <c r="F88" s="2">
         <v>2970</v>
       </c>
       <c r="G88" s="4">
-        <v>0.048758217677</v>
+        <v>0.048761185852</v>
       </c>
     </row>
     <row r="89" spans="1:7">
@@ -2429,13 +2429,13 @@
         <v>118.428571428571</v>
       </c>
       <c r="E89" s="2">
-        <v>91979</v>
+        <v>91975</v>
       </c>
       <c r="F89" s="2">
         <v>1074</v>
       </c>
       <c r="G89" s="4">
-        <v>0.050093661248</v>
+        <v>0.050096688421</v>
       </c>
     </row>
     <row r="90" spans="1:7">
@@ -2452,13 +2452,13 @@
         <v>121.142857142857</v>
       </c>
       <c r="E90" s="2">
-        <v>92775</v>
+        <v>92771</v>
       </c>
       <c r="F90" s="2">
         <v>796</v>
       </c>
       <c r="G90" s="4">
-        <v>0.050940109329</v>
+        <v>0.05094316953</v>
       </c>
     </row>
     <row r="91" spans="1:7">
@@ -2475,13 +2475,13 @@
         <v>133.428571428571</v>
       </c>
       <c r="E91" s="2">
-        <v>96458</v>
+        <v>96454</v>
       </c>
       <c r="F91" s="2">
         <v>3683</v>
       </c>
       <c r="G91" s="4">
-        <v>0.052732610659</v>
+        <v>0.052735588052</v>
       </c>
     </row>
     <row r="92" spans="1:7">
@@ -2498,13 +2498,13 @@
         <v>137</v>
       </c>
       <c r="E92" s="2">
-        <v>99943</v>
+        <v>99939</v>
       </c>
       <c r="F92" s="2">
         <v>3485</v>
       </c>
       <c r="G92" s="4">
-        <v>0.05208559635</v>
+        <v>0.052088425397</v>
       </c>
     </row>
     <row r="93" spans="1:7">
@@ -2521,7 +2521,7 @@
         <v>141.285714285714</v>
       </c>
       <c r="E93" s="2">
-        <v>103486</v>
+        <v>103482</v>
       </c>
       <c r="F93" s="2">
         <v>3543</v>
@@ -2544,7 +2544,7 @@
         <v>149.857142857142</v>
       </c>
       <c r="E94" s="2">
-        <v>107410</v>
+        <v>107406</v>
       </c>
       <c r="F94" s="2">
         <v>3924</v>
@@ -2567,7 +2567,7 @@
         <v>146.142857142857</v>
       </c>
       <c r="E95" s="2">
-        <v>110051</v>
+        <v>110047</v>
       </c>
       <c r="F95" s="2">
         <v>2641</v>
@@ -2590,7 +2590,7 @@
         <v>148</v>
       </c>
       <c r="E96" s="2">
-        <v>111169</v>
+        <v>111165</v>
       </c>
       <c r="F96" s="2">
         <v>1118</v>
@@ -2613,7 +2613,7 @@
         <v>151.857142857142</v>
       </c>
       <c r="E97" s="2">
-        <v>112298</v>
+        <v>112294</v>
       </c>
       <c r="F97" s="2">
         <v>1129</v>
@@ -2636,7 +2636,7 @@
         <v>152.857142857142</v>
       </c>
       <c r="E98" s="2">
-        <v>116381</v>
+        <v>116377</v>
       </c>
       <c r="F98" s="2">
         <v>4083</v>
@@ -2659,7 +2659,7 @@
         <v>161.142857142857</v>
       </c>
       <c r="E99" s="2">
-        <v>120465</v>
+        <v>120461</v>
       </c>
       <c r="F99" s="2">
         <v>4084</v>
@@ -2682,7 +2682,7 @@
         <v>168.571428571428</v>
       </c>
       <c r="E100" s="2">
-        <v>124729</v>
+        <v>124725</v>
       </c>
       <c r="F100" s="2">
         <v>4264</v>
@@ -2705,7 +2705,7 @@
         <v>174.285714285714</v>
       </c>
       <c r="E101" s="2">
-        <v>129332</v>
+        <v>129328</v>
       </c>
       <c r="F101" s="2">
         <v>4603</v>
@@ -2728,7 +2728,7 @@
         <v>188.857142857142</v>
       </c>
       <c r="E102" s="2">
-        <v>133794</v>
+        <v>133790</v>
       </c>
       <c r="F102" s="2">
         <v>4462</v>
@@ -2751,7 +2751,7 @@
         <v>195.571428571428</v>
       </c>
       <c r="E103" s="2">
-        <v>135870</v>
+        <v>135866</v>
       </c>
       <c r="F103" s="2">
         <v>2076</v>
@@ -2774,7 +2774,7 @@
         <v>197.571428571428</v>
       </c>
       <c r="E104" s="2">
-        <v>137196</v>
+        <v>137192</v>
       </c>
       <c r="F104" s="2">
         <v>1326</v>
@@ -2797,7 +2797,7 @@
         <v>205.714285714285</v>
       </c>
       <c r="E105" s="2">
-        <v>141802</v>
+        <v>141798</v>
       </c>
       <c r="F105" s="2">
         <v>4606</v>
@@ -2820,7 +2820,7 @@
         <v>211.285714285714</v>
       </c>
       <c r="E106" s="2">
-        <v>145570</v>
+        <v>145566</v>
       </c>
       <c r="F106" s="2">
         <v>3768</v>
@@ -2843,7 +2843,7 @@
         <v>216.285714285714</v>
       </c>
       <c r="E107" s="2">
-        <v>149919</v>
+        <v>149915</v>
       </c>
       <c r="F107" s="2">
         <v>4349</v>
@@ -2866,7 +2866,7 @@
         <v>216.857142857142</v>
       </c>
       <c r="E108" s="2">
-        <v>154110</v>
+        <v>154106</v>
       </c>
       <c r="F108" s="2">
         <v>4191</v>
@@ -2889,7 +2889,7 @@
         <v>217.428571428571</v>
       </c>
       <c r="E109" s="2">
-        <v>158317</v>
+        <v>158313</v>
       </c>
       <c r="F109" s="2">
         <v>4207</v>
@@ -2912,7 +2912,7 @@
         <v>215.857142857142</v>
       </c>
       <c r="E110" s="2">
-        <v>160545</v>
+        <v>160541</v>
       </c>
       <c r="F110" s="2">
         <v>2228</v>
@@ -2935,7 +2935,7 @@
         <v>215.714285714285</v>
       </c>
       <c r="E111" s="2">
-        <v>161805</v>
+        <v>161801</v>
       </c>
       <c r="F111" s="2">
         <v>1260</v>
@@ -2958,7 +2958,7 @@
         <v>220.142857142857</v>
       </c>
       <c r="E112" s="2">
-        <v>166058</v>
+        <v>166054</v>
       </c>
       <c r="F112" s="2">
         <v>4253</v>
@@ -2981,7 +2981,7 @@
         <v>218.142857142857</v>
       </c>
       <c r="E113" s="2">
-        <v>169899</v>
+        <v>169895</v>
       </c>
       <c r="F113" s="2">
         <v>3841</v>
@@ -3004,7 +3004,7 @@
         <v>216.714285714285</v>
       </c>
       <c r="E114" s="2">
-        <v>173564</v>
+        <v>173560</v>
       </c>
       <c r="F114" s="2">
         <v>3665</v>
@@ -3027,7 +3027,7 @@
         <v>213.428571428571</v>
       </c>
       <c r="E115" s="2">
-        <v>176896</v>
+        <v>176892</v>
       </c>
       <c r="F115" s="2">
         <v>3332</v>
@@ -3050,7 +3050,7 @@
         <v>209.142857142857</v>
       </c>
       <c r="E116" s="2">
-        <v>180576</v>
+        <v>180572</v>
       </c>
       <c r="F116" s="2">
         <v>3680</v>
@@ -3073,7 +3073,7 @@
         <v>207</v>
       </c>
       <c r="E117" s="2">
-        <v>182212</v>
+        <v>182208</v>
       </c>
       <c r="F117" s="2">
         <v>1636</v>
@@ -3096,7 +3096,7 @@
         <v>207.571428571428</v>
       </c>
       <c r="E118" s="2">
-        <v>183466</v>
+        <v>183462</v>
       </c>
       <c r="F118" s="2">
         <v>1254</v>
@@ -3119,7 +3119,7 @@
         <v>200.714285714285</v>
       </c>
       <c r="E119" s="2">
-        <v>187652</v>
+        <v>187648</v>
       </c>
       <c r="F119" s="2">
         <v>4186</v>
@@ -3142,7 +3142,7 @@
         <v>203.285714285714</v>
       </c>
       <c r="E120" s="2">
-        <v>191593</v>
+        <v>191589</v>
       </c>
       <c r="F120" s="2">
         <v>3941</v>
@@ -3165,7 +3165,7 @@
         <v>203.714285714285</v>
       </c>
       <c r="E121" s="2">
-        <v>195459</v>
+        <v>195455</v>
       </c>
       <c r="F121" s="2">
         <v>3866</v>
@@ -3188,7 +3188,7 @@
         <v>201.714285714285</v>
       </c>
       <c r="E122" s="2">
-        <v>199135</v>
+        <v>199131</v>
       </c>
       <c r="F122" s="2">
         <v>3676</v>
@@ -3211,7 +3211,7 @@
         <v>203.857142857142</v>
       </c>
       <c r="E123" s="2">
-        <v>202687</v>
+        <v>202683</v>
       </c>
       <c r="F123" s="2">
         <v>3552</v>
@@ -3234,7 +3234,7 @@
         <v>203</v>
       </c>
       <c r="E124" s="2">
-        <v>204356</v>
+        <v>204352</v>
       </c>
       <c r="F124" s="2">
         <v>1669</v>
@@ -3257,7 +3257,7 @@
         <v>199.571428571428</v>
       </c>
       <c r="E125" s="2">
-        <v>205505</v>
+        <v>205501</v>
       </c>
       <c r="F125" s="2">
         <v>1149</v>
@@ -3280,7 +3280,7 @@
         <v>201.285714285714</v>
       </c>
       <c r="E126" s="2">
-        <v>209383</v>
+        <v>209379</v>
       </c>
       <c r="F126" s="2">
         <v>3878</v>
@@ -3303,7 +3303,7 @@
         <v>198.428571428571</v>
       </c>
       <c r="E127" s="2">
-        <v>212714</v>
+        <v>212710</v>
       </c>
       <c r="F127" s="2">
         <v>3331</v>
@@ -3326,7 +3326,7 @@
         <v>191.142857142857</v>
       </c>
       <c r="E128" s="2">
-        <v>215992</v>
+        <v>215988</v>
       </c>
       <c r="F128" s="2">
         <v>3278</v>
@@ -3349,7 +3349,7 @@
         <v>188.428571428571</v>
       </c>
       <c r="E129" s="2">
-        <v>219659</v>
+        <v>219655</v>
       </c>
       <c r="F129" s="2">
         <v>3667</v>
@@ -3372,7 +3372,7 @@
         <v>181.285714285714</v>
       </c>
       <c r="E130" s="2">
-        <v>222991</v>
+        <v>222987</v>
       </c>
       <c r="F130" s="2">
         <v>3332</v>
@@ -3395,7 +3395,7 @@
         <v>183</v>
       </c>
       <c r="E131" s="2">
-        <v>224700</v>
+        <v>224696</v>
       </c>
       <c r="F131" s="2">
         <v>1709</v>
@@ -3418,7 +3418,7 @@
         <v>183.857142857142</v>
       </c>
       <c r="E132" s="2">
-        <v>225765</v>
+        <v>225761</v>
       </c>
       <c r="F132" s="2">
         <v>1065</v>
@@ -3441,7 +3441,7 @@
         <v>181.142857142857</v>
       </c>
       <c r="E133" s="2">
-        <v>229669</v>
+        <v>229665</v>
       </c>
       <c r="F133" s="2">
         <v>3904</v>
@@ -3464,7 +3464,7 @@
         <v>175.571428571428</v>
       </c>
       <c r="E134" s="2">
-        <v>233089</v>
+        <v>233085</v>
       </c>
       <c r="F134" s="2">
         <v>3420</v>
@@ -3487,7 +3487,7 @@
         <v>175.285714285714</v>
       </c>
       <c r="E135" s="2">
-        <v>236957</v>
+        <v>236953</v>
       </c>
       <c r="F135" s="2">
         <v>3868</v>
@@ -3510,7 +3510,7 @@
         <v>171.714285714285</v>
       </c>
       <c r="E136" s="2">
-        <v>240227</v>
+        <v>240223</v>
       </c>
       <c r="F136" s="2">
         <v>3270</v>
@@ -3533,7 +3533,7 @@
         <v>170.285714285714</v>
       </c>
       <c r="E137" s="2">
-        <v>243589</v>
+        <v>243585</v>
       </c>
       <c r="F137" s="2">
         <v>3362</v>
@@ -3556,7 +3556,7 @@
         <v>166.571428571428</v>
       </c>
       <c r="E138" s="2">
-        <v>245153</v>
+        <v>245149</v>
       </c>
       <c r="F138" s="2">
         <v>1564</v>
@@ -3579,7 +3579,7 @@
         <v>160.857142857142</v>
       </c>
       <c r="E139" s="2">
-        <v>245929</v>
+        <v>245925</v>
       </c>
       <c r="F139" s="2">
         <v>776</v>
@@ -3602,7 +3602,7 @@
         <v>157.428571428571</v>
       </c>
       <c r="E140" s="2">
-        <v>249587</v>
+        <v>249583</v>
       </c>
       <c r="F140" s="2">
         <v>3658</v>
@@ -3625,7 +3625,7 @@
         <v>152.857142857142</v>
       </c>
       <c r="E141" s="2">
-        <v>252670</v>
+        <v>252666</v>
       </c>
       <c r="F141" s="2">
         <v>3083</v>
@@ -3648,7 +3648,7 @@
         <v>146.857142857142</v>
       </c>
       <c r="E142" s="2">
-        <v>255728</v>
+        <v>255724</v>
       </c>
       <c r="F142" s="2">
         <v>3058</v>
@@ -3671,7 +3671,7 @@
         <v>140.714285714285</v>
       </c>
       <c r="E143" s="2">
-        <v>258898</v>
+        <v>258894</v>
       </c>
       <c r="F143" s="2">
         <v>3170</v>
@@ -3694,7 +3694,7 @@
         <v>138.857142857142</v>
       </c>
       <c r="E144" s="2">
-        <v>261938</v>
+        <v>261934</v>
       </c>
       <c r="F144" s="2">
         <v>3040</v>
@@ -3717,7 +3717,7 @@
         <v>134.285714285714</v>
       </c>
       <c r="E145" s="2">
-        <v>263268</v>
+        <v>263264</v>
       </c>
       <c r="F145" s="2">
         <v>1330</v>
@@ -3740,7 +3740,7 @@
         <v>137.571428571428</v>
       </c>
       <c r="E146" s="2">
-        <v>264237</v>
+        <v>264233</v>
       </c>
       <c r="F146" s="2">
         <v>969</v>
@@ -3763,7 +3763,7 @@
         <v>128.571428571428</v>
       </c>
       <c r="E147" s="2">
-        <v>267227</v>
+        <v>267223</v>
       </c>
       <c r="F147" s="2">
         <v>2990</v>
@@ -3786,7 +3786,7 @@
         <v>123.857142857142</v>
       </c>
       <c r="E148" s="2">
-        <v>270253</v>
+        <v>270249</v>
       </c>
       <c r="F148" s="2">
         <v>3026</v>
@@ -3809,7 +3809,7 @@
         <v>120.571428571428</v>
       </c>
       <c r="E149" s="2">
-        <v>273221</v>
+        <v>273217</v>
       </c>
       <c r="F149" s="2">
         <v>2968</v>
@@ -3832,13 +3832,13 @@
         <v>126.285714285714</v>
       </c>
       <c r="E150" s="2">
-        <v>276507</v>
+        <v>276506</v>
       </c>
       <c r="F150" s="2">
-        <v>3286</v>
+        <v>3289</v>
       </c>
       <c r="G150" s="4">
-        <v>0.050201601453</v>
+        <v>0.050193050193</v>
       </c>
     </row>
     <row r="151" spans="1:7">
@@ -3858,10 +3858,10 @@
         <v>279300</v>
       </c>
       <c r="F151" s="2">
-        <v>2793</v>
+        <v>2794</v>
       </c>
       <c r="G151" s="4">
-        <v>0.048266328763</v>
+        <v>0.048255211332</v>
       </c>
     </row>
     <row r="152" spans="1:7">
@@ -3884,7 +3884,7 @@
         <v>1443</v>
       </c>
       <c r="G152" s="4">
-        <v>0.048068669527</v>
+        <v>0.048057669203</v>
       </c>
     </row>
     <row r="153" spans="1:7">
@@ -3907,7 +3907,7 @@
         <v>1084</v>
       </c>
       <c r="G153" s="4">
-        <v>0.047242751563</v>
+        <v>0.047232010912</v>
       </c>
     </row>
     <row r="154" spans="1:7">
@@ -3924,13 +3924,13 @@
         <v>117.571428571428</v>
       </c>
       <c r="E154" s="2">
-        <v>284982</v>
+        <v>284984</v>
       </c>
       <c r="F154" s="2">
-        <v>3155</v>
+        <v>3157</v>
       </c>
       <c r="G154" s="4">
-        <v>0.04635313996</v>
+        <v>0.046337480997</v>
       </c>
     </row>
     <row r="155" spans="1:7">
@@ -3947,13 +3947,13 @@
         <v>117.285714285714</v>
       </c>
       <c r="E155" s="2">
-        <v>288268</v>
+        <v>288273</v>
       </c>
       <c r="F155" s="2">
-        <v>3286</v>
+        <v>3289</v>
       </c>
       <c r="G155" s="4">
-        <v>0.045573133499</v>
+        <v>0.045550377274</v>
       </c>
     </row>
     <row r="156" spans="1:7">
@@ -3970,13 +3970,13 @@
         <v>114.714285714285</v>
       </c>
       <c r="E156" s="2">
-        <v>291260</v>
+        <v>291265</v>
       </c>
       <c r="F156" s="2">
         <v>2992</v>
       </c>
       <c r="G156" s="4">
-        <v>0.044514662675</v>
+        <v>0.044492464539</v>
       </c>
     </row>
     <row r="157" spans="1:7">
@@ -3993,13 +3993,13 @@
         <v>103.714285714285</v>
       </c>
       <c r="E157" s="2">
-        <v>294209</v>
+        <v>294214</v>
       </c>
       <c r="F157" s="2">
         <v>2949</v>
       </c>
       <c r="G157" s="4">
-        <v>0.041012314992</v>
+        <v>0.040998418793</v>
       </c>
     </row>
     <row r="158" spans="1:7">
@@ -4016,13 +4016,13 @@
         <v>104.571428571428</v>
       </c>
       <c r="E158" s="2">
-        <v>297042</v>
+        <v>297047</v>
       </c>
       <c r="F158" s="2">
         <v>2833</v>
       </c>
       <c r="G158" s="4">
-        <v>0.041258031788</v>
+        <v>0.041246407843</v>
       </c>
     </row>
     <row r="159" spans="1:7">
@@ -4039,13 +4039,13 @@
         <v>104.857142857142</v>
       </c>
       <c r="E159" s="2">
-        <v>298380</v>
+        <v>298385</v>
       </c>
       <c r="F159" s="2">
         <v>1338</v>
       </c>
       <c r="G159" s="4">
-        <v>0.041617055054</v>
+        <v>0.041605260174</v>
       </c>
     </row>
     <row r="160" spans="1:7">
@@ -4062,13 +4062,13 @@
         <v>104</v>
       </c>
       <c r="E160" s="2">
-        <v>299465</v>
+        <v>299471</v>
       </c>
       <c r="F160" s="2">
-        <v>1085</v>
+        <v>1086</v>
       </c>
       <c r="G160" s="4">
-        <v>0.04127452092</v>
+        <v>0.04126048515</v>
       </c>
     </row>
     <row r="161" spans="1:7">
@@ -4085,13 +4085,13 @@
         <v>93.571428571428</v>
       </c>
       <c r="E161" s="2">
-        <v>300723</v>
+        <v>300729</v>
       </c>
       <c r="F161" s="2">
         <v>1258</v>
       </c>
       <c r="G161" s="4">
-        <v>0.041611079346</v>
+        <v>0.041600508097</v>
       </c>
     </row>
     <row r="162" spans="1:7">
@@ -4108,13 +4108,13 @@
         <v>95</v>
       </c>
       <c r="E162" s="2">
-        <v>305035</v>
+        <v>305042</v>
       </c>
       <c r="F162" s="2">
-        <v>4312</v>
+        <v>4313</v>
       </c>
       <c r="G162" s="4">
-        <v>0.039661239339</v>
+        <v>0.039656509034</v>
       </c>
     </row>
     <row r="163" spans="1:7">
@@ -4131,13 +4131,13 @@
         <v>99.85714285714199</v>
       </c>
       <c r="E163" s="2">
-        <v>308565</v>
+        <v>308575</v>
       </c>
       <c r="F163" s="2">
-        <v>3530</v>
+        <v>3533</v>
       </c>
       <c r="G163" s="4">
-        <v>0.040392950014</v>
+        <v>0.040381282495</v>
       </c>
     </row>
     <row r="164" spans="1:7">
@@ -4154,13 +4154,13 @@
         <v>101.142857142857</v>
       </c>
       <c r="E164" s="2">
-        <v>311860</v>
+        <v>311871</v>
       </c>
       <c r="F164" s="2">
-        <v>3295</v>
+        <v>3296</v>
       </c>
       <c r="G164" s="4">
-        <v>0.040111041867</v>
+        <v>0.040097411791</v>
       </c>
     </row>
     <row r="165" spans="1:7">
@@ -4177,13 +4177,13 @@
         <v>94.142857142857</v>
       </c>
       <c r="E165" s="2">
-        <v>314366</v>
+        <v>314377</v>
       </c>
       <c r="F165" s="2">
         <v>2506</v>
       </c>
       <c r="G165" s="4">
-        <v>0.038039713691</v>
+        <v>0.038026543566</v>
       </c>
     </row>
     <row r="166" spans="1:7">
@@ -4200,13 +4200,13 @@
         <v>91.85714285714199</v>
       </c>
       <c r="E166" s="2">
-        <v>315769</v>
+        <v>315780</v>
       </c>
       <c r="F166" s="2">
         <v>1403</v>
       </c>
       <c r="G166" s="4">
-        <v>0.036977399505</v>
+        <v>0.036964645012</v>
       </c>
     </row>
     <row r="167" spans="1:7">
@@ -4223,13 +4223,13 @@
         <v>89.571428571428</v>
       </c>
       <c r="E167" s="2">
-        <v>316622</v>
+        <v>316632</v>
       </c>
       <c r="F167" s="2">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="G167" s="4">
-        <v>0.036544850498</v>
+        <v>0.036536332381</v>
       </c>
     </row>
     <row r="168" spans="1:7">
@@ -4246,13 +4246,13 @@
         <v>94.142857142857</v>
       </c>
       <c r="E168" s="2">
-        <v>320040</v>
+        <v>320050</v>
       </c>
       <c r="F168" s="2">
         <v>3418</v>
       </c>
       <c r="G168" s="4">
-        <v>0.034115028213</v>
+        <v>0.034107965426</v>
       </c>
     </row>
     <row r="169" spans="1:7">
@@ -4269,13 +4269,13 @@
         <v>92.28571428571399</v>
       </c>
       <c r="E169" s="2">
-        <v>324034</v>
+        <v>324044</v>
       </c>
       <c r="F169" s="2">
         <v>3994</v>
       </c>
       <c r="G169" s="4">
-        <v>0.034001789567</v>
+        <v>0.033996421429</v>
       </c>
     </row>
     <row r="170" spans="1:7">
@@ -4292,7 +4292,7 @@
         <v>83.142857142857</v>
       </c>
       <c r="E170" s="2">
-        <v>327359</v>
+        <v>327369</v>
       </c>
       <c r="F170" s="2">
         <v>3325</v>
@@ -4315,13 +4315,13 @@
         <v>83.142857142857</v>
       </c>
       <c r="E171" s="2">
-        <v>331110</v>
+        <v>331119</v>
       </c>
       <c r="F171" s="2">
-        <v>3751</v>
+        <v>3750</v>
       </c>
       <c r="G171" s="4">
-        <v>0.030233766233</v>
+        <v>0.03023690773</v>
       </c>
     </row>
     <row r="172" spans="1:7">
@@ -4338,13 +4338,13 @@
         <v>87.571428571428</v>
       </c>
       <c r="E172" s="2">
-        <v>334386</v>
+        <v>334395</v>
       </c>
       <c r="F172" s="2">
         <v>3276</v>
       </c>
       <c r="G172" s="4">
-        <v>0.030619380619</v>
+        <v>0.030622439804</v>
       </c>
     </row>
     <row r="173" spans="1:7">
@@ -4361,13 +4361,13 @@
         <v>90.714285714285</v>
       </c>
       <c r="E173" s="2">
-        <v>335905</v>
+        <v>335914</v>
       </c>
       <c r="F173" s="2">
         <v>1519</v>
       </c>
       <c r="G173" s="4">
-        <v>0.031535558204</v>
+        <v>0.031538690771</v>
       </c>
     </row>
     <row r="174" spans="1:7">
@@ -4384,13 +4384,13 @@
         <v>91.428571428571</v>
       </c>
       <c r="E174" s="2">
-        <v>337061</v>
+        <v>337070</v>
       </c>
       <c r="F174" s="2">
         <v>1156</v>
       </c>
       <c r="G174" s="4">
-        <v>0.03131268653</v>
+        <v>0.031314218612</v>
       </c>
     </row>
     <row r="175" spans="1:7">
@@ -4407,13 +4407,13 @@
         <v>97.428571428571</v>
       </c>
       <c r="E175" s="2">
-        <v>341440</v>
+        <v>341449</v>
       </c>
       <c r="F175" s="2">
         <v>4379</v>
       </c>
       <c r="G175" s="4">
-        <v>0.031869158878</v>
+        <v>0.031870648161</v>
       </c>
     </row>
     <row r="176" spans="1:7">
@@ -4430,13 +4430,13 @@
         <v>92.85714285714199</v>
       </c>
       <c r="E176" s="2">
-        <v>345236</v>
+        <v>345245</v>
       </c>
       <c r="F176" s="2">
         <v>3796</v>
       </c>
       <c r="G176" s="4">
-        <v>0.030657485142</v>
+        <v>0.030658931182</v>
       </c>
     </row>
     <row r="177" spans="1:7">
@@ -4453,13 +4453,13 @@
         <v>93.85714285714199</v>
       </c>
       <c r="E177" s="2">
-        <v>348749</v>
+        <v>348758</v>
       </c>
       <c r="F177" s="2">
         <v>3513</v>
       </c>
       <c r="G177" s="4">
-        <v>0.030715287517</v>
+        <v>0.030716723549</v>
       </c>
     </row>
     <row r="178" spans="1:7">
@@ -4476,13 +4476,13 @@
         <v>92</v>
       </c>
       <c r="E178" s="2">
-        <v>352488</v>
+        <v>352499</v>
       </c>
       <c r="F178" s="2">
-        <v>3739</v>
+        <v>3741</v>
       </c>
       <c r="G178" s="4">
-        <v>0.030124426981</v>
+        <v>0.03012160898</v>
       </c>
     </row>
     <row r="179" spans="1:7">
@@ -4499,13 +4499,13 @@
         <v>89.85714285714199</v>
       </c>
       <c r="E179" s="2">
-        <v>355800</v>
+        <v>355813</v>
       </c>
       <c r="F179" s="2">
-        <v>3312</v>
+        <v>3314</v>
       </c>
       <c r="G179" s="4">
-        <v>0.029373307182</v>
+        <v>0.029367821458</v>
       </c>
     </row>
     <row r="180" spans="1:7">
@@ -4522,13 +4522,13 @@
         <v>87.85714285714199</v>
       </c>
       <c r="E180" s="2">
-        <v>357672</v>
+        <v>357685</v>
       </c>
       <c r="F180" s="2">
         <v>1872</v>
       </c>
       <c r="G180" s="4">
-        <v>0.028253778655</v>
+        <v>0.02824858757</v>
       </c>
     </row>
     <row r="181" spans="1:7">
@@ -4545,13 +4545,13 @@
         <v>85.142857142857</v>
       </c>
       <c r="E181" s="2">
-        <v>358801</v>
+        <v>358814</v>
       </c>
       <c r="F181" s="2">
         <v>1129</v>
       </c>
       <c r="G181" s="4">
-        <v>0.027414903403</v>
+        <v>0.027409860191</v>
       </c>
     </row>
     <row r="182" spans="1:7">
@@ -4568,13 +4568,13 @@
         <v>80.85714285714199</v>
       </c>
       <c r="E182" s="2">
-        <v>362908</v>
+        <v>362921</v>
       </c>
       <c r="F182" s="2">
         <v>4107</v>
       </c>
       <c r="G182" s="4">
-        <v>0.02636482206</v>
+        <v>0.026359910581</v>
       </c>
     </row>
     <row r="183" spans="1:7">
@@ -4591,13 +4591,13 @@
         <v>77.571428571428</v>
       </c>
       <c r="E183" s="2">
-        <v>366751</v>
+        <v>366764</v>
       </c>
       <c r="F183" s="2">
         <v>3843</v>
       </c>
       <c r="G183" s="4">
-        <v>0.025238205902</v>
+        <v>0.025233514568</v>
       </c>
     </row>
     <row r="184" spans="1:7">
@@ -4614,13 +4614,13 @@
         <v>72.714285714285</v>
       </c>
       <c r="E184" s="2">
-        <v>370311</v>
+        <v>370325</v>
       </c>
       <c r="F184" s="2">
-        <v>3560</v>
+        <v>3561</v>
       </c>
       <c r="G184" s="4">
-        <v>0.023606344494</v>
+        <v>0.023600871702</v>
       </c>
     </row>
     <row r="185" spans="1:7">
@@ -4637,13 +4637,13 @@
         <v>69</v>
       </c>
       <c r="E185" s="2">
-        <v>373838</v>
+        <v>373852</v>
       </c>
       <c r="F185" s="2">
         <v>3527</v>
       </c>
       <c r="G185" s="4">
-        <v>0.022622950819</v>
+        <v>0.022619772397</v>
       </c>
     </row>
     <row r="186" spans="1:7">
@@ -4660,13 +4660,13 @@
         <v>67.142857142857</v>
       </c>
       <c r="E186" s="2">
-        <v>377383</v>
+        <v>377397</v>
       </c>
       <c r="F186" s="2">
         <v>3545</v>
       </c>
       <c r="G186" s="4">
-        <v>0.021776398091</v>
+        <v>0.021775389177</v>
       </c>
     </row>
     <row r="187" spans="1:7">
@@ -4683,13 +4683,13 @@
         <v>65</v>
       </c>
       <c r="E187" s="2">
-        <v>379379</v>
+        <v>379393</v>
       </c>
       <c r="F187" s="2">
         <v>1996</v>
       </c>
       <c r="G187" s="4">
-        <v>0.020960980328</v>
+        <v>0.020960014741</v>
       </c>
     </row>
     <row r="188" spans="1:7">
@@ -4706,13 +4706,13 @@
         <v>67</v>
       </c>
       <c r="E188" s="2">
-        <v>380763</v>
+        <v>380778</v>
       </c>
       <c r="F188" s="2">
-        <v>1384</v>
+        <v>1385</v>
       </c>
       <c r="G188" s="4">
-        <v>0.021355067844</v>
+        <v>0.021353123292</v>
       </c>
     </row>
     <row r="189" spans="1:7">
@@ -4729,13 +4729,13 @@
         <v>61.857142857142</v>
       </c>
       <c r="E189" s="2">
-        <v>385569</v>
+        <v>385587</v>
       </c>
       <c r="F189" s="2">
-        <v>4806</v>
+        <v>4809</v>
       </c>
       <c r="G189" s="4">
-        <v>0.019107718105</v>
+        <v>0.019103503044</v>
       </c>
     </row>
     <row r="190" spans="1:7">
@@ -4752,13 +4752,13 @@
         <v>60.142857142857</v>
       </c>
       <c r="E190" s="2">
-        <v>390229</v>
+        <v>390249</v>
       </c>
       <c r="F190" s="2">
-        <v>4660</v>
+        <v>4662</v>
       </c>
       <c r="G190" s="4">
-        <v>0.017931680722</v>
+        <v>0.017926335959</v>
       </c>
     </row>
     <row r="191" spans="1:7">
@@ -4775,13 +4775,13 @@
         <v>62.428571428571</v>
       </c>
       <c r="E191" s="2">
-        <v>394421</v>
+        <v>394442</v>
       </c>
       <c r="F191" s="2">
-        <v>4192</v>
+        <v>4193</v>
       </c>
       <c r="G191" s="4">
-        <v>0.018125259228</v>
+        <v>0.018119998341</v>
       </c>
     </row>
     <row r="192" spans="1:7">
@@ -4798,13 +4798,13 @@
         <v>66.571428571428</v>
       </c>
       <c r="E192" s="2">
-        <v>398674</v>
+        <v>398695</v>
       </c>
       <c r="F192" s="2">
         <v>4253</v>
       </c>
       <c r="G192" s="4">
-        <v>0.018763085843</v>
+        <v>0.018757798977</v>
       </c>
     </row>
     <row r="193" spans="1:7">
@@ -4821,13 +4821,13 @@
         <v>64</v>
       </c>
       <c r="E193" s="2">
-        <v>402456</v>
+        <v>402481</v>
       </c>
       <c r="F193" s="2">
-        <v>3782</v>
+        <v>3786</v>
       </c>
       <c r="G193" s="4">
-        <v>0.017867825948</v>
+        <v>0.017859990432</v>
       </c>
     </row>
     <row r="194" spans="1:7">
@@ -4844,13 +4844,13 @@
         <v>63.71428571428499</v>
       </c>
       <c r="E194" s="2">
-        <v>404249</v>
+        <v>404275</v>
       </c>
       <c r="F194" s="2">
-        <v>1793</v>
+        <v>1794</v>
       </c>
       <c r="G194" s="4">
-        <v>0.017933252915</v>
+        <v>0.017924604131</v>
       </c>
     </row>
     <row r="195" spans="1:7">
@@ -4867,13 +4867,13 @@
         <v>61.857142857142</v>
       </c>
       <c r="E195" s="2">
-        <v>405583</v>
+        <v>405609</v>
       </c>
       <c r="F195" s="2">
         <v>1334</v>
       </c>
       <c r="G195" s="4">
-        <v>0.01744560838</v>
+        <v>0.017437880069</v>
       </c>
     </row>
     <row r="196" spans="1:7">
@@ -4890,13 +4890,13 @@
         <v>64</v>
       </c>
       <c r="E196" s="2">
-        <v>410105</v>
+        <v>410134</v>
       </c>
       <c r="F196" s="2">
-        <v>4522</v>
+        <v>4525</v>
       </c>
       <c r="G196" s="4">
-        <v>0.018258884903</v>
+        <v>0.018250702733</v>
       </c>
     </row>
     <row r="197" spans="1:7">
@@ -4913,13 +4913,13 @@
         <v>67.85714285714199</v>
       </c>
       <c r="E197" s="2">
-        <v>414616</v>
+        <v>414646</v>
       </c>
       <c r="F197" s="2">
-        <v>4511</v>
+        <v>4512</v>
       </c>
       <c r="G197" s="4">
-        <v>0.019477590519</v>
+        <v>0.019469606918</v>
       </c>
     </row>
     <row r="198" spans="1:7">
@@ -4936,13 +4936,13 @@
         <v>67</v>
       </c>
       <c r="E198" s="2">
-        <v>418840</v>
+        <v>418871</v>
       </c>
       <c r="F198" s="2">
-        <v>4224</v>
+        <v>4225</v>
       </c>
       <c r="G198" s="4">
-        <v>0.019206355706</v>
+        <v>0.019198493593</v>
       </c>
     </row>
     <row r="199" spans="1:7">
@@ -4959,13 +4959,13 @@
         <v>60.857142857142</v>
       </c>
       <c r="E199" s="2">
-        <v>422851</v>
+        <v>422883</v>
       </c>
       <c r="F199" s="2">
-        <v>4011</v>
+        <v>4012</v>
       </c>
       <c r="G199" s="4">
-        <v>0.017620052115</v>
+        <v>0.017612039027</v>
       </c>
     </row>
     <row r="200" spans="1:7">
@@ -4982,13 +4982,13 @@
         <v>60.857142857142</v>
       </c>
       <c r="E200" s="2">
-        <v>426836</v>
+        <v>426873</v>
       </c>
       <c r="F200" s="2">
-        <v>3985</v>
+        <v>3990</v>
       </c>
       <c r="G200" s="4">
-        <v>0.017473338802</v>
+        <v>0.017464742538</v>
       </c>
     </row>
     <row r="201" spans="1:7">
@@ -5005,13 +5005,13 @@
         <v>61.428571428571</v>
       </c>
       <c r="E201" s="2">
-        <v>428736</v>
+        <v>428775</v>
       </c>
       <c r="F201" s="2">
-        <v>1900</v>
+        <v>1902</v>
       </c>
       <c r="G201" s="4">
-        <v>0.017560338138</v>
+        <v>0.017551020408</v>
       </c>
     </row>
     <row r="202" spans="1:7">
@@ -5028,13 +5028,13 @@
         <v>63.142857142857</v>
       </c>
       <c r="E202" s="2">
-        <v>430114</v>
+        <v>430153</v>
       </c>
       <c r="F202" s="2">
         <v>1378</v>
       </c>
       <c r="G202" s="4">
-        <v>0.018018018018</v>
+        <v>0.018008474576</v>
       </c>
     </row>
     <row r="203" spans="1:7">
@@ -5051,13 +5051,13 @@
         <v>62.71428571428499</v>
       </c>
       <c r="E203" s="2">
-        <v>434938</v>
+        <v>434982</v>
       </c>
       <c r="F203" s="2">
-        <v>4824</v>
+        <v>4829</v>
       </c>
       <c r="G203" s="4">
-        <v>0.017678089638</v>
+        <v>0.0176674179</v>
       </c>
     </row>
     <row r="204" spans="1:7">
@@ -5065,22 +5065,22 @@
         <v>44124</v>
       </c>
       <c r="B204" s="2">
-        <v>18622</v>
+        <v>18623</v>
       </c>
       <c r="C204" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D204" s="3">
-        <v>63.428571428571</v>
+        <v>63.57142857142801</v>
       </c>
       <c r="E204" s="2">
-        <v>439718</v>
+        <v>439768</v>
       </c>
       <c r="F204" s="2">
-        <v>4780</v>
+        <v>4786</v>
       </c>
       <c r="G204" s="4">
-        <v>0.017687833638</v>
+        <v>0.017713557837</v>
       </c>
     </row>
     <row r="205" spans="1:7">
@@ -5088,22 +5088,22 @@
         <v>44125</v>
       </c>
       <c r="B205" s="2">
-        <v>18704</v>
+        <v>18707</v>
       </c>
       <c r="C205" s="2">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D205" s="3">
-        <v>65.142857142857</v>
+        <v>65.571428571428</v>
       </c>
       <c r="E205" s="2">
-        <v>443999</v>
+        <v>444078</v>
       </c>
       <c r="F205" s="2">
-        <v>4281</v>
+        <v>4310</v>
       </c>
       <c r="G205" s="4">
-        <v>0.018124726737</v>
+        <v>0.018209227595</v>
       </c>
     </row>
     <row r="206" spans="1:7">
@@ -5111,22 +5111,22 @@
         <v>44126</v>
       </c>
       <c r="B206" s="2">
-        <v>18767</v>
+        <v>18770</v>
       </c>
       <c r="C206" s="2">
         <v>63</v>
       </c>
       <c r="D206" s="3">
-        <v>66.85714285714199</v>
+        <v>67.28571428571399</v>
       </c>
       <c r="E206" s="2">
-        <v>447898</v>
+        <v>447999</v>
       </c>
       <c r="F206" s="2">
-        <v>3899</v>
+        <v>3921</v>
       </c>
       <c r="G206" s="4">
-        <v>0.018684872439</v>
+        <v>0.018752986144</v>
       </c>
     </row>
     <row r="207" spans="1:7">
@@ -5134,22 +5134,22 @@
         <v>44127</v>
       </c>
       <c r="B207" s="2">
-        <v>18851</v>
+        <v>18855</v>
       </c>
       <c r="C207" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D207" s="3">
-        <v>70.571428571428</v>
+        <v>71.142857142857</v>
       </c>
       <c r="E207" s="2">
-        <v>451691</v>
+        <v>451808</v>
       </c>
       <c r="F207" s="2">
-        <v>3793</v>
+        <v>3809</v>
       </c>
       <c r="G207" s="4">
-        <v>0.019875276604</v>
+        <v>0.01997192701</v>
       </c>
     </row>
     <row r="208" spans="1:7">
@@ -5157,22 +5157,22 @@
         <v>44128</v>
       </c>
       <c r="B208" s="2">
-        <v>18905</v>
+        <v>18912</v>
       </c>
       <c r="C208" s="2">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="D208" s="3">
-        <v>71.85714285714199</v>
+        <v>72.85714285714199</v>
       </c>
       <c r="E208" s="2">
-        <v>453624</v>
+        <v>453759</v>
       </c>
       <c r="F208" s="2">
-        <v>1933</v>
+        <v>1951</v>
       </c>
       <c r="G208" s="4">
-        <v>0.020210543233</v>
+        <v>0.020413064361</v>
       </c>
     </row>
     <row r="209" spans="1:7">
@@ -5180,22 +5180,22 @@
         <v>44129</v>
       </c>
       <c r="B209" s="2">
-        <v>18938</v>
+        <v>18951</v>
       </c>
       <c r="C209" s="2">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="D209" s="3">
-        <v>71.428571428571</v>
+        <v>73.28571428571399</v>
       </c>
       <c r="E209" s="2">
-        <v>455215</v>
+        <v>455358</v>
       </c>
       <c r="F209" s="2">
-        <v>1591</v>
+        <v>1599</v>
       </c>
       <c r="G209" s="4">
-        <v>0.019919525118</v>
+        <v>0.020353104542</v>
       </c>
     </row>
     <row r="210" spans="1:7">
@@ -5203,22 +5203,45 @@
         <v>44130</v>
       </c>
       <c r="B210" s="2">
-        <v>19047</v>
+        <v>19066</v>
       </c>
       <c r="C210" s="2">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="D210" s="3">
-        <v>74.28571428571399</v>
+        <v>77</v>
       </c>
       <c r="E210" s="2">
-        <v>460081</v>
+        <v>460247</v>
       </c>
       <c r="F210" s="2">
-        <v>4866</v>
+        <v>4889</v>
       </c>
       <c r="G210" s="4">
-        <v>0.020681700672</v>
+        <v>0.021333861072</v>
+      </c>
+    </row>
+    <row r="211" spans="1:7">
+      <c r="A211" s="1">
+        <v>44131</v>
+      </c>
+      <c r="B211" s="2">
+        <v>19169</v>
+      </c>
+      <c r="C211" s="2">
+        <v>103</v>
+      </c>
+      <c r="D211" s="3">
+        <v>78</v>
+      </c>
+      <c r="E211" s="2">
+        <v>465406</v>
+      </c>
+      <c r="F211" s="2">
+        <v>5159</v>
+      </c>
+      <c r="G211" s="4">
+        <v>0.021296512988</v>
       </c>
     </row>
   </sheetData>

--- a/contra_costa_county_testing.xlsx
+++ b/contra_costa_county_testing.xlsx
@@ -376,7 +376,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G211"/>
+  <dimension ref="A1:G212"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -934,13 +934,13 @@
         <v>12.714285714285</v>
       </c>
       <c r="E24" s="2">
-        <v>12927</v>
+        <v>12926</v>
       </c>
       <c r="F24" s="2">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="G24" s="4">
-        <v>0.035628502802</v>
+        <v>0.035642771325</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -957,13 +957,13 @@
         <v>14</v>
       </c>
       <c r="E25" s="2">
-        <v>13492</v>
+        <v>13491</v>
       </c>
       <c r="F25" s="2">
         <v>565</v>
       </c>
       <c r="G25" s="4">
-        <v>0.036069193963</v>
+        <v>0.036082474226</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -980,13 +980,13 @@
         <v>13.714285714285</v>
       </c>
       <c r="E26" s="2">
-        <v>13723</v>
+        <v>13722</v>
       </c>
       <c r="F26" s="2">
         <v>231</v>
       </c>
       <c r="G26" s="4">
-        <v>0.034371643394</v>
+        <v>0.034383954154</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -1003,13 +1003,13 @@
         <v>14.285714285714</v>
       </c>
       <c r="E27" s="2">
-        <v>13953</v>
+        <v>13952</v>
       </c>
       <c r="F27" s="2">
         <v>230</v>
       </c>
       <c r="G27" s="4">
-        <v>0.034770514603</v>
+        <v>0.034782608695</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -1026,13 +1026,13 @@
         <v>15.428571428571</v>
       </c>
       <c r="E28" s="2">
-        <v>14554</v>
+        <v>14553</v>
       </c>
       <c r="F28" s="2">
         <v>601</v>
       </c>
       <c r="G28" s="4">
-        <v>0.034726688102</v>
+        <v>0.034737857832</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -1049,13 +1049,13 @@
         <v>15.285714285714</v>
       </c>
       <c r="E29" s="2">
-        <v>15093</v>
+        <v>15092</v>
       </c>
       <c r="F29" s="2">
         <v>539</v>
       </c>
       <c r="G29" s="4">
-        <v>0.032983970406</v>
+        <v>0.032994141227</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -1072,13 +1072,13 @@
         <v>15.857142857142</v>
       </c>
       <c r="E30" s="2">
-        <v>15790</v>
+        <v>15789</v>
       </c>
       <c r="F30" s="2">
         <v>697</v>
       </c>
       <c r="G30" s="4">
-        <v>0.032446653025</v>
+        <v>0.03245614035</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -1095,7 +1095,7 @@
         <v>16.857142857142</v>
       </c>
       <c r="E31" s="2">
-        <v>16636</v>
+        <v>16635</v>
       </c>
       <c r="F31" s="2">
         <v>846</v>
@@ -1118,7 +1118,7 @@
         <v>15.285714285714</v>
       </c>
       <c r="E32" s="2">
-        <v>17367</v>
+        <v>17366</v>
       </c>
       <c r="F32" s="2">
         <v>731</v>
@@ -1141,7 +1141,7 @@
         <v>15.857142857142</v>
       </c>
       <c r="E33" s="2">
-        <v>17655</v>
+        <v>17654</v>
       </c>
       <c r="F33" s="2">
         <v>288</v>
@@ -1164,7 +1164,7 @@
         <v>14.857142857142</v>
       </c>
       <c r="E34" s="2">
-        <v>17919</v>
+        <v>17918</v>
       </c>
       <c r="F34" s="2">
         <v>264</v>
@@ -1187,7 +1187,7 @@
         <v>15.285714285714</v>
       </c>
       <c r="E35" s="2">
-        <v>18697</v>
+        <v>18696</v>
       </c>
       <c r="F35" s="2">
         <v>778</v>
@@ -1210,7 +1210,7 @@
         <v>15.428571428571</v>
       </c>
       <c r="E36" s="2">
-        <v>19376</v>
+        <v>19375</v>
       </c>
       <c r="F36" s="2">
         <v>679</v>
@@ -1233,7 +1233,7 @@
         <v>16.428571428571</v>
       </c>
       <c r="E37" s="2">
-        <v>20341</v>
+        <v>20340</v>
       </c>
       <c r="F37" s="2">
         <v>965</v>
@@ -1256,7 +1256,7 @@
         <v>14.428571428571</v>
       </c>
       <c r="E38" s="2">
-        <v>21238</v>
+        <v>21237</v>
       </c>
       <c r="F38" s="2">
         <v>897</v>
@@ -1279,7 +1279,7 @@
         <v>15.285714285714</v>
       </c>
       <c r="E39" s="2">
-        <v>22378</v>
+        <v>22377</v>
       </c>
       <c r="F39" s="2">
         <v>1140</v>
@@ -1302,7 +1302,7 @@
         <v>14.714285714285</v>
       </c>
       <c r="E40" s="2">
-        <v>22760</v>
+        <v>22759</v>
       </c>
       <c r="F40" s="2">
         <v>382</v>
@@ -1325,7 +1325,7 @@
         <v>15.142857142857</v>
       </c>
       <c r="E41" s="2">
-        <v>23103</v>
+        <v>23102</v>
       </c>
       <c r="F41" s="2">
         <v>343</v>
@@ -1348,7 +1348,7 @@
         <v>13</v>
       </c>
       <c r="E42" s="2">
-        <v>24206</v>
+        <v>24205</v>
       </c>
       <c r="F42" s="2">
         <v>1103</v>
@@ -1371,7 +1371,7 @@
         <v>12.285714285714</v>
       </c>
       <c r="E43" s="2">
-        <v>25437</v>
+        <v>25436</v>
       </c>
       <c r="F43" s="2">
         <v>1231</v>
@@ -1394,7 +1394,7 @@
         <v>12.857142857142</v>
       </c>
       <c r="E44" s="2">
-        <v>26530</v>
+        <v>26529</v>
       </c>
       <c r="F44" s="2">
         <v>1093</v>
@@ -1417,7 +1417,7 @@
         <v>14</v>
       </c>
       <c r="E45" s="2">
-        <v>27391</v>
+        <v>27390</v>
       </c>
       <c r="F45" s="2">
         <v>861</v>
@@ -1440,7 +1440,7 @@
         <v>15.714285714285</v>
       </c>
       <c r="E46" s="2">
-        <v>28310</v>
+        <v>28309</v>
       </c>
       <c r="F46" s="2">
         <v>919</v>
@@ -1463,7 +1463,7 @@
         <v>17.571428571428</v>
       </c>
       <c r="E47" s="2">
-        <v>28720</v>
+        <v>28719</v>
       </c>
       <c r="F47" s="2">
         <v>410</v>
@@ -1486,13 +1486,13 @@
         <v>18</v>
       </c>
       <c r="E48" s="2">
-        <v>29105</v>
+        <v>29103</v>
       </c>
       <c r="F48" s="2">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="G48" s="4">
-        <v>0.020993002332</v>
+        <v>0.020996500583</v>
       </c>
     </row>
     <row r="49" spans="1:7">
@@ -1509,10 +1509,10 @@
         <v>22.428571428571</v>
       </c>
       <c r="E49" s="2">
-        <v>30469</v>
+        <v>30468</v>
       </c>
       <c r="F49" s="2">
-        <v>1364</v>
+        <v>1365</v>
       </c>
       <c r="G49" s="4">
         <v>0.025067858853</v>
@@ -1532,13 +1532,13 @@
         <v>25.714285714285</v>
       </c>
       <c r="E50" s="2">
-        <v>32128</v>
+        <v>32126</v>
       </c>
       <c r="F50" s="2">
-        <v>1659</v>
+        <v>1658</v>
       </c>
       <c r="G50" s="4">
-        <v>0.026901808399</v>
+        <v>0.026905829596</v>
       </c>
     </row>
     <row r="51" spans="1:7">
@@ -1555,13 +1555,13 @@
         <v>26.142857142857</v>
       </c>
       <c r="E51" s="2">
-        <v>33269</v>
+        <v>33267</v>
       </c>
       <c r="F51" s="2">
         <v>1141</v>
       </c>
       <c r="G51" s="4">
-        <v>0.027155364297</v>
+        <v>0.027159394479</v>
       </c>
     </row>
     <row r="52" spans="1:7">
@@ -1578,13 +1578,13 @@
         <v>27.428571428571</v>
       </c>
       <c r="E52" s="2">
-        <v>34400</v>
+        <v>34398</v>
       </c>
       <c r="F52" s="2">
         <v>1131</v>
       </c>
       <c r="G52" s="4">
-        <v>0.027393351405</v>
+        <v>0.027397260273</v>
       </c>
     </row>
     <row r="53" spans="1:7">
@@ -1601,13 +1601,13 @@
         <v>29.142857142857</v>
       </c>
       <c r="E53" s="2">
-        <v>35489</v>
+        <v>35487</v>
       </c>
       <c r="F53" s="2">
         <v>1089</v>
       </c>
       <c r="G53" s="4">
-        <v>0.028416213957</v>
+        <v>0.02842017275</v>
       </c>
     </row>
     <row r="54" spans="1:7">
@@ -1624,13 +1624,13 @@
         <v>28</v>
       </c>
       <c r="E54" s="2">
-        <v>36008</v>
+        <v>36006</v>
       </c>
       <c r="F54" s="2">
         <v>519</v>
       </c>
       <c r="G54" s="4">
-        <v>0.0268935236</v>
+        <v>0.026897214217</v>
       </c>
     </row>
     <row r="55" spans="1:7">
@@ -1647,13 +1647,13 @@
         <v>27.571428571428</v>
       </c>
       <c r="E55" s="2">
-        <v>36399</v>
+        <v>36396</v>
       </c>
       <c r="F55" s="2">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="G55" s="4">
-        <v>0.026460104195</v>
+        <v>0.026463732346</v>
       </c>
     </row>
     <row r="56" spans="1:7">
@@ -1670,13 +1670,13 @@
         <v>23.285714285714</v>
       </c>
       <c r="E56" s="2">
-        <v>36860</v>
+        <v>36857</v>
       </c>
       <c r="F56" s="2">
         <v>461</v>
       </c>
       <c r="G56" s="4">
-        <v>0.025504615866</v>
+        <v>0.02551259978</v>
       </c>
     </row>
     <row r="57" spans="1:7">
@@ -1693,13 +1693,13 @@
         <v>23.714285714285</v>
       </c>
       <c r="E57" s="2">
-        <v>38057</v>
+        <v>38054</v>
       </c>
       <c r="F57" s="2">
         <v>1197</v>
       </c>
       <c r="G57" s="4">
-        <v>0.027997976049</v>
+        <v>0.028002699055</v>
       </c>
     </row>
     <row r="58" spans="1:7">
@@ -1716,13 +1716,13 @@
         <v>23.714285714285</v>
       </c>
       <c r="E58" s="2">
-        <v>39163</v>
+        <v>39160</v>
       </c>
       <c r="F58" s="2">
         <v>1106</v>
       </c>
       <c r="G58" s="4">
-        <v>0.028164234815</v>
+        <v>0.028169014084</v>
       </c>
     </row>
     <row r="59" spans="1:7">
@@ -1739,13 +1739,13 @@
         <v>26.285714285714</v>
       </c>
       <c r="E59" s="2">
-        <v>40299</v>
+        <v>40296</v>
       </c>
       <c r="F59" s="2">
         <v>1136</v>
       </c>
       <c r="G59" s="4">
-        <v>0.031191727411</v>
+        <v>0.031197015937</v>
       </c>
     </row>
     <row r="60" spans="1:7">
@@ -1762,13 +1762,13 @@
         <v>26.285714285714</v>
       </c>
       <c r="E60" s="2">
-        <v>41700</v>
+        <v>41697</v>
       </c>
       <c r="F60" s="2">
         <v>1401</v>
       </c>
       <c r="G60" s="4">
-        <v>0.02962485912</v>
+        <v>0.029629629629</v>
       </c>
     </row>
     <row r="61" spans="1:7">
@@ -1785,13 +1785,13 @@
         <v>26</v>
       </c>
       <c r="E61" s="2">
-        <v>42434</v>
+        <v>42431</v>
       </c>
       <c r="F61" s="2">
         <v>734</v>
       </c>
       <c r="G61" s="4">
-        <v>0.028322440087</v>
+        <v>0.028326848249</v>
       </c>
     </row>
     <row r="62" spans="1:7">
@@ -1808,7 +1808,7 @@
         <v>25.714285714285</v>
       </c>
       <c r="E62" s="2">
-        <v>42830</v>
+        <v>42827</v>
       </c>
       <c r="F62" s="2">
         <v>396</v>
@@ -1831,7 +1831,7 @@
         <v>29</v>
       </c>
       <c r="E63" s="2">
-        <v>44204</v>
+        <v>44201</v>
       </c>
       <c r="F63" s="2">
         <v>1374</v>
@@ -1854,7 +1854,7 @@
         <v>28</v>
       </c>
       <c r="E64" s="2">
-        <v>45421</v>
+        <v>45418</v>
       </c>
       <c r="F64" s="2">
         <v>1217</v>
@@ -1877,7 +1877,7 @@
         <v>27.571428571428</v>
       </c>
       <c r="E65" s="2">
-        <v>46584</v>
+        <v>46581</v>
       </c>
       <c r="F65" s="2">
         <v>1163</v>
@@ -1900,7 +1900,7 @@
         <v>28.285714285714</v>
       </c>
       <c r="E66" s="2">
-        <v>47934</v>
+        <v>47931</v>
       </c>
       <c r="F66" s="2">
         <v>1350</v>
@@ -1923,7 +1923,7 @@
         <v>29.285714285714</v>
       </c>
       <c r="E67" s="2">
-        <v>49564</v>
+        <v>49561</v>
       </c>
       <c r="F67" s="2">
         <v>1630</v>
@@ -1946,7 +1946,7 @@
         <v>30.571428571428</v>
       </c>
       <c r="E68" s="2">
-        <v>50169</v>
+        <v>50166</v>
       </c>
       <c r="F68" s="2">
         <v>605</v>
@@ -1969,7 +1969,7 @@
         <v>32.428571428571</v>
       </c>
       <c r="E69" s="2">
-        <v>50653</v>
+        <v>50650</v>
       </c>
       <c r="F69" s="2">
         <v>484</v>
@@ -1992,7 +1992,7 @@
         <v>34.714285714285</v>
       </c>
       <c r="E70" s="2">
-        <v>52488</v>
+        <v>52485</v>
       </c>
       <c r="F70" s="2">
         <v>1835</v>
@@ -2015,7 +2015,7 @@
         <v>36.428571428571</v>
       </c>
       <c r="E71" s="2">
-        <v>54334</v>
+        <v>54331</v>
       </c>
       <c r="F71" s="2">
         <v>1846</v>
@@ -2029,22 +2029,22 @@
         <v>43992</v>
       </c>
       <c r="B72" s="2">
-        <v>1956</v>
+        <v>1957</v>
       </c>
       <c r="C72" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D72" s="3">
-        <v>40</v>
+        <v>40.142857142857</v>
       </c>
       <c r="E72" s="2">
-        <v>56325</v>
+        <v>56323</v>
       </c>
       <c r="F72" s="2">
-        <v>1991</v>
+        <v>1992</v>
       </c>
       <c r="G72" s="4">
-        <v>0.028744482086</v>
+        <v>0.028844179839</v>
       </c>
     </row>
     <row r="73" spans="1:7">
@@ -2052,22 +2052,22 @@
         <v>43993</v>
       </c>
       <c r="B73" s="2">
-        <v>2010</v>
+        <v>2011</v>
       </c>
       <c r="C73" s="2">
         <v>54</v>
       </c>
       <c r="D73" s="3">
-        <v>40.285714285714</v>
+        <v>40.428571428571</v>
       </c>
       <c r="E73" s="2">
-        <v>58480</v>
+        <v>58478</v>
       </c>
       <c r="F73" s="2">
         <v>2155</v>
       </c>
       <c r="G73" s="4">
-        <v>0.026739996207</v>
+        <v>0.02683227458</v>
       </c>
     </row>
     <row r="74" spans="1:7">
@@ -2075,22 +2075,22 @@
         <v>43994</v>
       </c>
       <c r="B74" s="2">
-        <v>2068</v>
+        <v>2069</v>
       </c>
       <c r="C74" s="2">
         <v>58</v>
       </c>
       <c r="D74" s="3">
-        <v>41.857142857142</v>
+        <v>42</v>
       </c>
       <c r="E74" s="2">
-        <v>60741</v>
+        <v>60739</v>
       </c>
       <c r="F74" s="2">
         <v>2261</v>
       </c>
       <c r="G74" s="4">
-        <v>0.026214547731</v>
+        <v>0.026301663982</v>
       </c>
     </row>
     <row r="75" spans="1:7">
@@ -2098,22 +2098,22 @@
         <v>43995</v>
       </c>
       <c r="B75" s="2">
-        <v>2102</v>
+        <v>2103</v>
       </c>
       <c r="C75" s="2">
         <v>34</v>
       </c>
       <c r="D75" s="3">
-        <v>44.142857142857</v>
+        <v>44.285714285714</v>
       </c>
       <c r="E75" s="2">
-        <v>61585</v>
+        <v>61583</v>
       </c>
       <c r="F75" s="2">
         <v>844</v>
       </c>
       <c r="G75" s="4">
-        <v>0.027067274001</v>
+        <v>0.027152491898</v>
       </c>
     </row>
     <row r="76" spans="1:7">
@@ -2121,22 +2121,22 @@
         <v>43996</v>
       </c>
       <c r="B76" s="2">
-        <v>2129</v>
+        <v>2130</v>
       </c>
       <c r="C76" s="2">
         <v>27</v>
       </c>
       <c r="D76" s="3">
-        <v>45.428571428571</v>
+        <v>45.571428571428</v>
       </c>
       <c r="E76" s="2">
-        <v>62172</v>
+        <v>62170</v>
       </c>
       <c r="F76" s="2">
         <v>587</v>
       </c>
       <c r="G76" s="4">
-        <v>0.027606563069</v>
+        <v>0.027690972222</v>
       </c>
     </row>
     <row r="77" spans="1:7">
@@ -2144,22 +2144,22 @@
         <v>43997</v>
       </c>
       <c r="B77" s="2">
-        <v>2186</v>
+        <v>2187</v>
       </c>
       <c r="C77" s="2">
         <v>57</v>
       </c>
       <c r="D77" s="3">
-        <v>46.714285714285</v>
+        <v>46.857142857142</v>
       </c>
       <c r="E77" s="2">
-        <v>64393</v>
+        <v>64391</v>
       </c>
       <c r="F77" s="2">
         <v>2221</v>
       </c>
       <c r="G77" s="4">
-        <v>0.02746745065</v>
+        <v>0.027549134889</v>
       </c>
     </row>
     <row r="78" spans="1:7">
@@ -2167,22 +2167,22 @@
         <v>43998</v>
       </c>
       <c r="B78" s="2">
-        <v>2270</v>
+        <v>2271</v>
       </c>
       <c r="C78" s="2">
         <v>84</v>
       </c>
       <c r="D78" s="3">
-        <v>52.571428571428</v>
+        <v>52.714285714285</v>
       </c>
       <c r="E78" s="2">
-        <v>66924</v>
+        <v>66922</v>
       </c>
       <c r="F78" s="2">
         <v>2531</v>
       </c>
       <c r="G78" s="4">
-        <v>0.029229547259</v>
+        <v>0.029306647605</v>
       </c>
     </row>
     <row r="79" spans="1:7">
@@ -2190,7 +2190,7 @@
         <v>43999</v>
       </c>
       <c r="B79" s="2">
-        <v>2357</v>
+        <v>2358</v>
       </c>
       <c r="C79" s="2">
         <v>87</v>
@@ -2199,7 +2199,7 @@
         <v>57.285714285714</v>
       </c>
       <c r="E79" s="2">
-        <v>69499</v>
+        <v>69497</v>
       </c>
       <c r="F79" s="2">
         <v>2575</v>
@@ -2213,7 +2213,7 @@
         <v>44000</v>
       </c>
       <c r="B80" s="2">
-        <v>2448</v>
+        <v>2449</v>
       </c>
       <c r="C80" s="2">
         <v>91</v>
@@ -2222,7 +2222,7 @@
         <v>62.57142857142801</v>
       </c>
       <c r="E80" s="2">
-        <v>72031</v>
+        <v>72029</v>
       </c>
       <c r="F80" s="2">
         <v>2532</v>
@@ -2236,22 +2236,22 @@
         <v>44001</v>
       </c>
       <c r="B81" s="2">
-        <v>2550</v>
+        <v>2553</v>
       </c>
       <c r="C81" s="2">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="D81" s="3">
-        <v>68.85714285714199</v>
+        <v>69.142857142857</v>
       </c>
       <c r="E81" s="2">
         <v>74474</v>
       </c>
       <c r="F81" s="2">
-        <v>2443</v>
+        <v>2445</v>
       </c>
       <c r="G81" s="4">
-        <v>0.03509793927</v>
+        <v>0.035238441936</v>
       </c>
     </row>
     <row r="82" spans="1:7">
@@ -2259,22 +2259,22 @@
         <v>44002</v>
       </c>
       <c r="B82" s="2">
-        <v>2602</v>
+        <v>2606</v>
       </c>
       <c r="C82" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D82" s="3">
-        <v>71.428571428571</v>
+        <v>71.85714285714199</v>
       </c>
       <c r="E82" s="2">
-        <v>75427</v>
+        <v>75428</v>
       </c>
       <c r="F82" s="2">
-        <v>953</v>
+        <v>954</v>
       </c>
       <c r="G82" s="4">
-        <v>0.036121947695</v>
+        <v>0.036330805344</v>
       </c>
     </row>
     <row r="83" spans="1:7">
@@ -2282,22 +2282,22 @@
         <v>44003</v>
       </c>
       <c r="B83" s="2">
-        <v>2642</v>
+        <v>2646</v>
       </c>
       <c r="C83" s="2">
         <v>40</v>
       </c>
       <c r="D83" s="3">
-        <v>73.28571428571399</v>
+        <v>73.714285714285</v>
       </c>
       <c r="E83" s="2">
-        <v>76125</v>
+        <v>76126</v>
       </c>
       <c r="F83" s="2">
         <v>698</v>
       </c>
       <c r="G83" s="4">
-        <v>0.03676628682</v>
+        <v>0.036973344797</v>
       </c>
     </row>
     <row r="84" spans="1:7">
@@ -2305,22 +2305,22 @@
         <v>44004</v>
       </c>
       <c r="B84" s="2">
-        <v>2753</v>
+        <v>2757</v>
       </c>
       <c r="C84" s="2">
         <v>111</v>
       </c>
       <c r="D84" s="3">
-        <v>81</v>
+        <v>81.428571428571</v>
       </c>
       <c r="E84" s="2">
-        <v>78743</v>
+        <v>78744</v>
       </c>
       <c r="F84" s="2">
         <v>2618</v>
       </c>
       <c r="G84" s="4">
-        <v>0.039512195121</v>
+        <v>0.039712951996</v>
       </c>
     </row>
     <row r="85" spans="1:7">
@@ -2328,22 +2328,22 @@
         <v>44005</v>
       </c>
       <c r="B85" s="2">
-        <v>2886</v>
+        <v>2890</v>
       </c>
       <c r="C85" s="2">
         <v>133</v>
       </c>
       <c r="D85" s="3">
-        <v>88</v>
+        <v>88.428571428571</v>
       </c>
       <c r="E85" s="2">
-        <v>81528</v>
+        <v>81529</v>
       </c>
       <c r="F85" s="2">
         <v>2785</v>
       </c>
       <c r="G85" s="4">
-        <v>0.042180224596</v>
+        <v>0.042376942561</v>
       </c>
     </row>
     <row r="86" spans="1:7">
@@ -2351,22 +2351,22 @@
         <v>44006</v>
       </c>
       <c r="B86" s="2">
-        <v>3029</v>
+        <v>3033</v>
       </c>
       <c r="C86" s="2">
         <v>143</v>
       </c>
       <c r="D86" s="3">
-        <v>96</v>
+        <v>96.428571428571</v>
       </c>
       <c r="E86" s="2">
-        <v>84564</v>
+        <v>84565</v>
       </c>
       <c r="F86" s="2">
         <v>3036</v>
       </c>
       <c r="G86" s="4">
-        <v>0.044606704281</v>
+        <v>0.044796920626</v>
       </c>
     </row>
     <row r="87" spans="1:7">
@@ -2374,22 +2374,22 @@
         <v>44007</v>
       </c>
       <c r="B87" s="2">
-        <v>3181</v>
+        <v>3185</v>
       </c>
       <c r="C87" s="2">
         <v>152</v>
       </c>
       <c r="D87" s="3">
-        <v>104.714285714285</v>
+        <v>105.142857142857</v>
       </c>
       <c r="E87" s="2">
-        <v>87931</v>
+        <v>87932</v>
       </c>
       <c r="F87" s="2">
         <v>3367</v>
       </c>
       <c r="G87" s="4">
-        <v>0.04610062893</v>
+        <v>0.046280575991</v>
       </c>
     </row>
     <row r="88" spans="1:7">
@@ -2397,22 +2397,22 @@
         <v>44008</v>
       </c>
       <c r="B88" s="2">
-        <v>3351</v>
+        <v>3355</v>
       </c>
       <c r="C88" s="2">
         <v>170</v>
       </c>
       <c r="D88" s="3">
-        <v>114.428571428571</v>
+        <v>114.571428571428</v>
       </c>
       <c r="E88" s="2">
-        <v>90901</v>
+        <v>90902</v>
       </c>
       <c r="F88" s="2">
         <v>2970</v>
       </c>
       <c r="G88" s="4">
-        <v>0.048761185852</v>
+        <v>0.048819089359</v>
       </c>
     </row>
     <row r="89" spans="1:7">
@@ -2420,7 +2420,7 @@
         <v>44009</v>
       </c>
       <c r="B89" s="2">
-        <v>3431</v>
+        <v>3435</v>
       </c>
       <c r="C89" s="2">
         <v>80</v>
@@ -2429,7 +2429,7 @@
         <v>118.428571428571</v>
       </c>
       <c r="E89" s="2">
-        <v>91975</v>
+        <v>91976</v>
       </c>
       <c r="F89" s="2">
         <v>1074</v>
@@ -2443,7 +2443,7 @@
         <v>44010</v>
       </c>
       <c r="B90" s="2">
-        <v>3490</v>
+        <v>3494</v>
       </c>
       <c r="C90" s="2">
         <v>59</v>
@@ -2452,7 +2452,7 @@
         <v>121.142857142857</v>
       </c>
       <c r="E90" s="2">
-        <v>92771</v>
+        <v>92772</v>
       </c>
       <c r="F90" s="2">
         <v>796</v>
@@ -2466,7 +2466,7 @@
         <v>44011</v>
       </c>
       <c r="B91" s="2">
-        <v>3687</v>
+        <v>3691</v>
       </c>
       <c r="C91" s="2">
         <v>197</v>
@@ -2475,7 +2475,7 @@
         <v>133.428571428571</v>
       </c>
       <c r="E91" s="2">
-        <v>96454</v>
+        <v>96455</v>
       </c>
       <c r="F91" s="2">
         <v>3683</v>
@@ -2489,7 +2489,7 @@
         <v>44012</v>
       </c>
       <c r="B92" s="2">
-        <v>3845</v>
+        <v>3849</v>
       </c>
       <c r="C92" s="2">
         <v>158</v>
@@ -2498,7 +2498,7 @@
         <v>137</v>
       </c>
       <c r="E92" s="2">
-        <v>99939</v>
+        <v>99940</v>
       </c>
       <c r="F92" s="2">
         <v>3485</v>
@@ -2512,22 +2512,22 @@
         <v>44013</v>
       </c>
       <c r="B93" s="2">
-        <v>4018</v>
+        <v>4023</v>
       </c>
       <c r="C93" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D93" s="3">
-        <v>141.285714285714</v>
+        <v>141.428571428571</v>
       </c>
       <c r="E93" s="2">
-        <v>103482</v>
+        <v>103484</v>
       </c>
       <c r="F93" s="2">
-        <v>3543</v>
+        <v>3544</v>
       </c>
       <c r="G93" s="4">
-        <v>0.052278253515</v>
+        <v>0.052328347164</v>
       </c>
     </row>
     <row r="94" spans="1:7">
@@ -2535,22 +2535,22 @@
         <v>44014</v>
       </c>
       <c r="B94" s="2">
-        <v>4230</v>
+        <v>4236</v>
       </c>
       <c r="C94" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D94" s="3">
-        <v>149.857142857142</v>
+        <v>150.142857142857</v>
       </c>
       <c r="E94" s="2">
-        <v>107406</v>
+        <v>107409</v>
       </c>
       <c r="F94" s="2">
-        <v>3924</v>
+        <v>3925</v>
       </c>
       <c r="G94" s="4">
-        <v>0.053863928112</v>
+        <v>0.053961082302</v>
       </c>
     </row>
     <row r="95" spans="1:7">
@@ -2558,22 +2558,22 @@
         <v>44015</v>
       </c>
       <c r="B95" s="2">
-        <v>4374</v>
+        <v>4380</v>
       </c>
       <c r="C95" s="2">
         <v>144</v>
       </c>
       <c r="D95" s="3">
-        <v>146.142857142857</v>
+        <v>146.428571428571</v>
       </c>
       <c r="E95" s="2">
-        <v>110047</v>
+        <v>110051</v>
       </c>
       <c r="F95" s="2">
-        <v>2641</v>
+        <v>2642</v>
       </c>
       <c r="G95" s="4">
-        <v>0.053431526167</v>
+        <v>0.053527599352</v>
       </c>
     </row>
     <row r="96" spans="1:7">
@@ -2581,22 +2581,22 @@
         <v>44016</v>
       </c>
       <c r="B96" s="2">
-        <v>4467</v>
+        <v>4473</v>
       </c>
       <c r="C96" s="2">
         <v>93</v>
       </c>
       <c r="D96" s="3">
-        <v>148</v>
+        <v>148.285714285714</v>
       </c>
       <c r="E96" s="2">
-        <v>111165</v>
+        <v>111169</v>
       </c>
       <c r="F96" s="2">
         <v>1118</v>
       </c>
       <c r="G96" s="4">
-        <v>0.053986451276</v>
+        <v>0.054082217475</v>
       </c>
     </row>
     <row r="97" spans="1:7">
@@ -2604,22 +2604,22 @@
         <v>44017</v>
       </c>
       <c r="B97" s="2">
-        <v>4553</v>
+        <v>4559</v>
       </c>
       <c r="C97" s="2">
         <v>86</v>
       </c>
       <c r="D97" s="3">
-        <v>151.857142857142</v>
+        <v>152.142857142857</v>
       </c>
       <c r="E97" s="2">
-        <v>112294</v>
+        <v>112298</v>
       </c>
       <c r="F97" s="2">
         <v>1129</v>
       </c>
       <c r="G97" s="4">
-        <v>0.054448599088</v>
+        <v>0.054542661067</v>
       </c>
     </row>
     <row r="98" spans="1:7">
@@ -2627,22 +2627,22 @@
         <v>44018</v>
       </c>
       <c r="B98" s="2">
-        <v>4757</v>
+        <v>4763</v>
       </c>
       <c r="C98" s="2">
         <v>204</v>
       </c>
       <c r="D98" s="3">
-        <v>152.857142857142</v>
+        <v>153.142857142857</v>
       </c>
       <c r="E98" s="2">
-        <v>116377</v>
+        <v>116381</v>
       </c>
       <c r="F98" s="2">
         <v>4083</v>
       </c>
       <c r="G98" s="4">
-        <v>0.053706771068</v>
+        <v>0.053799056509</v>
       </c>
     </row>
     <row r="99" spans="1:7">
@@ -2650,22 +2650,22 @@
         <v>44019</v>
       </c>
       <c r="B99" s="2">
-        <v>4973</v>
+        <v>4979</v>
       </c>
       <c r="C99" s="2">
         <v>216</v>
       </c>
       <c r="D99" s="3">
-        <v>161.142857142857</v>
+        <v>161.428571428571</v>
       </c>
       <c r="E99" s="2">
-        <v>120461</v>
+        <v>120465</v>
       </c>
       <c r="F99" s="2">
         <v>4084</v>
       </c>
       <c r="G99" s="4">
-        <v>0.054965402982</v>
+        <v>0.055054811205</v>
       </c>
     </row>
     <row r="100" spans="1:7">
@@ -2673,22 +2673,22 @@
         <v>44020</v>
       </c>
       <c r="B100" s="2">
-        <v>5198</v>
+        <v>5204</v>
       </c>
       <c r="C100" s="2">
         <v>225</v>
       </c>
       <c r="D100" s="3">
-        <v>168.571428571428</v>
+        <v>168.714285714285</v>
       </c>
       <c r="E100" s="2">
-        <v>124725</v>
+        <v>124729</v>
       </c>
       <c r="F100" s="2">
         <v>4264</v>
       </c>
       <c r="G100" s="4">
-        <v>0.055547709833</v>
+        <v>0.055589550482</v>
       </c>
     </row>
     <row r="101" spans="1:7">
@@ -2696,22 +2696,22 @@
         <v>44021</v>
       </c>
       <c r="B101" s="2">
-        <v>5450</v>
+        <v>5458</v>
       </c>
       <c r="C101" s="2">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="D101" s="3">
-        <v>174.285714285714</v>
+        <v>174.571428571428</v>
       </c>
       <c r="E101" s="2">
-        <v>129328</v>
+        <v>129334</v>
       </c>
       <c r="F101" s="2">
-        <v>4603</v>
+        <v>4605</v>
       </c>
       <c r="G101" s="4">
-        <v>0.055651856582</v>
+        <v>0.055735461801</v>
       </c>
     </row>
     <row r="102" spans="1:7">
@@ -2719,22 +2719,22 @@
         <v>44022</v>
       </c>
       <c r="B102" s="2">
-        <v>5696</v>
+        <v>5704</v>
       </c>
       <c r="C102" s="2">
         <v>246</v>
       </c>
       <c r="D102" s="3">
-        <v>188.857142857142</v>
+        <v>189.142857142857</v>
       </c>
       <c r="E102" s="2">
-        <v>133790</v>
+        <v>133796</v>
       </c>
       <c r="F102" s="2">
         <v>4462</v>
       </c>
       <c r="G102" s="4">
-        <v>0.055679568714</v>
+        <v>0.05575910718</v>
       </c>
     </row>
     <row r="103" spans="1:7">
@@ -2742,22 +2742,22 @@
         <v>44023</v>
       </c>
       <c r="B103" s="2">
-        <v>5836</v>
+        <v>5844</v>
       </c>
       <c r="C103" s="2">
         <v>140</v>
       </c>
       <c r="D103" s="3">
-        <v>195.571428571428</v>
+        <v>195.857142857142</v>
       </c>
       <c r="E103" s="2">
-        <v>135866</v>
+        <v>135872</v>
       </c>
       <c r="F103" s="2">
         <v>2076</v>
       </c>
       <c r="G103" s="4">
-        <v>0.055422857374</v>
+        <v>0.055499332064</v>
       </c>
     </row>
     <row r="104" spans="1:7">
@@ -2765,22 +2765,22 @@
         <v>44024</v>
       </c>
       <c r="B104" s="2">
-        <v>5936</v>
+        <v>5944</v>
       </c>
       <c r="C104" s="2">
         <v>100</v>
       </c>
       <c r="D104" s="3">
-        <v>197.571428571428</v>
+        <v>197.857142857142</v>
       </c>
       <c r="E104" s="2">
-        <v>137192</v>
+        <v>137198</v>
       </c>
       <c r="F104" s="2">
         <v>1326</v>
       </c>
       <c r="G104" s="4">
-        <v>0.055546630251</v>
+        <v>0.055622489959</v>
       </c>
     </row>
     <row r="105" spans="1:7">
@@ -2788,22 +2788,22 @@
         <v>44025</v>
       </c>
       <c r="B105" s="2">
-        <v>6197</v>
+        <v>6207</v>
       </c>
       <c r="C105" s="2">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="D105" s="3">
-        <v>205.714285714285</v>
+        <v>206.285714285714</v>
       </c>
       <c r="E105" s="2">
-        <v>141798</v>
+        <v>141806</v>
       </c>
       <c r="F105" s="2">
-        <v>4606</v>
+        <v>4608</v>
       </c>
       <c r="G105" s="4">
-        <v>0.056646080012</v>
+        <v>0.056794493608</v>
       </c>
     </row>
     <row r="106" spans="1:7">
@@ -2811,22 +2811,22 @@
         <v>44026</v>
       </c>
       <c r="B106" s="2">
-        <v>6452</v>
+        <v>6462</v>
       </c>
       <c r="C106" s="2">
         <v>255</v>
       </c>
       <c r="D106" s="3">
-        <v>211.285714285714</v>
+        <v>211.857142857142</v>
       </c>
       <c r="E106" s="2">
-        <v>145566</v>
+        <v>145574</v>
       </c>
       <c r="F106" s="2">
         <v>3768</v>
       </c>
       <c r="G106" s="4">
-        <v>0.058912567217</v>
+        <v>0.059062487554</v>
       </c>
     </row>
     <row r="107" spans="1:7">
@@ -2834,22 +2834,22 @@
         <v>44027</v>
       </c>
       <c r="B107" s="2">
-        <v>6712</v>
+        <v>6722</v>
       </c>
       <c r="C107" s="2">
         <v>260</v>
       </c>
       <c r="D107" s="3">
-        <v>216.285714285714</v>
+        <v>216.857142857142</v>
       </c>
       <c r="E107" s="2">
-        <v>149915</v>
+        <v>149924</v>
       </c>
       <c r="F107" s="2">
-        <v>4349</v>
+        <v>4350</v>
       </c>
       <c r="G107" s="4">
-        <v>0.060103215561</v>
+        <v>0.060250049613</v>
       </c>
     </row>
     <row r="108" spans="1:7">
@@ -2857,22 +2857,22 @@
         <v>44028</v>
       </c>
       <c r="B108" s="2">
-        <v>6968</v>
+        <v>6980</v>
       </c>
       <c r="C108" s="2">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="D108" s="3">
-        <v>216.857142857142</v>
+        <v>217.428571428571</v>
       </c>
       <c r="E108" s="2">
-        <v>154106</v>
+        <v>154117</v>
       </c>
       <c r="F108" s="2">
-        <v>4191</v>
+        <v>4193</v>
       </c>
       <c r="G108" s="4">
-        <v>0.061264024537</v>
+        <v>0.061413065407</v>
       </c>
     </row>
     <row r="109" spans="1:7">
@@ -2880,22 +2880,22 @@
         <v>44029</v>
       </c>
       <c r="B109" s="2">
-        <v>7218</v>
+        <v>7230</v>
       </c>
       <c r="C109" s="2">
         <v>250</v>
       </c>
       <c r="D109" s="3">
-        <v>217.428571428571</v>
+        <v>218</v>
       </c>
       <c r="E109" s="2">
-        <v>158313</v>
+        <v>158324</v>
       </c>
       <c r="F109" s="2">
         <v>4207</v>
       </c>
       <c r="G109" s="4">
-        <v>0.062064184642</v>
+        <v>0.062214611872</v>
       </c>
     </row>
     <row r="110" spans="1:7">
@@ -2903,22 +2903,22 @@
         <v>44030</v>
       </c>
       <c r="B110" s="2">
-        <v>7347</v>
+        <v>7359</v>
       </c>
       <c r="C110" s="2">
         <v>129</v>
       </c>
       <c r="D110" s="3">
-        <v>215.857142857142</v>
+        <v>216.428571428571</v>
       </c>
       <c r="E110" s="2">
-        <v>160541</v>
+        <v>160552</v>
       </c>
       <c r="F110" s="2">
         <v>2228</v>
       </c>
       <c r="G110" s="4">
-        <v>0.061236068895</v>
+        <v>0.061385737439</v>
       </c>
     </row>
     <row r="111" spans="1:7">
@@ -2926,22 +2926,22 @@
         <v>44031</v>
       </c>
       <c r="B111" s="2">
-        <v>7446</v>
+        <v>7458</v>
       </c>
       <c r="C111" s="2">
         <v>99</v>
       </c>
       <c r="D111" s="3">
-        <v>215.714285714285</v>
+        <v>216.285714285714</v>
       </c>
       <c r="E111" s="2">
-        <v>161801</v>
+        <v>161812</v>
       </c>
       <c r="F111" s="2">
         <v>1260</v>
       </c>
       <c r="G111" s="4">
-        <v>0.061359665163</v>
+        <v>0.061509709921</v>
       </c>
     </row>
     <row r="112" spans="1:7">
@@ -2949,22 +2949,22 @@
         <v>44032</v>
       </c>
       <c r="B112" s="2">
-        <v>7738</v>
+        <v>7751</v>
       </c>
       <c r="C112" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="D112" s="3">
-        <v>220.142857142857</v>
+        <v>220.571428571428</v>
       </c>
       <c r="E112" s="2">
-        <v>166054</v>
+        <v>166066</v>
       </c>
       <c r="F112" s="2">
-        <v>4253</v>
+        <v>4254</v>
       </c>
       <c r="G112" s="4">
-        <v>0.063530672823</v>
+        <v>0.063643858202</v>
       </c>
     </row>
     <row r="113" spans="1:7">
@@ -2972,22 +2972,22 @@
         <v>44033</v>
       </c>
       <c r="B113" s="2">
-        <v>7979</v>
+        <v>7992</v>
       </c>
       <c r="C113" s="2">
         <v>241</v>
       </c>
       <c r="D113" s="3">
-        <v>218.142857142857</v>
+        <v>218.571428571428</v>
       </c>
       <c r="E113" s="2">
-        <v>169895</v>
+        <v>169907</v>
       </c>
       <c r="F113" s="2">
         <v>3841</v>
       </c>
       <c r="G113" s="4">
-        <v>0.062764601915</v>
+        <v>0.06287757366500001</v>
       </c>
     </row>
     <row r="114" spans="1:7">
@@ -2995,22 +2995,22 @@
         <v>44034</v>
       </c>
       <c r="B114" s="2">
-        <v>8229</v>
+        <v>8243</v>
       </c>
       <c r="C114" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="D114" s="3">
-        <v>216.714285714285</v>
+        <v>217.285714285714</v>
       </c>
       <c r="E114" s="2">
-        <v>173560</v>
+        <v>173573</v>
       </c>
       <c r="F114" s="2">
-        <v>3665</v>
+        <v>3666</v>
       </c>
       <c r="G114" s="4">
-        <v>0.06415732713</v>
+        <v>0.06431561588199999</v>
       </c>
     </row>
     <row r="115" spans="1:7">
@@ -3018,22 +3018,22 @@
         <v>44035</v>
       </c>
       <c r="B115" s="2">
-        <v>8462</v>
+        <v>8476</v>
       </c>
       <c r="C115" s="2">
         <v>233</v>
       </c>
       <c r="D115" s="3">
-        <v>213.428571428571</v>
+        <v>213.714285714285</v>
       </c>
       <c r="E115" s="2">
-        <v>176892</v>
+        <v>176906</v>
       </c>
       <c r="F115" s="2">
-        <v>3332</v>
+        <v>3333</v>
       </c>
       <c r="G115" s="4">
-        <v>0.065566575967</v>
+        <v>0.065645706261</v>
       </c>
     </row>
     <row r="116" spans="1:7">
@@ -3041,22 +3041,22 @@
         <v>44036</v>
       </c>
       <c r="B116" s="2">
-        <v>8682</v>
+        <v>8696</v>
       </c>
       <c r="C116" s="2">
         <v>220</v>
       </c>
       <c r="D116" s="3">
-        <v>209.142857142857</v>
+        <v>209.428571428571</v>
       </c>
       <c r="E116" s="2">
-        <v>180572</v>
+        <v>180586</v>
       </c>
       <c r="F116" s="2">
         <v>3680</v>
       </c>
       <c r="G116" s="4">
-        <v>0.065771148748</v>
+        <v>0.06585212469600001</v>
       </c>
     </row>
     <row r="117" spans="1:7">
@@ -3064,22 +3064,22 @@
         <v>44037</v>
       </c>
       <c r="B117" s="2">
-        <v>8796</v>
+        <v>8810</v>
       </c>
       <c r="C117" s="2">
         <v>114</v>
       </c>
       <c r="D117" s="3">
-        <v>207</v>
+        <v>207.285714285714</v>
       </c>
       <c r="E117" s="2">
-        <v>182208</v>
+        <v>182222</v>
       </c>
       <c r="F117" s="2">
         <v>1636</v>
       </c>
       <c r="G117" s="4">
-        <v>0.06687589421700001</v>
+        <v>0.06695892939500001</v>
       </c>
     </row>
     <row r="118" spans="1:7">
@@ -3087,22 +3087,22 @@
         <v>44038</v>
       </c>
       <c r="B118" s="2">
-        <v>8899</v>
+        <v>8913</v>
       </c>
       <c r="C118" s="2">
         <v>103</v>
       </c>
       <c r="D118" s="3">
-        <v>207.571428571428</v>
+        <v>207.857142857142</v>
       </c>
       <c r="E118" s="2">
-        <v>183462</v>
+        <v>183476</v>
       </c>
       <c r="F118" s="2">
         <v>1254</v>
       </c>
       <c r="G118" s="4">
-        <v>0.06707908222099999</v>
+        <v>0.067162112259</v>
       </c>
     </row>
     <row r="119" spans="1:7">
@@ -3110,22 +3110,22 @@
         <v>44039</v>
       </c>
       <c r="B119" s="2">
-        <v>9143</v>
+        <v>9157</v>
       </c>
       <c r="C119" s="2">
         <v>244</v>
       </c>
       <c r="D119" s="3">
-        <v>200.714285714285</v>
+        <v>200.857142857142</v>
       </c>
       <c r="E119" s="2">
-        <v>187648</v>
+        <v>187663</v>
       </c>
       <c r="F119" s="2">
-        <v>4186</v>
+        <v>4187</v>
       </c>
       <c r="G119" s="4">
-        <v>0.065064369732</v>
+        <v>0.065101634486</v>
       </c>
     </row>
     <row r="120" spans="1:7">
@@ -3133,22 +3133,22 @@
         <v>44040</v>
       </c>
       <c r="B120" s="2">
-        <v>9402</v>
+        <v>9416</v>
       </c>
       <c r="C120" s="2">
         <v>259</v>
       </c>
       <c r="D120" s="3">
-        <v>203.285714285714</v>
+        <v>203.428571428571</v>
       </c>
       <c r="E120" s="2">
-        <v>191589</v>
+        <v>191604</v>
       </c>
       <c r="F120" s="2">
         <v>3941</v>
       </c>
       <c r="G120" s="4">
-        <v>0.065594173504</v>
+        <v>0.06563119325199999</v>
       </c>
     </row>
     <row r="121" spans="1:7">
@@ -3156,7 +3156,7 @@
         <v>44041</v>
       </c>
       <c r="B121" s="2">
-        <v>9655</v>
+        <v>9669</v>
       </c>
       <c r="C121" s="2">
         <v>253</v>
@@ -3165,13 +3165,13 @@
         <v>203.714285714285</v>
       </c>
       <c r="E121" s="2">
-        <v>195455</v>
+        <v>195470</v>
       </c>
       <c r="F121" s="2">
         <v>3866</v>
       </c>
       <c r="G121" s="4">
-        <v>0.065129024891</v>
+        <v>0.06512307622000001</v>
       </c>
     </row>
     <row r="122" spans="1:7">
@@ -3179,7 +3179,7 @@
         <v>44042</v>
       </c>
       <c r="B122" s="2">
-        <v>9874</v>
+        <v>9888</v>
       </c>
       <c r="C122" s="2">
         <v>219</v>
@@ -3188,13 +3188,13 @@
         <v>201.714285714285</v>
       </c>
       <c r="E122" s="2">
-        <v>199131</v>
+        <v>199146</v>
       </c>
       <c r="F122" s="2">
         <v>3676</v>
       </c>
       <c r="G122" s="4">
-        <v>0.063492063492</v>
+        <v>0.063489208633</v>
       </c>
     </row>
     <row r="123" spans="1:7">
@@ -3202,7 +3202,7 @@
         <v>44043</v>
       </c>
       <c r="B123" s="2">
-        <v>10109</v>
+        <v>10123</v>
       </c>
       <c r="C123" s="2">
         <v>235</v>
@@ -3211,13 +3211,13 @@
         <v>203.857142857142</v>
       </c>
       <c r="E123" s="2">
-        <v>202683</v>
+        <v>202698</v>
       </c>
       <c r="F123" s="2">
         <v>3552</v>
       </c>
       <c r="G123" s="4">
-        <v>0.064538012753</v>
+        <v>0.064535094066</v>
       </c>
     </row>
     <row r="124" spans="1:7">
@@ -3225,7 +3225,7 @@
         <v>44044</v>
       </c>
       <c r="B124" s="2">
-        <v>10217</v>
+        <v>10231</v>
       </c>
       <c r="C124" s="2">
         <v>108</v>
@@ -3234,13 +3234,13 @@
         <v>203</v>
       </c>
       <c r="E124" s="2">
-        <v>204352</v>
+        <v>204367</v>
       </c>
       <c r="F124" s="2">
         <v>1669</v>
       </c>
       <c r="G124" s="4">
-        <v>0.064170881502</v>
+        <v>0.06416798374300001</v>
       </c>
     </row>
     <row r="125" spans="1:7">
@@ -3248,7 +3248,7 @@
         <v>44045</v>
       </c>
       <c r="B125" s="2">
-        <v>10296</v>
+        <v>10310</v>
       </c>
       <c r="C125" s="2">
         <v>79</v>
@@ -3257,13 +3257,13 @@
         <v>199.571428571428</v>
       </c>
       <c r="E125" s="2">
-        <v>205501</v>
+        <v>205516</v>
       </c>
       <c r="F125" s="2">
         <v>1149</v>
       </c>
       <c r="G125" s="4">
-        <v>0.063387631017</v>
+        <v>0.06338475499</v>
       </c>
     </row>
     <row r="126" spans="1:7">
@@ -3271,7 +3271,7 @@
         <v>44046</v>
       </c>
       <c r="B126" s="2">
-        <v>10552</v>
+        <v>10566</v>
       </c>
       <c r="C126" s="2">
         <v>256</v>
@@ -3280,7 +3280,7 @@
         <v>201.285714285714</v>
       </c>
       <c r="E126" s="2">
-        <v>209379</v>
+        <v>209394</v>
       </c>
       <c r="F126" s="2">
         <v>3878</v>
@@ -3294,7 +3294,7 @@
         <v>44047</v>
       </c>
       <c r="B127" s="2">
-        <v>10791</v>
+        <v>10805</v>
       </c>
       <c r="C127" s="2">
         <v>239</v>
@@ -3303,7 +3303,7 @@
         <v>198.428571428571</v>
       </c>
       <c r="E127" s="2">
-        <v>212710</v>
+        <v>212725</v>
       </c>
       <c r="F127" s="2">
         <v>3331</v>
@@ -3317,7 +3317,7 @@
         <v>44048</v>
       </c>
       <c r="B128" s="2">
-        <v>10993</v>
+        <v>11007</v>
       </c>
       <c r="C128" s="2">
         <v>202</v>
@@ -3326,7 +3326,7 @@
         <v>191.142857142857</v>
       </c>
       <c r="E128" s="2">
-        <v>215988</v>
+        <v>216003</v>
       </c>
       <c r="F128" s="2">
         <v>3278</v>
@@ -3340,7 +3340,7 @@
         <v>44049</v>
       </c>
       <c r="B129" s="2">
-        <v>11193</v>
+        <v>11207</v>
       </c>
       <c r="C129" s="2">
         <v>200</v>
@@ -3349,7 +3349,7 @@
         <v>188.428571428571</v>
       </c>
       <c r="E129" s="2">
-        <v>219655</v>
+        <v>219670</v>
       </c>
       <c r="F129" s="2">
         <v>3667</v>
@@ -3363,7 +3363,7 @@
         <v>44050</v>
       </c>
       <c r="B130" s="2">
-        <v>11378</v>
+        <v>11392</v>
       </c>
       <c r="C130" s="2">
         <v>185</v>
@@ -3372,7 +3372,7 @@
         <v>181.285714285714</v>
       </c>
       <c r="E130" s="2">
-        <v>222987</v>
+        <v>223002</v>
       </c>
       <c r="F130" s="2">
         <v>3332</v>
@@ -3386,7 +3386,7 @@
         <v>44051</v>
       </c>
       <c r="B131" s="2">
-        <v>11498</v>
+        <v>11512</v>
       </c>
       <c r="C131" s="2">
         <v>120</v>
@@ -3395,7 +3395,7 @@
         <v>183</v>
       </c>
       <c r="E131" s="2">
-        <v>224696</v>
+        <v>224711</v>
       </c>
       <c r="F131" s="2">
         <v>1709</v>
@@ -3409,7 +3409,7 @@
         <v>44052</v>
       </c>
       <c r="B132" s="2">
-        <v>11583</v>
+        <v>11597</v>
       </c>
       <c r="C132" s="2">
         <v>85</v>
@@ -3418,7 +3418,7 @@
         <v>183.857142857142</v>
       </c>
       <c r="E132" s="2">
-        <v>225761</v>
+        <v>225776</v>
       </c>
       <c r="F132" s="2">
         <v>1065</v>
@@ -3432,7 +3432,7 @@
         <v>44053</v>
       </c>
       <c r="B133" s="2">
-        <v>11820</v>
+        <v>11834</v>
       </c>
       <c r="C133" s="2">
         <v>237</v>
@@ -3441,7 +3441,7 @@
         <v>181.142857142857</v>
       </c>
       <c r="E133" s="2">
-        <v>229665</v>
+        <v>229680</v>
       </c>
       <c r="F133" s="2">
         <v>3904</v>
@@ -3455,22 +3455,22 @@
         <v>44054</v>
       </c>
       <c r="B134" s="2">
-        <v>12020</v>
+        <v>12035</v>
       </c>
       <c r="C134" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D134" s="3">
-        <v>175.571428571428</v>
+        <v>175.714285714285</v>
       </c>
       <c r="E134" s="2">
-        <v>233085</v>
+        <v>233101</v>
       </c>
       <c r="F134" s="2">
-        <v>3420</v>
+        <v>3421</v>
       </c>
       <c r="G134" s="4">
-        <v>0.060319018404</v>
+        <v>0.060365135453</v>
       </c>
     </row>
     <row r="135" spans="1:7">
@@ -3478,22 +3478,22 @@
         <v>44055</v>
       </c>
       <c r="B135" s="2">
-        <v>12220</v>
+        <v>12235</v>
       </c>
       <c r="C135" s="2">
         <v>200</v>
       </c>
       <c r="D135" s="3">
-        <v>175.285714285714</v>
+        <v>175.428571428571</v>
       </c>
       <c r="E135" s="2">
-        <v>236953</v>
+        <v>236969</v>
       </c>
       <c r="F135" s="2">
         <v>3868</v>
       </c>
       <c r="G135" s="4">
-        <v>0.058526114953</v>
+        <v>0.058571019746</v>
       </c>
     </row>
     <row r="136" spans="1:7">
@@ -3501,22 +3501,22 @@
         <v>44056</v>
       </c>
       <c r="B136" s="2">
-        <v>12395</v>
+        <v>12410</v>
       </c>
       <c r="C136" s="2">
         <v>175</v>
       </c>
       <c r="D136" s="3">
-        <v>171.714285714285</v>
+        <v>171.857142857142</v>
       </c>
       <c r="E136" s="2">
-        <v>240223</v>
+        <v>240239</v>
       </c>
       <c r="F136" s="2">
         <v>3270</v>
       </c>
       <c r="G136" s="4">
-        <v>0.058440295604</v>
+        <v>0.058486071272</v>
       </c>
     </row>
     <row r="137" spans="1:7">
@@ -3524,22 +3524,22 @@
         <v>44057</v>
       </c>
       <c r="B137" s="2">
-        <v>12570</v>
+        <v>12585</v>
       </c>
       <c r="C137" s="2">
         <v>175</v>
       </c>
       <c r="D137" s="3">
-        <v>170.285714285714</v>
+        <v>170.428571428571</v>
       </c>
       <c r="E137" s="2">
-        <v>243585</v>
+        <v>243601</v>
       </c>
       <c r="F137" s="2">
         <v>3362</v>
       </c>
       <c r="G137" s="4">
-        <v>0.057869696086</v>
+        <v>0.057915432787</v>
       </c>
     </row>
     <row r="138" spans="1:7">
@@ -3547,22 +3547,22 @@
         <v>44058</v>
       </c>
       <c r="B138" s="2">
-        <v>12664</v>
+        <v>12679</v>
       </c>
       <c r="C138" s="2">
         <v>94</v>
       </c>
       <c r="D138" s="3">
-        <v>166.571428571428</v>
+        <v>166.714285714285</v>
       </c>
       <c r="E138" s="2">
-        <v>245149</v>
+        <v>245165</v>
       </c>
       <c r="F138" s="2">
         <v>1564</v>
       </c>
       <c r="G138" s="4">
-        <v>0.057008751772</v>
+        <v>0.057054854796</v>
       </c>
     </row>
     <row r="139" spans="1:7">
@@ -3570,22 +3570,22 @@
         <v>44059</v>
       </c>
       <c r="B139" s="2">
-        <v>12709</v>
+        <v>12724</v>
       </c>
       <c r="C139" s="2">
         <v>45</v>
       </c>
       <c r="D139" s="3">
-        <v>160.857142857142</v>
+        <v>161</v>
       </c>
       <c r="E139" s="2">
-        <v>245925</v>
+        <v>245941</v>
       </c>
       <c r="F139" s="2">
         <v>776</v>
       </c>
       <c r="G139" s="4">
-        <v>0.055842094822</v>
+        <v>0.055888916439</v>
       </c>
     </row>
     <row r="140" spans="1:7">
@@ -3593,22 +3593,22 @@
         <v>44060</v>
       </c>
       <c r="B140" s="2">
-        <v>12922</v>
+        <v>12937</v>
       </c>
       <c r="C140" s="2">
         <v>213</v>
       </c>
       <c r="D140" s="3">
-        <v>157.428571428571</v>
+        <v>157.571428571428</v>
       </c>
       <c r="E140" s="2">
-        <v>249583</v>
+        <v>249600</v>
       </c>
       <c r="F140" s="2">
-        <v>3658</v>
+        <v>3659</v>
       </c>
       <c r="G140" s="4">
-        <v>0.055326840044</v>
+        <v>0.055371485943</v>
       </c>
     </row>
     <row r="141" spans="1:7">
@@ -3616,7 +3616,7 @@
         <v>44061</v>
       </c>
       <c r="B141" s="2">
-        <v>13090</v>
+        <v>13105</v>
       </c>
       <c r="C141" s="2">
         <v>168</v>
@@ -3625,13 +3625,13 @@
         <v>152.857142857142</v>
       </c>
       <c r="E141" s="2">
-        <v>252666</v>
+        <v>252683</v>
       </c>
       <c r="F141" s="2">
         <v>3083</v>
       </c>
       <c r="G141" s="4">
-        <v>0.054644808743</v>
+        <v>0.054642018179</v>
       </c>
     </row>
     <row r="142" spans="1:7">
@@ -3639,7 +3639,7 @@
         <v>44062</v>
       </c>
       <c r="B142" s="2">
-        <v>13248</v>
+        <v>13263</v>
       </c>
       <c r="C142" s="2">
         <v>158</v>
@@ -3648,13 +3648,13 @@
         <v>146.857142857142</v>
       </c>
       <c r="E142" s="2">
-        <v>255724</v>
+        <v>255741</v>
       </c>
       <c r="F142" s="2">
         <v>3058</v>
       </c>
       <c r="G142" s="4">
-        <v>0.054765329497</v>
+        <v>0.054762412103</v>
       </c>
     </row>
     <row r="143" spans="1:7">
@@ -3662,7 +3662,7 @@
         <v>44063</v>
       </c>
       <c r="B143" s="2">
-        <v>13380</v>
+        <v>13395</v>
       </c>
       <c r="C143" s="2">
         <v>132</v>
@@ -3671,13 +3671,13 @@
         <v>140.714285714285</v>
       </c>
       <c r="E143" s="2">
-        <v>258894</v>
+        <v>258911</v>
       </c>
       <c r="F143" s="2">
         <v>3170</v>
       </c>
       <c r="G143" s="4">
-        <v>0.052755610304</v>
+        <v>0.052752784918</v>
       </c>
     </row>
     <row r="144" spans="1:7">
@@ -3685,7 +3685,7 @@
         <v>44064</v>
       </c>
       <c r="B144" s="2">
-        <v>13542</v>
+        <v>13557</v>
       </c>
       <c r="C144" s="2">
         <v>162</v>
@@ -3694,13 +3694,13 @@
         <v>138.857142857142</v>
       </c>
       <c r="E144" s="2">
-        <v>261934</v>
+        <v>261951</v>
       </c>
       <c r="F144" s="2">
         <v>3040</v>
       </c>
       <c r="G144" s="4">
-        <v>0.052972914055</v>
+        <v>0.052970027247</v>
       </c>
     </row>
     <row r="145" spans="1:7">
@@ -3708,7 +3708,7 @@
         <v>44065</v>
       </c>
       <c r="B145" s="2">
-        <v>13604</v>
+        <v>13619</v>
       </c>
       <c r="C145" s="2">
         <v>62</v>
@@ -3717,13 +3717,13 @@
         <v>134.285714285714</v>
       </c>
       <c r="E145" s="2">
-        <v>263264</v>
+        <v>263281</v>
       </c>
       <c r="F145" s="2">
         <v>1330</v>
       </c>
       <c r="G145" s="4">
-        <v>0.051890698316</v>
+        <v>0.051887833958</v>
       </c>
     </row>
     <row r="146" spans="1:7">
@@ -3731,7 +3731,7 @@
         <v>44066</v>
       </c>
       <c r="B146" s="2">
-        <v>13672</v>
+        <v>13687</v>
       </c>
       <c r="C146" s="2">
         <v>68</v>
@@ -3740,13 +3740,13 @@
         <v>137.571428571428</v>
       </c>
       <c r="E146" s="2">
-        <v>264233</v>
+        <v>264250</v>
       </c>
       <c r="F146" s="2">
         <v>969</v>
       </c>
       <c r="G146" s="4">
-        <v>0.052599956303</v>
+        <v>0.052597083401</v>
       </c>
     </row>
     <row r="147" spans="1:7">
@@ -3754,7 +3754,7 @@
         <v>44067</v>
       </c>
       <c r="B147" s="2">
-        <v>13822</v>
+        <v>13837</v>
       </c>
       <c r="C147" s="2">
         <v>150</v>
@@ -3763,7 +3763,7 @@
         <v>128.571428571428</v>
       </c>
       <c r="E147" s="2">
-        <v>267223</v>
+        <v>267240</v>
       </c>
       <c r="F147" s="2">
         <v>2990</v>
@@ -3777,7 +3777,7 @@
         <v>44068</v>
       </c>
       <c r="B148" s="2">
-        <v>13957</v>
+        <v>13972</v>
       </c>
       <c r="C148" s="2">
         <v>135</v>
@@ -3786,7 +3786,7 @@
         <v>123.857142857142</v>
       </c>
       <c r="E148" s="2">
-        <v>270249</v>
+        <v>270266</v>
       </c>
       <c r="F148" s="2">
         <v>3026</v>
@@ -3800,7 +3800,7 @@
         <v>44069</v>
       </c>
       <c r="B149" s="2">
-        <v>14092</v>
+        <v>14107</v>
       </c>
       <c r="C149" s="2">
         <v>135</v>
@@ -3809,7 +3809,7 @@
         <v>120.571428571428</v>
       </c>
       <c r="E149" s="2">
-        <v>273217</v>
+        <v>273234</v>
       </c>
       <c r="F149" s="2">
         <v>2968</v>
@@ -3823,7 +3823,7 @@
         <v>44070</v>
       </c>
       <c r="B150" s="2">
-        <v>14264</v>
+        <v>14279</v>
       </c>
       <c r="C150" s="2">
         <v>172</v>
@@ -3832,13 +3832,13 @@
         <v>126.285714285714</v>
       </c>
       <c r="E150" s="2">
-        <v>276506</v>
+        <v>276524</v>
       </c>
       <c r="F150" s="2">
-        <v>3289</v>
+        <v>3290</v>
       </c>
       <c r="G150" s="4">
-        <v>0.050193050193</v>
+        <v>0.05019020042</v>
       </c>
     </row>
     <row r="151" spans="1:7">
@@ -3846,7 +3846,7 @@
         <v>44071</v>
       </c>
       <c r="B151" s="2">
-        <v>14380</v>
+        <v>14395</v>
       </c>
       <c r="C151" s="2">
         <v>116</v>
@@ -3855,13 +3855,13 @@
         <v>119.714285714285</v>
       </c>
       <c r="E151" s="2">
-        <v>279300</v>
+        <v>279321</v>
       </c>
       <c r="F151" s="2">
-        <v>2794</v>
+        <v>2797</v>
       </c>
       <c r="G151" s="4">
-        <v>0.048255211332</v>
+        <v>0.048244099021</v>
       </c>
     </row>
     <row r="152" spans="1:7">
@@ -3869,7 +3869,7 @@
         <v>44072</v>
       </c>
       <c r="B152" s="2">
-        <v>14444</v>
+        <v>14459</v>
       </c>
       <c r="C152" s="2">
         <v>64</v>
@@ -3878,13 +3878,13 @@
         <v>120</v>
       </c>
       <c r="E152" s="2">
-        <v>280743</v>
+        <v>280764</v>
       </c>
       <c r="F152" s="2">
         <v>1443</v>
       </c>
       <c r="G152" s="4">
-        <v>0.048057669203</v>
+        <v>0.048046673911</v>
       </c>
     </row>
     <row r="153" spans="1:7">
@@ -3892,7 +3892,7 @@
         <v>44073</v>
       </c>
       <c r="B153" s="2">
-        <v>14503</v>
+        <v>14518</v>
       </c>
       <c r="C153" s="2">
         <v>59</v>
@@ -3901,13 +3901,13 @@
         <v>118.714285714285</v>
       </c>
       <c r="E153" s="2">
-        <v>281827</v>
+        <v>281848</v>
       </c>
       <c r="F153" s="2">
         <v>1084</v>
       </c>
       <c r="G153" s="4">
-        <v>0.047232010912</v>
+        <v>0.047221275144</v>
       </c>
     </row>
     <row r="154" spans="1:7">
@@ -3915,7 +3915,7 @@
         <v>44074</v>
       </c>
       <c r="B154" s="2">
-        <v>14645</v>
+        <v>14660</v>
       </c>
       <c r="C154" s="2">
         <v>142</v>
@@ -3924,13 +3924,13 @@
         <v>117.571428571428</v>
       </c>
       <c r="E154" s="2">
-        <v>284984</v>
+        <v>285007</v>
       </c>
       <c r="F154" s="2">
-        <v>3157</v>
+        <v>3159</v>
       </c>
       <c r="G154" s="4">
-        <v>0.046337480997</v>
+        <v>0.046321832611</v>
       </c>
     </row>
     <row r="155" spans="1:7">
@@ -3938,7 +3938,7 @@
         <v>44075</v>
       </c>
       <c r="B155" s="2">
-        <v>14778</v>
+        <v>14793</v>
       </c>
       <c r="C155" s="2">
         <v>133</v>
@@ -3947,13 +3947,13 @@
         <v>117.285714285714</v>
       </c>
       <c r="E155" s="2">
-        <v>288273</v>
+        <v>288299</v>
       </c>
       <c r="F155" s="2">
-        <v>3289</v>
+        <v>3292</v>
       </c>
       <c r="G155" s="4">
-        <v>0.045550377274</v>
+        <v>0.045527643764</v>
       </c>
     </row>
     <row r="156" spans="1:7">
@@ -3961,7 +3961,7 @@
         <v>44076</v>
       </c>
       <c r="B156" s="2">
-        <v>14895</v>
+        <v>14910</v>
       </c>
       <c r="C156" s="2">
         <v>117</v>
@@ -3970,13 +3970,13 @@
         <v>114.714285714285</v>
       </c>
       <c r="E156" s="2">
-        <v>291265</v>
+        <v>291291</v>
       </c>
       <c r="F156" s="2">
         <v>2992</v>
       </c>
       <c r="G156" s="4">
-        <v>0.044492464539</v>
+        <v>0.04447028853</v>
       </c>
     </row>
     <row r="157" spans="1:7">
@@ -3984,7 +3984,7 @@
         <v>44077</v>
       </c>
       <c r="B157" s="2">
-        <v>14990</v>
+        <v>15005</v>
       </c>
       <c r="C157" s="2">
         <v>95</v>
@@ -3993,13 +3993,13 @@
         <v>103.714285714285</v>
       </c>
       <c r="E157" s="2">
-        <v>294214</v>
+        <v>294242</v>
       </c>
       <c r="F157" s="2">
-        <v>2949</v>
+        <v>2951</v>
       </c>
       <c r="G157" s="4">
-        <v>0.040998418793</v>
+        <v>0.040975279376</v>
       </c>
     </row>
     <row r="158" spans="1:7">
@@ -4007,7 +4007,7 @@
         <v>44078</v>
       </c>
       <c r="B158" s="2">
-        <v>15112</v>
+        <v>15127</v>
       </c>
       <c r="C158" s="2">
         <v>122</v>
@@ -4016,13 +4016,13 @@
         <v>104.571428571428</v>
       </c>
       <c r="E158" s="2">
-        <v>297047</v>
+        <v>297078</v>
       </c>
       <c r="F158" s="2">
-        <v>2833</v>
+        <v>2836</v>
       </c>
       <c r="G158" s="4">
-        <v>0.041246407843</v>
+        <v>0.041223179591</v>
       </c>
     </row>
     <row r="159" spans="1:7">
@@ -4030,7 +4030,7 @@
         <v>44079</v>
       </c>
       <c r="B159" s="2">
-        <v>15178</v>
+        <v>15193</v>
       </c>
       <c r="C159" s="2">
         <v>66</v>
@@ -4039,13 +4039,13 @@
         <v>104.857142857142</v>
       </c>
       <c r="E159" s="2">
-        <v>298385</v>
+        <v>298416</v>
       </c>
       <c r="F159" s="2">
         <v>1338</v>
       </c>
       <c r="G159" s="4">
-        <v>0.041605260174</v>
+        <v>0.04158169046</v>
       </c>
     </row>
     <row r="160" spans="1:7">
@@ -4053,7 +4053,7 @@
         <v>44080</v>
       </c>
       <c r="B160" s="2">
-        <v>15231</v>
+        <v>15246</v>
       </c>
       <c r="C160" s="2">
         <v>53</v>
@@ -4062,13 +4062,13 @@
         <v>104</v>
       </c>
       <c r="E160" s="2">
-        <v>299471</v>
+        <v>299503</v>
       </c>
       <c r="F160" s="2">
-        <v>1086</v>
+        <v>1087</v>
       </c>
       <c r="G160" s="4">
-        <v>0.04126048515</v>
+        <v>0.041234777683</v>
       </c>
     </row>
     <row r="161" spans="1:7">
@@ -4076,7 +4076,7 @@
         <v>44081</v>
       </c>
       <c r="B161" s="2">
-        <v>15300</v>
+        <v>15315</v>
       </c>
       <c r="C161" s="2">
         <v>69</v>
@@ -4085,13 +4085,13 @@
         <v>93.571428571428</v>
       </c>
       <c r="E161" s="2">
-        <v>300729</v>
+        <v>300761</v>
       </c>
       <c r="F161" s="2">
         <v>1258</v>
       </c>
       <c r="G161" s="4">
-        <v>0.041600508097</v>
+        <v>0.041576742414</v>
       </c>
     </row>
     <row r="162" spans="1:7">
@@ -4099,7 +4099,7 @@
         <v>44082</v>
       </c>
       <c r="B162" s="2">
-        <v>15443</v>
+        <v>15458</v>
       </c>
       <c r="C162" s="2">
         <v>143</v>
@@ -4108,13 +4108,13 @@
         <v>95</v>
       </c>
       <c r="E162" s="2">
-        <v>305042</v>
+        <v>305074</v>
       </c>
       <c r="F162" s="2">
         <v>4313</v>
       </c>
       <c r="G162" s="4">
-        <v>0.039656509034</v>
+        <v>0.039642324888</v>
       </c>
     </row>
     <row r="163" spans="1:7">
@@ -4122,7 +4122,7 @@
         <v>44083</v>
       </c>
       <c r="B163" s="2">
-        <v>15594</v>
+        <v>15609</v>
       </c>
       <c r="C163" s="2">
         <v>151</v>
@@ -4131,13 +4131,13 @@
         <v>99.85714285714199</v>
       </c>
       <c r="E163" s="2">
-        <v>308575</v>
+        <v>308609</v>
       </c>
       <c r="F163" s="2">
-        <v>3533</v>
+        <v>3535</v>
       </c>
       <c r="G163" s="4">
-        <v>0.040381282495</v>
+        <v>0.040362628479</v>
       </c>
     </row>
     <row r="164" spans="1:7">
@@ -4145,7 +4145,7 @@
         <v>44084</v>
       </c>
       <c r="B164" s="2">
-        <v>15698</v>
+        <v>15713</v>
       </c>
       <c r="C164" s="2">
         <v>104</v>
@@ -4154,13 +4154,13 @@
         <v>101.142857142857</v>
       </c>
       <c r="E164" s="2">
-        <v>311871</v>
+        <v>311905</v>
       </c>
       <c r="F164" s="2">
         <v>3296</v>
       </c>
       <c r="G164" s="4">
-        <v>0.040097411791</v>
+        <v>0.040083790975</v>
       </c>
     </row>
     <row r="165" spans="1:7">
@@ -4168,7 +4168,7 @@
         <v>44085</v>
       </c>
       <c r="B165" s="2">
-        <v>15771</v>
+        <v>15786</v>
       </c>
       <c r="C165" s="2">
         <v>73</v>
@@ -4177,13 +4177,13 @@
         <v>94.142857142857</v>
       </c>
       <c r="E165" s="2">
-        <v>314377</v>
+        <v>314411</v>
       </c>
       <c r="F165" s="2">
         <v>2506</v>
       </c>
       <c r="G165" s="4">
-        <v>0.038026543566</v>
+        <v>0.038019961922</v>
       </c>
     </row>
     <row r="166" spans="1:7">
@@ -4191,7 +4191,7 @@
         <v>44086</v>
       </c>
       <c r="B166" s="2">
-        <v>15821</v>
+        <v>15836</v>
       </c>
       <c r="C166" s="2">
         <v>50</v>
@@ -4200,13 +4200,13 @@
         <v>91.85714285714199</v>
       </c>
       <c r="E166" s="2">
-        <v>315780</v>
+        <v>315814</v>
       </c>
       <c r="F166" s="2">
         <v>1403</v>
       </c>
       <c r="G166" s="4">
-        <v>0.036964645012</v>
+        <v>0.036958271065</v>
       </c>
     </row>
     <row r="167" spans="1:7">
@@ -4214,7 +4214,7 @@
         <v>44087</v>
       </c>
       <c r="B167" s="2">
-        <v>15858</v>
+        <v>15873</v>
       </c>
       <c r="C167" s="2">
         <v>37</v>
@@ -4223,13 +4223,13 @@
         <v>89.571428571428</v>
       </c>
       <c r="E167" s="2">
-        <v>316632</v>
+        <v>316666</v>
       </c>
       <c r="F167" s="2">
         <v>852</v>
       </c>
       <c r="G167" s="4">
-        <v>0.036536332381</v>
+        <v>0.036532074812</v>
       </c>
     </row>
     <row r="168" spans="1:7">
@@ -4237,7 +4237,7 @@
         <v>44088</v>
       </c>
       <c r="B168" s="2">
-        <v>15959</v>
+        <v>15974</v>
       </c>
       <c r="C168" s="2">
         <v>101</v>
@@ -4246,13 +4246,13 @@
         <v>94.142857142857</v>
       </c>
       <c r="E168" s="2">
-        <v>320050</v>
+        <v>320084</v>
       </c>
       <c r="F168" s="2">
         <v>3418</v>
       </c>
       <c r="G168" s="4">
-        <v>0.034107965426</v>
+        <v>0.034104435129</v>
       </c>
     </row>
     <row r="169" spans="1:7">
@@ -4260,7 +4260,7 @@
         <v>44089</v>
       </c>
       <c r="B169" s="2">
-        <v>16089</v>
+        <v>16104</v>
       </c>
       <c r="C169" s="2">
         <v>130</v>
@@ -4269,13 +4269,13 @@
         <v>92.28571428571399</v>
       </c>
       <c r="E169" s="2">
-        <v>324044</v>
+        <v>324079</v>
       </c>
       <c r="F169" s="2">
-        <v>3994</v>
+        <v>3995</v>
       </c>
       <c r="G169" s="4">
-        <v>0.033996421429</v>
+        <v>0.033991054985</v>
       </c>
     </row>
     <row r="170" spans="1:7">
@@ -4283,7 +4283,7 @@
         <v>44090</v>
       </c>
       <c r="B170" s="2">
-        <v>16176</v>
+        <v>16191</v>
       </c>
       <c r="C170" s="2">
         <v>87</v>
@@ -4292,13 +4292,13 @@
         <v>83.142857142857</v>
       </c>
       <c r="E170" s="2">
-        <v>327369</v>
+        <v>327404</v>
       </c>
       <c r="F170" s="2">
         <v>3325</v>
       </c>
       <c r="G170" s="4">
-        <v>0.030967329998</v>
+        <v>0.030965682362</v>
       </c>
     </row>
     <row r="171" spans="1:7">
@@ -4306,7 +4306,7 @@
         <v>44091</v>
       </c>
       <c r="B171" s="2">
-        <v>16280</v>
+        <v>16295</v>
       </c>
       <c r="C171" s="2">
         <v>104</v>
@@ -4315,13 +4315,13 @@
         <v>83.142857142857</v>
       </c>
       <c r="E171" s="2">
-        <v>331119</v>
+        <v>331157</v>
       </c>
       <c r="F171" s="2">
-        <v>3750</v>
+        <v>3753</v>
       </c>
       <c r="G171" s="4">
-        <v>0.03023690773</v>
+        <v>0.030230625389</v>
       </c>
     </row>
     <row r="172" spans="1:7">
@@ -4329,7 +4329,7 @@
         <v>44092</v>
       </c>
       <c r="B172" s="2">
-        <v>16384</v>
+        <v>16399</v>
       </c>
       <c r="C172" s="2">
         <v>104</v>
@@ -4338,13 +4338,13 @@
         <v>87.571428571428</v>
       </c>
       <c r="E172" s="2">
-        <v>334395</v>
+        <v>334434</v>
       </c>
       <c r="F172" s="2">
-        <v>3276</v>
+        <v>3277</v>
       </c>
       <c r="G172" s="4">
-        <v>0.030622439804</v>
+        <v>0.030614792988</v>
       </c>
     </row>
     <row r="173" spans="1:7">
@@ -4352,7 +4352,7 @@
         <v>44093</v>
       </c>
       <c r="B173" s="2">
-        <v>16456</v>
+        <v>16471</v>
       </c>
       <c r="C173" s="2">
         <v>72</v>
@@ -4361,13 +4361,13 @@
         <v>90.714285714285</v>
       </c>
       <c r="E173" s="2">
-        <v>335914</v>
+        <v>335953</v>
       </c>
       <c r="F173" s="2">
         <v>1519</v>
       </c>
       <c r="G173" s="4">
-        <v>0.031538690771</v>
+        <v>0.031530860519</v>
       </c>
     </row>
     <row r="174" spans="1:7">
@@ -4375,7 +4375,7 @@
         <v>44094</v>
       </c>
       <c r="B174" s="2">
-        <v>16498</v>
+        <v>16513</v>
       </c>
       <c r="C174" s="2">
         <v>42</v>
@@ -4384,13 +4384,13 @@
         <v>91.428571428571</v>
       </c>
       <c r="E174" s="2">
-        <v>337070</v>
+        <v>337109</v>
       </c>
       <c r="F174" s="2">
         <v>1156</v>
       </c>
       <c r="G174" s="4">
-        <v>0.031314218612</v>
+        <v>0.031306559702</v>
       </c>
     </row>
     <row r="175" spans="1:7">
@@ -4398,7 +4398,7 @@
         <v>44095</v>
       </c>
       <c r="B175" s="2">
-        <v>16641</v>
+        <v>16656</v>
       </c>
       <c r="C175" s="2">
         <v>143</v>
@@ -4407,13 +4407,13 @@
         <v>97.428571428571</v>
       </c>
       <c r="E175" s="2">
-        <v>341449</v>
+        <v>341488</v>
       </c>
       <c r="F175" s="2">
         <v>4379</v>
       </c>
       <c r="G175" s="4">
-        <v>0.031870648161</v>
+        <v>0.031863203139</v>
       </c>
     </row>
     <row r="176" spans="1:7">
@@ -4421,7 +4421,7 @@
         <v>44096</v>
       </c>
       <c r="B176" s="2">
-        <v>16739</v>
+        <v>16754</v>
       </c>
       <c r="C176" s="2">
         <v>98</v>
@@ -4430,13 +4430,13 @@
         <v>92.85714285714199</v>
       </c>
       <c r="E176" s="2">
-        <v>345245</v>
+        <v>345284</v>
       </c>
       <c r="F176" s="2">
         <v>3796</v>
       </c>
       <c r="G176" s="4">
-        <v>0.030658931182</v>
+        <v>0.030653147842</v>
       </c>
     </row>
     <row r="177" spans="1:7">
@@ -4444,7 +4444,7 @@
         <v>44097</v>
       </c>
       <c r="B177" s="2">
-        <v>16833</v>
+        <v>16848</v>
       </c>
       <c r="C177" s="2">
         <v>94</v>
@@ -4453,13 +4453,13 @@
         <v>93.85714285714199</v>
       </c>
       <c r="E177" s="2">
-        <v>348758</v>
+        <v>348797</v>
       </c>
       <c r="F177" s="2">
         <v>3513</v>
       </c>
       <c r="G177" s="4">
-        <v>0.030716723549</v>
+        <v>0.030710980227</v>
       </c>
     </row>
     <row r="178" spans="1:7">
@@ -4467,7 +4467,7 @@
         <v>44098</v>
       </c>
       <c r="B178" s="2">
-        <v>16924</v>
+        <v>16939</v>
       </c>
       <c r="C178" s="2">
         <v>91</v>
@@ -4476,13 +4476,13 @@
         <v>92</v>
       </c>
       <c r="E178" s="2">
-        <v>352499</v>
+        <v>352539</v>
       </c>
       <c r="F178" s="2">
-        <v>3741</v>
+        <v>3742</v>
       </c>
       <c r="G178" s="4">
-        <v>0.03012160898</v>
+        <v>0.030118791506</v>
       </c>
     </row>
     <row r="179" spans="1:7">
@@ -4490,7 +4490,7 @@
         <v>44099</v>
       </c>
       <c r="B179" s="2">
-        <v>17013</v>
+        <v>17028</v>
       </c>
       <c r="C179" s="2">
         <v>89</v>
@@ -4499,13 +4499,13 @@
         <v>89.85714285714199</v>
       </c>
       <c r="E179" s="2">
-        <v>355813</v>
+        <v>355855</v>
       </c>
       <c r="F179" s="2">
-        <v>3314</v>
+        <v>3316</v>
       </c>
       <c r="G179" s="4">
-        <v>0.029367821458</v>
+        <v>0.02936370851</v>
       </c>
     </row>
     <row r="180" spans="1:7">
@@ -4513,7 +4513,7 @@
         <v>44100</v>
       </c>
       <c r="B180" s="2">
-        <v>17071</v>
+        <v>17086</v>
       </c>
       <c r="C180" s="2">
         <v>58</v>
@@ -4522,13 +4522,13 @@
         <v>87.85714285714199</v>
       </c>
       <c r="E180" s="2">
-        <v>357685</v>
+        <v>357727</v>
       </c>
       <c r="F180" s="2">
         <v>1872</v>
       </c>
       <c r="G180" s="4">
-        <v>0.02824858757</v>
+        <v>0.028244695508</v>
       </c>
     </row>
     <row r="181" spans="1:7">
@@ -4536,7 +4536,7 @@
         <v>44101</v>
       </c>
       <c r="B181" s="2">
-        <v>17094</v>
+        <v>17109</v>
       </c>
       <c r="C181" s="2">
         <v>23</v>
@@ -4545,13 +4545,13 @@
         <v>85.142857142857</v>
       </c>
       <c r="E181" s="2">
-        <v>358814</v>
+        <v>358856</v>
       </c>
       <c r="F181" s="2">
         <v>1129</v>
       </c>
       <c r="G181" s="4">
-        <v>0.027409860191</v>
+        <v>0.027406078999</v>
       </c>
     </row>
     <row r="182" spans="1:7">
@@ -4559,7 +4559,7 @@
         <v>44102</v>
       </c>
       <c r="B182" s="2">
-        <v>17207</v>
+        <v>17222</v>
       </c>
       <c r="C182" s="2">
         <v>113</v>
@@ -4568,13 +4568,13 @@
         <v>80.85714285714199</v>
       </c>
       <c r="E182" s="2">
-        <v>362921</v>
+        <v>362963</v>
       </c>
       <c r="F182" s="2">
         <v>4107</v>
       </c>
       <c r="G182" s="4">
-        <v>0.026359910581</v>
+        <v>0.026356228172</v>
       </c>
     </row>
     <row r="183" spans="1:7">
@@ -4582,7 +4582,7 @@
         <v>44103</v>
       </c>
       <c r="B183" s="2">
-        <v>17282</v>
+        <v>17297</v>
       </c>
       <c r="C183" s="2">
         <v>75</v>
@@ -4591,13 +4591,13 @@
         <v>77.571428571428</v>
       </c>
       <c r="E183" s="2">
-        <v>366764</v>
+        <v>366806</v>
       </c>
       <c r="F183" s="2">
         <v>3843</v>
       </c>
       <c r="G183" s="4">
-        <v>0.025233514568</v>
+        <v>0.025229997212</v>
       </c>
     </row>
     <row r="184" spans="1:7">
@@ -4605,7 +4605,7 @@
         <v>44104</v>
       </c>
       <c r="B184" s="2">
-        <v>17342</v>
+        <v>17357</v>
       </c>
       <c r="C184" s="2">
         <v>60</v>
@@ -4614,13 +4614,13 @@
         <v>72.714285714285</v>
       </c>
       <c r="E184" s="2">
-        <v>370325</v>
+        <v>370367</v>
       </c>
       <c r="F184" s="2">
         <v>3561</v>
       </c>
       <c r="G184" s="4">
-        <v>0.023600871702</v>
+        <v>0.023597589244</v>
       </c>
     </row>
     <row r="185" spans="1:7">
@@ -4628,7 +4628,7 @@
         <v>44105</v>
       </c>
       <c r="B185" s="2">
-        <v>17407</v>
+        <v>17422</v>
       </c>
       <c r="C185" s="2">
         <v>65</v>
@@ -4637,13 +4637,13 @@
         <v>69</v>
       </c>
       <c r="E185" s="2">
-        <v>373852</v>
+        <v>373894</v>
       </c>
       <c r="F185" s="2">
         <v>3527</v>
       </c>
       <c r="G185" s="4">
-        <v>0.022619772397</v>
+        <v>0.022617653945</v>
       </c>
     </row>
     <row r="186" spans="1:7">
@@ -4651,7 +4651,7 @@
         <v>44106</v>
       </c>
       <c r="B186" s="2">
-        <v>17483</v>
+        <v>17498</v>
       </c>
       <c r="C186" s="2">
         <v>76</v>
@@ -4660,7 +4660,7 @@
         <v>67.142857142857</v>
       </c>
       <c r="E186" s="2">
-        <v>377397</v>
+        <v>377439</v>
       </c>
       <c r="F186" s="2">
         <v>3545</v>
@@ -4674,7 +4674,7 @@
         <v>44107</v>
       </c>
       <c r="B187" s="2">
-        <v>17526</v>
+        <v>17541</v>
       </c>
       <c r="C187" s="2">
         <v>43</v>
@@ -4683,7 +4683,7 @@
         <v>65</v>
       </c>
       <c r="E187" s="2">
-        <v>379393</v>
+        <v>379435</v>
       </c>
       <c r="F187" s="2">
         <v>1996</v>
@@ -4697,7 +4697,7 @@
         <v>44108</v>
       </c>
       <c r="B188" s="2">
-        <v>17563</v>
+        <v>17578</v>
       </c>
       <c r="C188" s="2">
         <v>37</v>
@@ -4706,7 +4706,7 @@
         <v>67</v>
       </c>
       <c r="E188" s="2">
-        <v>380778</v>
+        <v>380820</v>
       </c>
       <c r="F188" s="2">
         <v>1385</v>
@@ -4720,7 +4720,7 @@
         <v>44109</v>
       </c>
       <c r="B189" s="2">
-        <v>17640</v>
+        <v>17655</v>
       </c>
       <c r="C189" s="2">
         <v>77</v>
@@ -4729,7 +4729,7 @@
         <v>61.857142857142</v>
       </c>
       <c r="E189" s="2">
-        <v>385587</v>
+        <v>385629</v>
       </c>
       <c r="F189" s="2">
         <v>4809</v>
@@ -4743,7 +4743,7 @@
         <v>44110</v>
       </c>
       <c r="B190" s="2">
-        <v>17703</v>
+        <v>17718</v>
       </c>
       <c r="C190" s="2">
         <v>63</v>
@@ -4752,7 +4752,7 @@
         <v>60.142857142857</v>
       </c>
       <c r="E190" s="2">
-        <v>390249</v>
+        <v>390291</v>
       </c>
       <c r="F190" s="2">
         <v>4662</v>
@@ -4766,7 +4766,7 @@
         <v>44111</v>
       </c>
       <c r="B191" s="2">
-        <v>17779</v>
+        <v>17794</v>
       </c>
       <c r="C191" s="2">
         <v>76</v>
@@ -4775,13 +4775,13 @@
         <v>62.428571428571</v>
       </c>
       <c r="E191" s="2">
-        <v>394442</v>
+        <v>394483</v>
       </c>
       <c r="F191" s="2">
-        <v>4193</v>
+        <v>4192</v>
       </c>
       <c r="G191" s="4">
-        <v>0.018119998341</v>
+        <v>0.018120749709</v>
       </c>
     </row>
     <row r="192" spans="1:7">
@@ -4789,7 +4789,7 @@
         <v>44112</v>
       </c>
       <c r="B192" s="2">
-        <v>17873</v>
+        <v>17888</v>
       </c>
       <c r="C192" s="2">
         <v>94</v>
@@ -4798,13 +4798,13 @@
         <v>66.571428571428</v>
       </c>
       <c r="E192" s="2">
-        <v>398695</v>
+        <v>398736</v>
       </c>
       <c r="F192" s="2">
         <v>4253</v>
       </c>
       <c r="G192" s="4">
-        <v>0.018757798977</v>
+        <v>0.018758554061</v>
       </c>
     </row>
     <row r="193" spans="1:7">
@@ -4812,7 +4812,7 @@
         <v>44113</v>
       </c>
       <c r="B193" s="2">
-        <v>17931</v>
+        <v>17946</v>
       </c>
       <c r="C193" s="2">
         <v>58</v>
@@ -4821,13 +4821,13 @@
         <v>64</v>
       </c>
       <c r="E193" s="2">
-        <v>402481</v>
+        <v>402520</v>
       </c>
       <c r="F193" s="2">
-        <v>3786</v>
+        <v>3784</v>
       </c>
       <c r="G193" s="4">
-        <v>0.017859990432</v>
+        <v>0.017862126709</v>
       </c>
     </row>
     <row r="194" spans="1:7">
@@ -4835,7 +4835,7 @@
         <v>44114</v>
       </c>
       <c r="B194" s="2">
-        <v>17972</v>
+        <v>17987</v>
       </c>
       <c r="C194" s="2">
         <v>41</v>
@@ -4844,13 +4844,13 @@
         <v>63.71428571428499</v>
       </c>
       <c r="E194" s="2">
-        <v>404275</v>
+        <v>404315</v>
       </c>
       <c r="F194" s="2">
-        <v>1794</v>
+        <v>1795</v>
       </c>
       <c r="G194" s="4">
-        <v>0.017924604131</v>
+        <v>0.017926045016</v>
       </c>
     </row>
     <row r="195" spans="1:7">
@@ -4858,7 +4858,7 @@
         <v>44115</v>
       </c>
       <c r="B195" s="2">
-        <v>17996</v>
+        <v>18011</v>
       </c>
       <c r="C195" s="2">
         <v>24</v>
@@ -4867,13 +4867,13 @@
         <v>61.857142857142</v>
       </c>
       <c r="E195" s="2">
-        <v>405609</v>
+        <v>405649</v>
       </c>
       <c r="F195" s="2">
         <v>1334</v>
       </c>
       <c r="G195" s="4">
-        <v>0.017437880069</v>
+        <v>0.017439284707</v>
       </c>
     </row>
     <row r="196" spans="1:7">
@@ -4881,7 +4881,7 @@
         <v>44116</v>
       </c>
       <c r="B196" s="2">
-        <v>18088</v>
+        <v>18103</v>
       </c>
       <c r="C196" s="2">
         <v>92</v>
@@ -4890,13 +4890,13 @@
         <v>64</v>
       </c>
       <c r="E196" s="2">
-        <v>410134</v>
+        <v>410183</v>
       </c>
       <c r="F196" s="2">
-        <v>4525</v>
+        <v>4534</v>
       </c>
       <c r="G196" s="4">
-        <v>0.018250702733</v>
+        <v>0.018245499714</v>
       </c>
     </row>
     <row r="197" spans="1:7">
@@ -4904,7 +4904,7 @@
         <v>44117</v>
       </c>
       <c r="B197" s="2">
-        <v>18178</v>
+        <v>18193</v>
       </c>
       <c r="C197" s="2">
         <v>90</v>
@@ -4913,13 +4913,13 @@
         <v>67.85714285714199</v>
       </c>
       <c r="E197" s="2">
-        <v>414646</v>
+        <v>414705</v>
       </c>
       <c r="F197" s="2">
-        <v>4512</v>
+        <v>4522</v>
       </c>
       <c r="G197" s="4">
-        <v>0.019469606918</v>
+        <v>0.019456049807</v>
       </c>
     </row>
     <row r="198" spans="1:7">
@@ -4927,7 +4927,7 @@
         <v>44118</v>
       </c>
       <c r="B198" s="2">
-        <v>18248</v>
+        <v>18263</v>
       </c>
       <c r="C198" s="2">
         <v>70</v>
@@ -4936,13 +4936,13 @@
         <v>67</v>
       </c>
       <c r="E198" s="2">
-        <v>418871</v>
+        <v>418934</v>
       </c>
       <c r="F198" s="2">
-        <v>4225</v>
+        <v>4229</v>
       </c>
       <c r="G198" s="4">
-        <v>0.019198493593</v>
+        <v>0.019181219582</v>
       </c>
     </row>
     <row r="199" spans="1:7">
@@ -4950,7 +4950,7 @@
         <v>44119</v>
       </c>
       <c r="B199" s="2">
-        <v>18299</v>
+        <v>18314</v>
       </c>
       <c r="C199" s="2">
         <v>51</v>
@@ -4959,13 +4959,13 @@
         <v>60.857142857142</v>
       </c>
       <c r="E199" s="2">
-        <v>422883</v>
+        <v>422946</v>
       </c>
       <c r="F199" s="2">
         <v>4012</v>
       </c>
       <c r="G199" s="4">
-        <v>0.017612039027</v>
+        <v>0.017596034696</v>
       </c>
     </row>
     <row r="200" spans="1:7">
@@ -4973,7 +4973,7 @@
         <v>44120</v>
       </c>
       <c r="B200" s="2">
-        <v>18357</v>
+        <v>18372</v>
       </c>
       <c r="C200" s="2">
         <v>58</v>
@@ -4982,13 +4982,13 @@
         <v>60.857142857142</v>
       </c>
       <c r="E200" s="2">
-        <v>426873</v>
+        <v>426937</v>
       </c>
       <c r="F200" s="2">
-        <v>3990</v>
+        <v>3991</v>
       </c>
       <c r="G200" s="4">
-        <v>0.017464742538</v>
+        <v>0.017446860793</v>
       </c>
     </row>
     <row r="201" spans="1:7">
@@ -4996,7 +4996,7 @@
         <v>44121</v>
       </c>
       <c r="B201" s="2">
-        <v>18402</v>
+        <v>18417</v>
       </c>
       <c r="C201" s="2">
         <v>45</v>
@@ -5005,13 +5005,13 @@
         <v>61.428571428571</v>
       </c>
       <c r="E201" s="2">
-        <v>428775</v>
+        <v>428839</v>
       </c>
       <c r="F201" s="2">
         <v>1902</v>
       </c>
       <c r="G201" s="4">
-        <v>0.017551020408</v>
+        <v>0.017533844397</v>
       </c>
     </row>
     <row r="202" spans="1:7">
@@ -5019,7 +5019,7 @@
         <v>44122</v>
       </c>
       <c r="B202" s="2">
-        <v>18438</v>
+        <v>18453</v>
       </c>
       <c r="C202" s="2">
         <v>36</v>
@@ -5028,13 +5028,13 @@
         <v>63.142857142857</v>
       </c>
       <c r="E202" s="2">
-        <v>430153</v>
+        <v>430217</v>
       </c>
       <c r="F202" s="2">
         <v>1378</v>
       </c>
       <c r="G202" s="4">
-        <v>0.018008474576</v>
+        <v>0.017990882448</v>
       </c>
     </row>
     <row r="203" spans="1:7">
@@ -5042,7 +5042,7 @@
         <v>44123</v>
       </c>
       <c r="B203" s="2">
-        <v>18527</v>
+        <v>18542</v>
       </c>
       <c r="C203" s="2">
         <v>89</v>
@@ -5051,13 +5051,13 @@
         <v>62.71428571428499</v>
       </c>
       <c r="E203" s="2">
-        <v>434982</v>
+        <v>435046</v>
       </c>
       <c r="F203" s="2">
         <v>4829</v>
       </c>
       <c r="G203" s="4">
-        <v>0.0176674179</v>
+        <v>0.017656759039</v>
       </c>
     </row>
     <row r="204" spans="1:7">
@@ -5065,7 +5065,7 @@
         <v>44124</v>
       </c>
       <c r="B204" s="2">
-        <v>18623</v>
+        <v>18638</v>
       </c>
       <c r="C204" s="2">
         <v>96</v>
@@ -5074,13 +5074,13 @@
         <v>63.57142857142801</v>
       </c>
       <c r="E204" s="2">
-        <v>439768</v>
+        <v>439832</v>
       </c>
       <c r="F204" s="2">
         <v>4786</v>
       </c>
       <c r="G204" s="4">
-        <v>0.017713557837</v>
+        <v>0.017710033032</v>
       </c>
     </row>
     <row r="205" spans="1:7">
@@ -5088,7 +5088,7 @@
         <v>44125</v>
       </c>
       <c r="B205" s="2">
-        <v>18707</v>
+        <v>18722</v>
       </c>
       <c r="C205" s="2">
         <v>84</v>
@@ -5097,13 +5097,13 @@
         <v>65.571428571428</v>
       </c>
       <c r="E205" s="2">
-        <v>444078</v>
+        <v>444143</v>
       </c>
       <c r="F205" s="2">
-        <v>4310</v>
+        <v>4311</v>
       </c>
       <c r="G205" s="4">
-        <v>0.018209227595</v>
+        <v>0.018207782934</v>
       </c>
     </row>
     <row r="206" spans="1:7">
@@ -5111,22 +5111,22 @@
         <v>44126</v>
       </c>
       <c r="B206" s="2">
-        <v>18770</v>
+        <v>18784</v>
       </c>
       <c r="C206" s="2">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D206" s="3">
-        <v>67.28571428571399</v>
+        <v>67.142857142857</v>
       </c>
       <c r="E206" s="2">
-        <v>447999</v>
+        <v>448064</v>
       </c>
       <c r="F206" s="2">
         <v>3921</v>
       </c>
       <c r="G206" s="4">
-        <v>0.018752986144</v>
+        <v>0.018711680866</v>
       </c>
     </row>
     <row r="207" spans="1:7">
@@ -5134,22 +5134,22 @@
         <v>44127</v>
       </c>
       <c r="B207" s="2">
-        <v>18855</v>
+        <v>18868</v>
       </c>
       <c r="C207" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D207" s="3">
-        <v>71.142857142857</v>
+        <v>70.85714285714199</v>
       </c>
       <c r="E207" s="2">
-        <v>451808</v>
+        <v>451873</v>
       </c>
       <c r="F207" s="2">
         <v>3809</v>
       </c>
       <c r="G207" s="4">
-        <v>0.01997192701</v>
+        <v>0.019890920757</v>
       </c>
     </row>
     <row r="208" spans="1:7">
@@ -5157,22 +5157,22 @@
         <v>44128</v>
       </c>
       <c r="B208" s="2">
-        <v>18912</v>
+        <v>18924</v>
       </c>
       <c r="C208" s="2">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D208" s="3">
-        <v>72.85714285714199</v>
+        <v>72.428571428571</v>
       </c>
       <c r="E208" s="2">
-        <v>453759</v>
+        <v>453823</v>
       </c>
       <c r="F208" s="2">
-        <v>1951</v>
+        <v>1950</v>
       </c>
       <c r="G208" s="4">
-        <v>0.020413064361</v>
+        <v>0.020292987512</v>
       </c>
     </row>
     <row r="209" spans="1:7">
@@ -5180,22 +5180,22 @@
         <v>44129</v>
       </c>
       <c r="B209" s="2">
-        <v>18951</v>
+        <v>18963</v>
       </c>
       <c r="C209" s="2">
         <v>39</v>
       </c>
       <c r="D209" s="3">
-        <v>73.28571428571399</v>
+        <v>72.85714285714199</v>
       </c>
       <c r="E209" s="2">
-        <v>455358</v>
+        <v>455422</v>
       </c>
       <c r="F209" s="2">
         <v>1599</v>
       </c>
       <c r="G209" s="4">
-        <v>0.020353104542</v>
+        <v>0.020234080539</v>
       </c>
     </row>
     <row r="210" spans="1:7">
@@ -5203,22 +5203,22 @@
         <v>44130</v>
       </c>
       <c r="B210" s="2">
-        <v>19066</v>
+        <v>19078</v>
       </c>
       <c r="C210" s="2">
         <v>115</v>
       </c>
       <c r="D210" s="3">
-        <v>77</v>
+        <v>76.571428571428</v>
       </c>
       <c r="E210" s="2">
-        <v>460247</v>
+        <v>460318</v>
       </c>
       <c r="F210" s="2">
-        <v>4889</v>
+        <v>4896</v>
       </c>
       <c r="G210" s="4">
-        <v>0.021333861072</v>
+        <v>0.021209243431</v>
       </c>
     </row>
     <row r="211" spans="1:7">
@@ -5226,22 +5226,45 @@
         <v>44131</v>
       </c>
       <c r="B211" s="2">
-        <v>19169</v>
+        <v>19182</v>
       </c>
       <c r="C211" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D211" s="3">
-        <v>78</v>
+        <v>77.714285714285</v>
       </c>
       <c r="E211" s="2">
-        <v>465406</v>
+        <v>465481</v>
       </c>
       <c r="F211" s="2">
-        <v>5159</v>
+        <v>5163</v>
       </c>
       <c r="G211" s="4">
-        <v>0.021296512988</v>
+        <v>0.021209403875</v>
+      </c>
+    </row>
+    <row r="212" spans="1:7">
+      <c r="A212" s="1">
+        <v>44132</v>
+      </c>
+      <c r="B212" s="2">
+        <v>19281</v>
+      </c>
+      <c r="C212" s="2">
+        <v>99</v>
+      </c>
+      <c r="D212" s="3">
+        <v>79.85714285714199</v>
+      </c>
+      <c r="E212" s="2">
+        <v>469963</v>
+      </c>
+      <c r="F212" s="2">
+        <v>4482</v>
+      </c>
+      <c r="G212" s="4">
+        <v>0.02164988381</v>
       </c>
     </row>
   </sheetData>

--- a/contra_costa_county_testing.xlsx
+++ b/contra_costa_county_testing.xlsx
@@ -376,7 +376,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G212"/>
+  <dimension ref="A1:G215"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -635,13 +635,13 @@
         <v>25.857142857142</v>
       </c>
       <c r="E11" s="2">
-        <v>8723</v>
+        <v>8722</v>
       </c>
       <c r="F11" s="2">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="G11" s="4">
-        <v>0.079982324348</v>
+        <v>0.080017683465</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -658,13 +658,13 @@
         <v>24.428571428571</v>
       </c>
       <c r="E12" s="2">
-        <v>8902</v>
+        <v>8901</v>
       </c>
       <c r="F12" s="2">
         <v>179</v>
       </c>
       <c r="G12" s="4">
-        <v>0.07583148558699999</v>
+        <v>0.07586512866</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -681,13 +681,13 @@
         <v>23.285714285714</v>
       </c>
       <c r="E13" s="2">
-        <v>9017</v>
+        <v>9016</v>
       </c>
       <c r="F13" s="2">
         <v>115</v>
       </c>
       <c r="G13" s="4">
-        <v>0.073990013617</v>
+        <v>0.07402361489500001</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -704,13 +704,13 @@
         <v>23.428571428571</v>
       </c>
       <c r="E14" s="2">
-        <v>9374</v>
+        <v>9373</v>
       </c>
       <c r="F14" s="2">
         <v>357</v>
       </c>
       <c r="G14" s="4">
-        <v>0.075057208237</v>
+        <v>0.07509157509100001</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -727,13 +727,13 @@
         <v>20.714285714285</v>
       </c>
       <c r="E15" s="2">
-        <v>9695</v>
+        <v>9694</v>
       </c>
       <c r="F15" s="2">
         <v>321</v>
       </c>
       <c r="G15" s="4">
-        <v>0.06846081208599999</v>
+        <v>0.068493150684</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -750,13 +750,13 @@
         <v>21.857142857142</v>
       </c>
       <c r="E16" s="2">
-        <v>10046</v>
+        <v>10045</v>
       </c>
       <c r="F16" s="2">
         <v>351</v>
       </c>
       <c r="G16" s="4">
-        <v>0.07199999999999999</v>
+        <v>0.072033898305</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -773,13 +773,13 @@
         <v>22.428571428571</v>
       </c>
       <c r="E17" s="2">
-        <v>10429</v>
+        <v>10428</v>
       </c>
       <c r="F17" s="2">
         <v>383</v>
       </c>
       <c r="G17" s="4">
-        <v>0.071886446886</v>
+        <v>0.071919377004</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -796,7 +796,7 @@
         <v>17.428571428571</v>
       </c>
       <c r="E18" s="2">
-        <v>10775</v>
+        <v>10774</v>
       </c>
       <c r="F18" s="2">
         <v>346</v>
@@ -819,7 +819,7 @@
         <v>16.714285714285</v>
       </c>
       <c r="E19" s="2">
-        <v>10930</v>
+        <v>10929</v>
       </c>
       <c r="F19" s="2">
         <v>155</v>
@@ -842,7 +842,7 @@
         <v>17.428571428571</v>
       </c>
       <c r="E20" s="2">
-        <v>11077</v>
+        <v>11076</v>
       </c>
       <c r="F20" s="2">
         <v>147</v>
@@ -865,7 +865,7 @@
         <v>15.142857142857</v>
       </c>
       <c r="E21" s="2">
-        <v>11444</v>
+        <v>11443</v>
       </c>
       <c r="F21" s="2">
         <v>367</v>
@@ -888,7 +888,7 @@
         <v>15.428571428571</v>
       </c>
       <c r="E22" s="2">
-        <v>11849</v>
+        <v>11848</v>
       </c>
       <c r="F22" s="2">
         <v>405</v>
@@ -911,7 +911,7 @@
         <v>13.428571428571</v>
       </c>
       <c r="E23" s="2">
-        <v>12369</v>
+        <v>12368</v>
       </c>
       <c r="F23" s="2">
         <v>520</v>
@@ -934,7 +934,7 @@
         <v>12.714285714285</v>
       </c>
       <c r="E24" s="2">
-        <v>12926</v>
+        <v>12925</v>
       </c>
       <c r="F24" s="2">
         <v>557</v>
@@ -957,7 +957,7 @@
         <v>14</v>
       </c>
       <c r="E25" s="2">
-        <v>13491</v>
+        <v>13490</v>
       </c>
       <c r="F25" s="2">
         <v>565</v>
@@ -980,7 +980,7 @@
         <v>13.714285714285</v>
       </c>
       <c r="E26" s="2">
-        <v>13722</v>
+        <v>13721</v>
       </c>
       <c r="F26" s="2">
         <v>231</v>
@@ -1003,7 +1003,7 @@
         <v>14.285714285714</v>
       </c>
       <c r="E27" s="2">
-        <v>13952</v>
+        <v>13951</v>
       </c>
       <c r="F27" s="2">
         <v>230</v>
@@ -1026,7 +1026,7 @@
         <v>15.428571428571</v>
       </c>
       <c r="E28" s="2">
-        <v>14553</v>
+        <v>14552</v>
       </c>
       <c r="F28" s="2">
         <v>601</v>
@@ -1049,7 +1049,7 @@
         <v>15.285714285714</v>
       </c>
       <c r="E29" s="2">
-        <v>15092</v>
+        <v>15091</v>
       </c>
       <c r="F29" s="2">
         <v>539</v>
@@ -1072,7 +1072,7 @@
         <v>15.857142857142</v>
       </c>
       <c r="E30" s="2">
-        <v>15789</v>
+        <v>15788</v>
       </c>
       <c r="F30" s="2">
         <v>697</v>
@@ -1095,7 +1095,7 @@
         <v>16.857142857142</v>
       </c>
       <c r="E31" s="2">
-        <v>16635</v>
+        <v>16634</v>
       </c>
       <c r="F31" s="2">
         <v>846</v>
@@ -1118,7 +1118,7 @@
         <v>15.285714285714</v>
       </c>
       <c r="E32" s="2">
-        <v>17366</v>
+        <v>17365</v>
       </c>
       <c r="F32" s="2">
         <v>731</v>
@@ -1141,7 +1141,7 @@
         <v>15.857142857142</v>
       </c>
       <c r="E33" s="2">
-        <v>17654</v>
+        <v>17653</v>
       </c>
       <c r="F33" s="2">
         <v>288</v>
@@ -1164,7 +1164,7 @@
         <v>14.857142857142</v>
       </c>
       <c r="E34" s="2">
-        <v>17918</v>
+        <v>17917</v>
       </c>
       <c r="F34" s="2">
         <v>264</v>
@@ -1187,7 +1187,7 @@
         <v>15.285714285714</v>
       </c>
       <c r="E35" s="2">
-        <v>18696</v>
+        <v>18695</v>
       </c>
       <c r="F35" s="2">
         <v>778</v>
@@ -1210,7 +1210,7 @@
         <v>15.428571428571</v>
       </c>
       <c r="E36" s="2">
-        <v>19375</v>
+        <v>19374</v>
       </c>
       <c r="F36" s="2">
         <v>679</v>
@@ -1233,7 +1233,7 @@
         <v>16.428571428571</v>
       </c>
       <c r="E37" s="2">
-        <v>20340</v>
+        <v>20339</v>
       </c>
       <c r="F37" s="2">
         <v>965</v>
@@ -1256,7 +1256,7 @@
         <v>14.428571428571</v>
       </c>
       <c r="E38" s="2">
-        <v>21237</v>
+        <v>21236</v>
       </c>
       <c r="F38" s="2">
         <v>897</v>
@@ -1279,7 +1279,7 @@
         <v>15.285714285714</v>
       </c>
       <c r="E39" s="2">
-        <v>22377</v>
+        <v>22376</v>
       </c>
       <c r="F39" s="2">
         <v>1140</v>
@@ -1302,7 +1302,7 @@
         <v>14.714285714285</v>
       </c>
       <c r="E40" s="2">
-        <v>22759</v>
+        <v>22758</v>
       </c>
       <c r="F40" s="2">
         <v>382</v>
@@ -1325,7 +1325,7 @@
         <v>15.142857142857</v>
       </c>
       <c r="E41" s="2">
-        <v>23102</v>
+        <v>23101</v>
       </c>
       <c r="F41" s="2">
         <v>343</v>
@@ -1351,10 +1351,10 @@
         <v>24205</v>
       </c>
       <c r="F42" s="2">
-        <v>1103</v>
+        <v>1104</v>
       </c>
       <c r="G42" s="4">
-        <v>0.016518424396</v>
+        <v>0.016515426497</v>
       </c>
     </row>
     <row r="43" spans="1:7">
@@ -1377,7 +1377,7 @@
         <v>1231</v>
       </c>
       <c r="G43" s="4">
-        <v>0.014189077709</v>
+        <v>0.01418673705</v>
       </c>
     </row>
     <row r="44" spans="1:7">
@@ -1394,10 +1394,10 @@
         <v>12.857142857142</v>
       </c>
       <c r="E44" s="2">
-        <v>26529</v>
+        <v>26528</v>
       </c>
       <c r="F44" s="2">
-        <v>1093</v>
+        <v>1092</v>
       </c>
       <c r="G44" s="4">
         <v>0.014541929229</v>
@@ -1417,13 +1417,13 @@
         <v>14</v>
       </c>
       <c r="E45" s="2">
-        <v>27390</v>
+        <v>27388</v>
       </c>
       <c r="F45" s="2">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="G45" s="4">
-        <v>0.015927189988</v>
+        <v>0.015929778933</v>
       </c>
     </row>
     <row r="46" spans="1:7">
@@ -1440,13 +1440,13 @@
         <v>15.714285714285</v>
       </c>
       <c r="E46" s="2">
-        <v>28309</v>
+        <v>28307</v>
       </c>
       <c r="F46" s="2">
         <v>919</v>
       </c>
       <c r="G46" s="4">
-        <v>0.018543492919</v>
+        <v>0.018546619457</v>
       </c>
     </row>
     <row r="47" spans="1:7">
@@ -1463,13 +1463,13 @@
         <v>17.571428571428</v>
       </c>
       <c r="E47" s="2">
-        <v>28719</v>
+        <v>28717</v>
       </c>
       <c r="F47" s="2">
         <v>410</v>
       </c>
       <c r="G47" s="4">
-        <v>0.020637583892</v>
+        <v>0.020641047155</v>
       </c>
     </row>
     <row r="48" spans="1:7">
@@ -1486,13 +1486,13 @@
         <v>18</v>
       </c>
       <c r="E48" s="2">
-        <v>29103</v>
+        <v>29100</v>
       </c>
       <c r="F48" s="2">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="G48" s="4">
-        <v>0.020996500583</v>
+        <v>0.021003500583</v>
       </c>
     </row>
     <row r="49" spans="1:7">
@@ -1509,13 +1509,13 @@
         <v>22.428571428571</v>
       </c>
       <c r="E49" s="2">
-        <v>30468</v>
+        <v>30464</v>
       </c>
       <c r="F49" s="2">
-        <v>1365</v>
+        <v>1364</v>
       </c>
       <c r="G49" s="4">
-        <v>0.025067858853</v>
+        <v>0.025083879213</v>
       </c>
     </row>
     <row r="50" spans="1:7">
@@ -1532,13 +1532,13 @@
         <v>25.714285714285</v>
       </c>
       <c r="E50" s="2">
-        <v>32126</v>
+        <v>32121</v>
       </c>
       <c r="F50" s="2">
-        <v>1658</v>
+        <v>1657</v>
       </c>
       <c r="G50" s="4">
-        <v>0.026905829596</v>
+        <v>0.026925953627</v>
       </c>
     </row>
     <row r="51" spans="1:7">
@@ -1555,13 +1555,13 @@
         <v>26.142857142857</v>
       </c>
       <c r="E51" s="2">
-        <v>33267</v>
+        <v>33262</v>
       </c>
       <c r="F51" s="2">
         <v>1141</v>
       </c>
       <c r="G51" s="4">
-        <v>0.027159394479</v>
+        <v>0.027175527175</v>
       </c>
     </row>
     <row r="52" spans="1:7">
@@ -1578,13 +1578,13 @@
         <v>27.428571428571</v>
       </c>
       <c r="E52" s="2">
-        <v>34398</v>
+        <v>34393</v>
       </c>
       <c r="F52" s="2">
         <v>1131</v>
       </c>
       <c r="G52" s="4">
-        <v>0.027397260273</v>
+        <v>0.027408993576</v>
       </c>
     </row>
     <row r="53" spans="1:7">
@@ -1601,13 +1601,13 @@
         <v>29.142857142857</v>
       </c>
       <c r="E53" s="2">
-        <v>35487</v>
+        <v>35482</v>
       </c>
       <c r="F53" s="2">
         <v>1089</v>
       </c>
       <c r="G53" s="4">
-        <v>0.02842017275</v>
+        <v>0.028432055749</v>
       </c>
     </row>
     <row r="54" spans="1:7">
@@ -1624,13 +1624,13 @@
         <v>28</v>
       </c>
       <c r="E54" s="2">
-        <v>36006</v>
+        <v>36001</v>
       </c>
       <c r="F54" s="2">
         <v>519</v>
       </c>
       <c r="G54" s="4">
-        <v>0.026897214217</v>
+        <v>0.026908292147</v>
       </c>
     </row>
     <row r="55" spans="1:7">
@@ -1647,13 +1647,13 @@
         <v>27.571428571428</v>
       </c>
       <c r="E55" s="2">
-        <v>36396</v>
+        <v>36390</v>
       </c>
       <c r="F55" s="2">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="G55" s="4">
-        <v>0.026463732346</v>
+        <v>0.02647462277</v>
       </c>
     </row>
     <row r="56" spans="1:7">
@@ -1670,13 +1670,13 @@
         <v>23.285714285714</v>
       </c>
       <c r="E56" s="2">
-        <v>36857</v>
+        <v>36851</v>
       </c>
       <c r="F56" s="2">
         <v>461</v>
       </c>
       <c r="G56" s="4">
-        <v>0.02551259978</v>
+        <v>0.025520588695</v>
       </c>
     </row>
     <row r="57" spans="1:7">
@@ -1693,13 +1693,13 @@
         <v>23.714285714285</v>
       </c>
       <c r="E57" s="2">
-        <v>38054</v>
+        <v>38048</v>
       </c>
       <c r="F57" s="2">
         <v>1197</v>
       </c>
       <c r="G57" s="4">
-        <v>0.028002699055</v>
+        <v>0.028007423654</v>
       </c>
     </row>
     <row r="58" spans="1:7">
@@ -1716,13 +1716,13 @@
         <v>23.714285714285</v>
       </c>
       <c r="E58" s="2">
-        <v>39160</v>
+        <v>39151</v>
       </c>
       <c r="F58" s="2">
-        <v>1106</v>
+        <v>1103</v>
       </c>
       <c r="G58" s="4">
-        <v>0.028169014084</v>
+        <v>0.028188147393</v>
       </c>
     </row>
     <row r="59" spans="1:7">
@@ -1739,13 +1739,13 @@
         <v>26.285714285714</v>
       </c>
       <c r="E59" s="2">
-        <v>40296</v>
+        <v>40287</v>
       </c>
       <c r="F59" s="2">
         <v>1136</v>
       </c>
       <c r="G59" s="4">
-        <v>0.031197015937</v>
+        <v>0.031218187987</v>
       </c>
     </row>
     <row r="60" spans="1:7">
@@ -1762,13 +1762,13 @@
         <v>26.285714285714</v>
       </c>
       <c r="E60" s="2">
-        <v>41697</v>
+        <v>41688</v>
       </c>
       <c r="F60" s="2">
         <v>1401</v>
       </c>
       <c r="G60" s="4">
-        <v>0.029629629629</v>
+        <v>0.029648727038</v>
       </c>
     </row>
     <row r="61" spans="1:7">
@@ -1785,13 +1785,13 @@
         <v>26</v>
       </c>
       <c r="E61" s="2">
-        <v>42431</v>
+        <v>42422</v>
       </c>
       <c r="F61" s="2">
         <v>734</v>
       </c>
       <c r="G61" s="4">
-        <v>0.028326848249</v>
+        <v>0.028344494627</v>
       </c>
     </row>
     <row r="62" spans="1:7">
@@ -1808,13 +1808,13 @@
         <v>25.714285714285</v>
       </c>
       <c r="E62" s="2">
-        <v>42827</v>
+        <v>42818</v>
       </c>
       <c r="F62" s="2">
         <v>396</v>
       </c>
       <c r="G62" s="4">
-        <v>0.027989426216</v>
+        <v>0.02800248911</v>
       </c>
     </row>
     <row r="63" spans="1:7">
@@ -1831,13 +1831,13 @@
         <v>29</v>
       </c>
       <c r="E63" s="2">
-        <v>44201</v>
+        <v>44192</v>
       </c>
       <c r="F63" s="2">
         <v>1374</v>
       </c>
       <c r="G63" s="4">
-        <v>0.0276416122</v>
+        <v>0.027652908323</v>
       </c>
     </row>
     <row r="64" spans="1:7">
@@ -1854,13 +1854,13 @@
         <v>28</v>
       </c>
       <c r="E64" s="2">
-        <v>45418</v>
+        <v>45409</v>
       </c>
       <c r="F64" s="2">
         <v>1217</v>
       </c>
       <c r="G64" s="4">
-        <v>0.026615969581</v>
+        <v>0.026626817008</v>
       </c>
     </row>
     <row r="65" spans="1:7">
@@ -1877,7 +1877,7 @@
         <v>27.571428571428</v>
       </c>
       <c r="E65" s="2">
-        <v>46581</v>
+        <v>46572</v>
       </c>
       <c r="F65" s="2">
         <v>1163</v>
@@ -1900,7 +1900,7 @@
         <v>28.285714285714</v>
       </c>
       <c r="E66" s="2">
-        <v>47931</v>
+        <v>47922</v>
       </c>
       <c r="F66" s="2">
         <v>1350</v>
@@ -1923,7 +1923,7 @@
         <v>29.285714285714</v>
       </c>
       <c r="E67" s="2">
-        <v>49561</v>
+        <v>49552</v>
       </c>
       <c r="F67" s="2">
         <v>1630</v>
@@ -1946,7 +1946,7 @@
         <v>30.571428571428</v>
       </c>
       <c r="E68" s="2">
-        <v>50166</v>
+        <v>50157</v>
       </c>
       <c r="F68" s="2">
         <v>605</v>
@@ -1969,7 +1969,7 @@
         <v>32.428571428571</v>
       </c>
       <c r="E69" s="2">
-        <v>50650</v>
+        <v>50641</v>
       </c>
       <c r="F69" s="2">
         <v>484</v>
@@ -1992,7 +1992,7 @@
         <v>34.714285714285</v>
       </c>
       <c r="E70" s="2">
-        <v>52485</v>
+        <v>52476</v>
       </c>
       <c r="F70" s="2">
         <v>1835</v>
@@ -2015,7 +2015,7 @@
         <v>36.428571428571</v>
       </c>
       <c r="E71" s="2">
-        <v>54331</v>
+        <v>54322</v>
       </c>
       <c r="F71" s="2">
         <v>1846</v>
@@ -2038,7 +2038,7 @@
         <v>40.142857142857</v>
       </c>
       <c r="E72" s="2">
-        <v>56323</v>
+        <v>56314</v>
       </c>
       <c r="F72" s="2">
         <v>1992</v>
@@ -2061,13 +2061,13 @@
         <v>40.428571428571</v>
       </c>
       <c r="E73" s="2">
-        <v>58478</v>
+        <v>58468</v>
       </c>
       <c r="F73" s="2">
-        <v>2155</v>
+        <v>2154</v>
       </c>
       <c r="G73" s="4">
-        <v>0.02683227458</v>
+        <v>0.026834818888</v>
       </c>
     </row>
     <row r="74" spans="1:7">
@@ -2084,13 +2084,13 @@
         <v>42</v>
       </c>
       <c r="E74" s="2">
-        <v>60739</v>
+        <v>60729</v>
       </c>
       <c r="F74" s="2">
         <v>2261</v>
       </c>
       <c r="G74" s="4">
-        <v>0.026301663982</v>
+        <v>0.026304017178</v>
       </c>
     </row>
     <row r="75" spans="1:7">
@@ -2107,13 +2107,13 @@
         <v>44.285714285714</v>
       </c>
       <c r="E75" s="2">
-        <v>61583</v>
+        <v>61573</v>
       </c>
       <c r="F75" s="2">
         <v>844</v>
       </c>
       <c r="G75" s="4">
-        <v>0.027152491898</v>
+        <v>0.027154870357</v>
       </c>
     </row>
     <row r="76" spans="1:7">
@@ -2130,13 +2130,13 @@
         <v>45.571428571428</v>
       </c>
       <c r="E76" s="2">
-        <v>62170</v>
+        <v>62160</v>
       </c>
       <c r="F76" s="2">
         <v>587</v>
       </c>
       <c r="G76" s="4">
-        <v>0.027690972222</v>
+        <v>0.027693376161</v>
       </c>
     </row>
     <row r="77" spans="1:7">
@@ -2153,13 +2153,13 @@
         <v>46.857142857142</v>
       </c>
       <c r="E77" s="2">
-        <v>64391</v>
+        <v>64381</v>
       </c>
       <c r="F77" s="2">
         <v>2221</v>
       </c>
       <c r="G77" s="4">
-        <v>0.027549134889</v>
+        <v>0.027551448971</v>
       </c>
     </row>
     <row r="78" spans="1:7">
@@ -2176,13 +2176,13 @@
         <v>52.714285714285</v>
       </c>
       <c r="E78" s="2">
-        <v>66922</v>
+        <v>66912</v>
       </c>
       <c r="F78" s="2">
         <v>2531</v>
       </c>
       <c r="G78" s="4">
-        <v>0.029306647605</v>
+        <v>0.029308975377</v>
       </c>
     </row>
     <row r="79" spans="1:7">
@@ -2199,13 +2199,13 @@
         <v>57.285714285714</v>
       </c>
       <c r="E79" s="2">
-        <v>69497</v>
+        <v>69487</v>
       </c>
       <c r="F79" s="2">
         <v>2575</v>
       </c>
       <c r="G79" s="4">
-        <v>0.030438742978</v>
+        <v>0.03044105367</v>
       </c>
     </row>
     <row r="80" spans="1:7">
@@ -2222,7 +2222,7 @@
         <v>62.57142857142801</v>
       </c>
       <c r="E80" s="2">
-        <v>72029</v>
+        <v>72019</v>
       </c>
       <c r="F80" s="2">
         <v>2532</v>
@@ -2245,7 +2245,7 @@
         <v>69.142857142857</v>
       </c>
       <c r="E81" s="2">
-        <v>74474</v>
+        <v>74464</v>
       </c>
       <c r="F81" s="2">
         <v>2445</v>
@@ -2268,7 +2268,7 @@
         <v>71.85714285714199</v>
       </c>
       <c r="E82" s="2">
-        <v>75428</v>
+        <v>75418</v>
       </c>
       <c r="F82" s="2">
         <v>954</v>
@@ -2291,7 +2291,7 @@
         <v>73.714285714285</v>
       </c>
       <c r="E83" s="2">
-        <v>76126</v>
+        <v>76116</v>
       </c>
       <c r="F83" s="2">
         <v>698</v>
@@ -2314,7 +2314,7 @@
         <v>81.428571428571</v>
       </c>
       <c r="E84" s="2">
-        <v>78744</v>
+        <v>78734</v>
       </c>
       <c r="F84" s="2">
         <v>2618</v>
@@ -2328,22 +2328,22 @@
         <v>44005</v>
       </c>
       <c r="B85" s="2">
-        <v>2890</v>
+        <v>2891</v>
       </c>
       <c r="C85" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D85" s="3">
-        <v>88.428571428571</v>
+        <v>88.571428571428</v>
       </c>
       <c r="E85" s="2">
-        <v>81529</v>
+        <v>81520</v>
       </c>
       <c r="F85" s="2">
-        <v>2785</v>
+        <v>2786</v>
       </c>
       <c r="G85" s="4">
-        <v>0.042376942561</v>
+        <v>0.042442497261</v>
       </c>
     </row>
     <row r="86" spans="1:7">
@@ -2351,22 +2351,22 @@
         <v>44006</v>
       </c>
       <c r="B86" s="2">
-        <v>3033</v>
+        <v>3034</v>
       </c>
       <c r="C86" s="2">
         <v>143</v>
       </c>
       <c r="D86" s="3">
-        <v>96.428571428571</v>
+        <v>96.571428571428</v>
       </c>
       <c r="E86" s="2">
-        <v>84565</v>
+        <v>84556</v>
       </c>
       <c r="F86" s="2">
         <v>3036</v>
       </c>
       <c r="G86" s="4">
-        <v>0.044796920626</v>
+        <v>0.044860309244</v>
       </c>
     </row>
     <row r="87" spans="1:7">
@@ -2374,22 +2374,22 @@
         <v>44007</v>
       </c>
       <c r="B87" s="2">
-        <v>3185</v>
+        <v>3186</v>
       </c>
       <c r="C87" s="2">
         <v>152</v>
       </c>
       <c r="D87" s="3">
-        <v>105.142857142857</v>
+        <v>105.285714285714</v>
       </c>
       <c r="E87" s="2">
-        <v>87932</v>
+        <v>87923</v>
       </c>
       <c r="F87" s="2">
         <v>3367</v>
       </c>
       <c r="G87" s="4">
-        <v>0.046280575991</v>
+        <v>0.046340543259</v>
       </c>
     </row>
     <row r="88" spans="1:7">
@@ -2397,22 +2397,22 @@
         <v>44008</v>
       </c>
       <c r="B88" s="2">
-        <v>3355</v>
+        <v>3356</v>
       </c>
       <c r="C88" s="2">
         <v>170</v>
       </c>
       <c r="D88" s="3">
-        <v>114.571428571428</v>
+        <v>114.714285714285</v>
       </c>
       <c r="E88" s="2">
-        <v>90902</v>
+        <v>90893</v>
       </c>
       <c r="F88" s="2">
         <v>2970</v>
       </c>
       <c r="G88" s="4">
-        <v>0.048819089359</v>
+        <v>0.048876985817</v>
       </c>
     </row>
     <row r="89" spans="1:7">
@@ -2420,22 +2420,22 @@
         <v>44009</v>
       </c>
       <c r="B89" s="2">
-        <v>3435</v>
+        <v>3437</v>
       </c>
       <c r="C89" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D89" s="3">
-        <v>118.428571428571</v>
+        <v>118.714285714285</v>
       </c>
       <c r="E89" s="2">
-        <v>91976</v>
+        <v>91968</v>
       </c>
       <c r="F89" s="2">
-        <v>1074</v>
+        <v>1075</v>
       </c>
       <c r="G89" s="4">
-        <v>0.050096688421</v>
+        <v>0.050211480362</v>
       </c>
     </row>
     <row r="90" spans="1:7">
@@ -2443,22 +2443,22 @@
         <v>44010</v>
       </c>
       <c r="B90" s="2">
-        <v>3494</v>
+        <v>3496</v>
       </c>
       <c r="C90" s="2">
         <v>59</v>
       </c>
       <c r="D90" s="3">
-        <v>121.142857142857</v>
+        <v>121.428571428571</v>
       </c>
       <c r="E90" s="2">
-        <v>92772</v>
+        <v>92764</v>
       </c>
       <c r="F90" s="2">
         <v>796</v>
       </c>
       <c r="G90" s="4">
-        <v>0.05094316953</v>
+        <v>0.051057184046</v>
       </c>
     </row>
     <row r="91" spans="1:7">
@@ -2466,22 +2466,22 @@
         <v>44011</v>
       </c>
       <c r="B91" s="2">
-        <v>3691</v>
+        <v>3693</v>
       </c>
       <c r="C91" s="2">
         <v>197</v>
       </c>
       <c r="D91" s="3">
-        <v>133.428571428571</v>
+        <v>133.714285714285</v>
       </c>
       <c r="E91" s="2">
-        <v>96455</v>
+        <v>96446</v>
       </c>
       <c r="F91" s="2">
-        <v>3683</v>
+        <v>3682</v>
       </c>
       <c r="G91" s="4">
-        <v>0.052735588052</v>
+        <v>0.052845528455</v>
       </c>
     </row>
     <row r="92" spans="1:7">
@@ -2489,22 +2489,22 @@
         <v>44012</v>
       </c>
       <c r="B92" s="2">
-        <v>3849</v>
+        <v>3851</v>
       </c>
       <c r="C92" s="2">
         <v>158</v>
       </c>
       <c r="D92" s="3">
-        <v>137</v>
+        <v>137.142857142857</v>
       </c>
       <c r="E92" s="2">
-        <v>99940</v>
+        <v>99931</v>
       </c>
       <c r="F92" s="2">
         <v>3485</v>
       </c>
       <c r="G92" s="4">
-        <v>0.052088425397</v>
+        <v>0.052142740752</v>
       </c>
     </row>
     <row r="93" spans="1:7">
@@ -2512,22 +2512,22 @@
         <v>44013</v>
       </c>
       <c r="B93" s="2">
-        <v>4023</v>
+        <v>4025</v>
       </c>
       <c r="C93" s="2">
         <v>174</v>
       </c>
       <c r="D93" s="3">
-        <v>141.428571428571</v>
+        <v>141.571428571428</v>
       </c>
       <c r="E93" s="2">
-        <v>103484</v>
+        <v>103475</v>
       </c>
       <c r="F93" s="2">
         <v>3544</v>
       </c>
       <c r="G93" s="4">
-        <v>0.052328347164</v>
+        <v>0.05238120408</v>
       </c>
     </row>
     <row r="94" spans="1:7">
@@ -2535,22 +2535,22 @@
         <v>44014</v>
       </c>
       <c r="B94" s="2">
-        <v>4236</v>
+        <v>4238</v>
       </c>
       <c r="C94" s="2">
         <v>213</v>
       </c>
       <c r="D94" s="3">
-        <v>150.142857142857</v>
+        <v>150.285714285714</v>
       </c>
       <c r="E94" s="2">
-        <v>107409</v>
+        <v>107400</v>
       </c>
       <c r="F94" s="2">
         <v>3925</v>
       </c>
       <c r="G94" s="4">
-        <v>0.053961082302</v>
+        <v>0.054012424911</v>
       </c>
     </row>
     <row r="95" spans="1:7">
@@ -2558,22 +2558,22 @@
         <v>44015</v>
       </c>
       <c r="B95" s="2">
-        <v>4380</v>
+        <v>4382</v>
       </c>
       <c r="C95" s="2">
         <v>144</v>
       </c>
       <c r="D95" s="3">
-        <v>146.428571428571</v>
+        <v>146.571428571428</v>
       </c>
       <c r="E95" s="2">
-        <v>110051</v>
+        <v>110042</v>
       </c>
       <c r="F95" s="2">
         <v>2642</v>
       </c>
       <c r="G95" s="4">
-        <v>0.053527599352</v>
+        <v>0.0535798214</v>
       </c>
     </row>
     <row r="96" spans="1:7">
@@ -2581,7 +2581,7 @@
         <v>44016</v>
       </c>
       <c r="B96" s="2">
-        <v>4473</v>
+        <v>4475</v>
       </c>
       <c r="C96" s="2">
         <v>93</v>
@@ -2590,13 +2590,13 @@
         <v>148.285714285714</v>
       </c>
       <c r="E96" s="2">
-        <v>111169</v>
+        <v>111160</v>
       </c>
       <c r="F96" s="2">
         <v>1118</v>
       </c>
       <c r="G96" s="4">
-        <v>0.054082217475</v>
+        <v>0.054085035431</v>
       </c>
     </row>
     <row r="97" spans="1:7">
@@ -2604,7 +2604,7 @@
         <v>44017</v>
       </c>
       <c r="B97" s="2">
-        <v>4559</v>
+        <v>4561</v>
       </c>
       <c r="C97" s="2">
         <v>86</v>
@@ -2613,13 +2613,13 @@
         <v>152.142857142857</v>
       </c>
       <c r="E97" s="2">
-        <v>112298</v>
+        <v>112289</v>
       </c>
       <c r="F97" s="2">
         <v>1129</v>
       </c>
       <c r="G97" s="4">
-        <v>0.054542661067</v>
+        <v>0.054545454545</v>
       </c>
     </row>
     <row r="98" spans="1:7">
@@ -2627,7 +2627,7 @@
         <v>44018</v>
       </c>
       <c r="B98" s="2">
-        <v>4763</v>
+        <v>4765</v>
       </c>
       <c r="C98" s="2">
         <v>204</v>
@@ -2636,7 +2636,7 @@
         <v>153.142857142857</v>
       </c>
       <c r="E98" s="2">
-        <v>116381</v>
+        <v>116372</v>
       </c>
       <c r="F98" s="2">
         <v>4083</v>
@@ -2650,7 +2650,7 @@
         <v>44019</v>
       </c>
       <c r="B99" s="2">
-        <v>4979</v>
+        <v>4981</v>
       </c>
       <c r="C99" s="2">
         <v>216</v>
@@ -2659,13 +2659,13 @@
         <v>161.428571428571</v>
       </c>
       <c r="E99" s="2">
-        <v>120465</v>
+        <v>120457</v>
       </c>
       <c r="F99" s="2">
-        <v>4084</v>
+        <v>4085</v>
       </c>
       <c r="G99" s="4">
-        <v>0.055054811205</v>
+        <v>0.055052129007</v>
       </c>
     </row>
     <row r="100" spans="1:7">
@@ -2673,7 +2673,7 @@
         <v>44020</v>
       </c>
       <c r="B100" s="2">
-        <v>5204</v>
+        <v>5206</v>
       </c>
       <c r="C100" s="2">
         <v>225</v>
@@ -2682,13 +2682,13 @@
         <v>168.714285714285</v>
       </c>
       <c r="E100" s="2">
-        <v>124729</v>
+        <v>124721</v>
       </c>
       <c r="F100" s="2">
         <v>4264</v>
       </c>
       <c r="G100" s="4">
-        <v>0.055589550482</v>
+        <v>0.055586934011</v>
       </c>
     </row>
     <row r="101" spans="1:7">
@@ -2696,7 +2696,7 @@
         <v>44021</v>
       </c>
       <c r="B101" s="2">
-        <v>5458</v>
+        <v>5460</v>
       </c>
       <c r="C101" s="2">
         <v>254</v>
@@ -2705,13 +2705,13 @@
         <v>174.571428571428</v>
       </c>
       <c r="E101" s="2">
-        <v>129334</v>
+        <v>129327</v>
       </c>
       <c r="F101" s="2">
-        <v>4605</v>
+        <v>4606</v>
       </c>
       <c r="G101" s="4">
-        <v>0.055735461801</v>
+        <v>0.055730378072</v>
       </c>
     </row>
     <row r="102" spans="1:7">
@@ -2719,7 +2719,7 @@
         <v>44022</v>
       </c>
       <c r="B102" s="2">
-        <v>5704</v>
+        <v>5706</v>
       </c>
       <c r="C102" s="2">
         <v>246</v>
@@ -2728,13 +2728,13 @@
         <v>189.142857142857</v>
       </c>
       <c r="E102" s="2">
-        <v>133796</v>
+        <v>133790</v>
       </c>
       <c r="F102" s="2">
-        <v>4462</v>
+        <v>4463</v>
       </c>
       <c r="G102" s="4">
-        <v>0.05575910718</v>
+        <v>0.055752063331</v>
       </c>
     </row>
     <row r="103" spans="1:7">
@@ -2742,7 +2742,7 @@
         <v>44023</v>
       </c>
       <c r="B103" s="2">
-        <v>5844</v>
+        <v>5846</v>
       </c>
       <c r="C103" s="2">
         <v>140</v>
@@ -2751,13 +2751,13 @@
         <v>195.857142857142</v>
       </c>
       <c r="E103" s="2">
-        <v>135872</v>
+        <v>135866</v>
       </c>
       <c r="F103" s="2">
         <v>2076</v>
       </c>
       <c r="G103" s="4">
-        <v>0.055499332064</v>
+        <v>0.055492592892</v>
       </c>
     </row>
     <row r="104" spans="1:7">
@@ -2765,7 +2765,7 @@
         <v>44024</v>
       </c>
       <c r="B104" s="2">
-        <v>5944</v>
+        <v>5946</v>
       </c>
       <c r="C104" s="2">
         <v>100</v>
@@ -2774,13 +2774,13 @@
         <v>197.857142857142</v>
       </c>
       <c r="E104" s="2">
-        <v>137198</v>
+        <v>137192</v>
       </c>
       <c r="F104" s="2">
         <v>1326</v>
       </c>
       <c r="G104" s="4">
-        <v>0.055622489959</v>
+        <v>0.055615789262</v>
       </c>
     </row>
     <row r="105" spans="1:7">
@@ -2788,7 +2788,7 @@
         <v>44025</v>
       </c>
       <c r="B105" s="2">
-        <v>6207</v>
+        <v>6209</v>
       </c>
       <c r="C105" s="2">
         <v>263</v>
@@ -2797,13 +2797,13 @@
         <v>206.285714285714</v>
       </c>
       <c r="E105" s="2">
-        <v>141806</v>
+        <v>141800</v>
       </c>
       <c r="F105" s="2">
         <v>4608</v>
       </c>
       <c r="G105" s="4">
-        <v>0.056794493608</v>
+        <v>0.056787792984</v>
       </c>
     </row>
     <row r="106" spans="1:7">
@@ -2811,7 +2811,7 @@
         <v>44026</v>
       </c>
       <c r="B106" s="2">
-        <v>6462</v>
+        <v>6464</v>
       </c>
       <c r="C106" s="2">
         <v>255</v>
@@ -2820,13 +2820,13 @@
         <v>211.857142857142</v>
       </c>
       <c r="E106" s="2">
-        <v>145574</v>
+        <v>145568</v>
       </c>
       <c r="F106" s="2">
         <v>3768</v>
       </c>
       <c r="G106" s="4">
-        <v>0.059062487554</v>
+        <v>0.059057783441</v>
       </c>
     </row>
     <row r="107" spans="1:7">
@@ -2834,7 +2834,7 @@
         <v>44027</v>
       </c>
       <c r="B107" s="2">
-        <v>6722</v>
+        <v>6724</v>
       </c>
       <c r="C107" s="2">
         <v>260</v>
@@ -2843,13 +2843,13 @@
         <v>216.857142857142</v>
       </c>
       <c r="E107" s="2">
-        <v>149924</v>
+        <v>149918</v>
       </c>
       <c r="F107" s="2">
         <v>4350</v>
       </c>
       <c r="G107" s="4">
-        <v>0.060250049613</v>
+        <v>0.060245267293</v>
       </c>
     </row>
     <row r="108" spans="1:7">
@@ -2857,7 +2857,7 @@
         <v>44028</v>
       </c>
       <c r="B108" s="2">
-        <v>6980</v>
+        <v>6982</v>
       </c>
       <c r="C108" s="2">
         <v>258</v>
@@ -2866,13 +2866,13 @@
         <v>217.428571428571</v>
       </c>
       <c r="E108" s="2">
-        <v>154117</v>
+        <v>154111</v>
       </c>
       <c r="F108" s="2">
         <v>4193</v>
       </c>
       <c r="G108" s="4">
-        <v>0.061413065407</v>
+        <v>0.061410587475</v>
       </c>
     </row>
     <row r="109" spans="1:7">
@@ -2880,7 +2880,7 @@
         <v>44029</v>
       </c>
       <c r="B109" s="2">
-        <v>7230</v>
+        <v>7232</v>
       </c>
       <c r="C109" s="2">
         <v>250</v>
@@ -2889,13 +2889,13 @@
         <v>218</v>
       </c>
       <c r="E109" s="2">
-        <v>158324</v>
+        <v>158319</v>
       </c>
       <c r="F109" s="2">
-        <v>4207</v>
+        <v>4208</v>
       </c>
       <c r="G109" s="4">
-        <v>0.062214611872</v>
+        <v>0.062212075502</v>
       </c>
     </row>
     <row r="110" spans="1:7">
@@ -2903,7 +2903,7 @@
         <v>44030</v>
       </c>
       <c r="B110" s="2">
-        <v>7359</v>
+        <v>7361</v>
       </c>
       <c r="C110" s="2">
         <v>129</v>
@@ -2912,13 +2912,13 @@
         <v>216.428571428571</v>
       </c>
       <c r="E110" s="2">
-        <v>160552</v>
+        <v>160547</v>
       </c>
       <c r="F110" s="2">
         <v>2228</v>
       </c>
       <c r="G110" s="4">
-        <v>0.061385737439</v>
+        <v>0.061383250273</v>
       </c>
     </row>
     <row r="111" spans="1:7">
@@ -2926,7 +2926,7 @@
         <v>44031</v>
       </c>
       <c r="B111" s="2">
-        <v>7458</v>
+        <v>7460</v>
       </c>
       <c r="C111" s="2">
         <v>99</v>
@@ -2935,13 +2935,13 @@
         <v>216.285714285714</v>
       </c>
       <c r="E111" s="2">
-        <v>161812</v>
+        <v>161807</v>
       </c>
       <c r="F111" s="2">
         <v>1260</v>
       </c>
       <c r="G111" s="4">
-        <v>0.061509709921</v>
+        <v>0.06150721105</v>
       </c>
     </row>
     <row r="112" spans="1:7">
@@ -2949,7 +2949,7 @@
         <v>44032</v>
       </c>
       <c r="B112" s="2">
-        <v>7751</v>
+        <v>7753</v>
       </c>
       <c r="C112" s="2">
         <v>293</v>
@@ -2958,13 +2958,13 @@
         <v>220.571428571428</v>
       </c>
       <c r="E112" s="2">
-        <v>166066</v>
+        <v>166061</v>
       </c>
       <c r="F112" s="2">
         <v>4254</v>
       </c>
       <c r="G112" s="4">
-        <v>0.063643858202</v>
+        <v>0.063641234903</v>
       </c>
     </row>
     <row r="113" spans="1:7">
@@ -2972,7 +2972,7 @@
         <v>44033</v>
       </c>
       <c r="B113" s="2">
-        <v>7992</v>
+        <v>7994</v>
       </c>
       <c r="C113" s="2">
         <v>241</v>
@@ -2981,13 +2981,13 @@
         <v>218.571428571428</v>
       </c>
       <c r="E113" s="2">
-        <v>169907</v>
+        <v>169902</v>
       </c>
       <c r="F113" s="2">
         <v>3841</v>
       </c>
       <c r="G113" s="4">
-        <v>0.06287757366500001</v>
+        <v>0.062874989726</v>
       </c>
     </row>
     <row r="114" spans="1:7">
@@ -2995,7 +2995,7 @@
         <v>44034</v>
       </c>
       <c r="B114" s="2">
-        <v>8243</v>
+        <v>8245</v>
       </c>
       <c r="C114" s="2">
         <v>251</v>
@@ -3004,13 +3004,13 @@
         <v>217.285714285714</v>
       </c>
       <c r="E114" s="2">
-        <v>173573</v>
+        <v>173569</v>
       </c>
       <c r="F114" s="2">
-        <v>3666</v>
+        <v>3667</v>
       </c>
       <c r="G114" s="4">
-        <v>0.06431561588199999</v>
+        <v>0.064310177159</v>
       </c>
     </row>
     <row r="115" spans="1:7">
@@ -3018,7 +3018,7 @@
         <v>44035</v>
       </c>
       <c r="B115" s="2">
-        <v>8476</v>
+        <v>8478</v>
       </c>
       <c r="C115" s="2">
         <v>233</v>
@@ -3027,13 +3027,13 @@
         <v>213.714285714285</v>
       </c>
       <c r="E115" s="2">
-        <v>176906</v>
+        <v>176902</v>
       </c>
       <c r="F115" s="2">
         <v>3333</v>
       </c>
       <c r="G115" s="4">
-        <v>0.065645706261</v>
+        <v>0.065639945592</v>
       </c>
     </row>
     <row r="116" spans="1:7">
@@ -3041,7 +3041,7 @@
         <v>44036</v>
       </c>
       <c r="B116" s="2">
-        <v>8696</v>
+        <v>8698</v>
       </c>
       <c r="C116" s="2">
         <v>220</v>
@@ -3050,13 +3050,13 @@
         <v>209.428571428571</v>
       </c>
       <c r="E116" s="2">
-        <v>180586</v>
+        <v>180582</v>
       </c>
       <c r="F116" s="2">
         <v>3680</v>
       </c>
       <c r="G116" s="4">
-        <v>0.06585212469600001</v>
+        <v>0.065849166778</v>
       </c>
     </row>
     <row r="117" spans="1:7">
@@ -3064,7 +3064,7 @@
         <v>44037</v>
       </c>
       <c r="B117" s="2">
-        <v>8810</v>
+        <v>8812</v>
       </c>
       <c r="C117" s="2">
         <v>114</v>
@@ -3073,13 +3073,13 @@
         <v>207.285714285714</v>
       </c>
       <c r="E117" s="2">
-        <v>182222</v>
+        <v>182218</v>
       </c>
       <c r="F117" s="2">
         <v>1636</v>
       </c>
       <c r="G117" s="4">
-        <v>0.06695892939500001</v>
+        <v>0.066955839601</v>
       </c>
     </row>
     <row r="118" spans="1:7">
@@ -3087,7 +3087,7 @@
         <v>44038</v>
       </c>
       <c r="B118" s="2">
-        <v>8913</v>
+        <v>8915</v>
       </c>
       <c r="C118" s="2">
         <v>103</v>
@@ -3096,13 +3096,13 @@
         <v>207.857142857142</v>
       </c>
       <c r="E118" s="2">
-        <v>183476</v>
+        <v>183472</v>
       </c>
       <c r="F118" s="2">
         <v>1254</v>
       </c>
       <c r="G118" s="4">
-        <v>0.067162112259</v>
+        <v>0.067159012231</v>
       </c>
     </row>
     <row r="119" spans="1:7">
@@ -3110,7 +3110,7 @@
         <v>44039</v>
       </c>
       <c r="B119" s="2">
-        <v>9157</v>
+        <v>9159</v>
       </c>
       <c r="C119" s="2">
         <v>244</v>
@@ -3119,10 +3119,10 @@
         <v>200.857142857142</v>
       </c>
       <c r="E119" s="2">
-        <v>187663</v>
+        <v>187658</v>
       </c>
       <c r="F119" s="2">
-        <v>4187</v>
+        <v>4186</v>
       </c>
       <c r="G119" s="4">
         <v>0.065101634486</v>
@@ -3133,7 +3133,7 @@
         <v>44040</v>
       </c>
       <c r="B120" s="2">
-        <v>9416</v>
+        <v>9418</v>
       </c>
       <c r="C120" s="2">
         <v>259</v>
@@ -3142,13 +3142,13 @@
         <v>203.428571428571</v>
       </c>
       <c r="E120" s="2">
-        <v>191604</v>
+        <v>191602</v>
       </c>
       <c r="F120" s="2">
-        <v>3941</v>
+        <v>3944</v>
       </c>
       <c r="G120" s="4">
-        <v>0.06563119325199999</v>
+        <v>0.065622119815</v>
       </c>
     </row>
     <row r="121" spans="1:7">
@@ -3156,7 +3156,7 @@
         <v>44041</v>
       </c>
       <c r="B121" s="2">
-        <v>9669</v>
+        <v>9671</v>
       </c>
       <c r="C121" s="2">
         <v>253</v>
@@ -3165,13 +3165,13 @@
         <v>203.714285714285</v>
       </c>
       <c r="E121" s="2">
-        <v>195470</v>
+        <v>195468</v>
       </c>
       <c r="F121" s="2">
         <v>3866</v>
       </c>
       <c r="G121" s="4">
-        <v>0.06512307622000001</v>
+        <v>0.065117128636</v>
       </c>
     </row>
     <row r="122" spans="1:7">
@@ -3179,7 +3179,7 @@
         <v>44042</v>
       </c>
       <c r="B122" s="2">
-        <v>9888</v>
+        <v>9890</v>
       </c>
       <c r="C122" s="2">
         <v>219</v>
@@ -3188,13 +3188,13 @@
         <v>201.714285714285</v>
       </c>
       <c r="E122" s="2">
-        <v>199146</v>
+        <v>199144</v>
       </c>
       <c r="F122" s="2">
         <v>3676</v>
       </c>
       <c r="G122" s="4">
-        <v>0.063489208633</v>
+        <v>0.063483499685</v>
       </c>
     </row>
     <row r="123" spans="1:7">
@@ -3202,7 +3202,7 @@
         <v>44043</v>
       </c>
       <c r="B123" s="2">
-        <v>10123</v>
+        <v>10125</v>
       </c>
       <c r="C123" s="2">
         <v>235</v>
@@ -3211,13 +3211,13 @@
         <v>203.857142857142</v>
       </c>
       <c r="E123" s="2">
-        <v>202698</v>
+        <v>202696</v>
       </c>
       <c r="F123" s="2">
         <v>3552</v>
       </c>
       <c r="G123" s="4">
-        <v>0.064535094066</v>
+        <v>0.06452925748299999</v>
       </c>
     </row>
     <row r="124" spans="1:7">
@@ -3225,7 +3225,7 @@
         <v>44044</v>
       </c>
       <c r="B124" s="2">
-        <v>10231</v>
+        <v>10233</v>
       </c>
       <c r="C124" s="2">
         <v>108</v>
@@ -3234,13 +3234,13 @@
         <v>203</v>
       </c>
       <c r="E124" s="2">
-        <v>204367</v>
+        <v>204365</v>
       </c>
       <c r="F124" s="2">
         <v>1669</v>
       </c>
       <c r="G124" s="4">
-        <v>0.06416798374300001</v>
+        <v>0.064162189009</v>
       </c>
     </row>
     <row r="125" spans="1:7">
@@ -3248,7 +3248,7 @@
         <v>44045</v>
       </c>
       <c r="B125" s="2">
-        <v>10310</v>
+        <v>10312</v>
       </c>
       <c r="C125" s="2">
         <v>79</v>
@@ -3257,13 +3257,13 @@
         <v>199.571428571428</v>
       </c>
       <c r="E125" s="2">
-        <v>205516</v>
+        <v>205514</v>
       </c>
       <c r="F125" s="2">
         <v>1149</v>
       </c>
       <c r="G125" s="4">
-        <v>0.06338475499</v>
+        <v>0.06337900371999999</v>
       </c>
     </row>
     <row r="126" spans="1:7">
@@ -3271,7 +3271,7 @@
         <v>44046</v>
       </c>
       <c r="B126" s="2">
-        <v>10566</v>
+        <v>10568</v>
       </c>
       <c r="C126" s="2">
         <v>256</v>
@@ -3280,13 +3280,13 @@
         <v>201.285714285714</v>
       </c>
       <c r="E126" s="2">
-        <v>209394</v>
+        <v>209392</v>
       </c>
       <c r="F126" s="2">
         <v>3878</v>
       </c>
       <c r="G126" s="4">
-        <v>0.064838249505</v>
+        <v>0.064829299714</v>
       </c>
     </row>
     <row r="127" spans="1:7">
@@ -3294,7 +3294,7 @@
         <v>44047</v>
       </c>
       <c r="B127" s="2">
-        <v>10805</v>
+        <v>10807</v>
       </c>
       <c r="C127" s="2">
         <v>239</v>
@@ -3303,13 +3303,13 @@
         <v>198.428571428571</v>
       </c>
       <c r="E127" s="2">
-        <v>212725</v>
+        <v>212724</v>
       </c>
       <c r="F127" s="2">
-        <v>3331</v>
+        <v>3332</v>
       </c>
       <c r="G127" s="4">
-        <v>0.06576393163200001</v>
+        <v>0.065760818104</v>
       </c>
     </row>
     <row r="128" spans="1:7">
@@ -3317,7 +3317,7 @@
         <v>44048</v>
       </c>
       <c r="B128" s="2">
-        <v>11007</v>
+        <v>11009</v>
       </c>
       <c r="C128" s="2">
         <v>202</v>
@@ -3329,10 +3329,10 @@
         <v>216003</v>
       </c>
       <c r="F128" s="2">
-        <v>3278</v>
+        <v>3279</v>
       </c>
       <c r="G128" s="4">
-        <v>0.06516339550899999</v>
+        <v>0.06515704894</v>
       </c>
     </row>
     <row r="129" spans="1:7">
@@ -3340,7 +3340,7 @@
         <v>44049</v>
       </c>
       <c r="B129" s="2">
-        <v>11207</v>
+        <v>11209</v>
       </c>
       <c r="C129" s="2">
         <v>200</v>
@@ -3355,7 +3355,7 @@
         <v>3667</v>
       </c>
       <c r="G129" s="4">
-        <v>0.064266224907</v>
+        <v>0.064259962973</v>
       </c>
     </row>
     <row r="130" spans="1:7">
@@ -3363,7 +3363,7 @@
         <v>44050</v>
       </c>
       <c r="B130" s="2">
-        <v>11392</v>
+        <v>11394</v>
       </c>
       <c r="C130" s="2">
         <v>185</v>
@@ -3378,7 +3378,7 @@
         <v>3332</v>
       </c>
       <c r="G130" s="4">
-        <v>0.0625</v>
+        <v>0.062493844183</v>
       </c>
     </row>
     <row r="131" spans="1:7">
@@ -3386,7 +3386,7 @@
         <v>44051</v>
       </c>
       <c r="B131" s="2">
-        <v>11512</v>
+        <v>11514</v>
       </c>
       <c r="C131" s="2">
         <v>120</v>
@@ -3401,7 +3401,7 @@
         <v>1709</v>
       </c>
       <c r="G131" s="4">
-        <v>0.06296696814699999</v>
+        <v>0.062960778531</v>
       </c>
     </row>
     <row r="132" spans="1:7">
@@ -3409,7 +3409,7 @@
         <v>44052</v>
       </c>
       <c r="B132" s="2">
-        <v>11597</v>
+        <v>11599</v>
       </c>
       <c r="C132" s="2">
         <v>85</v>
@@ -3424,7 +3424,7 @@
         <v>1065</v>
       </c>
       <c r="G132" s="4">
-        <v>0.063524185587</v>
+        <v>0.063517915309</v>
       </c>
     </row>
     <row r="133" spans="1:7">
@@ -3432,7 +3432,7 @@
         <v>44053</v>
       </c>
       <c r="B133" s="2">
-        <v>11834</v>
+        <v>11836</v>
       </c>
       <c r="C133" s="2">
         <v>237</v>
@@ -3441,13 +3441,13 @@
         <v>181.142857142857</v>
       </c>
       <c r="E133" s="2">
-        <v>229680</v>
+        <v>229681</v>
       </c>
       <c r="F133" s="2">
-        <v>3904</v>
+        <v>3905</v>
       </c>
       <c r="G133" s="4">
-        <v>0.06250616188499999</v>
+        <v>0.062496919513</v>
       </c>
     </row>
     <row r="134" spans="1:7">
@@ -3455,7 +3455,7 @@
         <v>44054</v>
       </c>
       <c r="B134" s="2">
-        <v>12035</v>
+        <v>12037</v>
       </c>
       <c r="C134" s="2">
         <v>201</v>
@@ -3464,13 +3464,13 @@
         <v>175.714285714285</v>
       </c>
       <c r="E134" s="2">
-        <v>233101</v>
+        <v>233102</v>
       </c>
       <c r="F134" s="2">
         <v>3421</v>
       </c>
       <c r="G134" s="4">
-        <v>0.060365135453</v>
+        <v>0.060359210913</v>
       </c>
     </row>
     <row r="135" spans="1:7">
@@ -3478,7 +3478,7 @@
         <v>44055</v>
       </c>
       <c r="B135" s="2">
-        <v>12235</v>
+        <v>12237</v>
       </c>
       <c r="C135" s="2">
         <v>200</v>
@@ -3487,13 +3487,13 @@
         <v>175.428571428571</v>
       </c>
       <c r="E135" s="2">
-        <v>236969</v>
+        <v>236970</v>
       </c>
       <c r="F135" s="2">
         <v>3868</v>
       </c>
       <c r="G135" s="4">
-        <v>0.058571019746</v>
+        <v>0.05856822626</v>
       </c>
     </row>
     <row r="136" spans="1:7">
@@ -3501,7 +3501,7 @@
         <v>44056</v>
       </c>
       <c r="B136" s="2">
-        <v>12410</v>
+        <v>12412</v>
       </c>
       <c r="C136" s="2">
         <v>175</v>
@@ -3510,13 +3510,13 @@
         <v>171.857142857142</v>
       </c>
       <c r="E136" s="2">
-        <v>240239</v>
+        <v>240240</v>
       </c>
       <c r="F136" s="2">
         <v>3270</v>
       </c>
       <c r="G136" s="4">
-        <v>0.058486071272</v>
+        <v>0.058483228001</v>
       </c>
     </row>
     <row r="137" spans="1:7">
@@ -3524,22 +3524,22 @@
         <v>44057</v>
       </c>
       <c r="B137" s="2">
-        <v>12585</v>
+        <v>12588</v>
       </c>
       <c r="C137" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D137" s="3">
-        <v>170.428571428571</v>
+        <v>170.571428571428</v>
       </c>
       <c r="E137" s="2">
-        <v>243601</v>
+        <v>243604</v>
       </c>
       <c r="F137" s="2">
-        <v>3362</v>
+        <v>3364</v>
       </c>
       <c r="G137" s="4">
-        <v>0.057915432787</v>
+        <v>0.057955538297</v>
       </c>
     </row>
     <row r="138" spans="1:7">
@@ -3547,22 +3547,22 @@
         <v>44058</v>
       </c>
       <c r="B138" s="2">
-        <v>12679</v>
+        <v>12682</v>
       </c>
       <c r="C138" s="2">
         <v>94</v>
       </c>
       <c r="D138" s="3">
-        <v>166.714285714285</v>
+        <v>166.857142857142</v>
       </c>
       <c r="E138" s="2">
-        <v>245165</v>
+        <v>245168</v>
       </c>
       <c r="F138" s="2">
         <v>1564</v>
       </c>
       <c r="G138" s="4">
-        <v>0.057054854796</v>
+        <v>0.057095370777</v>
       </c>
     </row>
     <row r="139" spans="1:7">
@@ -3570,22 +3570,22 @@
         <v>44059</v>
       </c>
       <c r="B139" s="2">
-        <v>12724</v>
+        <v>12727</v>
       </c>
       <c r="C139" s="2">
         <v>45</v>
       </c>
       <c r="D139" s="3">
-        <v>161</v>
+        <v>161.142857142857</v>
       </c>
       <c r="E139" s="2">
-        <v>245941</v>
+        <v>245944</v>
       </c>
       <c r="F139" s="2">
         <v>776</v>
       </c>
       <c r="G139" s="4">
-        <v>0.055888916439</v>
+        <v>0.055930186433</v>
       </c>
     </row>
     <row r="140" spans="1:7">
@@ -3593,22 +3593,22 @@
         <v>44060</v>
       </c>
       <c r="B140" s="2">
-        <v>12937</v>
+        <v>12940</v>
       </c>
       <c r="C140" s="2">
         <v>213</v>
       </c>
       <c r="D140" s="3">
-        <v>157.571428571428</v>
+        <v>157.714285714285</v>
       </c>
       <c r="E140" s="2">
-        <v>249600</v>
+        <v>249609</v>
       </c>
       <c r="F140" s="2">
-        <v>3659</v>
+        <v>3665</v>
       </c>
       <c r="G140" s="4">
-        <v>0.055371485943</v>
+        <v>0.055399437976</v>
       </c>
     </row>
     <row r="141" spans="1:7">
@@ -3616,22 +3616,22 @@
         <v>44061</v>
       </c>
       <c r="B141" s="2">
-        <v>13105</v>
+        <v>13108</v>
       </c>
       <c r="C141" s="2">
         <v>168</v>
       </c>
       <c r="D141" s="3">
-        <v>152.857142857142</v>
+        <v>153</v>
       </c>
       <c r="E141" s="2">
-        <v>252683</v>
+        <v>252694</v>
       </c>
       <c r="F141" s="2">
-        <v>3083</v>
+        <v>3085</v>
       </c>
       <c r="G141" s="4">
-        <v>0.054642018179</v>
+        <v>0.054665169456</v>
       </c>
     </row>
     <row r="142" spans="1:7">
@@ -3639,22 +3639,22 @@
         <v>44062</v>
       </c>
       <c r="B142" s="2">
-        <v>13263</v>
+        <v>13266</v>
       </c>
       <c r="C142" s="2">
         <v>158</v>
       </c>
       <c r="D142" s="3">
-        <v>146.857142857142</v>
+        <v>147</v>
       </c>
       <c r="E142" s="2">
-        <v>255741</v>
+        <v>255752</v>
       </c>
       <c r="F142" s="2">
         <v>3058</v>
       </c>
       <c r="G142" s="4">
-        <v>0.054762412103</v>
+        <v>0.05478649771</v>
       </c>
     </row>
     <row r="143" spans="1:7">
@@ -3662,22 +3662,22 @@
         <v>44063</v>
       </c>
       <c r="B143" s="2">
-        <v>13395</v>
+        <v>13398</v>
       </c>
       <c r="C143" s="2">
         <v>132</v>
       </c>
       <c r="D143" s="3">
-        <v>140.714285714285</v>
+        <v>140.857142857142</v>
       </c>
       <c r="E143" s="2">
-        <v>258911</v>
+        <v>258922</v>
       </c>
       <c r="F143" s="2">
         <v>3170</v>
       </c>
       <c r="G143" s="4">
-        <v>0.052752784918</v>
+        <v>0.052778075152</v>
       </c>
     </row>
     <row r="144" spans="1:7">
@@ -3685,7 +3685,7 @@
         <v>44064</v>
       </c>
       <c r="B144" s="2">
-        <v>13557</v>
+        <v>13560</v>
       </c>
       <c r="C144" s="2">
         <v>162</v>
@@ -3694,13 +3694,13 @@
         <v>138.857142857142</v>
       </c>
       <c r="E144" s="2">
-        <v>261951</v>
+        <v>261962</v>
       </c>
       <c r="F144" s="2">
         <v>3040</v>
       </c>
       <c r="G144" s="4">
-        <v>0.052970027247</v>
+        <v>0.052946944111</v>
       </c>
     </row>
     <row r="145" spans="1:7">
@@ -3708,7 +3708,7 @@
         <v>44065</v>
       </c>
       <c r="B145" s="2">
-        <v>13619</v>
+        <v>13622</v>
       </c>
       <c r="C145" s="2">
         <v>62</v>
@@ -3717,13 +3717,13 @@
         <v>134.285714285714</v>
       </c>
       <c r="E145" s="2">
-        <v>263281</v>
+        <v>263292</v>
       </c>
       <c r="F145" s="2">
         <v>1330</v>
       </c>
       <c r="G145" s="4">
-        <v>0.051887833958</v>
+        <v>0.051864930478</v>
       </c>
     </row>
     <row r="146" spans="1:7">
@@ -3731,7 +3731,7 @@
         <v>44066</v>
       </c>
       <c r="B146" s="2">
-        <v>13687</v>
+        <v>13690</v>
       </c>
       <c r="C146" s="2">
         <v>68</v>
@@ -3740,13 +3740,13 @@
         <v>137.571428571428</v>
       </c>
       <c r="E146" s="2">
-        <v>264250</v>
+        <v>264261</v>
       </c>
       <c r="F146" s="2">
         <v>969</v>
       </c>
       <c r="G146" s="4">
-        <v>0.052597083401</v>
+        <v>0.052574111481</v>
       </c>
     </row>
     <row r="147" spans="1:7">
@@ -3754,7 +3754,7 @@
         <v>44067</v>
       </c>
       <c r="B147" s="2">
-        <v>13837</v>
+        <v>13840</v>
       </c>
       <c r="C147" s="2">
         <v>150</v>
@@ -3763,13 +3763,13 @@
         <v>128.571428571428</v>
       </c>
       <c r="E147" s="2">
-        <v>267240</v>
+        <v>267251</v>
       </c>
       <c r="F147" s="2">
         <v>2990</v>
       </c>
       <c r="G147" s="4">
-        <v>0.051020408163</v>
+        <v>0.051014624192</v>
       </c>
     </row>
     <row r="148" spans="1:7">
@@ -3777,7 +3777,7 @@
         <v>44068</v>
       </c>
       <c r="B148" s="2">
-        <v>13972</v>
+        <v>13975</v>
       </c>
       <c r="C148" s="2">
         <v>135</v>
@@ -3786,13 +3786,13 @@
         <v>123.857142857142</v>
       </c>
       <c r="E148" s="2">
-        <v>270266</v>
+        <v>270278</v>
       </c>
       <c r="F148" s="2">
-        <v>3026</v>
+        <v>3027</v>
       </c>
       <c r="G148" s="4">
-        <v>0.049308991639</v>
+        <v>0.049306187443</v>
       </c>
     </row>
     <row r="149" spans="1:7">
@@ -3800,7 +3800,7 @@
         <v>44069</v>
       </c>
       <c r="B149" s="2">
-        <v>14107</v>
+        <v>14110</v>
       </c>
       <c r="C149" s="2">
         <v>135</v>
@@ -3809,13 +3809,13 @@
         <v>120.571428571428</v>
       </c>
       <c r="E149" s="2">
-        <v>273234</v>
+        <v>273246</v>
       </c>
       <c r="F149" s="2">
         <v>2968</v>
       </c>
       <c r="G149" s="4">
-        <v>0.048247870576</v>
+        <v>0.04824511261</v>
       </c>
     </row>
     <row r="150" spans="1:7">
@@ -3823,7 +3823,7 @@
         <v>44070</v>
       </c>
       <c r="B150" s="2">
-        <v>14279</v>
+        <v>14282</v>
       </c>
       <c r="C150" s="2">
         <v>172</v>
@@ -3832,13 +3832,13 @@
         <v>126.285714285714</v>
       </c>
       <c r="E150" s="2">
-        <v>276524</v>
+        <v>276536</v>
       </c>
       <c r="F150" s="2">
         <v>3290</v>
       </c>
       <c r="G150" s="4">
-        <v>0.05019020042</v>
+        <v>0.05018735097</v>
       </c>
     </row>
     <row r="151" spans="1:7">
@@ -3846,7 +3846,7 @@
         <v>44071</v>
       </c>
       <c r="B151" s="2">
-        <v>14395</v>
+        <v>14398</v>
       </c>
       <c r="C151" s="2">
         <v>116</v>
@@ -3855,13 +3855,13 @@
         <v>119.714285714285</v>
       </c>
       <c r="E151" s="2">
-        <v>279321</v>
+        <v>279333</v>
       </c>
       <c r="F151" s="2">
         <v>2797</v>
       </c>
       <c r="G151" s="4">
-        <v>0.048244099021</v>
+        <v>0.048241321743</v>
       </c>
     </row>
     <row r="152" spans="1:7">
@@ -3869,7 +3869,7 @@
         <v>44072</v>
       </c>
       <c r="B152" s="2">
-        <v>14459</v>
+        <v>14462</v>
       </c>
       <c r="C152" s="2">
         <v>64</v>
@@ -3878,13 +3878,13 @@
         <v>120</v>
       </c>
       <c r="E152" s="2">
-        <v>280764</v>
+        <v>280776</v>
       </c>
       <c r="F152" s="2">
         <v>1443</v>
       </c>
       <c r="G152" s="4">
-        <v>0.048046673911</v>
+        <v>0.048043925875</v>
       </c>
     </row>
     <row r="153" spans="1:7">
@@ -3892,7 +3892,7 @@
         <v>44073</v>
       </c>
       <c r="B153" s="2">
-        <v>14518</v>
+        <v>14521</v>
       </c>
       <c r="C153" s="2">
         <v>59</v>
@@ -3901,13 +3901,13 @@
         <v>118.714285714285</v>
       </c>
       <c r="E153" s="2">
-        <v>281848</v>
+        <v>281860</v>
       </c>
       <c r="F153" s="2">
         <v>1084</v>
       </c>
       <c r="G153" s="4">
-        <v>0.047221275144</v>
+        <v>0.047218591965</v>
       </c>
     </row>
     <row r="154" spans="1:7">
@@ -3915,7 +3915,7 @@
         <v>44074</v>
       </c>
       <c r="B154" s="2">
-        <v>14660</v>
+        <v>14663</v>
       </c>
       <c r="C154" s="2">
         <v>142</v>
@@ -3924,10 +3924,10 @@
         <v>117.571428571428</v>
       </c>
       <c r="E154" s="2">
-        <v>285007</v>
+        <v>285018</v>
       </c>
       <c r="F154" s="2">
-        <v>3159</v>
+        <v>3158</v>
       </c>
       <c r="G154" s="4">
         <v>0.046321832611</v>
@@ -3938,7 +3938,7 @@
         <v>44075</v>
       </c>
       <c r="B155" s="2">
-        <v>14793</v>
+        <v>14796</v>
       </c>
       <c r="C155" s="2">
         <v>133</v>
@@ -3947,13 +3947,13 @@
         <v>117.285714285714</v>
       </c>
       <c r="E155" s="2">
-        <v>288299</v>
+        <v>288310</v>
       </c>
       <c r="F155" s="2">
         <v>3292</v>
       </c>
       <c r="G155" s="4">
-        <v>0.045527643764</v>
+        <v>0.045530168589</v>
       </c>
     </row>
     <row r="156" spans="1:7">
@@ -3961,7 +3961,7 @@
         <v>44076</v>
       </c>
       <c r="B156" s="2">
-        <v>14910</v>
+        <v>14913</v>
       </c>
       <c r="C156" s="2">
         <v>117</v>
@@ -3970,13 +3970,13 @@
         <v>114.714285714285</v>
       </c>
       <c r="E156" s="2">
-        <v>291291</v>
+        <v>291302</v>
       </c>
       <c r="F156" s="2">
         <v>2992</v>
       </c>
       <c r="G156" s="4">
-        <v>0.04447028853</v>
+        <v>0.044472751439</v>
       </c>
     </row>
     <row r="157" spans="1:7">
@@ -3984,7 +3984,7 @@
         <v>44077</v>
       </c>
       <c r="B157" s="2">
-        <v>15005</v>
+        <v>15008</v>
       </c>
       <c r="C157" s="2">
         <v>95</v>
@@ -3993,13 +3993,13 @@
         <v>103.714285714285</v>
       </c>
       <c r="E157" s="2">
-        <v>294242</v>
+        <v>294253</v>
       </c>
       <c r="F157" s="2">
         <v>2951</v>
       </c>
       <c r="G157" s="4">
-        <v>0.040975279376</v>
+        <v>0.040977592143</v>
       </c>
     </row>
     <row r="158" spans="1:7">
@@ -4007,7 +4007,7 @@
         <v>44078</v>
       </c>
       <c r="B158" s="2">
-        <v>15127</v>
+        <v>15130</v>
       </c>
       <c r="C158" s="2">
         <v>122</v>
@@ -4016,13 +4016,13 @@
         <v>104.571428571428</v>
       </c>
       <c r="E158" s="2">
-        <v>297078</v>
+        <v>297089</v>
       </c>
       <c r="F158" s="2">
         <v>2836</v>
       </c>
       <c r="G158" s="4">
-        <v>0.041223179591</v>
+        <v>0.041225501239</v>
       </c>
     </row>
     <row r="159" spans="1:7">
@@ -4030,7 +4030,7 @@
         <v>44079</v>
       </c>
       <c r="B159" s="2">
-        <v>15193</v>
+        <v>15196</v>
       </c>
       <c r="C159" s="2">
         <v>66</v>
@@ -4039,13 +4039,13 @@
         <v>104.857142857142</v>
       </c>
       <c r="E159" s="2">
-        <v>298416</v>
+        <v>298427</v>
       </c>
       <c r="F159" s="2">
         <v>1338</v>
       </c>
       <c r="G159" s="4">
-        <v>0.04158169046</v>
+        <v>0.041584046229</v>
       </c>
     </row>
     <row r="160" spans="1:7">
@@ -4053,7 +4053,7 @@
         <v>44080</v>
       </c>
       <c r="B160" s="2">
-        <v>15246</v>
+        <v>15249</v>
       </c>
       <c r="C160" s="2">
         <v>53</v>
@@ -4062,13 +4062,13 @@
         <v>104</v>
       </c>
       <c r="E160" s="2">
-        <v>299503</v>
+        <v>299514</v>
       </c>
       <c r="F160" s="2">
         <v>1087</v>
       </c>
       <c r="G160" s="4">
-        <v>0.041234777683</v>
+        <v>0.041237113402</v>
       </c>
     </row>
     <row r="161" spans="1:7">
@@ -4076,7 +4076,7 @@
         <v>44081</v>
       </c>
       <c r="B161" s="2">
-        <v>15315</v>
+        <v>15318</v>
       </c>
       <c r="C161" s="2">
         <v>69</v>
@@ -4085,7 +4085,7 @@
         <v>93.571428571428</v>
       </c>
       <c r="E161" s="2">
-        <v>300761</v>
+        <v>300772</v>
       </c>
       <c r="F161" s="2">
         <v>1258</v>
@@ -4099,7 +4099,7 @@
         <v>44082</v>
       </c>
       <c r="B162" s="2">
-        <v>15458</v>
+        <v>15461</v>
       </c>
       <c r="C162" s="2">
         <v>143</v>
@@ -4108,13 +4108,13 @@
         <v>95</v>
       </c>
       <c r="E162" s="2">
-        <v>305074</v>
+        <v>305086</v>
       </c>
       <c r="F162" s="2">
-        <v>4313</v>
+        <v>4314</v>
       </c>
       <c r="G162" s="4">
-        <v>0.039642324888</v>
+        <v>0.03963996185</v>
       </c>
     </row>
     <row r="163" spans="1:7">
@@ -4122,7 +4122,7 @@
         <v>44083</v>
       </c>
       <c r="B163" s="2">
-        <v>15609</v>
+        <v>15612</v>
       </c>
       <c r="C163" s="2">
         <v>151</v>
@@ -4131,13 +4131,13 @@
         <v>99.85714285714199</v>
       </c>
       <c r="E163" s="2">
-        <v>308609</v>
+        <v>308622</v>
       </c>
       <c r="F163" s="2">
-        <v>3535</v>
+        <v>3536</v>
       </c>
       <c r="G163" s="4">
-        <v>0.040362628479</v>
+        <v>0.040357967667</v>
       </c>
     </row>
     <row r="164" spans="1:7">
@@ -4145,7 +4145,7 @@
         <v>44084</v>
       </c>
       <c r="B164" s="2">
-        <v>15713</v>
+        <v>15716</v>
       </c>
       <c r="C164" s="2">
         <v>104</v>
@@ -4154,13 +4154,13 @@
         <v>101.142857142857</v>
       </c>
       <c r="E164" s="2">
-        <v>311905</v>
+        <v>311928</v>
       </c>
       <c r="F164" s="2">
-        <v>3296</v>
+        <v>3306</v>
       </c>
       <c r="G164" s="4">
-        <v>0.040083790975</v>
+        <v>0.040056577086</v>
       </c>
     </row>
     <row r="165" spans="1:7">
@@ -4168,7 +4168,7 @@
         <v>44085</v>
       </c>
       <c r="B165" s="2">
-        <v>15786</v>
+        <v>15789</v>
       </c>
       <c r="C165" s="2">
         <v>73</v>
@@ -4177,13 +4177,13 @@
         <v>94.142857142857</v>
       </c>
       <c r="E165" s="2">
-        <v>314411</v>
+        <v>314434</v>
       </c>
       <c r="F165" s="2">
         <v>2506</v>
       </c>
       <c r="G165" s="4">
-        <v>0.038019961922</v>
+        <v>0.037993658114</v>
       </c>
     </row>
     <row r="166" spans="1:7">
@@ -4191,7 +4191,7 @@
         <v>44086</v>
       </c>
       <c r="B166" s="2">
-        <v>15836</v>
+        <v>15839</v>
       </c>
       <c r="C166" s="2">
         <v>50</v>
@@ -4200,13 +4200,13 @@
         <v>91.85714285714199</v>
       </c>
       <c r="E166" s="2">
-        <v>315814</v>
+        <v>315840</v>
       </c>
       <c r="F166" s="2">
-        <v>1403</v>
+        <v>1406</v>
       </c>
       <c r="G166" s="4">
-        <v>0.036958271065</v>
+        <v>0.036926434273</v>
       </c>
     </row>
     <row r="167" spans="1:7">
@@ -4214,7 +4214,7 @@
         <v>44087</v>
       </c>
       <c r="B167" s="2">
-        <v>15873</v>
+        <v>15876</v>
       </c>
       <c r="C167" s="2">
         <v>37</v>
@@ -4223,13 +4223,13 @@
         <v>89.571428571428</v>
       </c>
       <c r="E167" s="2">
-        <v>316666</v>
+        <v>316692</v>
       </c>
       <c r="F167" s="2">
         <v>852</v>
       </c>
       <c r="G167" s="4">
-        <v>0.036532074812</v>
+        <v>0.036500174641</v>
       </c>
     </row>
     <row r="168" spans="1:7">
@@ -4237,7 +4237,7 @@
         <v>44088</v>
       </c>
       <c r="B168" s="2">
-        <v>15974</v>
+        <v>15977</v>
       </c>
       <c r="C168" s="2">
         <v>101</v>
@@ -4246,13 +4246,13 @@
         <v>94.142857142857</v>
       </c>
       <c r="E168" s="2">
-        <v>320084</v>
+        <v>320112</v>
       </c>
       <c r="F168" s="2">
-        <v>3418</v>
+        <v>3420</v>
       </c>
       <c r="G168" s="4">
-        <v>0.034104435129</v>
+        <v>0.034074457083</v>
       </c>
     </row>
     <row r="169" spans="1:7">
@@ -4260,7 +4260,7 @@
         <v>44089</v>
       </c>
       <c r="B169" s="2">
-        <v>16104</v>
+        <v>16107</v>
       </c>
       <c r="C169" s="2">
         <v>130</v>
@@ -4269,13 +4269,13 @@
         <v>92.28571428571399</v>
       </c>
       <c r="E169" s="2">
-        <v>324079</v>
+        <v>324109</v>
       </c>
       <c r="F169" s="2">
-        <v>3995</v>
+        <v>3997</v>
       </c>
       <c r="G169" s="4">
-        <v>0.033991054985</v>
+        <v>0.033958891867</v>
       </c>
     </row>
     <row r="170" spans="1:7">
@@ -4283,7 +4283,7 @@
         <v>44090</v>
       </c>
       <c r="B170" s="2">
-        <v>16191</v>
+        <v>16194</v>
       </c>
       <c r="C170" s="2">
         <v>87</v>
@@ -4292,13 +4292,13 @@
         <v>83.142857142857</v>
       </c>
       <c r="E170" s="2">
-        <v>327404</v>
+        <v>327434</v>
       </c>
       <c r="F170" s="2">
         <v>3325</v>
       </c>
       <c r="G170" s="4">
-        <v>0.030965682362</v>
+        <v>0.03093769934</v>
       </c>
     </row>
     <row r="171" spans="1:7">
@@ -4306,7 +4306,7 @@
         <v>44091</v>
       </c>
       <c r="B171" s="2">
-        <v>16295</v>
+        <v>16298</v>
       </c>
       <c r="C171" s="2">
         <v>104</v>
@@ -4315,13 +4315,13 @@
         <v>83.142857142857</v>
       </c>
       <c r="E171" s="2">
-        <v>331157</v>
+        <v>331188</v>
       </c>
       <c r="F171" s="2">
-        <v>3753</v>
+        <v>3754</v>
       </c>
       <c r="G171" s="4">
-        <v>0.030230625389</v>
+        <v>0.030218068535</v>
       </c>
     </row>
     <row r="172" spans="1:7">
@@ -4329,7 +4329,7 @@
         <v>44092</v>
       </c>
       <c r="B172" s="2">
-        <v>16399</v>
+        <v>16402</v>
       </c>
       <c r="C172" s="2">
         <v>104</v>
@@ -4338,13 +4338,13 @@
         <v>87.571428571428</v>
       </c>
       <c r="E172" s="2">
-        <v>334434</v>
+        <v>334465</v>
       </c>
       <c r="F172" s="2">
         <v>3277</v>
       </c>
       <c r="G172" s="4">
-        <v>0.030614792988</v>
+        <v>0.030602566022</v>
       </c>
     </row>
     <row r="173" spans="1:7">
@@ -4352,7 +4352,7 @@
         <v>44093</v>
       </c>
       <c r="B173" s="2">
-        <v>16471</v>
+        <v>16474</v>
       </c>
       <c r="C173" s="2">
         <v>72</v>
@@ -4361,13 +4361,13 @@
         <v>90.714285714285</v>
       </c>
       <c r="E173" s="2">
-        <v>335953</v>
+        <v>335985</v>
       </c>
       <c r="F173" s="2">
-        <v>1519</v>
+        <v>1520</v>
       </c>
       <c r="G173" s="4">
-        <v>0.031530860519</v>
+        <v>0.031521469347</v>
       </c>
     </row>
     <row r="174" spans="1:7">
@@ -4375,7 +4375,7 @@
         <v>44094</v>
       </c>
       <c r="B174" s="2">
-        <v>16513</v>
+        <v>16516</v>
       </c>
       <c r="C174" s="2">
         <v>42</v>
@@ -4384,13 +4384,13 @@
         <v>91.428571428571</v>
       </c>
       <c r="E174" s="2">
-        <v>337109</v>
+        <v>337141</v>
       </c>
       <c r="F174" s="2">
         <v>1156</v>
       </c>
       <c r="G174" s="4">
-        <v>0.031306559702</v>
+        <v>0.031297373954</v>
       </c>
     </row>
     <row r="175" spans="1:7">
@@ -4398,22 +4398,22 @@
         <v>44095</v>
       </c>
       <c r="B175" s="2">
-        <v>16656</v>
+        <v>16660</v>
       </c>
       <c r="C175" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D175" s="3">
-        <v>97.428571428571</v>
+        <v>97.571428571428</v>
       </c>
       <c r="E175" s="2">
-        <v>341488</v>
+        <v>341522</v>
       </c>
       <c r="F175" s="2">
-        <v>4379</v>
+        <v>4381</v>
       </c>
       <c r="G175" s="4">
-        <v>0.031863203139</v>
+        <v>0.03190098085</v>
       </c>
     </row>
     <row r="176" spans="1:7">
@@ -4421,22 +4421,22 @@
         <v>44096</v>
       </c>
       <c r="B176" s="2">
-        <v>16754</v>
+        <v>16758</v>
       </c>
       <c r="C176" s="2">
         <v>98</v>
       </c>
       <c r="D176" s="3">
-        <v>92.85714285714199</v>
+        <v>93</v>
       </c>
       <c r="E176" s="2">
-        <v>345284</v>
+        <v>345318</v>
       </c>
       <c r="F176" s="2">
         <v>3796</v>
       </c>
       <c r="G176" s="4">
-        <v>0.030653147842</v>
+        <v>0.030694516478</v>
       </c>
     </row>
     <row r="177" spans="1:7">
@@ -4444,22 +4444,22 @@
         <v>44097</v>
       </c>
       <c r="B177" s="2">
-        <v>16848</v>
+        <v>16852</v>
       </c>
       <c r="C177" s="2">
         <v>94</v>
       </c>
       <c r="D177" s="3">
-        <v>93.85714285714199</v>
+        <v>94</v>
       </c>
       <c r="E177" s="2">
-        <v>348797</v>
+        <v>348832</v>
       </c>
       <c r="F177" s="2">
-        <v>3513</v>
+        <v>3514</v>
       </c>
       <c r="G177" s="4">
-        <v>0.030710980227</v>
+        <v>0.030750537433</v>
       </c>
     </row>
     <row r="178" spans="1:7">
@@ -4467,22 +4467,22 @@
         <v>44098</v>
       </c>
       <c r="B178" s="2">
-        <v>16939</v>
+        <v>16943</v>
       </c>
       <c r="C178" s="2">
         <v>91</v>
       </c>
       <c r="D178" s="3">
-        <v>92</v>
+        <v>92.142857142857</v>
       </c>
       <c r="E178" s="2">
-        <v>352539</v>
+        <v>352575</v>
       </c>
       <c r="F178" s="2">
-        <v>3742</v>
+        <v>3743</v>
       </c>
       <c r="G178" s="4">
-        <v>0.030118791506</v>
+        <v>0.030158507504</v>
       </c>
     </row>
     <row r="179" spans="1:7">
@@ -4490,22 +4490,22 @@
         <v>44099</v>
       </c>
       <c r="B179" s="2">
-        <v>17028</v>
+        <v>17032</v>
       </c>
       <c r="C179" s="2">
         <v>89</v>
       </c>
       <c r="D179" s="3">
-        <v>89.85714285714199</v>
+        <v>90</v>
       </c>
       <c r="E179" s="2">
-        <v>355855</v>
+        <v>355892</v>
       </c>
       <c r="F179" s="2">
-        <v>3316</v>
+        <v>3317</v>
       </c>
       <c r="G179" s="4">
-        <v>0.02936370851</v>
+        <v>0.029402156158</v>
       </c>
     </row>
     <row r="180" spans="1:7">
@@ -4513,22 +4513,22 @@
         <v>44100</v>
       </c>
       <c r="B180" s="2">
-        <v>17086</v>
+        <v>17091</v>
       </c>
       <c r="C180" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D180" s="3">
-        <v>87.85714285714199</v>
+        <v>88.142857142857</v>
       </c>
       <c r="E180" s="2">
-        <v>357727</v>
+        <v>357765</v>
       </c>
       <c r="F180" s="2">
-        <v>1872</v>
+        <v>1873</v>
       </c>
       <c r="G180" s="4">
-        <v>0.028244695508</v>
+        <v>0.028328741965</v>
       </c>
     </row>
     <row r="181" spans="1:7">
@@ -4536,22 +4536,22 @@
         <v>44101</v>
       </c>
       <c r="B181" s="2">
-        <v>17109</v>
+        <v>17115</v>
       </c>
       <c r="C181" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D181" s="3">
-        <v>85.142857142857</v>
+        <v>85.571428571428</v>
       </c>
       <c r="E181" s="2">
-        <v>358856</v>
+        <v>358895</v>
       </c>
       <c r="F181" s="2">
-        <v>1129</v>
+        <v>1130</v>
       </c>
       <c r="G181" s="4">
-        <v>0.027406078999</v>
+        <v>0.027535165946</v>
       </c>
     </row>
     <row r="182" spans="1:7">
@@ -4559,22 +4559,22 @@
         <v>44102</v>
       </c>
       <c r="B182" s="2">
-        <v>17222</v>
+        <v>17228</v>
       </c>
       <c r="C182" s="2">
         <v>113</v>
       </c>
       <c r="D182" s="3">
-        <v>80.85714285714199</v>
+        <v>81.142857142857</v>
       </c>
       <c r="E182" s="2">
-        <v>362963</v>
+        <v>363002</v>
       </c>
       <c r="F182" s="2">
         <v>4107</v>
       </c>
       <c r="G182" s="4">
-        <v>0.026356228172</v>
+        <v>0.026443202979</v>
       </c>
     </row>
     <row r="183" spans="1:7">
@@ -4582,22 +4582,22 @@
         <v>44103</v>
       </c>
       <c r="B183" s="2">
-        <v>17297</v>
+        <v>17303</v>
       </c>
       <c r="C183" s="2">
         <v>75</v>
       </c>
       <c r="D183" s="3">
-        <v>77.571428571428</v>
+        <v>77.85714285714199</v>
       </c>
       <c r="E183" s="2">
-        <v>366806</v>
+        <v>366846</v>
       </c>
       <c r="F183" s="2">
-        <v>3843</v>
+        <v>3844</v>
       </c>
       <c r="G183" s="4">
-        <v>0.025229997212</v>
+        <v>0.025315867707</v>
       </c>
     </row>
     <row r="184" spans="1:7">
@@ -4605,22 +4605,22 @@
         <v>44104</v>
       </c>
       <c r="B184" s="2">
-        <v>17357</v>
+        <v>17363</v>
       </c>
       <c r="C184" s="2">
         <v>60</v>
       </c>
       <c r="D184" s="3">
-        <v>72.714285714285</v>
+        <v>73</v>
       </c>
       <c r="E184" s="2">
-        <v>370367</v>
+        <v>370406</v>
       </c>
       <c r="F184" s="2">
-        <v>3561</v>
+        <v>3560</v>
       </c>
       <c r="G184" s="4">
-        <v>0.023597589244</v>
+        <v>0.023685918234</v>
       </c>
     </row>
     <row r="185" spans="1:7">
@@ -4628,22 +4628,22 @@
         <v>44105</v>
       </c>
       <c r="B185" s="2">
-        <v>17422</v>
+        <v>17428</v>
       </c>
       <c r="C185" s="2">
         <v>65</v>
       </c>
       <c r="D185" s="3">
-        <v>69</v>
+        <v>69.28571428571399</v>
       </c>
       <c r="E185" s="2">
-        <v>373894</v>
+        <v>373933</v>
       </c>
       <c r="F185" s="2">
         <v>3527</v>
       </c>
       <c r="G185" s="4">
-        <v>0.022617653945</v>
+        <v>0.022708118737</v>
       </c>
     </row>
     <row r="186" spans="1:7">
@@ -4651,22 +4651,22 @@
         <v>44106</v>
       </c>
       <c r="B186" s="2">
-        <v>17498</v>
+        <v>17504</v>
       </c>
       <c r="C186" s="2">
         <v>76</v>
       </c>
       <c r="D186" s="3">
-        <v>67.142857142857</v>
+        <v>67.428571428571</v>
       </c>
       <c r="E186" s="2">
-        <v>377439</v>
+        <v>377478</v>
       </c>
       <c r="F186" s="2">
         <v>3545</v>
       </c>
       <c r="G186" s="4">
-        <v>0.021775389177</v>
+        <v>0.021866024274</v>
       </c>
     </row>
     <row r="187" spans="1:7">
@@ -4674,22 +4674,22 @@
         <v>44107</v>
       </c>
       <c r="B187" s="2">
-        <v>17541</v>
+        <v>17547</v>
       </c>
       <c r="C187" s="2">
         <v>43</v>
       </c>
       <c r="D187" s="3">
-        <v>65</v>
+        <v>65.142857142857</v>
       </c>
       <c r="E187" s="2">
-        <v>379435</v>
+        <v>379474</v>
       </c>
       <c r="F187" s="2">
         <v>1996</v>
       </c>
       <c r="G187" s="4">
-        <v>0.020960014741</v>
+        <v>0.021005113086</v>
       </c>
     </row>
     <row r="188" spans="1:7">
@@ -4697,7 +4697,7 @@
         <v>44108</v>
       </c>
       <c r="B188" s="2">
-        <v>17578</v>
+        <v>17584</v>
       </c>
       <c r="C188" s="2">
         <v>37</v>
@@ -4706,7 +4706,7 @@
         <v>67</v>
       </c>
       <c r="E188" s="2">
-        <v>380820</v>
+        <v>380859</v>
       </c>
       <c r="F188" s="2">
         <v>1385</v>
@@ -4720,7 +4720,7 @@
         <v>44109</v>
       </c>
       <c r="B189" s="2">
-        <v>17655</v>
+        <v>17661</v>
       </c>
       <c r="C189" s="2">
         <v>77</v>
@@ -4729,7 +4729,7 @@
         <v>61.857142857142</v>
       </c>
       <c r="E189" s="2">
-        <v>385629</v>
+        <v>385668</v>
       </c>
       <c r="F189" s="2">
         <v>4809</v>
@@ -4743,7 +4743,7 @@
         <v>44110</v>
       </c>
       <c r="B190" s="2">
-        <v>17718</v>
+        <v>17724</v>
       </c>
       <c r="C190" s="2">
         <v>63</v>
@@ -4752,10 +4752,10 @@
         <v>60.142857142857</v>
       </c>
       <c r="E190" s="2">
-        <v>390291</v>
+        <v>390331</v>
       </c>
       <c r="F190" s="2">
-        <v>4662</v>
+        <v>4663</v>
       </c>
       <c r="G190" s="4">
         <v>0.017926335959</v>
@@ -4766,7 +4766,7 @@
         <v>44111</v>
       </c>
       <c r="B191" s="2">
-        <v>17794</v>
+        <v>17800</v>
       </c>
       <c r="C191" s="2">
         <v>76</v>
@@ -4775,10 +4775,10 @@
         <v>62.428571428571</v>
       </c>
       <c r="E191" s="2">
-        <v>394483</v>
+        <v>394522</v>
       </c>
       <c r="F191" s="2">
-        <v>4192</v>
+        <v>4191</v>
       </c>
       <c r="G191" s="4">
         <v>0.018120749709</v>
@@ -4789,7 +4789,7 @@
         <v>44112</v>
       </c>
       <c r="B192" s="2">
-        <v>17888</v>
+        <v>17894</v>
       </c>
       <c r="C192" s="2">
         <v>94</v>
@@ -4798,13 +4798,13 @@
         <v>66.571428571428</v>
       </c>
       <c r="E192" s="2">
-        <v>398736</v>
+        <v>398776</v>
       </c>
       <c r="F192" s="2">
-        <v>4253</v>
+        <v>4254</v>
       </c>
       <c r="G192" s="4">
-        <v>0.018758554061</v>
+        <v>0.018757798977</v>
       </c>
     </row>
     <row r="193" spans="1:7">
@@ -4812,7 +4812,7 @@
         <v>44113</v>
       </c>
       <c r="B193" s="2">
-        <v>17946</v>
+        <v>17952</v>
       </c>
       <c r="C193" s="2">
         <v>58</v>
@@ -4821,13 +4821,13 @@
         <v>64</v>
       </c>
       <c r="E193" s="2">
-        <v>402520</v>
+        <v>402561</v>
       </c>
       <c r="F193" s="2">
-        <v>3784</v>
+        <v>3785</v>
       </c>
       <c r="G193" s="4">
-        <v>0.017862126709</v>
+        <v>0.017860702467</v>
       </c>
     </row>
     <row r="194" spans="1:7">
@@ -4835,7 +4835,7 @@
         <v>44114</v>
       </c>
       <c r="B194" s="2">
-        <v>17987</v>
+        <v>17993</v>
       </c>
       <c r="C194" s="2">
         <v>41</v>
@@ -4844,13 +4844,13 @@
         <v>63.71428571428499</v>
       </c>
       <c r="E194" s="2">
-        <v>404315</v>
+        <v>404356</v>
       </c>
       <c r="F194" s="2">
         <v>1795</v>
       </c>
       <c r="G194" s="4">
-        <v>0.017926045016</v>
+        <v>0.017924604131</v>
       </c>
     </row>
     <row r="195" spans="1:7">
@@ -4858,7 +4858,7 @@
         <v>44115</v>
       </c>
       <c r="B195" s="2">
-        <v>18011</v>
+        <v>18017</v>
       </c>
       <c r="C195" s="2">
         <v>24</v>
@@ -4867,13 +4867,13 @@
         <v>61.857142857142</v>
       </c>
       <c r="E195" s="2">
-        <v>405649</v>
+        <v>405690</v>
       </c>
       <c r="F195" s="2">
         <v>1334</v>
       </c>
       <c r="G195" s="4">
-        <v>0.017439284707</v>
+        <v>0.017437880069</v>
       </c>
     </row>
     <row r="196" spans="1:7">
@@ -4881,7 +4881,7 @@
         <v>44116</v>
       </c>
       <c r="B196" s="2">
-        <v>18103</v>
+        <v>18109</v>
       </c>
       <c r="C196" s="2">
         <v>92</v>
@@ -4890,13 +4890,13 @@
         <v>64</v>
       </c>
       <c r="E196" s="2">
-        <v>410183</v>
+        <v>410224</v>
       </c>
       <c r="F196" s="2">
         <v>4534</v>
       </c>
       <c r="G196" s="4">
-        <v>0.018245499714</v>
+        <v>0.018244013683</v>
       </c>
     </row>
     <row r="197" spans="1:7">
@@ -4904,7 +4904,7 @@
         <v>44117</v>
       </c>
       <c r="B197" s="2">
-        <v>18193</v>
+        <v>18199</v>
       </c>
       <c r="C197" s="2">
         <v>90</v>
@@ -4913,13 +4913,13 @@
         <v>67.85714285714199</v>
       </c>
       <c r="E197" s="2">
-        <v>414705</v>
+        <v>414747</v>
       </c>
       <c r="F197" s="2">
-        <v>4522</v>
+        <v>4523</v>
       </c>
       <c r="G197" s="4">
-        <v>0.019456049807</v>
+        <v>0.019454456094</v>
       </c>
     </row>
     <row r="198" spans="1:7">
@@ -4927,7 +4927,7 @@
         <v>44118</v>
       </c>
       <c r="B198" s="2">
-        <v>18263</v>
+        <v>18269</v>
       </c>
       <c r="C198" s="2">
         <v>70</v>
@@ -4936,13 +4936,13 @@
         <v>67</v>
       </c>
       <c r="E198" s="2">
-        <v>418934</v>
+        <v>418976</v>
       </c>
       <c r="F198" s="2">
         <v>4229</v>
       </c>
       <c r="G198" s="4">
-        <v>0.019181219582</v>
+        <v>0.019178866443</v>
       </c>
     </row>
     <row r="199" spans="1:7">
@@ -4950,7 +4950,7 @@
         <v>44119</v>
       </c>
       <c r="B199" s="2">
-        <v>18314</v>
+        <v>18320</v>
       </c>
       <c r="C199" s="2">
         <v>51</v>
@@ -4959,13 +4959,13 @@
         <v>60.857142857142</v>
       </c>
       <c r="E199" s="2">
-        <v>422946</v>
+        <v>422988</v>
       </c>
       <c r="F199" s="2">
         <v>4012</v>
       </c>
       <c r="G199" s="4">
-        <v>0.017596034696</v>
+        <v>0.017594581199</v>
       </c>
     </row>
     <row r="200" spans="1:7">
@@ -4973,7 +4973,7 @@
         <v>44120</v>
       </c>
       <c r="B200" s="2">
-        <v>18372</v>
+        <v>18378</v>
       </c>
       <c r="C200" s="2">
         <v>58</v>
@@ -4982,13 +4982,13 @@
         <v>60.857142857142</v>
       </c>
       <c r="E200" s="2">
-        <v>426937</v>
+        <v>426981</v>
       </c>
       <c r="F200" s="2">
-        <v>3991</v>
+        <v>3993</v>
       </c>
       <c r="G200" s="4">
-        <v>0.017446860793</v>
+        <v>0.017444717444</v>
       </c>
     </row>
     <row r="201" spans="1:7">
@@ -4996,22 +4996,22 @@
         <v>44121</v>
       </c>
       <c r="B201" s="2">
-        <v>18417</v>
+        <v>18424</v>
       </c>
       <c r="C201" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D201" s="3">
-        <v>61.428571428571</v>
+        <v>61.57142857142801</v>
       </c>
       <c r="E201" s="2">
-        <v>428839</v>
+        <v>428884</v>
       </c>
       <c r="F201" s="2">
-        <v>1902</v>
+        <v>1903</v>
       </c>
       <c r="G201" s="4">
-        <v>0.017533844397</v>
+        <v>0.017571754729</v>
       </c>
     </row>
     <row r="202" spans="1:7">
@@ -5019,22 +5019,22 @@
         <v>44122</v>
       </c>
       <c r="B202" s="2">
-        <v>18453</v>
+        <v>18460</v>
       </c>
       <c r="C202" s="2">
         <v>36</v>
       </c>
       <c r="D202" s="3">
-        <v>63.142857142857</v>
+        <v>63.28571428571399</v>
       </c>
       <c r="E202" s="2">
-        <v>430217</v>
+        <v>430264</v>
       </c>
       <c r="F202" s="2">
-        <v>1378</v>
+        <v>1380</v>
       </c>
       <c r="G202" s="4">
-        <v>0.017990882448</v>
+        <v>0.018027183201</v>
       </c>
     </row>
     <row r="203" spans="1:7">
@@ -5042,22 +5042,22 @@
         <v>44123</v>
       </c>
       <c r="B203" s="2">
-        <v>18542</v>
+        <v>18549</v>
       </c>
       <c r="C203" s="2">
         <v>89</v>
       </c>
       <c r="D203" s="3">
-        <v>62.71428571428499</v>
+        <v>62.857142857142</v>
       </c>
       <c r="E203" s="2">
-        <v>435046</v>
+        <v>435098</v>
       </c>
       <c r="F203" s="2">
-        <v>4829</v>
+        <v>4834</v>
       </c>
       <c r="G203" s="4">
-        <v>0.017656759039</v>
+        <v>0.017689153332</v>
       </c>
     </row>
     <row r="204" spans="1:7">
@@ -5065,22 +5065,22 @@
         <v>44124</v>
       </c>
       <c r="B204" s="2">
-        <v>18638</v>
+        <v>18646</v>
       </c>
       <c r="C204" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D204" s="3">
-        <v>63.57142857142801</v>
+        <v>63.857142857142</v>
       </c>
       <c r="E204" s="2">
-        <v>439832</v>
+        <v>439885</v>
       </c>
       <c r="F204" s="2">
-        <v>4786</v>
+        <v>4787</v>
       </c>
       <c r="G204" s="4">
-        <v>0.017710033032</v>
+        <v>0.017781844219</v>
       </c>
     </row>
     <row r="205" spans="1:7">
@@ -5088,22 +5088,22 @@
         <v>44125</v>
       </c>
       <c r="B205" s="2">
-        <v>18722</v>
+        <v>18729</v>
       </c>
       <c r="C205" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D205" s="3">
-        <v>65.571428571428</v>
+        <v>65.714285714285</v>
       </c>
       <c r="E205" s="2">
-        <v>444143</v>
+        <v>444226</v>
       </c>
       <c r="F205" s="2">
-        <v>4311</v>
+        <v>4341</v>
       </c>
       <c r="G205" s="4">
-        <v>0.018207782934</v>
+        <v>0.018217821782</v>
       </c>
     </row>
     <row r="206" spans="1:7">
@@ -5111,22 +5111,22 @@
         <v>44126</v>
       </c>
       <c r="B206" s="2">
-        <v>18784</v>
+        <v>18791</v>
       </c>
       <c r="C206" s="2">
         <v>62</v>
       </c>
       <c r="D206" s="3">
-        <v>67.142857142857</v>
+        <v>67.28571428571399</v>
       </c>
       <c r="E206" s="2">
-        <v>448064</v>
+        <v>448160</v>
       </c>
       <c r="F206" s="2">
-        <v>3921</v>
+        <v>3934</v>
       </c>
       <c r="G206" s="4">
-        <v>0.018711680866</v>
+        <v>0.018711266486</v>
       </c>
     </row>
     <row r="207" spans="1:7">
@@ -5134,22 +5134,22 @@
         <v>44127</v>
       </c>
       <c r="B207" s="2">
-        <v>18868</v>
+        <v>18874</v>
       </c>
       <c r="C207" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D207" s="3">
         <v>70.85714285714199</v>
       </c>
       <c r="E207" s="2">
-        <v>451873</v>
+        <v>451976</v>
       </c>
       <c r="F207" s="2">
-        <v>3809</v>
+        <v>3816</v>
       </c>
       <c r="G207" s="4">
-        <v>0.019890920757</v>
+        <v>0.019843968793</v>
       </c>
     </row>
     <row r="208" spans="1:7">
@@ -5157,22 +5157,22 @@
         <v>44128</v>
       </c>
       <c r="B208" s="2">
-        <v>18924</v>
+        <v>18930</v>
       </c>
       <c r="C208" s="2">
         <v>56</v>
       </c>
       <c r="D208" s="3">
-        <v>72.428571428571</v>
+        <v>72.28571428571399</v>
       </c>
       <c r="E208" s="2">
-        <v>453823</v>
+        <v>453927</v>
       </c>
       <c r="F208" s="2">
-        <v>1950</v>
+        <v>1951</v>
       </c>
       <c r="G208" s="4">
-        <v>0.020292987512</v>
+        <v>0.020205246975</v>
       </c>
     </row>
     <row r="209" spans="1:7">
@@ -5180,22 +5180,22 @@
         <v>44129</v>
       </c>
       <c r="B209" s="2">
-        <v>18963</v>
+        <v>18969</v>
       </c>
       <c r="C209" s="2">
         <v>39</v>
       </c>
       <c r="D209" s="3">
-        <v>72.85714285714199</v>
+        <v>72.714285714285</v>
       </c>
       <c r="E209" s="2">
-        <v>455422</v>
+        <v>455531</v>
       </c>
       <c r="F209" s="2">
-        <v>1599</v>
+        <v>1604</v>
       </c>
       <c r="G209" s="4">
-        <v>0.020234080539</v>
+        <v>0.02014485297</v>
       </c>
     </row>
     <row r="210" spans="1:7">
@@ -5203,22 +5203,22 @@
         <v>44130</v>
       </c>
       <c r="B210" s="2">
-        <v>19078</v>
+        <v>19084</v>
       </c>
       <c r="C210" s="2">
         <v>115</v>
       </c>
       <c r="D210" s="3">
-        <v>76.571428571428</v>
+        <v>76.428571428571</v>
       </c>
       <c r="E210" s="2">
-        <v>460318</v>
+        <v>460444</v>
       </c>
       <c r="F210" s="2">
-        <v>4896</v>
+        <v>4913</v>
       </c>
       <c r="G210" s="4">
-        <v>0.021209243431</v>
+        <v>0.021107867119</v>
       </c>
     </row>
     <row r="211" spans="1:7">
@@ -5226,22 +5226,22 @@
         <v>44131</v>
       </c>
       <c r="B211" s="2">
-        <v>19182</v>
+        <v>19189</v>
       </c>
       <c r="C211" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D211" s="3">
-        <v>77.714285714285</v>
+        <v>77.571428571428</v>
       </c>
       <c r="E211" s="2">
-        <v>465481</v>
+        <v>465633</v>
       </c>
       <c r="F211" s="2">
-        <v>5163</v>
+        <v>5189</v>
       </c>
       <c r="G211" s="4">
-        <v>0.021209403875</v>
+        <v>0.021089016622</v>
       </c>
     </row>
     <row r="212" spans="1:7">
@@ -5249,7 +5249,7 @@
         <v>44132</v>
       </c>
       <c r="B212" s="2">
-        <v>19281</v>
+        <v>19288</v>
       </c>
       <c r="C212" s="2">
         <v>99</v>
@@ -5258,13 +5258,82 @@
         <v>79.85714285714199</v>
       </c>
       <c r="E212" s="2">
-        <v>469963</v>
+        <v>470165</v>
       </c>
       <c r="F212" s="2">
-        <v>4482</v>
+        <v>4532</v>
       </c>
       <c r="G212" s="4">
-        <v>0.02164988381</v>
+        <v>0.021550560931</v>
+      </c>
+    </row>
+    <row r="213" spans="1:7">
+      <c r="A213" s="1">
+        <v>44133</v>
+      </c>
+      <c r="B213" s="2">
+        <v>19383</v>
+      </c>
+      <c r="C213" s="2">
+        <v>95</v>
+      </c>
+      <c r="D213" s="3">
+        <v>84.571428571428</v>
+      </c>
+      <c r="E213" s="2">
+        <v>474579</v>
+      </c>
+      <c r="F213" s="2">
+        <v>4414</v>
+      </c>
+      <c r="G213" s="4">
+        <v>0.022408115371</v>
+      </c>
+    </row>
+    <row r="214" spans="1:7">
+      <c r="A214" s="1">
+        <v>44134</v>
+      </c>
+      <c r="B214" s="2">
+        <v>19458</v>
+      </c>
+      <c r="C214" s="2">
+        <v>75</v>
+      </c>
+      <c r="D214" s="3">
+        <v>83.428571428571</v>
+      </c>
+      <c r="E214" s="2">
+        <v>479182</v>
+      </c>
+      <c r="F214" s="2">
+        <v>4603</v>
+      </c>
+      <c r="G214" s="4">
+        <v>0.02146585312</v>
+      </c>
+    </row>
+    <row r="215" spans="1:7">
+      <c r="A215" s="1">
+        <v>44135</v>
+      </c>
+      <c r="B215" s="2">
+        <v>19511</v>
+      </c>
+      <c r="C215" s="2">
+        <v>53</v>
+      </c>
+      <c r="D215" s="3">
+        <v>83</v>
+      </c>
+      <c r="E215" s="2">
+        <v>481158</v>
+      </c>
+      <c r="F215" s="2">
+        <v>1976</v>
+      </c>
+      <c r="G215" s="4">
+        <v>0.021335977378</v>
       </c>
     </row>
   </sheetData>

--- a/contra_costa_county_testing.xlsx
+++ b/contra_costa_county_testing.xlsx
@@ -376,7 +376,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G215"/>
+  <dimension ref="A1:G216"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2765,22 +2765,22 @@
         <v>44024</v>
       </c>
       <c r="B104" s="2">
-        <v>5946</v>
+        <v>5947</v>
       </c>
       <c r="C104" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D104" s="3">
-        <v>197.857142857142</v>
+        <v>198</v>
       </c>
       <c r="E104" s="2">
-        <v>137192</v>
+        <v>137193</v>
       </c>
       <c r="F104" s="2">
-        <v>1326</v>
+        <v>1327</v>
       </c>
       <c r="G104" s="4">
-        <v>0.055615789262</v>
+        <v>0.055653710247</v>
       </c>
     </row>
     <row r="105" spans="1:7">
@@ -2788,22 +2788,22 @@
         <v>44025</v>
       </c>
       <c r="B105" s="2">
-        <v>6209</v>
+        <v>6210</v>
       </c>
       <c r="C105" s="2">
         <v>263</v>
       </c>
       <c r="D105" s="3">
-        <v>206.285714285714</v>
+        <v>206.428571428571</v>
       </c>
       <c r="E105" s="2">
-        <v>141800</v>
+        <v>141801</v>
       </c>
       <c r="F105" s="2">
         <v>4608</v>
       </c>
       <c r="G105" s="4">
-        <v>0.056787792984</v>
+        <v>0.056824884973</v>
       </c>
     </row>
     <row r="106" spans="1:7">
@@ -2811,22 +2811,22 @@
         <v>44026</v>
       </c>
       <c r="B106" s="2">
-        <v>6464</v>
+        <v>6465</v>
       </c>
       <c r="C106" s="2">
         <v>255</v>
       </c>
       <c r="D106" s="3">
-        <v>211.857142857142</v>
+        <v>212</v>
       </c>
       <c r="E106" s="2">
-        <v>145568</v>
+        <v>145569</v>
       </c>
       <c r="F106" s="2">
         <v>3768</v>
       </c>
       <c r="G106" s="4">
-        <v>0.059057783441</v>
+        <v>0.059095253265</v>
       </c>
     </row>
     <row r="107" spans="1:7">
@@ -2834,22 +2834,22 @@
         <v>44027</v>
       </c>
       <c r="B107" s="2">
-        <v>6724</v>
+        <v>6725</v>
       </c>
       <c r="C107" s="2">
         <v>260</v>
       </c>
       <c r="D107" s="3">
-        <v>216.857142857142</v>
+        <v>217</v>
       </c>
       <c r="E107" s="2">
-        <v>149918</v>
+        <v>149919</v>
       </c>
       <c r="F107" s="2">
         <v>4350</v>
       </c>
       <c r="G107" s="4">
-        <v>0.060245267293</v>
+        <v>0.060282562108</v>
       </c>
     </row>
     <row r="108" spans="1:7">
@@ -2857,22 +2857,22 @@
         <v>44028</v>
       </c>
       <c r="B108" s="2">
-        <v>6982</v>
+        <v>6983</v>
       </c>
       <c r="C108" s="2">
         <v>258</v>
       </c>
       <c r="D108" s="3">
-        <v>217.428571428571</v>
+        <v>217.571428571428</v>
       </c>
       <c r="E108" s="2">
-        <v>154111</v>
+        <v>154112</v>
       </c>
       <c r="F108" s="2">
         <v>4193</v>
       </c>
       <c r="G108" s="4">
-        <v>0.061410587475</v>
+        <v>0.061448456727</v>
       </c>
     </row>
     <row r="109" spans="1:7">
@@ -2880,22 +2880,22 @@
         <v>44029</v>
       </c>
       <c r="B109" s="2">
-        <v>7232</v>
+        <v>7233</v>
       </c>
       <c r="C109" s="2">
         <v>250</v>
       </c>
       <c r="D109" s="3">
-        <v>218</v>
+        <v>218.142857142857</v>
       </c>
       <c r="E109" s="2">
-        <v>158319</v>
+        <v>158320</v>
       </c>
       <c r="F109" s="2">
         <v>4208</v>
       </c>
       <c r="G109" s="4">
-        <v>0.062212075502</v>
+        <v>0.062250305748</v>
       </c>
     </row>
     <row r="110" spans="1:7">
@@ -2903,22 +2903,22 @@
         <v>44030</v>
       </c>
       <c r="B110" s="2">
-        <v>7361</v>
+        <v>7362</v>
       </c>
       <c r="C110" s="2">
         <v>129</v>
       </c>
       <c r="D110" s="3">
-        <v>216.428571428571</v>
+        <v>216.571428571428</v>
       </c>
       <c r="E110" s="2">
-        <v>160547</v>
+        <v>160548</v>
       </c>
       <c r="F110" s="2">
         <v>2228</v>
       </c>
       <c r="G110" s="4">
-        <v>0.061383250273</v>
+        <v>0.061421278664</v>
       </c>
     </row>
     <row r="111" spans="1:7">
@@ -2926,7 +2926,7 @@
         <v>44031</v>
       </c>
       <c r="B111" s="2">
-        <v>7460</v>
+        <v>7461</v>
       </c>
       <c r="C111" s="2">
         <v>99</v>
@@ -2935,7 +2935,7 @@
         <v>216.285714285714</v>
       </c>
       <c r="E111" s="2">
-        <v>161807</v>
+        <v>161808</v>
       </c>
       <c r="F111" s="2">
         <v>1260</v>
@@ -2949,7 +2949,7 @@
         <v>44032</v>
       </c>
       <c r="B112" s="2">
-        <v>7753</v>
+        <v>7754</v>
       </c>
       <c r="C112" s="2">
         <v>293</v>
@@ -2958,7 +2958,7 @@
         <v>220.571428571428</v>
       </c>
       <c r="E112" s="2">
-        <v>166061</v>
+        <v>166062</v>
       </c>
       <c r="F112" s="2">
         <v>4254</v>
@@ -2972,7 +2972,7 @@
         <v>44033</v>
       </c>
       <c r="B113" s="2">
-        <v>7994</v>
+        <v>7995</v>
       </c>
       <c r="C113" s="2">
         <v>241</v>
@@ -2981,7 +2981,7 @@
         <v>218.571428571428</v>
       </c>
       <c r="E113" s="2">
-        <v>169902</v>
+        <v>169903</v>
       </c>
       <c r="F113" s="2">
         <v>3841</v>
@@ -2995,7 +2995,7 @@
         <v>44034</v>
       </c>
       <c r="B114" s="2">
-        <v>8245</v>
+        <v>8246</v>
       </c>
       <c r="C114" s="2">
         <v>251</v>
@@ -3004,7 +3004,7 @@
         <v>217.285714285714</v>
       </c>
       <c r="E114" s="2">
-        <v>173569</v>
+        <v>173570</v>
       </c>
       <c r="F114" s="2">
         <v>3667</v>
@@ -3018,7 +3018,7 @@
         <v>44035</v>
       </c>
       <c r="B115" s="2">
-        <v>8478</v>
+        <v>8479</v>
       </c>
       <c r="C115" s="2">
         <v>233</v>
@@ -3027,7 +3027,7 @@
         <v>213.714285714285</v>
       </c>
       <c r="E115" s="2">
-        <v>176902</v>
+        <v>176903</v>
       </c>
       <c r="F115" s="2">
         <v>3333</v>
@@ -3041,7 +3041,7 @@
         <v>44036</v>
       </c>
       <c r="B116" s="2">
-        <v>8698</v>
+        <v>8699</v>
       </c>
       <c r="C116" s="2">
         <v>220</v>
@@ -3050,7 +3050,7 @@
         <v>209.428571428571</v>
       </c>
       <c r="E116" s="2">
-        <v>180582</v>
+        <v>180583</v>
       </c>
       <c r="F116" s="2">
         <v>3680</v>
@@ -3064,7 +3064,7 @@
         <v>44037</v>
       </c>
       <c r="B117" s="2">
-        <v>8812</v>
+        <v>8813</v>
       </c>
       <c r="C117" s="2">
         <v>114</v>
@@ -3073,7 +3073,7 @@
         <v>207.285714285714</v>
       </c>
       <c r="E117" s="2">
-        <v>182218</v>
+        <v>182219</v>
       </c>
       <c r="F117" s="2">
         <v>1636</v>
@@ -3087,7 +3087,7 @@
         <v>44038</v>
       </c>
       <c r="B118" s="2">
-        <v>8915</v>
+        <v>8916</v>
       </c>
       <c r="C118" s="2">
         <v>103</v>
@@ -3096,7 +3096,7 @@
         <v>207.857142857142</v>
       </c>
       <c r="E118" s="2">
-        <v>183472</v>
+        <v>183473</v>
       </c>
       <c r="F118" s="2">
         <v>1254</v>
@@ -3110,7 +3110,7 @@
         <v>44039</v>
       </c>
       <c r="B119" s="2">
-        <v>9159</v>
+        <v>9160</v>
       </c>
       <c r="C119" s="2">
         <v>244</v>
@@ -3119,7 +3119,7 @@
         <v>200.857142857142</v>
       </c>
       <c r="E119" s="2">
-        <v>187658</v>
+        <v>187659</v>
       </c>
       <c r="F119" s="2">
         <v>4186</v>
@@ -3133,7 +3133,7 @@
         <v>44040</v>
       </c>
       <c r="B120" s="2">
-        <v>9418</v>
+        <v>9419</v>
       </c>
       <c r="C120" s="2">
         <v>259</v>
@@ -3142,7 +3142,7 @@
         <v>203.428571428571</v>
       </c>
       <c r="E120" s="2">
-        <v>191602</v>
+        <v>191603</v>
       </c>
       <c r="F120" s="2">
         <v>3944</v>
@@ -3156,7 +3156,7 @@
         <v>44041</v>
       </c>
       <c r="B121" s="2">
-        <v>9671</v>
+        <v>9672</v>
       </c>
       <c r="C121" s="2">
         <v>253</v>
@@ -3165,7 +3165,7 @@
         <v>203.714285714285</v>
       </c>
       <c r="E121" s="2">
-        <v>195468</v>
+        <v>195469</v>
       </c>
       <c r="F121" s="2">
         <v>3866</v>
@@ -3179,7 +3179,7 @@
         <v>44042</v>
       </c>
       <c r="B122" s="2">
-        <v>9890</v>
+        <v>9891</v>
       </c>
       <c r="C122" s="2">
         <v>219</v>
@@ -3188,7 +3188,7 @@
         <v>201.714285714285</v>
       </c>
       <c r="E122" s="2">
-        <v>199144</v>
+        <v>199145</v>
       </c>
       <c r="F122" s="2">
         <v>3676</v>
@@ -3202,7 +3202,7 @@
         <v>44043</v>
       </c>
       <c r="B123" s="2">
-        <v>10125</v>
+        <v>10126</v>
       </c>
       <c r="C123" s="2">
         <v>235</v>
@@ -3211,7 +3211,7 @@
         <v>203.857142857142</v>
       </c>
       <c r="E123" s="2">
-        <v>202696</v>
+        <v>202697</v>
       </c>
       <c r="F123" s="2">
         <v>3552</v>
@@ -3225,7 +3225,7 @@
         <v>44044</v>
       </c>
       <c r="B124" s="2">
-        <v>10233</v>
+        <v>10234</v>
       </c>
       <c r="C124" s="2">
         <v>108</v>
@@ -3234,7 +3234,7 @@
         <v>203</v>
       </c>
       <c r="E124" s="2">
-        <v>204365</v>
+        <v>204366</v>
       </c>
       <c r="F124" s="2">
         <v>1669</v>
@@ -3248,7 +3248,7 @@
         <v>44045</v>
       </c>
       <c r="B125" s="2">
-        <v>10312</v>
+        <v>10313</v>
       </c>
       <c r="C125" s="2">
         <v>79</v>
@@ -3257,7 +3257,7 @@
         <v>199.571428571428</v>
       </c>
       <c r="E125" s="2">
-        <v>205514</v>
+        <v>205515</v>
       </c>
       <c r="F125" s="2">
         <v>1149</v>
@@ -3271,7 +3271,7 @@
         <v>44046</v>
       </c>
       <c r="B126" s="2">
-        <v>10568</v>
+        <v>10569</v>
       </c>
       <c r="C126" s="2">
         <v>256</v>
@@ -3280,7 +3280,7 @@
         <v>201.285714285714</v>
       </c>
       <c r="E126" s="2">
-        <v>209392</v>
+        <v>209393</v>
       </c>
       <c r="F126" s="2">
         <v>3878</v>
@@ -3294,7 +3294,7 @@
         <v>44047</v>
       </c>
       <c r="B127" s="2">
-        <v>10807</v>
+        <v>10808</v>
       </c>
       <c r="C127" s="2">
         <v>239</v>
@@ -3303,7 +3303,7 @@
         <v>198.428571428571</v>
       </c>
       <c r="E127" s="2">
-        <v>212724</v>
+        <v>212725</v>
       </c>
       <c r="F127" s="2">
         <v>3332</v>
@@ -3317,7 +3317,7 @@
         <v>44048</v>
       </c>
       <c r="B128" s="2">
-        <v>11009</v>
+        <v>11010</v>
       </c>
       <c r="C128" s="2">
         <v>202</v>
@@ -3326,7 +3326,7 @@
         <v>191.142857142857</v>
       </c>
       <c r="E128" s="2">
-        <v>216003</v>
+        <v>216004</v>
       </c>
       <c r="F128" s="2">
         <v>3279</v>
@@ -3340,7 +3340,7 @@
         <v>44049</v>
       </c>
       <c r="B129" s="2">
-        <v>11209</v>
+        <v>11210</v>
       </c>
       <c r="C129" s="2">
         <v>200</v>
@@ -3349,7 +3349,7 @@
         <v>188.428571428571</v>
       </c>
       <c r="E129" s="2">
-        <v>219670</v>
+        <v>219671</v>
       </c>
       <c r="F129" s="2">
         <v>3667</v>
@@ -3363,7 +3363,7 @@
         <v>44050</v>
       </c>
       <c r="B130" s="2">
-        <v>11394</v>
+        <v>11395</v>
       </c>
       <c r="C130" s="2">
         <v>185</v>
@@ -3372,7 +3372,7 @@
         <v>181.285714285714</v>
       </c>
       <c r="E130" s="2">
-        <v>223002</v>
+        <v>223003</v>
       </c>
       <c r="F130" s="2">
         <v>3332</v>
@@ -3386,22 +3386,22 @@
         <v>44051</v>
       </c>
       <c r="B131" s="2">
-        <v>11514</v>
+        <v>11516</v>
       </c>
       <c r="C131" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D131" s="3">
-        <v>183</v>
+        <v>183.142857142857</v>
       </c>
       <c r="E131" s="2">
-        <v>224711</v>
+        <v>224713</v>
       </c>
       <c r="F131" s="2">
-        <v>1709</v>
+        <v>1710</v>
       </c>
       <c r="G131" s="4">
-        <v>0.062960778531</v>
+        <v>0.063006831473</v>
       </c>
     </row>
     <row r="132" spans="1:7">
@@ -3409,22 +3409,22 @@
         <v>44052</v>
       </c>
       <c r="B132" s="2">
-        <v>11599</v>
+        <v>11601</v>
       </c>
       <c r="C132" s="2">
         <v>85</v>
       </c>
       <c r="D132" s="3">
-        <v>183.857142857142</v>
+        <v>184</v>
       </c>
       <c r="E132" s="2">
-        <v>225776</v>
+        <v>225778</v>
       </c>
       <c r="F132" s="2">
         <v>1065</v>
       </c>
       <c r="G132" s="4">
-        <v>0.063517915309</v>
+        <v>0.063564131668</v>
       </c>
     </row>
     <row r="133" spans="1:7">
@@ -3432,22 +3432,22 @@
         <v>44053</v>
       </c>
       <c r="B133" s="2">
-        <v>11836</v>
+        <v>11838</v>
       </c>
       <c r="C133" s="2">
         <v>237</v>
       </c>
       <c r="D133" s="3">
-        <v>181.142857142857</v>
+        <v>181.285714285714</v>
       </c>
       <c r="E133" s="2">
-        <v>229681</v>
+        <v>229683</v>
       </c>
       <c r="F133" s="2">
         <v>3905</v>
       </c>
       <c r="G133" s="4">
-        <v>0.062496919513</v>
+        <v>0.062543124691</v>
       </c>
     </row>
     <row r="134" spans="1:7">
@@ -3455,22 +3455,22 @@
         <v>44054</v>
       </c>
       <c r="B134" s="2">
-        <v>12037</v>
+        <v>12039</v>
       </c>
       <c r="C134" s="2">
         <v>201</v>
       </c>
       <c r="D134" s="3">
-        <v>175.714285714285</v>
+        <v>175.857142857142</v>
       </c>
       <c r="E134" s="2">
-        <v>233102</v>
+        <v>233104</v>
       </c>
       <c r="F134" s="2">
         <v>3421</v>
       </c>
       <c r="G134" s="4">
-        <v>0.060359210913</v>
+        <v>0.060405319201</v>
       </c>
     </row>
     <row r="135" spans="1:7">
@@ -3478,22 +3478,22 @@
         <v>44055</v>
       </c>
       <c r="B135" s="2">
-        <v>12237</v>
+        <v>12239</v>
       </c>
       <c r="C135" s="2">
         <v>200</v>
       </c>
       <c r="D135" s="3">
-        <v>175.428571428571</v>
+        <v>175.571428571428</v>
       </c>
       <c r="E135" s="2">
-        <v>236970</v>
+        <v>236972</v>
       </c>
       <c r="F135" s="2">
         <v>3868</v>
       </c>
       <c r="G135" s="4">
-        <v>0.05856822626</v>
+        <v>0.058613124761</v>
       </c>
     </row>
     <row r="136" spans="1:7">
@@ -3501,22 +3501,22 @@
         <v>44056</v>
       </c>
       <c r="B136" s="2">
-        <v>12412</v>
+        <v>12414</v>
       </c>
       <c r="C136" s="2">
         <v>175</v>
       </c>
       <c r="D136" s="3">
-        <v>171.857142857142</v>
+        <v>172</v>
       </c>
       <c r="E136" s="2">
-        <v>240240</v>
+        <v>240242</v>
       </c>
       <c r="F136" s="2">
         <v>3270</v>
       </c>
       <c r="G136" s="4">
-        <v>0.058483228001</v>
+        <v>0.058528997131</v>
       </c>
     </row>
     <row r="137" spans="1:7">
@@ -3524,22 +3524,22 @@
         <v>44057</v>
       </c>
       <c r="B137" s="2">
-        <v>12588</v>
+        <v>12590</v>
       </c>
       <c r="C137" s="2">
         <v>176</v>
       </c>
       <c r="D137" s="3">
-        <v>170.571428571428</v>
+        <v>170.714285714285</v>
       </c>
       <c r="E137" s="2">
-        <v>243604</v>
+        <v>243606</v>
       </c>
       <c r="F137" s="2">
         <v>3364</v>
       </c>
       <c r="G137" s="4">
-        <v>0.057955538297</v>
+        <v>0.058001261952</v>
       </c>
     </row>
     <row r="138" spans="1:7">
@@ -3547,7 +3547,7 @@
         <v>44058</v>
       </c>
       <c r="B138" s="2">
-        <v>12682</v>
+        <v>12684</v>
       </c>
       <c r="C138" s="2">
         <v>94</v>
@@ -3556,7 +3556,7 @@
         <v>166.857142857142</v>
       </c>
       <c r="E138" s="2">
-        <v>245168</v>
+        <v>245170</v>
       </c>
       <c r="F138" s="2">
         <v>1564</v>
@@ -3570,7 +3570,7 @@
         <v>44059</v>
       </c>
       <c r="B139" s="2">
-        <v>12727</v>
+        <v>12729</v>
       </c>
       <c r="C139" s="2">
         <v>45</v>
@@ -3579,7 +3579,7 @@
         <v>161.142857142857</v>
       </c>
       <c r="E139" s="2">
-        <v>245944</v>
+        <v>245946</v>
       </c>
       <c r="F139" s="2">
         <v>776</v>
@@ -3593,7 +3593,7 @@
         <v>44060</v>
       </c>
       <c r="B140" s="2">
-        <v>12940</v>
+        <v>12942</v>
       </c>
       <c r="C140" s="2">
         <v>213</v>
@@ -3602,7 +3602,7 @@
         <v>157.714285714285</v>
       </c>
       <c r="E140" s="2">
-        <v>249609</v>
+        <v>249611</v>
       </c>
       <c r="F140" s="2">
         <v>3665</v>
@@ -3616,7 +3616,7 @@
         <v>44061</v>
       </c>
       <c r="B141" s="2">
-        <v>13108</v>
+        <v>13110</v>
       </c>
       <c r="C141" s="2">
         <v>168</v>
@@ -3625,7 +3625,7 @@
         <v>153</v>
       </c>
       <c r="E141" s="2">
-        <v>252694</v>
+        <v>252696</v>
       </c>
       <c r="F141" s="2">
         <v>3085</v>
@@ -3639,7 +3639,7 @@
         <v>44062</v>
       </c>
       <c r="B142" s="2">
-        <v>13266</v>
+        <v>13268</v>
       </c>
       <c r="C142" s="2">
         <v>158</v>
@@ -3648,7 +3648,7 @@
         <v>147</v>
       </c>
       <c r="E142" s="2">
-        <v>255752</v>
+        <v>255754</v>
       </c>
       <c r="F142" s="2">
         <v>3058</v>
@@ -3662,7 +3662,7 @@
         <v>44063</v>
       </c>
       <c r="B143" s="2">
-        <v>13398</v>
+        <v>13400</v>
       </c>
       <c r="C143" s="2">
         <v>132</v>
@@ -3671,7 +3671,7 @@
         <v>140.857142857142</v>
       </c>
       <c r="E143" s="2">
-        <v>258922</v>
+        <v>258924</v>
       </c>
       <c r="F143" s="2">
         <v>3170</v>
@@ -3685,7 +3685,7 @@
         <v>44064</v>
       </c>
       <c r="B144" s="2">
-        <v>13560</v>
+        <v>13562</v>
       </c>
       <c r="C144" s="2">
         <v>162</v>
@@ -3694,7 +3694,7 @@
         <v>138.857142857142</v>
       </c>
       <c r="E144" s="2">
-        <v>261962</v>
+        <v>261964</v>
       </c>
       <c r="F144" s="2">
         <v>3040</v>
@@ -3708,7 +3708,7 @@
         <v>44065</v>
       </c>
       <c r="B145" s="2">
-        <v>13622</v>
+        <v>13624</v>
       </c>
       <c r="C145" s="2">
         <v>62</v>
@@ -3717,7 +3717,7 @@
         <v>134.285714285714</v>
       </c>
       <c r="E145" s="2">
-        <v>263292</v>
+        <v>263294</v>
       </c>
       <c r="F145" s="2">
         <v>1330</v>
@@ -3731,7 +3731,7 @@
         <v>44066</v>
       </c>
       <c r="B146" s="2">
-        <v>13690</v>
+        <v>13692</v>
       </c>
       <c r="C146" s="2">
         <v>68</v>
@@ -3740,7 +3740,7 @@
         <v>137.571428571428</v>
       </c>
       <c r="E146" s="2">
-        <v>264261</v>
+        <v>264263</v>
       </c>
       <c r="F146" s="2">
         <v>969</v>
@@ -3754,7 +3754,7 @@
         <v>44067</v>
       </c>
       <c r="B147" s="2">
-        <v>13840</v>
+        <v>13842</v>
       </c>
       <c r="C147" s="2">
         <v>150</v>
@@ -3763,7 +3763,7 @@
         <v>128.571428571428</v>
       </c>
       <c r="E147" s="2">
-        <v>267251</v>
+        <v>267253</v>
       </c>
       <c r="F147" s="2">
         <v>2990</v>
@@ -3777,7 +3777,7 @@
         <v>44068</v>
       </c>
       <c r="B148" s="2">
-        <v>13975</v>
+        <v>13977</v>
       </c>
       <c r="C148" s="2">
         <v>135</v>
@@ -3786,7 +3786,7 @@
         <v>123.857142857142</v>
       </c>
       <c r="E148" s="2">
-        <v>270278</v>
+        <v>270280</v>
       </c>
       <c r="F148" s="2">
         <v>3027</v>
@@ -3800,7 +3800,7 @@
         <v>44069</v>
       </c>
       <c r="B149" s="2">
-        <v>14110</v>
+        <v>14112</v>
       </c>
       <c r="C149" s="2">
         <v>135</v>
@@ -3809,7 +3809,7 @@
         <v>120.571428571428</v>
       </c>
       <c r="E149" s="2">
-        <v>273246</v>
+        <v>273248</v>
       </c>
       <c r="F149" s="2">
         <v>2968</v>
@@ -3823,7 +3823,7 @@
         <v>44070</v>
       </c>
       <c r="B150" s="2">
-        <v>14282</v>
+        <v>14284</v>
       </c>
       <c r="C150" s="2">
         <v>172</v>
@@ -3832,7 +3832,7 @@
         <v>126.285714285714</v>
       </c>
       <c r="E150" s="2">
-        <v>276536</v>
+        <v>276538</v>
       </c>
       <c r="F150" s="2">
         <v>3290</v>
@@ -3846,7 +3846,7 @@
         <v>44071</v>
       </c>
       <c r="B151" s="2">
-        <v>14398</v>
+        <v>14400</v>
       </c>
       <c r="C151" s="2">
         <v>116</v>
@@ -3855,7 +3855,7 @@
         <v>119.714285714285</v>
       </c>
       <c r="E151" s="2">
-        <v>279333</v>
+        <v>279335</v>
       </c>
       <c r="F151" s="2">
         <v>2797</v>
@@ -3869,7 +3869,7 @@
         <v>44072</v>
       </c>
       <c r="B152" s="2">
-        <v>14462</v>
+        <v>14464</v>
       </c>
       <c r="C152" s="2">
         <v>64</v>
@@ -3878,7 +3878,7 @@
         <v>120</v>
       </c>
       <c r="E152" s="2">
-        <v>280776</v>
+        <v>280778</v>
       </c>
       <c r="F152" s="2">
         <v>1443</v>
@@ -3892,7 +3892,7 @@
         <v>44073</v>
       </c>
       <c r="B153" s="2">
-        <v>14521</v>
+        <v>14523</v>
       </c>
       <c r="C153" s="2">
         <v>59</v>
@@ -3901,7 +3901,7 @@
         <v>118.714285714285</v>
       </c>
       <c r="E153" s="2">
-        <v>281860</v>
+        <v>281862</v>
       </c>
       <c r="F153" s="2">
         <v>1084</v>
@@ -3915,7 +3915,7 @@
         <v>44074</v>
       </c>
       <c r="B154" s="2">
-        <v>14663</v>
+        <v>14665</v>
       </c>
       <c r="C154" s="2">
         <v>142</v>
@@ -3924,7 +3924,7 @@
         <v>117.571428571428</v>
       </c>
       <c r="E154" s="2">
-        <v>285018</v>
+        <v>285020</v>
       </c>
       <c r="F154" s="2">
         <v>3158</v>
@@ -3938,7 +3938,7 @@
         <v>44075</v>
       </c>
       <c r="B155" s="2">
-        <v>14796</v>
+        <v>14798</v>
       </c>
       <c r="C155" s="2">
         <v>133</v>
@@ -3947,7 +3947,7 @@
         <v>117.285714285714</v>
       </c>
       <c r="E155" s="2">
-        <v>288310</v>
+        <v>288312</v>
       </c>
       <c r="F155" s="2">
         <v>3292</v>
@@ -3961,7 +3961,7 @@
         <v>44076</v>
       </c>
       <c r="B156" s="2">
-        <v>14913</v>
+        <v>14915</v>
       </c>
       <c r="C156" s="2">
         <v>117</v>
@@ -3970,7 +3970,7 @@
         <v>114.714285714285</v>
       </c>
       <c r="E156" s="2">
-        <v>291302</v>
+        <v>291304</v>
       </c>
       <c r="F156" s="2">
         <v>2992</v>
@@ -3984,7 +3984,7 @@
         <v>44077</v>
       </c>
       <c r="B157" s="2">
-        <v>15008</v>
+        <v>15010</v>
       </c>
       <c r="C157" s="2">
         <v>95</v>
@@ -3993,7 +3993,7 @@
         <v>103.714285714285</v>
       </c>
       <c r="E157" s="2">
-        <v>294253</v>
+        <v>294255</v>
       </c>
       <c r="F157" s="2">
         <v>2951</v>
@@ -4007,7 +4007,7 @@
         <v>44078</v>
       </c>
       <c r="B158" s="2">
-        <v>15130</v>
+        <v>15132</v>
       </c>
       <c r="C158" s="2">
         <v>122</v>
@@ -4016,7 +4016,7 @@
         <v>104.571428571428</v>
       </c>
       <c r="E158" s="2">
-        <v>297089</v>
+        <v>297091</v>
       </c>
       <c r="F158" s="2">
         <v>2836</v>
@@ -4030,7 +4030,7 @@
         <v>44079</v>
       </c>
       <c r="B159" s="2">
-        <v>15196</v>
+        <v>15198</v>
       </c>
       <c r="C159" s="2">
         <v>66</v>
@@ -4039,7 +4039,7 @@
         <v>104.857142857142</v>
       </c>
       <c r="E159" s="2">
-        <v>298427</v>
+        <v>298429</v>
       </c>
       <c r="F159" s="2">
         <v>1338</v>
@@ -4053,7 +4053,7 @@
         <v>44080</v>
       </c>
       <c r="B160" s="2">
-        <v>15249</v>
+        <v>15251</v>
       </c>
       <c r="C160" s="2">
         <v>53</v>
@@ -4062,7 +4062,7 @@
         <v>104</v>
       </c>
       <c r="E160" s="2">
-        <v>299514</v>
+        <v>299516</v>
       </c>
       <c r="F160" s="2">
         <v>1087</v>
@@ -4076,7 +4076,7 @@
         <v>44081</v>
       </c>
       <c r="B161" s="2">
-        <v>15318</v>
+        <v>15320</v>
       </c>
       <c r="C161" s="2">
         <v>69</v>
@@ -4085,7 +4085,7 @@
         <v>93.571428571428</v>
       </c>
       <c r="E161" s="2">
-        <v>300772</v>
+        <v>300774</v>
       </c>
       <c r="F161" s="2">
         <v>1258</v>
@@ -4099,7 +4099,7 @@
         <v>44082</v>
       </c>
       <c r="B162" s="2">
-        <v>15461</v>
+        <v>15463</v>
       </c>
       <c r="C162" s="2">
         <v>143</v>
@@ -4108,7 +4108,7 @@
         <v>95</v>
       </c>
       <c r="E162" s="2">
-        <v>305086</v>
+        <v>305088</v>
       </c>
       <c r="F162" s="2">
         <v>4314</v>
@@ -4122,7 +4122,7 @@
         <v>44083</v>
       </c>
       <c r="B163" s="2">
-        <v>15612</v>
+        <v>15614</v>
       </c>
       <c r="C163" s="2">
         <v>151</v>
@@ -4131,7 +4131,7 @@
         <v>99.85714285714199</v>
       </c>
       <c r="E163" s="2">
-        <v>308622</v>
+        <v>308624</v>
       </c>
       <c r="F163" s="2">
         <v>3536</v>
@@ -4145,22 +4145,22 @@
         <v>44084</v>
       </c>
       <c r="B164" s="2">
-        <v>15716</v>
+        <v>15719</v>
       </c>
       <c r="C164" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D164" s="3">
-        <v>101.142857142857</v>
+        <v>101.285714285714</v>
       </c>
       <c r="E164" s="2">
-        <v>311928</v>
+        <v>311931</v>
       </c>
       <c r="F164" s="2">
-        <v>3306</v>
+        <v>3307</v>
       </c>
       <c r="G164" s="4">
-        <v>0.040056577086</v>
+        <v>0.040110884815</v>
       </c>
     </row>
     <row r="165" spans="1:7">
@@ -4168,22 +4168,22 @@
         <v>44085</v>
       </c>
       <c r="B165" s="2">
-        <v>15789</v>
+        <v>15792</v>
       </c>
       <c r="C165" s="2">
         <v>73</v>
       </c>
       <c r="D165" s="3">
-        <v>94.142857142857</v>
+        <v>94.28571428571399</v>
       </c>
       <c r="E165" s="2">
-        <v>314434</v>
+        <v>314437</v>
       </c>
       <c r="F165" s="2">
         <v>2506</v>
       </c>
       <c r="G165" s="4">
-        <v>0.037993658114</v>
+        <v>0.038049117952</v>
       </c>
     </row>
     <row r="166" spans="1:7">
@@ -4191,22 +4191,22 @@
         <v>44086</v>
       </c>
       <c r="B166" s="2">
-        <v>15839</v>
+        <v>15842</v>
       </c>
       <c r="C166" s="2">
         <v>50</v>
       </c>
       <c r="D166" s="3">
-        <v>91.85714285714199</v>
+        <v>92</v>
       </c>
       <c r="E166" s="2">
-        <v>315840</v>
+        <v>315843</v>
       </c>
       <c r="F166" s="2">
         <v>1406</v>
       </c>
       <c r="G166" s="4">
-        <v>0.036926434273</v>
+        <v>0.03698173883</v>
       </c>
     </row>
     <row r="167" spans="1:7">
@@ -4214,22 +4214,22 @@
         <v>44087</v>
       </c>
       <c r="B167" s="2">
-        <v>15876</v>
+        <v>15879</v>
       </c>
       <c r="C167" s="2">
         <v>37</v>
       </c>
       <c r="D167" s="3">
-        <v>89.571428571428</v>
+        <v>89.714285714285</v>
       </c>
       <c r="E167" s="2">
-        <v>316692</v>
+        <v>316695</v>
       </c>
       <c r="F167" s="2">
         <v>852</v>
       </c>
       <c r="G167" s="4">
-        <v>0.036500174641</v>
+        <v>0.03655626055</v>
       </c>
     </row>
     <row r="168" spans="1:7">
@@ -4237,22 +4237,22 @@
         <v>44088</v>
       </c>
       <c r="B168" s="2">
-        <v>15977</v>
+        <v>15980</v>
       </c>
       <c r="C168" s="2">
         <v>101</v>
       </c>
       <c r="D168" s="3">
-        <v>94.142857142857</v>
+        <v>94.28571428571399</v>
       </c>
       <c r="E168" s="2">
-        <v>320112</v>
+        <v>320115</v>
       </c>
       <c r="F168" s="2">
         <v>3420</v>
       </c>
       <c r="G168" s="4">
-        <v>0.034074457083</v>
+        <v>0.034124398945</v>
       </c>
     </row>
     <row r="169" spans="1:7">
@@ -4260,22 +4260,22 @@
         <v>44089</v>
       </c>
       <c r="B169" s="2">
-        <v>16107</v>
+        <v>16110</v>
       </c>
       <c r="C169" s="2">
         <v>130</v>
       </c>
       <c r="D169" s="3">
-        <v>92.28571428571399</v>
+        <v>92.428571428571</v>
       </c>
       <c r="E169" s="2">
-        <v>324109</v>
+        <v>324112</v>
       </c>
       <c r="F169" s="2">
         <v>3997</v>
       </c>
       <c r="G169" s="4">
-        <v>0.033958891867</v>
+        <v>0.034009671993</v>
       </c>
     </row>
     <row r="170" spans="1:7">
@@ -4283,22 +4283,22 @@
         <v>44090</v>
       </c>
       <c r="B170" s="2">
-        <v>16194</v>
+        <v>16197</v>
       </c>
       <c r="C170" s="2">
         <v>87</v>
       </c>
       <c r="D170" s="3">
-        <v>83.142857142857</v>
+        <v>83.28571428571399</v>
       </c>
       <c r="E170" s="2">
-        <v>327434</v>
+        <v>327437</v>
       </c>
       <c r="F170" s="2">
         <v>3325</v>
       </c>
       <c r="G170" s="4">
-        <v>0.03093769934</v>
+        <v>0.030989209589</v>
       </c>
     </row>
     <row r="171" spans="1:7">
@@ -4306,7 +4306,7 @@
         <v>44091</v>
       </c>
       <c r="B171" s="2">
-        <v>16298</v>
+        <v>16301</v>
       </c>
       <c r="C171" s="2">
         <v>104</v>
@@ -4315,7 +4315,7 @@
         <v>83.142857142857</v>
       </c>
       <c r="E171" s="2">
-        <v>331188</v>
+        <v>331191</v>
       </c>
       <c r="F171" s="2">
         <v>3754</v>
@@ -4329,7 +4329,7 @@
         <v>44092</v>
       </c>
       <c r="B172" s="2">
-        <v>16402</v>
+        <v>16405</v>
       </c>
       <c r="C172" s="2">
         <v>104</v>
@@ -4338,7 +4338,7 @@
         <v>87.571428571428</v>
       </c>
       <c r="E172" s="2">
-        <v>334465</v>
+        <v>334468</v>
       </c>
       <c r="F172" s="2">
         <v>3277</v>
@@ -4352,7 +4352,7 @@
         <v>44093</v>
       </c>
       <c r="B173" s="2">
-        <v>16474</v>
+        <v>16477</v>
       </c>
       <c r="C173" s="2">
         <v>72</v>
@@ -4361,13 +4361,13 @@
         <v>90.714285714285</v>
       </c>
       <c r="E173" s="2">
-        <v>335985</v>
+        <v>335989</v>
       </c>
       <c r="F173" s="2">
-        <v>1520</v>
+        <v>1521</v>
       </c>
       <c r="G173" s="4">
-        <v>0.031521469347</v>
+        <v>0.031519904695</v>
       </c>
     </row>
     <row r="174" spans="1:7">
@@ -4375,7 +4375,7 @@
         <v>44094</v>
       </c>
       <c r="B174" s="2">
-        <v>16516</v>
+        <v>16519</v>
       </c>
       <c r="C174" s="2">
         <v>42</v>
@@ -4384,13 +4384,13 @@
         <v>91.428571428571</v>
       </c>
       <c r="E174" s="2">
-        <v>337141</v>
+        <v>337145</v>
       </c>
       <c r="F174" s="2">
         <v>1156</v>
       </c>
       <c r="G174" s="4">
-        <v>0.031297373954</v>
+        <v>0.03129584352</v>
       </c>
     </row>
     <row r="175" spans="1:7">
@@ -4398,7 +4398,7 @@
         <v>44095</v>
       </c>
       <c r="B175" s="2">
-        <v>16660</v>
+        <v>16663</v>
       </c>
       <c r="C175" s="2">
         <v>144</v>
@@ -4407,13 +4407,13 @@
         <v>97.571428571428</v>
       </c>
       <c r="E175" s="2">
-        <v>341522</v>
+        <v>341526</v>
       </c>
       <c r="F175" s="2">
         <v>4381</v>
       </c>
       <c r="G175" s="4">
-        <v>0.03190098085</v>
+        <v>0.031899490915</v>
       </c>
     </row>
     <row r="176" spans="1:7">
@@ -4421,7 +4421,7 @@
         <v>44096</v>
       </c>
       <c r="B176" s="2">
-        <v>16758</v>
+        <v>16761</v>
       </c>
       <c r="C176" s="2">
         <v>98</v>
@@ -4430,13 +4430,13 @@
         <v>93</v>
       </c>
       <c r="E176" s="2">
-        <v>345318</v>
+        <v>345322</v>
       </c>
       <c r="F176" s="2">
         <v>3796</v>
       </c>
       <c r="G176" s="4">
-        <v>0.030694516478</v>
+        <v>0.030693069306</v>
       </c>
     </row>
     <row r="177" spans="1:7">
@@ -4444,7 +4444,7 @@
         <v>44097</v>
       </c>
       <c r="B177" s="2">
-        <v>16852</v>
+        <v>16855</v>
       </c>
       <c r="C177" s="2">
         <v>94</v>
@@ -4453,13 +4453,13 @@
         <v>94</v>
       </c>
       <c r="E177" s="2">
-        <v>348832</v>
+        <v>348836</v>
       </c>
       <c r="F177" s="2">
         <v>3514</v>
       </c>
       <c r="G177" s="4">
-        <v>0.030750537433</v>
+        <v>0.030749100425</v>
       </c>
     </row>
     <row r="178" spans="1:7">
@@ -4467,7 +4467,7 @@
         <v>44098</v>
       </c>
       <c r="B178" s="2">
-        <v>16943</v>
+        <v>16946</v>
       </c>
       <c r="C178" s="2">
         <v>91</v>
@@ -4476,13 +4476,13 @@
         <v>92.142857142857</v>
       </c>
       <c r="E178" s="2">
-        <v>352575</v>
+        <v>352579</v>
       </c>
       <c r="F178" s="2">
         <v>3743</v>
       </c>
       <c r="G178" s="4">
-        <v>0.030158507504</v>
+        <v>0.030157097437</v>
       </c>
     </row>
     <row r="179" spans="1:7">
@@ -4490,7 +4490,7 @@
         <v>44099</v>
       </c>
       <c r="B179" s="2">
-        <v>17032</v>
+        <v>17035</v>
       </c>
       <c r="C179" s="2">
         <v>89</v>
@@ -4499,13 +4499,13 @@
         <v>90</v>
       </c>
       <c r="E179" s="2">
-        <v>355892</v>
+        <v>355896</v>
       </c>
       <c r="F179" s="2">
         <v>3317</v>
       </c>
       <c r="G179" s="4">
-        <v>0.029402156158</v>
+        <v>0.02940078402</v>
       </c>
     </row>
     <row r="180" spans="1:7">
@@ -4513,7 +4513,7 @@
         <v>44100</v>
       </c>
       <c r="B180" s="2">
-        <v>17091</v>
+        <v>17094</v>
       </c>
       <c r="C180" s="2">
         <v>59</v>
@@ -4522,7 +4522,7 @@
         <v>88.142857142857</v>
       </c>
       <c r="E180" s="2">
-        <v>357765</v>
+        <v>357769</v>
       </c>
       <c r="F180" s="2">
         <v>1873</v>
@@ -4536,7 +4536,7 @@
         <v>44101</v>
       </c>
       <c r="B181" s="2">
-        <v>17115</v>
+        <v>17118</v>
       </c>
       <c r="C181" s="2">
         <v>24</v>
@@ -4545,7 +4545,7 @@
         <v>85.571428571428</v>
       </c>
       <c r="E181" s="2">
-        <v>358895</v>
+        <v>358899</v>
       </c>
       <c r="F181" s="2">
         <v>1130</v>
@@ -4559,7 +4559,7 @@
         <v>44102</v>
       </c>
       <c r="B182" s="2">
-        <v>17228</v>
+        <v>17231</v>
       </c>
       <c r="C182" s="2">
         <v>113</v>
@@ -4568,7 +4568,7 @@
         <v>81.142857142857</v>
       </c>
       <c r="E182" s="2">
-        <v>363002</v>
+        <v>363006</v>
       </c>
       <c r="F182" s="2">
         <v>4107</v>
@@ -4582,7 +4582,7 @@
         <v>44103</v>
       </c>
       <c r="B183" s="2">
-        <v>17303</v>
+        <v>17306</v>
       </c>
       <c r="C183" s="2">
         <v>75</v>
@@ -4591,7 +4591,7 @@
         <v>77.85714285714199</v>
       </c>
       <c r="E183" s="2">
-        <v>366846</v>
+        <v>366850</v>
       </c>
       <c r="F183" s="2">
         <v>3844</v>
@@ -4605,7 +4605,7 @@
         <v>44104</v>
       </c>
       <c r="B184" s="2">
-        <v>17363</v>
+        <v>17366</v>
       </c>
       <c r="C184" s="2">
         <v>60</v>
@@ -4614,7 +4614,7 @@
         <v>73</v>
       </c>
       <c r="E184" s="2">
-        <v>370406</v>
+        <v>370410</v>
       </c>
       <c r="F184" s="2">
         <v>3560</v>
@@ -4628,7 +4628,7 @@
         <v>44105</v>
       </c>
       <c r="B185" s="2">
-        <v>17428</v>
+        <v>17431</v>
       </c>
       <c r="C185" s="2">
         <v>65</v>
@@ -4637,7 +4637,7 @@
         <v>69.28571428571399</v>
       </c>
       <c r="E185" s="2">
-        <v>373933</v>
+        <v>373937</v>
       </c>
       <c r="F185" s="2">
         <v>3527</v>
@@ -4651,7 +4651,7 @@
         <v>44106</v>
       </c>
       <c r="B186" s="2">
-        <v>17504</v>
+        <v>17507</v>
       </c>
       <c r="C186" s="2">
         <v>76</v>
@@ -4660,7 +4660,7 @@
         <v>67.428571428571</v>
       </c>
       <c r="E186" s="2">
-        <v>377478</v>
+        <v>377482</v>
       </c>
       <c r="F186" s="2">
         <v>3545</v>
@@ -4674,7 +4674,7 @@
         <v>44107</v>
       </c>
       <c r="B187" s="2">
-        <v>17547</v>
+        <v>17550</v>
       </c>
       <c r="C187" s="2">
         <v>43</v>
@@ -4683,7 +4683,7 @@
         <v>65.142857142857</v>
       </c>
       <c r="E187" s="2">
-        <v>379474</v>
+        <v>379478</v>
       </c>
       <c r="F187" s="2">
         <v>1996</v>
@@ -4697,7 +4697,7 @@
         <v>44108</v>
       </c>
       <c r="B188" s="2">
-        <v>17584</v>
+        <v>17587</v>
       </c>
       <c r="C188" s="2">
         <v>37</v>
@@ -4706,7 +4706,7 @@
         <v>67</v>
       </c>
       <c r="E188" s="2">
-        <v>380859</v>
+        <v>380863</v>
       </c>
       <c r="F188" s="2">
         <v>1385</v>
@@ -4720,7 +4720,7 @@
         <v>44109</v>
       </c>
       <c r="B189" s="2">
-        <v>17661</v>
+        <v>17664</v>
       </c>
       <c r="C189" s="2">
         <v>77</v>
@@ -4729,7 +4729,7 @@
         <v>61.857142857142</v>
       </c>
       <c r="E189" s="2">
-        <v>385668</v>
+        <v>385672</v>
       </c>
       <c r="F189" s="2">
         <v>4809</v>
@@ -4743,7 +4743,7 @@
         <v>44110</v>
       </c>
       <c r="B190" s="2">
-        <v>17724</v>
+        <v>17727</v>
       </c>
       <c r="C190" s="2">
         <v>63</v>
@@ -4752,7 +4752,7 @@
         <v>60.142857142857</v>
       </c>
       <c r="E190" s="2">
-        <v>390331</v>
+        <v>390335</v>
       </c>
       <c r="F190" s="2">
         <v>4663</v>
@@ -4766,7 +4766,7 @@
         <v>44111</v>
       </c>
       <c r="B191" s="2">
-        <v>17800</v>
+        <v>17803</v>
       </c>
       <c r="C191" s="2">
         <v>76</v>
@@ -4775,7 +4775,7 @@
         <v>62.428571428571</v>
       </c>
       <c r="E191" s="2">
-        <v>394522</v>
+        <v>394526</v>
       </c>
       <c r="F191" s="2">
         <v>4191</v>
@@ -4789,7 +4789,7 @@
         <v>44112</v>
       </c>
       <c r="B192" s="2">
-        <v>17894</v>
+        <v>17897</v>
       </c>
       <c r="C192" s="2">
         <v>94</v>
@@ -4798,7 +4798,7 @@
         <v>66.571428571428</v>
       </c>
       <c r="E192" s="2">
-        <v>398776</v>
+        <v>398780</v>
       </c>
       <c r="F192" s="2">
         <v>4254</v>
@@ -4812,7 +4812,7 @@
         <v>44113</v>
       </c>
       <c r="B193" s="2">
-        <v>17952</v>
+        <v>17955</v>
       </c>
       <c r="C193" s="2">
         <v>58</v>
@@ -4821,7 +4821,7 @@
         <v>64</v>
       </c>
       <c r="E193" s="2">
-        <v>402561</v>
+        <v>402565</v>
       </c>
       <c r="F193" s="2">
         <v>3785</v>
@@ -4835,7 +4835,7 @@
         <v>44114</v>
       </c>
       <c r="B194" s="2">
-        <v>17993</v>
+        <v>17996</v>
       </c>
       <c r="C194" s="2">
         <v>41</v>
@@ -4844,7 +4844,7 @@
         <v>63.71428571428499</v>
       </c>
       <c r="E194" s="2">
-        <v>404356</v>
+        <v>404360</v>
       </c>
       <c r="F194" s="2">
         <v>1795</v>
@@ -4858,7 +4858,7 @@
         <v>44115</v>
       </c>
       <c r="B195" s="2">
-        <v>18017</v>
+        <v>18020</v>
       </c>
       <c r="C195" s="2">
         <v>24</v>
@@ -4867,7 +4867,7 @@
         <v>61.857142857142</v>
       </c>
       <c r="E195" s="2">
-        <v>405690</v>
+        <v>405694</v>
       </c>
       <c r="F195" s="2">
         <v>1334</v>
@@ -4881,7 +4881,7 @@
         <v>44116</v>
       </c>
       <c r="B196" s="2">
-        <v>18109</v>
+        <v>18112</v>
       </c>
       <c r="C196" s="2">
         <v>92</v>
@@ -4890,7 +4890,7 @@
         <v>64</v>
       </c>
       <c r="E196" s="2">
-        <v>410224</v>
+        <v>410228</v>
       </c>
       <c r="F196" s="2">
         <v>4534</v>
@@ -4904,7 +4904,7 @@
         <v>44117</v>
       </c>
       <c r="B197" s="2">
-        <v>18199</v>
+        <v>18202</v>
       </c>
       <c r="C197" s="2">
         <v>90</v>
@@ -4913,7 +4913,7 @@
         <v>67.85714285714199</v>
       </c>
       <c r="E197" s="2">
-        <v>414747</v>
+        <v>414751</v>
       </c>
       <c r="F197" s="2">
         <v>4523</v>
@@ -4927,7 +4927,7 @@
         <v>44118</v>
       </c>
       <c r="B198" s="2">
-        <v>18269</v>
+        <v>18272</v>
       </c>
       <c r="C198" s="2">
         <v>70</v>
@@ -4936,7 +4936,7 @@
         <v>67</v>
       </c>
       <c r="E198" s="2">
-        <v>418976</v>
+        <v>418980</v>
       </c>
       <c r="F198" s="2">
         <v>4229</v>
@@ -4950,7 +4950,7 @@
         <v>44119</v>
       </c>
       <c r="B199" s="2">
-        <v>18320</v>
+        <v>18323</v>
       </c>
       <c r="C199" s="2">
         <v>51</v>
@@ -4959,7 +4959,7 @@
         <v>60.857142857142</v>
       </c>
       <c r="E199" s="2">
-        <v>422988</v>
+        <v>422992</v>
       </c>
       <c r="F199" s="2">
         <v>4012</v>
@@ -4973,7 +4973,7 @@
         <v>44120</v>
       </c>
       <c r="B200" s="2">
-        <v>18378</v>
+        <v>18381</v>
       </c>
       <c r="C200" s="2">
         <v>58</v>
@@ -4982,7 +4982,7 @@
         <v>60.857142857142</v>
       </c>
       <c r="E200" s="2">
-        <v>426981</v>
+        <v>426985</v>
       </c>
       <c r="F200" s="2">
         <v>3993</v>
@@ -4996,7 +4996,7 @@
         <v>44121</v>
       </c>
       <c r="B201" s="2">
-        <v>18424</v>
+        <v>18427</v>
       </c>
       <c r="C201" s="2">
         <v>46</v>
@@ -5005,7 +5005,7 @@
         <v>61.57142857142801</v>
       </c>
       <c r="E201" s="2">
-        <v>428884</v>
+        <v>428888</v>
       </c>
       <c r="F201" s="2">
         <v>1903</v>
@@ -5019,7 +5019,7 @@
         <v>44122</v>
       </c>
       <c r="B202" s="2">
-        <v>18460</v>
+        <v>18463</v>
       </c>
       <c r="C202" s="2">
         <v>36</v>
@@ -5028,7 +5028,7 @@
         <v>63.28571428571399</v>
       </c>
       <c r="E202" s="2">
-        <v>430264</v>
+        <v>430268</v>
       </c>
       <c r="F202" s="2">
         <v>1380</v>
@@ -5042,7 +5042,7 @@
         <v>44123</v>
       </c>
       <c r="B203" s="2">
-        <v>18549</v>
+        <v>18552</v>
       </c>
       <c r="C203" s="2">
         <v>89</v>
@@ -5051,7 +5051,7 @@
         <v>62.857142857142</v>
       </c>
       <c r="E203" s="2">
-        <v>435098</v>
+        <v>435102</v>
       </c>
       <c r="F203" s="2">
         <v>4834</v>
@@ -5065,7 +5065,7 @@
         <v>44124</v>
       </c>
       <c r="B204" s="2">
-        <v>18646</v>
+        <v>18649</v>
       </c>
       <c r="C204" s="2">
         <v>97</v>
@@ -5074,7 +5074,7 @@
         <v>63.857142857142</v>
       </c>
       <c r="E204" s="2">
-        <v>439885</v>
+        <v>439889</v>
       </c>
       <c r="F204" s="2">
         <v>4787</v>
@@ -5088,7 +5088,7 @@
         <v>44125</v>
       </c>
       <c r="B205" s="2">
-        <v>18729</v>
+        <v>18732</v>
       </c>
       <c r="C205" s="2">
         <v>83</v>
@@ -5097,7 +5097,7 @@
         <v>65.714285714285</v>
       </c>
       <c r="E205" s="2">
-        <v>444226</v>
+        <v>444230</v>
       </c>
       <c r="F205" s="2">
         <v>4341</v>
@@ -5111,7 +5111,7 @@
         <v>44126</v>
       </c>
       <c r="B206" s="2">
-        <v>18791</v>
+        <v>18794</v>
       </c>
       <c r="C206" s="2">
         <v>62</v>
@@ -5120,7 +5120,7 @@
         <v>67.28571428571399</v>
       </c>
       <c r="E206" s="2">
-        <v>448160</v>
+        <v>448164</v>
       </c>
       <c r="F206" s="2">
         <v>3934</v>
@@ -5134,7 +5134,7 @@
         <v>44127</v>
       </c>
       <c r="B207" s="2">
-        <v>18874</v>
+        <v>18877</v>
       </c>
       <c r="C207" s="2">
         <v>83</v>
@@ -5143,7 +5143,7 @@
         <v>70.85714285714199</v>
       </c>
       <c r="E207" s="2">
-        <v>451976</v>
+        <v>451980</v>
       </c>
       <c r="F207" s="2">
         <v>3816</v>
@@ -5157,7 +5157,7 @@
         <v>44128</v>
       </c>
       <c r="B208" s="2">
-        <v>18930</v>
+        <v>18933</v>
       </c>
       <c r="C208" s="2">
         <v>56</v>
@@ -5166,7 +5166,7 @@
         <v>72.28571428571399</v>
       </c>
       <c r="E208" s="2">
-        <v>453927</v>
+        <v>453931</v>
       </c>
       <c r="F208" s="2">
         <v>1951</v>
@@ -5180,7 +5180,7 @@
         <v>44129</v>
       </c>
       <c r="B209" s="2">
-        <v>18969</v>
+        <v>18972</v>
       </c>
       <c r="C209" s="2">
         <v>39</v>
@@ -5189,7 +5189,7 @@
         <v>72.714285714285</v>
       </c>
       <c r="E209" s="2">
-        <v>455531</v>
+        <v>455535</v>
       </c>
       <c r="F209" s="2">
         <v>1604</v>
@@ -5203,7 +5203,7 @@
         <v>44130</v>
       </c>
       <c r="B210" s="2">
-        <v>19084</v>
+        <v>19087</v>
       </c>
       <c r="C210" s="2">
         <v>115</v>
@@ -5212,7 +5212,7 @@
         <v>76.428571428571</v>
       </c>
       <c r="E210" s="2">
-        <v>460444</v>
+        <v>460448</v>
       </c>
       <c r="F210" s="2">
         <v>4913</v>
@@ -5226,7 +5226,7 @@
         <v>44131</v>
       </c>
       <c r="B211" s="2">
-        <v>19189</v>
+        <v>19192</v>
       </c>
       <c r="C211" s="2">
         <v>105</v>
@@ -5235,13 +5235,13 @@
         <v>77.571428571428</v>
       </c>
       <c r="E211" s="2">
-        <v>465633</v>
+        <v>465638</v>
       </c>
       <c r="F211" s="2">
-        <v>5189</v>
+        <v>5190</v>
       </c>
       <c r="G211" s="4">
-        <v>0.021089016622</v>
+        <v>0.021088197599</v>
       </c>
     </row>
     <row r="212" spans="1:7">
@@ -5249,22 +5249,22 @@
         <v>44132</v>
       </c>
       <c r="B212" s="2">
-        <v>19288</v>
+        <v>19290</v>
       </c>
       <c r="C212" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D212" s="3">
-        <v>79.85714285714199</v>
+        <v>79.714285714285</v>
       </c>
       <c r="E212" s="2">
-        <v>470165</v>
+        <v>470169</v>
       </c>
       <c r="F212" s="2">
-        <v>4532</v>
+        <v>4531</v>
       </c>
       <c r="G212" s="4">
-        <v>0.021550560931</v>
+        <v>0.021512008944</v>
       </c>
     </row>
     <row r="213" spans="1:7">
@@ -5272,22 +5272,22 @@
         <v>44133</v>
       </c>
       <c r="B213" s="2">
-        <v>19383</v>
+        <v>19385</v>
       </c>
       <c r="C213" s="2">
         <v>95</v>
       </c>
       <c r="D213" s="3">
-        <v>84.571428571428</v>
+        <v>84.428571428571</v>
       </c>
       <c r="E213" s="2">
-        <v>474579</v>
+        <v>474583</v>
       </c>
       <c r="F213" s="2">
         <v>4414</v>
       </c>
       <c r="G213" s="4">
-        <v>0.022408115371</v>
+        <v>0.022370263825</v>
       </c>
     </row>
     <row r="214" spans="1:7">
@@ -5295,22 +5295,22 @@
         <v>44134</v>
       </c>
       <c r="B214" s="2">
-        <v>19458</v>
+        <v>19460</v>
       </c>
       <c r="C214" s="2">
         <v>75</v>
       </c>
       <c r="D214" s="3">
-        <v>83.428571428571</v>
+        <v>83.28571428571399</v>
       </c>
       <c r="E214" s="2">
-        <v>479182</v>
+        <v>479187</v>
       </c>
       <c r="F214" s="2">
-        <v>4603</v>
+        <v>4604</v>
       </c>
       <c r="G214" s="4">
-        <v>0.02146585312</v>
+        <v>0.021428308891</v>
       </c>
     </row>
     <row r="215" spans="1:7">
@@ -5318,22 +5318,45 @@
         <v>44135</v>
       </c>
       <c r="B215" s="2">
-        <v>19511</v>
+        <v>19513</v>
       </c>
       <c r="C215" s="2">
         <v>53</v>
       </c>
       <c r="D215" s="3">
-        <v>83</v>
+        <v>82.85714285714199</v>
       </c>
       <c r="E215" s="2">
-        <v>481158</v>
+        <v>481163</v>
       </c>
       <c r="F215" s="2">
         <v>1976</v>
       </c>
       <c r="G215" s="4">
-        <v>0.021335977378</v>
+        <v>0.021298472385</v>
+      </c>
+    </row>
+    <row r="216" spans="1:7">
+      <c r="A216" s="1">
+        <v>44136</v>
+      </c>
+      <c r="B216" s="2">
+        <v>19572</v>
+      </c>
+      <c r="C216" s="2">
+        <v>59</v>
+      </c>
+      <c r="D216" s="3">
+        <v>85.714285714285</v>
+      </c>
+      <c r="E216" s="2">
+        <v>482925</v>
+      </c>
+      <c r="F216" s="2">
+        <v>1762</v>
+      </c>
+      <c r="G216" s="4">
+        <v>0.021905805038</v>
       </c>
     </row>
   </sheetData>

--- a/contra_costa_county_testing.xlsx
+++ b/contra_costa_county_testing.xlsx
@@ -376,7 +376,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G216"/>
+  <dimension ref="A1:G217"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1509,13 +1509,13 @@
         <v>22.428571428571</v>
       </c>
       <c r="E49" s="2">
-        <v>30464</v>
+        <v>30465</v>
       </c>
       <c r="F49" s="2">
-        <v>1364</v>
+        <v>1365</v>
       </c>
       <c r="G49" s="4">
-        <v>0.025083879213</v>
+        <v>0.025079872204</v>
       </c>
     </row>
     <row r="50" spans="1:7">
@@ -1532,13 +1532,13 @@
         <v>25.714285714285</v>
       </c>
       <c r="E50" s="2">
-        <v>32121</v>
+        <v>32122</v>
       </c>
       <c r="F50" s="2">
         <v>1657</v>
       </c>
       <c r="G50" s="4">
-        <v>0.026925953627</v>
+        <v>0.026921926413</v>
       </c>
     </row>
     <row r="51" spans="1:7">
@@ -1555,13 +1555,13 @@
         <v>26.142857142857</v>
       </c>
       <c r="E51" s="2">
-        <v>33262</v>
+        <v>33263</v>
       </c>
       <c r="F51" s="2">
         <v>1141</v>
       </c>
       <c r="G51" s="4">
-        <v>0.027175527175</v>
+        <v>0.027171492204</v>
       </c>
     </row>
     <row r="52" spans="1:7">
@@ -1578,13 +1578,13 @@
         <v>27.428571428571</v>
       </c>
       <c r="E52" s="2">
-        <v>34393</v>
+        <v>34394</v>
       </c>
       <c r="F52" s="2">
         <v>1131</v>
       </c>
       <c r="G52" s="4">
-        <v>0.027408993576</v>
+        <v>0.027405081358</v>
       </c>
     </row>
     <row r="53" spans="1:7">
@@ -1601,13 +1601,13 @@
         <v>29.142857142857</v>
       </c>
       <c r="E53" s="2">
-        <v>35482</v>
+        <v>35483</v>
       </c>
       <c r="F53" s="2">
         <v>1089</v>
       </c>
       <c r="G53" s="4">
-        <v>0.028432055749</v>
+        <v>0.028428093645</v>
       </c>
     </row>
     <row r="54" spans="1:7">
@@ -1624,13 +1624,13 @@
         <v>28</v>
       </c>
       <c r="E54" s="2">
-        <v>36001</v>
+        <v>36002</v>
       </c>
       <c r="F54" s="2">
         <v>519</v>
       </c>
       <c r="G54" s="4">
-        <v>0.026908292147</v>
+        <v>0.02690459849</v>
       </c>
     </row>
     <row r="55" spans="1:7">
@@ -1647,13 +1647,13 @@
         <v>27.571428571428</v>
       </c>
       <c r="E55" s="2">
-        <v>36390</v>
+        <v>36391</v>
       </c>
       <c r="F55" s="2">
         <v>389</v>
       </c>
       <c r="G55" s="4">
-        <v>0.02647462277</v>
+        <v>0.026470991633</v>
       </c>
     </row>
     <row r="56" spans="1:7">
@@ -1673,10 +1673,10 @@
         <v>36851</v>
       </c>
       <c r="F56" s="2">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="G56" s="4">
-        <v>0.025520588695</v>
+        <v>0.025524585029</v>
       </c>
     </row>
     <row r="57" spans="1:7">
@@ -1699,7 +1699,7 @@
         <v>1197</v>
       </c>
       <c r="G57" s="4">
-        <v>0.028007423654</v>
+        <v>0.028012149848</v>
       </c>
     </row>
     <row r="58" spans="1:7">
@@ -1722,7 +1722,7 @@
         <v>1103</v>
       </c>
       <c r="G58" s="4">
-        <v>0.028188147393</v>
+        <v>0.028192934782</v>
       </c>
     </row>
     <row r="59" spans="1:7">
@@ -1745,7 +1745,7 @@
         <v>1136</v>
       </c>
       <c r="G59" s="4">
-        <v>0.031218187987</v>
+        <v>0.031223485491</v>
       </c>
     </row>
     <row r="60" spans="1:7">
@@ -1768,7 +1768,7 @@
         <v>1401</v>
       </c>
       <c r="G60" s="4">
-        <v>0.029648727038</v>
+        <v>0.029653505237</v>
       </c>
     </row>
     <row r="61" spans="1:7">
@@ -1791,7 +1791,7 @@
         <v>734</v>
       </c>
       <c r="G61" s="4">
-        <v>0.028344494627</v>
+        <v>0.028348909657</v>
       </c>
     </row>
     <row r="62" spans="1:7">
@@ -1814,7 +1814,7 @@
         <v>396</v>
       </c>
       <c r="G62" s="4">
-        <v>0.02800248911</v>
+        <v>0.028006846117</v>
       </c>
     </row>
     <row r="63" spans="1:7">
@@ -1992,13 +1992,13 @@
         <v>34.714285714285</v>
       </c>
       <c r="E70" s="2">
-        <v>52476</v>
+        <v>52475</v>
       </c>
       <c r="F70" s="2">
-        <v>1835</v>
+        <v>1834</v>
       </c>
       <c r="G70" s="4">
-        <v>0.029333655239</v>
+        <v>0.029337196667</v>
       </c>
     </row>
     <row r="71" spans="1:7">
@@ -2015,13 +2015,13 @@
         <v>36.428571428571</v>
       </c>
       <c r="E71" s="2">
-        <v>54322</v>
+        <v>54321</v>
       </c>
       <c r="F71" s="2">
         <v>1846</v>
       </c>
       <c r="G71" s="4">
-        <v>0.028609895658</v>
+        <v>0.028613105924</v>
       </c>
     </row>
     <row r="72" spans="1:7">
@@ -2038,13 +2038,13 @@
         <v>40.142857142857</v>
       </c>
       <c r="E72" s="2">
-        <v>56314</v>
+        <v>56313</v>
       </c>
       <c r="F72" s="2">
         <v>1992</v>
       </c>
       <c r="G72" s="4">
-        <v>0.028844179839</v>
+        <v>0.02884714095</v>
       </c>
     </row>
     <row r="73" spans="1:7">
@@ -2061,13 +2061,13 @@
         <v>40.428571428571</v>
       </c>
       <c r="E73" s="2">
-        <v>58468</v>
+        <v>58467</v>
       </c>
       <c r="F73" s="2">
         <v>2154</v>
       </c>
       <c r="G73" s="4">
-        <v>0.026834818888</v>
+        <v>0.026837363679</v>
       </c>
     </row>
     <row r="74" spans="1:7">
@@ -2084,13 +2084,13 @@
         <v>42</v>
       </c>
       <c r="E74" s="2">
-        <v>60729</v>
+        <v>60728</v>
       </c>
       <c r="F74" s="2">
         <v>2261</v>
       </c>
       <c r="G74" s="4">
-        <v>0.026304017178</v>
+        <v>0.026306370794</v>
       </c>
     </row>
     <row r="75" spans="1:7">
@@ -2107,13 +2107,13 @@
         <v>44.285714285714</v>
       </c>
       <c r="E75" s="2">
-        <v>61573</v>
+        <v>61572</v>
       </c>
       <c r="F75" s="2">
         <v>844</v>
       </c>
       <c r="G75" s="4">
-        <v>0.027154870357</v>
+        <v>0.027157249233</v>
       </c>
     </row>
     <row r="76" spans="1:7">
@@ -2130,13 +2130,13 @@
         <v>45.571428571428</v>
       </c>
       <c r="E76" s="2">
-        <v>62160</v>
+        <v>62159</v>
       </c>
       <c r="F76" s="2">
         <v>587</v>
       </c>
       <c r="G76" s="4">
-        <v>0.027693376161</v>
+        <v>0.027695780517</v>
       </c>
     </row>
     <row r="77" spans="1:7">
@@ -2153,7 +2153,7 @@
         <v>46.857142857142</v>
       </c>
       <c r="E77" s="2">
-        <v>64381</v>
+        <v>64380</v>
       </c>
       <c r="F77" s="2">
         <v>2221</v>
@@ -2176,7 +2176,7 @@
         <v>52.714285714285</v>
       </c>
       <c r="E78" s="2">
-        <v>66912</v>
+        <v>66911</v>
       </c>
       <c r="F78" s="2">
         <v>2531</v>
@@ -2199,7 +2199,7 @@
         <v>57.285714285714</v>
       </c>
       <c r="E79" s="2">
-        <v>69487</v>
+        <v>69486</v>
       </c>
       <c r="F79" s="2">
         <v>2575</v>
@@ -2222,7 +2222,7 @@
         <v>62.57142857142801</v>
       </c>
       <c r="E80" s="2">
-        <v>72019</v>
+        <v>72018</v>
       </c>
       <c r="F80" s="2">
         <v>2532</v>
@@ -2245,7 +2245,7 @@
         <v>69.142857142857</v>
       </c>
       <c r="E81" s="2">
-        <v>74464</v>
+        <v>74463</v>
       </c>
       <c r="F81" s="2">
         <v>2445</v>
@@ -2268,7 +2268,7 @@
         <v>71.85714285714199</v>
       </c>
       <c r="E82" s="2">
-        <v>75418</v>
+        <v>75417</v>
       </c>
       <c r="F82" s="2">
         <v>954</v>
@@ -2291,7 +2291,7 @@
         <v>73.714285714285</v>
       </c>
       <c r="E83" s="2">
-        <v>76116</v>
+        <v>76115</v>
       </c>
       <c r="F83" s="2">
         <v>698</v>
@@ -2314,7 +2314,7 @@
         <v>81.428571428571</v>
       </c>
       <c r="E84" s="2">
-        <v>78734</v>
+        <v>78733</v>
       </c>
       <c r="F84" s="2">
         <v>2618</v>
@@ -2337,7 +2337,7 @@
         <v>88.571428571428</v>
       </c>
       <c r="E85" s="2">
-        <v>81520</v>
+        <v>81519</v>
       </c>
       <c r="F85" s="2">
         <v>2786</v>
@@ -2360,7 +2360,7 @@
         <v>96.571428571428</v>
       </c>
       <c r="E86" s="2">
-        <v>84556</v>
+        <v>84555</v>
       </c>
       <c r="F86" s="2">
         <v>3036</v>
@@ -2383,7 +2383,7 @@
         <v>105.285714285714</v>
       </c>
       <c r="E87" s="2">
-        <v>87923</v>
+        <v>87922</v>
       </c>
       <c r="F87" s="2">
         <v>3367</v>
@@ -2406,7 +2406,7 @@
         <v>114.714285714285</v>
       </c>
       <c r="E88" s="2">
-        <v>90893</v>
+        <v>90892</v>
       </c>
       <c r="F88" s="2">
         <v>2970</v>
@@ -2429,7 +2429,7 @@
         <v>118.714285714285</v>
       </c>
       <c r="E89" s="2">
-        <v>91968</v>
+        <v>91967</v>
       </c>
       <c r="F89" s="2">
         <v>1075</v>
@@ -2452,7 +2452,7 @@
         <v>121.428571428571</v>
       </c>
       <c r="E90" s="2">
-        <v>92764</v>
+        <v>92763</v>
       </c>
       <c r="F90" s="2">
         <v>796</v>
@@ -2475,7 +2475,7 @@
         <v>133.714285714285</v>
       </c>
       <c r="E91" s="2">
-        <v>96446</v>
+        <v>96445</v>
       </c>
       <c r="F91" s="2">
         <v>3682</v>
@@ -2498,7 +2498,7 @@
         <v>137.142857142857</v>
       </c>
       <c r="E92" s="2">
-        <v>99931</v>
+        <v>99930</v>
       </c>
       <c r="F92" s="2">
         <v>3485</v>
@@ -2521,7 +2521,7 @@
         <v>141.571428571428</v>
       </c>
       <c r="E93" s="2">
-        <v>103475</v>
+        <v>103474</v>
       </c>
       <c r="F93" s="2">
         <v>3544</v>
@@ -2547,10 +2547,10 @@
         <v>107400</v>
       </c>
       <c r="F94" s="2">
-        <v>3925</v>
+        <v>3926</v>
       </c>
       <c r="G94" s="4">
-        <v>0.054012424911</v>
+        <v>0.054009651914</v>
       </c>
     </row>
     <row r="95" spans="1:7">
@@ -2573,7 +2573,7 @@
         <v>2642</v>
       </c>
       <c r="G95" s="4">
-        <v>0.0535798214</v>
+        <v>0.053577023498</v>
       </c>
     </row>
     <row r="96" spans="1:7">
@@ -2596,7 +2596,7 @@
         <v>1118</v>
       </c>
       <c r="G96" s="4">
-        <v>0.054085035431</v>
+        <v>0.054082217475</v>
       </c>
     </row>
     <row r="97" spans="1:7">
@@ -2619,7 +2619,7 @@
         <v>1129</v>
       </c>
       <c r="G97" s="4">
-        <v>0.054545454545</v>
+        <v>0.054542661067</v>
       </c>
     </row>
     <row r="98" spans="1:7">
@@ -2642,7 +2642,7 @@
         <v>4083</v>
       </c>
       <c r="G98" s="4">
-        <v>0.053799056509</v>
+        <v>0.053796356701</v>
       </c>
     </row>
     <row r="99" spans="1:7">
@@ -2665,7 +2665,7 @@
         <v>4085</v>
       </c>
       <c r="G99" s="4">
-        <v>0.055052129007</v>
+        <v>0.055049447069</v>
       </c>
     </row>
     <row r="100" spans="1:7">
@@ -2688,7 +2688,7 @@
         <v>4264</v>
       </c>
       <c r="G100" s="4">
-        <v>0.055586934011</v>
+        <v>0.055584317786</v>
       </c>
     </row>
     <row r="101" spans="1:7">
@@ -3602,13 +3602,13 @@
         <v>157.714285714285</v>
       </c>
       <c r="E140" s="2">
-        <v>249611</v>
+        <v>249612</v>
       </c>
       <c r="F140" s="2">
-        <v>3665</v>
+        <v>3666</v>
       </c>
       <c r="G140" s="4">
-        <v>0.055399437976</v>
+        <v>0.055396658136</v>
       </c>
     </row>
     <row r="141" spans="1:7">
@@ -3625,13 +3625,13 @@
         <v>153</v>
       </c>
       <c r="E141" s="2">
-        <v>252696</v>
+        <v>252697</v>
       </c>
       <c r="F141" s="2">
         <v>3085</v>
       </c>
       <c r="G141" s="4">
-        <v>0.054665169456</v>
+        <v>0.054662379421</v>
       </c>
     </row>
     <row r="142" spans="1:7">
@@ -3648,13 +3648,13 @@
         <v>147</v>
       </c>
       <c r="E142" s="2">
-        <v>255754</v>
+        <v>255755</v>
       </c>
       <c r="F142" s="2">
         <v>3058</v>
       </c>
       <c r="G142" s="4">
-        <v>0.05478649771</v>
+        <v>0.054783580897</v>
       </c>
     </row>
     <row r="143" spans="1:7">
@@ -3671,13 +3671,13 @@
         <v>140.857142857142</v>
       </c>
       <c r="E143" s="2">
-        <v>258924</v>
+        <v>258925</v>
       </c>
       <c r="F143" s="2">
         <v>3170</v>
       </c>
       <c r="G143" s="4">
-        <v>0.052778075152</v>
+        <v>0.052775250227</v>
       </c>
     </row>
     <row r="144" spans="1:7">
@@ -3694,13 +3694,13 @@
         <v>138.857142857142</v>
       </c>
       <c r="E144" s="2">
-        <v>261964</v>
+        <v>261965</v>
       </c>
       <c r="F144" s="2">
         <v>3040</v>
       </c>
       <c r="G144" s="4">
-        <v>0.052946944111</v>
+        <v>0.052944060133</v>
       </c>
     </row>
     <row r="145" spans="1:7">
@@ -3717,13 +3717,13 @@
         <v>134.285714285714</v>
       </c>
       <c r="E145" s="2">
-        <v>263294</v>
+        <v>263295</v>
       </c>
       <c r="F145" s="2">
         <v>1330</v>
       </c>
       <c r="G145" s="4">
-        <v>0.051864930478</v>
+        <v>0.051862068965</v>
       </c>
     </row>
     <row r="146" spans="1:7">
@@ -3740,13 +3740,13 @@
         <v>137.571428571428</v>
       </c>
       <c r="E146" s="2">
-        <v>264263</v>
+        <v>264264</v>
       </c>
       <c r="F146" s="2">
         <v>969</v>
       </c>
       <c r="G146" s="4">
-        <v>0.052574111481</v>
+        <v>0.052571241401</v>
       </c>
     </row>
     <row r="147" spans="1:7">
@@ -3763,7 +3763,7 @@
         <v>128.571428571428</v>
       </c>
       <c r="E147" s="2">
-        <v>267253</v>
+        <v>267254</v>
       </c>
       <c r="F147" s="2">
         <v>2990</v>
@@ -3786,7 +3786,7 @@
         <v>123.857142857142</v>
       </c>
       <c r="E148" s="2">
-        <v>270280</v>
+        <v>270281</v>
       </c>
       <c r="F148" s="2">
         <v>3027</v>
@@ -3809,7 +3809,7 @@
         <v>120.571428571428</v>
       </c>
       <c r="E149" s="2">
-        <v>273248</v>
+        <v>273249</v>
       </c>
       <c r="F149" s="2">
         <v>2968</v>
@@ -3832,7 +3832,7 @@
         <v>126.285714285714</v>
       </c>
       <c r="E150" s="2">
-        <v>276538</v>
+        <v>276539</v>
       </c>
       <c r="F150" s="2">
         <v>3290</v>
@@ -3855,7 +3855,7 @@
         <v>119.714285714285</v>
       </c>
       <c r="E151" s="2">
-        <v>279335</v>
+        <v>279336</v>
       </c>
       <c r="F151" s="2">
         <v>2797</v>
@@ -3878,7 +3878,7 @@
         <v>120</v>
       </c>
       <c r="E152" s="2">
-        <v>280778</v>
+        <v>280779</v>
       </c>
       <c r="F152" s="2">
         <v>1443</v>
@@ -3901,7 +3901,7 @@
         <v>118.714285714285</v>
       </c>
       <c r="E153" s="2">
-        <v>281862</v>
+        <v>281863</v>
       </c>
       <c r="F153" s="2">
         <v>1084</v>
@@ -3924,13 +3924,13 @@
         <v>117.571428571428</v>
       </c>
       <c r="E154" s="2">
-        <v>285020</v>
+        <v>285023</v>
       </c>
       <c r="F154" s="2">
-        <v>3158</v>
+        <v>3160</v>
       </c>
       <c r="G154" s="4">
-        <v>0.046321832611</v>
+        <v>0.04631661883</v>
       </c>
     </row>
     <row r="155" spans="1:7">
@@ -3947,13 +3947,13 @@
         <v>117.285714285714</v>
       </c>
       <c r="E155" s="2">
-        <v>288312</v>
+        <v>288316</v>
       </c>
       <c r="F155" s="2">
-        <v>3292</v>
+        <v>3293</v>
       </c>
       <c r="G155" s="4">
-        <v>0.045530168589</v>
+        <v>0.045522594954</v>
       </c>
     </row>
     <row r="156" spans="1:7">
@@ -3970,13 +3970,13 @@
         <v>114.714285714285</v>
       </c>
       <c r="E156" s="2">
-        <v>291304</v>
+        <v>291308</v>
       </c>
       <c r="F156" s="2">
         <v>2992</v>
       </c>
       <c r="G156" s="4">
-        <v>0.044472751439</v>
+        <v>0.04446536353</v>
       </c>
     </row>
     <row r="157" spans="1:7">
@@ -3993,13 +3993,13 @@
         <v>103.714285714285</v>
       </c>
       <c r="E157" s="2">
-        <v>294255</v>
+        <v>294260</v>
       </c>
       <c r="F157" s="2">
-        <v>2951</v>
+        <v>2952</v>
       </c>
       <c r="G157" s="4">
-        <v>0.040977592143</v>
+        <v>0.040968342644</v>
       </c>
     </row>
     <row r="158" spans="1:7">
@@ -4016,13 +4016,13 @@
         <v>104.571428571428</v>
       </c>
       <c r="E158" s="2">
-        <v>297091</v>
+        <v>297097</v>
       </c>
       <c r="F158" s="2">
-        <v>2836</v>
+        <v>2837</v>
       </c>
       <c r="G158" s="4">
-        <v>0.041225501239</v>
+        <v>0.041213895613</v>
       </c>
     </row>
     <row r="159" spans="1:7">
@@ -4039,13 +4039,13 @@
         <v>104.857142857142</v>
       </c>
       <c r="E159" s="2">
-        <v>298429</v>
+        <v>298435</v>
       </c>
       <c r="F159" s="2">
         <v>1338</v>
       </c>
       <c r="G159" s="4">
-        <v>0.041584046229</v>
+        <v>0.041572270049</v>
       </c>
     </row>
     <row r="160" spans="1:7">
@@ -4062,13 +4062,13 @@
         <v>104</v>
       </c>
       <c r="E160" s="2">
-        <v>299516</v>
+        <v>299522</v>
       </c>
       <c r="F160" s="2">
         <v>1087</v>
       </c>
       <c r="G160" s="4">
-        <v>0.041237113402</v>
+        <v>0.041225437453</v>
       </c>
     </row>
     <row r="161" spans="1:7">
@@ -4085,13 +4085,13 @@
         <v>93.571428571428</v>
       </c>
       <c r="E161" s="2">
-        <v>300774</v>
+        <v>300780</v>
       </c>
       <c r="F161" s="2">
         <v>1258</v>
       </c>
       <c r="G161" s="4">
-        <v>0.041576742414</v>
+        <v>0.041568826553</v>
       </c>
     </row>
     <row r="162" spans="1:7">
@@ -4108,13 +4108,13 @@
         <v>95</v>
       </c>
       <c r="E162" s="2">
-        <v>305088</v>
+        <v>305094</v>
       </c>
       <c r="F162" s="2">
         <v>4314</v>
       </c>
       <c r="G162" s="4">
-        <v>0.03963996185</v>
+        <v>0.039635236619</v>
       </c>
     </row>
     <row r="163" spans="1:7">
@@ -4131,13 +4131,13 @@
         <v>99.85714285714199</v>
       </c>
       <c r="E163" s="2">
-        <v>308624</v>
+        <v>308630</v>
       </c>
       <c r="F163" s="2">
         <v>3536</v>
       </c>
       <c r="G163" s="4">
-        <v>0.040357967667</v>
+        <v>0.040353307932</v>
       </c>
     </row>
     <row r="164" spans="1:7">
@@ -4154,13 +4154,13 @@
         <v>101.285714285714</v>
       </c>
       <c r="E164" s="2">
-        <v>311931</v>
+        <v>311938</v>
       </c>
       <c r="F164" s="2">
-        <v>3307</v>
+        <v>3308</v>
       </c>
       <c r="G164" s="4">
-        <v>0.040110884815</v>
+        <v>0.040106346871</v>
       </c>
     </row>
     <row r="165" spans="1:7">
@@ -4177,13 +4177,13 @@
         <v>94.28571428571399</v>
       </c>
       <c r="E165" s="2">
-        <v>314437</v>
+        <v>314444</v>
       </c>
       <c r="F165" s="2">
         <v>2506</v>
       </c>
       <c r="G165" s="4">
-        <v>0.038049117952</v>
+        <v>0.03804692454</v>
       </c>
     </row>
     <row r="166" spans="1:7">
@@ -4200,13 +4200,13 @@
         <v>92</v>
       </c>
       <c r="E166" s="2">
-        <v>315843</v>
+        <v>315850</v>
       </c>
       <c r="F166" s="2">
         <v>1406</v>
       </c>
       <c r="G166" s="4">
-        <v>0.03698173883</v>
+        <v>0.036979615274</v>
       </c>
     </row>
     <row r="167" spans="1:7">
@@ -4223,13 +4223,13 @@
         <v>89.714285714285</v>
       </c>
       <c r="E167" s="2">
-        <v>316695</v>
+        <v>316702</v>
       </c>
       <c r="F167" s="2">
         <v>852</v>
       </c>
       <c r="G167" s="4">
-        <v>0.03655626055</v>
+        <v>0.036554132712</v>
       </c>
     </row>
     <row r="168" spans="1:7">
@@ -4246,13 +4246,13 @@
         <v>94.28571428571399</v>
       </c>
       <c r="E168" s="2">
-        <v>320115</v>
+        <v>320123</v>
       </c>
       <c r="F168" s="2">
-        <v>3420</v>
+        <v>3421</v>
       </c>
       <c r="G168" s="4">
-        <v>0.034124398945</v>
+        <v>0.034120870599</v>
       </c>
     </row>
     <row r="169" spans="1:7">
@@ -4269,13 +4269,13 @@
         <v>92.428571428571</v>
       </c>
       <c r="E169" s="2">
-        <v>324112</v>
+        <v>324123</v>
       </c>
       <c r="F169" s="2">
-        <v>3997</v>
+        <v>4000</v>
       </c>
       <c r="G169" s="4">
-        <v>0.034009671993</v>
+        <v>0.034000735719</v>
       </c>
     </row>
     <row r="170" spans="1:7">
@@ -4292,13 +4292,13 @@
         <v>83.28571428571399</v>
       </c>
       <c r="E170" s="2">
-        <v>327437</v>
+        <v>327448</v>
       </c>
       <c r="F170" s="2">
         <v>3325</v>
       </c>
       <c r="G170" s="4">
-        <v>0.030989209589</v>
+        <v>0.030980975661</v>
       </c>
     </row>
     <row r="171" spans="1:7">
@@ -4315,13 +4315,13 @@
         <v>83.142857142857</v>
       </c>
       <c r="E171" s="2">
-        <v>331191</v>
+        <v>331202</v>
       </c>
       <c r="F171" s="2">
         <v>3754</v>
       </c>
       <c r="G171" s="4">
-        <v>0.030218068535</v>
+        <v>0.030211794019</v>
       </c>
     </row>
     <row r="172" spans="1:7">
@@ -4338,13 +4338,13 @@
         <v>87.571428571428</v>
       </c>
       <c r="E172" s="2">
-        <v>334468</v>
+        <v>334479</v>
       </c>
       <c r="F172" s="2">
         <v>3277</v>
       </c>
       <c r="G172" s="4">
-        <v>0.030602566022</v>
+        <v>0.030596456201</v>
       </c>
     </row>
     <row r="173" spans="1:7">
@@ -4361,13 +4361,13 @@
         <v>90.714285714285</v>
       </c>
       <c r="E173" s="2">
-        <v>335989</v>
+        <v>336000</v>
       </c>
       <c r="F173" s="2">
         <v>1521</v>
       </c>
       <c r="G173" s="4">
-        <v>0.031519904695</v>
+        <v>0.031513647642</v>
       </c>
     </row>
     <row r="174" spans="1:7">
@@ -4384,13 +4384,13 @@
         <v>91.428571428571</v>
       </c>
       <c r="E174" s="2">
-        <v>337145</v>
+        <v>337156</v>
       </c>
       <c r="F174" s="2">
         <v>1156</v>
       </c>
       <c r="G174" s="4">
-        <v>0.03129584352</v>
+        <v>0.031289723281</v>
       </c>
     </row>
     <row r="175" spans="1:7">
@@ -4407,13 +4407,13 @@
         <v>97.571428571428</v>
       </c>
       <c r="E175" s="2">
-        <v>341526</v>
+        <v>341538</v>
       </c>
       <c r="F175" s="2">
-        <v>4381</v>
+        <v>4382</v>
       </c>
       <c r="G175" s="4">
-        <v>0.031899490915</v>
+        <v>0.03189353257</v>
       </c>
     </row>
     <row r="176" spans="1:7">
@@ -4430,13 +4430,13 @@
         <v>93</v>
       </c>
       <c r="E176" s="2">
-        <v>345322</v>
+        <v>345335</v>
       </c>
       <c r="F176" s="2">
-        <v>3796</v>
+        <v>3797</v>
       </c>
       <c r="G176" s="4">
-        <v>0.030693069306</v>
+        <v>0.030690175372</v>
       </c>
     </row>
     <row r="177" spans="1:7">
@@ -4453,13 +4453,13 @@
         <v>94</v>
       </c>
       <c r="E177" s="2">
-        <v>348836</v>
+        <v>348849</v>
       </c>
       <c r="F177" s="2">
         <v>3514</v>
       </c>
       <c r="G177" s="4">
-        <v>0.030749100425</v>
+        <v>0.030746226811</v>
       </c>
     </row>
     <row r="178" spans="1:7">
@@ -4476,13 +4476,13 @@
         <v>92.142857142857</v>
       </c>
       <c r="E178" s="2">
-        <v>352579</v>
+        <v>352593</v>
       </c>
       <c r="F178" s="2">
-        <v>3743</v>
+        <v>3744</v>
       </c>
       <c r="G178" s="4">
-        <v>0.030157097437</v>
+        <v>0.030152868028</v>
       </c>
     </row>
     <row r="179" spans="1:7">
@@ -4499,13 +4499,13 @@
         <v>90</v>
       </c>
       <c r="E179" s="2">
-        <v>355896</v>
+        <v>355911</v>
       </c>
       <c r="F179" s="2">
-        <v>3317</v>
+        <v>3318</v>
       </c>
       <c r="G179" s="4">
-        <v>0.02940078402</v>
+        <v>0.029395296752</v>
       </c>
     </row>
     <row r="180" spans="1:7">
@@ -4522,13 +4522,13 @@
         <v>88.142857142857</v>
       </c>
       <c r="E180" s="2">
-        <v>357769</v>
+        <v>357784</v>
       </c>
       <c r="F180" s="2">
         <v>1873</v>
       </c>
       <c r="G180" s="4">
-        <v>0.028328741965</v>
+        <v>0.028323540213</v>
       </c>
     </row>
     <row r="181" spans="1:7">
@@ -4545,13 +4545,13 @@
         <v>85.571428571428</v>
       </c>
       <c r="E181" s="2">
-        <v>358899</v>
+        <v>358914</v>
       </c>
       <c r="F181" s="2">
         <v>1130</v>
       </c>
       <c r="G181" s="4">
-        <v>0.027535165946</v>
+        <v>0.027530103869</v>
       </c>
     </row>
     <row r="182" spans="1:7">
@@ -4568,13 +4568,13 @@
         <v>81.142857142857</v>
       </c>
       <c r="E182" s="2">
-        <v>363006</v>
+        <v>363021</v>
       </c>
       <c r="F182" s="2">
         <v>4107</v>
       </c>
       <c r="G182" s="4">
-        <v>0.026443202979</v>
+        <v>0.02643951031</v>
       </c>
     </row>
     <row r="183" spans="1:7">
@@ -4591,13 +4591,13 @@
         <v>77.85714285714199</v>
       </c>
       <c r="E183" s="2">
-        <v>366850</v>
+        <v>366865</v>
       </c>
       <c r="F183" s="2">
         <v>3844</v>
       </c>
       <c r="G183" s="4">
-        <v>0.025315867707</v>
+        <v>0.025313516024</v>
       </c>
     </row>
     <row r="184" spans="1:7">
@@ -4614,13 +4614,13 @@
         <v>73</v>
       </c>
       <c r="E184" s="2">
-        <v>370410</v>
+        <v>370425</v>
       </c>
       <c r="F184" s="2">
         <v>3560</v>
       </c>
       <c r="G184" s="4">
-        <v>0.023685918234</v>
+        <v>0.023683722654</v>
       </c>
     </row>
     <row r="185" spans="1:7">
@@ -4637,13 +4637,13 @@
         <v>69.28571428571399</v>
       </c>
       <c r="E185" s="2">
-        <v>373937</v>
+        <v>373952</v>
       </c>
       <c r="F185" s="2">
         <v>3527</v>
       </c>
       <c r="G185" s="4">
-        <v>0.022708118737</v>
+        <v>0.022707055573</v>
       </c>
     </row>
     <row r="186" spans="1:7">
@@ -4660,7 +4660,7 @@
         <v>67.428571428571</v>
       </c>
       <c r="E186" s="2">
-        <v>377482</v>
+        <v>377497</v>
       </c>
       <c r="F186" s="2">
         <v>3545</v>
@@ -4683,7 +4683,7 @@
         <v>65.142857142857</v>
       </c>
       <c r="E187" s="2">
-        <v>379478</v>
+        <v>379493</v>
       </c>
       <c r="F187" s="2">
         <v>1996</v>
@@ -4706,7 +4706,7 @@
         <v>67</v>
       </c>
       <c r="E188" s="2">
-        <v>380863</v>
+        <v>380878</v>
       </c>
       <c r="F188" s="2">
         <v>1385</v>
@@ -4729,13 +4729,13 @@
         <v>61.857142857142</v>
       </c>
       <c r="E189" s="2">
-        <v>385672</v>
+        <v>385688</v>
       </c>
       <c r="F189" s="2">
-        <v>4809</v>
+        <v>4810</v>
       </c>
       <c r="G189" s="4">
-        <v>0.019103503044</v>
+        <v>0.019102660254</v>
       </c>
     </row>
     <row r="190" spans="1:7">
@@ -4752,13 +4752,13 @@
         <v>60.142857142857</v>
       </c>
       <c r="E190" s="2">
-        <v>390335</v>
+        <v>390351</v>
       </c>
       <c r="F190" s="2">
         <v>4663</v>
       </c>
       <c r="G190" s="4">
-        <v>0.017926335959</v>
+        <v>0.017925572681</v>
       </c>
     </row>
     <row r="191" spans="1:7">
@@ -4775,13 +4775,13 @@
         <v>62.428571428571</v>
       </c>
       <c r="E191" s="2">
-        <v>394526</v>
+        <v>394544</v>
       </c>
       <c r="F191" s="2">
-        <v>4191</v>
+        <v>4193</v>
       </c>
       <c r="G191" s="4">
-        <v>0.018120749709</v>
+        <v>0.018118495791</v>
       </c>
     </row>
     <row r="192" spans="1:7">
@@ -4798,13 +4798,13 @@
         <v>66.571428571428</v>
       </c>
       <c r="E192" s="2">
-        <v>398780</v>
+        <v>398799</v>
       </c>
       <c r="F192" s="2">
-        <v>4254</v>
+        <v>4255</v>
       </c>
       <c r="G192" s="4">
-        <v>0.018757798977</v>
+        <v>0.018754779249</v>
       </c>
     </row>
     <row r="193" spans="1:7">
@@ -4821,13 +4821,13 @@
         <v>64</v>
       </c>
       <c r="E193" s="2">
-        <v>402565</v>
+        <v>402584</v>
       </c>
       <c r="F193" s="2">
         <v>3785</v>
       </c>
       <c r="G193" s="4">
-        <v>0.017860702467</v>
+        <v>0.017857854665</v>
       </c>
     </row>
     <row r="194" spans="1:7">
@@ -4844,13 +4844,13 @@
         <v>63.71428571428499</v>
       </c>
       <c r="E194" s="2">
-        <v>404360</v>
+        <v>404379</v>
       </c>
       <c r="F194" s="2">
         <v>1795</v>
       </c>
       <c r="G194" s="4">
-        <v>0.017924604131</v>
+        <v>0.017921723057</v>
       </c>
     </row>
     <row r="195" spans="1:7">
@@ -4867,13 +4867,13 @@
         <v>61.857142857142</v>
       </c>
       <c r="E195" s="2">
-        <v>405694</v>
+        <v>405713</v>
       </c>
       <c r="F195" s="2">
         <v>1334</v>
       </c>
       <c r="G195" s="4">
-        <v>0.017437880069</v>
+        <v>0.017435071471</v>
       </c>
     </row>
     <row r="196" spans="1:7">
@@ -4890,13 +4890,13 @@
         <v>64</v>
       </c>
       <c r="E196" s="2">
-        <v>410228</v>
+        <v>410248</v>
       </c>
       <c r="F196" s="2">
-        <v>4534</v>
+        <v>4535</v>
       </c>
       <c r="G196" s="4">
-        <v>0.018244013683</v>
+        <v>0.018241042345</v>
       </c>
     </row>
     <row r="197" spans="1:7">
@@ -4913,13 +4913,13 @@
         <v>67.85714285714199</v>
       </c>
       <c r="E197" s="2">
-        <v>414751</v>
+        <v>414771</v>
       </c>
       <c r="F197" s="2">
         <v>4523</v>
       </c>
       <c r="G197" s="4">
-        <v>0.019454456094</v>
+        <v>0.019451269451</v>
       </c>
     </row>
     <row r="198" spans="1:7">
@@ -4936,13 +4936,13 @@
         <v>67</v>
       </c>
       <c r="E198" s="2">
-        <v>418980</v>
+        <v>419001</v>
       </c>
       <c r="F198" s="2">
-        <v>4229</v>
+        <v>4230</v>
       </c>
       <c r="G198" s="4">
-        <v>0.019178866443</v>
+        <v>0.019176513881</v>
       </c>
     </row>
     <row r="199" spans="1:7">
@@ -4959,13 +4959,13 @@
         <v>60.857142857142</v>
       </c>
       <c r="E199" s="2">
-        <v>422992</v>
+        <v>423013</v>
       </c>
       <c r="F199" s="2">
         <v>4012</v>
       </c>
       <c r="G199" s="4">
-        <v>0.017594581199</v>
+        <v>0.017593127942</v>
       </c>
     </row>
     <row r="200" spans="1:7">
@@ -4982,13 +4982,13 @@
         <v>60.857142857142</v>
       </c>
       <c r="E200" s="2">
-        <v>426985</v>
+        <v>427008</v>
       </c>
       <c r="F200" s="2">
-        <v>3993</v>
+        <v>3995</v>
       </c>
       <c r="G200" s="4">
-        <v>0.017444717444</v>
+        <v>0.017441860465</v>
       </c>
     </row>
     <row r="201" spans="1:7">
@@ -5005,13 +5005,13 @@
         <v>61.57142857142801</v>
       </c>
       <c r="E201" s="2">
-        <v>428888</v>
+        <v>428912</v>
       </c>
       <c r="F201" s="2">
-        <v>1903</v>
+        <v>1904</v>
       </c>
       <c r="G201" s="4">
-        <v>0.017571754729</v>
+        <v>0.01756817348</v>
       </c>
     </row>
     <row r="202" spans="1:7">
@@ -5028,13 +5028,13 @@
         <v>63.28571428571399</v>
       </c>
       <c r="E202" s="2">
-        <v>430268</v>
+        <v>430292</v>
       </c>
       <c r="F202" s="2">
         <v>1380</v>
       </c>
       <c r="G202" s="4">
-        <v>0.018027183201</v>
+        <v>0.018023516009</v>
       </c>
     </row>
     <row r="203" spans="1:7">
@@ -5051,13 +5051,13 @@
         <v>62.857142857142</v>
       </c>
       <c r="E203" s="2">
-        <v>435102</v>
+        <v>435126</v>
       </c>
       <c r="F203" s="2">
         <v>4834</v>
       </c>
       <c r="G203" s="4">
-        <v>0.017689153332</v>
+        <v>0.017686309188</v>
       </c>
     </row>
     <row r="204" spans="1:7">
@@ -5074,13 +5074,13 @@
         <v>63.857142857142</v>
       </c>
       <c r="E204" s="2">
-        <v>439889</v>
+        <v>439919</v>
       </c>
       <c r="F204" s="2">
-        <v>4787</v>
+        <v>4793</v>
       </c>
       <c r="G204" s="4">
-        <v>0.017781844219</v>
+        <v>0.017774773341</v>
       </c>
     </row>
     <row r="205" spans="1:7">
@@ -5097,13 +5097,13 @@
         <v>65.714285714285</v>
       </c>
       <c r="E205" s="2">
-        <v>444230</v>
+        <v>444262</v>
       </c>
       <c r="F205" s="2">
-        <v>4341</v>
+        <v>4343</v>
       </c>
       <c r="G205" s="4">
-        <v>0.018217821782</v>
+        <v>0.018209888761</v>
       </c>
     </row>
     <row r="206" spans="1:7">
@@ -5120,13 +5120,13 @@
         <v>67.28571428571399</v>
       </c>
       <c r="E206" s="2">
-        <v>448164</v>
+        <v>448198</v>
       </c>
       <c r="F206" s="2">
-        <v>3934</v>
+        <v>3936</v>
       </c>
       <c r="G206" s="4">
-        <v>0.018711266486</v>
+        <v>0.0187016081</v>
       </c>
     </row>
     <row r="207" spans="1:7">
@@ -5143,13 +5143,13 @@
         <v>70.85714285714199</v>
       </c>
       <c r="E207" s="2">
-        <v>451980</v>
+        <v>452015</v>
       </c>
       <c r="F207" s="2">
-        <v>3816</v>
+        <v>3817</v>
       </c>
       <c r="G207" s="4">
-        <v>0.019843968793</v>
+        <v>0.019834446355</v>
       </c>
     </row>
     <row r="208" spans="1:7">
@@ -5166,13 +5166,13 @@
         <v>72.28571428571399</v>
       </c>
       <c r="E208" s="2">
-        <v>453931</v>
+        <v>453966</v>
       </c>
       <c r="F208" s="2">
         <v>1951</v>
       </c>
       <c r="G208" s="4">
-        <v>0.020205246975</v>
+        <v>0.020196375828</v>
       </c>
     </row>
     <row r="209" spans="1:7">
@@ -5189,13 +5189,13 @@
         <v>72.714285714285</v>
       </c>
       <c r="E209" s="2">
-        <v>455535</v>
+        <v>455570</v>
       </c>
       <c r="F209" s="2">
         <v>1604</v>
       </c>
       <c r="G209" s="4">
-        <v>0.02014485297</v>
+        <v>0.020136086715</v>
       </c>
     </row>
     <row r="210" spans="1:7">
@@ -5203,22 +5203,22 @@
         <v>44130</v>
       </c>
       <c r="B210" s="2">
-        <v>19087</v>
+        <v>19086</v>
       </c>
       <c r="C210" s="2">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D210" s="3">
-        <v>76.428571428571</v>
+        <v>76.28571428571399</v>
       </c>
       <c r="E210" s="2">
-        <v>460448</v>
+        <v>460486</v>
       </c>
       <c r="F210" s="2">
-        <v>4913</v>
+        <v>4916</v>
       </c>
       <c r="G210" s="4">
-        <v>0.021107867119</v>
+        <v>0.021056782334</v>
       </c>
     </row>
     <row r="211" spans="1:7">
@@ -5226,22 +5226,22 @@
         <v>44131</v>
       </c>
       <c r="B211" s="2">
-        <v>19192</v>
+        <v>19191</v>
       </c>
       <c r="C211" s="2">
         <v>105</v>
       </c>
       <c r="D211" s="3">
-        <v>77.571428571428</v>
+        <v>77.428571428571</v>
       </c>
       <c r="E211" s="2">
-        <v>465638</v>
+        <v>465679</v>
       </c>
       <c r="F211" s="2">
-        <v>5190</v>
+        <v>5193</v>
       </c>
       <c r="G211" s="4">
-        <v>0.021088197599</v>
+        <v>0.02104037267</v>
       </c>
     </row>
     <row r="212" spans="1:7">
@@ -5249,22 +5249,22 @@
         <v>44132</v>
       </c>
       <c r="B212" s="2">
-        <v>19290</v>
+        <v>19289</v>
       </c>
       <c r="C212" s="2">
         <v>98</v>
       </c>
       <c r="D212" s="3">
-        <v>79.714285714285</v>
+        <v>79.571428571428</v>
       </c>
       <c r="E212" s="2">
-        <v>470169</v>
+        <v>470212</v>
       </c>
       <c r="F212" s="2">
-        <v>4531</v>
+        <v>4533</v>
       </c>
       <c r="G212" s="4">
-        <v>0.021512008944</v>
+        <v>0.021464354527</v>
       </c>
     </row>
     <row r="213" spans="1:7">
@@ -5272,22 +5272,22 @@
         <v>44133</v>
       </c>
       <c r="B213" s="2">
-        <v>19385</v>
+        <v>19384</v>
       </c>
       <c r="C213" s="2">
         <v>95</v>
       </c>
       <c r="D213" s="3">
-        <v>84.428571428571</v>
+        <v>84.28571428571399</v>
       </c>
       <c r="E213" s="2">
-        <v>474583</v>
+        <v>474629</v>
       </c>
       <c r="F213" s="2">
-        <v>4414</v>
+        <v>4417</v>
       </c>
       <c r="G213" s="4">
-        <v>0.022370263825</v>
+        <v>0.022322273088</v>
       </c>
     </row>
     <row r="214" spans="1:7">
@@ -5295,22 +5295,22 @@
         <v>44134</v>
       </c>
       <c r="B214" s="2">
-        <v>19460</v>
+        <v>19459</v>
       </c>
       <c r="C214" s="2">
         <v>75</v>
       </c>
       <c r="D214" s="3">
-        <v>83.28571428571399</v>
+        <v>83.142857142857</v>
       </c>
       <c r="E214" s="2">
-        <v>479187</v>
+        <v>479234</v>
       </c>
       <c r="F214" s="2">
-        <v>4604</v>
+        <v>4605</v>
       </c>
       <c r="G214" s="4">
-        <v>0.021428308891</v>
+        <v>0.021382122781</v>
       </c>
     </row>
     <row r="215" spans="1:7">
@@ -5318,22 +5318,22 @@
         <v>44135</v>
       </c>
       <c r="B215" s="2">
-        <v>19513</v>
+        <v>19512</v>
       </c>
       <c r="C215" s="2">
         <v>53</v>
       </c>
       <c r="D215" s="3">
-        <v>82.85714285714199</v>
+        <v>82.714285714285</v>
       </c>
       <c r="E215" s="2">
-        <v>481163</v>
+        <v>481210</v>
       </c>
       <c r="F215" s="2">
         <v>1976</v>
       </c>
       <c r="G215" s="4">
-        <v>0.021298472385</v>
+        <v>0.021252385846</v>
       </c>
     </row>
     <row r="216" spans="1:7">
@@ -5341,22 +5341,45 @@
         <v>44136</v>
       </c>
       <c r="B216" s="2">
-        <v>19572</v>
+        <v>19571</v>
       </c>
       <c r="C216" s="2">
         <v>59</v>
       </c>
       <c r="D216" s="3">
-        <v>85.714285714285</v>
+        <v>85.571428571428</v>
       </c>
       <c r="E216" s="2">
-        <v>482925</v>
+        <v>482976</v>
       </c>
       <c r="F216" s="2">
-        <v>1762</v>
+        <v>1766</v>
       </c>
       <c r="G216" s="4">
-        <v>0.021905805038</v>
+        <v>0.021856527767</v>
+      </c>
+    </row>
+    <row r="217" spans="1:7">
+      <c r="A217" s="1">
+        <v>44137</v>
+      </c>
+      <c r="B217" s="2">
+        <v>19728</v>
+      </c>
+      <c r="C217" s="2">
+        <v>157</v>
+      </c>
+      <c r="D217" s="3">
+        <v>91.714285714285</v>
+      </c>
+      <c r="E217" s="2">
+        <v>488541</v>
+      </c>
+      <c r="F217" s="2">
+        <v>5565</v>
+      </c>
+      <c r="G217" s="4">
+        <v>0.022883621457</v>
       </c>
     </row>
   </sheetData>

--- a/contra_costa_county_testing.xlsx
+++ b/contra_costa_county_testing.xlsx
@@ -376,7 +376,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G217"/>
+  <dimension ref="A1:G218"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1877,13 +1877,13 @@
         <v>27.571428571428</v>
       </c>
       <c r="E65" s="2">
-        <v>46572</v>
+        <v>46571</v>
       </c>
       <c r="F65" s="2">
-        <v>1163</v>
+        <v>1162</v>
       </c>
       <c r="G65" s="4">
-        <v>0.026007276647</v>
+        <v>0.026010781671</v>
       </c>
     </row>
     <row r="66" spans="1:7">
@@ -1900,13 +1900,13 @@
         <v>28.285714285714</v>
       </c>
       <c r="E66" s="2">
-        <v>47922</v>
+        <v>47921</v>
       </c>
       <c r="F66" s="2">
         <v>1350</v>
       </c>
       <c r="G66" s="4">
-        <v>0.025933202357</v>
+        <v>0.025936599423</v>
       </c>
     </row>
     <row r="67" spans="1:7">
@@ -1923,13 +1923,13 @@
         <v>29.285714285714</v>
       </c>
       <c r="E67" s="2">
-        <v>49552</v>
+        <v>49551</v>
       </c>
       <c r="F67" s="2">
         <v>1630</v>
       </c>
       <c r="G67" s="4">
-        <v>0.026068158697</v>
+        <v>0.026071473992</v>
       </c>
     </row>
     <row r="68" spans="1:7">
@@ -1946,13 +1946,13 @@
         <v>30.571428571428</v>
       </c>
       <c r="E68" s="2">
-        <v>50157</v>
+        <v>50156</v>
       </c>
       <c r="F68" s="2">
         <v>605</v>
       </c>
       <c r="G68" s="4">
-        <v>0.027666451195</v>
+        <v>0.027670028445</v>
       </c>
     </row>
     <row r="69" spans="1:7">
@@ -1969,13 +1969,13 @@
         <v>32.428571428571</v>
       </c>
       <c r="E69" s="2">
-        <v>50641</v>
+        <v>50640</v>
       </c>
       <c r="F69" s="2">
         <v>484</v>
       </c>
       <c r="G69" s="4">
-        <v>0.02901700115</v>
+        <v>0.029020710815</v>
       </c>
     </row>
     <row r="70" spans="1:7">
@@ -1992,13 +1992,13 @@
         <v>34.714285714285</v>
       </c>
       <c r="E70" s="2">
-        <v>52475</v>
+        <v>52474</v>
       </c>
       <c r="F70" s="2">
         <v>1834</v>
       </c>
       <c r="G70" s="4">
-        <v>0.029337196667</v>
+        <v>0.029340738951</v>
       </c>
     </row>
     <row r="71" spans="1:7">
@@ -2015,13 +2015,13 @@
         <v>36.428571428571</v>
       </c>
       <c r="E71" s="2">
-        <v>54321</v>
+        <v>54320</v>
       </c>
       <c r="F71" s="2">
         <v>1846</v>
       </c>
       <c r="G71" s="4">
-        <v>0.028613105924</v>
+        <v>0.028616316911</v>
       </c>
     </row>
     <row r="72" spans="1:7">
@@ -2038,7 +2038,7 @@
         <v>40.142857142857</v>
       </c>
       <c r="E72" s="2">
-        <v>56313</v>
+        <v>56312</v>
       </c>
       <c r="F72" s="2">
         <v>1992</v>
@@ -2061,7 +2061,7 @@
         <v>40.428571428571</v>
       </c>
       <c r="E73" s="2">
-        <v>58467</v>
+        <v>58466</v>
       </c>
       <c r="F73" s="2">
         <v>2154</v>
@@ -2084,7 +2084,7 @@
         <v>42</v>
       </c>
       <c r="E74" s="2">
-        <v>60728</v>
+        <v>60727</v>
       </c>
       <c r="F74" s="2">
         <v>2261</v>
@@ -2107,7 +2107,7 @@
         <v>44.285714285714</v>
       </c>
       <c r="E75" s="2">
-        <v>61572</v>
+        <v>61571</v>
       </c>
       <c r="F75" s="2">
         <v>844</v>
@@ -2130,7 +2130,7 @@
         <v>45.571428571428</v>
       </c>
       <c r="E76" s="2">
-        <v>62159</v>
+        <v>62158</v>
       </c>
       <c r="F76" s="2">
         <v>587</v>
@@ -2153,7 +2153,7 @@
         <v>46.857142857142</v>
       </c>
       <c r="E77" s="2">
-        <v>64380</v>
+        <v>64379</v>
       </c>
       <c r="F77" s="2">
         <v>2221</v>
@@ -2176,7 +2176,7 @@
         <v>52.714285714285</v>
       </c>
       <c r="E78" s="2">
-        <v>66911</v>
+        <v>66910</v>
       </c>
       <c r="F78" s="2">
         <v>2531</v>
@@ -2199,7 +2199,7 @@
         <v>57.285714285714</v>
       </c>
       <c r="E79" s="2">
-        <v>69486</v>
+        <v>69485</v>
       </c>
       <c r="F79" s="2">
         <v>2575</v>
@@ -2222,7 +2222,7 @@
         <v>62.57142857142801</v>
       </c>
       <c r="E80" s="2">
-        <v>72018</v>
+        <v>72017</v>
       </c>
       <c r="F80" s="2">
         <v>2532</v>
@@ -2245,7 +2245,7 @@
         <v>69.142857142857</v>
       </c>
       <c r="E81" s="2">
-        <v>74463</v>
+        <v>74462</v>
       </c>
       <c r="F81" s="2">
         <v>2445</v>
@@ -2268,7 +2268,7 @@
         <v>71.85714285714199</v>
       </c>
       <c r="E82" s="2">
-        <v>75417</v>
+        <v>75416</v>
       </c>
       <c r="F82" s="2">
         <v>954</v>
@@ -2291,7 +2291,7 @@
         <v>73.714285714285</v>
       </c>
       <c r="E83" s="2">
-        <v>76115</v>
+        <v>76114</v>
       </c>
       <c r="F83" s="2">
         <v>698</v>
@@ -2314,7 +2314,7 @@
         <v>81.428571428571</v>
       </c>
       <c r="E84" s="2">
-        <v>78733</v>
+        <v>78732</v>
       </c>
       <c r="F84" s="2">
         <v>2618</v>
@@ -2337,7 +2337,7 @@
         <v>88.571428571428</v>
       </c>
       <c r="E85" s="2">
-        <v>81519</v>
+        <v>81518</v>
       </c>
       <c r="F85" s="2">
         <v>2786</v>
@@ -2360,7 +2360,7 @@
         <v>96.571428571428</v>
       </c>
       <c r="E86" s="2">
-        <v>84555</v>
+        <v>84554</v>
       </c>
       <c r="F86" s="2">
         <v>3036</v>
@@ -2383,7 +2383,7 @@
         <v>105.285714285714</v>
       </c>
       <c r="E87" s="2">
-        <v>87922</v>
+        <v>87921</v>
       </c>
       <c r="F87" s="2">
         <v>3367</v>
@@ -2406,7 +2406,7 @@
         <v>114.714285714285</v>
       </c>
       <c r="E88" s="2">
-        <v>90892</v>
+        <v>90891</v>
       </c>
       <c r="F88" s="2">
         <v>2970</v>
@@ -2429,7 +2429,7 @@
         <v>118.714285714285</v>
       </c>
       <c r="E89" s="2">
-        <v>91967</v>
+        <v>91966</v>
       </c>
       <c r="F89" s="2">
         <v>1075</v>
@@ -2452,7 +2452,7 @@
         <v>121.428571428571</v>
       </c>
       <c r="E90" s="2">
-        <v>92763</v>
+        <v>92762</v>
       </c>
       <c r="F90" s="2">
         <v>796</v>
@@ -2475,7 +2475,7 @@
         <v>133.714285714285</v>
       </c>
       <c r="E91" s="2">
-        <v>96445</v>
+        <v>96444</v>
       </c>
       <c r="F91" s="2">
         <v>3682</v>
@@ -2498,7 +2498,7 @@
         <v>137.142857142857</v>
       </c>
       <c r="E92" s="2">
-        <v>99930</v>
+        <v>99929</v>
       </c>
       <c r="F92" s="2">
         <v>3485</v>
@@ -2521,7 +2521,7 @@
         <v>141.571428571428</v>
       </c>
       <c r="E93" s="2">
-        <v>103474</v>
+        <v>103473</v>
       </c>
       <c r="F93" s="2">
         <v>3544</v>
@@ -2544,7 +2544,7 @@
         <v>150.285714285714</v>
       </c>
       <c r="E94" s="2">
-        <v>107400</v>
+        <v>107399</v>
       </c>
       <c r="F94" s="2">
         <v>3926</v>
@@ -2567,7 +2567,7 @@
         <v>146.571428571428</v>
       </c>
       <c r="E95" s="2">
-        <v>110042</v>
+        <v>110041</v>
       </c>
       <c r="F95" s="2">
         <v>2642</v>
@@ -2590,7 +2590,7 @@
         <v>148.285714285714</v>
       </c>
       <c r="E96" s="2">
-        <v>111160</v>
+        <v>111159</v>
       </c>
       <c r="F96" s="2">
         <v>1118</v>
@@ -2613,7 +2613,7 @@
         <v>152.142857142857</v>
       </c>
       <c r="E97" s="2">
-        <v>112289</v>
+        <v>112288</v>
       </c>
       <c r="F97" s="2">
         <v>1129</v>
@@ -2636,7 +2636,7 @@
         <v>153.142857142857</v>
       </c>
       <c r="E98" s="2">
-        <v>116372</v>
+        <v>116371</v>
       </c>
       <c r="F98" s="2">
         <v>4083</v>
@@ -2659,7 +2659,7 @@
         <v>161.428571428571</v>
       </c>
       <c r="E99" s="2">
-        <v>120457</v>
+        <v>120456</v>
       </c>
       <c r="F99" s="2">
         <v>4085</v>
@@ -2682,7 +2682,7 @@
         <v>168.714285714285</v>
       </c>
       <c r="E100" s="2">
-        <v>124721</v>
+        <v>124720</v>
       </c>
       <c r="F100" s="2">
         <v>4264</v>
@@ -2705,7 +2705,7 @@
         <v>174.571428571428</v>
       </c>
       <c r="E101" s="2">
-        <v>129327</v>
+        <v>129326</v>
       </c>
       <c r="F101" s="2">
         <v>4606</v>
@@ -2728,7 +2728,7 @@
         <v>189.142857142857</v>
       </c>
       <c r="E102" s="2">
-        <v>133790</v>
+        <v>133789</v>
       </c>
       <c r="F102" s="2">
         <v>4463</v>
@@ -2751,7 +2751,7 @@
         <v>195.857142857142</v>
       </c>
       <c r="E103" s="2">
-        <v>135866</v>
+        <v>135865</v>
       </c>
       <c r="F103" s="2">
         <v>2076</v>
@@ -2774,7 +2774,7 @@
         <v>198</v>
       </c>
       <c r="E104" s="2">
-        <v>137193</v>
+        <v>137192</v>
       </c>
       <c r="F104" s="2">
         <v>1327</v>
@@ -2797,7 +2797,7 @@
         <v>206.428571428571</v>
       </c>
       <c r="E105" s="2">
-        <v>141801</v>
+        <v>141800</v>
       </c>
       <c r="F105" s="2">
         <v>4608</v>
@@ -2820,7 +2820,7 @@
         <v>212</v>
       </c>
       <c r="E106" s="2">
-        <v>145569</v>
+        <v>145568</v>
       </c>
       <c r="F106" s="2">
         <v>3768</v>
@@ -2843,7 +2843,7 @@
         <v>217</v>
       </c>
       <c r="E107" s="2">
-        <v>149919</v>
+        <v>149918</v>
       </c>
       <c r="F107" s="2">
         <v>4350</v>
@@ -2866,7 +2866,7 @@
         <v>217.571428571428</v>
       </c>
       <c r="E108" s="2">
-        <v>154112</v>
+        <v>154111</v>
       </c>
       <c r="F108" s="2">
         <v>4193</v>
@@ -2889,7 +2889,7 @@
         <v>218.142857142857</v>
       </c>
       <c r="E109" s="2">
-        <v>158320</v>
+        <v>158319</v>
       </c>
       <c r="F109" s="2">
         <v>4208</v>
@@ -2912,7 +2912,7 @@
         <v>216.571428571428</v>
       </c>
       <c r="E110" s="2">
-        <v>160548</v>
+        <v>160547</v>
       </c>
       <c r="F110" s="2">
         <v>2228</v>
@@ -2935,7 +2935,7 @@
         <v>216.285714285714</v>
       </c>
       <c r="E111" s="2">
-        <v>161808</v>
+        <v>161807</v>
       </c>
       <c r="F111" s="2">
         <v>1260</v>
@@ -2958,7 +2958,7 @@
         <v>220.571428571428</v>
       </c>
       <c r="E112" s="2">
-        <v>166062</v>
+        <v>166061</v>
       </c>
       <c r="F112" s="2">
         <v>4254</v>
@@ -2981,7 +2981,7 @@
         <v>218.571428571428</v>
       </c>
       <c r="E113" s="2">
-        <v>169903</v>
+        <v>169902</v>
       </c>
       <c r="F113" s="2">
         <v>3841</v>
@@ -2995,22 +2995,22 @@
         <v>44034</v>
       </c>
       <c r="B114" s="2">
-        <v>8246</v>
+        <v>8245</v>
       </c>
       <c r="C114" s="2">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D114" s="3">
-        <v>217.285714285714</v>
+        <v>217.142857142857</v>
       </c>
       <c r="E114" s="2">
-        <v>173570</v>
+        <v>173569</v>
       </c>
       <c r="F114" s="2">
         <v>3667</v>
       </c>
       <c r="G114" s="4">
-        <v>0.064310177159</v>
+        <v>0.064267895649</v>
       </c>
     </row>
     <row r="115" spans="1:7">
@@ -3018,22 +3018,22 @@
         <v>44035</v>
       </c>
       <c r="B115" s="2">
-        <v>8479</v>
+        <v>8478</v>
       </c>
       <c r="C115" s="2">
         <v>233</v>
       </c>
       <c r="D115" s="3">
-        <v>213.714285714285</v>
+        <v>213.571428571428</v>
       </c>
       <c r="E115" s="2">
-        <v>176903</v>
+        <v>176902</v>
       </c>
       <c r="F115" s="2">
         <v>3333</v>
       </c>
       <c r="G115" s="4">
-        <v>0.065639945592</v>
+        <v>0.06559606862300001</v>
       </c>
     </row>
     <row r="116" spans="1:7">
@@ -3041,22 +3041,22 @@
         <v>44036</v>
       </c>
       <c r="B116" s="2">
-        <v>8699</v>
+        <v>8698</v>
       </c>
       <c r="C116" s="2">
         <v>220</v>
       </c>
       <c r="D116" s="3">
-        <v>209.428571428571</v>
+        <v>209.285714285714</v>
       </c>
       <c r="E116" s="2">
-        <v>180583</v>
+        <v>180582</v>
       </c>
       <c r="F116" s="2">
         <v>3680</v>
       </c>
       <c r="G116" s="4">
-        <v>0.065849166778</v>
+        <v>0.065804249202</v>
       </c>
     </row>
     <row r="117" spans="1:7">
@@ -3064,22 +3064,22 @@
         <v>44037</v>
       </c>
       <c r="B117" s="2">
-        <v>8813</v>
+        <v>8812</v>
       </c>
       <c r="C117" s="2">
         <v>114</v>
       </c>
       <c r="D117" s="3">
-        <v>207.285714285714</v>
+        <v>207.142857142857</v>
       </c>
       <c r="E117" s="2">
-        <v>182219</v>
+        <v>182218</v>
       </c>
       <c r="F117" s="2">
         <v>1636</v>
       </c>
       <c r="G117" s="4">
-        <v>0.066955839601</v>
+        <v>0.066909694984</v>
       </c>
     </row>
     <row r="118" spans="1:7">
@@ -3087,22 +3087,22 @@
         <v>44038</v>
       </c>
       <c r="B118" s="2">
-        <v>8916</v>
+        <v>8915</v>
       </c>
       <c r="C118" s="2">
         <v>103</v>
       </c>
       <c r="D118" s="3">
-        <v>207.857142857142</v>
+        <v>207.714285714285</v>
       </c>
       <c r="E118" s="2">
-        <v>183473</v>
+        <v>183472</v>
       </c>
       <c r="F118" s="2">
         <v>1254</v>
       </c>
       <c r="G118" s="4">
-        <v>0.067159012231</v>
+        <v>0.06711285483399999</v>
       </c>
     </row>
     <row r="119" spans="1:7">
@@ -3110,22 +3110,22 @@
         <v>44039</v>
       </c>
       <c r="B119" s="2">
-        <v>9160</v>
+        <v>9159</v>
       </c>
       <c r="C119" s="2">
         <v>244</v>
       </c>
       <c r="D119" s="3">
-        <v>200.857142857142</v>
+        <v>200.714285714285</v>
       </c>
       <c r="E119" s="2">
-        <v>187659</v>
+        <v>187658</v>
       </c>
       <c r="F119" s="2">
         <v>4186</v>
       </c>
       <c r="G119" s="4">
-        <v>0.065101634486</v>
+        <v>0.065055331759</v>
       </c>
     </row>
     <row r="120" spans="1:7">
@@ -3133,22 +3133,22 @@
         <v>44040</v>
       </c>
       <c r="B120" s="2">
-        <v>9419</v>
+        <v>9418</v>
       </c>
       <c r="C120" s="2">
         <v>259</v>
       </c>
       <c r="D120" s="3">
-        <v>203.428571428571</v>
+        <v>203.285714285714</v>
       </c>
       <c r="E120" s="2">
-        <v>191603</v>
+        <v>191602</v>
       </c>
       <c r="F120" s="2">
         <v>3944</v>
       </c>
       <c r="G120" s="4">
-        <v>0.065622119815</v>
+        <v>0.065576036866</v>
       </c>
     </row>
     <row r="121" spans="1:7">
@@ -3156,7 +3156,7 @@
         <v>44041</v>
       </c>
       <c r="B121" s="2">
-        <v>9672</v>
+        <v>9671</v>
       </c>
       <c r="C121" s="2">
         <v>253</v>
@@ -3165,7 +3165,7 @@
         <v>203.714285714285</v>
       </c>
       <c r="E121" s="2">
-        <v>195469</v>
+        <v>195468</v>
       </c>
       <c r="F121" s="2">
         <v>3866</v>
@@ -3179,7 +3179,7 @@
         <v>44042</v>
       </c>
       <c r="B122" s="2">
-        <v>9891</v>
+        <v>9890</v>
       </c>
       <c r="C122" s="2">
         <v>219</v>
@@ -3188,7 +3188,7 @@
         <v>201.714285714285</v>
       </c>
       <c r="E122" s="2">
-        <v>199145</v>
+        <v>199144</v>
       </c>
       <c r="F122" s="2">
         <v>3676</v>
@@ -3202,7 +3202,7 @@
         <v>44043</v>
       </c>
       <c r="B123" s="2">
-        <v>10126</v>
+        <v>10125</v>
       </c>
       <c r="C123" s="2">
         <v>235</v>
@@ -3211,7 +3211,7 @@
         <v>203.857142857142</v>
       </c>
       <c r="E123" s="2">
-        <v>202697</v>
+        <v>202696</v>
       </c>
       <c r="F123" s="2">
         <v>3552</v>
@@ -3225,7 +3225,7 @@
         <v>44044</v>
       </c>
       <c r="B124" s="2">
-        <v>10234</v>
+        <v>10233</v>
       </c>
       <c r="C124" s="2">
         <v>108</v>
@@ -3234,7 +3234,7 @@
         <v>203</v>
       </c>
       <c r="E124" s="2">
-        <v>204366</v>
+        <v>204365</v>
       </c>
       <c r="F124" s="2">
         <v>1669</v>
@@ -3248,7 +3248,7 @@
         <v>44045</v>
       </c>
       <c r="B125" s="2">
-        <v>10313</v>
+        <v>10312</v>
       </c>
       <c r="C125" s="2">
         <v>79</v>
@@ -3257,7 +3257,7 @@
         <v>199.571428571428</v>
       </c>
       <c r="E125" s="2">
-        <v>205515</v>
+        <v>205514</v>
       </c>
       <c r="F125" s="2">
         <v>1149</v>
@@ -3271,7 +3271,7 @@
         <v>44046</v>
       </c>
       <c r="B126" s="2">
-        <v>10569</v>
+        <v>10568</v>
       </c>
       <c r="C126" s="2">
         <v>256</v>
@@ -3280,7 +3280,7 @@
         <v>201.285714285714</v>
       </c>
       <c r="E126" s="2">
-        <v>209393</v>
+        <v>209392</v>
       </c>
       <c r="F126" s="2">
         <v>3878</v>
@@ -3294,22 +3294,22 @@
         <v>44047</v>
       </c>
       <c r="B127" s="2">
-        <v>10808</v>
+        <v>10809</v>
       </c>
       <c r="C127" s="2">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="D127" s="3">
-        <v>198.428571428571</v>
+        <v>198.714285714285</v>
       </c>
       <c r="E127" s="2">
-        <v>212725</v>
+        <v>212726</v>
       </c>
       <c r="F127" s="2">
-        <v>3332</v>
+        <v>3334</v>
       </c>
       <c r="G127" s="4">
-        <v>0.065760818104</v>
+        <v>0.065849270971</v>
       </c>
     </row>
     <row r="128" spans="1:7">
@@ -3317,22 +3317,22 @@
         <v>44048</v>
       </c>
       <c r="B128" s="2">
-        <v>11010</v>
+        <v>11013</v>
       </c>
       <c r="C128" s="2">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="D128" s="3">
-        <v>191.142857142857</v>
+        <v>191.714285714285</v>
       </c>
       <c r="E128" s="2">
-        <v>216004</v>
+        <v>216007</v>
       </c>
       <c r="F128" s="2">
-        <v>3279</v>
+        <v>3281</v>
       </c>
       <c r="G128" s="4">
-        <v>0.06515704894</v>
+        <v>0.065339110959</v>
       </c>
     </row>
     <row r="129" spans="1:7">
@@ -3340,22 +3340,22 @@
         <v>44049</v>
       </c>
       <c r="B129" s="2">
-        <v>11210</v>
+        <v>11213</v>
       </c>
       <c r="C129" s="2">
         <v>200</v>
       </c>
       <c r="D129" s="3">
-        <v>188.428571428571</v>
+        <v>189</v>
       </c>
       <c r="E129" s="2">
-        <v>219671</v>
+        <v>219674</v>
       </c>
       <c r="F129" s="2">
         <v>3667</v>
       </c>
       <c r="G129" s="4">
-        <v>0.064259962973</v>
+        <v>0.06444227959</v>
       </c>
     </row>
     <row r="130" spans="1:7">
@@ -3363,22 +3363,22 @@
         <v>44050</v>
       </c>
       <c r="B130" s="2">
-        <v>11395</v>
+        <v>11398</v>
       </c>
       <c r="C130" s="2">
         <v>185</v>
       </c>
       <c r="D130" s="3">
-        <v>181.285714285714</v>
+        <v>181.857142857142</v>
       </c>
       <c r="E130" s="2">
-        <v>223003</v>
+        <v>223006</v>
       </c>
       <c r="F130" s="2">
         <v>3332</v>
       </c>
       <c r="G130" s="4">
-        <v>0.062493844183</v>
+        <v>0.06267848350499999</v>
       </c>
     </row>
     <row r="131" spans="1:7">
@@ -3386,22 +3386,22 @@
         <v>44051</v>
       </c>
       <c r="B131" s="2">
-        <v>11516</v>
+        <v>11519</v>
       </c>
       <c r="C131" s="2">
         <v>121</v>
       </c>
       <c r="D131" s="3">
-        <v>183.142857142857</v>
+        <v>183.714285714285</v>
       </c>
       <c r="E131" s="2">
-        <v>224713</v>
+        <v>224716</v>
       </c>
       <c r="F131" s="2">
         <v>1710</v>
       </c>
       <c r="G131" s="4">
-        <v>0.063006831473</v>
+        <v>0.063190997985</v>
       </c>
     </row>
     <row r="132" spans="1:7">
@@ -3409,22 +3409,22 @@
         <v>44052</v>
       </c>
       <c r="B132" s="2">
-        <v>11601</v>
+        <v>11604</v>
       </c>
       <c r="C132" s="2">
         <v>85</v>
       </c>
       <c r="D132" s="3">
-        <v>184</v>
+        <v>184.571428571428</v>
       </c>
       <c r="E132" s="2">
-        <v>225778</v>
+        <v>225781</v>
       </c>
       <c r="F132" s="2">
         <v>1065</v>
       </c>
       <c r="G132" s="4">
-        <v>0.063564131668</v>
+        <v>0.06374895149699999</v>
       </c>
     </row>
     <row r="133" spans="1:7">
@@ -3432,22 +3432,22 @@
         <v>44053</v>
       </c>
       <c r="B133" s="2">
-        <v>11838</v>
+        <v>11841</v>
       </c>
       <c r="C133" s="2">
         <v>237</v>
       </c>
       <c r="D133" s="3">
-        <v>181.285714285714</v>
+        <v>181.857142857142</v>
       </c>
       <c r="E133" s="2">
-        <v>229683</v>
+        <v>229686</v>
       </c>
       <c r="F133" s="2">
         <v>3905</v>
       </c>
       <c r="G133" s="4">
-        <v>0.062543124691</v>
+        <v>0.062727899871</v>
       </c>
     </row>
     <row r="134" spans="1:7">
@@ -3455,22 +3455,22 @@
         <v>44054</v>
       </c>
       <c r="B134" s="2">
-        <v>12039</v>
+        <v>12043</v>
       </c>
       <c r="C134" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D134" s="3">
-        <v>175.857142857142</v>
+        <v>176.285714285714</v>
       </c>
       <c r="E134" s="2">
-        <v>233104</v>
+        <v>233108</v>
       </c>
       <c r="F134" s="2">
-        <v>3421</v>
+        <v>3422</v>
       </c>
       <c r="G134" s="4">
-        <v>0.060405319201</v>
+        <v>0.060543616916</v>
       </c>
     </row>
     <row r="135" spans="1:7">
@@ -3478,22 +3478,22 @@
         <v>44055</v>
       </c>
       <c r="B135" s="2">
-        <v>12239</v>
+        <v>12243</v>
       </c>
       <c r="C135" s="2">
         <v>200</v>
       </c>
       <c r="D135" s="3">
-        <v>175.571428571428</v>
+        <v>175.714285714285</v>
       </c>
       <c r="E135" s="2">
-        <v>236972</v>
+        <v>236976</v>
       </c>
       <c r="F135" s="2">
         <v>3868</v>
       </c>
       <c r="G135" s="4">
-        <v>0.058613124761</v>
+        <v>0.05865801898</v>
       </c>
     </row>
     <row r="136" spans="1:7">
@@ -3501,22 +3501,22 @@
         <v>44056</v>
       </c>
       <c r="B136" s="2">
-        <v>12414</v>
+        <v>12418</v>
       </c>
       <c r="C136" s="2">
         <v>175</v>
       </c>
       <c r="D136" s="3">
-        <v>172</v>
+        <v>172.142857142857</v>
       </c>
       <c r="E136" s="2">
-        <v>240242</v>
+        <v>240246</v>
       </c>
       <c r="F136" s="2">
         <v>3270</v>
       </c>
       <c r="G136" s="4">
-        <v>0.058528997131</v>
+        <v>0.058574761812</v>
       </c>
     </row>
     <row r="137" spans="1:7">
@@ -3524,22 +3524,22 @@
         <v>44057</v>
       </c>
       <c r="B137" s="2">
-        <v>12590</v>
+        <v>12594</v>
       </c>
       <c r="C137" s="2">
         <v>176</v>
       </c>
       <c r="D137" s="3">
-        <v>170.714285714285</v>
+        <v>170.857142857142</v>
       </c>
       <c r="E137" s="2">
-        <v>243606</v>
+        <v>243610</v>
       </c>
       <c r="F137" s="2">
         <v>3364</v>
       </c>
       <c r="G137" s="4">
-        <v>0.058001261952</v>
+        <v>0.058046981168</v>
       </c>
     </row>
     <row r="138" spans="1:7">
@@ -3547,22 +3547,22 @@
         <v>44058</v>
       </c>
       <c r="B138" s="2">
-        <v>12684</v>
+        <v>12688</v>
       </c>
       <c r="C138" s="2">
         <v>94</v>
       </c>
       <c r="D138" s="3">
-        <v>166.857142857142</v>
+        <v>167</v>
       </c>
       <c r="E138" s="2">
-        <v>245170</v>
+        <v>245174</v>
       </c>
       <c r="F138" s="2">
         <v>1564</v>
       </c>
       <c r="G138" s="4">
-        <v>0.057095370777</v>
+        <v>0.057141460553</v>
       </c>
     </row>
     <row r="139" spans="1:7">
@@ -3570,22 +3570,22 @@
         <v>44059</v>
       </c>
       <c r="B139" s="2">
-        <v>12729</v>
+        <v>12733</v>
       </c>
       <c r="C139" s="2">
         <v>45</v>
       </c>
       <c r="D139" s="3">
-        <v>161.142857142857</v>
+        <v>161.285714285714</v>
       </c>
       <c r="E139" s="2">
-        <v>245946</v>
+        <v>245950</v>
       </c>
       <c r="F139" s="2">
         <v>776</v>
       </c>
       <c r="G139" s="4">
-        <v>0.055930186433</v>
+        <v>0.055976994397</v>
       </c>
     </row>
     <row r="140" spans="1:7">
@@ -3593,22 +3593,22 @@
         <v>44060</v>
       </c>
       <c r="B140" s="2">
-        <v>12942</v>
+        <v>12946</v>
       </c>
       <c r="C140" s="2">
         <v>213</v>
       </c>
       <c r="D140" s="3">
-        <v>157.714285714285</v>
+        <v>157.857142857142</v>
       </c>
       <c r="E140" s="2">
-        <v>249612</v>
+        <v>249616</v>
       </c>
       <c r="F140" s="2">
         <v>3666</v>
       </c>
       <c r="G140" s="4">
-        <v>0.055396658136</v>
+        <v>0.055444054189</v>
       </c>
     </row>
     <row r="141" spans="1:7">
@@ -3616,7 +3616,7 @@
         <v>44061</v>
       </c>
       <c r="B141" s="2">
-        <v>13110</v>
+        <v>13114</v>
       </c>
       <c r="C141" s="2">
         <v>168</v>
@@ -3625,7 +3625,7 @@
         <v>153</v>
       </c>
       <c r="E141" s="2">
-        <v>252697</v>
+        <v>252701</v>
       </c>
       <c r="F141" s="2">
         <v>3085</v>
@@ -3639,7 +3639,7 @@
         <v>44062</v>
       </c>
       <c r="B142" s="2">
-        <v>13268</v>
+        <v>13272</v>
       </c>
       <c r="C142" s="2">
         <v>158</v>
@@ -3648,7 +3648,7 @@
         <v>147</v>
       </c>
       <c r="E142" s="2">
-        <v>255755</v>
+        <v>255759</v>
       </c>
       <c r="F142" s="2">
         <v>3058</v>
@@ -3662,7 +3662,7 @@
         <v>44063</v>
       </c>
       <c r="B143" s="2">
-        <v>13400</v>
+        <v>13404</v>
       </c>
       <c r="C143" s="2">
         <v>132</v>
@@ -3671,7 +3671,7 @@
         <v>140.857142857142</v>
       </c>
       <c r="E143" s="2">
-        <v>258925</v>
+        <v>258929</v>
       </c>
       <c r="F143" s="2">
         <v>3170</v>
@@ -3685,7 +3685,7 @@
         <v>44064</v>
       </c>
       <c r="B144" s="2">
-        <v>13562</v>
+        <v>13566</v>
       </c>
       <c r="C144" s="2">
         <v>162</v>
@@ -3694,7 +3694,7 @@
         <v>138.857142857142</v>
       </c>
       <c r="E144" s="2">
-        <v>261965</v>
+        <v>261969</v>
       </c>
       <c r="F144" s="2">
         <v>3040</v>
@@ -3708,7 +3708,7 @@
         <v>44065</v>
       </c>
       <c r="B145" s="2">
-        <v>13624</v>
+        <v>13628</v>
       </c>
       <c r="C145" s="2">
         <v>62</v>
@@ -3717,7 +3717,7 @@
         <v>134.285714285714</v>
       </c>
       <c r="E145" s="2">
-        <v>263295</v>
+        <v>263299</v>
       </c>
       <c r="F145" s="2">
         <v>1330</v>
@@ -3731,7 +3731,7 @@
         <v>44066</v>
       </c>
       <c r="B146" s="2">
-        <v>13692</v>
+        <v>13696</v>
       </c>
       <c r="C146" s="2">
         <v>68</v>
@@ -3740,7 +3740,7 @@
         <v>137.571428571428</v>
       </c>
       <c r="E146" s="2">
-        <v>264264</v>
+        <v>264268</v>
       </c>
       <c r="F146" s="2">
         <v>969</v>
@@ -3754,7 +3754,7 @@
         <v>44067</v>
       </c>
       <c r="B147" s="2">
-        <v>13842</v>
+        <v>13846</v>
       </c>
       <c r="C147" s="2">
         <v>150</v>
@@ -3763,7 +3763,7 @@
         <v>128.571428571428</v>
       </c>
       <c r="E147" s="2">
-        <v>267254</v>
+        <v>267258</v>
       </c>
       <c r="F147" s="2">
         <v>2990</v>
@@ -3777,7 +3777,7 @@
         <v>44068</v>
       </c>
       <c r="B148" s="2">
-        <v>13977</v>
+        <v>13981</v>
       </c>
       <c r="C148" s="2">
         <v>135</v>
@@ -3786,7 +3786,7 @@
         <v>123.857142857142</v>
       </c>
       <c r="E148" s="2">
-        <v>270281</v>
+        <v>270285</v>
       </c>
       <c r="F148" s="2">
         <v>3027</v>
@@ -3800,7 +3800,7 @@
         <v>44069</v>
       </c>
       <c r="B149" s="2">
-        <v>14112</v>
+        <v>14116</v>
       </c>
       <c r="C149" s="2">
         <v>135</v>
@@ -3809,7 +3809,7 @@
         <v>120.571428571428</v>
       </c>
       <c r="E149" s="2">
-        <v>273249</v>
+        <v>273253</v>
       </c>
       <c r="F149" s="2">
         <v>2968</v>
@@ -3823,22 +3823,22 @@
         <v>44070</v>
       </c>
       <c r="B150" s="2">
-        <v>14284</v>
+        <v>14289</v>
       </c>
       <c r="C150" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D150" s="3">
-        <v>126.285714285714</v>
+        <v>126.428571428571</v>
       </c>
       <c r="E150" s="2">
-        <v>276539</v>
+        <v>276545</v>
       </c>
       <c r="F150" s="2">
-        <v>3290</v>
+        <v>3292</v>
       </c>
       <c r="G150" s="4">
-        <v>0.05018735097</v>
+        <v>0.050238419618</v>
       </c>
     </row>
     <row r="151" spans="1:7">
@@ -3846,22 +3846,22 @@
         <v>44071</v>
       </c>
       <c r="B151" s="2">
-        <v>14400</v>
+        <v>14405</v>
       </c>
       <c r="C151" s="2">
         <v>116</v>
       </c>
       <c r="D151" s="3">
-        <v>119.714285714285</v>
+        <v>119.857142857142</v>
       </c>
       <c r="E151" s="2">
-        <v>279336</v>
+        <v>279342</v>
       </c>
       <c r="F151" s="2">
         <v>2797</v>
       </c>
       <c r="G151" s="4">
-        <v>0.048241321743</v>
+        <v>0.048293328728</v>
       </c>
     </row>
     <row r="152" spans="1:7">
@@ -3869,22 +3869,22 @@
         <v>44072</v>
       </c>
       <c r="B152" s="2">
-        <v>14464</v>
+        <v>14469</v>
       </c>
       <c r="C152" s="2">
         <v>64</v>
       </c>
       <c r="D152" s="3">
-        <v>120</v>
+        <v>120.142857142857</v>
       </c>
       <c r="E152" s="2">
-        <v>280779</v>
+        <v>280785</v>
       </c>
       <c r="F152" s="2">
         <v>1443</v>
       </c>
       <c r="G152" s="4">
-        <v>0.048043925875</v>
+        <v>0.048095619352</v>
       </c>
     </row>
     <row r="153" spans="1:7">
@@ -3892,22 +3892,22 @@
         <v>44073</v>
       </c>
       <c r="B153" s="2">
-        <v>14523</v>
+        <v>14528</v>
       </c>
       <c r="C153" s="2">
         <v>59</v>
       </c>
       <c r="D153" s="3">
-        <v>118.714285714285</v>
+        <v>118.857142857142</v>
       </c>
       <c r="E153" s="2">
-        <v>281863</v>
+        <v>281869</v>
       </c>
       <c r="F153" s="2">
         <v>1084</v>
       </c>
       <c r="G153" s="4">
-        <v>0.047218591965</v>
+        <v>0.047270041474</v>
       </c>
     </row>
     <row r="154" spans="1:7">
@@ -3915,22 +3915,22 @@
         <v>44074</v>
       </c>
       <c r="B154" s="2">
-        <v>14665</v>
+        <v>14669</v>
       </c>
       <c r="C154" s="2">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D154" s="3">
         <v>117.571428571428</v>
       </c>
       <c r="E154" s="2">
-        <v>285023</v>
+        <v>285031</v>
       </c>
       <c r="F154" s="2">
-        <v>3160</v>
+        <v>3162</v>
       </c>
       <c r="G154" s="4">
-        <v>0.04631661883</v>
+        <v>0.046306194789</v>
       </c>
     </row>
     <row r="155" spans="1:7">
@@ -3938,7 +3938,7 @@
         <v>44075</v>
       </c>
       <c r="B155" s="2">
-        <v>14798</v>
+        <v>14802</v>
       </c>
       <c r="C155" s="2">
         <v>133</v>
@@ -3947,13 +3947,13 @@
         <v>117.285714285714</v>
       </c>
       <c r="E155" s="2">
-        <v>288316</v>
+        <v>288325</v>
       </c>
       <c r="F155" s="2">
-        <v>3293</v>
+        <v>3294</v>
       </c>
       <c r="G155" s="4">
-        <v>0.045522594954</v>
+        <v>0.045509977827</v>
       </c>
     </row>
     <row r="156" spans="1:7">
@@ -3961,7 +3961,7 @@
         <v>44076</v>
       </c>
       <c r="B156" s="2">
-        <v>14915</v>
+        <v>14919</v>
       </c>
       <c r="C156" s="2">
         <v>117</v>
@@ -3970,13 +3970,13 @@
         <v>114.714285714285</v>
       </c>
       <c r="E156" s="2">
-        <v>291308</v>
+        <v>291317</v>
       </c>
       <c r="F156" s="2">
         <v>2992</v>
       </c>
       <c r="G156" s="4">
-        <v>0.04446536353</v>
+        <v>0.044453055801</v>
       </c>
     </row>
     <row r="157" spans="1:7">
@@ -3984,22 +3984,22 @@
         <v>44077</v>
       </c>
       <c r="B157" s="2">
-        <v>15010</v>
+        <v>15014</v>
       </c>
       <c r="C157" s="2">
         <v>95</v>
       </c>
       <c r="D157" s="3">
-        <v>103.714285714285</v>
+        <v>103.571428571428</v>
       </c>
       <c r="E157" s="2">
-        <v>294260</v>
+        <v>294270</v>
       </c>
       <c r="F157" s="2">
-        <v>2952</v>
+        <v>2953</v>
       </c>
       <c r="G157" s="4">
-        <v>0.040968342644</v>
+        <v>0.04090267983</v>
       </c>
     </row>
     <row r="158" spans="1:7">
@@ -4007,22 +4007,22 @@
         <v>44078</v>
       </c>
       <c r="B158" s="2">
-        <v>15132</v>
+        <v>15136</v>
       </c>
       <c r="C158" s="2">
         <v>122</v>
       </c>
       <c r="D158" s="3">
-        <v>104.571428571428</v>
+        <v>104.428571428571</v>
       </c>
       <c r="E158" s="2">
-        <v>297097</v>
+        <v>297109</v>
       </c>
       <c r="F158" s="2">
-        <v>2837</v>
+        <v>2839</v>
       </c>
       <c r="G158" s="4">
-        <v>0.041213895613</v>
+        <v>0.041143693364</v>
       </c>
     </row>
     <row r="159" spans="1:7">
@@ -4030,22 +4030,22 @@
         <v>44079</v>
       </c>
       <c r="B159" s="2">
-        <v>15198</v>
+        <v>15202</v>
       </c>
       <c r="C159" s="2">
         <v>66</v>
       </c>
       <c r="D159" s="3">
-        <v>104.857142857142</v>
+        <v>104.714285714285</v>
       </c>
       <c r="E159" s="2">
-        <v>298435</v>
+        <v>298447</v>
       </c>
       <c r="F159" s="2">
         <v>1338</v>
       </c>
       <c r="G159" s="4">
-        <v>0.041572270049</v>
+        <v>0.041501528705</v>
       </c>
     </row>
     <row r="160" spans="1:7">
@@ -4053,22 +4053,22 @@
         <v>44080</v>
       </c>
       <c r="B160" s="2">
-        <v>15251</v>
+        <v>15255</v>
       </c>
       <c r="C160" s="2">
         <v>53</v>
       </c>
       <c r="D160" s="3">
-        <v>104</v>
+        <v>103.857142857142</v>
       </c>
       <c r="E160" s="2">
-        <v>299522</v>
+        <v>299534</v>
       </c>
       <c r="F160" s="2">
         <v>1087</v>
       </c>
       <c r="G160" s="4">
-        <v>0.041225437453</v>
+        <v>0.041154825926</v>
       </c>
     </row>
     <row r="161" spans="1:7">
@@ -4076,7 +4076,7 @@
         <v>44081</v>
       </c>
       <c r="B161" s="2">
-        <v>15320</v>
+        <v>15324</v>
       </c>
       <c r="C161" s="2">
         <v>69</v>
@@ -4085,13 +4085,13 @@
         <v>93.571428571428</v>
       </c>
       <c r="E161" s="2">
-        <v>300780</v>
+        <v>300792</v>
       </c>
       <c r="F161" s="2">
         <v>1258</v>
       </c>
       <c r="G161" s="4">
-        <v>0.041568826553</v>
+        <v>0.041558276759</v>
       </c>
     </row>
     <row r="162" spans="1:7">
@@ -4099,7 +4099,7 @@
         <v>44082</v>
       </c>
       <c r="B162" s="2">
-        <v>15463</v>
+        <v>15467</v>
       </c>
       <c r="C162" s="2">
         <v>143</v>
@@ -4108,13 +4108,13 @@
         <v>95</v>
       </c>
       <c r="E162" s="2">
-        <v>305094</v>
+        <v>305106</v>
       </c>
       <c r="F162" s="2">
         <v>4314</v>
       </c>
       <c r="G162" s="4">
-        <v>0.039635236619</v>
+        <v>0.039628150884</v>
       </c>
     </row>
     <row r="163" spans="1:7">
@@ -4122,7 +4122,7 @@
         <v>44083</v>
       </c>
       <c r="B163" s="2">
-        <v>15614</v>
+        <v>15618</v>
       </c>
       <c r="C163" s="2">
         <v>151</v>
@@ -4131,13 +4131,13 @@
         <v>99.85714285714199</v>
       </c>
       <c r="E163" s="2">
-        <v>308630</v>
+        <v>308642</v>
       </c>
       <c r="F163" s="2">
         <v>3536</v>
       </c>
       <c r="G163" s="4">
-        <v>0.040353307932</v>
+        <v>0.040346320346</v>
       </c>
     </row>
     <row r="164" spans="1:7">
@@ -4145,7 +4145,7 @@
         <v>44084</v>
       </c>
       <c r="B164" s="2">
-        <v>15719</v>
+        <v>15723</v>
       </c>
       <c r="C164" s="2">
         <v>105</v>
@@ -4154,13 +4154,13 @@
         <v>101.285714285714</v>
       </c>
       <c r="E164" s="2">
-        <v>311938</v>
+        <v>311950</v>
       </c>
       <c r="F164" s="2">
         <v>3308</v>
       </c>
       <c r="G164" s="4">
-        <v>0.040106346871</v>
+        <v>0.040101809954</v>
       </c>
     </row>
     <row r="165" spans="1:7">
@@ -4168,7 +4168,7 @@
         <v>44085</v>
       </c>
       <c r="B165" s="2">
-        <v>15792</v>
+        <v>15796</v>
       </c>
       <c r="C165" s="2">
         <v>73</v>
@@ -4177,7 +4177,7 @@
         <v>94.28571428571399</v>
       </c>
       <c r="E165" s="2">
-        <v>314444</v>
+        <v>314456</v>
       </c>
       <c r="F165" s="2">
         <v>2506</v>
@@ -4191,7 +4191,7 @@
         <v>44086</v>
       </c>
       <c r="B166" s="2">
-        <v>15842</v>
+        <v>15846</v>
       </c>
       <c r="C166" s="2">
         <v>50</v>
@@ -4200,7 +4200,7 @@
         <v>92</v>
       </c>
       <c r="E166" s="2">
-        <v>315850</v>
+        <v>315862</v>
       </c>
       <c r="F166" s="2">
         <v>1406</v>
@@ -4214,7 +4214,7 @@
         <v>44087</v>
       </c>
       <c r="B167" s="2">
-        <v>15879</v>
+        <v>15883</v>
       </c>
       <c r="C167" s="2">
         <v>37</v>
@@ -4223,7 +4223,7 @@
         <v>89.714285714285</v>
       </c>
       <c r="E167" s="2">
-        <v>316702</v>
+        <v>316714</v>
       </c>
       <c r="F167" s="2">
         <v>852</v>
@@ -4237,7 +4237,7 @@
         <v>44088</v>
       </c>
       <c r="B168" s="2">
-        <v>15980</v>
+        <v>15984</v>
       </c>
       <c r="C168" s="2">
         <v>101</v>
@@ -4246,7 +4246,7 @@
         <v>94.28571428571399</v>
       </c>
       <c r="E168" s="2">
-        <v>320123</v>
+        <v>320135</v>
       </c>
       <c r="F168" s="2">
         <v>3421</v>
@@ -4260,7 +4260,7 @@
         <v>44089</v>
       </c>
       <c r="B169" s="2">
-        <v>16110</v>
+        <v>16114</v>
       </c>
       <c r="C169" s="2">
         <v>130</v>
@@ -4269,7 +4269,7 @@
         <v>92.428571428571</v>
       </c>
       <c r="E169" s="2">
-        <v>324123</v>
+        <v>324135</v>
       </c>
       <c r="F169" s="2">
         <v>4000</v>
@@ -4283,7 +4283,7 @@
         <v>44090</v>
       </c>
       <c r="B170" s="2">
-        <v>16197</v>
+        <v>16201</v>
       </c>
       <c r="C170" s="2">
         <v>87</v>
@@ -4292,7 +4292,7 @@
         <v>83.28571428571399</v>
       </c>
       <c r="E170" s="2">
-        <v>327448</v>
+        <v>327460</v>
       </c>
       <c r="F170" s="2">
         <v>3325</v>
@@ -4306,7 +4306,7 @@
         <v>44091</v>
       </c>
       <c r="B171" s="2">
-        <v>16301</v>
+        <v>16305</v>
       </c>
       <c r="C171" s="2">
         <v>104</v>
@@ -4315,7 +4315,7 @@
         <v>83.142857142857</v>
       </c>
       <c r="E171" s="2">
-        <v>331202</v>
+        <v>331214</v>
       </c>
       <c r="F171" s="2">
         <v>3754</v>
@@ -4329,7 +4329,7 @@
         <v>44092</v>
       </c>
       <c r="B172" s="2">
-        <v>16405</v>
+        <v>16409</v>
       </c>
       <c r="C172" s="2">
         <v>104</v>
@@ -4338,7 +4338,7 @@
         <v>87.571428571428</v>
       </c>
       <c r="E172" s="2">
-        <v>334479</v>
+        <v>334491</v>
       </c>
       <c r="F172" s="2">
         <v>3277</v>
@@ -4352,7 +4352,7 @@
         <v>44093</v>
       </c>
       <c r="B173" s="2">
-        <v>16477</v>
+        <v>16481</v>
       </c>
       <c r="C173" s="2">
         <v>72</v>
@@ -4361,7 +4361,7 @@
         <v>90.714285714285</v>
       </c>
       <c r="E173" s="2">
-        <v>336000</v>
+        <v>336012</v>
       </c>
       <c r="F173" s="2">
         <v>1521</v>
@@ -4375,7 +4375,7 @@
         <v>44094</v>
       </c>
       <c r="B174" s="2">
-        <v>16519</v>
+        <v>16523</v>
       </c>
       <c r="C174" s="2">
         <v>42</v>
@@ -4384,7 +4384,7 @@
         <v>91.428571428571</v>
       </c>
       <c r="E174" s="2">
-        <v>337156</v>
+        <v>337168</v>
       </c>
       <c r="F174" s="2">
         <v>1156</v>
@@ -4398,7 +4398,7 @@
         <v>44095</v>
       </c>
       <c r="B175" s="2">
-        <v>16663</v>
+        <v>16667</v>
       </c>
       <c r="C175" s="2">
         <v>144</v>
@@ -4407,13 +4407,13 @@
         <v>97.571428571428</v>
       </c>
       <c r="E175" s="2">
-        <v>341538</v>
+        <v>341557</v>
       </c>
       <c r="F175" s="2">
-        <v>4382</v>
+        <v>4389</v>
       </c>
       <c r="G175" s="4">
-        <v>0.03189353257</v>
+        <v>0.03188311082</v>
       </c>
     </row>
     <row r="176" spans="1:7">
@@ -4421,7 +4421,7 @@
         <v>44096</v>
       </c>
       <c r="B176" s="2">
-        <v>16761</v>
+        <v>16765</v>
       </c>
       <c r="C176" s="2">
         <v>98</v>
@@ -4430,13 +4430,13 @@
         <v>93</v>
       </c>
       <c r="E176" s="2">
-        <v>345335</v>
+        <v>345355</v>
       </c>
       <c r="F176" s="2">
-        <v>3797</v>
+        <v>3798</v>
       </c>
       <c r="G176" s="4">
-        <v>0.030690175372</v>
+        <v>0.030678605089</v>
       </c>
     </row>
     <row r="177" spans="1:7">
@@ -4444,7 +4444,7 @@
         <v>44097</v>
       </c>
       <c r="B177" s="2">
-        <v>16855</v>
+        <v>16859</v>
       </c>
       <c r="C177" s="2">
         <v>94</v>
@@ -4453,13 +4453,13 @@
         <v>94</v>
       </c>
       <c r="E177" s="2">
-        <v>348849</v>
+        <v>348869</v>
       </c>
       <c r="F177" s="2">
         <v>3514</v>
       </c>
       <c r="G177" s="4">
-        <v>0.030746226811</v>
+        <v>0.030734737727</v>
       </c>
     </row>
     <row r="178" spans="1:7">
@@ -4467,7 +4467,7 @@
         <v>44098</v>
       </c>
       <c r="B178" s="2">
-        <v>16946</v>
+        <v>16950</v>
       </c>
       <c r="C178" s="2">
         <v>91</v>
@@ -4476,13 +4476,13 @@
         <v>92.142857142857</v>
       </c>
       <c r="E178" s="2">
-        <v>352593</v>
+        <v>352613</v>
       </c>
       <c r="F178" s="2">
         <v>3744</v>
       </c>
       <c r="G178" s="4">
-        <v>0.030152868028</v>
+        <v>0.030141595401</v>
       </c>
     </row>
     <row r="179" spans="1:7">
@@ -4490,7 +4490,7 @@
         <v>44099</v>
       </c>
       <c r="B179" s="2">
-        <v>17035</v>
+        <v>17039</v>
       </c>
       <c r="C179" s="2">
         <v>89</v>
@@ -4499,13 +4499,13 @@
         <v>90</v>
       </c>
       <c r="E179" s="2">
-        <v>355911</v>
+        <v>355931</v>
       </c>
       <c r="F179" s="2">
         <v>3318</v>
       </c>
       <c r="G179" s="4">
-        <v>0.029395296752</v>
+        <v>0.029384328358</v>
       </c>
     </row>
     <row r="180" spans="1:7">
@@ -4513,22 +4513,22 @@
         <v>44100</v>
       </c>
       <c r="B180" s="2">
-        <v>17094</v>
+        <v>17097</v>
       </c>
       <c r="C180" s="2">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D180" s="3">
-        <v>88.142857142857</v>
+        <v>88</v>
       </c>
       <c r="E180" s="2">
-        <v>357784</v>
+        <v>357803</v>
       </c>
       <c r="F180" s="2">
-        <v>1873</v>
+        <v>1872</v>
       </c>
       <c r="G180" s="4">
-        <v>0.028323540213</v>
+        <v>0.028268551236</v>
       </c>
     </row>
     <row r="181" spans="1:7">
@@ -4536,22 +4536,22 @@
         <v>44101</v>
       </c>
       <c r="B181" s="2">
-        <v>17118</v>
+        <v>17121</v>
       </c>
       <c r="C181" s="2">
         <v>24</v>
       </c>
       <c r="D181" s="3">
-        <v>85.571428571428</v>
+        <v>85.428571428571</v>
       </c>
       <c r="E181" s="2">
-        <v>358914</v>
+        <v>358933</v>
       </c>
       <c r="F181" s="2">
         <v>1130</v>
       </c>
       <c r="G181" s="4">
-        <v>0.027530103869</v>
+        <v>0.027475304387</v>
       </c>
     </row>
     <row r="182" spans="1:7">
@@ -4559,22 +4559,22 @@
         <v>44102</v>
       </c>
       <c r="B182" s="2">
-        <v>17231</v>
+        <v>17234</v>
       </c>
       <c r="C182" s="2">
         <v>113</v>
       </c>
       <c r="D182" s="3">
-        <v>81.142857142857</v>
+        <v>81</v>
       </c>
       <c r="E182" s="2">
-        <v>363021</v>
+        <v>363043</v>
       </c>
       <c r="F182" s="2">
-        <v>4107</v>
+        <v>4110</v>
       </c>
       <c r="G182" s="4">
-        <v>0.02643951031</v>
+        <v>0.026389276738</v>
       </c>
     </row>
     <row r="183" spans="1:7">
@@ -4582,22 +4582,22 @@
         <v>44103</v>
       </c>
       <c r="B183" s="2">
-        <v>17306</v>
+        <v>17309</v>
       </c>
       <c r="C183" s="2">
         <v>75</v>
       </c>
       <c r="D183" s="3">
-        <v>77.85714285714199</v>
+        <v>77.714285714285</v>
       </c>
       <c r="E183" s="2">
-        <v>366865</v>
+        <v>366888</v>
       </c>
       <c r="F183" s="2">
-        <v>3844</v>
+        <v>3845</v>
       </c>
       <c r="G183" s="4">
-        <v>0.025313516024</v>
+        <v>0.025263548971</v>
       </c>
     </row>
     <row r="184" spans="1:7">
@@ -4605,22 +4605,22 @@
         <v>44104</v>
       </c>
       <c r="B184" s="2">
-        <v>17366</v>
+        <v>17369</v>
       </c>
       <c r="C184" s="2">
         <v>60</v>
       </c>
       <c r="D184" s="3">
-        <v>73</v>
+        <v>72.85714285714199</v>
       </c>
       <c r="E184" s="2">
-        <v>370425</v>
+        <v>370449</v>
       </c>
       <c r="F184" s="2">
-        <v>3560</v>
+        <v>3561</v>
       </c>
       <c r="G184" s="4">
-        <v>0.023683722654</v>
+        <v>0.023632993512</v>
       </c>
     </row>
     <row r="185" spans="1:7">
@@ -4628,22 +4628,22 @@
         <v>44105</v>
       </c>
       <c r="B185" s="2">
-        <v>17431</v>
+        <v>17434</v>
       </c>
       <c r="C185" s="2">
         <v>65</v>
       </c>
       <c r="D185" s="3">
-        <v>69.28571428571399</v>
+        <v>69.142857142857</v>
       </c>
       <c r="E185" s="2">
-        <v>373952</v>
+        <v>373976</v>
       </c>
       <c r="F185" s="2">
         <v>3527</v>
       </c>
       <c r="G185" s="4">
-        <v>0.022707055573</v>
+        <v>0.022655994008</v>
       </c>
     </row>
     <row r="186" spans="1:7">
@@ -4651,22 +4651,22 @@
         <v>44106</v>
       </c>
       <c r="B186" s="2">
-        <v>17507</v>
+        <v>17510</v>
       </c>
       <c r="C186" s="2">
         <v>76</v>
       </c>
       <c r="D186" s="3">
-        <v>67.428571428571</v>
+        <v>67.28571428571399</v>
       </c>
       <c r="E186" s="2">
-        <v>377497</v>
+        <v>377521</v>
       </c>
       <c r="F186" s="2">
         <v>3545</v>
       </c>
       <c r="G186" s="4">
-        <v>0.021866024274</v>
+        <v>0.021815655396</v>
       </c>
     </row>
     <row r="187" spans="1:7">
@@ -4674,7 +4674,7 @@
         <v>44107</v>
       </c>
       <c r="B187" s="2">
-        <v>17550</v>
+        <v>17553</v>
       </c>
       <c r="C187" s="2">
         <v>43</v>
@@ -4683,13 +4683,13 @@
         <v>65.142857142857</v>
       </c>
       <c r="E187" s="2">
-        <v>379493</v>
+        <v>379517</v>
       </c>
       <c r="F187" s="2">
         <v>1996</v>
       </c>
       <c r="G187" s="4">
-        <v>0.021005113086</v>
+        <v>0.021000276319</v>
       </c>
     </row>
     <row r="188" spans="1:7">
@@ -4697,7 +4697,7 @@
         <v>44108</v>
       </c>
       <c r="B188" s="2">
-        <v>17587</v>
+        <v>17590</v>
       </c>
       <c r="C188" s="2">
         <v>37</v>
@@ -4706,13 +4706,13 @@
         <v>67</v>
       </c>
       <c r="E188" s="2">
-        <v>380878</v>
+        <v>380902</v>
       </c>
       <c r="F188" s="2">
         <v>1385</v>
       </c>
       <c r="G188" s="4">
-        <v>0.021353123292</v>
+        <v>0.021348263462</v>
       </c>
     </row>
     <row r="189" spans="1:7">
@@ -4720,7 +4720,7 @@
         <v>44109</v>
       </c>
       <c r="B189" s="2">
-        <v>17664</v>
+        <v>17667</v>
       </c>
       <c r="C189" s="2">
         <v>77</v>
@@ -4729,13 +4729,13 @@
         <v>61.857142857142</v>
       </c>
       <c r="E189" s="2">
-        <v>385688</v>
+        <v>385712</v>
       </c>
       <c r="F189" s="2">
         <v>4810</v>
       </c>
       <c r="G189" s="4">
-        <v>0.019102660254</v>
+        <v>0.019100974899</v>
       </c>
     </row>
     <row r="190" spans="1:7">
@@ -4743,7 +4743,7 @@
         <v>44110</v>
       </c>
       <c r="B190" s="2">
-        <v>17727</v>
+        <v>17730</v>
       </c>
       <c r="C190" s="2">
         <v>63</v>
@@ -4752,13 +4752,13 @@
         <v>60.142857142857</v>
       </c>
       <c r="E190" s="2">
-        <v>390351</v>
+        <v>390375</v>
       </c>
       <c r="F190" s="2">
         <v>4663</v>
       </c>
       <c r="G190" s="4">
-        <v>0.017925572681</v>
+        <v>0.017924809469</v>
       </c>
     </row>
     <row r="191" spans="1:7">
@@ -4766,7 +4766,7 @@
         <v>44111</v>
       </c>
       <c r="B191" s="2">
-        <v>17803</v>
+        <v>17806</v>
       </c>
       <c r="C191" s="2">
         <v>76</v>
@@ -4775,13 +4775,13 @@
         <v>62.428571428571</v>
       </c>
       <c r="E191" s="2">
-        <v>394544</v>
+        <v>394569</v>
       </c>
       <c r="F191" s="2">
-        <v>4193</v>
+        <v>4194</v>
       </c>
       <c r="G191" s="4">
-        <v>0.018118495791</v>
+        <v>0.01811774461</v>
       </c>
     </row>
     <row r="192" spans="1:7">
@@ -4789,22 +4789,22 @@
         <v>44112</v>
       </c>
       <c r="B192" s="2">
-        <v>17897</v>
+        <v>17901</v>
       </c>
       <c r="C192" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D192" s="3">
-        <v>66.571428571428</v>
+        <v>66.714285714285</v>
       </c>
       <c r="E192" s="2">
-        <v>398799</v>
+        <v>398825</v>
       </c>
       <c r="F192" s="2">
-        <v>4255</v>
+        <v>4256</v>
       </c>
       <c r="G192" s="4">
-        <v>0.018754779249</v>
+        <v>0.018793512817</v>
       </c>
     </row>
     <row r="193" spans="1:7">
@@ -4812,22 +4812,22 @@
         <v>44113</v>
       </c>
       <c r="B193" s="2">
-        <v>17955</v>
+        <v>17959</v>
       </c>
       <c r="C193" s="2">
         <v>58</v>
       </c>
       <c r="D193" s="3">
-        <v>64</v>
+        <v>64.142857142857</v>
       </c>
       <c r="E193" s="2">
-        <v>402584</v>
+        <v>402610</v>
       </c>
       <c r="F193" s="2">
         <v>3785</v>
       </c>
       <c r="G193" s="4">
-        <v>0.017857854665</v>
+        <v>0.01789628921</v>
       </c>
     </row>
     <row r="194" spans="1:7">
@@ -4835,22 +4835,22 @@
         <v>44114</v>
       </c>
       <c r="B194" s="2">
-        <v>17996</v>
+        <v>18000</v>
       </c>
       <c r="C194" s="2">
         <v>41</v>
       </c>
       <c r="D194" s="3">
-        <v>63.71428571428499</v>
+        <v>63.857142857142</v>
       </c>
       <c r="E194" s="2">
-        <v>404379</v>
+        <v>404404</v>
       </c>
       <c r="F194" s="2">
-        <v>1795</v>
+        <v>1794</v>
       </c>
       <c r="G194" s="4">
-        <v>0.017921723057</v>
+        <v>0.017961184554</v>
       </c>
     </row>
     <row r="195" spans="1:7">
@@ -4858,22 +4858,22 @@
         <v>44115</v>
       </c>
       <c r="B195" s="2">
-        <v>18020</v>
+        <v>18024</v>
       </c>
       <c r="C195" s="2">
         <v>24</v>
       </c>
       <c r="D195" s="3">
-        <v>61.857142857142</v>
+        <v>62</v>
       </c>
       <c r="E195" s="2">
-        <v>405713</v>
+        <v>405738</v>
       </c>
       <c r="F195" s="2">
         <v>1334</v>
       </c>
       <c r="G195" s="4">
-        <v>0.017435071471</v>
+        <v>0.017474633596</v>
       </c>
     </row>
     <row r="196" spans="1:7">
@@ -4881,22 +4881,22 @@
         <v>44116</v>
       </c>
       <c r="B196" s="2">
-        <v>18112</v>
+        <v>18117</v>
       </c>
       <c r="C196" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D196" s="3">
-        <v>64</v>
+        <v>64.28571428571399</v>
       </c>
       <c r="E196" s="2">
-        <v>410248</v>
+        <v>410274</v>
       </c>
       <c r="F196" s="2">
-        <v>4535</v>
+        <v>4536</v>
       </c>
       <c r="G196" s="4">
-        <v>0.018241042345</v>
+        <v>0.018320983633</v>
       </c>
     </row>
     <row r="197" spans="1:7">
@@ -4904,22 +4904,22 @@
         <v>44117</v>
       </c>
       <c r="B197" s="2">
-        <v>18202</v>
+        <v>18207</v>
       </c>
       <c r="C197" s="2">
         <v>90</v>
       </c>
       <c r="D197" s="3">
-        <v>67.85714285714199</v>
+        <v>68.142857142857</v>
       </c>
       <c r="E197" s="2">
-        <v>414771</v>
+        <v>414798</v>
       </c>
       <c r="F197" s="2">
-        <v>4523</v>
+        <v>4524</v>
       </c>
       <c r="G197" s="4">
-        <v>0.019451269451</v>
+        <v>0.019530770175</v>
       </c>
     </row>
     <row r="198" spans="1:7">
@@ -4927,22 +4927,22 @@
         <v>44118</v>
       </c>
       <c r="B198" s="2">
-        <v>18272</v>
+        <v>18277</v>
       </c>
       <c r="C198" s="2">
         <v>70</v>
       </c>
       <c r="D198" s="3">
-        <v>67</v>
+        <v>67.28571428571399</v>
       </c>
       <c r="E198" s="2">
-        <v>419001</v>
+        <v>419027</v>
       </c>
       <c r="F198" s="2">
-        <v>4230</v>
+        <v>4229</v>
       </c>
       <c r="G198" s="4">
-        <v>0.019176513881</v>
+        <v>0.019257502657</v>
       </c>
     </row>
     <row r="199" spans="1:7">
@@ -4950,16 +4950,16 @@
         <v>44119</v>
       </c>
       <c r="B199" s="2">
-        <v>18323</v>
+        <v>18327</v>
       </c>
       <c r="C199" s="2">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D199" s="3">
         <v>60.857142857142</v>
       </c>
       <c r="E199" s="2">
-        <v>423013</v>
+        <v>423039</v>
       </c>
       <c r="F199" s="2">
         <v>4012</v>
@@ -4973,7 +4973,7 @@
         <v>44120</v>
       </c>
       <c r="B200" s="2">
-        <v>18381</v>
+        <v>18385</v>
       </c>
       <c r="C200" s="2">
         <v>58</v>
@@ -4982,7 +4982,7 @@
         <v>60.857142857142</v>
       </c>
       <c r="E200" s="2">
-        <v>427008</v>
+        <v>427034</v>
       </c>
       <c r="F200" s="2">
         <v>3995</v>
@@ -4996,7 +4996,7 @@
         <v>44121</v>
       </c>
       <c r="B201" s="2">
-        <v>18427</v>
+        <v>18431</v>
       </c>
       <c r="C201" s="2">
         <v>46</v>
@@ -5005,13 +5005,13 @@
         <v>61.57142857142801</v>
       </c>
       <c r="E201" s="2">
-        <v>428912</v>
+        <v>428938</v>
       </c>
       <c r="F201" s="2">
         <v>1904</v>
       </c>
       <c r="G201" s="4">
-        <v>0.01756817348</v>
+        <v>0.017567457406</v>
       </c>
     </row>
     <row r="202" spans="1:7">
@@ -5019,7 +5019,7 @@
         <v>44122</v>
       </c>
       <c r="B202" s="2">
-        <v>18463</v>
+        <v>18467</v>
       </c>
       <c r="C202" s="2">
         <v>36</v>
@@ -5028,13 +5028,13 @@
         <v>63.28571428571399</v>
       </c>
       <c r="E202" s="2">
-        <v>430292</v>
+        <v>430318</v>
       </c>
       <c r="F202" s="2">
         <v>1380</v>
       </c>
       <c r="G202" s="4">
-        <v>0.018023516009</v>
+        <v>0.01802278275</v>
       </c>
     </row>
     <row r="203" spans="1:7">
@@ -5042,22 +5042,22 @@
         <v>44123</v>
       </c>
       <c r="B203" s="2">
-        <v>18552</v>
+        <v>18556</v>
       </c>
       <c r="C203" s="2">
         <v>89</v>
       </c>
       <c r="D203" s="3">
-        <v>62.857142857142</v>
+        <v>62.71428571428499</v>
       </c>
       <c r="E203" s="2">
-        <v>435126</v>
+        <v>435151</v>
       </c>
       <c r="F203" s="2">
-        <v>4834</v>
+        <v>4833</v>
       </c>
       <c r="G203" s="4">
-        <v>0.017686309188</v>
+        <v>0.017646822366</v>
       </c>
     </row>
     <row r="204" spans="1:7">
@@ -5065,22 +5065,22 @@
         <v>44124</v>
       </c>
       <c r="B204" s="2">
-        <v>18649</v>
+        <v>18653</v>
       </c>
       <c r="C204" s="2">
         <v>97</v>
       </c>
       <c r="D204" s="3">
-        <v>63.857142857142</v>
+        <v>63.71428571428499</v>
       </c>
       <c r="E204" s="2">
-        <v>439919</v>
+        <v>439944</v>
       </c>
       <c r="F204" s="2">
         <v>4793</v>
       </c>
       <c r="G204" s="4">
-        <v>0.017774773341</v>
+        <v>0.017736419311</v>
       </c>
     </row>
     <row r="205" spans="1:7">
@@ -5088,22 +5088,22 @@
         <v>44125</v>
       </c>
       <c r="B205" s="2">
-        <v>18732</v>
+        <v>18736</v>
       </c>
       <c r="C205" s="2">
         <v>83</v>
       </c>
       <c r="D205" s="3">
-        <v>65.714285714285</v>
+        <v>65.571428571428</v>
       </c>
       <c r="E205" s="2">
-        <v>444262</v>
+        <v>444288</v>
       </c>
       <c r="F205" s="2">
-        <v>4343</v>
+        <v>4344</v>
       </c>
       <c r="G205" s="4">
-        <v>0.018209888761</v>
+        <v>0.018170302046</v>
       </c>
     </row>
     <row r="206" spans="1:7">
@@ -5111,7 +5111,7 @@
         <v>44126</v>
       </c>
       <c r="B206" s="2">
-        <v>18794</v>
+        <v>18798</v>
       </c>
       <c r="C206" s="2">
         <v>62</v>
@@ -5120,13 +5120,13 @@
         <v>67.28571428571399</v>
       </c>
       <c r="E206" s="2">
-        <v>448198</v>
+        <v>448227</v>
       </c>
       <c r="F206" s="2">
-        <v>3936</v>
+        <v>3939</v>
       </c>
       <c r="G206" s="4">
-        <v>0.0187016081</v>
+        <v>0.018699380657</v>
       </c>
     </row>
     <row r="207" spans="1:7">
@@ -5134,7 +5134,7 @@
         <v>44127</v>
       </c>
       <c r="B207" s="2">
-        <v>18877</v>
+        <v>18881</v>
       </c>
       <c r="C207" s="2">
         <v>83</v>
@@ -5143,13 +5143,13 @@
         <v>70.85714285714199</v>
       </c>
       <c r="E207" s="2">
-        <v>452015</v>
+        <v>452045</v>
       </c>
       <c r="F207" s="2">
-        <v>3817</v>
+        <v>3818</v>
       </c>
       <c r="G207" s="4">
-        <v>0.019834446355</v>
+        <v>0.019831274239</v>
       </c>
     </row>
     <row r="208" spans="1:7">
@@ -5157,7 +5157,7 @@
         <v>44128</v>
       </c>
       <c r="B208" s="2">
-        <v>18933</v>
+        <v>18937</v>
       </c>
       <c r="C208" s="2">
         <v>56</v>
@@ -5166,13 +5166,13 @@
         <v>72.28571428571399</v>
       </c>
       <c r="E208" s="2">
-        <v>453966</v>
+        <v>453996</v>
       </c>
       <c r="F208" s="2">
         <v>1951</v>
       </c>
       <c r="G208" s="4">
-        <v>0.020196375828</v>
+        <v>0.020193151887</v>
       </c>
     </row>
     <row r="209" spans="1:7">
@@ -5180,7 +5180,7 @@
         <v>44129</v>
       </c>
       <c r="B209" s="2">
-        <v>18972</v>
+        <v>18976</v>
       </c>
       <c r="C209" s="2">
         <v>39</v>
@@ -5189,13 +5189,13 @@
         <v>72.714285714285</v>
       </c>
       <c r="E209" s="2">
-        <v>455570</v>
+        <v>455601</v>
       </c>
       <c r="F209" s="2">
-        <v>1604</v>
+        <v>1605</v>
       </c>
       <c r="G209" s="4">
-        <v>0.020136086715</v>
+        <v>0.020132104576</v>
       </c>
     </row>
     <row r="210" spans="1:7">
@@ -5203,7 +5203,7 @@
         <v>44130</v>
       </c>
       <c r="B210" s="2">
-        <v>19086</v>
+        <v>19090</v>
       </c>
       <c r="C210" s="2">
         <v>114</v>
@@ -5212,13 +5212,13 @@
         <v>76.28571428571399</v>
       </c>
       <c r="E210" s="2">
-        <v>460486</v>
+        <v>460519</v>
       </c>
       <c r="F210" s="2">
-        <v>4916</v>
+        <v>4918</v>
       </c>
       <c r="G210" s="4">
-        <v>0.021056782334</v>
+        <v>0.021050141911</v>
       </c>
     </row>
     <row r="211" spans="1:7">
@@ -5226,7 +5226,7 @@
         <v>44131</v>
       </c>
       <c r="B211" s="2">
-        <v>19191</v>
+        <v>19195</v>
       </c>
       <c r="C211" s="2">
         <v>105</v>
@@ -5235,13 +5235,13 @@
         <v>77.428571428571</v>
       </c>
       <c r="E211" s="2">
-        <v>465679</v>
+        <v>465712</v>
       </c>
       <c r="F211" s="2">
         <v>5193</v>
       </c>
       <c r="G211" s="4">
-        <v>0.02104037267</v>
+        <v>0.021033840422</v>
       </c>
     </row>
     <row r="212" spans="1:7">
@@ -5249,22 +5249,22 @@
         <v>44132</v>
       </c>
       <c r="B212" s="2">
-        <v>19289</v>
+        <v>19292</v>
       </c>
       <c r="C212" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D212" s="3">
-        <v>79.571428571428</v>
+        <v>79.428571428571</v>
       </c>
       <c r="E212" s="2">
-        <v>470212</v>
+        <v>470245</v>
       </c>
       <c r="F212" s="2">
         <v>4533</v>
       </c>
       <c r="G212" s="4">
-        <v>0.021464354527</v>
+        <v>0.021420040836</v>
       </c>
     </row>
     <row r="213" spans="1:7">
@@ -5272,22 +5272,22 @@
         <v>44133</v>
       </c>
       <c r="B213" s="2">
-        <v>19384</v>
+        <v>19388</v>
       </c>
       <c r="C213" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D213" s="3">
         <v>84.28571428571399</v>
       </c>
       <c r="E213" s="2">
-        <v>474629</v>
+        <v>474693</v>
       </c>
       <c r="F213" s="2">
-        <v>4417</v>
+        <v>4448</v>
       </c>
       <c r="G213" s="4">
-        <v>0.022322273088</v>
+        <v>0.022292752966</v>
       </c>
     </row>
     <row r="214" spans="1:7">
@@ -5295,7 +5295,7 @@
         <v>44134</v>
       </c>
       <c r="B214" s="2">
-        <v>19459</v>
+        <v>19463</v>
       </c>
       <c r="C214" s="2">
         <v>75</v>
@@ -5304,13 +5304,13 @@
         <v>83.142857142857</v>
       </c>
       <c r="E214" s="2">
-        <v>479234</v>
+        <v>479318</v>
       </c>
       <c r="F214" s="2">
-        <v>4605</v>
+        <v>4625</v>
       </c>
       <c r="G214" s="4">
-        <v>0.021382122781</v>
+        <v>0.021339786602</v>
       </c>
     </row>
     <row r="215" spans="1:7">
@@ -5318,7 +5318,7 @@
         <v>44135</v>
       </c>
       <c r="B215" s="2">
-        <v>19512</v>
+        <v>19516</v>
       </c>
       <c r="C215" s="2">
         <v>53</v>
@@ -5327,13 +5327,13 @@
         <v>82.714285714285</v>
       </c>
       <c r="E215" s="2">
-        <v>481210</v>
+        <v>481296</v>
       </c>
       <c r="F215" s="2">
-        <v>1976</v>
+        <v>1978</v>
       </c>
       <c r="G215" s="4">
-        <v>0.021252385846</v>
+        <v>0.021208791208</v>
       </c>
     </row>
     <row r="216" spans="1:7">
@@ -5341,7 +5341,7 @@
         <v>44136</v>
       </c>
       <c r="B216" s="2">
-        <v>19571</v>
+        <v>19575</v>
       </c>
       <c r="C216" s="2">
         <v>59</v>
@@ -5350,13 +5350,13 @@
         <v>85.571428571428</v>
       </c>
       <c r="E216" s="2">
-        <v>482976</v>
+        <v>483066</v>
       </c>
       <c r="F216" s="2">
-        <v>1766</v>
+        <v>1770</v>
       </c>
       <c r="G216" s="4">
-        <v>0.021856527767</v>
+        <v>0.021809575823</v>
       </c>
     </row>
     <row r="217" spans="1:7">
@@ -5364,7 +5364,7 @@
         <v>44137</v>
       </c>
       <c r="B217" s="2">
-        <v>19728</v>
+        <v>19732</v>
       </c>
       <c r="C217" s="2">
         <v>157</v>
@@ -5373,13 +5373,36 @@
         <v>91.714285714285</v>
       </c>
       <c r="E217" s="2">
-        <v>488541</v>
+        <v>488667</v>
       </c>
       <c r="F217" s="2">
-        <v>5565</v>
+        <v>5601</v>
       </c>
       <c r="G217" s="4">
-        <v>0.022883621457</v>
+        <v>0.022808014779</v>
+      </c>
+    </row>
+    <row r="218" spans="1:7">
+      <c r="A218" s="1">
+        <v>44138</v>
+      </c>
+      <c r="B218" s="2">
+        <v>19861</v>
+      </c>
+      <c r="C218" s="2">
+        <v>129</v>
+      </c>
+      <c r="D218" s="3">
+        <v>95.142857142857</v>
+      </c>
+      <c r="E218" s="2">
+        <v>493693</v>
+      </c>
+      <c r="F218" s="2">
+        <v>5026</v>
+      </c>
+      <c r="G218" s="4">
+        <v>0.023801865551</v>
       </c>
     </row>
   </sheetData>

--- a/contra_costa_county_testing.xlsx
+++ b/contra_costa_county_testing.xlsx
@@ -376,7 +376,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G218"/>
+  <dimension ref="A1:G223"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -428,13 +428,13 @@
         <v>21.285714285714</v>
       </c>
       <c r="E2" s="2">
-        <v>5659</v>
+        <v>5779</v>
       </c>
       <c r="F2" s="2">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="G2" s="4">
-        <v>0.06803652968</v>
+        <v>0.067390321121</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -451,13 +451,13 @@
         <v>24.571428571428</v>
       </c>
       <c r="E3" s="2">
-        <v>6026</v>
+        <v>6149</v>
       </c>
       <c r="F3" s="2">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="G3" s="4">
-        <v>0.07977736549099999</v>
+        <v>0.078935291418</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -474,13 +474,13 @@
         <v>27</v>
       </c>
       <c r="E4" s="2">
-        <v>6460</v>
+        <v>6584</v>
       </c>
       <c r="F4" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="G4" s="4">
-        <v>0.08626198083</v>
+        <v>0.08536585365799999</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -497,13 +497,13 @@
         <v>27.857142857142</v>
       </c>
       <c r="E5" s="2">
-        <v>6647</v>
+        <v>6772</v>
       </c>
       <c r="F5" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="G5" s="4">
-        <v>0.08875739644900001</v>
+        <v>0.08795669824000001</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -520,13 +520,13 @@
         <v>27.857142857142</v>
       </c>
       <c r="E6" s="2">
-        <v>6814</v>
+        <v>6945</v>
       </c>
       <c r="F6" s="2">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="G6" s="4">
-        <v>0.088797814207</v>
+        <v>0.087877422262</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -543,13 +543,13 @@
         <v>26.857142857142</v>
       </c>
       <c r="E7" s="2">
-        <v>7189</v>
+        <v>7320</v>
       </c>
       <c r="F7" s="2">
         <v>375</v>
       </c>
       <c r="G7" s="4">
-        <v>0.085029398462</v>
+        <v>0.08441850022400001</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -566,13 +566,13 @@
         <v>28.142857142857</v>
       </c>
       <c r="E8" s="2">
-        <v>7577</v>
+        <v>7709</v>
       </c>
       <c r="F8" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="G8" s="4">
-        <v>0.08763345195699999</v>
+        <v>0.087052585064</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -589,13 +589,13 @@
         <v>27.571428571428</v>
       </c>
       <c r="E9" s="2">
-        <v>7921</v>
+        <v>8054</v>
       </c>
       <c r="F9" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="G9" s="4">
-        <v>0.085322723253</v>
+        <v>0.084835164835</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -612,13 +612,13 @@
         <v>24</v>
       </c>
       <c r="E10" s="2">
-        <v>8245</v>
+        <v>8378</v>
       </c>
       <c r="F10" s="2">
         <v>324</v>
       </c>
       <c r="G10" s="4">
-        <v>0.075709779179</v>
+        <v>0.07537012113</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -635,13 +635,13 @@
         <v>25.857142857142</v>
       </c>
       <c r="E11" s="2">
-        <v>8722</v>
+        <v>8857</v>
       </c>
       <c r="F11" s="2">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="G11" s="4">
-        <v>0.080017683465</v>
+        <v>0.079630444346</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -658,13 +658,13 @@
         <v>24.428571428571</v>
       </c>
       <c r="E12" s="2">
-        <v>8901</v>
+        <v>9039</v>
       </c>
       <c r="F12" s="2">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="G12" s="4">
-        <v>0.07586512866</v>
+        <v>0.075430083811</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -681,13 +681,13 @@
         <v>23.285714285714</v>
       </c>
       <c r="E13" s="2">
-        <v>9016</v>
+        <v>9155</v>
       </c>
       <c r="F13" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="G13" s="4">
-        <v>0.07402361489500001</v>
+        <v>0.073755656108</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -704,13 +704,13 @@
         <v>23.428571428571</v>
       </c>
       <c r="E14" s="2">
-        <v>9373</v>
+        <v>9514</v>
       </c>
       <c r="F14" s="2">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="G14" s="4">
-        <v>0.07509157509100001</v>
+        <v>0.07474931631700001</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -727,13 +727,13 @@
         <v>20.714285714285</v>
       </c>
       <c r="E15" s="2">
-        <v>9694</v>
+        <v>9853</v>
       </c>
       <c r="F15" s="2">
-        <v>321</v>
+        <v>339</v>
       </c>
       <c r="G15" s="4">
-        <v>0.068493150684</v>
+        <v>0.067630597014</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -750,13 +750,13 @@
         <v>21.857142857142</v>
       </c>
       <c r="E16" s="2">
-        <v>10045</v>
+        <v>10205</v>
       </c>
       <c r="F16" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="G16" s="4">
-        <v>0.072033898305</v>
+        <v>0.07112970711200001</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -773,13 +773,13 @@
         <v>22.428571428571</v>
       </c>
       <c r="E17" s="2">
-        <v>10428</v>
+        <v>10590</v>
       </c>
       <c r="F17" s="2">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="G17" s="4">
-        <v>0.071919377004</v>
+        <v>0.070976491862</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -796,13 +796,13 @@
         <v>17.428571428571</v>
       </c>
       <c r="E18" s="2">
-        <v>10774</v>
+        <v>10939</v>
       </c>
       <c r="F18" s="2">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="G18" s="4">
-        <v>0.059454191033</v>
+        <v>0.058597502401</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -819,13 +819,13 @@
         <v>16.714285714285</v>
       </c>
       <c r="E19" s="2">
-        <v>10929</v>
+        <v>11096</v>
       </c>
       <c r="F19" s="2">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="G19" s="4">
-        <v>0.057692307692</v>
+        <v>0.056878949927</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -842,13 +842,13 @@
         <v>17.428571428571</v>
       </c>
       <c r="E20" s="2">
-        <v>11076</v>
+        <v>11243</v>
       </c>
       <c r="F20" s="2">
         <v>147</v>
       </c>
       <c r="G20" s="4">
-        <v>0.05922330097</v>
+        <v>0.058429118773</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -865,13 +865,13 @@
         <v>15.142857142857</v>
       </c>
       <c r="E21" s="2">
-        <v>11443</v>
+        <v>11611</v>
       </c>
       <c r="F21" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="G21" s="4">
-        <v>0.051207729468</v>
+        <v>0.050548402479</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -888,13 +888,13 @@
         <v>15.428571428571</v>
       </c>
       <c r="E22" s="2">
-        <v>11848</v>
+        <v>12019</v>
       </c>
       <c r="F22" s="2">
-        <v>405</v>
+        <v>408</v>
       </c>
       <c r="G22" s="4">
-        <v>0.050139275766</v>
+        <v>0.049861495844</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -911,13 +911,13 @@
         <v>13.428571428571</v>
       </c>
       <c r="E23" s="2">
-        <v>12368</v>
+        <v>12540</v>
       </c>
       <c r="F23" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="G23" s="4">
-        <v>0.040464916056</v>
+        <v>0.040256959314</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -934,13 +934,13 @@
         <v>12.714285714285</v>
       </c>
       <c r="E24" s="2">
-        <v>12925</v>
+        <v>13097</v>
       </c>
       <c r="F24" s="2">
         <v>557</v>
       </c>
       <c r="G24" s="4">
-        <v>0.035642771325</v>
+        <v>0.035500598324</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -957,13 +957,13 @@
         <v>14</v>
       </c>
       <c r="E25" s="2">
-        <v>13490</v>
+        <v>13664</v>
       </c>
       <c r="F25" s="2">
-        <v>565</v>
+        <v>567</v>
       </c>
       <c r="G25" s="4">
-        <v>0.036082474226</v>
+        <v>0.035963302752</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -980,13 +980,13 @@
         <v>13.714285714285</v>
       </c>
       <c r="E26" s="2">
-        <v>13721</v>
+        <v>13895</v>
       </c>
       <c r="F26" s="2">
         <v>231</v>
       </c>
       <c r="G26" s="4">
-        <v>0.034383954154</v>
+        <v>0.034297963558</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -1003,13 +1003,13 @@
         <v>14.285714285714</v>
       </c>
       <c r="E27" s="2">
-        <v>13951</v>
+        <v>14127</v>
       </c>
       <c r="F27" s="2">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="G27" s="4">
-        <v>0.034782608695</v>
+        <v>0.0346740638</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -1026,13 +1026,13 @@
         <v>15.428571428571</v>
       </c>
       <c r="E28" s="2">
-        <v>14552</v>
+        <v>14735</v>
       </c>
       <c r="F28" s="2">
-        <v>601</v>
+        <v>608</v>
       </c>
       <c r="G28" s="4">
-        <v>0.034737857832</v>
+        <v>0.03457106274</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -1049,13 +1049,13 @@
         <v>15.285714285714</v>
       </c>
       <c r="E29" s="2">
-        <v>15091</v>
+        <v>15280</v>
       </c>
       <c r="F29" s="2">
-        <v>539</v>
+        <v>545</v>
       </c>
       <c r="G29" s="4">
-        <v>0.032994141227</v>
+        <v>0.032812020852</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -1072,13 +1072,13 @@
         <v>15.857142857142</v>
       </c>
       <c r="E30" s="2">
-        <v>15788</v>
+        <v>15978</v>
       </c>
       <c r="F30" s="2">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="G30" s="4">
-        <v>0.03245614035</v>
+        <v>0.032286212914</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -1095,13 +1095,13 @@
         <v>16.857142857142</v>
       </c>
       <c r="E31" s="2">
-        <v>16634</v>
+        <v>16825</v>
       </c>
       <c r="F31" s="2">
-        <v>846</v>
+        <v>847</v>
       </c>
       <c r="G31" s="4">
-        <v>0.031814505257</v>
+        <v>0.031652360515</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -1118,13 +1118,13 @@
         <v>15.285714285714</v>
       </c>
       <c r="E32" s="2">
-        <v>17365</v>
+        <v>17558</v>
       </c>
       <c r="F32" s="2">
-        <v>731</v>
+        <v>733</v>
       </c>
       <c r="G32" s="4">
-        <v>0.027612903225</v>
+        <v>0.027478171545</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -1141,13 +1141,13 @@
         <v>15.857142857142</v>
       </c>
       <c r="E33" s="2">
-        <v>17653</v>
+        <v>17848</v>
       </c>
       <c r="F33" s="2">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="G33" s="4">
-        <v>0.028229908443</v>
+        <v>0.028079939286</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -1164,13 +1164,13 @@
         <v>14.857142857142</v>
       </c>
       <c r="E34" s="2">
-        <v>17917</v>
+        <v>18112</v>
       </c>
       <c r="F34" s="2">
         <v>264</v>
       </c>
       <c r="G34" s="4">
-        <v>0.026222894604</v>
+        <v>0.026097867001</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -1187,13 +1187,13 @@
         <v>15.285714285714</v>
       </c>
       <c r="E35" s="2">
-        <v>18695</v>
+        <v>18893</v>
       </c>
       <c r="F35" s="2">
-        <v>778</v>
+        <v>781</v>
       </c>
       <c r="G35" s="4">
-        <v>0.025826695631</v>
+        <v>0.025733525733</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -1210,13 +1210,13 @@
         <v>15.428571428571</v>
       </c>
       <c r="E36" s="2">
-        <v>19374</v>
+        <v>19575</v>
       </c>
       <c r="F36" s="2">
-        <v>679</v>
+        <v>682</v>
       </c>
       <c r="G36" s="4">
-        <v>0.025215970114</v>
+        <v>0.025145518044</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -1233,13 +1233,13 @@
         <v>16.428571428571</v>
       </c>
       <c r="E37" s="2">
-        <v>20339</v>
+        <v>20546</v>
       </c>
       <c r="F37" s="2">
-        <v>965</v>
+        <v>971</v>
       </c>
       <c r="G37" s="4">
-        <v>0.02526917161</v>
+        <v>0.025175131348</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -1256,13 +1256,13 @@
         <v>14.428571428571</v>
       </c>
       <c r="E38" s="2">
-        <v>21236</v>
+        <v>21443</v>
       </c>
       <c r="F38" s="2">
         <v>897</v>
       </c>
       <c r="G38" s="4">
-        <v>0.021946979574</v>
+        <v>0.0218709398</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -1279,13 +1279,13 @@
         <v>15.285714285714</v>
       </c>
       <c r="E39" s="2">
-        <v>22376</v>
+        <v>22583</v>
       </c>
       <c r="F39" s="2">
         <v>1140</v>
       </c>
       <c r="G39" s="4">
-        <v>0.021353023348</v>
+        <v>0.021293532338</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -1302,13 +1302,13 @@
         <v>14.714285714285</v>
       </c>
       <c r="E40" s="2">
-        <v>22758</v>
+        <v>22967</v>
       </c>
       <c r="F40" s="2">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="G40" s="4">
-        <v>0.020176297747</v>
+        <v>0.020121117405</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -1325,13 +1325,13 @@
         <v>15.142857142857</v>
       </c>
       <c r="E41" s="2">
-        <v>23101</v>
+        <v>23309</v>
       </c>
       <c r="F41" s="2">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="G41" s="4">
-        <v>0.020447530864</v>
+        <v>0.020396382528</v>
       </c>
     </row>
     <row r="42" spans="1:7">
@@ -1348,13 +1348,13 @@
         <v>13</v>
       </c>
       <c r="E42" s="2">
-        <v>24205</v>
+        <v>24414</v>
       </c>
       <c r="F42" s="2">
-        <v>1104</v>
+        <v>1105</v>
       </c>
       <c r="G42" s="4">
-        <v>0.016515426497</v>
+        <v>0.016482521282</v>
       </c>
     </row>
     <row r="43" spans="1:7">
@@ -1371,13 +1371,13 @@
         <v>12.285714285714</v>
       </c>
       <c r="E43" s="2">
-        <v>25436</v>
+        <v>25646</v>
       </c>
       <c r="F43" s="2">
-        <v>1231</v>
+        <v>1232</v>
       </c>
       <c r="G43" s="4">
-        <v>0.01418673705</v>
+        <v>0.014165705814</v>
       </c>
     </row>
     <row r="44" spans="1:7">
@@ -1394,13 +1394,13 @@
         <v>12.857142857142</v>
       </c>
       <c r="E44" s="2">
-        <v>26528</v>
+        <v>26737</v>
       </c>
       <c r="F44" s="2">
-        <v>1092</v>
+        <v>1091</v>
       </c>
       <c r="G44" s="4">
-        <v>0.014541929229</v>
+        <v>0.014537231465</v>
       </c>
     </row>
     <row r="45" spans="1:7">
@@ -1417,13 +1417,13 @@
         <v>14</v>
       </c>
       <c r="E45" s="2">
-        <v>27388</v>
+        <v>27599</v>
       </c>
       <c r="F45" s="2">
-        <v>860</v>
+        <v>862</v>
       </c>
       <c r="G45" s="4">
-        <v>0.015929778933</v>
+        <v>0.0159194282</v>
       </c>
     </row>
     <row r="46" spans="1:7">
@@ -1440,13 +1440,13 @@
         <v>15.714285714285</v>
       </c>
       <c r="E46" s="2">
-        <v>28307</v>
+        <v>28518</v>
       </c>
       <c r="F46" s="2">
         <v>919</v>
       </c>
       <c r="G46" s="4">
-        <v>0.018546619457</v>
+        <v>0.018534119629</v>
       </c>
     </row>
     <row r="47" spans="1:7">
@@ -1463,13 +1463,13 @@
         <v>17.571428571428</v>
       </c>
       <c r="E47" s="2">
-        <v>28717</v>
+        <v>28929</v>
       </c>
       <c r="F47" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="G47" s="4">
-        <v>0.020641047155</v>
+        <v>0.020630660852</v>
       </c>
     </row>
     <row r="48" spans="1:7">
@@ -1486,13 +1486,13 @@
         <v>18</v>
       </c>
       <c r="E48" s="2">
-        <v>29100</v>
+        <v>29312</v>
       </c>
       <c r="F48" s="2">
         <v>383</v>
       </c>
       <c r="G48" s="4">
-        <v>0.021003500583</v>
+        <v>0.020989505247</v>
       </c>
     </row>
     <row r="49" spans="1:7">
@@ -1509,13 +1509,13 @@
         <v>22.428571428571</v>
       </c>
       <c r="E49" s="2">
-        <v>30465</v>
+        <v>30677</v>
       </c>
       <c r="F49" s="2">
         <v>1365</v>
       </c>
       <c r="G49" s="4">
-        <v>0.025079872204</v>
+        <v>0.025067858853</v>
       </c>
     </row>
     <row r="50" spans="1:7">
@@ -1532,13 +1532,13 @@
         <v>25.714285714285</v>
       </c>
       <c r="E50" s="2">
-        <v>32122</v>
+        <v>32334</v>
       </c>
       <c r="F50" s="2">
         <v>1657</v>
       </c>
       <c r="G50" s="4">
-        <v>0.026921926413</v>
+        <v>0.026913875598</v>
       </c>
     </row>
     <row r="51" spans="1:7">
@@ -1555,13 +1555,13 @@
         <v>26.142857142857</v>
       </c>
       <c r="E51" s="2">
-        <v>33263</v>
+        <v>33476</v>
       </c>
       <c r="F51" s="2">
-        <v>1141</v>
+        <v>1142</v>
       </c>
       <c r="G51" s="4">
-        <v>0.027171492204</v>
+        <v>0.027155364297</v>
       </c>
     </row>
     <row r="52" spans="1:7">
@@ -1578,13 +1578,13 @@
         <v>27.428571428571</v>
       </c>
       <c r="E52" s="2">
-        <v>34394</v>
+        <v>34607</v>
       </c>
       <c r="F52" s="2">
         <v>1131</v>
       </c>
       <c r="G52" s="4">
-        <v>0.027405081358</v>
+        <v>0.027397260273</v>
       </c>
     </row>
     <row r="53" spans="1:7">
@@ -1592,22 +1592,22 @@
         <v>43973</v>
       </c>
       <c r="B53" s="2">
-        <v>1386</v>
+        <v>1387</v>
       </c>
       <c r="C53" s="2">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D53" s="3">
-        <v>29.142857142857</v>
+        <v>29.285714285714</v>
       </c>
       <c r="E53" s="2">
-        <v>35483</v>
+        <v>35700</v>
       </c>
       <c r="F53" s="2">
-        <v>1089</v>
+        <v>1093</v>
       </c>
       <c r="G53" s="4">
-        <v>0.028428093645</v>
+        <v>0.028543581175</v>
       </c>
     </row>
     <row r="54" spans="1:7">
@@ -1615,22 +1615,22 @@
         <v>43974</v>
       </c>
       <c r="B54" s="2">
-        <v>1397</v>
+        <v>1398</v>
       </c>
       <c r="C54" s="2">
         <v>11</v>
       </c>
       <c r="D54" s="3">
-        <v>28</v>
+        <v>28.142857142857</v>
       </c>
       <c r="E54" s="2">
-        <v>36002</v>
+        <v>36221</v>
       </c>
       <c r="F54" s="2">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="G54" s="4">
-        <v>0.02690459849</v>
+        <v>0.027015907844</v>
       </c>
     </row>
     <row r="55" spans="1:7">
@@ -1638,22 +1638,22 @@
         <v>43975</v>
       </c>
       <c r="B55" s="2">
-        <v>1404</v>
+        <v>1405</v>
       </c>
       <c r="C55" s="2">
         <v>7</v>
       </c>
       <c r="D55" s="3">
-        <v>27.571428571428</v>
+        <v>27.714285714285</v>
       </c>
       <c r="E55" s="2">
-        <v>36391</v>
+        <v>36608</v>
       </c>
       <c r="F55" s="2">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="G55" s="4">
-        <v>0.026470991633</v>
+        <v>0.02658991228</v>
       </c>
     </row>
     <row r="56" spans="1:7">
@@ -1661,22 +1661,22 @@
         <v>43976</v>
       </c>
       <c r="B56" s="2">
-        <v>1413</v>
+        <v>1414</v>
       </c>
       <c r="C56" s="2">
         <v>9</v>
       </c>
       <c r="D56" s="3">
-        <v>23.285714285714</v>
+        <v>23.428571428571</v>
       </c>
       <c r="E56" s="2">
-        <v>36851</v>
+        <v>37067</v>
       </c>
       <c r="F56" s="2">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="G56" s="4">
-        <v>0.025524585029</v>
+        <v>0.025665101721</v>
       </c>
     </row>
     <row r="57" spans="1:7">
@@ -1684,22 +1684,22 @@
         <v>43977</v>
       </c>
       <c r="B57" s="2">
-        <v>1451</v>
+        <v>1452</v>
       </c>
       <c r="C57" s="2">
         <v>38</v>
       </c>
       <c r="D57" s="3">
-        <v>23.714285714285</v>
+        <v>23.857142857142</v>
       </c>
       <c r="E57" s="2">
-        <v>38048</v>
+        <v>38273</v>
       </c>
       <c r="F57" s="2">
-        <v>1197</v>
+        <v>1206</v>
       </c>
       <c r="G57" s="4">
-        <v>0.028012149848</v>
+        <v>0.028119211988</v>
       </c>
     </row>
     <row r="58" spans="1:7">
@@ -1707,22 +1707,22 @@
         <v>43978</v>
       </c>
       <c r="B58" s="2">
-        <v>1483</v>
+        <v>1484</v>
       </c>
       <c r="C58" s="2">
         <v>32</v>
       </c>
       <c r="D58" s="3">
-        <v>23.714285714285</v>
+        <v>23.857142857142</v>
       </c>
       <c r="E58" s="2">
-        <v>39151</v>
+        <v>39375</v>
       </c>
       <c r="F58" s="2">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="G58" s="4">
-        <v>0.028192934782</v>
+        <v>0.028309883031</v>
       </c>
     </row>
     <row r="59" spans="1:7">
@@ -1730,22 +1730,22 @@
         <v>43979</v>
       </c>
       <c r="B59" s="2">
-        <v>1530</v>
+        <v>1531</v>
       </c>
       <c r="C59" s="2">
         <v>47</v>
       </c>
       <c r="D59" s="3">
-        <v>26.285714285714</v>
+        <v>26.428571428571</v>
       </c>
       <c r="E59" s="2">
-        <v>40287</v>
+        <v>40513</v>
       </c>
       <c r="F59" s="2">
-        <v>1136</v>
+        <v>1138</v>
       </c>
       <c r="G59" s="4">
-        <v>0.031223485491</v>
+        <v>0.031324077209</v>
       </c>
     </row>
     <row r="60" spans="1:7">
@@ -1753,7 +1753,7 @@
         <v>43980</v>
       </c>
       <c r="B60" s="2">
-        <v>1570</v>
+        <v>1571</v>
       </c>
       <c r="C60" s="2">
         <v>40</v>
@@ -1762,13 +1762,13 @@
         <v>26.285714285714</v>
       </c>
       <c r="E60" s="2">
-        <v>41688</v>
+        <v>41917</v>
       </c>
       <c r="F60" s="2">
-        <v>1401</v>
+        <v>1404</v>
       </c>
       <c r="G60" s="4">
-        <v>0.029653505237</v>
+        <v>0.029596268296</v>
       </c>
     </row>
     <row r="61" spans="1:7">
@@ -1776,7 +1776,7 @@
         <v>43981</v>
       </c>
       <c r="B61" s="2">
-        <v>1579</v>
+        <v>1580</v>
       </c>
       <c r="C61" s="2">
         <v>9</v>
@@ -1785,13 +1785,13 @@
         <v>26</v>
       </c>
       <c r="E61" s="2">
-        <v>42422</v>
+        <v>42653</v>
       </c>
       <c r="F61" s="2">
-        <v>734</v>
+        <v>736</v>
       </c>
       <c r="G61" s="4">
-        <v>0.028348909657</v>
+        <v>0.0282960199</v>
       </c>
     </row>
     <row r="62" spans="1:7">
@@ -1802,19 +1802,19 @@
         <v>1584</v>
       </c>
       <c r="C62" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D62" s="3">
-        <v>25.714285714285</v>
+        <v>25.571428571428</v>
       </c>
       <c r="E62" s="2">
-        <v>42818</v>
+        <v>43049</v>
       </c>
       <c r="F62" s="2">
         <v>396</v>
       </c>
       <c r="G62" s="4">
-        <v>0.028006846117</v>
+        <v>0.027790715727</v>
       </c>
     </row>
     <row r="63" spans="1:7">
@@ -1828,16 +1828,16 @@
         <v>32</v>
       </c>
       <c r="D63" s="3">
-        <v>29</v>
+        <v>28.857142857142</v>
       </c>
       <c r="E63" s="2">
-        <v>44192</v>
+        <v>44422</v>
       </c>
       <c r="F63" s="2">
-        <v>1374</v>
+        <v>1373</v>
       </c>
       <c r="G63" s="4">
-        <v>0.027652908323</v>
+        <v>0.027464309993</v>
       </c>
     </row>
     <row r="64" spans="1:7">
@@ -1851,16 +1851,16 @@
         <v>31</v>
       </c>
       <c r="D64" s="3">
-        <v>28</v>
+        <v>27.857142857142</v>
       </c>
       <c r="E64" s="2">
-        <v>45409</v>
+        <v>45639</v>
       </c>
       <c r="F64" s="2">
         <v>1217</v>
       </c>
       <c r="G64" s="4">
-        <v>0.026626817008</v>
+        <v>0.02647298398</v>
       </c>
     </row>
     <row r="65" spans="1:7">
@@ -1874,16 +1874,16 @@
         <v>29</v>
       </c>
       <c r="D65" s="3">
-        <v>27.571428571428</v>
+        <v>27.428571428571</v>
       </c>
       <c r="E65" s="2">
-        <v>46571</v>
+        <v>46801</v>
       </c>
       <c r="F65" s="2">
         <v>1162</v>
       </c>
       <c r="G65" s="4">
-        <v>0.026010781671</v>
+        <v>0.025855103689</v>
       </c>
     </row>
     <row r="66" spans="1:7">
@@ -1897,16 +1897,16 @@
         <v>52</v>
       </c>
       <c r="D66" s="3">
-        <v>28.285714285714</v>
+        <v>28.142857142857</v>
       </c>
       <c r="E66" s="2">
-        <v>47921</v>
+        <v>48151</v>
       </c>
       <c r="F66" s="2">
         <v>1350</v>
       </c>
       <c r="G66" s="4">
-        <v>0.025936599423</v>
+        <v>0.02579209217</v>
       </c>
     </row>
     <row r="67" spans="1:7">
@@ -1914,22 +1914,22 @@
         <v>43987</v>
       </c>
       <c r="B67" s="2">
-        <v>1775</v>
+        <v>1776</v>
       </c>
       <c r="C67" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D67" s="3">
         <v>29.285714285714</v>
       </c>
       <c r="E67" s="2">
-        <v>49551</v>
+        <v>49783</v>
       </c>
       <c r="F67" s="2">
-        <v>1630</v>
+        <v>1632</v>
       </c>
       <c r="G67" s="4">
-        <v>0.026071473992</v>
+        <v>0.026061530638</v>
       </c>
     </row>
     <row r="68" spans="1:7">
@@ -1937,7 +1937,7 @@
         <v>43988</v>
       </c>
       <c r="B68" s="2">
-        <v>1793</v>
+        <v>1794</v>
       </c>
       <c r="C68" s="2">
         <v>18</v>
@@ -1946,13 +1946,13 @@
         <v>30.571428571428</v>
       </c>
       <c r="E68" s="2">
-        <v>50156</v>
+        <v>50388</v>
       </c>
       <c r="F68" s="2">
         <v>605</v>
       </c>
       <c r="G68" s="4">
-        <v>0.027670028445</v>
+        <v>0.027666451195</v>
       </c>
     </row>
     <row r="69" spans="1:7">
@@ -1960,22 +1960,22 @@
         <v>43989</v>
       </c>
       <c r="B69" s="2">
-        <v>1811</v>
+        <v>1812</v>
       </c>
       <c r="C69" s="2">
         <v>18</v>
       </c>
       <c r="D69" s="3">
-        <v>32.428571428571</v>
+        <v>32.571428571428</v>
       </c>
       <c r="E69" s="2">
-        <v>50640</v>
+        <v>50873</v>
       </c>
       <c r="F69" s="2">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="G69" s="4">
-        <v>0.029020710815</v>
+        <v>0.029141104294</v>
       </c>
     </row>
     <row r="70" spans="1:7">
@@ -1983,22 +1983,22 @@
         <v>43990</v>
       </c>
       <c r="B70" s="2">
-        <v>1859</v>
+        <v>1860</v>
       </c>
       <c r="C70" s="2">
         <v>48</v>
       </c>
       <c r="D70" s="3">
-        <v>34.714285714285</v>
+        <v>34.857142857142</v>
       </c>
       <c r="E70" s="2">
-        <v>52474</v>
+        <v>52708</v>
       </c>
       <c r="F70" s="2">
-        <v>1834</v>
+        <v>1835</v>
       </c>
       <c r="G70" s="4">
-        <v>0.029340738951</v>
+        <v>0.029447260439</v>
       </c>
     </row>
     <row r="71" spans="1:7">
@@ -2006,22 +2006,22 @@
         <v>43991</v>
       </c>
       <c r="B71" s="2">
-        <v>1902</v>
+        <v>1903</v>
       </c>
       <c r="C71" s="2">
         <v>43</v>
       </c>
       <c r="D71" s="3">
-        <v>36.428571428571</v>
+        <v>36.571428571428</v>
       </c>
       <c r="E71" s="2">
-        <v>54320</v>
+        <v>54554</v>
       </c>
       <c r="F71" s="2">
         <v>1846</v>
       </c>
       <c r="G71" s="4">
-        <v>0.028616316911</v>
+        <v>0.028715647784</v>
       </c>
     </row>
     <row r="72" spans="1:7">
@@ -2029,22 +2029,22 @@
         <v>43992</v>
       </c>
       <c r="B72" s="2">
-        <v>1957</v>
+        <v>1958</v>
       </c>
       <c r="C72" s="2">
         <v>55</v>
       </c>
       <c r="D72" s="3">
-        <v>40.142857142857</v>
+        <v>40.285714285714</v>
       </c>
       <c r="E72" s="2">
-        <v>56312</v>
+        <v>56546</v>
       </c>
       <c r="F72" s="2">
         <v>1992</v>
       </c>
       <c r="G72" s="4">
-        <v>0.02884714095</v>
+        <v>0.02893791688</v>
       </c>
     </row>
     <row r="73" spans="1:7">
@@ -2052,22 +2052,22 @@
         <v>43993</v>
       </c>
       <c r="B73" s="2">
-        <v>2011</v>
+        <v>2012</v>
       </c>
       <c r="C73" s="2">
         <v>54</v>
       </c>
       <c r="D73" s="3">
-        <v>40.428571428571</v>
+        <v>40.571428571428</v>
       </c>
       <c r="E73" s="2">
-        <v>58466</v>
+        <v>58700</v>
       </c>
       <c r="F73" s="2">
         <v>2154</v>
       </c>
       <c r="G73" s="4">
-        <v>0.026837363679</v>
+        <v>0.026921983126</v>
       </c>
     </row>
     <row r="74" spans="1:7">
@@ -2075,7 +2075,7 @@
         <v>43994</v>
       </c>
       <c r="B74" s="2">
-        <v>2069</v>
+        <v>2070</v>
       </c>
       <c r="C74" s="2">
         <v>58</v>
@@ -2084,13 +2084,13 @@
         <v>42</v>
       </c>
       <c r="E74" s="2">
-        <v>60727</v>
+        <v>60962</v>
       </c>
       <c r="F74" s="2">
-        <v>2261</v>
+        <v>2262</v>
       </c>
       <c r="G74" s="4">
-        <v>0.026306370794</v>
+        <v>0.026299311208</v>
       </c>
     </row>
     <row r="75" spans="1:7">
@@ -2098,7 +2098,7 @@
         <v>43995</v>
       </c>
       <c r="B75" s="2">
-        <v>2103</v>
+        <v>2104</v>
       </c>
       <c r="C75" s="2">
         <v>34</v>
@@ -2107,13 +2107,13 @@
         <v>44.285714285714</v>
       </c>
       <c r="E75" s="2">
-        <v>61571</v>
+        <v>61806</v>
       </c>
       <c r="F75" s="2">
         <v>844</v>
       </c>
       <c r="G75" s="4">
-        <v>0.027157249233</v>
+        <v>0.027150113855</v>
       </c>
     </row>
     <row r="76" spans="1:7">
@@ -2121,7 +2121,7 @@
         <v>43996</v>
       </c>
       <c r="B76" s="2">
-        <v>2130</v>
+        <v>2131</v>
       </c>
       <c r="C76" s="2">
         <v>27</v>
@@ -2130,13 +2130,13 @@
         <v>45.571428571428</v>
       </c>
       <c r="E76" s="2">
-        <v>62158</v>
+        <v>62393</v>
       </c>
       <c r="F76" s="2">
         <v>587</v>
       </c>
       <c r="G76" s="4">
-        <v>0.027695780517</v>
+        <v>0.027690972222</v>
       </c>
     </row>
     <row 